--- a/TN_Age.xlsx
+++ b/TN_Age.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="25">
   <si>
     <t>0-10</t>
   </si>
@@ -435,11 +435,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H271"/>
+  <dimension ref="A1:H281"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A248" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A271" sqref="A271"/>
+      <selection pane="bottomLeft" activeCell="A281" sqref="A281"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5514,7 +5514,7 @@
         <v>51</v>
       </c>
       <c r="D222" s="2">
-        <f t="shared" ref="D222:D271" si="51">C222/SUMIF(A:A,A222,C:C)</f>
+        <f t="shared" ref="D222:D281" si="51">C222/SUMIF(A:A,A222,C:C)</f>
         <v>1.1005610703495899E-2</v>
       </c>
       <c r="E222" s="3">
@@ -5789,7 +5789,7 @@
         <v>1</v>
       </c>
       <c r="H232" s="3">
-        <f t="shared" ref="H232:H271" si="54">G232-SUMIFS(G:G,A:A,A232-1,B:B,B232)</f>
+        <f t="shared" ref="H232:H281" si="54">G232-SUMIFS(G:G,A:A,A232-1,B:B,B232)</f>
         <v>0</v>
       </c>
     </row>
@@ -6678,11 +6678,11 @@
         <v>1.1229946524064172E-2</v>
       </c>
       <c r="E262" s="3">
-        <f t="shared" ref="E262:E271" si="57">C262-SUMIFS(C:C,A:A,A262-1,B:B,B262)</f>
+        <f t="shared" ref="E262:E281" si="57">C262-SUMIFS(C:C,A:A,A262-1,B:B,B262)</f>
         <v>2</v>
       </c>
       <c r="F262" s="2">
-        <f t="shared" ref="F262:F271" si="58">E262/SUMIF(A:A,A262,E:E)</f>
+        <f t="shared" ref="F262:F281" si="58">E262/SUMIF(A:A,A262,E:E)</f>
         <v>6.6225165562913907E-3</v>
       </c>
       <c r="G262" s="3">
@@ -6959,6 +6959,306 @@
         <v>0</v>
       </c>
       <c r="H271" s="3">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A272" s="1">
+        <v>43935</v>
+      </c>
+      <c r="B272" t="s">
+        <v>0</v>
+      </c>
+      <c r="C272" s="3">
+        <v>68</v>
+      </c>
+      <c r="D272" s="2">
+        <f t="shared" si="51"/>
+        <v>1.1677829297612914E-2</v>
+      </c>
+      <c r="E272" s="3">
+        <f t="shared" si="57"/>
+        <v>5</v>
+      </c>
+      <c r="F272" s="2">
+        <f t="shared" si="58"/>
+        <v>2.3474178403755867E-2</v>
+      </c>
+      <c r="G272" s="3">
+        <v>1</v>
+      </c>
+      <c r="H272" s="3">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A273" s="1">
+        <v>43935</v>
+      </c>
+      <c r="B273" t="s">
+        <v>1</v>
+      </c>
+      <c r="C273" s="3">
+        <v>270</v>
+      </c>
+      <c r="D273" s="2">
+        <f t="shared" si="51"/>
+        <v>4.6367851622874809E-2</v>
+      </c>
+      <c r="E273" s="3">
+        <f t="shared" si="57"/>
+        <v>12</v>
+      </c>
+      <c r="F273" s="2">
+        <f t="shared" si="58"/>
+        <v>5.6338028169014086E-2</v>
+      </c>
+      <c r="G273" s="3">
+        <v>0</v>
+      </c>
+      <c r="H273" s="3">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A274" s="1">
+        <v>43935</v>
+      </c>
+      <c r="B274" t="s">
+        <v>2</v>
+      </c>
+      <c r="C274" s="3">
+        <v>1189</v>
+      </c>
+      <c r="D274" s="2">
+        <f t="shared" si="51"/>
+        <v>0.20419027992443758</v>
+      </c>
+      <c r="E274" s="3">
+        <f t="shared" si="57"/>
+        <v>34</v>
+      </c>
+      <c r="F274" s="2">
+        <f t="shared" si="58"/>
+        <v>0.15962441314553991</v>
+      </c>
+      <c r="G274" s="3">
+        <v>1</v>
+      </c>
+      <c r="H274" s="3">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A275" s="1">
+        <v>43935</v>
+      </c>
+      <c r="B275" t="s">
+        <v>3</v>
+      </c>
+      <c r="C275" s="3">
+        <v>954</v>
+      </c>
+      <c r="D275" s="2">
+        <f t="shared" si="51"/>
+        <v>0.16383307573415765</v>
+      </c>
+      <c r="E275" s="3">
+        <f t="shared" si="57"/>
+        <v>36</v>
+      </c>
+      <c r="F275" s="2">
+        <f t="shared" si="58"/>
+        <v>0.16901408450704225</v>
+      </c>
+      <c r="G275" s="3">
+        <v>1</v>
+      </c>
+      <c r="H275" s="3">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A276" s="1">
+        <v>43935</v>
+      </c>
+      <c r="B276" t="s">
+        <v>4</v>
+      </c>
+      <c r="C276" s="3">
+        <v>965</v>
+      </c>
+      <c r="D276" s="2">
+        <f t="shared" si="51"/>
+        <v>0.16572213635583033</v>
+      </c>
+      <c r="E276" s="3">
+        <f t="shared" si="57"/>
+        <v>40</v>
+      </c>
+      <c r="F276" s="2">
+        <f t="shared" si="58"/>
+        <v>0.18779342723004694</v>
+      </c>
+      <c r="G276" s="3">
+        <v>7</v>
+      </c>
+      <c r="H276" s="3">
+        <f t="shared" si="54"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A277" s="1">
+        <v>43935</v>
+      </c>
+      <c r="B277" t="s">
+        <v>5</v>
+      </c>
+      <c r="C277" s="3">
+        <v>1074</v>
+      </c>
+      <c r="D277" s="2">
+        <f t="shared" si="51"/>
+        <v>0.18444100978876868</v>
+      </c>
+      <c r="E277" s="3">
+        <f t="shared" si="57"/>
+        <v>27</v>
+      </c>
+      <c r="F277" s="2">
+        <f t="shared" si="58"/>
+        <v>0.12676056338028169</v>
+      </c>
+      <c r="G277" s="3">
+        <v>11</v>
+      </c>
+      <c r="H277" s="3">
+        <f t="shared" si="54"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="278" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A278" s="1">
+        <v>43935</v>
+      </c>
+      <c r="B278" t="s">
+        <v>6</v>
+      </c>
+      <c r="C278" s="3">
+        <v>731</v>
+      </c>
+      <c r="D278" s="2">
+        <f t="shared" si="51"/>
+        <v>0.12553666494933882</v>
+      </c>
+      <c r="E278" s="3">
+        <f t="shared" si="57"/>
+        <v>32</v>
+      </c>
+      <c r="F278" s="2">
+        <f t="shared" si="58"/>
+        <v>0.15023474178403756</v>
+      </c>
+      <c r="G278" s="3">
+        <v>29</v>
+      </c>
+      <c r="H278" s="3">
+        <f t="shared" si="54"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A279" s="1">
+        <v>43935</v>
+      </c>
+      <c r="B279" t="s">
+        <v>7</v>
+      </c>
+      <c r="C279" s="3">
+        <v>353</v>
+      </c>
+      <c r="D279" s="2">
+        <f t="shared" si="51"/>
+        <v>6.0621672677314102E-2</v>
+      </c>
+      <c r="E279" s="3">
+        <f t="shared" si="57"/>
+        <v>9</v>
+      </c>
+      <c r="F279" s="2">
+        <f t="shared" si="58"/>
+        <v>4.2253521126760563E-2</v>
+      </c>
+      <c r="G279" s="3">
+        <v>32</v>
+      </c>
+      <c r="H279" s="3">
+        <f t="shared" si="54"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="280" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A280" s="1">
+        <v>43935</v>
+      </c>
+      <c r="B280" t="s">
+        <v>8</v>
+      </c>
+      <c r="C280" s="3">
+        <v>199</v>
+      </c>
+      <c r="D280" s="2">
+        <f t="shared" si="51"/>
+        <v>3.4174823973896616E-2</v>
+      </c>
+      <c r="E280" s="3">
+        <f t="shared" si="57"/>
+        <v>9</v>
+      </c>
+      <c r="F280" s="2">
+        <f t="shared" si="58"/>
+        <v>4.2253521126760563E-2</v>
+      </c>
+      <c r="G280" s="3">
+        <v>42</v>
+      </c>
+      <c r="H280" s="3">
+        <f t="shared" si="54"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="281" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A281" s="1">
+        <v>43935</v>
+      </c>
+      <c r="B281" t="s">
+        <v>22</v>
+      </c>
+      <c r="C281" s="3">
+        <v>20</v>
+      </c>
+      <c r="D281" s="2">
+        <f t="shared" si="51"/>
+        <v>3.4346556757685041E-3</v>
+      </c>
+      <c r="E281" s="3">
+        <f t="shared" si="57"/>
+        <v>9</v>
+      </c>
+      <c r="F281" s="2">
+        <f t="shared" si="58"/>
+        <v>4.2253521126760563E-2</v>
+      </c>
+      <c r="G281" s="3">
+        <v>0</v>
+      </c>
+      <c r="H281" s="3">
         <f t="shared" si="54"/>
         <v>0</v>
       </c>

--- a/TN_Age.xlsx
+++ b/TN_Age.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="25">
   <si>
     <t>0-10</t>
   </si>
@@ -435,11 +435,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H281"/>
+  <dimension ref="A1:H291"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A248" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A281" sqref="A281"/>
+      <pane ySplit="1" topLeftCell="A260" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H287" sqref="H287:H290"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5514,7 +5514,7 @@
         <v>51</v>
       </c>
       <c r="D222" s="2">
-        <f t="shared" ref="D222:D281" si="51">C222/SUMIF(A:A,A222,C:C)</f>
+        <f t="shared" ref="D222:D285" si="51">C222/SUMIF(A:A,A222,C:C)</f>
         <v>1.1005610703495899E-2</v>
       </c>
       <c r="E222" s="3">
@@ -5789,7 +5789,7 @@
         <v>1</v>
       </c>
       <c r="H232" s="3">
-        <f t="shared" ref="H232:H281" si="54">G232-SUMIFS(G:G,A:A,A232-1,B:B,B232)</f>
+        <f t="shared" ref="H232:H291" si="54">G232-SUMIFS(G:G,A:A,A232-1,B:B,B232)</f>
         <v>0</v>
       </c>
     </row>
@@ -6678,11 +6678,11 @@
         <v>1.1229946524064172E-2</v>
       </c>
       <c r="E262" s="3">
-        <f t="shared" ref="E262:E281" si="57">C262-SUMIFS(C:C,A:A,A262-1,B:B,B262)</f>
+        <f t="shared" ref="E262:E291" si="57">C262-SUMIFS(C:C,A:A,A262-1,B:B,B262)</f>
         <v>2</v>
       </c>
       <c r="F262" s="2">
-        <f t="shared" ref="F262:F281" si="58">E262/SUMIF(A:A,A262,E:E)</f>
+        <f t="shared" ref="F262:F291" si="58">E262/SUMIF(A:A,A262,E:E)</f>
         <v>6.6225165562913907E-3</v>
       </c>
       <c r="G262" s="3">
@@ -7259,6 +7259,306 @@
         <v>0</v>
       </c>
       <c r="H281" s="3">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A282" s="1">
+        <v>43936</v>
+      </c>
+      <c r="B282" t="s">
+        <v>0</v>
+      </c>
+      <c r="C282" s="3">
+        <v>70</v>
+      </c>
+      <c r="D282" s="2">
+        <f t="shared" si="51"/>
+        <v>1.151505181773318E-2</v>
+      </c>
+      <c r="E282" s="3">
+        <f t="shared" si="57"/>
+        <v>2</v>
+      </c>
+      <c r="F282" s="2">
+        <f t="shared" si="58"/>
+        <v>7.8125E-3</v>
+      </c>
+      <c r="G282" s="3">
+        <v>1</v>
+      </c>
+      <c r="H282" s="3">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A283" s="1">
+        <v>43936</v>
+      </c>
+      <c r="B283" t="s">
+        <v>1</v>
+      </c>
+      <c r="C283" s="3">
+        <v>272</v>
+      </c>
+      <c r="D283" s="2">
+        <f t="shared" si="51"/>
+        <v>4.4744201348906068E-2</v>
+      </c>
+      <c r="E283" s="3">
+        <f t="shared" si="57"/>
+        <v>2</v>
+      </c>
+      <c r="F283" s="2">
+        <f t="shared" si="58"/>
+        <v>7.8125E-3</v>
+      </c>
+      <c r="G283" s="3">
+        <v>0</v>
+      </c>
+      <c r="H283" s="3">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A284" s="1">
+        <v>43936</v>
+      </c>
+      <c r="B284" t="s">
+        <v>2</v>
+      </c>
+      <c r="C284" s="3">
+        <v>1189</v>
+      </c>
+      <c r="D284" s="2">
+        <f t="shared" si="51"/>
+        <v>0.19559138016121072</v>
+      </c>
+      <c r="E284" s="3">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="F284" s="2">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="G284" s="3">
+        <v>1</v>
+      </c>
+      <c r="H284" s="3">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A285" s="1">
+        <v>43936</v>
+      </c>
+      <c r="B285" t="s">
+        <v>3</v>
+      </c>
+      <c r="C285" s="3">
+        <v>958</v>
+      </c>
+      <c r="D285" s="2">
+        <f t="shared" si="51"/>
+        <v>0.15759170916269125</v>
+      </c>
+      <c r="E285" s="3">
+        <f t="shared" si="57"/>
+        <v>4</v>
+      </c>
+      <c r="F285" s="2">
+        <f t="shared" si="58"/>
+        <v>1.5625E-2</v>
+      </c>
+      <c r="G285" s="3">
+        <v>1</v>
+      </c>
+      <c r="H285" s="3">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A286" s="1">
+        <v>43936</v>
+      </c>
+      <c r="B286" t="s">
+        <v>4</v>
+      </c>
+      <c r="C286" s="3">
+        <v>969</v>
+      </c>
+      <c r="D286" s="2">
+        <f t="shared" ref="D286:D291" si="59">C286/SUMIF(A:A,A286,C:C)</f>
+        <v>0.15940121730547788</v>
+      </c>
+      <c r="E286" s="3">
+        <f t="shared" si="57"/>
+        <v>4</v>
+      </c>
+      <c r="F286" s="2">
+        <f t="shared" si="58"/>
+        <v>1.5625E-2</v>
+      </c>
+      <c r="G286" s="3">
+        <v>7</v>
+      </c>
+      <c r="H286" s="3">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A287" s="1">
+        <v>43936</v>
+      </c>
+      <c r="B287" t="s">
+        <v>5</v>
+      </c>
+      <c r="C287" s="3">
+        <v>1076</v>
+      </c>
+      <c r="D287" s="2">
+        <f t="shared" si="59"/>
+        <v>0.1770027965125843</v>
+      </c>
+      <c r="E287" s="3">
+        <f t="shared" si="57"/>
+        <v>2</v>
+      </c>
+      <c r="F287" s="2">
+        <f t="shared" si="58"/>
+        <v>7.8125E-3</v>
+      </c>
+      <c r="G287" s="3">
+        <v>14</v>
+      </c>
+      <c r="H287" s="3">
+        <f t="shared" si="54"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="288" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A288" s="1">
+        <v>43936</v>
+      </c>
+      <c r="B288" t="s">
+        <v>6</v>
+      </c>
+      <c r="C288" s="3">
+        <v>731</v>
+      </c>
+      <c r="D288" s="2">
+        <f t="shared" si="59"/>
+        <v>0.12025004112518506</v>
+      </c>
+      <c r="E288" s="3">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="F288" s="2">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="G288" s="3">
+        <v>34</v>
+      </c>
+      <c r="H288" s="3">
+        <f t="shared" si="54"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="289" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A289" s="1">
+        <v>43936</v>
+      </c>
+      <c r="B289" t="s">
+        <v>7</v>
+      </c>
+      <c r="C289" s="3">
+        <v>353</v>
+      </c>
+      <c r="D289" s="2">
+        <f t="shared" si="59"/>
+        <v>5.8068761309425891E-2</v>
+      </c>
+      <c r="E289" s="3">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="F289" s="2">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="G289" s="3">
+        <v>33</v>
+      </c>
+      <c r="H289" s="3">
+        <f t="shared" si="54"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A290" s="1">
+        <v>43936</v>
+      </c>
+      <c r="B290" t="s">
+        <v>8</v>
+      </c>
+      <c r="C290" s="3">
+        <v>197</v>
+      </c>
+      <c r="D290" s="2">
+        <f t="shared" si="59"/>
+        <v>3.2406645829906232E-2</v>
+      </c>
+      <c r="E290" s="3">
+        <f t="shared" si="57"/>
+        <v>-2</v>
+      </c>
+      <c r="F290" s="2">
+        <f t="shared" si="58"/>
+        <v>-7.8125E-3</v>
+      </c>
+      <c r="G290" s="3">
+        <v>44</v>
+      </c>
+      <c r="H290" s="3">
+        <f t="shared" si="54"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="291" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A291" s="1">
+        <v>43936</v>
+      </c>
+      <c r="B291" t="s">
+        <v>22</v>
+      </c>
+      <c r="C291" s="3">
+        <v>264</v>
+      </c>
+      <c r="D291" s="2">
+        <f t="shared" si="59"/>
+        <v>4.3428195426879423E-2</v>
+      </c>
+      <c r="E291" s="3">
+        <f t="shared" si="57"/>
+        <v>244</v>
+      </c>
+      <c r="F291" s="2">
+        <f t="shared" si="58"/>
+        <v>0.953125</v>
+      </c>
+      <c r="G291" s="3">
+        <v>0</v>
+      </c>
+      <c r="H291" s="3">
         <f t="shared" si="54"/>
         <v>0</v>
       </c>

--- a/TN_Age.xlsx
+++ b/TN_Age.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="25">
   <si>
     <t>0-10</t>
   </si>
@@ -435,11 +435,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H291"/>
+  <dimension ref="A1:H301"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A260" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H287" sqref="H287:H290"/>
+      <pane ySplit="1" topLeftCell="A281" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A301" sqref="A301"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5789,7 +5789,7 @@
         <v>1</v>
       </c>
       <c r="H232" s="3">
-        <f t="shared" ref="H232:H291" si="54">G232-SUMIFS(G:G,A:A,A232-1,B:B,B232)</f>
+        <f t="shared" ref="H232:H295" si="54">G232-SUMIFS(G:G,A:A,A232-1,B:B,B232)</f>
         <v>0</v>
       </c>
     </row>
@@ -6678,11 +6678,11 @@
         <v>1.1229946524064172E-2</v>
       </c>
       <c r="E262" s="3">
-        <f t="shared" ref="E262:E291" si="57">C262-SUMIFS(C:C,A:A,A262-1,B:B,B262)</f>
+        <f t="shared" ref="E262:E301" si="57">C262-SUMIFS(C:C,A:A,A262-1,B:B,B262)</f>
         <v>2</v>
       </c>
       <c r="F262" s="2">
-        <f t="shared" ref="F262:F291" si="58">E262/SUMIF(A:A,A262,E:E)</f>
+        <f t="shared" ref="F262:F301" si="58">E262/SUMIF(A:A,A262,E:E)</f>
         <v>6.6225165562913907E-3</v>
       </c>
       <c r="G262" s="3">
@@ -7394,7 +7394,7 @@
         <v>969</v>
       </c>
       <c r="D286" s="2">
-        <f t="shared" ref="D286:D291" si="59">C286/SUMIF(A:A,A286,C:C)</f>
+        <f t="shared" ref="D286:D301" si="59">C286/SUMIF(A:A,A286,C:C)</f>
         <v>0.15940121730547788</v>
       </c>
       <c r="E286" s="3">
@@ -7560,6 +7560,306 @@
       </c>
       <c r="H291" s="3">
         <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A292" s="1">
+        <v>43937</v>
+      </c>
+      <c r="B292" t="s">
+        <v>0</v>
+      </c>
+      <c r="C292" s="3">
+        <v>73</v>
+      </c>
+      <c r="D292" s="2">
+        <f t="shared" si="59"/>
+        <v>1.165761737464069E-2</v>
+      </c>
+      <c r="E292" s="3">
+        <f t="shared" si="57"/>
+        <v>3</v>
+      </c>
+      <c r="F292" s="2">
+        <f t="shared" si="58"/>
+        <v>1.6393442622950821E-2</v>
+      </c>
+      <c r="G292" s="3">
+        <v>1</v>
+      </c>
+      <c r="H292" s="3">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A293" s="1">
+        <v>43937</v>
+      </c>
+      <c r="B293" t="s">
+        <v>1</v>
+      </c>
+      <c r="C293" s="3">
+        <v>302</v>
+      </c>
+      <c r="D293" s="2">
+        <f t="shared" si="59"/>
+        <v>4.8227403385499842E-2</v>
+      </c>
+      <c r="E293" s="3">
+        <f t="shared" si="57"/>
+        <v>30</v>
+      </c>
+      <c r="F293" s="2">
+        <f t="shared" si="58"/>
+        <v>0.16393442622950818</v>
+      </c>
+      <c r="G293" s="3">
+        <v>0</v>
+      </c>
+      <c r="H293" s="3">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A294" s="1">
+        <v>43937</v>
+      </c>
+      <c r="B294" t="s">
+        <v>2</v>
+      </c>
+      <c r="C294" s="3">
+        <v>1266</v>
+      </c>
+      <c r="D294" s="2">
+        <f t="shared" si="59"/>
+        <v>0.20217183008623443</v>
+      </c>
+      <c r="E294" s="3">
+        <f t="shared" si="57"/>
+        <v>77</v>
+      </c>
+      <c r="F294" s="2">
+        <f t="shared" si="58"/>
+        <v>0.42076502732240439</v>
+      </c>
+      <c r="G294" s="3">
+        <v>1</v>
+      </c>
+      <c r="H294" s="3">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A295" s="1">
+        <v>43937</v>
+      </c>
+      <c r="B295" t="s">
+        <v>3</v>
+      </c>
+      <c r="C295" s="3">
+        <v>1037</v>
+      </c>
+      <c r="D295" s="2">
+        <f t="shared" si="59"/>
+        <v>0.16560204407537529</v>
+      </c>
+      <c r="E295" s="3">
+        <f t="shared" si="57"/>
+        <v>79</v>
+      </c>
+      <c r="F295" s="2">
+        <f t="shared" si="58"/>
+        <v>0.43169398907103823</v>
+      </c>
+      <c r="G295" s="3">
+        <v>1</v>
+      </c>
+      <c r="H295" s="3">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A296" s="1">
+        <v>43937</v>
+      </c>
+      <c r="B296" t="s">
+        <v>4</v>
+      </c>
+      <c r="C296" s="3">
+        <v>1061</v>
+      </c>
+      <c r="D296" s="2">
+        <f t="shared" si="59"/>
+        <v>0.16943468540402426</v>
+      </c>
+      <c r="E296" s="3">
+        <f t="shared" si="57"/>
+        <v>92</v>
+      </c>
+      <c r="F296" s="2">
+        <f t="shared" si="58"/>
+        <v>0.50273224043715847</v>
+      </c>
+      <c r="G296" s="3">
+        <v>7</v>
+      </c>
+      <c r="H296" s="3">
+        <f t="shared" ref="H296:H301" si="60">G296-SUMIFS(G:G,A:A,A296-1,B:B,B296)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A297" s="1">
+        <v>43937</v>
+      </c>
+      <c r="B297" t="s">
+        <v>5</v>
+      </c>
+      <c r="C297" s="3">
+        <v>1152</v>
+      </c>
+      <c r="D297" s="2">
+        <f t="shared" si="59"/>
+        <v>0.18396678377515172</v>
+      </c>
+      <c r="E297" s="3">
+        <f t="shared" si="57"/>
+        <v>76</v>
+      </c>
+      <c r="F297" s="2">
+        <f t="shared" si="58"/>
+        <v>0.41530054644808745</v>
+      </c>
+      <c r="G297" s="3">
+        <v>14</v>
+      </c>
+      <c r="H297" s="3">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A298" s="1">
+        <v>43937</v>
+      </c>
+      <c r="B298" t="s">
+        <v>6</v>
+      </c>
+      <c r="C298" s="3">
+        <v>772</v>
+      </c>
+      <c r="D298" s="2">
+        <f t="shared" si="59"/>
+        <v>0.12328329607154263</v>
+      </c>
+      <c r="E298" s="3">
+        <f t="shared" si="57"/>
+        <v>41</v>
+      </c>
+      <c r="F298" s="2">
+        <f t="shared" si="58"/>
+        <v>0.22404371584699453</v>
+      </c>
+      <c r="G298" s="3">
+        <v>34</v>
+      </c>
+      <c r="H298" s="3">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A299" s="1">
+        <v>43937</v>
+      </c>
+      <c r="B299" t="s">
+        <v>7</v>
+      </c>
+      <c r="C299" s="3">
+        <v>371</v>
+      </c>
+      <c r="D299" s="2">
+        <f t="shared" si="59"/>
+        <v>5.9246247205365699E-2</v>
+      </c>
+      <c r="E299" s="3">
+        <f t="shared" si="57"/>
+        <v>18</v>
+      </c>
+      <c r="F299" s="2">
+        <f t="shared" si="58"/>
+        <v>9.8360655737704916E-2</v>
+      </c>
+      <c r="G299" s="3">
+        <v>34</v>
+      </c>
+      <c r="H299" s="3">
+        <f t="shared" si="60"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A300" s="1">
+        <v>43937</v>
+      </c>
+      <c r="B300" t="s">
+        <v>8</v>
+      </c>
+      <c r="C300" s="3">
+        <v>208</v>
+      </c>
+      <c r="D300" s="2">
+        <f t="shared" si="59"/>
+        <v>3.321622484829128E-2</v>
+      </c>
+      <c r="E300" s="3">
+        <f t="shared" si="57"/>
+        <v>11</v>
+      </c>
+      <c r="F300" s="2">
+        <f t="shared" si="58"/>
+        <v>6.0109289617486336E-2</v>
+      </c>
+      <c r="G300" s="3">
+        <v>49</v>
+      </c>
+      <c r="H300" s="3">
+        <f t="shared" si="60"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="301" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A301" s="1">
+        <v>43937</v>
+      </c>
+      <c r="B301" t="s">
+        <v>22</v>
+      </c>
+      <c r="C301" s="3">
+        <v>20</v>
+      </c>
+      <c r="D301" s="2">
+        <f t="shared" si="59"/>
+        <v>3.1938677738741618E-3</v>
+      </c>
+      <c r="E301" s="3">
+        <f t="shared" si="57"/>
+        <v>-244</v>
+      </c>
+      <c r="F301" s="2">
+        <f t="shared" si="58"/>
+        <v>-1.3333333333333333</v>
+      </c>
+      <c r="G301" s="3">
+        <v>0</v>
+      </c>
+      <c r="H301" s="3">
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
     </row>

--- a/TN_Age.xlsx
+++ b/TN_Age.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="25">
   <si>
     <t>0-10</t>
   </si>
@@ -435,11 +435,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H301"/>
+  <dimension ref="A1:H311"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A281" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A301" sqref="A301"/>
+      <selection pane="bottomLeft" activeCell="A311" sqref="A311"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6678,11 +6678,11 @@
         <v>1.1229946524064172E-2</v>
       </c>
       <c r="E262" s="3">
-        <f t="shared" ref="E262:E301" si="57">C262-SUMIFS(C:C,A:A,A262-1,B:B,B262)</f>
+        <f t="shared" ref="E262:E311" si="57">C262-SUMIFS(C:C,A:A,A262-1,B:B,B262)</f>
         <v>2</v>
       </c>
       <c r="F262" s="2">
-        <f t="shared" ref="F262:F301" si="58">E262/SUMIF(A:A,A262,E:E)</f>
+        <f t="shared" ref="F262:F311" si="58">E262/SUMIF(A:A,A262,E:E)</f>
         <v>6.6225165562913907E-3</v>
       </c>
       <c r="G262" s="3">
@@ -7860,6 +7860,266 @@
       </c>
       <c r="H301" s="3">
         <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A302" s="1">
+        <v>43938</v>
+      </c>
+      <c r="B302" t="s">
+        <v>0</v>
+      </c>
+      <c r="C302" s="3">
+        <v>84</v>
+      </c>
+      <c r="D302" s="2">
+        <f t="shared" ref="D302:D311" si="61">C302/SUMIF(A:A,A302,C:C)</f>
+        <v>1.2748520261041129E-2</v>
+      </c>
+      <c r="E302" s="3">
+        <f t="shared" ref="E302:E311" si="62">C302-SUMIFS(C:C,A:A,A302-1,B:B,B302)</f>
+        <v>11</v>
+      </c>
+      <c r="F302" s="2">
+        <f t="shared" ref="F302:F311" si="63">E302/SUMIF(A:A,A302,E:E)</f>
+        <v>3.3639143730886847E-2</v>
+      </c>
+      <c r="G302" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="303" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A303" s="1">
+        <v>43938</v>
+      </c>
+      <c r="B303" t="s">
+        <v>1</v>
+      </c>
+      <c r="C303" s="3">
+        <v>327</v>
+      </c>
+      <c r="D303" s="2">
+        <f t="shared" si="61"/>
+        <v>4.9628168159052966E-2</v>
+      </c>
+      <c r="E303" s="3">
+        <f t="shared" si="62"/>
+        <v>25</v>
+      </c>
+      <c r="F303" s="2">
+        <f t="shared" si="63"/>
+        <v>7.64525993883792E-2</v>
+      </c>
+      <c r="G303" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A304" s="1">
+        <v>43938</v>
+      </c>
+      <c r="B304" t="s">
+        <v>2</v>
+      </c>
+      <c r="C304" s="3">
+        <v>1323</v>
+      </c>
+      <c r="D304" s="2">
+        <f t="shared" si="61"/>
+        <v>0.20078919411139778</v>
+      </c>
+      <c r="E304" s="3">
+        <f t="shared" si="62"/>
+        <v>57</v>
+      </c>
+      <c r="F304" s="2">
+        <f t="shared" si="63"/>
+        <v>0.1743119266055046</v>
+      </c>
+      <c r="G304" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="305" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A305" s="1">
+        <v>43938</v>
+      </c>
+      <c r="B305" t="s">
+        <v>3</v>
+      </c>
+      <c r="C305" s="3">
+        <v>1101</v>
+      </c>
+      <c r="D305" s="2">
+        <f t="shared" si="61"/>
+        <v>0.16709667627864622</v>
+      </c>
+      <c r="E305" s="3">
+        <f t="shared" si="62"/>
+        <v>64</v>
+      </c>
+      <c r="F305" s="2">
+        <f t="shared" si="63"/>
+        <v>0.19571865443425077</v>
+      </c>
+      <c r="G305" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="306" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A306" s="1">
+        <v>43938</v>
+      </c>
+      <c r="B306" t="s">
+        <v>4</v>
+      </c>
+      <c r="C306" s="3">
+        <v>1109</v>
+      </c>
+      <c r="D306" s="2">
+        <f t="shared" si="61"/>
+        <v>0.16831082106541206</v>
+      </c>
+      <c r="E306" s="3">
+        <f t="shared" si="62"/>
+        <v>48</v>
+      </c>
+      <c r="F306" s="2">
+        <f t="shared" si="63"/>
+        <v>0.14678899082568808</v>
+      </c>
+      <c r="G306" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="307" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A307" s="1">
+        <v>43938</v>
+      </c>
+      <c r="B307" t="s">
+        <v>5</v>
+      </c>
+      <c r="C307" s="3">
+        <v>1213</v>
+      </c>
+      <c r="D307" s="2">
+        <f t="shared" si="61"/>
+        <v>0.18409470329336775</v>
+      </c>
+      <c r="E307" s="3">
+        <f t="shared" si="62"/>
+        <v>61</v>
+      </c>
+      <c r="F307" s="2">
+        <f t="shared" si="63"/>
+        <v>0.18654434250764526</v>
+      </c>
+      <c r="G307" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="308" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A308" s="1">
+        <v>43938</v>
+      </c>
+      <c r="B308" t="s">
+        <v>6</v>
+      </c>
+      <c r="C308" s="3">
+        <v>813</v>
+      </c>
+      <c r="D308" s="2">
+        <f t="shared" si="61"/>
+        <v>0.12338746395507665</v>
+      </c>
+      <c r="E308" s="3">
+        <f t="shared" si="62"/>
+        <v>41</v>
+      </c>
+      <c r="F308" s="2">
+        <f t="shared" si="63"/>
+        <v>0.12538226299694188</v>
+      </c>
+      <c r="G308" s="3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="309" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A309" s="1">
+        <v>43938</v>
+      </c>
+      <c r="B309" t="s">
+        <v>7</v>
+      </c>
+      <c r="C309" s="3">
+        <v>386</v>
+      </c>
+      <c r="D309" s="2">
+        <f t="shared" si="61"/>
+        <v>5.8582485961450902E-2</v>
+      </c>
+      <c r="E309" s="3">
+        <f t="shared" si="62"/>
+        <v>15</v>
+      </c>
+      <c r="F309" s="2">
+        <f t="shared" si="63"/>
+        <v>4.5871559633027525E-2</v>
+      </c>
+      <c r="G309" s="3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="310" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A310" s="1">
+        <v>43938</v>
+      </c>
+      <c r="B310" t="s">
+        <v>8</v>
+      </c>
+      <c r="C310" s="3">
+        <v>211</v>
+      </c>
+      <c r="D310" s="2">
+        <f t="shared" si="61"/>
+        <v>3.2023068750948548E-2</v>
+      </c>
+      <c r="E310" s="3">
+        <f t="shared" si="62"/>
+        <v>3</v>
+      </c>
+      <c r="F310" s="2">
+        <f t="shared" si="63"/>
+        <v>9.1743119266055051E-3</v>
+      </c>
+      <c r="G310" s="3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="311" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A311" s="1">
+        <v>43938</v>
+      </c>
+      <c r="B311" t="s">
+        <v>22</v>
+      </c>
+      <c r="C311" s="3">
+        <v>22</v>
+      </c>
+      <c r="D311" s="2">
+        <f t="shared" si="61"/>
+        <v>3.3388981636060101E-3</v>
+      </c>
+      <c r="E311" s="3">
+        <f t="shared" si="62"/>
+        <v>2</v>
+      </c>
+      <c r="F311" s="2">
+        <f t="shared" si="63"/>
+        <v>6.1162079510703364E-3</v>
+      </c>
+      <c r="G311" s="3">
         <v>0</v>
       </c>
     </row>

--- a/TN_Age.xlsx
+++ b/TN_Age.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="25">
   <si>
     <t>0-10</t>
   </si>
@@ -435,11 +435,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H311"/>
+  <dimension ref="A1:H321"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A281" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A311" sqref="A311"/>
+      <pane ySplit="1" topLeftCell="A287" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A321" sqref="A321"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6678,11 +6678,11 @@
         <v>1.1229946524064172E-2</v>
       </c>
       <c r="E262" s="3">
-        <f t="shared" ref="E262:E311" si="57">C262-SUMIFS(C:C,A:A,A262-1,B:B,B262)</f>
+        <f t="shared" ref="E262:E301" si="57">C262-SUMIFS(C:C,A:A,A262-1,B:B,B262)</f>
         <v>2</v>
       </c>
       <c r="F262" s="2">
-        <f t="shared" ref="F262:F311" si="58">E262/SUMIF(A:A,A262,E:E)</f>
+        <f t="shared" ref="F262:F301" si="58">E262/SUMIF(A:A,A262,E:E)</f>
         <v>6.6225165562913907E-3</v>
       </c>
       <c r="G262" s="3">
@@ -7709,7 +7709,7 @@
         <v>7</v>
       </c>
       <c r="H296" s="3">
-        <f t="shared" ref="H296:H301" si="60">G296-SUMIFS(G:G,A:A,A296-1,B:B,B296)</f>
+        <f t="shared" ref="H296:H321" si="60">G296-SUMIFS(G:G,A:A,A296-1,B:B,B296)</f>
         <v>0</v>
       </c>
     </row>
@@ -7888,6 +7888,10 @@
       <c r="G302" s="3">
         <v>1</v>
       </c>
+      <c r="H302" s="3">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="303" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A303" s="1">
@@ -7914,6 +7918,10 @@
       <c r="G303" s="3">
         <v>0</v>
       </c>
+      <c r="H303" s="3">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="304" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A304" s="1">
@@ -7940,8 +7948,12 @@
       <c r="G304" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H304" s="3">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A305" s="1">
         <v>43938</v>
       </c>
@@ -7966,8 +7978,12 @@
       <c r="G305" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H305" s="3">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A306" s="1">
         <v>43938</v>
       </c>
@@ -7992,8 +8008,12 @@
       <c r="G306" s="3">
         <v>7</v>
       </c>
-    </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H306" s="3">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A307" s="1">
         <v>43938</v>
       </c>
@@ -8018,8 +8038,12 @@
       <c r="G307" s="3">
         <v>14</v>
       </c>
-    </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H307" s="3">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A308" s="1">
         <v>43938</v>
       </c>
@@ -8044,8 +8068,12 @@
       <c r="G308" s="3">
         <v>34</v>
       </c>
-    </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H308" s="3">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A309" s="1">
         <v>43938</v>
       </c>
@@ -8070,8 +8098,12 @@
       <c r="G309" s="3">
         <v>36</v>
       </c>
-    </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H309" s="3">
+        <f t="shared" si="60"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="310" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A310" s="1">
         <v>43938</v>
       </c>
@@ -8096,8 +8128,12 @@
       <c r="G310" s="3">
         <v>48</v>
       </c>
-    </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H310" s="3">
+        <f t="shared" si="60"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="311" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A311" s="1">
         <v>43938</v>
       </c>
@@ -8120,6 +8156,310 @@
         <v>6.1162079510703364E-3</v>
       </c>
       <c r="G311" s="3">
+        <v>0</v>
+      </c>
+      <c r="H311" s="3">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A312" s="1">
+        <v>43939</v>
+      </c>
+      <c r="B312" t="s">
+        <v>0</v>
+      </c>
+      <c r="C312" s="3">
+        <v>84</v>
+      </c>
+      <c r="D312" s="2">
+        <f t="shared" ref="D312:D321" si="64">C312/SUMIF(A:A,A312,C:C)</f>
+        <v>1.2422360248447204E-2</v>
+      </c>
+      <c r="E312" s="3">
+        <f t="shared" ref="E312:E321" si="65">C312-SUMIFS(C:C,A:A,A312-1,B:B,B312)</f>
+        <v>0</v>
+      </c>
+      <c r="F312" s="2">
+        <f t="shared" ref="F312:F321" si="66">E312/SUMIF(A:A,A312,E:E)</f>
+        <v>0</v>
+      </c>
+      <c r="G312" s="3">
+        <v>1</v>
+      </c>
+      <c r="H312" s="3">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A313" s="1">
+        <v>43939</v>
+      </c>
+      <c r="B313" t="s">
+        <v>1</v>
+      </c>
+      <c r="C313" s="3">
+        <v>342</v>
+      </c>
+      <c r="D313" s="2">
+        <f t="shared" si="64"/>
+        <v>5.0576752440106475E-2</v>
+      </c>
+      <c r="E313" s="3">
+        <f t="shared" si="65"/>
+        <v>15</v>
+      </c>
+      <c r="F313" s="2">
+        <f t="shared" si="66"/>
+        <v>8.6705202312138727E-2</v>
+      </c>
+      <c r="G313" s="3">
+        <v>0</v>
+      </c>
+      <c r="H313" s="3">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A314" s="1">
+        <v>43939</v>
+      </c>
+      <c r="B314" t="s">
+        <v>2</v>
+      </c>
+      <c r="C314" s="3">
+        <v>1353</v>
+      </c>
+      <c r="D314" s="2">
+        <f t="shared" si="64"/>
+        <v>0.20008873114463177</v>
+      </c>
+      <c r="E314" s="3">
+        <f t="shared" si="65"/>
+        <v>30</v>
+      </c>
+      <c r="F314" s="2">
+        <f t="shared" si="66"/>
+        <v>0.17341040462427745</v>
+      </c>
+      <c r="G314" s="3">
+        <v>1</v>
+      </c>
+      <c r="H314" s="3">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A315" s="1">
+        <v>43939</v>
+      </c>
+      <c r="B315" t="s">
+        <v>3</v>
+      </c>
+      <c r="C315" s="3">
+        <v>1144</v>
+      </c>
+      <c r="D315" s="2">
+        <f t="shared" si="64"/>
+        <v>0.1691807157645667</v>
+      </c>
+      <c r="E315" s="3">
+        <f t="shared" si="65"/>
+        <v>43</v>
+      </c>
+      <c r="F315" s="2">
+        <f t="shared" si="66"/>
+        <v>0.24855491329479767</v>
+      </c>
+      <c r="G315" s="3">
+        <v>1</v>
+      </c>
+      <c r="H315" s="3">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A316" s="1">
+        <v>43939</v>
+      </c>
+      <c r="B316" t="s">
+        <v>4</v>
+      </c>
+      <c r="C316" s="3">
+        <v>1138</v>
+      </c>
+      <c r="D316" s="2">
+        <f t="shared" si="64"/>
+        <v>0.16829340431824905</v>
+      </c>
+      <c r="E316" s="3">
+        <f t="shared" si="65"/>
+        <v>29</v>
+      </c>
+      <c r="F316" s="2">
+        <f t="shared" si="66"/>
+        <v>0.16763005780346821</v>
+      </c>
+      <c r="G316" s="3">
+        <v>7</v>
+      </c>
+      <c r="H316" s="3">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A317" s="1">
+        <v>43939</v>
+      </c>
+      <c r="B317" t="s">
+        <v>5</v>
+      </c>
+      <c r="C317" s="3">
+        <v>1236</v>
+      </c>
+      <c r="D317" s="2">
+        <f t="shared" si="64"/>
+        <v>0.18278615794143743</v>
+      </c>
+      <c r="E317" s="3">
+        <f t="shared" si="65"/>
+        <v>23</v>
+      </c>
+      <c r="F317" s="2">
+        <f t="shared" si="66"/>
+        <v>0.13294797687861271</v>
+      </c>
+      <c r="G317" s="3">
+        <v>14</v>
+      </c>
+      <c r="H317" s="3">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A318" s="1">
+        <v>43939</v>
+      </c>
+      <c r="B318" t="s">
+        <v>6</v>
+      </c>
+      <c r="C318" s="3">
+        <v>821</v>
+      </c>
+      <c r="D318" s="2">
+        <f t="shared" si="64"/>
+        <v>0.12141378290446614</v>
+      </c>
+      <c r="E318" s="3">
+        <f t="shared" si="65"/>
+        <v>8</v>
+      </c>
+      <c r="F318" s="2">
+        <f t="shared" si="66"/>
+        <v>4.6242774566473986E-2</v>
+      </c>
+      <c r="G318" s="3">
+        <v>35</v>
+      </c>
+      <c r="H318" s="3">
+        <f t="shared" si="60"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="319" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A319" s="1">
+        <v>43939</v>
+      </c>
+      <c r="B319" t="s">
+        <v>7</v>
+      </c>
+      <c r="C319" s="3">
+        <v>401</v>
+      </c>
+      <c r="D319" s="2">
+        <f t="shared" si="64"/>
+        <v>5.9301981662230108E-2</v>
+      </c>
+      <c r="E319" s="3">
+        <f t="shared" si="65"/>
+        <v>15</v>
+      </c>
+      <c r="F319" s="2">
+        <f t="shared" si="66"/>
+        <v>8.6705202312138727E-2</v>
+      </c>
+      <c r="G319" s="3">
+        <v>38</v>
+      </c>
+      <c r="H319" s="3">
+        <f t="shared" si="60"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="320" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A320" s="1">
+        <v>43939</v>
+      </c>
+      <c r="B320" t="s">
+        <v>8</v>
+      </c>
+      <c r="C320" s="3">
+        <v>220</v>
+      </c>
+      <c r="D320" s="2">
+        <f t="shared" si="64"/>
+        <v>3.2534753031647441E-2</v>
+      </c>
+      <c r="E320" s="3">
+        <f t="shared" si="65"/>
+        <v>9</v>
+      </c>
+      <c r="F320" s="2">
+        <f t="shared" si="66"/>
+        <v>5.2023121387283239E-2</v>
+      </c>
+      <c r="G320" s="3">
+        <v>48</v>
+      </c>
+      <c r="H320" s="3">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A321" s="1">
+        <v>43939</v>
+      </c>
+      <c r="B321" t="s">
+        <v>22</v>
+      </c>
+      <c r="C321" s="3">
+        <v>23</v>
+      </c>
+      <c r="D321" s="2">
+        <f t="shared" si="64"/>
+        <v>3.4013605442176869E-3</v>
+      </c>
+      <c r="E321" s="3">
+        <f t="shared" si="65"/>
+        <v>1</v>
+      </c>
+      <c r="F321" s="2">
+        <f t="shared" si="66"/>
+        <v>5.7803468208092483E-3</v>
+      </c>
+      <c r="G321" s="3">
+        <v>0</v>
+      </c>
+      <c r="H321" s="3">
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
     </row>

--- a/TN_Age.xlsx
+++ b/TN_Age.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="25">
   <si>
     <t>0-10</t>
   </si>
@@ -435,11 +435,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H321"/>
+  <dimension ref="A1:H331"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A287" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A321" sqref="A321"/>
+      <pane ySplit="1" topLeftCell="A312" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A331" sqref="A331"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7709,7 +7709,7 @@
         <v>7</v>
       </c>
       <c r="H296" s="3">
-        <f t="shared" ref="H296:H321" si="60">G296-SUMIFS(G:G,A:A,A296-1,B:B,B296)</f>
+        <f t="shared" ref="H296:H331" si="60">G296-SUMIFS(G:G,A:A,A296-1,B:B,B296)</f>
         <v>0</v>
       </c>
     </row>
@@ -8174,15 +8174,15 @@
         <v>84</v>
       </c>
       <c r="D312" s="2">
-        <f t="shared" ref="D312:D321" si="64">C312/SUMIF(A:A,A312,C:C)</f>
+        <f t="shared" ref="D312:D331" si="64">C312/SUMIF(A:A,A312,C:C)</f>
         <v>1.2422360248447204E-2</v>
       </c>
       <c r="E312" s="3">
-        <f t="shared" ref="E312:E321" si="65">C312-SUMIFS(C:C,A:A,A312-1,B:B,B312)</f>
+        <f t="shared" ref="E312:E331" si="65">C312-SUMIFS(C:C,A:A,A312-1,B:B,B312)</f>
         <v>0</v>
       </c>
       <c r="F312" s="2">
-        <f t="shared" ref="F312:F321" si="66">E312/SUMIF(A:A,A312,E:E)</f>
+        <f t="shared" ref="F312:F331" si="66">E312/SUMIF(A:A,A312,E:E)</f>
         <v>0</v>
       </c>
       <c r="G312" s="3">
@@ -8459,6 +8459,306 @@
         <v>0</v>
       </c>
       <c r="H321" s="3">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A322" s="1">
+        <v>43940</v>
+      </c>
+      <c r="B322" t="s">
+        <v>0</v>
+      </c>
+      <c r="C322" s="3">
+        <v>98</v>
+      </c>
+      <c r="D322" s="2">
+        <f t="shared" si="64"/>
+        <v>1.3861386138613862E-2</v>
+      </c>
+      <c r="E322" s="3">
+        <f t="shared" si="65"/>
+        <v>14</v>
+      </c>
+      <c r="F322" s="2">
+        <f t="shared" si="66"/>
+        <v>4.5454545454545456E-2</v>
+      </c>
+      <c r="G322" s="3">
+        <v>1</v>
+      </c>
+      <c r="H322" s="3">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A323" s="1">
+        <v>43940</v>
+      </c>
+      <c r="B323" t="s">
+        <v>1</v>
+      </c>
+      <c r="C323" s="3">
+        <v>379</v>
+      </c>
+      <c r="D323" s="2">
+        <f t="shared" si="64"/>
+        <v>5.3606789250353608E-2</v>
+      </c>
+      <c r="E323" s="3">
+        <f t="shared" si="65"/>
+        <v>37</v>
+      </c>
+      <c r="F323" s="2">
+        <f t="shared" si="66"/>
+        <v>0.12012987012987013</v>
+      </c>
+      <c r="G323" s="3">
+        <v>0</v>
+      </c>
+      <c r="H323" s="3">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A324" s="1">
+        <v>43940</v>
+      </c>
+      <c r="B324" t="s">
+        <v>2</v>
+      </c>
+      <c r="C324" s="3">
+        <v>1422</v>
+      </c>
+      <c r="D324" s="2">
+        <f t="shared" si="64"/>
+        <v>0.20113154172560113</v>
+      </c>
+      <c r="E324" s="3">
+        <f t="shared" si="65"/>
+        <v>69</v>
+      </c>
+      <c r="F324" s="2">
+        <f t="shared" si="66"/>
+        <v>0.22402597402597402</v>
+      </c>
+      <c r="G324" s="3">
+        <v>1</v>
+      </c>
+      <c r="H324" s="3">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A325" s="1">
+        <v>43940</v>
+      </c>
+      <c r="B325" t="s">
+        <v>3</v>
+      </c>
+      <c r="C325" s="3">
+        <v>1205</v>
+      </c>
+      <c r="D325" s="2">
+        <f t="shared" si="64"/>
+        <v>0.17043847241867044</v>
+      </c>
+      <c r="E325" s="3">
+        <f t="shared" si="65"/>
+        <v>61</v>
+      </c>
+      <c r="F325" s="2">
+        <f t="shared" si="66"/>
+        <v>0.19805194805194806</v>
+      </c>
+      <c r="G325" s="3">
+        <v>1</v>
+      </c>
+      <c r="H325" s="3">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A326" s="1">
+        <v>43940</v>
+      </c>
+      <c r="B326" t="s">
+        <v>4</v>
+      </c>
+      <c r="C326" s="3">
+        <v>1194</v>
+      </c>
+      <c r="D326" s="2">
+        <f t="shared" si="64"/>
+        <v>0.16888260254596887</v>
+      </c>
+      <c r="E326" s="3">
+        <f t="shared" si="65"/>
+        <v>56</v>
+      </c>
+      <c r="F326" s="2">
+        <f t="shared" si="66"/>
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="G326" s="3">
+        <v>8</v>
+      </c>
+      <c r="H326" s="3">
+        <f t="shared" si="60"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="327" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A327" s="1">
+        <v>43940</v>
+      </c>
+      <c r="B327" t="s">
+        <v>5</v>
+      </c>
+      <c r="C327" s="3">
+        <v>1282</v>
+      </c>
+      <c r="D327" s="2">
+        <f t="shared" si="64"/>
+        <v>0.18132956152758134</v>
+      </c>
+      <c r="E327" s="3">
+        <f t="shared" si="65"/>
+        <v>46</v>
+      </c>
+      <c r="F327" s="2">
+        <f t="shared" si="66"/>
+        <v>0.14935064935064934</v>
+      </c>
+      <c r="G327" s="3">
+        <v>14</v>
+      </c>
+      <c r="H327" s="3">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A328" s="1">
+        <v>43940</v>
+      </c>
+      <c r="B328" t="s">
+        <v>6</v>
+      </c>
+      <c r="C328" s="3">
+        <v>842</v>
+      </c>
+      <c r="D328" s="2">
+        <f t="shared" si="64"/>
+        <v>0.11909476661951909</v>
+      </c>
+      <c r="E328" s="3">
+        <f t="shared" si="65"/>
+        <v>21</v>
+      </c>
+      <c r="F328" s="2">
+        <f t="shared" si="66"/>
+        <v>6.8181818181818177E-2</v>
+      </c>
+      <c r="G328" s="3">
+        <v>36</v>
+      </c>
+      <c r="H328" s="3">
+        <f t="shared" si="60"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="329" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A329" s="1">
+        <v>43940</v>
+      </c>
+      <c r="B329" t="s">
+        <v>7</v>
+      </c>
+      <c r="C329" s="3">
+        <v>404</v>
+      </c>
+      <c r="D329" s="2">
+        <f t="shared" si="64"/>
+        <v>5.7142857142857141E-2</v>
+      </c>
+      <c r="E329" s="3">
+        <f t="shared" si="65"/>
+        <v>3</v>
+      </c>
+      <c r="F329" s="2">
+        <f t="shared" si="66"/>
+        <v>9.74025974025974E-3</v>
+      </c>
+      <c r="G329" s="3">
+        <v>39</v>
+      </c>
+      <c r="H329" s="3">
+        <f t="shared" si="60"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="330" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A330" s="1">
+        <v>43940</v>
+      </c>
+      <c r="B330" t="s">
+        <v>8</v>
+      </c>
+      <c r="C330" s="3">
+        <v>228</v>
+      </c>
+      <c r="D330" s="2">
+        <f t="shared" si="64"/>
+        <v>3.2248939179632251E-2</v>
+      </c>
+      <c r="E330" s="3">
+        <f t="shared" si="65"/>
+        <v>8</v>
+      </c>
+      <c r="F330" s="2">
+        <f t="shared" si="66"/>
+        <v>2.5974025974025976E-2</v>
+      </c>
+      <c r="G330" s="3">
+        <v>48</v>
+      </c>
+      <c r="H330" s="3">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A331" s="1">
+        <v>43940</v>
+      </c>
+      <c r="B331" t="s">
+        <v>22</v>
+      </c>
+      <c r="C331" s="3">
+        <v>16</v>
+      </c>
+      <c r="D331" s="2">
+        <f t="shared" si="64"/>
+        <v>2.263083451202263E-3</v>
+      </c>
+      <c r="E331" s="3">
+        <f t="shared" si="65"/>
+        <v>-7</v>
+      </c>
+      <c r="F331" s="2">
+        <f t="shared" si="66"/>
+        <v>-2.2727272727272728E-2</v>
+      </c>
+      <c r="G331" s="3">
+        <v>0</v>
+      </c>
+      <c r="H331" s="3">
         <f t="shared" si="60"/>
         <v>0</v>
       </c>

--- a/TN_Age.xlsx
+++ b/TN_Age.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="25">
   <si>
     <t>0-10</t>
   </si>
@@ -435,11 +435,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H331"/>
+  <dimension ref="A1:H341"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A312" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A331" sqref="A331"/>
+      <pane ySplit="1" topLeftCell="A324" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A341" sqref="A341"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7709,7 +7709,7 @@
         <v>7</v>
       </c>
       <c r="H296" s="3">
-        <f t="shared" ref="H296:H331" si="60">G296-SUMIFS(G:G,A:A,A296-1,B:B,B296)</f>
+        <f t="shared" ref="H296:H341" si="60">G296-SUMIFS(G:G,A:A,A296-1,B:B,B296)</f>
         <v>0</v>
       </c>
     </row>
@@ -8759,6 +8759,306 @@
         <v>0</v>
       </c>
       <c r="H331" s="3">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A332" s="1">
+        <v>43941</v>
+      </c>
+      <c r="B332" t="s">
+        <v>0</v>
+      </c>
+      <c r="C332" s="3">
+        <v>99</v>
+      </c>
+      <c r="D332" s="2">
+        <f t="shared" ref="D332:D341" si="67">C332/SUMIF(A:A,A332,C:C)</f>
+        <v>1.3677811550151976E-2</v>
+      </c>
+      <c r="E332" s="3">
+        <f t="shared" ref="E332:E341" si="68">C332-SUMIFS(C:C,A:A,A332-1,B:B,B332)</f>
+        <v>1</v>
+      </c>
+      <c r="F332" s="2">
+        <f t="shared" ref="F332:F341" si="69">E332/SUMIF(A:A,A332,E:E)</f>
+        <v>5.9523809523809521E-3</v>
+      </c>
+      <c r="G332" s="3">
+        <v>1</v>
+      </c>
+      <c r="H332" s="3">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A333" s="1">
+        <v>43941</v>
+      </c>
+      <c r="B333" t="s">
+        <v>1</v>
+      </c>
+      <c r="C333" s="3">
+        <v>386</v>
+      </c>
+      <c r="D333" s="2">
+        <f t="shared" si="67"/>
+        <v>5.3329649074329924E-2</v>
+      </c>
+      <c r="E333" s="3">
+        <f t="shared" si="68"/>
+        <v>7</v>
+      </c>
+      <c r="F333" s="2">
+        <f t="shared" si="69"/>
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="G333" s="3">
+        <v>0</v>
+      </c>
+      <c r="H333" s="3">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A334" s="1">
+        <v>43941</v>
+      </c>
+      <c r="B334" t="s">
+        <v>2</v>
+      </c>
+      <c r="C334" s="3">
+        <v>1455</v>
+      </c>
+      <c r="D334" s="2">
+        <f t="shared" si="67"/>
+        <v>0.2010223818734457</v>
+      </c>
+      <c r="E334" s="3">
+        <f t="shared" si="68"/>
+        <v>33</v>
+      </c>
+      <c r="F334" s="2">
+        <f t="shared" si="69"/>
+        <v>0.19642857142857142</v>
+      </c>
+      <c r="G334" s="3">
+        <v>1</v>
+      </c>
+      <c r="H334" s="3">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A335" s="1">
+        <v>43941</v>
+      </c>
+      <c r="B335" t="s">
+        <v>3</v>
+      </c>
+      <c r="C335" s="3">
+        <v>1248</v>
+      </c>
+      <c r="D335" s="2">
+        <f t="shared" si="67"/>
+        <v>0.17242332135949157</v>
+      </c>
+      <c r="E335" s="3">
+        <f t="shared" si="68"/>
+        <v>43</v>
+      </c>
+      <c r="F335" s="2">
+        <f t="shared" si="69"/>
+        <v>0.25595238095238093</v>
+      </c>
+      <c r="G335" s="3">
+        <v>1</v>
+      </c>
+      <c r="H335" s="3">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A336" s="1">
+        <v>43941</v>
+      </c>
+      <c r="B336" t="s">
+        <v>4</v>
+      </c>
+      <c r="C336" s="3">
+        <v>1235</v>
+      </c>
+      <c r="D336" s="2">
+        <f t="shared" si="67"/>
+        <v>0.1706272450953302</v>
+      </c>
+      <c r="E336" s="3">
+        <f t="shared" si="68"/>
+        <v>41</v>
+      </c>
+      <c r="F336" s="2">
+        <f t="shared" si="69"/>
+        <v>0.24404761904761904</v>
+      </c>
+      <c r="G336" s="3">
+        <v>9</v>
+      </c>
+      <c r="H336" s="3">
+        <f t="shared" si="60"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="337" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A337" s="1">
+        <v>43941</v>
+      </c>
+      <c r="B337" t="s">
+        <v>5</v>
+      </c>
+      <c r="C337" s="3">
+        <v>1311</v>
+      </c>
+      <c r="D337" s="2">
+        <f t="shared" si="67"/>
+        <v>0.18112738325504282</v>
+      </c>
+      <c r="E337" s="3">
+        <f t="shared" si="68"/>
+        <v>29</v>
+      </c>
+      <c r="F337" s="2">
+        <f t="shared" si="69"/>
+        <v>0.17261904761904762</v>
+      </c>
+      <c r="G337" s="3">
+        <v>15</v>
+      </c>
+      <c r="H337" s="3">
+        <f t="shared" si="60"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="338" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A338" s="1">
+        <v>43941</v>
+      </c>
+      <c r="B338" t="s">
+        <v>6</v>
+      </c>
+      <c r="C338" s="3">
+        <v>856</v>
+      </c>
+      <c r="D338" s="2">
+        <f t="shared" si="67"/>
+        <v>0.11826471400939487</v>
+      </c>
+      <c r="E338" s="3">
+        <f t="shared" si="68"/>
+        <v>14</v>
+      </c>
+      <c r="F338" s="2">
+        <f t="shared" si="69"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="G338" s="3">
+        <v>36</v>
+      </c>
+      <c r="H338" s="3">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A339" s="1">
+        <v>43941</v>
+      </c>
+      <c r="B339" t="s">
+        <v>7</v>
+      </c>
+      <c r="C339" s="3">
+        <v>407</v>
+      </c>
+      <c r="D339" s="2">
+        <f t="shared" si="67"/>
+        <v>5.6231003039513679E-2</v>
+      </c>
+      <c r="E339" s="3">
+        <f t="shared" si="68"/>
+        <v>3</v>
+      </c>
+      <c r="F339" s="2">
+        <f t="shared" si="69"/>
+        <v>1.7857142857142856E-2</v>
+      </c>
+      <c r="G339" s="3">
+        <v>40</v>
+      </c>
+      <c r="H339" s="3">
+        <f t="shared" si="60"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="340" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A340" s="1">
+        <v>43941</v>
+      </c>
+      <c r="B340" t="s">
+        <v>8</v>
+      </c>
+      <c r="C340" s="3">
+        <v>231</v>
+      </c>
+      <c r="D340" s="2">
+        <f t="shared" si="67"/>
+        <v>3.1914893617021274E-2</v>
+      </c>
+      <c r="E340" s="3">
+        <f t="shared" si="68"/>
+        <v>3</v>
+      </c>
+      <c r="F340" s="2">
+        <f t="shared" si="69"/>
+        <v>1.7857142857142856E-2</v>
+      </c>
+      <c r="G340" s="3">
+        <v>49</v>
+      </c>
+      <c r="H340" s="3">
+        <f t="shared" si="60"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="341" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A341" s="1">
+        <v>43941</v>
+      </c>
+      <c r="B341" t="s">
+        <v>22</v>
+      </c>
+      <c r="C341" s="3">
+        <v>10</v>
+      </c>
+      <c r="D341" s="2">
+        <f t="shared" si="67"/>
+        <v>1.3815971262779773E-3</v>
+      </c>
+      <c r="E341" s="3">
+        <f t="shared" si="68"/>
+        <v>-6</v>
+      </c>
+      <c r="F341" s="2">
+        <f t="shared" si="69"/>
+        <v>-3.5714285714285712E-2</v>
+      </c>
+      <c r="G341" s="3">
+        <v>0</v>
+      </c>
+      <c r="H341" s="3">
         <f t="shared" si="60"/>
         <v>0</v>
       </c>

--- a/TN_Age.xlsx
+++ b/TN_Age.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="26">
   <si>
     <t>0-10</t>
   </si>
@@ -43,9 +43,6 @@
   </si>
   <si>
     <t>71-80</t>
-  </si>
-  <si>
-    <t>80+</t>
   </si>
   <si>
     <t>Unknown</t>
@@ -97,6 +94,9 @@
   </si>
   <si>
     <t>SHARE_DEATHS_TOT</t>
+  </si>
+  <si>
+    <t>81+</t>
   </si>
 </sst>
 </file>
@@ -440,11 +440,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I351"/>
+  <dimension ref="A1:I361"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A332" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A351" sqref="A351"/>
+      <pane ySplit="1" topLeftCell="A342" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H352" sqref="H352:H361"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -461,31 +461,31 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>14</v>
-      </c>
       <c r="G1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="I1" s="5" t="s">
         <v>24</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -493,7 +493,7 @@
         <v>43907</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2">
         <v>0</v>
@@ -510,7 +510,7 @@
         <v>43907</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C3" s="2">
         <v>1</v>
@@ -527,7 +527,7 @@
         <v>43907</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C4" s="2">
         <v>51</v>
@@ -544,7 +544,7 @@
         <v>43907</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="2">
         <v>14</v>
@@ -561,7 +561,7 @@
         <v>43907</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C6" s="2">
         <v>6</v>
@@ -578,7 +578,7 @@
         <v>43907</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" s="2">
         <v>1</v>
@@ -595,7 +595,7 @@
         <v>43908</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8" s="2">
         <v>0</v>
@@ -618,7 +618,7 @@
         <v>43908</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C9" s="2">
         <v>1</v>
@@ -641,7 +641,7 @@
         <v>43908</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C10" s="2">
         <v>67</v>
@@ -664,7 +664,7 @@
         <v>43908</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="2">
         <v>19</v>
@@ -687,7 +687,7 @@
         <v>43908</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C12" s="2">
         <v>10</v>
@@ -710,7 +710,7 @@
         <v>43908</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C13" s="2">
         <v>1</v>
@@ -917,7 +917,7 @@
         <v>43909</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="C22" s="2">
         <v>8</v>
@@ -1124,7 +1124,7 @@
         <v>43910</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="C31" s="2">
         <v>4</v>
@@ -1331,7 +1331,7 @@
         <v>43911</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="C40" s="2">
         <v>5</v>
@@ -1354,7 +1354,7 @@
         <v>43911</v>
       </c>
       <c r="B41" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C41" s="2">
         <v>4</v>
@@ -1561,7 +1561,7 @@
         <v>43912</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="C50" s="2">
         <v>8</v>
@@ -1584,7 +1584,7 @@
         <v>43912</v>
       </c>
       <c r="B51" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C51" s="2">
         <v>1</v>
@@ -1791,7 +1791,7 @@
         <v>43913</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="C60" s="2">
         <v>11</v>
@@ -1814,7 +1814,7 @@
         <v>43913</v>
       </c>
       <c r="B61" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C61" s="2">
         <v>6</v>
@@ -2021,7 +2021,7 @@
         <v>43914</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="C70" s="2">
         <v>12</v>
@@ -2044,7 +2044,7 @@
         <v>43914</v>
       </c>
       <c r="B71" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C71" s="2">
         <v>7</v>
@@ -2251,7 +2251,7 @@
         <v>43915</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="C80" s="2">
         <v>14</v>
@@ -2274,7 +2274,7 @@
         <v>43915</v>
       </c>
       <c r="B81" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C81" s="2">
         <v>7</v>
@@ -2481,7 +2481,7 @@
         <v>43916</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="C90" s="2">
         <v>16</v>
@@ -2504,7 +2504,7 @@
         <v>43916</v>
       </c>
       <c r="B91" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C91" s="2">
         <v>7</v>
@@ -2711,7 +2711,7 @@
         <v>43917</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="C100" s="2">
         <v>20</v>
@@ -2734,7 +2734,7 @@
         <v>43917</v>
       </c>
       <c r="B101" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C101" s="2">
         <v>9</v>
@@ -2941,7 +2941,7 @@
         <v>43918</v>
       </c>
       <c r="B110" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="C110" s="2">
         <v>28</v>
@@ -2964,7 +2964,7 @@
         <v>43918</v>
       </c>
       <c r="B111" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C111" s="2">
         <v>9</v>
@@ -3171,7 +3171,7 @@
         <v>43919</v>
       </c>
       <c r="B120" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="C120" s="2">
         <v>33</v>
@@ -3194,7 +3194,7 @@
         <v>43919</v>
       </c>
       <c r="B121" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C121" s="2">
         <v>14</v>
@@ -3401,7 +3401,7 @@
         <v>43920</v>
       </c>
       <c r="B130" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="C130" s="2">
         <v>50</v>
@@ -3424,7 +3424,7 @@
         <v>43920</v>
       </c>
       <c r="B131" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C131" s="2">
         <v>11</v>
@@ -3631,7 +3631,7 @@
         <v>43921</v>
       </c>
       <c r="B140" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="C140" s="2">
         <v>63</v>
@@ -3654,7 +3654,7 @@
         <v>43921</v>
       </c>
       <c r="B141" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C141" s="2">
         <v>16</v>
@@ -3861,7 +3861,7 @@
         <v>43922</v>
       </c>
       <c r="B150" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="C150" s="2">
         <v>79</v>
@@ -3884,7 +3884,7 @@
         <v>43922</v>
       </c>
       <c r="B151" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C151" s="2">
         <v>21</v>
@@ -4091,7 +4091,7 @@
         <v>43923</v>
       </c>
       <c r="B160" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="C160" s="2">
         <v>97</v>
@@ -4114,7 +4114,7 @@
         <v>43923</v>
       </c>
       <c r="B161" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C161" s="2">
         <v>17</v>
@@ -4321,7 +4321,7 @@
         <v>43924</v>
       </c>
       <c r="B170" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="C170" s="2">
         <v>105</v>
@@ -4344,7 +4344,7 @@
         <v>43924</v>
       </c>
       <c r="B171" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C171" s="2">
         <v>15</v>
@@ -4551,7 +4551,7 @@
         <v>43925</v>
       </c>
       <c r="B180" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="C180" s="2">
         <v>107</v>
@@ -4574,7 +4574,7 @@
         <v>43925</v>
       </c>
       <c r="B181" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C181" s="2">
         <v>27</v>
@@ -4781,7 +4781,7 @@
         <v>43926</v>
       </c>
       <c r="B190" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="C190" s="2">
         <v>118</v>
@@ -4804,7 +4804,7 @@
         <v>43926</v>
       </c>
       <c r="B191" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C191" s="2">
         <v>24</v>
@@ -5011,7 +5011,7 @@
         <v>43927</v>
       </c>
       <c r="B200" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="C200" s="2">
         <v>122</v>
@@ -5034,7 +5034,7 @@
         <v>43927</v>
       </c>
       <c r="B201" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C201" s="2">
         <v>27</v>
@@ -5241,7 +5241,7 @@
         <v>43928</v>
       </c>
       <c r="B210" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="C210" s="2">
         <v>124</v>
@@ -5264,7 +5264,7 @@
         <v>43928</v>
       </c>
       <c r="B211" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C211" s="2">
         <v>22</v>
@@ -5471,7 +5471,7 @@
         <v>43929</v>
       </c>
       <c r="B220" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="C220" s="2">
         <v>143</v>
@@ -5494,7 +5494,7 @@
         <v>43929</v>
       </c>
       <c r="B221" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C221" s="2">
         <v>23</v>
@@ -5757,7 +5757,7 @@
         <v>43930</v>
       </c>
       <c r="B230" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="C230" s="2">
         <v>156</v>
@@ -5787,7 +5787,7 @@
         <v>43930</v>
       </c>
       <c r="B231" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C231" s="2">
         <v>22</v>
@@ -6089,7 +6089,7 @@
         <v>43931</v>
       </c>
       <c r="B240" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="C240" s="2">
         <v>162</v>
@@ -6123,7 +6123,7 @@
         <v>43931</v>
       </c>
       <c r="B241" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C241" s="2">
         <v>17</v>
@@ -6429,7 +6429,7 @@
         <v>43932</v>
       </c>
       <c r="B250" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="C250" s="2">
         <v>179</v>
@@ -6463,7 +6463,7 @@
         <v>43932</v>
       </c>
       <c r="B251" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C251" s="2">
         <v>17</v>
@@ -6769,7 +6769,7 @@
         <v>43933</v>
       </c>
       <c r="B260" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="C260" s="2">
         <v>178</v>
@@ -6803,7 +6803,7 @@
         <v>43933</v>
       </c>
       <c r="B261" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C261" s="2">
         <v>13</v>
@@ -7109,7 +7109,7 @@
         <v>43934</v>
       </c>
       <c r="B270" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="C270" s="2">
         <v>190</v>
@@ -7143,7 +7143,7 @@
         <v>43934</v>
       </c>
       <c r="B271" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C271" s="2">
         <v>11</v>
@@ -7449,7 +7449,7 @@
         <v>43935</v>
       </c>
       <c r="B280" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="C280" s="2">
         <v>199</v>
@@ -7483,7 +7483,7 @@
         <v>43935</v>
       </c>
       <c r="B281" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C281" s="2">
         <v>20</v>
@@ -7789,7 +7789,7 @@
         <v>43936</v>
       </c>
       <c r="B290" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="C290" s="2">
         <v>197</v>
@@ -7823,7 +7823,7 @@
         <v>43936</v>
       </c>
       <c r="B291" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C291" s="2">
         <v>264</v>
@@ -8129,7 +8129,7 @@
         <v>43937</v>
       </c>
       <c r="B300" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="C300" s="2">
         <v>208</v>
@@ -8163,7 +8163,7 @@
         <v>43937</v>
       </c>
       <c r="B301" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C301" s="2">
         <v>20</v>
@@ -8469,7 +8469,7 @@
         <v>43938</v>
       </c>
       <c r="B310" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="C310" s="2">
         <v>211</v>
@@ -8503,7 +8503,7 @@
         <v>43938</v>
       </c>
       <c r="B311" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C311" s="2">
         <v>22</v>
@@ -8809,7 +8809,7 @@
         <v>43939</v>
       </c>
       <c r="B320" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="C320" s="2">
         <v>220</v>
@@ -8843,7 +8843,7 @@
         <v>43939</v>
       </c>
       <c r="B321" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C321" s="2">
         <v>23</v>
@@ -9149,7 +9149,7 @@
         <v>43940</v>
       </c>
       <c r="B330" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="C330" s="2">
         <v>228</v>
@@ -9183,7 +9183,7 @@
         <v>43940</v>
       </c>
       <c r="B331" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C331" s="2">
         <v>16</v>
@@ -9223,7 +9223,7 @@
         <v>99</v>
       </c>
       <c r="D332" s="6">
-        <f t="shared" ref="D332:D351" si="70">C332/SUMIF(A:A,A332,C:C)</f>
+        <f t="shared" ref="D332:D341" si="70">C332/SUMIF(A:A,A332,C:C)</f>
         <v>1.3677811550151976E-2</v>
       </c>
       <c r="E332" s="7">
@@ -9489,7 +9489,7 @@
         <v>43941</v>
       </c>
       <c r="B340" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="C340" s="2">
         <v>231</v>
@@ -9523,7 +9523,7 @@
         <v>43941</v>
       </c>
       <c r="B341" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C341" s="2">
         <v>10</v>
@@ -9829,7 +9829,7 @@
         <v>43942</v>
       </c>
       <c r="B350" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="C350" s="2">
         <v>242</v>
@@ -9863,7 +9863,7 @@
         <v>43942</v>
       </c>
       <c r="B351" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C351" s="2">
         <v>7</v>
@@ -9889,6 +9889,346 @@
       </c>
       <c r="I351" s="6">
         <f t="shared" si="77"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A352" s="1">
+        <v>43943</v>
+      </c>
+      <c r="B352" t="s">
+        <v>0</v>
+      </c>
+      <c r="C352">
+        <v>115</v>
+      </c>
+      <c r="D352" s="6">
+        <f t="shared" ref="D352" si="78">C352/SUMIF(A:A,A352,C:C)</f>
+        <v>1.4664626370823769E-2</v>
+      </c>
+      <c r="E352" s="7">
+        <f t="shared" ref="E352" si="79">C352-SUMIFS(C:C,A:A,A352-1,B:B,B352)</f>
+        <v>8</v>
+      </c>
+      <c r="F352" s="6">
+        <f t="shared" ref="F352" si="80">E352/SUMIF(A:A,A352,E:E)</f>
+        <v>1.7857142857142856E-2</v>
+      </c>
+      <c r="G352" s="2">
+        <v>1</v>
+      </c>
+      <c r="H352" s="7">
+        <f t="shared" ref="H352:H361" si="81">G352-SUMIFS(G:G,A:A,A352-1,B:B,B352)</f>
+        <v>0</v>
+      </c>
+      <c r="I352" s="6">
+        <f t="shared" ref="I352:I361" si="82">G352/SUMIF(A:A,A352,G:G)</f>
+        <v>6.024096385542169E-3</v>
+      </c>
+    </row>
+    <row r="353" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A353" s="1">
+        <v>43943</v>
+      </c>
+      <c r="B353" t="s">
+        <v>1</v>
+      </c>
+      <c r="C353">
+        <v>432</v>
+      </c>
+      <c r="D353" s="6">
+        <f t="shared" ref="D353:D361" si="83">C353/SUMIF(A:A,A353,C:C)</f>
+        <v>5.5087987758224939E-2</v>
+      </c>
+      <c r="E353" s="7">
+        <f t="shared" ref="E353:E361" si="84">C353-SUMIFS(C:C,A:A,A353-1,B:B,B353)</f>
+        <v>29</v>
+      </c>
+      <c r="F353" s="6">
+        <f t="shared" ref="F353:F361" si="85">E353/SUMIF(A:A,A353,E:E)</f>
+        <v>6.4732142857142863E-2</v>
+      </c>
+      <c r="G353" s="2">
+        <v>0</v>
+      </c>
+      <c r="H353" s="7">
+        <f t="shared" si="81"/>
+        <v>0</v>
+      </c>
+      <c r="I353" s="6">
+        <f t="shared" si="82"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A354" s="1">
+        <v>43943</v>
+      </c>
+      <c r="B354" t="s">
+        <v>2</v>
+      </c>
+      <c r="C354">
+        <v>1568</v>
+      </c>
+      <c r="D354" s="6">
+        <f t="shared" si="83"/>
+        <v>0.19994899260392757</v>
+      </c>
+      <c r="E354" s="7">
+        <f t="shared" si="84"/>
+        <v>97</v>
+      </c>
+      <c r="F354" s="6">
+        <f t="shared" si="85"/>
+        <v>0.21651785714285715</v>
+      </c>
+      <c r="G354" s="2">
+        <v>2</v>
+      </c>
+      <c r="H354" s="7">
+        <f t="shared" si="81"/>
+        <v>1</v>
+      </c>
+      <c r="I354" s="6">
+        <f t="shared" si="82"/>
+        <v>1.2048192771084338E-2</v>
+      </c>
+    </row>
+    <row r="355" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A355" s="1">
+        <v>43943</v>
+      </c>
+      <c r="B355" t="s">
+        <v>3</v>
+      </c>
+      <c r="C355">
+        <v>1358</v>
+      </c>
+      <c r="D355" s="6">
+        <f t="shared" si="83"/>
+        <v>0.17317010966590154</v>
+      </c>
+      <c r="E355" s="7">
+        <f t="shared" si="84"/>
+        <v>87</v>
+      </c>
+      <c r="F355" s="6">
+        <f t="shared" si="85"/>
+        <v>0.19419642857142858</v>
+      </c>
+      <c r="G355" s="2">
+        <v>1</v>
+      </c>
+      <c r="H355" s="7">
+        <f t="shared" si="81"/>
+        <v>0</v>
+      </c>
+      <c r="I355" s="6">
+        <f t="shared" si="82"/>
+        <v>6.024096385542169E-3</v>
+      </c>
+    </row>
+    <row r="356" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A356" s="1">
+        <v>43943</v>
+      </c>
+      <c r="B356" t="s">
+        <v>4</v>
+      </c>
+      <c r="C356">
+        <v>1370</v>
+      </c>
+      <c r="D356" s="6">
+        <f t="shared" si="83"/>
+        <v>0.17470033154807446</v>
+      </c>
+      <c r="E356" s="7">
+        <f t="shared" si="84"/>
+        <v>108</v>
+      </c>
+      <c r="F356" s="6">
+        <f t="shared" si="85"/>
+        <v>0.24107142857142858</v>
+      </c>
+      <c r="G356" s="2">
+        <v>10</v>
+      </c>
+      <c r="H356" s="7">
+        <f t="shared" si="81"/>
+        <v>1</v>
+      </c>
+      <c r="I356" s="6">
+        <f t="shared" si="82"/>
+        <v>6.0240963855421686E-2</v>
+      </c>
+    </row>
+    <row r="357" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A357" s="1">
+        <v>43943</v>
+      </c>
+      <c r="B357" t="s">
+        <v>5</v>
+      </c>
+      <c r="C357">
+        <v>1407</v>
+      </c>
+      <c r="D357" s="6">
+        <f t="shared" si="83"/>
+        <v>0.17941851568477429</v>
+      </c>
+      <c r="E357" s="7">
+        <f t="shared" si="84"/>
+        <v>63</v>
+      </c>
+      <c r="F357" s="6">
+        <f t="shared" si="85"/>
+        <v>0.140625</v>
+      </c>
+      <c r="G357" s="2">
+        <v>15</v>
+      </c>
+      <c r="H357" s="7">
+        <f t="shared" si="81"/>
+        <v>0</v>
+      </c>
+      <c r="I357" s="6">
+        <f t="shared" si="82"/>
+        <v>9.036144578313253E-2</v>
+      </c>
+    </row>
+    <row r="358" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A358" s="1">
+        <v>43943</v>
+      </c>
+      <c r="B358" t="s">
+        <v>6</v>
+      </c>
+      <c r="C358">
+        <v>900</v>
+      </c>
+      <c r="D358" s="6">
+        <f t="shared" si="83"/>
+        <v>0.11476664116296863</v>
+      </c>
+      <c r="E358" s="7">
+        <f t="shared" si="84"/>
+        <v>30</v>
+      </c>
+      <c r="F358" s="6">
+        <f t="shared" si="85"/>
+        <v>6.6964285714285712E-2</v>
+      </c>
+      <c r="G358" s="2">
+        <v>38</v>
+      </c>
+      <c r="H358" s="7">
+        <f t="shared" si="81"/>
+        <v>1</v>
+      </c>
+      <c r="I358" s="6">
+        <f t="shared" si="82"/>
+        <v>0.2289156626506024</v>
+      </c>
+    </row>
+    <row r="359" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A359" s="1">
+        <v>43943</v>
+      </c>
+      <c r="B359" t="s">
+        <v>7</v>
+      </c>
+      <c r="C359">
+        <v>430</v>
+      </c>
+      <c r="D359" s="6">
+        <f t="shared" si="83"/>
+        <v>5.4832950777862793E-2</v>
+      </c>
+      <c r="E359" s="7">
+        <f t="shared" si="84"/>
+        <v>13</v>
+      </c>
+      <c r="F359" s="6">
+        <f t="shared" si="85"/>
+        <v>2.9017857142857144E-2</v>
+      </c>
+      <c r="G359" s="2">
+        <v>45</v>
+      </c>
+      <c r="H359" s="7">
+        <f t="shared" si="81"/>
+        <v>4</v>
+      </c>
+      <c r="I359" s="6">
+        <f t="shared" si="82"/>
+        <v>0.27108433734939757</v>
+      </c>
+    </row>
+    <row r="360" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A360" s="1">
+        <v>43943</v>
+      </c>
+      <c r="B360" t="s">
+        <v>25</v>
+      </c>
+      <c r="C360">
+        <v>252</v>
+      </c>
+      <c r="D360" s="6">
+        <f t="shared" si="83"/>
+        <v>3.2134659525631215E-2</v>
+      </c>
+      <c r="E360" s="7">
+        <f t="shared" si="84"/>
+        <v>10</v>
+      </c>
+      <c r="F360" s="6">
+        <f t="shared" si="85"/>
+        <v>2.2321428571428572E-2</v>
+      </c>
+      <c r="G360" s="2">
+        <v>54</v>
+      </c>
+      <c r="H360" s="7">
+        <f t="shared" si="81"/>
+        <v>2</v>
+      </c>
+      <c r="I360" s="6">
+        <f t="shared" si="82"/>
+        <v>0.3253012048192771</v>
+      </c>
+    </row>
+    <row r="361" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A361" s="1">
+        <v>43943</v>
+      </c>
+      <c r="B361" t="s">
+        <v>21</v>
+      </c>
+      <c r="C361">
+        <v>10</v>
+      </c>
+      <c r="D361" s="6">
+        <f t="shared" si="83"/>
+        <v>1.2751849018107625E-3</v>
+      </c>
+      <c r="E361" s="7">
+        <f t="shared" si="84"/>
+        <v>3</v>
+      </c>
+      <c r="F361" s="6">
+        <f t="shared" si="85"/>
+        <v>6.6964285714285711E-3</v>
+      </c>
+      <c r="G361" s="2">
+        <v>0</v>
+      </c>
+      <c r="H361" s="7">
+        <f t="shared" si="81"/>
+        <v>0</v>
+      </c>
+      <c r="I361" s="6">
+        <f t="shared" si="82"/>
         <v>0</v>
       </c>
     </row>

--- a/TN_Age.xlsx
+++ b/TN_Age.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="26">
   <si>
     <t>0-10</t>
   </si>
@@ -440,11 +440,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I361"/>
+  <dimension ref="A1:I371"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A342" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H352" sqref="H352:H361"/>
+      <selection pane="bottomLeft" activeCell="A371" sqref="A371"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10232,6 +10232,346 @@
         <v>0</v>
       </c>
     </row>
+    <row r="362" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A362" s="1">
+        <v>43944</v>
+      </c>
+      <c r="B362" t="s">
+        <v>0</v>
+      </c>
+      <c r="C362" s="2">
+        <v>122</v>
+      </c>
+      <c r="D362" s="6">
+        <f t="shared" ref="D362:D371" si="86">C362/SUMIF(A:A,A362,C:C)</f>
+        <v>1.4759254778611178E-2</v>
+      </c>
+      <c r="E362" s="7">
+        <f t="shared" ref="E362:E371" si="87">C362-SUMIFS(C:C,A:A,A362-1,B:B,B362)</f>
+        <v>7</v>
+      </c>
+      <c r="F362" s="6">
+        <f t="shared" ref="F362:F371" si="88">E362/SUMIF(A:A,A362,E:E)</f>
+        <v>1.6509433962264151E-2</v>
+      </c>
+      <c r="G362" s="2">
+        <v>1</v>
+      </c>
+      <c r="H362" s="7">
+        <f t="shared" ref="H362:H371" si="89">G362-SUMIFS(G:G,A:A,A362-1,B:B,B362)</f>
+        <v>0</v>
+      </c>
+      <c r="I362" s="6">
+        <f t="shared" ref="I362:I371" si="90">G362/SUMIF(A:A,A362,G:G)</f>
+        <v>5.8823529411764705E-3</v>
+      </c>
+    </row>
+    <row r="363" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A363" s="1">
+        <v>43944</v>
+      </c>
+      <c r="B363" t="s">
+        <v>1</v>
+      </c>
+      <c r="C363" s="2">
+        <v>443</v>
+      </c>
+      <c r="D363" s="6">
+        <f t="shared" si="86"/>
+        <v>5.3593031696104527E-2</v>
+      </c>
+      <c r="E363" s="7">
+        <f t="shared" si="87"/>
+        <v>11</v>
+      </c>
+      <c r="F363" s="6">
+        <f t="shared" si="88"/>
+        <v>2.5943396226415096E-2</v>
+      </c>
+      <c r="G363" s="2">
+        <v>0</v>
+      </c>
+      <c r="H363" s="7">
+        <f t="shared" si="89"/>
+        <v>0</v>
+      </c>
+      <c r="I363" s="6">
+        <f t="shared" si="90"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="364" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A364" s="1">
+        <v>43944</v>
+      </c>
+      <c r="B364" t="s">
+        <v>2</v>
+      </c>
+      <c r="C364" s="2">
+        <v>1641</v>
+      </c>
+      <c r="D364" s="6">
+        <f t="shared" si="86"/>
+        <v>0.19852407452213888</v>
+      </c>
+      <c r="E364" s="7">
+        <f t="shared" si="87"/>
+        <v>73</v>
+      </c>
+      <c r="F364" s="6">
+        <f t="shared" si="88"/>
+        <v>0.17216981132075471</v>
+      </c>
+      <c r="G364" s="2">
+        <v>2</v>
+      </c>
+      <c r="H364" s="7">
+        <f t="shared" si="89"/>
+        <v>0</v>
+      </c>
+      <c r="I364" s="6">
+        <f t="shared" si="90"/>
+        <v>1.1764705882352941E-2</v>
+      </c>
+    </row>
+    <row r="365" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A365" s="1">
+        <v>43944</v>
+      </c>
+      <c r="B365" t="s">
+        <v>3</v>
+      </c>
+      <c r="C365" s="2">
+        <v>1415</v>
+      </c>
+      <c r="D365" s="6">
+        <f t="shared" si="86"/>
+        <v>0.17118315993225261</v>
+      </c>
+      <c r="E365" s="7">
+        <f t="shared" si="87"/>
+        <v>57</v>
+      </c>
+      <c r="F365" s="6">
+        <f t="shared" si="88"/>
+        <v>0.13443396226415094</v>
+      </c>
+      <c r="G365" s="2">
+        <v>1</v>
+      </c>
+      <c r="H365" s="7">
+        <f t="shared" si="89"/>
+        <v>0</v>
+      </c>
+      <c r="I365" s="6">
+        <f t="shared" si="90"/>
+        <v>5.8823529411764705E-3</v>
+      </c>
+    </row>
+    <row r="366" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A366" s="1">
+        <v>43944</v>
+      </c>
+      <c r="B366" t="s">
+        <v>4</v>
+      </c>
+      <c r="C366" s="2">
+        <v>1418</v>
+      </c>
+      <c r="D366" s="6">
+        <f t="shared" si="86"/>
+        <v>0.17154609242680863</v>
+      </c>
+      <c r="E366" s="7">
+        <f t="shared" si="87"/>
+        <v>48</v>
+      </c>
+      <c r="F366" s="6">
+        <f t="shared" si="88"/>
+        <v>0.11320754716981132</v>
+      </c>
+      <c r="G366" s="2">
+        <v>10</v>
+      </c>
+      <c r="H366" s="7">
+        <f t="shared" si="89"/>
+        <v>0</v>
+      </c>
+      <c r="I366" s="6">
+        <f t="shared" si="90"/>
+        <v>5.8823529411764705E-2</v>
+      </c>
+    </row>
+    <row r="367" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A367" s="1">
+        <v>43944</v>
+      </c>
+      <c r="B367" t="s">
+        <v>5</v>
+      </c>
+      <c r="C367" s="2">
+        <v>1450</v>
+      </c>
+      <c r="D367" s="6">
+        <f t="shared" si="86"/>
+        <v>0.17541737236873942</v>
+      </c>
+      <c r="E367" s="7">
+        <f t="shared" si="87"/>
+        <v>43</v>
+      </c>
+      <c r="F367" s="6">
+        <f t="shared" si="88"/>
+        <v>0.10141509433962265</v>
+      </c>
+      <c r="G367" s="2">
+        <v>15</v>
+      </c>
+      <c r="H367" s="7">
+        <f t="shared" si="89"/>
+        <v>0</v>
+      </c>
+      <c r="I367" s="6">
+        <f t="shared" si="90"/>
+        <v>8.8235294117647065E-2</v>
+      </c>
+    </row>
+    <row r="368" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A368" s="1">
+        <v>43944</v>
+      </c>
+      <c r="B368" t="s">
+        <v>6</v>
+      </c>
+      <c r="C368" s="2">
+        <v>916</v>
+      </c>
+      <c r="D368" s="6">
+        <f t="shared" si="86"/>
+        <v>0.11081538833776917</v>
+      </c>
+      <c r="E368" s="7">
+        <f t="shared" si="87"/>
+        <v>16</v>
+      </c>
+      <c r="F368" s="6">
+        <f t="shared" si="88"/>
+        <v>3.7735849056603772E-2</v>
+      </c>
+      <c r="G368" s="2">
+        <v>40</v>
+      </c>
+      <c r="H368" s="7">
+        <f t="shared" si="89"/>
+        <v>2</v>
+      </c>
+      <c r="I368" s="6">
+        <f t="shared" si="90"/>
+        <v>0.23529411764705882</v>
+      </c>
+    </row>
+    <row r="369" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A369" s="1">
+        <v>43944</v>
+      </c>
+      <c r="B369" t="s">
+        <v>7</v>
+      </c>
+      <c r="C369" s="2">
+        <v>445</v>
+      </c>
+      <c r="D369" s="6">
+        <f t="shared" si="86"/>
+        <v>5.3834986692475197E-2</v>
+      </c>
+      <c r="E369" s="7">
+        <f t="shared" si="87"/>
+        <v>15</v>
+      </c>
+      <c r="F369" s="6">
+        <f t="shared" si="88"/>
+        <v>3.5377358490566037E-2</v>
+      </c>
+      <c r="G369" s="2">
+        <v>46</v>
+      </c>
+      <c r="H369" s="7">
+        <f t="shared" si="89"/>
+        <v>1</v>
+      </c>
+      <c r="I369" s="6">
+        <f t="shared" si="90"/>
+        <v>0.27058823529411763</v>
+      </c>
+    </row>
+    <row r="370" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A370" s="1">
+        <v>43944</v>
+      </c>
+      <c r="B370" t="s">
+        <v>25</v>
+      </c>
+      <c r="C370" s="2">
+        <v>264</v>
+      </c>
+      <c r="D370" s="6">
+        <f t="shared" si="86"/>
+        <v>3.193805952092911E-2</v>
+      </c>
+      <c r="E370" s="7">
+        <f t="shared" si="87"/>
+        <v>12</v>
+      </c>
+      <c r="F370" s="6">
+        <f t="shared" si="88"/>
+        <v>2.8301886792452831E-2</v>
+      </c>
+      <c r="G370" s="2">
+        <v>55</v>
+      </c>
+      <c r="H370" s="7">
+        <f t="shared" si="89"/>
+        <v>1</v>
+      </c>
+      <c r="I370" s="6">
+        <f t="shared" si="90"/>
+        <v>0.3235294117647059</v>
+      </c>
+    </row>
+    <row r="371" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A371" s="1">
+        <v>43944</v>
+      </c>
+      <c r="B371" t="s">
+        <v>21</v>
+      </c>
+      <c r="C371" s="2">
+        <v>152</v>
+      </c>
+      <c r="D371" s="6">
+        <f t="shared" si="86"/>
+        <v>1.8388579724171305E-2</v>
+      </c>
+      <c r="E371" s="7">
+        <f t="shared" si="87"/>
+        <v>142</v>
+      </c>
+      <c r="F371" s="6">
+        <f t="shared" si="88"/>
+        <v>0.33490566037735847</v>
+      </c>
+      <c r="G371" s="2">
+        <v>0</v>
+      </c>
+      <c r="H371" s="7">
+        <f t="shared" si="89"/>
+        <v>0</v>
+      </c>
+      <c r="I371" s="6">
+        <f t="shared" si="90"/>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/TN_Age.xlsx
+++ b/TN_Age.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="26">
   <si>
     <t>0-10</t>
   </si>
@@ -440,11 +440,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I371"/>
+  <dimension ref="A1:I381"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A342" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A371" sqref="A371"/>
+      <pane ySplit="1" topLeftCell="A351" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A381" sqref="A381"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10572,6 +10572,346 @@
         <v>0</v>
       </c>
     </row>
+    <row r="372" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A372" s="1">
+        <v>43945</v>
+      </c>
+      <c r="B372" t="s">
+        <v>0</v>
+      </c>
+      <c r="C372" s="2">
+        <v>130</v>
+      </c>
+      <c r="D372" s="6">
+        <f t="shared" ref="D372:D381" si="91">C372/SUMIF(A:A,A372,C:C)</f>
+        <v>1.4898005959202383E-2</v>
+      </c>
+      <c r="E372" s="7">
+        <f t="shared" ref="E372:E381" si="92">C372-SUMIFS(C:C,A:A,A372-1,B:B,B372)</f>
+        <v>8</v>
+      </c>
+      <c r="F372" s="6">
+        <f t="shared" ref="F372:F381" si="93">E372/SUMIF(A:A,A372,E:E)</f>
+        <v>1.7391304347826087E-2</v>
+      </c>
+      <c r="G372" s="2">
+        <v>1</v>
+      </c>
+      <c r="H372" s="7">
+        <f t="shared" ref="H372:H381" si="94">G372-SUMIFS(G:G,A:A,A372-1,B:B,B372)</f>
+        <v>0</v>
+      </c>
+      <c r="I372" s="6">
+        <f t="shared" ref="I372:I381" si="95">G372/SUMIF(A:A,A372,G:G)</f>
+        <v>5.9523809523809521E-3</v>
+      </c>
+    </row>
+    <row r="373" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A373" s="1">
+        <v>43945</v>
+      </c>
+      <c r="B373" t="s">
+        <v>1</v>
+      </c>
+      <c r="C373" s="2">
+        <v>461</v>
+      </c>
+      <c r="D373" s="6">
+        <f t="shared" si="91"/>
+        <v>5.283062113224845E-2</v>
+      </c>
+      <c r="E373" s="7">
+        <f t="shared" si="92"/>
+        <v>18</v>
+      </c>
+      <c r="F373" s="6">
+        <f t="shared" si="93"/>
+        <v>3.9130434782608699E-2</v>
+      </c>
+      <c r="G373" s="2">
+        <v>0</v>
+      </c>
+      <c r="H373" s="7">
+        <f t="shared" si="94"/>
+        <v>0</v>
+      </c>
+      <c r="I373" s="6">
+        <f t="shared" si="95"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="374" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A374" s="1">
+        <v>43945</v>
+      </c>
+      <c r="B374" t="s">
+        <v>2</v>
+      </c>
+      <c r="C374" s="2">
+        <v>1671</v>
+      </c>
+      <c r="D374" s="6">
+        <f t="shared" si="91"/>
+        <v>0.19149667659867065</v>
+      </c>
+      <c r="E374" s="7">
+        <f t="shared" si="92"/>
+        <v>30</v>
+      </c>
+      <c r="F374" s="6">
+        <f t="shared" si="93"/>
+        <v>6.5217391304347824E-2</v>
+      </c>
+      <c r="G374" s="2">
+        <v>1</v>
+      </c>
+      <c r="H374" s="7">
+        <f t="shared" si="94"/>
+        <v>-1</v>
+      </c>
+      <c r="I374" s="6">
+        <f t="shared" si="95"/>
+        <v>5.9523809523809521E-3</v>
+      </c>
+    </row>
+    <row r="375" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A375" s="1">
+        <v>43945</v>
+      </c>
+      <c r="B375" t="s">
+        <v>3</v>
+      </c>
+      <c r="C375" s="2">
+        <v>1450</v>
+      </c>
+      <c r="D375" s="6">
+        <f t="shared" si="91"/>
+        <v>0.16617006646802659</v>
+      </c>
+      <c r="E375" s="7">
+        <f t="shared" si="92"/>
+        <v>35</v>
+      </c>
+      <c r="F375" s="6">
+        <f t="shared" si="93"/>
+        <v>7.6086956521739135E-2</v>
+      </c>
+      <c r="G375" s="2">
+        <v>1</v>
+      </c>
+      <c r="H375" s="7">
+        <f t="shared" si="94"/>
+        <v>0</v>
+      </c>
+      <c r="I375" s="6">
+        <f t="shared" si="95"/>
+        <v>5.9523809523809521E-3</v>
+      </c>
+    </row>
+    <row r="376" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A376" s="1">
+        <v>43945</v>
+      </c>
+      <c r="B376" t="s">
+        <v>4</v>
+      </c>
+      <c r="C376" s="2">
+        <v>1451</v>
+      </c>
+      <c r="D376" s="6">
+        <f t="shared" si="91"/>
+        <v>0.16628466651386661</v>
+      </c>
+      <c r="E376" s="7">
+        <f t="shared" si="92"/>
+        <v>33</v>
+      </c>
+      <c r="F376" s="6">
+        <f t="shared" si="93"/>
+        <v>7.1739130434782611E-2</v>
+      </c>
+      <c r="G376" s="2">
+        <v>10</v>
+      </c>
+      <c r="H376" s="7">
+        <f t="shared" si="94"/>
+        <v>0</v>
+      </c>
+      <c r="I376" s="6">
+        <f t="shared" si="95"/>
+        <v>5.9523809523809521E-2</v>
+      </c>
+    </row>
+    <row r="377" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A377" s="1">
+        <v>43945</v>
+      </c>
+      <c r="B377" t="s">
+        <v>5</v>
+      </c>
+      <c r="C377" s="2">
+        <v>1480</v>
+      </c>
+      <c r="D377" s="6">
+        <f t="shared" si="91"/>
+        <v>0.16960806784322713</v>
+      </c>
+      <c r="E377" s="7">
+        <f t="shared" si="92"/>
+        <v>30</v>
+      </c>
+      <c r="F377" s="6">
+        <f t="shared" si="93"/>
+        <v>6.5217391304347824E-2</v>
+      </c>
+      <c r="G377" s="2">
+        <v>15</v>
+      </c>
+      <c r="H377" s="7">
+        <f t="shared" si="94"/>
+        <v>0</v>
+      </c>
+      <c r="I377" s="6">
+        <f t="shared" si="95"/>
+        <v>8.9285714285714288E-2</v>
+      </c>
+    </row>
+    <row r="378" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A378" s="1">
+        <v>43945</v>
+      </c>
+      <c r="B378" t="s">
+        <v>6</v>
+      </c>
+      <c r="C378" s="2">
+        <v>935</v>
+      </c>
+      <c r="D378" s="6">
+        <f t="shared" si="91"/>
+        <v>0.10715104286041714</v>
+      </c>
+      <c r="E378" s="7">
+        <f t="shared" si="92"/>
+        <v>19</v>
+      </c>
+      <c r="F378" s="6">
+        <f t="shared" si="93"/>
+        <v>4.1304347826086954E-2</v>
+      </c>
+      <c r="G378" s="2">
+        <v>40</v>
+      </c>
+      <c r="H378" s="7">
+        <f t="shared" si="94"/>
+        <v>0</v>
+      </c>
+      <c r="I378" s="6">
+        <f t="shared" si="95"/>
+        <v>0.23809523809523808</v>
+      </c>
+    </row>
+    <row r="379" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A379" s="1">
+        <v>43945</v>
+      </c>
+      <c r="B379" t="s">
+        <v>7</v>
+      </c>
+      <c r="C379" s="2">
+        <v>459</v>
+      </c>
+      <c r="D379" s="6">
+        <f t="shared" si="91"/>
+        <v>5.2601421040568419E-2</v>
+      </c>
+      <c r="E379" s="7">
+        <f t="shared" si="92"/>
+        <v>14</v>
+      </c>
+      <c r="F379" s="6">
+        <f t="shared" si="93"/>
+        <v>3.0434782608695653E-2</v>
+      </c>
+      <c r="G379" s="2">
+        <v>45</v>
+      </c>
+      <c r="H379" s="7">
+        <f t="shared" si="94"/>
+        <v>-1</v>
+      </c>
+      <c r="I379" s="6">
+        <f t="shared" si="95"/>
+        <v>0.26785714285714285</v>
+      </c>
+    </row>
+    <row r="380" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A380" s="1">
+        <v>43945</v>
+      </c>
+      <c r="B380" t="s">
+        <v>25</v>
+      </c>
+      <c r="C380" s="2">
+        <v>274</v>
+      </c>
+      <c r="D380" s="6">
+        <f t="shared" si="91"/>
+        <v>3.1400412560165021E-2</v>
+      </c>
+      <c r="E380" s="7">
+        <f t="shared" si="92"/>
+        <v>10</v>
+      </c>
+      <c r="F380" s="6">
+        <f t="shared" si="93"/>
+        <v>2.1739130434782608E-2</v>
+      </c>
+      <c r="G380" s="2">
+        <v>55</v>
+      </c>
+      <c r="H380" s="7">
+        <f t="shared" si="94"/>
+        <v>0</v>
+      </c>
+      <c r="I380" s="6">
+        <f t="shared" si="95"/>
+        <v>0.32738095238095238</v>
+      </c>
+    </row>
+    <row r="381" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A381" s="1">
+        <v>43945</v>
+      </c>
+      <c r="B381" t="s">
+        <v>21</v>
+      </c>
+      <c r="C381" s="2">
+        <v>415</v>
+      </c>
+      <c r="D381" s="6">
+        <f t="shared" si="91"/>
+        <v>4.755901902360761E-2</v>
+      </c>
+      <c r="E381" s="7">
+        <f t="shared" si="92"/>
+        <v>263</v>
+      </c>
+      <c r="F381" s="6">
+        <f t="shared" si="93"/>
+        <v>0.57173913043478264</v>
+      </c>
+      <c r="G381" s="2">
+        <v>0</v>
+      </c>
+      <c r="H381" s="7">
+        <f t="shared" si="94"/>
+        <v>0</v>
+      </c>
+      <c r="I381" s="6">
+        <f t="shared" si="95"/>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/TN_Age.xlsx
+++ b/TN_Age.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="26">
   <si>
     <t>0-10</t>
   </si>
@@ -440,11 +440,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I381"/>
+  <dimension ref="A1:I391"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A351" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A381" sqref="A381"/>
+      <pane ySplit="1" topLeftCell="A372" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G391" sqref="G391"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10912,6 +10912,346 @@
         <v>0</v>
       </c>
     </row>
+    <row r="382" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A382" s="1">
+        <v>43946</v>
+      </c>
+      <c r="B382" t="s">
+        <v>0</v>
+      </c>
+      <c r="C382" s="2">
+        <v>145</v>
+      </c>
+      <c r="D382" s="6">
+        <f t="shared" ref="D382:D391" si="96">C382/SUMIF(A:A,A382,C:C)</f>
+        <v>1.5779736641636739E-2</v>
+      </c>
+      <c r="E382" s="7">
+        <f t="shared" ref="E382:E391" si="97">C382-SUMIFS(C:C,A:A,A382-1,B:B,B382)</f>
+        <v>15</v>
+      </c>
+      <c r="F382" s="6">
+        <f t="shared" ref="F382:F391" si="98">E382/SUMIF(A:A,A382,E:E)</f>
+        <v>3.2397408207343416E-2</v>
+      </c>
+      <c r="G382" s="2">
+        <v>1</v>
+      </c>
+      <c r="H382" s="7">
+        <f t="shared" ref="H382:H391" si="99">G382-SUMIFS(G:G,A:A,A382-1,B:B,B382)</f>
+        <v>0</v>
+      </c>
+      <c r="I382" s="6">
+        <f t="shared" ref="I382:I391" si="100">G382/SUMIF(A:A,A382,G:G)</f>
+        <v>5.6179775280898875E-3</v>
+      </c>
+    </row>
+    <row r="383" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A383" s="1">
+        <v>43946</v>
+      </c>
+      <c r="B383" t="s">
+        <v>1</v>
+      </c>
+      <c r="C383" s="2">
+        <v>517</v>
+      </c>
+      <c r="D383" s="6">
+        <f t="shared" si="96"/>
+        <v>5.6262923060180652E-2</v>
+      </c>
+      <c r="E383" s="7">
+        <f t="shared" si="97"/>
+        <v>56</v>
+      </c>
+      <c r="F383" s="6">
+        <f t="shared" si="98"/>
+        <v>0.12095032397408208</v>
+      </c>
+      <c r="G383" s="2">
+        <v>0</v>
+      </c>
+      <c r="H383" s="7">
+        <f t="shared" si="99"/>
+        <v>0</v>
+      </c>
+      <c r="I383" s="6">
+        <f t="shared" si="100"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="384" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A384" s="1">
+        <v>43946</v>
+      </c>
+      <c r="B384" t="s">
+        <v>2</v>
+      </c>
+      <c r="C384" s="2">
+        <v>1742</v>
+      </c>
+      <c r="D384" s="6">
+        <f t="shared" si="96"/>
+        <v>0.18957449123952552</v>
+      </c>
+      <c r="E384" s="7">
+        <f t="shared" si="97"/>
+        <v>71</v>
+      </c>
+      <c r="F384" s="6">
+        <f t="shared" si="98"/>
+        <v>0.15334773218142547</v>
+      </c>
+      <c r="G384" s="2">
+        <v>1</v>
+      </c>
+      <c r="H384" s="7">
+        <f t="shared" si="99"/>
+        <v>0</v>
+      </c>
+      <c r="I384" s="6">
+        <f t="shared" si="100"/>
+        <v>5.6179775280898875E-3</v>
+      </c>
+    </row>
+    <row r="385" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A385" s="1">
+        <v>43946</v>
+      </c>
+      <c r="B385" t="s">
+        <v>3</v>
+      </c>
+      <c r="C385" s="2">
+        <v>1536</v>
+      </c>
+      <c r="D385" s="6">
+        <f t="shared" si="96"/>
+        <v>0.16715638263140711</v>
+      </c>
+      <c r="E385" s="7">
+        <f t="shared" si="97"/>
+        <v>86</v>
+      </c>
+      <c r="F385" s="6">
+        <f t="shared" si="98"/>
+        <v>0.18574514038876891</v>
+      </c>
+      <c r="G385" s="2">
+        <v>1</v>
+      </c>
+      <c r="H385" s="7">
+        <f t="shared" si="99"/>
+        <v>0</v>
+      </c>
+      <c r="I385" s="6">
+        <f t="shared" si="100"/>
+        <v>5.6179775280898875E-3</v>
+      </c>
+    </row>
+    <row r="386" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A386" s="1">
+        <v>43946</v>
+      </c>
+      <c r="B386" t="s">
+        <v>4</v>
+      </c>
+      <c r="C386" s="2">
+        <v>1531</v>
+      </c>
+      <c r="D386" s="6">
+        <f t="shared" si="96"/>
+        <v>0.1666122537816955</v>
+      </c>
+      <c r="E386" s="7">
+        <f t="shared" si="97"/>
+        <v>80</v>
+      </c>
+      <c r="F386" s="6">
+        <f t="shared" si="98"/>
+        <v>0.17278617710583152</v>
+      </c>
+      <c r="G386" s="2">
+        <v>10</v>
+      </c>
+      <c r="H386" s="7">
+        <f t="shared" si="99"/>
+        <v>0</v>
+      </c>
+      <c r="I386" s="6">
+        <f t="shared" si="100"/>
+        <v>5.6179775280898875E-2</v>
+      </c>
+    </row>
+    <row r="387" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A387" s="1">
+        <v>43946</v>
+      </c>
+      <c r="B387" t="s">
+        <v>5</v>
+      </c>
+      <c r="C387" s="2">
+        <v>1542</v>
+      </c>
+      <c r="D387" s="6">
+        <f t="shared" si="96"/>
+        <v>0.16780933725106106</v>
+      </c>
+      <c r="E387" s="7">
+        <f t="shared" si="97"/>
+        <v>62</v>
+      </c>
+      <c r="F387" s="6">
+        <f t="shared" si="98"/>
+        <v>0.13390928725701945</v>
+      </c>
+      <c r="G387" s="2">
+        <v>15</v>
+      </c>
+      <c r="H387" s="7">
+        <f t="shared" si="99"/>
+        <v>0</v>
+      </c>
+      <c r="I387" s="6">
+        <f t="shared" si="100"/>
+        <v>8.4269662921348312E-2</v>
+      </c>
+    </row>
+    <row r="388" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A388" s="1">
+        <v>43946</v>
+      </c>
+      <c r="B388" t="s">
+        <v>6</v>
+      </c>
+      <c r="C388" s="2">
+        <v>970</v>
+      </c>
+      <c r="D388" s="6">
+        <f t="shared" si="96"/>
+        <v>0.10556099684405267</v>
+      </c>
+      <c r="E388" s="7">
+        <f t="shared" si="97"/>
+        <v>35</v>
+      </c>
+      <c r="F388" s="6">
+        <f t="shared" si="98"/>
+        <v>7.5593952483801297E-2</v>
+      </c>
+      <c r="G388" s="2">
+        <v>42</v>
+      </c>
+      <c r="H388" s="7">
+        <f t="shared" si="99"/>
+        <v>2</v>
+      </c>
+      <c r="I388" s="6">
+        <f t="shared" si="100"/>
+        <v>0.23595505617977527</v>
+      </c>
+    </row>
+    <row r="389" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A389" s="1">
+        <v>43946</v>
+      </c>
+      <c r="B389" t="s">
+        <v>7</v>
+      </c>
+      <c r="C389" s="2">
+        <v>481</v>
+      </c>
+      <c r="D389" s="6">
+        <f t="shared" si="96"/>
+        <v>5.2345195342257046E-2</v>
+      </c>
+      <c r="E389" s="7">
+        <f t="shared" si="97"/>
+        <v>22</v>
+      </c>
+      <c r="F389" s="6">
+        <f t="shared" si="98"/>
+        <v>4.7516198704103674E-2</v>
+      </c>
+      <c r="G389" s="2">
+        <v>50</v>
+      </c>
+      <c r="H389" s="7">
+        <f t="shared" si="99"/>
+        <v>5</v>
+      </c>
+      <c r="I389" s="6">
+        <f t="shared" si="100"/>
+        <v>0.2808988764044944</v>
+      </c>
+    </row>
+    <row r="390" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A390" s="1">
+        <v>43946</v>
+      </c>
+      <c r="B390" t="s">
+        <v>25</v>
+      </c>
+      <c r="C390" s="2">
+        <v>291</v>
+      </c>
+      <c r="D390" s="6">
+        <f t="shared" si="96"/>
+        <v>3.1668299053215804E-2</v>
+      </c>
+      <c r="E390" s="7">
+        <f t="shared" si="97"/>
+        <v>17</v>
+      </c>
+      <c r="F390" s="6">
+        <f t="shared" si="98"/>
+        <v>3.6717062634989202E-2</v>
+      </c>
+      <c r="G390" s="2">
+        <v>58</v>
+      </c>
+      <c r="H390" s="7">
+        <f t="shared" si="99"/>
+        <v>3</v>
+      </c>
+      <c r="I390" s="6">
+        <f t="shared" si="100"/>
+        <v>0.3258426966292135</v>
+      </c>
+    </row>
+    <row r="391" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A391" s="1">
+        <v>43946</v>
+      </c>
+      <c r="B391" t="s">
+        <v>21</v>
+      </c>
+      <c r="C391" s="2">
+        <v>434</v>
+      </c>
+      <c r="D391" s="6">
+        <f t="shared" si="96"/>
+        <v>4.7230384154967893E-2</v>
+      </c>
+      <c r="E391" s="7">
+        <f t="shared" si="97"/>
+        <v>19</v>
+      </c>
+      <c r="F391" s="6">
+        <f t="shared" si="98"/>
+        <v>4.1036717062634988E-2</v>
+      </c>
+      <c r="G391" s="2">
+        <v>0</v>
+      </c>
+      <c r="H391" s="7">
+        <f t="shared" si="99"/>
+        <v>0</v>
+      </c>
+      <c r="I391" s="6">
+        <f t="shared" si="100"/>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/TN_Age.xlsx
+++ b/TN_Age.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="26">
   <si>
     <t>0-10</t>
   </si>
@@ -440,11 +440,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I391"/>
+  <dimension ref="A1:I401"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A372" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G391" sqref="G391"/>
+      <selection pane="bottomLeft" activeCell="A401" sqref="A401"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11252,6 +11252,346 @@
         <v>0</v>
       </c>
     </row>
+    <row r="392" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A392" s="1">
+        <v>43947</v>
+      </c>
+      <c r="B392" t="s">
+        <v>0</v>
+      </c>
+      <c r="C392" s="2">
+        <v>158</v>
+      </c>
+      <c r="D392" s="6">
+        <f t="shared" ref="D392:D401" si="101">C392/SUMIF(A:A,A392,C:C)</f>
+        <v>1.6344263990896866E-2</v>
+      </c>
+      <c r="E392" s="7">
+        <f t="shared" ref="E392:E401" si="102">C392-SUMIFS(C:C,A:A,A392-1,B:B,B392)</f>
+        <v>13</v>
+      </c>
+      <c r="F392" s="6">
+        <f t="shared" ref="F392:F401" si="103">E392/SUMIF(A:A,A392,E:E)</f>
+        <v>2.7196652719665274E-2</v>
+      </c>
+      <c r="G392" s="2">
+        <v>1</v>
+      </c>
+      <c r="H392" s="7">
+        <f t="shared" ref="H392" si="104">G392-SUMIFS(G:G,A:A,A392-1,B:B,B392)</f>
+        <v>0</v>
+      </c>
+      <c r="I392" s="6">
+        <f t="shared" ref="I392" si="105">G392/SUMIF(A:A,A392,G:G)</f>
+        <v>5.5248618784530384E-3</v>
+      </c>
+    </row>
+    <row r="393" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A393" s="1">
+        <v>43947</v>
+      </c>
+      <c r="B393" t="s">
+        <v>1</v>
+      </c>
+      <c r="C393" s="2">
+        <v>567</v>
+      </c>
+      <c r="D393" s="6">
+        <f t="shared" si="101"/>
+        <v>5.8653149891383052E-2</v>
+      </c>
+      <c r="E393" s="7">
+        <f t="shared" si="102"/>
+        <v>50</v>
+      </c>
+      <c r="F393" s="6">
+        <f t="shared" si="103"/>
+        <v>0.10460251046025104</v>
+      </c>
+      <c r="G393" s="2">
+        <v>0</v>
+      </c>
+      <c r="H393" s="7">
+        <f t="shared" ref="H393:H401" si="106">G393-SUMIFS(G:G,A:A,A393-1,B:B,B393)</f>
+        <v>0</v>
+      </c>
+      <c r="I393" s="6">
+        <f t="shared" ref="I393:I401" si="107">G393/SUMIF(A:A,A393,G:G)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="394" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A394" s="1">
+        <v>43947</v>
+      </c>
+      <c r="B394" t="s">
+        <v>2</v>
+      </c>
+      <c r="C394" s="2">
+        <v>1870</v>
+      </c>
+      <c r="D394" s="6">
+        <f t="shared" si="101"/>
+        <v>0.19344160546188063</v>
+      </c>
+      <c r="E394" s="7">
+        <f t="shared" si="102"/>
+        <v>128</v>
+      </c>
+      <c r="F394" s="6">
+        <f t="shared" si="103"/>
+        <v>0.26778242677824265</v>
+      </c>
+      <c r="G394" s="2">
+        <v>1</v>
+      </c>
+      <c r="H394" s="7">
+        <f t="shared" si="106"/>
+        <v>0</v>
+      </c>
+      <c r="I394" s="6">
+        <f t="shared" si="107"/>
+        <v>5.5248618784530384E-3</v>
+      </c>
+    </row>
+    <row r="395" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A395" s="1">
+        <v>43947</v>
+      </c>
+      <c r="B395" t="s">
+        <v>3</v>
+      </c>
+      <c r="C395" s="2">
+        <v>1630</v>
+      </c>
+      <c r="D395" s="6">
+        <f t="shared" si="101"/>
+        <v>0.16861487534912589</v>
+      </c>
+      <c r="E395" s="7">
+        <f t="shared" si="102"/>
+        <v>94</v>
+      </c>
+      <c r="F395" s="6">
+        <f t="shared" si="103"/>
+        <v>0.19665271966527198</v>
+      </c>
+      <c r="G395" s="2">
+        <v>2</v>
+      </c>
+      <c r="H395" s="7">
+        <f t="shared" si="106"/>
+        <v>1</v>
+      </c>
+      <c r="I395" s="6">
+        <f t="shared" si="107"/>
+        <v>1.1049723756906077E-2</v>
+      </c>
+    </row>
+    <row r="396" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A396" s="1">
+        <v>43947</v>
+      </c>
+      <c r="B396" t="s">
+        <v>4</v>
+      </c>
+      <c r="C396" s="2">
+        <v>1608</v>
+      </c>
+      <c r="D396" s="6">
+        <f t="shared" si="101"/>
+        <v>0.16633909175545672</v>
+      </c>
+      <c r="E396" s="7">
+        <f t="shared" si="102"/>
+        <v>77</v>
+      </c>
+      <c r="F396" s="6">
+        <f t="shared" si="103"/>
+        <v>0.16108786610878661</v>
+      </c>
+      <c r="G396" s="2">
+        <v>10</v>
+      </c>
+      <c r="H396" s="7">
+        <f t="shared" si="106"/>
+        <v>0</v>
+      </c>
+      <c r="I396" s="6">
+        <f t="shared" si="107"/>
+        <v>5.5248618784530384E-2</v>
+      </c>
+    </row>
+    <row r="397" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A397" s="1">
+        <v>43947</v>
+      </c>
+      <c r="B397" t="s">
+        <v>5</v>
+      </c>
+      <c r="C397" s="2">
+        <v>1592</v>
+      </c>
+      <c r="D397" s="6">
+        <f t="shared" si="101"/>
+        <v>0.16468397641460639</v>
+      </c>
+      <c r="E397" s="7">
+        <f t="shared" si="102"/>
+        <v>50</v>
+      </c>
+      <c r="F397" s="6">
+        <f t="shared" si="103"/>
+        <v>0.10460251046025104</v>
+      </c>
+      <c r="G397" s="2">
+        <v>15</v>
+      </c>
+      <c r="H397" s="7">
+        <f t="shared" si="106"/>
+        <v>0</v>
+      </c>
+      <c r="I397" s="6">
+        <f t="shared" si="107"/>
+        <v>8.2872928176795577E-2</v>
+      </c>
+    </row>
+    <row r="398" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A398" s="1">
+        <v>43947</v>
+      </c>
+      <c r="B398" t="s">
+        <v>6</v>
+      </c>
+      <c r="C398" s="2">
+        <v>1001</v>
+      </c>
+      <c r="D398" s="6">
+        <f t="shared" si="101"/>
+        <v>0.10354815351194786</v>
+      </c>
+      <c r="E398" s="7">
+        <f t="shared" si="102"/>
+        <v>31</v>
+      </c>
+      <c r="F398" s="6">
+        <f t="shared" si="103"/>
+        <v>6.4853556485355651E-2</v>
+      </c>
+      <c r="G398" s="2">
+        <v>42</v>
+      </c>
+      <c r="H398" s="7">
+        <f t="shared" si="106"/>
+        <v>0</v>
+      </c>
+      <c r="I398" s="6">
+        <f t="shared" si="107"/>
+        <v>0.23204419889502761</v>
+      </c>
+    </row>
+    <row r="399" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A399" s="1">
+        <v>43947</v>
+      </c>
+      <c r="B399" t="s">
+        <v>7</v>
+      </c>
+      <c r="C399" s="2">
+        <v>497</v>
+      </c>
+      <c r="D399" s="6">
+        <f t="shared" si="101"/>
+        <v>5.1412020275162923E-2</v>
+      </c>
+      <c r="E399" s="7">
+        <f t="shared" si="102"/>
+        <v>16</v>
+      </c>
+      <c r="F399" s="6">
+        <f t="shared" si="103"/>
+        <v>3.3472803347280332E-2</v>
+      </c>
+      <c r="G399" s="2">
+        <v>50</v>
+      </c>
+      <c r="H399" s="7">
+        <f t="shared" si="106"/>
+        <v>0</v>
+      </c>
+      <c r="I399" s="6">
+        <f t="shared" si="107"/>
+        <v>0.27624309392265195</v>
+      </c>
+    </row>
+    <row r="400" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A400" s="1">
+        <v>43947</v>
+      </c>
+      <c r="B400" t="s">
+        <v>25</v>
+      </c>
+      <c r="C400" s="2">
+        <v>311</v>
+      </c>
+      <c r="D400" s="6">
+        <f t="shared" si="101"/>
+        <v>3.2171304437778006E-2</v>
+      </c>
+      <c r="E400" s="7">
+        <f t="shared" si="102"/>
+        <v>20</v>
+      </c>
+      <c r="F400" s="6">
+        <f t="shared" si="103"/>
+        <v>4.1841004184100417E-2</v>
+      </c>
+      <c r="G400" s="2">
+        <v>60</v>
+      </c>
+      <c r="H400" s="7">
+        <f t="shared" si="106"/>
+        <v>2</v>
+      </c>
+      <c r="I400" s="6">
+        <f t="shared" si="107"/>
+        <v>0.33149171270718231</v>
+      </c>
+    </row>
+    <row r="401" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A401" s="1">
+        <v>43947</v>
+      </c>
+      <c r="B401" t="s">
+        <v>21</v>
+      </c>
+      <c r="C401" s="2">
+        <v>433</v>
+      </c>
+      <c r="D401" s="6">
+        <f t="shared" si="101"/>
+        <v>4.4791558911761661E-2</v>
+      </c>
+      <c r="E401" s="7">
+        <f t="shared" si="102"/>
+        <v>-1</v>
+      </c>
+      <c r="F401" s="6">
+        <f t="shared" si="103"/>
+        <v>-2.0920502092050207E-3</v>
+      </c>
+      <c r="G401" s="2">
+        <v>0</v>
+      </c>
+      <c r="H401" s="7">
+        <f t="shared" si="106"/>
+        <v>0</v>
+      </c>
+      <c r="I401" s="6">
+        <f t="shared" si="107"/>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/TN_Age.xlsx
+++ b/TN_Age.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="26">
   <si>
     <t>0-10</t>
   </si>
@@ -440,11 +440,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I401"/>
+  <dimension ref="A1:I411"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A372" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A401" sqref="A401"/>
+      <pane ySplit="1" topLeftCell="A381" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A411" sqref="A411"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11592,6 +11592,346 @@
         <v>0</v>
       </c>
     </row>
+    <row r="402" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A402" s="1">
+        <v>43948</v>
+      </c>
+      <c r="B402" t="s">
+        <v>0</v>
+      </c>
+      <c r="C402" s="2">
+        <v>166</v>
+      </c>
+      <c r="D402" s="6">
+        <f t="shared" ref="D402:D411" si="108">C402/SUMIF(A:A,A402,C:C)</f>
+        <v>1.673724541238153E-2</v>
+      </c>
+      <c r="E402" s="7">
+        <f t="shared" ref="E402:E411" si="109">C402-SUMIFS(C:C,A:A,A402-1,B:B,B402)</f>
+        <v>8</v>
+      </c>
+      <c r="F402" s="6">
+        <f t="shared" ref="F402:F411" si="110">E402/SUMIF(A:A,A402,E:E)</f>
+        <v>3.1872509960159362E-2</v>
+      </c>
+      <c r="G402" s="2">
+        <v>1</v>
+      </c>
+      <c r="H402" s="7">
+        <f t="shared" ref="H402:H411" si="111">G402-SUMIFS(G:G,A:A,A402-1,B:B,B402)</f>
+        <v>0</v>
+      </c>
+      <c r="I402" s="6">
+        <f t="shared" ref="I402:I411" si="112">G402/SUMIF(A:A,A402,G:G)</f>
+        <v>5.434782608695652E-3</v>
+      </c>
+    </row>
+    <row r="403" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A403" s="1">
+        <v>43948</v>
+      </c>
+      <c r="B403" t="s">
+        <v>1</v>
+      </c>
+      <c r="C403" s="2">
+        <v>594</v>
+      </c>
+      <c r="D403" s="6">
+        <f t="shared" si="108"/>
+        <v>5.9891107078039928E-2</v>
+      </c>
+      <c r="E403" s="7">
+        <f t="shared" si="109"/>
+        <v>27</v>
+      </c>
+      <c r="F403" s="6">
+        <f t="shared" si="110"/>
+        <v>0.10756972111553785</v>
+      </c>
+      <c r="G403" s="2">
+        <v>0</v>
+      </c>
+      <c r="H403" s="7">
+        <f t="shared" si="111"/>
+        <v>0</v>
+      </c>
+      <c r="I403" s="6">
+        <f t="shared" si="112"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="404" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A404" s="1">
+        <v>43948</v>
+      </c>
+      <c r="B404" t="s">
+        <v>2</v>
+      </c>
+      <c r="C404" s="2">
+        <v>1913</v>
+      </c>
+      <c r="D404" s="6">
+        <f t="shared" si="108"/>
+        <v>0.19288162936075823</v>
+      </c>
+      <c r="E404" s="7">
+        <f t="shared" si="109"/>
+        <v>43</v>
+      </c>
+      <c r="F404" s="6">
+        <f t="shared" si="110"/>
+        <v>0.17131474103585656</v>
+      </c>
+      <c r="G404" s="2">
+        <v>1</v>
+      </c>
+      <c r="H404" s="7">
+        <f t="shared" si="111"/>
+        <v>0</v>
+      </c>
+      <c r="I404" s="6">
+        <f t="shared" si="112"/>
+        <v>5.434782608695652E-3</v>
+      </c>
+    </row>
+    <row r="405" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A405" s="1">
+        <v>43948</v>
+      </c>
+      <c r="B405" t="s">
+        <v>3</v>
+      </c>
+      <c r="C405" s="2">
+        <v>1670</v>
+      </c>
+      <c r="D405" s="6">
+        <f t="shared" si="108"/>
+        <v>0.16838072191974188</v>
+      </c>
+      <c r="E405" s="7">
+        <f t="shared" si="109"/>
+        <v>40</v>
+      </c>
+      <c r="F405" s="6">
+        <f t="shared" si="110"/>
+        <v>0.15936254980079681</v>
+      </c>
+      <c r="G405" s="2">
+        <v>2</v>
+      </c>
+      <c r="H405" s="7">
+        <f t="shared" si="111"/>
+        <v>0</v>
+      </c>
+      <c r="I405" s="6">
+        <f t="shared" si="112"/>
+        <v>1.0869565217391304E-2</v>
+      </c>
+    </row>
+    <row r="406" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A406" s="1">
+        <v>43948</v>
+      </c>
+      <c r="B406" t="s">
+        <v>4</v>
+      </c>
+      <c r="C406" s="2">
+        <v>1650</v>
+      </c>
+      <c r="D406" s="6">
+        <f t="shared" si="108"/>
+        <v>0.16636418632788869</v>
+      </c>
+      <c r="E406" s="7">
+        <f t="shared" si="109"/>
+        <v>42</v>
+      </c>
+      <c r="F406" s="6">
+        <f t="shared" si="110"/>
+        <v>0.16733067729083664</v>
+      </c>
+      <c r="G406" s="2">
+        <v>10</v>
+      </c>
+      <c r="H406" s="7">
+        <f t="shared" si="111"/>
+        <v>0</v>
+      </c>
+      <c r="I406" s="6">
+        <f t="shared" si="112"/>
+        <v>5.434782608695652E-2</v>
+      </c>
+    </row>
+    <row r="407" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A407" s="1">
+        <v>43948</v>
+      </c>
+      <c r="B407" t="s">
+        <v>5</v>
+      </c>
+      <c r="C407" s="2">
+        <v>1624</v>
+      </c>
+      <c r="D407" s="6">
+        <f t="shared" si="108"/>
+        <v>0.16374269005847952</v>
+      </c>
+      <c r="E407" s="7">
+        <f t="shared" si="109"/>
+        <v>32</v>
+      </c>
+      <c r="F407" s="6">
+        <f t="shared" si="110"/>
+        <v>0.12749003984063745</v>
+      </c>
+      <c r="G407" s="2">
+        <v>15</v>
+      </c>
+      <c r="H407" s="7">
+        <f t="shared" si="111"/>
+        <v>0</v>
+      </c>
+      <c r="I407" s="6">
+        <f t="shared" si="112"/>
+        <v>8.1521739130434784E-2</v>
+      </c>
+    </row>
+    <row r="408" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A408" s="1">
+        <v>43948</v>
+      </c>
+      <c r="B408" t="s">
+        <v>6</v>
+      </c>
+      <c r="C408" s="2">
+        <v>1025</v>
+      </c>
+      <c r="D408" s="6">
+        <f t="shared" si="108"/>
+        <v>0.10334744908247631</v>
+      </c>
+      <c r="E408" s="7">
+        <f t="shared" si="109"/>
+        <v>24</v>
+      </c>
+      <c r="F408" s="6">
+        <f t="shared" si="110"/>
+        <v>9.5617529880478086E-2</v>
+      </c>
+      <c r="G408" s="2">
+        <v>42</v>
+      </c>
+      <c r="H408" s="7">
+        <f t="shared" si="111"/>
+        <v>0</v>
+      </c>
+      <c r="I408" s="6">
+        <f t="shared" si="112"/>
+        <v>0.22826086956521738</v>
+      </c>
+    </row>
+    <row r="409" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A409" s="1">
+        <v>43948</v>
+      </c>
+      <c r="B409" t="s">
+        <v>7</v>
+      </c>
+      <c r="C409" s="2">
+        <v>517</v>
+      </c>
+      <c r="D409" s="6">
+        <f t="shared" si="108"/>
+        <v>5.212744504940512E-2</v>
+      </c>
+      <c r="E409" s="7">
+        <f t="shared" si="109"/>
+        <v>20</v>
+      </c>
+      <c r="F409" s="6">
+        <f t="shared" si="110"/>
+        <v>7.9681274900398405E-2</v>
+      </c>
+      <c r="G409" s="2">
+        <v>50</v>
+      </c>
+      <c r="H409" s="7">
+        <f t="shared" si="111"/>
+        <v>0</v>
+      </c>
+      <c r="I409" s="6">
+        <f t="shared" si="112"/>
+        <v>0.27173913043478259</v>
+      </c>
+    </row>
+    <row r="410" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A410" s="1">
+        <v>43948</v>
+      </c>
+      <c r="B410" t="s">
+        <v>25</v>
+      </c>
+      <c r="C410" s="2">
+        <v>336</v>
+      </c>
+      <c r="D410" s="6">
+        <f t="shared" si="108"/>
+        <v>3.3877797943133697E-2</v>
+      </c>
+      <c r="E410" s="7">
+        <f t="shared" si="109"/>
+        <v>25</v>
+      </c>
+      <c r="F410" s="6">
+        <f t="shared" si="110"/>
+        <v>9.9601593625498003E-2</v>
+      </c>
+      <c r="G410" s="2">
+        <v>63</v>
+      </c>
+      <c r="H410" s="7">
+        <f t="shared" si="111"/>
+        <v>3</v>
+      </c>
+      <c r="I410" s="6">
+        <f t="shared" si="112"/>
+        <v>0.34239130434782611</v>
+      </c>
+    </row>
+    <row r="411" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A411" s="1">
+        <v>43948</v>
+      </c>
+      <c r="B411" t="s">
+        <v>21</v>
+      </c>
+      <c r="C411" s="2">
+        <v>423</v>
+      </c>
+      <c r="D411" s="6">
+        <f t="shared" si="108"/>
+        <v>4.26497277676951E-2</v>
+      </c>
+      <c r="E411" s="7">
+        <f t="shared" si="109"/>
+        <v>-10</v>
+      </c>
+      <c r="F411" s="6">
+        <f t="shared" si="110"/>
+        <v>-3.9840637450199202E-2</v>
+      </c>
+      <c r="G411" s="2">
+        <v>0</v>
+      </c>
+      <c r="H411" s="7">
+        <f t="shared" si="111"/>
+        <v>0</v>
+      </c>
+      <c r="I411" s="6">
+        <f t="shared" si="112"/>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/TN_Age.xlsx
+++ b/TN_Age.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="26">
   <si>
     <t>0-10</t>
   </si>
@@ -440,11 +440,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I411"/>
+  <dimension ref="A1:I421"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A381" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A411" sqref="A411"/>
+      <pane ySplit="1" topLeftCell="A393" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A421" sqref="A421"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11932,6 +11932,346 @@
         <v>0</v>
       </c>
     </row>
+    <row r="412" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A412" s="1">
+        <v>43949</v>
+      </c>
+      <c r="B412" t="s">
+        <v>0</v>
+      </c>
+      <c r="C412" s="2">
+        <v>171</v>
+      </c>
+      <c r="D412" s="6">
+        <f t="shared" ref="D412:D421" si="113">C412/SUMIF(A:A,A412,C:C)</f>
+        <v>1.7011539992041386E-2</v>
+      </c>
+      <c r="E412" s="7">
+        <f t="shared" ref="E412:E421" si="114">C412-SUMIFS(C:C,A:A,A412-1,B:B,B412)</f>
+        <v>5</v>
+      </c>
+      <c r="F412" s="6">
+        <f t="shared" ref="F412:F421" si="115">E412/SUMIF(A:A,A412,E:E)</f>
+        <v>3.7313432835820892E-2</v>
+      </c>
+      <c r="G412" s="2">
+        <v>1</v>
+      </c>
+      <c r="H412" s="7">
+        <f t="shared" ref="H412:H421" si="116">G412-SUMIFS(G:G,A:A,A412-1,B:B,B412)</f>
+        <v>0</v>
+      </c>
+      <c r="I412" s="6">
+        <f t="shared" ref="I412:I421" si="117">G412/SUMIF(A:A,A412,G:G)</f>
+        <v>5.3191489361702126E-3</v>
+      </c>
+    </row>
+    <row r="413" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A413" s="1">
+        <v>43949</v>
+      </c>
+      <c r="B413" t="s">
+        <v>1</v>
+      </c>
+      <c r="C413" s="2">
+        <v>599</v>
+      </c>
+      <c r="D413" s="6">
+        <f t="shared" si="113"/>
+        <v>5.9590131317150817E-2</v>
+      </c>
+      <c r="E413" s="7">
+        <f t="shared" si="114"/>
+        <v>5</v>
+      </c>
+      <c r="F413" s="6">
+        <f t="shared" si="115"/>
+        <v>3.7313432835820892E-2</v>
+      </c>
+      <c r="G413" s="2">
+        <v>0</v>
+      </c>
+      <c r="H413" s="7">
+        <f t="shared" si="116"/>
+        <v>0</v>
+      </c>
+      <c r="I413" s="6">
+        <f t="shared" si="117"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="414" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A414" s="1">
+        <v>43949</v>
+      </c>
+      <c r="B414" t="s">
+        <v>2</v>
+      </c>
+      <c r="C414" s="2">
+        <v>1928</v>
+      </c>
+      <c r="D414" s="6">
+        <f t="shared" si="113"/>
+        <v>0.19180262634301631</v>
+      </c>
+      <c r="E414" s="7">
+        <f t="shared" si="114"/>
+        <v>15</v>
+      </c>
+      <c r="F414" s="6">
+        <f t="shared" si="115"/>
+        <v>0.11194029850746269</v>
+      </c>
+      <c r="G414" s="2">
+        <v>1</v>
+      </c>
+      <c r="H414" s="7">
+        <f t="shared" si="116"/>
+        <v>0</v>
+      </c>
+      <c r="I414" s="6">
+        <f t="shared" si="117"/>
+        <v>5.3191489361702126E-3</v>
+      </c>
+    </row>
+    <row r="415" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A415" s="1">
+        <v>43949</v>
+      </c>
+      <c r="B415" t="s">
+        <v>3</v>
+      </c>
+      <c r="C415" s="2">
+        <v>1692</v>
+      </c>
+      <c r="D415" s="6">
+        <f t="shared" si="113"/>
+        <v>0.16832471150019895</v>
+      </c>
+      <c r="E415" s="7">
+        <f t="shared" si="114"/>
+        <v>22</v>
+      </c>
+      <c r="F415" s="6">
+        <f t="shared" si="115"/>
+        <v>0.16417910447761194</v>
+      </c>
+      <c r="G415" s="2">
+        <v>2</v>
+      </c>
+      <c r="H415" s="7">
+        <f t="shared" si="116"/>
+        <v>0</v>
+      </c>
+      <c r="I415" s="6">
+        <f t="shared" si="117"/>
+        <v>1.0638297872340425E-2</v>
+      </c>
+    </row>
+    <row r="416" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A416" s="1">
+        <v>43949</v>
+      </c>
+      <c r="B416" t="s">
+        <v>4</v>
+      </c>
+      <c r="C416" s="2">
+        <v>1668</v>
+      </c>
+      <c r="D416" s="6">
+        <f t="shared" si="113"/>
+        <v>0.16593712693991244</v>
+      </c>
+      <c r="E416" s="7">
+        <f t="shared" si="114"/>
+        <v>18</v>
+      </c>
+      <c r="F416" s="6">
+        <f t="shared" si="115"/>
+        <v>0.13432835820895522</v>
+      </c>
+      <c r="G416" s="2">
+        <v>10</v>
+      </c>
+      <c r="H416" s="7">
+        <f t="shared" si="116"/>
+        <v>0</v>
+      </c>
+      <c r="I416" s="6">
+        <f t="shared" si="117"/>
+        <v>5.3191489361702128E-2</v>
+      </c>
+    </row>
+    <row r="417" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A417" s="1">
+        <v>43949</v>
+      </c>
+      <c r="B417" t="s">
+        <v>5</v>
+      </c>
+      <c r="C417" s="2">
+        <v>1651</v>
+      </c>
+      <c r="D417" s="6">
+        <f t="shared" si="113"/>
+        <v>0.16424592120970952</v>
+      </c>
+      <c r="E417" s="7">
+        <f t="shared" si="114"/>
+        <v>27</v>
+      </c>
+      <c r="F417" s="6">
+        <f t="shared" si="115"/>
+        <v>0.20149253731343283</v>
+      </c>
+      <c r="G417" s="2">
+        <v>15</v>
+      </c>
+      <c r="H417" s="7">
+        <f t="shared" si="116"/>
+        <v>0</v>
+      </c>
+      <c r="I417" s="6">
+        <f t="shared" si="117"/>
+        <v>7.9787234042553196E-2</v>
+      </c>
+    </row>
+    <row r="418" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A418" s="1">
+        <v>43949</v>
+      </c>
+      <c r="B418" t="s">
+        <v>6</v>
+      </c>
+      <c r="C418" s="2">
+        <v>1051</v>
+      </c>
+      <c r="D418" s="6">
+        <f t="shared" si="113"/>
+        <v>0.10455630720254676</v>
+      </c>
+      <c r="E418" s="7">
+        <f t="shared" si="114"/>
+        <v>26</v>
+      </c>
+      <c r="F418" s="6">
+        <f t="shared" si="115"/>
+        <v>0.19402985074626866</v>
+      </c>
+      <c r="G418" s="2">
+        <v>44</v>
+      </c>
+      <c r="H418" s="7">
+        <f t="shared" si="116"/>
+        <v>2</v>
+      </c>
+      <c r="I418" s="6">
+        <f t="shared" si="117"/>
+        <v>0.23404255319148937</v>
+      </c>
+    </row>
+    <row r="419" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A419" s="1">
+        <v>43949</v>
+      </c>
+      <c r="B419" t="s">
+        <v>7</v>
+      </c>
+      <c r="C419" s="2">
+        <v>530</v>
+      </c>
+      <c r="D419" s="6">
+        <f t="shared" si="113"/>
+        <v>5.2725825706327098E-2</v>
+      </c>
+      <c r="E419" s="7">
+        <f t="shared" si="114"/>
+        <v>13</v>
+      </c>
+      <c r="F419" s="6">
+        <f t="shared" si="115"/>
+        <v>9.7014925373134331E-2</v>
+      </c>
+      <c r="G419" s="2">
+        <v>50</v>
+      </c>
+      <c r="H419" s="7">
+        <f t="shared" si="116"/>
+        <v>0</v>
+      </c>
+      <c r="I419" s="6">
+        <f t="shared" si="117"/>
+        <v>0.26595744680851063</v>
+      </c>
+    </row>
+    <row r="420" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A420" s="1">
+        <v>43949</v>
+      </c>
+      <c r="B420" t="s">
+        <v>25</v>
+      </c>
+      <c r="C420" s="2">
+        <v>341</v>
+      </c>
+      <c r="D420" s="6">
+        <f t="shared" si="113"/>
+        <v>3.392359729407083E-2</v>
+      </c>
+      <c r="E420" s="7">
+        <f t="shared" si="114"/>
+        <v>5</v>
+      </c>
+      <c r="F420" s="6">
+        <f t="shared" si="115"/>
+        <v>3.7313432835820892E-2</v>
+      </c>
+      <c r="G420" s="2">
+        <v>65</v>
+      </c>
+      <c r="H420" s="7">
+        <f t="shared" si="116"/>
+        <v>2</v>
+      </c>
+      <c r="I420" s="6">
+        <f t="shared" si="117"/>
+        <v>0.34574468085106386</v>
+      </c>
+    </row>
+    <row r="421" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A421" s="1">
+        <v>43949</v>
+      </c>
+      <c r="B421" t="s">
+        <v>21</v>
+      </c>
+      <c r="C421" s="2">
+        <v>421</v>
+      </c>
+      <c r="D421" s="6">
+        <f t="shared" si="113"/>
+        <v>4.1882212495025863E-2</v>
+      </c>
+      <c r="E421" s="7">
+        <f t="shared" si="114"/>
+        <v>-2</v>
+      </c>
+      <c r="F421" s="6">
+        <f t="shared" si="115"/>
+        <v>-1.4925373134328358E-2</v>
+      </c>
+      <c r="G421" s="2">
+        <v>0</v>
+      </c>
+      <c r="H421" s="7">
+        <f t="shared" si="116"/>
+        <v>0</v>
+      </c>
+      <c r="I421" s="6">
+        <f t="shared" si="117"/>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/TN_Age.xlsx
+++ b/TN_Age.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="26">
   <si>
     <t>0-10</t>
   </si>
@@ -440,11 +440,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I421"/>
+  <dimension ref="A1:I431"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A393" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A421" sqref="A421"/>
+      <pane ySplit="1" topLeftCell="A405" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A431" sqref="A431"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12272,6 +12272,346 @@
         <v>0</v>
       </c>
     </row>
+    <row r="422" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A422" s="1">
+        <v>43950</v>
+      </c>
+      <c r="B422" t="s">
+        <v>0</v>
+      </c>
+      <c r="C422" s="2">
+        <v>180</v>
+      </c>
+      <c r="D422" s="6">
+        <f t="shared" ref="D422:D431" si="118">C422/SUMIF(A:A,A422,C:C)</f>
+        <v>1.7364460737024891E-2</v>
+      </c>
+      <c r="E422" s="7">
+        <f t="shared" ref="E422:E431" si="119">C422-SUMIFS(C:C,A:A,A422-1,B:B,B422)</f>
+        <v>9</v>
+      </c>
+      <c r="F422" s="6">
+        <f t="shared" ref="F422:F431" si="120">E422/SUMIF(A:A,A422,E:E)</f>
+        <v>2.8662420382165606E-2</v>
+      </c>
+      <c r="G422" s="2">
+        <v>1</v>
+      </c>
+      <c r="H422" s="7">
+        <f t="shared" ref="H422:H431" si="121">G422-SUMIFS(G:G,A:A,A422-1,B:B,B422)</f>
+        <v>0</v>
+      </c>
+      <c r="I422" s="6">
+        <f t="shared" ref="I422:I431" si="122">G422/SUMIF(A:A,A422,G:G)</f>
+        <v>5.1282051282051282E-3</v>
+      </c>
+    </row>
+    <row r="423" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A423" s="1">
+        <v>43950</v>
+      </c>
+      <c r="B423" t="s">
+        <v>1</v>
+      </c>
+      <c r="C423" s="2">
+        <v>614</v>
+      </c>
+      <c r="D423" s="6">
+        <f t="shared" si="118"/>
+        <v>5.9232104958518231E-2</v>
+      </c>
+      <c r="E423" s="7">
+        <f t="shared" si="119"/>
+        <v>15</v>
+      </c>
+      <c r="F423" s="6">
+        <f t="shared" si="120"/>
+        <v>4.7770700636942678E-2</v>
+      </c>
+      <c r="G423" s="2">
+        <v>0</v>
+      </c>
+      <c r="H423" s="7">
+        <f t="shared" si="121"/>
+        <v>0</v>
+      </c>
+      <c r="I423" s="6">
+        <f t="shared" si="122"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="424" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A424" s="1">
+        <v>43950</v>
+      </c>
+      <c r="B424" t="s">
+        <v>2</v>
+      </c>
+      <c r="C424" s="2">
+        <v>1980</v>
+      </c>
+      <c r="D424" s="6">
+        <f t="shared" si="118"/>
+        <v>0.19100906810727378</v>
+      </c>
+      <c r="E424" s="7">
+        <f t="shared" si="119"/>
+        <v>52</v>
+      </c>
+      <c r="F424" s="6">
+        <f t="shared" si="120"/>
+        <v>0.16560509554140126</v>
+      </c>
+      <c r="G424" s="2">
+        <v>1</v>
+      </c>
+      <c r="H424" s="7">
+        <f t="shared" si="121"/>
+        <v>0</v>
+      </c>
+      <c r="I424" s="6">
+        <f t="shared" si="122"/>
+        <v>5.1282051282051282E-3</v>
+      </c>
+    </row>
+    <row r="425" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A425" s="1">
+        <v>43950</v>
+      </c>
+      <c r="B425" t="s">
+        <v>3</v>
+      </c>
+      <c r="C425" s="2">
+        <v>1768</v>
+      </c>
+      <c r="D425" s="6">
+        <f t="shared" si="118"/>
+        <v>0.17055759212811114</v>
+      </c>
+      <c r="E425" s="7">
+        <f t="shared" si="119"/>
+        <v>76</v>
+      </c>
+      <c r="F425" s="6">
+        <f t="shared" si="120"/>
+        <v>0.24203821656050956</v>
+      </c>
+      <c r="G425" s="2">
+        <v>2</v>
+      </c>
+      <c r="H425" s="7">
+        <f t="shared" si="121"/>
+        <v>0</v>
+      </c>
+      <c r="I425" s="6">
+        <f t="shared" si="122"/>
+        <v>1.0256410256410256E-2</v>
+      </c>
+    </row>
+    <row r="426" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A426" s="1">
+        <v>43950</v>
+      </c>
+      <c r="B426" t="s">
+        <v>4</v>
+      </c>
+      <c r="C426" s="2">
+        <v>1734</v>
+      </c>
+      <c r="D426" s="6">
+        <f t="shared" si="118"/>
+        <v>0.16727763843333976</v>
+      </c>
+      <c r="E426" s="7">
+        <f t="shared" si="119"/>
+        <v>66</v>
+      </c>
+      <c r="F426" s="6">
+        <f t="shared" si="120"/>
+        <v>0.21019108280254778</v>
+      </c>
+      <c r="G426" s="2">
+        <v>10</v>
+      </c>
+      <c r="H426" s="7">
+        <f t="shared" si="121"/>
+        <v>0</v>
+      </c>
+      <c r="I426" s="6">
+        <f t="shared" si="122"/>
+        <v>5.128205128205128E-2</v>
+      </c>
+    </row>
+    <row r="427" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A427" s="1">
+        <v>43950</v>
+      </c>
+      <c r="B427" t="s">
+        <v>5</v>
+      </c>
+      <c r="C427" s="2">
+        <v>1714</v>
+      </c>
+      <c r="D427" s="6">
+        <f t="shared" si="118"/>
+        <v>0.16534825390700367</v>
+      </c>
+      <c r="E427" s="7">
+        <f t="shared" si="119"/>
+        <v>63</v>
+      </c>
+      <c r="F427" s="6">
+        <f t="shared" si="120"/>
+        <v>0.20063694267515925</v>
+      </c>
+      <c r="G427" s="2">
+        <v>15</v>
+      </c>
+      <c r="H427" s="7">
+        <f t="shared" si="121"/>
+        <v>0</v>
+      </c>
+      <c r="I427" s="6">
+        <f t="shared" si="122"/>
+        <v>7.6923076923076927E-2</v>
+      </c>
+    </row>
+    <row r="428" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A428" s="1">
+        <v>43950</v>
+      </c>
+      <c r="B428" t="s">
+        <v>6</v>
+      </c>
+      <c r="C428" s="2">
+        <v>1072</v>
+      </c>
+      <c r="D428" s="6">
+        <f t="shared" si="118"/>
+        <v>0.1034150106116149</v>
+      </c>
+      <c r="E428" s="7">
+        <f t="shared" si="119"/>
+        <v>21</v>
+      </c>
+      <c r="F428" s="6">
+        <f t="shared" si="120"/>
+        <v>6.6878980891719744E-2</v>
+      </c>
+      <c r="G428" s="2">
+        <v>45</v>
+      </c>
+      <c r="H428" s="7">
+        <f t="shared" si="121"/>
+        <v>1</v>
+      </c>
+      <c r="I428" s="6">
+        <f t="shared" si="122"/>
+        <v>0.23076923076923078</v>
+      </c>
+    </row>
+    <row r="429" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A429" s="1">
+        <v>43950</v>
+      </c>
+      <c r="B429" t="s">
+        <v>7</v>
+      </c>
+      <c r="C429" s="2">
+        <v>546</v>
+      </c>
+      <c r="D429" s="6">
+        <f t="shared" si="118"/>
+        <v>5.2672197568975496E-2</v>
+      </c>
+      <c r="E429" s="7">
+        <f t="shared" si="119"/>
+        <v>16</v>
+      </c>
+      <c r="F429" s="6">
+        <f t="shared" si="120"/>
+        <v>5.0955414012738856E-2</v>
+      </c>
+      <c r="G429" s="2">
+        <v>53</v>
+      </c>
+      <c r="H429" s="7">
+        <f t="shared" si="121"/>
+        <v>3</v>
+      </c>
+      <c r="I429" s="6">
+        <f t="shared" si="122"/>
+        <v>0.27179487179487177</v>
+      </c>
+    </row>
+    <row r="430" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A430" s="1">
+        <v>43950</v>
+      </c>
+      <c r="B430" t="s">
+        <v>25</v>
+      </c>
+      <c r="C430" s="2">
+        <v>354</v>
+      </c>
+      <c r="D430" s="6">
+        <f t="shared" si="118"/>
+        <v>3.4150106116148951E-2</v>
+      </c>
+      <c r="E430" s="7">
+        <f t="shared" si="119"/>
+        <v>13</v>
+      </c>
+      <c r="F430" s="6">
+        <f t="shared" si="120"/>
+        <v>4.1401273885350316E-2</v>
+      </c>
+      <c r="G430" s="2">
+        <v>68</v>
+      </c>
+      <c r="H430" s="7">
+        <f t="shared" si="121"/>
+        <v>3</v>
+      </c>
+      <c r="I430" s="6">
+        <f t="shared" si="122"/>
+        <v>0.3487179487179487</v>
+      </c>
+    </row>
+    <row r="431" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A431" s="1">
+        <v>43950</v>
+      </c>
+      <c r="B431" t="s">
+        <v>21</v>
+      </c>
+      <c r="C431" s="2">
+        <v>404</v>
+      </c>
+      <c r="D431" s="6">
+        <f t="shared" si="118"/>
+        <v>3.8973567431989195E-2</v>
+      </c>
+      <c r="E431" s="7">
+        <f t="shared" si="119"/>
+        <v>-17</v>
+      </c>
+      <c r="F431" s="6">
+        <f t="shared" si="120"/>
+        <v>-5.4140127388535034E-2</v>
+      </c>
+      <c r="G431" s="2">
+        <v>0</v>
+      </c>
+      <c r="H431" s="7">
+        <f t="shared" si="121"/>
+        <v>0</v>
+      </c>
+      <c r="I431" s="6">
+        <f t="shared" si="122"/>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/TN_Age.xlsx
+++ b/TN_Age.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="26">
   <si>
     <t>0-10</t>
   </si>
@@ -440,11 +440,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I431"/>
+  <dimension ref="A1:I441"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A405" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A431" sqref="A431"/>
+      <pane ySplit="1" topLeftCell="A411" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A432" sqref="A432"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12612,6 +12612,346 @@
         <v>0</v>
       </c>
     </row>
+    <row r="432" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A432" s="1">
+        <v>43951</v>
+      </c>
+      <c r="B432" t="s">
+        <v>0</v>
+      </c>
+      <c r="C432" s="2">
+        <v>204</v>
+      </c>
+      <c r="D432" s="6">
+        <f t="shared" ref="D432:D441" si="123">C432/SUMIF(A:A,A432,C:C)</f>
+        <v>1.9003260363297626E-2</v>
+      </c>
+      <c r="E432" s="7">
+        <f t="shared" ref="E432:E441" si="124">C432-SUMIFS(C:C,A:A,A432-1,B:B,B432)</f>
+        <v>24</v>
+      </c>
+      <c r="F432" s="6">
+        <f t="shared" ref="F432:F441" si="125">E432/SUMIF(A:A,A432,E:E)</f>
+        <v>6.5040650406504072E-2</v>
+      </c>
+      <c r="G432" s="2">
+        <v>1</v>
+      </c>
+      <c r="H432" s="7">
+        <f t="shared" ref="H432:H441" si="126">G432-SUMIFS(G:G,A:A,A432-1,B:B,B432)</f>
+        <v>0</v>
+      </c>
+      <c r="I432" s="6">
+        <f t="shared" ref="I432:I441" si="127">G432/SUMIF(A:A,A432,G:G)</f>
+        <v>5.0251256281407036E-3</v>
+      </c>
+    </row>
+    <row r="433" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A433" s="1">
+        <v>43951</v>
+      </c>
+      <c r="B433" t="s">
+        <v>1</v>
+      </c>
+      <c r="C433" s="2">
+        <v>647</v>
+      </c>
+      <c r="D433" s="6">
+        <f t="shared" si="123"/>
+        <v>6.0270144387517467E-2</v>
+      </c>
+      <c r="E433" s="7">
+        <f t="shared" si="124"/>
+        <v>33</v>
+      </c>
+      <c r="F433" s="6">
+        <f t="shared" si="125"/>
+        <v>8.943089430894309E-2</v>
+      </c>
+      <c r="G433" s="2">
+        <v>0</v>
+      </c>
+      <c r="H433" s="7">
+        <f t="shared" si="126"/>
+        <v>0</v>
+      </c>
+      <c r="I433" s="6">
+        <f t="shared" si="127"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="434" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A434" s="1">
+        <v>43951</v>
+      </c>
+      <c r="B434" t="s">
+        <v>2</v>
+      </c>
+      <c r="C434" s="2">
+        <v>2104</v>
+      </c>
+      <c r="D434" s="6">
+        <f t="shared" si="123"/>
+        <v>0.19599441080577551</v>
+      </c>
+      <c r="E434" s="7">
+        <f t="shared" si="124"/>
+        <v>124</v>
+      </c>
+      <c r="F434" s="6">
+        <f t="shared" si="125"/>
+        <v>0.33604336043360433</v>
+      </c>
+      <c r="G434" s="2">
+        <v>1</v>
+      </c>
+      <c r="H434" s="7">
+        <f t="shared" si="126"/>
+        <v>0</v>
+      </c>
+      <c r="I434" s="6">
+        <f t="shared" si="127"/>
+        <v>5.0251256281407036E-3</v>
+      </c>
+    </row>
+    <row r="435" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A435" s="1">
+        <v>43951</v>
+      </c>
+      <c r="B435" t="s">
+        <v>3</v>
+      </c>
+      <c r="C435" s="2">
+        <v>1958</v>
+      </c>
+      <c r="D435" s="6">
+        <f t="shared" si="123"/>
+        <v>0.18239403819282721</v>
+      </c>
+      <c r="E435" s="7">
+        <f t="shared" si="124"/>
+        <v>190</v>
+      </c>
+      <c r="F435" s="6">
+        <f t="shared" si="125"/>
+        <v>0.51490514905149054</v>
+      </c>
+      <c r="G435" s="2">
+        <v>3</v>
+      </c>
+      <c r="H435" s="7">
+        <f t="shared" si="126"/>
+        <v>1</v>
+      </c>
+      <c r="I435" s="6">
+        <f t="shared" si="127"/>
+        <v>1.507537688442211E-2</v>
+      </c>
+    </row>
+    <row r="436" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A436" s="1">
+        <v>43951</v>
+      </c>
+      <c r="B436" t="s">
+        <v>4</v>
+      </c>
+      <c r="C436" s="2">
+        <v>1892</v>
+      </c>
+      <c r="D436" s="6">
+        <f t="shared" si="123"/>
+        <v>0.17624592454587798</v>
+      </c>
+      <c r="E436" s="7">
+        <f t="shared" si="124"/>
+        <v>158</v>
+      </c>
+      <c r="F436" s="6">
+        <f t="shared" si="125"/>
+        <v>0.42818428184281843</v>
+      </c>
+      <c r="G436" s="2">
+        <v>10</v>
+      </c>
+      <c r="H436" s="7">
+        <f t="shared" si="126"/>
+        <v>0</v>
+      </c>
+      <c r="I436" s="6">
+        <f t="shared" si="127"/>
+        <v>5.0251256281407038E-2</v>
+      </c>
+    </row>
+    <row r="437" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A437" s="1">
+        <v>43951</v>
+      </c>
+      <c r="B437" t="s">
+        <v>5</v>
+      </c>
+      <c r="C437" s="2">
+        <v>1836</v>
+      </c>
+      <c r="D437" s="6">
+        <f t="shared" si="123"/>
+        <v>0.17102934326967861</v>
+      </c>
+      <c r="E437" s="7">
+        <f t="shared" si="124"/>
+        <v>122</v>
+      </c>
+      <c r="F437" s="6">
+        <f t="shared" si="125"/>
+        <v>0.33062330623306235</v>
+      </c>
+      <c r="G437" s="2">
+        <v>15</v>
+      </c>
+      <c r="H437" s="7">
+        <f t="shared" si="126"/>
+        <v>0</v>
+      </c>
+      <c r="I437" s="6">
+        <f t="shared" si="127"/>
+        <v>7.5376884422110546E-2</v>
+      </c>
+    </row>
+    <row r="438" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A438" s="1">
+        <v>43951</v>
+      </c>
+      <c r="B438" t="s">
+        <v>6</v>
+      </c>
+      <c r="C438" s="2">
+        <v>1128</v>
+      </c>
+      <c r="D438" s="6">
+        <f t="shared" si="123"/>
+        <v>0.10507685142058687</v>
+      </c>
+      <c r="E438" s="7">
+        <f t="shared" si="124"/>
+        <v>56</v>
+      </c>
+      <c r="F438" s="6">
+        <f t="shared" si="125"/>
+        <v>0.15176151761517614</v>
+      </c>
+      <c r="G438" s="2">
+        <v>46</v>
+      </c>
+      <c r="H438" s="7">
+        <f t="shared" si="126"/>
+        <v>1</v>
+      </c>
+      <c r="I438" s="6">
+        <f t="shared" si="127"/>
+        <v>0.23115577889447236</v>
+      </c>
+    </row>
+    <row r="439" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A439" s="1">
+        <v>43951</v>
+      </c>
+      <c r="B439" t="s">
+        <v>7</v>
+      </c>
+      <c r="C439" s="2">
+        <v>566</v>
+      </c>
+      <c r="D439" s="6">
+        <f t="shared" si="123"/>
+        <v>5.2724732184443408E-2</v>
+      </c>
+      <c r="E439" s="7">
+        <f t="shared" si="124"/>
+        <v>20</v>
+      </c>
+      <c r="F439" s="6">
+        <f t="shared" si="125"/>
+        <v>5.4200542005420058E-2</v>
+      </c>
+      <c r="G439" s="2">
+        <v>52</v>
+      </c>
+      <c r="H439" s="7">
+        <f t="shared" si="126"/>
+        <v>-1</v>
+      </c>
+      <c r="I439" s="6">
+        <f t="shared" si="127"/>
+        <v>0.2613065326633166</v>
+      </c>
+    </row>
+    <row r="440" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A440" s="1">
+        <v>43951</v>
+      </c>
+      <c r="B440" t="s">
+        <v>25</v>
+      </c>
+      <c r="C440" s="2">
+        <v>359</v>
+      </c>
+      <c r="D440" s="6">
+        <f t="shared" si="123"/>
+        <v>3.3442012109920823E-2</v>
+      </c>
+      <c r="E440" s="7">
+        <f t="shared" si="124"/>
+        <v>5</v>
+      </c>
+      <c r="F440" s="6">
+        <f t="shared" si="125"/>
+        <v>1.3550135501355014E-2</v>
+      </c>
+      <c r="G440" s="2">
+        <v>71</v>
+      </c>
+      <c r="H440" s="7">
+        <f t="shared" si="126"/>
+        <v>3</v>
+      </c>
+      <c r="I440" s="6">
+        <f t="shared" si="127"/>
+        <v>0.35678391959798994</v>
+      </c>
+    </row>
+    <row r="441" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A441" s="1">
+        <v>43951</v>
+      </c>
+      <c r="B441" t="s">
+        <v>21</v>
+      </c>
+      <c r="C441" s="2">
+        <v>41</v>
+      </c>
+      <c r="D441" s="6">
+        <f t="shared" si="123"/>
+        <v>3.8192827200745224E-3</v>
+      </c>
+      <c r="E441" s="7">
+        <f t="shared" si="124"/>
+        <v>-363</v>
+      </c>
+      <c r="F441" s="6">
+        <f t="shared" si="125"/>
+        <v>-0.98373983739837401</v>
+      </c>
+      <c r="G441" s="2">
+        <v>0</v>
+      </c>
+      <c r="H441" s="7">
+        <f t="shared" si="126"/>
+        <v>0</v>
+      </c>
+      <c r="I441" s="6">
+        <f t="shared" si="127"/>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/TN_Age.xlsx
+++ b/TN_Age.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="26">
   <si>
     <t>0-10</t>
   </si>
@@ -440,11 +440,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I441"/>
+  <dimension ref="A1:I451"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A411" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A432" sqref="A432"/>
+      <pane ySplit="1" topLeftCell="A423" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A451" sqref="A451"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12952,6 +12952,346 @@
         <v>0</v>
       </c>
     </row>
+    <row r="442" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A442" s="1">
+        <v>43952</v>
+      </c>
+      <c r="B442" t="s">
+        <v>0</v>
+      </c>
+      <c r="C442" s="2">
+        <v>220</v>
+      </c>
+      <c r="D442" s="6">
+        <f t="shared" ref="D442:D451" si="128">C442/SUMIF(A:A,A442,C:C)</f>
+        <v>1.8501387604070305E-2</v>
+      </c>
+      <c r="E442" s="7">
+        <f t="shared" ref="E442:E451" si="129">C442-SUMIFS(C:C,A:A,A442-1,B:B,B442)</f>
+        <v>16</v>
+      </c>
+      <c r="F442" s="6">
+        <f t="shared" ref="F442:F451" si="130">E442/SUMIF(A:A,A442,E:E)</f>
+        <v>1.384083044982699E-2</v>
+      </c>
+      <c r="G442" s="2">
+        <v>1</v>
+      </c>
+      <c r="H442" s="7">
+        <f t="shared" ref="H442:H451" si="131">G442-SUMIFS(G:G,A:A,A442-1,B:B,B442)</f>
+        <v>0</v>
+      </c>
+      <c r="I442" s="6">
+        <f t="shared" ref="I442:I451" si="132">G442/SUMIF(A:A,A442,G:G)</f>
+        <v>4.9019607843137254E-3</v>
+      </c>
+    </row>
+    <row r="443" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A443" s="1">
+        <v>43952</v>
+      </c>
+      <c r="B443" t="s">
+        <v>1</v>
+      </c>
+      <c r="C443" s="2">
+        <v>682</v>
+      </c>
+      <c r="D443" s="6">
+        <f t="shared" si="128"/>
+        <v>5.7354301572617949E-2</v>
+      </c>
+      <c r="E443" s="7">
+        <f t="shared" si="129"/>
+        <v>35</v>
+      </c>
+      <c r="F443" s="6">
+        <f t="shared" si="130"/>
+        <v>3.0276816608996539E-2</v>
+      </c>
+      <c r="G443" s="2">
+        <v>1</v>
+      </c>
+      <c r="H443" s="7">
+        <f t="shared" si="131"/>
+        <v>1</v>
+      </c>
+      <c r="I443" s="6">
+        <f t="shared" si="132"/>
+        <v>4.9019607843137254E-3</v>
+      </c>
+    </row>
+    <row r="444" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A444" s="1">
+        <v>43952</v>
+      </c>
+      <c r="B444" t="s">
+        <v>2</v>
+      </c>
+      <c r="C444" s="2">
+        <v>2371</v>
+      </c>
+      <c r="D444" s="6">
+        <f t="shared" si="128"/>
+        <v>0.19939450004204862</v>
+      </c>
+      <c r="E444" s="7">
+        <f t="shared" si="129"/>
+        <v>267</v>
+      </c>
+      <c r="F444" s="6">
+        <f t="shared" si="130"/>
+        <v>0.2309688581314879</v>
+      </c>
+      <c r="G444" s="2">
+        <v>1</v>
+      </c>
+      <c r="H444" s="7">
+        <f t="shared" si="131"/>
+        <v>0</v>
+      </c>
+      <c r="I444" s="6">
+        <f t="shared" si="132"/>
+        <v>4.9019607843137254E-3</v>
+      </c>
+    </row>
+    <row r="445" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A445" s="1">
+        <v>43952</v>
+      </c>
+      <c r="B445" t="s">
+        <v>3</v>
+      </c>
+      <c r="C445" s="2">
+        <v>2254</v>
+      </c>
+      <c r="D445" s="6">
+        <f t="shared" si="128"/>
+        <v>0.1895551257253385</v>
+      </c>
+      <c r="E445" s="7">
+        <f t="shared" si="129"/>
+        <v>296</v>
+      </c>
+      <c r="F445" s="6">
+        <f t="shared" si="130"/>
+        <v>0.25605536332179929</v>
+      </c>
+      <c r="G445" s="2">
+        <v>3</v>
+      </c>
+      <c r="H445" s="7">
+        <f t="shared" si="131"/>
+        <v>0</v>
+      </c>
+      <c r="I445" s="6">
+        <f t="shared" si="132"/>
+        <v>1.4705882352941176E-2</v>
+      </c>
+    </row>
+    <row r="446" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A446" s="1">
+        <v>43952</v>
+      </c>
+      <c r="B446" t="s">
+        <v>4</v>
+      </c>
+      <c r="C446" s="2">
+        <v>2128</v>
+      </c>
+      <c r="D446" s="6">
+        <f t="shared" si="128"/>
+        <v>0.17895887646118913</v>
+      </c>
+      <c r="E446" s="7">
+        <f t="shared" si="129"/>
+        <v>236</v>
+      </c>
+      <c r="F446" s="6">
+        <f t="shared" si="130"/>
+        <v>0.20415224913494809</v>
+      </c>
+      <c r="G446" s="2">
+        <v>10</v>
+      </c>
+      <c r="H446" s="7">
+        <f t="shared" si="131"/>
+        <v>0</v>
+      </c>
+      <c r="I446" s="6">
+        <f t="shared" si="132"/>
+        <v>4.9019607843137254E-2</v>
+      </c>
+    </row>
+    <row r="447" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A447" s="1">
+        <v>43952</v>
+      </c>
+      <c r="B447" t="s">
+        <v>5</v>
+      </c>
+      <c r="C447" s="2">
+        <v>1987</v>
+      </c>
+      <c r="D447" s="6">
+        <f t="shared" si="128"/>
+        <v>0.16710116895130772</v>
+      </c>
+      <c r="E447" s="7">
+        <f t="shared" si="129"/>
+        <v>151</v>
+      </c>
+      <c r="F447" s="6">
+        <f t="shared" si="130"/>
+        <v>0.13062283737024222</v>
+      </c>
+      <c r="G447" s="2">
+        <v>16</v>
+      </c>
+      <c r="H447" s="7">
+        <f t="shared" si="131"/>
+        <v>1</v>
+      </c>
+      <c r="I447" s="6">
+        <f t="shared" si="132"/>
+        <v>7.8431372549019607E-2</v>
+      </c>
+    </row>
+    <row r="448" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A448" s="1">
+        <v>43952</v>
+      </c>
+      <c r="B448" t="s">
+        <v>6</v>
+      </c>
+      <c r="C448" s="2">
+        <v>1202</v>
+      </c>
+      <c r="D448" s="6">
+        <f t="shared" si="128"/>
+        <v>0.10108485409132957</v>
+      </c>
+      <c r="E448" s="7">
+        <f t="shared" si="129"/>
+        <v>74</v>
+      </c>
+      <c r="F448" s="6">
+        <f t="shared" si="130"/>
+        <v>6.4013840830449822E-2</v>
+      </c>
+      <c r="G448" s="2">
+        <v>46</v>
+      </c>
+      <c r="H448" s="7">
+        <f t="shared" si="131"/>
+        <v>0</v>
+      </c>
+      <c r="I448" s="6">
+        <f t="shared" si="132"/>
+        <v>0.22549019607843138</v>
+      </c>
+    </row>
+    <row r="449" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A449" s="1">
+        <v>43952</v>
+      </c>
+      <c r="B449" t="s">
+        <v>7</v>
+      </c>
+      <c r="C449" s="2">
+        <v>587</v>
+      </c>
+      <c r="D449" s="6">
+        <f t="shared" si="128"/>
+        <v>4.9365066016314858E-2</v>
+      </c>
+      <c r="E449" s="7">
+        <f t="shared" si="129"/>
+        <v>21</v>
+      </c>
+      <c r="F449" s="6">
+        <f t="shared" si="130"/>
+        <v>1.8166089965397925E-2</v>
+      </c>
+      <c r="G449" s="2">
+        <v>53</v>
+      </c>
+      <c r="H449" s="7">
+        <f t="shared" si="131"/>
+        <v>1</v>
+      </c>
+      <c r="I449" s="6">
+        <f t="shared" si="132"/>
+        <v>0.25980392156862747</v>
+      </c>
+    </row>
+    <row r="450" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A450" s="1">
+        <v>43952</v>
+      </c>
+      <c r="B450" t="s">
+        <v>25</v>
+      </c>
+      <c r="C450" s="2">
+        <v>371</v>
+      </c>
+      <c r="D450" s="6">
+        <f t="shared" si="128"/>
+        <v>3.1200067277773105E-2</v>
+      </c>
+      <c r="E450" s="7">
+        <f t="shared" si="129"/>
+        <v>12</v>
+      </c>
+      <c r="F450" s="6">
+        <f t="shared" si="130"/>
+        <v>1.0380622837370242E-2</v>
+      </c>
+      <c r="G450" s="2">
+        <v>73</v>
+      </c>
+      <c r="H450" s="7">
+        <f t="shared" si="131"/>
+        <v>2</v>
+      </c>
+      <c r="I450" s="6">
+        <f t="shared" si="132"/>
+        <v>0.35784313725490197</v>
+      </c>
+    </row>
+    <row r="451" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A451" s="1">
+        <v>43952</v>
+      </c>
+      <c r="B451" t="s">
+        <v>21</v>
+      </c>
+      <c r="C451" s="2">
+        <v>89</v>
+      </c>
+      <c r="D451" s="6">
+        <f t="shared" si="128"/>
+        <v>7.4846522580102595E-3</v>
+      </c>
+      <c r="E451" s="7">
+        <f t="shared" si="129"/>
+        <v>48</v>
+      </c>
+      <c r="F451" s="6">
+        <f t="shared" si="130"/>
+        <v>4.1522491349480967E-2</v>
+      </c>
+      <c r="G451" s="2">
+        <v>0</v>
+      </c>
+      <c r="H451" s="7">
+        <f t="shared" si="131"/>
+        <v>0</v>
+      </c>
+      <c r="I451" s="6">
+        <f t="shared" si="132"/>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/TN_Age.xlsx
+++ b/TN_Age.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="26">
   <si>
     <t>0-10</t>
   </si>
@@ -440,11 +440,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I451"/>
+  <dimension ref="A1:I461"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A423" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A451" sqref="A451"/>
+      <pane ySplit="1" topLeftCell="A435" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A461" sqref="A461"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13292,6 +13292,346 @@
         <v>0</v>
       </c>
     </row>
+    <row r="452" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A452" s="1">
+        <v>43953</v>
+      </c>
+      <c r="B452" t="s">
+        <v>0</v>
+      </c>
+      <c r="C452" s="2">
+        <v>239</v>
+      </c>
+      <c r="D452" s="6">
+        <f t="shared" ref="D452:D461" si="133">C452/SUMIF(A:A,A452,C:C)</f>
+        <v>1.8876865966353368E-2</v>
+      </c>
+      <c r="E452" s="7">
+        <f t="shared" ref="E452:E461" si="134">C452-SUMIFS(C:C,A:A,A452-1,B:B,B452)</f>
+        <v>19</v>
+      </c>
+      <c r="F452" s="6">
+        <f t="shared" ref="F452:F461" si="135">E452/SUMIF(A:A,A452,E:E)</f>
+        <v>2.4675324675324677E-2</v>
+      </c>
+      <c r="G452" s="2">
+        <v>1</v>
+      </c>
+      <c r="H452" s="7">
+        <f t="shared" ref="H452" si="136">G452-SUMIFS(G:G,A:A,A452-1,B:B,B452)</f>
+        <v>0</v>
+      </c>
+      <c r="I452" s="6">
+        <f t="shared" ref="I452" si="137">G452/SUMIF(A:A,A452,G:G)</f>
+        <v>4.7846889952153108E-3</v>
+      </c>
+    </row>
+    <row r="453" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A453" s="1">
+        <v>43953</v>
+      </c>
+      <c r="B453" t="s">
+        <v>1</v>
+      </c>
+      <c r="C453" s="2">
+        <v>724</v>
+      </c>
+      <c r="D453" s="6">
+        <f t="shared" si="133"/>
+        <v>5.7183476818576731E-2</v>
+      </c>
+      <c r="E453" s="7">
+        <f t="shared" si="134"/>
+        <v>42</v>
+      </c>
+      <c r="F453" s="6">
+        <f t="shared" si="135"/>
+        <v>5.4545454545454543E-2</v>
+      </c>
+      <c r="G453" s="2">
+        <v>1</v>
+      </c>
+      <c r="H453" s="7">
+        <f t="shared" ref="H453:H461" si="138">G453-SUMIFS(G:G,A:A,A453-1,B:B,B453)</f>
+        <v>0</v>
+      </c>
+      <c r="I453" s="6">
+        <f t="shared" ref="I453:I461" si="139">G453/SUMIF(A:A,A453,G:G)</f>
+        <v>4.7846889952153108E-3</v>
+      </c>
+    </row>
+    <row r="454" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A454" s="1">
+        <v>43953</v>
+      </c>
+      <c r="B454" t="s">
+        <v>2</v>
+      </c>
+      <c r="C454" s="2">
+        <v>2523</v>
+      </c>
+      <c r="D454" s="6">
+        <f t="shared" si="133"/>
+        <v>0.19927335913434957</v>
+      </c>
+      <c r="E454" s="7">
+        <f t="shared" si="134"/>
+        <v>152</v>
+      </c>
+      <c r="F454" s="6">
+        <f t="shared" si="135"/>
+        <v>0.19740259740259741</v>
+      </c>
+      <c r="G454" s="2">
+        <v>1</v>
+      </c>
+      <c r="H454" s="7">
+        <f t="shared" si="138"/>
+        <v>0</v>
+      </c>
+      <c r="I454" s="6">
+        <f t="shared" si="139"/>
+        <v>4.7846889952153108E-3</v>
+      </c>
+    </row>
+    <row r="455" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A455" s="1">
+        <v>43953</v>
+      </c>
+      <c r="B455" t="s">
+        <v>3</v>
+      </c>
+      <c r="C455" s="2">
+        <v>2440</v>
+      </c>
+      <c r="D455" s="6">
+        <f t="shared" si="133"/>
+        <v>0.19271779480293816</v>
+      </c>
+      <c r="E455" s="7">
+        <f t="shared" si="134"/>
+        <v>186</v>
+      </c>
+      <c r="F455" s="6">
+        <f t="shared" si="135"/>
+        <v>0.24155844155844156</v>
+      </c>
+      <c r="G455" s="2">
+        <v>3</v>
+      </c>
+      <c r="H455" s="7">
+        <f t="shared" si="138"/>
+        <v>0</v>
+      </c>
+      <c r="I455" s="6">
+        <f t="shared" si="139"/>
+        <v>1.4354066985645933E-2</v>
+      </c>
+    </row>
+    <row r="456" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A456" s="1">
+        <v>43953</v>
+      </c>
+      <c r="B456" t="s">
+        <v>4</v>
+      </c>
+      <c r="C456" s="2">
+        <v>2262</v>
+      </c>
+      <c r="D456" s="6">
+        <f t="shared" si="133"/>
+        <v>0.17865887370665826</v>
+      </c>
+      <c r="E456" s="7">
+        <f t="shared" si="134"/>
+        <v>134</v>
+      </c>
+      <c r="F456" s="6">
+        <f t="shared" si="135"/>
+        <v>0.17402597402597403</v>
+      </c>
+      <c r="G456" s="2">
+        <v>10</v>
+      </c>
+      <c r="H456" s="7">
+        <f t="shared" si="138"/>
+        <v>0</v>
+      </c>
+      <c r="I456" s="6">
+        <f t="shared" si="139"/>
+        <v>4.784688995215311E-2</v>
+      </c>
+    </row>
+    <row r="457" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A457" s="1">
+        <v>43953</v>
+      </c>
+      <c r="B457" t="s">
+        <v>5</v>
+      </c>
+      <c r="C457" s="2">
+        <v>2068</v>
+      </c>
+      <c r="D457" s="6">
+        <f t="shared" si="133"/>
+        <v>0.16333622936576889</v>
+      </c>
+      <c r="E457" s="7">
+        <f t="shared" si="134"/>
+        <v>81</v>
+      </c>
+      <c r="F457" s="6">
+        <f t="shared" si="135"/>
+        <v>0.10519480519480519</v>
+      </c>
+      <c r="G457" s="2">
+        <v>16</v>
+      </c>
+      <c r="H457" s="7">
+        <f t="shared" si="138"/>
+        <v>0</v>
+      </c>
+      <c r="I457" s="6">
+        <f t="shared" si="139"/>
+        <v>7.6555023923444973E-2</v>
+      </c>
+    </row>
+    <row r="458" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A458" s="1">
+        <v>43953</v>
+      </c>
+      <c r="B458" t="s">
+        <v>6</v>
+      </c>
+      <c r="C458" s="2">
+        <v>1257</v>
+      </c>
+      <c r="D458" s="6">
+        <f t="shared" si="133"/>
+        <v>9.9281257404628384E-2</v>
+      </c>
+      <c r="E458" s="7">
+        <f t="shared" si="134"/>
+        <v>55</v>
+      </c>
+      <c r="F458" s="6">
+        <f t="shared" si="135"/>
+        <v>7.1428571428571425E-2</v>
+      </c>
+      <c r="G458" s="2">
+        <v>47</v>
+      </c>
+      <c r="H458" s="7">
+        <f t="shared" si="138"/>
+        <v>1</v>
+      </c>
+      <c r="I458" s="6">
+        <f t="shared" si="139"/>
+        <v>0.22488038277511962</v>
+      </c>
+    </row>
+    <row r="459" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A459" s="1">
+        <v>43953</v>
+      </c>
+      <c r="B459" t="s">
+        <v>7</v>
+      </c>
+      <c r="C459" s="2">
+        <v>612</v>
+      </c>
+      <c r="D459" s="6">
+        <f t="shared" si="133"/>
+        <v>4.8337414106310719E-2</v>
+      </c>
+      <c r="E459" s="7">
+        <f t="shared" si="134"/>
+        <v>25</v>
+      </c>
+      <c r="F459" s="6">
+        <f t="shared" si="135"/>
+        <v>3.2467532467532464E-2</v>
+      </c>
+      <c r="G459" s="2">
+        <v>54</v>
+      </c>
+      <c r="H459" s="7">
+        <f t="shared" si="138"/>
+        <v>1</v>
+      </c>
+      <c r="I459" s="6">
+        <f t="shared" si="139"/>
+        <v>0.25837320574162681</v>
+      </c>
+    </row>
+    <row r="460" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A460" s="1">
+        <v>43953</v>
+      </c>
+      <c r="B460" t="s">
+        <v>25</v>
+      </c>
+      <c r="C460" s="2">
+        <v>385</v>
+      </c>
+      <c r="D460" s="6">
+        <f t="shared" si="133"/>
+        <v>3.0408340573414423E-2</v>
+      </c>
+      <c r="E460" s="7">
+        <f t="shared" si="134"/>
+        <v>14</v>
+      </c>
+      <c r="F460" s="6">
+        <f t="shared" si="135"/>
+        <v>1.8181818181818181E-2</v>
+      </c>
+      <c r="G460" s="2">
+        <v>75</v>
+      </c>
+      <c r="H460" s="7">
+        <f t="shared" si="138"/>
+        <v>2</v>
+      </c>
+      <c r="I460" s="6">
+        <f t="shared" si="139"/>
+        <v>0.35885167464114831</v>
+      </c>
+    </row>
+    <row r="461" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A461" s="1">
+        <v>43953</v>
+      </c>
+      <c r="B461" t="s">
+        <v>21</v>
+      </c>
+      <c r="C461" s="2">
+        <v>151</v>
+      </c>
+      <c r="D461" s="6">
+        <f t="shared" si="133"/>
+        <v>1.19263881210015E-2</v>
+      </c>
+      <c r="E461" s="7">
+        <f t="shared" si="134"/>
+        <v>62</v>
+      </c>
+      <c r="F461" s="6">
+        <f t="shared" si="135"/>
+        <v>8.0519480519480519E-2</v>
+      </c>
+      <c r="G461" s="2">
+        <v>1</v>
+      </c>
+      <c r="H461" s="7">
+        <f t="shared" si="138"/>
+        <v>1</v>
+      </c>
+      <c r="I461" s="6">
+        <f t="shared" si="139"/>
+        <v>4.7846889952153108E-3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/TN_Age.xlsx
+++ b/TN_Age.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="26">
   <si>
     <t>0-10</t>
   </si>
@@ -440,11 +440,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I461"/>
+  <dimension ref="A1:I471"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A435" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A461" sqref="A461"/>
+      <pane ySplit="1" topLeftCell="A438" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I467" sqref="I467"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13632,6 +13632,346 @@
         <v>4.7846889952153108E-3</v>
       </c>
     </row>
+    <row r="462" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A462" s="1">
+        <v>43954</v>
+      </c>
+      <c r="B462" t="s">
+        <v>0</v>
+      </c>
+      <c r="C462" s="2">
+        <v>274</v>
+      </c>
+      <c r="D462" s="6">
+        <f t="shared" ref="D462:D471" si="140">C462/SUMIF(A:A,A462,C:C)</f>
+        <v>2.07938073916673E-2</v>
+      </c>
+      <c r="E462" s="7">
+        <f t="shared" ref="E462:E471" si="141">C462-SUMIFS(C:C,A:A,A462-1,B:B,B462)</f>
+        <v>35</v>
+      </c>
+      <c r="F462" s="6">
+        <f t="shared" ref="F462:F471" si="142">E462/SUMIF(A:A,A462,E:E)</f>
+        <v>6.7829457364341081E-2</v>
+      </c>
+      <c r="G462" s="2">
+        <v>1</v>
+      </c>
+      <c r="H462" s="7">
+        <f t="shared" ref="H462:H471" si="143">G462-SUMIFS(G:G,A:A,A462-1,B:B,B462)</f>
+        <v>0</v>
+      </c>
+      <c r="I462" s="6">
+        <f t="shared" ref="I462:I471" si="144">G462/SUMIF(A:A,A462,G:G)</f>
+        <v>4.7619047619047623E-3</v>
+      </c>
+    </row>
+    <row r="463" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A463" s="1">
+        <v>43954</v>
+      </c>
+      <c r="B463" t="s">
+        <v>1</v>
+      </c>
+      <c r="C463" s="2">
+        <v>768</v>
+      </c>
+      <c r="D463" s="6">
+        <f t="shared" si="140"/>
+        <v>5.8283372543067466E-2</v>
+      </c>
+      <c r="E463" s="7">
+        <f t="shared" si="141"/>
+        <v>44</v>
+      </c>
+      <c r="F463" s="6">
+        <f t="shared" si="142"/>
+        <v>8.5271317829457363E-2</v>
+      </c>
+      <c r="G463" s="2">
+        <v>1</v>
+      </c>
+      <c r="H463" s="7">
+        <f t="shared" si="143"/>
+        <v>0</v>
+      </c>
+      <c r="I463" s="6">
+        <f t="shared" si="144"/>
+        <v>4.7619047619047623E-3</v>
+      </c>
+    </row>
+    <row r="464" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A464" s="1">
+        <v>43954</v>
+      </c>
+      <c r="B464" t="s">
+        <v>2</v>
+      </c>
+      <c r="C464" s="2">
+        <v>2615</v>
+      </c>
+      <c r="D464" s="6">
+        <f t="shared" si="140"/>
+        <v>0.19845184791682477</v>
+      </c>
+      <c r="E464" s="7">
+        <f t="shared" si="141"/>
+        <v>92</v>
+      </c>
+      <c r="F464" s="6">
+        <f t="shared" si="142"/>
+        <v>0.17829457364341086</v>
+      </c>
+      <c r="G464" s="2">
+        <v>1</v>
+      </c>
+      <c r="H464" s="7">
+        <f t="shared" si="143"/>
+        <v>0</v>
+      </c>
+      <c r="I464" s="6">
+        <f t="shared" si="144"/>
+        <v>4.7619047619047623E-3</v>
+      </c>
+    </row>
+    <row r="465" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A465" s="1">
+        <v>43954</v>
+      </c>
+      <c r="B465" t="s">
+        <v>3</v>
+      </c>
+      <c r="C465" s="2">
+        <v>2540</v>
+      </c>
+      <c r="D465" s="6">
+        <f t="shared" si="140"/>
+        <v>0.19276011231691584</v>
+      </c>
+      <c r="E465" s="7">
+        <f t="shared" si="141"/>
+        <v>100</v>
+      </c>
+      <c r="F465" s="6">
+        <f t="shared" si="142"/>
+        <v>0.19379844961240311</v>
+      </c>
+      <c r="G465" s="2">
+        <v>3</v>
+      </c>
+      <c r="H465" s="7">
+        <f t="shared" si="143"/>
+        <v>0</v>
+      </c>
+      <c r="I465" s="6">
+        <f t="shared" si="144"/>
+        <v>1.4285714285714285E-2</v>
+      </c>
+    </row>
+    <row r="466" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A466" s="1">
+        <v>43954</v>
+      </c>
+      <c r="B466" t="s">
+        <v>4</v>
+      </c>
+      <c r="C466" s="2">
+        <v>2350</v>
+      </c>
+      <c r="D466" s="6">
+        <f t="shared" si="140"/>
+        <v>0.17834104879714655</v>
+      </c>
+      <c r="E466" s="7">
+        <f t="shared" si="141"/>
+        <v>88</v>
+      </c>
+      <c r="F466" s="6">
+        <f t="shared" si="142"/>
+        <v>0.17054263565891473</v>
+      </c>
+      <c r="G466" s="2">
+        <v>10</v>
+      </c>
+      <c r="H466" s="7">
+        <f t="shared" si="143"/>
+        <v>0</v>
+      </c>
+      <c r="I466" s="6">
+        <f t="shared" si="144"/>
+        <v>4.7619047619047616E-2</v>
+      </c>
+    </row>
+    <row r="467" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A467" s="1">
+        <v>43954</v>
+      </c>
+      <c r="B467" t="s">
+        <v>5</v>
+      </c>
+      <c r="C467" s="2">
+        <v>2155</v>
+      </c>
+      <c r="D467" s="6">
+        <f t="shared" si="140"/>
+        <v>0.16354253623738332</v>
+      </c>
+      <c r="E467" s="7">
+        <f t="shared" si="141"/>
+        <v>87</v>
+      </c>
+      <c r="F467" s="6">
+        <f t="shared" si="142"/>
+        <v>0.16860465116279069</v>
+      </c>
+      <c r="G467" s="2">
+        <v>16</v>
+      </c>
+      <c r="H467" s="7">
+        <f t="shared" si="143"/>
+        <v>0</v>
+      </c>
+      <c r="I467" s="6">
+        <f t="shared" si="144"/>
+        <v>7.6190476190476197E-2</v>
+      </c>
+    </row>
+    <row r="468" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A468" s="1">
+        <v>43954</v>
+      </c>
+      <c r="B468" t="s">
+        <v>6</v>
+      </c>
+      <c r="C468" s="2">
+        <v>1302</v>
+      </c>
+      <c r="D468" s="6">
+        <f t="shared" si="140"/>
+        <v>9.8808530014419069E-2</v>
+      </c>
+      <c r="E468" s="7">
+        <f t="shared" si="141"/>
+        <v>45</v>
+      </c>
+      <c r="F468" s="6">
+        <f t="shared" si="142"/>
+        <v>8.7209302325581398E-2</v>
+      </c>
+      <c r="G468" s="2">
+        <v>47</v>
+      </c>
+      <c r="H468" s="7">
+        <f t="shared" si="143"/>
+        <v>0</v>
+      </c>
+      <c r="I468" s="6">
+        <f t="shared" si="144"/>
+        <v>0.22380952380952382</v>
+      </c>
+    </row>
+    <row r="469" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A469" s="1">
+        <v>43954</v>
+      </c>
+      <c r="B469" t="s">
+        <v>7</v>
+      </c>
+      <c r="C469" s="2">
+        <v>631</v>
+      </c>
+      <c r="D469" s="6">
+        <f t="shared" si="140"/>
+        <v>4.7886468847233819E-2</v>
+      </c>
+      <c r="E469" s="7">
+        <f t="shared" si="141"/>
+        <v>19</v>
+      </c>
+      <c r="F469" s="6">
+        <f t="shared" si="142"/>
+        <v>3.6821705426356592E-2</v>
+      </c>
+      <c r="G469" s="2">
+        <v>55</v>
+      </c>
+      <c r="H469" s="7">
+        <f t="shared" si="143"/>
+        <v>1</v>
+      </c>
+      <c r="I469" s="6">
+        <f t="shared" si="144"/>
+        <v>0.26190476190476192</v>
+      </c>
+    </row>
+    <row r="470" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A470" s="1">
+        <v>43954</v>
+      </c>
+      <c r="B470" t="s">
+        <v>25</v>
+      </c>
+      <c r="C470" s="2">
+        <v>393</v>
+      </c>
+      <c r="D470" s="6">
+        <f t="shared" si="140"/>
+        <v>2.9824694543522805E-2</v>
+      </c>
+      <c r="E470" s="7">
+        <f t="shared" si="141"/>
+        <v>8</v>
+      </c>
+      <c r="F470" s="6">
+        <f t="shared" si="142"/>
+        <v>1.5503875968992248E-2</v>
+      </c>
+      <c r="G470" s="2">
+        <v>76</v>
+      </c>
+      <c r="H470" s="7">
+        <f t="shared" si="143"/>
+        <v>1</v>
+      </c>
+      <c r="I470" s="6">
+        <f t="shared" si="144"/>
+        <v>0.3619047619047619</v>
+      </c>
+    </row>
+    <row r="471" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A471" s="1">
+        <v>43954</v>
+      </c>
+      <c r="B471" t="s">
+        <v>21</v>
+      </c>
+      <c r="C471" s="2">
+        <v>149</v>
+      </c>
+      <c r="D471" s="6">
+        <f t="shared" si="140"/>
+        <v>1.1307581391819079E-2</v>
+      </c>
+      <c r="E471" s="7">
+        <f t="shared" si="141"/>
+        <v>-2</v>
+      </c>
+      <c r="F471" s="6">
+        <f t="shared" si="142"/>
+        <v>-3.875968992248062E-3</v>
+      </c>
+      <c r="G471" s="2">
+        <v>0</v>
+      </c>
+      <c r="H471" s="7">
+        <f t="shared" si="143"/>
+        <v>-1</v>
+      </c>
+      <c r="I471" s="6">
+        <f t="shared" si="144"/>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/TN_Age.xlsx
+++ b/TN_Age.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="26">
   <si>
     <t>0-10</t>
   </si>
@@ -440,11 +440,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I471"/>
+  <dimension ref="A1:I481"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A438" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I467" sqref="I467"/>
+      <pane ySplit="1" topLeftCell="A456" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G472" sqref="G472:G481"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13972,6 +13972,346 @@
         <v>0</v>
       </c>
     </row>
+    <row r="472" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A472" s="1">
+        <v>43955</v>
+      </c>
+      <c r="B472" t="s">
+        <v>0</v>
+      </c>
+      <c r="C472" s="2">
+        <v>281</v>
+      </c>
+      <c r="D472" s="6">
+        <f t="shared" ref="D472:D481" si="145">C472/SUMIF(A:A,A472,C:C)</f>
+        <v>2.0705917028958808E-2</v>
+      </c>
+      <c r="E472" s="7">
+        <f t="shared" ref="E472:E481" si="146">C472-SUMIFS(C:C,A:A,A472-1,B:B,B472)</f>
+        <v>7</v>
+      </c>
+      <c r="F472" s="6">
+        <f t="shared" ref="F472:F481" si="147">E472/SUMIF(A:A,A472,E:E)</f>
+        <v>1.7766497461928935E-2</v>
+      </c>
+      <c r="G472" s="2">
+        <v>1</v>
+      </c>
+      <c r="H472" s="7">
+        <f t="shared" ref="H472:H481" si="148">G472-SUMIFS(G:G,A:A,A472-1,B:B,B472)</f>
+        <v>0</v>
+      </c>
+      <c r="I472" s="6">
+        <f t="shared" ref="I472:I481" si="149">G472/SUMIF(A:A,A472,G:G)</f>
+        <v>4.5662100456621002E-3</v>
+      </c>
+    </row>
+    <row r="473" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A473" s="1">
+        <v>43955</v>
+      </c>
+      <c r="B473" t="s">
+        <v>1</v>
+      </c>
+      <c r="C473" s="2">
+        <v>806</v>
+      </c>
+      <c r="D473" s="6">
+        <f t="shared" si="145"/>
+        <v>5.939134920050107E-2</v>
+      </c>
+      <c r="E473" s="7">
+        <f t="shared" si="146"/>
+        <v>38</v>
+      </c>
+      <c r="F473" s="6">
+        <f t="shared" si="147"/>
+        <v>9.6446700507614211E-2</v>
+      </c>
+      <c r="G473" s="2">
+        <v>1</v>
+      </c>
+      <c r="H473" s="7">
+        <f t="shared" si="148"/>
+        <v>0</v>
+      </c>
+      <c r="I473" s="6">
+        <f t="shared" si="149"/>
+        <v>4.5662100456621002E-3</v>
+      </c>
+    </row>
+    <row r="474" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A474" s="1">
+        <v>43955</v>
+      </c>
+      <c r="B474" t="s">
+        <v>2</v>
+      </c>
+      <c r="C474" s="2">
+        <v>2669</v>
+      </c>
+      <c r="D474" s="6">
+        <f t="shared" si="145"/>
+        <v>0.1966693685063739</v>
+      </c>
+      <c r="E474" s="7">
+        <f t="shared" si="146"/>
+        <v>54</v>
+      </c>
+      <c r="F474" s="6">
+        <f t="shared" si="147"/>
+        <v>0.13705583756345177</v>
+      </c>
+      <c r="G474" s="2">
+        <v>1</v>
+      </c>
+      <c r="H474" s="7">
+        <f t="shared" si="148"/>
+        <v>0</v>
+      </c>
+      <c r="I474" s="6">
+        <f t="shared" si="149"/>
+        <v>4.5662100456621002E-3</v>
+      </c>
+    </row>
+    <row r="475" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A475" s="1">
+        <v>43955</v>
+      </c>
+      <c r="B475" t="s">
+        <v>3</v>
+      </c>
+      <c r="C475" s="2">
+        <v>2582</v>
+      </c>
+      <c r="D475" s="6">
+        <f t="shared" si="145"/>
+        <v>0.1902586397465183</v>
+      </c>
+      <c r="E475" s="7">
+        <f t="shared" si="146"/>
+        <v>42</v>
+      </c>
+      <c r="F475" s="6">
+        <f t="shared" si="147"/>
+        <v>0.1065989847715736</v>
+      </c>
+      <c r="G475" s="2">
+        <v>3</v>
+      </c>
+      <c r="H475" s="7">
+        <f t="shared" si="148"/>
+        <v>0</v>
+      </c>
+      <c r="I475" s="6">
+        <f t="shared" si="149"/>
+        <v>1.3698630136986301E-2</v>
+      </c>
+    </row>
+    <row r="476" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A476" s="1">
+        <v>43955</v>
+      </c>
+      <c r="B476" t="s">
+        <v>4</v>
+      </c>
+      <c r="C476" s="2">
+        <v>2405</v>
+      </c>
+      <c r="D476" s="6">
+        <f t="shared" si="145"/>
+        <v>0.17721612261439834</v>
+      </c>
+      <c r="E476" s="7">
+        <f t="shared" si="146"/>
+        <v>55</v>
+      </c>
+      <c r="F476" s="6">
+        <f t="shared" si="147"/>
+        <v>0.13959390862944163</v>
+      </c>
+      <c r="G476" s="2">
+        <v>10</v>
+      </c>
+      <c r="H476" s="7">
+        <f t="shared" si="148"/>
+        <v>0</v>
+      </c>
+      <c r="I476" s="6">
+        <f t="shared" si="149"/>
+        <v>4.5662100456621002E-2</v>
+      </c>
+    </row>
+    <row r="477" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A477" s="1">
+        <v>43955</v>
+      </c>
+      <c r="B477" t="s">
+        <v>5</v>
+      </c>
+      <c r="C477" s="2">
+        <v>2207</v>
+      </c>
+      <c r="D477" s="6">
+        <f t="shared" si="145"/>
+        <v>0.16262618819541669</v>
+      </c>
+      <c r="E477" s="7">
+        <f t="shared" si="146"/>
+        <v>52</v>
+      </c>
+      <c r="F477" s="6">
+        <f t="shared" si="147"/>
+        <v>0.13197969543147209</v>
+      </c>
+      <c r="G477" s="2">
+        <v>17</v>
+      </c>
+      <c r="H477" s="7">
+        <f t="shared" si="148"/>
+        <v>1</v>
+      </c>
+      <c r="I477" s="6">
+        <f t="shared" si="149"/>
+        <v>7.7625570776255703E-2</v>
+      </c>
+    </row>
+    <row r="478" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A478" s="1">
+        <v>43955</v>
+      </c>
+      <c r="B478" t="s">
+        <v>6</v>
+      </c>
+      <c r="C478" s="2">
+        <v>1339</v>
+      </c>
+      <c r="D478" s="6">
+        <f t="shared" si="145"/>
+        <v>9.8666273671800156E-2</v>
+      </c>
+      <c r="E478" s="7">
+        <f t="shared" si="146"/>
+        <v>37</v>
+      </c>
+      <c r="F478" s="6">
+        <f t="shared" si="147"/>
+        <v>9.3908629441624369E-2</v>
+      </c>
+      <c r="G478" s="2">
+        <v>50</v>
+      </c>
+      <c r="H478" s="7">
+        <f t="shared" si="148"/>
+        <v>3</v>
+      </c>
+      <c r="I478" s="6">
+        <f t="shared" si="149"/>
+        <v>0.22831050228310501</v>
+      </c>
+    </row>
+    <row r="479" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A479" s="1">
+        <v>43955</v>
+      </c>
+      <c r="B479" t="s">
+        <v>7</v>
+      </c>
+      <c r="C479" s="2">
+        <v>659</v>
+      </c>
+      <c r="D479" s="6">
+        <f t="shared" si="145"/>
+        <v>4.8559428192469237E-2</v>
+      </c>
+      <c r="E479" s="7">
+        <f t="shared" si="146"/>
+        <v>28</v>
+      </c>
+      <c r="F479" s="6">
+        <f t="shared" si="147"/>
+        <v>7.1065989847715741E-2</v>
+      </c>
+      <c r="G479" s="2">
+        <v>59</v>
+      </c>
+      <c r="H479" s="7">
+        <f t="shared" si="148"/>
+        <v>4</v>
+      </c>
+      <c r="I479" s="6">
+        <f t="shared" si="149"/>
+        <v>0.26940639269406391</v>
+      </c>
+    </row>
+    <row r="480" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A480" s="1">
+        <v>43955</v>
+      </c>
+      <c r="B480" t="s">
+        <v>25</v>
+      </c>
+      <c r="C480" s="2">
+        <v>407</v>
+      </c>
+      <c r="D480" s="6">
+        <f t="shared" si="145"/>
+        <v>2.9990420750128952E-2</v>
+      </c>
+      <c r="E480" s="7">
+        <f t="shared" si="146"/>
+        <v>14</v>
+      </c>
+      <c r="F480" s="6">
+        <f t="shared" si="147"/>
+        <v>3.553299492385787E-2</v>
+      </c>
+      <c r="G480" s="2">
+        <v>77</v>
+      </c>
+      <c r="H480" s="7">
+        <f t="shared" si="148"/>
+        <v>1</v>
+      </c>
+      <c r="I480" s="6">
+        <f t="shared" si="149"/>
+        <v>0.35159817351598172</v>
+      </c>
+    </row>
+    <row r="481" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A481" s="1">
+        <v>43955</v>
+      </c>
+      <c r="B481" t="s">
+        <v>21</v>
+      </c>
+      <c r="C481" s="2">
+        <v>216</v>
+      </c>
+      <c r="D481" s="6">
+        <f t="shared" si="145"/>
+        <v>1.5916292093434529E-2</v>
+      </c>
+      <c r="E481" s="7">
+        <f t="shared" si="146"/>
+        <v>67</v>
+      </c>
+      <c r="F481" s="6">
+        <f t="shared" si="147"/>
+        <v>0.17005076142131981</v>
+      </c>
+      <c r="G481" s="2">
+        <v>0</v>
+      </c>
+      <c r="H481" s="7">
+        <f t="shared" si="148"/>
+        <v>0</v>
+      </c>
+      <c r="I481" s="6">
+        <f t="shared" si="149"/>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/TN_Age.xlsx
+++ b/TN_Age.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="26">
   <si>
     <t>0-10</t>
   </si>
@@ -440,11 +440,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I481"/>
+  <dimension ref="A1:I491"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A456" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G472" sqref="G472:G481"/>
+      <pane ySplit="1" topLeftCell="A465" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A491" sqref="A491"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14312,6 +14312,346 @@
         <v>0</v>
       </c>
     </row>
+    <row r="482" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A482" s="1">
+        <v>43956</v>
+      </c>
+      <c r="B482" t="s">
+        <v>0</v>
+      </c>
+      <c r="C482" s="2">
+        <v>290</v>
+      </c>
+      <c r="D482" s="6">
+        <f t="shared" ref="D482:D491" si="150">C482/SUMIF(A:A,A482,C:C)</f>
+        <v>2.1183345507669833E-2</v>
+      </c>
+      <c r="E482" s="7">
+        <f t="shared" ref="E482:E491" si="151">C482-SUMIFS(C:C,A:A,A482-1,B:B,B482)</f>
+        <v>9</v>
+      </c>
+      <c r="F482" s="6">
+        <f t="shared" ref="F482:F491" si="152">E482/SUMIF(A:A,A482,E:E)</f>
+        <v>7.5630252100840331E-2</v>
+      </c>
+      <c r="G482" s="2">
+        <v>1</v>
+      </c>
+      <c r="H482" s="7">
+        <f t="shared" ref="H482:H491" si="153">G482-SUMIFS(G:G,A:A,A482-1,B:B,B482)</f>
+        <v>0</v>
+      </c>
+      <c r="I482" s="6">
+        <f t="shared" ref="I482:I491" si="154">G482/SUMIF(A:A,A482,G:G)</f>
+        <v>4.4247787610619468E-3</v>
+      </c>
+    </row>
+    <row r="483" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A483" s="1">
+        <v>43956</v>
+      </c>
+      <c r="B483" t="s">
+        <v>1</v>
+      </c>
+      <c r="C483" s="2">
+        <v>817</v>
+      </c>
+      <c r="D483" s="6">
+        <f t="shared" si="150"/>
+        <v>5.9678597516435353E-2</v>
+      </c>
+      <c r="E483" s="7">
+        <f t="shared" si="151"/>
+        <v>11</v>
+      </c>
+      <c r="F483" s="6">
+        <f t="shared" si="152"/>
+        <v>9.2436974789915971E-2</v>
+      </c>
+      <c r="G483" s="2">
+        <v>1</v>
+      </c>
+      <c r="H483" s="7">
+        <f t="shared" si="153"/>
+        <v>0</v>
+      </c>
+      <c r="I483" s="6">
+        <f t="shared" si="154"/>
+        <v>4.4247787610619468E-3</v>
+      </c>
+    </row>
+    <row r="484" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A484" s="1">
+        <v>43956</v>
+      </c>
+      <c r="B484" t="s">
+        <v>2</v>
+      </c>
+      <c r="C484" s="2">
+        <v>2685</v>
+      </c>
+      <c r="D484" s="6">
+        <f t="shared" si="150"/>
+        <v>0.19612856099342585</v>
+      </c>
+      <c r="E484" s="7">
+        <f t="shared" si="151"/>
+        <v>16</v>
+      </c>
+      <c r="F484" s="6">
+        <f t="shared" si="152"/>
+        <v>0.13445378151260504</v>
+      </c>
+      <c r="G484" s="2">
+        <v>1</v>
+      </c>
+      <c r="H484" s="7">
+        <f t="shared" si="153"/>
+        <v>0</v>
+      </c>
+      <c r="I484" s="6">
+        <f t="shared" si="154"/>
+        <v>4.4247787610619468E-3</v>
+      </c>
+    </row>
+    <row r="485" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A485" s="1">
+        <v>43956</v>
+      </c>
+      <c r="B485" t="s">
+        <v>3</v>
+      </c>
+      <c r="C485" s="2">
+        <v>2604</v>
+      </c>
+      <c r="D485" s="6">
+        <f t="shared" si="150"/>
+        <v>0.1902118334550767</v>
+      </c>
+      <c r="E485" s="7">
+        <f t="shared" si="151"/>
+        <v>22</v>
+      </c>
+      <c r="F485" s="6">
+        <f t="shared" si="152"/>
+        <v>0.18487394957983194</v>
+      </c>
+      <c r="G485" s="2">
+        <v>3</v>
+      </c>
+      <c r="H485" s="7">
+        <f t="shared" si="153"/>
+        <v>0</v>
+      </c>
+      <c r="I485" s="6">
+        <f t="shared" si="154"/>
+        <v>1.3274336283185841E-2</v>
+      </c>
+    </row>
+    <row r="486" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A486" s="1">
+        <v>43956</v>
+      </c>
+      <c r="B486" t="s">
+        <v>4</v>
+      </c>
+      <c r="C486" s="2">
+        <v>2421</v>
+      </c>
+      <c r="D486" s="6">
+        <f t="shared" si="150"/>
+        <v>0.17684441197954712</v>
+      </c>
+      <c r="E486" s="7">
+        <f t="shared" si="151"/>
+        <v>16</v>
+      </c>
+      <c r="F486" s="6">
+        <f t="shared" si="152"/>
+        <v>0.13445378151260504</v>
+      </c>
+      <c r="G486" s="2">
+        <v>10</v>
+      </c>
+      <c r="H486" s="7">
+        <f t="shared" si="153"/>
+        <v>0</v>
+      </c>
+      <c r="I486" s="6">
+        <f t="shared" si="154"/>
+        <v>4.4247787610619468E-2</v>
+      </c>
+    </row>
+    <row r="487" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A487" s="1">
+        <v>43956</v>
+      </c>
+      <c r="B487" t="s">
+        <v>5</v>
+      </c>
+      <c r="C487" s="2">
+        <v>2228</v>
+      </c>
+      <c r="D487" s="6">
+        <f t="shared" si="150"/>
+        <v>0.16274653031409789</v>
+      </c>
+      <c r="E487" s="7">
+        <f t="shared" si="151"/>
+        <v>21</v>
+      </c>
+      <c r="F487" s="6">
+        <f t="shared" si="152"/>
+        <v>0.17647058823529413</v>
+      </c>
+      <c r="G487" s="2">
+        <v>17</v>
+      </c>
+      <c r="H487" s="7">
+        <f t="shared" si="153"/>
+        <v>0</v>
+      </c>
+      <c r="I487" s="6">
+        <f t="shared" si="154"/>
+        <v>7.5221238938053103E-2</v>
+      </c>
+    </row>
+    <row r="488" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A488" s="1">
+        <v>43956</v>
+      </c>
+      <c r="B488" t="s">
+        <v>6</v>
+      </c>
+      <c r="C488" s="2">
+        <v>1355</v>
+      </c>
+      <c r="D488" s="6">
+        <f t="shared" si="150"/>
+        <v>9.8977355734112496E-2</v>
+      </c>
+      <c r="E488" s="7">
+        <f t="shared" si="151"/>
+        <v>16</v>
+      </c>
+      <c r="F488" s="6">
+        <f t="shared" si="152"/>
+        <v>0.13445378151260504</v>
+      </c>
+      <c r="G488" s="2">
+        <v>51</v>
+      </c>
+      <c r="H488" s="7">
+        <f t="shared" si="153"/>
+        <v>1</v>
+      </c>
+      <c r="I488" s="6">
+        <f t="shared" si="154"/>
+        <v>0.22566371681415928</v>
+      </c>
+    </row>
+    <row r="489" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A489" s="1">
+        <v>43956</v>
+      </c>
+      <c r="B489" t="s">
+        <v>7</v>
+      </c>
+      <c r="C489" s="2">
+        <v>664</v>
+      </c>
+      <c r="D489" s="6">
+        <f t="shared" si="150"/>
+        <v>4.8502556610664715E-2</v>
+      </c>
+      <c r="E489" s="7">
+        <f t="shared" si="151"/>
+        <v>5</v>
+      </c>
+      <c r="F489" s="6">
+        <f t="shared" si="152"/>
+        <v>4.2016806722689079E-2</v>
+      </c>
+      <c r="G489" s="2">
+        <v>62</v>
+      </c>
+      <c r="H489" s="7">
+        <f t="shared" si="153"/>
+        <v>3</v>
+      </c>
+      <c r="I489" s="6">
+        <f t="shared" si="154"/>
+        <v>0.27433628318584069</v>
+      </c>
+    </row>
+    <row r="490" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A490" s="1">
+        <v>43956</v>
+      </c>
+      <c r="B490" t="s">
+        <v>25</v>
+      </c>
+      <c r="C490" s="2">
+        <v>414</v>
+      </c>
+      <c r="D490" s="6">
+        <f t="shared" si="150"/>
+        <v>3.0241051862673483E-2</v>
+      </c>
+      <c r="E490" s="7">
+        <f t="shared" si="151"/>
+        <v>7</v>
+      </c>
+      <c r="F490" s="6">
+        <f t="shared" si="152"/>
+        <v>5.8823529411764705E-2</v>
+      </c>
+      <c r="G490" s="2">
+        <v>80</v>
+      </c>
+      <c r="H490" s="7">
+        <f t="shared" si="153"/>
+        <v>3</v>
+      </c>
+      <c r="I490" s="6">
+        <f t="shared" si="154"/>
+        <v>0.35398230088495575</v>
+      </c>
+    </row>
+    <row r="491" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A491" s="1">
+        <v>43956</v>
+      </c>
+      <c r="B491" t="s">
+        <v>21</v>
+      </c>
+      <c r="C491" s="2">
+        <v>212</v>
+      </c>
+      <c r="D491" s="6">
+        <f t="shared" si="150"/>
+        <v>1.5485756026296567E-2</v>
+      </c>
+      <c r="E491" s="7">
+        <f t="shared" si="151"/>
+        <v>-4</v>
+      </c>
+      <c r="F491" s="6">
+        <f t="shared" si="152"/>
+        <v>-3.3613445378151259E-2</v>
+      </c>
+      <c r="G491" s="2">
+        <v>0</v>
+      </c>
+      <c r="H491" s="7">
+        <f t="shared" si="153"/>
+        <v>0</v>
+      </c>
+      <c r="I491" s="6">
+        <f t="shared" si="154"/>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/TN_Age.xlsx
+++ b/TN_Age.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="26">
   <si>
     <t>0-10</t>
   </si>
@@ -440,11 +440,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I491"/>
+  <dimension ref="A1:I501"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A465" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A491" sqref="A491"/>
+      <pane ySplit="1" topLeftCell="A477" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A501" sqref="A501"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14652,6 +14652,346 @@
         <v>0</v>
       </c>
     </row>
+    <row r="492" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A492" s="1">
+        <v>43957</v>
+      </c>
+      <c r="B492" t="s">
+        <v>0</v>
+      </c>
+      <c r="C492" s="2">
+        <v>304</v>
+      </c>
+      <c r="D492" s="6">
+        <f t="shared" ref="D492:D501" si="155">C492/SUMIF(A:A,A492,C:C)</f>
+        <v>2.1810876739847898E-2</v>
+      </c>
+      <c r="E492" s="7">
+        <f t="shared" ref="E492:E501" si="156">C492-SUMIFS(C:C,A:A,A492-1,B:B,B492)</f>
+        <v>14</v>
+      </c>
+      <c r="F492" s="6">
+        <f t="shared" ref="F492:F501" si="157">E492/SUMIF(A:A,A492,E:E)</f>
+        <v>5.6451612903225805E-2</v>
+      </c>
+      <c r="G492" s="2">
+        <v>1</v>
+      </c>
+      <c r="H492" s="7">
+        <f t="shared" ref="H492:H501" si="158">G492-SUMIFS(G:G,A:A,A492-1,B:B,B492)</f>
+        <v>0</v>
+      </c>
+      <c r="I492" s="6">
+        <f t="shared" ref="I492:I501" si="159">G492/SUMIF(A:A,A492,G:G)</f>
+        <v>4.1841004184100415E-3</v>
+      </c>
+    </row>
+    <row r="493" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A493" s="1">
+        <v>43957</v>
+      </c>
+      <c r="B493" t="s">
+        <v>1</v>
+      </c>
+      <c r="C493" s="2">
+        <v>868</v>
+      </c>
+      <c r="D493" s="6">
+        <f t="shared" si="155"/>
+        <v>6.2275792796670969E-2</v>
+      </c>
+      <c r="E493" s="7">
+        <f t="shared" si="156"/>
+        <v>51</v>
+      </c>
+      <c r="F493" s="6">
+        <f t="shared" si="157"/>
+        <v>0.20564516129032259</v>
+      </c>
+      <c r="G493" s="2">
+        <v>1</v>
+      </c>
+      <c r="H493" s="7">
+        <f t="shared" si="158"/>
+        <v>0</v>
+      </c>
+      <c r="I493" s="6">
+        <f t="shared" si="159"/>
+        <v>4.1841004184100415E-3</v>
+      </c>
+    </row>
+    <row r="494" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A494" s="1">
+        <v>43957</v>
+      </c>
+      <c r="B494" t="s">
+        <v>2</v>
+      </c>
+      <c r="C494" s="2">
+        <v>2753</v>
+      </c>
+      <c r="D494" s="6">
+        <f t="shared" si="155"/>
+        <v>0.197517577844741</v>
+      </c>
+      <c r="E494" s="7">
+        <f t="shared" si="156"/>
+        <v>68</v>
+      </c>
+      <c r="F494" s="6">
+        <f t="shared" si="157"/>
+        <v>0.27419354838709675</v>
+      </c>
+      <c r="G494" s="2">
+        <v>1</v>
+      </c>
+      <c r="H494" s="7">
+        <f t="shared" si="158"/>
+        <v>0</v>
+      </c>
+      <c r="I494" s="6">
+        <f t="shared" si="159"/>
+        <v>4.1841004184100415E-3</v>
+      </c>
+    </row>
+    <row r="495" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A495" s="1">
+        <v>43957</v>
+      </c>
+      <c r="B495" t="s">
+        <v>3</v>
+      </c>
+      <c r="C495" s="2">
+        <v>2655</v>
+      </c>
+      <c r="D495" s="6">
+        <f t="shared" si="155"/>
+        <v>0.19048643994834266</v>
+      </c>
+      <c r="E495" s="7">
+        <f t="shared" si="156"/>
+        <v>51</v>
+      </c>
+      <c r="F495" s="6">
+        <f t="shared" si="157"/>
+        <v>0.20564516129032259</v>
+      </c>
+      <c r="G495" s="2">
+        <v>3</v>
+      </c>
+      <c r="H495" s="7">
+        <f t="shared" si="158"/>
+        <v>0</v>
+      </c>
+      <c r="I495" s="6">
+        <f t="shared" si="159"/>
+        <v>1.2552301255230125E-2</v>
+      </c>
+    </row>
+    <row r="496" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A496" s="1">
+        <v>43957</v>
+      </c>
+      <c r="B496" t="s">
+        <v>4</v>
+      </c>
+      <c r="C496" s="2">
+        <v>2470</v>
+      </c>
+      <c r="D496" s="6">
+        <f t="shared" si="155"/>
+        <v>0.17721337351126418</v>
+      </c>
+      <c r="E496" s="7">
+        <f t="shared" si="156"/>
+        <v>49</v>
+      </c>
+      <c r="F496" s="6">
+        <f t="shared" si="157"/>
+        <v>0.19758064516129031</v>
+      </c>
+      <c r="G496" s="2">
+        <v>10</v>
+      </c>
+      <c r="H496" s="7">
+        <f t="shared" si="158"/>
+        <v>0</v>
+      </c>
+      <c r="I496" s="6">
+        <f t="shared" si="159"/>
+        <v>4.1841004184100417E-2</v>
+      </c>
+    </row>
+    <row r="497" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A497" s="1">
+        <v>43957</v>
+      </c>
+      <c r="B497" t="s">
+        <v>5</v>
+      </c>
+      <c r="C497" s="2">
+        <v>2263</v>
+      </c>
+      <c r="D497" s="6">
+        <f t="shared" si="155"/>
+        <v>0.16236188836274931</v>
+      </c>
+      <c r="E497" s="7">
+        <f t="shared" si="156"/>
+        <v>35</v>
+      </c>
+      <c r="F497" s="6">
+        <f t="shared" si="157"/>
+        <v>0.14112903225806453</v>
+      </c>
+      <c r="G497" s="2">
+        <v>19</v>
+      </c>
+      <c r="H497" s="7">
+        <f t="shared" si="158"/>
+        <v>2</v>
+      </c>
+      <c r="I497" s="6">
+        <f t="shared" si="159"/>
+        <v>7.9497907949790794E-2</v>
+      </c>
+    </row>
+    <row r="498" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A498" s="1">
+        <v>43957</v>
+      </c>
+      <c r="B498" t="s">
+        <v>6</v>
+      </c>
+      <c r="C498" s="2">
+        <v>1381</v>
+      </c>
+      <c r="D498" s="6">
+        <f t="shared" si="155"/>
+        <v>9.9081647295164305E-2</v>
+      </c>
+      <c r="E498" s="7">
+        <f t="shared" si="156"/>
+        <v>26</v>
+      </c>
+      <c r="F498" s="6">
+        <f t="shared" si="157"/>
+        <v>0.10483870967741936</v>
+      </c>
+      <c r="G498" s="2">
+        <v>52</v>
+      </c>
+      <c r="H498" s="7">
+        <f t="shared" si="158"/>
+        <v>1</v>
+      </c>
+      <c r="I498" s="6">
+        <f t="shared" si="159"/>
+        <v>0.21757322175732219</v>
+      </c>
+    </row>
+    <row r="499" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A499" s="1">
+        <v>43957</v>
+      </c>
+      <c r="B499" t="s">
+        <v>7</v>
+      </c>
+      <c r="C499" s="2">
+        <v>676</v>
+      </c>
+      <c r="D499" s="6">
+        <f t="shared" si="155"/>
+        <v>4.8500502224135454E-2</v>
+      </c>
+      <c r="E499" s="7">
+        <f t="shared" si="156"/>
+        <v>12</v>
+      </c>
+      <c r="F499" s="6">
+        <f t="shared" si="157"/>
+        <v>4.8387096774193547E-2</v>
+      </c>
+      <c r="G499" s="2">
+        <v>68</v>
+      </c>
+      <c r="H499" s="7">
+        <f t="shared" si="158"/>
+        <v>6</v>
+      </c>
+      <c r="I499" s="6">
+        <f t="shared" si="159"/>
+        <v>0.28451882845188287</v>
+      </c>
+    </row>
+    <row r="500" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A500" s="1">
+        <v>43957</v>
+      </c>
+      <c r="B500" t="s">
+        <v>25</v>
+      </c>
+      <c r="C500" s="2">
+        <v>424</v>
+      </c>
+      <c r="D500" s="6">
+        <f t="shared" si="155"/>
+        <v>3.0420433347682595E-2</v>
+      </c>
+      <c r="E500" s="7">
+        <f t="shared" si="156"/>
+        <v>10</v>
+      </c>
+      <c r="F500" s="6">
+        <f t="shared" si="157"/>
+        <v>4.0322580645161289E-2</v>
+      </c>
+      <c r="G500" s="2">
+        <v>84</v>
+      </c>
+      <c r="H500" s="7">
+        <f t="shared" si="158"/>
+        <v>4</v>
+      </c>
+      <c r="I500" s="6">
+        <f t="shared" si="159"/>
+        <v>0.35146443514644349</v>
+      </c>
+    </row>
+    <row r="501" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A501" s="1">
+        <v>43957</v>
+      </c>
+      <c r="B501" t="s">
+        <v>21</v>
+      </c>
+      <c r="C501" s="2">
+        <v>144</v>
+      </c>
+      <c r="D501" s="6">
+        <f t="shared" si="155"/>
+        <v>1.0331467929401636E-2</v>
+      </c>
+      <c r="E501" s="7">
+        <f t="shared" si="156"/>
+        <v>-68</v>
+      </c>
+      <c r="F501" s="6">
+        <f t="shared" si="157"/>
+        <v>-0.27419354838709675</v>
+      </c>
+      <c r="G501" s="2">
+        <v>0</v>
+      </c>
+      <c r="H501" s="7">
+        <f t="shared" si="158"/>
+        <v>0</v>
+      </c>
+      <c r="I501" s="6">
+        <f t="shared" si="159"/>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/TN_Age.xlsx
+++ b/TN_Age.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="26">
   <si>
     <t>0-10</t>
   </si>
@@ -440,11 +440,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I501"/>
+  <dimension ref="A1:I511"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A477" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A501" sqref="A501"/>
+      <pane ySplit="1" topLeftCell="A498" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A511" sqref="A511"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14992,6 +14992,346 @@
         <v>0</v>
       </c>
     </row>
+    <row r="502" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A502" s="1">
+        <v>43958</v>
+      </c>
+      <c r="B502" t="s">
+        <v>0</v>
+      </c>
+      <c r="C502" s="2">
+        <v>313</v>
+      </c>
+      <c r="D502" s="6">
+        <f t="shared" ref="D502:D511" si="160">C502/SUMIF(A:A,A502,C:C)</f>
+        <v>2.2204880817253123E-2</v>
+      </c>
+      <c r="E502" s="7">
+        <f t="shared" ref="E502:E511" si="161">C502-SUMIFS(C:C,A:A,A502-1,B:B,B502)</f>
+        <v>9</v>
+      </c>
+      <c r="F502" s="6">
+        <f t="shared" ref="F502:F511" si="162">E502/SUMIF(A:A,A502,E:E)</f>
+        <v>5.6962025316455694E-2</v>
+      </c>
+      <c r="G502" s="2">
+        <v>1</v>
+      </c>
+      <c r="H502" s="7">
+        <f t="shared" ref="H502:H511" si="163">G502-SUMIFS(G:G,A:A,A502-1,B:B,B502)</f>
+        <v>0</v>
+      </c>
+      <c r="I502" s="6">
+        <f t="shared" ref="I502:I511" si="164">G502/SUMIF(A:A,A502,G:G)</f>
+        <v>4.2194092827004216E-3</v>
+      </c>
+    </row>
+    <row r="503" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A503" s="1">
+        <v>43958</v>
+      </c>
+      <c r="B503" t="s">
+        <v>1</v>
+      </c>
+      <c r="C503" s="2">
+        <v>883</v>
+      </c>
+      <c r="D503" s="6">
+        <f t="shared" si="160"/>
+        <v>6.2641884222474464E-2</v>
+      </c>
+      <c r="E503" s="7">
+        <f t="shared" si="161"/>
+        <v>15</v>
+      </c>
+      <c r="F503" s="6">
+        <f t="shared" si="162"/>
+        <v>9.49367088607595E-2</v>
+      </c>
+      <c r="G503" s="2">
+        <v>1</v>
+      </c>
+      <c r="H503" s="7">
+        <f t="shared" si="163"/>
+        <v>0</v>
+      </c>
+      <c r="I503" s="6">
+        <f t="shared" si="164"/>
+        <v>4.2194092827004216E-3</v>
+      </c>
+    </row>
+    <row r="504" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A504" s="1">
+        <v>43958</v>
+      </c>
+      <c r="B504" t="s">
+        <v>2</v>
+      </c>
+      <c r="C504" s="2">
+        <v>2776</v>
+      </c>
+      <c r="D504" s="6">
+        <f t="shared" si="160"/>
+        <v>0.19693530079455165</v>
+      </c>
+      <c r="E504" s="7">
+        <f t="shared" si="161"/>
+        <v>23</v>
+      </c>
+      <c r="F504" s="6">
+        <f t="shared" si="162"/>
+        <v>0.14556962025316456</v>
+      </c>
+      <c r="G504" s="2">
+        <v>1</v>
+      </c>
+      <c r="H504" s="7">
+        <f t="shared" si="163"/>
+        <v>0</v>
+      </c>
+      <c r="I504" s="6">
+        <f t="shared" si="164"/>
+        <v>4.2194092827004216E-3</v>
+      </c>
+    </row>
+    <row r="505" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A505" s="1">
+        <v>43958</v>
+      </c>
+      <c r="B505" t="s">
+        <v>3</v>
+      </c>
+      <c r="C505" s="2">
+        <v>2691</v>
+      </c>
+      <c r="D505" s="6">
+        <f t="shared" si="160"/>
+        <v>0.19090522133938706</v>
+      </c>
+      <c r="E505" s="7">
+        <f t="shared" si="161"/>
+        <v>36</v>
+      </c>
+      <c r="F505" s="6">
+        <f t="shared" si="162"/>
+        <v>0.22784810126582278</v>
+      </c>
+      <c r="G505" s="2">
+        <v>3</v>
+      </c>
+      <c r="H505" s="7">
+        <f t="shared" si="163"/>
+        <v>0</v>
+      </c>
+      <c r="I505" s="6">
+        <f t="shared" si="164"/>
+        <v>1.2658227848101266E-2</v>
+      </c>
+    </row>
+    <row r="506" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A506" s="1">
+        <v>43958</v>
+      </c>
+      <c r="B506" t="s">
+        <v>4</v>
+      </c>
+      <c r="C506" s="2">
+        <v>2502</v>
+      </c>
+      <c r="D506" s="6">
+        <f t="shared" si="160"/>
+        <v>0.17749716231555052</v>
+      </c>
+      <c r="E506" s="7">
+        <f t="shared" si="161"/>
+        <v>32</v>
+      </c>
+      <c r="F506" s="6">
+        <f t="shared" si="162"/>
+        <v>0.20253164556962025</v>
+      </c>
+      <c r="G506" s="2">
+        <v>9</v>
+      </c>
+      <c r="H506" s="7">
+        <f t="shared" si="163"/>
+        <v>-1</v>
+      </c>
+      <c r="I506" s="6">
+        <f t="shared" si="164"/>
+        <v>3.7974683544303799E-2</v>
+      </c>
+    </row>
+    <row r="507" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A507" s="1">
+        <v>43958</v>
+      </c>
+      <c r="B507" t="s">
+        <v>5</v>
+      </c>
+      <c r="C507" s="2">
+        <v>2281</v>
+      </c>
+      <c r="D507" s="6">
+        <f t="shared" si="160"/>
+        <v>0.1618189557321226</v>
+      </c>
+      <c r="E507" s="7">
+        <f t="shared" si="161"/>
+        <v>18</v>
+      </c>
+      <c r="F507" s="6">
+        <f t="shared" si="162"/>
+        <v>0.11392405063291139</v>
+      </c>
+      <c r="G507" s="2">
+        <v>18</v>
+      </c>
+      <c r="H507" s="7">
+        <f t="shared" si="163"/>
+        <v>-1</v>
+      </c>
+      <c r="I507" s="6">
+        <f t="shared" si="164"/>
+        <v>7.5949367088607597E-2</v>
+      </c>
+    </row>
+    <row r="508" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A508" s="1">
+        <v>43958</v>
+      </c>
+      <c r="B508" t="s">
+        <v>6</v>
+      </c>
+      <c r="C508" s="2">
+        <v>1394</v>
+      </c>
+      <c r="D508" s="6">
+        <f t="shared" si="160"/>
+        <v>9.8893303064699206E-2</v>
+      </c>
+      <c r="E508" s="7">
+        <f t="shared" si="161"/>
+        <v>13</v>
+      </c>
+      <c r="F508" s="6">
+        <f t="shared" si="162"/>
+        <v>8.2278481012658222E-2</v>
+      </c>
+      <c r="G508" s="2">
+        <v>52</v>
+      </c>
+      <c r="H508" s="7">
+        <f t="shared" si="163"/>
+        <v>0</v>
+      </c>
+      <c r="I508" s="6">
+        <f t="shared" si="164"/>
+        <v>0.21940928270042195</v>
+      </c>
+    </row>
+    <row r="509" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A509" s="1">
+        <v>43958</v>
+      </c>
+      <c r="B509" t="s">
+        <v>7</v>
+      </c>
+      <c r="C509" s="2">
+        <v>684</v>
+      </c>
+      <c r="D509" s="6">
+        <f t="shared" si="160"/>
+        <v>4.8524404086265606E-2</v>
+      </c>
+      <c r="E509" s="7">
+        <f t="shared" si="161"/>
+        <v>8</v>
+      </c>
+      <c r="F509" s="6">
+        <f t="shared" si="162"/>
+        <v>5.0632911392405063E-2</v>
+      </c>
+      <c r="G509" s="2">
+        <v>68</v>
+      </c>
+      <c r="H509" s="7">
+        <f t="shared" si="163"/>
+        <v>0</v>
+      </c>
+      <c r="I509" s="6">
+        <f t="shared" si="164"/>
+        <v>0.28691983122362869</v>
+      </c>
+    </row>
+    <row r="510" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A510" s="1">
+        <v>43958</v>
+      </c>
+      <c r="B510" t="s">
+        <v>25</v>
+      </c>
+      <c r="C510" s="2">
+        <v>425</v>
+      </c>
+      <c r="D510" s="6">
+        <f t="shared" si="160"/>
+        <v>3.0150397275822929E-2</v>
+      </c>
+      <c r="E510" s="7">
+        <f t="shared" si="161"/>
+        <v>1</v>
+      </c>
+      <c r="F510" s="6">
+        <f t="shared" si="162"/>
+        <v>6.3291139240506328E-3</v>
+      </c>
+      <c r="G510" s="2">
+        <v>84</v>
+      </c>
+      <c r="H510" s="7">
+        <f t="shared" si="163"/>
+        <v>0</v>
+      </c>
+      <c r="I510" s="6">
+        <f t="shared" si="164"/>
+        <v>0.35443037974683544</v>
+      </c>
+    </row>
+    <row r="511" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A511" s="1">
+        <v>43958</v>
+      </c>
+      <c r="B511" t="s">
+        <v>21</v>
+      </c>
+      <c r="C511" s="2">
+        <v>147</v>
+      </c>
+      <c r="D511" s="6">
+        <f t="shared" si="160"/>
+        <v>1.0428490351872871E-2</v>
+      </c>
+      <c r="E511" s="7">
+        <f t="shared" si="161"/>
+        <v>3</v>
+      </c>
+      <c r="F511" s="6">
+        <f t="shared" si="162"/>
+        <v>1.8987341772151899E-2</v>
+      </c>
+      <c r="G511" s="2">
+        <v>0</v>
+      </c>
+      <c r="H511" s="7">
+        <f t="shared" si="163"/>
+        <v>0</v>
+      </c>
+      <c r="I511" s="6">
+        <f t="shared" si="164"/>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/TN_Age.xlsx
+++ b/TN_Age.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="26">
   <si>
     <t>0-10</t>
   </si>
@@ -440,11 +440,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I511"/>
+  <dimension ref="A1:I521"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A498" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A511" sqref="A511"/>
+      <selection pane="bottomLeft" activeCell="H512" sqref="H512:I521"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15332,6 +15332,346 @@
         <v>0</v>
       </c>
     </row>
+    <row r="512" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A512" s="1">
+        <v>43959</v>
+      </c>
+      <c r="B512" t="s">
+        <v>0</v>
+      </c>
+      <c r="C512" s="2">
+        <v>322</v>
+      </c>
+      <c r="D512" s="6">
+        <f t="shared" ref="D512:D521" si="165">C512/SUMIF(A:A,A512,C:C)</f>
+        <v>2.2297624818225885E-2</v>
+      </c>
+      <c r="E512" s="7">
+        <f t="shared" ref="E512:E521" si="166">C512-SUMIFS(C:C,A:A,A512-1,B:B,B512)</f>
+        <v>9</v>
+      </c>
+      <c r="F512" s="6">
+        <f t="shared" ref="F512:F521" si="167">E512/SUMIF(A:A,A512,E:E)</f>
+        <v>2.6086956521739129E-2</v>
+      </c>
+      <c r="G512" s="2">
+        <v>1</v>
+      </c>
+      <c r="H512" s="7">
+        <f t="shared" ref="H512:H521" si="168">G512-SUMIFS(G:G,A:A,A512-1,B:B,B512)</f>
+        <v>0</v>
+      </c>
+      <c r="I512" s="6">
+        <f t="shared" ref="I512:I521" si="169">G512/SUMIF(A:A,A512,G:G)</f>
+        <v>4.1493775933609959E-3</v>
+      </c>
+    </row>
+    <row r="513" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A513" s="1">
+        <v>43959</v>
+      </c>
+      <c r="B513" t="s">
+        <v>1</v>
+      </c>
+      <c r="C513" s="2">
+        <v>916</v>
+      </c>
+      <c r="D513" s="6">
+        <f t="shared" si="165"/>
+        <v>6.3430510352468661E-2</v>
+      </c>
+      <c r="E513" s="7">
+        <f t="shared" si="166"/>
+        <v>33</v>
+      </c>
+      <c r="F513" s="6">
+        <f t="shared" si="167"/>
+        <v>9.5652173913043481E-2</v>
+      </c>
+      <c r="G513" s="2">
+        <v>1</v>
+      </c>
+      <c r="H513" s="7">
+        <f t="shared" si="168"/>
+        <v>0</v>
+      </c>
+      <c r="I513" s="6">
+        <f t="shared" si="169"/>
+        <v>4.1493775933609959E-3</v>
+      </c>
+    </row>
+    <row r="514" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A514" s="1">
+        <v>43959</v>
+      </c>
+      <c r="B514" t="s">
+        <v>2</v>
+      </c>
+      <c r="C514" s="2">
+        <v>2848</v>
+      </c>
+      <c r="D514" s="6">
+        <f t="shared" si="165"/>
+        <v>0.19721625926182398</v>
+      </c>
+      <c r="E514" s="7">
+        <f t="shared" si="166"/>
+        <v>72</v>
+      </c>
+      <c r="F514" s="6">
+        <f t="shared" si="167"/>
+        <v>0.20869565217391303</v>
+      </c>
+      <c r="G514" s="2">
+        <v>1</v>
+      </c>
+      <c r="H514" s="7">
+        <f t="shared" si="168"/>
+        <v>0</v>
+      </c>
+      <c r="I514" s="6">
+        <f t="shared" si="169"/>
+        <v>4.1493775933609959E-3</v>
+      </c>
+    </row>
+    <row r="515" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A515" s="1">
+        <v>43959</v>
+      </c>
+      <c r="B515" t="s">
+        <v>3</v>
+      </c>
+      <c r="C515" s="2">
+        <v>2766</v>
+      </c>
+      <c r="D515" s="6">
+        <f t="shared" si="165"/>
+        <v>0.19153798213420123</v>
+      </c>
+      <c r="E515" s="7">
+        <f t="shared" si="166"/>
+        <v>75</v>
+      </c>
+      <c r="F515" s="6">
+        <f t="shared" si="167"/>
+        <v>0.21739130434782608</v>
+      </c>
+      <c r="G515" s="2">
+        <v>3</v>
+      </c>
+      <c r="H515" s="7">
+        <f t="shared" si="168"/>
+        <v>0</v>
+      </c>
+      <c r="I515" s="6">
+        <f t="shared" si="169"/>
+        <v>1.2448132780082987E-2</v>
+      </c>
+    </row>
+    <row r="516" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A516" s="1">
+        <v>43959</v>
+      </c>
+      <c r="B516" t="s">
+        <v>4</v>
+      </c>
+      <c r="C516" s="2">
+        <v>2556</v>
+      </c>
+      <c r="D516" s="6">
+        <f t="shared" si="165"/>
+        <v>0.17699605290492348</v>
+      </c>
+      <c r="E516" s="7">
+        <f t="shared" si="166"/>
+        <v>54</v>
+      </c>
+      <c r="F516" s="6">
+        <f t="shared" si="167"/>
+        <v>0.15652173913043479</v>
+      </c>
+      <c r="G516" s="2">
+        <v>9</v>
+      </c>
+      <c r="H516" s="7">
+        <f t="shared" si="168"/>
+        <v>0</v>
+      </c>
+      <c r="I516" s="6">
+        <f t="shared" si="169"/>
+        <v>3.7344398340248962E-2</v>
+      </c>
+    </row>
+    <row r="517" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A517" s="1">
+        <v>43959</v>
+      </c>
+      <c r="B517" t="s">
+        <v>5</v>
+      </c>
+      <c r="C517" s="2">
+        <v>2335</v>
+      </c>
+      <c r="D517" s="6">
+        <f t="shared" si="165"/>
+        <v>0.16169240357315975</v>
+      </c>
+      <c r="E517" s="7">
+        <f t="shared" si="166"/>
+        <v>54</v>
+      </c>
+      <c r="F517" s="6">
+        <f t="shared" si="167"/>
+        <v>0.15652173913043479</v>
+      </c>
+      <c r="G517" s="2">
+        <v>18</v>
+      </c>
+      <c r="H517" s="7">
+        <f t="shared" si="168"/>
+        <v>0</v>
+      </c>
+      <c r="I517" s="6">
+        <f t="shared" si="169"/>
+        <v>7.4688796680497924E-2</v>
+      </c>
+    </row>
+    <row r="518" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A518" s="1">
+        <v>43959</v>
+      </c>
+      <c r="B518" t="s">
+        <v>6</v>
+      </c>
+      <c r="C518" s="2">
+        <v>1417</v>
+      </c>
+      <c r="D518" s="6">
+        <f t="shared" si="165"/>
+        <v>9.8123398656602731E-2</v>
+      </c>
+      <c r="E518" s="7">
+        <f t="shared" si="166"/>
+        <v>23</v>
+      </c>
+      <c r="F518" s="6">
+        <f t="shared" si="167"/>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="G518" s="2">
+        <v>53</v>
+      </c>
+      <c r="H518" s="7">
+        <f t="shared" si="168"/>
+        <v>1</v>
+      </c>
+      <c r="I518" s="6">
+        <f t="shared" si="169"/>
+        <v>0.21991701244813278</v>
+      </c>
+    </row>
+    <row r="519" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A519" s="1">
+        <v>43959</v>
+      </c>
+      <c r="B519" t="s">
+        <v>7</v>
+      </c>
+      <c r="C519" s="2">
+        <v>693</v>
+      </c>
+      <c r="D519" s="6">
+        <f t="shared" si="165"/>
+        <v>4.7988366456616575E-2</v>
+      </c>
+      <c r="E519" s="7">
+        <f t="shared" si="166"/>
+        <v>9</v>
+      </c>
+      <c r="F519" s="6">
+        <f t="shared" si="167"/>
+        <v>2.6086956521739129E-2</v>
+      </c>
+      <c r="G519" s="2">
+        <v>70</v>
+      </c>
+      <c r="H519" s="7">
+        <f t="shared" si="168"/>
+        <v>2</v>
+      </c>
+      <c r="I519" s="6">
+        <f t="shared" si="169"/>
+        <v>0.29045643153526973</v>
+      </c>
+    </row>
+    <row r="520" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A520" s="1">
+        <v>43959</v>
+      </c>
+      <c r="B520" t="s">
+        <v>25</v>
+      </c>
+      <c r="C520" s="2">
+        <v>427</v>
+      </c>
+      <c r="D520" s="6">
+        <f t="shared" si="165"/>
+        <v>2.9568589432864761E-2</v>
+      </c>
+      <c r="E520" s="7">
+        <f t="shared" si="166"/>
+        <v>2</v>
+      </c>
+      <c r="F520" s="6">
+        <f t="shared" si="167"/>
+        <v>5.7971014492753624E-3</v>
+      </c>
+      <c r="G520" s="2">
+        <v>85</v>
+      </c>
+      <c r="H520" s="7">
+        <f t="shared" si="168"/>
+        <v>1</v>
+      </c>
+      <c r="I520" s="6">
+        <f t="shared" si="169"/>
+        <v>0.35269709543568467</v>
+      </c>
+    </row>
+    <row r="521" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A521" s="1">
+        <v>43959</v>
+      </c>
+      <c r="B521" t="s">
+        <v>21</v>
+      </c>
+      <c r="C521" s="2">
+        <v>161</v>
+      </c>
+      <c r="D521" s="6">
+        <f t="shared" si="165"/>
+        <v>1.1148812409112942E-2</v>
+      </c>
+      <c r="E521" s="7">
+        <f t="shared" si="166"/>
+        <v>14</v>
+      </c>
+      <c r="F521" s="6">
+        <f t="shared" si="167"/>
+        <v>4.0579710144927533E-2</v>
+      </c>
+      <c r="G521" s="2">
+        <v>0</v>
+      </c>
+      <c r="H521" s="7">
+        <f t="shared" si="168"/>
+        <v>0</v>
+      </c>
+      <c r="I521" s="6">
+        <f t="shared" si="169"/>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/TN_Age.xlsx
+++ b/TN_Age.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="26">
   <si>
     <t>0-10</t>
   </si>
@@ -440,11 +440,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I521"/>
+  <dimension ref="A1:I531"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A498" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H512" sqref="H512:I521"/>
+      <pane ySplit="1" topLeftCell="A513" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K533" sqref="K533"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15672,6 +15672,346 @@
         <v>0</v>
       </c>
     </row>
+    <row r="522" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A522" s="1">
+        <v>43960</v>
+      </c>
+      <c r="B522" t="s">
+        <v>0</v>
+      </c>
+      <c r="C522" s="2">
+        <v>340</v>
+      </c>
+      <c r="D522" s="6">
+        <f t="shared" ref="D522:D531" si="170">C522/SUMIF(A:A,A522,C:C)</f>
+        <v>2.3022751895991334E-2</v>
+      </c>
+      <c r="E522" s="7">
+        <f t="shared" ref="E522:E531" si="171">C522-SUMIFS(C:C,A:A,A522-1,B:B,B522)</f>
+        <v>18</v>
+      </c>
+      <c r="F522" s="6">
+        <f t="shared" ref="F522:F531" si="172">E522/SUMIF(A:A,A522,E:E)</f>
+        <v>5.5045871559633031E-2</v>
+      </c>
+      <c r="G522">
+        <v>1</v>
+      </c>
+      <c r="H522" s="7">
+        <f t="shared" ref="H522:H531" si="173">G522-SUMIFS(G:G,A:A,A522-1,B:B,B522)</f>
+        <v>0</v>
+      </c>
+      <c r="I522" s="6">
+        <f t="shared" ref="I522:I531" si="174">G522/SUMIF(A:A,A522,G:G)</f>
+        <v>4.1322314049586778E-3</v>
+      </c>
+    </row>
+    <row r="523" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A523" s="1">
+        <v>43960</v>
+      </c>
+      <c r="B523" t="s">
+        <v>1</v>
+      </c>
+      <c r="C523" s="2">
+        <v>942</v>
+      </c>
+      <c r="D523" s="6">
+        <f t="shared" si="170"/>
+        <v>6.3786565547128929E-2</v>
+      </c>
+      <c r="E523" s="7">
+        <f t="shared" si="171"/>
+        <v>26</v>
+      </c>
+      <c r="F523" s="6">
+        <f t="shared" si="172"/>
+        <v>7.9510703363914373E-2</v>
+      </c>
+      <c r="G523">
+        <v>1</v>
+      </c>
+      <c r="H523" s="7">
+        <f t="shared" si="173"/>
+        <v>0</v>
+      </c>
+      <c r="I523" s="6">
+        <f t="shared" si="174"/>
+        <v>4.1322314049586778E-3</v>
+      </c>
+    </row>
+    <row r="524" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A524" s="1">
+        <v>43960</v>
+      </c>
+      <c r="B524" t="s">
+        <v>2</v>
+      </c>
+      <c r="C524" s="2">
+        <v>2905</v>
+      </c>
+      <c r="D524" s="6">
+        <f t="shared" si="170"/>
+        <v>0.19670910075839654</v>
+      </c>
+      <c r="E524" s="7">
+        <f t="shared" si="171"/>
+        <v>57</v>
+      </c>
+      <c r="F524" s="6">
+        <f t="shared" si="172"/>
+        <v>0.1743119266055046</v>
+      </c>
+      <c r="G524">
+        <v>1</v>
+      </c>
+      <c r="H524" s="7">
+        <f t="shared" si="173"/>
+        <v>0</v>
+      </c>
+      <c r="I524" s="6">
+        <f t="shared" si="174"/>
+        <v>4.1322314049586778E-3</v>
+      </c>
+    </row>
+    <row r="525" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A525" s="1">
+        <v>43960</v>
+      </c>
+      <c r="B525" t="s">
+        <v>3</v>
+      </c>
+      <c r="C525" s="2">
+        <v>2839</v>
+      </c>
+      <c r="D525" s="6">
+        <f t="shared" si="170"/>
+        <v>0.19223997833152762</v>
+      </c>
+      <c r="E525" s="7">
+        <f t="shared" si="171"/>
+        <v>73</v>
+      </c>
+      <c r="F525" s="6">
+        <f t="shared" si="172"/>
+        <v>0.22324159021406728</v>
+      </c>
+      <c r="G525">
+        <v>3</v>
+      </c>
+      <c r="H525" s="7">
+        <f t="shared" si="173"/>
+        <v>0</v>
+      </c>
+      <c r="I525" s="6">
+        <f t="shared" si="174"/>
+        <v>1.2396694214876033E-2</v>
+      </c>
+    </row>
+    <row r="526" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A526" s="1">
+        <v>43960</v>
+      </c>
+      <c r="B526" t="s">
+        <v>4</v>
+      </c>
+      <c r="C526" s="2">
+        <v>2596</v>
+      </c>
+      <c r="D526" s="6">
+        <f t="shared" si="170"/>
+        <v>0.17578548212351031</v>
+      </c>
+      <c r="E526" s="7">
+        <f t="shared" si="171"/>
+        <v>40</v>
+      </c>
+      <c r="F526" s="6">
+        <f t="shared" si="172"/>
+        <v>0.12232415902140673</v>
+      </c>
+      <c r="G526">
+        <v>9</v>
+      </c>
+      <c r="H526" s="7">
+        <f t="shared" si="173"/>
+        <v>0</v>
+      </c>
+      <c r="I526" s="6">
+        <f t="shared" si="174"/>
+        <v>3.71900826446281E-2</v>
+      </c>
+    </row>
+    <row r="527" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A527" s="1">
+        <v>43960</v>
+      </c>
+      <c r="B527" t="s">
+        <v>5</v>
+      </c>
+      <c r="C527" s="2">
+        <v>2377</v>
+      </c>
+      <c r="D527" s="6">
+        <f t="shared" si="170"/>
+        <v>0.16095612134344528</v>
+      </c>
+      <c r="E527" s="7">
+        <f t="shared" si="171"/>
+        <v>42</v>
+      </c>
+      <c r="F527" s="6">
+        <f t="shared" si="172"/>
+        <v>0.12844036697247707</v>
+      </c>
+      <c r="G527">
+        <v>18</v>
+      </c>
+      <c r="H527" s="7">
+        <f t="shared" si="173"/>
+        <v>0</v>
+      </c>
+      <c r="I527" s="6">
+        <f t="shared" si="174"/>
+        <v>7.43801652892562E-2</v>
+      </c>
+    </row>
+    <row r="528" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A528" s="1">
+        <v>43960</v>
+      </c>
+      <c r="B528" t="s">
+        <v>6</v>
+      </c>
+      <c r="C528" s="2">
+        <v>1446</v>
+      </c>
+      <c r="D528" s="6">
+        <f t="shared" si="170"/>
+        <v>9.7914409534127847E-2</v>
+      </c>
+      <c r="E528" s="7">
+        <f t="shared" si="171"/>
+        <v>29</v>
+      </c>
+      <c r="F528" s="6">
+        <f t="shared" si="172"/>
+        <v>8.8685015290519878E-2</v>
+      </c>
+      <c r="G528">
+        <v>53</v>
+      </c>
+      <c r="H528" s="7">
+        <f t="shared" si="173"/>
+        <v>0</v>
+      </c>
+      <c r="I528" s="6">
+        <f t="shared" si="174"/>
+        <v>0.21900826446280991</v>
+      </c>
+    </row>
+    <row r="529" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A529" s="1">
+        <v>43960</v>
+      </c>
+      <c r="B529" t="s">
+        <v>7</v>
+      </c>
+      <c r="C529" s="2">
+        <v>698</v>
+      </c>
+      <c r="D529" s="6">
+        <f t="shared" si="170"/>
+        <v>4.726435536294691E-2</v>
+      </c>
+      <c r="E529" s="7">
+        <f t="shared" si="171"/>
+        <v>5</v>
+      </c>
+      <c r="F529" s="6">
+        <f t="shared" si="172"/>
+        <v>1.5290519877675841E-2</v>
+      </c>
+      <c r="G529">
+        <v>71</v>
+      </c>
+      <c r="H529" s="7">
+        <f t="shared" si="173"/>
+        <v>1</v>
+      </c>
+      <c r="I529" s="6">
+        <f t="shared" si="174"/>
+        <v>0.29338842975206614</v>
+      </c>
+    </row>
+    <row r="530" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A530" s="1">
+        <v>43960</v>
+      </c>
+      <c r="B530" t="s">
+        <v>25</v>
+      </c>
+      <c r="C530" s="2">
+        <v>441</v>
+      </c>
+      <c r="D530" s="6">
+        <f t="shared" si="170"/>
+        <v>2.9861863488624053E-2</v>
+      </c>
+      <c r="E530" s="7">
+        <f t="shared" si="171"/>
+        <v>14</v>
+      </c>
+      <c r="F530" s="6">
+        <f t="shared" si="172"/>
+        <v>4.2813455657492352E-2</v>
+      </c>
+      <c r="G530">
+        <v>85</v>
+      </c>
+      <c r="H530" s="7">
+        <f t="shared" si="173"/>
+        <v>0</v>
+      </c>
+      <c r="I530" s="6">
+        <f t="shared" si="174"/>
+        <v>0.3512396694214876</v>
+      </c>
+    </row>
+    <row r="531" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A531" s="1">
+        <v>43960</v>
+      </c>
+      <c r="B531" t="s">
+        <v>21</v>
+      </c>
+      <c r="C531" s="2">
+        <v>184</v>
+      </c>
+      <c r="D531" s="6">
+        <f t="shared" si="170"/>
+        <v>1.2459371614301192E-2</v>
+      </c>
+      <c r="E531" s="7">
+        <f t="shared" si="171"/>
+        <v>23</v>
+      </c>
+      <c r="F531" s="6">
+        <f t="shared" si="172"/>
+        <v>7.0336391437308868E-2</v>
+      </c>
+      <c r="G531">
+        <v>0</v>
+      </c>
+      <c r="H531" s="7">
+        <f t="shared" si="173"/>
+        <v>0</v>
+      </c>
+      <c r="I531" s="6">
+        <f t="shared" si="174"/>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/TN_Age.xlsx
+++ b/TN_Age.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="26">
   <si>
     <t>0-10</t>
   </si>
@@ -440,11 +440,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I531"/>
+  <dimension ref="A1:I541"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A513" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K533" sqref="K533"/>
+      <pane ySplit="1" topLeftCell="A528" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G532" sqref="G532:G541"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16012,6 +16012,346 @@
         <v>0</v>
       </c>
     </row>
+    <row r="532" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A532" s="1">
+        <v>43961</v>
+      </c>
+      <c r="B532" t="s">
+        <v>0</v>
+      </c>
+      <c r="C532" s="2">
+        <v>348</v>
+      </c>
+      <c r="D532" s="6">
+        <f t="shared" ref="D532:D541" si="175">C532/SUMIF(A:A,A532,C:C)</f>
+        <v>2.3223223223223222E-2</v>
+      </c>
+      <c r="E532" s="7">
+        <f t="shared" ref="E532:E541" si="176">C532-SUMIFS(C:C,A:A,A532-1,B:B,B532)</f>
+        <v>8</v>
+      </c>
+      <c r="F532" s="6">
+        <f t="shared" ref="F532:F541" si="177">E532/SUMIF(A:A,A532,E:E)</f>
+        <v>3.6866359447004608E-2</v>
+      </c>
+      <c r="G532" s="2">
+        <v>1</v>
+      </c>
+      <c r="H532" s="7">
+        <f t="shared" ref="H532:H541" si="178">G532-SUMIFS(G:G,A:A,A532-1,B:B,B532)</f>
+        <v>0</v>
+      </c>
+      <c r="I532" s="6">
+        <f t="shared" ref="I532:I541" si="179">G532/SUMIF(A:A,A532,G:G)</f>
+        <v>4.11522633744856E-3</v>
+      </c>
+    </row>
+    <row r="533" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A533" s="1">
+        <v>43961</v>
+      </c>
+      <c r="B533" t="s">
+        <v>1</v>
+      </c>
+      <c r="C533" s="2">
+        <v>969</v>
+      </c>
+      <c r="D533" s="6">
+        <f t="shared" si="175"/>
+        <v>6.4664664664664667E-2</v>
+      </c>
+      <c r="E533" s="7">
+        <f t="shared" si="176"/>
+        <v>27</v>
+      </c>
+      <c r="F533" s="6">
+        <f t="shared" si="177"/>
+        <v>0.12442396313364056</v>
+      </c>
+      <c r="G533" s="2">
+        <v>1</v>
+      </c>
+      <c r="H533" s="7">
+        <f t="shared" si="178"/>
+        <v>0</v>
+      </c>
+      <c r="I533" s="6">
+        <f t="shared" si="179"/>
+        <v>4.11522633744856E-3</v>
+      </c>
+    </row>
+    <row r="534" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A534" s="1">
+        <v>43961</v>
+      </c>
+      <c r="B534" t="s">
+        <v>2</v>
+      </c>
+      <c r="C534" s="2">
+        <v>2939</v>
+      </c>
+      <c r="D534" s="6">
+        <f t="shared" si="175"/>
+        <v>0.19612946279612947</v>
+      </c>
+      <c r="E534" s="7">
+        <f t="shared" si="176"/>
+        <v>34</v>
+      </c>
+      <c r="F534" s="6">
+        <f t="shared" si="177"/>
+        <v>0.15668202764976957</v>
+      </c>
+      <c r="G534" s="2">
+        <v>1</v>
+      </c>
+      <c r="H534" s="7">
+        <f t="shared" si="178"/>
+        <v>0</v>
+      </c>
+      <c r="I534" s="6">
+        <f t="shared" si="179"/>
+        <v>4.11522633744856E-3</v>
+      </c>
+    </row>
+    <row r="535" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A535" s="1">
+        <v>43961</v>
+      </c>
+      <c r="B535" t="s">
+        <v>3</v>
+      </c>
+      <c r="C535" s="2">
+        <v>2886</v>
+      </c>
+      <c r="D535" s="6">
+        <f t="shared" si="175"/>
+        <v>0.19259259259259259</v>
+      </c>
+      <c r="E535" s="7">
+        <f t="shared" si="176"/>
+        <v>47</v>
+      </c>
+      <c r="F535" s="6">
+        <f t="shared" si="177"/>
+        <v>0.21658986175115208</v>
+      </c>
+      <c r="G535" s="2">
+        <v>3</v>
+      </c>
+      <c r="H535" s="7">
+        <f t="shared" si="178"/>
+        <v>0</v>
+      </c>
+      <c r="I535" s="6">
+        <f t="shared" si="179"/>
+        <v>1.2345679012345678E-2</v>
+      </c>
+    </row>
+    <row r="536" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A536" s="1">
+        <v>43961</v>
+      </c>
+      <c r="B536" t="s">
+        <v>4</v>
+      </c>
+      <c r="C536" s="2">
+        <v>2632</v>
+      </c>
+      <c r="D536" s="6">
+        <f t="shared" si="175"/>
+        <v>0.17564230897564231</v>
+      </c>
+      <c r="E536" s="7">
+        <f t="shared" si="176"/>
+        <v>36</v>
+      </c>
+      <c r="F536" s="6">
+        <f t="shared" si="177"/>
+        <v>0.16589861751152074</v>
+      </c>
+      <c r="G536" s="2">
+        <v>9</v>
+      </c>
+      <c r="H536" s="7">
+        <f t="shared" si="178"/>
+        <v>0</v>
+      </c>
+      <c r="I536" s="6">
+        <f t="shared" si="179"/>
+        <v>3.7037037037037035E-2</v>
+      </c>
+    </row>
+    <row r="537" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A537" s="1">
+        <v>43961</v>
+      </c>
+      <c r="B537" t="s">
+        <v>5</v>
+      </c>
+      <c r="C537" s="2">
+        <v>2402</v>
+      </c>
+      <c r="D537" s="6">
+        <f t="shared" si="175"/>
+        <v>0.16029362696029362</v>
+      </c>
+      <c r="E537" s="7">
+        <f t="shared" si="176"/>
+        <v>25</v>
+      </c>
+      <c r="F537" s="6">
+        <f t="shared" si="177"/>
+        <v>0.1152073732718894</v>
+      </c>
+      <c r="G537" s="2">
+        <v>18</v>
+      </c>
+      <c r="H537" s="7">
+        <f t="shared" si="178"/>
+        <v>0</v>
+      </c>
+      <c r="I537" s="6">
+        <f t="shared" si="179"/>
+        <v>7.407407407407407E-2</v>
+      </c>
+    </row>
+    <row r="538" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A538" s="1">
+        <v>43961</v>
+      </c>
+      <c r="B538" t="s">
+        <v>6</v>
+      </c>
+      <c r="C538" s="2">
+        <v>1462</v>
+      </c>
+      <c r="D538" s="6">
+        <f t="shared" si="175"/>
+        <v>9.7564230897564233E-2</v>
+      </c>
+      <c r="E538" s="7">
+        <f t="shared" si="176"/>
+        <v>16</v>
+      </c>
+      <c r="F538" s="6">
+        <f t="shared" si="177"/>
+        <v>7.3732718894009217E-2</v>
+      </c>
+      <c r="G538" s="2">
+        <v>53</v>
+      </c>
+      <c r="H538" s="7">
+        <f t="shared" si="178"/>
+        <v>0</v>
+      </c>
+      <c r="I538" s="6">
+        <f t="shared" si="179"/>
+        <v>0.21810699588477367</v>
+      </c>
+    </row>
+    <row r="539" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A539" s="1">
+        <v>43961</v>
+      </c>
+      <c r="B539" t="s">
+        <v>7</v>
+      </c>
+      <c r="C539" s="2">
+        <v>706</v>
+      </c>
+      <c r="D539" s="6">
+        <f t="shared" si="175"/>
+        <v>4.7113780447113777E-2</v>
+      </c>
+      <c r="E539" s="7">
+        <f t="shared" si="176"/>
+        <v>8</v>
+      </c>
+      <c r="F539" s="6">
+        <f t="shared" si="177"/>
+        <v>3.6866359447004608E-2</v>
+      </c>
+      <c r="G539" s="2">
+        <v>72</v>
+      </c>
+      <c r="H539" s="7">
+        <f t="shared" si="178"/>
+        <v>1</v>
+      </c>
+      <c r="I539" s="6">
+        <f t="shared" si="179"/>
+        <v>0.29629629629629628</v>
+      </c>
+    </row>
+    <row r="540" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A540" s="1">
+        <v>43961</v>
+      </c>
+      <c r="B540" t="s">
+        <v>25</v>
+      </c>
+      <c r="C540" s="2">
+        <v>445</v>
+      </c>
+      <c r="D540" s="6">
+        <f t="shared" si="175"/>
+        <v>2.9696363029696363E-2</v>
+      </c>
+      <c r="E540" s="7">
+        <f t="shared" si="176"/>
+        <v>4</v>
+      </c>
+      <c r="F540" s="6">
+        <f t="shared" si="177"/>
+        <v>1.8433179723502304E-2</v>
+      </c>
+      <c r="G540" s="2">
+        <v>85</v>
+      </c>
+      <c r="H540" s="7">
+        <f t="shared" si="178"/>
+        <v>0</v>
+      </c>
+      <c r="I540" s="6">
+        <f t="shared" si="179"/>
+        <v>0.34979423868312759</v>
+      </c>
+    </row>
+    <row r="541" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A541" s="1">
+        <v>43961</v>
+      </c>
+      <c r="B541" t="s">
+        <v>21</v>
+      </c>
+      <c r="C541" s="2">
+        <v>196</v>
+      </c>
+      <c r="D541" s="6">
+        <f t="shared" si="175"/>
+        <v>1.3079746413079747E-2</v>
+      </c>
+      <c r="E541" s="7">
+        <f t="shared" si="176"/>
+        <v>12</v>
+      </c>
+      <c r="F541" s="6">
+        <f t="shared" si="177"/>
+        <v>5.5299539170506916E-2</v>
+      </c>
+      <c r="G541" s="2">
+        <v>0</v>
+      </c>
+      <c r="H541" s="7">
+        <f t="shared" si="178"/>
+        <v>0</v>
+      </c>
+      <c r="I541" s="6">
+        <f t="shared" si="179"/>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/TN_Age.xlsx
+++ b/TN_Age.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="26">
   <si>
     <t>0-10</t>
   </si>
@@ -440,11 +440,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I541"/>
+  <dimension ref="A1:I551"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A528" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G532" sqref="G532:G541"/>
+      <pane ySplit="1" topLeftCell="A522" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A551" sqref="A551"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16352,6 +16352,346 @@
         <v>0</v>
       </c>
     </row>
+    <row r="542" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A542" s="1">
+        <v>43962</v>
+      </c>
+      <c r="B542" t="s">
+        <v>0</v>
+      </c>
+      <c r="C542" s="2">
+        <v>363</v>
+      </c>
+      <c r="D542" s="6">
+        <f t="shared" ref="D542:D551" si="180">C542/SUMIF(A:A,A542,C:C)</f>
+        <v>2.3353062274832734E-2</v>
+      </c>
+      <c r="E542" s="7">
+        <f t="shared" ref="E542:E551" si="181">C542-SUMIFS(C:C,A:A,A542-1,B:B,B542)</f>
+        <v>15</v>
+      </c>
+      <c r="F542" s="6">
+        <f t="shared" ref="F542:F551" si="182">E542/SUMIF(A:A,A542,E:E)</f>
+        <v>2.6833631484794274E-2</v>
+      </c>
+      <c r="G542" s="2">
+        <v>1</v>
+      </c>
+      <c r="H542" s="7">
+        <f t="shared" ref="H542:H551" si="183">G542-SUMIFS(G:G,A:A,A542-1,B:B,B542)</f>
+        <v>0</v>
+      </c>
+      <c r="I542" s="6">
+        <f t="shared" ref="I542:I551" si="184">G542/SUMIF(A:A,A542,G:G)</f>
+        <v>3.9840637450199202E-3</v>
+      </c>
+    </row>
+    <row r="543" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A543" s="1">
+        <v>43962</v>
+      </c>
+      <c r="B543" t="s">
+        <v>1</v>
+      </c>
+      <c r="C543" s="2">
+        <v>993</v>
+      </c>
+      <c r="D543" s="6">
+        <f t="shared" si="180"/>
+        <v>6.388317035512095E-2</v>
+      </c>
+      <c r="E543" s="7">
+        <f t="shared" si="181"/>
+        <v>24</v>
+      </c>
+      <c r="F543" s="6">
+        <f t="shared" si="182"/>
+        <v>4.2933810375670838E-2</v>
+      </c>
+      <c r="G543" s="2">
+        <v>1</v>
+      </c>
+      <c r="H543" s="7">
+        <f t="shared" si="183"/>
+        <v>0</v>
+      </c>
+      <c r="I543" s="6">
+        <f t="shared" si="184"/>
+        <v>3.9840637450199202E-3</v>
+      </c>
+    </row>
+    <row r="544" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A544" s="1">
+        <v>43962</v>
+      </c>
+      <c r="B544" t="s">
+        <v>2</v>
+      </c>
+      <c r="C544" s="2">
+        <v>3020</v>
+      </c>
+      <c r="D544" s="6">
+        <f t="shared" si="180"/>
+        <v>0.19428718476582604</v>
+      </c>
+      <c r="E544" s="7">
+        <f t="shared" si="181"/>
+        <v>81</v>
+      </c>
+      <c r="F544" s="6">
+        <f t="shared" si="182"/>
+        <v>0.14490161001788909</v>
+      </c>
+      <c r="G544" s="2">
+        <v>1</v>
+      </c>
+      <c r="H544" s="7">
+        <f t="shared" si="183"/>
+        <v>0</v>
+      </c>
+      <c r="I544" s="6">
+        <f t="shared" si="184"/>
+        <v>3.9840637450199202E-3</v>
+      </c>
+    </row>
+    <row r="545" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A545" s="1">
+        <v>43962</v>
+      </c>
+      <c r="B545" t="s">
+        <v>3</v>
+      </c>
+      <c r="C545" s="2">
+        <v>2953</v>
+      </c>
+      <c r="D545" s="6">
+        <f t="shared" si="180"/>
+        <v>0.18997683993823983</v>
+      </c>
+      <c r="E545" s="7">
+        <f t="shared" si="181"/>
+        <v>67</v>
+      </c>
+      <c r="F545" s="6">
+        <f t="shared" si="182"/>
+        <v>0.11985688729874776</v>
+      </c>
+      <c r="G545" s="2">
+        <v>3</v>
+      </c>
+      <c r="H545" s="7">
+        <f t="shared" si="183"/>
+        <v>0</v>
+      </c>
+      <c r="I545" s="6">
+        <f t="shared" si="184"/>
+        <v>1.1952191235059761E-2</v>
+      </c>
+    </row>
+    <row r="546" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A546" s="1">
+        <v>43962</v>
+      </c>
+      <c r="B546" t="s">
+        <v>4</v>
+      </c>
+      <c r="C546" s="2">
+        <v>2713</v>
+      </c>
+      <c r="D546" s="6">
+        <f t="shared" si="180"/>
+        <v>0.17453679876479672</v>
+      </c>
+      <c r="E546" s="7">
+        <f t="shared" si="181"/>
+        <v>81</v>
+      </c>
+      <c r="F546" s="6">
+        <f t="shared" si="182"/>
+        <v>0.14490161001788909</v>
+      </c>
+      <c r="G546" s="2">
+        <v>10</v>
+      </c>
+      <c r="H546" s="7">
+        <f t="shared" si="183"/>
+        <v>1</v>
+      </c>
+      <c r="I546" s="6">
+        <f t="shared" si="184"/>
+        <v>3.9840637450199202E-2</v>
+      </c>
+    </row>
+    <row r="547" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A547" s="1">
+        <v>43962</v>
+      </c>
+      <c r="B547" t="s">
+        <v>5</v>
+      </c>
+      <c r="C547" s="2">
+        <v>2435</v>
+      </c>
+      <c r="D547" s="6">
+        <f t="shared" si="180"/>
+        <v>0.15665208440555842</v>
+      </c>
+      <c r="E547" s="7">
+        <f t="shared" si="181"/>
+        <v>33</v>
+      </c>
+      <c r="F547" s="6">
+        <f t="shared" si="182"/>
+        <v>5.9033989266547404E-2</v>
+      </c>
+      <c r="G547" s="2">
+        <v>19</v>
+      </c>
+      <c r="H547" s="7">
+        <f t="shared" si="183"/>
+        <v>1</v>
+      </c>
+      <c r="I547" s="6">
+        <f t="shared" si="184"/>
+        <v>7.5697211155378488E-2</v>
+      </c>
+    </row>
+    <row r="548" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A548" s="1">
+        <v>43962</v>
+      </c>
+      <c r="B548" t="s">
+        <v>6</v>
+      </c>
+      <c r="C548" s="2">
+        <v>1484</v>
+      </c>
+      <c r="D548" s="6">
+        <f t="shared" si="180"/>
+        <v>9.5470921255790014E-2</v>
+      </c>
+      <c r="E548" s="7">
+        <f t="shared" si="181"/>
+        <v>22</v>
+      </c>
+      <c r="F548" s="6">
+        <f t="shared" si="182"/>
+        <v>3.9355992844364938E-2</v>
+      </c>
+      <c r="G548" s="2">
+        <v>54</v>
+      </c>
+      <c r="H548" s="7">
+        <f t="shared" si="183"/>
+        <v>1</v>
+      </c>
+      <c r="I548" s="6">
+        <f t="shared" si="184"/>
+        <v>0.2151394422310757</v>
+      </c>
+    </row>
+    <row r="549" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A549" s="1">
+        <v>43962</v>
+      </c>
+      <c r="B549" t="s">
+        <v>7</v>
+      </c>
+      <c r="C549" s="2">
+        <v>722</v>
+      </c>
+      <c r="D549" s="6">
+        <f t="shared" si="180"/>
+        <v>4.6448790530108079E-2</v>
+      </c>
+      <c r="E549" s="7">
+        <f t="shared" si="181"/>
+        <v>16</v>
+      </c>
+      <c r="F549" s="6">
+        <f t="shared" si="182"/>
+        <v>2.8622540250447227E-2</v>
+      </c>
+      <c r="G549" s="2">
+        <v>73</v>
+      </c>
+      <c r="H549" s="7">
+        <f t="shared" si="183"/>
+        <v>1</v>
+      </c>
+      <c r="I549" s="6">
+        <f t="shared" si="184"/>
+        <v>0.2908366533864542</v>
+      </c>
+    </row>
+    <row r="550" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A550" s="1">
+        <v>43962</v>
+      </c>
+      <c r="B550" t="s">
+        <v>25</v>
+      </c>
+      <c r="C550" s="2">
+        <v>455</v>
+      </c>
+      <c r="D550" s="6">
+        <f t="shared" si="180"/>
+        <v>2.9271744724652601E-2</v>
+      </c>
+      <c r="E550" s="7">
+        <f t="shared" si="181"/>
+        <v>10</v>
+      </c>
+      <c r="F550" s="6">
+        <f t="shared" si="182"/>
+        <v>1.7889087656529516E-2</v>
+      </c>
+      <c r="G550" s="2">
+        <v>89</v>
+      </c>
+      <c r="H550" s="7">
+        <f t="shared" si="183"/>
+        <v>4</v>
+      </c>
+      <c r="I550" s="6">
+        <f t="shared" si="184"/>
+        <v>0.35458167330677293</v>
+      </c>
+    </row>
+    <row r="551" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A551" s="1">
+        <v>43962</v>
+      </c>
+      <c r="B551" t="s">
+        <v>21</v>
+      </c>
+      <c r="C551" s="2">
+        <v>406</v>
+      </c>
+      <c r="D551" s="6">
+        <f t="shared" si="180"/>
+        <v>2.6119402985074626E-2</v>
+      </c>
+      <c r="E551" s="7">
+        <f t="shared" si="181"/>
+        <v>210</v>
+      </c>
+      <c r="F551" s="6">
+        <f t="shared" si="182"/>
+        <v>0.37567084078711988</v>
+      </c>
+      <c r="G551" s="2">
+        <v>0</v>
+      </c>
+      <c r="H551" s="7">
+        <f t="shared" si="183"/>
+        <v>0</v>
+      </c>
+      <c r="I551" s="6">
+        <f t="shared" si="184"/>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/TN_Age.xlsx
+++ b/TN_Age.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="26">
   <si>
     <t>0-10</t>
   </si>
@@ -440,16 +440,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I551"/>
+  <dimension ref="A1:I561"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A522" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A551" sqref="A551"/>
+      <pane ySplit="1" topLeftCell="A537" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H557" sqref="H557"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" customWidth="1"/>
     <col min="3" max="3" width="16.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.88671875" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.44140625" style="5" customWidth="1"/>
@@ -16692,6 +16693,346 @@
         <v>0</v>
       </c>
     </row>
+    <row r="552" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A552" s="1">
+        <v>43963</v>
+      </c>
+      <c r="B552" t="s">
+        <v>0</v>
+      </c>
+      <c r="C552" s="2">
+        <v>379</v>
+      </c>
+      <c r="D552" s="6">
+        <f t="shared" ref="D552:D561" si="185">C552/SUMIF(A:A,A552,C:C)</f>
+        <v>2.3524300167587362E-2</v>
+      </c>
+      <c r="E552" s="7">
+        <f t="shared" ref="E552:E561" si="186">C552-SUMIFS(C:C,A:A,A552-1,B:B,B552)</f>
+        <v>16</v>
+      </c>
+      <c r="F552" s="6">
+        <f t="shared" ref="F552:F561" si="187">E552/SUMIF(A:A,A552,E:E)</f>
+        <v>2.821869488536155E-2</v>
+      </c>
+      <c r="G552" s="2">
+        <v>1</v>
+      </c>
+      <c r="H552" s="7">
+        <f t="shared" ref="H552:I561" si="188">G552-SUMIFS(G:G,A:A,A552-1,B:B,B552)</f>
+        <v>0</v>
+      </c>
+      <c r="I552" s="7">
+        <f t="shared" ref="I552:I561" si="189">H552-SUMIFS(H:H,B:B,B552-1,C:C,C552)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="553" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A553" s="1">
+        <v>43963</v>
+      </c>
+      <c r="B553" t="s">
+        <v>1</v>
+      </c>
+      <c r="C553" s="2">
+        <v>1029</v>
+      </c>
+      <c r="D553" s="6">
+        <f t="shared" si="185"/>
+        <v>6.3869405995903419E-2</v>
+      </c>
+      <c r="E553" s="7">
+        <f t="shared" si="186"/>
+        <v>36</v>
+      </c>
+      <c r="F553" s="6">
+        <f t="shared" si="187"/>
+        <v>6.3492063492063489E-2</v>
+      </c>
+      <c r="G553" s="2">
+        <v>1</v>
+      </c>
+      <c r="H553" s="7">
+        <f t="shared" si="188"/>
+        <v>0</v>
+      </c>
+      <c r="I553" s="7">
+        <f t="shared" si="189"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="554" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A554" s="1">
+        <v>43963</v>
+      </c>
+      <c r="B554" t="s">
+        <v>2</v>
+      </c>
+      <c r="C554" s="2">
+        <v>3154</v>
+      </c>
+      <c r="D554" s="6">
+        <f t="shared" si="185"/>
+        <v>0.1957668673577059</v>
+      </c>
+      <c r="E554" s="7">
+        <f t="shared" si="186"/>
+        <v>134</v>
+      </c>
+      <c r="F554" s="6">
+        <f t="shared" si="187"/>
+        <v>0.23633156966490299</v>
+      </c>
+      <c r="G554" s="2">
+        <v>1</v>
+      </c>
+      <c r="H554" s="7">
+        <f t="shared" si="188"/>
+        <v>0</v>
+      </c>
+      <c r="I554" s="7">
+        <f t="shared" si="189"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="555" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A555" s="1">
+        <v>43963</v>
+      </c>
+      <c r="B555" t="s">
+        <v>3</v>
+      </c>
+      <c r="C555" s="2">
+        <v>3100</v>
+      </c>
+      <c r="D555" s="6">
+        <f t="shared" si="185"/>
+        <v>0.19241512010427658</v>
+      </c>
+      <c r="E555" s="7">
+        <f t="shared" si="186"/>
+        <v>147</v>
+      </c>
+      <c r="F555" s="6">
+        <f t="shared" si="187"/>
+        <v>0.25925925925925924</v>
+      </c>
+      <c r="G555" s="2">
+        <v>3</v>
+      </c>
+      <c r="H555" s="7">
+        <f t="shared" si="188"/>
+        <v>0</v>
+      </c>
+      <c r="I555" s="7">
+        <f t="shared" si="189"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="556" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A556" s="1">
+        <v>43963</v>
+      </c>
+      <c r="B556" t="s">
+        <v>4</v>
+      </c>
+      <c r="C556" s="2">
+        <v>2816</v>
+      </c>
+      <c r="D556" s="6">
+        <f t="shared" si="185"/>
+        <v>0.17478741232698156</v>
+      </c>
+      <c r="E556" s="7">
+        <f t="shared" si="186"/>
+        <v>103</v>
+      </c>
+      <c r="F556" s="6">
+        <f t="shared" si="187"/>
+        <v>0.18165784832451498</v>
+      </c>
+      <c r="G556" s="2">
+        <v>12</v>
+      </c>
+      <c r="H556" s="7">
+        <f t="shared" si="188"/>
+        <v>2</v>
+      </c>
+      <c r="I556" s="7">
+        <f t="shared" si="189"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="557" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A557" s="1">
+        <v>43963</v>
+      </c>
+      <c r="B557" t="s">
+        <v>5</v>
+      </c>
+      <c r="C557" s="2">
+        <v>2497</v>
+      </c>
+      <c r="D557" s="6">
+        <f t="shared" si="185"/>
+        <v>0.15498727577431567</v>
+      </c>
+      <c r="E557" s="7">
+        <f t="shared" si="186"/>
+        <v>62</v>
+      </c>
+      <c r="F557" s="6">
+        <f t="shared" si="187"/>
+        <v>0.10934744268077601</v>
+      </c>
+      <c r="G557" s="2">
+        <v>24</v>
+      </c>
+      <c r="H557" s="7">
+        <f t="shared" si="188"/>
+        <v>5</v>
+      </c>
+      <c r="I557" s="7">
+        <f t="shared" si="189"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="558" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A558" s="1">
+        <v>43963</v>
+      </c>
+      <c r="B558" t="s">
+        <v>6</v>
+      </c>
+      <c r="C558" s="2">
+        <v>1508</v>
+      </c>
+      <c r="D558" s="6">
+        <f t="shared" si="185"/>
+        <v>9.3600645521693254E-2</v>
+      </c>
+      <c r="E558" s="7">
+        <f t="shared" si="186"/>
+        <v>24</v>
+      </c>
+      <c r="F558" s="6">
+        <f t="shared" si="187"/>
+        <v>4.2328042328042326E-2</v>
+      </c>
+      <c r="G558" s="2">
+        <v>57</v>
+      </c>
+      <c r="H558" s="7">
+        <f t="shared" si="188"/>
+        <v>3</v>
+      </c>
+      <c r="I558" s="7">
+        <f t="shared" si="189"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="559" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A559" s="1">
+        <v>43963</v>
+      </c>
+      <c r="B559" t="s">
+        <v>7</v>
+      </c>
+      <c r="C559" s="2">
+        <v>733</v>
+      </c>
+      <c r="D559" s="6">
+        <f t="shared" si="185"/>
+        <v>4.5496865495624109E-2</v>
+      </c>
+      <c r="E559" s="7">
+        <f t="shared" si="186"/>
+        <v>11</v>
+      </c>
+      <c r="F559" s="6">
+        <f t="shared" si="187"/>
+        <v>1.9400352733686066E-2</v>
+      </c>
+      <c r="G559" s="2">
+        <v>74</v>
+      </c>
+      <c r="H559" s="7">
+        <f t="shared" si="188"/>
+        <v>1</v>
+      </c>
+      <c r="I559" s="7">
+        <f t="shared" si="189"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="560" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A560" s="1">
+        <v>43963</v>
+      </c>
+      <c r="B560" t="s">
+        <v>25</v>
+      </c>
+      <c r="C560" s="2">
+        <v>468</v>
+      </c>
+      <c r="D560" s="6">
+        <f t="shared" si="185"/>
+        <v>2.9048476196387563E-2</v>
+      </c>
+      <c r="E560" s="7">
+        <f t="shared" si="186"/>
+        <v>13</v>
+      </c>
+      <c r="F560" s="6">
+        <f t="shared" si="187"/>
+        <v>2.292768959435626E-2</v>
+      </c>
+      <c r="G560" s="2">
+        <v>92</v>
+      </c>
+      <c r="H560" s="7">
+        <f t="shared" si="188"/>
+        <v>3</v>
+      </c>
+      <c r="I560" s="7">
+        <f t="shared" si="189"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="561" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A561" s="1">
+        <v>43963</v>
+      </c>
+      <c r="B561" t="s">
+        <v>21</v>
+      </c>
+      <c r="C561" s="2">
+        <v>427</v>
+      </c>
+      <c r="D561" s="6">
+        <f t="shared" si="185"/>
+        <v>2.6503631059524548E-2</v>
+      </c>
+      <c r="E561" s="7">
+        <f t="shared" si="186"/>
+        <v>21</v>
+      </c>
+      <c r="F561" s="6">
+        <f t="shared" si="187"/>
+        <v>3.7037037037037035E-2</v>
+      </c>
+      <c r="G561" s="2">
+        <v>0</v>
+      </c>
+      <c r="H561" s="7">
+        <f t="shared" si="188"/>
+        <v>0</v>
+      </c>
+      <c r="I561" s="7">
+        <f t="shared" si="189"/>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/TN_Age.xlsx
+++ b/TN_Age.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="26">
   <si>
     <t>0-10</t>
   </si>
@@ -440,11 +440,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I561"/>
+  <dimension ref="A1:I571"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A537" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H557" sqref="H557"/>
+      <pane ySplit="1" topLeftCell="A546" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A571" sqref="A571"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16719,7 +16719,7 @@
         <v>1</v>
       </c>
       <c r="H552" s="7">
-        <f t="shared" ref="H552:I561" si="188">G552-SUMIFS(G:G,A:A,A552-1,B:B,B552)</f>
+        <f t="shared" ref="H552:H561" si="188">G552-SUMIFS(G:G,A:A,A552-1,B:B,B552)</f>
         <v>0</v>
       </c>
       <c r="I552" s="7">
@@ -17030,6 +17030,346 @@
       </c>
       <c r="I561" s="7">
         <f t="shared" si="189"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="562" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A562" s="1">
+        <v>43964</v>
+      </c>
+      <c r="B562" t="s">
+        <v>0</v>
+      </c>
+      <c r="C562" s="2">
+        <v>389</v>
+      </c>
+      <c r="D562" s="6">
+        <f t="shared" ref="D562:D571" si="190">C562/SUMIF(A:A,A562,C:C)</f>
+        <v>2.3762981062919977E-2</v>
+      </c>
+      <c r="E562" s="7">
+        <f t="shared" ref="E562:E571" si="191">C562-SUMIFS(C:C,A:A,A562-1,B:B,B562)</f>
+        <v>10</v>
+      </c>
+      <c r="F562" s="6">
+        <f t="shared" ref="F562:F571" si="192">E562/SUMIF(A:A,A562,E:E)</f>
+        <v>3.8610038610038609E-2</v>
+      </c>
+      <c r="G562" s="2">
+        <v>1</v>
+      </c>
+      <c r="H562" s="7">
+        <f t="shared" ref="H562:H571" si="193">G562-SUMIFS(G:G,A:A,A562-1,B:B,B562)</f>
+        <v>0</v>
+      </c>
+      <c r="I562" s="7">
+        <f t="shared" ref="I562:I571" si="194">H562-SUMIFS(H:H,B:B,B562-1,C:C,C562)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="563" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A563" s="1">
+        <v>43964</v>
+      </c>
+      <c r="B563" t="s">
+        <v>1</v>
+      </c>
+      <c r="C563" s="2">
+        <v>1048</v>
+      </c>
+      <c r="D563" s="6">
+        <f t="shared" si="190"/>
+        <v>6.4019547953573605E-2</v>
+      </c>
+      <c r="E563" s="7">
+        <f t="shared" si="191"/>
+        <v>19</v>
+      </c>
+      <c r="F563" s="6">
+        <f t="shared" si="192"/>
+        <v>7.3359073359073365E-2</v>
+      </c>
+      <c r="G563" s="2">
+        <v>1</v>
+      </c>
+      <c r="H563" s="7">
+        <f t="shared" si="193"/>
+        <v>0</v>
+      </c>
+      <c r="I563" s="7">
+        <f t="shared" si="194"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="564" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A564" s="1">
+        <v>43964</v>
+      </c>
+      <c r="B564" t="s">
+        <v>2</v>
+      </c>
+      <c r="C564" s="2">
+        <v>3205</v>
+      </c>
+      <c r="D564" s="6">
+        <f t="shared" si="190"/>
+        <v>0.1957849725106903</v>
+      </c>
+      <c r="E564" s="7">
+        <f t="shared" si="191"/>
+        <v>51</v>
+      </c>
+      <c r="F564" s="6">
+        <f t="shared" si="192"/>
+        <v>0.19691119691119691</v>
+      </c>
+      <c r="G564" s="2">
+        <v>1</v>
+      </c>
+      <c r="H564" s="7">
+        <f t="shared" si="193"/>
+        <v>0</v>
+      </c>
+      <c r="I564" s="7">
+        <f t="shared" si="194"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="565" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A565" s="1">
+        <v>43964</v>
+      </c>
+      <c r="B565" t="s">
+        <v>3</v>
+      </c>
+      <c r="C565" s="2">
+        <v>3165</v>
+      </c>
+      <c r="D565" s="6">
+        <f t="shared" si="190"/>
+        <v>0.19334147831398901</v>
+      </c>
+      <c r="E565" s="7">
+        <f t="shared" si="191"/>
+        <v>65</v>
+      </c>
+      <c r="F565" s="6">
+        <f t="shared" si="192"/>
+        <v>0.25096525096525096</v>
+      </c>
+      <c r="G565" s="2">
+        <v>3</v>
+      </c>
+      <c r="H565" s="7">
+        <f t="shared" si="193"/>
+        <v>0</v>
+      </c>
+      <c r="I565" s="7">
+        <f t="shared" si="194"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="566" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A566" s="1">
+        <v>43964</v>
+      </c>
+      <c r="B566" t="s">
+        <v>4</v>
+      </c>
+      <c r="C566" s="2">
+        <v>2871</v>
+      </c>
+      <c r="D566" s="6">
+        <f t="shared" si="190"/>
+        <v>0.17538179596823458</v>
+      </c>
+      <c r="E566" s="7">
+        <f t="shared" si="191"/>
+        <v>55</v>
+      </c>
+      <c r="F566" s="6">
+        <f t="shared" si="192"/>
+        <v>0.21235521235521235</v>
+      </c>
+      <c r="G566" s="2">
+        <v>14</v>
+      </c>
+      <c r="H566" s="7">
+        <f t="shared" si="193"/>
+        <v>2</v>
+      </c>
+      <c r="I566" s="7">
+        <f t="shared" si="194"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="567" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A567" s="1">
+        <v>43964</v>
+      </c>
+      <c r="B567" t="s">
+        <v>5</v>
+      </c>
+      <c r="C567" s="2">
+        <v>2525</v>
+      </c>
+      <c r="D567" s="6">
+        <f t="shared" si="190"/>
+        <v>0.15424557116676849</v>
+      </c>
+      <c r="E567" s="7">
+        <f t="shared" si="191"/>
+        <v>28</v>
+      </c>
+      <c r="F567" s="6">
+        <f t="shared" si="192"/>
+        <v>0.10810810810810811</v>
+      </c>
+      <c r="G567" s="2">
+        <v>24</v>
+      </c>
+      <c r="H567" s="7">
+        <f t="shared" si="193"/>
+        <v>0</v>
+      </c>
+      <c r="I567" s="7">
+        <f t="shared" si="194"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="568" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A568" s="1">
+        <v>43964</v>
+      </c>
+      <c r="B568" t="s">
+        <v>6</v>
+      </c>
+      <c r="C568" s="2">
+        <v>1522</v>
+      </c>
+      <c r="D568" s="6">
+        <f t="shared" si="190"/>
+        <v>9.2974954184483816E-2</v>
+      </c>
+      <c r="E568" s="7">
+        <f t="shared" si="191"/>
+        <v>14</v>
+      </c>
+      <c r="F568" s="6">
+        <f t="shared" si="192"/>
+        <v>5.4054054054054057E-2</v>
+      </c>
+      <c r="G568" s="2">
+        <v>58</v>
+      </c>
+      <c r="H568" s="7">
+        <f t="shared" si="193"/>
+        <v>1</v>
+      </c>
+      <c r="I568" s="7">
+        <f t="shared" si="194"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="569" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A569" s="1">
+        <v>43964</v>
+      </c>
+      <c r="B569" t="s">
+        <v>7</v>
+      </c>
+      <c r="C569" s="2">
+        <v>737</v>
+      </c>
+      <c r="D569" s="6">
+        <f t="shared" si="190"/>
+        <v>4.5021380574221136E-2</v>
+      </c>
+      <c r="E569" s="7">
+        <f t="shared" si="191"/>
+        <v>4</v>
+      </c>
+      <c r="F569" s="6">
+        <f t="shared" si="192"/>
+        <v>1.5444015444015444E-2</v>
+      </c>
+      <c r="G569" s="2">
+        <v>77</v>
+      </c>
+      <c r="H569" s="7">
+        <f t="shared" si="193"/>
+        <v>3</v>
+      </c>
+      <c r="I569" s="7">
+        <f t="shared" si="194"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="570" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A570" s="1">
+        <v>43964</v>
+      </c>
+      <c r="B570" t="s">
+        <v>25</v>
+      </c>
+      <c r="C570" s="2">
+        <v>470</v>
+      </c>
+      <c r="D570" s="6">
+        <f t="shared" si="190"/>
+        <v>2.8711056811240074E-2</v>
+      </c>
+      <c r="E570" s="7">
+        <f t="shared" si="191"/>
+        <v>2</v>
+      </c>
+      <c r="F570" s="6">
+        <f t="shared" si="192"/>
+        <v>7.7220077220077222E-3</v>
+      </c>
+      <c r="G570" s="2">
+        <v>94</v>
+      </c>
+      <c r="H570" s="7">
+        <f t="shared" si="193"/>
+        <v>2</v>
+      </c>
+      <c r="I570" s="7">
+        <f t="shared" si="194"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="571" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A571" s="1">
+        <v>43964</v>
+      </c>
+      <c r="B571" t="s">
+        <v>21</v>
+      </c>
+      <c r="C571" s="2">
+        <v>438</v>
+      </c>
+      <c r="D571" s="6">
+        <f t="shared" si="190"/>
+        <v>2.6756261453879045E-2</v>
+      </c>
+      <c r="E571" s="7">
+        <f t="shared" si="191"/>
+        <v>11</v>
+      </c>
+      <c r="F571" s="6">
+        <f t="shared" si="192"/>
+        <v>4.2471042471042469E-2</v>
+      </c>
+      <c r="G571" s="2">
+        <v>0</v>
+      </c>
+      <c r="H571" s="7">
+        <f t="shared" si="193"/>
+        <v>0</v>
+      </c>
+      <c r="I571" s="7">
+        <f t="shared" si="194"/>
         <v>0</v>
       </c>
     </row>

--- a/TN_Age.xlsx
+++ b/TN_Age.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="26">
   <si>
     <t>0-10</t>
   </si>
@@ -440,11 +440,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I571"/>
+  <dimension ref="A1:I581"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A546" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A571" sqref="A571"/>
+      <selection pane="bottomLeft" activeCell="G581" sqref="G581"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17373,6 +17373,346 @@
         <v>0</v>
       </c>
     </row>
+    <row r="572" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A572" s="1">
+        <v>43965</v>
+      </c>
+      <c r="B572" t="s">
+        <v>0</v>
+      </c>
+      <c r="C572" s="2">
+        <v>409</v>
+      </c>
+      <c r="D572" s="6">
+        <f t="shared" ref="D572:D581" si="195">C572/SUMIF(A:A,A572,C:C)</f>
+        <v>2.4492484579914965E-2</v>
+      </c>
+      <c r="E572" s="7">
+        <f t="shared" ref="E572:E581" si="196">C572-SUMIFS(C:C,A:A,A572-1,B:B,B572)</f>
+        <v>20</v>
+      </c>
+      <c r="F572" s="6">
+        <f t="shared" ref="F572:F581" si="197">E572/SUMIF(A:A,A572,E:E)</f>
+        <v>6.0790273556231005E-2</v>
+      </c>
+      <c r="G572">
+        <v>1</v>
+      </c>
+      <c r="H572" s="7">
+        <f t="shared" ref="H572:H581" si="198">G572-SUMIFS(G:G,A:A,A572-1,B:B,B572)</f>
+        <v>0</v>
+      </c>
+      <c r="I572" s="7">
+        <f t="shared" ref="I572:I581" si="199">H572-SUMIFS(H:H,B:B,B572-1,C:C,C572)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="573" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A573" s="1">
+        <v>43965</v>
+      </c>
+      <c r="B573" t="s">
+        <v>1</v>
+      </c>
+      <c r="C573" s="2">
+        <v>1087</v>
+      </c>
+      <c r="D573" s="6">
+        <f t="shared" si="195"/>
+        <v>6.5093718186717761E-2</v>
+      </c>
+      <c r="E573" s="7">
+        <f t="shared" si="196"/>
+        <v>39</v>
+      </c>
+      <c r="F573" s="6">
+        <f t="shared" si="197"/>
+        <v>0.11854103343465046</v>
+      </c>
+      <c r="G573">
+        <v>1</v>
+      </c>
+      <c r="H573" s="7">
+        <f t="shared" si="198"/>
+        <v>0</v>
+      </c>
+      <c r="I573" s="7">
+        <f t="shared" si="199"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="574" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A574" s="1">
+        <v>43965</v>
+      </c>
+      <c r="B574" t="s">
+        <v>2</v>
+      </c>
+      <c r="C574" s="2">
+        <v>3285</v>
+      </c>
+      <c r="D574" s="6">
+        <f t="shared" si="195"/>
+        <v>0.19671836636924367</v>
+      </c>
+      <c r="E574" s="7">
+        <f t="shared" si="196"/>
+        <v>80</v>
+      </c>
+      <c r="F574" s="6">
+        <f t="shared" si="197"/>
+        <v>0.24316109422492402</v>
+      </c>
+      <c r="G574">
+        <v>1</v>
+      </c>
+      <c r="H574" s="7">
+        <f t="shared" si="198"/>
+        <v>0</v>
+      </c>
+      <c r="I574" s="7">
+        <f t="shared" si="199"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="575" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A575" s="1">
+        <v>43965</v>
+      </c>
+      <c r="B575" t="s">
+        <v>3</v>
+      </c>
+      <c r="C575" s="2">
+        <v>3227</v>
+      </c>
+      <c r="D575" s="6">
+        <f t="shared" si="195"/>
+        <v>0.19324510449727528</v>
+      </c>
+      <c r="E575" s="7">
+        <f t="shared" si="196"/>
+        <v>62</v>
+      </c>
+      <c r="F575" s="6">
+        <f t="shared" si="197"/>
+        <v>0.18844984802431611</v>
+      </c>
+      <c r="G575">
+        <v>3</v>
+      </c>
+      <c r="H575" s="7">
+        <f t="shared" si="198"/>
+        <v>0</v>
+      </c>
+      <c r="I575" s="7">
+        <f t="shared" si="199"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="576" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A576" s="1">
+        <v>43965</v>
+      </c>
+      <c r="B576" t="s">
+        <v>4</v>
+      </c>
+      <c r="C576" s="2">
+        <v>2924</v>
+      </c>
+      <c r="D576" s="6">
+        <f t="shared" si="195"/>
+        <v>0.17510030540750943</v>
+      </c>
+      <c r="E576" s="7">
+        <f t="shared" si="196"/>
+        <v>53</v>
+      </c>
+      <c r="F576" s="6">
+        <f t="shared" si="197"/>
+        <v>0.16109422492401215</v>
+      </c>
+      <c r="G576">
+        <v>14</v>
+      </c>
+      <c r="H576" s="7">
+        <f t="shared" si="198"/>
+        <v>0</v>
+      </c>
+      <c r="I576" s="7">
+        <f t="shared" si="199"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="577" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A577" s="1">
+        <v>43965</v>
+      </c>
+      <c r="B577" t="s">
+        <v>5</v>
+      </c>
+      <c r="C577" s="2">
+        <v>2563</v>
+      </c>
+      <c r="D577" s="6">
+        <f t="shared" si="195"/>
+        <v>0.15348224444577518</v>
+      </c>
+      <c r="E577" s="7">
+        <f t="shared" si="196"/>
+        <v>38</v>
+      </c>
+      <c r="F577" s="6">
+        <f t="shared" si="197"/>
+        <v>0.11550151975683891</v>
+      </c>
+      <c r="G577">
+        <v>26</v>
+      </c>
+      <c r="H577" s="7">
+        <f t="shared" si="198"/>
+        <v>2</v>
+      </c>
+      <c r="I577" s="7">
+        <f t="shared" si="199"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="578" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A578" s="1">
+        <v>43965</v>
+      </c>
+      <c r="B578" t="s">
+        <v>6</v>
+      </c>
+      <c r="C578" s="2">
+        <v>1543</v>
+      </c>
+      <c r="D578" s="6">
+        <f t="shared" si="195"/>
+        <v>9.2400742559434701E-2</v>
+      </c>
+      <c r="E578" s="7">
+        <f t="shared" si="196"/>
+        <v>21</v>
+      </c>
+      <c r="F578" s="6">
+        <f t="shared" si="197"/>
+        <v>6.3829787234042548E-2</v>
+      </c>
+      <c r="G578">
+        <v>61</v>
+      </c>
+      <c r="H578" s="7">
+        <f t="shared" si="198"/>
+        <v>3</v>
+      </c>
+      <c r="I578" s="7">
+        <f t="shared" si="199"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="579" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A579" s="1">
+        <v>43965</v>
+      </c>
+      <c r="B579" t="s">
+        <v>7</v>
+      </c>
+      <c r="C579" s="2">
+        <v>749</v>
+      </c>
+      <c r="D579" s="6">
+        <f t="shared" si="195"/>
+        <v>4.4852985208695129E-2</v>
+      </c>
+      <c r="E579" s="7">
+        <f t="shared" si="196"/>
+        <v>12</v>
+      </c>
+      <c r="F579" s="6">
+        <f t="shared" si="197"/>
+        <v>3.64741641337386E-2</v>
+      </c>
+      <c r="G579">
+        <v>82</v>
+      </c>
+      <c r="H579" s="7">
+        <f t="shared" si="198"/>
+        <v>5</v>
+      </c>
+      <c r="I579" s="7">
+        <f t="shared" si="199"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="580" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A580" s="1">
+        <v>43965</v>
+      </c>
+      <c r="B580" t="s">
+        <v>25</v>
+      </c>
+      <c r="C580" s="2">
+        <v>475</v>
+      </c>
+      <c r="D580" s="6">
+        <f t="shared" si="195"/>
+        <v>2.8444817054913467E-2</v>
+      </c>
+      <c r="E580" s="7">
+        <f t="shared" si="196"/>
+        <v>5</v>
+      </c>
+      <c r="F580" s="6">
+        <f t="shared" si="197"/>
+        <v>1.5197568389057751E-2</v>
+      </c>
+      <c r="G580">
+        <v>98</v>
+      </c>
+      <c r="H580" s="7">
+        <f t="shared" si="198"/>
+        <v>4</v>
+      </c>
+      <c r="I580" s="7">
+        <f t="shared" si="199"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="581" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A581" s="1">
+        <v>43965</v>
+      </c>
+      <c r="B581" t="s">
+        <v>21</v>
+      </c>
+      <c r="C581" s="2">
+        <v>437</v>
+      </c>
+      <c r="D581" s="6">
+        <f t="shared" si="195"/>
+        <v>2.6169231690520392E-2</v>
+      </c>
+      <c r="E581" s="7">
+        <f t="shared" si="196"/>
+        <v>-1</v>
+      </c>
+      <c r="F581" s="6">
+        <f t="shared" si="197"/>
+        <v>-3.0395136778115501E-3</v>
+      </c>
+      <c r="G581">
+        <v>0</v>
+      </c>
+      <c r="H581" s="7">
+        <f t="shared" si="198"/>
+        <v>0</v>
+      </c>
+      <c r="I581" s="7">
+        <f t="shared" si="199"/>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/TN_Age.xlsx
+++ b/TN_Age.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="26">
   <si>
     <t>0-10</t>
   </si>
@@ -440,11 +440,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I581"/>
+  <dimension ref="A1:I591"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A546" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G581" sqref="G581"/>
+      <pane ySplit="1" topLeftCell="A567" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C591" sqref="C591"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17713,6 +17713,346 @@
         <v>0</v>
       </c>
     </row>
+    <row r="582" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A582" s="1">
+        <v>43966</v>
+      </c>
+      <c r="B582" t="s">
+        <v>0</v>
+      </c>
+      <c r="C582" s="2">
+        <v>422</v>
+      </c>
+      <c r="D582" s="6">
+        <f t="shared" ref="D582:D591" si="200">C582/SUMIF(A:A,A582,C:C)</f>
+        <v>2.4867413081909252E-2</v>
+      </c>
+      <c r="E582" s="7">
+        <f t="shared" ref="E582:E591" si="201">C582-SUMIFS(C:C,A:A,A582-1,B:B,B582)</f>
+        <v>13</v>
+      </c>
+      <c r="F582" s="6">
+        <f t="shared" ref="F582:F591" si="202">E582/SUMIF(A:A,A582,E:E)</f>
+        <v>4.797047970479705E-2</v>
+      </c>
+      <c r="G582">
+        <v>1</v>
+      </c>
+      <c r="H582" s="7">
+        <f t="shared" ref="H582:H591" si="203">G582-SUMIFS(G:G,A:A,A582-1,B:B,B582)</f>
+        <v>0</v>
+      </c>
+      <c r="I582" s="7">
+        <f t="shared" ref="I582:I591" si="204">H582-SUMIFS(H:H,B:B,B582-1,C:C,C582)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="583" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A583" s="1">
+        <v>43966</v>
+      </c>
+      <c r="B583" t="s">
+        <v>1</v>
+      </c>
+      <c r="C583" s="2">
+        <v>1119</v>
+      </c>
+      <c r="D583" s="6">
+        <f t="shared" si="200"/>
+        <v>6.5939893930465523E-2</v>
+      </c>
+      <c r="E583" s="7">
+        <f t="shared" si="201"/>
+        <v>32</v>
+      </c>
+      <c r="F583" s="6">
+        <f t="shared" si="202"/>
+        <v>0.11808118081180811</v>
+      </c>
+      <c r="G583">
+        <v>1</v>
+      </c>
+      <c r="H583" s="7">
+        <f t="shared" si="203"/>
+        <v>0</v>
+      </c>
+      <c r="I583" s="7">
+        <f t="shared" si="204"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="584" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A584" s="1">
+        <v>43966</v>
+      </c>
+      <c r="B584" t="s">
+        <v>2</v>
+      </c>
+      <c r="C584" s="2">
+        <v>3325</v>
+      </c>
+      <c r="D584" s="6">
+        <f t="shared" si="200"/>
+        <v>0.19593400117855039</v>
+      </c>
+      <c r="E584" s="7">
+        <f t="shared" si="201"/>
+        <v>40</v>
+      </c>
+      <c r="F584" s="6">
+        <f t="shared" si="202"/>
+        <v>0.14760147601476015</v>
+      </c>
+      <c r="G584">
+        <v>1</v>
+      </c>
+      <c r="H584" s="7">
+        <f t="shared" si="203"/>
+        <v>0</v>
+      </c>
+      <c r="I584" s="7">
+        <f t="shared" si="204"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="585" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A585" s="1">
+        <v>43966</v>
+      </c>
+      <c r="B585" t="s">
+        <v>3</v>
+      </c>
+      <c r="C585" s="2">
+        <v>3274</v>
+      </c>
+      <c r="D585" s="6">
+        <f t="shared" si="200"/>
+        <v>0.19292869770182675</v>
+      </c>
+      <c r="E585" s="7">
+        <f t="shared" si="201"/>
+        <v>47</v>
+      </c>
+      <c r="F585" s="6">
+        <f t="shared" si="202"/>
+        <v>0.17343173431734318</v>
+      </c>
+      <c r="G585">
+        <v>3</v>
+      </c>
+      <c r="H585" s="7">
+        <f t="shared" si="203"/>
+        <v>0</v>
+      </c>
+      <c r="I585" s="7">
+        <f t="shared" si="204"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="586" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A586" s="1">
+        <v>43966</v>
+      </c>
+      <c r="B586" t="s">
+        <v>4</v>
+      </c>
+      <c r="C586" s="2">
+        <v>2961</v>
+      </c>
+      <c r="D586" s="6">
+        <f t="shared" si="200"/>
+        <v>0.17448438420742488</v>
+      </c>
+      <c r="E586" s="7">
+        <f t="shared" si="201"/>
+        <v>37</v>
+      </c>
+      <c r="F586" s="6">
+        <f t="shared" si="202"/>
+        <v>0.13653136531365315</v>
+      </c>
+      <c r="G586">
+        <v>14</v>
+      </c>
+      <c r="H586" s="7">
+        <f t="shared" si="203"/>
+        <v>0</v>
+      </c>
+      <c r="I586" s="7">
+        <f t="shared" si="204"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="587" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A587" s="1">
+        <v>43966</v>
+      </c>
+      <c r="B587" t="s">
+        <v>5</v>
+      </c>
+      <c r="C587" s="2">
+        <v>2589</v>
+      </c>
+      <c r="D587" s="6">
+        <f t="shared" si="200"/>
+        <v>0.1525633470830878</v>
+      </c>
+      <c r="E587" s="7">
+        <f t="shared" si="201"/>
+        <v>26</v>
+      </c>
+      <c r="F587" s="6">
+        <f t="shared" si="202"/>
+        <v>9.5940959409594101E-2</v>
+      </c>
+      <c r="G587">
+        <v>26</v>
+      </c>
+      <c r="H587" s="7">
+        <f t="shared" si="203"/>
+        <v>0</v>
+      </c>
+      <c r="I587" s="7">
+        <f t="shared" si="204"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="588" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A588" s="1">
+        <v>43966</v>
+      </c>
+      <c r="B588" t="s">
+        <v>6</v>
+      </c>
+      <c r="C588" s="2">
+        <v>1551</v>
+      </c>
+      <c r="D588" s="6">
+        <f t="shared" si="200"/>
+        <v>9.1396582203889215E-2</v>
+      </c>
+      <c r="E588" s="7">
+        <f t="shared" si="201"/>
+        <v>8</v>
+      </c>
+      <c r="F588" s="6">
+        <f t="shared" si="202"/>
+        <v>2.9520295202952029E-2</v>
+      </c>
+      <c r="G588">
+        <v>61</v>
+      </c>
+      <c r="H588" s="7">
+        <f t="shared" si="203"/>
+        <v>0</v>
+      </c>
+      <c r="I588" s="7">
+        <f t="shared" si="204"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="589" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A589" s="1">
+        <v>43966</v>
+      </c>
+      <c r="B589" t="s">
+        <v>7</v>
+      </c>
+      <c r="C589" s="2">
+        <v>755</v>
+      </c>
+      <c r="D589" s="6">
+        <f t="shared" si="200"/>
+        <v>4.4490276959340012E-2</v>
+      </c>
+      <c r="E589" s="7">
+        <f t="shared" si="201"/>
+        <v>6</v>
+      </c>
+      <c r="F589" s="6">
+        <f t="shared" si="202"/>
+        <v>2.2140221402214021E-2</v>
+      </c>
+      <c r="G589">
+        <v>85</v>
+      </c>
+      <c r="H589" s="7">
+        <f t="shared" si="203"/>
+        <v>3</v>
+      </c>
+      <c r="I589" s="7">
+        <f t="shared" si="204"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="590" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A590" s="1">
+        <v>43966</v>
+      </c>
+      <c r="B590" t="s">
+        <v>25</v>
+      </c>
+      <c r="C590" s="2">
+        <v>479</v>
+      </c>
+      <c r="D590" s="6">
+        <f t="shared" si="200"/>
+        <v>2.8226281673541544E-2</v>
+      </c>
+      <c r="E590" s="7">
+        <f t="shared" si="201"/>
+        <v>4</v>
+      </c>
+      <c r="F590" s="6">
+        <f t="shared" si="202"/>
+        <v>1.4760147601476014E-2</v>
+      </c>
+      <c r="G590">
+        <v>98</v>
+      </c>
+      <c r="H590" s="7">
+        <f t="shared" si="203"/>
+        <v>0</v>
+      </c>
+      <c r="I590" s="7">
+        <f t="shared" si="204"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="591" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A591" s="1">
+        <v>43966</v>
+      </c>
+      <c r="B591" t="s">
+        <v>21</v>
+      </c>
+      <c r="C591" s="2">
+        <v>495</v>
+      </c>
+      <c r="D591" s="6">
+        <f t="shared" si="200"/>
+        <v>2.9169121979964643E-2</v>
+      </c>
+      <c r="E591" s="7">
+        <f t="shared" si="201"/>
+        <v>58</v>
+      </c>
+      <c r="F591" s="6">
+        <f t="shared" si="202"/>
+        <v>0.2140221402214022</v>
+      </c>
+      <c r="G591">
+        <v>0</v>
+      </c>
+      <c r="H591" s="7">
+        <f t="shared" si="203"/>
+        <v>0</v>
+      </c>
+      <c r="I591" s="7">
+        <f t="shared" si="204"/>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/TN_Age.xlsx
+++ b/TN_Age.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="26">
   <si>
     <t>0-10</t>
   </si>
@@ -440,11 +440,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I591"/>
+  <dimension ref="A1:I601"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A567" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C591" sqref="C591"/>
+      <pane ySplit="1" topLeftCell="A579" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C592" sqref="C592:C601"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18053,6 +18053,346 @@
         <v>0</v>
       </c>
     </row>
+    <row r="592" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A592" s="1">
+        <v>43967</v>
+      </c>
+      <c r="B592" t="s">
+        <v>0</v>
+      </c>
+      <c r="C592">
+        <v>446</v>
+      </c>
+      <c r="D592" s="6">
+        <f t="shared" ref="D592:D601" si="205">C592/SUMIF(A:A,A592,C:C)</f>
+        <v>2.5798241554835726E-2</v>
+      </c>
+      <c r="E592" s="7">
+        <f t="shared" ref="E592:E601" si="206">C592-SUMIFS(C:C,A:A,A592-1,B:B,B592)</f>
+        <v>24</v>
+      </c>
+      <c r="F592" s="6">
+        <f t="shared" ref="F592:F601" si="207">E592/SUMIF(A:A,A592,E:E)</f>
+        <v>7.5471698113207544E-2</v>
+      </c>
+      <c r="G592">
+        <v>1</v>
+      </c>
+      <c r="H592" s="7">
+        <f t="shared" ref="H592:H601" si="208">G592-SUMIFS(G:G,A:A,A592-1,B:B,B592)</f>
+        <v>0</v>
+      </c>
+      <c r="I592" s="7">
+        <f t="shared" ref="I592:I601" si="209">H592-SUMIFS(H:H,B:B,B592-1,C:C,C592)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="593" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A593" s="1">
+        <v>43967</v>
+      </c>
+      <c r="B593" t="s">
+        <v>1</v>
+      </c>
+      <c r="C593">
+        <v>1158</v>
+      </c>
+      <c r="D593" s="6">
+        <f t="shared" si="205"/>
+        <v>6.6982878297084686E-2</v>
+      </c>
+      <c r="E593" s="7">
+        <f t="shared" si="206"/>
+        <v>39</v>
+      </c>
+      <c r="F593" s="6">
+        <f t="shared" si="207"/>
+        <v>0.12264150943396226</v>
+      </c>
+      <c r="G593">
+        <v>1</v>
+      </c>
+      <c r="H593" s="7">
+        <f t="shared" si="208"/>
+        <v>0</v>
+      </c>
+      <c r="I593" s="7">
+        <f t="shared" si="209"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="594" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A594" s="1">
+        <v>43967</v>
+      </c>
+      <c r="B594" t="s">
+        <v>2</v>
+      </c>
+      <c r="C594">
+        <v>3378</v>
+      </c>
+      <c r="D594" s="6">
+        <f t="shared" si="205"/>
+        <v>0.19539565016196206</v>
+      </c>
+      <c r="E594" s="7">
+        <f t="shared" si="206"/>
+        <v>53</v>
+      </c>
+      <c r="F594" s="6">
+        <f t="shared" si="207"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="G594">
+        <v>1</v>
+      </c>
+      <c r="H594" s="7">
+        <f t="shared" si="208"/>
+        <v>0</v>
+      </c>
+      <c r="I594" s="7">
+        <f t="shared" si="209"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="595" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A595" s="1">
+        <v>43967</v>
+      </c>
+      <c r="B595" t="s">
+        <v>3</v>
+      </c>
+      <c r="C595">
+        <v>3339</v>
+      </c>
+      <c r="D595" s="6">
+        <f t="shared" si="205"/>
+        <v>0.19313975011568718</v>
+      </c>
+      <c r="E595" s="7">
+        <f t="shared" si="206"/>
+        <v>65</v>
+      </c>
+      <c r="F595" s="6">
+        <f t="shared" si="207"/>
+        <v>0.20440251572327045</v>
+      </c>
+      <c r="G595">
+        <v>3</v>
+      </c>
+      <c r="H595" s="7">
+        <f t="shared" si="208"/>
+        <v>0</v>
+      </c>
+      <c r="I595" s="7">
+        <f t="shared" si="209"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="596" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A596" s="1">
+        <v>43967</v>
+      </c>
+      <c r="B596" t="s">
+        <v>4</v>
+      </c>
+      <c r="C596">
+        <v>3018</v>
+      </c>
+      <c r="D596" s="6">
+        <f t="shared" si="205"/>
+        <v>0.17457195742711706</v>
+      </c>
+      <c r="E596" s="7">
+        <f t="shared" si="206"/>
+        <v>57</v>
+      </c>
+      <c r="F596" s="6">
+        <f t="shared" si="207"/>
+        <v>0.17924528301886791</v>
+      </c>
+      <c r="G596">
+        <v>14</v>
+      </c>
+      <c r="H596" s="7">
+        <f t="shared" si="208"/>
+        <v>0</v>
+      </c>
+      <c r="I596" s="7">
+        <f t="shared" si="209"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="597" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A597" s="1">
+        <v>43967</v>
+      </c>
+      <c r="B597" t="s">
+        <v>5</v>
+      </c>
+      <c r="C597">
+        <v>2619</v>
+      </c>
+      <c r="D597" s="6">
+        <f t="shared" si="205"/>
+        <v>0.15149236464599722</v>
+      </c>
+      <c r="E597" s="7">
+        <f t="shared" si="206"/>
+        <v>30</v>
+      </c>
+      <c r="F597" s="6">
+        <f t="shared" si="207"/>
+        <v>9.4339622641509441E-2</v>
+      </c>
+      <c r="G597">
+        <v>26</v>
+      </c>
+      <c r="H597" s="7">
+        <f t="shared" si="208"/>
+        <v>0</v>
+      </c>
+      <c r="I597" s="7">
+        <f t="shared" si="209"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="598" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A598" s="1">
+        <v>43967</v>
+      </c>
+      <c r="B598" t="s">
+        <v>6</v>
+      </c>
+      <c r="C598">
+        <v>1585</v>
+      </c>
+      <c r="D598" s="6">
+        <f t="shared" si="205"/>
+        <v>9.1682091624248035E-2</v>
+      </c>
+      <c r="E598" s="7">
+        <f t="shared" si="206"/>
+        <v>34</v>
+      </c>
+      <c r="F598" s="6">
+        <f t="shared" si="207"/>
+        <v>0.1069182389937107</v>
+      </c>
+      <c r="G598">
+        <v>62</v>
+      </c>
+      <c r="H598" s="7">
+        <f t="shared" si="208"/>
+        <v>1</v>
+      </c>
+      <c r="I598" s="7">
+        <f t="shared" si="209"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="599" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A599" s="1">
+        <v>43967</v>
+      </c>
+      <c r="B599" t="s">
+        <v>7</v>
+      </c>
+      <c r="C599">
+        <v>768</v>
+      </c>
+      <c r="D599" s="6">
+        <f t="shared" si="205"/>
+        <v>4.4423877834335955E-2</v>
+      </c>
+      <c r="E599" s="7">
+        <f t="shared" si="206"/>
+        <v>13</v>
+      </c>
+      <c r="F599" s="6">
+        <f t="shared" si="207"/>
+        <v>4.0880503144654086E-2</v>
+      </c>
+      <c r="G599">
+        <v>87</v>
+      </c>
+      <c r="H599" s="7">
+        <f t="shared" si="208"/>
+        <v>2</v>
+      </c>
+      <c r="I599" s="7">
+        <f t="shared" si="209"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="600" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A600" s="1">
+        <v>43967</v>
+      </c>
+      <c r="B600" t="s">
+        <v>25</v>
+      </c>
+      <c r="C600">
+        <v>481</v>
+      </c>
+      <c r="D600" s="6">
+        <f t="shared" si="205"/>
+        <v>2.7822767237390099E-2</v>
+      </c>
+      <c r="E600" s="7">
+        <f t="shared" si="206"/>
+        <v>2</v>
+      </c>
+      <c r="F600" s="6">
+        <f t="shared" si="207"/>
+        <v>6.2893081761006293E-3</v>
+      </c>
+      <c r="G600">
+        <v>100</v>
+      </c>
+      <c r="H600" s="7">
+        <f t="shared" si="208"/>
+        <v>2</v>
+      </c>
+      <c r="I600" s="7">
+        <f t="shared" si="209"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="601" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A601" s="1">
+        <v>43967</v>
+      </c>
+      <c r="B601" t="s">
+        <v>21</v>
+      </c>
+      <c r="C601">
+        <v>496</v>
+      </c>
+      <c r="D601" s="6">
+        <f t="shared" si="205"/>
+        <v>2.869042110134197E-2</v>
+      </c>
+      <c r="E601" s="7">
+        <f t="shared" si="206"/>
+        <v>1</v>
+      </c>
+      <c r="F601" s="6">
+        <f t="shared" si="207"/>
+        <v>3.1446540880503146E-3</v>
+      </c>
+      <c r="G601">
+        <v>0</v>
+      </c>
+      <c r="H601" s="7">
+        <f t="shared" si="208"/>
+        <v>0</v>
+      </c>
+      <c r="I601" s="7">
+        <f t="shared" si="209"/>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/TN_Age.xlsx
+++ b/TN_Age.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="26">
   <si>
     <t>0-10</t>
   </si>
@@ -440,11 +440,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I601"/>
+  <dimension ref="A1:I611"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A579" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C592" sqref="C592:C601"/>
+      <pane ySplit="1" topLeftCell="A594" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H602" sqref="H602:I611"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18393,6 +18393,346 @@
         <v>0</v>
       </c>
     </row>
+    <row r="602" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A602" s="1">
+        <v>43968</v>
+      </c>
+      <c r="B602" t="s">
+        <v>0</v>
+      </c>
+      <c r="C602" s="2">
+        <v>449</v>
+      </c>
+      <c r="D602" s="6">
+        <f t="shared" ref="D602:D611" si="210">C602/SUMIF(A:A,A602,C:C)</f>
+        <v>2.5822406257188867E-2</v>
+      </c>
+      <c r="E602" s="7">
+        <f t="shared" ref="E602:E611" si="211">C602-SUMIFS(C:C,A:A,A602-1,B:B,B602)</f>
+        <v>3</v>
+      </c>
+      <c r="F602" s="6">
+        <f t="shared" ref="F602:F611" si="212">E602/SUMIF(A:A,A602,E:E)</f>
+        <v>0.03</v>
+      </c>
+      <c r="G602" s="2">
+        <v>1</v>
+      </c>
+      <c r="H602" s="7">
+        <f t="shared" ref="H602:H611" si="213">G602-SUMIFS(G:G,A:A,A602-1,B:B,B602)</f>
+        <v>0</v>
+      </c>
+      <c r="I602" s="7">
+        <f t="shared" ref="I602:I611" si="214">H602-SUMIFS(H:H,B:B,B602-1,C:C,C602)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="603" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A603" s="1">
+        <v>43968</v>
+      </c>
+      <c r="B603" t="s">
+        <v>1</v>
+      </c>
+      <c r="C603" s="2">
+        <v>1165</v>
+      </c>
+      <c r="D603" s="6">
+        <f t="shared" si="210"/>
+        <v>6.7000230043708309E-2</v>
+      </c>
+      <c r="E603" s="7">
+        <f t="shared" si="211"/>
+        <v>7</v>
+      </c>
+      <c r="F603" s="6">
+        <f t="shared" si="212"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G603" s="2">
+        <v>1</v>
+      </c>
+      <c r="H603" s="7">
+        <f t="shared" si="213"/>
+        <v>0</v>
+      </c>
+      <c r="I603" s="7">
+        <f t="shared" si="214"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="604" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A604" s="1">
+        <v>43968</v>
+      </c>
+      <c r="B604" t="s">
+        <v>2</v>
+      </c>
+      <c r="C604" s="2">
+        <v>3409</v>
+      </c>
+      <c r="D604" s="6">
+        <f t="shared" si="210"/>
+        <v>0.1960547504025765</v>
+      </c>
+      <c r="E604" s="7">
+        <f t="shared" si="211"/>
+        <v>31</v>
+      </c>
+      <c r="F604" s="6">
+        <f t="shared" si="212"/>
+        <v>0.31</v>
+      </c>
+      <c r="G604" s="2">
+        <v>1</v>
+      </c>
+      <c r="H604" s="7">
+        <f t="shared" si="213"/>
+        <v>0</v>
+      </c>
+      <c r="I604" s="7">
+        <f t="shared" si="214"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="605" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A605" s="1">
+        <v>43968</v>
+      </c>
+      <c r="B605" t="s">
+        <v>3</v>
+      </c>
+      <c r="C605" s="2">
+        <v>3358</v>
+      </c>
+      <c r="D605" s="6">
+        <f t="shared" si="210"/>
+        <v>0.19312169312169311</v>
+      </c>
+      <c r="E605" s="7">
+        <f t="shared" si="211"/>
+        <v>19</v>
+      </c>
+      <c r="F605" s="6">
+        <f t="shared" si="212"/>
+        <v>0.19</v>
+      </c>
+      <c r="G605" s="2">
+        <v>3</v>
+      </c>
+      <c r="H605" s="7">
+        <f t="shared" si="213"/>
+        <v>0</v>
+      </c>
+      <c r="I605" s="7">
+        <f t="shared" si="214"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="606" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A606" s="1">
+        <v>43968</v>
+      </c>
+      <c r="B606" t="s">
+        <v>4</v>
+      </c>
+      <c r="C606" s="2">
+        <v>3030</v>
+      </c>
+      <c r="D606" s="6">
+        <f t="shared" si="210"/>
+        <v>0.17425810904071773</v>
+      </c>
+      <c r="E606" s="7">
+        <f t="shared" si="211"/>
+        <v>12</v>
+      </c>
+      <c r="F606" s="6">
+        <f t="shared" si="212"/>
+        <v>0.12</v>
+      </c>
+      <c r="G606" s="2">
+        <v>14</v>
+      </c>
+      <c r="H606" s="7">
+        <f t="shared" si="213"/>
+        <v>0</v>
+      </c>
+      <c r="I606" s="7">
+        <f t="shared" si="214"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="607" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A607" s="1">
+        <v>43968</v>
+      </c>
+      <c r="B607" t="s">
+        <v>5</v>
+      </c>
+      <c r="C607" s="2">
+        <v>2635</v>
+      </c>
+      <c r="D607" s="6">
+        <f t="shared" si="210"/>
+        <v>0.15154129284564066</v>
+      </c>
+      <c r="E607" s="7">
+        <f t="shared" si="211"/>
+        <v>16</v>
+      </c>
+      <c r="F607" s="6">
+        <f t="shared" si="212"/>
+        <v>0.16</v>
+      </c>
+      <c r="G607" s="2">
+        <v>26</v>
+      </c>
+      <c r="H607" s="7">
+        <f t="shared" si="213"/>
+        <v>0</v>
+      </c>
+      <c r="I607" s="7">
+        <f t="shared" si="214"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="608" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A608" s="1">
+        <v>43968</v>
+      </c>
+      <c r="B608" t="s">
+        <v>6</v>
+      </c>
+      <c r="C608" s="2">
+        <v>1588</v>
+      </c>
+      <c r="D608" s="6">
+        <f t="shared" si="210"/>
+        <v>9.1327352196917413E-2</v>
+      </c>
+      <c r="E608" s="7">
+        <f t="shared" si="211"/>
+        <v>3</v>
+      </c>
+      <c r="F608" s="6">
+        <f t="shared" si="212"/>
+        <v>0.03</v>
+      </c>
+      <c r="G608" s="2">
+        <v>63</v>
+      </c>
+      <c r="H608" s="7">
+        <f t="shared" si="213"/>
+        <v>1</v>
+      </c>
+      <c r="I608" s="7">
+        <f t="shared" si="214"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="609" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A609" s="1">
+        <v>43968</v>
+      </c>
+      <c r="B609" t="s">
+        <v>7</v>
+      </c>
+      <c r="C609" s="2">
+        <v>774</v>
+      </c>
+      <c r="D609" s="6">
+        <f t="shared" si="210"/>
+        <v>4.4513457556935816E-2</v>
+      </c>
+      <c r="E609" s="7">
+        <f t="shared" si="211"/>
+        <v>6</v>
+      </c>
+      <c r="F609" s="6">
+        <f t="shared" si="212"/>
+        <v>0.06</v>
+      </c>
+      <c r="G609" s="2">
+        <v>87</v>
+      </c>
+      <c r="H609" s="7">
+        <f t="shared" si="213"/>
+        <v>0</v>
+      </c>
+      <c r="I609" s="7">
+        <f t="shared" si="214"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="610" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A610" s="1">
+        <v>43968</v>
+      </c>
+      <c r="B610" t="s">
+        <v>25</v>
+      </c>
+      <c r="C610" s="2">
+        <v>482</v>
+      </c>
+      <c r="D610" s="6">
+        <f t="shared" si="210"/>
+        <v>2.7720266850701634E-2</v>
+      </c>
+      <c r="E610" s="7">
+        <f t="shared" si="211"/>
+        <v>1</v>
+      </c>
+      <c r="F610" s="6">
+        <f t="shared" si="212"/>
+        <v>0.01</v>
+      </c>
+      <c r="G610" s="2">
+        <v>102</v>
+      </c>
+      <c r="H610" s="7">
+        <f t="shared" si="213"/>
+        <v>2</v>
+      </c>
+      <c r="I610" s="7">
+        <f t="shared" si="214"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="611" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A611" s="1">
+        <v>43968</v>
+      </c>
+      <c r="B611" t="s">
+        <v>21</v>
+      </c>
+      <c r="C611" s="2">
+        <v>498</v>
+      </c>
+      <c r="D611" s="6">
+        <f t="shared" si="210"/>
+        <v>2.8640441683919944E-2</v>
+      </c>
+      <c r="E611" s="7">
+        <f t="shared" si="211"/>
+        <v>2</v>
+      </c>
+      <c r="F611" s="6">
+        <f t="shared" si="212"/>
+        <v>0.02</v>
+      </c>
+      <c r="G611" s="2">
+        <v>0</v>
+      </c>
+      <c r="H611" s="7">
+        <f t="shared" si="213"/>
+        <v>0</v>
+      </c>
+      <c r="I611" s="7">
+        <f t="shared" si="214"/>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/TN_Age.xlsx
+++ b/TN_Age.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="26">
   <si>
     <t>0-10</t>
   </si>
@@ -440,11 +440,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I611"/>
+  <dimension ref="A1:I621"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A594" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H602" sqref="H602:I611"/>
+      <selection pane="bottomLeft" activeCell="A621" sqref="A621"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18733,6 +18733,346 @@
         <v>0</v>
       </c>
     </row>
+    <row r="612" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A612" s="1">
+        <v>43969</v>
+      </c>
+      <c r="B612" t="s">
+        <v>0</v>
+      </c>
+      <c r="C612" s="2">
+        <v>473</v>
+      </c>
+      <c r="D612" s="6">
+        <f t="shared" ref="D612:D621" si="215">C612/SUMIF(A:A,A612,C:C)</f>
+        <v>2.6261728943423462E-2</v>
+      </c>
+      <c r="E612" s="7">
+        <f t="shared" ref="E612:E621" si="216">C612-SUMIFS(C:C,A:A,A612-1,B:B,B612)</f>
+        <v>24</v>
+      </c>
+      <c r="F612" s="6">
+        <f t="shared" ref="F612:F621" si="217">E612/SUMIF(A:A,A612,E:E)</f>
+        <v>3.8523274478330656E-2</v>
+      </c>
+      <c r="G612" s="2">
+        <v>1</v>
+      </c>
+      <c r="H612" s="7">
+        <f t="shared" ref="H612:H621" si="218">G612-SUMIFS(G:G,A:A,A612-1,B:B,B612)</f>
+        <v>0</v>
+      </c>
+      <c r="I612" s="7">
+        <f t="shared" ref="I612:I621" si="219">H612-SUMIFS(H:H,B:B,B612-1,C:C,C612)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="613" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A613" s="1">
+        <v>43969</v>
+      </c>
+      <c r="B613" t="s">
+        <v>1</v>
+      </c>
+      <c r="C613" s="2">
+        <v>1231</v>
+      </c>
+      <c r="D613" s="6">
+        <f t="shared" si="215"/>
+        <v>6.8347121203708838E-2</v>
+      </c>
+      <c r="E613" s="7">
+        <f t="shared" si="216"/>
+        <v>66</v>
+      </c>
+      <c r="F613" s="6">
+        <f t="shared" si="217"/>
+        <v>0.10593900481540931</v>
+      </c>
+      <c r="G613" s="2">
+        <v>1</v>
+      </c>
+      <c r="H613" s="7">
+        <f t="shared" si="218"/>
+        <v>0</v>
+      </c>
+      <c r="I613" s="7">
+        <f t="shared" si="219"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="614" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A614" s="1">
+        <v>43969</v>
+      </c>
+      <c r="B614" t="s">
+        <v>2</v>
+      </c>
+      <c r="C614" s="2">
+        <v>3556</v>
+      </c>
+      <c r="D614" s="6">
+        <f t="shared" si="215"/>
+        <v>0.19743490089389817</v>
+      </c>
+      <c r="E614" s="7">
+        <f t="shared" si="216"/>
+        <v>147</v>
+      </c>
+      <c r="F614" s="6">
+        <f t="shared" si="217"/>
+        <v>0.23595505617977527</v>
+      </c>
+      <c r="G614" s="2">
+        <v>1</v>
+      </c>
+      <c r="H614" s="7">
+        <f t="shared" si="218"/>
+        <v>0</v>
+      </c>
+      <c r="I614" s="7">
+        <f t="shared" si="219"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="615" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A615" s="1">
+        <v>43969</v>
+      </c>
+      <c r="B615" t="s">
+        <v>3</v>
+      </c>
+      <c r="C615" s="2">
+        <v>3506</v>
+      </c>
+      <c r="D615" s="6">
+        <f t="shared" si="215"/>
+        <v>0.19465881961023818</v>
+      </c>
+      <c r="E615" s="7">
+        <f t="shared" si="216"/>
+        <v>148</v>
+      </c>
+      <c r="F615" s="6">
+        <f t="shared" si="217"/>
+        <v>0.2375601926163724</v>
+      </c>
+      <c r="G615" s="2">
+        <v>3</v>
+      </c>
+      <c r="H615" s="7">
+        <f t="shared" si="218"/>
+        <v>0</v>
+      </c>
+      <c r="I615" s="7">
+        <f t="shared" si="219"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="616" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A616" s="1">
+        <v>43969</v>
+      </c>
+      <c r="B616" t="s">
+        <v>4</v>
+      </c>
+      <c r="C616" s="2">
+        <v>3133</v>
+      </c>
+      <c r="D616" s="6">
+        <f t="shared" si="215"/>
+        <v>0.17394925323413468</v>
+      </c>
+      <c r="E616" s="7">
+        <f t="shared" si="216"/>
+        <v>103</v>
+      </c>
+      <c r="F616" s="6">
+        <f t="shared" si="217"/>
+        <v>0.1653290529695024</v>
+      </c>
+      <c r="G616" s="2">
+        <v>14</v>
+      </c>
+      <c r="H616" s="7">
+        <f t="shared" si="218"/>
+        <v>0</v>
+      </c>
+      <c r="I616" s="7">
+        <f t="shared" si="219"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="617" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A617" s="1">
+        <v>43969</v>
+      </c>
+      <c r="B617" t="s">
+        <v>5</v>
+      </c>
+      <c r="C617" s="2">
+        <v>2713</v>
+      </c>
+      <c r="D617" s="6">
+        <f t="shared" si="215"/>
+        <v>0.15063017045139082</v>
+      </c>
+      <c r="E617" s="7">
+        <f t="shared" si="216"/>
+        <v>78</v>
+      </c>
+      <c r="F617" s="6">
+        <f t="shared" si="217"/>
+        <v>0.12520064205457465</v>
+      </c>
+      <c r="G617" s="2">
+        <v>27</v>
+      </c>
+      <c r="H617" s="7">
+        <f t="shared" si="218"/>
+        <v>1</v>
+      </c>
+      <c r="I617" s="7">
+        <f t="shared" si="219"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="618" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A618" s="1">
+        <v>43969</v>
+      </c>
+      <c r="B618" t="s">
+        <v>6</v>
+      </c>
+      <c r="C618" s="2">
+        <v>1626</v>
+      </c>
+      <c r="D618" s="6">
+        <f t="shared" si="215"/>
+        <v>9.0278163344622728E-2</v>
+      </c>
+      <c r="E618" s="7">
+        <f t="shared" si="216"/>
+        <v>38</v>
+      </c>
+      <c r="F618" s="6">
+        <f t="shared" si="217"/>
+        <v>6.0995184590690206E-2</v>
+      </c>
+      <c r="G618" s="2">
+        <v>63</v>
+      </c>
+      <c r="H618" s="7">
+        <f t="shared" si="218"/>
+        <v>0</v>
+      </c>
+      <c r="I618" s="7">
+        <f t="shared" si="219"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="619" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A619" s="1">
+        <v>43969</v>
+      </c>
+      <c r="B619" t="s">
+        <v>7</v>
+      </c>
+      <c r="C619" s="2">
+        <v>786</v>
+      </c>
+      <c r="D619" s="6">
+        <f t="shared" si="215"/>
+        <v>4.3639997779134972E-2</v>
+      </c>
+      <c r="E619" s="7">
+        <f t="shared" si="216"/>
+        <v>12</v>
+      </c>
+      <c r="F619" s="6">
+        <f t="shared" si="217"/>
+        <v>1.9261637239165328E-2</v>
+      </c>
+      <c r="G619" s="2">
+        <v>87</v>
+      </c>
+      <c r="H619" s="7">
+        <f t="shared" si="218"/>
+        <v>0</v>
+      </c>
+      <c r="I619" s="7">
+        <f t="shared" si="219"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="620" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A620" s="1">
+        <v>43969</v>
+      </c>
+      <c r="B620" t="s">
+        <v>25</v>
+      </c>
+      <c r="C620" s="2">
+        <v>491</v>
+      </c>
+      <c r="D620" s="6">
+        <f t="shared" si="215"/>
+        <v>2.7261118205541057E-2</v>
+      </c>
+      <c r="E620" s="7">
+        <f t="shared" si="216"/>
+        <v>9</v>
+      </c>
+      <c r="F620" s="6">
+        <f t="shared" si="217"/>
+        <v>1.4446227929373997E-2</v>
+      </c>
+      <c r="G620" s="2">
+        <v>104</v>
+      </c>
+      <c r="H620" s="7">
+        <f t="shared" si="218"/>
+        <v>2</v>
+      </c>
+      <c r="I620" s="7">
+        <f t="shared" si="219"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="621" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A621" s="1">
+        <v>43969</v>
+      </c>
+      <c r="B621" t="s">
+        <v>21</v>
+      </c>
+      <c r="C621" s="2">
+        <v>496</v>
+      </c>
+      <c r="D621" s="6">
+        <f t="shared" si="215"/>
+        <v>2.7538726333907058E-2</v>
+      </c>
+      <c r="E621" s="7">
+        <f t="shared" si="216"/>
+        <v>-2</v>
+      </c>
+      <c r="F621" s="6">
+        <f t="shared" si="217"/>
+        <v>-3.2102728731942215E-3</v>
+      </c>
+      <c r="G621" s="2">
+        <v>0</v>
+      </c>
+      <c r="H621" s="7">
+        <f t="shared" si="218"/>
+        <v>0</v>
+      </c>
+      <c r="I621" s="7">
+        <f t="shared" si="219"/>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/TN_Age.xlsx
+++ b/TN_Age.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="26">
   <si>
     <t>0-10</t>
   </si>
@@ -440,11 +440,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I621"/>
+  <dimension ref="A1:I631"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A594" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A621" sqref="A621"/>
+      <pane ySplit="1" topLeftCell="A597" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G622" sqref="G622:G631"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19073,6 +19073,346 @@
         <v>0</v>
       </c>
     </row>
+    <row r="622" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A622" s="1">
+        <v>43970</v>
+      </c>
+      <c r="B622" t="s">
+        <v>0</v>
+      </c>
+      <c r="C622" s="2">
+        <v>501</v>
+      </c>
+      <c r="D622" s="6">
+        <f t="shared" ref="D622:D631" si="220">C622/SUMIF(A:A,A622,C:C)</f>
+        <v>2.7260855370551746E-2</v>
+      </c>
+      <c r="E622" s="7">
+        <f t="shared" ref="E622:E631" si="221">C622-SUMIFS(C:C,A:A,A622-1,B:B,B622)</f>
+        <v>28</v>
+      </c>
+      <c r="F622" s="6">
+        <f t="shared" ref="F622:F631" si="222">E622/SUMIF(A:A,A622,E:E)</f>
+        <v>7.6294277929155316E-2</v>
+      </c>
+      <c r="G622" s="2">
+        <v>1</v>
+      </c>
+      <c r="H622" s="7">
+        <f t="shared" ref="H622:H631" si="223">G622-SUMIFS(G:G,A:A,A622-1,B:B,B622)</f>
+        <v>0</v>
+      </c>
+      <c r="I622" s="7">
+        <f t="shared" ref="I622:I631" si="224">H622-SUMIFS(H:H,B:B,B622-1,C:C,C622)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="623" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A623" s="1">
+        <v>43970</v>
+      </c>
+      <c r="B623" t="s">
+        <v>1</v>
+      </c>
+      <c r="C623" s="2">
+        <v>1279</v>
+      </c>
+      <c r="D623" s="6">
+        <f t="shared" si="220"/>
+        <v>6.9594079878115139E-2</v>
+      </c>
+      <c r="E623" s="7">
+        <f t="shared" si="221"/>
+        <v>48</v>
+      </c>
+      <c r="F623" s="6">
+        <f t="shared" si="222"/>
+        <v>0.13079019073569481</v>
+      </c>
+      <c r="G623" s="2">
+        <v>1</v>
+      </c>
+      <c r="H623" s="7">
+        <f t="shared" si="223"/>
+        <v>0</v>
+      </c>
+      <c r="I623" s="7">
+        <f t="shared" si="224"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="624" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A624" s="1">
+        <v>43970</v>
+      </c>
+      <c r="B624" t="s">
+        <v>2</v>
+      </c>
+      <c r="C624" s="2">
+        <v>3651</v>
+      </c>
+      <c r="D624" s="6">
+        <f t="shared" si="220"/>
+        <v>0.19866144302970942</v>
+      </c>
+      <c r="E624" s="7">
+        <f t="shared" si="221"/>
+        <v>95</v>
+      </c>
+      <c r="F624" s="6">
+        <f t="shared" si="222"/>
+        <v>0.25885558583106266</v>
+      </c>
+      <c r="G624" s="2">
+        <v>1</v>
+      </c>
+      <c r="H624" s="7">
+        <f t="shared" si="223"/>
+        <v>0</v>
+      </c>
+      <c r="I624" s="7">
+        <f t="shared" si="224"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="625" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A625" s="1">
+        <v>43970</v>
+      </c>
+      <c r="B625" t="s">
+        <v>3</v>
+      </c>
+      <c r="C625" s="2">
+        <v>3572</v>
+      </c>
+      <c r="D625" s="6">
+        <f t="shared" si="220"/>
+        <v>0.19436282511698771</v>
+      </c>
+      <c r="E625" s="7">
+        <f t="shared" si="221"/>
+        <v>66</v>
+      </c>
+      <c r="F625" s="6">
+        <f t="shared" si="222"/>
+        <v>0.17983651226158037</v>
+      </c>
+      <c r="G625" s="2">
+        <v>3</v>
+      </c>
+      <c r="H625" s="7">
+        <f t="shared" si="223"/>
+        <v>0</v>
+      </c>
+      <c r="I625" s="7">
+        <f t="shared" si="224"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="626" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A626" s="1">
+        <v>43970</v>
+      </c>
+      <c r="B626" t="s">
+        <v>4</v>
+      </c>
+      <c r="C626" s="2">
+        <v>3191</v>
+      </c>
+      <c r="D626" s="6">
+        <f t="shared" si="220"/>
+        <v>0.1736315159429753</v>
+      </c>
+      <c r="E626" s="7">
+        <f t="shared" si="221"/>
+        <v>58</v>
+      </c>
+      <c r="F626" s="6">
+        <f t="shared" si="222"/>
+        <v>0.15803814713896458</v>
+      </c>
+      <c r="G626" s="2">
+        <v>14</v>
+      </c>
+      <c r="H626" s="7">
+        <f t="shared" si="223"/>
+        <v>0</v>
+      </c>
+      <c r="I626" s="7">
+        <f t="shared" si="224"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="627" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A627" s="1">
+        <v>43970</v>
+      </c>
+      <c r="B627" t="s">
+        <v>5</v>
+      </c>
+      <c r="C627" s="2">
+        <v>2745</v>
+      </c>
+      <c r="D627" s="6">
+        <f t="shared" si="220"/>
+        <v>0.1493633692458374</v>
+      </c>
+      <c r="E627" s="7">
+        <f t="shared" si="221"/>
+        <v>32</v>
+      </c>
+      <c r="F627" s="6">
+        <f t="shared" si="222"/>
+        <v>8.7193460490463212E-2</v>
+      </c>
+      <c r="G627" s="2">
+        <v>28</v>
+      </c>
+      <c r="H627" s="7">
+        <f t="shared" si="223"/>
+        <v>1</v>
+      </c>
+      <c r="I627" s="7">
+        <f t="shared" si="224"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="628" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A628" s="1">
+        <v>43970</v>
+      </c>
+      <c r="B628" t="s">
+        <v>6</v>
+      </c>
+      <c r="C628" s="2">
+        <v>1658</v>
+      </c>
+      <c r="D628" s="6">
+        <f t="shared" si="220"/>
+        <v>9.0216563282185219E-2</v>
+      </c>
+      <c r="E628" s="7">
+        <f t="shared" si="221"/>
+        <v>32</v>
+      </c>
+      <c r="F628" s="6">
+        <f t="shared" si="222"/>
+        <v>8.7193460490463212E-2</v>
+      </c>
+      <c r="G628" s="2">
+        <v>63</v>
+      </c>
+      <c r="H628" s="7">
+        <f t="shared" si="223"/>
+        <v>0</v>
+      </c>
+      <c r="I628" s="7">
+        <f t="shared" si="224"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="629" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A629" s="1">
+        <v>43970</v>
+      </c>
+      <c r="B629" t="s">
+        <v>7</v>
+      </c>
+      <c r="C629" s="2">
+        <v>793</v>
+      </c>
+      <c r="D629" s="6">
+        <f t="shared" si="220"/>
+        <v>4.3149417782130807E-2</v>
+      </c>
+      <c r="E629" s="7">
+        <f t="shared" si="221"/>
+        <v>7</v>
+      </c>
+      <c r="F629" s="6">
+        <f t="shared" si="222"/>
+        <v>1.9073569482288829E-2</v>
+      </c>
+      <c r="G629" s="2">
+        <v>89</v>
+      </c>
+      <c r="H629" s="7">
+        <f t="shared" si="223"/>
+        <v>2</v>
+      </c>
+      <c r="I629" s="7">
+        <f t="shared" si="224"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="630" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A630" s="1">
+        <v>43970</v>
+      </c>
+      <c r="B630" t="s">
+        <v>25</v>
+      </c>
+      <c r="C630" s="2">
+        <v>495</v>
+      </c>
+      <c r="D630" s="6">
+        <f t="shared" si="220"/>
+        <v>2.6934378060724781E-2</v>
+      </c>
+      <c r="E630" s="7">
+        <f t="shared" si="221"/>
+        <v>4</v>
+      </c>
+      <c r="F630" s="6">
+        <f t="shared" si="222"/>
+        <v>1.0899182561307902E-2</v>
+      </c>
+      <c r="G630" s="2">
+        <v>105</v>
+      </c>
+      <c r="H630" s="7">
+        <f t="shared" si="223"/>
+        <v>1</v>
+      </c>
+      <c r="I630" s="7">
+        <f t="shared" si="224"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="631" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A631" s="1">
+        <v>43970</v>
+      </c>
+      <c r="B631" t="s">
+        <v>21</v>
+      </c>
+      <c r="C631" s="2">
+        <v>493</v>
+      </c>
+      <c r="D631" s="6">
+        <f t="shared" si="220"/>
+        <v>2.6825552290782456E-2</v>
+      </c>
+      <c r="E631" s="7">
+        <f t="shared" si="221"/>
+        <v>-3</v>
+      </c>
+      <c r="F631" s="6">
+        <f t="shared" si="222"/>
+        <v>-8.1743869209809257E-3</v>
+      </c>
+      <c r="G631" s="2">
+        <v>0</v>
+      </c>
+      <c r="H631" s="7">
+        <f t="shared" si="223"/>
+        <v>0</v>
+      </c>
+      <c r="I631" s="7">
+        <f t="shared" si="224"/>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/TN_Age.xlsx
+++ b/TN_Age.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="26">
   <si>
     <t>0-10</t>
   </si>
@@ -440,11 +440,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I631"/>
+  <dimension ref="A1:I641"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A597" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G622" sqref="G622:G631"/>
+      <pane ySplit="1" topLeftCell="A621" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C632" sqref="C632:C641"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19413,6 +19413,346 @@
         <v>0</v>
       </c>
     </row>
+    <row r="632" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A632" s="1">
+        <v>43971</v>
+      </c>
+      <c r="B632" t="s">
+        <v>0</v>
+      </c>
+      <c r="C632" s="2">
+        <v>509</v>
+      </c>
+      <c r="D632" s="6">
+        <f t="shared" ref="D632:D641" si="225">C632/SUMIF(A:A,A632,C:C)</f>
+        <v>2.746600474854306E-2</v>
+      </c>
+      <c r="E632" s="7">
+        <f t="shared" ref="E632:E641" si="226">C632-SUMIFS(C:C,A:A,A632-1,B:B,B632)</f>
+        <v>8</v>
+      </c>
+      <c r="F632" s="6">
+        <f t="shared" ref="F632:F641" si="227">E632/SUMIF(A:A,A632,E:E)</f>
+        <v>5.1948051948051951E-2</v>
+      </c>
+      <c r="G632" s="2">
+        <v>1</v>
+      </c>
+      <c r="H632" s="7">
+        <f t="shared" ref="H632:H641" si="228">G632-SUMIFS(G:G,A:A,A632-1,B:B,B632)</f>
+        <v>0</v>
+      </c>
+      <c r="I632" s="7">
+        <f t="shared" ref="I632:I641" si="229">H632-SUMIFS(H:H,B:B,B632-1,C:C,C632)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="633" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A633" s="1">
+        <v>43971</v>
+      </c>
+      <c r="B633" t="s">
+        <v>1</v>
+      </c>
+      <c r="C633" s="2">
+        <v>1299</v>
+      </c>
+      <c r="D633" s="6">
+        <f t="shared" si="225"/>
+        <v>7.0094970861213038E-2</v>
+      </c>
+      <c r="E633" s="7">
+        <f t="shared" si="226"/>
+        <v>20</v>
+      </c>
+      <c r="F633" s="6">
+        <f t="shared" si="227"/>
+        <v>0.12987012987012986</v>
+      </c>
+      <c r="G633" s="2">
+        <v>1</v>
+      </c>
+      <c r="H633" s="7">
+        <f t="shared" si="228"/>
+        <v>0</v>
+      </c>
+      <c r="I633" s="7">
+        <f t="shared" si="229"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="634" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A634" s="1">
+        <v>43971</v>
+      </c>
+      <c r="B634" t="s">
+        <v>2</v>
+      </c>
+      <c r="C634" s="2">
+        <v>3690</v>
+      </c>
+      <c r="D634" s="6">
+        <f t="shared" si="225"/>
+        <v>0.19911504424778761</v>
+      </c>
+      <c r="E634" s="7">
+        <f t="shared" si="226"/>
+        <v>39</v>
+      </c>
+      <c r="F634" s="6">
+        <f t="shared" si="227"/>
+        <v>0.25324675324675322</v>
+      </c>
+      <c r="G634" s="2">
+        <v>1</v>
+      </c>
+      <c r="H634" s="7">
+        <f t="shared" si="228"/>
+        <v>0</v>
+      </c>
+      <c r="I634" s="7">
+        <f t="shared" si="229"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="635" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A635" s="1">
+        <v>43971</v>
+      </c>
+      <c r="B635" t="s">
+        <v>3</v>
+      </c>
+      <c r="C635" s="2">
+        <v>3612</v>
+      </c>
+      <c r="D635" s="6">
+        <f t="shared" si="225"/>
+        <v>0.19490610835311892</v>
+      </c>
+      <c r="E635" s="7">
+        <f t="shared" si="226"/>
+        <v>40</v>
+      </c>
+      <c r="F635" s="6">
+        <f t="shared" si="227"/>
+        <v>0.25974025974025972</v>
+      </c>
+      <c r="G635" s="2">
+        <v>3</v>
+      </c>
+      <c r="H635" s="7">
+        <f t="shared" si="228"/>
+        <v>0</v>
+      </c>
+      <c r="I635" s="7">
+        <f t="shared" si="229"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="636" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A636" s="1">
+        <v>43971</v>
+      </c>
+      <c r="B636" t="s">
+        <v>4</v>
+      </c>
+      <c r="C636" s="2">
+        <v>3212</v>
+      </c>
+      <c r="D636" s="6">
+        <f t="shared" si="225"/>
+        <v>0.17332182171379235</v>
+      </c>
+      <c r="E636" s="7">
+        <f t="shared" si="226"/>
+        <v>21</v>
+      </c>
+      <c r="F636" s="6">
+        <f t="shared" si="227"/>
+        <v>0.13636363636363635</v>
+      </c>
+      <c r="G636" s="2">
+        <v>14</v>
+      </c>
+      <c r="H636" s="7">
+        <f t="shared" si="228"/>
+        <v>0</v>
+      </c>
+      <c r="I636" s="7">
+        <f t="shared" si="229"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="637" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A637" s="1">
+        <v>43971</v>
+      </c>
+      <c r="B637" t="s">
+        <v>5</v>
+      </c>
+      <c r="C637" s="2">
+        <v>2753</v>
+      </c>
+      <c r="D637" s="6">
+        <f t="shared" si="225"/>
+        <v>0.14855385279516511</v>
+      </c>
+      <c r="E637" s="7">
+        <f t="shared" si="226"/>
+        <v>8</v>
+      </c>
+      <c r="F637" s="6">
+        <f t="shared" si="227"/>
+        <v>5.1948051948051951E-2</v>
+      </c>
+      <c r="G637" s="2">
+        <v>27</v>
+      </c>
+      <c r="H637" s="7">
+        <f t="shared" si="228"/>
+        <v>-1</v>
+      </c>
+      <c r="I637" s="7">
+        <f t="shared" si="229"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="638" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A638" s="1">
+        <v>43971</v>
+      </c>
+      <c r="B638" t="s">
+        <v>6</v>
+      </c>
+      <c r="C638" s="2">
+        <v>1666</v>
+      </c>
+      <c r="D638" s="6">
+        <f t="shared" si="225"/>
+        <v>8.989855385279516E-2</v>
+      </c>
+      <c r="E638" s="7">
+        <f t="shared" si="226"/>
+        <v>8</v>
+      </c>
+      <c r="F638" s="6">
+        <f t="shared" si="227"/>
+        <v>5.1948051948051951E-2</v>
+      </c>
+      <c r="G638" s="2">
+        <v>66</v>
+      </c>
+      <c r="H638" s="7">
+        <f t="shared" si="228"/>
+        <v>3</v>
+      </c>
+      <c r="I638" s="7">
+        <f t="shared" si="229"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="639" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A639" s="1">
+        <v>43971</v>
+      </c>
+      <c r="B639" t="s">
+        <v>7</v>
+      </c>
+      <c r="C639" s="2">
+        <v>800</v>
+      </c>
+      <c r="D639" s="6">
+        <f t="shared" si="225"/>
+        <v>4.3168573278653144E-2</v>
+      </c>
+      <c r="E639" s="7">
+        <f t="shared" si="226"/>
+        <v>7</v>
+      </c>
+      <c r="F639" s="6">
+        <f t="shared" si="227"/>
+        <v>4.5454545454545456E-2</v>
+      </c>
+      <c r="G639" s="2">
+        <v>89</v>
+      </c>
+      <c r="H639" s="7">
+        <f t="shared" si="228"/>
+        <v>0</v>
+      </c>
+      <c r="I639" s="7">
+        <f t="shared" si="229"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="640" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A640" s="1">
+        <v>43971</v>
+      </c>
+      <c r="B640" t="s">
+        <v>25</v>
+      </c>
+      <c r="C640" s="2">
+        <v>497</v>
+      </c>
+      <c r="D640" s="6">
+        <f t="shared" si="225"/>
+        <v>2.6818476149363262E-2</v>
+      </c>
+      <c r="E640" s="7">
+        <f t="shared" si="226"/>
+        <v>2</v>
+      </c>
+      <c r="F640" s="6">
+        <f t="shared" si="227"/>
+        <v>1.2987012987012988E-2</v>
+      </c>
+      <c r="G640" s="2">
+        <v>107</v>
+      </c>
+      <c r="H640" s="7">
+        <f t="shared" si="228"/>
+        <v>2</v>
+      </c>
+      <c r="I640" s="7">
+        <f t="shared" si="229"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="641" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A641" s="1">
+        <v>43971</v>
+      </c>
+      <c r="B641" t="s">
+        <v>21</v>
+      </c>
+      <c r="C641" s="2">
+        <v>494</v>
+      </c>
+      <c r="D641" s="6">
+        <f t="shared" si="225"/>
+        <v>2.6656593999568313E-2</v>
+      </c>
+      <c r="E641" s="7">
+        <f t="shared" si="226"/>
+        <v>1</v>
+      </c>
+      <c r="F641" s="6">
+        <f t="shared" si="227"/>
+        <v>6.4935064935064939E-3</v>
+      </c>
+      <c r="G641" s="2">
+        <v>0</v>
+      </c>
+      <c r="H641" s="7">
+        <f t="shared" si="228"/>
+        <v>0</v>
+      </c>
+      <c r="I641" s="7">
+        <f t="shared" si="229"/>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/TN_Age.xlsx
+++ b/TN_Age.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="26">
   <si>
     <t>0-10</t>
   </si>
@@ -440,11 +440,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I641"/>
+  <dimension ref="A1:I651"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A621" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C632" sqref="C632:C641"/>
+      <selection pane="bottomLeft" activeCell="A651" sqref="A651"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19753,6 +19753,346 @@
         <v>0</v>
       </c>
     </row>
+    <row r="642" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A642" s="1">
+        <v>43972</v>
+      </c>
+      <c r="B642" t="s">
+        <v>0</v>
+      </c>
+      <c r="C642" s="2">
+        <v>533</v>
+      </c>
+      <c r="D642" s="6">
+        <f t="shared" ref="D642:D651" si="230">C642/SUMIF(A:A,A642,C:C)</f>
+        <v>2.8110331733558355E-2</v>
+      </c>
+      <c r="E642" s="7">
+        <f t="shared" ref="E642:E651" si="231">C642-SUMIFS(C:C,A:A,A642-1,B:B,B642)</f>
+        <v>24</v>
+      </c>
+      <c r="F642" s="6">
+        <f t="shared" ref="F642:F651" si="232">E642/SUMIF(A:A,A642,E:E)</f>
+        <v>5.5944055944055944E-2</v>
+      </c>
+      <c r="G642">
+        <v>1</v>
+      </c>
+      <c r="H642" s="7">
+        <f t="shared" ref="H642:H651" si="233">G642-SUMIFS(G:G,A:A,A642-1,B:B,B642)</f>
+        <v>0</v>
+      </c>
+      <c r="I642" s="7">
+        <f t="shared" ref="I642:I651" si="234">H642-SUMIFS(H:H,B:B,B642-1,C:C,C642)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="643" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A643" s="1">
+        <v>43972</v>
+      </c>
+      <c r="B643" t="s">
+        <v>1</v>
+      </c>
+      <c r="C643" s="2">
+        <v>1337</v>
+      </c>
+      <c r="D643" s="6">
+        <f t="shared" si="230"/>
+        <v>7.0513158588682026E-2</v>
+      </c>
+      <c r="E643" s="7">
+        <f t="shared" si="231"/>
+        <v>38</v>
+      </c>
+      <c r="F643" s="6">
+        <f t="shared" si="232"/>
+        <v>8.8578088578088576E-2</v>
+      </c>
+      <c r="G643">
+        <v>1</v>
+      </c>
+      <c r="H643" s="7">
+        <f t="shared" si="233"/>
+        <v>0</v>
+      </c>
+      <c r="I643" s="7">
+        <f t="shared" si="234"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="644" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A644" s="1">
+        <v>43972</v>
+      </c>
+      <c r="B644" t="s">
+        <v>2</v>
+      </c>
+      <c r="C644" s="2">
+        <v>3829</v>
+      </c>
+      <c r="D644" s="6">
+        <f t="shared" si="230"/>
+        <v>0.20194082590580664</v>
+      </c>
+      <c r="E644" s="7">
+        <f t="shared" si="231"/>
+        <v>139</v>
+      </c>
+      <c r="F644" s="6">
+        <f t="shared" si="232"/>
+        <v>0.32400932400932403</v>
+      </c>
+      <c r="G644">
+        <v>1</v>
+      </c>
+      <c r="H644" s="7">
+        <f t="shared" si="233"/>
+        <v>0</v>
+      </c>
+      <c r="I644" s="7">
+        <f t="shared" si="234"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="645" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A645" s="1">
+        <v>43972</v>
+      </c>
+      <c r="B645" t="s">
+        <v>3</v>
+      </c>
+      <c r="C645" s="2">
+        <v>3708</v>
+      </c>
+      <c r="D645" s="6">
+        <f t="shared" si="230"/>
+        <v>0.19555930594377935</v>
+      </c>
+      <c r="E645" s="7">
+        <f t="shared" si="231"/>
+        <v>96</v>
+      </c>
+      <c r="F645" s="6">
+        <f t="shared" si="232"/>
+        <v>0.22377622377622378</v>
+      </c>
+      <c r="G645">
+        <v>3</v>
+      </c>
+      <c r="H645" s="7">
+        <f t="shared" si="233"/>
+        <v>0</v>
+      </c>
+      <c r="I645" s="7">
+        <f t="shared" si="234"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="646" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A646" s="1">
+        <v>43972</v>
+      </c>
+      <c r="B646" t="s">
+        <v>4</v>
+      </c>
+      <c r="C646" s="2">
+        <v>3274</v>
+      </c>
+      <c r="D646" s="6">
+        <f t="shared" si="230"/>
+        <v>0.17267021781551606</v>
+      </c>
+      <c r="E646" s="7">
+        <f t="shared" si="231"/>
+        <v>62</v>
+      </c>
+      <c r="F646" s="6">
+        <f t="shared" si="232"/>
+        <v>0.14452214452214451</v>
+      </c>
+      <c r="G646">
+        <v>14</v>
+      </c>
+      <c r="H646" s="7">
+        <f t="shared" si="233"/>
+        <v>0</v>
+      </c>
+      <c r="I646" s="7">
+        <f t="shared" si="234"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="647" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A647" s="1">
+        <v>43972</v>
+      </c>
+      <c r="B647" t="s">
+        <v>5</v>
+      </c>
+      <c r="C647" s="2">
+        <v>2785</v>
+      </c>
+      <c r="D647" s="6">
+        <f t="shared" si="230"/>
+        <v>0.14688043879542217</v>
+      </c>
+      <c r="E647" s="7">
+        <f t="shared" si="231"/>
+        <v>32</v>
+      </c>
+      <c r="F647" s="6">
+        <f t="shared" si="232"/>
+        <v>7.4592074592074592E-2</v>
+      </c>
+      <c r="G647">
+        <v>28</v>
+      </c>
+      <c r="H647" s="7">
+        <f t="shared" si="233"/>
+        <v>1</v>
+      </c>
+      <c r="I647" s="7">
+        <f t="shared" si="234"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="648" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A648" s="1">
+        <v>43972</v>
+      </c>
+      <c r="B648" t="s">
+        <v>6</v>
+      </c>
+      <c r="C648" s="2">
+        <v>1685</v>
+      </c>
+      <c r="D648" s="6">
+        <f t="shared" si="230"/>
+        <v>8.8866620958810191E-2</v>
+      </c>
+      <c r="E648" s="7">
+        <f t="shared" si="231"/>
+        <v>19</v>
+      </c>
+      <c r="F648" s="6">
+        <f t="shared" si="232"/>
+        <v>4.4289044289044288E-2</v>
+      </c>
+      <c r="G648">
+        <v>66</v>
+      </c>
+      <c r="H648" s="7">
+        <f t="shared" si="233"/>
+        <v>0</v>
+      </c>
+      <c r="I648" s="7">
+        <f t="shared" si="234"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="649" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A649" s="1">
+        <v>43972</v>
+      </c>
+      <c r="B649" t="s">
+        <v>7</v>
+      </c>
+      <c r="C649" s="2">
+        <v>811</v>
+      </c>
+      <c r="D649" s="6">
+        <f t="shared" si="230"/>
+        <v>4.2772005695902116E-2</v>
+      </c>
+      <c r="E649" s="7">
+        <f t="shared" si="231"/>
+        <v>11</v>
+      </c>
+      <c r="F649" s="6">
+        <f t="shared" si="232"/>
+        <v>2.564102564102564E-2</v>
+      </c>
+      <c r="G649">
+        <v>91</v>
+      </c>
+      <c r="H649" s="7">
+        <f t="shared" si="233"/>
+        <v>2</v>
+      </c>
+      <c r="I649" s="7">
+        <f t="shared" si="234"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="650" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A650" s="1">
+        <v>43972</v>
+      </c>
+      <c r="B650" t="s">
+        <v>25</v>
+      </c>
+      <c r="C650" s="2">
+        <v>522</v>
+      </c>
+      <c r="D650" s="6">
+        <f t="shared" si="230"/>
+        <v>2.7530193555192237E-2</v>
+      </c>
+      <c r="E650" s="7">
+        <f t="shared" si="231"/>
+        <v>25</v>
+      </c>
+      <c r="F650" s="6">
+        <f t="shared" si="232"/>
+        <v>5.8275058275058272E-2</v>
+      </c>
+      <c r="G650">
+        <v>108</v>
+      </c>
+      <c r="H650" s="7">
+        <f t="shared" si="233"/>
+        <v>1</v>
+      </c>
+      <c r="I650" s="7">
+        <f t="shared" si="234"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="651" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A651" s="1">
+        <v>43972</v>
+      </c>
+      <c r="B651" t="s">
+        <v>21</v>
+      </c>
+      <c r="C651" s="2">
+        <v>477</v>
+      </c>
+      <c r="D651" s="6">
+        <f t="shared" si="230"/>
+        <v>2.5156901007330836E-2</v>
+      </c>
+      <c r="E651" s="7">
+        <f t="shared" si="231"/>
+        <v>-17</v>
+      </c>
+      <c r="F651" s="6">
+        <f t="shared" si="232"/>
+        <v>-3.9627039627039624E-2</v>
+      </c>
+      <c r="G651">
+        <v>0</v>
+      </c>
+      <c r="H651" s="7">
+        <f t="shared" si="233"/>
+        <v>0</v>
+      </c>
+      <c r="I651" s="7">
+        <f t="shared" si="234"/>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/TN_Age.xlsx
+++ b/TN_Age.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="26">
   <si>
     <t>0-10</t>
   </si>
@@ -440,11 +440,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I651"/>
+  <dimension ref="A1:I681"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A621" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A651" sqref="A651"/>
+      <pane ySplit="1" topLeftCell="A654" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -505,6 +505,15 @@
       </c>
       <c r="E2" s="7"/>
       <c r="F2" s="6"/>
+      <c r="G2" s="2">
+        <v>0</v>
+      </c>
+      <c r="H2" s="7">
+        <v>0</v>
+      </c>
+      <c r="I2" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
@@ -16383,7 +16392,7 @@
         <v>0</v>
       </c>
       <c r="I542" s="6">
-        <f t="shared" ref="I542:I551" si="184">G542/SUMIF(A:A,A542,G:G)</f>
+        <f t="shared" ref="I542:I605" si="184">G542/SUMIF(A:A,A542,G:G)</f>
         <v>3.9840637450199202E-3</v>
       </c>
     </row>
@@ -16722,9 +16731,9 @@
         <f t="shared" ref="H552:H561" si="188">G552-SUMIFS(G:G,A:A,A552-1,B:B,B552)</f>
         <v>0</v>
       </c>
-      <c r="I552" s="7">
-        <f t="shared" ref="I552:I561" si="189">H552-SUMIFS(H:H,B:B,B552-1,C:C,C552)</f>
-        <v>0</v>
+      <c r="I552" s="6">
+        <f t="shared" si="184"/>
+        <v>3.7735849056603774E-3</v>
       </c>
     </row>
     <row r="553" spans="1:9" x14ac:dyDescent="0.3">
@@ -16756,9 +16765,9 @@
         <f t="shared" si="188"/>
         <v>0</v>
       </c>
-      <c r="I553" s="7">
-        <f t="shared" si="189"/>
-        <v>0</v>
+      <c r="I553" s="6">
+        <f t="shared" si="184"/>
+        <v>3.7735849056603774E-3</v>
       </c>
     </row>
     <row r="554" spans="1:9" x14ac:dyDescent="0.3">
@@ -16790,9 +16799,9 @@
         <f t="shared" si="188"/>
         <v>0</v>
       </c>
-      <c r="I554" s="7">
-        <f t="shared" si="189"/>
-        <v>0</v>
+      <c r="I554" s="6">
+        <f t="shared" si="184"/>
+        <v>3.7735849056603774E-3</v>
       </c>
     </row>
     <row r="555" spans="1:9" x14ac:dyDescent="0.3">
@@ -16824,9 +16833,9 @@
         <f t="shared" si="188"/>
         <v>0</v>
       </c>
-      <c r="I555" s="7">
-        <f t="shared" si="189"/>
-        <v>0</v>
+      <c r="I555" s="6">
+        <f t="shared" si="184"/>
+        <v>1.1320754716981131E-2</v>
       </c>
     </row>
     <row r="556" spans="1:9" x14ac:dyDescent="0.3">
@@ -16858,9 +16867,9 @@
         <f t="shared" si="188"/>
         <v>2</v>
       </c>
-      <c r="I556" s="7">
-        <f t="shared" si="189"/>
-        <v>2</v>
+      <c r="I556" s="6">
+        <f t="shared" si="184"/>
+        <v>4.5283018867924525E-2</v>
       </c>
     </row>
     <row r="557" spans="1:9" x14ac:dyDescent="0.3">
@@ -16892,9 +16901,9 @@
         <f t="shared" si="188"/>
         <v>5</v>
       </c>
-      <c r="I557" s="7">
-        <f t="shared" si="189"/>
-        <v>5</v>
+      <c r="I557" s="6">
+        <f t="shared" si="184"/>
+        <v>9.056603773584905E-2</v>
       </c>
     </row>
     <row r="558" spans="1:9" x14ac:dyDescent="0.3">
@@ -16926,9 +16935,9 @@
         <f t="shared" si="188"/>
         <v>3</v>
       </c>
-      <c r="I558" s="7">
-        <f t="shared" si="189"/>
-        <v>3</v>
+      <c r="I558" s="6">
+        <f t="shared" si="184"/>
+        <v>0.21509433962264152</v>
       </c>
     </row>
     <row r="559" spans="1:9" x14ac:dyDescent="0.3">
@@ -16960,9 +16969,9 @@
         <f t="shared" si="188"/>
         <v>1</v>
       </c>
-      <c r="I559" s="7">
-        <f t="shared" si="189"/>
-        <v>1</v>
+      <c r="I559" s="6">
+        <f t="shared" si="184"/>
+        <v>0.27924528301886792</v>
       </c>
     </row>
     <row r="560" spans="1:9" x14ac:dyDescent="0.3">
@@ -16994,9 +17003,9 @@
         <f t="shared" si="188"/>
         <v>3</v>
       </c>
-      <c r="I560" s="7">
-        <f t="shared" si="189"/>
-        <v>3</v>
+      <c r="I560" s="6">
+        <f t="shared" si="184"/>
+        <v>0.3471698113207547</v>
       </c>
     </row>
     <row r="561" spans="1:9" x14ac:dyDescent="0.3">
@@ -17028,8 +17037,8 @@
         <f t="shared" si="188"/>
         <v>0</v>
       </c>
-      <c r="I561" s="7">
-        <f t="shared" si="189"/>
+      <c r="I561" s="6">
+        <f t="shared" si="184"/>
         <v>0</v>
       </c>
     </row>
@@ -17044,27 +17053,27 @@
         <v>389</v>
       </c>
       <c r="D562" s="6">
-        <f t="shared" ref="D562:D571" si="190">C562/SUMIF(A:A,A562,C:C)</f>
+        <f t="shared" ref="D562:D571" si="189">C562/SUMIF(A:A,A562,C:C)</f>
         <v>2.3762981062919977E-2</v>
       </c>
       <c r="E562" s="7">
-        <f t="shared" ref="E562:E571" si="191">C562-SUMIFS(C:C,A:A,A562-1,B:B,B562)</f>
+        <f t="shared" ref="E562:E571" si="190">C562-SUMIFS(C:C,A:A,A562-1,B:B,B562)</f>
         <v>10</v>
       </c>
       <c r="F562" s="6">
-        <f t="shared" ref="F562:F571" si="192">E562/SUMIF(A:A,A562,E:E)</f>
+        <f t="shared" ref="F562:F571" si="191">E562/SUMIF(A:A,A562,E:E)</f>
         <v>3.8610038610038609E-2</v>
       </c>
       <c r="G562" s="2">
         <v>1</v>
       </c>
       <c r="H562" s="7">
-        <f t="shared" ref="H562:H571" si="193">G562-SUMIFS(G:G,A:A,A562-1,B:B,B562)</f>
-        <v>0</v>
-      </c>
-      <c r="I562" s="7">
-        <f t="shared" ref="I562:I571" si="194">H562-SUMIFS(H:H,B:B,B562-1,C:C,C562)</f>
-        <v>0</v>
+        <f t="shared" ref="H562:H571" si="192">G562-SUMIFS(G:G,A:A,A562-1,B:B,B562)</f>
+        <v>0</v>
+      </c>
+      <c r="I562" s="6">
+        <f t="shared" si="184"/>
+        <v>3.663003663003663E-3</v>
       </c>
     </row>
     <row r="563" spans="1:9" x14ac:dyDescent="0.3">
@@ -17078,27 +17087,27 @@
         <v>1048</v>
       </c>
       <c r="D563" s="6">
+        <f t="shared" si="189"/>
+        <v>6.4019547953573605E-2</v>
+      </c>
+      <c r="E563" s="7">
         <f t="shared" si="190"/>
-        <v>6.4019547953573605E-2</v>
-      </c>
-      <c r="E563" s="7">
+        <v>19</v>
+      </c>
+      <c r="F563" s="6">
         <f t="shared" si="191"/>
-        <v>19</v>
-      </c>
-      <c r="F563" s="6">
+        <v>7.3359073359073365E-2</v>
+      </c>
+      <c r="G563" s="2">
+        <v>1</v>
+      </c>
+      <c r="H563" s="7">
         <f t="shared" si="192"/>
-        <v>7.3359073359073365E-2</v>
-      </c>
-      <c r="G563" s="2">
-        <v>1</v>
-      </c>
-      <c r="H563" s="7">
-        <f t="shared" si="193"/>
-        <v>0</v>
-      </c>
-      <c r="I563" s="7">
-        <f t="shared" si="194"/>
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="I563" s="6">
+        <f t="shared" si="184"/>
+        <v>3.663003663003663E-3</v>
       </c>
     </row>
     <row r="564" spans="1:9" x14ac:dyDescent="0.3">
@@ -17112,27 +17121,27 @@
         <v>3205</v>
       </c>
       <c r="D564" s="6">
+        <f t="shared" si="189"/>
+        <v>0.1957849725106903</v>
+      </c>
+      <c r="E564" s="7">
         <f t="shared" si="190"/>
-        <v>0.1957849725106903</v>
-      </c>
-      <c r="E564" s="7">
+        <v>51</v>
+      </c>
+      <c r="F564" s="6">
         <f t="shared" si="191"/>
-        <v>51</v>
-      </c>
-      <c r="F564" s="6">
+        <v>0.19691119691119691</v>
+      </c>
+      <c r="G564" s="2">
+        <v>1</v>
+      </c>
+      <c r="H564" s="7">
         <f t="shared" si="192"/>
-        <v>0.19691119691119691</v>
-      </c>
-      <c r="G564" s="2">
-        <v>1</v>
-      </c>
-      <c r="H564" s="7">
-        <f t="shared" si="193"/>
-        <v>0</v>
-      </c>
-      <c r="I564" s="7">
-        <f t="shared" si="194"/>
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="I564" s="6">
+        <f t="shared" si="184"/>
+        <v>3.663003663003663E-3</v>
       </c>
     </row>
     <row r="565" spans="1:9" x14ac:dyDescent="0.3">
@@ -17146,27 +17155,27 @@
         <v>3165</v>
       </c>
       <c r="D565" s="6">
+        <f t="shared" si="189"/>
+        <v>0.19334147831398901</v>
+      </c>
+      <c r="E565" s="7">
         <f t="shared" si="190"/>
-        <v>0.19334147831398901</v>
-      </c>
-      <c r="E565" s="7">
+        <v>65</v>
+      </c>
+      <c r="F565" s="6">
         <f t="shared" si="191"/>
-        <v>65</v>
-      </c>
-      <c r="F565" s="6">
-        <f t="shared" si="192"/>
         <v>0.25096525096525096</v>
       </c>
       <c r="G565" s="2">
         <v>3</v>
       </c>
       <c r="H565" s="7">
-        <f t="shared" si="193"/>
-        <v>0</v>
-      </c>
-      <c r="I565" s="7">
-        <f t="shared" si="194"/>
-        <v>0</v>
+        <f t="shared" si="192"/>
+        <v>0</v>
+      </c>
+      <c r="I565" s="6">
+        <f t="shared" si="184"/>
+        <v>1.098901098901099E-2</v>
       </c>
     </row>
     <row r="566" spans="1:9" x14ac:dyDescent="0.3">
@@ -17180,27 +17189,27 @@
         <v>2871</v>
       </c>
       <c r="D566" s="6">
+        <f t="shared" si="189"/>
+        <v>0.17538179596823458</v>
+      </c>
+      <c r="E566" s="7">
         <f t="shared" si="190"/>
-        <v>0.17538179596823458</v>
-      </c>
-      <c r="E566" s="7">
+        <v>55</v>
+      </c>
+      <c r="F566" s="6">
         <f t="shared" si="191"/>
-        <v>55</v>
-      </c>
-      <c r="F566" s="6">
-        <f t="shared" si="192"/>
         <v>0.21235521235521235</v>
       </c>
       <c r="G566" s="2">
         <v>14</v>
       </c>
       <c r="H566" s="7">
-        <f t="shared" si="193"/>
+        <f t="shared" si="192"/>
         <v>2</v>
       </c>
-      <c r="I566" s="7">
-        <f t="shared" si="194"/>
-        <v>2</v>
+      <c r="I566" s="6">
+        <f t="shared" si="184"/>
+        <v>5.128205128205128E-2</v>
       </c>
     </row>
     <row r="567" spans="1:9" x14ac:dyDescent="0.3">
@@ -17214,27 +17223,27 @@
         <v>2525</v>
       </c>
       <c r="D567" s="6">
+        <f t="shared" si="189"/>
+        <v>0.15424557116676849</v>
+      </c>
+      <c r="E567" s="7">
         <f t="shared" si="190"/>
-        <v>0.15424557116676849</v>
-      </c>
-      <c r="E567" s="7">
+        <v>28</v>
+      </c>
+      <c r="F567" s="6">
         <f t="shared" si="191"/>
-        <v>28</v>
-      </c>
-      <c r="F567" s="6">
-        <f t="shared" si="192"/>
         <v>0.10810810810810811</v>
       </c>
       <c r="G567" s="2">
         <v>24</v>
       </c>
       <c r="H567" s="7">
-        <f t="shared" si="193"/>
-        <v>0</v>
-      </c>
-      <c r="I567" s="7">
-        <f t="shared" si="194"/>
-        <v>0</v>
+        <f t="shared" si="192"/>
+        <v>0</v>
+      </c>
+      <c r="I567" s="6">
+        <f t="shared" si="184"/>
+        <v>8.7912087912087919E-2</v>
       </c>
     </row>
     <row r="568" spans="1:9" x14ac:dyDescent="0.3">
@@ -17248,27 +17257,27 @@
         <v>1522</v>
       </c>
       <c r="D568" s="6">
+        <f t="shared" si="189"/>
+        <v>9.2974954184483816E-2</v>
+      </c>
+      <c r="E568" s="7">
         <f t="shared" si="190"/>
-        <v>9.2974954184483816E-2</v>
-      </c>
-      <c r="E568" s="7">
+        <v>14</v>
+      </c>
+      <c r="F568" s="6">
         <f t="shared" si="191"/>
-        <v>14</v>
-      </c>
-      <c r="F568" s="6">
-        <f t="shared" si="192"/>
         <v>5.4054054054054057E-2</v>
       </c>
       <c r="G568" s="2">
         <v>58</v>
       </c>
       <c r="H568" s="7">
-        <f t="shared" si="193"/>
-        <v>1</v>
-      </c>
-      <c r="I568" s="7">
-        <f t="shared" si="194"/>
-        <v>1</v>
+        <f t="shared" si="192"/>
+        <v>1</v>
+      </c>
+      <c r="I568" s="6">
+        <f t="shared" si="184"/>
+        <v>0.21245421245421245</v>
       </c>
     </row>
     <row r="569" spans="1:9" x14ac:dyDescent="0.3">
@@ -17282,27 +17291,27 @@
         <v>737</v>
       </c>
       <c r="D569" s="6">
+        <f t="shared" si="189"/>
+        <v>4.5021380574221136E-2</v>
+      </c>
+      <c r="E569" s="7">
         <f t="shared" si="190"/>
-        <v>4.5021380574221136E-2</v>
-      </c>
-      <c r="E569" s="7">
+        <v>4</v>
+      </c>
+      <c r="F569" s="6">
         <f t="shared" si="191"/>
-        <v>4</v>
-      </c>
-      <c r="F569" s="6">
-        <f t="shared" si="192"/>
         <v>1.5444015444015444E-2</v>
       </c>
       <c r="G569" s="2">
         <v>77</v>
       </c>
       <c r="H569" s="7">
-        <f t="shared" si="193"/>
+        <f t="shared" si="192"/>
         <v>3</v>
       </c>
-      <c r="I569" s="7">
-        <f t="shared" si="194"/>
-        <v>3</v>
+      <c r="I569" s="6">
+        <f t="shared" si="184"/>
+        <v>0.28205128205128205</v>
       </c>
     </row>
     <row r="570" spans="1:9" x14ac:dyDescent="0.3">
@@ -17316,27 +17325,27 @@
         <v>470</v>
       </c>
       <c r="D570" s="6">
+        <f t="shared" si="189"/>
+        <v>2.8711056811240074E-2</v>
+      </c>
+      <c r="E570" s="7">
         <f t="shared" si="190"/>
-        <v>2.8711056811240074E-2</v>
-      </c>
-      <c r="E570" s="7">
+        <v>2</v>
+      </c>
+      <c r="F570" s="6">
         <f t="shared" si="191"/>
-        <v>2</v>
-      </c>
-      <c r="F570" s="6">
-        <f t="shared" si="192"/>
         <v>7.7220077220077222E-3</v>
       </c>
       <c r="G570" s="2">
         <v>94</v>
       </c>
       <c r="H570" s="7">
-        <f t="shared" si="193"/>
+        <f t="shared" si="192"/>
         <v>2</v>
       </c>
-      <c r="I570" s="7">
-        <f t="shared" si="194"/>
-        <v>2</v>
+      <c r="I570" s="6">
+        <f t="shared" si="184"/>
+        <v>0.34432234432234432</v>
       </c>
     </row>
     <row r="571" spans="1:9" x14ac:dyDescent="0.3">
@@ -17350,26 +17359,26 @@
         <v>438</v>
       </c>
       <c r="D571" s="6">
+        <f t="shared" si="189"/>
+        <v>2.6756261453879045E-2</v>
+      </c>
+      <c r="E571" s="7">
         <f t="shared" si="190"/>
-        <v>2.6756261453879045E-2</v>
-      </c>
-      <c r="E571" s="7">
+        <v>11</v>
+      </c>
+      <c r="F571" s="6">
         <f t="shared" si="191"/>
-        <v>11</v>
-      </c>
-      <c r="F571" s="6">
+        <v>4.2471042471042469E-2</v>
+      </c>
+      <c r="G571" s="2">
+        <v>0</v>
+      </c>
+      <c r="H571" s="7">
         <f t="shared" si="192"/>
-        <v>4.2471042471042469E-2</v>
-      </c>
-      <c r="G571" s="2">
-        <v>0</v>
-      </c>
-      <c r="H571" s="7">
-        <f t="shared" si="193"/>
-        <v>0</v>
-      </c>
-      <c r="I571" s="7">
-        <f t="shared" si="194"/>
+        <v>0</v>
+      </c>
+      <c r="I571" s="6">
+        <f t="shared" si="184"/>
         <v>0</v>
       </c>
     </row>
@@ -17384,27 +17393,27 @@
         <v>409</v>
       </c>
       <c r="D572" s="6">
-        <f t="shared" ref="D572:D581" si="195">C572/SUMIF(A:A,A572,C:C)</f>
+        <f t="shared" ref="D572:D581" si="193">C572/SUMIF(A:A,A572,C:C)</f>
         <v>2.4492484579914965E-2</v>
       </c>
       <c r="E572" s="7">
-        <f t="shared" ref="E572:E581" si="196">C572-SUMIFS(C:C,A:A,A572-1,B:B,B572)</f>
+        <f t="shared" ref="E572:E581" si="194">C572-SUMIFS(C:C,A:A,A572-1,B:B,B572)</f>
         <v>20</v>
       </c>
       <c r="F572" s="6">
-        <f t="shared" ref="F572:F581" si="197">E572/SUMIF(A:A,A572,E:E)</f>
+        <f t="shared" ref="F572:F581" si="195">E572/SUMIF(A:A,A572,E:E)</f>
         <v>6.0790273556231005E-2</v>
       </c>
       <c r="G572">
         <v>1</v>
       </c>
       <c r="H572" s="7">
-        <f t="shared" ref="H572:H581" si="198">G572-SUMIFS(G:G,A:A,A572-1,B:B,B572)</f>
-        <v>0</v>
-      </c>
-      <c r="I572" s="7">
-        <f t="shared" ref="I572:I581" si="199">H572-SUMIFS(H:H,B:B,B572-1,C:C,C572)</f>
-        <v>0</v>
+        <f t="shared" ref="H572:H581" si="196">G572-SUMIFS(G:G,A:A,A572-1,B:B,B572)</f>
+        <v>0</v>
+      </c>
+      <c r="I572" s="6">
+        <f t="shared" si="184"/>
+        <v>3.4843205574912892E-3</v>
       </c>
     </row>
     <row r="573" spans="1:9" x14ac:dyDescent="0.3">
@@ -17418,27 +17427,27 @@
         <v>1087</v>
       </c>
       <c r="D573" s="6">
+        <f t="shared" si="193"/>
+        <v>6.5093718186717761E-2</v>
+      </c>
+      <c r="E573" s="7">
+        <f t="shared" si="194"/>
+        <v>39</v>
+      </c>
+      <c r="F573" s="6">
         <f t="shared" si="195"/>
-        <v>6.5093718186717761E-2</v>
-      </c>
-      <c r="E573" s="7">
+        <v>0.11854103343465046</v>
+      </c>
+      <c r="G573">
+        <v>1</v>
+      </c>
+      <c r="H573" s="7">
         <f t="shared" si="196"/>
-        <v>39</v>
-      </c>
-      <c r="F573" s="6">
-        <f t="shared" si="197"/>
-        <v>0.11854103343465046</v>
-      </c>
-      <c r="G573">
-        <v>1</v>
-      </c>
-      <c r="H573" s="7">
-        <f t="shared" si="198"/>
-        <v>0</v>
-      </c>
-      <c r="I573" s="7">
-        <f t="shared" si="199"/>
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="I573" s="6">
+        <f t="shared" si="184"/>
+        <v>3.4843205574912892E-3</v>
       </c>
     </row>
     <row r="574" spans="1:9" x14ac:dyDescent="0.3">
@@ -17452,27 +17461,27 @@
         <v>3285</v>
       </c>
       <c r="D574" s="6">
+        <f t="shared" si="193"/>
+        <v>0.19671836636924367</v>
+      </c>
+      <c r="E574" s="7">
+        <f t="shared" si="194"/>
+        <v>80</v>
+      </c>
+      <c r="F574" s="6">
         <f t="shared" si="195"/>
-        <v>0.19671836636924367</v>
-      </c>
-      <c r="E574" s="7">
+        <v>0.24316109422492402</v>
+      </c>
+      <c r="G574">
+        <v>1</v>
+      </c>
+      <c r="H574" s="7">
         <f t="shared" si="196"/>
-        <v>80</v>
-      </c>
-      <c r="F574" s="6">
-        <f t="shared" si="197"/>
-        <v>0.24316109422492402</v>
-      </c>
-      <c r="G574">
-        <v>1</v>
-      </c>
-      <c r="H574" s="7">
-        <f t="shared" si="198"/>
-        <v>0</v>
-      </c>
-      <c r="I574" s="7">
-        <f t="shared" si="199"/>
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="I574" s="6">
+        <f t="shared" si="184"/>
+        <v>3.4843205574912892E-3</v>
       </c>
     </row>
     <row r="575" spans="1:9" x14ac:dyDescent="0.3">
@@ -17486,27 +17495,27 @@
         <v>3227</v>
       </c>
       <c r="D575" s="6">
+        <f t="shared" si="193"/>
+        <v>0.19324510449727528</v>
+      </c>
+      <c r="E575" s="7">
+        <f t="shared" si="194"/>
+        <v>62</v>
+      </c>
+      <c r="F575" s="6">
         <f t="shared" si="195"/>
-        <v>0.19324510449727528</v>
-      </c>
-      <c r="E575" s="7">
-        <f t="shared" si="196"/>
-        <v>62</v>
-      </c>
-      <c r="F575" s="6">
-        <f t="shared" si="197"/>
         <v>0.18844984802431611</v>
       </c>
       <c r="G575">
         <v>3</v>
       </c>
       <c r="H575" s="7">
-        <f t="shared" si="198"/>
-        <v>0</v>
-      </c>
-      <c r="I575" s="7">
-        <f t="shared" si="199"/>
-        <v>0</v>
+        <f t="shared" si="196"/>
+        <v>0</v>
+      </c>
+      <c r="I575" s="6">
+        <f t="shared" si="184"/>
+        <v>1.0452961672473868E-2</v>
       </c>
     </row>
     <row r="576" spans="1:9" x14ac:dyDescent="0.3">
@@ -17520,27 +17529,27 @@
         <v>2924</v>
       </c>
       <c r="D576" s="6">
+        <f t="shared" si="193"/>
+        <v>0.17510030540750943</v>
+      </c>
+      <c r="E576" s="7">
+        <f t="shared" si="194"/>
+        <v>53</v>
+      </c>
+      <c r="F576" s="6">
         <f t="shared" si="195"/>
-        <v>0.17510030540750943</v>
-      </c>
-      <c r="E576" s="7">
-        <f t="shared" si="196"/>
-        <v>53</v>
-      </c>
-      <c r="F576" s="6">
-        <f t="shared" si="197"/>
         <v>0.16109422492401215</v>
       </c>
       <c r="G576">
         <v>14</v>
       </c>
       <c r="H576" s="7">
-        <f t="shared" si="198"/>
-        <v>0</v>
-      </c>
-      <c r="I576" s="7">
-        <f t="shared" si="199"/>
-        <v>0</v>
+        <f t="shared" si="196"/>
+        <v>0</v>
+      </c>
+      <c r="I576" s="6">
+        <f t="shared" si="184"/>
+        <v>4.878048780487805E-2</v>
       </c>
     </row>
     <row r="577" spans="1:9" x14ac:dyDescent="0.3">
@@ -17554,27 +17563,27 @@
         <v>2563</v>
       </c>
       <c r="D577" s="6">
+        <f t="shared" si="193"/>
+        <v>0.15348224444577518</v>
+      </c>
+      <c r="E577" s="7">
+        <f t="shared" si="194"/>
+        <v>38</v>
+      </c>
+      <c r="F577" s="6">
         <f t="shared" si="195"/>
-        <v>0.15348224444577518</v>
-      </c>
-      <c r="E577" s="7">
-        <f t="shared" si="196"/>
-        <v>38</v>
-      </c>
-      <c r="F577" s="6">
-        <f t="shared" si="197"/>
         <v>0.11550151975683891</v>
       </c>
       <c r="G577">
         <v>26</v>
       </c>
       <c r="H577" s="7">
-        <f t="shared" si="198"/>
+        <f t="shared" si="196"/>
         <v>2</v>
       </c>
-      <c r="I577" s="7">
-        <f t="shared" si="199"/>
-        <v>2</v>
+      <c r="I577" s="6">
+        <f t="shared" si="184"/>
+        <v>9.0592334494773524E-2</v>
       </c>
     </row>
     <row r="578" spans="1:9" x14ac:dyDescent="0.3">
@@ -17588,27 +17597,27 @@
         <v>1543</v>
       </c>
       <c r="D578" s="6">
+        <f t="shared" si="193"/>
+        <v>9.2400742559434701E-2</v>
+      </c>
+      <c r="E578" s="7">
+        <f t="shared" si="194"/>
+        <v>21</v>
+      </c>
+      <c r="F578" s="6">
         <f t="shared" si="195"/>
-        <v>9.2400742559434701E-2</v>
-      </c>
-      <c r="E578" s="7">
-        <f t="shared" si="196"/>
-        <v>21</v>
-      </c>
-      <c r="F578" s="6">
-        <f t="shared" si="197"/>
         <v>6.3829787234042548E-2</v>
       </c>
       <c r="G578">
         <v>61</v>
       </c>
       <c r="H578" s="7">
-        <f t="shared" si="198"/>
+        <f t="shared" si="196"/>
         <v>3</v>
       </c>
-      <c r="I578" s="7">
-        <f t="shared" si="199"/>
-        <v>3</v>
+      <c r="I578" s="6">
+        <f t="shared" si="184"/>
+        <v>0.21254355400696864</v>
       </c>
     </row>
     <row r="579" spans="1:9" x14ac:dyDescent="0.3">
@@ -17622,27 +17631,27 @@
         <v>749</v>
       </c>
       <c r="D579" s="6">
+        <f t="shared" si="193"/>
+        <v>4.4852985208695129E-2</v>
+      </c>
+      <c r="E579" s="7">
+        <f t="shared" si="194"/>
+        <v>12</v>
+      </c>
+      <c r="F579" s="6">
         <f t="shared" si="195"/>
-        <v>4.4852985208695129E-2</v>
-      </c>
-      <c r="E579" s="7">
-        <f t="shared" si="196"/>
-        <v>12</v>
-      </c>
-      <c r="F579" s="6">
-        <f t="shared" si="197"/>
         <v>3.64741641337386E-2</v>
       </c>
       <c r="G579">
         <v>82</v>
       </c>
       <c r="H579" s="7">
-        <f t="shared" si="198"/>
+        <f t="shared" si="196"/>
         <v>5</v>
       </c>
-      <c r="I579" s="7">
-        <f t="shared" si="199"/>
-        <v>5</v>
+      <c r="I579" s="6">
+        <f t="shared" si="184"/>
+        <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="580" spans="1:9" x14ac:dyDescent="0.3">
@@ -17656,27 +17665,27 @@
         <v>475</v>
       </c>
       <c r="D580" s="6">
+        <f t="shared" si="193"/>
+        <v>2.8444817054913467E-2</v>
+      </c>
+      <c r="E580" s="7">
+        <f t="shared" si="194"/>
+        <v>5</v>
+      </c>
+      <c r="F580" s="6">
         <f t="shared" si="195"/>
-        <v>2.8444817054913467E-2</v>
-      </c>
-      <c r="E580" s="7">
-        <f t="shared" si="196"/>
-        <v>5</v>
-      </c>
-      <c r="F580" s="6">
-        <f t="shared" si="197"/>
         <v>1.5197568389057751E-2</v>
       </c>
       <c r="G580">
         <v>98</v>
       </c>
       <c r="H580" s="7">
-        <f t="shared" si="198"/>
+        <f t="shared" si="196"/>
         <v>4</v>
       </c>
-      <c r="I580" s="7">
-        <f t="shared" si="199"/>
-        <v>4</v>
+      <c r="I580" s="6">
+        <f t="shared" si="184"/>
+        <v>0.34146341463414637</v>
       </c>
     </row>
     <row r="581" spans="1:9" x14ac:dyDescent="0.3">
@@ -17690,26 +17699,26 @@
         <v>437</v>
       </c>
       <c r="D581" s="6">
+        <f t="shared" si="193"/>
+        <v>2.6169231690520392E-2</v>
+      </c>
+      <c r="E581" s="7">
+        <f t="shared" si="194"/>
+        <v>-1</v>
+      </c>
+      <c r="F581" s="6">
         <f t="shared" si="195"/>
-        <v>2.6169231690520392E-2</v>
-      </c>
-      <c r="E581" s="7">
+        <v>-3.0395136778115501E-3</v>
+      </c>
+      <c r="G581">
+        <v>0</v>
+      </c>
+      <c r="H581" s="7">
         <f t="shared" si="196"/>
-        <v>-1</v>
-      </c>
-      <c r="F581" s="6">
-        <f t="shared" si="197"/>
-        <v>-3.0395136778115501E-3</v>
-      </c>
-      <c r="G581">
-        <v>0</v>
-      </c>
-      <c r="H581" s="7">
-        <f t="shared" si="198"/>
-        <v>0</v>
-      </c>
-      <c r="I581" s="7">
-        <f t="shared" si="199"/>
+        <v>0</v>
+      </c>
+      <c r="I581" s="6">
+        <f t="shared" si="184"/>
         <v>0</v>
       </c>
     </row>
@@ -17724,27 +17733,27 @@
         <v>422</v>
       </c>
       <c r="D582" s="6">
-        <f t="shared" ref="D582:D591" si="200">C582/SUMIF(A:A,A582,C:C)</f>
+        <f t="shared" ref="D582:D591" si="197">C582/SUMIF(A:A,A582,C:C)</f>
         <v>2.4867413081909252E-2</v>
       </c>
       <c r="E582" s="7">
-        <f t="shared" ref="E582:E591" si="201">C582-SUMIFS(C:C,A:A,A582-1,B:B,B582)</f>
+        <f t="shared" ref="E582:E591" si="198">C582-SUMIFS(C:C,A:A,A582-1,B:B,B582)</f>
         <v>13</v>
       </c>
       <c r="F582" s="6">
-        <f t="shared" ref="F582:F591" si="202">E582/SUMIF(A:A,A582,E:E)</f>
+        <f t="shared" ref="F582:F591" si="199">E582/SUMIF(A:A,A582,E:E)</f>
         <v>4.797047970479705E-2</v>
       </c>
       <c r="G582">
         <v>1</v>
       </c>
       <c r="H582" s="7">
-        <f t="shared" ref="H582:H591" si="203">G582-SUMIFS(G:G,A:A,A582-1,B:B,B582)</f>
-        <v>0</v>
-      </c>
-      <c r="I582" s="7">
-        <f t="shared" ref="I582:I591" si="204">H582-SUMIFS(H:H,B:B,B582-1,C:C,C582)</f>
-        <v>0</v>
+        <f t="shared" ref="H582:H591" si="200">G582-SUMIFS(G:G,A:A,A582-1,B:B,B582)</f>
+        <v>0</v>
+      </c>
+      <c r="I582" s="6">
+        <f t="shared" si="184"/>
+        <v>3.4482758620689655E-3</v>
       </c>
     </row>
     <row r="583" spans="1:9" x14ac:dyDescent="0.3">
@@ -17758,27 +17767,27 @@
         <v>1119</v>
       </c>
       <c r="D583" s="6">
+        <f t="shared" si="197"/>
+        <v>6.5939893930465523E-2</v>
+      </c>
+      <c r="E583" s="7">
+        <f t="shared" si="198"/>
+        <v>32</v>
+      </c>
+      <c r="F583" s="6">
+        <f t="shared" si="199"/>
+        <v>0.11808118081180811</v>
+      </c>
+      <c r="G583">
+        <v>1</v>
+      </c>
+      <c r="H583" s="7">
         <f t="shared" si="200"/>
-        <v>6.5939893930465523E-2</v>
-      </c>
-      <c r="E583" s="7">
-        <f t="shared" si="201"/>
-        <v>32</v>
-      </c>
-      <c r="F583" s="6">
-        <f t="shared" si="202"/>
-        <v>0.11808118081180811</v>
-      </c>
-      <c r="G583">
-        <v>1</v>
-      </c>
-      <c r="H583" s="7">
-        <f t="shared" si="203"/>
-        <v>0</v>
-      </c>
-      <c r="I583" s="7">
-        <f t="shared" si="204"/>
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="I583" s="6">
+        <f t="shared" si="184"/>
+        <v>3.4482758620689655E-3</v>
       </c>
     </row>
     <row r="584" spans="1:9" x14ac:dyDescent="0.3">
@@ -17792,27 +17801,27 @@
         <v>3325</v>
       </c>
       <c r="D584" s="6">
+        <f t="shared" si="197"/>
+        <v>0.19593400117855039</v>
+      </c>
+      <c r="E584" s="7">
+        <f t="shared" si="198"/>
+        <v>40</v>
+      </c>
+      <c r="F584" s="6">
+        <f t="shared" si="199"/>
+        <v>0.14760147601476015</v>
+      </c>
+      <c r="G584">
+        <v>1</v>
+      </c>
+      <c r="H584" s="7">
         <f t="shared" si="200"/>
-        <v>0.19593400117855039</v>
-      </c>
-      <c r="E584" s="7">
-        <f t="shared" si="201"/>
-        <v>40</v>
-      </c>
-      <c r="F584" s="6">
-        <f t="shared" si="202"/>
-        <v>0.14760147601476015</v>
-      </c>
-      <c r="G584">
-        <v>1</v>
-      </c>
-      <c r="H584" s="7">
-        <f t="shared" si="203"/>
-        <v>0</v>
-      </c>
-      <c r="I584" s="7">
-        <f t="shared" si="204"/>
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="I584" s="6">
+        <f t="shared" si="184"/>
+        <v>3.4482758620689655E-3</v>
       </c>
     </row>
     <row r="585" spans="1:9" x14ac:dyDescent="0.3">
@@ -17826,27 +17835,27 @@
         <v>3274</v>
       </c>
       <c r="D585" s="6">
-        <f t="shared" si="200"/>
+        <f t="shared" si="197"/>
         <v>0.19292869770182675</v>
       </c>
       <c r="E585" s="7">
-        <f t="shared" si="201"/>
+        <f t="shared" si="198"/>
         <v>47</v>
       </c>
       <c r="F585" s="6">
-        <f t="shared" si="202"/>
+        <f t="shared" si="199"/>
         <v>0.17343173431734318</v>
       </c>
       <c r="G585">
         <v>3</v>
       </c>
       <c r="H585" s="7">
-        <f t="shared" si="203"/>
-        <v>0</v>
-      </c>
-      <c r="I585" s="7">
-        <f t="shared" si="204"/>
-        <v>0</v>
+        <f t="shared" si="200"/>
+        <v>0</v>
+      </c>
+      <c r="I585" s="6">
+        <f t="shared" si="184"/>
+        <v>1.0344827586206896E-2</v>
       </c>
     </row>
     <row r="586" spans="1:9" x14ac:dyDescent="0.3">
@@ -17860,27 +17869,27 @@
         <v>2961</v>
       </c>
       <c r="D586" s="6">
-        <f t="shared" si="200"/>
+        <f t="shared" si="197"/>
         <v>0.17448438420742488</v>
       </c>
       <c r="E586" s="7">
-        <f t="shared" si="201"/>
+        <f t="shared" si="198"/>
         <v>37</v>
       </c>
       <c r="F586" s="6">
-        <f t="shared" si="202"/>
+        <f t="shared" si="199"/>
         <v>0.13653136531365315</v>
       </c>
       <c r="G586">
         <v>14</v>
       </c>
       <c r="H586" s="7">
-        <f t="shared" si="203"/>
-        <v>0</v>
-      </c>
-      <c r="I586" s="7">
-        <f t="shared" si="204"/>
-        <v>0</v>
+        <f t="shared" si="200"/>
+        <v>0</v>
+      </c>
+      <c r="I586" s="6">
+        <f t="shared" si="184"/>
+        <v>4.8275862068965517E-2</v>
       </c>
     </row>
     <row r="587" spans="1:9" x14ac:dyDescent="0.3">
@@ -17894,27 +17903,27 @@
         <v>2589</v>
       </c>
       <c r="D587" s="6">
-        <f t="shared" si="200"/>
+        <f t="shared" si="197"/>
         <v>0.1525633470830878</v>
       </c>
       <c r="E587" s="7">
-        <f t="shared" si="201"/>
+        <f t="shared" si="198"/>
         <v>26</v>
       </c>
       <c r="F587" s="6">
-        <f t="shared" si="202"/>
+        <f t="shared" si="199"/>
         <v>9.5940959409594101E-2</v>
       </c>
       <c r="G587">
         <v>26</v>
       </c>
       <c r="H587" s="7">
-        <f t="shared" si="203"/>
-        <v>0</v>
-      </c>
-      <c r="I587" s="7">
-        <f t="shared" si="204"/>
-        <v>0</v>
+        <f t="shared" si="200"/>
+        <v>0</v>
+      </c>
+      <c r="I587" s="6">
+        <f t="shared" si="184"/>
+        <v>8.9655172413793102E-2</v>
       </c>
     </row>
     <row r="588" spans="1:9" x14ac:dyDescent="0.3">
@@ -17928,27 +17937,27 @@
         <v>1551</v>
       </c>
       <c r="D588" s="6">
-        <f t="shared" si="200"/>
+        <f t="shared" si="197"/>
         <v>9.1396582203889215E-2</v>
       </c>
       <c r="E588" s="7">
-        <f t="shared" si="201"/>
+        <f t="shared" si="198"/>
         <v>8</v>
       </c>
       <c r="F588" s="6">
-        <f t="shared" si="202"/>
+        <f t="shared" si="199"/>
         <v>2.9520295202952029E-2</v>
       </c>
       <c r="G588">
         <v>61</v>
       </c>
       <c r="H588" s="7">
-        <f t="shared" si="203"/>
-        <v>0</v>
-      </c>
-      <c r="I588" s="7">
-        <f t="shared" si="204"/>
-        <v>0</v>
+        <f t="shared" si="200"/>
+        <v>0</v>
+      </c>
+      <c r="I588" s="6">
+        <f t="shared" si="184"/>
+        <v>0.2103448275862069</v>
       </c>
     </row>
     <row r="589" spans="1:9" x14ac:dyDescent="0.3">
@@ -17962,27 +17971,27 @@
         <v>755</v>
       </c>
       <c r="D589" s="6">
-        <f t="shared" si="200"/>
+        <f t="shared" si="197"/>
         <v>4.4490276959340012E-2</v>
       </c>
       <c r="E589" s="7">
-        <f t="shared" si="201"/>
+        <f t="shared" si="198"/>
         <v>6</v>
       </c>
       <c r="F589" s="6">
-        <f t="shared" si="202"/>
+        <f t="shared" si="199"/>
         <v>2.2140221402214021E-2</v>
       </c>
       <c r="G589">
         <v>85</v>
       </c>
       <c r="H589" s="7">
-        <f t="shared" si="203"/>
+        <f t="shared" si="200"/>
         <v>3</v>
       </c>
-      <c r="I589" s="7">
-        <f t="shared" si="204"/>
-        <v>3</v>
+      <c r="I589" s="6">
+        <f t="shared" si="184"/>
+        <v>0.29310344827586204</v>
       </c>
     </row>
     <row r="590" spans="1:9" x14ac:dyDescent="0.3">
@@ -17996,27 +18005,27 @@
         <v>479</v>
       </c>
       <c r="D590" s="6">
-        <f t="shared" si="200"/>
+        <f t="shared" si="197"/>
         <v>2.8226281673541544E-2</v>
       </c>
       <c r="E590" s="7">
-        <f t="shared" si="201"/>
+        <f t="shared" si="198"/>
         <v>4</v>
       </c>
       <c r="F590" s="6">
-        <f t="shared" si="202"/>
+        <f t="shared" si="199"/>
         <v>1.4760147601476014E-2</v>
       </c>
       <c r="G590">
         <v>98</v>
       </c>
       <c r="H590" s="7">
-        <f t="shared" si="203"/>
-        <v>0</v>
-      </c>
-      <c r="I590" s="7">
-        <f t="shared" si="204"/>
-        <v>0</v>
+        <f t="shared" si="200"/>
+        <v>0</v>
+      </c>
+      <c r="I590" s="6">
+        <f t="shared" si="184"/>
+        <v>0.33793103448275863</v>
       </c>
     </row>
     <row r="591" spans="1:9" x14ac:dyDescent="0.3">
@@ -18030,26 +18039,26 @@
         <v>495</v>
       </c>
       <c r="D591" s="6">
+        <f t="shared" si="197"/>
+        <v>2.9169121979964643E-2</v>
+      </c>
+      <c r="E591" s="7">
+        <f t="shared" si="198"/>
+        <v>58</v>
+      </c>
+      <c r="F591" s="6">
+        <f t="shared" si="199"/>
+        <v>0.2140221402214022</v>
+      </c>
+      <c r="G591">
+        <v>0</v>
+      </c>
+      <c r="H591" s="7">
         <f t="shared" si="200"/>
-        <v>2.9169121979964643E-2</v>
-      </c>
-      <c r="E591" s="7">
-        <f t="shared" si="201"/>
-        <v>58</v>
-      </c>
-      <c r="F591" s="6">
-        <f t="shared" si="202"/>
-        <v>0.2140221402214022</v>
-      </c>
-      <c r="G591">
-        <v>0</v>
-      </c>
-      <c r="H591" s="7">
-        <f t="shared" si="203"/>
-        <v>0</v>
-      </c>
-      <c r="I591" s="7">
-        <f t="shared" si="204"/>
+        <v>0</v>
+      </c>
+      <c r="I591" s="6">
+        <f t="shared" si="184"/>
         <v>0</v>
       </c>
     </row>
@@ -18064,27 +18073,27 @@
         <v>446</v>
       </c>
       <c r="D592" s="6">
-        <f t="shared" ref="D592:D601" si="205">C592/SUMIF(A:A,A592,C:C)</f>
+        <f t="shared" ref="D592:D601" si="201">C592/SUMIF(A:A,A592,C:C)</f>
         <v>2.5798241554835726E-2</v>
       </c>
       <c r="E592" s="7">
-        <f t="shared" ref="E592:E601" si="206">C592-SUMIFS(C:C,A:A,A592-1,B:B,B592)</f>
+        <f t="shared" ref="E592:E601" si="202">C592-SUMIFS(C:C,A:A,A592-1,B:B,B592)</f>
         <v>24</v>
       </c>
       <c r="F592" s="6">
-        <f t="shared" ref="F592:F601" si="207">E592/SUMIF(A:A,A592,E:E)</f>
+        <f t="shared" ref="F592:F601" si="203">E592/SUMIF(A:A,A592,E:E)</f>
         <v>7.5471698113207544E-2</v>
       </c>
       <c r="G592">
         <v>1</v>
       </c>
       <c r="H592" s="7">
-        <f t="shared" ref="H592:H601" si="208">G592-SUMIFS(G:G,A:A,A592-1,B:B,B592)</f>
-        <v>0</v>
-      </c>
-      <c r="I592" s="7">
-        <f t="shared" ref="I592:I601" si="209">H592-SUMIFS(H:H,B:B,B592-1,C:C,C592)</f>
-        <v>0</v>
+        <f t="shared" ref="H592:H601" si="204">G592-SUMIFS(G:G,A:A,A592-1,B:B,B592)</f>
+        <v>0</v>
+      </c>
+      <c r="I592" s="6">
+        <f t="shared" si="184"/>
+        <v>3.3898305084745762E-3</v>
       </c>
     </row>
     <row r="593" spans="1:9" x14ac:dyDescent="0.3">
@@ -18098,27 +18107,27 @@
         <v>1158</v>
       </c>
       <c r="D593" s="6">
-        <f t="shared" si="205"/>
+        <f t="shared" si="201"/>
         <v>6.6982878297084686E-2</v>
       </c>
       <c r="E593" s="7">
-        <f t="shared" si="206"/>
+        <f t="shared" si="202"/>
         <v>39</v>
       </c>
       <c r="F593" s="6">
-        <f t="shared" si="207"/>
+        <f t="shared" si="203"/>
         <v>0.12264150943396226</v>
       </c>
       <c r="G593">
         <v>1</v>
       </c>
       <c r="H593" s="7">
-        <f t="shared" si="208"/>
-        <v>0</v>
-      </c>
-      <c r="I593" s="7">
-        <f t="shared" si="209"/>
-        <v>0</v>
+        <f t="shared" si="204"/>
+        <v>0</v>
+      </c>
+      <c r="I593" s="6">
+        <f t="shared" si="184"/>
+        <v>3.3898305084745762E-3</v>
       </c>
     </row>
     <row r="594" spans="1:9" x14ac:dyDescent="0.3">
@@ -18132,27 +18141,27 @@
         <v>3378</v>
       </c>
       <c r="D594" s="6">
-        <f t="shared" si="205"/>
+        <f t="shared" si="201"/>
         <v>0.19539565016196206</v>
       </c>
       <c r="E594" s="7">
-        <f t="shared" si="206"/>
+        <f t="shared" si="202"/>
         <v>53</v>
       </c>
       <c r="F594" s="6">
-        <f t="shared" si="207"/>
+        <f t="shared" si="203"/>
         <v>0.16666666666666666</v>
       </c>
       <c r="G594">
         <v>1</v>
       </c>
       <c r="H594" s="7">
-        <f t="shared" si="208"/>
-        <v>0</v>
-      </c>
-      <c r="I594" s="7">
-        <f t="shared" si="209"/>
-        <v>0</v>
+        <f t="shared" si="204"/>
+        <v>0</v>
+      </c>
+      <c r="I594" s="6">
+        <f t="shared" si="184"/>
+        <v>3.3898305084745762E-3</v>
       </c>
     </row>
     <row r="595" spans="1:9" x14ac:dyDescent="0.3">
@@ -18166,27 +18175,27 @@
         <v>3339</v>
       </c>
       <c r="D595" s="6">
-        <f t="shared" si="205"/>
+        <f t="shared" si="201"/>
         <v>0.19313975011568718</v>
       </c>
       <c r="E595" s="7">
-        <f t="shared" si="206"/>
+        <f t="shared" si="202"/>
         <v>65</v>
       </c>
       <c r="F595" s="6">
-        <f t="shared" si="207"/>
+        <f t="shared" si="203"/>
         <v>0.20440251572327045</v>
       </c>
       <c r="G595">
         <v>3</v>
       </c>
       <c r="H595" s="7">
-        <f t="shared" si="208"/>
-        <v>0</v>
-      </c>
-      <c r="I595" s="7">
-        <f t="shared" si="209"/>
-        <v>0</v>
+        <f t="shared" si="204"/>
+        <v>0</v>
+      </c>
+      <c r="I595" s="6">
+        <f t="shared" si="184"/>
+        <v>1.0169491525423728E-2</v>
       </c>
     </row>
     <row r="596" spans="1:9" x14ac:dyDescent="0.3">
@@ -18200,27 +18209,27 @@
         <v>3018</v>
       </c>
       <c r="D596" s="6">
-        <f t="shared" si="205"/>
+        <f t="shared" si="201"/>
         <v>0.17457195742711706</v>
       </c>
       <c r="E596" s="7">
-        <f t="shared" si="206"/>
+        <f t="shared" si="202"/>
         <v>57</v>
       </c>
       <c r="F596" s="6">
-        <f t="shared" si="207"/>
+        <f t="shared" si="203"/>
         <v>0.17924528301886791</v>
       </c>
       <c r="G596">
         <v>14</v>
       </c>
       <c r="H596" s="7">
-        <f t="shared" si="208"/>
-        <v>0</v>
-      </c>
-      <c r="I596" s="7">
-        <f t="shared" si="209"/>
-        <v>0</v>
+        <f t="shared" si="204"/>
+        <v>0</v>
+      </c>
+      <c r="I596" s="6">
+        <f t="shared" si="184"/>
+        <v>4.7457627118644069E-2</v>
       </c>
     </row>
     <row r="597" spans="1:9" x14ac:dyDescent="0.3">
@@ -18234,27 +18243,27 @@
         <v>2619</v>
       </c>
       <c r="D597" s="6">
-        <f t="shared" si="205"/>
+        <f t="shared" si="201"/>
         <v>0.15149236464599722</v>
       </c>
       <c r="E597" s="7">
-        <f t="shared" si="206"/>
+        <f t="shared" si="202"/>
         <v>30</v>
       </c>
       <c r="F597" s="6">
-        <f t="shared" si="207"/>
+        <f t="shared" si="203"/>
         <v>9.4339622641509441E-2</v>
       </c>
       <c r="G597">
         <v>26</v>
       </c>
       <c r="H597" s="7">
-        <f t="shared" si="208"/>
-        <v>0</v>
-      </c>
-      <c r="I597" s="7">
-        <f t="shared" si="209"/>
-        <v>0</v>
+        <f t="shared" si="204"/>
+        <v>0</v>
+      </c>
+      <c r="I597" s="6">
+        <f t="shared" si="184"/>
+        <v>8.8135593220338981E-2</v>
       </c>
     </row>
     <row r="598" spans="1:9" x14ac:dyDescent="0.3">
@@ -18268,27 +18277,27 @@
         <v>1585</v>
       </c>
       <c r="D598" s="6">
-        <f t="shared" si="205"/>
+        <f t="shared" si="201"/>
         <v>9.1682091624248035E-2</v>
       </c>
       <c r="E598" s="7">
-        <f t="shared" si="206"/>
+        <f t="shared" si="202"/>
         <v>34</v>
       </c>
       <c r="F598" s="6">
-        <f t="shared" si="207"/>
+        <f t="shared" si="203"/>
         <v>0.1069182389937107</v>
       </c>
       <c r="G598">
         <v>62</v>
       </c>
       <c r="H598" s="7">
-        <f t="shared" si="208"/>
-        <v>1</v>
-      </c>
-      <c r="I598" s="7">
-        <f t="shared" si="209"/>
-        <v>1</v>
+        <f t="shared" si="204"/>
+        <v>1</v>
+      </c>
+      <c r="I598" s="6">
+        <f t="shared" si="184"/>
+        <v>0.21016949152542372</v>
       </c>
     </row>
     <row r="599" spans="1:9" x14ac:dyDescent="0.3">
@@ -18302,27 +18311,27 @@
         <v>768</v>
       </c>
       <c r="D599" s="6">
-        <f t="shared" si="205"/>
+        <f t="shared" si="201"/>
         <v>4.4423877834335955E-2</v>
       </c>
       <c r="E599" s="7">
-        <f t="shared" si="206"/>
+        <f t="shared" si="202"/>
         <v>13</v>
       </c>
       <c r="F599" s="6">
-        <f t="shared" si="207"/>
+        <f t="shared" si="203"/>
         <v>4.0880503144654086E-2</v>
       </c>
       <c r="G599">
         <v>87</v>
       </c>
       <c r="H599" s="7">
-        <f t="shared" si="208"/>
+        <f t="shared" si="204"/>
         <v>2</v>
       </c>
-      <c r="I599" s="7">
-        <f t="shared" si="209"/>
-        <v>2</v>
+      <c r="I599" s="6">
+        <f t="shared" si="184"/>
+        <v>0.29491525423728815</v>
       </c>
     </row>
     <row r="600" spans="1:9" x14ac:dyDescent="0.3">
@@ -18336,27 +18345,27 @@
         <v>481</v>
       </c>
       <c r="D600" s="6">
-        <f t="shared" si="205"/>
+        <f t="shared" si="201"/>
         <v>2.7822767237390099E-2</v>
       </c>
       <c r="E600" s="7">
-        <f t="shared" si="206"/>
+        <f t="shared" si="202"/>
         <v>2</v>
       </c>
       <c r="F600" s="6">
-        <f t="shared" si="207"/>
+        <f t="shared" si="203"/>
         <v>6.2893081761006293E-3</v>
       </c>
       <c r="G600">
         <v>100</v>
       </c>
       <c r="H600" s="7">
-        <f t="shared" si="208"/>
+        <f t="shared" si="204"/>
         <v>2</v>
       </c>
-      <c r="I600" s="7">
-        <f t="shared" si="209"/>
-        <v>2</v>
+      <c r="I600" s="6">
+        <f t="shared" si="184"/>
+        <v>0.33898305084745761</v>
       </c>
     </row>
     <row r="601" spans="1:9" x14ac:dyDescent="0.3">
@@ -18370,26 +18379,26 @@
         <v>496</v>
       </c>
       <c r="D601" s="6">
-        <f t="shared" si="205"/>
+        <f t="shared" si="201"/>
         <v>2.869042110134197E-2</v>
       </c>
       <c r="E601" s="7">
-        <f t="shared" si="206"/>
+        <f t="shared" si="202"/>
         <v>1</v>
       </c>
       <c r="F601" s="6">
-        <f t="shared" si="207"/>
+        <f t="shared" si="203"/>
         <v>3.1446540880503146E-3</v>
       </c>
       <c r="G601">
         <v>0</v>
       </c>
       <c r="H601" s="7">
-        <f t="shared" si="208"/>
-        <v>0</v>
-      </c>
-      <c r="I601" s="7">
-        <f t="shared" si="209"/>
+        <f t="shared" si="204"/>
+        <v>0</v>
+      </c>
+      <c r="I601" s="6">
+        <f t="shared" si="184"/>
         <v>0</v>
       </c>
     </row>
@@ -18404,27 +18413,27 @@
         <v>449</v>
       </c>
       <c r="D602" s="6">
-        <f t="shared" ref="D602:D611" si="210">C602/SUMIF(A:A,A602,C:C)</f>
+        <f t="shared" ref="D602:D611" si="205">C602/SUMIF(A:A,A602,C:C)</f>
         <v>2.5822406257188867E-2</v>
       </c>
       <c r="E602" s="7">
-        <f t="shared" ref="E602:E611" si="211">C602-SUMIFS(C:C,A:A,A602-1,B:B,B602)</f>
+        <f t="shared" ref="E602:E611" si="206">C602-SUMIFS(C:C,A:A,A602-1,B:B,B602)</f>
         <v>3</v>
       </c>
       <c r="F602" s="6">
-        <f t="shared" ref="F602:F611" si="212">E602/SUMIF(A:A,A602,E:E)</f>
+        <f t="shared" ref="F602:F611" si="207">E602/SUMIF(A:A,A602,E:E)</f>
         <v>0.03</v>
       </c>
       <c r="G602" s="2">
         <v>1</v>
       </c>
       <c r="H602" s="7">
-        <f t="shared" ref="H602:H611" si="213">G602-SUMIFS(G:G,A:A,A602-1,B:B,B602)</f>
-        <v>0</v>
-      </c>
-      <c r="I602" s="7">
-        <f t="shared" ref="I602:I611" si="214">H602-SUMIFS(H:H,B:B,B602-1,C:C,C602)</f>
-        <v>0</v>
+        <f t="shared" ref="H602:H611" si="208">G602-SUMIFS(G:G,A:A,A602-1,B:B,B602)</f>
+        <v>0</v>
+      </c>
+      <c r="I602" s="6">
+        <f t="shared" si="184"/>
+        <v>3.3557046979865771E-3</v>
       </c>
     </row>
     <row r="603" spans="1:9" x14ac:dyDescent="0.3">
@@ -18438,27 +18447,27 @@
         <v>1165</v>
       </c>
       <c r="D603" s="6">
-        <f t="shared" si="210"/>
+        <f t="shared" si="205"/>
         <v>6.7000230043708309E-2</v>
       </c>
       <c r="E603" s="7">
-        <f t="shared" si="211"/>
+        <f t="shared" si="206"/>
         <v>7</v>
       </c>
       <c r="F603" s="6">
-        <f t="shared" si="212"/>
+        <f t="shared" si="207"/>
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="G603" s="2">
         <v>1</v>
       </c>
       <c r="H603" s="7">
-        <f t="shared" si="213"/>
-        <v>0</v>
-      </c>
-      <c r="I603" s="7">
-        <f t="shared" si="214"/>
-        <v>0</v>
+        <f t="shared" si="208"/>
+        <v>0</v>
+      </c>
+      <c r="I603" s="6">
+        <f t="shared" si="184"/>
+        <v>3.3557046979865771E-3</v>
       </c>
     </row>
     <row r="604" spans="1:9" x14ac:dyDescent="0.3">
@@ -18472,27 +18481,27 @@
         <v>3409</v>
       </c>
       <c r="D604" s="6">
-        <f t="shared" si="210"/>
+        <f t="shared" si="205"/>
         <v>0.1960547504025765</v>
       </c>
       <c r="E604" s="7">
-        <f t="shared" si="211"/>
+        <f t="shared" si="206"/>
         <v>31</v>
       </c>
       <c r="F604" s="6">
-        <f t="shared" si="212"/>
+        <f t="shared" si="207"/>
         <v>0.31</v>
       </c>
       <c r="G604" s="2">
         <v>1</v>
       </c>
       <c r="H604" s="7">
-        <f t="shared" si="213"/>
-        <v>0</v>
-      </c>
-      <c r="I604" s="7">
-        <f t="shared" si="214"/>
-        <v>0</v>
+        <f t="shared" si="208"/>
+        <v>0</v>
+      </c>
+      <c r="I604" s="6">
+        <f t="shared" si="184"/>
+        <v>3.3557046979865771E-3</v>
       </c>
     </row>
     <row r="605" spans="1:9" x14ac:dyDescent="0.3">
@@ -18506,27 +18515,27 @@
         <v>3358</v>
       </c>
       <c r="D605" s="6">
-        <f t="shared" si="210"/>
+        <f t="shared" si="205"/>
         <v>0.19312169312169311</v>
       </c>
       <c r="E605" s="7">
-        <f t="shared" si="211"/>
+        <f t="shared" si="206"/>
         <v>19</v>
       </c>
       <c r="F605" s="6">
-        <f t="shared" si="212"/>
+        <f t="shared" si="207"/>
         <v>0.19</v>
       </c>
       <c r="G605" s="2">
         <v>3</v>
       </c>
       <c r="H605" s="7">
-        <f t="shared" si="213"/>
-        <v>0</v>
-      </c>
-      <c r="I605" s="7">
-        <f t="shared" si="214"/>
-        <v>0</v>
+        <f t="shared" si="208"/>
+        <v>0</v>
+      </c>
+      <c r="I605" s="6">
+        <f t="shared" si="184"/>
+        <v>1.0067114093959731E-2</v>
       </c>
     </row>
     <row r="606" spans="1:9" x14ac:dyDescent="0.3">
@@ -18540,27 +18549,27 @@
         <v>3030</v>
       </c>
       <c r="D606" s="6">
-        <f t="shared" si="210"/>
+        <f t="shared" si="205"/>
         <v>0.17425810904071773</v>
       </c>
       <c r="E606" s="7">
-        <f t="shared" si="211"/>
+        <f t="shared" si="206"/>
         <v>12</v>
       </c>
       <c r="F606" s="6">
-        <f t="shared" si="212"/>
+        <f t="shared" si="207"/>
         <v>0.12</v>
       </c>
       <c r="G606" s="2">
         <v>14</v>
       </c>
       <c r="H606" s="7">
-        <f t="shared" si="213"/>
-        <v>0</v>
-      </c>
-      <c r="I606" s="7">
-        <f t="shared" si="214"/>
-        <v>0</v>
+        <f t="shared" si="208"/>
+        <v>0</v>
+      </c>
+      <c r="I606" s="6">
+        <f t="shared" ref="I606:I661" si="209">G606/SUMIF(A:A,A606,G:G)</f>
+        <v>4.6979865771812082E-2</v>
       </c>
     </row>
     <row r="607" spans="1:9" x14ac:dyDescent="0.3">
@@ -18574,27 +18583,27 @@
         <v>2635</v>
       </c>
       <c r="D607" s="6">
-        <f t="shared" si="210"/>
+        <f t="shared" si="205"/>
         <v>0.15154129284564066</v>
       </c>
       <c r="E607" s="7">
-        <f t="shared" si="211"/>
+        <f t="shared" si="206"/>
         <v>16</v>
       </c>
       <c r="F607" s="6">
-        <f t="shared" si="212"/>
+        <f t="shared" si="207"/>
         <v>0.16</v>
       </c>
       <c r="G607" s="2">
         <v>26</v>
       </c>
       <c r="H607" s="7">
-        <f t="shared" si="213"/>
-        <v>0</v>
-      </c>
-      <c r="I607" s="7">
-        <f t="shared" si="214"/>
-        <v>0</v>
+        <f t="shared" si="208"/>
+        <v>0</v>
+      </c>
+      <c r="I607" s="6">
+        <f t="shared" si="209"/>
+        <v>8.7248322147651006E-2</v>
       </c>
     </row>
     <row r="608" spans="1:9" x14ac:dyDescent="0.3">
@@ -18608,27 +18617,27 @@
         <v>1588</v>
       </c>
       <c r="D608" s="6">
-        <f t="shared" si="210"/>
+        <f t="shared" si="205"/>
         <v>9.1327352196917413E-2</v>
       </c>
       <c r="E608" s="7">
-        <f t="shared" si="211"/>
+        <f t="shared" si="206"/>
         <v>3</v>
       </c>
       <c r="F608" s="6">
-        <f t="shared" si="212"/>
+        <f t="shared" si="207"/>
         <v>0.03</v>
       </c>
       <c r="G608" s="2">
         <v>63</v>
       </c>
       <c r="H608" s="7">
-        <f t="shared" si="213"/>
-        <v>1</v>
-      </c>
-      <c r="I608" s="7">
-        <f t="shared" si="214"/>
-        <v>1</v>
+        <f t="shared" si="208"/>
+        <v>1</v>
+      </c>
+      <c r="I608" s="6">
+        <f t="shared" si="209"/>
+        <v>0.21140939597315436</v>
       </c>
     </row>
     <row r="609" spans="1:9" x14ac:dyDescent="0.3">
@@ -18642,27 +18651,27 @@
         <v>774</v>
       </c>
       <c r="D609" s="6">
-        <f t="shared" si="210"/>
+        <f t="shared" si="205"/>
         <v>4.4513457556935816E-2</v>
       </c>
       <c r="E609" s="7">
-        <f t="shared" si="211"/>
+        <f t="shared" si="206"/>
         <v>6</v>
       </c>
       <c r="F609" s="6">
-        <f t="shared" si="212"/>
+        <f t="shared" si="207"/>
         <v>0.06</v>
       </c>
       <c r="G609" s="2">
         <v>87</v>
       </c>
       <c r="H609" s="7">
-        <f t="shared" si="213"/>
-        <v>0</v>
-      </c>
-      <c r="I609" s="7">
-        <f t="shared" si="214"/>
-        <v>0</v>
+        <f t="shared" si="208"/>
+        <v>0</v>
+      </c>
+      <c r="I609" s="6">
+        <f t="shared" si="209"/>
+        <v>0.29194630872483224</v>
       </c>
     </row>
     <row r="610" spans="1:9" x14ac:dyDescent="0.3">
@@ -18676,27 +18685,27 @@
         <v>482</v>
       </c>
       <c r="D610" s="6">
-        <f t="shared" si="210"/>
+        <f t="shared" si="205"/>
         <v>2.7720266850701634E-2</v>
       </c>
       <c r="E610" s="7">
-        <f t="shared" si="211"/>
+        <f t="shared" si="206"/>
         <v>1</v>
       </c>
       <c r="F610" s="6">
-        <f t="shared" si="212"/>
+        <f t="shared" si="207"/>
         <v>0.01</v>
       </c>
       <c r="G610" s="2">
         <v>102</v>
       </c>
       <c r="H610" s="7">
-        <f t="shared" si="213"/>
+        <f t="shared" si="208"/>
         <v>2</v>
       </c>
-      <c r="I610" s="7">
-        <f t="shared" si="214"/>
-        <v>2</v>
+      <c r="I610" s="6">
+        <f t="shared" si="209"/>
+        <v>0.34228187919463088</v>
       </c>
     </row>
     <row r="611" spans="1:9" x14ac:dyDescent="0.3">
@@ -18710,26 +18719,26 @@
         <v>498</v>
       </c>
       <c r="D611" s="6">
-        <f t="shared" si="210"/>
+        <f t="shared" si="205"/>
         <v>2.8640441683919944E-2</v>
       </c>
       <c r="E611" s="7">
-        <f t="shared" si="211"/>
+        <f t="shared" si="206"/>
         <v>2</v>
       </c>
       <c r="F611" s="6">
-        <f t="shared" si="212"/>
+        <f t="shared" si="207"/>
         <v>0.02</v>
       </c>
       <c r="G611" s="2">
         <v>0</v>
       </c>
       <c r="H611" s="7">
-        <f t="shared" si="213"/>
-        <v>0</v>
-      </c>
-      <c r="I611" s="7">
-        <f t="shared" si="214"/>
+        <f t="shared" si="208"/>
+        <v>0</v>
+      </c>
+      <c r="I611" s="6">
+        <f t="shared" si="209"/>
         <v>0</v>
       </c>
     </row>
@@ -18744,27 +18753,27 @@
         <v>473</v>
       </c>
       <c r="D612" s="6">
-        <f t="shared" ref="D612:D621" si="215">C612/SUMIF(A:A,A612,C:C)</f>
+        <f t="shared" ref="D612:D621" si="210">C612/SUMIF(A:A,A612,C:C)</f>
         <v>2.6261728943423462E-2</v>
       </c>
       <c r="E612" s="7">
-        <f t="shared" ref="E612:E621" si="216">C612-SUMIFS(C:C,A:A,A612-1,B:B,B612)</f>
+        <f t="shared" ref="E612:E621" si="211">C612-SUMIFS(C:C,A:A,A612-1,B:B,B612)</f>
         <v>24</v>
       </c>
       <c r="F612" s="6">
-        <f t="shared" ref="F612:F621" si="217">E612/SUMIF(A:A,A612,E:E)</f>
+        <f t="shared" ref="F612:F621" si="212">E612/SUMIF(A:A,A612,E:E)</f>
         <v>3.8523274478330656E-2</v>
       </c>
       <c r="G612" s="2">
         <v>1</v>
       </c>
       <c r="H612" s="7">
-        <f t="shared" ref="H612:H621" si="218">G612-SUMIFS(G:G,A:A,A612-1,B:B,B612)</f>
-        <v>0</v>
-      </c>
-      <c r="I612" s="7">
-        <f t="shared" ref="I612:I621" si="219">H612-SUMIFS(H:H,B:B,B612-1,C:C,C612)</f>
-        <v>0</v>
+        <f t="shared" ref="H612:H621" si="213">G612-SUMIFS(G:G,A:A,A612-1,B:B,B612)</f>
+        <v>0</v>
+      </c>
+      <c r="I612" s="6">
+        <f t="shared" si="209"/>
+        <v>3.3222591362126247E-3</v>
       </c>
     </row>
     <row r="613" spans="1:9" x14ac:dyDescent="0.3">
@@ -18778,27 +18787,27 @@
         <v>1231</v>
       </c>
       <c r="D613" s="6">
-        <f t="shared" si="215"/>
+        <f t="shared" si="210"/>
         <v>6.8347121203708838E-2</v>
       </c>
       <c r="E613" s="7">
-        <f t="shared" si="216"/>
+        <f t="shared" si="211"/>
         <v>66</v>
       </c>
       <c r="F613" s="6">
-        <f t="shared" si="217"/>
+        <f t="shared" si="212"/>
         <v>0.10593900481540931</v>
       </c>
       <c r="G613" s="2">
         <v>1</v>
       </c>
       <c r="H613" s="7">
-        <f t="shared" si="218"/>
-        <v>0</v>
-      </c>
-      <c r="I613" s="7">
-        <f t="shared" si="219"/>
-        <v>0</v>
+        <f t="shared" si="213"/>
+        <v>0</v>
+      </c>
+      <c r="I613" s="6">
+        <f t="shared" si="209"/>
+        <v>3.3222591362126247E-3</v>
       </c>
     </row>
     <row r="614" spans="1:9" x14ac:dyDescent="0.3">
@@ -18812,27 +18821,27 @@
         <v>3556</v>
       </c>
       <c r="D614" s="6">
-        <f t="shared" si="215"/>
+        <f t="shared" si="210"/>
         <v>0.19743490089389817</v>
       </c>
       <c r="E614" s="7">
-        <f t="shared" si="216"/>
+        <f t="shared" si="211"/>
         <v>147</v>
       </c>
       <c r="F614" s="6">
-        <f t="shared" si="217"/>
+        <f t="shared" si="212"/>
         <v>0.23595505617977527</v>
       </c>
       <c r="G614" s="2">
         <v>1</v>
       </c>
       <c r="H614" s="7">
-        <f t="shared" si="218"/>
-        <v>0</v>
-      </c>
-      <c r="I614" s="7">
-        <f t="shared" si="219"/>
-        <v>0</v>
+        <f t="shared" si="213"/>
+        <v>0</v>
+      </c>
+      <c r="I614" s="6">
+        <f t="shared" si="209"/>
+        <v>3.3222591362126247E-3</v>
       </c>
     </row>
     <row r="615" spans="1:9" x14ac:dyDescent="0.3">
@@ -18846,27 +18855,27 @@
         <v>3506</v>
       </c>
       <c r="D615" s="6">
-        <f t="shared" si="215"/>
+        <f t="shared" si="210"/>
         <v>0.19465881961023818</v>
       </c>
       <c r="E615" s="7">
-        <f t="shared" si="216"/>
+        <f t="shared" si="211"/>
         <v>148</v>
       </c>
       <c r="F615" s="6">
-        <f t="shared" si="217"/>
+        <f t="shared" si="212"/>
         <v>0.2375601926163724</v>
       </c>
       <c r="G615" s="2">
         <v>3</v>
       </c>
       <c r="H615" s="7">
-        <f t="shared" si="218"/>
-        <v>0</v>
-      </c>
-      <c r="I615" s="7">
-        <f t="shared" si="219"/>
-        <v>0</v>
+        <f t="shared" si="213"/>
+        <v>0</v>
+      </c>
+      <c r="I615" s="6">
+        <f t="shared" si="209"/>
+        <v>9.9667774086378731E-3</v>
       </c>
     </row>
     <row r="616" spans="1:9" x14ac:dyDescent="0.3">
@@ -18880,27 +18889,27 @@
         <v>3133</v>
       </c>
       <c r="D616" s="6">
-        <f t="shared" si="215"/>
+        <f t="shared" si="210"/>
         <v>0.17394925323413468</v>
       </c>
       <c r="E616" s="7">
-        <f t="shared" si="216"/>
+        <f t="shared" si="211"/>
         <v>103</v>
       </c>
       <c r="F616" s="6">
-        <f t="shared" si="217"/>
+        <f t="shared" si="212"/>
         <v>0.1653290529695024</v>
       </c>
       <c r="G616" s="2">
         <v>14</v>
       </c>
       <c r="H616" s="7">
-        <f t="shared" si="218"/>
-        <v>0</v>
-      </c>
-      <c r="I616" s="7">
-        <f t="shared" si="219"/>
-        <v>0</v>
+        <f t="shared" si="213"/>
+        <v>0</v>
+      </c>
+      <c r="I616" s="6">
+        <f t="shared" si="209"/>
+        <v>4.6511627906976744E-2</v>
       </c>
     </row>
     <row r="617" spans="1:9" x14ac:dyDescent="0.3">
@@ -18914,27 +18923,27 @@
         <v>2713</v>
       </c>
       <c r="D617" s="6">
-        <f t="shared" si="215"/>
+        <f t="shared" si="210"/>
         <v>0.15063017045139082</v>
       </c>
       <c r="E617" s="7">
-        <f t="shared" si="216"/>
+        <f t="shared" si="211"/>
         <v>78</v>
       </c>
       <c r="F617" s="6">
-        <f t="shared" si="217"/>
+        <f t="shared" si="212"/>
         <v>0.12520064205457465</v>
       </c>
       <c r="G617" s="2">
         <v>27</v>
       </c>
       <c r="H617" s="7">
-        <f t="shared" si="218"/>
-        <v>1</v>
-      </c>
-      <c r="I617" s="7">
-        <f t="shared" si="219"/>
-        <v>1</v>
+        <f t="shared" si="213"/>
+        <v>1</v>
+      </c>
+      <c r="I617" s="6">
+        <f t="shared" si="209"/>
+        <v>8.9700996677740868E-2</v>
       </c>
     </row>
     <row r="618" spans="1:9" x14ac:dyDescent="0.3">
@@ -18948,27 +18957,27 @@
         <v>1626</v>
       </c>
       <c r="D618" s="6">
-        <f t="shared" si="215"/>
+        <f t="shared" si="210"/>
         <v>9.0278163344622728E-2</v>
       </c>
       <c r="E618" s="7">
-        <f t="shared" si="216"/>
+        <f t="shared" si="211"/>
         <v>38</v>
       </c>
       <c r="F618" s="6">
-        <f t="shared" si="217"/>
+        <f t="shared" si="212"/>
         <v>6.0995184590690206E-2</v>
       </c>
       <c r="G618" s="2">
         <v>63</v>
       </c>
       <c r="H618" s="7">
-        <f t="shared" si="218"/>
-        <v>0</v>
-      </c>
-      <c r="I618" s="7">
-        <f t="shared" si="219"/>
-        <v>0</v>
+        <f t="shared" si="213"/>
+        <v>0</v>
+      </c>
+      <c r="I618" s="6">
+        <f t="shared" si="209"/>
+        <v>0.20930232558139536</v>
       </c>
     </row>
     <row r="619" spans="1:9" x14ac:dyDescent="0.3">
@@ -18982,27 +18991,27 @@
         <v>786</v>
       </c>
       <c r="D619" s="6">
-        <f t="shared" si="215"/>
+        <f t="shared" si="210"/>
         <v>4.3639997779134972E-2</v>
       </c>
       <c r="E619" s="7">
-        <f t="shared" si="216"/>
+        <f t="shared" si="211"/>
         <v>12</v>
       </c>
       <c r="F619" s="6">
-        <f t="shared" si="217"/>
+        <f t="shared" si="212"/>
         <v>1.9261637239165328E-2</v>
       </c>
       <c r="G619" s="2">
         <v>87</v>
       </c>
       <c r="H619" s="7">
-        <f t="shared" si="218"/>
-        <v>0</v>
-      </c>
-      <c r="I619" s="7">
-        <f t="shared" si="219"/>
-        <v>0</v>
+        <f t="shared" si="213"/>
+        <v>0</v>
+      </c>
+      <c r="I619" s="6">
+        <f t="shared" si="209"/>
+        <v>0.28903654485049834</v>
       </c>
     </row>
     <row r="620" spans="1:9" x14ac:dyDescent="0.3">
@@ -19016,27 +19025,27 @@
         <v>491</v>
       </c>
       <c r="D620" s="6">
-        <f t="shared" si="215"/>
+        <f t="shared" si="210"/>
         <v>2.7261118205541057E-2</v>
       </c>
       <c r="E620" s="7">
-        <f t="shared" si="216"/>
+        <f t="shared" si="211"/>
         <v>9</v>
       </c>
       <c r="F620" s="6">
-        <f t="shared" si="217"/>
+        <f t="shared" si="212"/>
         <v>1.4446227929373997E-2</v>
       </c>
       <c r="G620" s="2">
         <v>104</v>
       </c>
       <c r="H620" s="7">
-        <f t="shared" si="218"/>
+        <f t="shared" si="213"/>
         <v>2</v>
       </c>
-      <c r="I620" s="7">
-        <f t="shared" si="219"/>
-        <v>2</v>
+      <c r="I620" s="6">
+        <f t="shared" si="209"/>
+        <v>0.34551495016611294</v>
       </c>
     </row>
     <row r="621" spans="1:9" x14ac:dyDescent="0.3">
@@ -19050,26 +19059,26 @@
         <v>496</v>
       </c>
       <c r="D621" s="6">
-        <f t="shared" si="215"/>
+        <f t="shared" si="210"/>
         <v>2.7538726333907058E-2</v>
       </c>
       <c r="E621" s="7">
-        <f t="shared" si="216"/>
+        <f t="shared" si="211"/>
         <v>-2</v>
       </c>
       <c r="F621" s="6">
-        <f t="shared" si="217"/>
+        <f t="shared" si="212"/>
         <v>-3.2102728731942215E-3</v>
       </c>
       <c r="G621" s="2">
         <v>0</v>
       </c>
       <c r="H621" s="7">
-        <f t="shared" si="218"/>
-        <v>0</v>
-      </c>
-      <c r="I621" s="7">
-        <f t="shared" si="219"/>
+        <f t="shared" si="213"/>
+        <v>0</v>
+      </c>
+      <c r="I621" s="6">
+        <f t="shared" si="209"/>
         <v>0</v>
       </c>
     </row>
@@ -19084,27 +19093,27 @@
         <v>501</v>
       </c>
       <c r="D622" s="6">
-        <f t="shared" ref="D622:D631" si="220">C622/SUMIF(A:A,A622,C:C)</f>
+        <f t="shared" ref="D622:D631" si="214">C622/SUMIF(A:A,A622,C:C)</f>
         <v>2.7260855370551746E-2</v>
       </c>
       <c r="E622" s="7">
-        <f t="shared" ref="E622:E631" si="221">C622-SUMIFS(C:C,A:A,A622-1,B:B,B622)</f>
+        <f t="shared" ref="E622:E631" si="215">C622-SUMIFS(C:C,A:A,A622-1,B:B,B622)</f>
         <v>28</v>
       </c>
       <c r="F622" s="6">
-        <f t="shared" ref="F622:F631" si="222">E622/SUMIF(A:A,A622,E:E)</f>
+        <f t="shared" ref="F622:F631" si="216">E622/SUMIF(A:A,A622,E:E)</f>
         <v>7.6294277929155316E-2</v>
       </c>
       <c r="G622" s="2">
         <v>1</v>
       </c>
       <c r="H622" s="7">
-        <f t="shared" ref="H622:H631" si="223">G622-SUMIFS(G:G,A:A,A622-1,B:B,B622)</f>
-        <v>0</v>
-      </c>
-      <c r="I622" s="7">
-        <f t="shared" ref="I622:I631" si="224">H622-SUMIFS(H:H,B:B,B622-1,C:C,C622)</f>
-        <v>0</v>
+        <f t="shared" ref="H622:H631" si="217">G622-SUMIFS(G:G,A:A,A622-1,B:B,B622)</f>
+        <v>0</v>
+      </c>
+      <c r="I622" s="6">
+        <f t="shared" si="209"/>
+        <v>3.2786885245901639E-3</v>
       </c>
     </row>
     <row r="623" spans="1:9" x14ac:dyDescent="0.3">
@@ -19118,27 +19127,27 @@
         <v>1279</v>
       </c>
       <c r="D623" s="6">
-        <f t="shared" si="220"/>
+        <f t="shared" si="214"/>
         <v>6.9594079878115139E-2</v>
       </c>
       <c r="E623" s="7">
-        <f t="shared" si="221"/>
+        <f t="shared" si="215"/>
         <v>48</v>
       </c>
       <c r="F623" s="6">
-        <f t="shared" si="222"/>
+        <f t="shared" si="216"/>
         <v>0.13079019073569481</v>
       </c>
       <c r="G623" s="2">
         <v>1</v>
       </c>
       <c r="H623" s="7">
-        <f t="shared" si="223"/>
-        <v>0</v>
-      </c>
-      <c r="I623" s="7">
-        <f t="shared" si="224"/>
-        <v>0</v>
+        <f t="shared" si="217"/>
+        <v>0</v>
+      </c>
+      <c r="I623" s="6">
+        <f t="shared" si="209"/>
+        <v>3.2786885245901639E-3</v>
       </c>
     </row>
     <row r="624" spans="1:9" x14ac:dyDescent="0.3">
@@ -19152,27 +19161,27 @@
         <v>3651</v>
       </c>
       <c r="D624" s="6">
-        <f t="shared" si="220"/>
+        <f t="shared" si="214"/>
         <v>0.19866144302970942</v>
       </c>
       <c r="E624" s="7">
-        <f t="shared" si="221"/>
+        <f t="shared" si="215"/>
         <v>95</v>
       </c>
       <c r="F624" s="6">
-        <f t="shared" si="222"/>
+        <f t="shared" si="216"/>
         <v>0.25885558583106266</v>
       </c>
       <c r="G624" s="2">
         <v>1</v>
       </c>
       <c r="H624" s="7">
-        <f t="shared" si="223"/>
-        <v>0</v>
-      </c>
-      <c r="I624" s="7">
-        <f t="shared" si="224"/>
-        <v>0</v>
+        <f t="shared" si="217"/>
+        <v>0</v>
+      </c>
+      <c r="I624" s="6">
+        <f t="shared" si="209"/>
+        <v>3.2786885245901639E-3</v>
       </c>
     </row>
     <row r="625" spans="1:9" x14ac:dyDescent="0.3">
@@ -19186,27 +19195,27 @@
         <v>3572</v>
       </c>
       <c r="D625" s="6">
-        <f t="shared" si="220"/>
+        <f t="shared" si="214"/>
         <v>0.19436282511698771</v>
       </c>
       <c r="E625" s="7">
-        <f t="shared" si="221"/>
+        <f t="shared" si="215"/>
         <v>66</v>
       </c>
       <c r="F625" s="6">
-        <f t="shared" si="222"/>
+        <f t="shared" si="216"/>
         <v>0.17983651226158037</v>
       </c>
       <c r="G625" s="2">
         <v>3</v>
       </c>
       <c r="H625" s="7">
-        <f t="shared" si="223"/>
-        <v>0</v>
-      </c>
-      <c r="I625" s="7">
-        <f t="shared" si="224"/>
-        <v>0</v>
+        <f t="shared" si="217"/>
+        <v>0</v>
+      </c>
+      <c r="I625" s="6">
+        <f t="shared" si="209"/>
+        <v>9.8360655737704927E-3</v>
       </c>
     </row>
     <row r="626" spans="1:9" x14ac:dyDescent="0.3">
@@ -19220,27 +19229,27 @@
         <v>3191</v>
       </c>
       <c r="D626" s="6">
-        <f t="shared" si="220"/>
+        <f t="shared" si="214"/>
         <v>0.1736315159429753</v>
       </c>
       <c r="E626" s="7">
-        <f t="shared" si="221"/>
+        <f t="shared" si="215"/>
         <v>58</v>
       </c>
       <c r="F626" s="6">
-        <f t="shared" si="222"/>
+        <f t="shared" si="216"/>
         <v>0.15803814713896458</v>
       </c>
       <c r="G626" s="2">
         <v>14</v>
       </c>
       <c r="H626" s="7">
-        <f t="shared" si="223"/>
-        <v>0</v>
-      </c>
-      <c r="I626" s="7">
-        <f t="shared" si="224"/>
-        <v>0</v>
+        <f t="shared" si="217"/>
+        <v>0</v>
+      </c>
+      <c r="I626" s="6">
+        <f t="shared" si="209"/>
+        <v>4.5901639344262293E-2</v>
       </c>
     </row>
     <row r="627" spans="1:9" x14ac:dyDescent="0.3">
@@ -19254,27 +19263,27 @@
         <v>2745</v>
       </c>
       <c r="D627" s="6">
-        <f t="shared" si="220"/>
+        <f t="shared" si="214"/>
         <v>0.1493633692458374</v>
       </c>
       <c r="E627" s="7">
-        <f t="shared" si="221"/>
+        <f t="shared" si="215"/>
         <v>32</v>
       </c>
       <c r="F627" s="6">
-        <f t="shared" si="222"/>
+        <f t="shared" si="216"/>
         <v>8.7193460490463212E-2</v>
       </c>
       <c r="G627" s="2">
         <v>28</v>
       </c>
       <c r="H627" s="7">
-        <f t="shared" si="223"/>
-        <v>1</v>
-      </c>
-      <c r="I627" s="7">
-        <f t="shared" si="224"/>
-        <v>1</v>
+        <f t="shared" si="217"/>
+        <v>1</v>
+      </c>
+      <c r="I627" s="6">
+        <f t="shared" si="209"/>
+        <v>9.1803278688524587E-2</v>
       </c>
     </row>
     <row r="628" spans="1:9" x14ac:dyDescent="0.3">
@@ -19288,27 +19297,27 @@
         <v>1658</v>
       </c>
       <c r="D628" s="6">
-        <f t="shared" si="220"/>
+        <f t="shared" si="214"/>
         <v>9.0216563282185219E-2</v>
       </c>
       <c r="E628" s="7">
-        <f t="shared" si="221"/>
+        <f t="shared" si="215"/>
         <v>32</v>
       </c>
       <c r="F628" s="6">
-        <f t="shared" si="222"/>
+        <f t="shared" si="216"/>
         <v>8.7193460490463212E-2</v>
       </c>
       <c r="G628" s="2">
         <v>63</v>
       </c>
       <c r="H628" s="7">
-        <f t="shared" si="223"/>
-        <v>0</v>
-      </c>
-      <c r="I628" s="7">
-        <f t="shared" si="224"/>
-        <v>0</v>
+        <f t="shared" si="217"/>
+        <v>0</v>
+      </c>
+      <c r="I628" s="6">
+        <f t="shared" si="209"/>
+        <v>0.20655737704918034</v>
       </c>
     </row>
     <row r="629" spans="1:9" x14ac:dyDescent="0.3">
@@ -19322,27 +19331,27 @@
         <v>793</v>
       </c>
       <c r="D629" s="6">
-        <f t="shared" si="220"/>
+        <f t="shared" si="214"/>
         <v>4.3149417782130807E-2</v>
       </c>
       <c r="E629" s="7">
-        <f t="shared" si="221"/>
+        <f t="shared" si="215"/>
         <v>7</v>
       </c>
       <c r="F629" s="6">
-        <f t="shared" si="222"/>
+        <f t="shared" si="216"/>
         <v>1.9073569482288829E-2</v>
       </c>
       <c r="G629" s="2">
         <v>89</v>
       </c>
       <c r="H629" s="7">
-        <f t="shared" si="223"/>
+        <f t="shared" si="217"/>
         <v>2</v>
       </c>
-      <c r="I629" s="7">
-        <f t="shared" si="224"/>
-        <v>2</v>
+      <c r="I629" s="6">
+        <f t="shared" si="209"/>
+        <v>0.29180327868852457</v>
       </c>
     </row>
     <row r="630" spans="1:9" x14ac:dyDescent="0.3">
@@ -19356,27 +19365,27 @@
         <v>495</v>
       </c>
       <c r="D630" s="6">
-        <f t="shared" si="220"/>
+        <f t="shared" si="214"/>
         <v>2.6934378060724781E-2</v>
       </c>
       <c r="E630" s="7">
-        <f t="shared" si="221"/>
+        <f t="shared" si="215"/>
         <v>4</v>
       </c>
       <c r="F630" s="6">
-        <f t="shared" si="222"/>
+        <f t="shared" si="216"/>
         <v>1.0899182561307902E-2</v>
       </c>
       <c r="G630" s="2">
         <v>105</v>
       </c>
       <c r="H630" s="7">
-        <f t="shared" si="223"/>
-        <v>1</v>
-      </c>
-      <c r="I630" s="7">
-        <f t="shared" si="224"/>
-        <v>1</v>
+        <f t="shared" si="217"/>
+        <v>1</v>
+      </c>
+      <c r="I630" s="6">
+        <f t="shared" si="209"/>
+        <v>0.34426229508196721</v>
       </c>
     </row>
     <row r="631" spans="1:9" x14ac:dyDescent="0.3">
@@ -19390,26 +19399,26 @@
         <v>493</v>
       </c>
       <c r="D631" s="6">
-        <f t="shared" si="220"/>
+        <f t="shared" si="214"/>
         <v>2.6825552290782456E-2</v>
       </c>
       <c r="E631" s="7">
-        <f t="shared" si="221"/>
+        <f t="shared" si="215"/>
         <v>-3</v>
       </c>
       <c r="F631" s="6">
-        <f t="shared" si="222"/>
+        <f t="shared" si="216"/>
         <v>-8.1743869209809257E-3</v>
       </c>
       <c r="G631" s="2">
         <v>0</v>
       </c>
       <c r="H631" s="7">
-        <f t="shared" si="223"/>
-        <v>0</v>
-      </c>
-      <c r="I631" s="7">
-        <f t="shared" si="224"/>
+        <f t="shared" si="217"/>
+        <v>0</v>
+      </c>
+      <c r="I631" s="6">
+        <f t="shared" si="209"/>
         <v>0</v>
       </c>
     </row>
@@ -19424,27 +19433,27 @@
         <v>509</v>
       </c>
       <c r="D632" s="6">
-        <f t="shared" ref="D632:D641" si="225">C632/SUMIF(A:A,A632,C:C)</f>
+        <f t="shared" ref="D632:D641" si="218">C632/SUMIF(A:A,A632,C:C)</f>
         <v>2.746600474854306E-2</v>
       </c>
       <c r="E632" s="7">
-        <f t="shared" ref="E632:E641" si="226">C632-SUMIFS(C:C,A:A,A632-1,B:B,B632)</f>
+        <f t="shared" ref="E632:E641" si="219">C632-SUMIFS(C:C,A:A,A632-1,B:B,B632)</f>
         <v>8</v>
       </c>
       <c r="F632" s="6">
-        <f t="shared" ref="F632:F641" si="227">E632/SUMIF(A:A,A632,E:E)</f>
+        <f t="shared" ref="F632:F641" si="220">E632/SUMIF(A:A,A632,E:E)</f>
         <v>5.1948051948051951E-2</v>
       </c>
       <c r="G632" s="2">
         <v>1</v>
       </c>
       <c r="H632" s="7">
-        <f t="shared" ref="H632:H641" si="228">G632-SUMIFS(G:G,A:A,A632-1,B:B,B632)</f>
-        <v>0</v>
-      </c>
-      <c r="I632" s="7">
-        <f t="shared" ref="I632:I641" si="229">H632-SUMIFS(H:H,B:B,B632-1,C:C,C632)</f>
-        <v>0</v>
+        <f t="shared" ref="H632:H641" si="221">G632-SUMIFS(G:G,A:A,A632-1,B:B,B632)</f>
+        <v>0</v>
+      </c>
+      <c r="I632" s="6">
+        <f t="shared" si="209"/>
+        <v>3.2362459546925568E-3</v>
       </c>
     </row>
     <row r="633" spans="1:9" x14ac:dyDescent="0.3">
@@ -19458,27 +19467,27 @@
         <v>1299</v>
       </c>
       <c r="D633" s="6">
-        <f t="shared" si="225"/>
+        <f t="shared" si="218"/>
         <v>7.0094970861213038E-2</v>
       </c>
       <c r="E633" s="7">
-        <f t="shared" si="226"/>
+        <f t="shared" si="219"/>
         <v>20</v>
       </c>
       <c r="F633" s="6">
-        <f t="shared" si="227"/>
+        <f t="shared" si="220"/>
         <v>0.12987012987012986</v>
       </c>
       <c r="G633" s="2">
         <v>1</v>
       </c>
       <c r="H633" s="7">
-        <f t="shared" si="228"/>
-        <v>0</v>
-      </c>
-      <c r="I633" s="7">
-        <f t="shared" si="229"/>
-        <v>0</v>
+        <f t="shared" si="221"/>
+        <v>0</v>
+      </c>
+      <c r="I633" s="6">
+        <f t="shared" si="209"/>
+        <v>3.2362459546925568E-3</v>
       </c>
     </row>
     <row r="634" spans="1:9" x14ac:dyDescent="0.3">
@@ -19492,27 +19501,27 @@
         <v>3690</v>
       </c>
       <c r="D634" s="6">
-        <f t="shared" si="225"/>
+        <f t="shared" si="218"/>
         <v>0.19911504424778761</v>
       </c>
       <c r="E634" s="7">
-        <f t="shared" si="226"/>
+        <f t="shared" si="219"/>
         <v>39</v>
       </c>
       <c r="F634" s="6">
-        <f t="shared" si="227"/>
+        <f t="shared" si="220"/>
         <v>0.25324675324675322</v>
       </c>
       <c r="G634" s="2">
         <v>1</v>
       </c>
       <c r="H634" s="7">
-        <f t="shared" si="228"/>
-        <v>0</v>
-      </c>
-      <c r="I634" s="7">
-        <f t="shared" si="229"/>
-        <v>0</v>
+        <f t="shared" si="221"/>
+        <v>0</v>
+      </c>
+      <c r="I634" s="6">
+        <f t="shared" si="209"/>
+        <v>3.2362459546925568E-3</v>
       </c>
     </row>
     <row r="635" spans="1:9" x14ac:dyDescent="0.3">
@@ -19526,27 +19535,27 @@
         <v>3612</v>
       </c>
       <c r="D635" s="6">
-        <f t="shared" si="225"/>
+        <f t="shared" si="218"/>
         <v>0.19490610835311892</v>
       </c>
       <c r="E635" s="7">
-        <f t="shared" si="226"/>
+        <f t="shared" si="219"/>
         <v>40</v>
       </c>
       <c r="F635" s="6">
-        <f t="shared" si="227"/>
+        <f t="shared" si="220"/>
         <v>0.25974025974025972</v>
       </c>
       <c r="G635" s="2">
         <v>3</v>
       </c>
       <c r="H635" s="7">
-        <f t="shared" si="228"/>
-        <v>0</v>
-      </c>
-      <c r="I635" s="7">
-        <f t="shared" si="229"/>
-        <v>0</v>
+        <f t="shared" si="221"/>
+        <v>0</v>
+      </c>
+      <c r="I635" s="6">
+        <f t="shared" si="209"/>
+        <v>9.7087378640776691E-3</v>
       </c>
     </row>
     <row r="636" spans="1:9" x14ac:dyDescent="0.3">
@@ -19560,27 +19569,27 @@
         <v>3212</v>
       </c>
       <c r="D636" s="6">
-        <f t="shared" si="225"/>
+        <f t="shared" si="218"/>
         <v>0.17332182171379235</v>
       </c>
       <c r="E636" s="7">
-        <f t="shared" si="226"/>
+        <f t="shared" si="219"/>
         <v>21</v>
       </c>
       <c r="F636" s="6">
-        <f t="shared" si="227"/>
+        <f t="shared" si="220"/>
         <v>0.13636363636363635</v>
       </c>
       <c r="G636" s="2">
         <v>14</v>
       </c>
       <c r="H636" s="7">
-        <f t="shared" si="228"/>
-        <v>0</v>
-      </c>
-      <c r="I636" s="7">
-        <f t="shared" si="229"/>
-        <v>0</v>
+        <f t="shared" si="221"/>
+        <v>0</v>
+      </c>
+      <c r="I636" s="6">
+        <f t="shared" si="209"/>
+        <v>4.5307443365695796E-2</v>
       </c>
     </row>
     <row r="637" spans="1:9" x14ac:dyDescent="0.3">
@@ -19594,27 +19603,27 @@
         <v>2753</v>
       </c>
       <c r="D637" s="6">
-        <f t="shared" si="225"/>
+        <f t="shared" si="218"/>
         <v>0.14855385279516511</v>
       </c>
       <c r="E637" s="7">
-        <f t="shared" si="226"/>
+        <f t="shared" si="219"/>
         <v>8</v>
       </c>
       <c r="F637" s="6">
-        <f t="shared" si="227"/>
+        <f t="shared" si="220"/>
         <v>5.1948051948051951E-2</v>
       </c>
       <c r="G637" s="2">
         <v>27</v>
       </c>
       <c r="H637" s="7">
-        <f t="shared" si="228"/>
+        <f t="shared" si="221"/>
         <v>-1</v>
       </c>
-      <c r="I637" s="7">
-        <f t="shared" si="229"/>
-        <v>-1</v>
+      <c r="I637" s="6">
+        <f t="shared" si="209"/>
+        <v>8.7378640776699032E-2</v>
       </c>
     </row>
     <row r="638" spans="1:9" x14ac:dyDescent="0.3">
@@ -19628,27 +19637,27 @@
         <v>1666</v>
       </c>
       <c r="D638" s="6">
-        <f t="shared" si="225"/>
+        <f t="shared" si="218"/>
         <v>8.989855385279516E-2</v>
       </c>
       <c r="E638" s="7">
-        <f t="shared" si="226"/>
+        <f t="shared" si="219"/>
         <v>8</v>
       </c>
       <c r="F638" s="6">
-        <f t="shared" si="227"/>
+        <f t="shared" si="220"/>
         <v>5.1948051948051951E-2</v>
       </c>
       <c r="G638" s="2">
         <v>66</v>
       </c>
       <c r="H638" s="7">
-        <f t="shared" si="228"/>
+        <f t="shared" si="221"/>
         <v>3</v>
       </c>
-      <c r="I638" s="7">
-        <f t="shared" si="229"/>
-        <v>3</v>
+      <c r="I638" s="6">
+        <f t="shared" si="209"/>
+        <v>0.21359223300970873</v>
       </c>
     </row>
     <row r="639" spans="1:9" x14ac:dyDescent="0.3">
@@ -19662,27 +19671,27 @@
         <v>800</v>
       </c>
       <c r="D639" s="6">
-        <f t="shared" si="225"/>
+        <f t="shared" si="218"/>
         <v>4.3168573278653144E-2</v>
       </c>
       <c r="E639" s="7">
-        <f t="shared" si="226"/>
+        <f t="shared" si="219"/>
         <v>7</v>
       </c>
       <c r="F639" s="6">
-        <f t="shared" si="227"/>
+        <f t="shared" si="220"/>
         <v>4.5454545454545456E-2</v>
       </c>
       <c r="G639" s="2">
         <v>89</v>
       </c>
       <c r="H639" s="7">
-        <f t="shared" si="228"/>
-        <v>0</v>
-      </c>
-      <c r="I639" s="7">
-        <f t="shared" si="229"/>
-        <v>0</v>
+        <f t="shared" si="221"/>
+        <v>0</v>
+      </c>
+      <c r="I639" s="6">
+        <f t="shared" si="209"/>
+        <v>0.28802588996763756</v>
       </c>
     </row>
     <row r="640" spans="1:9" x14ac:dyDescent="0.3">
@@ -19696,27 +19705,27 @@
         <v>497</v>
       </c>
       <c r="D640" s="6">
-        <f t="shared" si="225"/>
+        <f t="shared" si="218"/>
         <v>2.6818476149363262E-2</v>
       </c>
       <c r="E640" s="7">
-        <f t="shared" si="226"/>
+        <f t="shared" si="219"/>
         <v>2</v>
       </c>
       <c r="F640" s="6">
-        <f t="shared" si="227"/>
+        <f t="shared" si="220"/>
         <v>1.2987012987012988E-2</v>
       </c>
       <c r="G640" s="2">
         <v>107</v>
       </c>
       <c r="H640" s="7">
-        <f t="shared" si="228"/>
+        <f t="shared" si="221"/>
         <v>2</v>
       </c>
-      <c r="I640" s="7">
-        <f t="shared" si="229"/>
-        <v>2</v>
+      <c r="I640" s="6">
+        <f t="shared" si="209"/>
+        <v>0.34627831715210355</v>
       </c>
     </row>
     <row r="641" spans="1:9" x14ac:dyDescent="0.3">
@@ -19730,26 +19739,26 @@
         <v>494</v>
       </c>
       <c r="D641" s="6">
-        <f t="shared" si="225"/>
+        <f t="shared" si="218"/>
         <v>2.6656593999568313E-2</v>
       </c>
       <c r="E641" s="7">
-        <f t="shared" si="226"/>
+        <f t="shared" si="219"/>
         <v>1</v>
       </c>
       <c r="F641" s="6">
-        <f t="shared" si="227"/>
+        <f t="shared" si="220"/>
         <v>6.4935064935064939E-3</v>
       </c>
       <c r="G641" s="2">
         <v>0</v>
       </c>
       <c r="H641" s="7">
-        <f t="shared" si="228"/>
-        <v>0</v>
-      </c>
-      <c r="I641" s="7">
-        <f t="shared" si="229"/>
+        <f t="shared" si="221"/>
+        <v>0</v>
+      </c>
+      <c r="I641" s="6">
+        <f t="shared" si="209"/>
         <v>0</v>
       </c>
     </row>
@@ -19764,27 +19773,27 @@
         <v>533</v>
       </c>
       <c r="D642" s="6">
-        <f t="shared" ref="D642:D651" si="230">C642/SUMIF(A:A,A642,C:C)</f>
+        <f t="shared" ref="D642:D651" si="222">C642/SUMIF(A:A,A642,C:C)</f>
         <v>2.8110331733558355E-2</v>
       </c>
       <c r="E642" s="7">
-        <f t="shared" ref="E642:E651" si="231">C642-SUMIFS(C:C,A:A,A642-1,B:B,B642)</f>
+        <f t="shared" ref="E642:E651" si="223">C642-SUMIFS(C:C,A:A,A642-1,B:B,B642)</f>
         <v>24</v>
       </c>
       <c r="F642" s="6">
-        <f t="shared" ref="F642:F651" si="232">E642/SUMIF(A:A,A642,E:E)</f>
+        <f t="shared" ref="F642:F651" si="224">E642/SUMIF(A:A,A642,E:E)</f>
         <v>5.5944055944055944E-2</v>
       </c>
       <c r="G642">
         <v>1</v>
       </c>
       <c r="H642" s="7">
-        <f t="shared" ref="H642:H651" si="233">G642-SUMIFS(G:G,A:A,A642-1,B:B,B642)</f>
-        <v>0</v>
-      </c>
-      <c r="I642" s="7">
-        <f t="shared" ref="I642:I651" si="234">H642-SUMIFS(H:H,B:B,B642-1,C:C,C642)</f>
-        <v>0</v>
+        <f t="shared" ref="H642:H651" si="225">G642-SUMIFS(G:G,A:A,A642-1,B:B,B642)</f>
+        <v>0</v>
+      </c>
+      <c r="I642" s="6">
+        <f t="shared" si="209"/>
+        <v>3.1948881789137379E-3</v>
       </c>
     </row>
     <row r="643" spans="1:9" x14ac:dyDescent="0.3">
@@ -19798,27 +19807,27 @@
         <v>1337</v>
       </c>
       <c r="D643" s="6">
-        <f t="shared" si="230"/>
+        <f t="shared" si="222"/>
         <v>7.0513158588682026E-2</v>
       </c>
       <c r="E643" s="7">
-        <f t="shared" si="231"/>
+        <f t="shared" si="223"/>
         <v>38</v>
       </c>
       <c r="F643" s="6">
-        <f t="shared" si="232"/>
+        <f t="shared" si="224"/>
         <v>8.8578088578088576E-2</v>
       </c>
       <c r="G643">
         <v>1</v>
       </c>
       <c r="H643" s="7">
-        <f t="shared" si="233"/>
-        <v>0</v>
-      </c>
-      <c r="I643" s="7">
-        <f t="shared" si="234"/>
-        <v>0</v>
+        <f t="shared" si="225"/>
+        <v>0</v>
+      </c>
+      <c r="I643" s="6">
+        <f t="shared" si="209"/>
+        <v>3.1948881789137379E-3</v>
       </c>
     </row>
     <row r="644" spans="1:9" x14ac:dyDescent="0.3">
@@ -19832,27 +19841,27 @@
         <v>3829</v>
       </c>
       <c r="D644" s="6">
-        <f t="shared" si="230"/>
+        <f t="shared" si="222"/>
         <v>0.20194082590580664</v>
       </c>
       <c r="E644" s="7">
-        <f t="shared" si="231"/>
+        <f t="shared" si="223"/>
         <v>139</v>
       </c>
       <c r="F644" s="6">
-        <f t="shared" si="232"/>
+        <f t="shared" si="224"/>
         <v>0.32400932400932403</v>
       </c>
       <c r="G644">
         <v>1</v>
       </c>
       <c r="H644" s="7">
-        <f t="shared" si="233"/>
-        <v>0</v>
-      </c>
-      <c r="I644" s="7">
-        <f t="shared" si="234"/>
-        <v>0</v>
+        <f t="shared" si="225"/>
+        <v>0</v>
+      </c>
+      <c r="I644" s="6">
+        <f t="shared" si="209"/>
+        <v>3.1948881789137379E-3</v>
       </c>
     </row>
     <row r="645" spans="1:9" x14ac:dyDescent="0.3">
@@ -19866,27 +19875,27 @@
         <v>3708</v>
       </c>
       <c r="D645" s="6">
-        <f t="shared" si="230"/>
+        <f t="shared" si="222"/>
         <v>0.19555930594377935</v>
       </c>
       <c r="E645" s="7">
-        <f t="shared" si="231"/>
+        <f t="shared" si="223"/>
         <v>96</v>
       </c>
       <c r="F645" s="6">
-        <f t="shared" si="232"/>
+        <f t="shared" si="224"/>
         <v>0.22377622377622378</v>
       </c>
       <c r="G645">
         <v>3</v>
       </c>
       <c r="H645" s="7">
-        <f t="shared" si="233"/>
-        <v>0</v>
-      </c>
-      <c r="I645" s="7">
-        <f t="shared" si="234"/>
-        <v>0</v>
+        <f t="shared" si="225"/>
+        <v>0</v>
+      </c>
+      <c r="I645" s="6">
+        <f t="shared" si="209"/>
+        <v>9.5846645367412137E-3</v>
       </c>
     </row>
     <row r="646" spans="1:9" x14ac:dyDescent="0.3">
@@ -19900,27 +19909,27 @@
         <v>3274</v>
       </c>
       <c r="D646" s="6">
-        <f t="shared" si="230"/>
+        <f t="shared" si="222"/>
         <v>0.17267021781551606</v>
       </c>
       <c r="E646" s="7">
-        <f t="shared" si="231"/>
+        <f t="shared" si="223"/>
         <v>62</v>
       </c>
       <c r="F646" s="6">
-        <f t="shared" si="232"/>
+        <f t="shared" si="224"/>
         <v>0.14452214452214451</v>
       </c>
       <c r="G646">
         <v>14</v>
       </c>
       <c r="H646" s="7">
-        <f t="shared" si="233"/>
-        <v>0</v>
-      </c>
-      <c r="I646" s="7">
-        <f t="shared" si="234"/>
-        <v>0</v>
+        <f t="shared" si="225"/>
+        <v>0</v>
+      </c>
+      <c r="I646" s="6">
+        <f t="shared" si="209"/>
+        <v>4.472843450479233E-2</v>
       </c>
     </row>
     <row r="647" spans="1:9" x14ac:dyDescent="0.3">
@@ -19934,27 +19943,27 @@
         <v>2785</v>
       </c>
       <c r="D647" s="6">
-        <f t="shared" si="230"/>
+        <f t="shared" si="222"/>
         <v>0.14688043879542217</v>
       </c>
       <c r="E647" s="7">
-        <f t="shared" si="231"/>
+        <f t="shared" si="223"/>
         <v>32</v>
       </c>
       <c r="F647" s="6">
-        <f t="shared" si="232"/>
+        <f t="shared" si="224"/>
         <v>7.4592074592074592E-2</v>
       </c>
       <c r="G647">
         <v>28</v>
       </c>
       <c r="H647" s="7">
-        <f t="shared" si="233"/>
-        <v>1</v>
-      </c>
-      <c r="I647" s="7">
-        <f t="shared" si="234"/>
-        <v>1</v>
+        <f t="shared" si="225"/>
+        <v>1</v>
+      </c>
+      <c r="I647" s="6">
+        <f t="shared" si="209"/>
+        <v>8.9456869009584661E-2</v>
       </c>
     </row>
     <row r="648" spans="1:9" x14ac:dyDescent="0.3">
@@ -19968,27 +19977,27 @@
         <v>1685</v>
       </c>
       <c r="D648" s="6">
-        <f t="shared" si="230"/>
+        <f t="shared" si="222"/>
         <v>8.8866620958810191E-2</v>
       </c>
       <c r="E648" s="7">
-        <f t="shared" si="231"/>
+        <f t="shared" si="223"/>
         <v>19</v>
       </c>
       <c r="F648" s="6">
-        <f t="shared" si="232"/>
+        <f t="shared" si="224"/>
         <v>4.4289044289044288E-2</v>
       </c>
       <c r="G648">
         <v>66</v>
       </c>
       <c r="H648" s="7">
-        <f t="shared" si="233"/>
-        <v>0</v>
-      </c>
-      <c r="I648" s="7">
-        <f t="shared" si="234"/>
-        <v>0</v>
+        <f t="shared" si="225"/>
+        <v>0</v>
+      </c>
+      <c r="I648" s="6">
+        <f t="shared" si="209"/>
+        <v>0.2108626198083067</v>
       </c>
     </row>
     <row r="649" spans="1:9" x14ac:dyDescent="0.3">
@@ -20002,27 +20011,27 @@
         <v>811</v>
       </c>
       <c r="D649" s="6">
-        <f t="shared" si="230"/>
+        <f t="shared" si="222"/>
         <v>4.2772005695902116E-2</v>
       </c>
       <c r="E649" s="7">
-        <f t="shared" si="231"/>
+        <f t="shared" si="223"/>
         <v>11</v>
       </c>
       <c r="F649" s="6">
-        <f t="shared" si="232"/>
+        <f t="shared" si="224"/>
         <v>2.564102564102564E-2</v>
       </c>
       <c r="G649">
         <v>91</v>
       </c>
       <c r="H649" s="7">
-        <f t="shared" si="233"/>
+        <f t="shared" si="225"/>
         <v>2</v>
       </c>
-      <c r="I649" s="7">
-        <f t="shared" si="234"/>
-        <v>2</v>
+      <c r="I649" s="6">
+        <f t="shared" si="209"/>
+        <v>0.29073482428115016</v>
       </c>
     </row>
     <row r="650" spans="1:9" x14ac:dyDescent="0.3">
@@ -20036,27 +20045,27 @@
         <v>522</v>
       </c>
       <c r="D650" s="6">
-        <f t="shared" si="230"/>
+        <f t="shared" si="222"/>
         <v>2.7530193555192237E-2</v>
       </c>
       <c r="E650" s="7">
-        <f t="shared" si="231"/>
+        <f t="shared" si="223"/>
         <v>25</v>
       </c>
       <c r="F650" s="6">
-        <f t="shared" si="232"/>
+        <f t="shared" si="224"/>
         <v>5.8275058275058272E-2</v>
       </c>
       <c r="G650">
         <v>108</v>
       </c>
       <c r="H650" s="7">
-        <f t="shared" si="233"/>
-        <v>1</v>
-      </c>
-      <c r="I650" s="7">
-        <f t="shared" si="234"/>
-        <v>1</v>
+        <f t="shared" si="225"/>
+        <v>1</v>
+      </c>
+      <c r="I650" s="6">
+        <f t="shared" si="209"/>
+        <v>0.34504792332268369</v>
       </c>
     </row>
     <row r="651" spans="1:9" x14ac:dyDescent="0.3">
@@ -20070,26 +20079,1046 @@
         <v>477</v>
       </c>
       <c r="D651" s="6">
+        <f t="shared" si="222"/>
+        <v>2.5156901007330836E-2</v>
+      </c>
+      <c r="E651" s="7">
+        <f t="shared" si="223"/>
+        <v>-17</v>
+      </c>
+      <c r="F651" s="6">
+        <f t="shared" si="224"/>
+        <v>-3.9627039627039624E-2</v>
+      </c>
+      <c r="G651">
+        <v>0</v>
+      </c>
+      <c r="H651" s="7">
+        <f t="shared" si="225"/>
+        <v>0</v>
+      </c>
+      <c r="I651" s="6">
+        <f t="shared" si="209"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="652" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A652" s="1">
+        <v>43973</v>
+      </c>
+      <c r="B652" t="s">
+        <v>0</v>
+      </c>
+      <c r="C652" s="2">
+        <v>557</v>
+      </c>
+      <c r="D652" s="6">
+        <f t="shared" ref="D652:D661" si="226">C652/SUMIF(A:A,A652,C:C)</f>
+        <v>2.8720222749303907E-2</v>
+      </c>
+      <c r="E652" s="7">
+        <f t="shared" ref="E652:E661" si="227">C652-SUMIFS(C:C,A:A,A652-1,B:B,B652)</f>
+        <v>24</v>
+      </c>
+      <c r="F652" s="6">
+        <f t="shared" ref="F652:F661" si="228">E652/SUMIF(A:A,A652,E:E)</f>
+        <v>5.5427251732101619E-2</v>
+      </c>
+      <c r="G652" s="2">
+        <v>1</v>
+      </c>
+      <c r="H652" s="7">
+        <f t="shared" ref="H652:H661" si="229">G652-SUMIFS(G:G,A:A,A652-1,B:B,B652)</f>
+        <v>0</v>
+      </c>
+      <c r="I652" s="6">
+        <f t="shared" si="209"/>
+        <v>3.1746031746031746E-3</v>
+      </c>
+    </row>
+    <row r="653" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A653" s="1">
+        <v>43973</v>
+      </c>
+      <c r="B653" t="s">
+        <v>1</v>
+      </c>
+      <c r="C653" s="2">
+        <v>1388</v>
+      </c>
+      <c r="D653" s="6">
+        <f t="shared" si="226"/>
+        <v>7.1568526348355158E-2</v>
+      </c>
+      <c r="E653" s="7">
+        <f t="shared" si="227"/>
+        <v>51</v>
+      </c>
+      <c r="F653" s="6">
+        <f t="shared" si="228"/>
+        <v>0.11778290993071594</v>
+      </c>
+      <c r="G653" s="2">
+        <v>1</v>
+      </c>
+      <c r="H653" s="7">
+        <f t="shared" si="229"/>
+        <v>0</v>
+      </c>
+      <c r="I653" s="6">
+        <f t="shared" si="209"/>
+        <v>3.1746031746031746E-3</v>
+      </c>
+    </row>
+    <row r="654" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A654" s="1">
+        <v>43973</v>
+      </c>
+      <c r="B654" t="s">
+        <v>2</v>
+      </c>
+      <c r="C654" s="2">
+        <v>3914</v>
+      </c>
+      <c r="D654" s="6">
+        <f t="shared" si="226"/>
+        <v>0.20181499432814273</v>
+      </c>
+      <c r="E654" s="7">
+        <f t="shared" si="227"/>
+        <v>85</v>
+      </c>
+      <c r="F654" s="6">
+        <f t="shared" si="228"/>
+        <v>0.19630484988452657</v>
+      </c>
+      <c r="G654" s="2">
+        <v>1</v>
+      </c>
+      <c r="H654" s="7">
+        <f t="shared" si="229"/>
+        <v>0</v>
+      </c>
+      <c r="I654" s="6">
+        <f t="shared" si="209"/>
+        <v>3.1746031746031746E-3</v>
+      </c>
+    </row>
+    <row r="655" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A655" s="1">
+        <v>43973</v>
+      </c>
+      <c r="B655" t="s">
+        <v>3</v>
+      </c>
+      <c r="C655" s="2">
+        <v>3804</v>
+      </c>
+      <c r="D655" s="6">
+        <f t="shared" si="226"/>
+        <v>0.1961431370526967</v>
+      </c>
+      <c r="E655" s="7">
+        <f t="shared" si="227"/>
+        <v>96</v>
+      </c>
+      <c r="F655" s="6">
+        <f t="shared" si="228"/>
+        <v>0.22170900692840648</v>
+      </c>
+      <c r="G655" s="2">
+        <v>3</v>
+      </c>
+      <c r="H655" s="7">
+        <f t="shared" si="229"/>
+        <v>0</v>
+      </c>
+      <c r="I655" s="6">
+        <f t="shared" si="209"/>
+        <v>9.5238095238095247E-3</v>
+      </c>
+    </row>
+    <row r="656" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A656" s="1">
+        <v>43973</v>
+      </c>
+      <c r="B656" t="s">
+        <v>4</v>
+      </c>
+      <c r="C656" s="2">
+        <v>3337</v>
+      </c>
+      <c r="D656" s="6">
+        <f t="shared" si="226"/>
+        <v>0.17206352480148498</v>
+      </c>
+      <c r="E656" s="7">
+        <f t="shared" si="227"/>
+        <v>63</v>
+      </c>
+      <c r="F656" s="6">
+        <f t="shared" si="228"/>
+        <v>0.14549653579676675</v>
+      </c>
+      <c r="G656" s="2">
+        <v>14</v>
+      </c>
+      <c r="H656" s="7">
+        <f t="shared" si="229"/>
+        <v>0</v>
+      </c>
+      <c r="I656" s="6">
+        <f t="shared" si="209"/>
+        <v>4.4444444444444446E-2</v>
+      </c>
+    </row>
+    <row r="657" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A657" s="1">
+        <v>43973</v>
+      </c>
+      <c r="B657" t="s">
+        <v>5</v>
+      </c>
+      <c r="C657" s="2">
+        <v>2853</v>
+      </c>
+      <c r="D657" s="6">
+        <f t="shared" si="226"/>
+        <v>0.14710735278952253</v>
+      </c>
+      <c r="E657" s="7">
+        <f t="shared" si="227"/>
+        <v>68</v>
+      </c>
+      <c r="F657" s="6">
+        <f t="shared" si="228"/>
+        <v>0.15704387990762125</v>
+      </c>
+      <c r="G657" s="2">
+        <v>28</v>
+      </c>
+      <c r="H657" s="7">
+        <f t="shared" si="229"/>
+        <v>0</v>
+      </c>
+      <c r="I657" s="6">
+        <f t="shared" si="209"/>
+        <v>8.8888888888888892E-2</v>
+      </c>
+    </row>
+    <row r="658" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A658" s="1">
+        <v>43973</v>
+      </c>
+      <c r="B658" t="s">
+        <v>6</v>
+      </c>
+      <c r="C658" s="2">
+        <v>1709</v>
+      </c>
+      <c r="D658" s="6">
+        <f t="shared" si="226"/>
+        <v>8.812003712488399E-2</v>
+      </c>
+      <c r="E658" s="7">
+        <f t="shared" si="227"/>
+        <v>24</v>
+      </c>
+      <c r="F658" s="6">
+        <f t="shared" si="228"/>
+        <v>5.5427251732101619E-2</v>
+      </c>
+      <c r="G658" s="2">
+        <v>66</v>
+      </c>
+      <c r="H658" s="7">
+        <f t="shared" si="229"/>
+        <v>0</v>
+      </c>
+      <c r="I658" s="6">
+        <f t="shared" si="209"/>
+        <v>0.20952380952380953</v>
+      </c>
+    </row>
+    <row r="659" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A659" s="1">
+        <v>43973</v>
+      </c>
+      <c r="B659" t="s">
+        <v>7</v>
+      </c>
+      <c r="C659" s="2">
+        <v>829</v>
+      </c>
+      <c r="D659" s="6">
+        <f t="shared" si="226"/>
+        <v>4.2745178921315873E-2</v>
+      </c>
+      <c r="E659" s="7">
+        <f t="shared" si="227"/>
+        <v>18</v>
+      </c>
+      <c r="F659" s="6">
+        <f t="shared" si="228"/>
+        <v>4.1570438799076209E-2</v>
+      </c>
+      <c r="G659" s="2">
+        <v>92</v>
+      </c>
+      <c r="H659" s="7">
+        <f t="shared" si="229"/>
+        <v>1</v>
+      </c>
+      <c r="I659" s="6">
+        <f t="shared" si="209"/>
+        <v>0.29206349206349208</v>
+      </c>
+    </row>
+    <row r="660" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A660" s="1">
+        <v>43973</v>
+      </c>
+      <c r="B660" t="s">
+        <v>25</v>
+      </c>
+      <c r="C660" s="2">
+        <v>542</v>
+      </c>
+      <c r="D660" s="6">
+        <f t="shared" si="226"/>
+        <v>2.7946787666288542E-2</v>
+      </c>
+      <c r="E660" s="7">
+        <f t="shared" si="227"/>
+        <v>20</v>
+      </c>
+      <c r="F660" s="6">
+        <f t="shared" si="228"/>
+        <v>4.6189376443418015E-2</v>
+      </c>
+      <c r="G660" s="2">
+        <v>109</v>
+      </c>
+      <c r="H660" s="7">
+        <f t="shared" si="229"/>
+        <v>1</v>
+      </c>
+      <c r="I660" s="6">
+        <f t="shared" si="209"/>
+        <v>0.34603174603174602</v>
+      </c>
+    </row>
+    <row r="661" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A661" s="1">
+        <v>43973</v>
+      </c>
+      <c r="B661" t="s">
+        <v>21</v>
+      </c>
+      <c r="C661" s="2">
+        <v>461</v>
+      </c>
+      <c r="D661" s="6">
+        <f t="shared" si="226"/>
+        <v>2.3770238218005568E-2</v>
+      </c>
+      <c r="E661" s="7">
+        <f t="shared" si="227"/>
+        <v>-16</v>
+      </c>
+      <c r="F661" s="6">
+        <f t="shared" si="228"/>
+        <v>-3.695150115473441E-2</v>
+      </c>
+      <c r="G661" s="2">
+        <v>0</v>
+      </c>
+      <c r="H661" s="7">
+        <f t="shared" si="229"/>
+        <v>0</v>
+      </c>
+      <c r="I661" s="6">
+        <f t="shared" si="209"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="662" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A662" s="1">
+        <v>43974</v>
+      </c>
+      <c r="B662" t="s">
+        <v>0</v>
+      </c>
+      <c r="C662" s="2">
+        <v>588</v>
+      </c>
+      <c r="D662" s="6">
+        <f t="shared" ref="D662:D671" si="230">C662/SUMIF(A:A,A662,C:C)</f>
+        <v>2.9713477184294304E-2</v>
+      </c>
+      <c r="E662" s="7">
+        <f t="shared" ref="E662:E671" si="231">C662-SUMIFS(C:C,A:A,A662-1,B:B,B662)</f>
+        <v>31</v>
+      </c>
+      <c r="F662" s="6">
+        <f t="shared" ref="F662:F671" si="232">E662/SUMIF(A:A,A662,E:E)</f>
+        <v>7.848101265822785E-2</v>
+      </c>
+      <c r="G662" s="2">
+        <v>1</v>
+      </c>
+      <c r="H662" s="7">
+        <f t="shared" ref="H662:H671" si="233">G662-SUMIFS(G:G,A:A,A662-1,B:B,B662)</f>
+        <v>0</v>
+      </c>
+      <c r="I662" s="6">
+        <f t="shared" ref="I662:I671" si="234">G662/SUMIF(A:A,A662,G:G)</f>
+        <v>3.0395136778115501E-3</v>
+      </c>
+    </row>
+    <row r="663" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A663" s="1">
+        <v>43974</v>
+      </c>
+      <c r="B663" t="s">
+        <v>1</v>
+      </c>
+      <c r="C663" s="2">
+        <v>1430</v>
+      </c>
+      <c r="D663" s="6">
         <f t="shared" si="230"/>
-        <v>2.5156901007330836E-2</v>
-      </c>
-      <c r="E651" s="7">
+        <v>7.2262367982212333E-2</v>
+      </c>
+      <c r="E663" s="7">
         <f t="shared" si="231"/>
-        <v>-17</v>
-      </c>
-      <c r="F651" s="6">
+        <v>42</v>
+      </c>
+      <c r="F663" s="6">
         <f t="shared" si="232"/>
-        <v>-3.9627039627039624E-2</v>
-      </c>
-      <c r="G651">
-        <v>0</v>
-      </c>
-      <c r="H651" s="7">
+        <v>0.10632911392405063</v>
+      </c>
+      <c r="G663" s="2">
+        <v>1</v>
+      </c>
+      <c r="H663" s="7">
         <f t="shared" si="233"/>
         <v>0</v>
       </c>
-      <c r="I651" s="7">
+      <c r="I663" s="6">
         <f t="shared" si="234"/>
+        <v>3.0395136778115501E-3</v>
+      </c>
+    </row>
+    <row r="664" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A664" s="1">
+        <v>43974</v>
+      </c>
+      <c r="B664" t="s">
+        <v>2</v>
+      </c>
+      <c r="C664" s="2">
+        <v>3996</v>
+      </c>
+      <c r="D664" s="6">
+        <f t="shared" si="230"/>
+        <v>0.20193036535448985</v>
+      </c>
+      <c r="E664" s="7">
+        <f t="shared" si="231"/>
+        <v>82</v>
+      </c>
+      <c r="F664" s="6">
+        <f t="shared" si="232"/>
+        <v>0.20759493670886076</v>
+      </c>
+      <c r="G664" s="2">
+        <v>1</v>
+      </c>
+      <c r="H664" s="7">
+        <f t="shared" si="233"/>
+        <v>0</v>
+      </c>
+      <c r="I664" s="6">
+        <f t="shared" si="234"/>
+        <v>3.0395136778115501E-3</v>
+      </c>
+    </row>
+    <row r="665" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A665" s="1">
+        <v>43974</v>
+      </c>
+      <c r="B665" t="s">
+        <v>3</v>
+      </c>
+      <c r="C665" s="2">
+        <v>3892</v>
+      </c>
+      <c r="D665" s="6">
+        <f t="shared" si="230"/>
+        <v>0.19667492041032897</v>
+      </c>
+      <c r="E665" s="7">
+        <f t="shared" si="231"/>
+        <v>88</v>
+      </c>
+      <c r="F665" s="6">
+        <f t="shared" si="232"/>
+        <v>0.22278481012658227</v>
+      </c>
+      <c r="G665" s="2">
+        <v>3</v>
+      </c>
+      <c r="H665" s="7">
+        <f t="shared" si="233"/>
+        <v>0</v>
+      </c>
+      <c r="I665" s="6">
+        <f t="shared" si="234"/>
+        <v>9.11854103343465E-3</v>
+      </c>
+    </row>
+    <row r="666" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A666" s="1">
+        <v>43974</v>
+      </c>
+      <c r="B666" t="s">
+        <v>4</v>
+      </c>
+      <c r="C666" s="2">
+        <v>3408</v>
+      </c>
+      <c r="D666" s="6">
+        <f t="shared" si="230"/>
+        <v>0.17221688817019556</v>
+      </c>
+      <c r="E666" s="7">
+        <f t="shared" si="231"/>
+        <v>71</v>
+      </c>
+      <c r="F666" s="6">
+        <f t="shared" si="232"/>
+        <v>0.17974683544303796</v>
+      </c>
+      <c r="G666" s="2">
+        <v>15</v>
+      </c>
+      <c r="H666" s="7">
+        <f t="shared" si="233"/>
+        <v>1</v>
+      </c>
+      <c r="I666" s="6">
+        <f t="shared" si="234"/>
+        <v>4.5592705167173252E-2</v>
+      </c>
+    </row>
+    <row r="667" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A667" s="1">
+        <v>43974</v>
+      </c>
+      <c r="B667" t="s">
+        <v>5</v>
+      </c>
+      <c r="C667" s="2">
+        <v>2885</v>
+      </c>
+      <c r="D667" s="6">
+        <f t="shared" si="230"/>
+        <v>0.14578806407600181</v>
+      </c>
+      <c r="E667" s="7">
+        <f t="shared" si="231"/>
+        <v>32</v>
+      </c>
+      <c r="F667" s="6">
+        <f t="shared" si="232"/>
+        <v>8.1012658227848103E-2</v>
+      </c>
+      <c r="G667" s="2">
+        <v>30</v>
+      </c>
+      <c r="H667" s="7">
+        <f t="shared" si="233"/>
+        <v>2</v>
+      </c>
+      <c r="I667" s="6">
+        <f t="shared" si="234"/>
+        <v>9.1185410334346503E-2</v>
+      </c>
+    </row>
+    <row r="668" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A668" s="1">
+        <v>43974</v>
+      </c>
+      <c r="B668" t="s">
+        <v>6</v>
+      </c>
+      <c r="C668" s="2">
+        <v>1737</v>
+      </c>
+      <c r="D668" s="6">
+        <f t="shared" si="230"/>
+        <v>8.77760371923796E-2</v>
+      </c>
+      <c r="E668" s="7">
+        <f t="shared" si="231"/>
+        <v>28</v>
+      </c>
+      <c r="F668" s="6">
+        <f t="shared" si="232"/>
+        <v>7.0886075949367092E-2</v>
+      </c>
+      <c r="G668" s="2">
+        <v>68</v>
+      </c>
+      <c r="H668" s="7">
+        <f t="shared" si="233"/>
+        <v>2</v>
+      </c>
+      <c r="I668" s="6">
+        <f t="shared" si="234"/>
+        <v>0.20668693009118541</v>
+      </c>
+    </row>
+    <row r="669" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A669" s="1">
+        <v>43974</v>
+      </c>
+      <c r="B669" t="s">
+        <v>7</v>
+      </c>
+      <c r="C669" s="2">
+        <v>842</v>
+      </c>
+      <c r="D669" s="6">
+        <f t="shared" si="230"/>
+        <v>4.2548890797918036E-2</v>
+      </c>
+      <c r="E669" s="7">
+        <f t="shared" si="231"/>
+        <v>13</v>
+      </c>
+      <c r="F669" s="6">
+        <f t="shared" si="232"/>
+        <v>3.2911392405063293E-2</v>
+      </c>
+      <c r="G669" s="2">
+        <v>94</v>
+      </c>
+      <c r="H669" s="7">
+        <f t="shared" si="233"/>
+        <v>2</v>
+      </c>
+      <c r="I669" s="6">
+        <f t="shared" si="234"/>
+        <v>0.2857142857142857</v>
+      </c>
+    </row>
+    <row r="670" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A670" s="1">
+        <v>43974</v>
+      </c>
+      <c r="B670" t="s">
+        <v>25</v>
+      </c>
+      <c r="C670" s="2">
+        <v>550</v>
+      </c>
+      <c r="D670" s="6">
+        <f t="shared" si="230"/>
+        <v>2.7793218454697052E-2</v>
+      </c>
+      <c r="E670" s="7">
+        <f t="shared" si="231"/>
+        <v>8</v>
+      </c>
+      <c r="F670" s="6">
+        <f t="shared" si="232"/>
+        <v>2.0253164556962026E-2</v>
+      </c>
+      <c r="G670" s="2">
+        <v>116</v>
+      </c>
+      <c r="H670" s="7">
+        <f t="shared" si="233"/>
+        <v>7</v>
+      </c>
+      <c r="I670" s="6">
+        <f t="shared" si="234"/>
+        <v>0.35258358662613981</v>
+      </c>
+    </row>
+    <row r="671" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A671" s="1">
+        <v>43974</v>
+      </c>
+      <c r="B671" t="s">
+        <v>21</v>
+      </c>
+      <c r="C671" s="2">
+        <v>461</v>
+      </c>
+      <c r="D671" s="6">
+        <f t="shared" si="230"/>
+        <v>2.3295770377482438E-2</v>
+      </c>
+      <c r="E671" s="7">
+        <f t="shared" si="231"/>
+        <v>0</v>
+      </c>
+      <c r="F671" s="6">
+        <f t="shared" si="232"/>
+        <v>0</v>
+      </c>
+      <c r="G671" s="2">
+        <v>0</v>
+      </c>
+      <c r="H671" s="7">
+        <f t="shared" si="233"/>
+        <v>0</v>
+      </c>
+      <c r="I671" s="6">
+        <f t="shared" si="234"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="672" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A672" s="1">
+        <v>43975</v>
+      </c>
+      <c r="B672" t="s">
+        <v>0</v>
+      </c>
+      <c r="C672">
+        <v>606</v>
+      </c>
+      <c r="D672" s="6">
+        <f t="shared" ref="D672:D681" si="235">C672/SUMIF(A:A,A672,C:C)</f>
+        <v>3.0081906180193598E-2</v>
+      </c>
+      <c r="E672" s="7">
+        <f t="shared" ref="E672:E681" si="236">C672-SUMIFS(C:C,A:A,A672-1,B:B,B672)</f>
+        <v>18</v>
+      </c>
+      <c r="F672" s="6">
+        <f t="shared" ref="F672:F681" si="237">E672/SUMIF(A:A,A672,E:E)</f>
+        <v>5.0561797752808987E-2</v>
+      </c>
+      <c r="G672" s="2">
+        <v>1</v>
+      </c>
+      <c r="H672" s="7">
+        <f t="shared" ref="H672:H681" si="238">G672-SUMIFS(G:G,A:A,A672-1,B:B,B672)</f>
+        <v>0</v>
+      </c>
+      <c r="I672" s="6">
+        <f t="shared" ref="I672:I681" si="239">G672/SUMIF(A:A,A672,G:G)</f>
+        <v>2.976190476190476E-3</v>
+      </c>
+    </row>
+    <row r="673" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A673" s="1">
+        <v>43975</v>
+      </c>
+      <c r="B673" t="s">
+        <v>1</v>
+      </c>
+      <c r="C673">
+        <v>1474</v>
+      </c>
+      <c r="D673" s="6">
+        <f t="shared" si="235"/>
+        <v>7.3169520972946142E-2</v>
+      </c>
+      <c r="E673" s="7">
+        <f t="shared" si="236"/>
+        <v>44</v>
+      </c>
+      <c r="F673" s="6">
+        <f t="shared" si="237"/>
+        <v>0.12359550561797752</v>
+      </c>
+      <c r="G673" s="2">
+        <v>1</v>
+      </c>
+      <c r="H673" s="7">
+        <f t="shared" si="238"/>
+        <v>0</v>
+      </c>
+      <c r="I673" s="6">
+        <f t="shared" si="239"/>
+        <v>2.976190476190476E-3</v>
+      </c>
+    </row>
+    <row r="674" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A674" s="1">
+        <v>43975</v>
+      </c>
+      <c r="B674" t="s">
+        <v>2</v>
+      </c>
+      <c r="C674">
+        <v>4073</v>
+      </c>
+      <c r="D674" s="6">
+        <f t="shared" si="235"/>
+        <v>0.20218416480516258</v>
+      </c>
+      <c r="E674" s="7">
+        <f t="shared" si="236"/>
+        <v>77</v>
+      </c>
+      <c r="F674" s="6">
+        <f t="shared" si="237"/>
+        <v>0.21629213483146068</v>
+      </c>
+      <c r="G674" s="2">
+        <v>1</v>
+      </c>
+      <c r="H674" s="7">
+        <f t="shared" si="238"/>
+        <v>0</v>
+      </c>
+      <c r="I674" s="6">
+        <f t="shared" si="239"/>
+        <v>2.976190476190476E-3</v>
+      </c>
+    </row>
+    <row r="675" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A675" s="1">
+        <v>43975</v>
+      </c>
+      <c r="B675" t="s">
+        <v>3</v>
+      </c>
+      <c r="C675">
+        <v>3971</v>
+      </c>
+      <c r="D675" s="6">
+        <f t="shared" si="235"/>
+        <v>0.19712087366592207</v>
+      </c>
+      <c r="E675" s="7">
+        <f t="shared" si="236"/>
+        <v>79</v>
+      </c>
+      <c r="F675" s="6">
+        <f t="shared" si="237"/>
+        <v>0.22191011235955055</v>
+      </c>
+      <c r="G675" s="2">
+        <v>3</v>
+      </c>
+      <c r="H675" s="7">
+        <f t="shared" si="238"/>
+        <v>0</v>
+      </c>
+      <c r="I675" s="6">
+        <f t="shared" si="239"/>
+        <v>8.9285714285714281E-3</v>
+      </c>
+    </row>
+    <row r="676" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A676" s="1">
+        <v>43975</v>
+      </c>
+      <c r="B676" t="s">
+        <v>4</v>
+      </c>
+      <c r="C676">
+        <v>3479</v>
+      </c>
+      <c r="D676" s="6">
+        <f t="shared" si="235"/>
+        <v>0.17269793993546786</v>
+      </c>
+      <c r="E676" s="7">
+        <f t="shared" si="236"/>
+        <v>71</v>
+      </c>
+      <c r="F676" s="6">
+        <f t="shared" si="237"/>
+        <v>0.199438202247191</v>
+      </c>
+      <c r="G676" s="2">
+        <v>16</v>
+      </c>
+      <c r="H676" s="7">
+        <f t="shared" si="238"/>
+        <v>1</v>
+      </c>
+      <c r="I676" s="6">
+        <f t="shared" si="239"/>
+        <v>4.7619047619047616E-2</v>
+      </c>
+    </row>
+    <row r="677" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A677" s="1">
+        <v>43975</v>
+      </c>
+      <c r="B677" t="s">
+        <v>5</v>
+      </c>
+      <c r="C677">
+        <v>2918</v>
+      </c>
+      <c r="D677" s="6">
+        <f t="shared" si="235"/>
+        <v>0.14484983866964507</v>
+      </c>
+      <c r="E677" s="7">
+        <f t="shared" si="236"/>
+        <v>33</v>
+      </c>
+      <c r="F677" s="6">
+        <f t="shared" si="237"/>
+        <v>9.269662921348315E-2</v>
+      </c>
+      <c r="G677" s="2">
+        <v>30</v>
+      </c>
+      <c r="H677" s="7">
+        <f t="shared" si="238"/>
+        <v>0</v>
+      </c>
+      <c r="I677" s="6">
+        <f t="shared" si="239"/>
+        <v>8.9285714285714288E-2</v>
+      </c>
+    </row>
+    <row r="678" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A678" s="1">
+        <v>43975</v>
+      </c>
+      <c r="B678" t="s">
+        <v>6</v>
+      </c>
+      <c r="C678">
+        <v>1752</v>
+      </c>
+      <c r="D678" s="6">
+        <f t="shared" si="235"/>
+        <v>8.6969471332836931E-2</v>
+      </c>
+      <c r="E678" s="7">
+        <f t="shared" si="236"/>
+        <v>15</v>
+      </c>
+      <c r="F678" s="6">
+        <f t="shared" si="237"/>
+        <v>4.2134831460674156E-2</v>
+      </c>
+      <c r="G678" s="2">
+        <v>71</v>
+      </c>
+      <c r="H678" s="7">
+        <f t="shared" si="238"/>
+        <v>3</v>
+      </c>
+      <c r="I678" s="6">
+        <f t="shared" si="239"/>
+        <v>0.21130952380952381</v>
+      </c>
+    </row>
+    <row r="679" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A679" s="1">
+        <v>43975</v>
+      </c>
+      <c r="B679" t="s">
+        <v>7</v>
+      </c>
+      <c r="C679">
+        <v>852</v>
+      </c>
+      <c r="D679" s="6">
+        <f t="shared" si="235"/>
+        <v>4.2293373045420697E-2</v>
+      </c>
+      <c r="E679" s="7">
+        <f t="shared" si="236"/>
+        <v>10</v>
+      </c>
+      <c r="F679" s="6">
+        <f t="shared" si="237"/>
+        <v>2.8089887640449437E-2</v>
+      </c>
+      <c r="G679" s="2">
+        <v>96</v>
+      </c>
+      <c r="H679" s="7">
+        <f t="shared" si="238"/>
+        <v>2</v>
+      </c>
+      <c r="I679" s="6">
+        <f t="shared" si="239"/>
+        <v>0.2857142857142857</v>
+      </c>
+    </row>
+    <row r="680" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A680" s="1">
+        <v>43975</v>
+      </c>
+      <c r="B680" t="s">
+        <v>25</v>
+      </c>
+      <c r="C680">
+        <v>564</v>
+      </c>
+      <c r="D680" s="6">
+        <f t="shared" si="235"/>
+        <v>2.7997021593447507E-2</v>
+      </c>
+      <c r="E680" s="7">
+        <f t="shared" si="236"/>
+        <v>14</v>
+      </c>
+      <c r="F680" s="6">
+        <f t="shared" si="237"/>
+        <v>3.9325842696629212E-2</v>
+      </c>
+      <c r="G680" s="2">
+        <v>117</v>
+      </c>
+      <c r="H680" s="7">
+        <f t="shared" si="238"/>
+        <v>1</v>
+      </c>
+      <c r="I680" s="6">
+        <f t="shared" si="239"/>
+        <v>0.3482142857142857</v>
+      </c>
+    </row>
+    <row r="681" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A681" s="1">
+        <v>43975</v>
+      </c>
+      <c r="B681" t="s">
+        <v>21</v>
+      </c>
+      <c r="C681">
+        <v>456</v>
+      </c>
+      <c r="D681" s="6">
+        <f t="shared" si="235"/>
+        <v>2.2635889798957559E-2</v>
+      </c>
+      <c r="E681" s="7">
+        <f t="shared" si="236"/>
+        <v>-5</v>
+      </c>
+      <c r="F681" s="6">
+        <f t="shared" si="237"/>
+        <v>-1.4044943820224719E-2</v>
+      </c>
+      <c r="G681" s="2">
+        <v>0</v>
+      </c>
+      <c r="H681" s="7">
+        <f t="shared" si="238"/>
+        <v>0</v>
+      </c>
+      <c r="I681" s="6">
+        <f t="shared" si="239"/>
         <v>0</v>
       </c>
     </row>

--- a/TN_Age.xlsx
+++ b/TN_Age.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="26">
   <si>
     <t>0-10</t>
   </si>
@@ -440,11 +440,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I681"/>
+  <dimension ref="A1:I711"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A654" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
+      <pane ySplit="1" topLeftCell="A691" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A711" sqref="A711"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -21122,6 +21122,1026 @@
         <v>0</v>
       </c>
     </row>
+    <row r="682" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A682" s="1">
+        <v>43976</v>
+      </c>
+      <c r="B682" t="s">
+        <v>0</v>
+      </c>
+      <c r="C682" s="2">
+        <v>635</v>
+      </c>
+      <c r="D682" s="6">
+        <f t="shared" ref="D682:D691" si="240">C682/SUMIF(A:A,A682,C:C)</f>
+        <v>3.0814771679526374E-2</v>
+      </c>
+      <c r="E682" s="7">
+        <f t="shared" ref="E682:E691" si="241">C682-SUMIFS(C:C,A:A,A682-1,B:B,B682)</f>
+        <v>29</v>
+      </c>
+      <c r="F682" s="6">
+        <f t="shared" ref="F682:F691" si="242">E682/SUMIF(A:A,A682,E:E)</f>
+        <v>6.2770562770562768E-2</v>
+      </c>
+      <c r="G682" s="2">
+        <v>1</v>
+      </c>
+      <c r="H682" s="7">
+        <f t="shared" ref="H682:H691" si="243">G682-SUMIFS(G:G,A:A,A682-1,B:B,B682)</f>
+        <v>0</v>
+      </c>
+      <c r="I682" s="6">
+        <f t="shared" ref="I682:I691" si="244">G682/SUMIF(A:A,A682,G:G)</f>
+        <v>2.9585798816568047E-3</v>
+      </c>
+    </row>
+    <row r="683" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A683" s="1">
+        <v>43976</v>
+      </c>
+      <c r="B683" t="s">
+        <v>1</v>
+      </c>
+      <c r="C683" s="2">
+        <v>1534</v>
+      </c>
+      <c r="D683" s="6">
+        <f t="shared" si="240"/>
+        <v>7.4440724025816474E-2</v>
+      </c>
+      <c r="E683" s="7">
+        <f t="shared" si="241"/>
+        <v>60</v>
+      </c>
+      <c r="F683" s="6">
+        <f t="shared" si="242"/>
+        <v>0.12987012987012986</v>
+      </c>
+      <c r="G683" s="2">
+        <v>1</v>
+      </c>
+      <c r="H683" s="7">
+        <f t="shared" si="243"/>
+        <v>0</v>
+      </c>
+      <c r="I683" s="6">
+        <f t="shared" si="244"/>
+        <v>2.9585798816568047E-3</v>
+      </c>
+    </row>
+    <row r="684" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A684" s="1">
+        <v>43976</v>
+      </c>
+      <c r="B684" t="s">
+        <v>2</v>
+      </c>
+      <c r="C684" s="2">
+        <v>4174</v>
+      </c>
+      <c r="D684" s="6">
+        <f t="shared" si="240"/>
+        <v>0.20255253069345369</v>
+      </c>
+      <c r="E684" s="7">
+        <f t="shared" si="241"/>
+        <v>101</v>
+      </c>
+      <c r="F684" s="6">
+        <f t="shared" si="242"/>
+        <v>0.21861471861471862</v>
+      </c>
+      <c r="G684" s="2">
+        <v>1</v>
+      </c>
+      <c r="H684" s="7">
+        <f t="shared" si="243"/>
+        <v>0</v>
+      </c>
+      <c r="I684" s="6">
+        <f t="shared" si="244"/>
+        <v>2.9585798816568047E-3</v>
+      </c>
+    </row>
+    <row r="685" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A685" s="1">
+        <v>43976</v>
+      </c>
+      <c r="B685" t="s">
+        <v>3</v>
+      </c>
+      <c r="C685" s="2">
+        <v>4098</v>
+      </c>
+      <c r="D685" s="6">
+        <f t="shared" si="240"/>
+        <v>0.19886446353180959</v>
+      </c>
+      <c r="E685" s="7">
+        <f t="shared" si="241"/>
+        <v>127</v>
+      </c>
+      <c r="F685" s="6">
+        <f t="shared" si="242"/>
+        <v>0.27489177489177491</v>
+      </c>
+      <c r="G685" s="2">
+        <v>3</v>
+      </c>
+      <c r="H685" s="7">
+        <f t="shared" si="243"/>
+        <v>0</v>
+      </c>
+      <c r="I685" s="6">
+        <f t="shared" si="244"/>
+        <v>8.8757396449704144E-3</v>
+      </c>
+    </row>
+    <row r="686" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A686" s="1">
+        <v>43976</v>
+      </c>
+      <c r="B686" t="s">
+        <v>4</v>
+      </c>
+      <c r="C686" s="2">
+        <v>3534</v>
+      </c>
+      <c r="D686" s="6">
+        <f t="shared" si="240"/>
+        <v>0.17149512301645073</v>
+      </c>
+      <c r="E686" s="7">
+        <f t="shared" si="241"/>
+        <v>55</v>
+      </c>
+      <c r="F686" s="6">
+        <f t="shared" si="242"/>
+        <v>0.11904761904761904</v>
+      </c>
+      <c r="G686" s="2">
+        <v>16</v>
+      </c>
+      <c r="H686" s="7">
+        <f t="shared" si="243"/>
+        <v>0</v>
+      </c>
+      <c r="I686" s="6">
+        <f t="shared" si="244"/>
+        <v>4.7337278106508875E-2</v>
+      </c>
+    </row>
+    <row r="687" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A687" s="1">
+        <v>43976</v>
+      </c>
+      <c r="B687" t="s">
+        <v>5</v>
+      </c>
+      <c r="C687" s="2">
+        <v>2980</v>
+      </c>
+      <c r="D687" s="6">
+        <f t="shared" si="240"/>
+        <v>0.14461105449604503</v>
+      </c>
+      <c r="E687" s="7">
+        <f t="shared" si="241"/>
+        <v>62</v>
+      </c>
+      <c r="F687" s="6">
+        <f t="shared" si="242"/>
+        <v>0.13419913419913421</v>
+      </c>
+      <c r="G687" s="2">
+        <v>30</v>
+      </c>
+      <c r="H687" s="7">
+        <f t="shared" si="243"/>
+        <v>0</v>
+      </c>
+      <c r="I687" s="6">
+        <f t="shared" si="244"/>
+        <v>8.8757396449704137E-2</v>
+      </c>
+    </row>
+    <row r="688" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A688" s="1">
+        <v>43976</v>
+      </c>
+      <c r="B688" t="s">
+        <v>6</v>
+      </c>
+      <c r="C688" s="2">
+        <v>1769</v>
+      </c>
+      <c r="D688" s="6">
+        <f t="shared" si="240"/>
+        <v>8.5844615907215996E-2</v>
+      </c>
+      <c r="E688" s="7">
+        <f t="shared" si="241"/>
+        <v>17</v>
+      </c>
+      <c r="F688" s="6">
+        <f t="shared" si="242"/>
+        <v>3.67965367965368E-2</v>
+      </c>
+      <c r="G688" s="2">
+        <v>72</v>
+      </c>
+      <c r="H688" s="7">
+        <f t="shared" si="243"/>
+        <v>1</v>
+      </c>
+      <c r="I688" s="6">
+        <f t="shared" si="244"/>
+        <v>0.21301775147928995</v>
+      </c>
+    </row>
+    <row r="689" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A689" s="1">
+        <v>43976</v>
+      </c>
+      <c r="B689" t="s">
+        <v>7</v>
+      </c>
+      <c r="C689" s="2">
+        <v>858</v>
+      </c>
+      <c r="D689" s="6">
+        <f t="shared" si="240"/>
+        <v>4.163633716698209E-2</v>
+      </c>
+      <c r="E689" s="7">
+        <f t="shared" si="241"/>
+        <v>6</v>
+      </c>
+      <c r="F689" s="6">
+        <f t="shared" si="242"/>
+        <v>1.2987012987012988E-2</v>
+      </c>
+      <c r="G689" s="2">
+        <v>96</v>
+      </c>
+      <c r="H689" s="7">
+        <f t="shared" si="243"/>
+        <v>0</v>
+      </c>
+      <c r="I689" s="6">
+        <f t="shared" si="244"/>
+        <v>0.28402366863905326</v>
+      </c>
+    </row>
+    <row r="690" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A690" s="1">
+        <v>43976</v>
+      </c>
+      <c r="B690" t="s">
+        <v>25</v>
+      </c>
+      <c r="C690" s="2">
+        <v>565</v>
+      </c>
+      <c r="D690" s="6">
+        <f t="shared" si="240"/>
+        <v>2.7417867714854174E-2</v>
+      </c>
+      <c r="E690" s="7">
+        <f t="shared" si="241"/>
+        <v>1</v>
+      </c>
+      <c r="F690" s="6">
+        <f t="shared" si="242"/>
+        <v>2.1645021645021645E-3</v>
+      </c>
+      <c r="G690" s="2">
+        <v>118</v>
+      </c>
+      <c r="H690" s="7">
+        <f t="shared" si="243"/>
+        <v>1</v>
+      </c>
+      <c r="I690" s="6">
+        <f t="shared" si="244"/>
+        <v>0.34911242603550297</v>
+      </c>
+    </row>
+    <row r="691" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A691" s="1">
+        <v>43976</v>
+      </c>
+      <c r="B691" t="s">
+        <v>21</v>
+      </c>
+      <c r="C691" s="2">
+        <v>460</v>
+      </c>
+      <c r="D691" s="6">
+        <f t="shared" si="240"/>
+        <v>2.2322511767845877E-2</v>
+      </c>
+      <c r="E691" s="7">
+        <f t="shared" si="241"/>
+        <v>4</v>
+      </c>
+      <c r="F691" s="6">
+        <f t="shared" si="242"/>
+        <v>8.658008658008658E-3</v>
+      </c>
+      <c r="G691" s="2">
+        <v>0</v>
+      </c>
+      <c r="H691" s="7">
+        <f t="shared" si="243"/>
+        <v>0</v>
+      </c>
+      <c r="I691" s="6">
+        <f t="shared" si="244"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="692" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A692" s="1">
+        <v>43977</v>
+      </c>
+      <c r="B692" t="s">
+        <v>0</v>
+      </c>
+      <c r="C692" s="2">
+        <v>663</v>
+      </c>
+      <c r="D692" s="6">
+        <f t="shared" ref="D692:D701" si="245">C692/SUMIF(A:A,A692,C:C)</f>
+        <v>3.1624135463868351E-2</v>
+      </c>
+      <c r="E692" s="7">
+        <f t="shared" ref="E692:E701" si="246">C692-SUMIFS(C:C,A:A,A692-1,B:B,B692)</f>
+        <v>28</v>
+      </c>
+      <c r="F692" s="6">
+        <f t="shared" ref="F692:F701" si="247">E692/SUMIF(A:A,A692,E:E)</f>
+        <v>7.8212290502793297E-2</v>
+      </c>
+      <c r="G692" s="2">
+        <v>1</v>
+      </c>
+      <c r="H692" s="7">
+        <f t="shared" ref="H692:H701" si="248">G692-SUMIFS(G:G,A:A,A692-1,B:B,B692)</f>
+        <v>0</v>
+      </c>
+      <c r="I692" s="6">
+        <f t="shared" ref="I692:I701" si="249">G692/SUMIF(A:A,A692,G:G)</f>
+        <v>2.9154518950437317E-3</v>
+      </c>
+    </row>
+    <row r="693" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A693" s="1">
+        <v>43977</v>
+      </c>
+      <c r="B693" t="s">
+        <v>1</v>
+      </c>
+      <c r="C693" s="2">
+        <v>1572</v>
+      </c>
+      <c r="D693" s="6">
+        <f t="shared" si="245"/>
+        <v>7.4982113045552107E-2</v>
+      </c>
+      <c r="E693" s="7">
+        <f t="shared" si="246"/>
+        <v>38</v>
+      </c>
+      <c r="F693" s="6">
+        <f t="shared" si="247"/>
+        <v>0.10614525139664804</v>
+      </c>
+      <c r="G693" s="2">
+        <v>1</v>
+      </c>
+      <c r="H693" s="7">
+        <f t="shared" si="248"/>
+        <v>0</v>
+      </c>
+      <c r="I693" s="6">
+        <f t="shared" si="249"/>
+        <v>2.9154518950437317E-3</v>
+      </c>
+    </row>
+    <row r="694" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A694" s="1">
+        <v>43977</v>
+      </c>
+      <c r="B694" t="s">
+        <v>2</v>
+      </c>
+      <c r="C694" s="2">
+        <v>4245</v>
+      </c>
+      <c r="D694" s="6">
+        <f t="shared" si="245"/>
+        <v>0.20248032435010732</v>
+      </c>
+      <c r="E694" s="7">
+        <f t="shared" si="246"/>
+        <v>71</v>
+      </c>
+      <c r="F694" s="6">
+        <f t="shared" si="247"/>
+        <v>0.19832402234636873</v>
+      </c>
+      <c r="G694" s="2">
+        <v>1</v>
+      </c>
+      <c r="H694" s="7">
+        <f t="shared" si="248"/>
+        <v>0</v>
+      </c>
+      <c r="I694" s="6">
+        <f t="shared" si="249"/>
+        <v>2.9154518950437317E-3</v>
+      </c>
+    </row>
+    <row r="695" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A695" s="1">
+        <v>43977</v>
+      </c>
+      <c r="B695" t="s">
+        <v>3</v>
+      </c>
+      <c r="C695" s="2">
+        <v>4183</v>
+      </c>
+      <c r="D695" s="6">
+        <f t="shared" si="245"/>
+        <v>0.19952301454805629</v>
+      </c>
+      <c r="E695" s="7">
+        <f t="shared" si="246"/>
+        <v>85</v>
+      </c>
+      <c r="F695" s="6">
+        <f t="shared" si="247"/>
+        <v>0.23743016759776536</v>
+      </c>
+      <c r="G695" s="2">
+        <v>3</v>
+      </c>
+      <c r="H695" s="7">
+        <f t="shared" si="248"/>
+        <v>0</v>
+      </c>
+      <c r="I695" s="6">
+        <f t="shared" si="249"/>
+        <v>8.7463556851311956E-3</v>
+      </c>
+    </row>
+    <row r="696" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A696" s="1">
+        <v>43977</v>
+      </c>
+      <c r="B696" t="s">
+        <v>4</v>
+      </c>
+      <c r="C696" s="2">
+        <v>3587</v>
+      </c>
+      <c r="D696" s="6">
+        <f t="shared" si="245"/>
+        <v>0.17109468161221084</v>
+      </c>
+      <c r="E696" s="7">
+        <f t="shared" si="246"/>
+        <v>53</v>
+      </c>
+      <c r="F696" s="6">
+        <f t="shared" si="247"/>
+        <v>0.14804469273743018</v>
+      </c>
+      <c r="G696" s="2">
+        <v>16</v>
+      </c>
+      <c r="H696" s="7">
+        <f t="shared" si="248"/>
+        <v>0</v>
+      </c>
+      <c r="I696" s="6">
+        <f t="shared" si="249"/>
+        <v>4.6647230320699708E-2</v>
+      </c>
+    </row>
+    <row r="697" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A697" s="1">
+        <v>43977</v>
+      </c>
+      <c r="B697" t="s">
+        <v>5</v>
+      </c>
+      <c r="C697" s="2">
+        <v>3032</v>
+      </c>
+      <c r="D697" s="6">
+        <f t="shared" si="245"/>
+        <v>0.1446219890293346</v>
+      </c>
+      <c r="E697" s="7">
+        <f t="shared" si="246"/>
+        <v>52</v>
+      </c>
+      <c r="F697" s="6">
+        <f t="shared" si="247"/>
+        <v>0.14525139664804471</v>
+      </c>
+      <c r="G697" s="2">
+        <v>31</v>
+      </c>
+      <c r="H697" s="7">
+        <f t="shared" si="248"/>
+        <v>1</v>
+      </c>
+      <c r="I697" s="6">
+        <f t="shared" si="249"/>
+        <v>9.0379008746355682E-2</v>
+      </c>
+    </row>
+    <row r="698" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A698" s="1">
+        <v>43977</v>
+      </c>
+      <c r="B698" t="s">
+        <v>6</v>
+      </c>
+      <c r="C698" s="2">
+        <v>1790</v>
+      </c>
+      <c r="D698" s="6">
+        <f t="shared" si="245"/>
+        <v>8.5380395897925107E-2</v>
+      </c>
+      <c r="E698" s="7">
+        <f t="shared" si="246"/>
+        <v>21</v>
+      </c>
+      <c r="F698" s="6">
+        <f t="shared" si="247"/>
+        <v>5.8659217877094973E-2</v>
+      </c>
+      <c r="G698" s="2">
+        <v>73</v>
+      </c>
+      <c r="H698" s="7">
+        <f t="shared" si="248"/>
+        <v>1</v>
+      </c>
+      <c r="I698" s="6">
+        <f t="shared" si="249"/>
+        <v>0.21282798833819241</v>
+      </c>
+    </row>
+    <row r="699" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A699" s="1">
+        <v>43977</v>
+      </c>
+      <c r="B699" t="s">
+        <v>7</v>
+      </c>
+      <c r="C699" s="2">
+        <v>867</v>
+      </c>
+      <c r="D699" s="6">
+        <f t="shared" si="245"/>
+        <v>4.1354638683520149E-2</v>
+      </c>
+      <c r="E699" s="7">
+        <f t="shared" si="246"/>
+        <v>9</v>
+      </c>
+      <c r="F699" s="6">
+        <f t="shared" si="247"/>
+        <v>2.5139664804469275E-2</v>
+      </c>
+      <c r="G699" s="2">
+        <v>97</v>
+      </c>
+      <c r="H699" s="7">
+        <f t="shared" si="248"/>
+        <v>1</v>
+      </c>
+      <c r="I699" s="6">
+        <f t="shared" si="249"/>
+        <v>0.28279883381924198</v>
+      </c>
+    </row>
+    <row r="700" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A700" s="1">
+        <v>43977</v>
+      </c>
+      <c r="B700" t="s">
+        <v>25</v>
+      </c>
+      <c r="C700" s="2">
+        <v>570</v>
+      </c>
+      <c r="D700" s="6">
+        <f t="shared" si="245"/>
+        <v>2.7188170760791795E-2</v>
+      </c>
+      <c r="E700" s="7">
+        <f t="shared" si="246"/>
+        <v>5</v>
+      </c>
+      <c r="F700" s="6">
+        <f t="shared" si="247"/>
+        <v>1.3966480446927373E-2</v>
+      </c>
+      <c r="G700" s="2">
+        <v>120</v>
+      </c>
+      <c r="H700" s="7">
+        <f t="shared" si="248"/>
+        <v>2</v>
+      </c>
+      <c r="I700" s="6">
+        <f t="shared" si="249"/>
+        <v>0.3498542274052478</v>
+      </c>
+    </row>
+    <row r="701" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A701" s="1">
+        <v>43977</v>
+      </c>
+      <c r="B701" t="s">
+        <v>21</v>
+      </c>
+      <c r="C701" s="2">
+        <v>456</v>
+      </c>
+      <c r="D701" s="6">
+        <f t="shared" si="245"/>
+        <v>2.1750536608633436E-2</v>
+      </c>
+      <c r="E701" s="7">
+        <f t="shared" si="246"/>
+        <v>-4</v>
+      </c>
+      <c r="F701" s="6">
+        <f t="shared" si="247"/>
+        <v>-1.11731843575419E-2</v>
+      </c>
+      <c r="G701" s="2">
+        <v>0</v>
+      </c>
+      <c r="H701" s="7">
+        <f t="shared" si="248"/>
+        <v>0</v>
+      </c>
+      <c r="I701" s="6">
+        <f t="shared" si="249"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="702" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A702" s="1">
+        <v>43978</v>
+      </c>
+      <c r="B702" t="s">
+        <v>0</v>
+      </c>
+      <c r="C702" s="2">
+        <v>692</v>
+      </c>
+      <c r="D702" s="6">
+        <f t="shared" ref="D702:D711" si="250">C702/SUMIF(A:A,A702,C:C)</f>
+        <v>3.2479113864639066E-2</v>
+      </c>
+      <c r="E702" s="7">
+        <f t="shared" ref="E702:E711" si="251">C702-SUMIFS(C:C,A:A,A702-1,B:B,B702)</f>
+        <v>29</v>
+      </c>
+      <c r="F702" s="6">
+        <f t="shared" ref="F702:F711" si="252">E702/SUMIF(A:A,A702,E:E)</f>
+        <v>8.5043988269794715E-2</v>
+      </c>
+      <c r="G702" s="2">
+        <v>1</v>
+      </c>
+      <c r="H702" s="7">
+        <f t="shared" ref="H702:H711" si="253">G702-SUMIFS(G:G,A:A,A702-1,B:B,B702)</f>
+        <v>0</v>
+      </c>
+      <c r="I702" s="6">
+        <f t="shared" ref="I702:I711" si="254">G702/SUMIF(A:A,A702,G:G)</f>
+        <v>2.8328611898016999E-3</v>
+      </c>
+    </row>
+    <row r="703" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A703" s="1">
+        <v>43978</v>
+      </c>
+      <c r="B703" t="s">
+        <v>1</v>
+      </c>
+      <c r="C703" s="2">
+        <v>1622</v>
+      </c>
+      <c r="D703" s="6">
+        <f t="shared" si="250"/>
+        <v>7.6128790012203129E-2</v>
+      </c>
+      <c r="E703" s="7">
+        <f t="shared" si="251"/>
+        <v>50</v>
+      </c>
+      <c r="F703" s="6">
+        <f t="shared" si="252"/>
+        <v>0.1466275659824047</v>
+      </c>
+      <c r="G703" s="2">
+        <v>1</v>
+      </c>
+      <c r="H703" s="7">
+        <f t="shared" si="253"/>
+        <v>0</v>
+      </c>
+      <c r="I703" s="6">
+        <f t="shared" si="254"/>
+        <v>2.8328611898016999E-3</v>
+      </c>
+    </row>
+    <row r="704" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A704" s="1">
+        <v>43978</v>
+      </c>
+      <c r="B704" t="s">
+        <v>2</v>
+      </c>
+      <c r="C704" s="2">
+        <v>4309</v>
+      </c>
+      <c r="D704" s="6">
+        <f t="shared" si="250"/>
+        <v>0.20224349948371351</v>
+      </c>
+      <c r="E704" s="7">
+        <f t="shared" si="251"/>
+        <v>64</v>
+      </c>
+      <c r="F704" s="6">
+        <f t="shared" si="252"/>
+        <v>0.18768328445747801</v>
+      </c>
+      <c r="G704" s="2">
+        <v>1</v>
+      </c>
+      <c r="H704" s="7">
+        <f t="shared" si="253"/>
+        <v>0</v>
+      </c>
+      <c r="I704" s="6">
+        <f t="shared" si="254"/>
+        <v>2.8328611898016999E-3</v>
+      </c>
+    </row>
+    <row r="705" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A705" s="1">
+        <v>43978</v>
+      </c>
+      <c r="B705" t="s">
+        <v>3</v>
+      </c>
+      <c r="C705" s="2">
+        <v>4247</v>
+      </c>
+      <c r="D705" s="6">
+        <f t="shared" si="250"/>
+        <v>0.19933352107387589</v>
+      </c>
+      <c r="E705" s="7">
+        <f t="shared" si="251"/>
+        <v>64</v>
+      </c>
+      <c r="F705" s="6">
+        <f t="shared" si="252"/>
+        <v>0.18768328445747801</v>
+      </c>
+      <c r="G705" s="2">
+        <v>5</v>
+      </c>
+      <c r="H705" s="7">
+        <f t="shared" si="253"/>
+        <v>2</v>
+      </c>
+      <c r="I705" s="6">
+        <f t="shared" si="254"/>
+        <v>1.4164305949008499E-2</v>
+      </c>
+    </row>
+    <row r="706" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A706" s="1">
+        <v>43978</v>
+      </c>
+      <c r="B706" t="s">
+        <v>4</v>
+      </c>
+      <c r="C706" s="2">
+        <v>3631</v>
+      </c>
+      <c r="D706" s="6">
+        <f t="shared" si="250"/>
+        <v>0.17042147751807002</v>
+      </c>
+      <c r="E706" s="7">
+        <f t="shared" si="251"/>
+        <v>44</v>
+      </c>
+      <c r="F706" s="6">
+        <f t="shared" si="252"/>
+        <v>0.12903225806451613</v>
+      </c>
+      <c r="G706" s="2">
+        <v>16</v>
+      </c>
+      <c r="H706" s="7">
+        <f t="shared" si="253"/>
+        <v>0</v>
+      </c>
+      <c r="I706" s="6">
+        <f t="shared" si="254"/>
+        <v>4.5325779036827198E-2</v>
+      </c>
+    </row>
+    <row r="707" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A707" s="1">
+        <v>43978</v>
+      </c>
+      <c r="B707" t="s">
+        <v>5</v>
+      </c>
+      <c r="C707" s="2">
+        <v>3077</v>
+      </c>
+      <c r="D707" s="6">
+        <f t="shared" si="250"/>
+        <v>0.14441941237210176</v>
+      </c>
+      <c r="E707" s="7">
+        <f t="shared" si="251"/>
+        <v>45</v>
+      </c>
+      <c r="F707" s="6">
+        <f t="shared" si="252"/>
+        <v>0.13196480938416422</v>
+      </c>
+      <c r="G707" s="2">
+        <v>31</v>
+      </c>
+      <c r="H707" s="7">
+        <f t="shared" si="253"/>
+        <v>0</v>
+      </c>
+      <c r="I707" s="6">
+        <f t="shared" si="254"/>
+        <v>8.7818696883852687E-2</v>
+      </c>
+    </row>
+    <row r="708" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A708" s="1">
+        <v>43978</v>
+      </c>
+      <c r="B708" t="s">
+        <v>6</v>
+      </c>
+      <c r="C708" s="2">
+        <v>1812</v>
+      </c>
+      <c r="D708" s="6">
+        <f t="shared" si="250"/>
+        <v>8.504646578428611E-2</v>
+      </c>
+      <c r="E708" s="7">
+        <f t="shared" si="251"/>
+        <v>22</v>
+      </c>
+      <c r="F708" s="6">
+        <f t="shared" si="252"/>
+        <v>6.4516129032258063E-2</v>
+      </c>
+      <c r="G708" s="2">
+        <v>76</v>
+      </c>
+      <c r="H708" s="7">
+        <f t="shared" si="253"/>
+        <v>3</v>
+      </c>
+      <c r="I708" s="6">
+        <f t="shared" si="254"/>
+        <v>0.21529745042492918</v>
+      </c>
+    </row>
+    <row r="709" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A709" s="1">
+        <v>43978</v>
+      </c>
+      <c r="B709" t="s">
+        <v>7</v>
+      </c>
+      <c r="C709" s="2">
+        <v>881</v>
+      </c>
+      <c r="D709" s="6">
+        <f t="shared" si="250"/>
+        <v>4.134985450107951E-2</v>
+      </c>
+      <c r="E709" s="7">
+        <f t="shared" si="251"/>
+        <v>14</v>
+      </c>
+      <c r="F709" s="6">
+        <f t="shared" si="252"/>
+        <v>4.1055718475073312E-2</v>
+      </c>
+      <c r="G709" s="2">
+        <v>100</v>
+      </c>
+      <c r="H709" s="7">
+        <f t="shared" si="253"/>
+        <v>3</v>
+      </c>
+      <c r="I709" s="6">
+        <f t="shared" si="254"/>
+        <v>0.28328611898016998</v>
+      </c>
+    </row>
+    <row r="710" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A710" s="1">
+        <v>43978</v>
+      </c>
+      <c r="B710" t="s">
+        <v>25</v>
+      </c>
+      <c r="C710" s="2">
+        <v>579</v>
+      </c>
+      <c r="D710" s="6">
+        <f t="shared" si="250"/>
+        <v>2.7175443537031822E-2</v>
+      </c>
+      <c r="E710" s="7">
+        <f t="shared" si="251"/>
+        <v>9</v>
+      </c>
+      <c r="F710" s="6">
+        <f t="shared" si="252"/>
+        <v>2.6392961876832845E-2</v>
+      </c>
+      <c r="G710" s="2">
+        <v>122</v>
+      </c>
+      <c r="H710" s="7">
+        <f t="shared" si="253"/>
+        <v>2</v>
+      </c>
+      <c r="I710" s="6">
+        <f t="shared" si="254"/>
+        <v>0.34560906515580736</v>
+      </c>
+    </row>
+    <row r="711" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A711" s="1">
+        <v>43978</v>
+      </c>
+      <c r="B711" t="s">
+        <v>21</v>
+      </c>
+      <c r="C711" s="2">
+        <v>456</v>
+      </c>
+      <c r="D711" s="6">
+        <f t="shared" si="250"/>
+        <v>2.1402421852999155E-2</v>
+      </c>
+      <c r="E711" s="7">
+        <f t="shared" si="251"/>
+        <v>0</v>
+      </c>
+      <c r="F711" s="6">
+        <f t="shared" si="252"/>
+        <v>0</v>
+      </c>
+      <c r="G711" s="2">
+        <v>0</v>
+      </c>
+      <c r="H711" s="7">
+        <f t="shared" si="253"/>
+        <v>0</v>
+      </c>
+      <c r="I711" s="6">
+        <f t="shared" si="254"/>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/TN_Age.xlsx
+++ b/TN_Age.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="26">
   <si>
     <t>0-10</t>
   </si>
@@ -440,11 +440,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I711"/>
+  <dimension ref="A1:I721"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A691" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A711" sqref="A711"/>
+      <pane ySplit="1" topLeftCell="A694" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A721" sqref="A721"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -22142,6 +22142,346 @@
         <v>0</v>
       </c>
     </row>
+    <row r="712" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A712" s="1">
+        <v>43979</v>
+      </c>
+      <c r="B712" t="s">
+        <v>0</v>
+      </c>
+      <c r="C712" s="2">
+        <v>720</v>
+      </c>
+      <c r="D712" s="6">
+        <f t="shared" ref="D712:D721" si="255">C712/SUMIF(A:A,A712,C:C)</f>
+        <v>3.3211864015867891E-2</v>
+      </c>
+      <c r="E712" s="7">
+        <f t="shared" ref="E712:E721" si="256">C712-SUMIFS(C:C,A:A,A712-1,B:B,B712)</f>
+        <v>28</v>
+      </c>
+      <c r="F712" s="6">
+        <f t="shared" ref="F712:F721" si="257">E712/SUMIF(A:A,A712,E:E)</f>
+        <v>7.5067024128686322E-2</v>
+      </c>
+      <c r="G712" s="2">
+        <v>1</v>
+      </c>
+      <c r="H712" s="7">
+        <f t="shared" ref="H712:H721" si="258">G712-SUMIFS(G:G,A:A,A712-1,B:B,B712)</f>
+        <v>0</v>
+      </c>
+      <c r="I712" s="6">
+        <f t="shared" ref="I712:I721" si="259">G712/SUMIF(A:A,A712,G:G)</f>
+        <v>2.8089887640449437E-3</v>
+      </c>
+    </row>
+    <row r="713" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A713" s="1">
+        <v>43979</v>
+      </c>
+      <c r="B713" t="s">
+        <v>1</v>
+      </c>
+      <c r="C713" s="2">
+        <v>1670</v>
+      </c>
+      <c r="D713" s="6">
+        <f t="shared" si="255"/>
+        <v>7.7033073481249131E-2</v>
+      </c>
+      <c r="E713" s="7">
+        <f t="shared" si="256"/>
+        <v>48</v>
+      </c>
+      <c r="F713" s="6">
+        <f t="shared" si="257"/>
+        <v>0.12868632707774799</v>
+      </c>
+      <c r="G713" s="2">
+        <v>1</v>
+      </c>
+      <c r="H713" s="7">
+        <f t="shared" si="258"/>
+        <v>0</v>
+      </c>
+      <c r="I713" s="6">
+        <f t="shared" si="259"/>
+        <v>2.8089887640449437E-3</v>
+      </c>
+    </row>
+    <row r="714" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A714" s="1">
+        <v>43979</v>
+      </c>
+      <c r="B714" t="s">
+        <v>2</v>
+      </c>
+      <c r="C714" s="2">
+        <v>4382</v>
+      </c>
+      <c r="D714" s="6">
+        <f t="shared" si="255"/>
+        <v>0.20213109460768486</v>
+      </c>
+      <c r="E714" s="7">
+        <f t="shared" si="256"/>
+        <v>73</v>
+      </c>
+      <c r="F714" s="6">
+        <f t="shared" si="257"/>
+        <v>0.19571045576407506</v>
+      </c>
+      <c r="G714" s="2">
+        <v>1</v>
+      </c>
+      <c r="H714" s="7">
+        <f t="shared" si="258"/>
+        <v>0</v>
+      </c>
+      <c r="I714" s="6">
+        <f t="shared" si="259"/>
+        <v>2.8089887640449437E-3</v>
+      </c>
+    </row>
+    <row r="715" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A715" s="1">
+        <v>43979</v>
+      </c>
+      <c r="B715" t="s">
+        <v>3</v>
+      </c>
+      <c r="C715" s="2">
+        <v>4334</v>
+      </c>
+      <c r="D715" s="6">
+        <f t="shared" si="255"/>
+        <v>0.19991697033996034</v>
+      </c>
+      <c r="E715" s="7">
+        <f t="shared" si="256"/>
+        <v>87</v>
+      </c>
+      <c r="F715" s="6">
+        <f t="shared" si="257"/>
+        <v>0.23324396782841822</v>
+      </c>
+      <c r="G715" s="2">
+        <v>5</v>
+      </c>
+      <c r="H715" s="7">
+        <f t="shared" si="258"/>
+        <v>0</v>
+      </c>
+      <c r="I715" s="6">
+        <f t="shared" si="259"/>
+        <v>1.4044943820224719E-2</v>
+      </c>
+    </row>
+    <row r="716" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A716" s="1">
+        <v>43979</v>
+      </c>
+      <c r="B716" t="s">
+        <v>4</v>
+      </c>
+      <c r="C716" s="2">
+        <v>3707</v>
+      </c>
+      <c r="D716" s="6">
+        <f t="shared" si="255"/>
+        <v>0.1709949720928087</v>
+      </c>
+      <c r="E716" s="7">
+        <f t="shared" si="256"/>
+        <v>76</v>
+      </c>
+      <c r="F716" s="6">
+        <f t="shared" si="257"/>
+        <v>0.20375335120643431</v>
+      </c>
+      <c r="G716" s="2">
+        <v>17</v>
+      </c>
+      <c r="H716" s="7">
+        <f t="shared" si="258"/>
+        <v>1</v>
+      </c>
+      <c r="I716" s="6">
+        <f t="shared" si="259"/>
+        <v>4.7752808988764044E-2</v>
+      </c>
+    </row>
+    <row r="717" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A717" s="1">
+        <v>43979</v>
+      </c>
+      <c r="B717" t="s">
+        <v>5</v>
+      </c>
+      <c r="C717" s="2">
+        <v>3114</v>
+      </c>
+      <c r="D717" s="6">
+        <f t="shared" si="255"/>
+        <v>0.14364131186862863</v>
+      </c>
+      <c r="E717" s="7">
+        <f t="shared" si="256"/>
+        <v>37</v>
+      </c>
+      <c r="F717" s="6">
+        <f t="shared" si="257"/>
+        <v>9.9195710455764072E-2</v>
+      </c>
+      <c r="G717" s="2">
+        <v>31</v>
+      </c>
+      <c r="H717" s="7">
+        <f t="shared" si="258"/>
+        <v>0</v>
+      </c>
+      <c r="I717" s="6">
+        <f t="shared" si="259"/>
+        <v>8.7078651685393263E-2</v>
+      </c>
+    </row>
+    <row r="718" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A718" s="1">
+        <v>43979</v>
+      </c>
+      <c r="B718" t="s">
+        <v>6</v>
+      </c>
+      <c r="C718" s="2">
+        <v>1836</v>
+      </c>
+      <c r="D718" s="6">
+        <f t="shared" si="255"/>
+        <v>8.4690253240463115E-2</v>
+      </c>
+      <c r="E718" s="7">
+        <f t="shared" si="256"/>
+        <v>24</v>
+      </c>
+      <c r="F718" s="6">
+        <f t="shared" si="257"/>
+        <v>6.4343163538873996E-2</v>
+      </c>
+      <c r="G718" s="2">
+        <v>77</v>
+      </c>
+      <c r="H718" s="7">
+        <f t="shared" si="258"/>
+        <v>1</v>
+      </c>
+      <c r="I718" s="6">
+        <f t="shared" si="259"/>
+        <v>0.21629213483146068</v>
+      </c>
+    </row>
+    <row r="719" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A719" s="1">
+        <v>43979</v>
+      </c>
+      <c r="B719" t="s">
+        <v>7</v>
+      </c>
+      <c r="C719" s="2">
+        <v>890</v>
+      </c>
+      <c r="D719" s="6">
+        <f t="shared" si="255"/>
+        <v>4.1053554130725589E-2</v>
+      </c>
+      <c r="E719" s="7">
+        <f t="shared" si="256"/>
+        <v>9</v>
+      </c>
+      <c r="F719" s="6">
+        <f t="shared" si="257"/>
+        <v>2.4128686327077747E-2</v>
+      </c>
+      <c r="G719" s="2">
+        <v>100</v>
+      </c>
+      <c r="H719" s="7">
+        <f t="shared" si="258"/>
+        <v>0</v>
+      </c>
+      <c r="I719" s="6">
+        <f t="shared" si="259"/>
+        <v>0.2808988764044944</v>
+      </c>
+    </row>
+    <row r="720" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A720" s="1">
+        <v>43979</v>
+      </c>
+      <c r="B720" t="s">
+        <v>25</v>
+      </c>
+      <c r="C720" s="2">
+        <v>582</v>
+      </c>
+      <c r="D720" s="6">
+        <f t="shared" si="255"/>
+        <v>2.6846256746159879E-2</v>
+      </c>
+      <c r="E720" s="7">
+        <f t="shared" si="256"/>
+        <v>3</v>
+      </c>
+      <c r="F720" s="6">
+        <f t="shared" si="257"/>
+        <v>8.0428954423592495E-3</v>
+      </c>
+      <c r="G720" s="2">
+        <v>123</v>
+      </c>
+      <c r="H720" s="7">
+        <f t="shared" si="258"/>
+        <v>1</v>
+      </c>
+      <c r="I720" s="6">
+        <f t="shared" si="259"/>
+        <v>0.3455056179775281</v>
+      </c>
+    </row>
+    <row r="721" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A721" s="1">
+        <v>43979</v>
+      </c>
+      <c r="B721" t="s">
+        <v>21</v>
+      </c>
+      <c r="C721" s="2">
+        <v>444</v>
+      </c>
+      <c r="D721" s="6">
+        <f t="shared" si="255"/>
+        <v>2.0480649476451864E-2</v>
+      </c>
+      <c r="E721" s="7">
+        <f t="shared" si="256"/>
+        <v>-12</v>
+      </c>
+      <c r="F721" s="6">
+        <f t="shared" si="257"/>
+        <v>-3.2171581769436998E-2</v>
+      </c>
+      <c r="G721" s="2">
+        <v>0</v>
+      </c>
+      <c r="H721" s="7">
+        <f t="shared" si="258"/>
+        <v>0</v>
+      </c>
+      <c r="I721" s="6">
+        <f t="shared" si="259"/>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/TN_Age.xlsx
+++ b/TN_Age.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="26">
   <si>
     <t>0-10</t>
   </si>
@@ -440,11 +440,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I721"/>
+  <dimension ref="A1:I731"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A694" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A721" sqref="A721"/>
+      <pane ySplit="1" topLeftCell="A700" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A731" sqref="A731"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -22482,6 +22482,346 @@
         <v>0</v>
       </c>
     </row>
+    <row r="722" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A722" s="1">
+        <v>43980</v>
+      </c>
+      <c r="B722" t="s">
+        <v>0</v>
+      </c>
+      <c r="C722" s="2">
+        <v>748</v>
+      </c>
+      <c r="D722" s="6">
+        <f t="shared" ref="D722:D731" si="260">C722/SUMIF(A:A,A722,C:C)</f>
+        <v>3.386914195155083E-2</v>
+      </c>
+      <c r="E722" s="7">
+        <f t="shared" ref="E722:E731" si="261">C722-SUMIFS(C:C,A:A,A722-1,B:B,B722)</f>
+        <v>28</v>
+      </c>
+      <c r="F722" s="6">
+        <f t="shared" ref="F722:F731" si="262">E722/SUMIF(A:A,A722,E:E)</f>
+        <v>6.8965517241379309E-2</v>
+      </c>
+      <c r="G722" s="2">
+        <v>1</v>
+      </c>
+      <c r="H722" s="7">
+        <f t="shared" ref="H722:H731" si="263">G722-SUMIFS(G:G,A:A,A722-1,B:B,B722)</f>
+        <v>0</v>
+      </c>
+      <c r="I722" s="6">
+        <f t="shared" ref="I722:I731" si="264">G722/SUMIF(A:A,A722,G:G)</f>
+        <v>2.7777777777777779E-3</v>
+      </c>
+    </row>
+    <row r="723" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A723" s="1">
+        <v>43980</v>
+      </c>
+      <c r="B723" t="s">
+        <v>1</v>
+      </c>
+      <c r="C723" s="2">
+        <v>1721</v>
+      </c>
+      <c r="D723" s="6">
+        <f t="shared" si="260"/>
+        <v>7.7926194249490599E-2</v>
+      </c>
+      <c r="E723" s="7">
+        <f t="shared" si="261"/>
+        <v>51</v>
+      </c>
+      <c r="F723" s="6">
+        <f t="shared" si="262"/>
+        <v>0.12561576354679804</v>
+      </c>
+      <c r="G723" s="2">
+        <v>1</v>
+      </c>
+      <c r="H723" s="7">
+        <f t="shared" si="263"/>
+        <v>0</v>
+      </c>
+      <c r="I723" s="6">
+        <f t="shared" si="264"/>
+        <v>2.7777777777777779E-3</v>
+      </c>
+    </row>
+    <row r="724" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A724" s="1">
+        <v>43980</v>
+      </c>
+      <c r="B724" t="s">
+        <v>2</v>
+      </c>
+      <c r="C724" s="2">
+        <v>4471</v>
+      </c>
+      <c r="D724" s="6">
+        <f t="shared" si="260"/>
+        <v>0.20244509848313336</v>
+      </c>
+      <c r="E724" s="7">
+        <f t="shared" si="261"/>
+        <v>89</v>
+      </c>
+      <c r="F724" s="6">
+        <f t="shared" si="262"/>
+        <v>0.21921182266009853</v>
+      </c>
+      <c r="G724" s="2">
+        <v>1</v>
+      </c>
+      <c r="H724" s="7">
+        <f t="shared" si="263"/>
+        <v>0</v>
+      </c>
+      <c r="I724" s="6">
+        <f t="shared" si="264"/>
+        <v>2.7777777777777779E-3</v>
+      </c>
+    </row>
+    <row r="725" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A725" s="1">
+        <v>43980</v>
+      </c>
+      <c r="B725" t="s">
+        <v>3</v>
+      </c>
+      <c r="C725" s="2">
+        <v>4435</v>
+      </c>
+      <c r="D725" s="6">
+        <f t="shared" si="260"/>
+        <v>0.20081503282771113</v>
+      </c>
+      <c r="E725" s="7">
+        <f t="shared" si="261"/>
+        <v>101</v>
+      </c>
+      <c r="F725" s="6">
+        <f t="shared" si="262"/>
+        <v>0.24876847290640394</v>
+      </c>
+      <c r="G725" s="2">
+        <v>5</v>
+      </c>
+      <c r="H725" s="7">
+        <f t="shared" si="263"/>
+        <v>0</v>
+      </c>
+      <c r="I725" s="6">
+        <f t="shared" si="264"/>
+        <v>1.3888888888888888E-2</v>
+      </c>
+    </row>
+    <row r="726" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A726" s="1">
+        <v>43980</v>
+      </c>
+      <c r="B726" t="s">
+        <v>4</v>
+      </c>
+      <c r="C726" s="2">
+        <v>3763</v>
+      </c>
+      <c r="D726" s="6">
+        <f t="shared" si="260"/>
+        <v>0.17038714059316279</v>
+      </c>
+      <c r="E726" s="7">
+        <f t="shared" si="261"/>
+        <v>56</v>
+      </c>
+      <c r="F726" s="6">
+        <f t="shared" si="262"/>
+        <v>0.13793103448275862</v>
+      </c>
+      <c r="G726" s="2">
+        <v>18</v>
+      </c>
+      <c r="H726" s="7">
+        <f t="shared" si="263"/>
+        <v>1</v>
+      </c>
+      <c r="I726" s="6">
+        <f t="shared" si="264"/>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="727" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A727" s="1">
+        <v>43980</v>
+      </c>
+      <c r="B727" t="s">
+        <v>5</v>
+      </c>
+      <c r="C727" s="2">
+        <v>3161</v>
+      </c>
+      <c r="D727" s="6">
+        <f t="shared" si="260"/>
+        <v>0.1431288204663799</v>
+      </c>
+      <c r="E727" s="7">
+        <f t="shared" si="261"/>
+        <v>47</v>
+      </c>
+      <c r="F727" s="6">
+        <f t="shared" si="262"/>
+        <v>0.11576354679802955</v>
+      </c>
+      <c r="G727" s="2">
+        <v>31</v>
+      </c>
+      <c r="H727" s="7">
+        <f t="shared" si="263"/>
+        <v>0</v>
+      </c>
+      <c r="I727" s="6">
+        <f t="shared" si="264"/>
+        <v>8.611111111111111E-2</v>
+      </c>
+    </row>
+    <row r="728" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A728" s="1">
+        <v>43980</v>
+      </c>
+      <c r="B728" t="s">
+        <v>6</v>
+      </c>
+      <c r="C728" s="2">
+        <v>1860</v>
+      </c>
+      <c r="D728" s="6">
+        <f t="shared" si="260"/>
+        <v>8.4220058863481995E-2</v>
+      </c>
+      <c r="E728" s="7">
+        <f t="shared" si="261"/>
+        <v>24</v>
+      </c>
+      <c r="F728" s="6">
+        <f t="shared" si="262"/>
+        <v>5.9113300492610835E-2</v>
+      </c>
+      <c r="G728" s="2">
+        <v>78</v>
+      </c>
+      <c r="H728" s="7">
+        <f t="shared" si="263"/>
+        <v>1</v>
+      </c>
+      <c r="I728" s="6">
+        <f t="shared" si="264"/>
+        <v>0.21666666666666667</v>
+      </c>
+    </row>
+    <row r="729" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A729" s="1">
+        <v>43980</v>
+      </c>
+      <c r="B729" t="s">
+        <v>7</v>
+      </c>
+      <c r="C729" s="2">
+        <v>897</v>
+      </c>
+      <c r="D729" s="6">
+        <f t="shared" si="260"/>
+        <v>4.0615802580937291E-2</v>
+      </c>
+      <c r="E729" s="7">
+        <f t="shared" si="261"/>
+        <v>7</v>
+      </c>
+      <c r="F729" s="6">
+        <f t="shared" si="262"/>
+        <v>1.7241379310344827E-2</v>
+      </c>
+      <c r="G729" s="2">
+        <v>100</v>
+      </c>
+      <c r="H729" s="7">
+        <f t="shared" si="263"/>
+        <v>0</v>
+      </c>
+      <c r="I729" s="6">
+        <f t="shared" si="264"/>
+        <v>0.27777777777777779</v>
+      </c>
+    </row>
+    <row r="730" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A730" s="1">
+        <v>43980</v>
+      </c>
+      <c r="B730" t="s">
+        <v>25</v>
+      </c>
+      <c r="C730" s="2">
+        <v>587</v>
+      </c>
+      <c r="D730" s="6">
+        <f t="shared" si="260"/>
+        <v>2.6579126103690287E-2</v>
+      </c>
+      <c r="E730" s="7">
+        <f t="shared" si="261"/>
+        <v>5</v>
+      </c>
+      <c r="F730" s="6">
+        <f t="shared" si="262"/>
+        <v>1.2315270935960592E-2</v>
+      </c>
+      <c r="G730" s="2">
+        <v>125</v>
+      </c>
+      <c r="H730" s="7">
+        <f t="shared" si="263"/>
+        <v>2</v>
+      </c>
+      <c r="I730" s="6">
+        <f t="shared" si="264"/>
+        <v>0.34722222222222221</v>
+      </c>
+    </row>
+    <row r="731" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A731" s="1">
+        <v>43980</v>
+      </c>
+      <c r="B731" t="s">
+        <v>21</v>
+      </c>
+      <c r="C731" s="2">
+        <v>442</v>
+      </c>
+      <c r="D731" s="6">
+        <f t="shared" si="260"/>
+        <v>2.0013583880461851E-2</v>
+      </c>
+      <c r="E731" s="7">
+        <f t="shared" si="261"/>
+        <v>-2</v>
+      </c>
+      <c r="F731" s="6">
+        <f t="shared" si="262"/>
+        <v>-4.9261083743842365E-3</v>
+      </c>
+      <c r="G731" s="2">
+        <v>0</v>
+      </c>
+      <c r="H731" s="7">
+        <f t="shared" si="263"/>
+        <v>0</v>
+      </c>
+      <c r="I731" s="6">
+        <f t="shared" si="264"/>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/TN_Age.xlsx
+++ b/TN_Age.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="26">
   <si>
     <t>0-10</t>
   </si>
@@ -440,11 +440,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I731"/>
+  <dimension ref="A1:I741"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A700" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A731" sqref="A731"/>
+      <pane ySplit="1" topLeftCell="A718" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A742" sqref="A742"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -22822,6 +22822,346 @@
         <v>0</v>
       </c>
     </row>
+    <row r="732" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A732" s="1">
+        <v>43981</v>
+      </c>
+      <c r="B732" t="s">
+        <v>0</v>
+      </c>
+      <c r="C732" s="2">
+        <v>775</v>
+      </c>
+      <c r="D732" s="6">
+        <f t="shared" ref="D732:D741" si="265">C732/SUMIF(A:A,A732,C:C)</f>
+        <v>3.4343702915891165E-2</v>
+      </c>
+      <c r="E732" s="7">
+        <f t="shared" ref="E732:E741" si="266">C732-SUMIFS(C:C,A:A,A732-1,B:B,B732)</f>
+        <v>27</v>
+      </c>
+      <c r="F732" s="6">
+        <f t="shared" ref="F732:F741" si="267">E732/SUMIF(A:A,A732,E:E)</f>
+        <v>5.6133056133056136E-2</v>
+      </c>
+      <c r="G732">
+        <v>1</v>
+      </c>
+      <c r="H732" s="7">
+        <f t="shared" ref="H732:H741" si="268">G732-SUMIFS(G:G,A:A,A732-1,B:B,B732)</f>
+        <v>0</v>
+      </c>
+      <c r="I732" s="6">
+        <f t="shared" ref="I732:I741" si="269">G732/SUMIF(A:A,A732,G:G)</f>
+        <v>2.7472527472527475E-3</v>
+      </c>
+    </row>
+    <row r="733" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A733" s="1">
+        <v>43981</v>
+      </c>
+      <c r="B733" t="s">
+        <v>1</v>
+      </c>
+      <c r="C733" s="2">
+        <v>1783</v>
+      </c>
+      <c r="D733" s="6">
+        <f t="shared" si="265"/>
+        <v>7.9012673934237346E-2</v>
+      </c>
+      <c r="E733" s="7">
+        <f t="shared" si="266"/>
+        <v>62</v>
+      </c>
+      <c r="F733" s="6">
+        <f t="shared" si="267"/>
+        <v>0.12889812889812891</v>
+      </c>
+      <c r="G733">
+        <v>1</v>
+      </c>
+      <c r="H733" s="7">
+        <f t="shared" si="268"/>
+        <v>0</v>
+      </c>
+      <c r="I733" s="6">
+        <f t="shared" si="269"/>
+        <v>2.7472527472527475E-3</v>
+      </c>
+    </row>
+    <row r="734" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A734" s="1">
+        <v>43981</v>
+      </c>
+      <c r="B734" t="s">
+        <v>2</v>
+      </c>
+      <c r="C734" s="2">
+        <v>4597</v>
+      </c>
+      <c r="D734" s="6">
+        <f t="shared" si="265"/>
+        <v>0.20371355136045377</v>
+      </c>
+      <c r="E734" s="7">
+        <f t="shared" si="266"/>
+        <v>126</v>
+      </c>
+      <c r="F734" s="6">
+        <f t="shared" si="267"/>
+        <v>0.26195426195426197</v>
+      </c>
+      <c r="G734">
+        <v>1</v>
+      </c>
+      <c r="H734" s="7">
+        <f t="shared" si="268"/>
+        <v>0</v>
+      </c>
+      <c r="I734" s="6">
+        <f t="shared" si="269"/>
+        <v>2.7472527472527475E-3</v>
+      </c>
+    </row>
+    <row r="735" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A735" s="1">
+        <v>43981</v>
+      </c>
+      <c r="B735" t="s">
+        <v>3</v>
+      </c>
+      <c r="C735" s="2">
+        <v>4580</v>
+      </c>
+      <c r="D735" s="6">
+        <f t="shared" si="265"/>
+        <v>0.20296020561907294</v>
+      </c>
+      <c r="E735" s="7">
+        <f t="shared" si="266"/>
+        <v>145</v>
+      </c>
+      <c r="F735" s="6">
+        <f t="shared" si="267"/>
+        <v>0.30145530145530147</v>
+      </c>
+      <c r="G735">
+        <v>5</v>
+      </c>
+      <c r="H735" s="7">
+        <f t="shared" si="268"/>
+        <v>0</v>
+      </c>
+      <c r="I735" s="6">
+        <f t="shared" si="269"/>
+        <v>1.3736263736263736E-2</v>
+      </c>
+    </row>
+    <row r="736" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A736" s="1">
+        <v>43981</v>
+      </c>
+      <c r="B736" t="s">
+        <v>4</v>
+      </c>
+      <c r="C736" s="2">
+        <v>3860</v>
+      </c>
+      <c r="D736" s="6">
+        <f t="shared" si="265"/>
+        <v>0.17105379774882568</v>
+      </c>
+      <c r="E736" s="7">
+        <f t="shared" si="266"/>
+        <v>97</v>
+      </c>
+      <c r="F736" s="6">
+        <f t="shared" si="267"/>
+        <v>0.20166320166320167</v>
+      </c>
+      <c r="G736">
+        <v>18</v>
+      </c>
+      <c r="H736" s="7">
+        <f t="shared" si="268"/>
+        <v>0</v>
+      </c>
+      <c r="I736" s="6">
+        <f t="shared" si="269"/>
+        <v>4.9450549450549448E-2</v>
+      </c>
+    </row>
+    <row r="737" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A737" s="1">
+        <v>43981</v>
+      </c>
+      <c r="B737" t="s">
+        <v>5</v>
+      </c>
+      <c r="C737" s="2">
+        <v>3235</v>
+      </c>
+      <c r="D737" s="6">
+        <f t="shared" si="265"/>
+        <v>0.14335726313923602</v>
+      </c>
+      <c r="E737" s="7">
+        <f t="shared" si="266"/>
+        <v>74</v>
+      </c>
+      <c r="F737" s="6">
+        <f t="shared" si="267"/>
+        <v>0.15384615384615385</v>
+      </c>
+      <c r="G737">
+        <v>31</v>
+      </c>
+      <c r="H737" s="7">
+        <f t="shared" si="268"/>
+        <v>0</v>
+      </c>
+      <c r="I737" s="6">
+        <f t="shared" si="269"/>
+        <v>8.5164835164835168E-2</v>
+      </c>
+    </row>
+    <row r="738" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A738" s="1">
+        <v>43981</v>
+      </c>
+      <c r="B738" t="s">
+        <v>6</v>
+      </c>
+      <c r="C738" s="2">
+        <v>1895</v>
+      </c>
+      <c r="D738" s="6">
+        <f t="shared" si="265"/>
+        <v>8.3975892936275817E-2</v>
+      </c>
+      <c r="E738" s="7">
+        <f t="shared" si="266"/>
+        <v>35</v>
+      </c>
+      <c r="F738" s="6">
+        <f t="shared" si="267"/>
+        <v>7.2765072765072769E-2</v>
+      </c>
+      <c r="G738">
+        <v>78</v>
+      </c>
+      <c r="H738" s="7">
+        <f t="shared" si="268"/>
+        <v>0</v>
+      </c>
+      <c r="I738" s="6">
+        <f t="shared" si="269"/>
+        <v>0.21428571428571427</v>
+      </c>
+    </row>
+    <row r="739" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A739" s="1">
+        <v>43981</v>
+      </c>
+      <c r="B739" t="s">
+        <v>7</v>
+      </c>
+      <c r="C739" s="2">
+        <v>916</v>
+      </c>
+      <c r="D739" s="6">
+        <f t="shared" si="265"/>
+        <v>4.0592041123814586E-2</v>
+      </c>
+      <c r="E739" s="7">
+        <f t="shared" si="266"/>
+        <v>19</v>
+      </c>
+      <c r="F739" s="6">
+        <f t="shared" si="267"/>
+        <v>3.9501039501039503E-2</v>
+      </c>
+      <c r="G739">
+        <v>102</v>
+      </c>
+      <c r="H739" s="7">
+        <f t="shared" si="268"/>
+        <v>2</v>
+      </c>
+      <c r="I739" s="6">
+        <f t="shared" si="269"/>
+        <v>0.28021978021978022</v>
+      </c>
+    </row>
+    <row r="740" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A740" s="1">
+        <v>43981</v>
+      </c>
+      <c r="B740" t="s">
+        <v>25</v>
+      </c>
+      <c r="C740" s="2">
+        <v>598</v>
+      </c>
+      <c r="D740" s="6">
+        <f t="shared" si="265"/>
+        <v>2.6500044314455375E-2</v>
+      </c>
+      <c r="E740" s="7">
+        <f t="shared" si="266"/>
+        <v>11</v>
+      </c>
+      <c r="F740" s="6">
+        <f t="shared" si="267"/>
+        <v>2.286902286902287E-2</v>
+      </c>
+      <c r="G740">
+        <v>127</v>
+      </c>
+      <c r="H740" s="7">
+        <f t="shared" si="268"/>
+        <v>2</v>
+      </c>
+      <c r="I740" s="6">
+        <f t="shared" si="269"/>
+        <v>0.34890109890109888</v>
+      </c>
+    </row>
+    <row r="741" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A741" s="1">
+        <v>43981</v>
+      </c>
+      <c r="B741" t="s">
+        <v>21</v>
+      </c>
+      <c r="C741" s="2">
+        <v>327</v>
+      </c>
+      <c r="D741" s="6">
+        <f t="shared" si="265"/>
+        <v>1.4490826907737304E-2</v>
+      </c>
+      <c r="E741" s="7">
+        <f t="shared" si="266"/>
+        <v>-115</v>
+      </c>
+      <c r="F741" s="6">
+        <f t="shared" si="267"/>
+        <v>-0.2390852390852391</v>
+      </c>
+      <c r="G741">
+        <v>0</v>
+      </c>
+      <c r="H741" s="7">
+        <f t="shared" si="268"/>
+        <v>0</v>
+      </c>
+      <c r="I741" s="6">
+        <f t="shared" si="269"/>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/TN_Age.xlsx
+++ b/TN_Age.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="26">
   <si>
     <t>0-10</t>
   </si>
@@ -440,11 +440,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I741"/>
+  <dimension ref="A1:I751"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A718" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A742" sqref="A742"/>
+      <pane ySplit="1" topLeftCell="A733" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A752" sqref="A752"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -455,7 +455,7 @@
     <col min="4" max="4" width="15.88671875" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.44140625" style="5" customWidth="1"/>
     <col min="6" max="6" width="17.109375" style="7" customWidth="1"/>
-    <col min="7" max="7" width="11.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.5546875" style="7" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.44140625" style="5" bestFit="1" customWidth="1"/>
   </cols>
@@ -23162,6 +23162,346 @@
         <v>0</v>
       </c>
     </row>
+    <row r="742" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A742" s="1">
+        <v>43982</v>
+      </c>
+      <c r="B742" t="s">
+        <v>0</v>
+      </c>
+      <c r="C742" s="2">
+        <v>807</v>
+      </c>
+      <c r="D742" s="6">
+        <f t="shared" ref="D742:D751" si="270">C742/SUMIF(A:A,A742,C:C)</f>
+        <v>3.507780578979397E-2</v>
+      </c>
+      <c r="E742" s="7">
+        <f t="shared" ref="E742:E751" si="271">C742-SUMIFS(C:C,A:A,A742-1,B:B,B742)</f>
+        <v>32</v>
+      </c>
+      <c r="F742" s="6">
+        <f t="shared" ref="F742:F751" si="272">E742/SUMIF(A:A,A742,E:E)</f>
+        <v>7.2727272727272724E-2</v>
+      </c>
+      <c r="G742" s="2">
+        <v>1</v>
+      </c>
+      <c r="H742" s="7">
+        <f t="shared" ref="H742:H751" si="273">G742-SUMIFS(G:G,A:A,A742-1,B:B,B742)</f>
+        <v>0</v>
+      </c>
+      <c r="I742" s="6">
+        <f t="shared" ref="I742:I751" si="274">G742/SUMIF(A:A,A742,G:G)</f>
+        <v>2.7472527472527475E-3</v>
+      </c>
+    </row>
+    <row r="743" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A743" s="1">
+        <v>43982</v>
+      </c>
+      <c r="B743" t="s">
+        <v>1</v>
+      </c>
+      <c r="C743" s="2">
+        <v>1836</v>
+      </c>
+      <c r="D743" s="6">
+        <f t="shared" si="270"/>
+        <v>7.980526819090672E-2</v>
+      </c>
+      <c r="E743" s="7">
+        <f t="shared" si="271"/>
+        <v>53</v>
+      </c>
+      <c r="F743" s="6">
+        <f t="shared" si="272"/>
+        <v>0.12045454545454545</v>
+      </c>
+      <c r="G743" s="2">
+        <v>1</v>
+      </c>
+      <c r="H743" s="7">
+        <f t="shared" si="273"/>
+        <v>0</v>
+      </c>
+      <c r="I743" s="6">
+        <f t="shared" si="274"/>
+        <v>2.7472527472527475E-3</v>
+      </c>
+    </row>
+    <row r="744" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A744" s="1">
+        <v>43982</v>
+      </c>
+      <c r="B744" t="s">
+        <v>2</v>
+      </c>
+      <c r="C744" s="2">
+        <v>4694</v>
+      </c>
+      <c r="D744" s="6">
+        <f t="shared" si="270"/>
+        <v>0.20403373033121794</v>
+      </c>
+      <c r="E744" s="7">
+        <f t="shared" si="271"/>
+        <v>97</v>
+      </c>
+      <c r="F744" s="6">
+        <f t="shared" si="272"/>
+        <v>0.22045454545454546</v>
+      </c>
+      <c r="G744" s="2">
+        <v>1</v>
+      </c>
+      <c r="H744" s="7">
+        <f t="shared" si="273"/>
+        <v>0</v>
+      </c>
+      <c r="I744" s="6">
+        <f t="shared" si="274"/>
+        <v>2.7472527472527475E-3</v>
+      </c>
+    </row>
+    <row r="745" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A745" s="1">
+        <v>43982</v>
+      </c>
+      <c r="B745" t="s">
+        <v>3</v>
+      </c>
+      <c r="C745" s="2">
+        <v>4661</v>
+      </c>
+      <c r="D745" s="6">
+        <f t="shared" si="270"/>
+        <v>0.2025993219160219</v>
+      </c>
+      <c r="E745" s="7">
+        <f t="shared" si="271"/>
+        <v>81</v>
+      </c>
+      <c r="F745" s="6">
+        <f t="shared" si="272"/>
+        <v>0.18409090909090908</v>
+      </c>
+      <c r="G745" s="2">
+        <v>5</v>
+      </c>
+      <c r="H745" s="7">
+        <f t="shared" si="273"/>
+        <v>0</v>
+      </c>
+      <c r="I745" s="6">
+        <f t="shared" si="274"/>
+        <v>1.3736263736263736E-2</v>
+      </c>
+    </row>
+    <row r="746" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A746" s="1">
+        <v>43982</v>
+      </c>
+      <c r="B746" t="s">
+        <v>4</v>
+      </c>
+      <c r="C746" s="2">
+        <v>3928</v>
+      </c>
+      <c r="D746" s="6">
+        <f t="shared" si="270"/>
+        <v>0.17073806833000088</v>
+      </c>
+      <c r="E746" s="7">
+        <f t="shared" si="271"/>
+        <v>68</v>
+      </c>
+      <c r="F746" s="6">
+        <f t="shared" si="272"/>
+        <v>0.15454545454545454</v>
+      </c>
+      <c r="G746" s="2">
+        <v>18</v>
+      </c>
+      <c r="H746" s="7">
+        <f t="shared" si="273"/>
+        <v>0</v>
+      </c>
+      <c r="I746" s="6">
+        <f t="shared" si="274"/>
+        <v>4.9450549450549448E-2</v>
+      </c>
+    </row>
+    <row r="747" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A747" s="1">
+        <v>43982</v>
+      </c>
+      <c r="B747" t="s">
+        <v>5</v>
+      </c>
+      <c r="C747" s="2">
+        <v>3291</v>
+      </c>
+      <c r="D747" s="6">
+        <f t="shared" si="270"/>
+        <v>0.14304963922455011</v>
+      </c>
+      <c r="E747" s="7">
+        <f t="shared" si="271"/>
+        <v>56</v>
+      </c>
+      <c r="F747" s="6">
+        <f t="shared" si="272"/>
+        <v>0.12727272727272726</v>
+      </c>
+      <c r="G747" s="2">
+        <v>31</v>
+      </c>
+      <c r="H747" s="7">
+        <f t="shared" si="273"/>
+        <v>0</v>
+      </c>
+      <c r="I747" s="6">
+        <f t="shared" si="274"/>
+        <v>8.5164835164835168E-2</v>
+      </c>
+    </row>
+    <row r="748" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A748" s="1">
+        <v>43982</v>
+      </c>
+      <c r="B748" t="s">
+        <v>6</v>
+      </c>
+      <c r="C748" s="2">
+        <v>1920</v>
+      </c>
+      <c r="D748" s="6">
+        <f t="shared" si="270"/>
+        <v>8.3456489611405726E-2</v>
+      </c>
+      <c r="E748" s="7">
+        <f t="shared" si="271"/>
+        <v>25</v>
+      </c>
+      <c r="F748" s="6">
+        <f t="shared" si="272"/>
+        <v>5.6818181818181816E-2</v>
+      </c>
+      <c r="G748" s="2">
+        <v>78</v>
+      </c>
+      <c r="H748" s="7">
+        <f t="shared" si="273"/>
+        <v>0</v>
+      </c>
+      <c r="I748" s="6">
+        <f t="shared" si="274"/>
+        <v>0.21428571428571427</v>
+      </c>
+    </row>
+    <row r="749" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A749" s="1">
+        <v>43982</v>
+      </c>
+      <c r="B749" t="s">
+        <v>7</v>
+      </c>
+      <c r="C749" s="2">
+        <v>925</v>
+      </c>
+      <c r="D749" s="6">
+        <f t="shared" si="270"/>
+        <v>4.020690254716161E-2</v>
+      </c>
+      <c r="E749" s="7">
+        <f t="shared" si="271"/>
+        <v>9</v>
+      </c>
+      <c r="F749" s="6">
+        <f t="shared" si="272"/>
+        <v>2.0454545454545454E-2</v>
+      </c>
+      <c r="G749" s="2">
+        <v>102</v>
+      </c>
+      <c r="H749" s="7">
+        <f t="shared" si="273"/>
+        <v>0</v>
+      </c>
+      <c r="I749" s="6">
+        <f t="shared" si="274"/>
+        <v>0.28021978021978022</v>
+      </c>
+    </row>
+    <row r="750" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A750" s="1">
+        <v>43982</v>
+      </c>
+      <c r="B750" t="s">
+        <v>25</v>
+      </c>
+      <c r="C750" s="2">
+        <v>615</v>
+      </c>
+      <c r="D750" s="6">
+        <f t="shared" si="270"/>
+        <v>2.6732156828653396E-2</v>
+      </c>
+      <c r="E750" s="7">
+        <f t="shared" si="271"/>
+        <v>17</v>
+      </c>
+      <c r="F750" s="6">
+        <f t="shared" si="272"/>
+        <v>3.8636363636363635E-2</v>
+      </c>
+      <c r="G750" s="2">
+        <v>127</v>
+      </c>
+      <c r="H750" s="7">
+        <f t="shared" si="273"/>
+        <v>0</v>
+      </c>
+      <c r="I750" s="6">
+        <f t="shared" si="274"/>
+        <v>0.34890109890109888</v>
+      </c>
+    </row>
+    <row r="751" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A751" s="1">
+        <v>43982</v>
+      </c>
+      <c r="B751" t="s">
+        <v>21</v>
+      </c>
+      <c r="C751" s="2">
+        <v>329</v>
+      </c>
+      <c r="D751" s="6">
+        <f t="shared" si="270"/>
+        <v>1.4300617230287751E-2</v>
+      </c>
+      <c r="E751" s="7">
+        <f t="shared" si="271"/>
+        <v>2</v>
+      </c>
+      <c r="F751" s="6">
+        <f t="shared" si="272"/>
+        <v>4.5454545454545452E-3</v>
+      </c>
+      <c r="G751" s="2">
+        <v>0</v>
+      </c>
+      <c r="H751" s="7">
+        <f t="shared" si="273"/>
+        <v>0</v>
+      </c>
+      <c r="I751" s="6">
+        <f t="shared" si="274"/>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/TN_Age.xlsx
+++ b/TN_Age.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="26">
   <si>
     <t>0-10</t>
   </si>
@@ -440,11 +440,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I751"/>
+  <dimension ref="A1:I761"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A733" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A752" sqref="A752"/>
+      <pane ySplit="1" topLeftCell="A745" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C752" sqref="C752:C761"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -23502,6 +23502,346 @@
         <v>0</v>
       </c>
     </row>
+    <row r="752" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A752" s="1">
+        <v>43983</v>
+      </c>
+      <c r="B752" t="s">
+        <v>0</v>
+      </c>
+      <c r="C752" s="2">
+        <v>850</v>
+      </c>
+      <c r="D752" s="6">
+        <f t="shared" ref="D752:D761" si="275">C752/SUMIF(A:A,A752,C:C)</f>
+        <v>3.6087288783221531E-2</v>
+      </c>
+      <c r="E752" s="7">
+        <f t="shared" ref="E752:E761" si="276">C752-SUMIFS(C:C,A:A,A752-1,B:B,B752)</f>
+        <v>43</v>
+      </c>
+      <c r="F752" s="6">
+        <f t="shared" ref="F752:F761" si="277">E752/SUMIF(A:A,A752,E:E)</f>
+        <v>7.8467153284671534E-2</v>
+      </c>
+      <c r="G752" s="2">
+        <v>1</v>
+      </c>
+      <c r="H752" s="7">
+        <f t="shared" ref="H752:H761" si="278">G752-SUMIFS(G:G,A:A,A752-1,B:B,B752)</f>
+        <v>0</v>
+      </c>
+      <c r="I752" s="6">
+        <f t="shared" ref="I752:I761" si="279">G752/SUMIF(A:A,A752,G:G)</f>
+        <v>2.7247956403269754E-3</v>
+      </c>
+    </row>
+    <row r="753" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A753" s="1">
+        <v>43983</v>
+      </c>
+      <c r="B753" t="s">
+        <v>1</v>
+      </c>
+      <c r="C753" s="2">
+        <v>1889</v>
+      </c>
+      <c r="D753" s="6">
+        <f t="shared" si="275"/>
+        <v>8.0198692366477031E-2</v>
+      </c>
+      <c r="E753" s="7">
+        <f t="shared" si="276"/>
+        <v>53</v>
+      </c>
+      <c r="F753" s="6">
+        <f t="shared" si="277"/>
+        <v>9.6715328467153291E-2</v>
+      </c>
+      <c r="G753" s="2">
+        <v>1</v>
+      </c>
+      <c r="H753" s="7">
+        <f t="shared" si="278"/>
+        <v>0</v>
+      </c>
+      <c r="I753" s="6">
+        <f t="shared" si="279"/>
+        <v>2.7247956403269754E-3</v>
+      </c>
+    </row>
+    <row r="754" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A754" s="1">
+        <v>43983</v>
+      </c>
+      <c r="B754" t="s">
+        <v>2</v>
+      </c>
+      <c r="C754" s="2">
+        <v>4791</v>
+      </c>
+      <c r="D754" s="6">
+        <f t="shared" si="275"/>
+        <v>0.20340494183578162</v>
+      </c>
+      <c r="E754" s="7">
+        <f t="shared" si="276"/>
+        <v>97</v>
+      </c>
+      <c r="F754" s="6">
+        <f t="shared" si="277"/>
+        <v>0.177007299270073</v>
+      </c>
+      <c r="G754" s="2">
+        <v>1</v>
+      </c>
+      <c r="H754" s="7">
+        <f t="shared" si="278"/>
+        <v>0</v>
+      </c>
+      <c r="I754" s="6">
+        <f t="shared" si="279"/>
+        <v>2.7247956403269754E-3</v>
+      </c>
+    </row>
+    <row r="755" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A755" s="1">
+        <v>43983</v>
+      </c>
+      <c r="B755" t="s">
+        <v>3</v>
+      </c>
+      <c r="C755" s="2">
+        <v>4779</v>
+      </c>
+      <c r="D755" s="6">
+        <f t="shared" si="275"/>
+        <v>0.20289547422943024</v>
+      </c>
+      <c r="E755" s="7">
+        <f t="shared" si="276"/>
+        <v>118</v>
+      </c>
+      <c r="F755" s="6">
+        <f t="shared" si="277"/>
+        <v>0.21532846715328466</v>
+      </c>
+      <c r="G755" s="2">
+        <v>5</v>
+      </c>
+      <c r="H755" s="7">
+        <f t="shared" si="278"/>
+        <v>0</v>
+      </c>
+      <c r="I755" s="6">
+        <f t="shared" si="279"/>
+        <v>1.3623978201634877E-2</v>
+      </c>
+    </row>
+    <row r="756" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A756" s="1">
+        <v>43983</v>
+      </c>
+      <c r="B756" t="s">
+        <v>4</v>
+      </c>
+      <c r="C756" s="2">
+        <v>4023</v>
+      </c>
+      <c r="D756" s="6">
+        <f t="shared" si="275"/>
+        <v>0.1707990150292944</v>
+      </c>
+      <c r="E756" s="7">
+        <f t="shared" si="276"/>
+        <v>95</v>
+      </c>
+      <c r="F756" s="6">
+        <f t="shared" si="277"/>
+        <v>0.17335766423357665</v>
+      </c>
+      <c r="G756" s="2">
+        <v>19</v>
+      </c>
+      <c r="H756" s="7">
+        <f t="shared" si="278"/>
+        <v>1</v>
+      </c>
+      <c r="I756" s="6">
+        <f t="shared" si="279"/>
+        <v>5.1771117166212535E-2</v>
+      </c>
+    </row>
+    <row r="757" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A757" s="1">
+        <v>43983</v>
+      </c>
+      <c r="B757" t="s">
+        <v>5</v>
+      </c>
+      <c r="C757" s="2">
+        <v>3357</v>
+      </c>
+      <c r="D757" s="6">
+        <f t="shared" si="275"/>
+        <v>0.14252356287679374</v>
+      </c>
+      <c r="E757" s="7">
+        <f t="shared" si="276"/>
+        <v>66</v>
+      </c>
+      <c r="F757" s="6">
+        <f t="shared" si="277"/>
+        <v>0.12043795620437957</v>
+      </c>
+      <c r="G757" s="2">
+        <v>31</v>
+      </c>
+      <c r="H757" s="7">
+        <f t="shared" si="278"/>
+        <v>0</v>
+      </c>
+      <c r="I757" s="6">
+        <f t="shared" si="279"/>
+        <v>8.4468664850136238E-2</v>
+      </c>
+    </row>
+    <row r="758" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A758" s="1">
+        <v>43983</v>
+      </c>
+      <c r="B758" t="s">
+        <v>6</v>
+      </c>
+      <c r="C758" s="2">
+        <v>1952</v>
+      </c>
+      <c r="D758" s="6">
+        <f t="shared" si="275"/>
+        <v>8.2873397299821683E-2</v>
+      </c>
+      <c r="E758" s="7">
+        <f t="shared" si="276"/>
+        <v>32</v>
+      </c>
+      <c r="F758" s="6">
+        <f t="shared" si="277"/>
+        <v>5.8394160583941604E-2</v>
+      </c>
+      <c r="G758" s="2">
+        <v>78</v>
+      </c>
+      <c r="H758" s="7">
+        <f t="shared" si="278"/>
+        <v>0</v>
+      </c>
+      <c r="I758" s="6">
+        <f t="shared" si="279"/>
+        <v>0.21253405994550409</v>
+      </c>
+    </row>
+    <row r="759" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A759" s="1">
+        <v>43983</v>
+      </c>
+      <c r="B759" t="s">
+        <v>7</v>
+      </c>
+      <c r="C759" s="2">
+        <v>945</v>
+      </c>
+      <c r="D759" s="6">
+        <f t="shared" si="275"/>
+        <v>4.0120574000169822E-2</v>
+      </c>
+      <c r="E759" s="7">
+        <f t="shared" si="276"/>
+        <v>20</v>
+      </c>
+      <c r="F759" s="6">
+        <f t="shared" si="277"/>
+        <v>3.6496350364963501E-2</v>
+      </c>
+      <c r="G759" s="2">
+        <v>103</v>
+      </c>
+      <c r="H759" s="7">
+        <f t="shared" si="278"/>
+        <v>1</v>
+      </c>
+      <c r="I759" s="6">
+        <f t="shared" si="279"/>
+        <v>0.28065395095367845</v>
+      </c>
+    </row>
+    <row r="760" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A760" s="1">
+        <v>43983</v>
+      </c>
+      <c r="B760" t="s">
+        <v>25</v>
+      </c>
+      <c r="C760" s="2">
+        <v>631</v>
+      </c>
+      <c r="D760" s="6">
+        <f t="shared" si="275"/>
+        <v>2.6789504967309162E-2</v>
+      </c>
+      <c r="E760" s="7">
+        <f t="shared" si="276"/>
+        <v>16</v>
+      </c>
+      <c r="F760" s="6">
+        <f t="shared" si="277"/>
+        <v>2.9197080291970802E-2</v>
+      </c>
+      <c r="G760" s="2">
+        <v>128</v>
+      </c>
+      <c r="H760" s="7">
+        <f t="shared" si="278"/>
+        <v>1</v>
+      </c>
+      <c r="I760" s="6">
+        <f t="shared" si="279"/>
+        <v>0.34877384196185285</v>
+      </c>
+    </row>
+    <row r="761" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A761" s="1">
+        <v>43983</v>
+      </c>
+      <c r="B761" t="s">
+        <v>21</v>
+      </c>
+      <c r="C761" s="2">
+        <v>337</v>
+      </c>
+      <c r="D761" s="6">
+        <f t="shared" si="275"/>
+        <v>1.4307548611700773E-2</v>
+      </c>
+      <c r="E761" s="7">
+        <f t="shared" si="276"/>
+        <v>8</v>
+      </c>
+      <c r="F761" s="6">
+        <f t="shared" si="277"/>
+        <v>1.4598540145985401E-2</v>
+      </c>
+      <c r="G761" s="2">
+        <v>0</v>
+      </c>
+      <c r="H761" s="7">
+        <f t="shared" si="278"/>
+        <v>0</v>
+      </c>
+      <c r="I761" s="6">
+        <f t="shared" si="279"/>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/TN_Age.xlsx
+++ b/TN_Age.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="26">
   <si>
     <t>0-10</t>
   </si>
@@ -440,11 +440,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I761"/>
+  <dimension ref="A1:I771"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A745" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C752" sqref="C752:C761"/>
+      <pane ySplit="1" topLeftCell="A754" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H774" sqref="H774"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -23842,6 +23842,346 @@
         <v>0</v>
       </c>
     </row>
+    <row r="762" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A762" s="1">
+        <v>43984</v>
+      </c>
+      <c r="B762" t="s">
+        <v>0</v>
+      </c>
+      <c r="C762" s="2">
+        <v>888</v>
+      </c>
+      <c r="D762" s="6">
+        <f t="shared" ref="D762:D771" si="280">C762/SUMIF(A:A,A762,C:C)</f>
+        <v>3.6430769230769232E-2</v>
+      </c>
+      <c r="E762" s="7">
+        <f t="shared" ref="E762:E771" si="281">C762-SUMIFS(C:C,A:A,A762-1,B:B,B762)</f>
+        <v>38</v>
+      </c>
+      <c r="F762" s="6">
+        <f t="shared" ref="F762:F771" si="282">E762/SUMIF(A:A,A762,E:E)</f>
+        <v>4.6285018270401948E-2</v>
+      </c>
+      <c r="G762" s="2">
+        <v>1</v>
+      </c>
+      <c r="H762" s="7">
+        <f t="shared" ref="H762:H771" si="283">G762-SUMIFS(G:G,A:A,A762-1,B:B,B762)</f>
+        <v>0</v>
+      </c>
+      <c r="I762" s="6">
+        <f t="shared" ref="I762:I771" si="284">G762/SUMIF(A:A,A762,G:G)</f>
+        <v>2.6246719160104987E-3</v>
+      </c>
+    </row>
+    <row r="763" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A763" s="1">
+        <v>43984</v>
+      </c>
+      <c r="B763" t="s">
+        <v>1</v>
+      </c>
+      <c r="C763" s="2">
+        <v>1949</v>
+      </c>
+      <c r="D763" s="6">
+        <f t="shared" si="280"/>
+        <v>7.9958974358974352E-2</v>
+      </c>
+      <c r="E763" s="7">
+        <f t="shared" si="281"/>
+        <v>60</v>
+      </c>
+      <c r="F763" s="6">
+        <f t="shared" si="282"/>
+        <v>7.3081607795371498E-2</v>
+      </c>
+      <c r="G763" s="2">
+        <v>1</v>
+      </c>
+      <c r="H763" s="7">
+        <f t="shared" si="283"/>
+        <v>0</v>
+      </c>
+      <c r="I763" s="6">
+        <f t="shared" si="284"/>
+        <v>2.6246719160104987E-3</v>
+      </c>
+    </row>
+    <row r="764" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A764" s="1">
+        <v>43984</v>
+      </c>
+      <c r="B764" t="s">
+        <v>2</v>
+      </c>
+      <c r="C764" s="2">
+        <v>5028</v>
+      </c>
+      <c r="D764" s="6">
+        <f t="shared" si="280"/>
+        <v>0.20627692307692308</v>
+      </c>
+      <c r="E764" s="7">
+        <f t="shared" si="281"/>
+        <v>237</v>
+      </c>
+      <c r="F764" s="6">
+        <f t="shared" si="282"/>
+        <v>0.28867235079171744</v>
+      </c>
+      <c r="G764" s="2">
+        <v>1</v>
+      </c>
+      <c r="H764" s="7">
+        <f t="shared" si="283"/>
+        <v>0</v>
+      </c>
+      <c r="I764" s="6">
+        <f t="shared" si="284"/>
+        <v>2.6246719160104987E-3</v>
+      </c>
+    </row>
+    <row r="765" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A765" s="1">
+        <v>43984</v>
+      </c>
+      <c r="B765" t="s">
+        <v>3</v>
+      </c>
+      <c r="C765" s="2">
+        <v>4969</v>
+      </c>
+      <c r="D765" s="6">
+        <f t="shared" si="280"/>
+        <v>0.20385641025641027</v>
+      </c>
+      <c r="E765" s="7">
+        <f t="shared" si="281"/>
+        <v>190</v>
+      </c>
+      <c r="F765" s="6">
+        <f t="shared" si="282"/>
+        <v>0.23142509135200975</v>
+      </c>
+      <c r="G765" s="2">
+        <v>5</v>
+      </c>
+      <c r="H765" s="7">
+        <f t="shared" si="283"/>
+        <v>0</v>
+      </c>
+      <c r="I765" s="6">
+        <f t="shared" si="284"/>
+        <v>1.3123359580052493E-2</v>
+      </c>
+    </row>
+    <row r="766" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A766" s="1">
+        <v>43984</v>
+      </c>
+      <c r="B766" t="s">
+        <v>4</v>
+      </c>
+      <c r="C766" s="2">
+        <v>4169</v>
+      </c>
+      <c r="D766" s="6">
+        <f t="shared" si="280"/>
+        <v>0.17103589743589745</v>
+      </c>
+      <c r="E766" s="7">
+        <f t="shared" si="281"/>
+        <v>146</v>
+      </c>
+      <c r="F766" s="6">
+        <f t="shared" si="282"/>
+        <v>0.17783191230207065</v>
+      </c>
+      <c r="G766" s="2">
+        <v>20</v>
+      </c>
+      <c r="H766" s="7">
+        <f t="shared" si="283"/>
+        <v>1</v>
+      </c>
+      <c r="I766" s="6">
+        <f t="shared" si="284"/>
+        <v>5.2493438320209973E-2</v>
+      </c>
+    </row>
+    <row r="767" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A767" s="1">
+        <v>43984</v>
+      </c>
+      <c r="B767" t="s">
+        <v>5</v>
+      </c>
+      <c r="C767" s="2">
+        <v>3448</v>
+      </c>
+      <c r="D767" s="6">
+        <f t="shared" si="280"/>
+        <v>0.14145641025641026</v>
+      </c>
+      <c r="E767" s="7">
+        <f t="shared" si="281"/>
+        <v>91</v>
+      </c>
+      <c r="F767" s="6">
+        <f t="shared" si="282"/>
+        <v>0.11084043848964677</v>
+      </c>
+      <c r="G767" s="2">
+        <v>33</v>
+      </c>
+      <c r="H767" s="7">
+        <f t="shared" si="283"/>
+        <v>2</v>
+      </c>
+      <c r="I767" s="6">
+        <f t="shared" si="284"/>
+        <v>8.6614173228346455E-2</v>
+      </c>
+    </row>
+    <row r="768" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A768" s="1">
+        <v>43984</v>
+      </c>
+      <c r="B768" t="s">
+        <v>6</v>
+      </c>
+      <c r="C768" s="2">
+        <v>1997</v>
+      </c>
+      <c r="D768" s="6">
+        <f t="shared" si="280"/>
+        <v>8.1928205128205131E-2</v>
+      </c>
+      <c r="E768" s="7">
+        <f t="shared" si="281"/>
+        <v>45</v>
+      </c>
+      <c r="F768" s="6">
+        <f t="shared" si="282"/>
+        <v>5.4811205846528627E-2</v>
+      </c>
+      <c r="G768" s="2">
+        <v>80</v>
+      </c>
+      <c r="H768" s="7">
+        <f t="shared" si="283"/>
+        <v>2</v>
+      </c>
+      <c r="I768" s="6">
+        <f t="shared" si="284"/>
+        <v>0.20997375328083989</v>
+      </c>
+    </row>
+    <row r="769" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A769" s="1">
+        <v>43984</v>
+      </c>
+      <c r="B769" t="s">
+        <v>7</v>
+      </c>
+      <c r="C769" s="2">
+        <v>959</v>
+      </c>
+      <c r="D769" s="6">
+        <f t="shared" si="280"/>
+        <v>3.9343589743589744E-2</v>
+      </c>
+      <c r="E769" s="7">
+        <f t="shared" si="281"/>
+        <v>14</v>
+      </c>
+      <c r="F769" s="6">
+        <f t="shared" si="282"/>
+        <v>1.705237515225335E-2</v>
+      </c>
+      <c r="G769" s="2">
+        <v>105</v>
+      </c>
+      <c r="H769" s="7">
+        <f t="shared" si="283"/>
+        <v>2</v>
+      </c>
+      <c r="I769" s="6">
+        <f t="shared" si="284"/>
+        <v>0.27559055118110237</v>
+      </c>
+    </row>
+    <row r="770" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A770" s="1">
+        <v>43984</v>
+      </c>
+      <c r="B770" t="s">
+        <v>25</v>
+      </c>
+      <c r="C770" s="2">
+        <v>636</v>
+      </c>
+      <c r="D770" s="6">
+        <f t="shared" si="280"/>
+        <v>2.6092307692307692E-2</v>
+      </c>
+      <c r="E770" s="7">
+        <f t="shared" si="281"/>
+        <v>5</v>
+      </c>
+      <c r="F770" s="6">
+        <f t="shared" si="282"/>
+        <v>6.0901339829476245E-3</v>
+      </c>
+      <c r="G770" s="2">
+        <v>135</v>
+      </c>
+      <c r="H770" s="7">
+        <f t="shared" si="283"/>
+        <v>7</v>
+      </c>
+      <c r="I770" s="6">
+        <f t="shared" si="284"/>
+        <v>0.3543307086614173</v>
+      </c>
+    </row>
+    <row r="771" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A771" s="1">
+        <v>43984</v>
+      </c>
+      <c r="B771" t="s">
+        <v>21</v>
+      </c>
+      <c r="C771" s="2">
+        <v>332</v>
+      </c>
+      <c r="D771" s="6">
+        <f t="shared" si="280"/>
+        <v>1.362051282051282E-2</v>
+      </c>
+      <c r="E771" s="7">
+        <f t="shared" si="281"/>
+        <v>-5</v>
+      </c>
+      <c r="F771" s="6">
+        <f t="shared" si="282"/>
+        <v>-6.0901339829476245E-3</v>
+      </c>
+      <c r="G771" s="2">
+        <v>0</v>
+      </c>
+      <c r="H771" s="7">
+        <f t="shared" si="283"/>
+        <v>0</v>
+      </c>
+      <c r="I771" s="6">
+        <f t="shared" si="284"/>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/TN_Age.xlsx
+++ b/TN_Age.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="26">
   <si>
     <t>0-10</t>
   </si>
@@ -440,11 +440,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I771"/>
+  <dimension ref="A1:I781"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A754" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H774" sqref="H774"/>
+      <selection pane="bottomLeft" activeCell="A781" sqref="A781"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -24182,6 +24182,346 @@
         <v>0</v>
       </c>
     </row>
+    <row r="772" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A772" s="1">
+        <v>43985</v>
+      </c>
+      <c r="B772" t="s">
+        <v>0</v>
+      </c>
+      <c r="C772">
+        <v>909</v>
+      </c>
+      <c r="D772" s="6">
+        <f t="shared" ref="D772:D781" si="285">C772/SUMIF(A:A,A772,C:C)</f>
+        <v>3.6620739666424942E-2</v>
+      </c>
+      <c r="E772" s="7">
+        <f t="shared" ref="E772:E781" si="286">C772-SUMIFS(C:C,A:A,A772-1,B:B,B772)</f>
+        <v>21</v>
+      </c>
+      <c r="F772" s="6">
+        <f t="shared" ref="F772:F781" si="287">E772/SUMIF(A:A,A772,E:E)</f>
+        <v>4.6979865771812082E-2</v>
+      </c>
+      <c r="G772">
+        <v>1</v>
+      </c>
+      <c r="H772" s="7">
+        <f t="shared" ref="H772:H781" si="288">G772-SUMIFS(G:G,A:A,A772-1,B:B,B772)</f>
+        <v>0</v>
+      </c>
+      <c r="I772" s="6">
+        <f t="shared" ref="I772:I781" si="289">G772/SUMIF(A:A,A772,G:G)</f>
+        <v>2.5773195876288659E-3</v>
+      </c>
+    </row>
+    <row r="773" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A773" s="1">
+        <v>43985</v>
+      </c>
+      <c r="B773" t="s">
+        <v>1</v>
+      </c>
+      <c r="C773">
+        <v>1987</v>
+      </c>
+      <c r="D773" s="6">
+        <f t="shared" si="285"/>
+        <v>8.0049955684473456E-2</v>
+      </c>
+      <c r="E773" s="7">
+        <f t="shared" si="286"/>
+        <v>38</v>
+      </c>
+      <c r="F773" s="6">
+        <f t="shared" si="287"/>
+        <v>8.5011185682326629E-2</v>
+      </c>
+      <c r="G773">
+        <v>1</v>
+      </c>
+      <c r="H773" s="7">
+        <f t="shared" si="288"/>
+        <v>0</v>
+      </c>
+      <c r="I773" s="6">
+        <f t="shared" si="289"/>
+        <v>2.5773195876288659E-3</v>
+      </c>
+    </row>
+    <row r="774" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A774" s="1">
+        <v>43985</v>
+      </c>
+      <c r="B774" t="s">
+        <v>2</v>
+      </c>
+      <c r="C774">
+        <v>5153</v>
+      </c>
+      <c r="D774" s="6">
+        <f t="shared" si="285"/>
+        <v>0.20759809846104263</v>
+      </c>
+      <c r="E774" s="7">
+        <f t="shared" si="286"/>
+        <v>125</v>
+      </c>
+      <c r="F774" s="6">
+        <f t="shared" si="287"/>
+        <v>0.2796420581655481</v>
+      </c>
+      <c r="G774">
+        <v>1</v>
+      </c>
+      <c r="H774" s="7">
+        <f t="shared" si="288"/>
+        <v>0</v>
+      </c>
+      <c r="I774" s="6">
+        <f t="shared" si="289"/>
+        <v>2.5773195876288659E-3</v>
+      </c>
+    </row>
+    <row r="775" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A775" s="1">
+        <v>43985</v>
+      </c>
+      <c r="B775" t="s">
+        <v>3</v>
+      </c>
+      <c r="C775">
+        <v>5067</v>
+      </c>
+      <c r="D775" s="6">
+        <f t="shared" si="285"/>
+        <v>0.20413343002175491</v>
+      </c>
+      <c r="E775" s="7">
+        <f t="shared" si="286"/>
+        <v>98</v>
+      </c>
+      <c r="F775" s="6">
+        <f t="shared" si="287"/>
+        <v>0.21923937360178972</v>
+      </c>
+      <c r="G775">
+        <v>5</v>
+      </c>
+      <c r="H775" s="7">
+        <f t="shared" si="288"/>
+        <v>0</v>
+      </c>
+      <c r="I775" s="6">
+        <f t="shared" si="289"/>
+        <v>1.2886597938144329E-2</v>
+      </c>
+    </row>
+    <row r="776" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A776" s="1">
+        <v>43985</v>
+      </c>
+      <c r="B776" t="s">
+        <v>4</v>
+      </c>
+      <c r="C776">
+        <v>4239</v>
+      </c>
+      <c r="D776" s="6">
+        <f t="shared" si="285"/>
+        <v>0.17077592458303117</v>
+      </c>
+      <c r="E776" s="7">
+        <f t="shared" si="286"/>
+        <v>70</v>
+      </c>
+      <c r="F776" s="6">
+        <f t="shared" si="287"/>
+        <v>0.15659955257270694</v>
+      </c>
+      <c r="G776">
+        <v>21</v>
+      </c>
+      <c r="H776" s="7">
+        <f t="shared" si="288"/>
+        <v>1</v>
+      </c>
+      <c r="I776" s="6">
+        <f t="shared" si="289"/>
+        <v>5.4123711340206188E-2</v>
+      </c>
+    </row>
+    <row r="777" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A777" s="1">
+        <v>43985</v>
+      </c>
+      <c r="B777" t="s">
+        <v>5</v>
+      </c>
+      <c r="C777">
+        <v>3501</v>
+      </c>
+      <c r="D777" s="6">
+        <f t="shared" si="285"/>
+        <v>0.14104423495286439</v>
+      </c>
+      <c r="E777" s="7">
+        <f t="shared" si="286"/>
+        <v>53</v>
+      </c>
+      <c r="F777" s="6">
+        <f t="shared" si="287"/>
+        <v>0.11856823266219239</v>
+      </c>
+      <c r="G777">
+        <v>34</v>
+      </c>
+      <c r="H777" s="7">
+        <f t="shared" si="288"/>
+        <v>1</v>
+      </c>
+      <c r="I777" s="6">
+        <f t="shared" si="289"/>
+        <v>8.7628865979381437E-2</v>
+      </c>
+    </row>
+    <row r="778" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A778" s="1">
+        <v>43985</v>
+      </c>
+      <c r="B778" t="s">
+        <v>6</v>
+      </c>
+      <c r="C778">
+        <v>2026</v>
+      </c>
+      <c r="D778" s="6">
+        <f t="shared" si="285"/>
+        <v>8.1621142534848118E-2</v>
+      </c>
+      <c r="E778" s="7">
+        <f t="shared" si="286"/>
+        <v>29</v>
+      </c>
+      <c r="F778" s="6">
+        <f t="shared" si="287"/>
+        <v>6.4876957494407153E-2</v>
+      </c>
+      <c r="G778">
+        <v>80</v>
+      </c>
+      <c r="H778" s="7">
+        <f t="shared" si="288"/>
+        <v>0</v>
+      </c>
+      <c r="I778" s="6">
+        <f t="shared" si="289"/>
+        <v>0.20618556701030927</v>
+      </c>
+    </row>
+    <row r="779" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A779" s="1">
+        <v>43985</v>
+      </c>
+      <c r="B779" t="s">
+        <v>7</v>
+      </c>
+      <c r="C779">
+        <v>974</v>
+      </c>
+      <c r="D779" s="6">
+        <f t="shared" si="285"/>
+        <v>3.923938441704939E-2</v>
+      </c>
+      <c r="E779" s="7">
+        <f t="shared" si="286"/>
+        <v>15</v>
+      </c>
+      <c r="F779" s="6">
+        <f t="shared" si="287"/>
+        <v>3.3557046979865772E-2</v>
+      </c>
+      <c r="G779">
+        <v>109</v>
+      </c>
+      <c r="H779" s="7">
+        <f t="shared" si="288"/>
+        <v>4</v>
+      </c>
+      <c r="I779" s="6">
+        <f t="shared" si="289"/>
+        <v>0.28092783505154639</v>
+      </c>
+    </row>
+    <row r="780" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A780" s="1">
+        <v>43985</v>
+      </c>
+      <c r="B780" t="s">
+        <v>25</v>
+      </c>
+      <c r="C780">
+        <v>642</v>
+      </c>
+      <c r="D780" s="6">
+        <f t="shared" si="285"/>
+        <v>2.5864152767706067E-2</v>
+      </c>
+      <c r="E780" s="7">
+        <f t="shared" si="286"/>
+        <v>6</v>
+      </c>
+      <c r="F780" s="6">
+        <f t="shared" si="287"/>
+        <v>1.3422818791946308E-2</v>
+      </c>
+      <c r="G780">
+        <v>136</v>
+      </c>
+      <c r="H780" s="7">
+        <f t="shared" si="288"/>
+        <v>1</v>
+      </c>
+      <c r="I780" s="6">
+        <f t="shared" si="289"/>
+        <v>0.35051546391752575</v>
+      </c>
+    </row>
+    <row r="781" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A781" s="1">
+        <v>43985</v>
+      </c>
+      <c r="B781" t="s">
+        <v>21</v>
+      </c>
+      <c r="C781">
+        <v>324</v>
+      </c>
+      <c r="D781" s="6">
+        <f t="shared" si="285"/>
+        <v>1.3052936910804931E-2</v>
+      </c>
+      <c r="E781" s="7">
+        <f t="shared" si="286"/>
+        <v>-8</v>
+      </c>
+      <c r="F781" s="6">
+        <f t="shared" si="287"/>
+        <v>-1.7897091722595078E-2</v>
+      </c>
+      <c r="G781">
+        <v>0</v>
+      </c>
+      <c r="H781" s="7">
+        <f t="shared" si="288"/>
+        <v>0</v>
+      </c>
+      <c r="I781" s="6">
+        <f t="shared" si="289"/>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/TN_Age.xlsx
+++ b/TN_Age.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="799" uniqueCount="26">
   <si>
     <t>0-10</t>
   </si>
@@ -440,11 +440,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I781"/>
+  <dimension ref="A1:I791"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A754" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A781" sqref="A781"/>
+      <pane ySplit="1" topLeftCell="A760" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A782" sqref="A782"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -24522,6 +24522,346 @@
         <v>0</v>
       </c>
     </row>
+    <row r="782" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A782" s="1">
+        <v>43986</v>
+      </c>
+      <c r="B782" t="s">
+        <v>0</v>
+      </c>
+      <c r="C782">
+        <v>932</v>
+      </c>
+      <c r="D782" s="6">
+        <f t="shared" ref="D782:D791" si="290">C782/SUMIF(A:A,A782,C:C)</f>
+        <v>3.7101910828025476E-2</v>
+      </c>
+      <c r="E782" s="7">
+        <f t="shared" ref="E782:E791" si="291">C782-SUMIFS(C:C,A:A,A782-1,B:B,B782)</f>
+        <v>23</v>
+      </c>
+      <c r="F782" s="6">
+        <f t="shared" ref="F782:F791" si="292">E782/SUMIF(A:A,A782,E:E)</f>
+        <v>7.7181208053691275E-2</v>
+      </c>
+      <c r="G782">
+        <v>1</v>
+      </c>
+      <c r="H782" s="7">
+        <f t="shared" ref="H782:H791" si="293">G782-SUMIFS(G:G,A:A,A782-1,B:B,B782)</f>
+        <v>0</v>
+      </c>
+      <c r="I782" s="6">
+        <f t="shared" ref="I782:I791" si="294">G782/SUMIF(A:A,A782,G:G)</f>
+        <v>2.4937655860349127E-3</v>
+      </c>
+    </row>
+    <row r="783" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A783" s="1">
+        <v>43986</v>
+      </c>
+      <c r="B783" t="s">
+        <v>1</v>
+      </c>
+      <c r="C783">
+        <v>2023</v>
+      </c>
+      <c r="D783" s="6">
+        <f t="shared" si="290"/>
+        <v>8.0533439490445863E-2</v>
+      </c>
+      <c r="E783" s="7">
+        <f t="shared" si="291"/>
+        <v>36</v>
+      </c>
+      <c r="F783" s="6">
+        <f t="shared" si="292"/>
+        <v>0.12080536912751678</v>
+      </c>
+      <c r="G783">
+        <v>1</v>
+      </c>
+      <c r="H783" s="7">
+        <f t="shared" si="293"/>
+        <v>0</v>
+      </c>
+      <c r="I783" s="6">
+        <f t="shared" si="294"/>
+        <v>2.4937655860349127E-3</v>
+      </c>
+    </row>
+    <row r="784" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A784" s="1">
+        <v>43986</v>
+      </c>
+      <c r="B784" t="s">
+        <v>2</v>
+      </c>
+      <c r="C784">
+        <v>5221</v>
+      </c>
+      <c r="D784" s="6">
+        <f t="shared" si="290"/>
+        <v>0.20784235668789808</v>
+      </c>
+      <c r="E784" s="7">
+        <f t="shared" si="291"/>
+        <v>68</v>
+      </c>
+      <c r="F784" s="6">
+        <f t="shared" si="292"/>
+        <v>0.22818791946308725</v>
+      </c>
+      <c r="G784">
+        <v>1</v>
+      </c>
+      <c r="H784" s="7">
+        <f t="shared" si="293"/>
+        <v>0</v>
+      </c>
+      <c r="I784" s="6">
+        <f t="shared" si="294"/>
+        <v>2.4937655860349127E-3</v>
+      </c>
+    </row>
+    <row r="785" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A785" s="1">
+        <v>43986</v>
+      </c>
+      <c r="B785" t="s">
+        <v>3</v>
+      </c>
+      <c r="C785">
+        <v>5111</v>
+      </c>
+      <c r="D785" s="6">
+        <f t="shared" si="290"/>
+        <v>0.20346337579617835</v>
+      </c>
+      <c r="E785" s="7">
+        <f t="shared" si="291"/>
+        <v>44</v>
+      </c>
+      <c r="F785" s="6">
+        <f t="shared" si="292"/>
+        <v>0.1476510067114094</v>
+      </c>
+      <c r="G785">
+        <v>6</v>
+      </c>
+      <c r="H785" s="7">
+        <f t="shared" si="293"/>
+        <v>1</v>
+      </c>
+      <c r="I785" s="6">
+        <f t="shared" si="294"/>
+        <v>1.4962593516209476E-2</v>
+      </c>
+    </row>
+    <row r="786" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A786" s="1">
+        <v>43986</v>
+      </c>
+      <c r="B786" t="s">
+        <v>4</v>
+      </c>
+      <c r="C786">
+        <v>4281</v>
+      </c>
+      <c r="D786" s="6">
+        <f t="shared" si="290"/>
+        <v>0.17042197452229299</v>
+      </c>
+      <c r="E786" s="7">
+        <f t="shared" si="291"/>
+        <v>42</v>
+      </c>
+      <c r="F786" s="6">
+        <f t="shared" si="292"/>
+        <v>0.14093959731543623</v>
+      </c>
+      <c r="G786">
+        <v>21</v>
+      </c>
+      <c r="H786" s="7">
+        <f t="shared" si="293"/>
+        <v>0</v>
+      </c>
+      <c r="I786" s="6">
+        <f t="shared" si="294"/>
+        <v>5.2369077306733167E-2</v>
+      </c>
+    </row>
+    <row r="787" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A787" s="1">
+        <v>43986</v>
+      </c>
+      <c r="B787" t="s">
+        <v>5</v>
+      </c>
+      <c r="C787">
+        <v>3542</v>
+      </c>
+      <c r="D787" s="6">
+        <f t="shared" si="290"/>
+        <v>0.14100318471337581</v>
+      </c>
+      <c r="E787" s="7">
+        <f t="shared" si="291"/>
+        <v>41</v>
+      </c>
+      <c r="F787" s="6">
+        <f t="shared" si="292"/>
+        <v>0.13758389261744966</v>
+      </c>
+      <c r="G787">
+        <v>34</v>
+      </c>
+      <c r="H787" s="7">
+        <f t="shared" si="293"/>
+        <v>0</v>
+      </c>
+      <c r="I787" s="6">
+        <f t="shared" si="294"/>
+        <v>8.4788029925187039E-2</v>
+      </c>
+    </row>
+    <row r="788" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A788" s="1">
+        <v>43986</v>
+      </c>
+      <c r="B788" t="s">
+        <v>6</v>
+      </c>
+      <c r="C788">
+        <v>2052</v>
+      </c>
+      <c r="D788" s="6">
+        <f t="shared" si="290"/>
+        <v>8.168789808917197E-2</v>
+      </c>
+      <c r="E788" s="7">
+        <f t="shared" si="291"/>
+        <v>26</v>
+      </c>
+      <c r="F788" s="6">
+        <f t="shared" si="292"/>
+        <v>8.7248322147651006E-2</v>
+      </c>
+      <c r="G788">
+        <v>82</v>
+      </c>
+      <c r="H788" s="7">
+        <f t="shared" si="293"/>
+        <v>2</v>
+      </c>
+      <c r="I788" s="6">
+        <f t="shared" si="294"/>
+        <v>0.20448877805486285</v>
+      </c>
+    </row>
+    <row r="789" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A789" s="1">
+        <v>43986</v>
+      </c>
+      <c r="B789" t="s">
+        <v>7</v>
+      </c>
+      <c r="C789">
+        <v>982</v>
+      </c>
+      <c r="D789" s="6">
+        <f t="shared" si="290"/>
+        <v>3.9092356687898087E-2</v>
+      </c>
+      <c r="E789" s="7">
+        <f t="shared" si="291"/>
+        <v>8</v>
+      </c>
+      <c r="F789" s="6">
+        <f t="shared" si="292"/>
+        <v>2.6845637583892617E-2</v>
+      </c>
+      <c r="G789">
+        <v>116</v>
+      </c>
+      <c r="H789" s="7">
+        <f t="shared" si="293"/>
+        <v>7</v>
+      </c>
+      <c r="I789" s="6">
+        <f t="shared" si="294"/>
+        <v>0.2892768079800499</v>
+      </c>
+    </row>
+    <row r="790" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A790" s="1">
+        <v>43986</v>
+      </c>
+      <c r="B790" t="s">
+        <v>25</v>
+      </c>
+      <c r="C790">
+        <v>650</v>
+      </c>
+      <c r="D790" s="6">
+        <f t="shared" si="290"/>
+        <v>2.587579617834395E-2</v>
+      </c>
+      <c r="E790" s="7">
+        <f t="shared" si="291"/>
+        <v>8</v>
+      </c>
+      <c r="F790" s="6">
+        <f t="shared" si="292"/>
+        <v>2.6845637583892617E-2</v>
+      </c>
+      <c r="G790">
+        <v>139</v>
+      </c>
+      <c r="H790" s="7">
+        <f t="shared" si="293"/>
+        <v>3</v>
+      </c>
+      <c r="I790" s="6">
+        <f t="shared" si="294"/>
+        <v>0.34663341645885287</v>
+      </c>
+    </row>
+    <row r="791" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A791" s="1">
+        <v>43986</v>
+      </c>
+      <c r="B791" t="s">
+        <v>21</v>
+      </c>
+      <c r="C791">
+        <v>326</v>
+      </c>
+      <c r="D791" s="6">
+        <f t="shared" si="290"/>
+        <v>1.2977707006369427E-2</v>
+      </c>
+      <c r="E791" s="7">
+        <f t="shared" si="291"/>
+        <v>2</v>
+      </c>
+      <c r="F791" s="6">
+        <f t="shared" si="292"/>
+        <v>6.7114093959731542E-3</v>
+      </c>
+      <c r="G791">
+        <v>0</v>
+      </c>
+      <c r="H791" s="7">
+        <f t="shared" si="293"/>
+        <v>0</v>
+      </c>
+      <c r="I791" s="6">
+        <f t="shared" si="294"/>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/TN_Age.xlsx
+++ b/TN_Age.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="799" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="26">
   <si>
     <t>0-10</t>
   </si>
@@ -440,11 +440,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I791"/>
+  <dimension ref="A1:I801"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A760" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A782" sqref="A782"/>
+      <pane ySplit="1" topLeftCell="A772" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A802" sqref="A802"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -24862,6 +24862,346 @@
         <v>0</v>
       </c>
     </row>
+    <row r="792" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A792" s="1">
+        <v>43987</v>
+      </c>
+      <c r="B792" t="s">
+        <v>0</v>
+      </c>
+      <c r="C792" s="2">
+        <v>968</v>
+      </c>
+      <c r="D792" s="6">
+        <f t="shared" ref="D792:D801" si="295">C792/SUMIF(A:A,A792,C:C)</f>
+        <v>3.793103448275862E-2</v>
+      </c>
+      <c r="E792" s="7">
+        <f t="shared" ref="E792:E801" si="296">C792-SUMIFS(C:C,A:A,A792-1,B:B,B792)</f>
+        <v>36</v>
+      </c>
+      <c r="F792" s="6">
+        <f t="shared" ref="F792:F801" si="297">E792/SUMIF(A:A,A792,E:E)</f>
+        <v>0.09</v>
+      </c>
+      <c r="G792">
+        <v>1</v>
+      </c>
+      <c r="H792" s="7">
+        <f t="shared" ref="H792:H801" si="298">G792-SUMIFS(G:G,A:A,A792-1,B:B,B792)</f>
+        <v>0</v>
+      </c>
+      <c r="I792" s="6">
+        <f t="shared" ref="I792:I801" si="299">G792/SUMIF(A:A,A792,G:G)</f>
+        <v>2.4509803921568627E-3</v>
+      </c>
+    </row>
+    <row r="793" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A793" s="1">
+        <v>43987</v>
+      </c>
+      <c r="B793" t="s">
+        <v>1</v>
+      </c>
+      <c r="C793" s="2">
+        <v>2078</v>
+      </c>
+      <c r="D793" s="6">
+        <f t="shared" si="295"/>
+        <v>8.1426332288401251E-2</v>
+      </c>
+      <c r="E793" s="7">
+        <f t="shared" si="296"/>
+        <v>55</v>
+      </c>
+      <c r="F793" s="6">
+        <f t="shared" si="297"/>
+        <v>0.13750000000000001</v>
+      </c>
+      <c r="G793">
+        <v>1</v>
+      </c>
+      <c r="H793" s="7">
+        <f t="shared" si="298"/>
+        <v>0</v>
+      </c>
+      <c r="I793" s="6">
+        <f t="shared" si="299"/>
+        <v>2.4509803921568627E-3</v>
+      </c>
+    </row>
+    <row r="794" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A794" s="1">
+        <v>43987</v>
+      </c>
+      <c r="B794" t="s">
+        <v>2</v>
+      </c>
+      <c r="C794" s="2">
+        <v>5310</v>
+      </c>
+      <c r="D794" s="6">
+        <f t="shared" si="295"/>
+        <v>0.20807210031347961</v>
+      </c>
+      <c r="E794" s="7">
+        <f t="shared" si="296"/>
+        <v>89</v>
+      </c>
+      <c r="F794" s="6">
+        <f t="shared" si="297"/>
+        <v>0.2225</v>
+      </c>
+      <c r="G794">
+        <v>1</v>
+      </c>
+      <c r="H794" s="7">
+        <f t="shared" si="298"/>
+        <v>0</v>
+      </c>
+      <c r="I794" s="6">
+        <f t="shared" si="299"/>
+        <v>2.4509803921568627E-3</v>
+      </c>
+    </row>
+    <row r="795" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A795" s="1">
+        <v>43987</v>
+      </c>
+      <c r="B795" t="s">
+        <v>3</v>
+      </c>
+      <c r="C795" s="2">
+        <v>5198</v>
+      </c>
+      <c r="D795" s="6">
+        <f t="shared" si="295"/>
+        <v>0.20368338557993731</v>
+      </c>
+      <c r="E795" s="7">
+        <f t="shared" si="296"/>
+        <v>87</v>
+      </c>
+      <c r="F795" s="6">
+        <f t="shared" si="297"/>
+        <v>0.2175</v>
+      </c>
+      <c r="G795">
+        <v>8</v>
+      </c>
+      <c r="H795" s="7">
+        <f t="shared" si="298"/>
+        <v>2</v>
+      </c>
+      <c r="I795" s="6">
+        <f t="shared" si="299"/>
+        <v>1.9607843137254902E-2</v>
+      </c>
+    </row>
+    <row r="796" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A796" s="1">
+        <v>43987</v>
+      </c>
+      <c r="B796" t="s">
+        <v>4</v>
+      </c>
+      <c r="C796" s="2">
+        <v>4361</v>
+      </c>
+      <c r="D796" s="6">
+        <f t="shared" si="295"/>
+        <v>0.17088557993730408</v>
+      </c>
+      <c r="E796" s="7">
+        <f t="shared" si="296"/>
+        <v>80</v>
+      </c>
+      <c r="F796" s="6">
+        <f t="shared" si="297"/>
+        <v>0.2</v>
+      </c>
+      <c r="G796">
+        <v>21</v>
+      </c>
+      <c r="H796" s="7">
+        <f t="shared" si="298"/>
+        <v>0</v>
+      </c>
+      <c r="I796" s="6">
+        <f t="shared" si="299"/>
+        <v>5.1470588235294115E-2</v>
+      </c>
+    </row>
+    <row r="797" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A797" s="1">
+        <v>43987</v>
+      </c>
+      <c r="B797" t="s">
+        <v>5</v>
+      </c>
+      <c r="C797" s="2">
+        <v>3599</v>
+      </c>
+      <c r="D797" s="6">
+        <f t="shared" si="295"/>
+        <v>0.14102664576802507</v>
+      </c>
+      <c r="E797" s="7">
+        <f t="shared" si="296"/>
+        <v>57</v>
+      </c>
+      <c r="F797" s="6">
+        <f t="shared" si="297"/>
+        <v>0.14249999999999999</v>
+      </c>
+      <c r="G797">
+        <v>35</v>
+      </c>
+      <c r="H797" s="7">
+        <f t="shared" si="298"/>
+        <v>1</v>
+      </c>
+      <c r="I797" s="6">
+        <f t="shared" si="299"/>
+        <v>8.5784313725490197E-2</v>
+      </c>
+    </row>
+    <row r="798" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A798" s="1">
+        <v>43987</v>
+      </c>
+      <c r="B798" t="s">
+        <v>6</v>
+      </c>
+      <c r="C798" s="2">
+        <v>2077</v>
+      </c>
+      <c r="D798" s="6">
+        <f t="shared" si="295"/>
+        <v>8.1387147335423196E-2</v>
+      </c>
+      <c r="E798" s="7">
+        <f t="shared" si="296"/>
+        <v>25</v>
+      </c>
+      <c r="F798" s="6">
+        <f t="shared" si="297"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="G798">
+        <v>83</v>
+      </c>
+      <c r="H798" s="7">
+        <f t="shared" si="298"/>
+        <v>1</v>
+      </c>
+      <c r="I798" s="6">
+        <f t="shared" si="299"/>
+        <v>0.20343137254901961</v>
+      </c>
+    </row>
+    <row r="799" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A799" s="1">
+        <v>43987</v>
+      </c>
+      <c r="B799" t="s">
+        <v>7</v>
+      </c>
+      <c r="C799" s="2">
+        <v>994</v>
+      </c>
+      <c r="D799" s="6">
+        <f t="shared" si="295"/>
+        <v>3.8949843260188091E-2</v>
+      </c>
+      <c r="E799" s="7">
+        <f t="shared" si="296"/>
+        <v>12</v>
+      </c>
+      <c r="F799" s="6">
+        <f t="shared" si="297"/>
+        <v>0.03</v>
+      </c>
+      <c r="G799">
+        <v>119</v>
+      </c>
+      <c r="H799" s="7">
+        <f t="shared" si="298"/>
+        <v>3</v>
+      </c>
+      <c r="I799" s="6">
+        <f t="shared" si="299"/>
+        <v>0.29166666666666669</v>
+      </c>
+    </row>
+    <row r="800" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A800" s="1">
+        <v>43987</v>
+      </c>
+      <c r="B800" t="s">
+        <v>25</v>
+      </c>
+      <c r="C800" s="2">
+        <v>661</v>
+      </c>
+      <c r="D800" s="6">
+        <f t="shared" si="295"/>
+        <v>2.5901253918495296E-2</v>
+      </c>
+      <c r="E800" s="7">
+        <f t="shared" si="296"/>
+        <v>11</v>
+      </c>
+      <c r="F800" s="6">
+        <f t="shared" si="297"/>
+        <v>2.75E-2</v>
+      </c>
+      <c r="G800">
+        <v>139</v>
+      </c>
+      <c r="H800" s="7">
+        <f t="shared" si="298"/>
+        <v>0</v>
+      </c>
+      <c r="I800" s="6">
+        <f t="shared" si="299"/>
+        <v>0.34068627450980393</v>
+      </c>
+    </row>
+    <row r="801" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A801" s="1">
+        <v>43987</v>
+      </c>
+      <c r="B801" t="s">
+        <v>21</v>
+      </c>
+      <c r="C801" s="2">
+        <v>274</v>
+      </c>
+      <c r="D801" s="6">
+        <f t="shared" si="295"/>
+        <v>1.0736677115987461E-2</v>
+      </c>
+      <c r="E801" s="7">
+        <f t="shared" si="296"/>
+        <v>-52</v>
+      </c>
+      <c r="F801" s="6">
+        <f t="shared" si="297"/>
+        <v>-0.13</v>
+      </c>
+      <c r="G801">
+        <v>0</v>
+      </c>
+      <c r="H801" s="7">
+        <f t="shared" si="298"/>
+        <v>0</v>
+      </c>
+      <c r="I801" s="6">
+        <f t="shared" si="299"/>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/TN_Age.xlsx
+++ b/TN_Age.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="26">
   <si>
     <t>0-10</t>
   </si>
@@ -440,11 +440,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I801"/>
+  <dimension ref="A1:I811"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A772" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A802" sqref="A802"/>
+      <pane ySplit="1" topLeftCell="A793" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A811" sqref="A811"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -25202,6 +25202,346 @@
         <v>0</v>
       </c>
     </row>
+    <row r="802" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A802" s="1">
+        <v>43988</v>
+      </c>
+      <c r="B802" t="s">
+        <v>0</v>
+      </c>
+      <c r="C802" s="2">
+        <v>1001</v>
+      </c>
+      <c r="D802" s="6">
+        <f t="shared" ref="D802:D811" si="300">C802/SUMIF(A:A,A802,C:C)</f>
+        <v>3.8395151701123856E-2</v>
+      </c>
+      <c r="E802" s="7">
+        <f t="shared" ref="E802:E811" si="301">C802-SUMIFS(C:C,A:A,A802-1,B:B,B802)</f>
+        <v>33</v>
+      </c>
+      <c r="F802" s="6">
+        <f t="shared" ref="F802:F811" si="302">E802/SUMIF(A:A,A802,E:E)</f>
+        <v>5.9891107078039928E-2</v>
+      </c>
+      <c r="G802">
+        <v>1</v>
+      </c>
+      <c r="H802" s="7">
+        <f t="shared" ref="H802:H811" si="303">G802-SUMIFS(G:G,A:A,A802-1,B:B,B802)</f>
+        <v>0</v>
+      </c>
+      <c r="I802" s="6">
+        <f t="shared" ref="I802:I811" si="304">G802/SUMIF(A:A,A802,G:G)</f>
+        <v>2.3980815347721821E-3</v>
+      </c>
+    </row>
+    <row r="803" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A803" s="1">
+        <v>43988</v>
+      </c>
+      <c r="B803" t="s">
+        <v>1</v>
+      </c>
+      <c r="C803" s="2">
+        <v>2138</v>
+      </c>
+      <c r="D803" s="6">
+        <f t="shared" si="300"/>
+        <v>8.2006827509493313E-2</v>
+      </c>
+      <c r="E803" s="7">
+        <f t="shared" si="301"/>
+        <v>60</v>
+      </c>
+      <c r="F803" s="6">
+        <f t="shared" si="302"/>
+        <v>0.10889292196007259</v>
+      </c>
+      <c r="G803">
+        <v>1</v>
+      </c>
+      <c r="H803" s="7">
+        <f t="shared" si="303"/>
+        <v>0</v>
+      </c>
+      <c r="I803" s="6">
+        <f t="shared" si="304"/>
+        <v>2.3980815347721821E-3</v>
+      </c>
+    </row>
+    <row r="804" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A804" s="1">
+        <v>43988</v>
+      </c>
+      <c r="B804" t="s">
+        <v>2</v>
+      </c>
+      <c r="C804" s="2">
+        <v>5420</v>
+      </c>
+      <c r="D804" s="6">
+        <f t="shared" si="300"/>
+        <v>0.20789382839169959</v>
+      </c>
+      <c r="E804" s="7">
+        <f t="shared" si="301"/>
+        <v>110</v>
+      </c>
+      <c r="F804" s="6">
+        <f t="shared" si="302"/>
+        <v>0.19963702359346641</v>
+      </c>
+      <c r="G804">
+        <v>2</v>
+      </c>
+      <c r="H804" s="7">
+        <f t="shared" si="303"/>
+        <v>1</v>
+      </c>
+      <c r="I804" s="6">
+        <f t="shared" si="304"/>
+        <v>4.7961630695443642E-3</v>
+      </c>
+    </row>
+    <row r="805" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A805" s="1">
+        <v>43988</v>
+      </c>
+      <c r="B805" t="s">
+        <v>3</v>
+      </c>
+      <c r="C805" s="2">
+        <v>5336</v>
+      </c>
+      <c r="D805" s="6">
+        <f t="shared" si="300"/>
+        <v>0.20467185761957732</v>
+      </c>
+      <c r="E805" s="7">
+        <f t="shared" si="301"/>
+        <v>138</v>
+      </c>
+      <c r="F805" s="6">
+        <f t="shared" si="302"/>
+        <v>0.25045372050816694</v>
+      </c>
+      <c r="G805">
+        <v>9</v>
+      </c>
+      <c r="H805" s="7">
+        <f t="shared" si="303"/>
+        <v>1</v>
+      </c>
+      <c r="I805" s="6">
+        <f t="shared" si="304"/>
+        <v>2.1582733812949641E-2</v>
+      </c>
+    </row>
+    <row r="806" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A806" s="1">
+        <v>43988</v>
+      </c>
+      <c r="B806" t="s">
+        <v>4</v>
+      </c>
+      <c r="C806" s="2">
+        <v>4453</v>
+      </c>
+      <c r="D806" s="6">
+        <f t="shared" si="300"/>
+        <v>0.17080280771738712</v>
+      </c>
+      <c r="E806" s="7">
+        <f t="shared" si="301"/>
+        <v>92</v>
+      </c>
+      <c r="F806" s="6">
+        <f t="shared" si="302"/>
+        <v>0.16696914700544466</v>
+      </c>
+      <c r="G806">
+        <v>21</v>
+      </c>
+      <c r="H806" s="7">
+        <f t="shared" si="303"/>
+        <v>0</v>
+      </c>
+      <c r="I806" s="6">
+        <f t="shared" si="304"/>
+        <v>5.0359712230215826E-2</v>
+      </c>
+    </row>
+    <row r="807" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A807" s="1">
+        <v>43988</v>
+      </c>
+      <c r="B807" t="s">
+        <v>5</v>
+      </c>
+      <c r="C807" s="2">
+        <v>3678</v>
+      </c>
+      <c r="D807" s="6">
+        <f t="shared" si="300"/>
+        <v>0.14107629166506847</v>
+      </c>
+      <c r="E807" s="7">
+        <f t="shared" si="301"/>
+        <v>79</v>
+      </c>
+      <c r="F807" s="6">
+        <f t="shared" si="302"/>
+        <v>0.14337568058076225</v>
+      </c>
+      <c r="G807">
+        <v>36</v>
+      </c>
+      <c r="H807" s="7">
+        <f t="shared" si="303"/>
+        <v>1</v>
+      </c>
+      <c r="I807" s="6">
+        <f t="shared" si="304"/>
+        <v>8.6330935251798566E-2</v>
+      </c>
+    </row>
+    <row r="808" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A808" s="1">
+        <v>43988</v>
+      </c>
+      <c r="B808" t="s">
+        <v>6</v>
+      </c>
+      <c r="C808" s="2">
+        <v>2101</v>
+      </c>
+      <c r="D808" s="6">
+        <f t="shared" si="300"/>
+        <v>8.0587626097963258E-2</v>
+      </c>
+      <c r="E808" s="7">
+        <f t="shared" si="301"/>
+        <v>24</v>
+      </c>
+      <c r="F808" s="6">
+        <f t="shared" si="302"/>
+        <v>4.3557168784029036E-2</v>
+      </c>
+      <c r="G808">
+        <v>84</v>
+      </c>
+      <c r="H808" s="7">
+        <f t="shared" si="303"/>
+        <v>1</v>
+      </c>
+      <c r="I808" s="6">
+        <f t="shared" si="304"/>
+        <v>0.20143884892086331</v>
+      </c>
+    </row>
+    <row r="809" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A809" s="1">
+        <v>43988</v>
+      </c>
+      <c r="B809" t="s">
+        <v>7</v>
+      </c>
+      <c r="C809" s="2">
+        <v>1004</v>
+      </c>
+      <c r="D809" s="6">
+        <f t="shared" si="300"/>
+        <v>3.851022208584251E-2</v>
+      </c>
+      <c r="E809" s="7">
+        <f t="shared" si="301"/>
+        <v>10</v>
+      </c>
+      <c r="F809" s="6">
+        <f t="shared" si="302"/>
+        <v>1.8148820326678767E-2</v>
+      </c>
+      <c r="G809">
+        <v>121</v>
+      </c>
+      <c r="H809" s="7">
+        <f t="shared" si="303"/>
+        <v>2</v>
+      </c>
+      <c r="I809" s="6">
+        <f t="shared" si="304"/>
+        <v>0.29016786570743403</v>
+      </c>
+    </row>
+    <row r="810" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A810" s="1">
+        <v>43988</v>
+      </c>
+      <c r="B810" t="s">
+        <v>25</v>
+      </c>
+      <c r="C810" s="2">
+        <v>670</v>
+      </c>
+      <c r="D810" s="6">
+        <f t="shared" si="300"/>
+        <v>2.5699052587165816E-2</v>
+      </c>
+      <c r="E810" s="7">
+        <f t="shared" si="301"/>
+        <v>9</v>
+      </c>
+      <c r="F810" s="6">
+        <f t="shared" si="302"/>
+        <v>1.6333938294010888E-2</v>
+      </c>
+      <c r="G810">
+        <v>142</v>
+      </c>
+      <c r="H810" s="7">
+        <f t="shared" si="303"/>
+        <v>3</v>
+      </c>
+      <c r="I810" s="6">
+        <f t="shared" si="304"/>
+        <v>0.34052757793764987</v>
+      </c>
+    </row>
+    <row r="811" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A811" s="1">
+        <v>43988</v>
+      </c>
+      <c r="B811" t="s">
+        <v>21</v>
+      </c>
+      <c r="C811" s="2">
+        <v>270</v>
+      </c>
+      <c r="D811" s="6">
+        <f t="shared" si="300"/>
+        <v>1.0356334624678762E-2</v>
+      </c>
+      <c r="E811" s="7">
+        <f t="shared" si="301"/>
+        <v>-4</v>
+      </c>
+      <c r="F811" s="6">
+        <f t="shared" si="302"/>
+        <v>-7.2595281306715061E-3</v>
+      </c>
+      <c r="G811">
+        <v>0</v>
+      </c>
+      <c r="H811" s="7">
+        <f t="shared" si="303"/>
+        <v>0</v>
+      </c>
+      <c r="I811" s="6">
+        <f t="shared" si="304"/>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/TN_Age.xlsx
+++ b/TN_Age.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="26">
   <si>
     <t>0-10</t>
   </si>
@@ -440,11 +440,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I811"/>
+  <dimension ref="A1:I821"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A793" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A811" sqref="A811"/>
+      <pane ySplit="1" topLeftCell="A802" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C812" sqref="C812:C821"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -25542,6 +25542,346 @@
         <v>0</v>
       </c>
     </row>
+    <row r="812" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A812" s="1">
+        <v>43989</v>
+      </c>
+      <c r="B812" t="s">
+        <v>0</v>
+      </c>
+      <c r="C812" s="2">
+        <v>1020</v>
+      </c>
+      <c r="D812" s="6">
+        <f t="shared" ref="D812:D821" si="305">C812/SUMIF(A:A,A812,C:C)</f>
+        <v>3.8664190136840908E-2</v>
+      </c>
+      <c r="E812" s="7">
+        <f t="shared" ref="E812:E821" si="306">C812-SUMIFS(C:C,A:A,A812-1,B:B,B812)</f>
+        <v>19</v>
+      </c>
+      <c r="F812" s="6">
+        <f t="shared" ref="F812:F821" si="307">E812/SUMIF(A:A,A812,E:E)</f>
+        <v>6.1290322580645158E-2</v>
+      </c>
+      <c r="G812" s="2">
+        <v>1</v>
+      </c>
+      <c r="H812" s="7">
+        <f t="shared" ref="H812:H821" si="308">G812-SUMIFS(G:G,A:A,A812-1,B:B,B812)</f>
+        <v>0</v>
+      </c>
+      <c r="I812" s="6">
+        <f t="shared" ref="I812:I821" si="309">G812/SUMIF(A:A,A812,G:G)</f>
+        <v>2.3923444976076554E-3</v>
+      </c>
+    </row>
+    <row r="813" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A813" s="1">
+        <v>43989</v>
+      </c>
+      <c r="B813" t="s">
+        <v>1</v>
+      </c>
+      <c r="C813" s="2">
+        <v>2170</v>
+      </c>
+      <c r="D813" s="6">
+        <f t="shared" si="305"/>
+        <v>8.2256169212690952E-2</v>
+      </c>
+      <c r="E813" s="7">
+        <f t="shared" si="306"/>
+        <v>32</v>
+      </c>
+      <c r="F813" s="6">
+        <f t="shared" si="307"/>
+        <v>0.1032258064516129</v>
+      </c>
+      <c r="G813" s="2">
+        <v>1</v>
+      </c>
+      <c r="H813" s="7">
+        <f t="shared" si="308"/>
+        <v>0</v>
+      </c>
+      <c r="I813" s="6">
+        <f t="shared" si="309"/>
+        <v>2.3923444976076554E-3</v>
+      </c>
+    </row>
+    <row r="814" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A814" s="1">
+        <v>43989</v>
+      </c>
+      <c r="B814" t="s">
+        <v>2</v>
+      </c>
+      <c r="C814" s="2">
+        <v>5483</v>
+      </c>
+      <c r="D814" s="6">
+        <f t="shared" si="305"/>
+        <v>0.20783897501990067</v>
+      </c>
+      <c r="E814" s="7">
+        <f t="shared" si="306"/>
+        <v>63</v>
+      </c>
+      <c r="F814" s="6">
+        <f t="shared" si="307"/>
+        <v>0.20322580645161289</v>
+      </c>
+      <c r="G814" s="2">
+        <v>2</v>
+      </c>
+      <c r="H814" s="7">
+        <f t="shared" si="308"/>
+        <v>0</v>
+      </c>
+      <c r="I814" s="6">
+        <f t="shared" si="309"/>
+        <v>4.7846889952153108E-3</v>
+      </c>
+    </row>
+    <row r="815" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A815" s="1">
+        <v>43989</v>
+      </c>
+      <c r="B815" t="s">
+        <v>3</v>
+      </c>
+      <c r="C815" s="2">
+        <v>5388</v>
+      </c>
+      <c r="D815" s="6">
+        <f t="shared" si="305"/>
+        <v>0.20423789848754786</v>
+      </c>
+      <c r="E815" s="7">
+        <f t="shared" si="306"/>
+        <v>52</v>
+      </c>
+      <c r="F815" s="6">
+        <f t="shared" si="307"/>
+        <v>0.16774193548387098</v>
+      </c>
+      <c r="G815" s="2">
+        <v>9</v>
+      </c>
+      <c r="H815" s="7">
+        <f t="shared" si="308"/>
+        <v>0</v>
+      </c>
+      <c r="I815" s="6">
+        <f t="shared" si="309"/>
+        <v>2.1531100478468901E-2</v>
+      </c>
+    </row>
+    <row r="816" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A816" s="1">
+        <v>43989</v>
+      </c>
+      <c r="B816" t="s">
+        <v>4</v>
+      </c>
+      <c r="C816" s="2">
+        <v>4500</v>
+      </c>
+      <c r="D816" s="6">
+        <f t="shared" si="305"/>
+        <v>0.17057730942723931</v>
+      </c>
+      <c r="E816" s="7">
+        <f t="shared" si="306"/>
+        <v>47</v>
+      </c>
+      <c r="F816" s="6">
+        <f t="shared" si="307"/>
+        <v>0.15161290322580645</v>
+      </c>
+      <c r="G816" s="2">
+        <v>21</v>
+      </c>
+      <c r="H816" s="7">
+        <f t="shared" si="308"/>
+        <v>0</v>
+      </c>
+      <c r="I816" s="6">
+        <f t="shared" si="309"/>
+        <v>5.0239234449760764E-2</v>
+      </c>
+    </row>
+    <row r="817" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A817" s="1">
+        <v>43989</v>
+      </c>
+      <c r="B817" t="s">
+        <v>5</v>
+      </c>
+      <c r="C817" s="2">
+        <v>3713</v>
+      </c>
+      <c r="D817" s="6">
+        <f t="shared" si="305"/>
+        <v>0.14074523331185324</v>
+      </c>
+      <c r="E817" s="7">
+        <f t="shared" si="306"/>
+        <v>35</v>
+      </c>
+      <c r="F817" s="6">
+        <f t="shared" si="307"/>
+        <v>0.11290322580645161</v>
+      </c>
+      <c r="G817" s="2">
+        <v>36</v>
+      </c>
+      <c r="H817" s="7">
+        <f t="shared" si="308"/>
+        <v>0</v>
+      </c>
+      <c r="I817" s="6">
+        <f t="shared" si="309"/>
+        <v>8.6124401913875603E-2</v>
+      </c>
+    </row>
+    <row r="818" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A818" s="1">
+        <v>43989</v>
+      </c>
+      <c r="B818" t="s">
+        <v>6</v>
+      </c>
+      <c r="C818" s="2">
+        <v>2120</v>
+      </c>
+      <c r="D818" s="6">
+        <f t="shared" si="305"/>
+        <v>8.0360865774610518E-2</v>
+      </c>
+      <c r="E818" s="7">
+        <f t="shared" si="306"/>
+        <v>19</v>
+      </c>
+      <c r="F818" s="6">
+        <f t="shared" si="307"/>
+        <v>6.1290322580645158E-2</v>
+      </c>
+      <c r="G818" s="2">
+        <v>84</v>
+      </c>
+      <c r="H818" s="7">
+        <f t="shared" si="308"/>
+        <v>0</v>
+      </c>
+      <c r="I818" s="6">
+        <f t="shared" si="309"/>
+        <v>0.20095693779904306</v>
+      </c>
+    </row>
+    <row r="819" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A819" s="1">
+        <v>43989</v>
+      </c>
+      <c r="B819" t="s">
+        <v>7</v>
+      </c>
+      <c r="C819" s="2">
+        <v>1027</v>
+      </c>
+      <c r="D819" s="6">
+        <f t="shared" si="305"/>
+        <v>3.8929532618172169E-2</v>
+      </c>
+      <c r="E819" s="7">
+        <f t="shared" si="306"/>
+        <v>23</v>
+      </c>
+      <c r="F819" s="6">
+        <f t="shared" si="307"/>
+        <v>7.4193548387096769E-2</v>
+      </c>
+      <c r="G819" s="2">
+        <v>122</v>
+      </c>
+      <c r="H819" s="7">
+        <f t="shared" si="308"/>
+        <v>1</v>
+      </c>
+      <c r="I819" s="6">
+        <f t="shared" si="309"/>
+        <v>0.291866028708134</v>
+      </c>
+    </row>
+    <row r="820" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A820" s="1">
+        <v>43989</v>
+      </c>
+      <c r="B820" t="s">
+        <v>25</v>
+      </c>
+      <c r="C820" s="2">
+        <v>689</v>
+      </c>
+      <c r="D820" s="6">
+        <f t="shared" si="305"/>
+        <v>2.6117281376748416E-2</v>
+      </c>
+      <c r="E820" s="7">
+        <f t="shared" si="306"/>
+        <v>19</v>
+      </c>
+      <c r="F820" s="6">
+        <f t="shared" si="307"/>
+        <v>6.1290322580645158E-2</v>
+      </c>
+      <c r="G820" s="2">
+        <v>142</v>
+      </c>
+      <c r="H820" s="7">
+        <f t="shared" si="308"/>
+        <v>0</v>
+      </c>
+      <c r="I820" s="6">
+        <f t="shared" si="309"/>
+        <v>0.33971291866028708</v>
+      </c>
+    </row>
+    <row r="821" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A821" s="1">
+        <v>43989</v>
+      </c>
+      <c r="B821" t="s">
+        <v>21</v>
+      </c>
+      <c r="C821" s="2">
+        <v>271</v>
+      </c>
+      <c r="D821" s="6">
+        <f t="shared" si="305"/>
+        <v>1.0272544634395966E-2</v>
+      </c>
+      <c r="E821" s="7">
+        <f t="shared" si="306"/>
+        <v>1</v>
+      </c>
+      <c r="F821" s="6">
+        <f t="shared" si="307"/>
+        <v>3.2258064516129032E-3</v>
+      </c>
+      <c r="G821" s="2">
+        <v>0</v>
+      </c>
+      <c r="H821" s="7">
+        <f t="shared" si="308"/>
+        <v>0</v>
+      </c>
+      <c r="I821" s="6">
+        <f t="shared" si="309"/>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/TN_Age.xlsx
+++ b/TN_Age.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="26">
   <si>
     <t>0-10</t>
   </si>
@@ -440,11 +440,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I821"/>
+  <dimension ref="A1:I831"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A802" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C812" sqref="C812:C821"/>
+      <selection pane="bottomLeft" activeCell="H822" sqref="H822:I831"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -25882,6 +25882,346 @@
         <v>0</v>
       </c>
     </row>
+    <row r="822" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A822" s="1">
+        <v>43990</v>
+      </c>
+      <c r="B822" t="s">
+        <v>0</v>
+      </c>
+      <c r="C822" s="2">
+        <v>1060</v>
+      </c>
+      <c r="D822" s="6">
+        <f t="shared" ref="D822:D831" si="310">C822/SUMIF(A:A,A822,C:C)</f>
+        <v>3.934085510688836E-2</v>
+      </c>
+      <c r="E822" s="7">
+        <f t="shared" ref="E822:E831" si="311">C822-SUMIFS(C:C,A:A,A822-1,B:B,B822)</f>
+        <v>40</v>
+      </c>
+      <c r="F822" s="6">
+        <f t="shared" ref="F822:F831" si="312">E822/SUMIF(A:A,A822,E:E)</f>
+        <v>7.1047957371225573E-2</v>
+      </c>
+      <c r="G822">
+        <v>1</v>
+      </c>
+      <c r="H822" s="7">
+        <f t="shared" ref="H822:H831" si="313">G822-SUMIFS(G:G,A:A,A822-1,B:B,B822)</f>
+        <v>0</v>
+      </c>
+      <c r="I822" s="6">
+        <f t="shared" ref="I822:I831" si="314">G822/SUMIF(A:A,A822,G:G)</f>
+        <v>2.3752969121140144E-3</v>
+      </c>
+    </row>
+    <row r="823" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A823" s="1">
+        <v>43990</v>
+      </c>
+      <c r="B823" t="s">
+        <v>1</v>
+      </c>
+      <c r="C823" s="2">
+        <v>2246</v>
+      </c>
+      <c r="D823" s="6">
+        <f t="shared" si="310"/>
+        <v>8.3358076009501181E-2</v>
+      </c>
+      <c r="E823" s="7">
+        <f t="shared" si="311"/>
+        <v>76</v>
+      </c>
+      <c r="F823" s="6">
+        <f t="shared" si="312"/>
+        <v>0.13499111900532859</v>
+      </c>
+      <c r="G823">
+        <v>1</v>
+      </c>
+      <c r="H823" s="7">
+        <f t="shared" si="313"/>
+        <v>0</v>
+      </c>
+      <c r="I823" s="6">
+        <f t="shared" si="314"/>
+        <v>2.3752969121140144E-3</v>
+      </c>
+    </row>
+    <row r="824" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A824" s="1">
+        <v>43990</v>
+      </c>
+      <c r="B824" t="s">
+        <v>2</v>
+      </c>
+      <c r="C824" s="2">
+        <v>5613</v>
+      </c>
+      <c r="D824" s="6">
+        <f t="shared" si="310"/>
+        <v>0.20832096199524941</v>
+      </c>
+      <c r="E824" s="7">
+        <f t="shared" si="311"/>
+        <v>130</v>
+      </c>
+      <c r="F824" s="6">
+        <f t="shared" si="312"/>
+        <v>0.23090586145648312</v>
+      </c>
+      <c r="G824">
+        <v>2</v>
+      </c>
+      <c r="H824" s="7">
+        <f t="shared" si="313"/>
+        <v>0</v>
+      </c>
+      <c r="I824" s="6">
+        <f t="shared" si="314"/>
+        <v>4.7505938242280287E-3</v>
+      </c>
+    </row>
+    <row r="825" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A825" s="1">
+        <v>43990</v>
+      </c>
+      <c r="B825" t="s">
+        <v>3</v>
+      </c>
+      <c r="C825" s="2">
+        <v>5512</v>
+      </c>
+      <c r="D825" s="6">
+        <f t="shared" si="310"/>
+        <v>0.20457244655581946</v>
+      </c>
+      <c r="E825" s="7">
+        <f t="shared" si="311"/>
+        <v>124</v>
+      </c>
+      <c r="F825" s="6">
+        <f t="shared" si="312"/>
+        <v>0.2202486678507993</v>
+      </c>
+      <c r="G825">
+        <v>8</v>
+      </c>
+      <c r="H825" s="7">
+        <f t="shared" si="313"/>
+        <v>-1</v>
+      </c>
+      <c r="I825" s="6">
+        <f t="shared" si="314"/>
+        <v>1.9002375296912115E-2</v>
+      </c>
+    </row>
+    <row r="826" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A826" s="1">
+        <v>43990</v>
+      </c>
+      <c r="B826" t="s">
+        <v>4</v>
+      </c>
+      <c r="C826" s="2">
+        <v>4594</v>
+      </c>
+      <c r="D826" s="6">
+        <f t="shared" si="310"/>
+        <v>0.17050178147268408</v>
+      </c>
+      <c r="E826" s="7">
+        <f t="shared" si="311"/>
+        <v>94</v>
+      </c>
+      <c r="F826" s="6">
+        <f t="shared" si="312"/>
+        <v>0.1669626998223801</v>
+      </c>
+      <c r="G826">
+        <v>22</v>
+      </c>
+      <c r="H826" s="7">
+        <f t="shared" si="313"/>
+        <v>1</v>
+      </c>
+      <c r="I826" s="6">
+        <f t="shared" si="314"/>
+        <v>5.2256532066508314E-2</v>
+      </c>
+    </row>
+    <row r="827" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A827" s="1">
+        <v>43990</v>
+      </c>
+      <c r="B827" t="s">
+        <v>5</v>
+      </c>
+      <c r="C827" s="2">
+        <v>3772</v>
+      </c>
+      <c r="D827" s="6">
+        <f t="shared" si="310"/>
+        <v>0.13999406175771972</v>
+      </c>
+      <c r="E827" s="7">
+        <f t="shared" si="311"/>
+        <v>59</v>
+      </c>
+      <c r="F827" s="6">
+        <f t="shared" si="312"/>
+        <v>0.10479573712255773</v>
+      </c>
+      <c r="G827">
+        <v>36</v>
+      </c>
+      <c r="H827" s="7">
+        <f t="shared" si="313"/>
+        <v>0</v>
+      </c>
+      <c r="I827" s="6">
+        <f t="shared" si="314"/>
+        <v>8.5510688836104506E-2</v>
+      </c>
+    </row>
+    <row r="828" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A828" s="1">
+        <v>43990</v>
+      </c>
+      <c r="B828" t="s">
+        <v>6</v>
+      </c>
+      <c r="C828" s="2">
+        <v>2141</v>
+      </c>
+      <c r="D828" s="6">
+        <f t="shared" si="310"/>
+        <v>7.9461104513064137E-2</v>
+      </c>
+      <c r="E828" s="7">
+        <f t="shared" si="311"/>
+        <v>21</v>
+      </c>
+      <c r="F828" s="6">
+        <f t="shared" si="312"/>
+        <v>3.7300177619893425E-2</v>
+      </c>
+      <c r="G828">
+        <v>84</v>
+      </c>
+      <c r="H828" s="7">
+        <f t="shared" si="313"/>
+        <v>0</v>
+      </c>
+      <c r="I828" s="6">
+        <f t="shared" si="314"/>
+        <v>0.1995249406175772</v>
+      </c>
+    </row>
+    <row r="829" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A829" s="1">
+        <v>43990</v>
+      </c>
+      <c r="B829" t="s">
+        <v>7</v>
+      </c>
+      <c r="C829" s="2">
+        <v>1045</v>
+      </c>
+      <c r="D829" s="6">
+        <f t="shared" si="310"/>
+        <v>3.878414489311164E-2</v>
+      </c>
+      <c r="E829" s="7">
+        <f t="shared" si="311"/>
+        <v>18</v>
+      </c>
+      <c r="F829" s="6">
+        <f t="shared" si="312"/>
+        <v>3.1971580817051509E-2</v>
+      </c>
+      <c r="G829">
+        <v>124</v>
+      </c>
+      <c r="H829" s="7">
+        <f t="shared" si="313"/>
+        <v>2</v>
+      </c>
+      <c r="I829" s="6">
+        <f t="shared" si="314"/>
+        <v>0.29453681710213775</v>
+      </c>
+    </row>
+    <row r="830" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A830" s="1">
+        <v>43990</v>
+      </c>
+      <c r="B830" t="s">
+        <v>25</v>
+      </c>
+      <c r="C830" s="2">
+        <v>699</v>
+      </c>
+      <c r="D830" s="6">
+        <f t="shared" si="310"/>
+        <v>2.5942695961995249E-2</v>
+      </c>
+      <c r="E830" s="7">
+        <f t="shared" si="311"/>
+        <v>10</v>
+      </c>
+      <c r="F830" s="6">
+        <f t="shared" si="312"/>
+        <v>1.7761989342806393E-2</v>
+      </c>
+      <c r="G830">
+        <v>143</v>
+      </c>
+      <c r="H830" s="7">
+        <f t="shared" si="313"/>
+        <v>1</v>
+      </c>
+      <c r="I830" s="6">
+        <f t="shared" si="314"/>
+        <v>0.33966745843230406</v>
+      </c>
+    </row>
+    <row r="831" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A831" s="1">
+        <v>43990</v>
+      </c>
+      <c r="B831" t="s">
+        <v>21</v>
+      </c>
+      <c r="C831" s="2">
+        <v>262</v>
+      </c>
+      <c r="D831" s="6">
+        <f t="shared" si="310"/>
+        <v>9.7238717339667453E-3</v>
+      </c>
+      <c r="E831" s="7">
+        <f t="shared" si="311"/>
+        <v>-9</v>
+      </c>
+      <c r="F831" s="6">
+        <f t="shared" si="312"/>
+        <v>-1.5985790408525755E-2</v>
+      </c>
+      <c r="G831">
+        <v>0</v>
+      </c>
+      <c r="H831" s="7">
+        <f t="shared" si="313"/>
+        <v>0</v>
+      </c>
+      <c r="I831" s="6">
+        <f t="shared" si="314"/>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/TN_Age.xlsx
+++ b/TN_Age.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="849" uniqueCount="26">
   <si>
     <t>0-10</t>
   </si>
@@ -440,11 +440,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I831"/>
+  <dimension ref="A1:I841"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A802" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H822" sqref="H822:I831"/>
+      <pane ySplit="1" topLeftCell="A817" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A841" sqref="A841"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -26222,6 +26222,346 @@
         <v>0</v>
       </c>
     </row>
+    <row r="832" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A832" s="1">
+        <v>43991</v>
+      </c>
+      <c r="B832" t="s">
+        <v>0</v>
+      </c>
+      <c r="C832" s="2">
+        <v>1101</v>
+      </c>
+      <c r="D832" s="6">
+        <f t="shared" ref="D832:D841" si="315">C832/SUMIF(A:A,A832,C:C)</f>
+        <v>3.9927470534904808E-2</v>
+      </c>
+      <c r="E832" s="7">
+        <f t="shared" ref="E832:E841" si="316">C832-SUMIFS(C:C,A:A,A832-1,B:B,B832)</f>
+        <v>41</v>
+      </c>
+      <c r="F832" s="6">
+        <f t="shared" ref="F832:F841" si="317">E832/SUMIF(A:A,A832,E:E)</f>
+        <v>6.4976228209191758E-2</v>
+      </c>
+      <c r="G832" s="2">
+        <v>1</v>
+      </c>
+      <c r="H832" s="7">
+        <f t="shared" ref="H832:H841" si="318">G832-SUMIFS(G:G,A:A,A832-1,B:B,B832)</f>
+        <v>0</v>
+      </c>
+      <c r="I832" s="6">
+        <f t="shared" ref="I832:I841" si="319">G832/SUMIF(A:A,A832,G:G)</f>
+        <v>2.2988505747126436E-3</v>
+      </c>
+    </row>
+    <row r="833" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A833" s="1">
+        <v>43991</v>
+      </c>
+      <c r="B833" t="s">
+        <v>1</v>
+      </c>
+      <c r="C833" s="2">
+        <v>2349</v>
+      </c>
+      <c r="D833" s="6">
+        <f t="shared" si="315"/>
+        <v>8.5185856754306441E-2</v>
+      </c>
+      <c r="E833" s="7">
+        <f t="shared" si="316"/>
+        <v>103</v>
+      </c>
+      <c r="F833" s="6">
+        <f t="shared" si="317"/>
+        <v>0.16323296354992076</v>
+      </c>
+      <c r="G833" s="2">
+        <v>1</v>
+      </c>
+      <c r="H833" s="7">
+        <f t="shared" si="318"/>
+        <v>0</v>
+      </c>
+      <c r="I833" s="6">
+        <f t="shared" si="319"/>
+        <v>2.2988505747126436E-3</v>
+      </c>
+    </row>
+    <row r="834" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A834" s="1">
+        <v>43991</v>
+      </c>
+      <c r="B834" t="s">
+        <v>2</v>
+      </c>
+      <c r="C834" s="2">
+        <v>5793</v>
+      </c>
+      <c r="D834" s="6">
+        <f t="shared" si="315"/>
+        <v>0.21008159564823209</v>
+      </c>
+      <c r="E834" s="7">
+        <f t="shared" si="316"/>
+        <v>180</v>
+      </c>
+      <c r="F834" s="6">
+        <f t="shared" si="317"/>
+        <v>0.28526148969889065</v>
+      </c>
+      <c r="G834" s="2">
+        <v>2</v>
+      </c>
+      <c r="H834" s="7">
+        <f t="shared" si="318"/>
+        <v>0</v>
+      </c>
+      <c r="I834" s="6">
+        <f t="shared" si="319"/>
+        <v>4.5977011494252873E-3</v>
+      </c>
+    </row>
+    <row r="835" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A835" s="1">
+        <v>43991</v>
+      </c>
+      <c r="B835" t="s">
+        <v>3</v>
+      </c>
+      <c r="C835" s="2">
+        <v>5660</v>
+      </c>
+      <c r="D835" s="6">
+        <f t="shared" si="315"/>
+        <v>0.20525838621940162</v>
+      </c>
+      <c r="E835" s="7">
+        <f t="shared" si="316"/>
+        <v>148</v>
+      </c>
+      <c r="F835" s="6">
+        <f t="shared" si="317"/>
+        <v>0.23454833597464342</v>
+      </c>
+      <c r="G835" s="2">
+        <v>9</v>
+      </c>
+      <c r="H835" s="7">
+        <f t="shared" si="318"/>
+        <v>1</v>
+      </c>
+      <c r="I835" s="6">
+        <f t="shared" si="319"/>
+        <v>2.0689655172413793E-2</v>
+      </c>
+    </row>
+    <row r="836" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A836" s="1">
+        <v>43991</v>
+      </c>
+      <c r="B836" t="s">
+        <v>4</v>
+      </c>
+      <c r="C836" s="2">
+        <v>4693</v>
+      </c>
+      <c r="D836" s="6">
+        <f t="shared" si="315"/>
+        <v>0.1701903898458749</v>
+      </c>
+      <c r="E836" s="7">
+        <f t="shared" si="316"/>
+        <v>99</v>
+      </c>
+      <c r="F836" s="6">
+        <f t="shared" si="317"/>
+        <v>0.15689381933438987</v>
+      </c>
+      <c r="G836" s="2">
+        <v>22</v>
+      </c>
+      <c r="H836" s="7">
+        <f t="shared" si="318"/>
+        <v>0</v>
+      </c>
+      <c r="I836" s="6">
+        <f t="shared" si="319"/>
+        <v>5.057471264367816E-2</v>
+      </c>
+    </row>
+    <row r="837" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A837" s="1">
+        <v>43991</v>
+      </c>
+      <c r="B837" t="s">
+        <v>5</v>
+      </c>
+      <c r="C837" s="2">
+        <v>3837</v>
+      </c>
+      <c r="D837" s="6">
+        <f t="shared" si="315"/>
+        <v>0.13914777878513146</v>
+      </c>
+      <c r="E837" s="7">
+        <f t="shared" si="316"/>
+        <v>65</v>
+      </c>
+      <c r="F837" s="6">
+        <f t="shared" si="317"/>
+        <v>0.10301109350237718</v>
+      </c>
+      <c r="G837" s="2">
+        <v>37</v>
+      </c>
+      <c r="H837" s="7">
+        <f t="shared" si="318"/>
+        <v>1</v>
+      </c>
+      <c r="I837" s="6">
+        <f t="shared" si="319"/>
+        <v>8.5057471264367815E-2</v>
+      </c>
+    </row>
+    <row r="838" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A838" s="1">
+        <v>43991</v>
+      </c>
+      <c r="B838" t="s">
+        <v>6</v>
+      </c>
+      <c r="C838" s="2">
+        <v>2175</v>
+      </c>
+      <c r="D838" s="6">
+        <f t="shared" si="315"/>
+        <v>7.8875793291024482E-2</v>
+      </c>
+      <c r="E838" s="7">
+        <f t="shared" si="316"/>
+        <v>34</v>
+      </c>
+      <c r="F838" s="6">
+        <f t="shared" si="317"/>
+        <v>5.388272583201268E-2</v>
+      </c>
+      <c r="G838" s="2">
+        <v>86</v>
+      </c>
+      <c r="H838" s="7">
+        <f t="shared" si="318"/>
+        <v>2</v>
+      </c>
+      <c r="I838" s="6">
+        <f t="shared" si="319"/>
+        <v>0.19770114942528735</v>
+      </c>
+    </row>
+    <row r="839" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A839" s="1">
+        <v>43991</v>
+      </c>
+      <c r="B839" t="s">
+        <v>7</v>
+      </c>
+      <c r="C839" s="2">
+        <v>1064</v>
+      </c>
+      <c r="D839" s="6">
+        <f t="shared" si="315"/>
+        <v>3.8585675430643701E-2</v>
+      </c>
+      <c r="E839" s="7">
+        <f t="shared" si="316"/>
+        <v>19</v>
+      </c>
+      <c r="F839" s="6">
+        <f t="shared" si="317"/>
+        <v>3.0110935023771792E-2</v>
+      </c>
+      <c r="G839" s="2">
+        <v>129</v>
+      </c>
+      <c r="H839" s="7">
+        <f t="shared" si="318"/>
+        <v>5</v>
+      </c>
+      <c r="I839" s="6">
+        <f t="shared" si="319"/>
+        <v>0.29655172413793102</v>
+      </c>
+    </row>
+    <row r="840" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A840" s="1">
+        <v>43991</v>
+      </c>
+      <c r="B840" t="s">
+        <v>25</v>
+      </c>
+      <c r="C840" s="2">
+        <v>702</v>
+      </c>
+      <c r="D840" s="6">
+        <f t="shared" si="315"/>
+        <v>2.545784224841342E-2</v>
+      </c>
+      <c r="E840" s="7">
+        <f t="shared" si="316"/>
+        <v>3</v>
+      </c>
+      <c r="F840" s="6">
+        <f t="shared" si="317"/>
+        <v>4.7543581616481777E-3</v>
+      </c>
+      <c r="G840" s="2">
+        <v>148</v>
+      </c>
+      <c r="H840" s="7">
+        <f t="shared" si="318"/>
+        <v>5</v>
+      </c>
+      <c r="I840" s="6">
+        <f t="shared" si="319"/>
+        <v>0.34022988505747126</v>
+      </c>
+    </row>
+    <row r="841" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A841" s="1">
+        <v>43991</v>
+      </c>
+      <c r="B841" t="s">
+        <v>21</v>
+      </c>
+      <c r="C841" s="2">
+        <v>201</v>
+      </c>
+      <c r="D841" s="6">
+        <f t="shared" si="315"/>
+        <v>7.2892112420670898E-3</v>
+      </c>
+      <c r="E841" s="7">
+        <f t="shared" si="316"/>
+        <v>-61</v>
+      </c>
+      <c r="F841" s="6">
+        <f t="shared" si="317"/>
+        <v>-9.6671949286846276E-2</v>
+      </c>
+      <c r="G841" s="2">
+        <v>0</v>
+      </c>
+      <c r="H841" s="7">
+        <f t="shared" si="318"/>
+        <v>0</v>
+      </c>
+      <c r="I841" s="6">
+        <f t="shared" si="319"/>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/TN_Age.xlsx
+++ b/TN_Age.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="849" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="859" uniqueCount="26">
   <si>
     <t>0-10</t>
   </si>
@@ -440,11 +440,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I841"/>
+  <dimension ref="A1:I851"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A817" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A841" sqref="A841"/>
+      <pane ySplit="1" topLeftCell="A829" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A852" sqref="A852"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -26562,6 +26562,346 @@
         <v>0</v>
       </c>
     </row>
+    <row r="842" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A842" s="1">
+        <v>43992</v>
+      </c>
+      <c r="B842" t="s">
+        <v>0</v>
+      </c>
+      <c r="C842" s="2">
+        <v>1115</v>
+      </c>
+      <c r="D842" s="6">
+        <f t="shared" ref="D842:D851" si="320">C842/SUMIF(A:A,A842,C:C)</f>
+        <v>4.0008611719114427E-2</v>
+      </c>
+      <c r="E842" s="7">
+        <f t="shared" ref="E842:E851" si="321">C842-SUMIFS(C:C,A:A,A842-1,B:B,B842)</f>
+        <v>14</v>
+      </c>
+      <c r="F842" s="6">
+        <f t="shared" ref="F842:F851" si="322">E842/SUMIF(A:A,A842,E:E)</f>
+        <v>4.7619047619047616E-2</v>
+      </c>
+      <c r="G842" s="2">
+        <v>1</v>
+      </c>
+      <c r="H842" s="7">
+        <f t="shared" ref="H842:H851" si="323">G842-SUMIFS(G:G,A:A,A842-1,B:B,B842)</f>
+        <v>0</v>
+      </c>
+      <c r="I842" s="6">
+        <f t="shared" ref="I842:I851" si="324">G842/SUMIF(A:A,A842,G:G)</f>
+        <v>2.2935779816513763E-3</v>
+      </c>
+    </row>
+    <row r="843" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A843" s="1">
+        <v>43992</v>
+      </c>
+      <c r="B843" t="s">
+        <v>1</v>
+      </c>
+      <c r="C843" s="2">
+        <v>2377</v>
+      </c>
+      <c r="D843" s="6">
+        <f t="shared" si="320"/>
+        <v>8.5291901395816133E-2</v>
+      </c>
+      <c r="E843" s="7">
+        <f t="shared" si="321"/>
+        <v>28</v>
+      </c>
+      <c r="F843" s="6">
+        <f t="shared" si="322"/>
+        <v>9.5238095238095233E-2</v>
+      </c>
+      <c r="G843" s="2">
+        <v>1</v>
+      </c>
+      <c r="H843" s="7">
+        <f t="shared" si="323"/>
+        <v>0</v>
+      </c>
+      <c r="I843" s="6">
+        <f t="shared" si="324"/>
+        <v>2.2935779816513763E-3</v>
+      </c>
+    </row>
+    <row r="844" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A844" s="1">
+        <v>43992</v>
+      </c>
+      <c r="B844" t="s">
+        <v>2</v>
+      </c>
+      <c r="C844" s="2">
+        <v>5866</v>
+      </c>
+      <c r="D844" s="6">
+        <f t="shared" si="320"/>
+        <v>0.21048476802181634</v>
+      </c>
+      <c r="E844" s="7">
+        <f t="shared" si="321"/>
+        <v>73</v>
+      </c>
+      <c r="F844" s="6">
+        <f t="shared" si="322"/>
+        <v>0.24829931972789115</v>
+      </c>
+      <c r="G844" s="2">
+        <v>2</v>
+      </c>
+      <c r="H844" s="7">
+        <f t="shared" si="323"/>
+        <v>0</v>
+      </c>
+      <c r="I844" s="6">
+        <f t="shared" si="324"/>
+        <v>4.5871559633027525E-3</v>
+      </c>
+    </row>
+    <row r="845" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A845" s="1">
+        <v>43992</v>
+      </c>
+      <c r="B845" t="s">
+        <v>3</v>
+      </c>
+      <c r="C845" s="2">
+        <v>5753</v>
+      </c>
+      <c r="D845" s="6">
+        <f t="shared" si="320"/>
+        <v>0.20643008360543974</v>
+      </c>
+      <c r="E845" s="7">
+        <f t="shared" si="321"/>
+        <v>93</v>
+      </c>
+      <c r="F845" s="6">
+        <f t="shared" si="322"/>
+        <v>0.31632653061224492</v>
+      </c>
+      <c r="G845" s="2">
+        <v>9</v>
+      </c>
+      <c r="H845" s="7">
+        <f t="shared" si="323"/>
+        <v>0</v>
+      </c>
+      <c r="I845" s="6">
+        <f t="shared" si="324"/>
+        <v>2.0642201834862386E-2</v>
+      </c>
+    </row>
+    <row r="846" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A846" s="1">
+        <v>43992</v>
+      </c>
+      <c r="B846" t="s">
+        <v>4</v>
+      </c>
+      <c r="C846" s="2">
+        <v>4740</v>
+      </c>
+      <c r="D846" s="6">
+        <f t="shared" si="320"/>
+        <v>0.17008145250995729</v>
+      </c>
+      <c r="E846" s="7">
+        <f t="shared" si="321"/>
+        <v>47</v>
+      </c>
+      <c r="F846" s="6">
+        <f t="shared" si="322"/>
+        <v>0.1598639455782313</v>
+      </c>
+      <c r="G846" s="2">
+        <v>22</v>
+      </c>
+      <c r="H846" s="7">
+        <f t="shared" si="323"/>
+        <v>0</v>
+      </c>
+      <c r="I846" s="6">
+        <f t="shared" si="324"/>
+        <v>5.0458715596330278E-2</v>
+      </c>
+    </row>
+    <row r="847" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A847" s="1">
+        <v>43992</v>
+      </c>
+      <c r="B847" t="s">
+        <v>5</v>
+      </c>
+      <c r="C847" s="2">
+        <v>3868</v>
+      </c>
+      <c r="D847" s="6">
+        <f t="shared" si="320"/>
+        <v>0.13879220639420145</v>
+      </c>
+      <c r="E847" s="7">
+        <f t="shared" si="321"/>
+        <v>31</v>
+      </c>
+      <c r="F847" s="6">
+        <f t="shared" si="322"/>
+        <v>0.10544217687074831</v>
+      </c>
+      <c r="G847" s="2">
+        <v>37</v>
+      </c>
+      <c r="H847" s="7">
+        <f t="shared" si="323"/>
+        <v>0</v>
+      </c>
+      <c r="I847" s="6">
+        <f t="shared" si="324"/>
+        <v>8.4862385321100922E-2</v>
+      </c>
+    </row>
+    <row r="848" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A848" s="1">
+        <v>43992</v>
+      </c>
+      <c r="B848" t="s">
+        <v>6</v>
+      </c>
+      <c r="C848" s="2">
+        <v>2197</v>
+      </c>
+      <c r="D848" s="6">
+        <f t="shared" si="320"/>
+        <v>7.8833112059994978E-2</v>
+      </c>
+      <c r="E848" s="7">
+        <f t="shared" si="321"/>
+        <v>22</v>
+      </c>
+      <c r="F848" s="6">
+        <f t="shared" si="322"/>
+        <v>7.4829931972789115E-2</v>
+      </c>
+      <c r="G848" s="2">
+        <v>86</v>
+      </c>
+      <c r="H848" s="7">
+        <f t="shared" si="323"/>
+        <v>0</v>
+      </c>
+      <c r="I848" s="6">
+        <f t="shared" si="324"/>
+        <v>0.19724770642201836</v>
+      </c>
+    </row>
+    <row r="849" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A849" s="1">
+        <v>43992</v>
+      </c>
+      <c r="B849" t="s">
+        <v>7</v>
+      </c>
+      <c r="C849" s="2">
+        <v>1079</v>
+      </c>
+      <c r="D849" s="6">
+        <f t="shared" si="320"/>
+        <v>3.8716853851950193E-2</v>
+      </c>
+      <c r="E849" s="7">
+        <f t="shared" si="321"/>
+        <v>15</v>
+      </c>
+      <c r="F849" s="6">
+        <f t="shared" si="322"/>
+        <v>5.1020408163265307E-2</v>
+      </c>
+      <c r="G849" s="2">
+        <v>129</v>
+      </c>
+      <c r="H849" s="7">
+        <f t="shared" si="323"/>
+        <v>0</v>
+      </c>
+      <c r="I849" s="6">
+        <f t="shared" si="324"/>
+        <v>0.29587155963302753</v>
+      </c>
+    </row>
+    <row r="850" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A850" s="1">
+        <v>43992</v>
+      </c>
+      <c r="B850" t="s">
+        <v>25</v>
+      </c>
+      <c r="C850" s="2">
+        <v>717</v>
+      </c>
+      <c r="D850" s="6">
+        <f t="shared" si="320"/>
+        <v>2.5727510854354301E-2</v>
+      </c>
+      <c r="E850" s="7">
+        <f t="shared" si="321"/>
+        <v>15</v>
+      </c>
+      <c r="F850" s="6">
+        <f t="shared" si="322"/>
+        <v>5.1020408163265307E-2</v>
+      </c>
+      <c r="G850" s="2">
+        <v>149</v>
+      </c>
+      <c r="H850" s="7">
+        <f t="shared" si="323"/>
+        <v>1</v>
+      </c>
+      <c r="I850" s="6">
+        <f t="shared" si="324"/>
+        <v>0.34174311926605505</v>
+      </c>
+    </row>
+    <row r="851" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A851" s="1">
+        <v>43992</v>
+      </c>
+      <c r="B851" t="s">
+        <v>21</v>
+      </c>
+      <c r="C851" s="2">
+        <v>157</v>
+      </c>
+      <c r="D851" s="6">
+        <f t="shared" si="320"/>
+        <v>5.6334995873551256E-3</v>
+      </c>
+      <c r="E851" s="7">
+        <f t="shared" si="321"/>
+        <v>-44</v>
+      </c>
+      <c r="F851" s="6">
+        <f t="shared" si="322"/>
+        <v>-0.14965986394557823</v>
+      </c>
+      <c r="G851" s="2">
+        <v>0</v>
+      </c>
+      <c r="H851" s="7">
+        <f t="shared" si="323"/>
+        <v>0</v>
+      </c>
+      <c r="I851" s="6">
+        <f t="shared" si="324"/>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/TN_Age.xlsx
+++ b/TN_Age.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="859" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="26">
   <si>
     <t>0-10</t>
   </si>
@@ -440,11 +440,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I851"/>
+  <dimension ref="A1:I861"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A829" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A852" sqref="A852"/>
+      <selection pane="bottomLeft" activeCell="G852" sqref="G852:G861"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -26902,6 +26902,346 @@
         <v>0</v>
       </c>
     </row>
+    <row r="852" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A852" s="1">
+        <v>43993</v>
+      </c>
+      <c r="B852" t="s">
+        <v>0</v>
+      </c>
+      <c r="C852">
+        <v>1149</v>
+      </c>
+      <c r="D852" s="6">
+        <f t="shared" ref="D852:D861" si="325">C852/SUMIF(A:A,A852,C:C)</f>
+        <v>4.0543401552575867E-2</v>
+      </c>
+      <c r="E852" s="7">
+        <f t="shared" ref="E852:E861" si="326">C852-SUMIFS(C:C,A:A,A852-1,B:B,B852)</f>
+        <v>34</v>
+      </c>
+      <c r="F852" s="6">
+        <f t="shared" ref="F852:F861" si="327">E852/SUMIF(A:A,A852,E:E)</f>
+        <v>7.2186836518046707E-2</v>
+      </c>
+      <c r="G852">
+        <v>1</v>
+      </c>
+      <c r="H852" s="7">
+        <f t="shared" ref="H852:H861" si="328">G852-SUMIFS(G:G,A:A,A852-1,B:B,B852)</f>
+        <v>0</v>
+      </c>
+      <c r="I852" s="6">
+        <f t="shared" ref="I852:I861" si="329">G852/SUMIF(A:A,A852,G:G)</f>
+        <v>2.2675736961451248E-3</v>
+      </c>
+    </row>
+    <row r="853" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A853" s="1">
+        <v>43993</v>
+      </c>
+      <c r="B853" t="s">
+        <v>1</v>
+      </c>
+      <c r="C853">
+        <v>2421</v>
+      </c>
+      <c r="D853" s="6">
+        <f t="shared" si="325"/>
+        <v>8.5426958362738184E-2</v>
+      </c>
+      <c r="E853" s="7">
+        <f t="shared" si="326"/>
+        <v>44</v>
+      </c>
+      <c r="F853" s="6">
+        <f t="shared" si="327"/>
+        <v>9.3418259023354558E-2</v>
+      </c>
+      <c r="G853">
+        <v>1</v>
+      </c>
+      <c r="H853" s="7">
+        <f t="shared" si="328"/>
+        <v>0</v>
+      </c>
+      <c r="I853" s="6">
+        <f t="shared" si="329"/>
+        <v>2.2675736961451248E-3</v>
+      </c>
+    </row>
+    <row r="854" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A854" s="1">
+        <v>43993</v>
+      </c>
+      <c r="B854" t="s">
+        <v>2</v>
+      </c>
+      <c r="C854">
+        <v>5992</v>
+      </c>
+      <c r="D854" s="6">
+        <f t="shared" si="325"/>
+        <v>0.21143260409315456</v>
+      </c>
+      <c r="E854" s="7">
+        <f t="shared" si="326"/>
+        <v>126</v>
+      </c>
+      <c r="F854" s="6">
+        <f t="shared" si="327"/>
+        <v>0.26751592356687898</v>
+      </c>
+      <c r="G854">
+        <v>2</v>
+      </c>
+      <c r="H854" s="7">
+        <f t="shared" si="328"/>
+        <v>0</v>
+      </c>
+      <c r="I854" s="6">
+        <f t="shared" si="329"/>
+        <v>4.5351473922902496E-3</v>
+      </c>
+    </row>
+    <row r="855" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A855" s="1">
+        <v>43993</v>
+      </c>
+      <c r="B855" t="s">
+        <v>3</v>
+      </c>
+      <c r="C855">
+        <v>5867</v>
+      </c>
+      <c r="D855" s="6">
+        <f t="shared" si="325"/>
+        <v>0.20702187720536344</v>
+      </c>
+      <c r="E855" s="7">
+        <f t="shared" si="326"/>
+        <v>114</v>
+      </c>
+      <c r="F855" s="6">
+        <f t="shared" si="327"/>
+        <v>0.24203821656050956</v>
+      </c>
+      <c r="G855">
+        <v>10</v>
+      </c>
+      <c r="H855" s="7">
+        <f t="shared" si="328"/>
+        <v>1</v>
+      </c>
+      <c r="I855" s="6">
+        <f t="shared" si="329"/>
+        <v>2.2675736961451247E-2</v>
+      </c>
+    </row>
+    <row r="856" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A856" s="1">
+        <v>43993</v>
+      </c>
+      <c r="B856" t="s">
+        <v>4</v>
+      </c>
+      <c r="C856">
+        <v>4838</v>
+      </c>
+      <c r="D856" s="6">
+        <f t="shared" si="325"/>
+        <v>0.17071277346506705</v>
+      </c>
+      <c r="E856" s="7">
+        <f t="shared" si="326"/>
+        <v>98</v>
+      </c>
+      <c r="F856" s="6">
+        <f t="shared" si="327"/>
+        <v>0.20806794055201699</v>
+      </c>
+      <c r="G856">
+        <v>21</v>
+      </c>
+      <c r="H856" s="7">
+        <f t="shared" si="328"/>
+        <v>-1</v>
+      </c>
+      <c r="I856" s="6">
+        <f t="shared" si="329"/>
+        <v>4.7619047619047616E-2</v>
+      </c>
+    </row>
+    <row r="857" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A857" s="1">
+        <v>43993</v>
+      </c>
+      <c r="B857" t="s">
+        <v>5</v>
+      </c>
+      <c r="C857">
+        <v>3921</v>
+      </c>
+      <c r="D857" s="6">
+        <f t="shared" si="325"/>
+        <v>0.13835568101623147</v>
+      </c>
+      <c r="E857" s="7">
+        <f t="shared" si="326"/>
+        <v>53</v>
+      </c>
+      <c r="F857" s="6">
+        <f t="shared" si="327"/>
+        <v>0.11252653927813164</v>
+      </c>
+      <c r="G857">
+        <v>37</v>
+      </c>
+      <c r="H857" s="7">
+        <f t="shared" si="328"/>
+        <v>0</v>
+      </c>
+      <c r="I857" s="6">
+        <f t="shared" si="329"/>
+        <v>8.390022675736962E-2</v>
+      </c>
+    </row>
+    <row r="858" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A858" s="1">
+        <v>43993</v>
+      </c>
+      <c r="B858" t="s">
+        <v>6</v>
+      </c>
+      <c r="C858">
+        <v>2223</v>
+      </c>
+      <c r="D858" s="6">
+        <f t="shared" si="325"/>
+        <v>7.8440366972477069E-2</v>
+      </c>
+      <c r="E858" s="7">
+        <f t="shared" si="326"/>
+        <v>26</v>
+      </c>
+      <c r="F858" s="6">
+        <f t="shared" si="327"/>
+        <v>5.5201698513800426E-2</v>
+      </c>
+      <c r="G858">
+        <v>87</v>
+      </c>
+      <c r="H858" s="7">
+        <f t="shared" si="328"/>
+        <v>1</v>
+      </c>
+      <c r="I858" s="6">
+        <f t="shared" si="329"/>
+        <v>0.19727891156462585</v>
+      </c>
+    </row>
+    <row r="859" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A859" s="1">
+        <v>43993</v>
+      </c>
+      <c r="B859" t="s">
+        <v>7</v>
+      </c>
+      <c r="C859">
+        <v>1092</v>
+      </c>
+      <c r="D859" s="6">
+        <f t="shared" si="325"/>
+        <v>3.8532110091743121E-2</v>
+      </c>
+      <c r="E859" s="7">
+        <f t="shared" si="326"/>
+        <v>13</v>
+      </c>
+      <c r="F859" s="6">
+        <f t="shared" si="327"/>
+        <v>2.7600849256900213E-2</v>
+      </c>
+      <c r="G859">
+        <v>131</v>
+      </c>
+      <c r="H859" s="7">
+        <f t="shared" si="328"/>
+        <v>2</v>
+      </c>
+      <c r="I859" s="6">
+        <f t="shared" si="329"/>
+        <v>0.29705215419501135</v>
+      </c>
+    </row>
+    <row r="860" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A860" s="1">
+        <v>43993</v>
+      </c>
+      <c r="B860" t="s">
+        <v>25</v>
+      </c>
+      <c r="C860">
+        <v>730</v>
+      </c>
+      <c r="D860" s="6">
+        <f t="shared" si="325"/>
+        <v>2.5758645024700072E-2</v>
+      </c>
+      <c r="E860" s="7">
+        <f t="shared" si="326"/>
+        <v>13</v>
+      </c>
+      <c r="F860" s="6">
+        <f t="shared" si="327"/>
+        <v>2.7600849256900213E-2</v>
+      </c>
+      <c r="G860">
+        <v>151</v>
+      </c>
+      <c r="H860" s="7">
+        <f t="shared" si="328"/>
+        <v>2</v>
+      </c>
+      <c r="I860" s="6">
+        <f t="shared" si="329"/>
+        <v>0.34240362811791381</v>
+      </c>
+    </row>
+    <row r="861" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A861" s="1">
+        <v>43993</v>
+      </c>
+      <c r="B861" t="s">
+        <v>21</v>
+      </c>
+      <c r="C861">
+        <v>107</v>
+      </c>
+      <c r="D861" s="6">
+        <f t="shared" si="325"/>
+        <v>3.7755822159491886E-3</v>
+      </c>
+      <c r="E861" s="7">
+        <f t="shared" si="326"/>
+        <v>-50</v>
+      </c>
+      <c r="F861" s="6">
+        <f t="shared" si="327"/>
+        <v>-0.10615711252653928</v>
+      </c>
+      <c r="G861">
+        <v>0</v>
+      </c>
+      <c r="H861" s="7">
+        <f t="shared" si="328"/>
+        <v>0</v>
+      </c>
+      <c r="I861" s="6">
+        <f t="shared" si="329"/>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/TN_Age.xlsx
+++ b/TN_Age.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="899" uniqueCount="26">
   <si>
     <t>0-10</t>
   </si>
@@ -440,11 +440,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I861"/>
+  <dimension ref="A1:I891"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A829" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G852" sqref="G852:G861"/>
+      <pane ySplit="1" topLeftCell="A862" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H891" sqref="H891"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -27242,6 +27242,1026 @@
         <v>0</v>
       </c>
     </row>
+    <row r="862" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A862" s="1">
+        <v>43994</v>
+      </c>
+      <c r="B862" t="s">
+        <v>0</v>
+      </c>
+      <c r="C862">
+        <v>1202</v>
+      </c>
+      <c r="D862" s="6">
+        <f t="shared" ref="D862:D870" si="330">C862/SUMIF(A:A,A862,C:C)</f>
+        <v>4.1268969305774908E-2</v>
+      </c>
+      <c r="E862" s="7">
+        <f t="shared" ref="E862:E870" si="331">C862-SUMIFS(C:C,A:A,A862-1,B:B,B862)</f>
+        <v>53</v>
+      </c>
+      <c r="F862" s="6">
+        <f t="shared" ref="F862:F870" si="332">E862/SUMIF(A:A,A862,E:E)</f>
+        <v>6.7430025445292627E-2</v>
+      </c>
+      <c r="G862" s="2">
+        <v>1</v>
+      </c>
+      <c r="H862" s="7">
+        <f t="shared" ref="H862:H870" si="333">G862-SUMIFS(G:G,A:A,A862-1,B:B,B862)</f>
+        <v>0</v>
+      </c>
+      <c r="I862" s="6">
+        <f t="shared" ref="I862:I870" si="334">G862/SUMIF(A:A,A862,G:G)</f>
+        <v>2.136752136752137E-3</v>
+      </c>
+    </row>
+    <row r="863" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A863" s="1">
+        <v>43994</v>
+      </c>
+      <c r="B863" t="s">
+        <v>1</v>
+      </c>
+      <c r="C863">
+        <v>2510</v>
+      </c>
+      <c r="D863" s="6">
+        <f t="shared" si="330"/>
+        <v>8.6177298633523317E-2</v>
+      </c>
+      <c r="E863" s="7">
+        <f t="shared" si="331"/>
+        <v>89</v>
+      </c>
+      <c r="F863" s="6">
+        <f t="shared" si="332"/>
+        <v>0.11323155216284987</v>
+      </c>
+      <c r="G863" s="2">
+        <v>1</v>
+      </c>
+      <c r="H863" s="7">
+        <f t="shared" si="333"/>
+        <v>0</v>
+      </c>
+      <c r="I863" s="6">
+        <f t="shared" si="334"/>
+        <v>2.136752136752137E-3</v>
+      </c>
+    </row>
+    <row r="864" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A864" s="1">
+        <v>43994</v>
+      </c>
+      <c r="B864" t="s">
+        <v>2</v>
+      </c>
+      <c r="C864">
+        <v>6154</v>
+      </c>
+      <c r="D864" s="6">
+        <f t="shared" si="330"/>
+        <v>0.21128888278514044</v>
+      </c>
+      <c r="E864" s="7">
+        <f t="shared" si="331"/>
+        <v>162</v>
+      </c>
+      <c r="F864" s="6">
+        <f t="shared" si="332"/>
+        <v>0.20610687022900764</v>
+      </c>
+      <c r="G864" s="2">
+        <v>3</v>
+      </c>
+      <c r="H864" s="7">
+        <f t="shared" si="333"/>
+        <v>1</v>
+      </c>
+      <c r="I864" s="6">
+        <f t="shared" si="334"/>
+        <v>6.41025641025641E-3</v>
+      </c>
+    </row>
+    <row r="865" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A865" s="1">
+        <v>43994</v>
+      </c>
+      <c r="B865" t="s">
+        <v>3</v>
+      </c>
+      <c r="C865">
+        <v>6034</v>
+      </c>
+      <c r="D865" s="6">
+        <f t="shared" si="330"/>
+        <v>0.20716885257158552</v>
+      </c>
+      <c r="E865" s="7">
+        <f t="shared" si="331"/>
+        <v>167</v>
+      </c>
+      <c r="F865" s="6">
+        <f t="shared" si="332"/>
+        <v>0.21246819338422393</v>
+      </c>
+      <c r="G865" s="2">
+        <v>10</v>
+      </c>
+      <c r="H865" s="7">
+        <f t="shared" si="333"/>
+        <v>0</v>
+      </c>
+      <c r="I865" s="6">
+        <f t="shared" si="334"/>
+        <v>2.1367521367521368E-2</v>
+      </c>
+    </row>
+    <row r="866" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A866" s="1">
+        <v>43994</v>
+      </c>
+      <c r="B866" t="s">
+        <v>4</v>
+      </c>
+      <c r="C866">
+        <v>4966</v>
+      </c>
+      <c r="D866" s="6">
+        <f t="shared" si="330"/>
+        <v>0.17050058367094692</v>
+      </c>
+      <c r="E866" s="7">
+        <f t="shared" si="331"/>
+        <v>128</v>
+      </c>
+      <c r="F866" s="6">
+        <f t="shared" si="332"/>
+        <v>0.16284987277353691</v>
+      </c>
+      <c r="G866" s="2">
+        <v>22</v>
+      </c>
+      <c r="H866" s="7">
+        <f t="shared" si="333"/>
+        <v>1</v>
+      </c>
+      <c r="I866" s="6">
+        <f t="shared" si="334"/>
+        <v>4.7008547008547008E-2</v>
+      </c>
+    </row>
+    <row r="867" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A867" s="1">
+        <v>43994</v>
+      </c>
+      <c r="B867" t="s">
+        <v>5</v>
+      </c>
+      <c r="C867">
+        <v>4009</v>
+      </c>
+      <c r="D867" s="6">
+        <f t="shared" si="330"/>
+        <v>0.13764334271784659</v>
+      </c>
+      <c r="E867" s="7">
+        <f t="shared" si="331"/>
+        <v>88</v>
+      </c>
+      <c r="F867" s="6">
+        <f t="shared" si="332"/>
+        <v>0.11195928753180662</v>
+      </c>
+      <c r="G867" s="2">
+        <v>41</v>
+      </c>
+      <c r="H867" s="7">
+        <f t="shared" si="333"/>
+        <v>4</v>
+      </c>
+      <c r="I867" s="6">
+        <f t="shared" si="334"/>
+        <v>8.7606837606837601E-2</v>
+      </c>
+    </row>
+    <row r="868" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A868" s="1">
+        <v>43994</v>
+      </c>
+      <c r="B868" t="s">
+        <v>6</v>
+      </c>
+      <c r="C868">
+        <v>2275</v>
+      </c>
+      <c r="D868" s="6">
+        <f t="shared" si="330"/>
+        <v>7.8108906131978295E-2</v>
+      </c>
+      <c r="E868" s="7">
+        <f t="shared" si="331"/>
+        <v>52</v>
+      </c>
+      <c r="F868" s="6">
+        <f t="shared" si="332"/>
+        <v>6.6157760814249358E-2</v>
+      </c>
+      <c r="G868" s="2">
+        <v>94</v>
+      </c>
+      <c r="H868" s="7">
+        <f t="shared" si="333"/>
+        <v>7</v>
+      </c>
+      <c r="I868" s="6">
+        <f t="shared" si="334"/>
+        <v>0.20085470085470086</v>
+      </c>
+    </row>
+    <row r="869" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A869" s="1">
+        <v>43994</v>
+      </c>
+      <c r="B869" t="s">
+        <v>7</v>
+      </c>
+      <c r="C869">
+        <v>1123</v>
+      </c>
+      <c r="D869" s="6">
+        <f t="shared" si="330"/>
+        <v>3.8556616081851264E-2</v>
+      </c>
+      <c r="E869" s="7">
+        <f t="shared" si="331"/>
+        <v>31</v>
+      </c>
+      <c r="F869" s="6">
+        <f t="shared" si="332"/>
+        <v>3.9440203562340966E-2</v>
+      </c>
+      <c r="G869" s="2">
+        <v>140</v>
+      </c>
+      <c r="H869" s="7">
+        <f t="shared" si="333"/>
+        <v>9</v>
+      </c>
+      <c r="I869" s="6">
+        <f t="shared" si="334"/>
+        <v>0.29914529914529914</v>
+      </c>
+    </row>
+    <row r="870" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A870" s="1">
+        <v>43994</v>
+      </c>
+      <c r="B870" t="s">
+        <v>25</v>
+      </c>
+      <c r="C870">
+        <v>741</v>
+      </c>
+      <c r="D870" s="6">
+        <f t="shared" si="330"/>
+        <v>2.5441186568701504E-2</v>
+      </c>
+      <c r="E870" s="7">
+        <f t="shared" si="331"/>
+        <v>11</v>
+      </c>
+      <c r="F870" s="6">
+        <f t="shared" si="332"/>
+        <v>1.3994910941475827E-2</v>
+      </c>
+      <c r="G870" s="2">
+        <v>156</v>
+      </c>
+      <c r="H870" s="7">
+        <f t="shared" si="333"/>
+        <v>5</v>
+      </c>
+      <c r="I870" s="6">
+        <f t="shared" si="334"/>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="871" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A871" s="1">
+        <v>43994</v>
+      </c>
+      <c r="B871" t="s">
+        <v>21</v>
+      </c>
+      <c r="C871">
+        <v>112</v>
+      </c>
+      <c r="D871" s="6">
+        <f>C871/SUMIF(A:A,A871,C:C)</f>
+        <v>3.8453615326512394E-3</v>
+      </c>
+      <c r="E871" s="7">
+        <f>C871-SUMIFS(C:C,A:A,A871-1,B:B,B871)</f>
+        <v>5</v>
+      </c>
+      <c r="F871" s="6">
+        <f>E871/SUMIF(A:A,A871,E:E)</f>
+        <v>6.3613231552162846E-3</v>
+      </c>
+      <c r="G871" s="2">
+        <v>0</v>
+      </c>
+      <c r="H871" s="7">
+        <f>G871-SUMIFS(G:G,A:A,A871-1,B:B,B871)</f>
+        <v>0</v>
+      </c>
+      <c r="I871" s="6">
+        <f>G871/SUMIF(A:A,A871,G:G)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="872" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A872" s="1">
+        <v>43995</v>
+      </c>
+      <c r="B872" t="s">
+        <v>0</v>
+      </c>
+      <c r="C872">
+        <v>1224</v>
+      </c>
+      <c r="D872" s="6">
+        <f t="shared" ref="D872:D881" si="335">C872/SUMIF(A:A,A872,C:C)</f>
+        <v>4.1433939270843913E-2</v>
+      </c>
+      <c r="E872" s="7">
+        <f t="shared" ref="E872:E881" si="336">C872-SUMIFS(C:C,A:A,A872-1,B:B,B872)</f>
+        <v>22</v>
+      </c>
+      <c r="F872" s="6">
+        <f t="shared" ref="F872:F881" si="337">E872/SUMIF(A:A,A872,E:E)</f>
+        <v>5.3012048192771083E-2</v>
+      </c>
+      <c r="G872" s="2">
+        <v>1</v>
+      </c>
+      <c r="H872" s="7">
+        <f t="shared" ref="H872:H881" si="338">G872-SUMIFS(G:G,A:A,A872-1,B:B,B872)</f>
+        <v>0</v>
+      </c>
+      <c r="I872" s="6">
+        <f t="shared" ref="I872:I881" si="339">G872/SUMIF(A:A,A872,G:G)</f>
+        <v>2.1186440677966102E-3</v>
+      </c>
+    </row>
+    <row r="873" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A873" s="1">
+        <v>43995</v>
+      </c>
+      <c r="B873" t="s">
+        <v>1</v>
+      </c>
+      <c r="C873">
+        <v>2551</v>
+      </c>
+      <c r="D873" s="6">
+        <f t="shared" si="335"/>
+        <v>8.6354558071832371E-2</v>
+      </c>
+      <c r="E873" s="7">
+        <f t="shared" si="336"/>
+        <v>41</v>
+      </c>
+      <c r="F873" s="6">
+        <f t="shared" si="337"/>
+        <v>9.8795180722891562E-2</v>
+      </c>
+      <c r="G873" s="2">
+        <v>1</v>
+      </c>
+      <c r="H873" s="7">
+        <f t="shared" si="338"/>
+        <v>0</v>
+      </c>
+      <c r="I873" s="6">
+        <f t="shared" si="339"/>
+        <v>2.1186440677966102E-3</v>
+      </c>
+    </row>
+    <row r="874" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A874" s="1">
+        <v>43995</v>
+      </c>
+      <c r="B874" t="s">
+        <v>2</v>
+      </c>
+      <c r="C874">
+        <v>6263</v>
+      </c>
+      <c r="D874" s="6">
+        <f t="shared" si="335"/>
+        <v>0.21201042618733287</v>
+      </c>
+      <c r="E874" s="7">
+        <f t="shared" si="336"/>
+        <v>109</v>
+      </c>
+      <c r="F874" s="6">
+        <f t="shared" si="337"/>
+        <v>0.26265060240963856</v>
+      </c>
+      <c r="G874" s="2">
+        <v>3</v>
+      </c>
+      <c r="H874" s="7">
+        <f t="shared" si="338"/>
+        <v>0</v>
+      </c>
+      <c r="I874" s="6">
+        <f t="shared" si="339"/>
+        <v>6.3559322033898309E-3</v>
+      </c>
+    </row>
+    <row r="875" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A875" s="1">
+        <v>43995</v>
+      </c>
+      <c r="B875" t="s">
+        <v>3</v>
+      </c>
+      <c r="C875">
+        <v>6142</v>
+      </c>
+      <c r="D875" s="6">
+        <f t="shared" si="335"/>
+        <v>0.20791442402085236</v>
+      </c>
+      <c r="E875" s="7">
+        <f t="shared" si="336"/>
+        <v>108</v>
+      </c>
+      <c r="F875" s="6">
+        <f t="shared" si="337"/>
+        <v>0.26024096385542167</v>
+      </c>
+      <c r="G875" s="2">
+        <v>10</v>
+      </c>
+      <c r="H875" s="7">
+        <f t="shared" si="338"/>
+        <v>0</v>
+      </c>
+      <c r="I875" s="6">
+        <f t="shared" si="339"/>
+        <v>2.1186440677966101E-2</v>
+      </c>
+    </row>
+    <row r="876" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A876" s="1">
+        <v>43995</v>
+      </c>
+      <c r="B876" t="s">
+        <v>4</v>
+      </c>
+      <c r="C876">
+        <v>5042</v>
+      </c>
+      <c r="D876" s="6">
+        <f t="shared" si="335"/>
+        <v>0.17067804068921161</v>
+      </c>
+      <c r="E876" s="7">
+        <f t="shared" si="336"/>
+        <v>76</v>
+      </c>
+      <c r="F876" s="6">
+        <f t="shared" si="337"/>
+        <v>0.18313253012048192</v>
+      </c>
+      <c r="G876" s="2">
+        <v>22</v>
+      </c>
+      <c r="H876" s="7">
+        <f t="shared" si="338"/>
+        <v>0</v>
+      </c>
+      <c r="I876" s="6">
+        <f t="shared" si="339"/>
+        <v>4.6610169491525424E-2</v>
+      </c>
+    </row>
+    <row r="877" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A877" s="1">
+        <v>43995</v>
+      </c>
+      <c r="B877" t="s">
+        <v>5</v>
+      </c>
+      <c r="C877">
+        <v>4068</v>
+      </c>
+      <c r="D877" s="6">
+        <f t="shared" si="335"/>
+        <v>0.1377069158119224</v>
+      </c>
+      <c r="E877" s="7">
+        <f t="shared" si="336"/>
+        <v>59</v>
+      </c>
+      <c r="F877" s="6">
+        <f t="shared" si="337"/>
+        <v>0.14216867469879518</v>
+      </c>
+      <c r="G877" s="2">
+        <v>41</v>
+      </c>
+      <c r="H877" s="7">
+        <f t="shared" si="338"/>
+        <v>0</v>
+      </c>
+      <c r="I877" s="6">
+        <f t="shared" si="339"/>
+        <v>8.6864406779661021E-2</v>
+      </c>
+    </row>
+    <row r="878" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A878" s="1">
+        <v>43995</v>
+      </c>
+      <c r="B878" t="s">
+        <v>6</v>
+      </c>
+      <c r="C878">
+        <v>2303</v>
+      </c>
+      <c r="D878" s="6">
+        <f t="shared" si="335"/>
+        <v>7.7959446193426082E-2</v>
+      </c>
+      <c r="E878" s="7">
+        <f t="shared" si="336"/>
+        <v>28</v>
+      </c>
+      <c r="F878" s="6">
+        <f t="shared" si="337"/>
+        <v>6.746987951807229E-2</v>
+      </c>
+      <c r="G878" s="2">
+        <v>94</v>
+      </c>
+      <c r="H878" s="7">
+        <f t="shared" si="338"/>
+        <v>0</v>
+      </c>
+      <c r="I878" s="6">
+        <f t="shared" si="339"/>
+        <v>0.19915254237288135</v>
+      </c>
+    </row>
+    <row r="879" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A879" s="1">
+        <v>43995</v>
+      </c>
+      <c r="B879" t="s">
+        <v>7</v>
+      </c>
+      <c r="C879">
+        <v>1142</v>
+      </c>
+      <c r="D879" s="6">
+        <f t="shared" si="335"/>
+        <v>3.8658136149757966E-2</v>
+      </c>
+      <c r="E879" s="7">
+        <f t="shared" si="336"/>
+        <v>19</v>
+      </c>
+      <c r="F879" s="6">
+        <f t="shared" si="337"/>
+        <v>4.5783132530120479E-2</v>
+      </c>
+      <c r="G879" s="2">
+        <v>142</v>
+      </c>
+      <c r="H879" s="7">
+        <f t="shared" si="338"/>
+        <v>2</v>
+      </c>
+      <c r="I879" s="6">
+        <f t="shared" si="339"/>
+        <v>0.30084745762711862</v>
+      </c>
+    </row>
+    <row r="880" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A880" s="1">
+        <v>43995</v>
+      </c>
+      <c r="B880" t="s">
+        <v>25</v>
+      </c>
+      <c r="C880">
+        <v>746</v>
+      </c>
+      <c r="D880" s="6">
+        <f t="shared" si="335"/>
+        <v>2.5253038150367287E-2</v>
+      </c>
+      <c r="E880" s="7">
+        <f t="shared" si="336"/>
+        <v>5</v>
+      </c>
+      <c r="F880" s="6">
+        <f t="shared" si="337"/>
+        <v>1.2048192771084338E-2</v>
+      </c>
+      <c r="G880" s="2">
+        <v>158</v>
+      </c>
+      <c r="H880" s="7">
+        <f t="shared" si="338"/>
+        <v>2</v>
+      </c>
+      <c r="I880" s="6">
+        <f t="shared" si="339"/>
+        <v>0.3347457627118644</v>
+      </c>
+    </row>
+    <row r="881" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A881" s="1">
+        <v>43995</v>
+      </c>
+      <c r="B881" t="s">
+        <v>21</v>
+      </c>
+      <c r="C881">
+        <v>60</v>
+      </c>
+      <c r="D881" s="6">
+        <f t="shared" si="335"/>
+        <v>2.0310754544531329E-3</v>
+      </c>
+      <c r="E881" s="7">
+        <f t="shared" si="336"/>
+        <v>-52</v>
+      </c>
+      <c r="F881" s="6">
+        <f t="shared" si="337"/>
+        <v>-0.12530120481927712</v>
+      </c>
+      <c r="G881" s="2">
+        <v>0</v>
+      </c>
+      <c r="H881" s="7">
+        <f t="shared" si="338"/>
+        <v>0</v>
+      </c>
+      <c r="I881" s="6">
+        <f t="shared" si="339"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="882" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A882" s="1">
+        <v>43996</v>
+      </c>
+      <c r="B882" t="s">
+        <v>0</v>
+      </c>
+      <c r="C882">
+        <v>1289</v>
+      </c>
+      <c r="D882" s="6">
+        <f t="shared" ref="D882:D891" si="340">C882/SUMIF(A:A,A882,C:C)</f>
+        <v>4.2356729758149317E-2</v>
+      </c>
+      <c r="E882" s="7">
+        <f t="shared" ref="E882:E891" si="341">C882-SUMIFS(C:C,A:A,A882-1,B:B,B882)</f>
+        <v>65</v>
+      </c>
+      <c r="F882" s="6">
+        <f t="shared" ref="F882:F891" si="342">E882/SUMIF(A:A,A882,E:E)</f>
+        <v>7.2951739618406286E-2</v>
+      </c>
+      <c r="G882">
+        <v>1</v>
+      </c>
+      <c r="H882" s="7">
+        <f t="shared" ref="H882:H891" si="343">G882-SUMIFS(G:G,A:A,A882-1,B:B,B882)</f>
+        <v>0</v>
+      </c>
+      <c r="I882" s="6">
+        <f t="shared" ref="I882:I891" si="344">G882/SUMIF(A:A,A882,G:G)</f>
+        <v>2.1052631578947368E-3</v>
+      </c>
+    </row>
+    <row r="883" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A883" s="1">
+        <v>43996</v>
+      </c>
+      <c r="B883" t="s">
+        <v>1</v>
+      </c>
+      <c r="C883">
+        <v>2652</v>
+      </c>
+      <c r="D883" s="6">
+        <f t="shared" si="340"/>
+        <v>8.7145110410094637E-2</v>
+      </c>
+      <c r="E883" s="7">
+        <f t="shared" si="341"/>
+        <v>101</v>
+      </c>
+      <c r="F883" s="6">
+        <f t="shared" si="342"/>
+        <v>0.11335578002244669</v>
+      </c>
+      <c r="G883">
+        <v>1</v>
+      </c>
+      <c r="H883" s="7">
+        <f t="shared" si="343"/>
+        <v>0</v>
+      </c>
+      <c r="I883" s="6">
+        <f t="shared" si="344"/>
+        <v>2.1052631578947368E-3</v>
+      </c>
+    </row>
+    <row r="884" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A884" s="1">
+        <v>43996</v>
+      </c>
+      <c r="B884" t="s">
+        <v>2</v>
+      </c>
+      <c r="C884">
+        <v>6480</v>
+      </c>
+      <c r="D884" s="6">
+        <f t="shared" si="340"/>
+        <v>0.21293375394321767</v>
+      </c>
+      <c r="E884" s="7">
+        <f t="shared" si="341"/>
+        <v>217</v>
+      </c>
+      <c r="F884" s="6">
+        <f t="shared" si="342"/>
+        <v>0.24354657687991021</v>
+      </c>
+      <c r="G884">
+        <v>3</v>
+      </c>
+      <c r="H884" s="7">
+        <f t="shared" si="343"/>
+        <v>0</v>
+      </c>
+      <c r="I884" s="6">
+        <f t="shared" si="344"/>
+        <v>6.3157894736842104E-3</v>
+      </c>
+    </row>
+    <row r="885" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A885" s="1">
+        <v>43996</v>
+      </c>
+      <c r="B885" t="s">
+        <v>3</v>
+      </c>
+      <c r="C885">
+        <v>6327</v>
+      </c>
+      <c r="D885" s="6">
+        <f t="shared" si="340"/>
+        <v>0.20790615141955837</v>
+      </c>
+      <c r="E885" s="7">
+        <f t="shared" si="341"/>
+        <v>185</v>
+      </c>
+      <c r="F885" s="6">
+        <f t="shared" si="342"/>
+        <v>0.20763187429854096</v>
+      </c>
+      <c r="G885">
+        <v>10</v>
+      </c>
+      <c r="H885" s="7">
+        <f t="shared" si="343"/>
+        <v>0</v>
+      </c>
+      <c r="I885" s="6">
+        <f t="shared" si="344"/>
+        <v>2.1052631578947368E-2</v>
+      </c>
+    </row>
+    <row r="886" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A886" s="1">
+        <v>43996</v>
+      </c>
+      <c r="B886" t="s">
+        <v>4</v>
+      </c>
+      <c r="C886">
+        <v>5185</v>
+      </c>
+      <c r="D886" s="6">
+        <f t="shared" si="340"/>
+        <v>0.17037986330178759</v>
+      </c>
+      <c r="E886" s="7">
+        <f t="shared" si="341"/>
+        <v>143</v>
+      </c>
+      <c r="F886" s="6">
+        <f t="shared" si="342"/>
+        <v>0.16049382716049382</v>
+      </c>
+      <c r="G886">
+        <v>23</v>
+      </c>
+      <c r="H886" s="7">
+        <f t="shared" si="343"/>
+        <v>1</v>
+      </c>
+      <c r="I886" s="6">
+        <f t="shared" si="344"/>
+        <v>4.8421052631578948E-2</v>
+      </c>
+    </row>
+    <row r="887" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A887" s="1">
+        <v>43996</v>
+      </c>
+      <c r="B887" t="s">
+        <v>5</v>
+      </c>
+      <c r="C887">
+        <v>4170</v>
+      </c>
+      <c r="D887" s="6">
+        <f t="shared" si="340"/>
+        <v>0.13702681388012619</v>
+      </c>
+      <c r="E887" s="7">
+        <f t="shared" si="341"/>
+        <v>102</v>
+      </c>
+      <c r="F887" s="6">
+        <f t="shared" si="342"/>
+        <v>0.11447811447811448</v>
+      </c>
+      <c r="G887">
+        <v>41</v>
+      </c>
+      <c r="H887" s="7">
+        <f t="shared" si="343"/>
+        <v>0</v>
+      </c>
+      <c r="I887" s="6">
+        <f t="shared" si="344"/>
+        <v>8.6315789473684207E-2</v>
+      </c>
+    </row>
+    <row r="888" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A888" s="1">
+        <v>43996</v>
+      </c>
+      <c r="B888" t="s">
+        <v>6</v>
+      </c>
+      <c r="C888">
+        <v>2352</v>
+      </c>
+      <c r="D888" s="6">
+        <f t="shared" si="340"/>
+        <v>7.7287066246056788E-2</v>
+      </c>
+      <c r="E888" s="7">
+        <f t="shared" si="341"/>
+        <v>49</v>
+      </c>
+      <c r="F888" s="6">
+        <f t="shared" si="342"/>
+        <v>5.4994388327721661E-2</v>
+      </c>
+      <c r="G888">
+        <v>94</v>
+      </c>
+      <c r="H888" s="7">
+        <f t="shared" si="343"/>
+        <v>0</v>
+      </c>
+      <c r="I888" s="6">
+        <f t="shared" si="344"/>
+        <v>0.19789473684210526</v>
+      </c>
+    </row>
+    <row r="889" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A889" s="1">
+        <v>43996</v>
+      </c>
+      <c r="B889" t="s">
+        <v>7</v>
+      </c>
+      <c r="C889">
+        <v>1167</v>
+      </c>
+      <c r="D889" s="6">
+        <f t="shared" si="340"/>
+        <v>3.8347791798107253E-2</v>
+      </c>
+      <c r="E889" s="7">
+        <f t="shared" si="341"/>
+        <v>25</v>
+      </c>
+      <c r="F889" s="6">
+        <f t="shared" si="342"/>
+        <v>2.8058361391694726E-2</v>
+      </c>
+      <c r="G889">
+        <v>143</v>
+      </c>
+      <c r="H889" s="7">
+        <f t="shared" si="343"/>
+        <v>1</v>
+      </c>
+      <c r="I889" s="6">
+        <f t="shared" si="344"/>
+        <v>0.30105263157894735</v>
+      </c>
+    </row>
+    <row r="890" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A890" s="1">
+        <v>43996</v>
+      </c>
+      <c r="B890" t="s">
+        <v>25</v>
+      </c>
+      <c r="C890">
+        <v>753</v>
+      </c>
+      <c r="D890" s="6">
+        <f t="shared" si="340"/>
+        <v>2.4743690851735015E-2</v>
+      </c>
+      <c r="E890" s="7">
+        <f t="shared" si="341"/>
+        <v>7</v>
+      </c>
+      <c r="F890" s="6">
+        <f t="shared" si="342"/>
+        <v>7.8563411896745237E-3</v>
+      </c>
+      <c r="G890">
+        <v>159</v>
+      </c>
+      <c r="H890" s="7">
+        <f t="shared" si="343"/>
+        <v>1</v>
+      </c>
+      <c r="I890" s="6">
+        <f t="shared" si="344"/>
+        <v>0.33473684210526317</v>
+      </c>
+    </row>
+    <row r="891" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A891" s="1">
+        <v>43996</v>
+      </c>
+      <c r="B891" t="s">
+        <v>21</v>
+      </c>
+      <c r="C891">
+        <v>57</v>
+      </c>
+      <c r="D891" s="6">
+        <f t="shared" si="340"/>
+        <v>1.8730283911671925E-3</v>
+      </c>
+      <c r="E891" s="7">
+        <f t="shared" si="341"/>
+        <v>-3</v>
+      </c>
+      <c r="F891" s="6">
+        <f t="shared" si="342"/>
+        <v>-3.3670033670033669E-3</v>
+      </c>
+      <c r="G891">
+        <v>0</v>
+      </c>
+      <c r="H891" s="7">
+        <f t="shared" si="343"/>
+        <v>0</v>
+      </c>
+      <c r="I891" s="6">
+        <f t="shared" si="344"/>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/TN_Age.xlsx
+++ b/TN_Age.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="899" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="909" uniqueCount="26">
   <si>
     <t>0-10</t>
   </si>
@@ -440,11 +440,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I891"/>
+  <dimension ref="A1:I901"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A862" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H891" sqref="H891"/>
+      <pane ySplit="1" topLeftCell="A880" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C892" sqref="C892:C901"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -28262,6 +28262,346 @@
         <v>0</v>
       </c>
     </row>
+    <row r="892" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A892" s="1">
+        <v>43997</v>
+      </c>
+      <c r="B892" t="s">
+        <v>0</v>
+      </c>
+      <c r="C892">
+        <v>1334</v>
+      </c>
+      <c r="D892" s="6">
+        <f t="shared" ref="D892:D901" si="345">C892/SUMIF(A:A,A892,C:C)</f>
+        <v>4.2811296534017974E-2</v>
+      </c>
+      <c r="E892" s="7">
+        <f t="shared" ref="E892:E901" si="346">C892-SUMIFS(C:C,A:A,A892-1,B:B,B892)</f>
+        <v>45</v>
+      </c>
+      <c r="F892" s="6">
+        <f t="shared" ref="F892:F901" si="347">E892/SUMIF(A:A,A892,E:E)</f>
+        <v>6.1813186813186816E-2</v>
+      </c>
+      <c r="G892">
+        <v>1</v>
+      </c>
+      <c r="H892" s="7">
+        <f t="shared" ref="H892:H901" si="348">G892-SUMIFS(G:G,A:A,A892-1,B:B,B892)</f>
+        <v>0</v>
+      </c>
+      <c r="I892" s="6">
+        <f t="shared" ref="I892:I901" si="349">G892/SUMIF(A:A,A892,G:G)</f>
+        <v>2.070393374741201E-3</v>
+      </c>
+    </row>
+    <row r="893" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A893" s="1">
+        <v>43997</v>
+      </c>
+      <c r="B893" t="s">
+        <v>1</v>
+      </c>
+      <c r="C893">
+        <v>2740</v>
+      </c>
+      <c r="D893" s="6">
+        <f t="shared" si="345"/>
+        <v>8.7933247753530161E-2</v>
+      </c>
+      <c r="E893" s="7">
+        <f t="shared" si="346"/>
+        <v>88</v>
+      </c>
+      <c r="F893" s="6">
+        <f t="shared" si="347"/>
+        <v>0.12087912087912088</v>
+      </c>
+      <c r="G893">
+        <v>1</v>
+      </c>
+      <c r="H893" s="7">
+        <f t="shared" si="348"/>
+        <v>0</v>
+      </c>
+      <c r="I893" s="6">
+        <f t="shared" si="349"/>
+        <v>2.070393374741201E-3</v>
+      </c>
+    </row>
+    <row r="894" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A894" s="1">
+        <v>43997</v>
+      </c>
+      <c r="B894" t="s">
+        <v>2</v>
+      </c>
+      <c r="C894">
+        <v>6638</v>
+      </c>
+      <c r="D894" s="6">
+        <f t="shared" si="345"/>
+        <v>0.21302952503209244</v>
+      </c>
+      <c r="E894" s="7">
+        <f t="shared" si="346"/>
+        <v>158</v>
+      </c>
+      <c r="F894" s="6">
+        <f t="shared" si="347"/>
+        <v>0.21703296703296704</v>
+      </c>
+      <c r="G894">
+        <v>3</v>
+      </c>
+      <c r="H894" s="7">
+        <f t="shared" si="348"/>
+        <v>0</v>
+      </c>
+      <c r="I894" s="6">
+        <f t="shared" si="349"/>
+        <v>6.2111801242236021E-3</v>
+      </c>
+    </row>
+    <row r="895" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A895" s="1">
+        <v>43997</v>
+      </c>
+      <c r="B895" t="s">
+        <v>3</v>
+      </c>
+      <c r="C895">
+        <v>6505</v>
+      </c>
+      <c r="D895" s="6">
+        <f t="shared" si="345"/>
+        <v>0.2087612323491656</v>
+      </c>
+      <c r="E895" s="7">
+        <f t="shared" si="346"/>
+        <v>178</v>
+      </c>
+      <c r="F895" s="6">
+        <f t="shared" si="347"/>
+        <v>0.2445054945054945</v>
+      </c>
+      <c r="G895">
+        <v>10</v>
+      </c>
+      <c r="H895" s="7">
+        <f t="shared" si="348"/>
+        <v>0</v>
+      </c>
+      <c r="I895" s="6">
+        <f t="shared" si="349"/>
+        <v>2.0703933747412008E-2</v>
+      </c>
+    </row>
+    <row r="896" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A896" s="1">
+        <v>43997</v>
+      </c>
+      <c r="B896" t="s">
+        <v>4</v>
+      </c>
+      <c r="C896">
+        <v>5309</v>
+      </c>
+      <c r="D896" s="6">
+        <f t="shared" si="345"/>
+        <v>0.17037869062901156</v>
+      </c>
+      <c r="E896" s="7">
+        <f t="shared" si="346"/>
+        <v>124</v>
+      </c>
+      <c r="F896" s="6">
+        <f t="shared" si="347"/>
+        <v>0.17032967032967034</v>
+      </c>
+      <c r="G896">
+        <v>24</v>
+      </c>
+      <c r="H896" s="7">
+        <f t="shared" si="348"/>
+        <v>1</v>
+      </c>
+      <c r="I896" s="6">
+        <f t="shared" si="349"/>
+        <v>4.9689440993788817E-2</v>
+      </c>
+    </row>
+    <row r="897" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A897" s="1">
+        <v>43997</v>
+      </c>
+      <c r="B897" t="s">
+        <v>5</v>
+      </c>
+      <c r="C897">
+        <v>4246</v>
+      </c>
+      <c r="D897" s="6">
+        <f t="shared" si="345"/>
+        <v>0.13626444159178433</v>
+      </c>
+      <c r="E897" s="7">
+        <f t="shared" si="346"/>
+        <v>76</v>
+      </c>
+      <c r="F897" s="6">
+        <f t="shared" si="347"/>
+        <v>0.1043956043956044</v>
+      </c>
+      <c r="G897">
+        <v>42</v>
+      </c>
+      <c r="H897" s="7">
+        <f t="shared" si="348"/>
+        <v>1</v>
+      </c>
+      <c r="I897" s="6">
+        <f t="shared" si="349"/>
+        <v>8.6956521739130432E-2</v>
+      </c>
+    </row>
+    <row r="898" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A898" s="1">
+        <v>43997</v>
+      </c>
+      <c r="B898" t="s">
+        <v>6</v>
+      </c>
+      <c r="C898">
+        <v>2385</v>
+      </c>
+      <c r="D898" s="6">
+        <f t="shared" si="345"/>
+        <v>7.6540436456996153E-2</v>
+      </c>
+      <c r="E898" s="7">
+        <f t="shared" si="346"/>
+        <v>33</v>
+      </c>
+      <c r="F898" s="6">
+        <f t="shared" si="347"/>
+        <v>4.5329670329670328E-2</v>
+      </c>
+      <c r="G898">
+        <v>96</v>
+      </c>
+      <c r="H898" s="7">
+        <f t="shared" si="348"/>
+        <v>2</v>
+      </c>
+      <c r="I898" s="6">
+        <f t="shared" si="349"/>
+        <v>0.19875776397515527</v>
+      </c>
+    </row>
+    <row r="899" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A899" s="1">
+        <v>43997</v>
+      </c>
+      <c r="B899" t="s">
+        <v>7</v>
+      </c>
+      <c r="C899">
+        <v>1181</v>
+      </c>
+      <c r="D899" s="6">
+        <f t="shared" si="345"/>
+        <v>3.7901155327342749E-2</v>
+      </c>
+      <c r="E899" s="7">
+        <f t="shared" si="346"/>
+        <v>14</v>
+      </c>
+      <c r="F899" s="6">
+        <f t="shared" si="347"/>
+        <v>1.9230769230769232E-2</v>
+      </c>
+      <c r="G899">
+        <v>146</v>
+      </c>
+      <c r="H899" s="7">
+        <f t="shared" si="348"/>
+        <v>3</v>
+      </c>
+      <c r="I899" s="6">
+        <f t="shared" si="349"/>
+        <v>0.3022774327122153</v>
+      </c>
+    </row>
+    <row r="900" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A900" s="1">
+        <v>43997</v>
+      </c>
+      <c r="B900" t="s">
+        <v>25</v>
+      </c>
+      <c r="C900">
+        <v>764</v>
+      </c>
+      <c r="D900" s="6">
+        <f t="shared" si="345"/>
+        <v>2.4518613607188704E-2</v>
+      </c>
+      <c r="E900" s="7">
+        <f t="shared" si="346"/>
+        <v>11</v>
+      </c>
+      <c r="F900" s="6">
+        <f t="shared" si="347"/>
+        <v>1.510989010989011E-2</v>
+      </c>
+      <c r="G900">
+        <v>160</v>
+      </c>
+      <c r="H900" s="7">
+        <f t="shared" si="348"/>
+        <v>1</v>
+      </c>
+      <c r="I900" s="6">
+        <f t="shared" si="349"/>
+        <v>0.33126293995859213</v>
+      </c>
+    </row>
+    <row r="901" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A901" s="1">
+        <v>43997</v>
+      </c>
+      <c r="B901" t="s">
+        <v>21</v>
+      </c>
+      <c r="C901">
+        <v>58</v>
+      </c>
+      <c r="D901" s="6">
+        <f t="shared" si="345"/>
+        <v>1.8613607188703466E-3</v>
+      </c>
+      <c r="E901" s="7">
+        <f t="shared" si="346"/>
+        <v>1</v>
+      </c>
+      <c r="F901" s="6">
+        <f t="shared" si="347"/>
+        <v>1.3736263736263737E-3</v>
+      </c>
+      <c r="G901">
+        <v>0</v>
+      </c>
+      <c r="H901" s="7">
+        <f t="shared" si="348"/>
+        <v>0</v>
+      </c>
+      <c r="I901" s="6">
+        <f t="shared" si="349"/>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/TN_Age.xlsx
+++ b/TN_Age.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="909" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="919" uniqueCount="26">
   <si>
     <t>0-10</t>
   </si>
@@ -440,11 +440,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I901"/>
+  <dimension ref="A1:I911"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A880" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C892" sqref="C892:C901"/>
+      <pane ySplit="1" topLeftCell="A889" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A911" sqref="A911"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -28602,6 +28602,346 @@
         <v>0</v>
       </c>
     </row>
+    <row r="902" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A902" s="1">
+        <v>43998</v>
+      </c>
+      <c r="B902" t="s">
+        <v>0</v>
+      </c>
+      <c r="C902">
+        <v>1391</v>
+      </c>
+      <c r="D902" s="6">
+        <f t="shared" ref="D902:D911" si="350">C902/SUMIF(A:A,A902,C:C)</f>
+        <v>4.3700911090166508E-2</v>
+      </c>
+      <c r="E902" s="7">
+        <f t="shared" ref="E902:E911" si="351">C902-SUMIFS(C:C,A:A,A902-1,B:B,B902)</f>
+        <v>57</v>
+      </c>
+      <c r="F902" s="6">
+        <f t="shared" ref="F902:F911" si="352">E902/SUMIF(A:A,A902,E:E)</f>
+        <v>8.5074626865671646E-2</v>
+      </c>
+      <c r="G902">
+        <v>1</v>
+      </c>
+      <c r="H902" s="7">
+        <f t="shared" ref="H902:H911" si="353">G902-SUMIFS(G:G,A:A,A902-1,B:B,B902)</f>
+        <v>0</v>
+      </c>
+      <c r="I902" s="6">
+        <f t="shared" ref="I902:I911" si="354">G902/SUMIF(A:A,A902,G:G)</f>
+        <v>2.0283975659229209E-3</v>
+      </c>
+    </row>
+    <row r="903" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A903" s="1">
+        <v>43998</v>
+      </c>
+      <c r="B903" t="s">
+        <v>1</v>
+      </c>
+      <c r="C903">
+        <v>2819</v>
+      </c>
+      <c r="D903" s="6">
+        <f t="shared" si="350"/>
+        <v>8.8564247565190074E-2</v>
+      </c>
+      <c r="E903" s="7">
+        <f t="shared" si="351"/>
+        <v>79</v>
+      </c>
+      <c r="F903" s="6">
+        <f t="shared" si="352"/>
+        <v>0.11791044776119403</v>
+      </c>
+      <c r="G903">
+        <v>1</v>
+      </c>
+      <c r="H903" s="7">
+        <f t="shared" si="353"/>
+        <v>0</v>
+      </c>
+      <c r="I903" s="6">
+        <f t="shared" si="354"/>
+        <v>2.0283975659229209E-3</v>
+      </c>
+    </row>
+    <row r="904" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A904" s="1">
+        <v>43998</v>
+      </c>
+      <c r="B904" t="s">
+        <v>2</v>
+      </c>
+      <c r="C904">
+        <v>6779</v>
+      </c>
+      <c r="D904" s="6">
+        <f t="shared" si="350"/>
+        <v>0.21297518064718818</v>
+      </c>
+      <c r="E904" s="7">
+        <f t="shared" si="351"/>
+        <v>141</v>
+      </c>
+      <c r="F904" s="6">
+        <f t="shared" si="352"/>
+        <v>0.21044776119402986</v>
+      </c>
+      <c r="G904">
+        <v>3</v>
+      </c>
+      <c r="H904" s="7">
+        <f t="shared" si="353"/>
+        <v>0</v>
+      </c>
+      <c r="I904" s="6">
+        <f t="shared" si="354"/>
+        <v>6.0851926977687626E-3</v>
+      </c>
+    </row>
+    <row r="905" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A905" s="1">
+        <v>43998</v>
+      </c>
+      <c r="B905" t="s">
+        <v>3</v>
+      </c>
+      <c r="C905">
+        <v>6646</v>
+      </c>
+      <c r="D905" s="6">
+        <f t="shared" si="350"/>
+        <v>0.20879673264216148</v>
+      </c>
+      <c r="E905" s="7">
+        <f t="shared" si="351"/>
+        <v>141</v>
+      </c>
+      <c r="F905" s="6">
+        <f t="shared" si="352"/>
+        <v>0.21044776119402986</v>
+      </c>
+      <c r="G905">
+        <v>11</v>
+      </c>
+      <c r="H905" s="7">
+        <f t="shared" si="353"/>
+        <v>1</v>
+      </c>
+      <c r="I905" s="6">
+        <f t="shared" si="354"/>
+        <v>2.231237322515213E-2</v>
+      </c>
+    </row>
+    <row r="906" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A906" s="1">
+        <v>43998</v>
+      </c>
+      <c r="B906" t="s">
+        <v>4</v>
+      </c>
+      <c r="C906">
+        <v>5420</v>
+      </c>
+      <c r="D906" s="6">
+        <f t="shared" si="350"/>
+        <v>0.17027961043041157</v>
+      </c>
+      <c r="E906" s="7">
+        <f t="shared" si="351"/>
+        <v>111</v>
+      </c>
+      <c r="F906" s="6">
+        <f t="shared" si="352"/>
+        <v>0.16567164179104477</v>
+      </c>
+      <c r="G906">
+        <v>24</v>
+      </c>
+      <c r="H906" s="7">
+        <f t="shared" si="353"/>
+        <v>0</v>
+      </c>
+      <c r="I906" s="6">
+        <f t="shared" si="354"/>
+        <v>4.8681541582150101E-2</v>
+      </c>
+    </row>
+    <row r="907" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A907" s="1">
+        <v>43998</v>
+      </c>
+      <c r="B907" t="s">
+        <v>5</v>
+      </c>
+      <c r="C907">
+        <v>4317</v>
+      </c>
+      <c r="D907" s="6">
+        <f t="shared" si="350"/>
+        <v>0.13562676720075401</v>
+      </c>
+      <c r="E907" s="7">
+        <f t="shared" si="351"/>
+        <v>71</v>
+      </c>
+      <c r="F907" s="6">
+        <f t="shared" si="352"/>
+        <v>0.10597014925373134</v>
+      </c>
+      <c r="G907">
+        <v>45</v>
+      </c>
+      <c r="H907" s="7">
+        <f t="shared" si="353"/>
+        <v>3</v>
+      </c>
+      <c r="I907" s="6">
+        <f t="shared" si="354"/>
+        <v>9.1277890466531439E-2</v>
+      </c>
+    </row>
+    <row r="908" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A908" s="1">
+        <v>43998</v>
+      </c>
+      <c r="B908" t="s">
+        <v>6</v>
+      </c>
+      <c r="C908">
+        <v>2434</v>
+      </c>
+      <c r="D908" s="6">
+        <f t="shared" si="350"/>
+        <v>7.646874018221804E-2</v>
+      </c>
+      <c r="E908" s="7">
+        <f t="shared" si="351"/>
+        <v>49</v>
+      </c>
+      <c r="F908" s="6">
+        <f t="shared" si="352"/>
+        <v>7.3134328358208961E-2</v>
+      </c>
+      <c r="G908">
+        <v>96</v>
+      </c>
+      <c r="H908" s="7">
+        <f t="shared" si="353"/>
+        <v>0</v>
+      </c>
+      <c r="I908" s="6">
+        <f t="shared" si="354"/>
+        <v>0.1947261663286004</v>
+      </c>
+    </row>
+    <row r="909" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A909" s="1">
+        <v>43998</v>
+      </c>
+      <c r="B909" t="s">
+        <v>7</v>
+      </c>
+      <c r="C909">
+        <v>1198</v>
+      </c>
+      <c r="D909" s="6">
+        <f t="shared" si="350"/>
+        <v>3.7637448947533771E-2</v>
+      </c>
+      <c r="E909" s="7">
+        <f t="shared" si="351"/>
+        <v>17</v>
+      </c>
+      <c r="F909" s="6">
+        <f t="shared" si="352"/>
+        <v>2.5373134328358207E-2</v>
+      </c>
+      <c r="G909">
+        <v>149</v>
+      </c>
+      <c r="H909" s="7">
+        <f t="shared" si="353"/>
+        <v>3</v>
+      </c>
+      <c r="I909" s="6">
+        <f t="shared" si="354"/>
+        <v>0.30223123732251522</v>
+      </c>
+    </row>
+    <row r="910" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A910" s="1">
+        <v>43998</v>
+      </c>
+      <c r="B910" t="s">
+        <v>25</v>
+      </c>
+      <c r="C910">
+        <v>770</v>
+      </c>
+      <c r="D910" s="6">
+        <f t="shared" si="350"/>
+        <v>2.4191014765944079E-2</v>
+      </c>
+      <c r="E910" s="7">
+        <f t="shared" si="351"/>
+        <v>6</v>
+      </c>
+      <c r="F910" s="6">
+        <f t="shared" si="352"/>
+        <v>8.9552238805970154E-3</v>
+      </c>
+      <c r="G910">
+        <v>163</v>
+      </c>
+      <c r="H910" s="7">
+        <f t="shared" si="353"/>
+        <v>3</v>
+      </c>
+      <c r="I910" s="6">
+        <f t="shared" si="354"/>
+        <v>0.33062880324543609</v>
+      </c>
+    </row>
+    <row r="911" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A911" s="1">
+        <v>43998</v>
+      </c>
+      <c r="B911" t="s">
+        <v>21</v>
+      </c>
+      <c r="C911">
+        <v>56</v>
+      </c>
+      <c r="D911" s="6">
+        <f t="shared" si="350"/>
+        <v>1.7593465284322966E-3</v>
+      </c>
+      <c r="E911" s="7">
+        <f t="shared" si="351"/>
+        <v>-2</v>
+      </c>
+      <c r="F911" s="6">
+        <f t="shared" si="352"/>
+        <v>-2.9850746268656717E-3</v>
+      </c>
+      <c r="G911">
+        <v>0</v>
+      </c>
+      <c r="H911" s="7">
+        <f t="shared" si="353"/>
+        <v>0</v>
+      </c>
+      <c r="I911" s="6">
+        <f t="shared" si="354"/>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/TN_Age.xlsx
+++ b/TN_Age.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="919" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="929" uniqueCount="26">
   <si>
     <t>0-10</t>
   </si>
@@ -440,11 +440,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I911"/>
+  <dimension ref="A1:I921"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A889" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A911" sqref="A911"/>
+      <selection pane="bottomLeft" activeCell="A921" sqref="A921"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -28942,6 +28942,346 @@
         <v>0</v>
       </c>
     </row>
+    <row r="912" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A912" s="1">
+        <v>43999</v>
+      </c>
+      <c r="B912" t="s">
+        <v>0</v>
+      </c>
+      <c r="C912">
+        <v>1397</v>
+      </c>
+      <c r="D912" s="6">
+        <f t="shared" ref="D912:D921" si="355">C912/SUMIF(A:A,A912,C:C)</f>
+        <v>4.3462029057648635E-2</v>
+      </c>
+      <c r="E912" s="7">
+        <f t="shared" ref="E912:E921" si="356">C912-SUMIFS(C:C,A:A,A912-1,B:B,B912)</f>
+        <v>6</v>
+      </c>
+      <c r="F912" s="6">
+        <f t="shared" ref="F912:F921" si="357">E912/SUMIF(A:A,A912,E:E)</f>
+        <v>1.9169329073482427E-2</v>
+      </c>
+      <c r="G912" s="2">
+        <v>2</v>
+      </c>
+      <c r="H912" s="7">
+        <f t="shared" ref="H912:H921" si="358">G912-SUMIFS(G:G,A:A,A912-1,B:B,B912)</f>
+        <v>1</v>
+      </c>
+      <c r="I912" s="6">
+        <f t="shared" ref="I912:I921" si="359">G912/SUMIF(A:A,A912,G:G)</f>
+        <v>4.0241448692152921E-3</v>
+      </c>
+    </row>
+    <row r="913" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A913" s="1">
+        <v>43999</v>
+      </c>
+      <c r="B913" t="s">
+        <v>1</v>
+      </c>
+      <c r="C913">
+        <v>2863</v>
+      </c>
+      <c r="D913" s="6">
+        <f t="shared" si="355"/>
+        <v>8.9070715241265599E-2</v>
+      </c>
+      <c r="E913" s="7">
+        <f t="shared" si="356"/>
+        <v>44</v>
+      </c>
+      <c r="F913" s="6">
+        <f t="shared" si="357"/>
+        <v>0.14057507987220447</v>
+      </c>
+      <c r="G913" s="2">
+        <v>1</v>
+      </c>
+      <c r="H913" s="7">
+        <f t="shared" si="358"/>
+        <v>0</v>
+      </c>
+      <c r="I913" s="6">
+        <f t="shared" si="359"/>
+        <v>2.012072434607646E-3</v>
+      </c>
+    </row>
+    <row r="914" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A914" s="1">
+        <v>43999</v>
+      </c>
+      <c r="B914" t="s">
+        <v>2</v>
+      </c>
+      <c r="C914">
+        <v>6860</v>
+      </c>
+      <c r="D914" s="6">
+        <f t="shared" si="355"/>
+        <v>0.21342127368322808</v>
+      </c>
+      <c r="E914" s="7">
+        <f t="shared" si="356"/>
+        <v>81</v>
+      </c>
+      <c r="F914" s="6">
+        <f t="shared" si="357"/>
+        <v>0.25878594249201275</v>
+      </c>
+      <c r="G914" s="2">
+        <v>4</v>
+      </c>
+      <c r="H914" s="7">
+        <f t="shared" si="358"/>
+        <v>1</v>
+      </c>
+      <c r="I914" s="6">
+        <f t="shared" si="359"/>
+        <v>8.0482897384305842E-3</v>
+      </c>
+    </row>
+    <row r="915" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A915" s="1">
+        <v>43999</v>
+      </c>
+      <c r="B915" t="s">
+        <v>3</v>
+      </c>
+      <c r="C915">
+        <v>6702</v>
+      </c>
+      <c r="D915" s="6">
+        <f t="shared" si="355"/>
+        <v>0.20850573997448901</v>
+      </c>
+      <c r="E915" s="7">
+        <f t="shared" si="356"/>
+        <v>56</v>
+      </c>
+      <c r="F915" s="6">
+        <f t="shared" si="357"/>
+        <v>0.17891373801916932</v>
+      </c>
+      <c r="G915" s="2">
+        <v>10</v>
+      </c>
+      <c r="H915" s="7">
+        <f t="shared" si="358"/>
+        <v>-1</v>
+      </c>
+      <c r="I915" s="6">
+        <f t="shared" si="359"/>
+        <v>2.0120724346076459E-2</v>
+      </c>
+    </row>
+    <row r="916" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A916" s="1">
+        <v>43999</v>
+      </c>
+      <c r="B916" t="s">
+        <v>4</v>
+      </c>
+      <c r="C916">
+        <v>5477</v>
+      </c>
+      <c r="D916" s="6">
+        <f t="shared" si="355"/>
+        <v>0.17039479824534112</v>
+      </c>
+      <c r="E916" s="7">
+        <f t="shared" si="356"/>
+        <v>57</v>
+      </c>
+      <c r="F916" s="6">
+        <f t="shared" si="357"/>
+        <v>0.18210862619808307</v>
+      </c>
+      <c r="G916" s="2">
+        <v>24</v>
+      </c>
+      <c r="H916" s="7">
+        <f t="shared" si="358"/>
+        <v>0</v>
+      </c>
+      <c r="I916" s="6">
+        <f t="shared" si="359"/>
+        <v>4.8289738430583498E-2</v>
+      </c>
+    </row>
+    <row r="917" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A917" s="1">
+        <v>43999</v>
+      </c>
+      <c r="B917" t="s">
+        <v>5</v>
+      </c>
+      <c r="C917">
+        <v>4349</v>
+      </c>
+      <c r="D917" s="6">
+        <f t="shared" si="355"/>
+        <v>0.13530162088168496</v>
+      </c>
+      <c r="E917" s="7">
+        <f t="shared" si="356"/>
+        <v>32</v>
+      </c>
+      <c r="F917" s="6">
+        <f t="shared" si="357"/>
+        <v>0.10223642172523961</v>
+      </c>
+      <c r="G917" s="2">
+        <v>46</v>
+      </c>
+      <c r="H917" s="7">
+        <f t="shared" si="358"/>
+        <v>1</v>
+      </c>
+      <c r="I917" s="6">
+        <f t="shared" si="359"/>
+        <v>9.2555331991951706E-2</v>
+      </c>
+    </row>
+    <row r="918" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A918" s="1">
+        <v>43999</v>
+      </c>
+      <c r="B918" t="s">
+        <v>6</v>
+      </c>
+      <c r="C918">
+        <v>2452</v>
+      </c>
+      <c r="D918" s="6">
+        <f t="shared" si="355"/>
+        <v>7.6284105403975982E-2</v>
+      </c>
+      <c r="E918" s="7">
+        <f t="shared" si="356"/>
+        <v>18</v>
+      </c>
+      <c r="F918" s="6">
+        <f t="shared" si="357"/>
+        <v>5.7507987220447282E-2</v>
+      </c>
+      <c r="G918" s="2">
+        <v>96</v>
+      </c>
+      <c r="H918" s="7">
+        <f t="shared" si="358"/>
+        <v>0</v>
+      </c>
+      <c r="I918" s="6">
+        <f t="shared" si="359"/>
+        <v>0.19315895372233399</v>
+      </c>
+    </row>
+    <row r="919" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A919" s="1">
+        <v>43999</v>
+      </c>
+      <c r="B919" t="s">
+        <v>7</v>
+      </c>
+      <c r="C919">
+        <v>1207</v>
+      </c>
+      <c r="D919" s="6">
+        <f t="shared" si="355"/>
+        <v>3.7550944218025697E-2</v>
+      </c>
+      <c r="E919" s="7">
+        <f t="shared" si="356"/>
+        <v>9</v>
+      </c>
+      <c r="F919" s="6">
+        <f t="shared" si="357"/>
+        <v>2.8753993610223641E-2</v>
+      </c>
+      <c r="G919" s="2">
+        <v>151</v>
+      </c>
+      <c r="H919" s="7">
+        <f t="shared" si="358"/>
+        <v>2</v>
+      </c>
+      <c r="I919" s="6">
+        <f t="shared" si="359"/>
+        <v>0.30382293762575452</v>
+      </c>
+    </row>
+    <row r="920" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A920" s="1">
+        <v>43999</v>
+      </c>
+      <c r="B920" t="s">
+        <v>25</v>
+      </c>
+      <c r="C920">
+        <v>781</v>
+      </c>
+      <c r="D920" s="6">
+        <f t="shared" si="355"/>
+        <v>2.4297669788134274E-2</v>
+      </c>
+      <c r="E920" s="7">
+        <f t="shared" si="356"/>
+        <v>11</v>
+      </c>
+      <c r="F920" s="6">
+        <f t="shared" si="357"/>
+        <v>3.5143769968051117E-2</v>
+      </c>
+      <c r="G920" s="2">
+        <v>163</v>
+      </c>
+      <c r="H920" s="7">
+        <f t="shared" si="358"/>
+        <v>0</v>
+      </c>
+      <c r="I920" s="6">
+        <f t="shared" si="359"/>
+        <v>0.32796780684104626</v>
+      </c>
+    </row>
+    <row r="921" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A921" s="1">
+        <v>43999</v>
+      </c>
+      <c r="B921" t="s">
+        <v>21</v>
+      </c>
+      <c r="C921">
+        <v>55</v>
+      </c>
+      <c r="D921" s="6">
+        <f t="shared" si="355"/>
+        <v>1.7111035062066392E-3</v>
+      </c>
+      <c r="E921" s="7">
+        <f t="shared" si="356"/>
+        <v>-1</v>
+      </c>
+      <c r="F921" s="6">
+        <f t="shared" si="357"/>
+        <v>-3.1948881789137379E-3</v>
+      </c>
+      <c r="G921" s="2">
+        <v>0</v>
+      </c>
+      <c r="H921" s="7">
+        <f t="shared" si="358"/>
+        <v>0</v>
+      </c>
+      <c r="I921" s="6">
+        <f t="shared" si="359"/>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/TN_Age.xlsx
+++ b/TN_Age.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="929" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="939" uniqueCount="26">
   <si>
     <t>0-10</t>
   </si>
@@ -440,11 +440,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I921"/>
+  <dimension ref="A1:I931"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A889" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A921" sqref="A921"/>
+      <pane ySplit="1" topLeftCell="A910" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A931" sqref="A931"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -29282,6 +29282,346 @@
         <v>0</v>
       </c>
     </row>
+    <row r="922" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A922" s="1">
+        <v>44000</v>
+      </c>
+      <c r="B922" t="s">
+        <v>0</v>
+      </c>
+      <c r="C922">
+        <v>1441</v>
+      </c>
+      <c r="D922" s="6">
+        <f t="shared" ref="D922:D931" si="360">C922/SUMIF(A:A,A922,C:C)</f>
+        <v>4.3894118005422034E-2</v>
+      </c>
+      <c r="E922" s="7">
+        <f t="shared" ref="E922:E931" si="361">C922-SUMIFS(C:C,A:A,A922-1,B:B,B922)</f>
+        <v>44</v>
+      </c>
+      <c r="F922" s="6">
+        <f t="shared" ref="F922:F931" si="362">E922/SUMIF(A:A,A922,E:E)</f>
+        <v>6.4139941690962099E-2</v>
+      </c>
+      <c r="G922">
+        <v>2</v>
+      </c>
+      <c r="H922" s="7">
+        <f t="shared" ref="H922:H931" si="363">G922-SUMIFS(G:G,A:A,A922-1,B:B,B922)</f>
+        <v>0</v>
+      </c>
+      <c r="I922" s="6">
+        <f t="shared" ref="I922:I931" si="364">G922/SUMIF(A:A,A922,G:G)</f>
+        <v>3.929273084479371E-3</v>
+      </c>
+    </row>
+    <row r="923" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A923" s="1">
+        <v>44000</v>
+      </c>
+      <c r="B923" t="s">
+        <v>1</v>
+      </c>
+      <c r="C923">
+        <v>2944</v>
+      </c>
+      <c r="D923" s="6">
+        <f t="shared" si="360"/>
+        <v>8.9676810137378535E-2</v>
+      </c>
+      <c r="E923" s="7">
+        <f t="shared" si="361"/>
+        <v>81</v>
+      </c>
+      <c r="F923" s="6">
+        <f t="shared" si="362"/>
+        <v>0.11807580174927114</v>
+      </c>
+      <c r="G923">
+        <v>1</v>
+      </c>
+      <c r="H923" s="7">
+        <f t="shared" si="363"/>
+        <v>0</v>
+      </c>
+      <c r="I923" s="6">
+        <f t="shared" si="364"/>
+        <v>1.9646365422396855E-3</v>
+      </c>
+    </row>
+    <row r="924" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A924" s="1">
+        <v>44000</v>
+      </c>
+      <c r="B924" t="s">
+        <v>2</v>
+      </c>
+      <c r="C924">
+        <v>7004</v>
+      </c>
+      <c r="D924" s="6">
+        <f t="shared" si="360"/>
+        <v>0.21334795455237748</v>
+      </c>
+      <c r="E924" s="7">
+        <f t="shared" si="361"/>
+        <v>144</v>
+      </c>
+      <c r="F924" s="6">
+        <f t="shared" si="362"/>
+        <v>0.2099125364431487</v>
+      </c>
+      <c r="G924">
+        <v>4</v>
+      </c>
+      <c r="H924" s="7">
+        <f t="shared" si="363"/>
+        <v>0</v>
+      </c>
+      <c r="I924" s="6">
+        <f t="shared" si="364"/>
+        <v>7.8585461689587421E-3</v>
+      </c>
+    </row>
+    <row r="925" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A925" s="1">
+        <v>44000</v>
+      </c>
+      <c r="B925" t="s">
+        <v>3</v>
+      </c>
+      <c r="C925">
+        <v>6819</v>
+      </c>
+      <c r="D925" s="6">
+        <f t="shared" si="360"/>
+        <v>0.20771269304578269</v>
+      </c>
+      <c r="E925" s="7">
+        <f t="shared" si="361"/>
+        <v>117</v>
+      </c>
+      <c r="F925" s="6">
+        <f t="shared" si="362"/>
+        <v>0.17055393586005832</v>
+      </c>
+      <c r="G925">
+        <v>10</v>
+      </c>
+      <c r="H925" s="7">
+        <f t="shared" si="363"/>
+        <v>0</v>
+      </c>
+      <c r="I925" s="6">
+        <f t="shared" si="364"/>
+        <v>1.9646365422396856E-2</v>
+      </c>
+    </row>
+    <row r="926" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A926" s="1">
+        <v>44000</v>
+      </c>
+      <c r="B926" t="s">
+        <v>4</v>
+      </c>
+      <c r="C926">
+        <v>5596</v>
+      </c>
+      <c r="D926" s="6">
+        <f t="shared" si="360"/>
+        <v>0.1704590453562399</v>
+      </c>
+      <c r="E926" s="7">
+        <f t="shared" si="361"/>
+        <v>119</v>
+      </c>
+      <c r="F926" s="6">
+        <f t="shared" si="362"/>
+        <v>0.17346938775510204</v>
+      </c>
+      <c r="G926">
+        <v>25</v>
+      </c>
+      <c r="H926" s="7">
+        <f t="shared" si="363"/>
+        <v>1</v>
+      </c>
+      <c r="I926" s="6">
+        <f t="shared" si="364"/>
+        <v>4.9115913555992138E-2</v>
+      </c>
+    </row>
+    <row r="927" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A927" s="1">
+        <v>44000</v>
+      </c>
+      <c r="B927" t="s">
+        <v>5</v>
+      </c>
+      <c r="C927">
+        <v>4432</v>
+      </c>
+      <c r="D927" s="6">
+        <f t="shared" si="360"/>
+        <v>0.13500258917420574</v>
+      </c>
+      <c r="E927" s="7">
+        <f t="shared" si="361"/>
+        <v>83</v>
+      </c>
+      <c r="F927" s="6">
+        <f t="shared" si="362"/>
+        <v>0.12099125364431487</v>
+      </c>
+      <c r="G927">
+        <v>46</v>
+      </c>
+      <c r="H927" s="7">
+        <f t="shared" si="363"/>
+        <v>0</v>
+      </c>
+      <c r="I927" s="6">
+        <f t="shared" si="364"/>
+        <v>9.0373280943025547E-2</v>
+      </c>
+    </row>
+    <row r="928" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A928" s="1">
+        <v>44000</v>
+      </c>
+      <c r="B928" t="s">
+        <v>6</v>
+      </c>
+      <c r="C928">
+        <v>2493</v>
+      </c>
+      <c r="D928" s="6">
+        <f t="shared" si="360"/>
+        <v>7.5938956410490727E-2</v>
+      </c>
+      <c r="E928" s="7">
+        <f t="shared" si="361"/>
+        <v>41</v>
+      </c>
+      <c r="F928" s="6">
+        <f t="shared" si="362"/>
+        <v>5.9766763848396499E-2</v>
+      </c>
+      <c r="G928">
+        <v>101</v>
+      </c>
+      <c r="H928" s="7">
+        <f t="shared" si="363"/>
+        <v>5</v>
+      </c>
+      <c r="I928" s="6">
+        <f t="shared" si="364"/>
+        <v>0.19842829076620824</v>
+      </c>
+    </row>
+    <row r="929" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A929" s="1">
+        <v>44000</v>
+      </c>
+      <c r="B929" t="s">
+        <v>7</v>
+      </c>
+      <c r="C929">
+        <v>1240</v>
+      </c>
+      <c r="D929" s="6">
+        <f t="shared" si="360"/>
+        <v>3.7771482530689328E-2</v>
+      </c>
+      <c r="E929" s="7">
+        <f t="shared" si="361"/>
+        <v>33</v>
+      </c>
+      <c r="F929" s="6">
+        <f t="shared" si="362"/>
+        <v>4.8104956268221574E-2</v>
+      </c>
+      <c r="G929">
+        <v>153</v>
+      </c>
+      <c r="H929" s="7">
+        <f t="shared" si="363"/>
+        <v>2</v>
+      </c>
+      <c r="I929" s="6">
+        <f t="shared" si="364"/>
+        <v>0.3005893909626719</v>
+      </c>
+    </row>
+    <row r="930" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A930" s="1">
+        <v>44000</v>
+      </c>
+      <c r="B930" t="s">
+        <v>25</v>
+      </c>
+      <c r="C930">
+        <v>805</v>
+      </c>
+      <c r="D930" s="6">
+        <f t="shared" si="360"/>
+        <v>2.4521002771939443E-2</v>
+      </c>
+      <c r="E930" s="7">
+        <f t="shared" si="361"/>
+        <v>24</v>
+      </c>
+      <c r="F930" s="6">
+        <f t="shared" si="362"/>
+        <v>3.4985422740524783E-2</v>
+      </c>
+      <c r="G930">
+        <v>167</v>
+      </c>
+      <c r="H930" s="7">
+        <f t="shared" si="363"/>
+        <v>4</v>
+      </c>
+      <c r="I930" s="6">
+        <f t="shared" si="364"/>
+        <v>0.32809430255402749</v>
+      </c>
+    </row>
+    <row r="931" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A931" s="1">
+        <v>44000</v>
+      </c>
+      <c r="B931" t="s">
+        <v>21</v>
+      </c>
+      <c r="C931">
+        <v>55</v>
+      </c>
+      <c r="D931" s="6">
+        <f t="shared" si="360"/>
+        <v>1.6753480154741234E-3</v>
+      </c>
+      <c r="E931" s="7">
+        <f t="shared" si="361"/>
+        <v>0</v>
+      </c>
+      <c r="F931" s="6">
+        <f t="shared" si="362"/>
+        <v>0</v>
+      </c>
+      <c r="G931">
+        <v>0</v>
+      </c>
+      <c r="H931" s="7">
+        <f t="shared" si="363"/>
+        <v>0</v>
+      </c>
+      <c r="I931" s="6">
+        <f t="shared" si="364"/>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/TN_Age.xlsx
+++ b/TN_Age.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="939" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="949" uniqueCount="26">
   <si>
     <t>0-10</t>
   </si>
@@ -440,11 +440,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I931"/>
+  <dimension ref="A1:I941"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A910" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A931" sqref="A931"/>
+      <pane ySplit="1" topLeftCell="A919" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A941" sqref="A941"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -29622,6 +29622,346 @@
         <v>0</v>
       </c>
     </row>
+    <row r="932" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A932" s="1">
+        <v>44001</v>
+      </c>
+      <c r="B932" t="s">
+        <v>0</v>
+      </c>
+      <c r="C932">
+        <v>1512</v>
+      </c>
+      <c r="D932" s="6">
+        <f t="shared" ref="D932:D941" si="365">C932/SUMIF(A:A,A932,C:C)</f>
+        <v>4.4448364053267485E-2</v>
+      </c>
+      <c r="E932" s="7">
+        <f t="shared" ref="E932:E941" si="366">C932-SUMIFS(C:C,A:A,A932-1,B:B,B932)</f>
+        <v>71</v>
+      </c>
+      <c r="F932" s="6">
+        <f t="shared" ref="F932:F941" si="367">E932/SUMIF(A:A,A932,E:E)</f>
+        <v>5.9764309764309763E-2</v>
+      </c>
+      <c r="G932">
+        <v>2</v>
+      </c>
+      <c r="H932" s="7">
+        <f t="shared" ref="H932:H941" si="368">G932-SUMIFS(G:G,A:A,A932-1,B:B,B932)</f>
+        <v>0</v>
+      </c>
+      <c r="I932" s="6">
+        <f t="shared" ref="I932:I941" si="369">G932/SUMIF(A:A,A932,G:G)</f>
+        <v>3.8834951456310678E-3</v>
+      </c>
+    </row>
+    <row r="933" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A933" s="1">
+        <v>44001</v>
+      </c>
+      <c r="B933" t="s">
+        <v>1</v>
+      </c>
+      <c r="C933">
+        <v>3094</v>
+      </c>
+      <c r="D933" s="6">
+        <f t="shared" si="365"/>
+        <v>9.095452273863068E-2</v>
+      </c>
+      <c r="E933" s="7">
+        <f t="shared" si="366"/>
+        <v>150</v>
+      </c>
+      <c r="F933" s="6">
+        <f t="shared" si="367"/>
+        <v>0.12626262626262627</v>
+      </c>
+      <c r="G933">
+        <v>1</v>
+      </c>
+      <c r="H933" s="7">
+        <f t="shared" si="368"/>
+        <v>0</v>
+      </c>
+      <c r="I933" s="6">
+        <f t="shared" si="369"/>
+        <v>1.9417475728155339E-3</v>
+      </c>
+    </row>
+    <row r="934" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A934" s="1">
+        <v>44001</v>
+      </c>
+      <c r="B934" t="s">
+        <v>2</v>
+      </c>
+      <c r="C934">
+        <v>7258</v>
+      </c>
+      <c r="D934" s="6">
+        <f t="shared" si="365"/>
+        <v>0.21336390628215304</v>
+      </c>
+      <c r="E934" s="7">
+        <f t="shared" si="366"/>
+        <v>254</v>
+      </c>
+      <c r="F934" s="6">
+        <f t="shared" si="367"/>
+        <v>0.2138047138047138</v>
+      </c>
+      <c r="G934">
+        <v>4</v>
+      </c>
+      <c r="H934" s="7">
+        <f t="shared" si="368"/>
+        <v>0</v>
+      </c>
+      <c r="I934" s="6">
+        <f t="shared" si="369"/>
+        <v>7.7669902912621356E-3</v>
+      </c>
+    </row>
+    <row r="935" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A935" s="1">
+        <v>44001</v>
+      </c>
+      <c r="B935" t="s">
+        <v>3</v>
+      </c>
+      <c r="C935">
+        <v>7067</v>
+      </c>
+      <c r="D935" s="6">
+        <f t="shared" si="365"/>
+        <v>0.20774906664314902</v>
+      </c>
+      <c r="E935" s="7">
+        <f t="shared" si="366"/>
+        <v>248</v>
+      </c>
+      <c r="F935" s="6">
+        <f t="shared" si="367"/>
+        <v>0.20875420875420875</v>
+      </c>
+      <c r="G935">
+        <v>11</v>
+      </c>
+      <c r="H935" s="7">
+        <f t="shared" si="368"/>
+        <v>1</v>
+      </c>
+      <c r="I935" s="6">
+        <f t="shared" si="369"/>
+        <v>2.1359223300970873E-2</v>
+      </c>
+    </row>
+    <row r="936" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A936" s="1">
+        <v>44001</v>
+      </c>
+      <c r="B936" t="s">
+        <v>4</v>
+      </c>
+      <c r="C936">
+        <v>5792</v>
+      </c>
+      <c r="D936" s="6">
+        <f t="shared" si="365"/>
+        <v>0.17026780727283417</v>
+      </c>
+      <c r="E936" s="7">
+        <f t="shared" si="366"/>
+        <v>196</v>
+      </c>
+      <c r="F936" s="6">
+        <f t="shared" si="367"/>
+        <v>0.16498316498316498</v>
+      </c>
+      <c r="G936">
+        <v>25</v>
+      </c>
+      <c r="H936" s="7">
+        <f t="shared" si="368"/>
+        <v>0</v>
+      </c>
+      <c r="I936" s="6">
+        <f t="shared" si="369"/>
+        <v>4.8543689320388349E-2</v>
+      </c>
+    </row>
+    <row r="937" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A937" s="1">
+        <v>44001</v>
+      </c>
+      <c r="B937" t="s">
+        <v>5</v>
+      </c>
+      <c r="C937">
+        <v>4574</v>
+      </c>
+      <c r="D937" s="6">
+        <f t="shared" si="365"/>
+        <v>0.13446218067436869</v>
+      </c>
+      <c r="E937" s="7">
+        <f t="shared" si="366"/>
+        <v>142</v>
+      </c>
+      <c r="F937" s="6">
+        <f t="shared" si="367"/>
+        <v>0.11952861952861953</v>
+      </c>
+      <c r="G937">
+        <v>46</v>
+      </c>
+      <c r="H937" s="7">
+        <f t="shared" si="368"/>
+        <v>0</v>
+      </c>
+      <c r="I937" s="6">
+        <f t="shared" si="369"/>
+        <v>8.9320388349514557E-2</v>
+      </c>
+    </row>
+    <row r="938" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A938" s="1">
+        <v>44001</v>
+      </c>
+      <c r="B938" t="s">
+        <v>6</v>
+      </c>
+      <c r="C938">
+        <v>2563</v>
+      </c>
+      <c r="D938" s="6">
+        <f t="shared" si="365"/>
+        <v>7.5344680600876027E-2</v>
+      </c>
+      <c r="E938" s="7">
+        <f t="shared" si="366"/>
+        <v>70</v>
+      </c>
+      <c r="F938" s="6">
+        <f t="shared" si="367"/>
+        <v>5.8922558922558925E-2</v>
+      </c>
+      <c r="G938">
+        <v>103</v>
+      </c>
+      <c r="H938" s="7">
+        <f t="shared" si="368"/>
+        <v>2</v>
+      </c>
+      <c r="I938" s="6">
+        <f t="shared" si="369"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="939" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A939" s="1">
+        <v>44001</v>
+      </c>
+      <c r="B939" t="s">
+        <v>7</v>
+      </c>
+      <c r="C939">
+        <v>1280</v>
+      </c>
+      <c r="D939" s="6">
+        <f t="shared" si="365"/>
+        <v>3.7628244701178822E-2</v>
+      </c>
+      <c r="E939" s="7">
+        <f t="shared" si="366"/>
+        <v>40</v>
+      </c>
+      <c r="F939" s="6">
+        <f t="shared" si="367"/>
+        <v>3.3670033670033669E-2</v>
+      </c>
+      <c r="G939">
+        <v>156</v>
+      </c>
+      <c r="H939" s="7">
+        <f t="shared" si="368"/>
+        <v>3</v>
+      </c>
+      <c r="I939" s="6">
+        <f t="shared" si="369"/>
+        <v>0.30291262135922331</v>
+      </c>
+    </row>
+    <row r="940" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A940" s="1">
+        <v>44001</v>
+      </c>
+      <c r="B940" t="s">
+        <v>25</v>
+      </c>
+      <c r="C940">
+        <v>816</v>
+      </c>
+      <c r="D940" s="6">
+        <f t="shared" si="365"/>
+        <v>2.3988005997001498E-2</v>
+      </c>
+      <c r="E940" s="7">
+        <f t="shared" si="366"/>
+        <v>11</v>
+      </c>
+      <c r="F940" s="6">
+        <f t="shared" si="367"/>
+        <v>9.2592592592592587E-3</v>
+      </c>
+      <c r="G940">
+        <v>167</v>
+      </c>
+      <c r="H940" s="7">
+        <f t="shared" si="368"/>
+        <v>0</v>
+      </c>
+      <c r="I940" s="6">
+        <f t="shared" si="369"/>
+        <v>0.32427184466019415</v>
+      </c>
+    </row>
+    <row r="941" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A941" s="1">
+        <v>44001</v>
+      </c>
+      <c r="B941" t="s">
+        <v>21</v>
+      </c>
+      <c r="C941">
+        <v>61</v>
+      </c>
+      <c r="D941" s="6">
+        <f t="shared" si="365"/>
+        <v>1.7932210365405534E-3</v>
+      </c>
+      <c r="E941" s="7">
+        <f t="shared" si="366"/>
+        <v>6</v>
+      </c>
+      <c r="F941" s="6">
+        <f t="shared" si="367"/>
+        <v>5.0505050505050509E-3</v>
+      </c>
+      <c r="G941">
+        <v>0</v>
+      </c>
+      <c r="H941" s="7">
+        <f t="shared" si="368"/>
+        <v>0</v>
+      </c>
+      <c r="I941" s="6">
+        <f t="shared" si="369"/>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/TN_Age.xlsx
+++ b/TN_Age.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="949" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="979" uniqueCount="26">
   <si>
     <t>0-10</t>
   </si>
@@ -440,11 +440,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I941"/>
+  <dimension ref="A1:I971"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A919" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A941" sqref="A941"/>
+      <pane ySplit="1" topLeftCell="A937" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A971" sqref="A971"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -29637,7 +29637,7 @@
         <v>4.4448364053267485E-2</v>
       </c>
       <c r="E932" s="7">
-        <f t="shared" ref="E932:E941" si="366">C932-SUMIFS(C:C,A:A,A932-1,B:B,B932)</f>
+        <f t="shared" ref="E932:E942" si="366">C932-SUMIFS(C:C,A:A,A932-1,B:B,B932)</f>
         <v>71</v>
       </c>
       <c r="F932" s="6">
@@ -29959,6 +29959,1026 @@
       </c>
       <c r="I941" s="6">
         <f t="shared" si="369"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="942" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A942" s="1">
+        <v>44002</v>
+      </c>
+      <c r="B942" t="s">
+        <v>0</v>
+      </c>
+      <c r="C942">
+        <v>1542</v>
+      </c>
+      <c r="D942" s="6">
+        <f t="shared" ref="D942:D951" si="370">C942/SUMIF(A:A,A942,C:C)</f>
+        <v>4.4765720257794808E-2</v>
+      </c>
+      <c r="E942" s="7">
+        <f t="shared" si="366"/>
+        <v>30</v>
+      </c>
+      <c r="F942" s="6">
+        <f t="shared" ref="F942:F951" si="371">E942/SUMIF(A:A,A942,E:E)</f>
+        <v>6.9930069930069935E-2</v>
+      </c>
+      <c r="G942">
+        <v>2</v>
+      </c>
+      <c r="H942" s="7">
+        <f t="shared" ref="H942:H951" si="372">G942-SUMIFS(G:G,A:A,A942-1,B:B,B942)</f>
+        <v>0</v>
+      </c>
+      <c r="I942" s="6">
+        <f t="shared" ref="I942:I951" si="373">G942/SUMIF(A:A,A942,G:G)</f>
+        <v>3.8167938931297708E-3</v>
+      </c>
+    </row>
+    <row r="943" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A943" s="1">
+        <v>44002</v>
+      </c>
+      <c r="B943" t="s">
+        <v>1</v>
+      </c>
+      <c r="C943">
+        <v>3145</v>
+      </c>
+      <c r="D943" s="6">
+        <f t="shared" si="370"/>
+        <v>9.1302328281948564E-2</v>
+      </c>
+      <c r="E943" s="7">
+        <f t="shared" ref="E943:E951" si="374">C943-SUMIFS(C:C,A:A,A943-1,B:B,B943)</f>
+        <v>51</v>
+      </c>
+      <c r="F943" s="6">
+        <f t="shared" si="371"/>
+        <v>0.11888111888111888</v>
+      </c>
+      <c r="G943">
+        <v>1</v>
+      </c>
+      <c r="H943" s="7">
+        <f t="shared" si="372"/>
+        <v>0</v>
+      </c>
+      <c r="I943" s="6">
+        <f t="shared" si="373"/>
+        <v>1.9083969465648854E-3</v>
+      </c>
+    </row>
+    <row r="944" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A944" s="1">
+        <v>44002</v>
+      </c>
+      <c r="B944" t="s">
+        <v>2</v>
+      </c>
+      <c r="C944">
+        <v>7350</v>
+      </c>
+      <c r="D944" s="6">
+        <f t="shared" si="370"/>
+        <v>0.21337746037275737</v>
+      </c>
+      <c r="E944" s="7">
+        <f t="shared" si="374"/>
+        <v>92</v>
+      </c>
+      <c r="F944" s="6">
+        <f t="shared" si="371"/>
+        <v>0.21445221445221446</v>
+      </c>
+      <c r="G944">
+        <v>4</v>
+      </c>
+      <c r="H944" s="7">
+        <f t="shared" si="372"/>
+        <v>0</v>
+      </c>
+      <c r="I944" s="6">
+        <f t="shared" si="373"/>
+        <v>7.6335877862595417E-3</v>
+      </c>
+    </row>
+    <row r="945" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A945" s="1">
+        <v>44002</v>
+      </c>
+      <c r="B945" t="s">
+        <v>3</v>
+      </c>
+      <c r="C945">
+        <v>7150</v>
+      </c>
+      <c r="D945" s="6">
+        <f t="shared" si="370"/>
+        <v>0.2075712709748592</v>
+      </c>
+      <c r="E945" s="7">
+        <f t="shared" si="374"/>
+        <v>83</v>
+      </c>
+      <c r="F945" s="6">
+        <f t="shared" si="371"/>
+        <v>0.19347319347319347</v>
+      </c>
+      <c r="G945">
+        <v>10</v>
+      </c>
+      <c r="H945" s="7">
+        <f t="shared" si="372"/>
+        <v>-1</v>
+      </c>
+      <c r="I945" s="6">
+        <f t="shared" si="373"/>
+        <v>1.9083969465648856E-2</v>
+      </c>
+    </row>
+    <row r="946" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A946" s="1">
+        <v>44002</v>
+      </c>
+      <c r="B946" t="s">
+        <v>4</v>
+      </c>
+      <c r="C946">
+        <v>5853</v>
+      </c>
+      <c r="D946" s="6">
+        <f t="shared" si="370"/>
+        <v>0.16991813272948963</v>
+      </c>
+      <c r="E946" s="7">
+        <f t="shared" si="374"/>
+        <v>61</v>
+      </c>
+      <c r="F946" s="6">
+        <f t="shared" si="371"/>
+        <v>0.14219114219114218</v>
+      </c>
+      <c r="G946">
+        <v>25</v>
+      </c>
+      <c r="H946" s="7">
+        <f t="shared" si="372"/>
+        <v>0</v>
+      </c>
+      <c r="I946" s="6">
+        <f t="shared" si="373"/>
+        <v>4.7709923664122141E-2</v>
+      </c>
+    </row>
+    <row r="947" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A947" s="1">
+        <v>44002</v>
+      </c>
+      <c r="B947" t="s">
+        <v>5</v>
+      </c>
+      <c r="C947">
+        <v>4635</v>
+      </c>
+      <c r="D947" s="6">
+        <f t="shared" si="370"/>
+        <v>0.13455843929628986</v>
+      </c>
+      <c r="E947" s="7">
+        <f t="shared" si="374"/>
+        <v>61</v>
+      </c>
+      <c r="F947" s="6">
+        <f t="shared" si="371"/>
+        <v>0.14219114219114218</v>
+      </c>
+      <c r="G947">
+        <v>47</v>
+      </c>
+      <c r="H947" s="7">
+        <f t="shared" si="372"/>
+        <v>1</v>
+      </c>
+      <c r="I947" s="6">
+        <f t="shared" si="373"/>
+        <v>8.9694656488549615E-2</v>
+      </c>
+    </row>
+    <row r="948" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A948" s="1">
+        <v>44002</v>
+      </c>
+      <c r="B948" t="s">
+        <v>6</v>
+      </c>
+      <c r="C948">
+        <v>2593</v>
+      </c>
+      <c r="D948" s="6">
+        <f t="shared" si="370"/>
+        <v>7.5277245543749635E-2</v>
+      </c>
+      <c r="E948" s="7">
+        <f t="shared" si="374"/>
+        <v>30</v>
+      </c>
+      <c r="F948" s="6">
+        <f t="shared" si="371"/>
+        <v>6.9930069930069935E-2</v>
+      </c>
+      <c r="G948">
+        <v>104</v>
+      </c>
+      <c r="H948" s="7">
+        <f t="shared" si="372"/>
+        <v>1</v>
+      </c>
+      <c r="I948" s="6">
+        <f t="shared" si="373"/>
+        <v>0.19847328244274809</v>
+      </c>
+    </row>
+    <row r="949" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A949" s="1">
+        <v>44002</v>
+      </c>
+      <c r="B949" t="s">
+        <v>7</v>
+      </c>
+      <c r="C949">
+        <v>1294</v>
+      </c>
+      <c r="D949" s="6">
+        <f t="shared" si="370"/>
+        <v>3.7566045404401088E-2</v>
+      </c>
+      <c r="E949" s="7">
+        <f t="shared" si="374"/>
+        <v>14</v>
+      </c>
+      <c r="F949" s="6">
+        <f t="shared" si="371"/>
+        <v>3.2634032634032632E-2</v>
+      </c>
+      <c r="G949">
+        <v>159</v>
+      </c>
+      <c r="H949" s="7">
+        <f t="shared" si="372"/>
+        <v>3</v>
+      </c>
+      <c r="I949" s="6">
+        <f t="shared" si="373"/>
+        <v>0.30343511450381677</v>
+      </c>
+    </row>
+    <row r="950" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A950" s="1">
+        <v>44002</v>
+      </c>
+      <c r="B950" t="s">
+        <v>25</v>
+      </c>
+      <c r="C950">
+        <v>823</v>
+      </c>
+      <c r="D950" s="6">
+        <f t="shared" si="370"/>
+        <v>2.3892469372350927E-2</v>
+      </c>
+      <c r="E950" s="7">
+        <f t="shared" si="374"/>
+        <v>7</v>
+      </c>
+      <c r="F950" s="6">
+        <f t="shared" si="371"/>
+        <v>1.6317016317016316E-2</v>
+      </c>
+      <c r="G950">
+        <v>172</v>
+      </c>
+      <c r="H950" s="7">
+        <f t="shared" si="372"/>
+        <v>5</v>
+      </c>
+      <c r="I950" s="6">
+        <f t="shared" si="373"/>
+        <v>0.3282442748091603</v>
+      </c>
+    </row>
+    <row r="951" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A951" s="1">
+        <v>44002</v>
+      </c>
+      <c r="B951" t="s">
+        <v>21</v>
+      </c>
+      <c r="C951">
+        <v>61</v>
+      </c>
+      <c r="D951" s="6">
+        <f t="shared" si="370"/>
+        <v>1.7708877663589386E-3</v>
+      </c>
+      <c r="E951" s="7">
+        <f t="shared" si="374"/>
+        <v>0</v>
+      </c>
+      <c r="F951" s="6">
+        <f t="shared" si="371"/>
+        <v>0</v>
+      </c>
+      <c r="G951">
+        <v>0</v>
+      </c>
+      <c r="H951" s="7">
+        <f t="shared" si="372"/>
+        <v>0</v>
+      </c>
+      <c r="I951" s="6">
+        <f t="shared" si="373"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="952" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A952" s="1">
+        <v>44003</v>
+      </c>
+      <c r="B952" t="s">
+        <v>0</v>
+      </c>
+      <c r="C952" s="2">
+        <v>1584</v>
+      </c>
+      <c r="D952" s="6">
+        <f t="shared" ref="D952:D961" si="375">C952/SUMIF(A:A,A952,C:C)</f>
+        <v>4.5125633867016124E-2</v>
+      </c>
+      <c r="E952" s="7">
+        <f t="shared" ref="E952:E961" si="376">C952-SUMIFS(C:C,A:A,A952-1,B:B,B952)</f>
+        <v>42</v>
+      </c>
+      <c r="F952" s="6">
+        <f t="shared" ref="F952:F961" si="377">E952/SUMIF(A:A,A952,E:E)</f>
+        <v>6.402439024390244E-2</v>
+      </c>
+      <c r="G952" s="2">
+        <v>2</v>
+      </c>
+      <c r="H952" s="7">
+        <f t="shared" ref="H952:H961" si="378">G952-SUMIFS(G:G,A:A,A952-1,B:B,B952)</f>
+        <v>0</v>
+      </c>
+      <c r="I952" s="6">
+        <f t="shared" ref="I952:I961" si="379">G952/SUMIF(A:A,A952,G:G)</f>
+        <v>3.8022813688212928E-3</v>
+      </c>
+    </row>
+    <row r="953" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A953" s="1">
+        <v>44003</v>
+      </c>
+      <c r="B953" t="s">
+        <v>1</v>
+      </c>
+      <c r="C953" s="2">
+        <v>3223</v>
+      </c>
+      <c r="D953" s="6">
+        <f t="shared" si="375"/>
+        <v>9.1818130021081426E-2</v>
+      </c>
+      <c r="E953" s="7">
+        <f t="shared" si="376"/>
+        <v>78</v>
+      </c>
+      <c r="F953" s="6">
+        <f t="shared" si="377"/>
+        <v>0.11890243902439024</v>
+      </c>
+      <c r="G953" s="2">
+        <v>1</v>
+      </c>
+      <c r="H953" s="7">
+        <f t="shared" si="378"/>
+        <v>0</v>
+      </c>
+      <c r="I953" s="6">
+        <f t="shared" si="379"/>
+        <v>1.9011406844106464E-3</v>
+      </c>
+    </row>
+    <row r="954" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A954" s="1">
+        <v>44003</v>
+      </c>
+      <c r="B954" t="s">
+        <v>2</v>
+      </c>
+      <c r="C954" s="2">
+        <v>7502</v>
+      </c>
+      <c r="D954" s="6">
+        <f t="shared" si="375"/>
+        <v>0.21372001595350693</v>
+      </c>
+      <c r="E954" s="7">
+        <f t="shared" si="376"/>
+        <v>152</v>
+      </c>
+      <c r="F954" s="6">
+        <f t="shared" si="377"/>
+        <v>0.23170731707317074</v>
+      </c>
+      <c r="G954" s="2">
+        <v>4</v>
+      </c>
+      <c r="H954" s="7">
+        <f t="shared" si="378"/>
+        <v>0</v>
+      </c>
+      <c r="I954" s="6">
+        <f t="shared" si="379"/>
+        <v>7.6045627376425855E-3</v>
+      </c>
+    </row>
+    <row r="955" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A955" s="1">
+        <v>44003</v>
+      </c>
+      <c r="B955" t="s">
+        <v>3</v>
+      </c>
+      <c r="C955" s="2">
+        <v>7267</v>
+      </c>
+      <c r="D955" s="6">
+        <f t="shared" si="375"/>
+        <v>0.20702524072702411</v>
+      </c>
+      <c r="E955" s="7">
+        <f t="shared" si="376"/>
+        <v>117</v>
+      </c>
+      <c r="F955" s="6">
+        <f t="shared" si="377"/>
+        <v>0.17835365853658536</v>
+      </c>
+      <c r="G955" s="2">
+        <v>10</v>
+      </c>
+      <c r="H955" s="7">
+        <f t="shared" si="378"/>
+        <v>0</v>
+      </c>
+      <c r="I955" s="6">
+        <f t="shared" si="379"/>
+        <v>1.9011406844106463E-2</v>
+      </c>
+    </row>
+    <row r="956" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A956" s="1">
+        <v>44003</v>
+      </c>
+      <c r="B956" t="s">
+        <v>4</v>
+      </c>
+      <c r="C956" s="2">
+        <v>5957</v>
+      </c>
+      <c r="D956" s="6">
+        <f t="shared" si="375"/>
+        <v>0.16970542989003476</v>
+      </c>
+      <c r="E956" s="7">
+        <f t="shared" si="376"/>
+        <v>104</v>
+      </c>
+      <c r="F956" s="6">
+        <f t="shared" si="377"/>
+        <v>0.15853658536585366</v>
+      </c>
+      <c r="G956" s="2">
+        <v>25</v>
+      </c>
+      <c r="H956" s="7">
+        <f t="shared" si="378"/>
+        <v>0</v>
+      </c>
+      <c r="I956" s="6">
+        <f t="shared" si="379"/>
+        <v>4.7528517110266157E-2</v>
+      </c>
+    </row>
+    <row r="957" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A957" s="1">
+        <v>44003</v>
+      </c>
+      <c r="B957" t="s">
+        <v>5</v>
+      </c>
+      <c r="C957" s="2">
+        <v>4712</v>
+      </c>
+      <c r="D957" s="6">
+        <f t="shared" si="375"/>
+        <v>0.13423736539228534</v>
+      </c>
+      <c r="E957" s="7">
+        <f t="shared" si="376"/>
+        <v>77</v>
+      </c>
+      <c r="F957" s="6">
+        <f t="shared" si="377"/>
+        <v>0.1173780487804878</v>
+      </c>
+      <c r="G957" s="2">
+        <v>47</v>
+      </c>
+      <c r="H957" s="7">
+        <f t="shared" si="378"/>
+        <v>0</v>
+      </c>
+      <c r="I957" s="6">
+        <f t="shared" si="379"/>
+        <v>8.9353612167300381E-2</v>
+      </c>
+    </row>
+    <row r="958" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A958" s="1">
+        <v>44003</v>
+      </c>
+      <c r="B958" t="s">
+        <v>6</v>
+      </c>
+      <c r="C958" s="2">
+        <v>2626</v>
+      </c>
+      <c r="D958" s="6">
+        <f t="shared" si="375"/>
+        <v>7.4810552105293152E-2</v>
+      </c>
+      <c r="E958" s="7">
+        <f t="shared" si="376"/>
+        <v>33</v>
+      </c>
+      <c r="F958" s="6">
+        <f t="shared" si="377"/>
+        <v>5.0304878048780491E-2</v>
+      </c>
+      <c r="G958" s="2">
+        <v>105</v>
+      </c>
+      <c r="H958" s="7">
+        <f t="shared" si="378"/>
+        <v>1</v>
+      </c>
+      <c r="I958" s="6">
+        <f t="shared" si="379"/>
+        <v>0.19961977186311788</v>
+      </c>
+    </row>
+    <row r="959" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A959" s="1">
+        <v>44003</v>
+      </c>
+      <c r="B959" t="s">
+        <v>7</v>
+      </c>
+      <c r="C959" s="2">
+        <v>1327</v>
+      </c>
+      <c r="D959" s="6">
+        <f t="shared" si="375"/>
+        <v>3.7804113725713635E-2</v>
+      </c>
+      <c r="E959" s="7">
+        <f t="shared" si="376"/>
+        <v>33</v>
+      </c>
+      <c r="F959" s="6">
+        <f t="shared" si="377"/>
+        <v>5.0304878048780491E-2</v>
+      </c>
+      <c r="G959" s="2">
+        <v>159</v>
+      </c>
+      <c r="H959" s="7">
+        <f t="shared" si="378"/>
+        <v>0</v>
+      </c>
+      <c r="I959" s="6">
+        <f t="shared" si="379"/>
+        <v>0.30228136882129275</v>
+      </c>
+    </row>
+    <row r="960" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A960" s="1">
+        <v>44003</v>
+      </c>
+      <c r="B960" t="s">
+        <v>25</v>
+      </c>
+      <c r="C960" s="2">
+        <v>840</v>
+      </c>
+      <c r="D960" s="6">
+        <f t="shared" si="375"/>
+        <v>2.3930260384023704E-2</v>
+      </c>
+      <c r="E960" s="7">
+        <f t="shared" si="376"/>
+        <v>17</v>
+      </c>
+      <c r="F960" s="6">
+        <f t="shared" si="377"/>
+        <v>2.5914634146341462E-2</v>
+      </c>
+      <c r="G960" s="2">
+        <v>173</v>
+      </c>
+      <c r="H960" s="7">
+        <f t="shared" si="378"/>
+        <v>1</v>
+      </c>
+      <c r="I960" s="6">
+        <f t="shared" si="379"/>
+        <v>0.32889733840304181</v>
+      </c>
+    </row>
+    <row r="961" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A961" s="1">
+        <v>44003</v>
+      </c>
+      <c r="B961" t="s">
+        <v>21</v>
+      </c>
+      <c r="C961" s="2">
+        <v>64</v>
+      </c>
+      <c r="D961" s="6">
+        <f t="shared" si="375"/>
+        <v>1.8232579340208535E-3</v>
+      </c>
+      <c r="E961" s="7">
+        <f t="shared" si="376"/>
+        <v>3</v>
+      </c>
+      <c r="F961" s="6">
+        <f t="shared" si="377"/>
+        <v>4.5731707317073168E-3</v>
+      </c>
+      <c r="G961" s="2">
+        <v>0</v>
+      </c>
+      <c r="H961" s="7">
+        <f t="shared" si="378"/>
+        <v>0</v>
+      </c>
+      <c r="I961" s="6">
+        <f t="shared" si="379"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="962" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A962" s="1">
+        <v>44004</v>
+      </c>
+      <c r="B962" t="s">
+        <v>0</v>
+      </c>
+      <c r="C962" s="2">
+        <v>1605</v>
+      </c>
+      <c r="D962" s="6">
+        <f t="shared" ref="D962:D971" si="380">C962/SUMIF(A:A,A962,C:C)</f>
+        <v>4.5143869715635811E-2</v>
+      </c>
+      <c r="E962" s="7">
+        <f t="shared" ref="E962:E971" si="381">C962-SUMIFS(C:C,A:A,A962-1,B:B,B962)</f>
+        <v>21</v>
+      </c>
+      <c r="F962" s="6">
+        <f t="shared" ref="F962:F971" si="382">E962/SUMIF(A:A,A962,E:E)</f>
+        <v>4.6563192904656318E-2</v>
+      </c>
+      <c r="G962">
+        <v>2</v>
+      </c>
+      <c r="H962" s="7">
+        <f t="shared" ref="H962:H971" si="383">G962-SUMIFS(G:G,A:A,A962-1,B:B,B962)</f>
+        <v>0</v>
+      </c>
+      <c r="I962" s="6">
+        <f t="shared" ref="I962:I971" si="384">G962/SUMIF(A:A,A962,G:G)</f>
+        <v>3.766478342749529E-3</v>
+      </c>
+    </row>
+    <row r="963" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A963" s="1">
+        <v>44004</v>
+      </c>
+      <c r="B963" t="s">
+        <v>1</v>
+      </c>
+      <c r="C963" s="2">
+        <v>3280</v>
+      </c>
+      <c r="D963" s="6">
+        <f t="shared" si="380"/>
+        <v>9.2256630945349194E-2</v>
+      </c>
+      <c r="E963" s="7">
+        <f t="shared" si="381"/>
+        <v>57</v>
+      </c>
+      <c r="F963" s="6">
+        <f t="shared" si="382"/>
+        <v>0.12638580931263857</v>
+      </c>
+      <c r="G963">
+        <v>1</v>
+      </c>
+      <c r="H963" s="7">
+        <f t="shared" si="383"/>
+        <v>0</v>
+      </c>
+      <c r="I963" s="6">
+        <f t="shared" si="384"/>
+        <v>1.8832391713747645E-3</v>
+      </c>
+    </row>
+    <row r="964" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A964" s="1">
+        <v>44004</v>
+      </c>
+      <c r="B964" t="s">
+        <v>2</v>
+      </c>
+      <c r="C964" s="2">
+        <v>7637</v>
+      </c>
+      <c r="D964" s="6">
+        <f t="shared" si="380"/>
+        <v>0.21480606418586337</v>
+      </c>
+      <c r="E964" s="7">
+        <f t="shared" si="381"/>
+        <v>135</v>
+      </c>
+      <c r="F964" s="6">
+        <f t="shared" si="382"/>
+        <v>0.29933481152993346</v>
+      </c>
+      <c r="G964">
+        <v>4</v>
+      </c>
+      <c r="H964" s="7">
+        <f t="shared" si="383"/>
+        <v>0</v>
+      </c>
+      <c r="I964" s="6">
+        <f t="shared" si="384"/>
+        <v>7.5329566854990581E-3</v>
+      </c>
+    </row>
+    <row r="965" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A965" s="1">
+        <v>44004</v>
+      </c>
+      <c r="B965" t="s">
+        <v>3</v>
+      </c>
+      <c r="C965" s="2">
+        <v>7341</v>
+      </c>
+      <c r="D965" s="6">
+        <f t="shared" si="380"/>
+        <v>0.2064804657834782</v>
+      </c>
+      <c r="E965" s="7">
+        <f t="shared" si="381"/>
+        <v>74</v>
+      </c>
+      <c r="F965" s="6">
+        <f t="shared" si="382"/>
+        <v>0.16407982261640799</v>
+      </c>
+      <c r="G965">
+        <v>11</v>
+      </c>
+      <c r="H965" s="7">
+        <f t="shared" si="383"/>
+        <v>1</v>
+      </c>
+      <c r="I965" s="6">
+        <f t="shared" si="384"/>
+        <v>2.0715630885122412E-2</v>
+      </c>
+    </row>
+    <row r="966" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A966" s="1">
+        <v>44004</v>
+      </c>
+      <c r="B966" t="s">
+        <v>4</v>
+      </c>
+      <c r="C966" s="2">
+        <v>6025</v>
+      </c>
+      <c r="D966" s="6">
+        <f t="shared" si="380"/>
+        <v>0.16946530531881979</v>
+      </c>
+      <c r="E966" s="7">
+        <f t="shared" si="381"/>
+        <v>68</v>
+      </c>
+      <c r="F966" s="6">
+        <f t="shared" si="382"/>
+        <v>0.15077605321507762</v>
+      </c>
+      <c r="G966">
+        <v>25</v>
+      </c>
+      <c r="H966" s="7">
+        <f t="shared" si="383"/>
+        <v>0</v>
+      </c>
+      <c r="I966" s="6">
+        <f t="shared" si="384"/>
+        <v>4.7080979284369114E-2</v>
+      </c>
+    </row>
+    <row r="967" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A967" s="1">
+        <v>44004</v>
+      </c>
+      <c r="B967" t="s">
+        <v>5</v>
+      </c>
+      <c r="C967" s="2">
+        <v>4763</v>
+      </c>
+      <c r="D967" s="6">
+        <f t="shared" si="380"/>
+        <v>0.13396900402216411</v>
+      </c>
+      <c r="E967" s="7">
+        <f t="shared" si="381"/>
+        <v>51</v>
+      </c>
+      <c r="F967" s="6">
+        <f t="shared" si="382"/>
+        <v>0.1130820399113082</v>
+      </c>
+      <c r="G967">
+        <v>49</v>
+      </c>
+      <c r="H967" s="7">
+        <f t="shared" si="383"/>
+        <v>2</v>
+      </c>
+      <c r="I967" s="6">
+        <f t="shared" si="384"/>
+        <v>9.2278719397363471E-2</v>
+      </c>
+    </row>
+    <row r="968" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A968" s="1">
+        <v>44004</v>
+      </c>
+      <c r="B968" t="s">
+        <v>6</v>
+      </c>
+      <c r="C968" s="2">
+        <v>2656</v>
+      </c>
+      <c r="D968" s="6">
+        <f t="shared" si="380"/>
+        <v>7.4705369448429107E-2</v>
+      </c>
+      <c r="E968" s="7">
+        <f t="shared" si="381"/>
+        <v>30</v>
+      </c>
+      <c r="F968" s="6">
+        <f t="shared" si="382"/>
+        <v>6.6518847006651879E-2</v>
+      </c>
+      <c r="G968">
+        <v>107</v>
+      </c>
+      <c r="H968" s="7">
+        <f t="shared" si="383"/>
+        <v>2</v>
+      </c>
+      <c r="I968" s="6">
+        <f t="shared" si="384"/>
+        <v>0.20150659133709981</v>
+      </c>
+    </row>
+    <row r="969" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A969" s="1">
+        <v>44004</v>
+      </c>
+      <c r="B969" t="s">
+        <v>7</v>
+      </c>
+      <c r="C969" s="2">
+        <v>1336</v>
+      </c>
+      <c r="D969" s="6">
+        <f t="shared" si="380"/>
+        <v>3.7577700897251987E-2</v>
+      </c>
+      <c r="E969" s="7">
+        <f t="shared" si="381"/>
+        <v>9</v>
+      </c>
+      <c r="F969" s="6">
+        <f t="shared" si="382"/>
+        <v>1.9955654101995565E-2</v>
+      </c>
+      <c r="G969">
+        <v>159</v>
+      </c>
+      <c r="H969" s="7">
+        <f t="shared" si="383"/>
+        <v>0</v>
+      </c>
+      <c r="I969" s="6">
+        <f t="shared" si="384"/>
+        <v>0.29943502824858759</v>
+      </c>
+    </row>
+    <row r="970" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A970" s="1">
+        <v>44004</v>
+      </c>
+      <c r="B970" t="s">
+        <v>25</v>
+      </c>
+      <c r="C970" s="2">
+        <v>846</v>
+      </c>
+      <c r="D970" s="6">
+        <f t="shared" si="380"/>
+        <v>2.3795460298708968E-2</v>
+      </c>
+      <c r="E970" s="7">
+        <f t="shared" si="381"/>
+        <v>6</v>
+      </c>
+      <c r="F970" s="6">
+        <f t="shared" si="382"/>
+        <v>1.3303769401330377E-2</v>
+      </c>
+      <c r="G970">
+        <v>173</v>
+      </c>
+      <c r="H970" s="7">
+        <f t="shared" si="383"/>
+        <v>0</v>
+      </c>
+      <c r="I970" s="6">
+        <f t="shared" si="384"/>
+        <v>0.32580037664783429</v>
+      </c>
+    </row>
+    <row r="971" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A971" s="1">
+        <v>44004</v>
+      </c>
+      <c r="B971" t="s">
+        <v>21</v>
+      </c>
+      <c r="C971" s="2">
+        <v>64</v>
+      </c>
+      <c r="D971" s="6">
+        <f t="shared" si="380"/>
+        <v>1.8001293842994964E-3</v>
+      </c>
+      <c r="E971" s="7">
+        <f t="shared" si="381"/>
+        <v>0</v>
+      </c>
+      <c r="F971" s="6">
+        <f t="shared" si="382"/>
+        <v>0</v>
+      </c>
+      <c r="G971">
+        <v>0</v>
+      </c>
+      <c r="H971" s="7">
+        <f t="shared" si="383"/>
+        <v>0</v>
+      </c>
+      <c r="I971" s="6">
+        <f t="shared" si="384"/>
         <v>0</v>
       </c>
     </row>

--- a/TN_Age.xlsx
+++ b/TN_Age.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="979" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="989" uniqueCount="26">
   <si>
     <t>0-10</t>
   </si>
@@ -440,11 +440,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I971"/>
+  <dimension ref="A1:I981"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A937" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A971" sqref="A971"/>
+      <pane ySplit="1" topLeftCell="A949" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C972" sqref="C972:C981"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -30982,6 +30982,346 @@
         <v>0</v>
       </c>
     </row>
+    <row r="972" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A972" s="1">
+        <v>44005</v>
+      </c>
+      <c r="B972" t="s">
+        <v>0</v>
+      </c>
+      <c r="C972" s="2">
+        <v>1649</v>
+      </c>
+      <c r="D972" s="6">
+        <f t="shared" ref="D972:D981" si="385">C972/SUMIF(A:A,A972,C:C)</f>
+        <v>4.5423243258132934E-2</v>
+      </c>
+      <c r="E972" s="7">
+        <f t="shared" ref="E972:E981" si="386">C972-SUMIFS(C:C,A:A,A972-1,B:B,B972)</f>
+        <v>44</v>
+      </c>
+      <c r="F972" s="6">
+        <f t="shared" ref="F972:F981" si="387">E972/SUMIF(A:A,A972,E:E)</f>
+        <v>5.8666666666666666E-2</v>
+      </c>
+      <c r="G972" s="2">
+        <v>2</v>
+      </c>
+      <c r="H972" s="7">
+        <f t="shared" ref="H972:H981" si="388">G972-SUMIFS(G:G,A:A,A972-1,B:B,B972)</f>
+        <v>0</v>
+      </c>
+      <c r="I972" s="6">
+        <f t="shared" ref="I972:I981" si="389">G972/SUMIF(A:A,A972,G:G)</f>
+        <v>3.6900369003690036E-3</v>
+      </c>
+    </row>
+    <row r="973" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A973" s="1">
+        <v>44005</v>
+      </c>
+      <c r="B973" t="s">
+        <v>1</v>
+      </c>
+      <c r="C973" s="2">
+        <v>3405</v>
+      </c>
+      <c r="D973" s="6">
+        <f t="shared" si="385"/>
+        <v>9.3793901330468554E-2</v>
+      </c>
+      <c r="E973" s="7">
+        <f t="shared" si="386"/>
+        <v>125</v>
+      </c>
+      <c r="F973" s="6">
+        <f t="shared" si="387"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="G973" s="2">
+        <v>1</v>
+      </c>
+      <c r="H973" s="7">
+        <f t="shared" si="388"/>
+        <v>0</v>
+      </c>
+      <c r="I973" s="6">
+        <f t="shared" si="389"/>
+        <v>1.8450184501845018E-3</v>
+      </c>
+    </row>
+    <row r="974" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A974" s="1">
+        <v>44005</v>
+      </c>
+      <c r="B974" t="s">
+        <v>2</v>
+      </c>
+      <c r="C974" s="2">
+        <v>7794</v>
+      </c>
+      <c r="D974" s="6">
+        <f t="shared" si="385"/>
+        <v>0.21469300057846458</v>
+      </c>
+      <c r="E974" s="7">
+        <f t="shared" si="386"/>
+        <v>157</v>
+      </c>
+      <c r="F974" s="6">
+        <f t="shared" si="387"/>
+        <v>0.20933333333333334</v>
+      </c>
+      <c r="G974" s="2">
+        <v>4</v>
+      </c>
+      <c r="H974" s="7">
+        <f t="shared" si="388"/>
+        <v>0</v>
+      </c>
+      <c r="I974" s="6">
+        <f t="shared" si="389"/>
+        <v>7.3800738007380072E-3</v>
+      </c>
+    </row>
+    <row r="975" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A975" s="1">
+        <v>44005</v>
+      </c>
+      <c r="B975" t="s">
+        <v>3</v>
+      </c>
+      <c r="C975" s="2">
+        <v>7488</v>
+      </c>
+      <c r="D975" s="6">
+        <f t="shared" si="385"/>
+        <v>0.20626394512850177</v>
+      </c>
+      <c r="E975" s="7">
+        <f t="shared" si="386"/>
+        <v>147</v>
+      </c>
+      <c r="F975" s="6">
+        <f t="shared" si="387"/>
+        <v>0.19600000000000001</v>
+      </c>
+      <c r="G975" s="2">
+        <v>11</v>
+      </c>
+      <c r="H975" s="7">
+        <f t="shared" si="388"/>
+        <v>0</v>
+      </c>
+      <c r="I975" s="6">
+        <f t="shared" si="389"/>
+        <v>2.0295202952029519E-2</v>
+      </c>
+    </row>
+    <row r="976" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A976" s="1">
+        <v>44005</v>
+      </c>
+      <c r="B976" t="s">
+        <v>4</v>
+      </c>
+      <c r="C976" s="2">
+        <v>6136</v>
+      </c>
+      <c r="D976" s="6">
+        <f t="shared" si="385"/>
+        <v>0.16902184392474451</v>
+      </c>
+      <c r="E976" s="7">
+        <f t="shared" si="386"/>
+        <v>111</v>
+      </c>
+      <c r="F976" s="6">
+        <f t="shared" si="387"/>
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="G976" s="2">
+        <v>26</v>
+      </c>
+      <c r="H976" s="7">
+        <f t="shared" si="388"/>
+        <v>1</v>
+      </c>
+      <c r="I976" s="6">
+        <f t="shared" si="389"/>
+        <v>4.797047970479705E-2</v>
+      </c>
+    </row>
+    <row r="977" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A977" s="1">
+        <v>44005</v>
+      </c>
+      <c r="B977" t="s">
+        <v>5</v>
+      </c>
+      <c r="C977" s="2">
+        <v>4849</v>
+      </c>
+      <c r="D977" s="6">
+        <f t="shared" si="385"/>
+        <v>0.13357022835578328</v>
+      </c>
+      <c r="E977" s="7">
+        <f t="shared" si="386"/>
+        <v>86</v>
+      </c>
+      <c r="F977" s="6">
+        <f t="shared" si="387"/>
+        <v>0.11466666666666667</v>
+      </c>
+      <c r="G977" s="2">
+        <v>50</v>
+      </c>
+      <c r="H977" s="7">
+        <f t="shared" si="388"/>
+        <v>1</v>
+      </c>
+      <c r="I977" s="6">
+        <f t="shared" si="389"/>
+        <v>9.2250922509225092E-2</v>
+      </c>
+    </row>
+    <row r="978" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A978" s="1">
+        <v>44005</v>
+      </c>
+      <c r="B978" t="s">
+        <v>6</v>
+      </c>
+      <c r="C978" s="2">
+        <v>2692</v>
+      </c>
+      <c r="D978" s="6">
+        <f t="shared" si="385"/>
+        <v>7.4153651213398342E-2</v>
+      </c>
+      <c r="E978" s="7">
+        <f t="shared" si="386"/>
+        <v>36</v>
+      </c>
+      <c r="F978" s="6">
+        <f t="shared" si="387"/>
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="G978" s="2">
+        <v>108</v>
+      </c>
+      <c r="H978" s="7">
+        <f t="shared" si="388"/>
+        <v>1</v>
+      </c>
+      <c r="I978" s="6">
+        <f t="shared" si="389"/>
+        <v>0.19926199261992619</v>
+      </c>
+    </row>
+    <row r="979" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A979" s="1">
+        <v>44005</v>
+      </c>
+      <c r="B979" t="s">
+        <v>7</v>
+      </c>
+      <c r="C979" s="2">
+        <v>1368</v>
+      </c>
+      <c r="D979" s="6">
+        <f t="shared" si="385"/>
+        <v>3.7682836129245514E-2</v>
+      </c>
+      <c r="E979" s="7">
+        <f t="shared" si="386"/>
+        <v>32</v>
+      </c>
+      <c r="F979" s="6">
+        <f t="shared" si="387"/>
+        <v>4.2666666666666665E-2</v>
+      </c>
+      <c r="G979" s="2">
+        <v>164</v>
+      </c>
+      <c r="H979" s="7">
+        <f t="shared" si="388"/>
+        <v>5</v>
+      </c>
+      <c r="I979" s="6">
+        <f t="shared" si="389"/>
+        <v>0.30258302583025831</v>
+      </c>
+    </row>
+    <row r="980" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A980" s="1">
+        <v>44005</v>
+      </c>
+      <c r="B980" t="s">
+        <v>25</v>
+      </c>
+      <c r="C980" s="2">
+        <v>857</v>
+      </c>
+      <c r="D980" s="6">
+        <f t="shared" si="385"/>
+        <v>2.3606864446464478E-2</v>
+      </c>
+      <c r="E980" s="7">
+        <f t="shared" si="386"/>
+        <v>11</v>
+      </c>
+      <c r="F980" s="6">
+        <f t="shared" si="387"/>
+        <v>1.4666666666666666E-2</v>
+      </c>
+      <c r="G980" s="2">
+        <v>176</v>
+      </c>
+      <c r="H980" s="7">
+        <f t="shared" si="388"/>
+        <v>3</v>
+      </c>
+      <c r="I980" s="6">
+        <f t="shared" si="389"/>
+        <v>0.32472324723247231</v>
+      </c>
+    </row>
+    <row r="981" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A981" s="1">
+        <v>44005</v>
+      </c>
+      <c r="B981" t="s">
+        <v>21</v>
+      </c>
+      <c r="C981" s="2">
+        <v>65</v>
+      </c>
+      <c r="D981" s="6">
+        <f t="shared" si="385"/>
+        <v>1.7904856347960225E-3</v>
+      </c>
+      <c r="E981" s="7">
+        <f t="shared" si="386"/>
+        <v>1</v>
+      </c>
+      <c r="F981" s="6">
+        <f t="shared" si="387"/>
+        <v>1.3333333333333333E-3</v>
+      </c>
+      <c r="G981" s="2">
+        <v>0</v>
+      </c>
+      <c r="H981" s="7">
+        <f t="shared" si="388"/>
+        <v>0</v>
+      </c>
+      <c r="I981" s="6">
+        <f t="shared" si="389"/>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/TN_Age.xlsx
+++ b/TN_Age.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="989" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="999" uniqueCount="26">
   <si>
     <t>0-10</t>
   </si>
@@ -440,11 +440,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I981"/>
+  <dimension ref="A1:I991"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A949" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C972" sqref="C972:C981"/>
+      <pane ySplit="1" topLeftCell="A970" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A991" sqref="A991"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -31322,6 +31322,346 @@
         <v>0</v>
       </c>
     </row>
+    <row r="982" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A982" s="1">
+        <v>44006</v>
+      </c>
+      <c r="B982" t="s">
+        <v>0</v>
+      </c>
+      <c r="C982">
+        <v>1700</v>
+      </c>
+      <c r="D982" s="6">
+        <f t="shared" ref="D982:D991" si="390">C982/SUMIF(A:A,A982,C:C)</f>
+        <v>4.5655968846515377E-2</v>
+      </c>
+      <c r="E982" s="7">
+        <f t="shared" ref="E982:E991" si="391">C982-SUMIFS(C:C,A:A,A982-1,B:B,B982)</f>
+        <v>51</v>
+      </c>
+      <c r="F982" s="6">
+        <f t="shared" ref="F982:F991" si="392">E982/SUMIF(A:A,A982,E:E)</f>
+        <v>5.4721030042918457E-2</v>
+      </c>
+      <c r="G982">
+        <v>3</v>
+      </c>
+      <c r="H982" s="7">
+        <f t="shared" ref="H982:H991" si="393">G982-SUMIFS(G:G,A:A,A982-1,B:B,B982)</f>
+        <v>1</v>
+      </c>
+      <c r="I982" s="6">
+        <f t="shared" ref="I982:I991" si="394">G982/SUMIF(A:A,A982,G:G)</f>
+        <v>5.3956834532374104E-3</v>
+      </c>
+    </row>
+    <row r="983" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A983" s="1">
+        <v>44006</v>
+      </c>
+      <c r="B983" t="s">
+        <v>1</v>
+      </c>
+      <c r="C983">
+        <v>3523</v>
+      </c>
+      <c r="D983" s="6">
+        <f t="shared" si="390"/>
+        <v>9.4615281321337452E-2</v>
+      </c>
+      <c r="E983" s="7">
+        <f t="shared" si="391"/>
+        <v>118</v>
+      </c>
+      <c r="F983" s="6">
+        <f t="shared" si="392"/>
+        <v>0.12660944206008584</v>
+      </c>
+      <c r="G983">
+        <v>1</v>
+      </c>
+      <c r="H983" s="7">
+        <f t="shared" si="393"/>
+        <v>0</v>
+      </c>
+      <c r="I983" s="6">
+        <f t="shared" si="394"/>
+        <v>1.7985611510791368E-3</v>
+      </c>
+    </row>
+    <row r="984" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A984" s="1">
+        <v>44006</v>
+      </c>
+      <c r="B984" t="s">
+        <v>2</v>
+      </c>
+      <c r="C984">
+        <v>8023</v>
+      </c>
+      <c r="D984" s="6">
+        <f t="shared" si="390"/>
+        <v>0.2154693165032899</v>
+      </c>
+      <c r="E984" s="7">
+        <f t="shared" si="391"/>
+        <v>229</v>
+      </c>
+      <c r="F984" s="6">
+        <f t="shared" si="392"/>
+        <v>0.24570815450643776</v>
+      </c>
+      <c r="G984">
+        <v>4</v>
+      </c>
+      <c r="H984" s="7">
+        <f t="shared" si="393"/>
+        <v>0</v>
+      </c>
+      <c r="I984" s="6">
+        <f t="shared" si="394"/>
+        <v>7.1942446043165471E-3</v>
+      </c>
+    </row>
+    <row r="985" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A985" s="1">
+        <v>44006</v>
+      </c>
+      <c r="B985" t="s">
+        <v>3</v>
+      </c>
+      <c r="C985">
+        <v>7663</v>
+      </c>
+      <c r="D985" s="6">
+        <f t="shared" si="390"/>
+        <v>0.20580099368873372</v>
+      </c>
+      <c r="E985" s="7">
+        <f t="shared" si="391"/>
+        <v>175</v>
+      </c>
+      <c r="F985" s="6">
+        <f t="shared" si="392"/>
+        <v>0.18776824034334763</v>
+      </c>
+      <c r="G985">
+        <v>12</v>
+      </c>
+      <c r="H985" s="7">
+        <f t="shared" si="393"/>
+        <v>1</v>
+      </c>
+      <c r="I985" s="6">
+        <f t="shared" si="394"/>
+        <v>2.1582733812949641E-2</v>
+      </c>
+    </row>
+    <row r="986" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A986" s="1">
+        <v>44006</v>
+      </c>
+      <c r="B986" t="s">
+        <v>4</v>
+      </c>
+      <c r="C986">
+        <v>6306</v>
+      </c>
+      <c r="D986" s="6">
+        <f t="shared" si="390"/>
+        <v>0.16935678796830939</v>
+      </c>
+      <c r="E986" s="7">
+        <f t="shared" si="391"/>
+        <v>170</v>
+      </c>
+      <c r="F986" s="6">
+        <f t="shared" si="392"/>
+        <v>0.18240343347639484</v>
+      </c>
+      <c r="G986">
+        <v>26</v>
+      </c>
+      <c r="H986" s="7">
+        <f t="shared" si="393"/>
+        <v>0</v>
+      </c>
+      <c r="I986" s="6">
+        <f t="shared" si="394"/>
+        <v>4.6762589928057555E-2</v>
+      </c>
+    </row>
+    <row r="987" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A987" s="1">
+        <v>44006</v>
+      </c>
+      <c r="B987" t="s">
+        <v>5</v>
+      </c>
+      <c r="C987">
+        <v>4940</v>
+      </c>
+      <c r="D987" s="6">
+        <f t="shared" si="390"/>
+        <v>0.13267087417752116</v>
+      </c>
+      <c r="E987" s="7">
+        <f t="shared" si="391"/>
+        <v>91</v>
+      </c>
+      <c r="F987" s="6">
+        <f t="shared" si="392"/>
+        <v>9.7639484978540775E-2</v>
+      </c>
+      <c r="G987">
+        <v>51</v>
+      </c>
+      <c r="H987" s="7">
+        <f t="shared" si="393"/>
+        <v>1</v>
+      </c>
+      <c r="I987" s="6">
+        <f t="shared" si="394"/>
+        <v>9.172661870503597E-2</v>
+      </c>
+    </row>
+    <row r="988" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A988" s="1">
+        <v>44006</v>
+      </c>
+      <c r="B988" t="s">
+        <v>6</v>
+      </c>
+      <c r="C988">
+        <v>2749</v>
+      </c>
+      <c r="D988" s="6">
+        <f t="shared" si="390"/>
+        <v>7.3828387270041623E-2</v>
+      </c>
+      <c r="E988" s="7">
+        <f t="shared" si="391"/>
+        <v>57</v>
+      </c>
+      <c r="F988" s="6">
+        <f t="shared" si="392"/>
+        <v>6.1158798283261803E-2</v>
+      </c>
+      <c r="G988">
+        <v>109</v>
+      </c>
+      <c r="H988" s="7">
+        <f t="shared" si="393"/>
+        <v>1</v>
+      </c>
+      <c r="I988" s="6">
+        <f t="shared" si="394"/>
+        <v>0.1960431654676259</v>
+      </c>
+    </row>
+    <row r="989" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A989" s="1">
+        <v>44006</v>
+      </c>
+      <c r="B989" t="s">
+        <v>7</v>
+      </c>
+      <c r="C989">
+        <v>1401</v>
+      </c>
+      <c r="D989" s="6">
+        <f t="shared" si="390"/>
+        <v>3.7625889619981201E-2</v>
+      </c>
+      <c r="E989" s="7">
+        <f t="shared" si="391"/>
+        <v>33</v>
+      </c>
+      <c r="F989" s="6">
+        <f t="shared" si="392"/>
+        <v>3.5407725321888413E-2</v>
+      </c>
+      <c r="G989">
+        <v>169</v>
+      </c>
+      <c r="H989" s="7">
+        <f t="shared" si="393"/>
+        <v>5</v>
+      </c>
+      <c r="I989" s="6">
+        <f t="shared" si="394"/>
+        <v>0.3039568345323741</v>
+      </c>
+    </row>
+    <row r="990" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A990" s="1">
+        <v>44006</v>
+      </c>
+      <c r="B990" t="s">
+        <v>25</v>
+      </c>
+      <c r="C990">
+        <v>866</v>
+      </c>
+      <c r="D990" s="6">
+        <f t="shared" si="390"/>
+        <v>2.3257687659460187E-2</v>
+      </c>
+      <c r="E990" s="7">
+        <f t="shared" si="391"/>
+        <v>9</v>
+      </c>
+      <c r="F990" s="6">
+        <f t="shared" si="392"/>
+        <v>9.6566523605150223E-3</v>
+      </c>
+      <c r="G990">
+        <v>181</v>
+      </c>
+      <c r="H990" s="7">
+        <f t="shared" si="393"/>
+        <v>5</v>
+      </c>
+      <c r="I990" s="6">
+        <f t="shared" si="394"/>
+        <v>0.32553956834532372</v>
+      </c>
+    </row>
+    <row r="991" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A991" s="1">
+        <v>44006</v>
+      </c>
+      <c r="B991" t="s">
+        <v>21</v>
+      </c>
+      <c r="C991">
+        <v>64</v>
+      </c>
+      <c r="D991" s="6">
+        <f t="shared" si="390"/>
+        <v>1.7188129448099906E-3</v>
+      </c>
+      <c r="E991" s="7">
+        <f t="shared" si="391"/>
+        <v>-1</v>
+      </c>
+      <c r="F991" s="6">
+        <f t="shared" si="392"/>
+        <v>-1.0729613733905579E-3</v>
+      </c>
+      <c r="G991">
+        <v>0</v>
+      </c>
+      <c r="H991" s="7">
+        <f t="shared" si="393"/>
+        <v>0</v>
+      </c>
+      <c r="I991" s="6">
+        <f t="shared" si="394"/>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/TN_Age.xlsx
+++ b/TN_Age.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="999" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1009" uniqueCount="26">
   <si>
     <t>0-10</t>
   </si>
@@ -440,11 +440,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I991"/>
+  <dimension ref="A1:I1001"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A970" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A991" sqref="A991"/>
+      <pane ySplit="1" topLeftCell="A982" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C1001" sqref="C1001"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -31662,6 +31662,346 @@
         <v>0</v>
       </c>
     </row>
+    <row r="992" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A992" s="1">
+        <v>44007</v>
+      </c>
+      <c r="B992" t="s">
+        <v>0</v>
+      </c>
+      <c r="C992">
+        <v>1750</v>
+      </c>
+      <c r="D992" s="6">
+        <f t="shared" ref="D992:D1001" si="395">C992/SUMIF(A:A,A992,C:C)</f>
+        <v>4.601146342745964E-2</v>
+      </c>
+      <c r="E992" s="7">
+        <f t="shared" ref="E992:E1001" si="396">C992-SUMIFS(C:C,A:A,A992-1,B:B,B992)</f>
+        <v>50</v>
+      </c>
+      <c r="F992" s="6">
+        <f t="shared" ref="F992:F1001" si="397">E992/SUMIF(A:A,A992,E:E)</f>
+        <v>6.2578222778473094E-2</v>
+      </c>
+      <c r="G992">
+        <v>3</v>
+      </c>
+      <c r="H992" s="7">
+        <f t="shared" ref="H992:H1001" si="398">G992-SUMIFS(G:G,A:A,A992-1,B:B,B992)</f>
+        <v>0</v>
+      </c>
+      <c r="I992" s="6">
+        <f t="shared" ref="I992:I1001" si="399">G992/SUMIF(A:A,A992,G:G)</f>
+        <v>5.2910052910052907E-3</v>
+      </c>
+    </row>
+    <row r="993" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A993" s="1">
+        <v>44007</v>
+      </c>
+      <c r="B993" t="s">
+        <v>1</v>
+      </c>
+      <c r="C993">
+        <v>3602</v>
+      </c>
+      <c r="D993" s="6">
+        <f t="shared" si="395"/>
+        <v>9.4704737866119784E-2</v>
+      </c>
+      <c r="E993" s="7">
+        <f t="shared" si="396"/>
+        <v>79</v>
+      </c>
+      <c r="F993" s="6">
+        <f t="shared" si="397"/>
+        <v>9.8873591989987478E-2</v>
+      </c>
+      <c r="G993">
+        <v>1</v>
+      </c>
+      <c r="H993" s="7">
+        <f t="shared" si="398"/>
+        <v>0</v>
+      </c>
+      <c r="I993" s="6">
+        <f t="shared" si="399"/>
+        <v>1.7636684303350969E-3</v>
+      </c>
+    </row>
+    <row r="994" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A994" s="1">
+        <v>44007</v>
+      </c>
+      <c r="B994" t="s">
+        <v>2</v>
+      </c>
+      <c r="C994">
+        <v>8217</v>
+      </c>
+      <c r="D994" s="6">
+        <f t="shared" si="395"/>
+        <v>0.21604353999053477</v>
+      </c>
+      <c r="E994" s="7">
+        <f t="shared" si="396"/>
+        <v>194</v>
+      </c>
+      <c r="F994" s="6">
+        <f t="shared" si="397"/>
+        <v>0.2428035043804756</v>
+      </c>
+      <c r="G994">
+        <v>4</v>
+      </c>
+      <c r="H994" s="7">
+        <f t="shared" si="398"/>
+        <v>0</v>
+      </c>
+      <c r="I994" s="6">
+        <f t="shared" si="399"/>
+        <v>7.0546737213403876E-3</v>
+      </c>
+    </row>
+    <row r="995" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A995" s="1">
+        <v>44007</v>
+      </c>
+      <c r="B995" t="s">
+        <v>3</v>
+      </c>
+      <c r="C995">
+        <v>7805</v>
+      </c>
+      <c r="D995" s="6">
+        <f t="shared" si="395"/>
+        <v>0.20521112688647</v>
+      </c>
+      <c r="E995" s="7">
+        <f t="shared" si="396"/>
+        <v>142</v>
+      </c>
+      <c r="F995" s="6">
+        <f t="shared" si="397"/>
+        <v>0.17772215269086358</v>
+      </c>
+      <c r="G995">
+        <v>13</v>
+      </c>
+      <c r="H995" s="7">
+        <f t="shared" si="398"/>
+        <v>1</v>
+      </c>
+      <c r="I995" s="6">
+        <f t="shared" si="399"/>
+        <v>2.292768959435626E-2</v>
+      </c>
+    </row>
+    <row r="996" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A996" s="1">
+        <v>44007</v>
+      </c>
+      <c r="B996" t="s">
+        <v>4</v>
+      </c>
+      <c r="C996">
+        <v>6418</v>
+      </c>
+      <c r="D996" s="6">
+        <f t="shared" si="395"/>
+        <v>0.16874375558710628</v>
+      </c>
+      <c r="E996" s="7">
+        <f t="shared" si="396"/>
+        <v>112</v>
+      </c>
+      <c r="F996" s="6">
+        <f t="shared" si="397"/>
+        <v>0.14017521902377972</v>
+      </c>
+      <c r="G996">
+        <v>26</v>
+      </c>
+      <c r="H996" s="7">
+        <f t="shared" si="398"/>
+        <v>0</v>
+      </c>
+      <c r="I996" s="6">
+        <f t="shared" si="399"/>
+        <v>4.585537918871252E-2</v>
+      </c>
+    </row>
+    <row r="997" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A997" s="1">
+        <v>44007</v>
+      </c>
+      <c r="B997" t="s">
+        <v>5</v>
+      </c>
+      <c r="C997">
+        <v>5026</v>
+      </c>
+      <c r="D997" s="6">
+        <f t="shared" si="395"/>
+        <v>0.13214492296366409</v>
+      </c>
+      <c r="E997" s="7">
+        <f t="shared" si="396"/>
+        <v>86</v>
+      </c>
+      <c r="F997" s="6">
+        <f t="shared" si="397"/>
+        <v>0.10763454317897372</v>
+      </c>
+      <c r="G997">
+        <v>50</v>
+      </c>
+      <c r="H997" s="7">
+        <f t="shared" si="398"/>
+        <v>-1</v>
+      </c>
+      <c r="I997" s="6">
+        <f t="shared" si="399"/>
+        <v>8.8183421516754845E-2</v>
+      </c>
+    </row>
+    <row r="998" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A998" s="1">
+        <v>44007</v>
+      </c>
+      <c r="B998" t="s">
+        <v>6</v>
+      </c>
+      <c r="C998">
+        <v>2791</v>
+      </c>
+      <c r="D998" s="6">
+        <f t="shared" si="395"/>
+        <v>7.3381711100594202E-2</v>
+      </c>
+      <c r="E998" s="7">
+        <f t="shared" si="396"/>
+        <v>42</v>
+      </c>
+      <c r="F998" s="6">
+        <f t="shared" si="397"/>
+        <v>5.2565707133917394E-2</v>
+      </c>
+      <c r="G998">
+        <v>110</v>
+      </c>
+      <c r="H998" s="7">
+        <f t="shared" si="398"/>
+        <v>1</v>
+      </c>
+      <c r="I998" s="6">
+        <f t="shared" si="399"/>
+        <v>0.19400352733686066</v>
+      </c>
+    </row>
+    <row r="999" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A999" s="1">
+        <v>44007</v>
+      </c>
+      <c r="B999" t="s">
+        <v>7</v>
+      </c>
+      <c r="C999">
+        <v>1431</v>
+      </c>
+      <c r="D999" s="6">
+        <f t="shared" si="395"/>
+        <v>3.762423095125414E-2</v>
+      </c>
+      <c r="E999" s="7">
+        <f t="shared" si="396"/>
+        <v>30</v>
+      </c>
+      <c r="F999" s="6">
+        <f t="shared" si="397"/>
+        <v>3.7546933667083858E-2</v>
+      </c>
+      <c r="G999">
+        <v>175</v>
+      </c>
+      <c r="H999" s="7">
+        <f t="shared" si="398"/>
+        <v>6</v>
+      </c>
+      <c r="I999" s="6">
+        <f t="shared" si="399"/>
+        <v>0.30864197530864196</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1000" s="1">
+        <v>44007</v>
+      </c>
+      <c r="B1000" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1000">
+        <v>884</v>
+      </c>
+      <c r="D1000" s="6">
+        <f t="shared" si="395"/>
+        <v>2.3242362097071041E-2</v>
+      </c>
+      <c r="E1000" s="7">
+        <f t="shared" si="396"/>
+        <v>18</v>
+      </c>
+      <c r="F1000" s="6">
+        <f t="shared" si="397"/>
+        <v>2.2528160200250311E-2</v>
+      </c>
+      <c r="G1000">
+        <v>185</v>
+      </c>
+      <c r="H1000" s="7">
+        <f t="shared" si="398"/>
+        <v>4</v>
+      </c>
+      <c r="I1000" s="6">
+        <f t="shared" si="399"/>
+        <v>0.32627865961199293</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1001" s="1">
+        <v>44007</v>
+      </c>
+      <c r="B1001" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1001">
+        <v>110</v>
+      </c>
+      <c r="D1001" s="6">
+        <f t="shared" si="395"/>
+        <v>2.8921491297260347E-3</v>
+      </c>
+      <c r="E1001" s="7">
+        <f t="shared" si="396"/>
+        <v>46</v>
+      </c>
+      <c r="F1001" s="6">
+        <f t="shared" si="397"/>
+        <v>5.7571964956195244E-2</v>
+      </c>
+      <c r="G1001">
+        <v>0</v>
+      </c>
+      <c r="H1001" s="7">
+        <f t="shared" si="398"/>
+        <v>0</v>
+      </c>
+      <c r="I1001" s="6">
+        <f t="shared" si="399"/>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/TN_Age.xlsx
+++ b/TN_Age.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1009" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1019" uniqueCount="26">
   <si>
     <t>0-10</t>
   </si>
@@ -440,11 +440,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I1001"/>
+  <dimension ref="A1:I1011"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A982" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1001" sqref="C1001"/>
+      <selection pane="bottomLeft" activeCell="A1012" sqref="A1012"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -32002,6 +32002,346 @@
         <v>0</v>
       </c>
     </row>
+    <row r="1002" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1002" s="1">
+        <v>44008</v>
+      </c>
+      <c r="B1002" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1002">
+        <v>1798</v>
+      </c>
+      <c r="D1002" s="6">
+        <f t="shared" ref="D1002:D1011" si="400">C1002/SUMIF(A:A,A1002,C:C)</f>
+        <v>4.558361220971504E-2</v>
+      </c>
+      <c r="E1002" s="7">
+        <f t="shared" ref="E1002:E1011" si="401">C1002-SUMIFS(C:C,A:A,A1002-1,B:B,B1002)</f>
+        <v>48</v>
+      </c>
+      <c r="F1002" s="6">
+        <f t="shared" ref="F1002:F1011" si="402">E1002/SUMIF(A:A,A1002,E:E)</f>
+        <v>3.4042553191489362E-2</v>
+      </c>
+      <c r="G1002" s="2">
+        <v>3</v>
+      </c>
+      <c r="H1002" s="7">
+        <f t="shared" ref="H1002:H1011" si="403">G1002-SUMIFS(G:G,A:A,A1002-1,B:B,B1002)</f>
+        <v>0</v>
+      </c>
+      <c r="I1002" s="6">
+        <f t="shared" ref="I1002:I1011" si="404">G1002/SUMIF(A:A,A1002,G:G)</f>
+        <v>5.1993067590987872E-3</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1003" s="1">
+        <v>44008</v>
+      </c>
+      <c r="B1003" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1003">
+        <v>3733</v>
+      </c>
+      <c r="D1003" s="6">
+        <f t="shared" si="400"/>
+        <v>9.4640502991582998E-2</v>
+      </c>
+      <c r="E1003" s="7">
+        <f t="shared" si="401"/>
+        <v>131</v>
+      </c>
+      <c r="F1003" s="6">
+        <f t="shared" si="402"/>
+        <v>9.2907801418439712E-2</v>
+      </c>
+      <c r="G1003" s="2">
+        <v>2</v>
+      </c>
+      <c r="H1003" s="7">
+        <f t="shared" si="403"/>
+        <v>1</v>
+      </c>
+      <c r="I1003" s="6">
+        <f t="shared" si="404"/>
+        <v>3.4662045060658577E-3</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1004" s="1">
+        <v>44008</v>
+      </c>
+      <c r="B1004" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1004">
+        <v>8482</v>
+      </c>
+      <c r="D1004" s="6">
+        <f t="shared" si="400"/>
+        <v>0.21503904269343879</v>
+      </c>
+      <c r="E1004" s="7">
+        <f t="shared" si="401"/>
+        <v>265</v>
+      </c>
+      <c r="F1004" s="6">
+        <f t="shared" si="402"/>
+        <v>0.18794326241134751</v>
+      </c>
+      <c r="G1004" s="2">
+        <v>4</v>
+      </c>
+      <c r="H1004" s="7">
+        <f t="shared" si="403"/>
+        <v>0</v>
+      </c>
+      <c r="I1004" s="6">
+        <f t="shared" si="404"/>
+        <v>6.9324090121317154E-3</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1005" s="1">
+        <v>44008</v>
+      </c>
+      <c r="B1005" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1005">
+        <v>8031</v>
+      </c>
+      <c r="D1005" s="6">
+        <f t="shared" si="400"/>
+        <v>0.20360511104350471</v>
+      </c>
+      <c r="E1005" s="7">
+        <f t="shared" si="401"/>
+        <v>226</v>
+      </c>
+      <c r="F1005" s="6">
+        <f t="shared" si="402"/>
+        <v>0.16028368794326242</v>
+      </c>
+      <c r="G1005" s="2">
+        <v>12</v>
+      </c>
+      <c r="H1005" s="7">
+        <f t="shared" si="403"/>
+        <v>-1</v>
+      </c>
+      <c r="I1005" s="6">
+        <f t="shared" si="404"/>
+        <v>2.0797227036395149E-2</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1006" s="1">
+        <v>44008</v>
+      </c>
+      <c r="B1006" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1006">
+        <v>6579</v>
+      </c>
+      <c r="D1006" s="6">
+        <f t="shared" si="400"/>
+        <v>0.16679342865835109</v>
+      </c>
+      <c r="E1006" s="7">
+        <f t="shared" si="401"/>
+        <v>161</v>
+      </c>
+      <c r="F1006" s="6">
+        <f t="shared" si="402"/>
+        <v>0.11418439716312057</v>
+      </c>
+      <c r="G1006" s="2">
+        <v>26</v>
+      </c>
+      <c r="H1006" s="7">
+        <f t="shared" si="403"/>
+        <v>0</v>
+      </c>
+      <c r="I1006" s="6">
+        <f t="shared" si="404"/>
+        <v>4.5060658578856154E-2</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1007" s="1">
+        <v>44008</v>
+      </c>
+      <c r="B1007" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1007">
+        <v>5162</v>
+      </c>
+      <c r="D1007" s="6">
+        <f t="shared" si="400"/>
+        <v>0.13086908021498833</v>
+      </c>
+      <c r="E1007" s="7">
+        <f t="shared" si="401"/>
+        <v>136</v>
+      </c>
+      <c r="F1007" s="6">
+        <f t="shared" si="402"/>
+        <v>9.6453900709219859E-2</v>
+      </c>
+      <c r="G1007" s="2">
+        <v>50</v>
+      </c>
+      <c r="H1007" s="7">
+        <f t="shared" si="403"/>
+        <v>0</v>
+      </c>
+      <c r="I1007" s="6">
+        <f t="shared" si="404"/>
+        <v>8.6655112651646451E-2</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1008" s="1">
+        <v>44008</v>
+      </c>
+      <c r="B1008" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1008">
+        <v>2876</v>
+      </c>
+      <c r="D1008" s="6">
+        <f t="shared" si="400"/>
+        <v>7.2913497616874559E-2</v>
+      </c>
+      <c r="E1008" s="7">
+        <f t="shared" si="401"/>
+        <v>85</v>
+      </c>
+      <c r="F1008" s="6">
+        <f t="shared" si="402"/>
+        <v>6.0283687943262408E-2</v>
+      </c>
+      <c r="G1008" s="2">
+        <v>111</v>
+      </c>
+      <c r="H1008" s="7">
+        <f t="shared" si="403"/>
+        <v>1</v>
+      </c>
+      <c r="I1008" s="6">
+        <f t="shared" si="404"/>
+        <v>0.1923743500866551</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1009" s="1">
+        <v>44008</v>
+      </c>
+      <c r="B1009" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1009">
+        <v>1464</v>
+      </c>
+      <c r="D1009" s="6">
+        <f t="shared" si="400"/>
+        <v>3.7115911165196226E-2</v>
+      </c>
+      <c r="E1009" s="7">
+        <f t="shared" si="401"/>
+        <v>33</v>
+      </c>
+      <c r="F1009" s="6">
+        <f t="shared" si="402"/>
+        <v>2.3404255319148935E-2</v>
+      </c>
+      <c r="G1009" s="2">
+        <v>177</v>
+      </c>
+      <c r="H1009" s="7">
+        <f t="shared" si="403"/>
+        <v>2</v>
+      </c>
+      <c r="I1009" s="6">
+        <f t="shared" si="404"/>
+        <v>0.30675909878682844</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1010" s="1">
+        <v>44008</v>
+      </c>
+      <c r="B1010" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1010">
+        <v>898</v>
+      </c>
+      <c r="D1010" s="6">
+        <f t="shared" si="400"/>
+        <v>2.2766453706520636E-2</v>
+      </c>
+      <c r="E1010" s="7">
+        <f t="shared" si="401"/>
+        <v>14</v>
+      </c>
+      <c r="F1010" s="6">
+        <f t="shared" si="402"/>
+        <v>9.9290780141843976E-3</v>
+      </c>
+      <c r="G1010" s="2">
+        <v>192</v>
+      </c>
+      <c r="H1010" s="7">
+        <f t="shared" si="403"/>
+        <v>7</v>
+      </c>
+      <c r="I1010" s="6">
+        <f t="shared" si="404"/>
+        <v>0.33275563258232238</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1011" s="1">
+        <v>44008</v>
+      </c>
+      <c r="B1011" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1011">
+        <v>421</v>
+      </c>
+      <c r="D1011" s="6">
+        <f t="shared" si="400"/>
+        <v>1.0673359699827604E-2</v>
+      </c>
+      <c r="E1011" s="7">
+        <f t="shared" si="401"/>
+        <v>311</v>
+      </c>
+      <c r="F1011" s="6">
+        <f t="shared" si="402"/>
+        <v>0.22056737588652484</v>
+      </c>
+      <c r="G1011" s="2">
+        <v>0</v>
+      </c>
+      <c r="H1011" s="7">
+        <f t="shared" si="403"/>
+        <v>0</v>
+      </c>
+      <c r="I1011" s="6">
+        <f t="shared" si="404"/>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/TN_Age.xlsx
+++ b/TN_Age.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1019" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="26">
   <si>
     <t>0-10</t>
   </si>
@@ -440,11 +440,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I1011"/>
+  <dimension ref="A1:I1021"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A982" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A1012" sqref="A1012"/>
+      <pane ySplit="1" topLeftCell="A1002" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G1013" sqref="G1013"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -32342,6 +32342,346 @@
         <v>0</v>
       </c>
     </row>
+    <row r="1012" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1012" s="1">
+        <v>44009</v>
+      </c>
+      <c r="B1012" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1012">
+        <v>1837</v>
+      </c>
+      <c r="D1012" s="6">
+        <f t="shared" ref="D1012:D1021" si="405">C1012/SUMIF(A:A,A1012,C:C)</f>
+        <v>4.5728368017524647E-2</v>
+      </c>
+      <c r="E1012" s="7">
+        <f t="shared" ref="E1012:E1021" si="406">C1012-SUMIFS(C:C,A:A,A1012-1,B:B,B1012)</f>
+        <v>39</v>
+      </c>
+      <c r="F1012" s="6">
+        <f t="shared" ref="F1012:F1021" si="407">E1012/SUMIF(A:A,A1012,E:E)</f>
+        <v>5.3571428571428568E-2</v>
+      </c>
+      <c r="G1012">
+        <v>3</v>
+      </c>
+      <c r="H1012" s="7">
+        <f t="shared" ref="H1012:H1020" si="408">G1012-SUMIFS(G:G,A:A,A1012-1,B:B,B1012)</f>
+        <v>0</v>
+      </c>
+      <c r="I1012" s="6">
+        <f t="shared" ref="I1012:I1020" si="409">G1012/SUMIF(A:A,A1012,G:G)</f>
+        <v>5.1369863013698627E-3</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1013" s="1">
+        <v>44009</v>
+      </c>
+      <c r="B1013" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1013">
+        <v>3812</v>
+      </c>
+      <c r="D1013" s="6">
+        <f t="shared" si="405"/>
+        <v>9.4891964552424574E-2</v>
+      </c>
+      <c r="E1013" s="7">
+        <f t="shared" si="406"/>
+        <v>79</v>
+      </c>
+      <c r="F1013" s="6">
+        <f t="shared" si="407"/>
+        <v>0.10851648351648352</v>
+      </c>
+      <c r="G1013">
+        <v>1</v>
+      </c>
+      <c r="H1013" s="7">
+        <f t="shared" si="408"/>
+        <v>-1</v>
+      </c>
+      <c r="I1013" s="6">
+        <f t="shared" si="409"/>
+        <v>1.7123287671232876E-3</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1014" s="1">
+        <v>44009</v>
+      </c>
+      <c r="B1014" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1014">
+        <v>8692</v>
+      </c>
+      <c r="D1014" s="6">
+        <f t="shared" si="405"/>
+        <v>0.21636961067410138</v>
+      </c>
+      <c r="E1014" s="7">
+        <f t="shared" si="406"/>
+        <v>210</v>
+      </c>
+      <c r="F1014" s="6">
+        <f t="shared" si="407"/>
+        <v>0.28846153846153844</v>
+      </c>
+      <c r="G1014">
+        <v>5</v>
+      </c>
+      <c r="H1014" s="7">
+        <f t="shared" si="408"/>
+        <v>1</v>
+      </c>
+      <c r="I1014" s="6">
+        <f t="shared" si="409"/>
+        <v>8.5616438356164379E-3</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1015" s="1">
+        <v>44009</v>
+      </c>
+      <c r="B1015" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1015">
+        <v>8179</v>
+      </c>
+      <c r="D1015" s="6">
+        <f t="shared" si="405"/>
+        <v>0.2035995220551628</v>
+      </c>
+      <c r="E1015" s="7">
+        <f t="shared" si="406"/>
+        <v>148</v>
+      </c>
+      <c r="F1015" s="6">
+        <f t="shared" si="407"/>
+        <v>0.2032967032967033</v>
+      </c>
+      <c r="G1015">
+        <v>11</v>
+      </c>
+      <c r="H1015" s="7">
+        <f t="shared" si="408"/>
+        <v>-1</v>
+      </c>
+      <c r="I1015" s="6">
+        <f t="shared" si="409"/>
+        <v>1.8835616438356163E-2</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1016" s="1">
+        <v>44009</v>
+      </c>
+      <c r="B1016" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1016">
+        <v>6690</v>
+      </c>
+      <c r="D1016" s="6">
+        <f t="shared" si="405"/>
+        <v>0.16653390421188888</v>
+      </c>
+      <c r="E1016" s="7">
+        <f t="shared" si="406"/>
+        <v>111</v>
+      </c>
+      <c r="F1016" s="6">
+        <f t="shared" si="407"/>
+        <v>0.15247252747252749</v>
+      </c>
+      <c r="G1016">
+        <v>26</v>
+      </c>
+      <c r="H1016" s="7">
+        <f t="shared" si="408"/>
+        <v>0</v>
+      </c>
+      <c r="I1016" s="6">
+        <f t="shared" si="409"/>
+        <v>4.4520547945205477E-2</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1017" s="1">
+        <v>44009</v>
+      </c>
+      <c r="B1017" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1017">
+        <v>5273</v>
+      </c>
+      <c r="D1017" s="6">
+        <f t="shared" si="405"/>
+        <v>0.13126057950811509</v>
+      </c>
+      <c r="E1017" s="7">
+        <f t="shared" si="406"/>
+        <v>111</v>
+      </c>
+      <c r="F1017" s="6">
+        <f t="shared" si="407"/>
+        <v>0.15247252747252749</v>
+      </c>
+      <c r="G1017">
+        <v>51</v>
+      </c>
+      <c r="H1017" s="7">
+        <f t="shared" si="408"/>
+        <v>1</v>
+      </c>
+      <c r="I1017" s="6">
+        <f t="shared" si="409"/>
+        <v>8.7328767123287673E-2</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1018" s="1">
+        <v>44009</v>
+      </c>
+      <c r="B1018" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1018">
+        <v>2926</v>
+      </c>
+      <c r="D1018" s="6">
+        <f t="shared" si="405"/>
+        <v>7.2836801752464403E-2</v>
+      </c>
+      <c r="E1018" s="7">
+        <f t="shared" si="406"/>
+        <v>50</v>
+      </c>
+      <c r="F1018" s="6">
+        <f t="shared" si="407"/>
+        <v>6.8681318681318687E-2</v>
+      </c>
+      <c r="G1018">
+        <v>112</v>
+      </c>
+      <c r="H1018" s="7">
+        <f t="shared" si="408"/>
+        <v>1</v>
+      </c>
+      <c r="I1018" s="6">
+        <f t="shared" si="409"/>
+        <v>0.19178082191780821</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1019" s="1">
+        <v>44009</v>
+      </c>
+      <c r="B1019" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1019">
+        <v>1494</v>
+      </c>
+      <c r="D1019" s="6">
+        <f t="shared" si="405"/>
+        <v>3.71900826446281E-2</v>
+      </c>
+      <c r="E1019" s="7">
+        <f t="shared" si="406"/>
+        <v>30</v>
+      </c>
+      <c r="F1019" s="6">
+        <f t="shared" si="407"/>
+        <v>4.1208791208791208E-2</v>
+      </c>
+      <c r="G1019">
+        <v>180</v>
+      </c>
+      <c r="H1019" s="7">
+        <f t="shared" si="408"/>
+        <v>3</v>
+      </c>
+      <c r="I1019" s="6">
+        <f t="shared" si="409"/>
+        <v>0.30821917808219179</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1020" s="1">
+        <v>44009</v>
+      </c>
+      <c r="B1020" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1020">
+        <v>915</v>
+      </c>
+      <c r="D1020" s="6">
+        <f t="shared" si="405"/>
+        <v>2.2777058647814399E-2</v>
+      </c>
+      <c r="E1020" s="7">
+        <f t="shared" si="406"/>
+        <v>17</v>
+      </c>
+      <c r="F1020" s="6">
+        <f t="shared" si="407"/>
+        <v>2.3351648351648352E-2</v>
+      </c>
+      <c r="G1020">
+        <v>195</v>
+      </c>
+      <c r="H1020" s="7">
+        <f t="shared" si="408"/>
+        <v>3</v>
+      </c>
+      <c r="I1020" s="6">
+        <f t="shared" si="409"/>
+        <v>0.3339041095890411</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1021" s="1">
+        <v>44009</v>
+      </c>
+      <c r="B1021" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1021">
+        <v>354</v>
+      </c>
+      <c r="D1021" s="6">
+        <f t="shared" si="405"/>
+        <v>8.8121079358757341E-3</v>
+      </c>
+      <c r="E1021" s="7">
+        <f t="shared" si="406"/>
+        <v>-67</v>
+      </c>
+      <c r="F1021" s="6">
+        <f t="shared" si="407"/>
+        <v>-9.2032967032967039E-2</v>
+      </c>
+      <c r="G1021">
+        <v>0</v>
+      </c>
+      <c r="H1021" s="7">
+        <f t="shared" ref="H1021" si="410">G1021-SUMIFS(G:G,A:A,A1021-1,B:B,B1021)</f>
+        <v>0</v>
+      </c>
+      <c r="I1021" s="6">
+        <f t="shared" ref="I1021" si="411">G1021/SUMIF(A:A,A1021,G:G)</f>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/TN_Age.xlsx
+++ b/TN_Age.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1049" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1059" uniqueCount="26">
   <si>
     <t>0-10</t>
   </si>
@@ -440,11 +440,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I1041"/>
+  <dimension ref="A1:I1051"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A1030" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A1042" sqref="A1042"/>
+      <selection pane="bottomLeft" activeCell="A1051" sqref="A1051"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -30653,7 +30653,7 @@
         <v>1605</v>
       </c>
       <c r="D962" s="6">
-        <f t="shared" ref="D962:D1025" si="69">C962/SUMIF(A:A,A962,C:C)</f>
+        <f t="shared" ref="D962:D1021" si="69">C962/SUMIF(A:A,A962,C:C)</f>
         <v>4.5143869715635811E-2</v>
       </c>
       <c r="E962" s="7">
@@ -30865,7 +30865,7 @@
         <v>30</v>
       </c>
       <c r="F968" s="6">
-        <f t="shared" ref="F968:F1031" si="71">E968/SUMIF(A:A,A968,E:E)</f>
+        <f t="shared" ref="F968:F1021" si="71">E968/SUMIF(A:A,A968,E:E)</f>
         <v>6.6518847006651879E-2</v>
       </c>
       <c r="G968">
@@ -31960,7 +31960,7 @@
         <v>185</v>
       </c>
       <c r="H1000" s="7">
-        <f t="shared" ref="H1000:H1063" si="73">G1000-SUMIFS(G:G,A:A,A1000-1,B:B,B1000)</f>
+        <f t="shared" ref="H1000:H1021" si="73">G1000-SUMIFS(G:G,A:A,A1000-1,B:B,B1000)</f>
         <v>4</v>
       </c>
       <c r="I1000" s="6">
@@ -33359,6 +33359,346 @@
       </c>
       <c r="I1041" s="6">
         <f t="shared" si="83"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1042" s="1">
+        <v>44013</v>
+      </c>
+      <c r="B1042" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1042">
+        <v>2099</v>
+      </c>
+      <c r="D1042" s="6">
+        <f t="shared" ref="D1042:D1051" si="84">C1042/SUMIF(A:A,A1042,C:C)</f>
+        <v>4.6320203023281471E-2</v>
+      </c>
+      <c r="E1042" s="7">
+        <f t="shared" ref="E1042:E1051" si="85">C1042-SUMIFS(C:C,A:A,A1042-1,B:B,B1042)</f>
+        <v>79</v>
+      </c>
+      <c r="F1042" s="6">
+        <f t="shared" ref="F1042:F1051" si="86">E1042/SUMIF(A:A,A1042,E:E)</f>
+        <v>4.3743078626799554E-2</v>
+      </c>
+      <c r="G1042" s="2">
+        <v>3</v>
+      </c>
+      <c r="H1042" s="7">
+        <f t="shared" ref="H1042:H1051" si="87">G1042-SUMIFS(G:G,A:A,A1042-1,B:B,B1042)</f>
+        <v>0</v>
+      </c>
+      <c r="I1042" s="6">
+        <f t="shared" ref="I1042:I1051" si="88">G1042/SUMIF(A:A,A1042,G:G)</f>
+        <v>4.9261083743842365E-3</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1043" s="1">
+        <v>44013</v>
+      </c>
+      <c r="B1043" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1043">
+        <v>4383</v>
+      </c>
+      <c r="D1043" s="6">
+        <f t="shared" si="84"/>
+        <v>9.6722939424031776E-2</v>
+      </c>
+      <c r="E1043" s="7">
+        <f t="shared" si="85"/>
+        <v>222</v>
+      </c>
+      <c r="F1043" s="6">
+        <f t="shared" si="86"/>
+        <v>0.12292358803986711</v>
+      </c>
+      <c r="G1043" s="2">
+        <v>0</v>
+      </c>
+      <c r="H1043" s="7">
+        <f t="shared" si="87"/>
+        <v>-1</v>
+      </c>
+      <c r="I1043" s="6">
+        <f t="shared" si="88"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1044" s="1">
+        <v>44013</v>
+      </c>
+      <c r="B1044" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1044">
+        <v>10134</v>
+      </c>
+      <c r="D1044" s="6">
+        <f t="shared" si="84"/>
+        <v>0.22363455809334656</v>
+      </c>
+      <c r="E1044" s="7">
+        <f t="shared" si="85"/>
+        <v>547</v>
+      </c>
+      <c r="F1044" s="6">
+        <f t="shared" si="86"/>
+        <v>0.3028792912513843</v>
+      </c>
+      <c r="G1044" s="2">
+        <v>5</v>
+      </c>
+      <c r="H1044" s="7">
+        <f t="shared" si="87"/>
+        <v>0</v>
+      </c>
+      <c r="I1044" s="6">
+        <f t="shared" si="88"/>
+        <v>8.2101806239737278E-3</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1045" s="1">
+        <v>44013</v>
+      </c>
+      <c r="B1045" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1045">
+        <v>9184</v>
+      </c>
+      <c r="D1045" s="6">
+        <f t="shared" si="84"/>
+        <v>0.20267019750634449</v>
+      </c>
+      <c r="E1045" s="7">
+        <f t="shared" si="85"/>
+        <v>367</v>
+      </c>
+      <c r="F1045" s="6">
+        <f t="shared" si="86"/>
+        <v>0.20321151716500555</v>
+      </c>
+      <c r="G1045" s="2">
+        <v>11</v>
+      </c>
+      <c r="H1045" s="7">
+        <f t="shared" si="87"/>
+        <v>0</v>
+      </c>
+      <c r="I1045" s="6">
+        <f t="shared" si="88"/>
+        <v>1.8062397372742199E-2</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1046" s="1">
+        <v>44013</v>
+      </c>
+      <c r="B1046" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1046">
+        <v>7505</v>
+      </c>
+      <c r="D1046" s="6">
+        <f t="shared" si="84"/>
+        <v>0.16561844863731656</v>
+      </c>
+      <c r="E1046" s="7">
+        <f t="shared" si="85"/>
+        <v>249</v>
+      </c>
+      <c r="F1046" s="6">
+        <f t="shared" si="86"/>
+        <v>0.13787375415282391</v>
+      </c>
+      <c r="G1046" s="2">
+        <v>27</v>
+      </c>
+      <c r="H1046" s="7">
+        <f t="shared" si="87"/>
+        <v>1</v>
+      </c>
+      <c r="I1046" s="6">
+        <f t="shared" si="88"/>
+        <v>4.4334975369458129E-2</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1047" s="1">
+        <v>44013</v>
+      </c>
+      <c r="B1047" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1047">
+        <v>5813</v>
+      </c>
+      <c r="D1047" s="6">
+        <f t="shared" si="84"/>
+        <v>0.1282798190444665</v>
+      </c>
+      <c r="E1047" s="7">
+        <f t="shared" si="85"/>
+        <v>159</v>
+      </c>
+      <c r="F1047" s="6">
+        <f t="shared" si="86"/>
+        <v>8.8039867109634545E-2</v>
+      </c>
+      <c r="G1047" s="2">
+        <v>55</v>
+      </c>
+      <c r="H1047" s="7">
+        <f t="shared" si="87"/>
+        <v>0</v>
+      </c>
+      <c r="I1047" s="6">
+        <f t="shared" si="88"/>
+        <v>9.0311986863711002E-2</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1048" s="1">
+        <v>44013</v>
+      </c>
+      <c r="B1048" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1048">
+        <v>3277</v>
+      </c>
+      <c r="D1048" s="6">
+        <f t="shared" si="84"/>
+        <v>7.2316010151164067E-2</v>
+      </c>
+      <c r="E1048" s="7">
+        <f t="shared" si="85"/>
+        <v>108</v>
+      </c>
+      <c r="F1048" s="6">
+        <f t="shared" si="86"/>
+        <v>5.9800664451827246E-2</v>
+      </c>
+      <c r="G1048" s="2">
+        <v>115</v>
+      </c>
+      <c r="H1048" s="7">
+        <f t="shared" si="87"/>
+        <v>1</v>
+      </c>
+      <c r="I1048" s="6">
+        <f t="shared" si="88"/>
+        <v>0.18883415435139572</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1049" s="1">
+        <v>44013</v>
+      </c>
+      <c r="B1049" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1049">
+        <v>1670</v>
+      </c>
+      <c r="D1049" s="6">
+        <f t="shared" si="84"/>
+        <v>3.6853139137151054E-2</v>
+      </c>
+      <c r="E1049" s="7">
+        <f t="shared" si="85"/>
+        <v>43</v>
+      </c>
+      <c r="F1049" s="6">
+        <f t="shared" si="86"/>
+        <v>2.3809523809523808E-2</v>
+      </c>
+      <c r="G1049" s="2">
+        <v>190</v>
+      </c>
+      <c r="H1049" s="7">
+        <f t="shared" si="87"/>
+        <v>1</v>
+      </c>
+      <c r="I1049" s="6">
+        <f t="shared" si="88"/>
+        <v>0.31198686371100165</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1050" s="1">
+        <v>44013</v>
+      </c>
+      <c r="B1050" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1050">
+        <v>1009</v>
+      </c>
+      <c r="D1050" s="6">
+        <f t="shared" si="84"/>
+        <v>2.2266357718194858E-2</v>
+      </c>
+      <c r="E1050" s="7">
+        <f t="shared" si="85"/>
+        <v>37</v>
+      </c>
+      <c r="F1050" s="6">
+        <f t="shared" si="86"/>
+        <v>2.0487264673311186E-2</v>
+      </c>
+      <c r="G1050" s="2">
+        <v>203</v>
+      </c>
+      <c r="H1050" s="7">
+        <f t="shared" si="87"/>
+        <v>3</v>
+      </c>
+      <c r="I1050" s="6">
+        <f t="shared" si="88"/>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1051" s="1">
+        <v>44013</v>
+      </c>
+      <c r="B1051" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1051">
+        <v>241</v>
+      </c>
+      <c r="D1051" s="6">
+        <f t="shared" si="84"/>
+        <v>5.3183272647026368E-3</v>
+      </c>
+      <c r="E1051" s="7">
+        <f t="shared" si="85"/>
+        <v>-5</v>
+      </c>
+      <c r="F1051" s="6">
+        <f t="shared" si="86"/>
+        <v>-2.7685492801771874E-3</v>
+      </c>
+      <c r="G1051" s="2">
+        <v>0</v>
+      </c>
+      <c r="H1051" s="7">
+        <f t="shared" si="87"/>
+        <v>0</v>
+      </c>
+      <c r="I1051" s="6">
+        <f t="shared" si="88"/>
         <v>0</v>
       </c>
     </row>

--- a/TN_Age.xlsx
+++ b/TN_Age.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1059" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1069" uniqueCount="26">
   <si>
     <t>0-10</t>
   </si>
@@ -440,11 +440,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I1051"/>
+  <dimension ref="A1:I1061"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1030" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A1051" sqref="A1051"/>
+      <pane ySplit="1" topLeftCell="A1039" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A1061" sqref="A1061"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -33702,6 +33702,346 @@
         <v>0</v>
       </c>
     </row>
+    <row r="1052" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1052" s="1">
+        <v>44014</v>
+      </c>
+      <c r="B1052" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1052" s="2">
+        <v>2152</v>
+      </c>
+      <c r="D1052" s="6">
+        <f t="shared" ref="D1052:D1061" si="89">C1052/SUMIF(A:A,A1052,C:C)</f>
+        <v>4.5894647046278526E-2</v>
+      </c>
+      <c r="E1052" s="7">
+        <f t="shared" ref="E1052:E1061" si="90">C1052-SUMIFS(C:C,A:A,A1052-1,B:B,B1052)</f>
+        <v>53</v>
+      </c>
+      <c r="F1052" s="6">
+        <f t="shared" ref="F1052:F1061" si="91">E1052/SUMIF(A:A,A1052,E:E)</f>
+        <v>3.3650793650793653E-2</v>
+      </c>
+      <c r="G1052" s="2">
+        <v>3</v>
+      </c>
+      <c r="H1052" s="7">
+        <f t="shared" ref="H1052:H1061" si="92">G1052-SUMIFS(G:G,A:A,A1052-1,B:B,B1052)</f>
+        <v>0</v>
+      </c>
+      <c r="I1052" s="6">
+        <f t="shared" ref="I1052:I1061" si="93">G1052/SUMIF(A:A,A1052,G:G)</f>
+        <v>4.8387096774193551E-3</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1053" s="1">
+        <v>44014</v>
+      </c>
+      <c r="B1053" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1053" s="2">
+        <v>4567</v>
+      </c>
+      <c r="D1053" s="6">
+        <f t="shared" si="89"/>
+        <v>9.7398165920238852E-2</v>
+      </c>
+      <c r="E1053" s="7">
+        <f t="shared" si="90"/>
+        <v>184</v>
+      </c>
+      <c r="F1053" s="6">
+        <f t="shared" si="91"/>
+        <v>0.11682539682539683</v>
+      </c>
+      <c r="G1053" s="2">
+        <v>0</v>
+      </c>
+      <c r="H1053" s="7">
+        <f t="shared" si="92"/>
+        <v>0</v>
+      </c>
+      <c r="I1053" s="6">
+        <f t="shared" si="93"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1054" s="1">
+        <v>44014</v>
+      </c>
+      <c r="B1054" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1054" s="2">
+        <v>10571</v>
+      </c>
+      <c r="D1054" s="6">
+        <f t="shared" si="89"/>
+        <v>0.2254425250586479</v>
+      </c>
+      <c r="E1054" s="7">
+        <f t="shared" si="90"/>
+        <v>437</v>
+      </c>
+      <c r="F1054" s="6">
+        <f t="shared" si="91"/>
+        <v>0.27746031746031746</v>
+      </c>
+      <c r="G1054" s="2">
+        <v>5</v>
+      </c>
+      <c r="H1054" s="7">
+        <f t="shared" si="92"/>
+        <v>0</v>
+      </c>
+      <c r="I1054" s="6">
+        <f t="shared" si="93"/>
+        <v>8.0645161290322578E-3</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1055" s="1">
+        <v>44014</v>
+      </c>
+      <c r="B1055" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1055" s="2">
+        <v>9489</v>
+      </c>
+      <c r="D1055" s="6">
+        <f t="shared" si="89"/>
+        <v>0.20236724248240562</v>
+      </c>
+      <c r="E1055" s="7">
+        <f t="shared" si="90"/>
+        <v>305</v>
+      </c>
+      <c r="F1055" s="6">
+        <f t="shared" si="91"/>
+        <v>0.19365079365079366</v>
+      </c>
+      <c r="G1055" s="2">
+        <v>11</v>
+      </c>
+      <c r="H1055" s="7">
+        <f t="shared" si="92"/>
+        <v>0</v>
+      </c>
+      <c r="I1055" s="6">
+        <f t="shared" si="93"/>
+        <v>1.7741935483870968E-2</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1056" s="1">
+        <v>44014</v>
+      </c>
+      <c r="B1056" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1056" s="2">
+        <v>7730</v>
+      </c>
+      <c r="D1056" s="6">
+        <f t="shared" si="89"/>
+        <v>0.16485391341437405</v>
+      </c>
+      <c r="E1056" s="7">
+        <f t="shared" si="90"/>
+        <v>225</v>
+      </c>
+      <c r="F1056" s="6">
+        <f t="shared" si="91"/>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="G1056" s="2">
+        <v>27</v>
+      </c>
+      <c r="H1056" s="7">
+        <f t="shared" si="92"/>
+        <v>0</v>
+      </c>
+      <c r="I1056" s="6">
+        <f t="shared" si="93"/>
+        <v>4.3548387096774194E-2</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1057" s="1">
+        <v>44014</v>
+      </c>
+      <c r="B1057" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1057" s="2">
+        <v>6003</v>
+      </c>
+      <c r="D1057" s="6">
+        <f t="shared" si="89"/>
+        <v>0.12802303262955855</v>
+      </c>
+      <c r="E1057" s="7">
+        <f t="shared" si="90"/>
+        <v>190</v>
+      </c>
+      <c r="F1057" s="6">
+        <f t="shared" si="91"/>
+        <v>0.12063492063492064</v>
+      </c>
+      <c r="G1057" s="2">
+        <v>58</v>
+      </c>
+      <c r="H1057" s="7">
+        <f t="shared" si="92"/>
+        <v>3</v>
+      </c>
+      <c r="I1057" s="6">
+        <f t="shared" si="93"/>
+        <v>9.3548387096774197E-2</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1058" s="1">
+        <v>44014</v>
+      </c>
+      <c r="B1058" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1058" s="2">
+        <v>3379</v>
+      </c>
+      <c r="D1058" s="6">
+        <f t="shared" si="89"/>
+        <v>7.2062273405843466E-2</v>
+      </c>
+      <c r="E1058" s="7">
+        <f t="shared" si="90"/>
+        <v>102</v>
+      </c>
+      <c r="F1058" s="6">
+        <f t="shared" si="91"/>
+        <v>6.4761904761904757E-2</v>
+      </c>
+      <c r="G1058" s="2">
+        <v>115</v>
+      </c>
+      <c r="H1058" s="7">
+        <f t="shared" si="92"/>
+        <v>0</v>
+      </c>
+      <c r="I1058" s="6">
+        <f t="shared" si="93"/>
+        <v>0.18548387096774194</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1059" s="1">
+        <v>44014</v>
+      </c>
+      <c r="B1059" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1059" s="2">
+        <v>1722</v>
+      </c>
+      <c r="D1059" s="6">
+        <f t="shared" si="89"/>
+        <v>3.6724248240563022E-2</v>
+      </c>
+      <c r="E1059" s="7">
+        <f t="shared" si="90"/>
+        <v>52</v>
+      </c>
+      <c r="F1059" s="6">
+        <f t="shared" si="91"/>
+        <v>3.3015873015873019E-2</v>
+      </c>
+      <c r="G1059" s="2">
+        <v>192</v>
+      </c>
+      <c r="H1059" s="7">
+        <f t="shared" si="92"/>
+        <v>2</v>
+      </c>
+      <c r="I1059" s="6">
+        <f t="shared" si="93"/>
+        <v>0.30967741935483872</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1060" s="1">
+        <v>44014</v>
+      </c>
+      <c r="B1060" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1060" s="2">
+        <v>1036</v>
+      </c>
+      <c r="D1060" s="6">
+        <f t="shared" si="89"/>
+        <v>2.2094263169119215E-2</v>
+      </c>
+      <c r="E1060" s="7">
+        <f t="shared" si="90"/>
+        <v>27</v>
+      </c>
+      <c r="F1060" s="6">
+        <f t="shared" si="91"/>
+        <v>1.7142857142857144E-2</v>
+      </c>
+      <c r="G1060" s="2">
+        <v>209</v>
+      </c>
+      <c r="H1060" s="7">
+        <f t="shared" si="92"/>
+        <v>6</v>
+      </c>
+      <c r="I1060" s="6">
+        <f t="shared" si="93"/>
+        <v>0.33709677419354839</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1061" s="1">
+        <v>44014</v>
+      </c>
+      <c r="B1061" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1061" s="2">
+        <v>241</v>
+      </c>
+      <c r="D1061" s="6">
+        <f t="shared" si="89"/>
+        <v>5.1396886329707825E-3</v>
+      </c>
+      <c r="E1061" s="7">
+        <f t="shared" si="90"/>
+        <v>0</v>
+      </c>
+      <c r="F1061" s="6">
+        <f t="shared" si="91"/>
+        <v>0</v>
+      </c>
+      <c r="G1061" s="2">
+        <v>0</v>
+      </c>
+      <c r="H1061" s="7">
+        <f t="shared" si="92"/>
+        <v>0</v>
+      </c>
+      <c r="I1061" s="6">
+        <f t="shared" si="93"/>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/TN_Age.xlsx
+++ b/TN_Age.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1069" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1079" uniqueCount="26">
   <si>
     <t>0-10</t>
   </si>
@@ -440,11 +440,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I1061"/>
+  <dimension ref="A1:I1071"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1039" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A1061" sqref="A1061"/>
+      <pane ySplit="1" topLeftCell="A1048" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F1064" sqref="F1064"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -34042,6 +34042,346 @@
         <v>0</v>
       </c>
     </row>
+    <row r="1062" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1062" s="1">
+        <v>44015</v>
+      </c>
+      <c r="B1062" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1062">
+        <v>2230</v>
+      </c>
+      <c r="D1062" s="6">
+        <f t="shared" ref="D1062:D1071" si="94">C1062/SUMIF(A:A,A1062,C:C)</f>
+        <v>4.5779274100837576E-2</v>
+      </c>
+      <c r="E1062" s="7">
+        <f t="shared" ref="E1062:E1071" si="95">C1062-SUMIFS(C:C,A:A,A1062-1,B:B,B1062)</f>
+        <v>78</v>
+      </c>
+      <c r="F1062" s="6">
+        <f t="shared" ref="F1062:F1071" si="96">E1062/SUMIF(A:A,A1062,E:E)</f>
+        <v>4.2810098792535674E-2</v>
+      </c>
+      <c r="G1062">
+        <v>4</v>
+      </c>
+      <c r="H1062" s="7">
+        <f t="shared" ref="H1062:H1071" si="97">G1062-SUMIFS(G:G,A:A,A1062-1,B:B,B1062)</f>
+        <v>1</v>
+      </c>
+      <c r="I1062" s="6">
+        <f t="shared" ref="I1062:I1071" si="98">G1062/SUMIF(A:A,A1062,G:G)</f>
+        <v>6.3191153238546603E-3</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1063" s="1">
+        <v>44015</v>
+      </c>
+      <c r="B1063" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1063">
+        <v>4776</v>
+      </c>
+      <c r="D1063" s="6">
+        <f t="shared" si="94"/>
+        <v>9.8045656101166043E-2</v>
+      </c>
+      <c r="E1063" s="7">
+        <f t="shared" si="95"/>
+        <v>209</v>
+      </c>
+      <c r="F1063" s="6">
+        <f t="shared" si="96"/>
+        <v>0.11470911086717893</v>
+      </c>
+      <c r="G1063">
+        <v>0</v>
+      </c>
+      <c r="H1063" s="7">
+        <f t="shared" si="97"/>
+        <v>0</v>
+      </c>
+      <c r="I1063" s="6">
+        <f t="shared" si="98"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1064" s="1">
+        <v>44015</v>
+      </c>
+      <c r="B1064" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1064">
+        <v>11032</v>
+      </c>
+      <c r="D1064" s="6">
+        <f t="shared" si="94"/>
+        <v>0.22647396945311216</v>
+      </c>
+      <c r="E1064" s="7">
+        <f t="shared" si="95"/>
+        <v>461</v>
+      </c>
+      <c r="F1064" s="6">
+        <f t="shared" si="96"/>
+        <v>0.25301866081229418</v>
+      </c>
+      <c r="G1064">
+        <v>6</v>
+      </c>
+      <c r="H1064" s="7">
+        <f t="shared" si="97"/>
+        <v>1</v>
+      </c>
+      <c r="I1064" s="6">
+        <f t="shared" si="98"/>
+        <v>9.4786729857819912E-3</v>
+      </c>
+    </row>
+    <row r="1065" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1065" s="1">
+        <v>44015</v>
+      </c>
+      <c r="B1065" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1065">
+        <v>9833</v>
+      </c>
+      <c r="D1065" s="6">
+        <f t="shared" si="94"/>
+        <v>0.20185991131548695</v>
+      </c>
+      <c r="E1065" s="7">
+        <f t="shared" si="95"/>
+        <v>344</v>
+      </c>
+      <c r="F1065" s="6">
+        <f t="shared" si="96"/>
+        <v>0.18880351262349068</v>
+      </c>
+      <c r="G1065">
+        <v>11</v>
+      </c>
+      <c r="H1065" s="7">
+        <f t="shared" si="97"/>
+        <v>0</v>
+      </c>
+      <c r="I1065" s="6">
+        <f t="shared" si="98"/>
+        <v>1.7377567140600316E-2</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1066" s="1">
+        <v>44015</v>
+      </c>
+      <c r="B1066" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1066">
+        <v>8019</v>
+      </c>
+      <c r="D1066" s="6">
+        <f t="shared" si="94"/>
+        <v>0.16462062736081459</v>
+      </c>
+      <c r="E1066" s="7">
+        <f t="shared" si="95"/>
+        <v>289</v>
+      </c>
+      <c r="F1066" s="6">
+        <f t="shared" si="96"/>
+        <v>0.15861690450054886</v>
+      </c>
+      <c r="G1066">
+        <v>28</v>
+      </c>
+      <c r="H1066" s="7">
+        <f t="shared" si="97"/>
+        <v>1</v>
+      </c>
+      <c r="I1066" s="6">
+        <f t="shared" si="98"/>
+        <v>4.4233807266982623E-2</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1067" s="1">
+        <v>44015</v>
+      </c>
+      <c r="B1067" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1067">
+        <v>6208</v>
+      </c>
+      <c r="D1067" s="6">
+        <f t="shared" si="94"/>
+        <v>0.12744292987354244</v>
+      </c>
+      <c r="E1067" s="7">
+        <f t="shared" si="95"/>
+        <v>205</v>
+      </c>
+      <c r="F1067" s="6">
+        <f t="shared" si="96"/>
+        <v>0.11251372118551042</v>
+      </c>
+      <c r="G1067">
+        <v>59</v>
+      </c>
+      <c r="H1067" s="7">
+        <f t="shared" si="97"/>
+        <v>1</v>
+      </c>
+      <c r="I1067" s="6">
+        <f t="shared" si="98"/>
+        <v>9.3206951026856236E-2</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1068" s="1">
+        <v>44015</v>
+      </c>
+      <c r="B1068" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1068">
+        <v>3507</v>
+      </c>
+      <c r="D1068" s="6">
+        <f t="shared" si="94"/>
+        <v>7.1994580390868784E-2</v>
+      </c>
+      <c r="E1068" s="7">
+        <f t="shared" si="95"/>
+        <v>128</v>
+      </c>
+      <c r="F1068" s="6">
+        <f t="shared" si="96"/>
+        <v>7.025246981339188E-2</v>
+      </c>
+      <c r="G1068">
+        <v>116</v>
+      </c>
+      <c r="H1068" s="7">
+        <f t="shared" si="97"/>
+        <v>1</v>
+      </c>
+      <c r="I1068" s="6">
+        <f t="shared" si="98"/>
+        <v>0.18325434439178515</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1069" s="1">
+        <v>44015</v>
+      </c>
+      <c r="B1069" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1069">
+        <v>1806</v>
+      </c>
+      <c r="D1069" s="6">
+        <f t="shared" si="94"/>
+        <v>3.707505337493841E-2</v>
+      </c>
+      <c r="E1069" s="7">
+        <f t="shared" si="95"/>
+        <v>84</v>
+      </c>
+      <c r="F1069" s="6">
+        <f t="shared" si="96"/>
+        <v>4.6103183315038418E-2</v>
+      </c>
+      <c r="G1069">
+        <v>195</v>
+      </c>
+      <c r="H1069" s="7">
+        <f t="shared" si="97"/>
+        <v>3</v>
+      </c>
+      <c r="I1069" s="6">
+        <f t="shared" si="98"/>
+        <v>0.30805687203791471</v>
+      </c>
+    </row>
+    <row r="1070" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1070" s="1">
+        <v>44015</v>
+      </c>
+      <c r="B1070" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1070">
+        <v>1071</v>
+      </c>
+      <c r="D1070" s="6">
+        <f t="shared" si="94"/>
+        <v>2.1986368861882082E-2</v>
+      </c>
+      <c r="E1070" s="7">
+        <f t="shared" si="95"/>
+        <v>35</v>
+      </c>
+      <c r="F1070" s="6">
+        <f t="shared" si="96"/>
+        <v>1.9209659714599342E-2</v>
+      </c>
+      <c r="G1070">
+        <v>214</v>
+      </c>
+      <c r="H1070" s="7">
+        <f t="shared" si="97"/>
+        <v>5</v>
+      </c>
+      <c r="I1070" s="6">
+        <f t="shared" si="98"/>
+        <v>0.3380726698262243</v>
+      </c>
+    </row>
+    <row r="1071" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1071" s="1">
+        <v>44015</v>
+      </c>
+      <c r="B1071" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1071">
+        <v>230</v>
+      </c>
+      <c r="D1071" s="6">
+        <f t="shared" si="94"/>
+        <v>4.721629167350961E-3</v>
+      </c>
+      <c r="E1071" s="7">
+        <f t="shared" si="95"/>
+        <v>-11</v>
+      </c>
+      <c r="F1071" s="6">
+        <f t="shared" si="96"/>
+        <v>-6.0373216245883645E-3</v>
+      </c>
+      <c r="G1071">
+        <v>0</v>
+      </c>
+      <c r="H1071" s="7">
+        <f t="shared" si="97"/>
+        <v>0</v>
+      </c>
+      <c r="I1071" s="6">
+        <f t="shared" si="98"/>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/TN_Age.xlsx
+++ b/TN_Age.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1079" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1089" uniqueCount="26">
   <si>
     <t>0-10</t>
   </si>
@@ -440,11 +440,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I1071"/>
+  <dimension ref="A1:I1081"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1048" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F1064" sqref="F1064"/>
+      <pane ySplit="1" topLeftCell="A1054" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G1081" sqref="G1081"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -34382,6 +34382,346 @@
         <v>0</v>
       </c>
     </row>
+    <row r="1072" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1072" s="1">
+        <v>44016</v>
+      </c>
+      <c r="B1072" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1072" s="2">
+        <v>2279</v>
+      </c>
+      <c r="D1072" s="6">
+        <f t="shared" ref="D1072:D1081" si="99">C1072/SUMIF(A:A,A1072,C:C)</f>
+        <v>4.5452732349421619E-2</v>
+      </c>
+      <c r="E1072" s="7">
+        <f t="shared" ref="E1072:E1081" si="100">C1072-SUMIFS(C:C,A:A,A1072-1,B:B,B1072)</f>
+        <v>49</v>
+      </c>
+      <c r="F1072" s="6">
+        <f t="shared" ref="F1072:F1081" si="101">E1072/SUMIF(A:A,A1072,E:E)</f>
+        <v>3.4313725490196081E-2</v>
+      </c>
+      <c r="G1072">
+        <v>4</v>
+      </c>
+      <c r="H1072" s="7">
+        <f t="shared" ref="H1072:H1081" si="102">G1072-SUMIFS(G:G,A:A,A1072-1,B:B,B1072)</f>
+        <v>0</v>
+      </c>
+      <c r="I1072" s="6">
+        <f t="shared" ref="I1072:I1081" si="103">G1072/SUMIF(A:A,A1072,G:G)</f>
+        <v>6.2794348508634227E-3</v>
+      </c>
+    </row>
+    <row r="1073" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1073" s="1">
+        <v>44016</v>
+      </c>
+      <c r="B1073" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1073" s="2">
+        <v>4927</v>
+      </c>
+      <c r="D1073" s="6">
+        <f t="shared" si="99"/>
+        <v>9.8264858396489824E-2</v>
+      </c>
+      <c r="E1073" s="7">
+        <f t="shared" si="100"/>
+        <v>151</v>
+      </c>
+      <c r="F1073" s="6">
+        <f t="shared" si="101"/>
+        <v>0.10574229691876751</v>
+      </c>
+      <c r="G1073">
+        <v>0</v>
+      </c>
+      <c r="H1073" s="7">
+        <f t="shared" si="102"/>
+        <v>0</v>
+      </c>
+      <c r="I1073" s="6">
+        <f t="shared" si="103"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1074" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1074" s="1">
+        <v>44016</v>
+      </c>
+      <c r="B1074" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1074" s="2">
+        <v>11472</v>
+      </c>
+      <c r="D1074" s="6">
+        <f t="shared" si="99"/>
+        <v>0.22879936178699642</v>
+      </c>
+      <c r="E1074" s="7">
+        <f t="shared" si="100"/>
+        <v>440</v>
+      </c>
+      <c r="F1074" s="6">
+        <f t="shared" si="101"/>
+        <v>0.3081232492997199</v>
+      </c>
+      <c r="G1074">
+        <v>6</v>
+      </c>
+      <c r="H1074" s="7">
+        <f t="shared" si="102"/>
+        <v>0</v>
+      </c>
+      <c r="I1074" s="6">
+        <f t="shared" si="103"/>
+        <v>9.4191522762951327E-3</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1075" s="1">
+        <v>44016</v>
+      </c>
+      <c r="B1075" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1075" s="2">
+        <v>10098</v>
+      </c>
+      <c r="D1075" s="6">
+        <f t="shared" si="99"/>
+        <v>0.20139609094535302</v>
+      </c>
+      <c r="E1075" s="7">
+        <f t="shared" si="100"/>
+        <v>265</v>
+      </c>
+      <c r="F1075" s="6">
+        <f t="shared" si="101"/>
+        <v>0.18557422969187676</v>
+      </c>
+      <c r="G1075">
+        <v>11</v>
+      </c>
+      <c r="H1075" s="7">
+        <f t="shared" si="102"/>
+        <v>0</v>
+      </c>
+      <c r="I1075" s="6">
+        <f t="shared" si="103"/>
+        <v>1.726844583987441E-2</v>
+      </c>
+    </row>
+    <row r="1076" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1076" s="1">
+        <v>44016</v>
+      </c>
+      <c r="B1076" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1076" s="2">
+        <v>8208</v>
+      </c>
+      <c r="D1076" s="6">
+        <f t="shared" si="99"/>
+        <v>0.1637016354208217</v>
+      </c>
+      <c r="E1076" s="7">
+        <f t="shared" si="100"/>
+        <v>189</v>
+      </c>
+      <c r="F1076" s="6">
+        <f t="shared" si="101"/>
+        <v>0.13235294117647059</v>
+      </c>
+      <c r="G1076">
+        <v>28</v>
+      </c>
+      <c r="H1076" s="7">
+        <f t="shared" si="102"/>
+        <v>0</v>
+      </c>
+      <c r="I1076" s="6">
+        <f t="shared" si="103"/>
+        <v>4.3956043956043959E-2</v>
+      </c>
+    </row>
+    <row r="1077" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1077" s="1">
+        <v>44016</v>
+      </c>
+      <c r="B1077" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1077" s="2">
+        <v>6350</v>
+      </c>
+      <c r="D1077" s="6">
+        <f t="shared" si="99"/>
+        <v>0.12664539289988033</v>
+      </c>
+      <c r="E1077" s="7">
+        <f t="shared" si="100"/>
+        <v>142</v>
+      </c>
+      <c r="F1077" s="6">
+        <f t="shared" si="101"/>
+        <v>9.9439775910364139E-2</v>
+      </c>
+      <c r="G1077">
+        <v>60</v>
+      </c>
+      <c r="H1077" s="7">
+        <f t="shared" si="102"/>
+        <v>1</v>
+      </c>
+      <c r="I1077" s="6">
+        <f t="shared" si="103"/>
+        <v>9.4191522762951341E-2</v>
+      </c>
+    </row>
+    <row r="1078" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1078" s="1">
+        <v>44016</v>
+      </c>
+      <c r="B1078" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1078" s="2">
+        <v>3598</v>
+      </c>
+      <c r="D1078" s="6">
+        <f t="shared" si="99"/>
+        <v>7.1759074591144792E-2</v>
+      </c>
+      <c r="E1078" s="7">
+        <f t="shared" si="100"/>
+        <v>91</v>
+      </c>
+      <c r="F1078" s="6">
+        <f t="shared" si="101"/>
+        <v>6.3725490196078427E-2</v>
+      </c>
+      <c r="G1078">
+        <v>116</v>
+      </c>
+      <c r="H1078" s="7">
+        <f t="shared" si="102"/>
+        <v>0</v>
+      </c>
+      <c r="I1078" s="6">
+        <f t="shared" si="103"/>
+        <v>0.18210361067503925</v>
+      </c>
+    </row>
+    <row r="1079" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1079" s="1">
+        <v>44016</v>
+      </c>
+      <c r="B1079" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1079" s="2">
+        <v>1859</v>
+      </c>
+      <c r="D1079" s="6">
+        <f t="shared" si="99"/>
+        <v>3.7076186677303551E-2</v>
+      </c>
+      <c r="E1079" s="7">
+        <f t="shared" si="100"/>
+        <v>53</v>
+      </c>
+      <c r="F1079" s="6">
+        <f t="shared" si="101"/>
+        <v>3.711484593837535E-2</v>
+      </c>
+      <c r="G1079">
+        <v>196</v>
+      </c>
+      <c r="H1079" s="7">
+        <f t="shared" si="102"/>
+        <v>1</v>
+      </c>
+      <c r="I1079" s="6">
+        <f t="shared" si="103"/>
+        <v>0.30769230769230771</v>
+      </c>
+    </row>
+    <row r="1080" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1080" s="1">
+        <v>44016</v>
+      </c>
+      <c r="B1080" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1080" s="2">
+        <v>1095</v>
+      </c>
+      <c r="D1080" s="6">
+        <f t="shared" si="99"/>
+        <v>2.1838851216593538E-2</v>
+      </c>
+      <c r="E1080" s="7">
+        <f t="shared" si="100"/>
+        <v>24</v>
+      </c>
+      <c r="F1080" s="6">
+        <f t="shared" si="101"/>
+        <v>1.680672268907563E-2</v>
+      </c>
+      <c r="G1080">
+        <v>216</v>
+      </c>
+      <c r="H1080" s="7">
+        <f t="shared" si="102"/>
+        <v>2</v>
+      </c>
+      <c r="I1080" s="6">
+        <f t="shared" si="103"/>
+        <v>0.3390894819466248</v>
+      </c>
+    </row>
+    <row r="1081" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1081" s="1">
+        <v>44016</v>
+      </c>
+      <c r="B1081" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1081" s="2">
+        <v>254</v>
+      </c>
+      <c r="D1081" s="6">
+        <f t="shared" si="99"/>
+        <v>5.0658157159952132E-3</v>
+      </c>
+      <c r="E1081" s="7">
+        <f t="shared" si="100"/>
+        <v>24</v>
+      </c>
+      <c r="F1081" s="6">
+        <f t="shared" si="101"/>
+        <v>1.680672268907563E-2</v>
+      </c>
+      <c r="G1081">
+        <v>0</v>
+      </c>
+      <c r="H1081" s="7">
+        <f t="shared" si="102"/>
+        <v>0</v>
+      </c>
+      <c r="I1081" s="6">
+        <f t="shared" si="103"/>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/TN_Age.xlsx
+++ b/TN_Age.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1089" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099" uniqueCount="26">
   <si>
     <t>0-10</t>
   </si>
@@ -440,11 +440,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I1081"/>
+  <dimension ref="A1:I1091"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1054" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G1081" sqref="G1081"/>
+      <pane ySplit="1" topLeftCell="A1060" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A1092" sqref="A1092"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -34722,6 +34722,346 @@
         <v>0</v>
       </c>
     </row>
+    <row r="1082" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1082" s="1">
+        <v>44017</v>
+      </c>
+      <c r="B1082" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1082" s="2">
+        <v>2332</v>
+      </c>
+      <c r="D1082" s="6">
+        <f t="shared" ref="D1082:D1091" si="104">C1082/SUMIF(A:A,A1082,C:C)</f>
+        <v>4.5342303280122884E-2</v>
+      </c>
+      <c r="E1082" s="7">
+        <f t="shared" ref="E1082:E1091" si="105">C1082-SUMIFS(C:C,A:A,A1082-1,B:B,B1082)</f>
+        <v>53</v>
+      </c>
+      <c r="F1082" s="6">
+        <f t="shared" ref="F1082:F1091" si="106">E1082/SUMIF(A:A,A1082,E:E)</f>
+        <v>4.1053446940356314E-2</v>
+      </c>
+      <c r="G1082">
+        <v>4</v>
+      </c>
+      <c r="H1082" s="7">
+        <f t="shared" ref="H1082:H1091" si="107">G1082-SUMIFS(G:G,A:A,A1082-1,B:B,B1082)</f>
+        <v>0</v>
+      </c>
+      <c r="I1082" s="6">
+        <f t="shared" ref="I1082:I1091" si="108">G1082/SUMIF(A:A,A1082,G:G)</f>
+        <v>6.1919504643962852E-3</v>
+      </c>
+    </row>
+    <row r="1083" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1083" s="1">
+        <v>44017</v>
+      </c>
+      <c r="B1083" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1083" s="2">
+        <v>5084</v>
+      </c>
+      <c r="D1083" s="6">
+        <f t="shared" si="104"/>
+        <v>9.8850887596974593E-2</v>
+      </c>
+      <c r="E1083" s="7">
+        <f t="shared" si="105"/>
+        <v>157</v>
+      </c>
+      <c r="F1083" s="6">
+        <f t="shared" si="106"/>
+        <v>0.12161115414407436</v>
+      </c>
+      <c r="G1083">
+        <v>0</v>
+      </c>
+      <c r="H1083" s="7">
+        <f t="shared" si="107"/>
+        <v>0</v>
+      </c>
+      <c r="I1083" s="6">
+        <f t="shared" si="108"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1084" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1084" s="1">
+        <v>44017</v>
+      </c>
+      <c r="B1084" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1084" s="2">
+        <v>11856</v>
+      </c>
+      <c r="D1084" s="6">
+        <f t="shared" si="104"/>
+        <v>0.23052244755108786</v>
+      </c>
+      <c r="E1084" s="7">
+        <f t="shared" si="105"/>
+        <v>384</v>
+      </c>
+      <c r="F1084" s="6">
+        <f t="shared" si="106"/>
+        <v>0.29744384198295892</v>
+      </c>
+      <c r="G1084">
+        <v>8</v>
+      </c>
+      <c r="H1084" s="7">
+        <f t="shared" si="107"/>
+        <v>2</v>
+      </c>
+      <c r="I1084" s="6">
+        <f t="shared" si="108"/>
+        <v>1.238390092879257E-2</v>
+      </c>
+    </row>
+    <row r="1085" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1085" s="1">
+        <v>44017</v>
+      </c>
+      <c r="B1085" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1085" s="2">
+        <v>10318</v>
+      </c>
+      <c r="D1085" s="6">
+        <f t="shared" si="104"/>
+        <v>0.20061830413563803</v>
+      </c>
+      <c r="E1085" s="7">
+        <f t="shared" si="105"/>
+        <v>220</v>
+      </c>
+      <c r="F1085" s="6">
+        <f t="shared" si="106"/>
+        <v>0.17041053446940357</v>
+      </c>
+      <c r="G1085">
+        <v>12</v>
+      </c>
+      <c r="H1085" s="7">
+        <f t="shared" si="107"/>
+        <v>1</v>
+      </c>
+      <c r="I1085" s="6">
+        <f t="shared" si="108"/>
+        <v>1.8575851393188854E-2</v>
+      </c>
+    </row>
+    <row r="1086" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1086" s="1">
+        <v>44017</v>
+      </c>
+      <c r="B1086" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1086" s="2">
+        <v>8407</v>
+      </c>
+      <c r="D1086" s="6">
+        <f t="shared" si="104"/>
+        <v>0.16346172541852191</v>
+      </c>
+      <c r="E1086" s="7">
+        <f t="shared" si="105"/>
+        <v>199</v>
+      </c>
+      <c r="F1086" s="6">
+        <f t="shared" si="106"/>
+        <v>0.1541440743609605</v>
+      </c>
+      <c r="G1086">
+        <v>29</v>
+      </c>
+      <c r="H1086" s="7">
+        <f t="shared" si="107"/>
+        <v>1</v>
+      </c>
+      <c r="I1086" s="6">
+        <f t="shared" si="108"/>
+        <v>4.4891640866873063E-2</v>
+      </c>
+    </row>
+    <row r="1087" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1087" s="1">
+        <v>44017</v>
+      </c>
+      <c r="B1087" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1087" s="2">
+        <v>6492</v>
+      </c>
+      <c r="D1087" s="6">
+        <f t="shared" si="104"/>
+        <v>0.12622737259629407</v>
+      </c>
+      <c r="E1087" s="7">
+        <f t="shared" si="105"/>
+        <v>142</v>
+      </c>
+      <c r="F1087" s="6">
+        <f t="shared" si="106"/>
+        <v>0.10999225406661503</v>
+      </c>
+      <c r="G1087">
+        <v>63</v>
+      </c>
+      <c r="H1087" s="7">
+        <f t="shared" si="107"/>
+        <v>3</v>
+      </c>
+      <c r="I1087" s="6">
+        <f t="shared" si="108"/>
+        <v>9.7523219814241488E-2</v>
+      </c>
+    </row>
+    <row r="1088" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1088" s="1">
+        <v>44017</v>
+      </c>
+      <c r="B1088" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1088" s="2">
+        <v>3684</v>
+      </c>
+      <c r="D1088" s="6">
+        <f t="shared" si="104"/>
+        <v>7.1629950807878512E-2</v>
+      </c>
+      <c r="E1088" s="7">
+        <f t="shared" si="105"/>
+        <v>86</v>
+      </c>
+      <c r="F1088" s="6">
+        <f t="shared" si="106"/>
+        <v>6.6615027110766847E-2</v>
+      </c>
+      <c r="G1088">
+        <v>117</v>
+      </c>
+      <c r="H1088" s="7">
+        <f t="shared" si="107"/>
+        <v>1</v>
+      </c>
+      <c r="I1088" s="6">
+        <f t="shared" si="108"/>
+        <v>0.18111455108359134</v>
+      </c>
+    </row>
+    <row r="1089" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1089" s="1">
+        <v>44017</v>
+      </c>
+      <c r="B1089" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1089" s="2">
+        <v>1896</v>
+      </c>
+      <c r="D1089" s="6">
+        <f t="shared" si="104"/>
+        <v>3.6864925822947252E-2</v>
+      </c>
+      <c r="E1089" s="7">
+        <f t="shared" si="105"/>
+        <v>37</v>
+      </c>
+      <c r="F1089" s="6">
+        <f t="shared" si="106"/>
+        <v>2.8659953524399689E-2</v>
+      </c>
+      <c r="G1089">
+        <v>197</v>
+      </c>
+      <c r="H1089" s="7">
+        <f t="shared" si="107"/>
+        <v>1</v>
+      </c>
+      <c r="I1089" s="6">
+        <f t="shared" si="108"/>
+        <v>0.30495356037151705</v>
+      </c>
+    </row>
+    <row r="1090" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1090" s="1">
+        <v>44017</v>
+      </c>
+      <c r="B1090" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1090" s="2">
+        <v>1110</v>
+      </c>
+      <c r="D1090" s="6">
+        <f t="shared" si="104"/>
+        <v>2.15823141684976E-2</v>
+      </c>
+      <c r="E1090" s="7">
+        <f t="shared" si="105"/>
+        <v>15</v>
+      </c>
+      <c r="F1090" s="6">
+        <f t="shared" si="106"/>
+        <v>1.1618900077459334E-2</v>
+      </c>
+      <c r="G1090">
+        <v>216</v>
+      </c>
+      <c r="H1090" s="7">
+        <f t="shared" si="107"/>
+        <v>0</v>
+      </c>
+      <c r="I1090" s="6">
+        <f t="shared" si="108"/>
+        <v>0.33436532507739936</v>
+      </c>
+    </row>
+    <row r="1091" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1091" s="1">
+        <v>44017</v>
+      </c>
+      <c r="B1091" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1091" s="2">
+        <v>252</v>
+      </c>
+      <c r="D1091" s="6">
+        <f t="shared" si="104"/>
+        <v>4.8997686220372929E-3</v>
+      </c>
+      <c r="E1091" s="7">
+        <f t="shared" si="105"/>
+        <v>-2</v>
+      </c>
+      <c r="F1091" s="6">
+        <f t="shared" si="106"/>
+        <v>-1.5491866769945779E-3</v>
+      </c>
+      <c r="G1091">
+        <v>0</v>
+      </c>
+      <c r="H1091" s="7">
+        <f t="shared" si="107"/>
+        <v>0</v>
+      </c>
+      <c r="I1091" s="6">
+        <f t="shared" si="108"/>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/TN_Age.xlsx
+++ b/TN_Age.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1109" uniqueCount="26">
   <si>
     <t>0-10</t>
   </si>
@@ -440,11 +440,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I1091"/>
+  <dimension ref="A1:I1101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1060" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A1092" sqref="A1092"/>
+      <pane ySplit="1" topLeftCell="A1075" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A1101" sqref="A1101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -35062,6 +35062,346 @@
         <v>0</v>
       </c>
     </row>
+    <row r="1092" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1092" s="1">
+        <v>44018</v>
+      </c>
+      <c r="B1092" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1092">
+        <v>2360</v>
+      </c>
+      <c r="D1092" s="6">
+        <f t="shared" ref="D1092:D1101" si="109">C1092/SUMIF(A:A,A1092,C:C)</f>
+        <v>4.5249736362764838E-2</v>
+      </c>
+      <c r="E1092" s="7">
+        <f t="shared" ref="E1092:E1101" si="110">C1092-SUMIFS(C:C,A:A,A1092-1,B:B,B1092)</f>
+        <v>28</v>
+      </c>
+      <c r="F1092" s="6">
+        <f t="shared" ref="F1092:F1101" si="111">E1092/SUMIF(A:A,A1092,E:E)</f>
+        <v>3.8674033149171269E-2</v>
+      </c>
+      <c r="G1092">
+        <v>3</v>
+      </c>
+      <c r="H1092" s="7">
+        <f t="shared" ref="H1092:H1101" si="112">G1092-SUMIFS(G:G,A:A,A1092-1,B:B,B1092)</f>
+        <v>-1</v>
+      </c>
+      <c r="I1092" s="6">
+        <f t="shared" ref="I1092:I1101" si="113">G1092/SUMIF(A:A,A1092,G:G)</f>
+        <v>4.5941807044410417E-3</v>
+      </c>
+    </row>
+    <row r="1093" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1093" s="1">
+        <v>44018</v>
+      </c>
+      <c r="B1093" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1093">
+        <v>5173</v>
+      </c>
+      <c r="D1093" s="6">
+        <f t="shared" si="109"/>
+        <v>9.9185121273128174E-2</v>
+      </c>
+      <c r="E1093" s="7">
+        <f t="shared" si="110"/>
+        <v>89</v>
+      </c>
+      <c r="F1093" s="6">
+        <f t="shared" si="111"/>
+        <v>0.12292817679558012</v>
+      </c>
+      <c r="G1093">
+        <v>0</v>
+      </c>
+      <c r="H1093" s="7">
+        <f t="shared" si="112"/>
+        <v>0</v>
+      </c>
+      <c r="I1093" s="6">
+        <f t="shared" si="113"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1094" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1094" s="1">
+        <v>44018</v>
+      </c>
+      <c r="B1094" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1094">
+        <v>12063</v>
+      </c>
+      <c r="D1094" s="6">
+        <f t="shared" si="109"/>
+        <v>0.23129134311187804</v>
+      </c>
+      <c r="E1094" s="7">
+        <f t="shared" si="110"/>
+        <v>207</v>
+      </c>
+      <c r="F1094" s="6">
+        <f t="shared" si="111"/>
+        <v>0.28591160220994477</v>
+      </c>
+      <c r="G1094">
+        <v>8</v>
+      </c>
+      <c r="H1094" s="7">
+        <f t="shared" si="112"/>
+        <v>0</v>
+      </c>
+      <c r="I1094" s="6">
+        <f t="shared" si="113"/>
+        <v>1.2251148545176111E-2</v>
+      </c>
+    </row>
+    <row r="1095" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1095" s="1">
+        <v>44018</v>
+      </c>
+      <c r="B1095" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1095">
+        <v>10429</v>
+      </c>
+      <c r="D1095" s="6">
+        <f t="shared" si="109"/>
+        <v>0.19996165276579428</v>
+      </c>
+      <c r="E1095" s="7">
+        <f t="shared" si="110"/>
+        <v>111</v>
+      </c>
+      <c r="F1095" s="6">
+        <f t="shared" si="111"/>
+        <v>0.15331491712707182</v>
+      </c>
+      <c r="G1095">
+        <v>12</v>
+      </c>
+      <c r="H1095" s="7">
+        <f t="shared" si="112"/>
+        <v>0</v>
+      </c>
+      <c r="I1095" s="6">
+        <f t="shared" si="113"/>
+        <v>1.8376722817764167E-2</v>
+      </c>
+    </row>
+    <row r="1096" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1096" s="1">
+        <v>44018</v>
+      </c>
+      <c r="B1096" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1096">
+        <v>8507</v>
+      </c>
+      <c r="D1096" s="6">
+        <f t="shared" si="109"/>
+        <v>0.16310996069408493</v>
+      </c>
+      <c r="E1096" s="7">
+        <f t="shared" si="110"/>
+        <v>100</v>
+      </c>
+      <c r="F1096" s="6">
+        <f t="shared" si="111"/>
+        <v>0.13812154696132597</v>
+      </c>
+      <c r="G1096">
+        <v>32</v>
+      </c>
+      <c r="H1096" s="7">
+        <f t="shared" si="112"/>
+        <v>3</v>
+      </c>
+      <c r="I1096" s="6">
+        <f t="shared" si="113"/>
+        <v>4.9004594180704443E-2</v>
+      </c>
+    </row>
+    <row r="1097" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1097" s="1">
+        <v>44018</v>
+      </c>
+      <c r="B1097" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1097">
+        <v>6581</v>
+      </c>
+      <c r="D1097" s="6">
+        <f t="shared" si="109"/>
+        <v>0.12618157415396414</v>
+      </c>
+      <c r="E1097" s="7">
+        <f t="shared" si="110"/>
+        <v>89</v>
+      </c>
+      <c r="F1097" s="6">
+        <f t="shared" si="111"/>
+        <v>0.12292817679558012</v>
+      </c>
+      <c r="G1097">
+        <v>64</v>
+      </c>
+      <c r="H1097" s="7">
+        <f t="shared" si="112"/>
+        <v>1</v>
+      </c>
+      <c r="I1097" s="6">
+        <f t="shared" si="113"/>
+        <v>9.8009188361408886E-2</v>
+      </c>
+    </row>
+    <row r="1098" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1098" s="1">
+        <v>44018</v>
+      </c>
+      <c r="B1098" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1098">
+        <v>3749</v>
+      </c>
+      <c r="D1098" s="6">
+        <f t="shared" si="109"/>
+        <v>7.1881890518646338E-2</v>
+      </c>
+      <c r="E1098" s="7">
+        <f t="shared" si="110"/>
+        <v>65</v>
+      </c>
+      <c r="F1098" s="6">
+        <f t="shared" si="111"/>
+        <v>8.9779005524861885E-2</v>
+      </c>
+      <c r="G1098">
+        <v>118</v>
+      </c>
+      <c r="H1098" s="7">
+        <f t="shared" si="112"/>
+        <v>1</v>
+      </c>
+      <c r="I1098" s="6">
+        <f t="shared" si="113"/>
+        <v>0.18070444104134761</v>
+      </c>
+    </row>
+    <row r="1099" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1099" s="1">
+        <v>44018</v>
+      </c>
+      <c r="B1099" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1099">
+        <v>1929</v>
+      </c>
+      <c r="D1099" s="6">
+        <f t="shared" si="109"/>
+        <v>3.6985907391429394E-2</v>
+      </c>
+      <c r="E1099" s="7">
+        <f t="shared" si="110"/>
+        <v>33</v>
+      </c>
+      <c r="F1099" s="6">
+        <f t="shared" si="111"/>
+        <v>4.5580110497237571E-2</v>
+      </c>
+      <c r="G1099">
+        <v>199</v>
+      </c>
+      <c r="H1099" s="7">
+        <f t="shared" si="112"/>
+        <v>2</v>
+      </c>
+      <c r="I1099" s="6">
+        <f t="shared" si="113"/>
+        <v>0.30474732006125577</v>
+      </c>
+    </row>
+    <row r="1100" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1100" s="1">
+        <v>44018</v>
+      </c>
+      <c r="B1100" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1100">
+        <v>1122</v>
+      </c>
+      <c r="D1100" s="6">
+        <f t="shared" si="109"/>
+        <v>2.1512798389416162E-2</v>
+      </c>
+      <c r="E1100" s="7">
+        <f t="shared" si="110"/>
+        <v>12</v>
+      </c>
+      <c r="F1100" s="6">
+        <f t="shared" si="111"/>
+        <v>1.6574585635359115E-2</v>
+      </c>
+      <c r="G1100">
+        <v>217</v>
+      </c>
+      <c r="H1100" s="7">
+        <f t="shared" si="112"/>
+        <v>1</v>
+      </c>
+      <c r="I1100" s="6">
+        <f t="shared" si="113"/>
+        <v>0.33231240428790199</v>
+      </c>
+    </row>
+    <row r="1101" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1101" s="1">
+        <v>44018</v>
+      </c>
+      <c r="B1101" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1101">
+        <v>242</v>
+      </c>
+      <c r="D1101" s="6">
+        <f t="shared" si="109"/>
+        <v>4.6400153388936822E-3</v>
+      </c>
+      <c r="E1101" s="7">
+        <f t="shared" si="110"/>
+        <v>-10</v>
+      </c>
+      <c r="F1101" s="6">
+        <f t="shared" si="111"/>
+        <v>-1.3812154696132596E-2</v>
+      </c>
+      <c r="G1101">
+        <v>0</v>
+      </c>
+      <c r="H1101" s="7">
+        <f t="shared" si="112"/>
+        <v>0</v>
+      </c>
+      <c r="I1101" s="6">
+        <f t="shared" si="113"/>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/TN_Age.xlsx
+++ b/TN_Age.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1109" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1119" uniqueCount="26">
   <si>
     <t>0-10</t>
   </si>
@@ -440,11 +440,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I1101"/>
+  <dimension ref="A1:I1111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1075" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A1101" sqref="A1101"/>
+      <pane ySplit="1" topLeftCell="A1081" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A1111" sqref="A1111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -35402,6 +35402,346 @@
         <v>0</v>
       </c>
     </row>
+    <row r="1102" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1102" s="1">
+        <v>44019</v>
+      </c>
+      <c r="B1102" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1102">
+        <v>2444</v>
+      </c>
+      <c r="D1102" s="6">
+        <f t="shared" ref="D1102:D1111" si="114">C1102/SUMIF(A:A,A1102,C:C)</f>
+        <v>4.5670291886235378E-2</v>
+      </c>
+      <c r="E1102" s="7">
+        <f t="shared" ref="E1102:E1111" si="115">C1102-SUMIFS(C:C,A:A,A1102-1,B:B,B1102)</f>
+        <v>84</v>
+      </c>
+      <c r="F1102" s="6">
+        <f t="shared" ref="F1102:F1111" si="116">E1102/SUMIF(A:A,A1102,E:E)</f>
+        <v>6.1810154525386317E-2</v>
+      </c>
+      <c r="G1102">
+        <v>3</v>
+      </c>
+      <c r="H1102" s="7">
+        <f t="shared" ref="H1102:H1111" si="117">G1102-SUMIFS(G:G,A:A,A1102-1,B:B,B1102)</f>
+        <v>0</v>
+      </c>
+      <c r="I1102" s="6">
+        <f t="shared" ref="I1102:I1111" si="118">G1102/SUMIF(A:A,A1102,G:G)</f>
+        <v>4.5112781954887221E-3</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1103" s="1">
+        <v>44019</v>
+      </c>
+      <c r="B1103" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1103">
+        <v>5319</v>
+      </c>
+      <c r="D1103" s="6">
+        <f t="shared" si="114"/>
+        <v>9.9394550958627648E-2</v>
+      </c>
+      <c r="E1103" s="7">
+        <f t="shared" si="115"/>
+        <v>146</v>
+      </c>
+      <c r="F1103" s="6">
+        <f t="shared" si="116"/>
+        <v>0.10743193524650478</v>
+      </c>
+      <c r="G1103">
+        <v>0</v>
+      </c>
+      <c r="H1103" s="7">
+        <f t="shared" si="117"/>
+        <v>0</v>
+      </c>
+      <c r="I1103" s="6">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1104" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1104" s="1">
+        <v>44019</v>
+      </c>
+      <c r="B1104" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1104">
+        <v>12463</v>
+      </c>
+      <c r="D1104" s="6">
+        <f t="shared" si="114"/>
+        <v>0.23289232724146952</v>
+      </c>
+      <c r="E1104" s="7">
+        <f t="shared" si="115"/>
+        <v>400</v>
+      </c>
+      <c r="F1104" s="6">
+        <f t="shared" si="116"/>
+        <v>0.29433406916850624</v>
+      </c>
+      <c r="G1104">
+        <v>9</v>
+      </c>
+      <c r="H1104" s="7">
+        <f t="shared" si="117"/>
+        <v>1</v>
+      </c>
+      <c r="I1104" s="6">
+        <f t="shared" si="118"/>
+        <v>1.3533834586466165E-2</v>
+      </c>
+    </row>
+    <row r="1105" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1105" s="1">
+        <v>44019</v>
+      </c>
+      <c r="B1105" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1105">
+        <v>10639</v>
+      </c>
+      <c r="D1105" s="6">
+        <f t="shared" si="114"/>
+        <v>0.19880778861606307</v>
+      </c>
+      <c r="E1105" s="7">
+        <f t="shared" si="115"/>
+        <v>210</v>
+      </c>
+      <c r="F1105" s="6">
+        <f t="shared" si="116"/>
+        <v>0.1545253863134658</v>
+      </c>
+      <c r="G1105">
+        <v>13</v>
+      </c>
+      <c r="H1105" s="7">
+        <f t="shared" si="117"/>
+        <v>1</v>
+      </c>
+      <c r="I1105" s="6">
+        <f t="shared" si="118"/>
+        <v>1.9548872180451128E-2</v>
+      </c>
+    </row>
+    <row r="1106" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1106" s="1">
+        <v>44019</v>
+      </c>
+      <c r="B1106" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1106">
+        <v>8702</v>
+      </c>
+      <c r="D1106" s="6">
+        <f t="shared" si="114"/>
+        <v>0.16261165302537653</v>
+      </c>
+      <c r="E1106" s="7">
+        <f t="shared" si="115"/>
+        <v>195</v>
+      </c>
+      <c r="F1106" s="6">
+        <f t="shared" si="116"/>
+        <v>0.14348785871964681</v>
+      </c>
+      <c r="G1106">
+        <v>32</v>
+      </c>
+      <c r="H1106" s="7">
+        <f t="shared" si="117"/>
+        <v>0</v>
+      </c>
+      <c r="I1106" s="6">
+        <f t="shared" si="118"/>
+        <v>4.8120300751879702E-2</v>
+      </c>
+    </row>
+    <row r="1107" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1107" s="1">
+        <v>44019</v>
+      </c>
+      <c r="B1107" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1107">
+        <v>6742</v>
+      </c>
+      <c r="D1107" s="6">
+        <f t="shared" si="114"/>
+        <v>0.12598572336211086</v>
+      </c>
+      <c r="E1107" s="7">
+        <f t="shared" si="115"/>
+        <v>161</v>
+      </c>
+      <c r="F1107" s="6">
+        <f t="shared" si="116"/>
+        <v>0.11846946284032377</v>
+      </c>
+      <c r="G1107">
+        <v>65</v>
+      </c>
+      <c r="H1107" s="7">
+        <f t="shared" si="117"/>
+        <v>1</v>
+      </c>
+      <c r="I1107" s="6">
+        <f t="shared" si="118"/>
+        <v>9.7744360902255634E-2</v>
+      </c>
+    </row>
+    <row r="1108" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1108" s="1">
+        <v>44019</v>
+      </c>
+      <c r="B1108" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1108">
+        <v>3855</v>
+      </c>
+      <c r="D1108" s="6">
+        <f t="shared" si="114"/>
+        <v>7.2037223904025116E-2</v>
+      </c>
+      <c r="E1108" s="7">
+        <f t="shared" si="115"/>
+        <v>106</v>
+      </c>
+      <c r="F1108" s="6">
+        <f t="shared" si="116"/>
+        <v>7.7998528329654163E-2</v>
+      </c>
+      <c r="G1108">
+        <v>123</v>
+      </c>
+      <c r="H1108" s="7">
+        <f t="shared" si="117"/>
+        <v>5</v>
+      </c>
+      <c r="I1108" s="6">
+        <f t="shared" si="118"/>
+        <v>0.18496240601503761</v>
+      </c>
+    </row>
+    <row r="1109" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1109" s="1">
+        <v>44019</v>
+      </c>
+      <c r="B1109" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1109">
+        <v>1987</v>
+      </c>
+      <c r="D1109" s="6">
+        <f t="shared" si="114"/>
+        <v>3.7130470531075981E-2</v>
+      </c>
+      <c r="E1109" s="7">
+        <f t="shared" si="115"/>
+        <v>58</v>
+      </c>
+      <c r="F1109" s="6">
+        <f t="shared" si="116"/>
+        <v>4.2678440029433405E-2</v>
+      </c>
+      <c r="G1109">
+        <v>200</v>
+      </c>
+      <c r="H1109" s="7">
+        <f t="shared" si="117"/>
+        <v>1</v>
+      </c>
+      <c r="I1109" s="6">
+        <f t="shared" si="118"/>
+        <v>0.3007518796992481</v>
+      </c>
+    </row>
+    <row r="1110" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1110" s="1">
+        <v>44019</v>
+      </c>
+      <c r="B1110" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1110">
+        <v>1144</v>
+      </c>
+      <c r="D1110" s="6">
+        <f t="shared" si="114"/>
+        <v>2.1377583436110178E-2</v>
+      </c>
+      <c r="E1110" s="7">
+        <f t="shared" si="115"/>
+        <v>22</v>
+      </c>
+      <c r="F1110" s="6">
+        <f t="shared" si="116"/>
+        <v>1.6188373804267846E-2</v>
+      </c>
+      <c r="G1110">
+        <v>220</v>
+      </c>
+      <c r="H1110" s="7">
+        <f t="shared" si="117"/>
+        <v>3</v>
+      </c>
+      <c r="I1110" s="6">
+        <f t="shared" si="118"/>
+        <v>0.33082706766917291</v>
+      </c>
+    </row>
+    <row r="1111" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1111" s="1">
+        <v>44019</v>
+      </c>
+      <c r="B1111" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1111">
+        <v>219</v>
+      </c>
+      <c r="D1111" s="6">
+        <f t="shared" si="114"/>
+        <v>4.0923870389057071E-3</v>
+      </c>
+      <c r="E1111" s="7">
+        <f t="shared" si="115"/>
+        <v>-23</v>
+      </c>
+      <c r="F1111" s="6">
+        <f t="shared" si="116"/>
+        <v>-1.692420897718911E-2</v>
+      </c>
+      <c r="G1111">
+        <v>0</v>
+      </c>
+      <c r="H1111" s="7">
+        <f t="shared" si="117"/>
+        <v>0</v>
+      </c>
+      <c r="I1111" s="6">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/TN_Age.xlsx
+++ b/TN_Age.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1119" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1129" uniqueCount="26">
   <si>
     <t>0-10</t>
   </si>
@@ -440,11 +440,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I1111"/>
+  <dimension ref="A1:I1121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1081" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A1111" sqref="A1111"/>
+      <pane ySplit="1" topLeftCell="A1086" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E1121" sqref="E1121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -30861,7 +30861,7 @@
         <v>7.4705369448429107E-2</v>
       </c>
       <c r="E968" s="7">
-        <f t="shared" ref="E968:E1021" si="70">C968-SUMIFS(C:C,A:A,A968-1,B:B,B968)</f>
+        <f t="shared" ref="E968:E1031" si="70">C968-SUMIFS(C:C,A:A,A968-1,B:B,B968)</f>
         <v>30</v>
       </c>
       <c r="F968" s="6">
@@ -32697,22 +32697,22 @@
         <v>4.6338983852282668E-2</v>
       </c>
       <c r="E1022" s="7">
-        <f t="shared" ref="E1022:E1031" si="75">C1022-SUMIFS(C:C,A:A,A1022-1,B:B,B1022)</f>
-        <v>1960</v>
+        <f>C1022-SUMIFS(C:C,A:A,A1022-2,B:B,B1022)</f>
+        <v>123</v>
       </c>
       <c r="F1022" s="6">
-        <f t="shared" ref="F1022:F1031" si="76">E1022/SUMIF(A:A,A1022,E:E)</f>
-        <v>4.6338983852282668E-2</v>
+        <f t="shared" ref="F1022:F1031" si="75">E1022/SUMIF(A:A,A1022,E:E)</f>
+        <v>5.7882352941176468E-2</v>
       </c>
       <c r="G1022">
         <v>3</v>
       </c>
       <c r="H1022" s="7">
-        <f t="shared" ref="H1022:H1031" si="77">G1022-SUMIFS(G:G,A:A,A1022-1,B:B,B1022)</f>
+        <f t="shared" ref="H1022:H1031" si="76">G1022-SUMIFS(G:G,A:A,A1022-1,B:B,B1022)</f>
         <v>3</v>
       </c>
       <c r="I1022" s="6">
-        <f t="shared" ref="I1022:I1031" si="78">G1022/SUMIF(A:A,A1022,G:G)</f>
+        <f t="shared" ref="I1022:I1031" si="77">G1022/SUMIF(A:A,A1022,G:G)</f>
         <v>5.0675675675675678E-3</v>
       </c>
     </row>
@@ -32731,22 +32731,22 @@
         <v>9.5656902380783504E-2</v>
       </c>
       <c r="E1023" s="7">
+        <f t="shared" ref="E1023:E1031" si="78">C1023-SUMIFS(C:C,A:A,A1023-2,B:B,B1023)</f>
+        <v>234</v>
+      </c>
+      <c r="F1023" s="6">
         <f t="shared" si="75"/>
-        <v>4046</v>
-      </c>
-      <c r="F1023" s="6">
+        <v>0.11011764705882353</v>
+      </c>
+      <c r="G1023">
+        <v>1</v>
+      </c>
+      <c r="H1023" s="7">
         <f t="shared" si="76"/>
-        <v>9.5656902380783504E-2</v>
-      </c>
-      <c r="G1023">
-        <v>1</v>
-      </c>
-      <c r="H1023" s="7">
+        <v>1</v>
+      </c>
+      <c r="I1023" s="6">
         <f t="shared" si="77"/>
-        <v>1</v>
-      </c>
-      <c r="I1023" s="6">
-        <f t="shared" si="78"/>
         <v>1.6891891891891893E-3</v>
       </c>
     </row>
@@ -32765,22 +32765,22 @@
         <v>0.21942454547603849</v>
       </c>
       <c r="E1024" s="7">
+        <f t="shared" si="78"/>
+        <v>589</v>
+      </c>
+      <c r="F1024" s="6">
         <f t="shared" si="75"/>
-        <v>9281</v>
-      </c>
-      <c r="F1024" s="6">
-        <f t="shared" si="76"/>
-        <v>0.21942454547603849</v>
+        <v>0.2771764705882353</v>
       </c>
       <c r="G1024">
         <v>5</v>
       </c>
       <c r="H1024" s="7">
+        <f t="shared" si="76"/>
+        <v>5</v>
+      </c>
+      <c r="I1024" s="6">
         <f t="shared" si="77"/>
-        <v>5</v>
-      </c>
-      <c r="I1024" s="6">
-        <f t="shared" si="78"/>
         <v>8.4459459459459464E-3</v>
       </c>
     </row>
@@ -32799,22 +32799,22 @@
         <v>0.2025912003215358</v>
       </c>
       <c r="E1025" s="7">
+        <f t="shared" si="78"/>
+        <v>390</v>
+      </c>
+      <c r="F1025" s="6">
         <f t="shared" si="75"/>
-        <v>8569</v>
-      </c>
-      <c r="F1025" s="6">
-        <f t="shared" si="76"/>
-        <v>0.2025912003215358</v>
+        <v>0.18352941176470589</v>
       </c>
       <c r="G1025">
         <v>11</v>
       </c>
       <c r="H1025" s="7">
+        <f t="shared" si="76"/>
+        <v>11</v>
+      </c>
+      <c r="I1025" s="6">
         <f t="shared" si="77"/>
-        <v>11</v>
-      </c>
-      <c r="I1025" s="6">
-        <f t="shared" si="78"/>
         <v>1.8581081081081082E-2</v>
       </c>
     </row>
@@ -32833,22 +32833,22 @@
         <v>0.16670213017471688</v>
       </c>
       <c r="E1026" s="7">
+        <f t="shared" si="78"/>
+        <v>361</v>
+      </c>
+      <c r="F1026" s="6">
         <f t="shared" si="75"/>
-        <v>7051</v>
-      </c>
-      <c r="F1026" s="6">
-        <f t="shared" si="76"/>
-        <v>0.16670213017471688</v>
+        <v>0.16988235294117648</v>
       </c>
       <c r="G1026">
         <v>26</v>
       </c>
       <c r="H1026" s="7">
+        <f t="shared" si="76"/>
+        <v>26</v>
+      </c>
+      <c r="I1026" s="6">
         <f t="shared" si="77"/>
-        <v>26</v>
-      </c>
-      <c r="I1026" s="6">
-        <f t="shared" si="78"/>
         <v>4.3918918918918921E-2</v>
       </c>
     </row>
@@ -32867,22 +32867,22 @@
         <v>0.13022200156039435</v>
       </c>
       <c r="E1027" s="7">
+        <f t="shared" si="78"/>
+        <v>235</v>
+      </c>
+      <c r="F1027" s="6">
         <f t="shared" si="75"/>
-        <v>5508</v>
-      </c>
-      <c r="F1027" s="6">
-        <f t="shared" si="76"/>
-        <v>0.13022200156039435</v>
+        <v>0.11058823529411765</v>
       </c>
       <c r="G1027">
         <v>52</v>
       </c>
       <c r="H1027" s="7">
+        <f t="shared" si="76"/>
+        <v>52</v>
+      </c>
+      <c r="I1027" s="6">
         <f t="shared" si="77"/>
-        <v>52</v>
-      </c>
-      <c r="I1027" s="6">
-        <f t="shared" si="78"/>
         <v>8.7837837837837843E-2</v>
       </c>
     </row>
@@ -32901,22 +32901,22 @@
         <v>7.2771118519043901E-2</v>
       </c>
       <c r="E1028" s="7">
+        <f t="shared" si="78"/>
+        <v>152</v>
+      </c>
+      <c r="F1028" s="6">
         <f t="shared" si="75"/>
-        <v>3078</v>
-      </c>
-      <c r="F1028" s="6">
-        <f t="shared" si="76"/>
-        <v>7.2771118519043901E-2</v>
+        <v>7.1529411764705883E-2</v>
       </c>
       <c r="G1028">
         <v>113</v>
       </c>
       <c r="H1028" s="7">
+        <f t="shared" si="76"/>
+        <v>113</v>
+      </c>
+      <c r="I1028" s="6">
         <f t="shared" si="77"/>
-        <v>113</v>
-      </c>
-      <c r="I1028" s="6">
-        <f t="shared" si="78"/>
         <v>0.19087837837837837</v>
       </c>
     </row>
@@ -32935,22 +32935,22 @@
         <v>3.7331252807527721E-2</v>
       </c>
       <c r="E1029" s="7">
+        <f t="shared" si="78"/>
+        <v>85</v>
+      </c>
+      <c r="F1029" s="6">
         <f t="shared" si="75"/>
-        <v>1579</v>
-      </c>
-      <c r="F1029" s="6">
-        <f t="shared" si="76"/>
-        <v>3.7331252807527721E-2</v>
+        <v>0.04</v>
       </c>
       <c r="G1029">
         <v>183</v>
       </c>
       <c r="H1029" s="7">
+        <f t="shared" si="76"/>
+        <v>183</v>
+      </c>
+      <c r="I1029" s="6">
         <f t="shared" si="77"/>
-        <v>183</v>
-      </c>
-      <c r="I1029" s="6">
-        <f t="shared" si="78"/>
         <v>0.3091216216216216</v>
       </c>
     </row>
@@ -32969,22 +32969,22 @@
         <v>2.2507506442537295E-2</v>
       </c>
       <c r="E1030" s="7">
+        <f t="shared" si="78"/>
+        <v>37</v>
+      </c>
+      <c r="F1030" s="6">
         <f t="shared" si="75"/>
-        <v>952</v>
-      </c>
-      <c r="F1030" s="6">
-        <f t="shared" si="76"/>
-        <v>2.2507506442537295E-2</v>
+        <v>1.7411764705882352E-2</v>
       </c>
       <c r="G1030">
         <v>198</v>
       </c>
       <c r="H1030" s="7">
+        <f t="shared" si="76"/>
+        <v>198</v>
+      </c>
+      <c r="I1030" s="6">
         <f t="shared" si="77"/>
-        <v>198</v>
-      </c>
-      <c r="I1030" s="6">
-        <f t="shared" si="78"/>
         <v>0.33445945945945948</v>
       </c>
     </row>
@@ -33003,22 +33003,22 @@
         <v>6.4543584651393718E-3</v>
       </c>
       <c r="E1031" s="7">
+        <f t="shared" si="78"/>
+        <v>-81</v>
+      </c>
+      <c r="F1031" s="6">
         <f t="shared" si="75"/>
-        <v>273</v>
-      </c>
-      <c r="F1031" s="6">
+        <v>-3.8117647058823527E-2</v>
+      </c>
+      <c r="G1031">
+        <v>0</v>
+      </c>
+      <c r="H1031" s="7">
         <f t="shared" si="76"/>
-        <v>6.4543584651393718E-3</v>
-      </c>
-      <c r="G1031">
-        <v>0</v>
-      </c>
-      <c r="H1031" s="7">
+        <v>0</v>
+      </c>
+      <c r="I1031" s="6">
         <f t="shared" si="77"/>
-        <v>0</v>
-      </c>
-      <c r="I1031" s="6">
-        <f t="shared" si="78"/>
         <v>0</v>
       </c>
     </row>
@@ -35739,6 +35739,346 @@
       </c>
       <c r="I1111" s="6">
         <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1112" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1112" s="1">
+        <v>44020</v>
+      </c>
+      <c r="B1112" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1112">
+        <v>2558</v>
+      </c>
+      <c r="D1112" s="6">
+        <f t="shared" ref="D1112:D1121" si="119">C1112/SUMIF(A:A,A1112,C:C)</f>
+        <v>4.5689993927053189E-2</v>
+      </c>
+      <c r="E1112" s="7">
+        <f t="shared" ref="E1112:E1121" si="120">C1112-SUMIFS(C:C,A:A,A1112-1,B:B,B1112)</f>
+        <v>114</v>
+      </c>
+      <c r="F1112" s="6">
+        <f t="shared" ref="F1112:F1121" si="121">E1112/SUMIF(A:A,A1112,E:E)</f>
+        <v>4.6116504854368932E-2</v>
+      </c>
+      <c r="G1112">
+        <v>3</v>
+      </c>
+      <c r="H1112" s="7">
+        <f t="shared" ref="H1112:H1121" si="122">G1112-SUMIFS(G:G,A:A,A1112-1,B:B,B1112)</f>
+        <v>0</v>
+      </c>
+      <c r="I1112" s="6">
+        <f t="shared" ref="I1112:I1121" si="123">G1112/SUMIF(A:A,A1112,G:G)</f>
+        <v>4.3795620437956208E-3</v>
+      </c>
+    </row>
+    <row r="1113" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1113" s="1">
+        <v>44020</v>
+      </c>
+      <c r="B1113" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1113">
+        <v>5611</v>
+      </c>
+      <c r="D1113" s="6">
+        <f t="shared" si="119"/>
+        <v>0.10022148394241417</v>
+      </c>
+      <c r="E1113" s="7">
+        <f t="shared" si="120"/>
+        <v>292</v>
+      </c>
+      <c r="F1113" s="6">
+        <f t="shared" si="121"/>
+        <v>0.11812297734627832</v>
+      </c>
+      <c r="G1113">
+        <v>0</v>
+      </c>
+      <c r="H1113" s="7">
+        <f t="shared" si="122"/>
+        <v>0</v>
+      </c>
+      <c r="I1113" s="6">
+        <f t="shared" si="123"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1114" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1114" s="1">
+        <v>44020</v>
+      </c>
+      <c r="B1114" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1114">
+        <v>13150</v>
+      </c>
+      <c r="D1114" s="6">
+        <f t="shared" si="119"/>
+        <v>0.23488014860858072</v>
+      </c>
+      <c r="E1114" s="7">
+        <f t="shared" si="120"/>
+        <v>687</v>
+      </c>
+      <c r="F1114" s="6">
+        <f t="shared" si="121"/>
+        <v>0.27791262135922329</v>
+      </c>
+      <c r="G1114">
+        <v>9</v>
+      </c>
+      <c r="H1114" s="7">
+        <f t="shared" si="122"/>
+        <v>0</v>
+      </c>
+      <c r="I1114" s="6">
+        <f t="shared" si="123"/>
+        <v>1.3138686131386862E-2</v>
+      </c>
+    </row>
+    <row r="1115" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1115" s="1">
+        <v>44020</v>
+      </c>
+      <c r="B1115" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1115">
+        <v>11084</v>
+      </c>
+      <c r="D1115" s="6">
+        <f t="shared" si="119"/>
+        <v>0.19797806594505768</v>
+      </c>
+      <c r="E1115" s="7">
+        <f t="shared" si="120"/>
+        <v>445</v>
+      </c>
+      <c r="F1115" s="6">
+        <f t="shared" si="121"/>
+        <v>0.18001618122977348</v>
+      </c>
+      <c r="G1115">
+        <v>12</v>
+      </c>
+      <c r="H1115" s="7">
+        <f t="shared" si="122"/>
+        <v>-1</v>
+      </c>
+      <c r="I1115" s="6">
+        <f t="shared" si="123"/>
+        <v>1.7518248175182483E-2</v>
+      </c>
+    </row>
+    <row r="1116" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1116" s="1">
+        <v>44020</v>
+      </c>
+      <c r="B1116" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1116">
+        <v>9069</v>
+      </c>
+      <c r="D1116" s="6">
+        <f t="shared" si="119"/>
+        <v>0.16198692530275427</v>
+      </c>
+      <c r="E1116" s="7">
+        <f t="shared" si="120"/>
+        <v>367</v>
+      </c>
+      <c r="F1116" s="6">
+        <f t="shared" si="121"/>
+        <v>0.14846278317152103</v>
+      </c>
+      <c r="G1116">
+        <v>32</v>
+      </c>
+      <c r="H1116" s="7">
+        <f t="shared" si="122"/>
+        <v>0</v>
+      </c>
+      <c r="I1116" s="6">
+        <f t="shared" si="123"/>
+        <v>4.6715328467153282E-2</v>
+      </c>
+    </row>
+    <row r="1117" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1117" s="1">
+        <v>44020</v>
+      </c>
+      <c r="B1117" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1117">
+        <v>7008</v>
+      </c>
+      <c r="D1117" s="6">
+        <f t="shared" si="119"/>
+        <v>0.12517415068052729</v>
+      </c>
+      <c r="E1117" s="7">
+        <f t="shared" si="120"/>
+        <v>266</v>
+      </c>
+      <c r="F1117" s="6">
+        <f t="shared" si="121"/>
+        <v>0.10760517799352751</v>
+      </c>
+      <c r="G1117">
+        <v>66</v>
+      </c>
+      <c r="H1117" s="7">
+        <f t="shared" si="122"/>
+        <v>1</v>
+      </c>
+      <c r="I1117" s="6">
+        <f t="shared" si="123"/>
+        <v>9.6350364963503646E-2</v>
+      </c>
+    </row>
+    <row r="1118" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1118" s="1">
+        <v>44020</v>
+      </c>
+      <c r="B1118" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1118">
+        <v>4015</v>
+      </c>
+      <c r="D1118" s="6">
+        <f t="shared" si="119"/>
+        <v>7.171435716071875E-2</v>
+      </c>
+      <c r="E1118" s="7">
+        <f t="shared" si="120"/>
+        <v>160</v>
+      </c>
+      <c r="F1118" s="6">
+        <f t="shared" si="121"/>
+        <v>6.4724919093851127E-2</v>
+      </c>
+      <c r="G1118">
+        <v>128</v>
+      </c>
+      <c r="H1118" s="7">
+        <f t="shared" si="122"/>
+        <v>5</v>
+      </c>
+      <c r="I1118" s="6">
+        <f t="shared" si="123"/>
+        <v>0.18686131386861313</v>
+      </c>
+    </row>
+    <row r="1119" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1119" s="1">
+        <v>44020</v>
+      </c>
+      <c r="B1119" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1119">
+        <v>2060</v>
+      </c>
+      <c r="D1119" s="6">
+        <f t="shared" si="119"/>
+        <v>3.6794913013967777E-2</v>
+      </c>
+      <c r="E1119" s="7">
+        <f t="shared" si="120"/>
+        <v>73</v>
+      </c>
+      <c r="F1119" s="6">
+        <f t="shared" si="121"/>
+        <v>2.9530744336569579E-2</v>
+      </c>
+      <c r="G1119">
+        <v>208</v>
+      </c>
+      <c r="H1119" s="7">
+        <f t="shared" si="122"/>
+        <v>8</v>
+      </c>
+      <c r="I1119" s="6">
+        <f t="shared" si="123"/>
+        <v>0.30364963503649633</v>
+      </c>
+    </row>
+    <row r="1120" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1120" s="1">
+        <v>44020</v>
+      </c>
+      <c r="B1120" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1120">
+        <v>1183</v>
+      </c>
+      <c r="D1120" s="6">
+        <f t="shared" si="119"/>
+        <v>2.1130282570642662E-2</v>
+      </c>
+      <c r="E1120" s="7">
+        <f t="shared" si="120"/>
+        <v>39</v>
+      </c>
+      <c r="F1120" s="6">
+        <f t="shared" si="121"/>
+        <v>1.5776699029126214E-2</v>
+      </c>
+      <c r="G1120">
+        <v>227</v>
+      </c>
+      <c r="H1120" s="7">
+        <f t="shared" si="122"/>
+        <v>7</v>
+      </c>
+      <c r="I1120" s="6">
+        <f t="shared" si="123"/>
+        <v>0.33138686131386863</v>
+      </c>
+    </row>
+    <row r="1121" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1121" s="1">
+        <v>44020</v>
+      </c>
+      <c r="B1121" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1121">
+        <v>248</v>
+      </c>
+      <c r="D1121" s="6">
+        <f t="shared" si="119"/>
+        <v>4.4296788482834993E-3</v>
+      </c>
+      <c r="E1121" s="7">
+        <f t="shared" si="120"/>
+        <v>29</v>
+      </c>
+      <c r="F1121" s="6">
+        <f t="shared" si="121"/>
+        <v>1.1731391585760517E-2</v>
+      </c>
+      <c r="G1121">
+        <v>0</v>
+      </c>
+      <c r="H1121" s="7">
+        <f t="shared" si="122"/>
+        <v>0</v>
+      </c>
+      <c r="I1121" s="6">
+        <f t="shared" si="123"/>
         <v>0</v>
       </c>
     </row>

--- a/TN_Age.xlsx
+++ b/TN_Age.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1129" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1139" uniqueCount="26">
   <si>
     <t>0-10</t>
   </si>
@@ -440,11 +440,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I1121"/>
+  <dimension ref="A1:I1131"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1086" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E1121" sqref="E1121"/>
+      <pane ySplit="1" topLeftCell="A1104" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G1122" sqref="G1122:G1131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -30861,7 +30861,7 @@
         <v>7.4705369448429107E-2</v>
       </c>
       <c r="E968" s="7">
-        <f t="shared" ref="E968:E1031" si="70">C968-SUMIFS(C:C,A:A,A968-1,B:B,B968)</f>
+        <f t="shared" ref="E968:E1021" si="70">C968-SUMIFS(C:C,A:A,A968-1,B:B,B968)</f>
         <v>30</v>
       </c>
       <c r="F968" s="6">
@@ -36079,6 +36079,346 @@
       </c>
       <c r="I1121" s="6">
         <f t="shared" si="123"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1122" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1122" s="1">
+        <v>44021</v>
+      </c>
+      <c r="B1122" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1122">
+        <v>2635</v>
+      </c>
+      <c r="D1122" s="6">
+        <f t="shared" ref="D1122:D1131" si="124">C1122/SUMIF(A:A,A1122,C:C)</f>
+        <v>4.5753676789776182E-2</v>
+      </c>
+      <c r="E1122" s="7">
+        <f t="shared" ref="E1122:E1131" si="125">C1122-SUMIFS(C:C,A:A,A1122-1,B:B,B1122)</f>
+        <v>77</v>
+      </c>
+      <c r="F1122" s="6">
+        <f t="shared" ref="F1122:F1131" si="126">E1122/SUMIF(A:A,A1122,E:E)</f>
+        <v>4.7975077881619935E-2</v>
+      </c>
+      <c r="G1122">
+        <v>3</v>
+      </c>
+      <c r="H1122" s="7">
+        <f t="shared" ref="H1122:H1131" si="127">G1122-SUMIFS(G:G,A:A,A1122-1,B:B,B1122)</f>
+        <v>0</v>
+      </c>
+      <c r="I1122" s="6">
+        <f t="shared" ref="I1122:I1131" si="128">G1122/SUMIF(A:A,A1122,G:G)</f>
+        <v>4.2253521126760559E-3</v>
+      </c>
+    </row>
+    <row r="1123" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1123" s="1">
+        <v>44021</v>
+      </c>
+      <c r="B1123" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1123">
+        <v>5786</v>
+      </c>
+      <c r="D1123" s="6">
+        <f t="shared" si="124"/>
+        <v>0.10046708687121252</v>
+      </c>
+      <c r="E1123" s="7">
+        <f t="shared" si="125"/>
+        <v>175</v>
+      </c>
+      <c r="F1123" s="6">
+        <f t="shared" si="126"/>
+        <v>0.10903426791277258</v>
+      </c>
+      <c r="G1123">
+        <v>0</v>
+      </c>
+      <c r="H1123" s="7">
+        <f t="shared" si="127"/>
+        <v>0</v>
+      </c>
+      <c r="I1123" s="6">
+        <f t="shared" si="128"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1124" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1124" s="1">
+        <v>44021</v>
+      </c>
+      <c r="B1124" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1124">
+        <v>13550</v>
+      </c>
+      <c r="D1124" s="6">
+        <f t="shared" si="124"/>
+        <v>0.23527981802712231</v>
+      </c>
+      <c r="E1124" s="7">
+        <f t="shared" si="125"/>
+        <v>400</v>
+      </c>
+      <c r="F1124" s="6">
+        <f t="shared" si="126"/>
+        <v>0.24922118380062305</v>
+      </c>
+      <c r="G1124">
+        <v>10</v>
+      </c>
+      <c r="H1124" s="7">
+        <f t="shared" si="127"/>
+        <v>1</v>
+      </c>
+      <c r="I1124" s="6">
+        <f t="shared" si="128"/>
+        <v>1.4084507042253521E-2</v>
+      </c>
+    </row>
+    <row r="1125" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1125" s="1">
+        <v>44021</v>
+      </c>
+      <c r="B1125" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1125">
+        <v>11357</v>
+      </c>
+      <c r="D1125" s="6">
+        <f t="shared" si="124"/>
+        <v>0.19720095153756664</v>
+      </c>
+      <c r="E1125" s="7">
+        <f t="shared" si="125"/>
+        <v>273</v>
+      </c>
+      <c r="F1125" s="6">
+        <f t="shared" si="126"/>
+        <v>0.17009345794392525</v>
+      </c>
+      <c r="G1125">
+        <v>12</v>
+      </c>
+      <c r="H1125" s="7">
+        <f t="shared" si="127"/>
+        <v>0</v>
+      </c>
+      <c r="I1125" s="6">
+        <f t="shared" si="128"/>
+        <v>1.6901408450704224E-2</v>
+      </c>
+    </row>
+    <row r="1126" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1126" s="1">
+        <v>44021</v>
+      </c>
+      <c r="B1126" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1126">
+        <v>9297</v>
+      </c>
+      <c r="D1126" s="6">
+        <f t="shared" si="124"/>
+        <v>0.16143147366776059</v>
+      </c>
+      <c r="E1126" s="7">
+        <f t="shared" si="125"/>
+        <v>228</v>
+      </c>
+      <c r="F1126" s="6">
+        <f t="shared" si="126"/>
+        <v>0.14205607476635515</v>
+      </c>
+      <c r="G1126">
+        <v>34</v>
+      </c>
+      <c r="H1126" s="7">
+        <f t="shared" si="127"/>
+        <v>2</v>
+      </c>
+      <c r="I1126" s="6">
+        <f t="shared" si="128"/>
+        <v>4.788732394366197E-2</v>
+      </c>
+    </row>
+    <row r="1127" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1127" s="1">
+        <v>44021</v>
+      </c>
+      <c r="B1127" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1127">
+        <v>7232</v>
+      </c>
+      <c r="D1127" s="6">
+        <f t="shared" si="124"/>
+        <v>0.12557517667691132</v>
+      </c>
+      <c r="E1127" s="7">
+        <f t="shared" si="125"/>
+        <v>224</v>
+      </c>
+      <c r="F1127" s="6">
+        <f t="shared" si="126"/>
+        <v>0.13956386292834891</v>
+      </c>
+      <c r="G1127">
+        <v>68</v>
+      </c>
+      <c r="H1127" s="7">
+        <f t="shared" si="127"/>
+        <v>2</v>
+      </c>
+      <c r="I1127" s="6">
+        <f t="shared" si="128"/>
+        <v>9.5774647887323941E-2</v>
+      </c>
+    </row>
+    <row r="1128" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1128" s="1">
+        <v>44021</v>
+      </c>
+      <c r="B1128" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1128">
+        <v>4142</v>
+      </c>
+      <c r="D1128" s="6">
+        <f t="shared" si="124"/>
+        <v>7.1920959872202248E-2</v>
+      </c>
+      <c r="E1128" s="7">
+        <f t="shared" si="125"/>
+        <v>127</v>
+      </c>
+      <c r="F1128" s="6">
+        <f t="shared" si="126"/>
+        <v>7.912772585669782E-2</v>
+      </c>
+      <c r="G1128">
+        <v>136</v>
+      </c>
+      <c r="H1128" s="7">
+        <f t="shared" si="127"/>
+        <v>8</v>
+      </c>
+      <c r="I1128" s="6">
+        <f t="shared" si="128"/>
+        <v>0.19154929577464788</v>
+      </c>
+    </row>
+    <row r="1129" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1129" s="1">
+        <v>44021</v>
+      </c>
+      <c r="B1129" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1129">
+        <v>2125</v>
+      </c>
+      <c r="D1129" s="6">
+        <f t="shared" si="124"/>
+        <v>3.6898126443367887E-2</v>
+      </c>
+      <c r="E1129" s="7">
+        <f t="shared" si="125"/>
+        <v>65</v>
+      </c>
+      <c r="F1129" s="6">
+        <f t="shared" si="126"/>
+        <v>4.0498442367601244E-2</v>
+      </c>
+      <c r="G1129">
+        <v>216</v>
+      </c>
+      <c r="H1129" s="7">
+        <f t="shared" si="127"/>
+        <v>8</v>
+      </c>
+      <c r="I1129" s="6">
+        <f t="shared" si="128"/>
+        <v>0.30422535211267604</v>
+      </c>
+    </row>
+    <row r="1130" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1130" s="1">
+        <v>44021</v>
+      </c>
+      <c r="B1130" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1130">
+        <v>1207</v>
+      </c>
+      <c r="D1130" s="6">
+        <f t="shared" si="124"/>
+        <v>2.0958135819832961E-2</v>
+      </c>
+      <c r="E1130" s="7">
+        <f t="shared" si="125"/>
+        <v>24</v>
+      </c>
+      <c r="F1130" s="6">
+        <f t="shared" si="126"/>
+        <v>1.4953271028037384E-2</v>
+      </c>
+      <c r="G1130">
+        <v>231</v>
+      </c>
+      <c r="H1130" s="7">
+        <f t="shared" si="127"/>
+        <v>4</v>
+      </c>
+      <c r="I1130" s="6">
+        <f t="shared" si="128"/>
+        <v>0.32535211267605635</v>
+      </c>
+    </row>
+    <row r="1131" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1131" s="1">
+        <v>44021</v>
+      </c>
+      <c r="B1131" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1131">
+        <v>260</v>
+      </c>
+      <c r="D1131" s="6">
+        <f t="shared" si="124"/>
+        <v>4.5145942942473654E-3</v>
+      </c>
+      <c r="E1131" s="7">
+        <f t="shared" si="125"/>
+        <v>12</v>
+      </c>
+      <c r="F1131" s="6">
+        <f t="shared" si="126"/>
+        <v>7.4766355140186919E-3</v>
+      </c>
+      <c r="G1131">
+        <v>0</v>
+      </c>
+      <c r="H1131" s="7">
+        <f t="shared" si="127"/>
+        <v>0</v>
+      </c>
+      <c r="I1131" s="6">
+        <f t="shared" si="128"/>
         <v>0</v>
       </c>
     </row>

--- a/TN_Age.xlsx
+++ b/TN_Age.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1139" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1149" uniqueCount="26">
   <si>
     <t>0-10</t>
   </si>
@@ -440,11 +440,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I1131"/>
+  <dimension ref="A1:I1141"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1104" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G1122" sqref="G1122:G1131"/>
+      <pane ySplit="1" topLeftCell="A1122" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A1141" sqref="A1141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -36422,6 +36422,346 @@
         <v>0</v>
       </c>
     </row>
+    <row r="1132" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1132" s="1">
+        <v>44022</v>
+      </c>
+      <c r="B1132" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1132">
+        <v>2709</v>
+      </c>
+      <c r="D1132" s="6">
+        <f t="shared" ref="D1132:D1141" si="129">C1132/SUMIF(A:A,A1132,C:C)</f>
+        <v>4.5494239747422158E-2</v>
+      </c>
+      <c r="E1132" s="7">
+        <f t="shared" ref="E1132:E1141" si="130">C1132-SUMIFS(C:C,A:A,A1132-1,B:B,B1132)</f>
+        <v>74</v>
+      </c>
+      <c r="F1132" s="6">
+        <f t="shared" ref="F1132:F1141" si="131">E1132/SUMIF(A:A,A1132,E:E)</f>
+        <v>3.7851662404092073E-2</v>
+      </c>
+      <c r="G1132">
+        <v>3</v>
+      </c>
+      <c r="H1132" s="7">
+        <f t="shared" ref="H1132:H1141" si="132">G1132-SUMIFS(G:G,A:A,A1132-1,B:B,B1132)</f>
+        <v>0</v>
+      </c>
+      <c r="I1132" s="6">
+        <f t="shared" ref="I1132:I1141" si="133">G1132/SUMIF(A:A,A1132,G:G)</f>
+        <v>4.1493775933609959E-3</v>
+      </c>
+    </row>
+    <row r="1133" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1133" s="1">
+        <v>44022</v>
+      </c>
+      <c r="B1133" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1133">
+        <v>6029</v>
+      </c>
+      <c r="D1133" s="6">
+        <f t="shared" si="129"/>
+        <v>0.10124945420347295</v>
+      </c>
+      <c r="E1133" s="7">
+        <f t="shared" si="130"/>
+        <v>243</v>
+      </c>
+      <c r="F1133" s="6">
+        <f t="shared" si="131"/>
+        <v>0.12429667519181585</v>
+      </c>
+      <c r="G1133">
+        <v>0</v>
+      </c>
+      <c r="H1133" s="7">
+        <f t="shared" si="132"/>
+        <v>0</v>
+      </c>
+      <c r="I1133" s="6">
+        <f t="shared" si="133"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1134" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1134" s="1">
+        <v>44022</v>
+      </c>
+      <c r="B1134" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1134">
+        <v>14077</v>
+      </c>
+      <c r="D1134" s="6">
+        <f t="shared" si="129"/>
+        <v>0.23640546804151413</v>
+      </c>
+      <c r="E1134" s="7">
+        <f t="shared" si="130"/>
+        <v>527</v>
+      </c>
+      <c r="F1134" s="6">
+        <f t="shared" si="131"/>
+        <v>0.26956521739130435</v>
+      </c>
+      <c r="G1134">
+        <v>11</v>
+      </c>
+      <c r="H1134" s="7">
+        <f t="shared" si="132"/>
+        <v>1</v>
+      </c>
+      <c r="I1134" s="6">
+        <f t="shared" si="133"/>
+        <v>1.5214384508990318E-2</v>
+      </c>
+    </row>
+    <row r="1135" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1135" s="1">
+        <v>44022</v>
+      </c>
+      <c r="B1135" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1135">
+        <v>11722</v>
+      </c>
+      <c r="D1135" s="6">
+        <f t="shared" si="129"/>
+        <v>0.19685621200416484</v>
+      </c>
+      <c r="E1135" s="7">
+        <f t="shared" si="130"/>
+        <v>365</v>
+      </c>
+      <c r="F1135" s="6">
+        <f t="shared" si="131"/>
+        <v>0.1867007672634271</v>
+      </c>
+      <c r="G1135">
+        <v>13</v>
+      </c>
+      <c r="H1135" s="7">
+        <f t="shared" si="132"/>
+        <v>1</v>
+      </c>
+      <c r="I1135" s="6">
+        <f t="shared" si="133"/>
+        <v>1.7980636237897647E-2</v>
+      </c>
+    </row>
+    <row r="1136" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1136" s="1">
+        <v>44022</v>
+      </c>
+      <c r="B1136" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1136">
+        <v>9615</v>
+      </c>
+      <c r="D1136" s="6">
+        <f t="shared" si="129"/>
+        <v>0.16147180331172539</v>
+      </c>
+      <c r="E1136" s="7">
+        <f t="shared" si="130"/>
+        <v>318</v>
+      </c>
+      <c r="F1136" s="6">
+        <f t="shared" si="131"/>
+        <v>0.16265984654731458</v>
+      </c>
+      <c r="G1136">
+        <v>34</v>
+      </c>
+      <c r="H1136" s="7">
+        <f t="shared" si="132"/>
+        <v>0</v>
+      </c>
+      <c r="I1136" s="6">
+        <f t="shared" si="133"/>
+        <v>4.7026279391424619E-2</v>
+      </c>
+    </row>
+    <row r="1137" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1137" s="1">
+        <v>44022</v>
+      </c>
+      <c r="B1137" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1137">
+        <v>7460</v>
+      </c>
+      <c r="D1137" s="6">
+        <f t="shared" si="129"/>
+        <v>0.12528129513317435</v>
+      </c>
+      <c r="E1137" s="7">
+        <f t="shared" si="130"/>
+        <v>228</v>
+      </c>
+      <c r="F1137" s="6">
+        <f t="shared" si="131"/>
+        <v>0.11662404092071611</v>
+      </c>
+      <c r="G1137">
+        <v>69</v>
+      </c>
+      <c r="H1137" s="7">
+        <f t="shared" si="132"/>
+        <v>1</v>
+      </c>
+      <c r="I1137" s="6">
+        <f t="shared" si="133"/>
+        <v>9.5435684647302899E-2</v>
+      </c>
+    </row>
+    <row r="1138" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1138" s="1">
+        <v>44022</v>
+      </c>
+      <c r="B1138" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1138">
+        <v>4275</v>
+      </c>
+      <c r="D1138" s="6">
+        <f t="shared" si="129"/>
+        <v>7.1793235481812379E-2</v>
+      </c>
+      <c r="E1138" s="7">
+        <f t="shared" si="130"/>
+        <v>133</v>
+      </c>
+      <c r="F1138" s="6">
+        <f t="shared" si="131"/>
+        <v>6.8030690537084396E-2</v>
+      </c>
+      <c r="G1138">
+        <v>138</v>
+      </c>
+      <c r="H1138" s="7">
+        <f t="shared" si="132"/>
+        <v>2</v>
+      </c>
+      <c r="I1138" s="6">
+        <f t="shared" si="133"/>
+        <v>0.1908713692946058</v>
+      </c>
+    </row>
+    <row r="1139" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1139" s="1">
+        <v>44022</v>
+      </c>
+      <c r="B1139" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1139">
+        <v>2185</v>
+      </c>
+      <c r="D1139" s="6">
+        <f t="shared" si="129"/>
+        <v>3.6694320357370774E-2</v>
+      </c>
+      <c r="E1139" s="7">
+        <f t="shared" si="130"/>
+        <v>60</v>
+      </c>
+      <c r="F1139" s="6">
+        <f t="shared" si="131"/>
+        <v>3.0690537084398978E-2</v>
+      </c>
+      <c r="G1139">
+        <v>221</v>
+      </c>
+      <c r="H1139" s="7">
+        <f t="shared" si="132"/>
+        <v>5</v>
+      </c>
+      <c r="I1139" s="6">
+        <f t="shared" si="133"/>
+        <v>0.30567081604426005</v>
+      </c>
+    </row>
+    <row r="1140" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1140" s="1">
+        <v>44022</v>
+      </c>
+      <c r="B1140" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1140">
+        <v>1246</v>
+      </c>
+      <c r="D1140" s="6">
+        <f t="shared" si="129"/>
+        <v>2.0924999160313037E-2</v>
+      </c>
+      <c r="E1140" s="7">
+        <f t="shared" si="130"/>
+        <v>39</v>
+      </c>
+      <c r="F1140" s="6">
+        <f t="shared" si="131"/>
+        <v>1.9948849104859334E-2</v>
+      </c>
+      <c r="G1140">
+        <v>234</v>
+      </c>
+      <c r="H1140" s="7">
+        <f t="shared" si="132"/>
+        <v>3</v>
+      </c>
+      <c r="I1140" s="6">
+        <f t="shared" si="133"/>
+        <v>0.32365145228215769</v>
+      </c>
+    </row>
+    <row r="1141" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1141" s="1">
+        <v>44022</v>
+      </c>
+      <c r="B1141" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1141">
+        <v>228</v>
+      </c>
+      <c r="D1141" s="6">
+        <f t="shared" si="129"/>
+        <v>3.8289725590299937E-3</v>
+      </c>
+      <c r="E1141" s="7">
+        <f t="shared" si="130"/>
+        <v>-32</v>
+      </c>
+      <c r="F1141" s="6">
+        <f t="shared" si="131"/>
+        <v>-1.6368286445012786E-2</v>
+      </c>
+      <c r="G1141">
+        <v>0</v>
+      </c>
+      <c r="H1141" s="7">
+        <f t="shared" si="132"/>
+        <v>0</v>
+      </c>
+      <c r="I1141" s="6">
+        <f t="shared" si="133"/>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/TN_Age.xlsx
+++ b/TN_Age.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1149" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1159" uniqueCount="26">
   <si>
     <t>0-10</t>
   </si>
@@ -440,11 +440,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I1141"/>
+  <dimension ref="A1:I1151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1122" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A1141" sqref="A1141"/>
+      <pane ySplit="1" topLeftCell="A1131" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B1142" sqref="B1142:B1151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -36762,6 +36762,346 @@
         <v>0</v>
       </c>
     </row>
+    <row r="1142" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1142" s="1">
+        <v>44023</v>
+      </c>
+      <c r="B1142" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1142">
+        <v>2785</v>
+      </c>
+      <c r="D1142" s="6">
+        <f t="shared" ref="D1142:D1151" si="134">C1142/SUMIF(A:A,A1142,C:C)</f>
+        <v>4.5651247418286724E-2</v>
+      </c>
+      <c r="E1142" s="7">
+        <f t="shared" ref="E1142:E1151" si="135">C1142-SUMIFS(C:C,A:A,A1142-1,B:B,B1142)</f>
+        <v>76</v>
+      </c>
+      <c r="F1142" s="6">
+        <f t="shared" ref="F1142:F1151" si="136">E1142/SUMIF(A:A,A1142,E:E)</f>
+        <v>5.2054794520547946E-2</v>
+      </c>
+      <c r="G1142" s="2">
+        <v>3</v>
+      </c>
+      <c r="H1142" s="7">
+        <f t="shared" ref="H1142:H1151" si="137">G1142-SUMIFS(G:G,A:A,A1142-1,B:B,B1142)</f>
+        <v>0</v>
+      </c>
+      <c r="I1142" s="6">
+        <f t="shared" ref="I1142:I1151" si="138">G1142/SUMIF(A:A,A1142,G:G)</f>
+        <v>4.0650406504065045E-3</v>
+      </c>
+    </row>
+    <row r="1143" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1143" s="1">
+        <v>44023</v>
+      </c>
+      <c r="B1143" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1143">
+        <v>6207</v>
+      </c>
+      <c r="D1143" s="6">
+        <f t="shared" si="134"/>
+        <v>0.1017440907451726</v>
+      </c>
+      <c r="E1143" s="7">
+        <f t="shared" si="135"/>
+        <v>178</v>
+      </c>
+      <c r="F1143" s="6">
+        <f t="shared" si="136"/>
+        <v>0.12191780821917808</v>
+      </c>
+      <c r="G1143" s="2">
+        <v>0</v>
+      </c>
+      <c r="H1143" s="7">
+        <f t="shared" si="137"/>
+        <v>0</v>
+      </c>
+      <c r="I1143" s="6">
+        <f t="shared" si="138"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1144" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1144" s="1">
+        <v>44023</v>
+      </c>
+      <c r="B1144" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1144">
+        <v>14478</v>
+      </c>
+      <c r="D1144" s="6">
+        <f t="shared" si="134"/>
+        <v>0.23732091925384388</v>
+      </c>
+      <c r="E1144" s="7">
+        <f t="shared" si="135"/>
+        <v>401</v>
+      </c>
+      <c r="F1144" s="6">
+        <f t="shared" si="136"/>
+        <v>0.27465753424657535</v>
+      </c>
+      <c r="G1144" s="2">
+        <v>11</v>
+      </c>
+      <c r="H1144" s="7">
+        <f t="shared" si="137"/>
+        <v>0</v>
+      </c>
+      <c r="I1144" s="6">
+        <f t="shared" si="138"/>
+        <v>1.4905149051490514E-2</v>
+      </c>
+    </row>
+    <row r="1145" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1145" s="1">
+        <v>44023</v>
+      </c>
+      <c r="B1145" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1145">
+        <v>11977</v>
+      </c>
+      <c r="D1145" s="6">
+        <f t="shared" si="134"/>
+        <v>0.19632495164410058</v>
+      </c>
+      <c r="E1145" s="7">
+        <f t="shared" si="135"/>
+        <v>255</v>
+      </c>
+      <c r="F1145" s="6">
+        <f t="shared" si="136"/>
+        <v>0.17465753424657535</v>
+      </c>
+      <c r="G1145" s="2">
+        <v>13</v>
+      </c>
+      <c r="H1145" s="7">
+        <f t="shared" si="137"/>
+        <v>0</v>
+      </c>
+      <c r="I1145" s="6">
+        <f t="shared" si="138"/>
+        <v>1.7615176151761516E-2</v>
+      </c>
+    </row>
+    <row r="1146" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1146" s="1">
+        <v>44023</v>
+      </c>
+      <c r="B1146" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1146">
+        <v>9832</v>
+      </c>
+      <c r="D1146" s="6">
+        <f t="shared" si="134"/>
+        <v>0.16116447562534833</v>
+      </c>
+      <c r="E1146" s="7">
+        <f t="shared" si="135"/>
+        <v>217</v>
+      </c>
+      <c r="F1146" s="6">
+        <f t="shared" si="136"/>
+        <v>0.14863013698630137</v>
+      </c>
+      <c r="G1146" s="2">
+        <v>36</v>
+      </c>
+      <c r="H1146" s="7">
+        <f t="shared" si="137"/>
+        <v>2</v>
+      </c>
+      <c r="I1146" s="6">
+        <f t="shared" si="138"/>
+        <v>4.878048780487805E-2</v>
+      </c>
+    </row>
+    <row r="1147" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1147" s="1">
+        <v>44023</v>
+      </c>
+      <c r="B1147" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1147">
+        <v>7653</v>
+      </c>
+      <c r="D1147" s="6">
+        <f t="shared" si="134"/>
+        <v>0.1254466773759958</v>
+      </c>
+      <c r="E1147" s="7">
+        <f t="shared" si="135"/>
+        <v>193</v>
+      </c>
+      <c r="F1147" s="6">
+        <f t="shared" si="136"/>
+        <v>0.13219178082191782</v>
+      </c>
+      <c r="G1147" s="2">
+        <v>75</v>
+      </c>
+      <c r="H1147" s="7">
+        <f t="shared" si="137"/>
+        <v>6</v>
+      </c>
+      <c r="I1147" s="6">
+        <f t="shared" si="138"/>
+        <v>0.1016260162601626</v>
+      </c>
+    </row>
+    <row r="1148" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1148" s="1">
+        <v>44023</v>
+      </c>
+      <c r="B1148" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1148">
+        <v>4385</v>
+      </c>
+      <c r="D1148" s="6">
+        <f t="shared" si="134"/>
+        <v>7.1878175917122908E-2</v>
+      </c>
+      <c r="E1148" s="7">
+        <f t="shared" si="135"/>
+        <v>110</v>
+      </c>
+      <c r="F1148" s="6">
+        <f t="shared" si="136"/>
+        <v>7.5342465753424653E-2</v>
+      </c>
+      <c r="G1148" s="2">
+        <v>139</v>
+      </c>
+      <c r="H1148" s="7">
+        <f t="shared" si="137"/>
+        <v>1</v>
+      </c>
+      <c r="I1148" s="6">
+        <f t="shared" si="138"/>
+        <v>0.18834688346883469</v>
+      </c>
+    </row>
+    <row r="1149" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1149" s="1">
+        <v>44023</v>
+      </c>
+      <c r="B1149" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1149">
+        <v>2247</v>
+      </c>
+      <c r="D1149" s="6">
+        <f t="shared" si="134"/>
+        <v>3.6832442710553061E-2</v>
+      </c>
+      <c r="E1149" s="7">
+        <f t="shared" si="135"/>
+        <v>62</v>
+      </c>
+      <c r="F1149" s="6">
+        <f t="shared" si="136"/>
+        <v>4.2465753424657533E-2</v>
+      </c>
+      <c r="G1149" s="2">
+        <v>222</v>
+      </c>
+      <c r="H1149" s="7">
+        <f t="shared" si="137"/>
+        <v>1</v>
+      </c>
+      <c r="I1149" s="6">
+        <f t="shared" si="138"/>
+        <v>0.30081300813008133</v>
+      </c>
+    </row>
+    <row r="1150" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1150" s="1">
+        <v>44023</v>
+      </c>
+      <c r="B1150" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1150">
+        <v>1272</v>
+      </c>
+      <c r="D1150" s="6">
+        <f t="shared" si="134"/>
+        <v>2.0850408156574764E-2</v>
+      </c>
+      <c r="E1150" s="7">
+        <f t="shared" si="135"/>
+        <v>26</v>
+      </c>
+      <c r="F1150" s="6">
+        <f t="shared" si="136"/>
+        <v>1.7808219178082191E-2</v>
+      </c>
+      <c r="G1150" s="2">
+        <v>239</v>
+      </c>
+      <c r="H1150" s="7">
+        <f t="shared" si="137"/>
+        <v>5</v>
+      </c>
+      <c r="I1150" s="6">
+        <f t="shared" si="138"/>
+        <v>0.32384823848238481</v>
+      </c>
+    </row>
+    <row r="1151" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1151" s="1">
+        <v>44023</v>
+      </c>
+      <c r="B1151" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1151">
+        <v>170</v>
+      </c>
+      <c r="D1151" s="6">
+        <f t="shared" si="134"/>
+        <v>2.7866111530013443E-3</v>
+      </c>
+      <c r="E1151" s="7">
+        <f t="shared" si="135"/>
+        <v>-58</v>
+      </c>
+      <c r="F1151" s="6">
+        <f t="shared" si="136"/>
+        <v>-3.9726027397260277E-2</v>
+      </c>
+      <c r="G1151" s="2">
+        <v>0</v>
+      </c>
+      <c r="H1151" s="7">
+        <f t="shared" si="137"/>
+        <v>0</v>
+      </c>
+      <c r="I1151" s="6">
+        <f t="shared" si="138"/>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/TN_Age.xlsx
+++ b/TN_Age.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1159" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1169" uniqueCount="26">
   <si>
     <t>0-10</t>
   </si>
@@ -440,11 +440,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I1151"/>
+  <dimension ref="A1:I1161"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A1131" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1142" sqref="B1142:B1151"/>
+      <selection pane="bottomLeft" activeCell="A1161" sqref="A1161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -37102,6 +37102,346 @@
         <v>0</v>
       </c>
     </row>
+    <row r="1152" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1152" s="1">
+        <v>44024</v>
+      </c>
+      <c r="B1152" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1152">
+        <v>2821</v>
+      </c>
+      <c r="D1152" s="6">
+        <f t="shared" ref="D1152:D1161" si="139">C1152/SUMIF(A:A,A1152,C:C)</f>
+        <v>4.5529373789541638E-2</v>
+      </c>
+      <c r="E1152" s="7">
+        <f t="shared" ref="E1152:E1161" si="140">C1152-SUMIFS(C:C,A:A,A1152-1,B:B,B1152)</f>
+        <v>36</v>
+      </c>
+      <c r="F1152" s="6">
+        <f t="shared" ref="F1152:F1161" si="141">E1152/SUMIF(A:A,A1152,E:E)</f>
+        <v>3.7735849056603772E-2</v>
+      </c>
+      <c r="G1152">
+        <v>3</v>
+      </c>
+      <c r="H1152" s="7">
+        <f t="shared" ref="H1152:H1161" si="142">G1152-SUMIFS(G:G,A:A,A1152-1,B:B,B1152)</f>
+        <v>0</v>
+      </c>
+      <c r="I1152" s="6">
+        <f t="shared" ref="I1152:I1161" si="143">G1152/SUMIF(A:A,A1152,G:G)</f>
+        <v>4.048582995951417E-3</v>
+      </c>
+    </row>
+    <row r="1153" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1153" s="1">
+        <v>44024</v>
+      </c>
+      <c r="B1153" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1153">
+        <v>6334</v>
+      </c>
+      <c r="D1153" s="6">
+        <f t="shared" si="139"/>
+        <v>0.10222724338282763</v>
+      </c>
+      <c r="E1153" s="7">
+        <f t="shared" si="140"/>
+        <v>127</v>
+      </c>
+      <c r="F1153" s="6">
+        <f t="shared" si="141"/>
+        <v>0.1331236897274633</v>
+      </c>
+      <c r="G1153">
+        <v>0</v>
+      </c>
+      <c r="H1153" s="7">
+        <f t="shared" si="142"/>
+        <v>0</v>
+      </c>
+      <c r="I1153" s="6">
+        <f t="shared" si="143"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1154" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1154" s="1">
+        <v>44024</v>
+      </c>
+      <c r="B1154" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1154">
+        <v>14731</v>
+      </c>
+      <c r="D1154" s="6">
+        <f t="shared" si="139"/>
+        <v>0.23775016139444802</v>
+      </c>
+      <c r="E1154" s="7">
+        <f t="shared" si="140"/>
+        <v>253</v>
+      </c>
+      <c r="F1154" s="6">
+        <f t="shared" si="141"/>
+        <v>0.26519916142557654</v>
+      </c>
+      <c r="G1154">
+        <v>12</v>
+      </c>
+      <c r="H1154" s="7">
+        <f t="shared" si="142"/>
+        <v>1</v>
+      </c>
+      <c r="I1154" s="6">
+        <f t="shared" si="143"/>
+        <v>1.6194331983805668E-2</v>
+      </c>
+    </row>
+    <row r="1155" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1155" s="1">
+        <v>44024</v>
+      </c>
+      <c r="B1155" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1155">
+        <v>12140</v>
+      </c>
+      <c r="D1155" s="6">
+        <f t="shared" si="139"/>
+        <v>0.19593285990961912</v>
+      </c>
+      <c r="E1155" s="7">
+        <f t="shared" si="140"/>
+        <v>163</v>
+      </c>
+      <c r="F1155" s="6">
+        <f t="shared" si="141"/>
+        <v>0.17085953878406709</v>
+      </c>
+      <c r="G1155">
+        <v>13</v>
+      </c>
+      <c r="H1155" s="7">
+        <f t="shared" si="142"/>
+        <v>0</v>
+      </c>
+      <c r="I1155" s="6">
+        <f t="shared" si="143"/>
+        <v>1.7543859649122806E-2</v>
+      </c>
+    </row>
+    <row r="1156" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1156" s="1">
+        <v>44024</v>
+      </c>
+      <c r="B1156" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1156">
+        <v>9980</v>
+      </c>
+      <c r="D1156" s="6">
+        <f t="shared" si="139"/>
+        <v>0.16107165913492577</v>
+      </c>
+      <c r="E1156" s="7">
+        <f t="shared" si="140"/>
+        <v>148</v>
+      </c>
+      <c r="F1156" s="6">
+        <f t="shared" si="141"/>
+        <v>0.15513626834381553</v>
+      </c>
+      <c r="G1156">
+        <v>36</v>
+      </c>
+      <c r="H1156" s="7">
+        <f t="shared" si="142"/>
+        <v>0</v>
+      </c>
+      <c r="I1156" s="6">
+        <f t="shared" si="143"/>
+        <v>4.8582995951417005E-2</v>
+      </c>
+    </row>
+    <row r="1157" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1157" s="1">
+        <v>44024</v>
+      </c>
+      <c r="B1157" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1157">
+        <v>7761</v>
+      </c>
+      <c r="D1157" s="6">
+        <f t="shared" si="139"/>
+        <v>0.12525823111684958</v>
+      </c>
+      <c r="E1157" s="7">
+        <f t="shared" si="140"/>
+        <v>108</v>
+      </c>
+      <c r="F1157" s="6">
+        <f t="shared" si="141"/>
+        <v>0.11320754716981132</v>
+      </c>
+      <c r="G1157">
+        <v>76</v>
+      </c>
+      <c r="H1157" s="7">
+        <f t="shared" si="142"/>
+        <v>1</v>
+      </c>
+      <c r="I1157" s="6">
+        <f t="shared" si="143"/>
+        <v>0.10256410256410256</v>
+      </c>
+    </row>
+    <row r="1158" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1158" s="1">
+        <v>44024</v>
+      </c>
+      <c r="B1158" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1158">
+        <v>4461</v>
+      </c>
+      <c r="D1158" s="6">
+        <f t="shared" si="139"/>
+        <v>7.1998063266623627E-2</v>
+      </c>
+      <c r="E1158" s="7">
+        <f t="shared" si="140"/>
+        <v>76</v>
+      </c>
+      <c r="F1158" s="6">
+        <f t="shared" si="141"/>
+        <v>7.9664570230607967E-2</v>
+      </c>
+      <c r="G1158">
+        <v>139</v>
+      </c>
+      <c r="H1158" s="7">
+        <f t="shared" si="142"/>
+        <v>0</v>
+      </c>
+      <c r="I1158" s="6">
+        <f t="shared" si="143"/>
+        <v>0.18758434547908232</v>
+      </c>
+    </row>
+    <row r="1159" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1159" s="1">
+        <v>44024</v>
+      </c>
+      <c r="B1159" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1159">
+        <v>2284</v>
+      </c>
+      <c r="D1159" s="6">
+        <f t="shared" si="139"/>
+        <v>3.6862491930277595E-2</v>
+      </c>
+      <c r="E1159" s="7">
+        <f t="shared" si="140"/>
+        <v>37</v>
+      </c>
+      <c r="F1159" s="6">
+        <f t="shared" si="141"/>
+        <v>3.8784067085953881E-2</v>
+      </c>
+      <c r="G1159">
+        <v>223</v>
+      </c>
+      <c r="H1159" s="7">
+        <f t="shared" si="142"/>
+        <v>1</v>
+      </c>
+      <c r="I1159" s="6">
+        <f t="shared" si="143"/>
+        <v>0.30094466936572201</v>
+      </c>
+    </row>
+    <row r="1160" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1160" s="1">
+        <v>44024</v>
+      </c>
+      <c r="B1160" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1160">
+        <v>1279</v>
+      </c>
+      <c r="D1160" s="6">
+        <f t="shared" si="139"/>
+        <v>2.064234990316333E-2</v>
+      </c>
+      <c r="E1160" s="7">
+        <f t="shared" si="140"/>
+        <v>7</v>
+      </c>
+      <c r="F1160" s="6">
+        <f t="shared" si="141"/>
+        <v>7.3375262054507341E-3</v>
+      </c>
+      <c r="G1160">
+        <v>239</v>
+      </c>
+      <c r="H1160" s="7">
+        <f t="shared" si="142"/>
+        <v>0</v>
+      </c>
+      <c r="I1160" s="6">
+        <f t="shared" si="143"/>
+        <v>0.32253711201079621</v>
+      </c>
+    </row>
+    <row r="1161" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1161" s="1">
+        <v>44024</v>
+      </c>
+      <c r="B1161" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1161">
+        <v>169</v>
+      </c>
+      <c r="D1161" s="6">
+        <f t="shared" si="139"/>
+        <v>2.7275661717236928E-3</v>
+      </c>
+      <c r="E1161" s="7">
+        <f t="shared" si="140"/>
+        <v>-1</v>
+      </c>
+      <c r="F1161" s="6">
+        <f t="shared" si="141"/>
+        <v>-1.0482180293501049E-3</v>
+      </c>
+      <c r="G1161">
+        <v>0</v>
+      </c>
+      <c r="H1161" s="7">
+        <f t="shared" si="142"/>
+        <v>0</v>
+      </c>
+      <c r="I1161" s="6">
+        <f t="shared" si="143"/>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/TN_Age.xlsx
+++ b/TN_Age.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1169" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1179" uniqueCount="26">
   <si>
     <t>0-10</t>
   </si>
@@ -440,11 +440,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I1161"/>
+  <dimension ref="A1:I1171"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1131" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A1161" sqref="A1161"/>
+      <pane ySplit="1" topLeftCell="A1152" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A1171" sqref="A1171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -37442,6 +37442,346 @@
         <v>0</v>
       </c>
     </row>
+    <row r="1162" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1162" s="1">
+        <v>44025</v>
+      </c>
+      <c r="B1162" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1162" s="2">
+        <v>2969</v>
+      </c>
+      <c r="D1162" s="6">
+        <f t="shared" ref="D1162:D1171" si="144">C1162/SUMIF(A:A,A1162,C:C)</f>
+        <v>4.5485185525630419E-2</v>
+      </c>
+      <c r="E1162" s="7">
+        <f t="shared" ref="E1162:E1171" si="145">C1162-SUMIFS(C:C,A:A,A1162-1,B:B,B1162)</f>
+        <v>148</v>
+      </c>
+      <c r="F1162" s="6">
+        <f t="shared" ref="F1162:F1171" si="146">E1162/SUMIF(A:A,A1162,E:E)</f>
+        <v>4.4659022329511168E-2</v>
+      </c>
+      <c r="G1162" s="2">
+        <v>3</v>
+      </c>
+      <c r="H1162" s="7">
+        <f t="shared" ref="H1162:H1171" si="147">G1162-SUMIFS(G:G,A:A,A1162-1,B:B,B1162)</f>
+        <v>0</v>
+      </c>
+      <c r="I1162" s="6">
+        <f t="shared" ref="I1162:I1171" si="148">G1162/SUMIF(A:A,A1162,G:G)</f>
+        <v>4.0053404539385851E-3</v>
+      </c>
+    </row>
+    <row r="1163" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1163" s="1">
+        <v>44025</v>
+      </c>
+      <c r="B1163" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1163" s="2">
+        <v>6740</v>
+      </c>
+      <c r="D1163" s="6">
+        <f t="shared" si="144"/>
+        <v>0.10325703955633177</v>
+      </c>
+      <c r="E1163" s="7">
+        <f t="shared" si="145"/>
+        <v>406</v>
+      </c>
+      <c r="F1163" s="6">
+        <f t="shared" si="146"/>
+        <v>0.12251056125528063</v>
+      </c>
+      <c r="G1163" s="2">
+        <v>0</v>
+      </c>
+      <c r="H1163" s="7">
+        <f t="shared" si="147"/>
+        <v>0</v>
+      </c>
+      <c r="I1163" s="6">
+        <f t="shared" si="148"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1164" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1164" s="1">
+        <v>44025</v>
+      </c>
+      <c r="B1164" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1164" s="2">
+        <v>15610</v>
+      </c>
+      <c r="D1164" s="6">
+        <f t="shared" si="144"/>
+        <v>0.23914575481815117</v>
+      </c>
+      <c r="E1164" s="7">
+        <f t="shared" si="145"/>
+        <v>879</v>
+      </c>
+      <c r="F1164" s="6">
+        <f t="shared" si="146"/>
+        <v>0.2652383826191913</v>
+      </c>
+      <c r="G1164" s="2">
+        <v>12</v>
+      </c>
+      <c r="H1164" s="7">
+        <f t="shared" si="147"/>
+        <v>0</v>
+      </c>
+      <c r="I1164" s="6">
+        <f t="shared" si="148"/>
+        <v>1.602136181575434E-2</v>
+      </c>
+    </row>
+    <row r="1165" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1165" s="1">
+        <v>44025</v>
+      </c>
+      <c r="B1165" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1165" s="2">
+        <v>12710</v>
+      </c>
+      <c r="D1165" s="6">
+        <f t="shared" si="144"/>
+        <v>0.19471765174495204</v>
+      </c>
+      <c r="E1165" s="7">
+        <f t="shared" si="145"/>
+        <v>570</v>
+      </c>
+      <c r="F1165" s="6">
+        <f t="shared" si="146"/>
+        <v>0.171997585998793</v>
+      </c>
+      <c r="G1165" s="2">
+        <v>14</v>
+      </c>
+      <c r="H1165" s="7">
+        <f t="shared" si="147"/>
+        <v>1</v>
+      </c>
+      <c r="I1165" s="6">
+        <f t="shared" si="148"/>
+        <v>1.8691588785046728E-2</v>
+      </c>
+    </row>
+    <row r="1166" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1166" s="1">
+        <v>44025</v>
+      </c>
+      <c r="B1166" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1166" s="2">
+        <v>10458</v>
+      </c>
+      <c r="D1166" s="6">
+        <f t="shared" si="144"/>
+        <v>0.16021693170328155</v>
+      </c>
+      <c r="E1166" s="7">
+        <f t="shared" si="145"/>
+        <v>478</v>
+      </c>
+      <c r="F1166" s="6">
+        <f t="shared" si="146"/>
+        <v>0.14423657211828605</v>
+      </c>
+      <c r="G1166" s="2">
+        <v>37</v>
+      </c>
+      <c r="H1166" s="7">
+        <f t="shared" si="147"/>
+        <v>1</v>
+      </c>
+      <c r="I1166" s="6">
+        <f t="shared" si="148"/>
+        <v>4.9399198931909215E-2</v>
+      </c>
+    </row>
+    <row r="1167" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1167" s="1">
+        <v>44025</v>
+      </c>
+      <c r="B1167" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1167" s="2">
+        <v>8130</v>
+      </c>
+      <c r="D1167" s="6">
+        <f t="shared" si="144"/>
+        <v>0.12455188896038238</v>
+      </c>
+      <c r="E1167" s="7">
+        <f t="shared" si="145"/>
+        <v>369</v>
+      </c>
+      <c r="F1167" s="6">
+        <f t="shared" si="146"/>
+        <v>0.11134580567290284</v>
+      </c>
+      <c r="G1167" s="2">
+        <v>76</v>
+      </c>
+      <c r="H1167" s="7">
+        <f t="shared" si="147"/>
+        <v>0</v>
+      </c>
+      <c r="I1167" s="6">
+        <f t="shared" si="148"/>
+        <v>0.10146862483311081</v>
+      </c>
+    </row>
+    <row r="1168" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1168" s="1">
+        <v>44025</v>
+      </c>
+      <c r="B1168" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1168" s="2">
+        <v>4694</v>
+      </c>
+      <c r="D1168" s="6">
+        <f t="shared" si="144"/>
+        <v>7.191224683641266E-2</v>
+      </c>
+      <c r="E1168" s="7">
+        <f t="shared" si="145"/>
+        <v>233</v>
+      </c>
+      <c r="F1168" s="6">
+        <f t="shared" si="146"/>
+        <v>7.0307785153892577E-2</v>
+      </c>
+      <c r="G1168" s="2">
+        <v>139</v>
+      </c>
+      <c r="H1168" s="7">
+        <f t="shared" si="147"/>
+        <v>0</v>
+      </c>
+      <c r="I1168" s="6">
+        <f t="shared" si="148"/>
+        <v>0.1855807743658211</v>
+      </c>
+    </row>
+    <row r="1169" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1169" s="1">
+        <v>44025</v>
+      </c>
+      <c r="B1169" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1169" s="2">
+        <v>2422</v>
+      </c>
+      <c r="D1169" s="6">
+        <f t="shared" si="144"/>
+        <v>3.7105126083892513E-2</v>
+      </c>
+      <c r="E1169" s="7">
+        <f t="shared" si="145"/>
+        <v>138</v>
+      </c>
+      <c r="F1169" s="6">
+        <f t="shared" si="146"/>
+        <v>4.1641520820760412E-2</v>
+      </c>
+      <c r="G1169" s="2">
+        <v>226</v>
+      </c>
+      <c r="H1169" s="7">
+        <f t="shared" si="147"/>
+        <v>3</v>
+      </c>
+      <c r="I1169" s="6">
+        <f t="shared" si="148"/>
+        <v>0.30173564753004006</v>
+      </c>
+    </row>
+    <row r="1170" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1170" s="1">
+        <v>44025</v>
+      </c>
+      <c r="B1170" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1170" s="2">
+        <v>1372</v>
+      </c>
+      <c r="D1170" s="6">
+        <f t="shared" si="144"/>
+        <v>2.1019088764285931E-2</v>
+      </c>
+      <c r="E1170" s="7">
+        <f t="shared" si="145"/>
+        <v>93</v>
+      </c>
+      <c r="F1170" s="6">
+        <f t="shared" si="146"/>
+        <v>2.8062764031382016E-2</v>
+      </c>
+      <c r="G1170" s="2">
+        <v>242</v>
+      </c>
+      <c r="H1170" s="7">
+        <f t="shared" si="147"/>
+        <v>3</v>
+      </c>
+      <c r="I1170" s="6">
+        <f t="shared" si="148"/>
+        <v>0.32309746328437916</v>
+      </c>
+    </row>
+    <row r="1171" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1171" s="1">
+        <v>44025</v>
+      </c>
+      <c r="B1171" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1171" s="2">
+        <v>169</v>
+      </c>
+      <c r="D1171" s="6">
+        <f t="shared" si="144"/>
+        <v>2.5890860066795354E-3</v>
+      </c>
+      <c r="E1171" s="7">
+        <f t="shared" si="145"/>
+        <v>0</v>
+      </c>
+      <c r="F1171" s="6">
+        <f t="shared" si="146"/>
+        <v>0</v>
+      </c>
+      <c r="G1171" s="2">
+        <v>0</v>
+      </c>
+      <c r="H1171" s="7">
+        <f t="shared" si="147"/>
+        <v>0</v>
+      </c>
+      <c r="I1171" s="6">
+        <f t="shared" si="148"/>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/TN_Age.xlsx
+++ b/TN_Age.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1179" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1189" uniqueCount="26">
   <si>
     <t>0-10</t>
   </si>
@@ -440,11 +440,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I1171"/>
+  <dimension ref="A1:I1181"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1152" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A1171" sqref="A1171"/>
+      <pane ySplit="1" topLeftCell="A1161" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A1181" sqref="A1181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -37782,6 +37782,346 @@
         <v>0</v>
       </c>
     </row>
+    <row r="1172" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1172" s="1">
+        <v>44026</v>
+      </c>
+      <c r="B1172" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1172">
+        <v>3025</v>
+      </c>
+      <c r="D1172" s="6">
+        <f t="shared" ref="D1172:D1181" si="149">C1172/SUMIF(A:A,A1172,C:C)</f>
+        <v>4.5292567527100674E-2</v>
+      </c>
+      <c r="E1172" s="7">
+        <f t="shared" ref="E1172:E1181" si="150">C1172-SUMIFS(C:C,A:A,A1172-1,B:B,B1172)</f>
+        <v>56</v>
+      </c>
+      <c r="F1172" s="6">
+        <f t="shared" ref="F1172:F1181" si="151">E1172/SUMIF(A:A,A1172,E:E)</f>
+        <v>3.6988110964332896E-2</v>
+      </c>
+      <c r="G1172">
+        <v>3</v>
+      </c>
+      <c r="H1172" s="7">
+        <f t="shared" ref="H1172:H1181" si="152">G1172-SUMIFS(G:G,A:A,A1172-1,B:B,B1172)</f>
+        <v>0</v>
+      </c>
+      <c r="I1172" s="6">
+        <f t="shared" ref="I1172:I1181" si="153">G1172/SUMIF(A:A,A1172,G:G)</f>
+        <v>3.9113428943937422E-3</v>
+      </c>
+    </row>
+    <row r="1173" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1173" s="1">
+        <v>44026</v>
+      </c>
+      <c r="B1173" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1173">
+        <v>6933</v>
+      </c>
+      <c r="D1173" s="6">
+        <f t="shared" si="149"/>
+        <v>0.10380607294723602</v>
+      </c>
+      <c r="E1173" s="7">
+        <f t="shared" si="150"/>
+        <v>193</v>
+      </c>
+      <c r="F1173" s="6">
+        <f t="shared" si="151"/>
+        <v>0.12747688243064728</v>
+      </c>
+      <c r="G1173">
+        <v>0</v>
+      </c>
+      <c r="H1173" s="7">
+        <f t="shared" si="152"/>
+        <v>0</v>
+      </c>
+      <c r="I1173" s="6">
+        <f t="shared" si="153"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1174" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1174" s="1">
+        <v>44026</v>
+      </c>
+      <c r="B1174" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1174">
+        <v>15984</v>
+      </c>
+      <c r="D1174" s="6">
+        <f t="shared" si="149"/>
+        <v>0.2393244295382404</v>
+      </c>
+      <c r="E1174" s="7">
+        <f t="shared" si="150"/>
+        <v>374</v>
+      </c>
+      <c r="F1174" s="6">
+        <f t="shared" si="151"/>
+        <v>0.24702774108322326</v>
+      </c>
+      <c r="G1174">
+        <v>13</v>
+      </c>
+      <c r="H1174" s="7">
+        <f t="shared" si="152"/>
+        <v>1</v>
+      </c>
+      <c r="I1174" s="6">
+        <f t="shared" si="153"/>
+        <v>1.6949152542372881E-2</v>
+      </c>
+    </row>
+    <row r="1175" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1175" s="1">
+        <v>44026</v>
+      </c>
+      <c r="B1175" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1175">
+        <v>13002</v>
+      </c>
+      <c r="D1175" s="6">
+        <f t="shared" si="149"/>
+        <v>0.19467569024375636</v>
+      </c>
+      <c r="E1175" s="7">
+        <f t="shared" si="150"/>
+        <v>292</v>
+      </c>
+      <c r="F1175" s="6">
+        <f t="shared" si="151"/>
+        <v>0.1928665785997358</v>
+      </c>
+      <c r="G1175">
+        <v>14</v>
+      </c>
+      <c r="H1175" s="7">
+        <f t="shared" si="152"/>
+        <v>0</v>
+      </c>
+      <c r="I1175" s="6">
+        <f t="shared" si="153"/>
+        <v>1.8252933507170794E-2</v>
+      </c>
+    </row>
+    <row r="1176" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1176" s="1">
+        <v>44026</v>
+      </c>
+      <c r="B1176" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1176">
+        <v>10674</v>
+      </c>
+      <c r="D1176" s="6">
+        <f t="shared" si="149"/>
+        <v>0.1598191291848835</v>
+      </c>
+      <c r="E1176" s="7">
+        <f t="shared" si="150"/>
+        <v>216</v>
+      </c>
+      <c r="F1176" s="6">
+        <f t="shared" si="151"/>
+        <v>0.14266842800528401</v>
+      </c>
+      <c r="G1176">
+        <v>37</v>
+      </c>
+      <c r="H1176" s="7">
+        <f t="shared" si="152"/>
+        <v>0</v>
+      </c>
+      <c r="I1176" s="6">
+        <f t="shared" si="153"/>
+        <v>4.8239895697522815E-2</v>
+      </c>
+    </row>
+    <row r="1177" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1177" s="1">
+        <v>44026</v>
+      </c>
+      <c r="B1177" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1177">
+        <v>8308</v>
+      </c>
+      <c r="D1177" s="6">
+        <f t="shared" si="149"/>
+        <v>0.1243936036413727</v>
+      </c>
+      <c r="E1177" s="7">
+        <f t="shared" si="150"/>
+        <v>178</v>
+      </c>
+      <c r="F1177" s="6">
+        <f t="shared" si="151"/>
+        <v>0.11756935270805813</v>
+      </c>
+      <c r="G1177">
+        <v>80</v>
+      </c>
+      <c r="H1177" s="7">
+        <f t="shared" si="152"/>
+        <v>4</v>
+      </c>
+      <c r="I1177" s="6">
+        <f t="shared" si="153"/>
+        <v>0.10430247718383312</v>
+      </c>
+    </row>
+    <row r="1178" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1178" s="1">
+        <v>44026</v>
+      </c>
+      <c r="B1178" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1178">
+        <v>4795</v>
+      </c>
+      <c r="D1178" s="6">
+        <f t="shared" si="149"/>
+        <v>7.1794334311552979E-2</v>
+      </c>
+      <c r="E1178" s="7">
+        <f t="shared" si="150"/>
+        <v>101</v>
+      </c>
+      <c r="F1178" s="6">
+        <f t="shared" si="151"/>
+        <v>6.6710700132100398E-2</v>
+      </c>
+      <c r="G1178">
+        <v>146</v>
+      </c>
+      <c r="H1178" s="7">
+        <f t="shared" si="152"/>
+        <v>7</v>
+      </c>
+      <c r="I1178" s="6">
+        <f t="shared" si="153"/>
+        <v>0.19035202086049544</v>
+      </c>
+    </row>
+    <row r="1179" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1179" s="1">
+        <v>44026</v>
+      </c>
+      <c r="B1179" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1179">
+        <v>2483</v>
+      </c>
+      <c r="D1179" s="6">
+        <f t="shared" si="149"/>
+        <v>3.7177337246211896E-2</v>
+      </c>
+      <c r="E1179" s="7">
+        <f t="shared" si="150"/>
+        <v>61</v>
+      </c>
+      <c r="F1179" s="6">
+        <f t="shared" si="151"/>
+        <v>4.0290620871862616E-2</v>
+      </c>
+      <c r="G1179">
+        <v>228</v>
+      </c>
+      <c r="H1179" s="7">
+        <f t="shared" si="152"/>
+        <v>2</v>
+      </c>
+      <c r="I1179" s="6">
+        <f t="shared" si="153"/>
+        <v>0.29726205997392435</v>
+      </c>
+    </row>
+    <row r="1180" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1180" s="1">
+        <v>44026</v>
+      </c>
+      <c r="B1180" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1180">
+        <v>1400</v>
+      </c>
+      <c r="D1180" s="6">
+        <f t="shared" si="149"/>
+        <v>2.0961849434030067E-2</v>
+      </c>
+      <c r="E1180" s="7">
+        <f t="shared" si="150"/>
+        <v>28</v>
+      </c>
+      <c r="F1180" s="6">
+        <f t="shared" si="151"/>
+        <v>1.8494055482166448E-2</v>
+      </c>
+      <c r="G1180">
+        <v>246</v>
+      </c>
+      <c r="H1180" s="7">
+        <f t="shared" si="152"/>
+        <v>4</v>
+      </c>
+      <c r="I1180" s="6">
+        <f t="shared" si="153"/>
+        <v>0.32073011734028684</v>
+      </c>
+    </row>
+    <row r="1181" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1181" s="1">
+        <v>44026</v>
+      </c>
+      <c r="B1181" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1181">
+        <v>184</v>
+      </c>
+      <c r="D1181" s="6">
+        <f t="shared" si="149"/>
+        <v>2.7549859256153801E-3</v>
+      </c>
+      <c r="E1181" s="7">
+        <f t="shared" si="150"/>
+        <v>15</v>
+      </c>
+      <c r="F1181" s="6">
+        <f t="shared" si="151"/>
+        <v>9.9075297225891673E-3</v>
+      </c>
+      <c r="G1181">
+        <v>0</v>
+      </c>
+      <c r="H1181" s="7">
+        <f t="shared" si="152"/>
+        <v>0</v>
+      </c>
+      <c r="I1181" s="6">
+        <f t="shared" si="153"/>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/TN_Age.xlsx
+++ b/TN_Age.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1189" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1199" uniqueCount="26">
   <si>
     <t>0-10</t>
   </si>
@@ -440,11 +440,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I1181"/>
+  <dimension ref="A1:I1192"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1161" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A1181" sqref="A1181"/>
+      <pane ySplit="1" topLeftCell="A1173" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C1182" sqref="C1182:C1191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -38122,6 +38122,351 @@
         <v>0</v>
       </c>
     </row>
+    <row r="1182" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1182" s="1">
+        <v>44027</v>
+      </c>
+      <c r="B1182" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1182" s="2">
+        <v>3120</v>
+      </c>
+      <c r="D1182" s="6">
+        <f t="shared" ref="D1182:D1191" si="154">C1182/SUMIF(A:A,A1182,C:C)</f>
+        <v>4.5177451817958035E-2</v>
+      </c>
+      <c r="E1182" s="7">
+        <f t="shared" ref="E1182:E1191" si="155">C1182-SUMIFS(C:C,A:A,A1182-1,B:B,B1182)</f>
+        <v>95</v>
+      </c>
+      <c r="F1182" s="6">
+        <f t="shared" ref="F1182:F1191" si="156">E1182/SUMIF(A:A,A1182,E:E)</f>
+        <v>4.179498460184778E-2</v>
+      </c>
+      <c r="G1182" s="2">
+        <v>95</v>
+      </c>
+      <c r="H1182" s="7">
+        <f t="shared" ref="H1182:H1191" si="157">G1182-SUMIFS(G:G,A:A,A1182-1,B:B,B1182)</f>
+        <v>92</v>
+      </c>
+      <c r="I1182" s="6">
+        <f t="shared" ref="I1182:I1191" si="158">G1182/SUMIF(A:A,A1182,G:G)</f>
+        <v>0.10820045558086561</v>
+      </c>
+    </row>
+    <row r="1183" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1183" s="1">
+        <v>44027</v>
+      </c>
+      <c r="B1183" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1183" s="2">
+        <v>7256</v>
+      </c>
+      <c r="D1183" s="6">
+        <f t="shared" si="154"/>
+        <v>0.10506653538176394</v>
+      </c>
+      <c r="E1183" s="7">
+        <f t="shared" si="155"/>
+        <v>323</v>
+      </c>
+      <c r="F1183" s="6">
+        <f t="shared" si="156"/>
+        <v>0.14210294764628245</v>
+      </c>
+      <c r="G1183">
+        <v>3</v>
+      </c>
+      <c r="H1183" s="7">
+        <f t="shared" si="157"/>
+        <v>3</v>
+      </c>
+      <c r="I1183" s="6">
+        <f t="shared" si="158"/>
+        <v>3.4168564920273349E-3</v>
+      </c>
+    </row>
+    <row r="1184" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1184" s="1">
+        <v>44027</v>
+      </c>
+      <c r="B1184" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1184" s="2">
+        <v>16528</v>
+      </c>
+      <c r="D1184" s="6">
+        <f t="shared" si="154"/>
+        <v>0.23932465501513156</v>
+      </c>
+      <c r="E1184" s="7">
+        <f t="shared" si="155"/>
+        <v>544</v>
+      </c>
+      <c r="F1184" s="6">
+        <f t="shared" si="156"/>
+        <v>0.23933128024637043</v>
+      </c>
+      <c r="G1184">
+        <v>0</v>
+      </c>
+      <c r="H1184" s="7">
+        <f t="shared" si="157"/>
+        <v>-13</v>
+      </c>
+      <c r="I1184" s="6">
+        <f t="shared" si="158"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1185" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1185" s="1">
+        <v>44027</v>
+      </c>
+      <c r="B1185" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1185" s="2">
+        <v>13381</v>
+      </c>
+      <c r="D1185" s="6">
+        <f t="shared" si="154"/>
+        <v>0.19375624447951811</v>
+      </c>
+      <c r="E1185" s="7">
+        <f t="shared" si="155"/>
+        <v>379</v>
+      </c>
+      <c r="F1185" s="6">
+        <f t="shared" si="156"/>
+        <v>0.16673999120105587</v>
+      </c>
+      <c r="G1185">
+        <v>13</v>
+      </c>
+      <c r="H1185" s="7">
+        <f t="shared" si="157"/>
+        <v>-1</v>
+      </c>
+      <c r="I1185" s="6">
+        <f t="shared" si="158"/>
+        <v>1.4806378132118452E-2</v>
+      </c>
+    </row>
+    <row r="1186" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1186" s="1">
+        <v>44027</v>
+      </c>
+      <c r="B1186" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1186" s="2">
+        <v>11025</v>
+      </c>
+      <c r="D1186" s="6">
+        <f t="shared" si="154"/>
+        <v>0.15964147637595749</v>
+      </c>
+      <c r="E1186" s="7">
+        <f t="shared" si="155"/>
+        <v>351</v>
+      </c>
+      <c r="F1186" s="6">
+        <f t="shared" si="156"/>
+        <v>0.15442146942366916</v>
+      </c>
+      <c r="G1186">
+        <v>14</v>
+      </c>
+      <c r="H1186" s="7">
+        <f t="shared" si="157"/>
+        <v>-23</v>
+      </c>
+      <c r="I1186" s="6">
+        <f t="shared" si="158"/>
+        <v>1.5945330296127564E-2</v>
+      </c>
+    </row>
+    <row r="1187" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1187" s="1">
+        <v>44027</v>
+      </c>
+      <c r="B1187" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1187" s="2">
+        <v>8621</v>
+      </c>
+      <c r="D1187" s="6">
+        <f t="shared" si="154"/>
+        <v>0.12483167055212059</v>
+      </c>
+      <c r="E1187" s="7">
+        <f t="shared" si="155"/>
+        <v>313</v>
+      </c>
+      <c r="F1187" s="6">
+        <f t="shared" si="156"/>
+        <v>0.13770347558293006</v>
+      </c>
+      <c r="G1187">
+        <v>38</v>
+      </c>
+      <c r="H1187" s="7">
+        <f t="shared" si="157"/>
+        <v>-42</v>
+      </c>
+      <c r="I1187" s="6">
+        <f t="shared" si="158"/>
+        <v>4.328018223234624E-2</v>
+      </c>
+    </row>
+    <row r="1188" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1188" s="1">
+        <v>44027</v>
+      </c>
+      <c r="B1188" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1188" s="2">
+        <v>4952</v>
+      </c>
+      <c r="D1188" s="6">
+        <f t="shared" si="154"/>
+        <v>7.1704724808502623E-2</v>
+      </c>
+      <c r="E1188" s="7">
+        <f t="shared" si="155"/>
+        <v>157</v>
+      </c>
+      <c r="F1188" s="6">
+        <f t="shared" si="156"/>
+        <v>6.907171139463264E-2</v>
+      </c>
+      <c r="G1188">
+        <v>84</v>
+      </c>
+      <c r="H1188" s="7">
+        <f t="shared" si="157"/>
+        <v>-62</v>
+      </c>
+      <c r="I1188" s="6">
+        <f t="shared" si="158"/>
+        <v>9.5671981776765377E-2</v>
+      </c>
+    </row>
+    <row r="1189" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1189" s="1">
+        <v>44027</v>
+      </c>
+      <c r="B1189" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1189" s="2">
+        <v>2583</v>
+      </c>
+      <c r="D1189" s="6">
+        <f t="shared" si="154"/>
+        <v>3.7401717322367183E-2</v>
+      </c>
+      <c r="E1189" s="7">
+        <f t="shared" si="155"/>
+        <v>100</v>
+      </c>
+      <c r="F1189" s="6">
+        <f t="shared" si="156"/>
+        <v>4.3994720633523977E-2</v>
+      </c>
+      <c r="G1189">
+        <v>148</v>
+      </c>
+      <c r="H1189" s="7">
+        <f t="shared" si="157"/>
+        <v>-80</v>
+      </c>
+      <c r="I1189" s="6">
+        <f t="shared" si="158"/>
+        <v>0.16856492027334852</v>
+      </c>
+    </row>
+    <row r="1190" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1190" s="1">
+        <v>44027</v>
+      </c>
+      <c r="B1190" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1190" s="2">
+        <v>1439</v>
+      </c>
+      <c r="D1190" s="6">
+        <f t="shared" si="154"/>
+        <v>2.0836651655782568E-2</v>
+      </c>
+      <c r="E1190" s="7">
+        <f t="shared" si="155"/>
+        <v>39</v>
+      </c>
+      <c r="F1190" s="6">
+        <f t="shared" si="156"/>
+        <v>1.7157941047074351E-2</v>
+      </c>
+      <c r="G1190">
+        <v>229</v>
+      </c>
+      <c r="H1190" s="7">
+        <f t="shared" si="157"/>
+        <v>-17</v>
+      </c>
+      <c r="I1190" s="6">
+        <f t="shared" si="158"/>
+        <v>0.26082004555808658</v>
+      </c>
+    </row>
+    <row r="1191" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1191" s="1">
+        <v>44027</v>
+      </c>
+      <c r="B1191" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1191" s="2">
+        <v>156</v>
+      </c>
+      <c r="D1191" s="6">
+        <f t="shared" si="154"/>
+        <v>2.2588725908979017E-3</v>
+      </c>
+      <c r="E1191" s="7">
+        <f t="shared" si="155"/>
+        <v>-28</v>
+      </c>
+      <c r="F1191" s="6">
+        <f t="shared" si="156"/>
+        <v>-1.2318521777386713E-2</v>
+      </c>
+      <c r="G1191">
+        <v>254</v>
+      </c>
+      <c r="H1191" s="7">
+        <f t="shared" si="157"/>
+        <v>254</v>
+      </c>
+      <c r="I1191" s="6">
+        <f t="shared" si="158"/>
+        <v>0.28929384965831434</v>
+      </c>
+    </row>
+    <row r="1192" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G1192">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/TN_Age.xlsx
+++ b/TN_Age.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1199" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1209" uniqueCount="26">
   <si>
     <t>0-10</t>
   </si>
@@ -440,11 +440,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I1192"/>
+  <dimension ref="A1:I1201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1173" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1182" sqref="C1182:C1191"/>
+      <pane ySplit="1" topLeftCell="A1179" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A1201" sqref="A1201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -38144,16 +38144,16 @@
         <f t="shared" ref="F1182:F1191" si="156">E1182/SUMIF(A:A,A1182,E:E)</f>
         <v>4.179498460184778E-2</v>
       </c>
-      <c r="G1182" s="2">
-        <v>95</v>
+      <c r="G1182">
+        <v>3</v>
       </c>
       <c r="H1182" s="7">
         <f t="shared" ref="H1182:H1191" si="157">G1182-SUMIFS(G:G,A:A,A1182-1,B:B,B1182)</f>
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="I1182" s="6">
         <f t="shared" ref="I1182:I1191" si="158">G1182/SUMIF(A:A,A1182,G:G)</f>
-        <v>0.10820045558086561</v>
+        <v>3.8314176245210726E-3</v>
       </c>
     </row>
     <row r="1183" spans="1:9" x14ac:dyDescent="0.3">
@@ -38179,15 +38179,15 @@
         <v>0.14210294764628245</v>
       </c>
       <c r="G1183">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H1183" s="7">
         <f t="shared" si="157"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1183" s="6">
         <f t="shared" si="158"/>
-        <v>3.4168564920273349E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1184" spans="1:9" x14ac:dyDescent="0.3">
@@ -38213,15 +38213,15 @@
         <v>0.23933128024637043</v>
       </c>
       <c r="G1184">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="H1184" s="7">
         <f t="shared" si="157"/>
-        <v>-13</v>
+        <v>0</v>
       </c>
       <c r="I1184" s="6">
         <f t="shared" si="158"/>
-        <v>0</v>
+        <v>1.6602809706257982E-2</v>
       </c>
     </row>
     <row r="1185" spans="1:9" x14ac:dyDescent="0.3">
@@ -38247,15 +38247,15 @@
         <v>0.16673999120105587</v>
       </c>
       <c r="G1185">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H1185" s="7">
         <f t="shared" si="157"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I1185" s="6">
         <f t="shared" si="158"/>
-        <v>1.4806378132118452E-2</v>
+        <v>1.7879948914431672E-2</v>
       </c>
     </row>
     <row r="1186" spans="1:9" x14ac:dyDescent="0.3">
@@ -38281,15 +38281,15 @@
         <v>0.15442146942366916</v>
       </c>
       <c r="G1186">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="H1186" s="7">
         <f t="shared" si="157"/>
-        <v>-23</v>
+        <v>1</v>
       </c>
       <c r="I1186" s="6">
         <f t="shared" si="158"/>
-        <v>1.5945330296127564E-2</v>
+        <v>4.8531289910600253E-2</v>
       </c>
     </row>
     <row r="1187" spans="1:9" x14ac:dyDescent="0.3">
@@ -38315,15 +38315,15 @@
         <v>0.13770347558293006</v>
       </c>
       <c r="G1187">
-        <v>38</v>
+        <v>84</v>
       </c>
       <c r="H1187" s="7">
         <f t="shared" si="157"/>
-        <v>-42</v>
+        <v>4</v>
       </c>
       <c r="I1187" s="6">
         <f t="shared" si="158"/>
-        <v>4.328018223234624E-2</v>
+        <v>0.10727969348659004</v>
       </c>
     </row>
     <row r="1188" spans="1:9" x14ac:dyDescent="0.3">
@@ -38349,15 +38349,15 @@
         <v>6.907171139463264E-2</v>
       </c>
       <c r="G1188">
-        <v>84</v>
+        <v>148</v>
       </c>
       <c r="H1188" s="7">
         <f t="shared" si="157"/>
-        <v>-62</v>
+        <v>2</v>
       </c>
       <c r="I1188" s="6">
         <f t="shared" si="158"/>
-        <v>9.5671981776765377E-2</v>
+        <v>0.18901660280970625</v>
       </c>
     </row>
     <row r="1189" spans="1:9" x14ac:dyDescent="0.3">
@@ -38383,15 +38383,15 @@
         <v>4.3994720633523977E-2</v>
       </c>
       <c r="G1189">
-        <v>148</v>
+        <v>229</v>
       </c>
       <c r="H1189" s="7">
         <f t="shared" si="157"/>
-        <v>-80</v>
+        <v>1</v>
       </c>
       <c r="I1189" s="6">
         <f t="shared" si="158"/>
-        <v>0.16856492027334852</v>
+        <v>0.29246487867177523</v>
       </c>
     </row>
     <row r="1190" spans="1:9" x14ac:dyDescent="0.3">
@@ -38417,15 +38417,15 @@
         <v>1.7157941047074351E-2</v>
       </c>
       <c r="G1190">
-        <v>229</v>
+        <v>254</v>
       </c>
       <c r="H1190" s="7">
         <f t="shared" si="157"/>
-        <v>-17</v>
+        <v>8</v>
       </c>
       <c r="I1190" s="6">
         <f t="shared" si="158"/>
-        <v>0.26082004555808658</v>
+        <v>0.32439335887611748</v>
       </c>
     </row>
     <row r="1191" spans="1:9" x14ac:dyDescent="0.3">
@@ -38451,19 +38451,354 @@
         <v>-1.2318521777386713E-2</v>
       </c>
       <c r="G1191">
-        <v>254</v>
+        <v>0</v>
       </c>
       <c r="H1191" s="7">
         <f t="shared" si="157"/>
-        <v>254</v>
+        <v>0</v>
       </c>
       <c r="I1191" s="6">
         <f t="shared" si="158"/>
-        <v>0.28929384965831434</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1192" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1192" s="1">
+        <v>44028</v>
+      </c>
+      <c r="B1192" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1192">
+        <v>3238</v>
+      </c>
+      <c r="D1192" s="6">
+        <f t="shared" ref="D1192:D1201" si="159">C1192/SUMIF(A:A,A1192,C:C)</f>
+        <v>4.5261392228124128E-2</v>
+      </c>
+      <c r="E1192" s="7">
+        <f t="shared" ref="E1192:E1201" si="160">C1192-SUMIFS(C:C,A:A,A1192-1,B:B,B1192)</f>
+        <v>118</v>
+      </c>
+      <c r="F1192" s="6">
+        <f t="shared" ref="F1192:F1201" si="161">E1192/SUMIF(A:A,A1192,E:E)</f>
+        <v>4.7599838644614763E-2</v>
+      </c>
       <c r="G1192">
+        <v>3</v>
+      </c>
+      <c r="H1192" s="7">
+        <f t="shared" ref="H1192:H1201" si="162">G1192-SUMIFS(G:G,A:A,A1192-1,B:B,B1192)</f>
+        <v>0</v>
+      </c>
+      <c r="I1192" s="6">
+        <f t="shared" ref="I1192:I1201" si="163">G1192/SUMIF(A:A,A1192,G:G)</f>
+        <v>3.7688442211055275E-3</v>
+      </c>
+    </row>
+    <row r="1193" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1193" s="1">
+        <v>44028</v>
+      </c>
+      <c r="B1193" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1193">
+        <v>7647</v>
+      </c>
+      <c r="D1193" s="6">
+        <f t="shared" si="159"/>
+        <v>0.10689124965054515</v>
+      </c>
+      <c r="E1193" s="7">
+        <f t="shared" si="160"/>
+        <v>391</v>
+      </c>
+      <c r="F1193" s="6">
+        <f t="shared" si="161"/>
+        <v>0.15772488906817264</v>
+      </c>
+      <c r="G1193">
+        <v>0</v>
+      </c>
+      <c r="H1193" s="7">
+        <f t="shared" si="162"/>
+        <v>0</v>
+      </c>
+      <c r="I1193" s="6">
+        <f t="shared" si="163"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1194" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1194" s="1">
+        <v>44028</v>
+      </c>
+      <c r="B1194" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1194">
+        <v>17151</v>
+      </c>
+      <c r="D1194" s="6">
+        <f t="shared" si="159"/>
+        <v>0.23974000559127762</v>
+      </c>
+      <c r="E1194" s="7">
+        <f t="shared" si="160"/>
+        <v>623</v>
+      </c>
+      <c r="F1194" s="6">
+        <f t="shared" si="161"/>
+        <v>0.25131101250504234</v>
+      </c>
+      <c r="G1194">
+        <v>12</v>
+      </c>
+      <c r="H1194" s="7">
+        <f t="shared" si="162"/>
+        <v>-1</v>
+      </c>
+      <c r="I1194" s="6">
+        <f t="shared" si="163"/>
+        <v>1.507537688442211E-2</v>
+      </c>
+    </row>
+    <row r="1195" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1195" s="1">
+        <v>44028</v>
+      </c>
+      <c r="B1195" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1195">
+        <v>13769</v>
+      </c>
+      <c r="D1195" s="6">
+        <f t="shared" si="159"/>
+        <v>0.19246575342465752</v>
+      </c>
+      <c r="E1195" s="7">
+        <f t="shared" si="160"/>
+        <v>388</v>
+      </c>
+      <c r="F1195" s="6">
+        <f t="shared" si="161"/>
+        <v>0.15651472367890279</v>
+      </c>
+      <c r="G1195">
+        <v>14</v>
+      </c>
+      <c r="H1195" s="7">
+        <f t="shared" si="162"/>
+        <v>0</v>
+      </c>
+      <c r="I1195" s="6">
+        <f t="shared" si="163"/>
+        <v>1.7587939698492462E-2</v>
+      </c>
+    </row>
+    <row r="1196" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1196" s="1">
+        <v>44028</v>
+      </c>
+      <c r="B1196" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1196">
+        <v>11344</v>
+      </c>
+      <c r="D1196" s="6">
+        <f t="shared" si="159"/>
+        <v>0.1585686329326251</v>
+      </c>
+      <c r="E1196" s="7">
+        <f t="shared" si="160"/>
+        <v>319</v>
+      </c>
+      <c r="F1196" s="6">
+        <f t="shared" si="161"/>
+        <v>0.12868091972569584</v>
+      </c>
+      <c r="G1196">
+        <v>38</v>
+      </c>
+      <c r="H1196" s="7">
+        <f t="shared" si="162"/>
+        <v>0</v>
+      </c>
+      <c r="I1196" s="6">
+        <f t="shared" si="163"/>
+        <v>4.7738693467336682E-2</v>
+      </c>
+    </row>
+    <row r="1197" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1197" s="1">
+        <v>44028</v>
+      </c>
+      <c r="B1197" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1197">
+        <v>8909</v>
+      </c>
+      <c r="D1197" s="6">
+        <f t="shared" si="159"/>
+        <v>0.12453173050041935</v>
+      </c>
+      <c r="E1197" s="7">
+        <f t="shared" si="160"/>
+        <v>288</v>
+      </c>
+      <c r="F1197" s="6">
+        <f t="shared" si="161"/>
+        <v>0.11617587736990723</v>
+      </c>
+      <c r="G1197">
+        <v>84</v>
+      </c>
+      <c r="H1197" s="7">
+        <f t="shared" si="162"/>
+        <v>0</v>
+      </c>
+      <c r="I1197" s="6">
+        <f t="shared" si="163"/>
+        <v>0.10552763819095477</v>
+      </c>
+    </row>
+    <row r="1198" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1198" s="1">
+        <v>44028</v>
+      </c>
+      <c r="B1198" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1198">
+        <v>5152</v>
+      </c>
+      <c r="D1198" s="6">
+        <f t="shared" si="159"/>
+        <v>7.2015655577299414E-2</v>
+      </c>
+      <c r="E1198" s="7">
+        <f t="shared" si="160"/>
+        <v>200</v>
+      </c>
+      <c r="F1198" s="6">
+        <f t="shared" si="161"/>
+        <v>8.0677692617991126E-2</v>
+      </c>
+      <c r="G1198">
+        <v>151</v>
+      </c>
+      <c r="H1198" s="7">
+        <f t="shared" si="162"/>
+        <v>3</v>
+      </c>
+      <c r="I1198" s="6">
+        <f t="shared" si="163"/>
+        <v>0.18969849246231155</v>
+      </c>
+    </row>
+    <row r="1199" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1199" s="1">
+        <v>44028</v>
+      </c>
+      <c r="B1199" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1199">
+        <v>2666</v>
+      </c>
+      <c r="D1199" s="6">
+        <f t="shared" si="159"/>
+        <v>3.7265865250209675E-2</v>
+      </c>
+      <c r="E1199" s="7">
+        <f t="shared" si="160"/>
+        <v>83</v>
+      </c>
+      <c r="F1199" s="6">
+        <f t="shared" si="161"/>
+        <v>3.3481242436466316E-2</v>
+      </c>
+      <c r="G1199">
+        <v>233</v>
+      </c>
+      <c r="H1199" s="7">
+        <f t="shared" si="162"/>
+        <v>4</v>
+      </c>
+      <c r="I1199" s="6">
+        <f t="shared" si="163"/>
+        <v>0.292713567839196</v>
+      </c>
+    </row>
+    <row r="1200" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1200" s="1">
+        <v>44028</v>
+      </c>
+      <c r="B1200" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1200">
+        <v>1491</v>
+      </c>
+      <c r="D1200" s="6">
+        <f t="shared" si="159"/>
+        <v>2.0841487279843446E-2</v>
+      </c>
+      <c r="E1200" s="7">
+        <f t="shared" si="160"/>
+        <v>52</v>
+      </c>
+      <c r="F1200" s="6">
+        <f t="shared" si="161"/>
+        <v>2.0976200080677694E-2</v>
+      </c>
+      <c r="G1200">
+        <v>261</v>
+      </c>
+      <c r="H1200" s="7">
+        <f t="shared" si="162"/>
+        <v>7</v>
+      </c>
+      <c r="I1200" s="6">
+        <f t="shared" si="163"/>
+        <v>0.32788944723618091</v>
+      </c>
+    </row>
+    <row r="1201" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1201" s="1">
+        <v>44028</v>
+      </c>
+      <c r="B1201" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1201">
+        <v>173</v>
+      </c>
+      <c r="D1201" s="6">
+        <f t="shared" si="159"/>
+        <v>2.4182275649986024E-3</v>
+      </c>
+      <c r="E1201" s="7">
+        <f t="shared" si="160"/>
+        <v>17</v>
+      </c>
+      <c r="F1201" s="6">
+        <f t="shared" si="161"/>
+        <v>6.8576038725292453E-3</v>
+      </c>
+      <c r="G1201">
+        <v>0</v>
+      </c>
+      <c r="H1201" s="7">
+        <f t="shared" si="162"/>
+        <v>0</v>
+      </c>
+      <c r="I1201" s="6">
+        <f t="shared" si="163"/>
         <v>0</v>
       </c>
     </row>

--- a/TN_Age.xlsx
+++ b/TN_Age.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1209" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1219" uniqueCount="26">
   <si>
     <t>0-10</t>
   </si>
@@ -440,11 +440,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I1201"/>
+  <dimension ref="A1:I1211"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1179" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A1201" sqref="A1201"/>
+      <pane ySplit="1" topLeftCell="A1191" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A1211" sqref="A1211"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -38802,6 +38802,346 @@
         <v>0</v>
       </c>
     </row>
+    <row r="1202" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1202" s="1">
+        <v>44029</v>
+      </c>
+      <c r="B1202" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1202">
+        <v>3341</v>
+      </c>
+      <c r="D1202" s="6">
+        <f t="shared" ref="D1202:D1211" si="164">C1202/SUMIF(A:A,A1202,C:C)</f>
+        <v>4.5259350573700535E-2</v>
+      </c>
+      <c r="E1202" s="7">
+        <f t="shared" ref="E1202:E1211" si="165">C1202-SUMIFS(C:C,A:A,A1202-1,B:B,B1202)</f>
+        <v>103</v>
+      </c>
+      <c r="F1202" s="6">
+        <f t="shared" ref="F1202:F1211" si="166">E1202/SUMIF(A:A,A1202,E:E)</f>
+        <v>4.5195261079420797E-2</v>
+      </c>
+      <c r="G1202" s="2">
+        <v>3</v>
+      </c>
+      <c r="H1202" s="7">
+        <f t="shared" ref="H1202:H1211" si="167">G1202-SUMIFS(G:G,A:A,A1202-1,B:B,B1202)</f>
+        <v>0</v>
+      </c>
+      <c r="I1202" s="6">
+        <f t="shared" ref="I1202:I1211" si="168">G1202/SUMIF(A:A,A1202,G:G)</f>
+        <v>3.6809815950920245E-3</v>
+      </c>
+    </row>
+    <row r="1203" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1203" s="1">
+        <v>44029</v>
+      </c>
+      <c r="B1203" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1203">
+        <v>7955</v>
+      </c>
+      <c r="D1203" s="6">
+        <f t="shared" si="164"/>
+        <v>0.10776358390116365</v>
+      </c>
+      <c r="E1203" s="7">
+        <f t="shared" si="165"/>
+        <v>308</v>
+      </c>
+      <c r="F1203" s="6">
+        <f t="shared" si="166"/>
+        <v>0.13514699429574376</v>
+      </c>
+      <c r="G1203" s="2">
+        <v>0</v>
+      </c>
+      <c r="H1203" s="7">
+        <f t="shared" si="167"/>
+        <v>0</v>
+      </c>
+      <c r="I1203" s="6">
+        <f t="shared" si="168"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1204" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1204" s="1">
+        <v>44029</v>
+      </c>
+      <c r="B1204" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1204">
+        <v>17727</v>
+      </c>
+      <c r="D1204" s="6">
+        <f t="shared" si="164"/>
+        <v>0.24014142700388788</v>
+      </c>
+      <c r="E1204" s="7">
+        <f t="shared" si="165"/>
+        <v>576</v>
+      </c>
+      <c r="F1204" s="6">
+        <f t="shared" si="166"/>
+        <v>0.25274243089074155</v>
+      </c>
+      <c r="G1204" s="2">
+        <v>12</v>
+      </c>
+      <c r="H1204" s="7">
+        <f t="shared" si="167"/>
+        <v>0</v>
+      </c>
+      <c r="I1204" s="6">
+        <f t="shared" si="168"/>
+        <v>1.4723926380368098E-2</v>
+      </c>
+    </row>
+    <row r="1205" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1205" s="1">
+        <v>44029</v>
+      </c>
+      <c r="B1205" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1205">
+        <v>14144</v>
+      </c>
+      <c r="D1205" s="6">
+        <f t="shared" si="164"/>
+        <v>0.1916037876427478</v>
+      </c>
+      <c r="E1205" s="7">
+        <f t="shared" si="165"/>
+        <v>375</v>
+      </c>
+      <c r="F1205" s="6">
+        <f t="shared" si="166"/>
+        <v>0.16454585344449321</v>
+      </c>
+      <c r="G1205" s="2">
+        <v>14</v>
+      </c>
+      <c r="H1205" s="7">
+        <f t="shared" si="167"/>
+        <v>0</v>
+      </c>
+      <c r="I1205" s="6">
+        <f t="shared" si="168"/>
+        <v>1.7177914110429449E-2</v>
+      </c>
+    </row>
+    <row r="1206" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1206" s="1">
+        <v>44029</v>
+      </c>
+      <c r="B1206" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1206">
+        <v>11685</v>
+      </c>
+      <c r="D1206" s="6">
+        <f t="shared" si="164"/>
+        <v>0.15829258050095504</v>
+      </c>
+      <c r="E1206" s="7">
+        <f t="shared" si="165"/>
+        <v>341</v>
+      </c>
+      <c r="F1206" s="6">
+        <f t="shared" si="166"/>
+        <v>0.14962702939885913</v>
+      </c>
+      <c r="G1206" s="2">
+        <v>39</v>
+      </c>
+      <c r="H1206" s="7">
+        <f t="shared" si="167"/>
+        <v>1</v>
+      </c>
+      <c r="I1206" s="6">
+        <f t="shared" si="168"/>
+        <v>4.785276073619632E-2</v>
+      </c>
+    </row>
+    <row r="1207" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1207" s="1">
+        <v>44029</v>
+      </c>
+      <c r="B1207" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1207">
+        <v>9205</v>
+      </c>
+      <c r="D1207" s="6">
+        <f t="shared" si="164"/>
+        <v>0.12469689375364067</v>
+      </c>
+      <c r="E1207" s="7">
+        <f t="shared" si="165"/>
+        <v>296</v>
+      </c>
+      <c r="F1207" s="6">
+        <f t="shared" si="166"/>
+        <v>0.12988152698551997</v>
+      </c>
+      <c r="G1207" s="2">
+        <v>87</v>
+      </c>
+      <c r="H1207" s="7">
+        <f t="shared" si="167"/>
+        <v>3</v>
+      </c>
+      <c r="I1207" s="6">
+        <f t="shared" si="168"/>
+        <v>0.10674846625766871</v>
+      </c>
+    </row>
+    <row r="1208" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1208" s="1">
+        <v>44029</v>
+      </c>
+      <c r="B1208" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1208">
+        <v>5325</v>
+      </c>
+      <c r="D1208" s="6">
+        <f t="shared" si="164"/>
+        <v>7.2135899971552037E-2</v>
+      </c>
+      <c r="E1208" s="7">
+        <f t="shared" si="165"/>
+        <v>173</v>
+      </c>
+      <c r="F1208" s="6">
+        <f t="shared" si="166"/>
+        <v>7.59104870557262E-2</v>
+      </c>
+      <c r="G1208" s="2">
+        <v>154</v>
+      </c>
+      <c r="H1208" s="7">
+        <f t="shared" si="167"/>
+        <v>3</v>
+      </c>
+      <c r="I1208" s="6">
+        <f t="shared" si="168"/>
+        <v>0.18895705521472392</v>
+      </c>
+    </row>
+    <row r="1209" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1209" s="1">
+        <v>44029</v>
+      </c>
+      <c r="B1209" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1209">
+        <v>2750</v>
+      </c>
+      <c r="D1209" s="6">
+        <f t="shared" si="164"/>
+        <v>3.7253281675449411E-2</v>
+      </c>
+      <c r="E1209" s="7">
+        <f t="shared" si="165"/>
+        <v>84</v>
+      </c>
+      <c r="F1209" s="6">
+        <f t="shared" si="166"/>
+        <v>3.6858271171566474E-2</v>
+      </c>
+      <c r="G1209" s="2">
+        <v>237</v>
+      </c>
+      <c r="H1209" s="7">
+        <f t="shared" si="167"/>
+        <v>4</v>
+      </c>
+      <c r="I1209" s="6">
+        <f t="shared" si="168"/>
+        <v>0.29079754601226993</v>
+      </c>
+    </row>
+    <row r="1210" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1210" s="1">
+        <v>44029</v>
+      </c>
+      <c r="B1210" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1210">
+        <v>1536</v>
+      </c>
+      <c r="D1210" s="6">
+        <f t="shared" si="164"/>
+        <v>2.0807651146723744E-2</v>
+      </c>
+      <c r="E1210" s="7">
+        <f t="shared" si="165"/>
+        <v>45</v>
+      </c>
+      <c r="F1210" s="6">
+        <f t="shared" si="166"/>
+        <v>1.9745502413339184E-2</v>
+      </c>
+      <c r="G1210" s="2">
+        <v>269</v>
+      </c>
+      <c r="H1210" s="7">
+        <f t="shared" si="167"/>
+        <v>8</v>
+      </c>
+      <c r="I1210" s="6">
+        <f t="shared" si="168"/>
+        <v>0.33006134969325152</v>
+      </c>
+    </row>
+    <row r="1211" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1211" s="1">
+        <v>44029</v>
+      </c>
+      <c r="B1211" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1211">
+        <v>151</v>
+      </c>
+      <c r="D1211" s="6">
+        <f t="shared" si="164"/>
+        <v>2.0455438301792222E-3</v>
+      </c>
+      <c r="E1211" s="7">
+        <f t="shared" si="165"/>
+        <v>-22</v>
+      </c>
+      <c r="F1211" s="6">
+        <f t="shared" si="166"/>
+        <v>-9.6533567354102675E-3</v>
+      </c>
+      <c r="G1211" s="2">
+        <v>0</v>
+      </c>
+      <c r="H1211" s="7">
+        <f t="shared" si="167"/>
+        <v>0</v>
+      </c>
+      <c r="I1211" s="6">
+        <f t="shared" si="168"/>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/TN_Age.xlsx
+++ b/TN_Age.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1219" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1229" uniqueCount="26">
   <si>
     <t>0-10</t>
   </si>
@@ -440,11 +440,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I1211"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1191" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A1211" sqref="A1211"/>
+      <pane ySplit="1" topLeftCell="A1200" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A1221" sqref="A1221"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -39142,6 +39142,346 @@
         <v>0</v>
       </c>
     </row>
+    <row r="1212" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1212" s="1">
+        <v>44030</v>
+      </c>
+      <c r="B1212" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1212">
+        <v>3474</v>
+      </c>
+      <c r="D1212" s="6">
+        <f t="shared" ref="D1212:D1221" si="169">C1212/SUMIF(A:A,A1212,C:C)</f>
+        <v>4.5509327185076505E-2</v>
+      </c>
+      <c r="E1212" s="7">
+        <f t="shared" ref="E1212:E1221" si="170">C1212-SUMIFS(C:C,A:A,A1212-1,B:B,B1212)</f>
+        <v>133</v>
+      </c>
+      <c r="F1212" s="6">
+        <f t="shared" ref="F1212:F1221" si="171">E1212/SUMIF(A:A,A1212,E:E)</f>
+        <v>5.2840683353198255E-2</v>
+      </c>
+      <c r="G1212">
+        <v>3</v>
+      </c>
+      <c r="H1212" s="7">
+        <f t="shared" ref="H1212:H1221" si="172">G1212-SUMIFS(G:G,A:A,A1212-1,B:B,B1212)</f>
+        <v>0</v>
+      </c>
+      <c r="I1212" s="6">
+        <f t="shared" ref="I1212:I1221" si="173">G1212/SUMIF(A:A,A1212,G:G)</f>
+        <v>3.5799522673031028E-3</v>
+      </c>
+    </row>
+    <row r="1213" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1213" s="1">
+        <v>44030</v>
+      </c>
+      <c r="B1213" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1213">
+        <v>8278</v>
+      </c>
+      <c r="D1213" s="6">
+        <f t="shared" si="169"/>
+        <v>0.10844162649339761</v>
+      </c>
+      <c r="E1213" s="7">
+        <f t="shared" si="170"/>
+        <v>323</v>
+      </c>
+      <c r="F1213" s="6">
+        <f t="shared" si="171"/>
+        <v>0.12832737385776719</v>
+      </c>
+      <c r="G1213">
+        <v>0</v>
+      </c>
+      <c r="H1213" s="7">
+        <f t="shared" si="172"/>
+        <v>0</v>
+      </c>
+      <c r="I1213" s="6">
+        <f t="shared" si="173"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1214" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1214" s="1">
+        <v>44030</v>
+      </c>
+      <c r="B1214" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1214">
+        <v>18318</v>
+      </c>
+      <c r="D1214" s="6">
+        <f t="shared" si="169"/>
+        <v>0.23996541605533431</v>
+      </c>
+      <c r="E1214" s="7">
+        <f t="shared" si="170"/>
+        <v>591</v>
+      </c>
+      <c r="F1214" s="6">
+        <f t="shared" si="171"/>
+        <v>0.23480333730631706</v>
+      </c>
+      <c r="G1214">
+        <v>12</v>
+      </c>
+      <c r="H1214" s="7">
+        <f t="shared" si="172"/>
+        <v>0</v>
+      </c>
+      <c r="I1214" s="6">
+        <f t="shared" si="173"/>
+        <v>1.4319809069212411E-2</v>
+      </c>
+    </row>
+    <row r="1215" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1215" s="1">
+        <v>44030</v>
+      </c>
+      <c r="B1215" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1215">
+        <v>14575</v>
+      </c>
+      <c r="D1215" s="6">
+        <f t="shared" si="169"/>
+        <v>0.19093219450848878</v>
+      </c>
+      <c r="E1215" s="7">
+        <f t="shared" si="170"/>
+        <v>431</v>
+      </c>
+      <c r="F1215" s="6">
+        <f t="shared" si="171"/>
+        <v>0.17123559793404847</v>
+      </c>
+      <c r="G1215">
+        <v>14</v>
+      </c>
+      <c r="H1215" s="7">
+        <f t="shared" si="172"/>
+        <v>0</v>
+      </c>
+      <c r="I1215" s="6">
+        <f t="shared" si="173"/>
+        <v>1.6706443914081145E-2</v>
+      </c>
+    </row>
+    <row r="1216" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1216" s="1">
+        <v>44030</v>
+      </c>
+      <c r="B1216" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1216">
+        <v>12070</v>
+      </c>
+      <c r="D1216" s="6">
+        <f t="shared" si="169"/>
+        <v>0.15811674701320477</v>
+      </c>
+      <c r="E1216" s="7">
+        <f t="shared" si="170"/>
+        <v>385</v>
+      </c>
+      <c r="F1216" s="6">
+        <f t="shared" si="171"/>
+        <v>0.15295987286452126</v>
+      </c>
+      <c r="G1216">
+        <v>40</v>
+      </c>
+      <c r="H1216" s="7">
+        <f t="shared" si="172"/>
+        <v>1</v>
+      </c>
+      <c r="I1216" s="6">
+        <f t="shared" si="173"/>
+        <v>4.77326968973747E-2</v>
+      </c>
+    </row>
+    <row r="1217" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1217" s="1">
+        <v>44030</v>
+      </c>
+      <c r="B1217" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1217">
+        <v>9501</v>
+      </c>
+      <c r="D1217" s="6">
+        <f t="shared" si="169"/>
+        <v>0.12446290085935863</v>
+      </c>
+      <c r="E1217" s="7">
+        <f t="shared" si="170"/>
+        <v>296</v>
+      </c>
+      <c r="F1217" s="6">
+        <f t="shared" si="171"/>
+        <v>0.11760031783869686</v>
+      </c>
+      <c r="G1217">
+        <v>93</v>
+      </c>
+      <c r="H1217" s="7">
+        <f t="shared" si="172"/>
+        <v>6</v>
+      </c>
+      <c r="I1217" s="6">
+        <f t="shared" si="173"/>
+        <v>0.11097852028639618</v>
+      </c>
+    </row>
+    <row r="1218" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1218" s="1">
+        <v>44030</v>
+      </c>
+      <c r="B1218" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1218">
+        <v>5513</v>
+      </c>
+      <c r="D1218" s="6">
+        <f t="shared" si="169"/>
+        <v>7.222018444770488E-2</v>
+      </c>
+      <c r="E1218" s="7">
+        <f t="shared" si="170"/>
+        <v>188</v>
+      </c>
+      <c r="F1218" s="6">
+        <f t="shared" si="171"/>
+        <v>7.4692093762415576E-2</v>
+      </c>
+      <c r="G1218">
+        <v>158</v>
+      </c>
+      <c r="H1218" s="7">
+        <f t="shared" si="172"/>
+        <v>4</v>
+      </c>
+      <c r="I1218" s="6">
+        <f t="shared" si="173"/>
+        <v>0.18854415274463007</v>
+      </c>
+    </row>
+    <row r="1219" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1219" s="1">
+        <v>44030</v>
+      </c>
+      <c r="B1219" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1219">
+        <v>2839</v>
+      </c>
+      <c r="D1219" s="6">
+        <f t="shared" si="169"/>
+        <v>3.7190840494655208E-2</v>
+      </c>
+      <c r="E1219" s="7">
+        <f t="shared" si="170"/>
+        <v>89</v>
+      </c>
+      <c r="F1219" s="6">
+        <f t="shared" si="171"/>
+        <v>3.5359555025824392E-2</v>
+      </c>
+      <c r="G1219">
+        <v>240</v>
+      </c>
+      <c r="H1219" s="7">
+        <f t="shared" si="172"/>
+        <v>3</v>
+      </c>
+      <c r="I1219" s="6">
+        <f t="shared" si="173"/>
+        <v>0.28639618138424822</v>
+      </c>
+    </row>
+    <row r="1220" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1220" s="1">
+        <v>44030</v>
+      </c>
+      <c r="B1220" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1220">
+        <v>1613</v>
+      </c>
+      <c r="D1220" s="6">
+        <f t="shared" si="169"/>
+        <v>2.1130266191574095E-2</v>
+      </c>
+      <c r="E1220" s="7">
+        <f t="shared" si="170"/>
+        <v>77</v>
+      </c>
+      <c r="F1220" s="6">
+        <f t="shared" si="171"/>
+        <v>3.0591974572904253E-2</v>
+      </c>
+      <c r="G1220">
+        <v>278</v>
+      </c>
+      <c r="H1220" s="7">
+        <f t="shared" si="172"/>
+        <v>9</v>
+      </c>
+      <c r="I1220" s="6">
+        <f t="shared" si="173"/>
+        <v>0.33174224343675418</v>
+      </c>
+    </row>
+    <row r="1221" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1221" s="1">
+        <v>44030</v>
+      </c>
+      <c r="B1221" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1221">
+        <v>155</v>
+      </c>
+      <c r="D1221" s="6">
+        <f t="shared" si="169"/>
+        <v>2.030496751205198E-3</v>
+      </c>
+      <c r="E1221" s="7">
+        <f t="shared" si="170"/>
+        <v>4</v>
+      </c>
+      <c r="F1221" s="6">
+        <f t="shared" si="171"/>
+        <v>1.5891934843067143E-3</v>
+      </c>
+      <c r="G1221">
+        <v>0</v>
+      </c>
+      <c r="H1221" s="7">
+        <f t="shared" si="172"/>
+        <v>0</v>
+      </c>
+      <c r="I1221" s="6">
+        <f t="shared" si="173"/>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/TN_Age.xlsx
+++ b/TN_Age.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1229" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1239" uniqueCount="26">
   <si>
     <t>0-10</t>
   </si>
@@ -440,11 +440,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1231"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A1200" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A1221" sqref="A1221"/>
+      <selection pane="bottomLeft" activeCell="A1232" sqref="A1232"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -39482,6 +39482,346 @@
         <v>0</v>
       </c>
     </row>
+    <row r="1222" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1222" s="1">
+        <v>44031</v>
+      </c>
+      <c r="B1222" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1222">
+        <v>3578</v>
+      </c>
+      <c r="D1222" s="6">
+        <f t="shared" ref="D1222:D1231" si="174">C1222/SUMIF(A:A,A1222,C:C)</f>
+        <v>4.5804262945657044E-2</v>
+      </c>
+      <c r="E1222" s="7">
+        <f t="shared" ref="E1222:E1231" si="175">C1222-SUMIFS(C:C,A:A,A1222-1,B:B,B1222)</f>
+        <v>104</v>
+      </c>
+      <c r="F1222" s="6">
+        <f t="shared" ref="F1222:F1231" si="176">E1222/SUMIF(A:A,A1222,E:E)</f>
+        <v>5.8459808881394043E-2</v>
+      </c>
+      <c r="G1222">
+        <v>3</v>
+      </c>
+      <c r="H1222" s="7">
+        <f t="shared" ref="H1222:H1231" si="177">G1222-SUMIFS(G:G,A:A,A1222-1,B:B,B1222)</f>
+        <v>0</v>
+      </c>
+      <c r="I1222" s="6">
+        <f t="shared" ref="I1222:I1231" si="178">G1222/SUMIF(A:A,A1222,G:G)</f>
+        <v>3.5587188612099642E-3</v>
+      </c>
+    </row>
+    <row r="1223" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1223" s="1">
+        <v>44031</v>
+      </c>
+      <c r="B1223" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1223">
+        <v>8529</v>
+      </c>
+      <c r="D1223" s="6">
+        <f t="shared" si="174"/>
+        <v>0.10918517570248992</v>
+      </c>
+      <c r="E1223" s="7">
+        <f t="shared" si="175"/>
+        <v>251</v>
+      </c>
+      <c r="F1223" s="6">
+        <f t="shared" si="176"/>
+        <v>0.14109050028105677</v>
+      </c>
+      <c r="G1223">
+        <v>0</v>
+      </c>
+      <c r="H1223" s="7">
+        <f t="shared" si="177"/>
+        <v>0</v>
+      </c>
+      <c r="I1223" s="6">
+        <f t="shared" si="178"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1224" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1224" s="1">
+        <v>44031</v>
+      </c>
+      <c r="B1224" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1224">
+        <v>18730</v>
+      </c>
+      <c r="D1224" s="6">
+        <f t="shared" si="174"/>
+        <v>0.23977469116046854</v>
+      </c>
+      <c r="E1224" s="7">
+        <f t="shared" si="175"/>
+        <v>412</v>
+      </c>
+      <c r="F1224" s="6">
+        <f t="shared" si="176"/>
+        <v>0.23159078133783023</v>
+      </c>
+      <c r="G1224">
+        <v>12</v>
+      </c>
+      <c r="H1224" s="7">
+        <f t="shared" si="177"/>
+        <v>0</v>
+      </c>
+      <c r="I1224" s="6">
+        <f t="shared" si="178"/>
+        <v>1.4234875444839857E-2</v>
+      </c>
+    </row>
+    <row r="1225" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1225" s="1">
+        <v>44031</v>
+      </c>
+      <c r="B1225" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1225">
+        <v>14881</v>
+      </c>
+      <c r="D1225" s="6">
+        <f t="shared" si="174"/>
+        <v>0.19050118415157141</v>
+      </c>
+      <c r="E1225" s="7">
+        <f t="shared" si="175"/>
+        <v>306</v>
+      </c>
+      <c r="F1225" s="6">
+        <f t="shared" si="176"/>
+        <v>0.17200674536256325</v>
+      </c>
+      <c r="G1225">
+        <v>14</v>
+      </c>
+      <c r="H1225" s="7">
+        <f t="shared" si="177"/>
+        <v>0</v>
+      </c>
+      <c r="I1225" s="6">
+        <f t="shared" si="178"/>
+        <v>1.6607354685646499E-2</v>
+      </c>
+    </row>
+    <row r="1226" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1226" s="1">
+        <v>44031</v>
+      </c>
+      <c r="B1226" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1226">
+        <v>12317</v>
+      </c>
+      <c r="D1226" s="6">
+        <f t="shared" si="174"/>
+        <v>0.15767778275619279</v>
+      </c>
+      <c r="E1226" s="7">
+        <f t="shared" si="175"/>
+        <v>247</v>
+      </c>
+      <c r="F1226" s="6">
+        <f t="shared" si="176"/>
+        <v>0.13884204609331086</v>
+      </c>
+      <c r="G1226">
+        <v>41</v>
+      </c>
+      <c r="H1226" s="7">
+        <f t="shared" si="177"/>
+        <v>1</v>
+      </c>
+      <c r="I1226" s="6">
+        <f t="shared" si="178"/>
+        <v>4.8635824436536183E-2</v>
+      </c>
+    </row>
+    <row r="1227" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1227" s="1">
+        <v>44031</v>
+      </c>
+      <c r="B1227" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1227">
+        <v>9695</v>
+      </c>
+      <c r="D1227" s="6">
+        <f t="shared" si="174"/>
+        <v>0.12411188632144915</v>
+      </c>
+      <c r="E1227" s="7">
+        <f t="shared" si="175"/>
+        <v>194</v>
+      </c>
+      <c r="F1227" s="6">
+        <f t="shared" si="176"/>
+        <v>0.10905002810567735</v>
+      </c>
+      <c r="G1227">
+        <v>94</v>
+      </c>
+      <c r="H1227" s="7">
+        <f t="shared" si="177"/>
+        <v>1</v>
+      </c>
+      <c r="I1227" s="6">
+        <f t="shared" si="178"/>
+        <v>0.11150652431791222</v>
+      </c>
+    </row>
+    <row r="1228" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1228" s="1">
+        <v>44031</v>
+      </c>
+      <c r="B1228" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1228">
+        <v>5646</v>
+      </c>
+      <c r="D1228" s="6">
+        <f t="shared" si="174"/>
+        <v>7.2278051590603604E-2</v>
+      </c>
+      <c r="E1228" s="7">
+        <f t="shared" si="175"/>
+        <v>133</v>
+      </c>
+      <c r="F1228" s="6">
+        <f t="shared" si="176"/>
+        <v>7.4761101742551989E-2</v>
+      </c>
+      <c r="G1228">
+        <v>158</v>
+      </c>
+      <c r="H1228" s="7">
+        <f t="shared" si="177"/>
+        <v>0</v>
+      </c>
+      <c r="I1228" s="6">
+        <f t="shared" si="178"/>
+        <v>0.1874258600237248</v>
+      </c>
+    </row>
+    <row r="1229" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1229" s="1">
+        <v>44031</v>
+      </c>
+      <c r="B1229" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1229">
+        <v>2919</v>
+      </c>
+      <c r="D1229" s="6">
+        <f t="shared" si="174"/>
+        <v>3.7367983101837032E-2</v>
+      </c>
+      <c r="E1229" s="7">
+        <f t="shared" si="175"/>
+        <v>80</v>
+      </c>
+      <c r="F1229" s="6">
+        <f t="shared" si="176"/>
+        <v>4.4969083754918496E-2</v>
+      </c>
+      <c r="G1229">
+        <v>243</v>
+      </c>
+      <c r="H1229" s="7">
+        <f t="shared" si="177"/>
+        <v>3</v>
+      </c>
+      <c r="I1229" s="6">
+        <f t="shared" si="178"/>
+        <v>0.28825622775800713</v>
+      </c>
+    </row>
+    <row r="1230" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1230" s="1">
+        <v>44031</v>
+      </c>
+      <c r="B1230" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1230">
+        <v>1664</v>
+      </c>
+      <c r="D1230" s="6">
+        <f t="shared" si="174"/>
+        <v>2.1301926646610767E-2</v>
+      </c>
+      <c r="E1230" s="7">
+        <f t="shared" si="175"/>
+        <v>51</v>
+      </c>
+      <c r="F1230" s="6">
+        <f t="shared" si="176"/>
+        <v>2.866779089376054E-2</v>
+      </c>
+      <c r="G1230">
+        <v>278</v>
+      </c>
+      <c r="H1230" s="7">
+        <f t="shared" si="177"/>
+        <v>0</v>
+      </c>
+      <c r="I1230" s="6">
+        <f t="shared" si="178"/>
+        <v>0.32977461447212336</v>
+      </c>
+    </row>
+    <row r="1231" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1231" s="1">
+        <v>44031</v>
+      </c>
+      <c r="B1231" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1231">
+        <v>156</v>
+      </c>
+      <c r="D1231" s="6">
+        <f t="shared" si="174"/>
+        <v>1.9970556231197595E-3</v>
+      </c>
+      <c r="E1231" s="7">
+        <f t="shared" si="175"/>
+        <v>1</v>
+      </c>
+      <c r="F1231" s="6">
+        <f t="shared" si="176"/>
+        <v>5.6211354693648118E-4</v>
+      </c>
+      <c r="G1231">
+        <v>0</v>
+      </c>
+      <c r="H1231" s="7">
+        <f t="shared" si="177"/>
+        <v>0</v>
+      </c>
+      <c r="I1231" s="6">
+        <f t="shared" si="178"/>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/TN_Age.xlsx
+++ b/TN_Age.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1239" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1249" uniqueCount="26">
   <si>
     <t>0-10</t>
   </si>
@@ -440,11 +440,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I1231"/>
+  <dimension ref="A1:I1241"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1200" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A1232" sqref="A1232"/>
+      <pane ySplit="1" topLeftCell="A1218" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A1242" sqref="A1242"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -39822,6 +39822,346 @@
         <v>0</v>
       </c>
     </row>
+    <row r="1232" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1232" s="1">
+        <v>44032</v>
+      </c>
+      <c r="B1232" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1232">
+        <v>3647</v>
+      </c>
+      <c r="D1232" s="6">
+        <f t="shared" ref="D1232:D1241" si="179">C1232/SUMIF(A:A,A1232,C:C)</f>
+        <v>4.572811395039747E-2</v>
+      </c>
+      <c r="E1232" s="7">
+        <f t="shared" ref="E1232:E1241" si="180">C1232-SUMIFS(C:C,A:A,A1232-1,B:B,B1232)</f>
+        <v>69</v>
+      </c>
+      <c r="F1232" s="6">
+        <f t="shared" ref="F1232:F1241" si="181">E1232/SUMIF(A:A,A1232,E:E)</f>
+        <v>4.2098840756558877E-2</v>
+      </c>
+      <c r="G1232">
+        <v>3</v>
+      </c>
+      <c r="H1232" s="7">
+        <f t="shared" ref="H1232:H1241" si="182">G1232-SUMIFS(G:G,A:A,A1232-1,B:B,B1232)</f>
+        <v>0</v>
+      </c>
+      <c r="I1232" s="6">
+        <f t="shared" ref="I1232:I1241" si="183">G1232/SUMIF(A:A,A1232,G:G)</f>
+        <v>3.5419126328217238E-3</v>
+      </c>
+    </row>
+    <row r="1233" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1233" s="1">
+        <v>44032</v>
+      </c>
+      <c r="B1233" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1233">
+        <v>8757</v>
+      </c>
+      <c r="D1233" s="6">
+        <f t="shared" si="179"/>
+        <v>0.10980013541640544</v>
+      </c>
+      <c r="E1233" s="7">
+        <f t="shared" si="180"/>
+        <v>228</v>
+      </c>
+      <c r="F1233" s="6">
+        <f t="shared" si="181"/>
+        <v>0.13910921293471629</v>
+      </c>
+      <c r="G1233">
+        <v>0</v>
+      </c>
+      <c r="H1233" s="7">
+        <f t="shared" si="182"/>
+        <v>0</v>
+      </c>
+      <c r="I1233" s="6">
+        <f t="shared" si="183"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1234" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1234" s="1">
+        <v>44032</v>
+      </c>
+      <c r="B1234" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1234">
+        <v>19112</v>
+      </c>
+      <c r="D1234" s="6">
+        <f t="shared" si="179"/>
+        <v>0.23963688341650574</v>
+      </c>
+      <c r="E1234" s="7">
+        <f t="shared" si="180"/>
+        <v>382</v>
+      </c>
+      <c r="F1234" s="6">
+        <f t="shared" si="181"/>
+        <v>0.23306894447834045</v>
+      </c>
+      <c r="G1234">
+        <v>12</v>
+      </c>
+      <c r="H1234" s="7">
+        <f t="shared" si="182"/>
+        <v>0</v>
+      </c>
+      <c r="I1234" s="6">
+        <f t="shared" si="183"/>
+        <v>1.4167650531286895E-2</v>
+      </c>
+    </row>
+    <row r="1235" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1235" s="1">
+        <v>44032</v>
+      </c>
+      <c r="B1235" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1235">
+        <v>15143</v>
+      </c>
+      <c r="D1235" s="6">
+        <f t="shared" si="179"/>
+        <v>0.18987135441482558</v>
+      </c>
+      <c r="E1235" s="7">
+        <f t="shared" si="180"/>
+        <v>262</v>
+      </c>
+      <c r="F1235" s="6">
+        <f t="shared" si="181"/>
+        <v>0.15985356924954242</v>
+      </c>
+      <c r="G1235">
+        <v>14</v>
+      </c>
+      <c r="H1235" s="7">
+        <f t="shared" si="182"/>
+        <v>0</v>
+      </c>
+      <c r="I1235" s="6">
+        <f t="shared" si="183"/>
+        <v>1.6528925619834711E-2</v>
+      </c>
+    </row>
+    <row r="1236" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1236" s="1">
+        <v>44032</v>
+      </c>
+      <c r="B1236" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1236">
+        <v>12603</v>
+      </c>
+      <c r="D1236" s="6">
+        <f t="shared" si="179"/>
+        <v>0.15802342202271985</v>
+      </c>
+      <c r="E1236" s="7">
+        <f t="shared" si="180"/>
+        <v>286</v>
+      </c>
+      <c r="F1236" s="6">
+        <f t="shared" si="181"/>
+        <v>0.17449664429530201</v>
+      </c>
+      <c r="G1236">
+        <v>41</v>
+      </c>
+      <c r="H1236" s="7">
+        <f t="shared" si="182"/>
+        <v>0</v>
+      </c>
+      <c r="I1236" s="6">
+        <f t="shared" si="183"/>
+        <v>4.8406139315230225E-2</v>
+      </c>
+    </row>
+    <row r="1237" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1237" s="1">
+        <v>44032</v>
+      </c>
+      <c r="B1237" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1237">
+        <v>9884</v>
+      </c>
+      <c r="D1237" s="6">
+        <f t="shared" si="179"/>
+        <v>0.12393108809589487</v>
+      </c>
+      <c r="E1237" s="7">
+        <f t="shared" si="180"/>
+        <v>189</v>
+      </c>
+      <c r="F1237" s="6">
+        <f t="shared" si="181"/>
+        <v>0.11531421598535692</v>
+      </c>
+      <c r="G1237">
+        <v>94</v>
+      </c>
+      <c r="H1237" s="7">
+        <f t="shared" si="182"/>
+        <v>0</v>
+      </c>
+      <c r="I1237" s="6">
+        <f t="shared" si="183"/>
+        <v>0.11097992916174734</v>
+      </c>
+    </row>
+    <row r="1238" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1238" s="1">
+        <v>44032</v>
+      </c>
+      <c r="B1238" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1238">
+        <v>5760</v>
+      </c>
+      <c r="D1238" s="6">
+        <f t="shared" si="179"/>
+        <v>7.2222082904932663E-2</v>
+      </c>
+      <c r="E1238" s="7">
+        <f t="shared" si="180"/>
+        <v>114</v>
+      </c>
+      <c r="F1238" s="6">
+        <f t="shared" si="181"/>
+        <v>6.9554606467358143E-2</v>
+      </c>
+      <c r="G1238">
+        <v>159</v>
+      </c>
+      <c r="H1238" s="7">
+        <f t="shared" si="182"/>
+        <v>1</v>
+      </c>
+      <c r="I1238" s="6">
+        <f t="shared" si="183"/>
+        <v>0.18772136953955135</v>
+      </c>
+    </row>
+    <row r="1239" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1239" s="1">
+        <v>44032</v>
+      </c>
+      <c r="B1239" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1239">
+        <v>2999</v>
+      </c>
+      <c r="D1239" s="6">
+        <f t="shared" si="179"/>
+        <v>3.7603129623592545E-2</v>
+      </c>
+      <c r="E1239" s="7">
+        <f t="shared" si="180"/>
+        <v>80</v>
+      </c>
+      <c r="F1239" s="6">
+        <f t="shared" si="181"/>
+        <v>4.8810250152532035E-2</v>
+      </c>
+      <c r="G1239">
+        <v>243</v>
+      </c>
+      <c r="H1239" s="7">
+        <f t="shared" si="182"/>
+        <v>0</v>
+      </c>
+      <c r="I1239" s="6">
+        <f t="shared" si="183"/>
+        <v>0.28689492325855964</v>
+      </c>
+    </row>
+    <row r="1240" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1240" s="1">
+        <v>44032</v>
+      </c>
+      <c r="B1240" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1240">
+        <v>1691</v>
+      </c>
+      <c r="D1240" s="6">
+        <f t="shared" si="179"/>
+        <v>2.1202698297264087E-2</v>
+      </c>
+      <c r="E1240" s="7">
+        <f t="shared" si="180"/>
+        <v>27</v>
+      </c>
+      <c r="F1240" s="6">
+        <f t="shared" si="181"/>
+        <v>1.6473459426479559E-2</v>
+      </c>
+      <c r="G1240">
+        <v>281</v>
+      </c>
+      <c r="H1240" s="7">
+        <f t="shared" si="182"/>
+        <v>3</v>
+      </c>
+      <c r="I1240" s="6">
+        <f t="shared" si="183"/>
+        <v>0.33175914994096811</v>
+      </c>
+    </row>
+    <row r="1241" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1241" s="1">
+        <v>44032</v>
+      </c>
+      <c r="B1241" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1241">
+        <v>158</v>
+      </c>
+      <c r="D1241" s="6">
+        <f t="shared" si="179"/>
+        <v>1.9810918574616949E-3</v>
+      </c>
+      <c r="E1241" s="7">
+        <f t="shared" si="180"/>
+        <v>2</v>
+      </c>
+      <c r="F1241" s="6">
+        <f t="shared" si="181"/>
+        <v>1.2202562538133007E-3</v>
+      </c>
+      <c r="G1241">
+        <v>0</v>
+      </c>
+      <c r="H1241" s="7">
+        <f t="shared" si="182"/>
+        <v>0</v>
+      </c>
+      <c r="I1241" s="6">
+        <f t="shared" si="183"/>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/TN_Age.xlsx
+++ b/TN_Age.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1249" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1259" uniqueCount="26">
   <si>
     <t>0-10</t>
   </si>
@@ -440,11 +440,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I1241"/>
+  <dimension ref="A1:I1251"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1218" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A1242" sqref="A1242"/>
+      <pane ySplit="1" topLeftCell="A1236" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A1251" sqref="A1251"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -40162,6 +40162,346 @@
         <v>0</v>
       </c>
     </row>
+    <row r="1242" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1242" s="1">
+        <v>44033</v>
+      </c>
+      <c r="B1242" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1242">
+        <v>3734</v>
+      </c>
+      <c r="D1242" s="6">
+        <f t="shared" ref="D1242:D1251" si="184">C1242/SUMIF(A:A,A1242,C:C)</f>
+        <v>4.5567704773991996E-2</v>
+      </c>
+      <c r="E1242" s="7">
+        <f t="shared" ref="E1242:E1251" si="185">C1242-SUMIFS(C:C,A:A,A1242-1,B:B,B1242)</f>
+        <v>87</v>
+      </c>
+      <c r="F1242" s="6">
+        <f t="shared" ref="F1242:F1251" si="186">E1242/SUMIF(A:A,A1242,E:E)</f>
+        <v>3.9726027397260277E-2</v>
+      </c>
+      <c r="G1242" s="2">
+        <v>3</v>
+      </c>
+      <c r="H1242" s="7">
+        <f t="shared" ref="H1242:H1251" si="187">G1242-SUMIFS(G:G,A:A,A1242-1,B:B,B1242)</f>
+        <v>0</v>
+      </c>
+      <c r="I1242" s="6">
+        <f t="shared" ref="I1242:I1251" si="188">G1242/SUMIF(A:A,A1242,G:G)</f>
+        <v>3.4443168771526979E-3</v>
+      </c>
+    </row>
+    <row r="1243" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1243" s="1">
+        <v>44033</v>
+      </c>
+      <c r="B1243" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1243">
+        <v>9067</v>
+      </c>
+      <c r="D1243" s="6">
+        <f t="shared" si="184"/>
+        <v>0.11064873572195646</v>
+      </c>
+      <c r="E1243" s="7">
+        <f t="shared" si="185"/>
+        <v>310</v>
+      </c>
+      <c r="F1243" s="6">
+        <f t="shared" si="186"/>
+        <v>0.14155251141552511</v>
+      </c>
+      <c r="G1243" s="2">
+        <v>0</v>
+      </c>
+      <c r="H1243" s="7">
+        <f t="shared" si="187"/>
+        <v>0</v>
+      </c>
+      <c r="I1243" s="6">
+        <f t="shared" si="188"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1244" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1244" s="1">
+        <v>44033</v>
+      </c>
+      <c r="B1244" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1244">
+        <v>19601</v>
+      </c>
+      <c r="D1244" s="6">
+        <f t="shared" si="184"/>
+        <v>0.23919994142341111</v>
+      </c>
+      <c r="E1244" s="7">
+        <f t="shared" si="185"/>
+        <v>489</v>
+      </c>
+      <c r="F1244" s="6">
+        <f t="shared" si="186"/>
+        <v>0.22328767123287671</v>
+      </c>
+      <c r="G1244" s="2">
+        <v>12</v>
+      </c>
+      <c r="H1244" s="7">
+        <f t="shared" si="187"/>
+        <v>0</v>
+      </c>
+      <c r="I1244" s="6">
+        <f t="shared" si="188"/>
+        <v>1.3777267508610792E-2</v>
+      </c>
+    </row>
+    <row r="1245" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1245" s="1">
+        <v>44033</v>
+      </c>
+      <c r="B1245" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1245">
+        <v>15515</v>
+      </c>
+      <c r="D1245" s="6">
+        <f t="shared" si="184"/>
+        <v>0.18933662013082106</v>
+      </c>
+      <c r="E1245" s="7">
+        <f t="shared" si="185"/>
+        <v>372</v>
+      </c>
+      <c r="F1245" s="6">
+        <f t="shared" si="186"/>
+        <v>0.16986301369863013</v>
+      </c>
+      <c r="G1245" s="2">
+        <v>14</v>
+      </c>
+      <c r="H1245" s="7">
+        <f t="shared" si="187"/>
+        <v>0</v>
+      </c>
+      <c r="I1245" s="6">
+        <f t="shared" si="188"/>
+        <v>1.6073478760045924E-2</v>
+      </c>
+    </row>
+    <row r="1246" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1246" s="1">
+        <v>44033</v>
+      </c>
+      <c r="B1246" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1246">
+        <v>12919</v>
+      </c>
+      <c r="D1246" s="6">
+        <f t="shared" si="184"/>
+        <v>0.1576564483061603</v>
+      </c>
+      <c r="E1246" s="7">
+        <f t="shared" si="185"/>
+        <v>316</v>
+      </c>
+      <c r="F1246" s="6">
+        <f t="shared" si="186"/>
+        <v>0.14429223744292238</v>
+      </c>
+      <c r="G1246" s="2">
+        <v>42</v>
+      </c>
+      <c r="H1246" s="7">
+        <f t="shared" si="187"/>
+        <v>1</v>
+      </c>
+      <c r="I1246" s="6">
+        <f t="shared" si="188"/>
+        <v>4.8220436280137773E-2</v>
+      </c>
+    </row>
+    <row r="1247" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1247" s="1">
+        <v>44033</v>
+      </c>
+      <c r="B1247" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1247">
+        <v>10177</v>
+      </c>
+      <c r="D1247" s="6">
+        <f t="shared" si="184"/>
+        <v>0.12419457190276287</v>
+      </c>
+      <c r="E1247" s="7">
+        <f t="shared" si="185"/>
+        <v>293</v>
+      </c>
+      <c r="F1247" s="6">
+        <f t="shared" si="186"/>
+        <v>0.13378995433789953</v>
+      </c>
+      <c r="G1247" s="2">
+        <v>98</v>
+      </c>
+      <c r="H1247" s="7">
+        <f t="shared" si="187"/>
+        <v>4</v>
+      </c>
+      <c r="I1247" s="6">
+        <f t="shared" si="188"/>
+        <v>0.11251435132032148</v>
+      </c>
+    </row>
+    <row r="1248" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1248" s="1">
+        <v>44033</v>
+      </c>
+      <c r="B1248" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1248">
+        <v>5937</v>
+      </c>
+      <c r="D1248" s="6">
+        <f t="shared" si="184"/>
+        <v>7.2451918383286143E-2</v>
+      </c>
+      <c r="E1248" s="7">
+        <f t="shared" si="185"/>
+        <v>177</v>
+      </c>
+      <c r="F1248" s="6">
+        <f t="shared" si="186"/>
+        <v>8.0821917808219179E-2</v>
+      </c>
+      <c r="G1248" s="2">
+        <v>165</v>
+      </c>
+      <c r="H1248" s="7">
+        <f t="shared" si="187"/>
+        <v>6</v>
+      </c>
+      <c r="I1248" s="6">
+        <f t="shared" si="188"/>
+        <v>0.1894374282433984</v>
+      </c>
+    </row>
+    <row r="1249" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1249" s="1">
+        <v>44033</v>
+      </c>
+      <c r="B1249" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1249">
+        <v>3105</v>
+      </c>
+      <c r="D1249" s="6">
+        <f t="shared" si="184"/>
+        <v>3.7891730938201695E-2</v>
+      </c>
+      <c r="E1249" s="7">
+        <f t="shared" si="185"/>
+        <v>106</v>
+      </c>
+      <c r="F1249" s="6">
+        <f t="shared" si="186"/>
+        <v>4.8401826484018265E-2</v>
+      </c>
+      <c r="G1249" s="2">
+        <v>250</v>
+      </c>
+      <c r="H1249" s="7">
+        <f t="shared" si="187"/>
+        <v>7</v>
+      </c>
+      <c r="I1249" s="6">
+        <f t="shared" si="188"/>
+        <v>0.28702640642939148</v>
+      </c>
+    </row>
+    <row r="1250" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1250" s="1">
+        <v>44033</v>
+      </c>
+      <c r="B1250" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1250">
+        <v>1745</v>
+      </c>
+      <c r="D1250" s="6">
+        <f t="shared" si="184"/>
+        <v>2.1295030752709169E-2</v>
+      </c>
+      <c r="E1250" s="7">
+        <f t="shared" si="185"/>
+        <v>54</v>
+      </c>
+      <c r="F1250" s="6">
+        <f t="shared" si="186"/>
+        <v>2.4657534246575342E-2</v>
+      </c>
+      <c r="G1250" s="2">
+        <v>287</v>
+      </c>
+      <c r="H1250" s="7">
+        <f t="shared" si="187"/>
+        <v>6</v>
+      </c>
+      <c r="I1250" s="6">
+        <f t="shared" si="188"/>
+        <v>0.32950631458094143</v>
+      </c>
+    </row>
+    <row r="1251" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1251" s="1">
+        <v>44033</v>
+      </c>
+      <c r="B1251" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1251">
+        <v>144</v>
+      </c>
+      <c r="D1251" s="6">
+        <f t="shared" si="184"/>
+        <v>1.7572976666992092E-3</v>
+      </c>
+      <c r="E1251" s="7">
+        <f t="shared" si="185"/>
+        <v>-14</v>
+      </c>
+      <c r="F1251" s="6">
+        <f t="shared" si="186"/>
+        <v>-6.392694063926941E-3</v>
+      </c>
+      <c r="G1251" s="2">
+        <v>0</v>
+      </c>
+      <c r="H1251" s="7">
+        <f t="shared" si="187"/>
+        <v>0</v>
+      </c>
+      <c r="I1251" s="6">
+        <f t="shared" si="188"/>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/TN_Age.xlsx
+++ b/TN_Age.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1295" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1305" uniqueCount="33">
   <si>
     <t>0-10</t>
   </si>
@@ -483,11 +483,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M1271"/>
+  <dimension ref="A1:M1281"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1250" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L1270" sqref="L1270"/>
+      <pane ySplit="1" topLeftCell="A1259" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A1281" sqref="A1281"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -54820,6 +54820,466 @@
       </c>
       <c r="L1271" s="14" t="str">
         <f>IF(B1271="Pending","",(G1271/C1271)/(VLOOKUP(B1271,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="1272" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1272" s="1">
+        <v>44036</v>
+      </c>
+      <c r="B1272" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1272">
+        <v>4077</v>
+      </c>
+      <c r="D1272" s="6">
+        <f t="shared" ref="D1272:D1281" si="199">C1272/SUMIF(A:A,A1272,C:C)</f>
+        <v>4.5768876714789283E-2</v>
+      </c>
+      <c r="E1272" s="7">
+        <f t="shared" ref="E1272:E1281" si="200">C1272-SUMIFS(C:C,A:A,A1272-1,B:B,B1272)</f>
+        <v>92</v>
+      </c>
+      <c r="F1272" s="6">
+        <f t="shared" ref="F1272:F1281" si="201">E1272/SUMIF(A:A,A1272,E:E)</f>
+        <v>4.3998087039693927E-2</v>
+      </c>
+      <c r="G1272" s="2">
+        <v>3</v>
+      </c>
+      <c r="H1272" s="7">
+        <f t="shared" ref="H1272:H1281" si="202">G1272-SUMIFS(G:G,A:A,A1272-1,B:B,B1272)</f>
+        <v>0</v>
+      </c>
+      <c r="I1272" s="6">
+        <f t="shared" ref="I1272:I1281" si="203">G1272/SUMIF(A:A,A1272,G:G)</f>
+        <v>3.1982942430703624E-3</v>
+      </c>
+      <c r="J1272" s="10">
+        <f>IF(B1272="Pending","",C1272/(VLOOKUP(B1272,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>447.93919036981094</v>
+      </c>
+      <c r="K1272" s="10">
+        <f>IF(B1272="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1272,A:A,"&gt;="&amp;A1272-30,B:B,B1272)/(VLOOKUP(B1272,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>266.76388379148909</v>
+      </c>
+      <c r="L1272" s="14">
+        <f>IF(B1272="Pending","",(G1272/C1272)/(VLOOKUP(B1272,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>8.084606612803079E-5</v>
+      </c>
+    </row>
+    <row r="1273" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1273" s="1">
+        <v>44036</v>
+      </c>
+      <c r="B1273" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1273">
+        <v>9915</v>
+      </c>
+      <c r="D1273" s="6">
+        <f t="shared" si="199"/>
+        <v>0.1113069444756281</v>
+      </c>
+      <c r="E1273" s="7">
+        <f t="shared" si="200"/>
+        <v>250</v>
+      </c>
+      <c r="F1273" s="6">
+        <f t="shared" si="201"/>
+        <v>0.11956001912960305</v>
+      </c>
+      <c r="G1273" s="2">
+        <v>1</v>
+      </c>
+      <c r="H1273" s="7">
+        <f t="shared" si="202"/>
+        <v>1</v>
+      </c>
+      <c r="I1273" s="6">
+        <f t="shared" si="203"/>
+        <v>1.0660980810234541E-3</v>
+      </c>
+      <c r="J1273" s="10">
+        <f>IF(B1273="Pending","",C1273/(VLOOKUP(B1273,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1151.8266565823969</v>
+      </c>
+      <c r="K1273" s="10">
+        <f>IF(B1273="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1273,A:A,"&gt;="&amp;A1273-30,B:B,B1273)/(VLOOKUP(B1273,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>756.26742656090812</v>
+      </c>
+      <c r="L1273" s="14">
+        <f>IF(B1273="Pending","",(G1273/C1273)/(VLOOKUP(B1273,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1.171660228007043E-5</v>
+      </c>
+    </row>
+    <row r="1274" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1274" s="1">
+        <v>44036</v>
+      </c>
+      <c r="B1274" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1274">
+        <v>21164</v>
+      </c>
+      <c r="D1274" s="6">
+        <f t="shared" si="199"/>
+        <v>0.23758952827858731</v>
+      </c>
+      <c r="E1274" s="7">
+        <f t="shared" si="200"/>
+        <v>438</v>
+      </c>
+      <c r="F1274" s="6">
+        <f t="shared" si="201"/>
+        <v>0.20946915351506457</v>
+      </c>
+      <c r="G1274" s="2">
+        <v>12</v>
+      </c>
+      <c r="H1274" s="7">
+        <f t="shared" si="202"/>
+        <v>0</v>
+      </c>
+      <c r="I1274" s="6">
+        <f t="shared" si="203"/>
+        <v>1.279317697228145E-2</v>
+      </c>
+      <c r="J1274" s="10">
+        <f>IF(B1274="Pending","",C1274/(VLOOKUP(B1274,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>2239.5332819628652</v>
+      </c>
+      <c r="K1274" s="10">
+        <f>IF(B1274="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1274,A:A,"&gt;="&amp;A1274-30,B:B,B1274)/(VLOOKUP(B1274,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1414.7873738349797</v>
+      </c>
+      <c r="L1274" s="14">
+        <f>IF(B1274="Pending","",(G1274/C1274)/(VLOOKUP(B1274,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>5.999889627147917E-5</v>
+      </c>
+    </row>
+    <row r="1275" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1275" s="1">
+        <v>44036</v>
+      </c>
+      <c r="B1275" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1275">
+        <v>16699</v>
+      </c>
+      <c r="D1275" s="6">
+        <f t="shared" si="199"/>
+        <v>0.18746491838613349</v>
+      </c>
+      <c r="E1275" s="7">
+        <f t="shared" si="200"/>
+        <v>356</v>
+      </c>
+      <c r="F1275" s="6">
+        <f t="shared" si="201"/>
+        <v>0.17025346724055476</v>
+      </c>
+      <c r="G1275" s="2">
+        <v>16</v>
+      </c>
+      <c r="H1275" s="7">
+        <f t="shared" si="202"/>
+        <v>0</v>
+      </c>
+      <c r="I1275" s="6">
+        <f t="shared" si="203"/>
+        <v>1.7057569296375266E-2</v>
+      </c>
+      <c r="J1275" s="10">
+        <f>IF(B1275="Pending","",C1275/(VLOOKUP(B1275,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1899.3318256064138</v>
+      </c>
+      <c r="K1275" s="10">
+        <f>IF(B1275="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1275,A:A,"&gt;="&amp;A1275-30,B:B,B1275)/(VLOOKUP(B1275,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1047.6522813138918</v>
+      </c>
+      <c r="L1275" s="14">
+        <f>IF(B1275="Pending","",(G1275/C1275)/(VLOOKUP(B1275,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1.089782673270934E-4</v>
+      </c>
+    </row>
+    <row r="1276" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1276" s="1">
+        <v>44036</v>
+      </c>
+      <c r="B1276" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1276">
+        <v>13924</v>
+      </c>
+      <c r="D1276" s="6">
+        <f t="shared" si="199"/>
+        <v>0.15631244527268237</v>
+      </c>
+      <c r="E1276" s="7">
+        <f t="shared" si="200"/>
+        <v>311</v>
+      </c>
+      <c r="F1276" s="6">
+        <f t="shared" si="201"/>
+        <v>0.14873266379722622</v>
+      </c>
+      <c r="G1276" s="2">
+        <v>51</v>
+      </c>
+      <c r="H1276" s="7">
+        <f t="shared" si="202"/>
+        <v>3</v>
+      </c>
+      <c r="I1276" s="6">
+        <f t="shared" si="203"/>
+        <v>5.4371002132196165E-2</v>
+      </c>
+      <c r="J1276" s="10">
+        <f>IF(B1276="Pending","",C1276/(VLOOKUP(B1276,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1633.2664278752336</v>
+      </c>
+      <c r="K1276" s="10">
+        <f>IF(B1276="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1276,A:A,"&gt;="&amp;A1276-30,B:B,B1276)/(VLOOKUP(B1276,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>913.52190033699503</v>
+      </c>
+      <c r="L1276" s="14">
+        <f>IF(B1276="Pending","",(G1276/C1276)/(VLOOKUP(B1276,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>4.2963453336516982E-4</v>
+      </c>
+    </row>
+    <row r="1277" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1277" s="1">
+        <v>44036</v>
+      </c>
+      <c r="B1277" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1277">
+        <v>11097</v>
+      </c>
+      <c r="D1277" s="6">
+        <f t="shared" si="199"/>
+        <v>0.1245762141044927</v>
+      </c>
+      <c r="E1277" s="7">
+        <f t="shared" si="200"/>
+        <v>275</v>
+      </c>
+      <c r="F1277" s="6">
+        <f t="shared" si="201"/>
+        <v>0.13151602104256338</v>
+      </c>
+      <c r="G1277" s="2">
+        <v>107</v>
+      </c>
+      <c r="H1277" s="7">
+        <f t="shared" si="202"/>
+        <v>0</v>
+      </c>
+      <c r="I1277" s="6">
+        <f t="shared" si="203"/>
+        <v>0.1140724946695096</v>
+      </c>
+      <c r="J1277" s="10">
+        <f>IF(B1277="Pending","",C1277/(VLOOKUP(B1277,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1239.4565144911166</v>
+      </c>
+      <c r="K1277" s="10">
+        <f>IF(B1277="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1277,A:A,"&gt;="&amp;A1277-30,B:B,B1277)/(VLOOKUP(B1277,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>697.85746621073235</v>
+      </c>
+      <c r="L1277" s="14">
+        <f>IF(B1277="Pending","",(G1277/C1277)/(VLOOKUP(B1277,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1.0769707297168417E-3</v>
+      </c>
+    </row>
+    <row r="1278" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1278" s="1">
+        <v>44036</v>
+      </c>
+      <c r="B1278" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1278">
+        <v>6620</v>
+      </c>
+      <c r="D1278" s="6">
+        <f t="shared" si="199"/>
+        <v>7.4316890814791536E-2</v>
+      </c>
+      <c r="E1278" s="7">
+        <f t="shared" si="200"/>
+        <v>197</v>
+      </c>
+      <c r="F1278" s="6">
+        <f t="shared" si="201"/>
+        <v>9.4213295074127207E-2</v>
+      </c>
+      <c r="G1278" s="2">
+        <v>174</v>
+      </c>
+      <c r="H1278" s="7">
+        <f t="shared" si="202"/>
+        <v>3</v>
+      </c>
+      <c r="I1278" s="6">
+        <f t="shared" si="203"/>
+        <v>0.18550106609808104</v>
+      </c>
+      <c r="J1278" s="10">
+        <f>IF(B1278="Pending","",C1278/(VLOOKUP(B1278,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>842.5282933304369</v>
+      </c>
+      <c r="K1278" s="10">
+        <f>IF(B1278="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1278,A:A,"&gt;="&amp;A1278-30,B:B,B1278)/(VLOOKUP(B1278,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>499.91709006071841</v>
+      </c>
+      <c r="L1278" s="14">
+        <f>IF(B1278="Pending","",(G1278/C1278)/(VLOOKUP(B1278,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>3.3451666888650164E-3</v>
+      </c>
+    </row>
+    <row r="1279" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1279" s="1">
+        <v>44036</v>
+      </c>
+      <c r="B1279" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1279">
+        <v>3476</v>
+      </c>
+      <c r="D1279" s="6">
+        <f t="shared" si="199"/>
+        <v>3.9021980735984195E-2</v>
+      </c>
+      <c r="E1279" s="7">
+        <f t="shared" si="200"/>
+        <v>99</v>
+      </c>
+      <c r="F1279" s="6">
+        <f t="shared" si="201"/>
+        <v>4.7345767575322814E-2</v>
+      </c>
+      <c r="G1279" s="2">
+        <v>265</v>
+      </c>
+      <c r="H1279" s="7">
+        <f t="shared" si="202"/>
+        <v>2</v>
+      </c>
+      <c r="I1279" s="6">
+        <f t="shared" si="203"/>
+        <v>0.28251599147121537</v>
+      </c>
+      <c r="J1279" s="10">
+        <f>IF(B1279="Pending","",C1279/(VLOOKUP(B1279,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>726.48822150386832</v>
+      </c>
+      <c r="K1279" s="10">
+        <f>IF(B1279="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1279,A:A,"&gt;="&amp;A1279-30,B:B,B1279)/(VLOOKUP(B1279,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>440.57456010648866</v>
+      </c>
+      <c r="L1279" s="14">
+        <f>IF(B1279="Pending","",(G1279/C1279)/(VLOOKUP(B1279,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1.5933636891547392E-2</v>
+      </c>
+    </row>
+    <row r="1280" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1280" s="1">
+        <v>44036</v>
+      </c>
+      <c r="B1280" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1280">
+        <v>1933</v>
+      </c>
+      <c r="D1280" s="6">
+        <f t="shared" si="199"/>
+        <v>2.1700083073261635E-2</v>
+      </c>
+      <c r="E1280" s="7">
+        <f t="shared" si="200"/>
+        <v>64</v>
+      </c>
+      <c r="F1280" s="6">
+        <f t="shared" si="201"/>
+        <v>3.0607364897178385E-2</v>
+      </c>
+      <c r="G1280" s="2">
+        <v>309</v>
+      </c>
+      <c r="H1280" s="7">
+        <f t="shared" si="202"/>
+        <v>4</v>
+      </c>
+      <c r="I1280" s="6">
+        <f t="shared" si="203"/>
+        <v>0.32942430703624731</v>
+      </c>
+      <c r="J1280" s="10">
+        <f>IF(B1280="Pending","",C1280/(VLOOKUP(B1280,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>870.94019578334371</v>
+      </c>
+      <c r="K1280" s="10">
+        <f>IF(B1280="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1280,A:A,"&gt;="&amp;A1280-30,B:B,B1280)/(VLOOKUP(B1280,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>484.80685497303563</v>
+      </c>
+      <c r="L1280" s="14">
+        <f>IF(B1280="Pending","",(G1280/C1280)/(VLOOKUP(B1280,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>7.2024973309717549E-2</v>
+      </c>
+    </row>
+    <row r="1281" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1281" s="1">
+        <v>44036</v>
+      </c>
+      <c r="B1281" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1281">
+        <v>173</v>
+      </c>
+      <c r="D1281" s="6">
+        <f t="shared" si="199"/>
+        <v>1.9421181436493858E-3</v>
+      </c>
+      <c r="E1281" s="7">
+        <f t="shared" si="200"/>
+        <v>9</v>
+      </c>
+      <c r="F1281" s="6">
+        <f t="shared" si="201"/>
+        <v>4.30416068866571E-3</v>
+      </c>
+      <c r="G1281" s="2">
+        <v>0</v>
+      </c>
+      <c r="H1281" s="7">
+        <f t="shared" si="202"/>
+        <v>0</v>
+      </c>
+      <c r="I1281" s="6">
+        <f t="shared" si="203"/>
+        <v>0</v>
+      </c>
+      <c r="J1281" s="10" t="str">
+        <f>IF(B1281="Pending","",C1281/(VLOOKUP(B1281,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v/>
+      </c>
+      <c r="K1281" s="10" t="str">
+        <f>IF(B1281="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1281,A:A,"&gt;="&amp;A1281-30,B:B,B1281)/(VLOOKUP(B1281,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v/>
+      </c>
+      <c r="L1281" s="14" t="str">
+        <f>IF(B1281="Pending","",(G1281/C1281)/(VLOOKUP(B1281,Population!$A$2:$B$10,2,FALSE)/100000))</f>
         <v/>
       </c>
     </row>

--- a/TN_Age.xlsx
+++ b/TN_Age.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1305" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1315" uniqueCount="33">
   <si>
     <t>0-10</t>
   </si>
@@ -483,11 +483,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M1281"/>
+  <dimension ref="A1:M1291"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1259" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A1281" sqref="A1281"/>
+      <pane ySplit="1" topLeftCell="A1271" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A1291" sqref="A1291"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -55280,6 +55280,466 @@
       </c>
       <c r="L1281" s="14" t="str">
         <f>IF(B1281="Pending","",(G1281/C1281)/(VLOOKUP(B1281,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="1282" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1282" s="1">
+        <v>44037</v>
+      </c>
+      <c r="B1282" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1282">
+        <v>4163</v>
+      </c>
+      <c r="D1282" s="6">
+        <f t="shared" ref="D1282:D1291" si="204">C1282/SUMIF(A:A,A1282,C:C)</f>
+        <v>4.5850037446583551E-2</v>
+      </c>
+      <c r="E1282" s="7">
+        <f t="shared" ref="E1282:E1291" si="205">C1282-SUMIFS(C:C,A:A,A1282-1,B:B,B1282)</f>
+        <v>86</v>
+      </c>
+      <c r="F1282" s="6">
+        <f t="shared" ref="F1282:F1291" si="206">E1282/SUMIF(A:A,A1282,E:E)</f>
+        <v>5.0058207217694994E-2</v>
+      </c>
+      <c r="G1282">
+        <v>4</v>
+      </c>
+      <c r="H1282" s="7">
+        <f t="shared" ref="H1282:H1291" si="207">G1282-SUMIFS(G:G,A:A,A1282-1,B:B,B1282)</f>
+        <v>1</v>
+      </c>
+      <c r="I1282" s="6">
+        <f t="shared" ref="I1282:I1291" si="208">G1282/SUMIF(A:A,A1282,G:G)</f>
+        <v>4.1493775933609959E-3</v>
+      </c>
+      <c r="J1282" s="10">
+        <f>IF(B1282="Pending","",C1282/(VLOOKUP(B1282,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>457.38799350245841</v>
+      </c>
+      <c r="K1282" s="10">
+        <f>IF(B1282="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1282,A:A,"&gt;="&amp;A1282-30,B:B,B1282)/(VLOOKUP(B1282,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>270.60932692686885</v>
+      </c>
+      <c r="L1282" s="14">
+        <f>IF(B1282="Pending","",(G1282/C1282)/(VLOOKUP(B1282,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1.0556791147537242E-4</v>
+      </c>
+    </row>
+    <row r="1283" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1283" s="1">
+        <v>44037</v>
+      </c>
+      <c r="B1283" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1283">
+        <v>10135</v>
+      </c>
+      <c r="D1283" s="6">
+        <f t="shared" si="204"/>
+        <v>0.11162386008194193</v>
+      </c>
+      <c r="E1283" s="7">
+        <f t="shared" si="205"/>
+        <v>220</v>
+      </c>
+      <c r="F1283" s="6">
+        <f t="shared" si="206"/>
+        <v>0.1280558789289872</v>
+      </c>
+      <c r="G1283">
+        <v>1</v>
+      </c>
+      <c r="H1283" s="7">
+        <f t="shared" si="207"/>
+        <v>0</v>
+      </c>
+      <c r="I1283" s="6">
+        <f t="shared" si="208"/>
+        <v>1.037344398340249E-3</v>
+      </c>
+      <c r="J1283" s="10">
+        <f>IF(B1283="Pending","",C1283/(VLOOKUP(B1283,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1177.3840811359146</v>
+      </c>
+      <c r="K1283" s="10">
+        <f>IF(B1283="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1283,A:A,"&gt;="&amp;A1283-30,B:B,B1283)/(VLOOKUP(B1283,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>768.1167779448117</v>
+      </c>
+      <c r="L1283" s="14">
+        <f>IF(B1283="Pending","",(G1283/C1283)/(VLOOKUP(B1283,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1.1462270508820752E-5</v>
+      </c>
+    </row>
+    <row r="1284" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1284" s="1">
+        <v>44037</v>
+      </c>
+      <c r="B1284" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1284">
+        <v>21554</v>
+      </c>
+      <c r="D1284" s="6">
+        <f t="shared" si="204"/>
+        <v>0.2373893123045068</v>
+      </c>
+      <c r="E1284" s="7">
+        <f t="shared" si="205"/>
+        <v>390</v>
+      </c>
+      <c r="F1284" s="6">
+        <f t="shared" si="206"/>
+        <v>0.22700814901047731</v>
+      </c>
+      <c r="G1284">
+        <v>12</v>
+      </c>
+      <c r="H1284" s="7">
+        <f t="shared" si="207"/>
+        <v>0</v>
+      </c>
+      <c r="I1284" s="6">
+        <f t="shared" si="208"/>
+        <v>1.2448132780082987E-2</v>
+      </c>
+      <c r="J1284" s="10">
+        <f>IF(B1284="Pending","",C1284/(VLOOKUP(B1284,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>2280.8023227852768</v>
+      </c>
+      <c r="K1284" s="10">
+        <f>IF(B1284="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1284,A:A,"&gt;="&amp;A1284-30,B:B,B1284)/(VLOOKUP(B1284,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1431.8240804308982</v>
+      </c>
+      <c r="L1284" s="14">
+        <f>IF(B1284="Pending","",(G1284/C1284)/(VLOOKUP(B1284,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>5.8913270886591136E-5</v>
+      </c>
+    </row>
+    <row r="1285" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1285" s="1">
+        <v>44037</v>
+      </c>
+      <c r="B1285" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1285">
+        <v>16982</v>
+      </c>
+      <c r="D1285" s="6">
+        <f t="shared" si="204"/>
+        <v>0.18703467113088681</v>
+      </c>
+      <c r="E1285" s="7">
+        <f t="shared" si="205"/>
+        <v>283</v>
+      </c>
+      <c r="F1285" s="6">
+        <f t="shared" si="206"/>
+        <v>0.16472642607683352</v>
+      </c>
+      <c r="G1285">
+        <v>16</v>
+      </c>
+      <c r="H1285" s="7">
+        <f t="shared" si="207"/>
+        <v>0</v>
+      </c>
+      <c r="I1285" s="6">
+        <f t="shared" si="208"/>
+        <v>1.6597510373443983E-2</v>
+      </c>
+      <c r="J1285" s="10">
+        <f>IF(B1285="Pending","",C1285/(VLOOKUP(B1285,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1931.5200348792216</v>
+      </c>
+      <c r="K1285" s="10">
+        <f>IF(B1285="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1285,A:A,"&gt;="&amp;A1285-30,B:B,B1285)/(VLOOKUP(B1285,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1059.9361208950338</v>
+      </c>
+      <c r="L1285" s="14">
+        <f>IF(B1285="Pending","",(G1285/C1285)/(VLOOKUP(B1285,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1.0716217678101123E-4</v>
+      </c>
+    </row>
+    <row r="1286" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1286" s="1">
+        <v>44037</v>
+      </c>
+      <c r="B1286" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1286">
+        <v>14215</v>
+      </c>
+      <c r="D1286" s="6">
+        <f t="shared" si="204"/>
+        <v>0.15655976034186528</v>
+      </c>
+      <c r="E1286" s="7">
+        <f t="shared" si="205"/>
+        <v>291</v>
+      </c>
+      <c r="F1286" s="6">
+        <f t="shared" si="206"/>
+        <v>0.16938300349243307</v>
+      </c>
+      <c r="G1286">
+        <v>55</v>
+      </c>
+      <c r="H1286" s="7">
+        <f t="shared" si="207"/>
+        <v>4</v>
+      </c>
+      <c r="I1286" s="6">
+        <f t="shared" si="208"/>
+        <v>5.7053941908713691E-2</v>
+      </c>
+      <c r="J1286" s="10">
+        <f>IF(B1286="Pending","",C1286/(VLOOKUP(B1286,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1667.4003355534649</v>
+      </c>
+      <c r="K1286" s="10">
+        <f>IF(B1286="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1286,A:A,"&gt;="&amp;A1286-30,B:B,B1286)/(VLOOKUP(B1286,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>927.7150372066377</v>
+      </c>
+      <c r="L1286" s="14">
+        <f>IF(B1286="Pending","",(G1286/C1286)/(VLOOKUP(B1286,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>4.5384634891576053E-4</v>
+      </c>
+    </row>
+    <row r="1287" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1287" s="1">
+        <v>44037</v>
+      </c>
+      <c r="B1287" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1287">
+        <v>11293</v>
+      </c>
+      <c r="D1287" s="6">
+        <f t="shared" si="204"/>
+        <v>0.12437772589100841</v>
+      </c>
+      <c r="E1287" s="7">
+        <f t="shared" si="205"/>
+        <v>196</v>
+      </c>
+      <c r="F1287" s="6">
+        <f t="shared" si="206"/>
+        <v>0.1140861466821886</v>
+      </c>
+      <c r="G1287">
+        <v>111</v>
+      </c>
+      <c r="H1287" s="7">
+        <f t="shared" si="207"/>
+        <v>4</v>
+      </c>
+      <c r="I1287" s="6">
+        <f t="shared" si="208"/>
+        <v>0.11514522821576763</v>
+      </c>
+      <c r="J1287" s="10">
+        <f>IF(B1287="Pending","",C1287/(VLOOKUP(B1287,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1261.3483300124522</v>
+      </c>
+      <c r="K1287" s="10">
+        <f>IF(B1287="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1287,A:A,"&gt;="&amp;A1287-30,B:B,B1287)/(VLOOKUP(B1287,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>709.58522452573345</v>
+      </c>
+      <c r="L1287" s="14">
+        <f>IF(B1287="Pending","",(G1287/C1287)/(VLOOKUP(B1287,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1.0978407803950382E-3</v>
+      </c>
+    </row>
+    <row r="1288" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1288" s="1">
+        <v>44037</v>
+      </c>
+      <c r="B1288" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1288">
+        <v>6753</v>
+      </c>
+      <c r="D1288" s="6">
+        <f t="shared" si="204"/>
+        <v>7.4375523150799594E-2</v>
+      </c>
+      <c r="E1288" s="7">
+        <f t="shared" si="205"/>
+        <v>133</v>
+      </c>
+      <c r="F1288" s="6">
+        <f t="shared" si="206"/>
+        <v>7.7415599534342253E-2</v>
+      </c>
+      <c r="G1288">
+        <v>179</v>
+      </c>
+      <c r="H1288" s="7">
+        <f t="shared" si="207"/>
+        <v>5</v>
+      </c>
+      <c r="I1288" s="6">
+        <f t="shared" si="208"/>
+        <v>0.18568464730290457</v>
+      </c>
+      <c r="J1288" s="10">
+        <f>IF(B1288="Pending","",C1288/(VLOOKUP(B1288,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>859.45522127801212</v>
+      </c>
+      <c r="K1288" s="10">
+        <f>IF(B1288="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1288,A:A,"&gt;="&amp;A1288-30,B:B,B1288)/(VLOOKUP(B1288,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>509.5896203164757</v>
+      </c>
+      <c r="L1288" s="14">
+        <f>IF(B1288="Pending","",(G1288/C1288)/(VLOOKUP(B1288,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>3.3735160898870548E-3</v>
+      </c>
+    </row>
+    <row r="1289" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1289" s="1">
+        <v>44037</v>
+      </c>
+      <c r="B1289" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1289">
+        <v>3556</v>
+      </c>
+      <c r="D1289" s="6">
+        <f t="shared" si="204"/>
+        <v>3.9164720912815545E-2</v>
+      </c>
+      <c r="E1289" s="7">
+        <f t="shared" si="205"/>
+        <v>80</v>
+      </c>
+      <c r="F1289" s="6">
+        <f t="shared" si="206"/>
+        <v>4.6565774155995346E-2</v>
+      </c>
+      <c r="G1289">
+        <v>273</v>
+      </c>
+      <c r="H1289" s="7">
+        <f t="shared" si="207"/>
+        <v>8</v>
+      </c>
+      <c r="I1289" s="6">
+        <f t="shared" si="208"/>
+        <v>0.28319502074688796</v>
+      </c>
+      <c r="J1289" s="10">
+        <f>IF(B1289="Pending","",C1289/(VLOOKUP(B1289,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>743.20831866160984</v>
+      </c>
+      <c r="K1289" s="10">
+        <f>IF(B1289="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1289,A:A,"&gt;="&amp;A1289-30,B:B,B1289)/(VLOOKUP(B1289,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>450.39761718666176</v>
+      </c>
+      <c r="L1289" s="14">
+        <f>IF(B1289="Pending","",(G1289/C1289)/(VLOOKUP(B1289,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1.6045368827557055E-2</v>
+      </c>
+    </row>
+    <row r="1290" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1290" s="1">
+        <v>44037</v>
+      </c>
+      <c r="B1290" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1290">
+        <v>1977</v>
+      </c>
+      <c r="D1290" s="6">
+        <f t="shared" si="204"/>
+        <v>2.1774086964183443E-2</v>
+      </c>
+      <c r="E1290" s="7">
+        <f t="shared" si="205"/>
+        <v>44</v>
+      </c>
+      <c r="F1290" s="6">
+        <f t="shared" si="206"/>
+        <v>2.5611175785797437E-2</v>
+      </c>
+      <c r="G1290">
+        <v>313</v>
+      </c>
+      <c r="H1290" s="7">
+        <f t="shared" si="207"/>
+        <v>4</v>
+      </c>
+      <c r="I1290" s="6">
+        <f t="shared" si="208"/>
+        <v>0.32468879668049794</v>
+      </c>
+      <c r="J1290" s="10">
+        <f>IF(B1290="Pending","",C1290/(VLOOKUP(B1290,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>890.76501141421136</v>
+      </c>
+      <c r="K1290" s="10">
+        <f>IF(B1290="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1290,A:A,"&gt;="&amp;A1290-30,B:B,B1290)/(VLOOKUP(B1290,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>500.57659467940761</v>
+      </c>
+      <c r="L1290" s="14">
+        <f>IF(B1290="Pending","",(G1290/C1290)/(VLOOKUP(B1290,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>7.1333601099709931E-2</v>
+      </c>
+    </row>
+    <row r="1291" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1291" s="1">
+        <v>44037</v>
+      </c>
+      <c r="B1291" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1291">
+        <v>168</v>
+      </c>
+      <c r="D1291" s="6">
+        <f t="shared" si="204"/>
+        <v>1.8503017754086084E-3</v>
+      </c>
+      <c r="E1291" s="7">
+        <f t="shared" si="205"/>
+        <v>-5</v>
+      </c>
+      <c r="F1291" s="6">
+        <f t="shared" si="206"/>
+        <v>-2.9103608847497091E-3</v>
+      </c>
+      <c r="G1291">
+        <v>0</v>
+      </c>
+      <c r="H1291" s="7">
+        <f t="shared" si="207"/>
+        <v>0</v>
+      </c>
+      <c r="I1291" s="6">
+        <f t="shared" si="208"/>
+        <v>0</v>
+      </c>
+      <c r="J1291" s="10" t="str">
+        <f>IF(B1291="Pending","",C1291/(VLOOKUP(B1291,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v/>
+      </c>
+      <c r="K1291" s="10" t="str">
+        <f>IF(B1291="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1291,A:A,"&gt;="&amp;A1291-30,B:B,B1291)/(VLOOKUP(B1291,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v/>
+      </c>
+      <c r="L1291" s="14" t="str">
+        <f>IF(B1291="Pending","",(G1291/C1291)/(VLOOKUP(B1291,Population!$A$2:$B$10,2,FALSE)/100000))</f>
         <v/>
       </c>
     </row>

--- a/TN_Age.xlsx
+++ b/TN_Age.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1335" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1345" uniqueCount="33">
   <si>
     <t>0-10</t>
   </si>
@@ -483,11 +483,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M1311"/>
+  <dimension ref="A1:M1321"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1295" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A1311" sqref="A1311"/>
+      <pane ySplit="1" topLeftCell="A1299" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A1321" sqref="A1321"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -56660,6 +56660,466 @@
       </c>
       <c r="L1311" s="14" t="str">
         <f>IF(B1311="Pending","",(G1311/C1311)/(VLOOKUP(B1311,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="1312" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1312" s="1">
+        <v>44040</v>
+      </c>
+      <c r="B1312" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1312">
+        <v>4601</v>
+      </c>
+      <c r="D1312" s="6">
+        <f t="shared" ref="D1312:D1321" si="237">C1312/SUMIF(A:A,A1312,C:C)</f>
+        <v>4.6454101207544118E-2</v>
+      </c>
+      <c r="E1312" s="7">
+        <f t="shared" ref="E1312:E1321" si="238">C1312-SUMIFS(C:C,A:A,A1312-1,B:B,B1312)</f>
+        <v>107</v>
+      </c>
+      <c r="F1312" s="6">
+        <f t="shared" ref="F1312:F1321" si="239">E1312/SUMIF(A:A,A1312,E:E)</f>
+        <v>4.187866927592955E-2</v>
+      </c>
+      <c r="G1312" s="2">
+        <v>3</v>
+      </c>
+      <c r="H1312" s="7">
+        <f t="shared" ref="H1312:H1321" si="240">G1312-SUMIFS(G:G,A:A,A1312-1,B:B,B1312)</f>
+        <v>0</v>
+      </c>
+      <c r="I1312" s="6">
+        <f t="shared" ref="I1312:I1321" si="241">G1312/SUMIF(A:A,A1312,G:G)</f>
+        <v>3.003003003003003E-3</v>
+      </c>
+      <c r="J1312" s="10">
+        <f>IF(B1312="Pending","",C1312/(VLOOKUP(B1312,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>505.51096759663972</v>
+      </c>
+      <c r="K1312" s="10">
+        <f>IF(B1312="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1312,A:A,"&gt;="&amp;A1312-30,B:B,B1312)/(VLOOKUP(B1312,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>303.68013789113502</v>
+      </c>
+      <c r="L1312" s="14">
+        <f>IF(B1312="Pending","",(G1312/C1312)/(VLOOKUP(B1312,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>7.1638646295149228E-5</v>
+      </c>
+    </row>
+    <row r="1313" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1313" s="1">
+        <v>44040</v>
+      </c>
+      <c r="B1313" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1313">
+        <v>11142</v>
+      </c>
+      <c r="D1313" s="6">
+        <f t="shared" si="237"/>
+        <v>0.11249545656475909</v>
+      </c>
+      <c r="E1313" s="7">
+        <f t="shared" si="238"/>
+        <v>285</v>
+      </c>
+      <c r="F1313" s="6">
+        <f t="shared" si="239"/>
+        <v>0.11154598825831702</v>
+      </c>
+      <c r="G1313" s="2">
+        <v>1</v>
+      </c>
+      <c r="H1313" s="7">
+        <f t="shared" si="240"/>
+        <v>0</v>
+      </c>
+      <c r="I1313" s="6">
+        <f t="shared" si="241"/>
+        <v>1.001001001001001E-3</v>
+      </c>
+      <c r="J1313" s="10">
+        <f>IF(B1313="Pending","",C1313/(VLOOKUP(B1313,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1294.3673835240611</v>
+      </c>
+      <c r="K1313" s="10">
+        <f>IF(B1313="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1313,A:A,"&gt;="&amp;A1313-30,B:B,B1313)/(VLOOKUP(B1313,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>851.52691807856468</v>
+      </c>
+      <c r="L1313" s="14">
+        <f>IF(B1313="Pending","",(G1313/C1313)/(VLOOKUP(B1313,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1.0426324861505863E-5</v>
+      </c>
+    </row>
+    <row r="1314" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1314" s="1">
+        <v>44040</v>
+      </c>
+      <c r="B1314" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1314">
+        <v>23396</v>
+      </c>
+      <c r="D1314" s="6">
+        <f t="shared" si="237"/>
+        <v>0.23621824643592745</v>
+      </c>
+      <c r="E1314" s="7">
+        <f t="shared" si="238"/>
+        <v>533</v>
+      </c>
+      <c r="F1314" s="6">
+        <f t="shared" si="239"/>
+        <v>0.2086105675146771</v>
+      </c>
+      <c r="G1314" s="2">
+        <v>12</v>
+      </c>
+      <c r="H1314" s="7">
+        <f t="shared" si="240"/>
+        <v>0</v>
+      </c>
+      <c r="I1314" s="6">
+        <f t="shared" si="241"/>
+        <v>1.2012012012012012E-2</v>
+      </c>
+      <c r="J1314" s="10">
+        <f>IF(B1314="Pending","",C1314/(VLOOKUP(B1314,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>2475.7191771311282</v>
+      </c>
+      <c r="K1314" s="10">
+        <f>IF(B1314="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1314,A:A,"&gt;="&amp;A1314-30,B:B,B1314)/(VLOOKUP(B1314,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1555.9486570583053</v>
+      </c>
+      <c r="L1314" s="14">
+        <f>IF(B1314="Pending","",(G1314/C1314)/(VLOOKUP(B1314,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>5.4274946174114605E-5</v>
+      </c>
+    </row>
+    <row r="1315" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1315" s="1">
+        <v>44040</v>
+      </c>
+      <c r="B1315" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1315">
+        <v>18285</v>
+      </c>
+      <c r="D1315" s="6">
+        <f t="shared" si="237"/>
+        <v>0.18461491862202659</v>
+      </c>
+      <c r="E1315" s="7">
+        <f t="shared" si="238"/>
+        <v>406</v>
+      </c>
+      <c r="F1315" s="6">
+        <f t="shared" si="239"/>
+        <v>0.15890410958904111</v>
+      </c>
+      <c r="G1315" s="2">
+        <v>15</v>
+      </c>
+      <c r="H1315" s="7">
+        <f t="shared" si="240"/>
+        <v>0</v>
+      </c>
+      <c r="I1315" s="6">
+        <f t="shared" si="241"/>
+        <v>1.5015015015015015E-2</v>
+      </c>
+      <c r="J1315" s="10">
+        <f>IF(B1315="Pending","",C1315/(VLOOKUP(B1315,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>2079.7222846405939</v>
+      </c>
+      <c r="K1315" s="10">
+        <f>IF(B1315="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1315,A:A,"&gt;="&amp;A1315-30,B:B,B1315)/(VLOOKUP(B1315,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1149.4489148798382</v>
+      </c>
+      <c r="L1315" s="14">
+        <f>IF(B1315="Pending","",(G1315/C1315)/(VLOOKUP(B1315,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>9.3305377670997383E-5</v>
+      </c>
+    </row>
+    <row r="1316" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1316" s="1">
+        <v>44040</v>
+      </c>
+      <c r="B1316" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1316">
+        <v>15400</v>
+      </c>
+      <c r="D1316" s="6">
+        <f t="shared" si="237"/>
+        <v>0.15548645046645934</v>
+      </c>
+      <c r="E1316" s="7">
+        <f t="shared" si="238"/>
+        <v>363</v>
+      </c>
+      <c r="F1316" s="6">
+        <f t="shared" si="239"/>
+        <v>0.14207436399217221</v>
+      </c>
+      <c r="G1316" s="2">
+        <v>58</v>
+      </c>
+      <c r="H1316" s="7">
+        <f t="shared" si="240"/>
+        <v>1</v>
+      </c>
+      <c r="I1316" s="6">
+        <f t="shared" si="241"/>
+        <v>5.8058058058058061E-2</v>
+      </c>
+      <c r="J1316" s="10">
+        <f>IF(B1316="Pending","",C1316/(VLOOKUP(B1316,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1806.39923795451</v>
+      </c>
+      <c r="K1316" s="10">
+        <f>IF(B1316="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1316,A:A,"&gt;="&amp;A1316-30,B:B,B1316)/(VLOOKUP(B1316,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1021.6712573106353</v>
+      </c>
+      <c r="L1316" s="14">
+        <f>IF(B1316="Pending","",(G1316/C1316)/(VLOOKUP(B1316,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>4.417741432002091E-4</v>
+      </c>
+    </row>
+    <row r="1317" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1317" s="1">
+        <v>44040</v>
+      </c>
+      <c r="B1317" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1317">
+        <v>12291</v>
+      </c>
+      <c r="D1317" s="6">
+        <f t="shared" si="237"/>
+        <v>0.12409636121319817</v>
+      </c>
+      <c r="E1317" s="7">
+        <f t="shared" si="238"/>
+        <v>323</v>
+      </c>
+      <c r="F1317" s="6">
+        <f t="shared" si="239"/>
+        <v>0.1264187866927593</v>
+      </c>
+      <c r="G1317" s="2">
+        <v>118</v>
+      </c>
+      <c r="H1317" s="7">
+        <f t="shared" si="240"/>
+        <v>6</v>
+      </c>
+      <c r="I1317" s="6">
+        <f t="shared" si="241"/>
+        <v>0.11811811811811812</v>
+      </c>
+      <c r="J1317" s="10">
+        <f>IF(B1317="Pending","",C1317/(VLOOKUP(B1317,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1372.8178804731292</v>
+      </c>
+      <c r="K1317" s="10">
+        <f>IF(B1317="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1317,A:A,"&gt;="&amp;A1317-30,B:B,B1317)/(VLOOKUP(B1317,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>783.8610271874071</v>
+      </c>
+      <c r="L1317" s="14">
+        <f>IF(B1317="Pending","",(G1317/C1317)/(VLOOKUP(B1317,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1.0723103480054165E-3</v>
+      </c>
+    </row>
+    <row r="1318" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1318" s="1">
+        <v>44040</v>
+      </c>
+      <c r="B1318" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1318">
+        <v>7521</v>
+      </c>
+      <c r="D1318" s="6">
+        <f t="shared" si="237"/>
+        <v>7.5935947659626024E-2</v>
+      </c>
+      <c r="E1318" s="7">
+        <f t="shared" si="238"/>
+        <v>251</v>
+      </c>
+      <c r="F1318" s="6">
+        <f t="shared" si="239"/>
+        <v>9.823874755381605E-2</v>
+      </c>
+      <c r="G1318" s="2">
+        <v>183</v>
+      </c>
+      <c r="H1318" s="7">
+        <f t="shared" si="240"/>
+        <v>2</v>
+      </c>
+      <c r="I1318" s="6">
+        <f t="shared" si="241"/>
+        <v>0.18318318318318319</v>
+      </c>
+      <c r="J1318" s="10">
+        <f>IF(B1318="Pending","",C1318/(VLOOKUP(B1318,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>957.1986849151383</v>
+      </c>
+      <c r="K1318" s="10">
+        <f>IF(B1318="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1318,A:A,"&gt;="&amp;A1318-30,B:B,B1318)/(VLOOKUP(B1318,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>584.80627006848295</v>
+      </c>
+      <c r="L1318" s="14">
+        <f>IF(B1318="Pending","",(G1318/C1318)/(VLOOKUP(B1318,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>3.0967204753070045E-3</v>
+      </c>
+    </row>
+    <row r="1319" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1319" s="1">
+        <v>44040</v>
+      </c>
+      <c r="B1319" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1319">
+        <v>3953</v>
+      </c>
+      <c r="D1319" s="6">
+        <f t="shared" si="237"/>
+        <v>3.9911554460643754E-2</v>
+      </c>
+      <c r="E1319" s="7">
+        <f t="shared" si="238"/>
+        <v>118</v>
+      </c>
+      <c r="F1319" s="6">
+        <f t="shared" si="239"/>
+        <v>4.6183953033268103E-2</v>
+      </c>
+      <c r="G1319" s="2">
+        <v>285</v>
+      </c>
+      <c r="H1319" s="7">
+        <f t="shared" si="240"/>
+        <v>6</v>
+      </c>
+      <c r="I1319" s="6">
+        <f t="shared" si="241"/>
+        <v>0.28528528528528529</v>
+      </c>
+      <c r="J1319" s="10">
+        <f>IF(B1319="Pending","",C1319/(VLOOKUP(B1319,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>826.18180080690206</v>
+      </c>
+      <c r="K1319" s="10">
+        <f>IF(B1319="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1319,A:A,"&gt;="&amp;A1319-30,B:B,B1319)/(VLOOKUP(B1319,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>513.93398638607948</v>
+      </c>
+      <c r="L1319" s="14">
+        <f>IF(B1319="Pending","",(G1319/C1319)/(VLOOKUP(B1319,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1.506839011496436E-2</v>
+      </c>
+    </row>
+    <row r="1320" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1320" s="1">
+        <v>44040</v>
+      </c>
+      <c r="B1320" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1320">
+        <v>2181</v>
+      </c>
+      <c r="D1320" s="6">
+        <f t="shared" si="237"/>
+        <v>2.2020516134243367E-2</v>
+      </c>
+      <c r="E1320" s="7">
+        <f t="shared" si="238"/>
+        <v>69</v>
+      </c>
+      <c r="F1320" s="6">
+        <f t="shared" si="239"/>
+        <v>2.700587084148728E-2</v>
+      </c>
+      <c r="G1320" s="2">
+        <v>324</v>
+      </c>
+      <c r="H1320" s="7">
+        <f t="shared" si="240"/>
+        <v>6</v>
+      </c>
+      <c r="I1320" s="6">
+        <f t="shared" si="241"/>
+        <v>0.32432432432432434</v>
+      </c>
+      <c r="J1320" s="10">
+        <f>IF(B1320="Pending","",C1320/(VLOOKUP(B1320,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>982.68006570277942</v>
+      </c>
+      <c r="K1320" s="10">
+        <f>IF(B1320="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1320,A:A,"&gt;="&amp;A1320-30,B:B,B1320)/(VLOOKUP(B1320,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>570.41401337905495</v>
+      </c>
+      <c r="L1320" s="14">
+        <f>IF(B1320="Pending","",(G1320/C1320)/(VLOOKUP(B1320,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>6.6933852949034131E-2</v>
+      </c>
+    </row>
+    <row r="1321" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1321" s="1">
+        <v>44040</v>
+      </c>
+      <c r="B1321" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1321">
+        <v>274</v>
+      </c>
+      <c r="D1321" s="6">
+        <f t="shared" si="237"/>
+        <v>2.7664472355720688E-3</v>
+      </c>
+      <c r="E1321" s="7">
+        <f t="shared" si="238"/>
+        <v>100</v>
+      </c>
+      <c r="F1321" s="6">
+        <f t="shared" si="239"/>
+        <v>3.9138943248532287E-2</v>
+      </c>
+      <c r="G1321" s="2">
+        <v>0</v>
+      </c>
+      <c r="H1321" s="7">
+        <f t="shared" si="240"/>
+        <v>0</v>
+      </c>
+      <c r="I1321" s="6">
+        <f t="shared" si="241"/>
+        <v>0</v>
+      </c>
+      <c r="J1321" s="10" t="str">
+        <f>IF(B1321="Pending","",C1321/(VLOOKUP(B1321,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v/>
+      </c>
+      <c r="K1321" s="10" t="str">
+        <f>IF(B1321="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1321,A:A,"&gt;="&amp;A1321-30,B:B,B1321)/(VLOOKUP(B1321,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v/>
+      </c>
+      <c r="L1321" s="14" t="str">
+        <f>IF(B1321="Pending","",(G1321/C1321)/(VLOOKUP(B1321,Population!$A$2:$B$10,2,FALSE)/100000))</f>
         <v/>
       </c>
     </row>

--- a/TN_Age.xlsx
+++ b/TN_Age.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1345" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1355" uniqueCount="33">
   <si>
     <t>0-10</t>
   </si>
@@ -483,11 +483,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M1321"/>
+  <dimension ref="A1:M1331"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1299" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A1321" sqref="A1321"/>
+      <pane ySplit="1" topLeftCell="A1318" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A1331" sqref="A1331"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -57120,6 +57120,466 @@
       </c>
       <c r="L1321" s="14" t="str">
         <f>IF(B1321="Pending","",(G1321/C1321)/(VLOOKUP(B1321,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="1322" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1322" s="1">
+        <v>44041</v>
+      </c>
+      <c r="B1322" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1322">
+        <v>4713</v>
+      </c>
+      <c r="D1322" s="6">
+        <f t="shared" ref="D1322:D1331" si="242">C1322/SUMIF(A:A,A1322,C:C)</f>
+        <v>4.6745749935529941E-2</v>
+      </c>
+      <c r="E1322" s="7">
+        <f t="shared" ref="E1322:E1331" si="243">C1322-SUMIFS(C:C,A:A,A1322-1,B:B,B1322)</f>
+        <v>112</v>
+      </c>
+      <c r="F1322" s="6">
+        <f t="shared" ref="F1322:F1331" si="244">E1322/SUMIF(A:A,A1322,E:E)</f>
+        <v>6.2992125984251968E-2</v>
+      </c>
+      <c r="G1322">
+        <v>3</v>
+      </c>
+      <c r="H1322" s="7">
+        <f t="shared" ref="H1322:H1331" si="245">G1322-SUMIFS(G:G,A:A,A1322-1,B:B,B1322)</f>
+        <v>0</v>
+      </c>
+      <c r="I1322" s="6">
+        <f t="shared" ref="I1322:I1331" si="246">G1322/SUMIF(A:A,A1322,G:G)</f>
+        <v>2.9411764705882353E-3</v>
+      </c>
+      <c r="J1322" s="10">
+        <f>IF(B1322="Pending","",C1322/(VLOOKUP(B1322,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>517.81638562985506</v>
+      </c>
+      <c r="K1322" s="10">
+        <f>IF(B1322="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1322,A:A,"&gt;="&amp;A1322-30,B:B,B1322)/(VLOOKUP(B1322,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>315.98555592435031</v>
+      </c>
+      <c r="L1322" s="14">
+        <f>IF(B1322="Pending","",(G1322/C1322)/(VLOOKUP(B1322,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>6.9936221430931794E-5</v>
+      </c>
+    </row>
+    <row r="1323" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1323" s="1">
+        <v>44041</v>
+      </c>
+      <c r="B1323" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1323">
+        <v>11346</v>
+      </c>
+      <c r="D1323" s="6">
+        <f t="shared" si="242"/>
+        <v>0.11253496260736744</v>
+      </c>
+      <c r="E1323" s="7">
+        <f t="shared" si="243"/>
+        <v>204</v>
+      </c>
+      <c r="F1323" s="6">
+        <f t="shared" si="244"/>
+        <v>0.11473565804274466</v>
+      </c>
+      <c r="G1323">
+        <v>1</v>
+      </c>
+      <c r="H1323" s="7">
+        <f t="shared" si="245"/>
+        <v>0</v>
+      </c>
+      <c r="I1323" s="6">
+        <f t="shared" si="246"/>
+        <v>9.8039215686274508E-4</v>
+      </c>
+      <c r="J1323" s="10">
+        <f>IF(B1323="Pending","",C1323/(VLOOKUP(B1323,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1318.0660862918685</v>
+      </c>
+      <c r="K1323" s="10">
+        <f>IF(B1323="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1323,A:A,"&gt;="&amp;A1323-30,B:B,B1323)/(VLOOKUP(B1323,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>875.22562084637195</v>
+      </c>
+      <c r="L1323" s="14">
+        <f>IF(B1323="Pending","",(G1323/C1323)/(VLOOKUP(B1323,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1.0238860532954198E-5</v>
+      </c>
+    </row>
+    <row r="1324" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1324" s="1">
+        <v>44041</v>
+      </c>
+      <c r="B1324" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1324">
+        <v>23707</v>
+      </c>
+      <c r="D1324" s="6">
+        <f t="shared" si="242"/>
+        <v>0.23513717244252247</v>
+      </c>
+      <c r="E1324" s="7">
+        <f t="shared" si="243"/>
+        <v>311</v>
+      </c>
+      <c r="F1324" s="6">
+        <f t="shared" si="244"/>
+        <v>0.17491563554555681</v>
+      </c>
+      <c r="G1324">
+        <v>12</v>
+      </c>
+      <c r="H1324" s="7">
+        <f t="shared" si="245"/>
+        <v>0</v>
+      </c>
+      <c r="I1324" s="6">
+        <f t="shared" si="246"/>
+        <v>1.1764705882352941E-2</v>
+      </c>
+      <c r="J1324" s="10">
+        <f>IF(B1324="Pending","",C1324/(VLOOKUP(B1324,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>2508.6285917356668</v>
+      </c>
+      <c r="K1324" s="10">
+        <f>IF(B1324="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1324,A:A,"&gt;="&amp;A1324-30,B:B,B1324)/(VLOOKUP(B1324,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1588.8580716628437</v>
+      </c>
+      <c r="L1324" s="14">
+        <f>IF(B1324="Pending","",(G1324/C1324)/(VLOOKUP(B1324,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>5.3562940932618442E-5</v>
+      </c>
+    </row>
+    <row r="1325" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1325" s="1">
+        <v>44041</v>
+      </c>
+      <c r="B1325" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1325">
+        <v>18603</v>
+      </c>
+      <c r="D1325" s="6">
+        <f t="shared" si="242"/>
+        <v>0.18451330066850488</v>
+      </c>
+      <c r="E1325" s="7">
+        <f t="shared" si="243"/>
+        <v>318</v>
+      </c>
+      <c r="F1325" s="6">
+        <f t="shared" si="244"/>
+        <v>0.17885264341957255</v>
+      </c>
+      <c r="G1325">
+        <v>18</v>
+      </c>
+      <c r="H1325" s="7">
+        <f t="shared" si="245"/>
+        <v>3</v>
+      </c>
+      <c r="I1325" s="6">
+        <f t="shared" si="246"/>
+        <v>1.7647058823529412E-2</v>
+      </c>
+      <c r="J1325" s="10">
+        <f>IF(B1325="Pending","",C1325/(VLOOKUP(B1325,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>2115.8913678517347</v>
+      </c>
+      <c r="K1325" s="10">
+        <f>IF(B1325="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1325,A:A,"&gt;="&amp;A1325-30,B:B,B1325)/(VLOOKUP(B1325,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1185.617998090979</v>
+      </c>
+      <c r="L1325" s="14">
+        <f>IF(B1325="Pending","",(G1325/C1325)/(VLOOKUP(B1325,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1.1005249674015074E-4</v>
+      </c>
+    </row>
+    <row r="1326" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1326" s="1">
+        <v>44041</v>
+      </c>
+      <c r="B1326" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1326">
+        <v>15669</v>
+      </c>
+      <c r="D1326" s="6">
+        <f t="shared" si="242"/>
+        <v>0.15541250917458491</v>
+      </c>
+      <c r="E1326" s="7">
+        <f t="shared" si="243"/>
+        <v>269</v>
+      </c>
+      <c r="F1326" s="6">
+        <f t="shared" si="244"/>
+        <v>0.15129358830146231</v>
+      </c>
+      <c r="G1326">
+        <v>58</v>
+      </c>
+      <c r="H1326" s="7">
+        <f t="shared" si="245"/>
+        <v>0</v>
+      </c>
+      <c r="I1326" s="6">
+        <f t="shared" si="246"/>
+        <v>5.6862745098039215E-2</v>
+      </c>
+      <c r="J1326" s="10">
+        <f>IF(B1326="Pending","",C1326/(VLOOKUP(B1326,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1837.9525752928064</v>
+      </c>
+      <c r="K1326" s="10">
+        <f>IF(B1326="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1326,A:A,"&gt;="&amp;A1326-30,B:B,B1326)/(VLOOKUP(B1326,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1053.2245946489315</v>
+      </c>
+      <c r="L1326" s="14">
+        <f>IF(B1326="Pending","",(G1326/C1326)/(VLOOKUP(B1326,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>4.3418991673260706E-4</v>
+      </c>
+    </row>
+    <row r="1327" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1327" s="1">
+        <v>44041</v>
+      </c>
+      <c r="B1327" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1327">
+        <v>12517</v>
+      </c>
+      <c r="D1327" s="6">
+        <f t="shared" si="242"/>
+        <v>0.12414949118248002</v>
+      </c>
+      <c r="E1327" s="7">
+        <f t="shared" si="243"/>
+        <v>226</v>
+      </c>
+      <c r="F1327" s="6">
+        <f t="shared" si="244"/>
+        <v>0.12710911136107986</v>
+      </c>
+      <c r="G1327">
+        <v>120</v>
+      </c>
+      <c r="H1327" s="7">
+        <f t="shared" si="245"/>
+        <v>2</v>
+      </c>
+      <c r="I1327" s="6">
+        <f t="shared" si="246"/>
+        <v>0.11764705882352941</v>
+      </c>
+      <c r="J1327" s="10">
+        <f>IF(B1327="Pending","",C1327/(VLOOKUP(B1327,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1398.0604840844649</v>
+      </c>
+      <c r="K1327" s="10">
+        <f>IF(B1327="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1327,A:A,"&gt;="&amp;A1327-30,B:B,B1327)/(VLOOKUP(B1327,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>809.10363079874276</v>
+      </c>
+      <c r="L1327" s="14">
+        <f>IF(B1327="Pending","",(G1327/C1327)/(VLOOKUP(B1327,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1.0707959063674412E-3</v>
+      </c>
+    </row>
+    <row r="1328" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1328" s="1">
+        <v>44041</v>
+      </c>
+      <c r="B1328" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1328">
+        <v>7697</v>
+      </c>
+      <c r="D1328" s="6">
+        <f t="shared" si="242"/>
+        <v>7.6342464938207927E-2</v>
+      </c>
+      <c r="E1328" s="7">
+        <f t="shared" si="243"/>
+        <v>176</v>
+      </c>
+      <c r="F1328" s="6">
+        <f t="shared" si="244"/>
+        <v>9.8987626546681667E-2</v>
+      </c>
+      <c r="G1328">
+        <v>190</v>
+      </c>
+      <c r="H1328" s="7">
+        <f t="shared" si="245"/>
+        <v>7</v>
+      </c>
+      <c r="I1328" s="6">
+        <f t="shared" si="246"/>
+        <v>0.18627450980392157</v>
+      </c>
+      <c r="J1328" s="10">
+        <f>IF(B1328="Pending","",C1328/(VLOOKUP(B1328,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>979.59822866531306</v>
+      </c>
+      <c r="K1328" s="10">
+        <f>IF(B1328="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1328,A:A,"&gt;="&amp;A1328-30,B:B,B1328)/(VLOOKUP(B1328,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>607.2058138186577</v>
+      </c>
+      <c r="L1328" s="14">
+        <f>IF(B1328="Pending","",(G1328/C1328)/(VLOOKUP(B1328,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>3.1416559230080816E-3</v>
+      </c>
+    </row>
+    <row r="1329" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1329" s="1">
+        <v>44041</v>
+      </c>
+      <c r="B1329" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1329">
+        <v>4057</v>
+      </c>
+      <c r="D1329" s="6">
+        <f t="shared" si="242"/>
+        <v>4.023923350062486E-2</v>
+      </c>
+      <c r="E1329" s="7">
+        <f t="shared" si="243"/>
+        <v>104</v>
+      </c>
+      <c r="F1329" s="6">
+        <f t="shared" si="244"/>
+        <v>5.8492688413948259E-2</v>
+      </c>
+      <c r="G1329">
+        <v>290</v>
+      </c>
+      <c r="H1329" s="7">
+        <f t="shared" si="245"/>
+        <v>5</v>
+      </c>
+      <c r="I1329" s="6">
+        <f t="shared" si="246"/>
+        <v>0.28431372549019607</v>
+      </c>
+      <c r="J1329" s="10">
+        <f>IF(B1329="Pending","",C1329/(VLOOKUP(B1329,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>847.91792711196604</v>
+      </c>
+      <c r="K1329" s="10">
+        <f>IF(B1329="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1329,A:A,"&gt;="&amp;A1329-30,B:B,B1329)/(VLOOKUP(B1329,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>535.67011269114346</v>
+      </c>
+      <c r="L1329" s="14">
+        <f>IF(B1329="Pending","",(G1329/C1329)/(VLOOKUP(B1329,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1.4939697361797623E-2</v>
+      </c>
+    </row>
+    <row r="1330" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1330" s="1">
+        <v>44041</v>
+      </c>
+      <c r="B1330" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1330">
+        <v>2258</v>
+      </c>
+      <c r="D1330" s="6">
+        <f t="shared" si="242"/>
+        <v>2.2395905655511694E-2</v>
+      </c>
+      <c r="E1330" s="7">
+        <f t="shared" si="243"/>
+        <v>77</v>
+      </c>
+      <c r="F1330" s="6">
+        <f t="shared" si="244"/>
+        <v>4.3307086614173228E-2</v>
+      </c>
+      <c r="G1330">
+        <v>328</v>
+      </c>
+      <c r="H1330" s="7">
+        <f t="shared" si="245"/>
+        <v>4</v>
+      </c>
+      <c r="I1330" s="6">
+        <f t="shared" si="246"/>
+        <v>0.32156862745098042</v>
+      </c>
+      <c r="J1330" s="10">
+        <f>IF(B1330="Pending","",C1330/(VLOOKUP(B1330,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1017.3734930567978</v>
+      </c>
+      <c r="K1330" s="10">
+        <f>IF(B1330="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1330,A:A,"&gt;="&amp;A1330-30,B:B,B1330)/(VLOOKUP(B1330,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>605.1074407330733</v>
+      </c>
+      <c r="L1330" s="14">
+        <f>IF(B1330="Pending","",(G1330/C1330)/(VLOOKUP(B1330,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>6.5449508081614677E-2</v>
+      </c>
+    </row>
+    <row r="1331" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1331" s="1">
+        <v>44041</v>
+      </c>
+      <c r="B1331" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1331">
+        <v>255</v>
+      </c>
+      <c r="D1331" s="6">
+        <f t="shared" si="242"/>
+        <v>2.5292098946658468E-3</v>
+      </c>
+      <c r="E1331" s="7">
+        <f t="shared" si="243"/>
+        <v>-19</v>
+      </c>
+      <c r="F1331" s="6">
+        <f t="shared" si="244"/>
+        <v>-1.0686164229471317E-2</v>
+      </c>
+      <c r="G1331">
+        <v>0</v>
+      </c>
+      <c r="H1331" s="7">
+        <f t="shared" si="245"/>
+        <v>0</v>
+      </c>
+      <c r="I1331" s="6">
+        <f t="shared" si="246"/>
+        <v>0</v>
+      </c>
+      <c r="J1331" s="10" t="str">
+        <f>IF(B1331="Pending","",C1331/(VLOOKUP(B1331,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v/>
+      </c>
+      <c r="K1331" s="10" t="str">
+        <f>IF(B1331="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1331,A:A,"&gt;="&amp;A1331-30,B:B,B1331)/(VLOOKUP(B1331,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v/>
+      </c>
+      <c r="L1331" s="14" t="str">
+        <f>IF(B1331="Pending","",(G1331/C1331)/(VLOOKUP(B1331,Population!$A$2:$B$10,2,FALSE)/100000))</f>
         <v/>
       </c>
     </row>

--- a/TN_Age.xlsx
+++ b/TN_Age.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1355" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1365" uniqueCount="33">
   <si>
     <t>0-10</t>
   </si>
@@ -483,11 +483,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M1331"/>
+  <dimension ref="A1:M1341"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1318" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A1331" sqref="A1331"/>
+      <pane ySplit="1" topLeftCell="A1321" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A1341" sqref="A1341"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -57580,6 +57580,466 @@
       </c>
       <c r="L1331" s="14" t="str">
         <f>IF(B1331="Pending","",(G1331/C1331)/(VLOOKUP(B1331,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="1332" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1332" s="1">
+        <v>44042</v>
+      </c>
+      <c r="B1332" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1332">
+        <v>4837</v>
+      </c>
+      <c r="D1332" s="6">
+        <f t="shared" ref="D1332:D1341" si="247">C1332/SUMIF(A:A,A1332,C:C)</f>
+        <v>4.7020054242692302E-2</v>
+      </c>
+      <c r="E1332" s="7">
+        <f t="shared" ref="E1332:E1341" si="248">C1332-SUMIFS(C:C,A:A,A1332-1,B:B,B1332)</f>
+        <v>124</v>
+      </c>
+      <c r="F1332" s="6">
+        <f t="shared" ref="F1332:F1341" si="249">E1332/SUMIF(A:A,A1332,E:E)</f>
+        <v>6.0517325524646171E-2</v>
+      </c>
+      <c r="G1332" s="2">
+        <v>3</v>
+      </c>
+      <c r="H1332" s="7">
+        <f t="shared" ref="H1332:H1341" si="250">G1332-SUMIFS(G:G,A:A,A1332-1,B:B,B1332)</f>
+        <v>0</v>
+      </c>
+      <c r="I1332" s="6">
+        <f t="shared" ref="I1332:I1341" si="251">G1332/SUMIF(A:A,A1332,G:G)</f>
+        <v>2.9041626331074541E-3</v>
+      </c>
+      <c r="J1332" s="10">
+        <f>IF(B1332="Pending","",C1332/(VLOOKUP(B1332,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>531.44024130948628</v>
+      </c>
+      <c r="K1332" s="10">
+        <f>IF(B1332="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1332,A:A,"&gt;="&amp;A1332-30,B:B,B1332)/(VLOOKUP(B1332,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>316.09542572821829</v>
+      </c>
+      <c r="L1332" s="14">
+        <f>IF(B1332="Pending","",(G1332/C1332)/(VLOOKUP(B1332,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>6.8143355717176256E-5</v>
+      </c>
+    </row>
+    <row r="1333" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1333" s="1">
+        <v>44042</v>
+      </c>
+      <c r="B1333" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1333">
+        <v>11599</v>
+      </c>
+      <c r="D1333" s="6">
+        <f t="shared" si="247"/>
+        <v>0.11275286523898864</v>
+      </c>
+      <c r="E1333" s="7">
+        <f t="shared" si="248"/>
+        <v>253</v>
+      </c>
+      <c r="F1333" s="6">
+        <f t="shared" si="249"/>
+        <v>0.12347486578818936</v>
+      </c>
+      <c r="G1333" s="2">
+        <v>2</v>
+      </c>
+      <c r="H1333" s="7">
+        <f t="shared" si="250"/>
+        <v>1</v>
+      </c>
+      <c r="I1333" s="6">
+        <f t="shared" si="251"/>
+        <v>1.9361084220716361E-3</v>
+      </c>
+      <c r="J1333" s="10">
+        <f>IF(B1333="Pending","",C1333/(VLOOKUP(B1333,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1347.4571245284137</v>
+      </c>
+      <c r="K1333" s="10">
+        <f>IF(B1333="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1333,A:A,"&gt;="&amp;A1333-30,B:B,B1333)/(VLOOKUP(B1333,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>877.43285296690306</v>
+      </c>
+      <c r="L1333" s="14">
+        <f>IF(B1333="Pending","",(G1333/C1333)/(VLOOKUP(B1333,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>2.0031056402603384E-5</v>
+      </c>
+    </row>
+    <row r="1334" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1334" s="1">
+        <v>44042</v>
+      </c>
+      <c r="B1334" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1334">
+        <v>24120</v>
+      </c>
+      <c r="D1334" s="6">
+        <f t="shared" si="247"/>
+        <v>0.23446841189450865</v>
+      </c>
+      <c r="E1334" s="7">
+        <f t="shared" si="248"/>
+        <v>413</v>
+      </c>
+      <c r="F1334" s="6">
+        <f t="shared" si="249"/>
+        <v>0.2015617374328941</v>
+      </c>
+      <c r="G1334" s="2">
+        <v>12</v>
+      </c>
+      <c r="H1334" s="7">
+        <f t="shared" si="250"/>
+        <v>0</v>
+      </c>
+      <c r="I1334" s="6">
+        <f t="shared" si="251"/>
+        <v>1.1616650532429816E-2</v>
+      </c>
+      <c r="J1334" s="10">
+        <f>IF(B1334="Pending","",C1334/(VLOOKUP(B1334,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>2552.3314477860667</v>
+      </c>
+      <c r="K1334" s="10">
+        <f>IF(B1334="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1334,A:A,"&gt;="&amp;A1334-30,B:B,B1334)/(VLOOKUP(B1334,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1570.234094266063</v>
+      </c>
+      <c r="L1334" s="14">
+        <f>IF(B1334="Pending","",(G1334/C1334)/(VLOOKUP(B1334,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>5.2645797706865063E-5</v>
+      </c>
+    </row>
+    <row r="1335" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1335" s="1">
+        <v>44042</v>
+      </c>
+      <c r="B1335" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1335">
+        <v>18950</v>
+      </c>
+      <c r="D1335" s="6">
+        <f t="shared" si="247"/>
+        <v>0.18421129375625783</v>
+      </c>
+      <c r="E1335" s="7">
+        <f t="shared" si="248"/>
+        <v>347</v>
+      </c>
+      <c r="F1335" s="6">
+        <f t="shared" si="249"/>
+        <v>0.1693509028794534</v>
+      </c>
+      <c r="G1335" s="2">
+        <v>18</v>
+      </c>
+      <c r="H1335" s="7">
+        <f t="shared" si="250"/>
+        <v>0</v>
+      </c>
+      <c r="I1335" s="6">
+        <f t="shared" si="251"/>
+        <v>1.7424975798644726E-2</v>
+      </c>
+      <c r="J1335" s="10">
+        <f>IF(B1335="Pending","",C1335/(VLOOKUP(B1335,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>2155.3588894689228</v>
+      </c>
+      <c r="K1335" s="10">
+        <f>IF(B1335="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1335,A:A,"&gt;="&amp;A1335-30,B:B,B1335)/(VLOOKUP(B1335,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1180.7272101095982</v>
+      </c>
+      <c r="L1335" s="14">
+        <f>IF(B1335="Pending","",(G1335/C1335)/(VLOOKUP(B1335,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1.0803728743308837E-4</v>
+      </c>
+    </row>
+    <row r="1336" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1336" s="1">
+        <v>44042</v>
+      </c>
+      <c r="B1336" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1336">
+        <v>15962</v>
+      </c>
+      <c r="D1336" s="6">
+        <f t="shared" si="247"/>
+        <v>0.15516520690962468</v>
+      </c>
+      <c r="E1336" s="7">
+        <f t="shared" si="248"/>
+        <v>293</v>
+      </c>
+      <c r="F1336" s="6">
+        <f t="shared" si="249"/>
+        <v>0.14299658369936555</v>
+      </c>
+      <c r="G1336" s="2">
+        <v>59</v>
+      </c>
+      <c r="H1336" s="7">
+        <f t="shared" si="250"/>
+        <v>1</v>
+      </c>
+      <c r="I1336" s="6">
+        <f t="shared" si="251"/>
+        <v>5.7115198451113264E-2</v>
+      </c>
+      <c r="J1336" s="10">
+        <f>IF(B1336="Pending","",C1336/(VLOOKUP(B1336,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1872.321080274668</v>
+      </c>
+      <c r="K1336" s="10">
+        <f>IF(B1336="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1336,A:A,"&gt;="&amp;A1336-30,B:B,B1336)/(VLOOKUP(B1336,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1045.2482863254961</v>
+      </c>
+      <c r="L1336" s="14">
+        <f>IF(B1336="Pending","",(G1336/C1336)/(VLOOKUP(B1336,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>4.3356850376509508E-4</v>
+      </c>
+    </row>
+    <row r="1337" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1337" s="1">
+        <v>44042</v>
+      </c>
+      <c r="B1337" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1337">
+        <v>12783</v>
+      </c>
+      <c r="D1337" s="6">
+        <f t="shared" si="247"/>
+        <v>0.12426242575653003</v>
+      </c>
+      <c r="E1337" s="7">
+        <f t="shared" si="248"/>
+        <v>266</v>
+      </c>
+      <c r="F1337" s="6">
+        <f t="shared" si="249"/>
+        <v>0.12981942410932162</v>
+      </c>
+      <c r="G1337" s="2">
+        <v>119</v>
+      </c>
+      <c r="H1337" s="7">
+        <f t="shared" si="250"/>
+        <v>-1</v>
+      </c>
+      <c r="I1337" s="6">
+        <f t="shared" si="251"/>
+        <v>0.11519845111326234</v>
+      </c>
+      <c r="J1337" s="10">
+        <f>IF(B1337="Pending","",C1337/(VLOOKUP(B1337,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1427.7708051491343</v>
+      </c>
+      <c r="K1337" s="10">
+        <f>IF(B1337="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1337,A:A,"&gt;="&amp;A1337-30,B:B,B1337)/(VLOOKUP(B1337,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>812.56611182507652</v>
+      </c>
+      <c r="L1337" s="14">
+        <f>IF(B1337="Pending","",(G1337/C1337)/(VLOOKUP(B1337,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1.0397762202665976E-3</v>
+      </c>
+    </row>
+    <row r="1338" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1338" s="1">
+        <v>44042</v>
+      </c>
+      <c r="B1338" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1338">
+        <v>7900</v>
+      </c>
+      <c r="D1338" s="6">
+        <f t="shared" si="247"/>
+        <v>7.6795209534271075E-2</v>
+      </c>
+      <c r="E1338" s="7">
+        <f t="shared" si="248"/>
+        <v>203</v>
+      </c>
+      <c r="F1338" s="6">
+        <f t="shared" si="249"/>
+        <v>9.9072718399219134E-2</v>
+      </c>
+      <c r="G1338" s="2">
+        <v>193</v>
+      </c>
+      <c r="H1338" s="7">
+        <f t="shared" si="250"/>
+        <v>3</v>
+      </c>
+      <c r="I1338" s="6">
+        <f t="shared" si="251"/>
+        <v>0.18683446272991289</v>
+      </c>
+      <c r="J1338" s="10">
+        <f>IF(B1338="Pending","",C1338/(VLOOKUP(B1338,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1005.4340660589805</v>
+      </c>
+      <c r="K1338" s="10">
+        <f>IF(B1338="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1338,A:A,"&gt;="&amp;A1338-30,B:B,B1338)/(VLOOKUP(B1338,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>613.6965907008107</v>
+      </c>
+      <c r="L1338" s="14">
+        <f>IF(B1338="Pending","",(G1338/C1338)/(VLOOKUP(B1338,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>3.1092577271171805E-3</v>
+      </c>
+    </row>
+    <row r="1339" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1339" s="1">
+        <v>44042</v>
+      </c>
+      <c r="B1339" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1339">
+        <v>4166</v>
+      </c>
+      <c r="D1339" s="6">
+        <f t="shared" si="247"/>
+        <v>4.0497321888578901E-2</v>
+      </c>
+      <c r="E1339" s="7">
+        <f t="shared" si="248"/>
+        <v>109</v>
+      </c>
+      <c r="F1339" s="6">
+        <f t="shared" si="249"/>
+        <v>5.3196681307955102E-2</v>
+      </c>
+      <c r="G1339" s="2">
+        <v>295</v>
+      </c>
+      <c r="H1339" s="7">
+        <f t="shared" si="250"/>
+        <v>5</v>
+      </c>
+      <c r="I1339" s="6">
+        <f t="shared" si="251"/>
+        <v>0.28557599225556629</v>
+      </c>
+      <c r="J1339" s="10">
+        <f>IF(B1339="Pending","",C1339/(VLOOKUP(B1339,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>870.6990594893889</v>
+      </c>
+      <c r="K1339" s="10">
+        <f>IF(B1339="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1339,A:A,"&gt;="&amp;A1339-30,B:B,B1339)/(VLOOKUP(B1339,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>540.68614183846591</v>
+      </c>
+      <c r="L1339" s="14">
+        <f>IF(B1339="Pending","",(G1339/C1339)/(VLOOKUP(B1339,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1.4799653929229908E-2</v>
+      </c>
+    </row>
+    <row r="1340" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1340" s="1">
+        <v>44042</v>
+      </c>
+      <c r="B1340" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1340">
+        <v>2315</v>
+      </c>
+      <c r="D1340" s="6">
+        <f t="shared" si="247"/>
+        <v>2.250391266732121E-2</v>
+      </c>
+      <c r="E1340" s="7">
+        <f t="shared" si="248"/>
+        <v>57</v>
+      </c>
+      <c r="F1340" s="6">
+        <f t="shared" si="249"/>
+        <v>2.7818448023426062E-2</v>
+      </c>
+      <c r="G1340" s="2">
+        <v>332</v>
+      </c>
+      <c r="H1340" s="7">
+        <f t="shared" si="250"/>
+        <v>4</v>
+      </c>
+      <c r="I1340" s="6">
+        <f t="shared" si="251"/>
+        <v>0.32139399806389157</v>
+      </c>
+      <c r="J1340" s="10">
+        <f>IF(B1340="Pending","",C1340/(VLOOKUP(B1340,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1043.0556405786035</v>
+      </c>
+      <c r="K1340" s="10">
+        <f>IF(B1340="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1340,A:A,"&gt;="&amp;A1340-30,B:B,B1340)/(VLOOKUP(B1340,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>614.1187205652858</v>
+      </c>
+      <c r="L1340" s="14">
+        <f>IF(B1340="Pending","",(G1340/C1340)/(VLOOKUP(B1340,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>6.4616520611113809E-2</v>
+      </c>
+    </row>
+    <row r="1341" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1341" s="1">
+        <v>44042</v>
+      </c>
+      <c r="B1341" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1341">
+        <v>239</v>
+      </c>
+      <c r="D1341" s="6">
+        <f t="shared" si="247"/>
+        <v>2.3232981112266821E-3</v>
+      </c>
+      <c r="E1341" s="7">
+        <f t="shared" si="248"/>
+        <v>-16</v>
+      </c>
+      <c r="F1341" s="6">
+        <f t="shared" si="249"/>
+        <v>-7.8086871644704736E-3</v>
+      </c>
+      <c r="G1341" s="2">
+        <v>0</v>
+      </c>
+      <c r="H1341" s="7">
+        <f t="shared" si="250"/>
+        <v>0</v>
+      </c>
+      <c r="I1341" s="6">
+        <f t="shared" si="251"/>
+        <v>0</v>
+      </c>
+      <c r="J1341" s="10" t="str">
+        <f>IF(B1341="Pending","",C1341/(VLOOKUP(B1341,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v/>
+      </c>
+      <c r="K1341" s="10" t="str">
+        <f>IF(B1341="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1341,A:A,"&gt;="&amp;A1341-30,B:B,B1341)/(VLOOKUP(B1341,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v/>
+      </c>
+      <c r="L1341" s="14" t="str">
+        <f>IF(B1341="Pending","",(G1341/C1341)/(VLOOKUP(B1341,Population!$A$2:$B$10,2,FALSE)/100000))</f>
         <v/>
       </c>
     </row>

--- a/TN_Age.xlsx
+++ b/TN_Age.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1365" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1385" uniqueCount="33">
   <si>
     <t>0-10</t>
   </si>
@@ -483,11 +483,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M1341"/>
+  <dimension ref="A1:M1361"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1321" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A1341" sqref="A1341"/>
+      <pane ySplit="1" topLeftCell="A1336" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A1361" sqref="A1361"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -58040,6 +58040,926 @@
       </c>
       <c r="L1341" s="14" t="str">
         <f>IF(B1341="Pending","",(G1341/C1341)/(VLOOKUP(B1341,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="1342" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1342" s="1">
+        <v>44043</v>
+      </c>
+      <c r="B1342" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1342" s="2">
+        <v>4984</v>
+      </c>
+      <c r="D1342" s="6">
+        <f t="shared" ref="D1342:D1351" si="252">C1342/SUMIF(A:A,A1342,C:C)</f>
+        <v>4.7037061504921714E-2</v>
+      </c>
+      <c r="E1342" s="7">
+        <f t="shared" ref="E1342:E1351" si="253">C1342-SUMIFS(C:C,A:A,A1342-1,B:B,B1342)</f>
+        <v>147</v>
+      </c>
+      <c r="F1342" s="6">
+        <f t="shared" ref="F1342:F1351" si="254">E1342/SUMIF(A:A,A1342,E:E)</f>
+        <v>4.7603626943005184E-2</v>
+      </c>
+      <c r="G1342" s="2">
+        <v>3</v>
+      </c>
+      <c r="H1342" s="7">
+        <f t="shared" ref="H1342:H1351" si="255">G1342-SUMIFS(G:G,A:A,A1342-1,B:B,B1342)</f>
+        <v>0</v>
+      </c>
+      <c r="I1342" s="6">
+        <f t="shared" ref="I1342:I1351" si="256">G1342/SUMIF(A:A,A1342,G:G)</f>
+        <v>2.8301886792452828E-3</v>
+      </c>
+      <c r="J1342" s="10">
+        <f>IF(B1342="Pending","",C1342/(VLOOKUP(B1342,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>547.59110247808132</v>
+      </c>
+      <c r="K1342" s="10">
+        <f>IF(B1342="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1342,A:A,"&gt;="&amp;A1342-30,B:B,B1342)/(VLOOKUP(B1342,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>325.65409866473379</v>
+      </c>
+      <c r="L1342" s="14">
+        <f>IF(B1342="Pending","",(G1342/C1342)/(VLOOKUP(B1342,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>6.6133509551360658E-5</v>
+      </c>
+    </row>
+    <row r="1343" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1343" s="1">
+        <v>44043</v>
+      </c>
+      <c r="B1343" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1343" s="2">
+        <v>11974</v>
+      </c>
+      <c r="D1343" s="6">
+        <f t="shared" si="252"/>
+        <v>0.11300597400881474</v>
+      </c>
+      <c r="E1343" s="7">
+        <f t="shared" si="253"/>
+        <v>375</v>
+      </c>
+      <c r="F1343" s="6">
+        <f t="shared" si="254"/>
+        <v>0.12143782383419689</v>
+      </c>
+      <c r="G1343" s="2">
+        <v>1</v>
+      </c>
+      <c r="H1343" s="7">
+        <f t="shared" si="255"/>
+        <v>-1</v>
+      </c>
+      <c r="I1343" s="6">
+        <f t="shared" si="256"/>
+        <v>9.4339622641509435E-4</v>
+      </c>
+      <c r="J1343" s="10">
+        <f>IF(B1343="Pending","",C1343/(VLOOKUP(B1343,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1391.0209163810005</v>
+      </c>
+      <c r="K1343" s="10">
+        <f>IF(B1343="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1343,A:A,"&gt;="&amp;A1343-30,B:B,B1343)/(VLOOKUP(B1343,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>907.63708198469658</v>
+      </c>
+      <c r="L1343" s="14">
+        <f>IF(B1343="Pending","",(G1343/C1343)/(VLOOKUP(B1343,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>9.7018633378067749E-6</v>
+      </c>
+    </row>
+    <row r="1344" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1344" s="1">
+        <v>44043</v>
+      </c>
+      <c r="B1344" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1344" s="2">
+        <v>24777</v>
+      </c>
+      <c r="D1344" s="6">
+        <f t="shared" si="252"/>
+        <v>0.23383572891401391</v>
+      </c>
+      <c r="E1344" s="7">
+        <f t="shared" si="253"/>
+        <v>657</v>
+      </c>
+      <c r="F1344" s="6">
+        <f t="shared" si="254"/>
+        <v>0.21275906735751296</v>
+      </c>
+      <c r="G1344" s="2">
+        <v>11</v>
+      </c>
+      <c r="H1344" s="7">
+        <f t="shared" si="255"/>
+        <v>-1</v>
+      </c>
+      <c r="I1344" s="6">
+        <f t="shared" si="256"/>
+        <v>1.0377358490566037E-2</v>
+      </c>
+      <c r="J1344" s="10">
+        <f>IF(B1344="Pending","",C1344/(VLOOKUP(B1344,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>2621.8539088638213</v>
+      </c>
+      <c r="K1344" s="10">
+        <f>IF(B1344="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1344,A:A,"&gt;="&amp;A1344-30,B:B,B1344)/(VLOOKUP(B1344,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1607.3762310062334</v>
+      </c>
+      <c r="L1344" s="14">
+        <f>IF(B1344="Pending","",(G1344/C1344)/(VLOOKUP(B1344,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>4.6978996137497945E-5</v>
+      </c>
+    </row>
+    <row r="1345" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1345" s="1">
+        <v>44043</v>
+      </c>
+      <c r="B1345" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1345" s="2">
+        <v>19456</v>
+      </c>
+      <c r="D1345" s="6">
+        <f t="shared" si="252"/>
+        <v>0.1836181919421663</v>
+      </c>
+      <c r="E1345" s="7">
+        <f t="shared" si="253"/>
+        <v>506</v>
+      </c>
+      <c r="F1345" s="6">
+        <f t="shared" si="254"/>
+        <v>0.163860103626943</v>
+      </c>
+      <c r="G1345" s="2">
+        <v>17</v>
+      </c>
+      <c r="H1345" s="7">
+        <f t="shared" si="255"/>
+        <v>-1</v>
+      </c>
+      <c r="I1345" s="6">
+        <f t="shared" si="256"/>
+        <v>1.6037735849056604E-2</v>
+      </c>
+      <c r="J1345" s="10">
+        <f>IF(B1345="Pending","",C1345/(VLOOKUP(B1345,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>2212.9109526916814</v>
+      </c>
+      <c r="K1345" s="10">
+        <f>IF(B1345="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1345,A:A,"&gt;="&amp;A1345-30,B:B,B1345)/(VLOOKUP(B1345,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1210.0719379978823</v>
+      </c>
+      <c r="L1345" s="14">
+        <f>IF(B1345="Pending","",(G1345/C1345)/(VLOOKUP(B1345,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>9.9381545100538576E-5</v>
+      </c>
+    </row>
+    <row r="1346" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1346" s="1">
+        <v>44043</v>
+      </c>
+      <c r="B1346" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1346" s="2">
+        <v>16461</v>
+      </c>
+      <c r="D1346" s="6">
+        <f t="shared" si="252"/>
+        <v>0.15535254202097037</v>
+      </c>
+      <c r="E1346" s="7">
+        <f t="shared" si="253"/>
+        <v>499</v>
+      </c>
+      <c r="F1346" s="6">
+        <f t="shared" si="254"/>
+        <v>0.16159326424870465</v>
+      </c>
+      <c r="G1346" s="2">
+        <v>60</v>
+      </c>
+      <c r="H1346" s="7">
+        <f t="shared" si="255"/>
+        <v>1</v>
+      </c>
+      <c r="I1346" s="6">
+        <f t="shared" si="256"/>
+        <v>5.6603773584905662E-2</v>
+      </c>
+      <c r="J1346" s="10">
+        <f>IF(B1346="Pending","",C1346/(VLOOKUP(B1346,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1930.8531075304668</v>
+      </c>
+      <c r="K1346" s="10">
+        <f>IF(B1346="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1346,A:A,"&gt;="&amp;A1346-30,B:B,B1346)/(VLOOKUP(B1346,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1079.7340899591729</v>
+      </c>
+      <c r="L1346" s="14">
+        <f>IF(B1346="Pending","",(G1346/C1346)/(VLOOKUP(B1346,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>4.2755112744752294E-4</v>
+      </c>
+    </row>
+    <row r="1347" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1347" s="1">
+        <v>44043</v>
+      </c>
+      <c r="B1347" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1347" s="2">
+        <v>13201</v>
+      </c>
+      <c r="D1347" s="6">
+        <f t="shared" si="252"/>
+        <v>0.12458592474447663</v>
+      </c>
+      <c r="E1347" s="7">
+        <f t="shared" si="253"/>
+        <v>418</v>
+      </c>
+      <c r="F1347" s="6">
+        <f t="shared" si="254"/>
+        <v>0.13536269430051814</v>
+      </c>
+      <c r="G1347" s="2">
+        <v>120</v>
+      </c>
+      <c r="H1347" s="7">
+        <f t="shared" si="255"/>
+        <v>1</v>
+      </c>
+      <c r="I1347" s="6">
+        <f t="shared" si="256"/>
+        <v>0.11320754716981132</v>
+      </c>
+      <c r="J1347" s="10">
+        <f>IF(B1347="Pending","",C1347/(VLOOKUP(B1347,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1474.4584525364721</v>
+      </c>
+      <c r="K1347" s="10">
+        <f>IF(B1347="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1347,A:A,"&gt;="&amp;A1347-30,B:B,B1347)/(VLOOKUP(B1347,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>842.94659050774601</v>
+      </c>
+      <c r="L1347" s="14">
+        <f>IF(B1347="Pending","",(G1347/C1347)/(VLOOKUP(B1347,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1.0153134126203514E-3</v>
+      </c>
+    </row>
+    <row r="1348" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1348" s="1">
+        <v>44043</v>
+      </c>
+      <c r="B1348" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1348" s="2">
+        <v>8189</v>
+      </c>
+      <c r="D1348" s="6">
+        <f t="shared" si="252"/>
+        <v>7.7284610085032887E-2</v>
+      </c>
+      <c r="E1348" s="7">
+        <f t="shared" si="253"/>
+        <v>289</v>
+      </c>
+      <c r="F1348" s="6">
+        <f t="shared" si="254"/>
+        <v>9.3588082901554404E-2</v>
+      </c>
+      <c r="G1348" s="2">
+        <v>199</v>
+      </c>
+      <c r="H1348" s="7">
+        <f t="shared" si="255"/>
+        <v>6</v>
+      </c>
+      <c r="I1348" s="6">
+        <f t="shared" si="256"/>
+        <v>0.18773584905660379</v>
+      </c>
+      <c r="J1348" s="10">
+        <f>IF(B1348="Pending","",C1348/(VLOOKUP(B1348,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1042.215135057847</v>
+      </c>
+      <c r="K1348" s="10">
+        <f>IF(B1348="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1348,A:A,"&gt;="&amp;A1348-30,B:B,B1348)/(VLOOKUP(B1348,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>638.89607741975726</v>
+      </c>
+      <c r="L1348" s="14">
+        <f>IF(B1348="Pending","",(G1348/C1348)/(VLOOKUP(B1348,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>3.0927777327989714E-3</v>
+      </c>
+    </row>
+    <row r="1349" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1349" s="1">
+        <v>44043</v>
+      </c>
+      <c r="B1349" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1349" s="2">
+        <v>4306</v>
+      </c>
+      <c r="D1349" s="6">
+        <f t="shared" si="252"/>
+        <v>4.063836012042394E-2</v>
+      </c>
+      <c r="E1349" s="7">
+        <f t="shared" si="253"/>
+        <v>140</v>
+      </c>
+      <c r="F1349" s="6">
+        <f t="shared" si="254"/>
+        <v>4.5336787564766841E-2</v>
+      </c>
+      <c r="G1349" s="2">
+        <v>307</v>
+      </c>
+      <c r="H1349" s="7">
+        <f t="shared" si="255"/>
+        <v>12</v>
+      </c>
+      <c r="I1349" s="6">
+        <f t="shared" si="256"/>
+        <v>0.28962264150943395</v>
+      </c>
+      <c r="J1349" s="10">
+        <f>IF(B1349="Pending","",C1349/(VLOOKUP(B1349,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>899.9592295154365</v>
+      </c>
+      <c r="K1349" s="10">
+        <f>IF(B1349="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1349,A:A,"&gt;="&amp;A1349-30,B:B,B1349)/(VLOOKUP(B1349,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>559.91425356986861</v>
+      </c>
+      <c r="L1349" s="14">
+        <f>IF(B1349="Pending","",(G1349/C1349)/(VLOOKUP(B1349,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1.4900922629547847E-2</v>
+      </c>
+    </row>
+    <row r="1350" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1350" s="1">
+        <v>44043</v>
+      </c>
+      <c r="B1350" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1350" s="2">
+        <v>2386</v>
+      </c>
+      <c r="D1350" s="6">
+        <f t="shared" si="252"/>
+        <v>2.2518143810341736E-2</v>
+      </c>
+      <c r="E1350" s="7">
+        <f t="shared" si="253"/>
+        <v>71</v>
+      </c>
+      <c r="F1350" s="6">
+        <f t="shared" si="254"/>
+        <v>2.299222797927461E-2</v>
+      </c>
+      <c r="G1350" s="2">
+        <v>342</v>
+      </c>
+      <c r="H1350" s="7">
+        <f t="shared" si="255"/>
+        <v>10</v>
+      </c>
+      <c r="I1350" s="6">
+        <f t="shared" si="256"/>
+        <v>0.32264150943396225</v>
+      </c>
+      <c r="J1350" s="10">
+        <f>IF(B1350="Pending","",C1350/(VLOOKUP(B1350,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1075.0456839829583</v>
+      </c>
+      <c r="K1350" s="10">
+        <f>IF(B1350="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1350,A:A,"&gt;="&amp;A1350-30,B:B,B1350)/(VLOOKUP(B1350,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>637.09748413742784</v>
+      </c>
+      <c r="L1350" s="14">
+        <f>IF(B1350="Pending","",(G1350/C1350)/(VLOOKUP(B1350,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>6.4582097707810024E-2</v>
+      </c>
+    </row>
+    <row r="1351" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1351" s="1">
+        <v>44043</v>
+      </c>
+      <c r="B1351" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1351" s="2">
+        <v>225</v>
+      </c>
+      <c r="D1351" s="6">
+        <f t="shared" si="252"/>
+        <v>2.1234628488377579E-3</v>
+      </c>
+      <c r="E1351" s="7">
+        <f t="shared" si="253"/>
+        <v>-14</v>
+      </c>
+      <c r="F1351" s="6">
+        <f t="shared" si="254"/>
+        <v>-4.5336787564766836E-3</v>
+      </c>
+      <c r="G1351" s="2">
+        <v>0</v>
+      </c>
+      <c r="H1351" s="7">
+        <f t="shared" ref="H1351:H1361" si="257">G1351-SUMIFS(G:G,A:A,A1351-1,B:B,B1351)</f>
+        <v>0</v>
+      </c>
+      <c r="I1351" s="6">
+        <f t="shared" ref="I1351:I1361" si="258">G1351/SUMIF(A:A,A1351,G:G)</f>
+        <v>0</v>
+      </c>
+      <c r="J1351" s="10" t="str">
+        <f>IF(B1351="Pending","",C1351/(VLOOKUP(B1351,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v/>
+      </c>
+      <c r="K1351" s="10" t="str">
+        <f>IF(B1351="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1351,A:A,"&gt;="&amp;A1351-30,B:B,B1351)/(VLOOKUP(B1351,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v/>
+      </c>
+      <c r="L1351" s="14" t="str">
+        <f>IF(B1351="Pending","",(G1351/C1351)/(VLOOKUP(B1351,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="1352" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1352" s="1">
+        <v>44044</v>
+      </c>
+      <c r="B1352" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1352" s="2">
+        <v>5140</v>
+      </c>
+      <c r="D1352" s="6">
+        <f t="shared" ref="D1352:D1361" si="259">C1352/SUMIF(A:A,A1352,C:C)</f>
+        <v>4.7511646823929603E-2</v>
+      </c>
+      <c r="E1352" s="7">
+        <f t="shared" ref="E1352:E1361" si="260">C1352-SUMIFS(C:C,A:A,A1352-1,B:B,B1352)</f>
+        <v>156</v>
+      </c>
+      <c r="F1352" s="6">
+        <f t="shared" ref="F1352:F1361" si="261">E1352/SUMIF(A:A,A1352,E:E)</f>
+        <v>7.0112359550561804E-2</v>
+      </c>
+      <c r="G1352" s="2">
+        <v>3</v>
+      </c>
+      <c r="H1352" s="7">
+        <f t="shared" si="257"/>
+        <v>0</v>
+      </c>
+      <c r="I1352" s="6">
+        <f t="shared" si="258"/>
+        <v>2.8116213683223993E-3</v>
+      </c>
+      <c r="J1352" s="10">
+        <f>IF(B1352="Pending","",C1352/(VLOOKUP(B1352,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>564.73079188148836</v>
+      </c>
+      <c r="K1352" s="10">
+        <f>IF(B1352="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1352,A:A,"&gt;="&amp;A1352-30,B:B,B1352)/(VLOOKUP(B1352,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>334.11407356256927</v>
+      </c>
+      <c r="L1352" s="14">
+        <f>IF(B1352="Pending","",(G1352/C1352)/(VLOOKUP(B1352,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>6.4126344670035326E-5</v>
+      </c>
+    </row>
+    <row r="1353" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1353" s="1">
+        <v>44044</v>
+      </c>
+      <c r="B1353" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1353" s="2">
+        <v>12287</v>
+      </c>
+      <c r="D1353" s="6">
+        <f t="shared" si="259"/>
+        <v>0.11357502033572432</v>
+      </c>
+      <c r="E1353" s="7">
+        <f t="shared" si="260"/>
+        <v>313</v>
+      </c>
+      <c r="F1353" s="6">
+        <f t="shared" si="261"/>
+        <v>0.14067415730337079</v>
+      </c>
+      <c r="G1353" s="2">
+        <v>1</v>
+      </c>
+      <c r="H1353" s="7">
+        <f t="shared" si="257"/>
+        <v>0</v>
+      </c>
+      <c r="I1353" s="6">
+        <f t="shared" si="258"/>
+        <v>9.372071227741331E-4</v>
+      </c>
+      <c r="J1353" s="10">
+        <f>IF(B1353="Pending","",C1353/(VLOOKUP(B1353,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1427.3821613139598</v>
+      </c>
+      <c r="K1353" s="10">
+        <f>IF(B1353="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1353,A:A,"&gt;="&amp;A1353-30,B:B,B1353)/(VLOOKUP(B1353,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>918.20856214092441</v>
+      </c>
+      <c r="L1353" s="14">
+        <f>IF(B1353="Pending","",(G1353/C1353)/(VLOOKUP(B1353,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>9.4547173115405164E-6</v>
+      </c>
+    </row>
+    <row r="1354" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1354" s="1">
+        <v>44044</v>
+      </c>
+      <c r="B1354" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1354" s="2">
+        <v>25196</v>
+      </c>
+      <c r="D1354" s="6">
+        <f t="shared" si="259"/>
+        <v>0.23289950454780745</v>
+      </c>
+      <c r="E1354" s="7">
+        <f t="shared" si="260"/>
+        <v>419</v>
+      </c>
+      <c r="F1354" s="6">
+        <f t="shared" si="261"/>
+        <v>0.18831460674157302</v>
+      </c>
+      <c r="G1354" s="2">
+        <v>11</v>
+      </c>
+      <c r="H1354" s="7">
+        <f t="shared" si="257"/>
+        <v>0</v>
+      </c>
+      <c r="I1354" s="6">
+        <f t="shared" si="258"/>
+        <v>1.0309278350515464E-2</v>
+      </c>
+      <c r="J1354" s="10">
+        <f>IF(B1354="Pending","",C1354/(VLOOKUP(B1354,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>2666.1916732345662</v>
+      </c>
+      <c r="K1354" s="10">
+        <f>IF(B1354="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1354,A:A,"&gt;="&amp;A1354-30,B:B,B1354)/(VLOOKUP(B1354,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1593.8315201722112</v>
+      </c>
+      <c r="L1354" s="14">
+        <f>IF(B1354="Pending","",(G1354/C1354)/(VLOOKUP(B1354,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>4.6197753107587968E-5</v>
+      </c>
+    </row>
+    <row r="1355" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1355" s="1">
+        <v>44044</v>
+      </c>
+      <c r="B1355" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1355" s="2">
+        <v>19800</v>
+      </c>
+      <c r="D1355" s="6">
+        <f t="shared" si="259"/>
+        <v>0.18302151889373661</v>
+      </c>
+      <c r="E1355" s="7">
+        <f t="shared" si="260"/>
+        <v>344</v>
+      </c>
+      <c r="F1355" s="6">
+        <f t="shared" si="261"/>
+        <v>0.1546067415730337</v>
+      </c>
+      <c r="G1355" s="2">
+        <v>18</v>
+      </c>
+      <c r="H1355" s="7">
+        <f t="shared" si="257"/>
+        <v>1</v>
+      </c>
+      <c r="I1355" s="6">
+        <f t="shared" si="258"/>
+        <v>1.6869728209934397E-2</v>
+      </c>
+      <c r="J1355" s="10">
+        <f>IF(B1355="Pending","",C1355/(VLOOKUP(B1355,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>2252.0372565427269</v>
+      </c>
+      <c r="K1355" s="10">
+        <f>IF(B1355="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1355,A:A,"&gt;="&amp;A1355-30,B:B,B1355)/(VLOOKUP(B1355,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1207.4559351241205</v>
+      </c>
+      <c r="L1355" s="14">
+        <f>IF(B1355="Pending","",(G1355/C1355)/(VLOOKUP(B1355,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1.0339932307358709E-4</v>
+      </c>
+    </row>
+    <row r="1356" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1356" s="1">
+        <v>44044</v>
+      </c>
+      <c r="B1356" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1356" s="2">
+        <v>16779</v>
+      </c>
+      <c r="D1356" s="6">
+        <f t="shared" si="259"/>
+        <v>0.15509687199585892</v>
+      </c>
+      <c r="E1356" s="7">
+        <f t="shared" si="260"/>
+        <v>318</v>
+      </c>
+      <c r="F1356" s="6">
+        <f t="shared" si="261"/>
+        <v>0.14292134831460673</v>
+      </c>
+      <c r="G1356" s="2">
+        <v>60</v>
+      </c>
+      <c r="H1356" s="7">
+        <f t="shared" si="257"/>
+        <v>0</v>
+      </c>
+      <c r="I1356" s="6">
+        <f t="shared" si="258"/>
+        <v>5.6232427366447985E-2</v>
+      </c>
+      <c r="J1356" s="10">
+        <f>IF(B1356="Pending","",C1356/(VLOOKUP(B1356,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1968.1540788077093</v>
+      </c>
+      <c r="K1356" s="10">
+        <f>IF(B1356="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1356,A:A,"&gt;="&amp;A1356-30,B:B,B1356)/(VLOOKUP(B1356,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1087.8276969344238</v>
+      </c>
+      <c r="L1356" s="14">
+        <f>IF(B1356="Pending","",(G1356/C1356)/(VLOOKUP(B1356,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>4.1944806656616458E-4</v>
+      </c>
+    </row>
+    <row r="1357" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1357" s="1">
+        <v>44044</v>
+      </c>
+      <c r="B1357" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1357" s="2">
+        <v>13508</v>
+      </c>
+      <c r="D1357" s="6">
+        <f t="shared" si="259"/>
+        <v>0.12486134733417141</v>
+      </c>
+      <c r="E1357" s="7">
+        <f t="shared" si="260"/>
+        <v>307</v>
+      </c>
+      <c r="F1357" s="6">
+        <f t="shared" si="261"/>
+        <v>0.13797752808988764</v>
+      </c>
+      <c r="G1357" s="2">
+        <v>120</v>
+      </c>
+      <c r="H1357" s="7">
+        <f t="shared" si="257"/>
+        <v>0</v>
+      </c>
+      <c r="I1357" s="6">
+        <f t="shared" si="258"/>
+        <v>0.11246485473289597</v>
+      </c>
+      <c r="J1357" s="10">
+        <f>IF(B1357="Pending","",C1357/(VLOOKUP(B1357,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1508.7481839908087</v>
+      </c>
+      <c r="K1357" s="10">
+        <f>IF(B1357="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1357,A:A,"&gt;="&amp;A1357-30,B:B,B1357)/(VLOOKUP(B1357,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>859.47714508508091</v>
+      </c>
+      <c r="L1357" s="14">
+        <f>IF(B1357="Pending","",(G1357/C1357)/(VLOOKUP(B1357,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>9.9223810778807089E-4</v>
+      </c>
+    </row>
+    <row r="1358" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1358" s="1">
+        <v>44044</v>
+      </c>
+      <c r="B1358" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1358" s="2">
+        <v>8383</v>
+      </c>
+      <c r="D1358" s="6">
+        <f t="shared" si="259"/>
+        <v>7.7488353176070404E-2</v>
+      </c>
+      <c r="E1358" s="7">
+        <f t="shared" si="260"/>
+        <v>194</v>
+      </c>
+      <c r="F1358" s="6">
+        <f t="shared" si="261"/>
+        <v>8.719101123595506E-2</v>
+      </c>
+      <c r="G1358" s="2">
+        <v>200</v>
+      </c>
+      <c r="H1358" s="7">
+        <f t="shared" si="257"/>
+        <v>1</v>
+      </c>
+      <c r="I1358" s="6">
+        <f t="shared" si="258"/>
+        <v>0.18744142455482662</v>
+      </c>
+      <c r="J1358" s="10">
+        <f>IF(B1358="Pending","",C1358/(VLOOKUP(B1358,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1066.9055412370169</v>
+      </c>
+      <c r="K1358" s="10">
+        <f>IF(B1358="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1358,A:A,"&gt;="&amp;A1358-30,B:B,B1358)/(VLOOKUP(B1358,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>649.84130902495633</v>
+      </c>
+      <c r="L1358" s="14">
+        <f>IF(B1358="Pending","",(G1358/C1358)/(VLOOKUP(B1358,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>3.0363863758600682E-3</v>
+      </c>
+    </row>
+    <row r="1359" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1359" s="1">
+        <v>44044</v>
+      </c>
+      <c r="B1359" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1359" s="2">
+        <v>4424</v>
+      </c>
+      <c r="D1359" s="6">
+        <f t="shared" si="259"/>
+        <v>4.0893292908378322E-2</v>
+      </c>
+      <c r="E1359" s="7">
+        <f t="shared" si="260"/>
+        <v>118</v>
+      </c>
+      <c r="F1359" s="6">
+        <f t="shared" si="261"/>
+        <v>5.303370786516854E-2</v>
+      </c>
+      <c r="G1359" s="2">
+        <v>308</v>
+      </c>
+      <c r="H1359" s="7">
+        <f t="shared" si="257"/>
+        <v>1</v>
+      </c>
+      <c r="I1359" s="6">
+        <f t="shared" si="258"/>
+        <v>0.28865979381443296</v>
+      </c>
+      <c r="J1359" s="10">
+        <f>IF(B1359="Pending","",C1359/(VLOOKUP(B1359,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>924.62137282310516</v>
+      </c>
+      <c r="K1359" s="10">
+        <f>IF(B1359="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1359,A:A,"&gt;="&amp;A1359-30,B:B,B1359)/(VLOOKUP(B1359,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>575.58934465525124</v>
+      </c>
+      <c r="L1359" s="14">
+        <f>IF(B1359="Pending","",(G1359/C1359)/(VLOOKUP(B1359,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1.455071746322441E-2</v>
+      </c>
+    </row>
+    <row r="1360" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1360" s="1">
+        <v>44044</v>
+      </c>
+      <c r="B1360" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1360" s="2">
+        <v>2437</v>
+      </c>
+      <c r="D1360" s="6">
+        <f t="shared" si="259"/>
+        <v>2.2526436441617986E-2</v>
+      </c>
+      <c r="E1360" s="7">
+        <f t="shared" si="260"/>
+        <v>51</v>
+      </c>
+      <c r="F1360" s="6">
+        <f t="shared" si="261"/>
+        <v>2.2921348314606741E-2</v>
+      </c>
+      <c r="G1360" s="2">
+        <v>346</v>
+      </c>
+      <c r="H1360" s="7">
+        <f t="shared" si="257"/>
+        <v>4</v>
+      </c>
+      <c r="I1360" s="6">
+        <f t="shared" si="258"/>
+        <v>0.32427366447985007</v>
+      </c>
+      <c r="J1360" s="10">
+        <f>IF(B1360="Pending","",C1360/(VLOOKUP(B1360,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1098.0244475551001</v>
+      </c>
+      <c r="K1360" s="10">
+        <f>IF(B1360="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1360,A:A,"&gt;="&amp;A1360-30,B:B,B1360)/(VLOOKUP(B1360,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>643.40538001997663</v>
+      </c>
+      <c r="L1360" s="14">
+        <f>IF(B1360="Pending","",(G1360/C1360)/(VLOOKUP(B1360,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>6.3970103035403056E-2</v>
+      </c>
+    </row>
+    <row r="1361" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1361" s="1">
+        <v>44044</v>
+      </c>
+      <c r="B1361" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1361" s="2">
+        <v>230</v>
+      </c>
+      <c r="D1361" s="6">
+        <f t="shared" si="259"/>
+        <v>2.1260075427050212E-3</v>
+      </c>
+      <c r="E1361" s="7">
+        <f t="shared" si="260"/>
+        <v>5</v>
+      </c>
+      <c r="F1361" s="6">
+        <f t="shared" si="261"/>
+        <v>2.2471910112359553E-3</v>
+      </c>
+      <c r="G1361" s="2">
+        <v>0</v>
+      </c>
+      <c r="H1361" s="7">
+        <f t="shared" si="257"/>
+        <v>0</v>
+      </c>
+      <c r="I1361" s="6">
+        <f t="shared" si="258"/>
+        <v>0</v>
+      </c>
+      <c r="J1361" s="10" t="str">
+        <f>IF(B1361="Pending","",C1361/(VLOOKUP(B1361,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v/>
+      </c>
+      <c r="K1361" s="10" t="str">
+        <f>IF(B1361="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1361,A:A,"&gt;="&amp;A1361-30,B:B,B1361)/(VLOOKUP(B1361,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v/>
+      </c>
+      <c r="L1361" s="14" t="str">
+        <f>IF(B1361="Pending","",(G1361/C1361)/(VLOOKUP(B1361,Population!$A$2:$B$10,2,FALSE)/100000))</f>
         <v/>
       </c>
     </row>

--- a/TN_Age.xlsx
+++ b/TN_Age.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1385" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1395" uniqueCount="33">
   <si>
     <t>0-10</t>
   </si>
@@ -483,11 +483,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M1361"/>
+  <dimension ref="A1:M1371"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1336" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A1361" sqref="A1361"/>
+      <pane ySplit="1" topLeftCell="A1348" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A1371" sqref="A1371"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -58069,11 +58069,11 @@
         <v>3</v>
       </c>
       <c r="H1342" s="7">
-        <f t="shared" ref="H1342:H1351" si="255">G1342-SUMIFS(G:G,A:A,A1342-1,B:B,B1342)</f>
+        <f t="shared" ref="H1342:H1350" si="255">G1342-SUMIFS(G:G,A:A,A1342-1,B:B,B1342)</f>
         <v>0</v>
       </c>
       <c r="I1342" s="6">
-        <f t="shared" ref="I1342:I1351" si="256">G1342/SUMIF(A:A,A1342,G:G)</f>
+        <f t="shared" ref="I1342:I1350" si="256">G1342/SUMIF(A:A,A1342,G:G)</f>
         <v>2.8301886792452828E-3</v>
       </c>
       <c r="J1342" s="10">
@@ -58960,6 +58960,466 @@
       </c>
       <c r="L1361" s="14" t="str">
         <f>IF(B1361="Pending","",(G1361/C1361)/(VLOOKUP(B1361,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="1362" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1362" s="1">
+        <v>44045</v>
+      </c>
+      <c r="B1362" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1362">
+        <v>5218</v>
+      </c>
+      <c r="D1362" s="6">
+        <f t="shared" ref="D1362:D1371" si="262">C1362/SUMIF(A:A,A1362,C:C)</f>
+        <v>4.7597763324728398E-2</v>
+      </c>
+      <c r="E1362" s="7">
+        <f t="shared" ref="E1362:E1371" si="263">C1362-SUMIFS(C:C,A:A,A1362-1,B:B,B1362)</f>
+        <v>78</v>
+      </c>
+      <c r="F1362" s="6">
+        <f t="shared" ref="F1362:F1371" si="264">E1362/SUMIF(A:A,A1362,E:E)</f>
+        <v>5.4054054054054057E-2</v>
+      </c>
+      <c r="G1362" s="2">
+        <v>3</v>
+      </c>
+      <c r="H1362" s="7">
+        <f t="shared" ref="H1362:H1371" si="265">G1362-SUMIFS(G:G,A:A,A1362-1,B:B,B1362)</f>
+        <v>0</v>
+      </c>
+      <c r="I1362" s="6">
+        <f t="shared" ref="I1362:I1371" si="266">G1362/SUMIF(A:A,A1362,G:G)</f>
+        <v>2.7958993476234857E-3</v>
+      </c>
+      <c r="J1362" s="10">
+        <f>IF(B1362="Pending","",C1362/(VLOOKUP(B1362,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>573.30063658319193</v>
+      </c>
+      <c r="K1362" s="10">
+        <f>IF(B1362="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1362,A:A,"&gt;="&amp;A1362-30,B:B,B1362)/(VLOOKUP(B1362,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>336.86081865926917</v>
+      </c>
+      <c r="L1362" s="14">
+        <f>IF(B1362="Pending","",(G1362/C1362)/(VLOOKUP(B1362,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>6.3167767651203821E-5</v>
+      </c>
+    </row>
+    <row r="1363" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1363" s="1">
+        <v>44045</v>
+      </c>
+      <c r="B1363" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1363">
+        <v>12507</v>
+      </c>
+      <c r="D1363" s="6">
+        <f t="shared" si="262"/>
+        <v>0.11408685816450327</v>
+      </c>
+      <c r="E1363" s="7">
+        <f t="shared" si="263"/>
+        <v>220</v>
+      </c>
+      <c r="F1363" s="6">
+        <f t="shared" si="264"/>
+        <v>0.15246015246015246</v>
+      </c>
+      <c r="G1363" s="2">
+        <v>1</v>
+      </c>
+      <c r="H1363" s="7">
+        <f t="shared" si="265"/>
+        <v>0</v>
+      </c>
+      <c r="I1363" s="6">
+        <f t="shared" si="266"/>
+        <v>9.3196644920782849E-4</v>
+      </c>
+      <c r="J1363" s="10">
+        <f>IF(B1363="Pending","",C1363/(VLOOKUP(B1363,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1452.9395858674773</v>
+      </c>
+      <c r="K1363" s="10">
+        <f>IF(B1363="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1363,A:A,"&gt;="&amp;A1363-30,B:B,B1363)/(VLOOKUP(B1363,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>922.39068615877272</v>
+      </c>
+      <c r="L1363" s="14">
+        <f>IF(B1363="Pending","",(G1363/C1363)/(VLOOKUP(B1363,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>9.2884074203964429E-6</v>
+      </c>
+    </row>
+    <row r="1364" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1364" s="1">
+        <v>44045</v>
+      </c>
+      <c r="B1364" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1364">
+        <v>25475</v>
+      </c>
+      <c r="D1364" s="6">
+        <f t="shared" si="262"/>
+        <v>0.23237888476378996</v>
+      </c>
+      <c r="E1364" s="7">
+        <f t="shared" si="263"/>
+        <v>279</v>
+      </c>
+      <c r="F1364" s="6">
+        <f t="shared" si="264"/>
+        <v>0.19334719334719336</v>
+      </c>
+      <c r="G1364" s="2">
+        <v>11</v>
+      </c>
+      <c r="H1364" s="7">
+        <f t="shared" si="265"/>
+        <v>0</v>
+      </c>
+      <c r="I1364" s="6">
+        <f t="shared" si="266"/>
+        <v>1.0251630941286114E-2</v>
+      </c>
+      <c r="J1364" s="10">
+        <f>IF(B1364="Pending","",C1364/(VLOOKUP(B1364,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>2695.714910130599</v>
+      </c>
+      <c r="K1364" s="10">
+        <f>IF(B1364="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1364,A:A,"&gt;="&amp;A1364-30,B:B,B1364)/(VLOOKUP(B1364,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1577.1122677364649</v>
+      </c>
+      <c r="L1364" s="14">
+        <f>IF(B1364="Pending","",(G1364/C1364)/(VLOOKUP(B1364,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>4.5691799305153546E-5</v>
+      </c>
+    </row>
+    <row r="1365" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1365" s="1">
+        <v>44045</v>
+      </c>
+      <c r="B1365" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1365">
+        <v>20023</v>
+      </c>
+      <c r="D1365" s="6">
+        <f t="shared" si="262"/>
+        <v>0.18264661078019101</v>
+      </c>
+      <c r="E1365" s="7">
+        <f t="shared" si="263"/>
+        <v>223</v>
+      </c>
+      <c r="F1365" s="6">
+        <f t="shared" si="264"/>
+        <v>0.15453915453915454</v>
+      </c>
+      <c r="G1365" s="2">
+        <v>18</v>
+      </c>
+      <c r="H1365" s="7">
+        <f t="shared" si="265"/>
+        <v>0</v>
+      </c>
+      <c r="I1365" s="6">
+        <f t="shared" si="266"/>
+        <v>1.6775396085740912E-2</v>
+      </c>
+      <c r="J1365" s="10">
+        <f>IF(B1365="Pending","",C1365/(VLOOKUP(B1365,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>2277.4011104926776</v>
+      </c>
+      <c r="K1365" s="10">
+        <f>IF(B1365="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1365,A:A,"&gt;="&amp;A1365-30,B:B,B1365)/(VLOOKUP(B1365,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1198.129316182883</v>
+      </c>
+      <c r="L1365" s="14">
+        <f>IF(B1365="Pending","",(G1365/C1365)/(VLOOKUP(B1365,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1.0224774493617462E-4</v>
+      </c>
+    </row>
+    <row r="1366" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1366" s="1">
+        <v>44045</v>
+      </c>
+      <c r="B1366" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1366">
+        <v>16984</v>
+      </c>
+      <c r="D1366" s="6">
+        <f t="shared" si="262"/>
+        <v>0.15492533773614164</v>
+      </c>
+      <c r="E1366" s="7">
+        <f t="shared" si="263"/>
+        <v>205</v>
+      </c>
+      <c r="F1366" s="6">
+        <f t="shared" si="264"/>
+        <v>0.14206514206514206</v>
+      </c>
+      <c r="G1366" s="2">
+        <v>60</v>
+      </c>
+      <c r="H1366" s="7">
+        <f t="shared" si="265"/>
+        <v>0</v>
+      </c>
+      <c r="I1366" s="6">
+        <f t="shared" si="266"/>
+        <v>5.591798695246971E-2</v>
+      </c>
+      <c r="J1366" s="10">
+        <f>IF(B1366="Pending","",C1366/(VLOOKUP(B1366,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1992.200302429831</v>
+      </c>
+      <c r="K1366" s="10">
+        <f>IF(B1366="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1366,A:A,"&gt;="&amp;A1366-30,B:B,B1366)/(VLOOKUP(B1366,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1085.4817238981193</v>
+      </c>
+      <c r="L1366" s="14">
+        <f>IF(B1366="Pending","",(G1366/C1366)/(VLOOKUP(B1366,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>4.1438525134913305E-4</v>
+      </c>
+    </row>
+    <row r="1367" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1367" s="1">
+        <v>44045</v>
+      </c>
+      <c r="B1367" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1367">
+        <v>13690</v>
+      </c>
+      <c r="D1367" s="6">
+        <f t="shared" si="262"/>
+        <v>0.12487799538434875</v>
+      </c>
+      <c r="E1367" s="7">
+        <f t="shared" si="263"/>
+        <v>182</v>
+      </c>
+      <c r="F1367" s="6">
+        <f t="shared" si="264"/>
+        <v>0.12612612612612611</v>
+      </c>
+      <c r="G1367" s="2">
+        <v>121</v>
+      </c>
+      <c r="H1367" s="7">
+        <f t="shared" si="265"/>
+        <v>1</v>
+      </c>
+      <c r="I1367" s="6">
+        <f t="shared" si="266"/>
+        <v>0.11276794035414725</v>
+      </c>
+      <c r="J1367" s="10">
+        <f>IF(B1367="Pending","",C1367/(VLOOKUP(B1367,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1529.0762984034773</v>
+      </c>
+      <c r="K1367" s="10">
+        <f>IF(B1367="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1367,A:A,"&gt;="&amp;A1367-30,B:B,B1367)/(VLOOKUP(B1367,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>858.58360159441418</v>
+      </c>
+      <c r="L1367" s="14">
+        <f>IF(B1367="Pending","",(G1367/C1367)/(VLOOKUP(B1367,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>9.872056461895254E-4</v>
+      </c>
+    </row>
+    <row r="1368" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1368" s="1">
+        <v>44045</v>
+      </c>
+      <c r="B1368" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1368">
+        <v>8525</v>
+      </c>
+      <c r="D1368" s="6">
+        <f t="shared" si="262"/>
+        <v>7.7763689602014102E-2</v>
+      </c>
+      <c r="E1368" s="7">
+        <f t="shared" si="263"/>
+        <v>142</v>
+      </c>
+      <c r="F1368" s="6">
+        <f t="shared" si="264"/>
+        <v>9.8406098406098402E-2</v>
+      </c>
+      <c r="G1368" s="2">
+        <v>200</v>
+      </c>
+      <c r="H1368" s="7">
+        <f t="shared" si="265"/>
+        <v>0</v>
+      </c>
+      <c r="I1368" s="6">
+        <f t="shared" si="266"/>
+        <v>0.1863932898415657</v>
+      </c>
+      <c r="J1368" s="10">
+        <f>IF(B1368="Pending","",C1368/(VLOOKUP(B1368,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1084.9779003990898</v>
+      </c>
+      <c r="K1368" s="10">
+        <f>IF(B1368="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1368,A:A,"&gt;="&amp;A1368-30,B:B,B1368)/(VLOOKUP(B1368,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>654.93211442272332</v>
+      </c>
+      <c r="L1368" s="14">
+        <f>IF(B1368="Pending","",(G1368/C1368)/(VLOOKUP(B1368,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>2.9858096174586453E-3</v>
+      </c>
+    </row>
+    <row r="1369" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1369" s="1">
+        <v>44045</v>
+      </c>
+      <c r="B1369" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1369">
+        <v>4507</v>
+      </c>
+      <c r="D1369" s="6">
+        <f t="shared" si="262"/>
+        <v>4.1112134784314081E-2</v>
+      </c>
+      <c r="E1369" s="7">
+        <f t="shared" si="263"/>
+        <v>83</v>
+      </c>
+      <c r="F1369" s="6">
+        <f t="shared" si="264"/>
+        <v>5.7519057519057518E-2</v>
+      </c>
+      <c r="G1369" s="2">
+        <v>312</v>
+      </c>
+      <c r="H1369" s="7">
+        <f t="shared" si="265"/>
+        <v>4</v>
+      </c>
+      <c r="I1369" s="6">
+        <f t="shared" si="266"/>
+        <v>0.29077353215284252</v>
+      </c>
+      <c r="J1369" s="10">
+        <f>IF(B1369="Pending","",C1369/(VLOOKUP(B1369,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>941.96847362426206</v>
+      </c>
+      <c r="K1369" s="10">
+        <f>IF(B1369="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1369,A:A,"&gt;="&amp;A1369-30,B:B,B1369)/(VLOOKUP(B1369,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>582.06838230387609</v>
+      </c>
+      <c r="L1369" s="14">
+        <f>IF(B1369="Pending","",(G1369/C1369)/(VLOOKUP(B1369,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1.4468244711602367E-2</v>
+      </c>
+    </row>
+    <row r="1370" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1370" s="1">
+        <v>44045</v>
+      </c>
+      <c r="B1370" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1370">
+        <v>2468</v>
+      </c>
+      <c r="D1370" s="6">
+        <f t="shared" si="262"/>
+        <v>2.2512702162788365E-2</v>
+      </c>
+      <c r="E1370" s="7">
+        <f t="shared" si="263"/>
+        <v>31</v>
+      </c>
+      <c r="F1370" s="6">
+        <f t="shared" si="264"/>
+        <v>2.1483021483021482E-2</v>
+      </c>
+      <c r="G1370" s="2">
+        <v>347</v>
+      </c>
+      <c r="H1370" s="7">
+        <f t="shared" si="265"/>
+        <v>1</v>
+      </c>
+      <c r="I1370" s="6">
+        <f t="shared" si="266"/>
+        <v>0.3233923578751165</v>
+      </c>
+      <c r="J1370" s="10">
+        <f>IF(B1370="Pending","",C1370/(VLOOKUP(B1370,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1111.9919312950296</v>
+      </c>
+      <c r="K1370" s="10">
+        <f>IF(B1370="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1370,A:A,"&gt;="&amp;A1370-30,B:B,B1370)/(VLOOKUP(B1370,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>645.20763598641918</v>
+      </c>
+      <c r="L1370" s="14">
+        <f>IF(B1370="Pending","",(G1370/C1370)/(VLOOKUP(B1370,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>6.3349151170538048E-2</v>
+      </c>
+    </row>
+    <row r="1371" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1371" s="1">
+        <v>44045</v>
+      </c>
+      <c r="B1371" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1371">
+        <v>230</v>
+      </c>
+      <c r="D1371" s="6">
+        <f t="shared" si="262"/>
+        <v>2.0980232971804392E-3</v>
+      </c>
+      <c r="E1371" s="7">
+        <f t="shared" si="263"/>
+        <v>0</v>
+      </c>
+      <c r="F1371" s="6">
+        <f t="shared" si="264"/>
+        <v>0</v>
+      </c>
+      <c r="G1371" s="2">
+        <v>0</v>
+      </c>
+      <c r="H1371" s="7">
+        <f t="shared" si="265"/>
+        <v>0</v>
+      </c>
+      <c r="I1371" s="6">
+        <f t="shared" si="266"/>
+        <v>0</v>
+      </c>
+      <c r="J1371" s="10" t="str">
+        <f>IF(B1371="Pending","",C1371/(VLOOKUP(B1371,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v/>
+      </c>
+      <c r="K1371" s="10" t="str">
+        <f>IF(B1371="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1371,A:A,"&gt;="&amp;A1371-30,B:B,B1371)/(VLOOKUP(B1371,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v/>
+      </c>
+      <c r="L1371" s="14" t="str">
+        <f>IF(B1371="Pending","",(G1371/C1371)/(VLOOKUP(B1371,Population!$A$2:$B$10,2,FALSE)/100000))</f>
         <v/>
       </c>
     </row>

--- a/TN_Age.xlsx
+++ b/TN_Age.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1405" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1415" uniqueCount="33">
   <si>
     <t>0-10</t>
   </si>
@@ -482,11 +482,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M1381"/>
+  <dimension ref="A1:M1391"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1360" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A1381" sqref="A1381"/>
+      <pane ySplit="1" topLeftCell="A1372" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A1391" sqref="A1391"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -59882,6 +59882,466 @@
         <v/>
       </c>
     </row>
+    <row r="1382" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1382" s="1">
+        <v>44047</v>
+      </c>
+      <c r="B1382" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1382" s="2">
+        <v>5345</v>
+      </c>
+      <c r="D1382" s="6">
+        <f t="shared" ref="D1382:D1391" si="272">C1382/SUMIF(A:A,A1382,C:C)</f>
+        <v>4.7536041123789362E-2</v>
+      </c>
+      <c r="E1382" s="7">
+        <f t="shared" ref="E1382:E1391" si="273">C1382-SUMIFS(C:C,A:A,A1382-1,B:B,B1382)</f>
+        <v>87</v>
+      </c>
+      <c r="F1382" s="6">
+        <f t="shared" ref="F1382:F1391" si="274">E1382/SUMIF(A:A,A1382,E:E)</f>
+        <v>4.8199445983379503E-2</v>
+      </c>
+      <c r="G1382" s="2">
+        <v>4</v>
+      </c>
+      <c r="H1382" s="7">
+        <f t="shared" ref="H1382:H1391" si="275">G1382-SUMIFS(G:G,A:A,A1382-1,B:B,B1382)</f>
+        <v>1</v>
+      </c>
+      <c r="I1382" s="6">
+        <f t="shared" ref="I1382:I1391" si="276">G1382/SUMIF(A:A,A1382,G:G)</f>
+        <v>3.5810205908683975E-3</v>
+      </c>
+      <c r="J1382" s="10">
+        <f>IF(B1382="Pending","",C1382/(VLOOKUP(B1382,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>589.99882993683866</v>
+      </c>
+      <c r="K1382" s="10">
+        <f>IF(B1382="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1382,A:A,"&gt;="&amp;A1382-30,B:B,B1382)/(VLOOKUP(B1382,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>338.43525025001821</v>
+      </c>
+      <c r="L1382" s="13">
+        <f>IF(B1382="Pending","",(G1382/C1382)/(VLOOKUP(B1382,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>8.2606785486986491E-5</v>
+      </c>
+    </row>
+    <row r="1383" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1383" s="1">
+        <v>44047</v>
+      </c>
+      <c r="B1383" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1383" s="2">
+        <v>12865</v>
+      </c>
+      <c r="D1383" s="6">
+        <f t="shared" si="272"/>
+        <v>0.1144155601604397</v>
+      </c>
+      <c r="E1383" s="7">
+        <f t="shared" si="273"/>
+        <v>240</v>
+      </c>
+      <c r="F1383" s="6">
+        <f t="shared" si="274"/>
+        <v>0.1329639889196676</v>
+      </c>
+      <c r="G1383" s="2">
+        <v>1</v>
+      </c>
+      <c r="H1383" s="7">
+        <f t="shared" si="275"/>
+        <v>0</v>
+      </c>
+      <c r="I1383" s="6">
+        <f t="shared" si="276"/>
+        <v>8.9525514771709937E-4</v>
+      </c>
+      <c r="J1383" s="10">
+        <f>IF(B1383="Pending","",C1383/(VLOOKUP(B1383,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1501.6487204178704</v>
+      </c>
+      <c r="K1383" s="10">
+        <f>IF(B1383="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1383,A:A,"&gt;="&amp;A1383-30,B:B,B1383)/(VLOOKUP(B1383,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>926.55169395080111</v>
+      </c>
+      <c r="L1383" s="13">
+        <f>IF(B1383="Pending","",(G1383/C1383)/(VLOOKUP(B1383,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>9.0729552589780379E-6</v>
+      </c>
+    </row>
+    <row r="1384" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1384" s="1">
+        <v>44047</v>
+      </c>
+      <c r="B1384" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1384" s="2">
+        <v>26039</v>
+      </c>
+      <c r="D1384" s="6">
+        <f t="shared" si="272"/>
+        <v>0.23157922821746516</v>
+      </c>
+      <c r="E1384" s="7">
+        <f t="shared" si="273"/>
+        <v>378</v>
+      </c>
+      <c r="F1384" s="6">
+        <f t="shared" si="274"/>
+        <v>0.20941828254847644</v>
+      </c>
+      <c r="G1384" s="2">
+        <v>12</v>
+      </c>
+      <c r="H1384" s="7">
+        <f t="shared" si="275"/>
+        <v>0</v>
+      </c>
+      <c r="I1384" s="6">
+        <f t="shared" si="276"/>
+        <v>1.0743061772605193E-2</v>
+      </c>
+      <c r="J1384" s="10">
+        <f>IF(B1384="Pending","",C1384/(VLOOKUP(B1384,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>2733.9025332616584</v>
+      </c>
+      <c r="K1384" s="10">
+        <f>IF(B1384="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1384,A:A,"&gt;="&amp;A1384-30,B:B,B1384)/(VLOOKUP(B1384,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1529.4273283160865</v>
+      </c>
+      <c r="L1384" s="13">
+        <f>IF(B1384="Pending","",(G1384/C1384)/(VLOOKUP(B1384,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>4.8385548686367451E-5</v>
+      </c>
+    </row>
+    <row r="1385" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1385" s="1">
+        <v>44047</v>
+      </c>
+      <c r="B1385" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1385" s="2">
+        <v>20480</v>
+      </c>
+      <c r="D1385" s="6">
+        <f t="shared" si="272"/>
+        <v>0.18213996673811153</v>
+      </c>
+      <c r="E1385" s="7">
+        <f t="shared" si="273"/>
+        <v>304</v>
+      </c>
+      <c r="F1385" s="6">
+        <f t="shared" si="274"/>
+        <v>0.16842105263157894</v>
+      </c>
+      <c r="G1385" s="2">
+        <v>19</v>
+      </c>
+      <c r="H1385" s="7">
+        <f t="shared" si="275"/>
+        <v>-1</v>
+      </c>
+      <c r="I1385" s="6">
+        <f t="shared" si="276"/>
+        <v>1.7009847806624886E-2</v>
+      </c>
+      <c r="J1385" s="10">
+        <f>IF(B1385="Pending","",C1385/(VLOOKUP(B1385,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>2334.7492310603729</v>
+      </c>
+      <c r="K1385" s="10">
+        <f>IF(B1385="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1385,A:A,"&gt;="&amp;A1385-30,B:B,B1385)/(VLOOKUP(B1385,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1183.5628182064841</v>
+      </c>
+      <c r="L1385" s="13">
+        <f>IF(B1385="Pending","",(G1385/C1385)/(VLOOKUP(B1385,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1.0576304290329715E-4</v>
+      </c>
+    </row>
+    <row r="1386" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1386" s="1">
+        <v>44047</v>
+      </c>
+      <c r="B1386" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1386" s="2">
+        <v>17401</v>
+      </c>
+      <c r="D1386" s="6">
+        <f t="shared" si="272"/>
+        <v>0.15475671685595113</v>
+      </c>
+      <c r="E1386" s="7">
+        <f t="shared" si="273"/>
+        <v>268</v>
+      </c>
+      <c r="F1386" s="6">
+        <f t="shared" si="274"/>
+        <v>0.1484764542936288</v>
+      </c>
+      <c r="G1386" s="2">
+        <v>63</v>
+      </c>
+      <c r="H1386" s="7">
+        <f t="shared" si="275"/>
+        <v>3</v>
+      </c>
+      <c r="I1386" s="6">
+        <f t="shared" si="276"/>
+        <v>5.640107430617726E-2</v>
+      </c>
+      <c r="J1386" s="10">
+        <f>IF(B1386="Pending","",C1386/(VLOOKUP(B1386,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>2041.125134894196</v>
+      </c>
+      <c r="K1386" s="10">
+        <f>IF(B1386="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1386,A:A,"&gt;="&amp;A1386-30,B:B,B1386)/(VLOOKUP(B1386,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1078.33247313846</v>
+      </c>
+      <c r="L1386" s="13">
+        <f>IF(B1386="Pending","",(G1386/C1386)/(VLOOKUP(B1386,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>4.2467995841954486E-4</v>
+      </c>
+    </row>
+    <row r="1387" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1387" s="1">
+        <v>44047</v>
+      </c>
+      <c r="B1387" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1387" s="2">
+        <v>14051</v>
+      </c>
+      <c r="D1387" s="6">
+        <f t="shared" si="272"/>
+        <v>0.12496331409361354</v>
+      </c>
+      <c r="E1387" s="7">
+        <f t="shared" si="273"/>
+        <v>224</v>
+      </c>
+      <c r="F1387" s="6">
+        <f t="shared" si="274"/>
+        <v>0.12409972299168975</v>
+      </c>
+      <c r="G1387" s="2">
+        <v>122</v>
+      </c>
+      <c r="H1387" s="7">
+        <f t="shared" si="275"/>
+        <v>1</v>
+      </c>
+      <c r="I1387" s="6">
+        <f t="shared" si="276"/>
+        <v>0.10922112802148612</v>
+      </c>
+      <c r="J1387" s="10">
+        <f>IF(B1387="Pending","",C1387/(VLOOKUP(B1387,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1569.3111493576334</v>
+      </c>
+      <c r="K1387" s="10">
+        <f>IF(B1387="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1387,A:A,"&gt;="&amp;A1387-30,B:B,B1387)/(VLOOKUP(B1387,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>860.10000435578502</v>
+      </c>
+      <c r="L1387" s="13">
+        <f>IF(B1387="Pending","",(G1387/C1387)/(VLOOKUP(B1387,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>9.6973802061024619E-4</v>
+      </c>
+    </row>
+    <row r="1388" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1388" s="1">
+        <v>44047</v>
+      </c>
+      <c r="B1388" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1388" s="2">
+        <v>8810</v>
+      </c>
+      <c r="D1388" s="6">
+        <f t="shared" si="272"/>
+        <v>7.8352202488416151E-2</v>
+      </c>
+      <c r="E1388" s="7">
+        <f t="shared" si="273"/>
+        <v>178</v>
+      </c>
+      <c r="F1388" s="6">
+        <f t="shared" si="274"/>
+        <v>9.8614958448753468E-2</v>
+      </c>
+      <c r="G1388" s="2">
+        <v>211</v>
+      </c>
+      <c r="H1388" s="7">
+        <f t="shared" si="275"/>
+        <v>6</v>
+      </c>
+      <c r="I1388" s="6">
+        <f t="shared" si="276"/>
+        <v>0.18889883616830797</v>
+      </c>
+      <c r="J1388" s="10">
+        <f>IF(B1388="Pending","",C1388/(VLOOKUP(B1388,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1117.9663924836113</v>
+      </c>
+      <c r="K1388" s="10">
+        <f>IF(B1388="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1388,A:A,"&gt;="&amp;A1388-30,B:B,B1388)/(VLOOKUP(B1388,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>661.38942538303991</v>
+      </c>
+      <c r="L1388" s="13">
+        <f>IF(B1388="Pending","",(G1388/C1388)/(VLOOKUP(B1388,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>3.0392007433257015E-3</v>
+      </c>
+    </row>
+    <row r="1389" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1389" s="1">
+        <v>44047</v>
+      </c>
+      <c r="B1389" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1389" s="2">
+        <v>4652</v>
+      </c>
+      <c r="D1389" s="6">
+        <f t="shared" si="272"/>
+        <v>4.1372808850864008E-2</v>
+      </c>
+      <c r="E1389" s="7">
+        <f t="shared" si="273"/>
+        <v>77</v>
+      </c>
+      <c r="F1389" s="6">
+        <f t="shared" si="274"/>
+        <v>4.2659279778393351E-2</v>
+      </c>
+      <c r="G1389" s="2">
+        <v>326</v>
+      </c>
+      <c r="H1389" s="7">
+        <f t="shared" si="275"/>
+        <v>5</v>
+      </c>
+      <c r="I1389" s="6">
+        <f t="shared" si="276"/>
+        <v>0.29185317815577438</v>
+      </c>
+      <c r="J1389" s="10">
+        <f>IF(B1389="Pending","",C1389/(VLOOKUP(B1389,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>969.98104658703039</v>
+      </c>
+      <c r="K1389" s="10">
+        <f>IF(B1389="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1389,A:A,"&gt;="&amp;A1389-30,B:B,B1389)/(VLOOKUP(B1389,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>582.36394306052796</v>
+      </c>
+      <c r="L1389" s="13">
+        <f>IF(B1389="Pending","",(G1389/C1389)/(VLOOKUP(B1389,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1.4611723190617815E-2</v>
+      </c>
+    </row>
+    <row r="1390" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1390" s="1">
+        <v>44047</v>
+      </c>
+      <c r="B1390" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1390" s="2">
+        <v>2575</v>
+      </c>
+      <c r="D1390" s="6">
+        <f t="shared" si="272"/>
+        <v>2.2900899138214709E-2</v>
+      </c>
+      <c r="E1390" s="7">
+        <f t="shared" si="273"/>
+        <v>51</v>
+      </c>
+      <c r="F1390" s="6">
+        <f t="shared" si="274"/>
+        <v>2.8254847645429362E-2</v>
+      </c>
+      <c r="G1390" s="2">
+        <v>359</v>
+      </c>
+      <c r="H1390" s="7">
+        <f t="shared" si="275"/>
+        <v>10</v>
+      </c>
+      <c r="I1390" s="6">
+        <f t="shared" si="276"/>
+        <v>0.32139659803043868</v>
+      </c>
+      <c r="J1390" s="10">
+        <f>IF(B1390="Pending","",C1390/(VLOOKUP(B1390,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1163.2161684788746</v>
+      </c>
+      <c r="K1390" s="10">
+        <f>IF(B1390="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1390,A:A,"&gt;="&amp;A1390-30,B:B,B1390)/(VLOOKUP(B1390,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>668.56696285387738</v>
+      </c>
+      <c r="L1390" s="13">
+        <f>IF(B1390="Pending","",(G1390/C1390)/(VLOOKUP(B1390,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>6.2979674538058764E-2</v>
+      </c>
+    </row>
+    <row r="1391" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1391" s="1">
+        <v>44047</v>
+      </c>
+      <c r="B1391" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1391" s="2">
+        <v>223</v>
+      </c>
+      <c r="D1391" s="6">
+        <f t="shared" si="272"/>
+        <v>1.9832623331347107E-3</v>
+      </c>
+      <c r="E1391" s="7">
+        <f t="shared" si="273"/>
+        <v>-2</v>
+      </c>
+      <c r="F1391" s="6">
+        <f t="shared" si="274"/>
+        <v>-1.10803324099723E-3</v>
+      </c>
+      <c r="G1391" s="2">
+        <v>0</v>
+      </c>
+      <c r="H1391" s="7">
+        <f t="shared" si="275"/>
+        <v>0</v>
+      </c>
+      <c r="I1391" s="6">
+        <f t="shared" si="276"/>
+        <v>0</v>
+      </c>
+      <c r="J1391" s="10" t="str">
+        <f>IF(B1391="Pending","",C1391/(VLOOKUP(B1391,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v/>
+      </c>
+      <c r="K1391" s="10" t="str">
+        <f>IF(B1391="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1391,A:A,"&gt;="&amp;A1391-30,B:B,B1391)/(VLOOKUP(B1391,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v/>
+      </c>
+      <c r="L1391" s="13" t="str">
+        <f>IF(B1391="Pending","",(G1391/C1391)/(VLOOKUP(B1391,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v/>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:L1251"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -59893,7 +60353,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>

--- a/TN_Age.xlsx
+++ b/TN_Age.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1415" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1425" uniqueCount="33">
   <si>
     <t>0-10</t>
   </si>
@@ -482,11 +482,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M1391"/>
+  <dimension ref="A1:M1401"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1372" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A1391" sqref="A1391"/>
+      <pane ySplit="1" topLeftCell="A1381" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A1402" sqref="A1402"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -60339,6 +60339,466 @@
       </c>
       <c r="L1391" s="13" t="str">
         <f>IF(B1391="Pending","",(G1391/C1391)/(VLOOKUP(B1391,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="1392" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1392" s="1">
+        <v>44048</v>
+      </c>
+      <c r="B1392" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1392" s="2">
+        <v>5428</v>
+      </c>
+      <c r="D1392" s="6">
+        <f t="shared" ref="D1392:D1401" si="277">C1392/SUMIF(A:A,A1392,C:C)</f>
+        <v>4.7573138880611404E-2</v>
+      </c>
+      <c r="E1392" s="7">
+        <f t="shared" ref="E1392:E1401" si="278">C1392-SUMIFS(C:C,A:A,A1392-1,B:B,B1392)</f>
+        <v>83</v>
+      </c>
+      <c r="F1392" s="6">
+        <f t="shared" ref="F1392:F1401" si="279">E1392/SUMIF(A:A,A1392,E:E)</f>
+        <v>5.009052504526252E-2</v>
+      </c>
+      <c r="G1392">
+        <v>3</v>
+      </c>
+      <c r="H1392" s="7">
+        <f t="shared" ref="H1392:H1401" si="280">G1392-SUMIFS(G:G,A:A,A1392-1,B:B,B1392)</f>
+        <v>-1</v>
+      </c>
+      <c r="I1392" s="6">
+        <f t="shared" ref="I1392:I1401" si="281">G1392/SUMIF(A:A,A1392,G:G)</f>
+        <v>2.6223776223776225E-3</v>
+      </c>
+      <c r="J1392" s="10">
+        <f>IF(B1392="Pending","",C1392/(VLOOKUP(B1392,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>599.16064525671845</v>
+      </c>
+      <c r="K1392" s="10">
+        <f>IF(B1392="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1392,A:A,"&gt;="&amp;A1392-30,B:B,B1392)/(VLOOKUP(B1392,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>341.74674976322774</v>
+      </c>
+      <c r="L1392" s="13">
+        <f>IF(B1392="Pending","",(G1392/C1392)/(VLOOKUP(B1392,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>6.1007728688459311E-5</v>
+      </c>
+    </row>
+    <row r="1393" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1393" s="1">
+        <v>44048</v>
+      </c>
+      <c r="B1393" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1393" s="2">
+        <v>13094</v>
+      </c>
+      <c r="D1393" s="6">
+        <f t="shared" si="277"/>
+        <v>0.11476099493417939</v>
+      </c>
+      <c r="E1393" s="7">
+        <f t="shared" si="278"/>
+        <v>229</v>
+      </c>
+      <c r="F1393" s="6">
+        <f t="shared" si="279"/>
+        <v>0.13820156910078454</v>
+      </c>
+      <c r="G1393">
+        <v>1</v>
+      </c>
+      <c r="H1393" s="7">
+        <f t="shared" si="280"/>
+        <v>0</v>
+      </c>
+      <c r="I1393" s="6">
+        <f t="shared" si="281"/>
+        <v>8.7412587412587413E-4</v>
+      </c>
+      <c r="J1393" s="10">
+        <f>IF(B1393="Pending","",C1393/(VLOOKUP(B1393,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1528.3784178120168</v>
+      </c>
+      <c r="K1393" s="10">
+        <f>IF(B1393="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1393,A:A,"&gt;="&amp;A1393-30,B:B,B1393)/(VLOOKUP(B1393,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>934.95579094808727</v>
+      </c>
+      <c r="L1393" s="13">
+        <f>IF(B1393="Pending","",(G1393/C1393)/(VLOOKUP(B1393,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>8.9142790138042192E-6</v>
+      </c>
+    </row>
+    <row r="1394" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1394" s="1">
+        <v>44048</v>
+      </c>
+      <c r="B1394" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1394" s="2">
+        <v>26368</v>
+      </c>
+      <c r="D1394" s="6">
+        <f t="shared" si="277"/>
+        <v>0.23109958106189415</v>
+      </c>
+      <c r="E1394" s="7">
+        <f t="shared" si="278"/>
+        <v>329</v>
+      </c>
+      <c r="F1394" s="6">
+        <f t="shared" si="279"/>
+        <v>0.19855159927579963</v>
+      </c>
+      <c r="G1394">
+        <v>12</v>
+      </c>
+      <c r="H1394" s="7">
+        <f t="shared" si="280"/>
+        <v>0</v>
+      </c>
+      <c r="I1394" s="6">
+        <f t="shared" si="281"/>
+        <v>1.048951048951049E-2</v>
+      </c>
+      <c r="J1394" s="10">
+        <f>IF(B1394="Pending","",C1394/(VLOOKUP(B1394,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>2768.4451014648566</v>
+      </c>
+      <c r="K1394" s="10">
+        <f>IF(B1394="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1394,A:A,"&gt;="&amp;A1394-30,B:B,B1394)/(VLOOKUP(B1394,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1523.6527348474667</v>
+      </c>
+      <c r="L1394" s="13">
+        <f>IF(B1394="Pending","",(G1394/C1394)/(VLOOKUP(B1394,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>4.7781830333901776E-5</v>
+      </c>
+    </row>
+    <row r="1395" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1395" s="1">
+        <v>44048</v>
+      </c>
+      <c r="B1395" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1395" s="2">
+        <v>20743</v>
+      </c>
+      <c r="D1395" s="6">
+        <f t="shared" si="277"/>
+        <v>0.18179985626391348</v>
+      </c>
+      <c r="E1395" s="7">
+        <f t="shared" si="278"/>
+        <v>263</v>
+      </c>
+      <c r="F1395" s="6">
+        <f t="shared" si="279"/>
+        <v>0.15872057936028969</v>
+      </c>
+      <c r="G1395">
+        <v>21</v>
+      </c>
+      <c r="H1395" s="7">
+        <f t="shared" si="280"/>
+        <v>2</v>
+      </c>
+      <c r="I1395" s="6">
+        <f t="shared" si="281"/>
+        <v>1.8356643356643356E-2</v>
+      </c>
+      <c r="J1395" s="10">
+        <f>IF(B1395="Pending","",C1395/(VLOOKUP(B1395,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>2364.7316064397128</v>
+      </c>
+      <c r="K1395" s="10">
+        <f>IF(B1395="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1395,A:A,"&gt;="&amp;A1395-30,B:B,B1395)/(VLOOKUP(B1395,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1188.4648795802923</v>
+      </c>
+      <c r="L1395" s="13">
+        <f>IF(B1395="Pending","",(G1395/C1395)/(VLOOKUP(B1395,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1.1541387327075471E-4</v>
+      </c>
+    </row>
+    <row r="1396" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1396" s="1">
+        <v>44048</v>
+      </c>
+      <c r="B1396" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1396" s="2">
+        <v>17658</v>
+      </c>
+      <c r="D1396" s="6">
+        <f t="shared" si="277"/>
+        <v>0.15476169608582097</v>
+      </c>
+      <c r="E1396" s="7">
+        <f t="shared" si="278"/>
+        <v>257</v>
+      </c>
+      <c r="F1396" s="6">
+        <f t="shared" si="279"/>
+        <v>0.15509957754978879</v>
+      </c>
+      <c r="G1396">
+        <v>63</v>
+      </c>
+      <c r="H1396" s="7">
+        <f t="shared" si="280"/>
+        <v>0</v>
+      </c>
+      <c r="I1396" s="6">
+        <f t="shared" si="281"/>
+        <v>5.5069930069930072E-2</v>
+      </c>
+      <c r="J1396" s="10">
+        <f>IF(B1396="Pending","",C1396/(VLOOKUP(B1396,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>2071.2710552245107</v>
+      </c>
+      <c r="K1396" s="10">
+        <f>IF(B1396="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1396,A:A,"&gt;="&amp;A1396-30,B:B,B1396)/(VLOOKUP(B1396,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1085.1358325904378</v>
+      </c>
+      <c r="L1396" s="13">
+        <f>IF(B1396="Pending","",(G1396/C1396)/(VLOOKUP(B1396,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>4.1849903479774039E-4</v>
+      </c>
+    </row>
+    <row r="1397" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1397" s="1">
+        <v>44048</v>
+      </c>
+      <c r="B1397" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1397" s="2">
+        <v>14248</v>
+      </c>
+      <c r="D1397" s="6">
+        <f t="shared" si="277"/>
+        <v>0.12487510736384512</v>
+      </c>
+      <c r="E1397" s="7">
+        <f t="shared" si="278"/>
+        <v>197</v>
+      </c>
+      <c r="F1397" s="6">
+        <f t="shared" si="279"/>
+        <v>0.11888955944477972</v>
+      </c>
+      <c r="G1397">
+        <v>125</v>
+      </c>
+      <c r="H1397" s="7">
+        <f t="shared" si="280"/>
+        <v>3</v>
+      </c>
+      <c r="I1397" s="6">
+        <f t="shared" si="281"/>
+        <v>0.10926573426573427</v>
+      </c>
+      <c r="J1397" s="10">
+        <f>IF(B1397="Pending","",C1397/(VLOOKUP(B1397,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1591.3134478718641</v>
+      </c>
+      <c r="K1397" s="10">
+        <f>IF(B1397="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1397,A:A,"&gt;="&amp;A1397-30,B:B,B1397)/(VLOOKUP(B1397,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>866.24277805265149</v>
+      </c>
+      <c r="L1397" s="13">
+        <f>IF(B1397="Pending","",(G1397/C1397)/(VLOOKUP(B1397,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>9.7984624586327975E-4</v>
+      </c>
+    </row>
+    <row r="1398" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1398" s="1">
+        <v>44048</v>
+      </c>
+      <c r="B1398" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1398" s="2">
+        <v>8965</v>
+      </c>
+      <c r="D1398" s="6">
+        <f t="shared" si="277"/>
+        <v>7.8572805833581658E-2</v>
+      </c>
+      <c r="E1398" s="7">
+        <f t="shared" si="278"/>
+        <v>155</v>
+      </c>
+      <c r="F1398" s="6">
+        <f t="shared" si="279"/>
+        <v>9.3542546771273383E-2</v>
+      </c>
+      <c r="G1398">
+        <v>220</v>
+      </c>
+      <c r="H1398" s="7">
+        <f t="shared" si="280"/>
+        <v>9</v>
+      </c>
+      <c r="I1398" s="6">
+        <f t="shared" si="281"/>
+        <v>0.19230769230769232</v>
+      </c>
+      <c r="J1398" s="10">
+        <f>IF(B1398="Pending","",C1398/(VLOOKUP(B1398,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1137.6354947350255</v>
+      </c>
+      <c r="K1398" s="10">
+        <f>IF(B1398="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1398,A:A,"&gt;="&amp;A1398-30,B:B,B1398)/(VLOOKUP(B1398,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>670.14534832076629</v>
+      </c>
+      <c r="L1398" s="13">
+        <f>IF(B1398="Pending","",(G1398/C1398)/(VLOOKUP(B1398,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>3.1140474571801739E-3</v>
+      </c>
+    </row>
+    <row r="1399" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1399" s="1">
+        <v>44048</v>
+      </c>
+      <c r="B1399" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1399" s="2">
+        <v>4750</v>
+      </c>
+      <c r="D1399" s="6">
+        <f t="shared" si="277"/>
+        <v>4.1630878718294802E-2</v>
+      </c>
+      <c r="E1399" s="7">
+        <f t="shared" si="278"/>
+        <v>98</v>
+      </c>
+      <c r="F1399" s="6">
+        <f t="shared" si="279"/>
+        <v>5.9143029571514787E-2</v>
+      </c>
+      <c r="G1399">
+        <v>333</v>
+      </c>
+      <c r="H1399" s="7">
+        <f t="shared" si="280"/>
+        <v>7</v>
+      </c>
+      <c r="I1399" s="6">
+        <f t="shared" si="281"/>
+        <v>0.29108391608391609</v>
+      </c>
+      <c r="J1399" s="10">
+        <f>IF(B1399="Pending","",C1399/(VLOOKUP(B1399,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>990.41486915055771</v>
+      </c>
+      <c r="K1399" s="10">
+        <f>IF(B1399="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1399,A:A,"&gt;="&amp;A1399-30,B:B,B1399)/(VLOOKUP(B1399,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>595.08295506435616</v>
+      </c>
+      <c r="L1399" s="13">
+        <f>IF(B1399="Pending","",(G1399/C1399)/(VLOOKUP(B1399,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1.4617535797324575E-2</v>
+      </c>
+    </row>
+    <row r="1400" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1400" s="1">
+        <v>44048</v>
+      </c>
+      <c r="B1400" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1400" s="2">
+        <v>2630</v>
+      </c>
+      <c r="D1400" s="6">
+        <f t="shared" si="277"/>
+        <v>2.3050360216655859E-2</v>
+      </c>
+      <c r="E1400" s="7">
+        <f t="shared" si="278"/>
+        <v>55</v>
+      </c>
+      <c r="F1400" s="6">
+        <f t="shared" si="279"/>
+        <v>3.3192516596258298E-2</v>
+      </c>
+      <c r="G1400">
+        <v>366</v>
+      </c>
+      <c r="H1400" s="7">
+        <f t="shared" si="280"/>
+        <v>7</v>
+      </c>
+      <c r="I1400" s="6">
+        <f t="shared" si="281"/>
+        <v>0.31993006993006995</v>
+      </c>
+      <c r="J1400" s="10">
+        <f>IF(B1400="Pending","",C1400/(VLOOKUP(B1400,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1188.0615623687147</v>
+      </c>
+      <c r="K1400" s="10">
+        <f>IF(B1400="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1400,A:A,"&gt;="&amp;A1400-30,B:B,B1400)/(VLOOKUP(B1400,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>686.63634022830649</v>
+      </c>
+      <c r="L1400" s="13">
+        <f>IF(B1400="Pending","",(G1400/C1400)/(VLOOKUP(B1400,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>6.2864944097348455E-2</v>
+      </c>
+    </row>
+    <row r="1401" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1401" s="1">
+        <v>44048</v>
+      </c>
+      <c r="B1401" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1401" s="2">
+        <v>214</v>
+      </c>
+      <c r="D1401" s="6">
+        <f t="shared" si="277"/>
+        <v>1.8755806412031762E-3</v>
+      </c>
+      <c r="E1401" s="7">
+        <f t="shared" si="278"/>
+        <v>-9</v>
+      </c>
+      <c r="F1401" s="6">
+        <f t="shared" si="279"/>
+        <v>-5.4315027157513579E-3</v>
+      </c>
+      <c r="G1401">
+        <v>0</v>
+      </c>
+      <c r="H1401" s="7">
+        <f t="shared" si="280"/>
+        <v>0</v>
+      </c>
+      <c r="I1401" s="6">
+        <f t="shared" si="281"/>
+        <v>0</v>
+      </c>
+      <c r="J1401" s="10" t="str">
+        <f>IF(B1401="Pending","",C1401/(VLOOKUP(B1401,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v/>
+      </c>
+      <c r="K1401" s="10" t="str">
+        <f>IF(B1401="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1401,A:A,"&gt;="&amp;A1401-30,B:B,B1401)/(VLOOKUP(B1401,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v/>
+      </c>
+      <c r="L1401" s="13" t="str">
+        <f>IF(B1401="Pending","",(G1401/C1401)/(VLOOKUP(B1401,Population!$A$2:$B$10,2,FALSE)/100000))</f>
         <v/>
       </c>
     </row>

--- a/TN_Age.xlsx
+++ b/TN_Age.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1425" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1435" uniqueCount="33">
   <si>
     <t>0-10</t>
   </si>
@@ -482,11 +482,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M1401"/>
+  <dimension ref="A1:M1411"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1381" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A1402" sqref="A1402"/>
+      <pane ySplit="1" topLeftCell="A1390" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A1411" sqref="A1411"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -60799,6 +60799,466 @@
       </c>
       <c r="L1401" s="13" t="str">
         <f>IF(B1401="Pending","",(G1401/C1401)/(VLOOKUP(B1401,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="1402" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1402" s="1">
+        <v>44049</v>
+      </c>
+      <c r="B1402" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1402" s="2">
+        <v>5570</v>
+      </c>
+      <c r="D1402" s="6">
+        <f t="shared" ref="D1402:D1411" si="282">C1402/SUMIF(A:A,A1402,C:C)</f>
+        <v>4.7872797593467985E-2</v>
+      </c>
+      <c r="E1402" s="7">
+        <f t="shared" ref="E1402:E1411" si="283">C1402-SUMIFS(C:C,A:A,A1402-1,B:B,B1402)</f>
+        <v>142</v>
+      </c>
+      <c r="F1402" s="6">
+        <f t="shared" ref="F1402:F1411" si="284">E1402/SUMIF(A:A,A1402,E:E)</f>
+        <v>6.3055062166962703E-2</v>
+      </c>
+      <c r="G1402" s="2">
+        <v>3</v>
+      </c>
+      <c r="H1402" s="7">
+        <f t="shared" ref="H1402:H1411" si="285">G1402-SUMIFS(G:G,A:A,A1402-1,B:B,B1402)</f>
+        <v>0</v>
+      </c>
+      <c r="I1402" s="6">
+        <f t="shared" ref="I1402:I1411" si="286">G1402/SUMIF(A:A,A1402,G:G)</f>
+        <v>2.5295109612141651E-3</v>
+      </c>
+      <c r="J1402" s="10">
+        <f>IF(B1402="Pending","",C1402/(VLOOKUP(B1402,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>614.83507628591042</v>
+      </c>
+      <c r="K1402" s="10">
+        <f>IF(B1402="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1402,A:A,"&gt;="&amp;A1402-30,B:B,B1402)/(VLOOKUP(B1402,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>354.33044791342411</v>
+      </c>
+      <c r="L1402" s="13">
+        <f>IF(B1402="Pending","",(G1402/C1402)/(VLOOKUP(B1402,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>5.9452414958879194E-5</v>
+      </c>
+    </row>
+    <row r="1403" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1403" s="1">
+        <v>44049</v>
+      </c>
+      <c r="B1403" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1403" s="2">
+        <v>13372</v>
+      </c>
+      <c r="D1403" s="6">
+        <f t="shared" si="282"/>
+        <v>0.11492909325311559</v>
+      </c>
+      <c r="E1403" s="7">
+        <f t="shared" si="283"/>
+        <v>278</v>
+      </c>
+      <c r="F1403" s="6">
+        <f t="shared" si="284"/>
+        <v>0.12344582593250444</v>
+      </c>
+      <c r="G1403" s="2">
+        <v>1</v>
+      </c>
+      <c r="H1403" s="7">
+        <f t="shared" si="285"/>
+        <v>0</v>
+      </c>
+      <c r="I1403" s="6">
+        <f t="shared" si="286"/>
+        <v>8.4317032040472171E-4</v>
+      </c>
+      <c r="J1403" s="10">
+        <f>IF(B1403="Pending","",C1403/(VLOOKUP(B1403,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1560.8275701070941</v>
+      </c>
+      <c r="K1403" s="10">
+        <f>IF(B1403="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1403,A:A,"&gt;="&amp;A1403-30,B:B,B1403)/(VLOOKUP(B1403,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>957.0165455659635</v>
+      </c>
+      <c r="L1403" s="13">
+        <f>IF(B1403="Pending","",(G1403/C1403)/(VLOOKUP(B1403,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>8.7289537396614165E-6</v>
+      </c>
+    </row>
+    <row r="1404" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1404" s="1">
+        <v>44049</v>
+      </c>
+      <c r="B1404" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1404" s="2">
+        <v>26783</v>
+      </c>
+      <c r="D1404" s="6">
+        <f t="shared" si="282"/>
+        <v>0.23019338203695747</v>
+      </c>
+      <c r="E1404" s="7">
+        <f t="shared" si="283"/>
+        <v>415</v>
+      </c>
+      <c r="F1404" s="6">
+        <f t="shared" si="284"/>
+        <v>0.18428063943161635</v>
+      </c>
+      <c r="G1404" s="2">
+        <v>12</v>
+      </c>
+      <c r="H1404" s="7">
+        <f t="shared" si="285"/>
+        <v>0</v>
+      </c>
+      <c r="I1404" s="6">
+        <f t="shared" si="286"/>
+        <v>1.0118043844856661E-2</v>
+      </c>
+      <c r="J1404" s="10">
+        <f>IF(B1404="Pending","",C1404/(VLOOKUP(B1404,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>2812.0170340008062</v>
+      </c>
+      <c r="K1404" s="10">
+        <f>IF(B1404="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1404,A:A,"&gt;="&amp;A1404-30,B:B,B1404)/(VLOOKUP(B1404,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1545.4911974197016</v>
+      </c>
+      <c r="L1404" s="13">
+        <f>IF(B1404="Pending","",(G1404/C1404)/(VLOOKUP(B1404,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>4.7041455484610457E-5</v>
+      </c>
+    </row>
+    <row r="1405" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1405" s="1">
+        <v>44049</v>
+      </c>
+      <c r="B1405" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1405" s="2">
+        <v>21116</v>
+      </c>
+      <c r="D1405" s="6">
+        <f t="shared" si="282"/>
+        <v>0.18148689299527287</v>
+      </c>
+      <c r="E1405" s="7">
+        <f t="shared" si="283"/>
+        <v>373</v>
+      </c>
+      <c r="F1405" s="6">
+        <f t="shared" si="284"/>
+        <v>0.16563055062166962</v>
+      </c>
+      <c r="G1405" s="2">
+        <v>23</v>
+      </c>
+      <c r="H1405" s="7">
+        <f t="shared" si="285"/>
+        <v>2</v>
+      </c>
+      <c r="I1405" s="6">
+        <f t="shared" si="286"/>
+        <v>1.93929173693086E-2</v>
+      </c>
+      <c r="J1405" s="10">
+        <f>IF(B1405="Pending","",C1405/(VLOOKUP(B1405,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>2407.2541388218183</v>
+      </c>
+      <c r="K1405" s="10">
+        <f>IF(B1405="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1405,A:A,"&gt;="&amp;A1405-30,B:B,B1405)/(VLOOKUP(B1405,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1218.3332535323343</v>
+      </c>
+      <c r="L1405" s="13">
+        <f>IF(B1405="Pending","",(G1405/C1405)/(VLOOKUP(B1405,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1.2417279919733874E-4</v>
+      </c>
+    </row>
+    <row r="1406" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1406" s="1">
+        <v>44049</v>
+      </c>
+      <c r="B1406" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1406" s="2">
+        <v>18003</v>
+      </c>
+      <c r="D1406" s="6">
+        <f t="shared" si="282"/>
+        <v>0.15473141383755909</v>
+      </c>
+      <c r="E1406" s="7">
+        <f t="shared" si="283"/>
+        <v>345</v>
+      </c>
+      <c r="F1406" s="6">
+        <f t="shared" si="284"/>
+        <v>0.15319715808170514</v>
+      </c>
+      <c r="G1406" s="2">
+        <v>65</v>
+      </c>
+      <c r="H1406" s="7">
+        <f t="shared" si="285"/>
+        <v>2</v>
+      </c>
+      <c r="I1406" s="6">
+        <f t="shared" si="286"/>
+        <v>5.4806070826306917E-2</v>
+      </c>
+      <c r="J1406" s="10">
+        <f>IF(B1406="Pending","",C1406/(VLOOKUP(B1406,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>2111.7393140336885</v>
+      </c>
+      <c r="K1406" s="10">
+        <f>IF(B1406="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1406,A:A,"&gt;="&amp;A1406-30,B:B,B1406)/(VLOOKUP(B1406,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1113.8741613099985</v>
+      </c>
+      <c r="L1406" s="13">
+        <f>IF(B1406="Pending","",(G1406/C1406)/(VLOOKUP(B1406,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>4.2351022375442053E-4</v>
+      </c>
+    </row>
+    <row r="1407" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1407" s="1">
+        <v>44049</v>
+      </c>
+      <c r="B1407" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1407" s="2">
+        <v>14570</v>
+      </c>
+      <c r="D1407" s="6">
+        <f t="shared" si="282"/>
+        <v>0.12522561237645036</v>
+      </c>
+      <c r="E1407" s="7">
+        <f t="shared" si="283"/>
+        <v>322</v>
+      </c>
+      <c r="F1407" s="6">
+        <f t="shared" si="284"/>
+        <v>0.14298401420959148</v>
+      </c>
+      <c r="G1407" s="2">
+        <v>126</v>
+      </c>
+      <c r="H1407" s="7">
+        <f t="shared" si="285"/>
+        <v>1</v>
+      </c>
+      <c r="I1407" s="6">
+        <f t="shared" si="286"/>
+        <v>0.10623946037099494</v>
+      </c>
+      <c r="J1407" s="10">
+        <f>IF(B1407="Pending","",C1407/(VLOOKUP(B1407,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1627.2765956971546</v>
+      </c>
+      <c r="K1407" s="10">
+        <f>IF(B1407="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1407,A:A,"&gt;="&amp;A1407-30,B:B,B1407)/(VLOOKUP(B1407,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>892.26580116846731</v>
+      </c>
+      <c r="L1407" s="13">
+        <f>IF(B1407="Pending","",(G1407/C1407)/(VLOOKUP(B1407,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>9.6585697361348591E-4</v>
+      </c>
+    </row>
+    <row r="1408" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1408" s="1">
+        <v>44049</v>
+      </c>
+      <c r="B1408" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1408" s="2">
+        <v>9158</v>
+      </c>
+      <c r="D1408" s="6">
+        <f t="shared" si="282"/>
+        <v>7.8710786420283632E-2</v>
+      </c>
+      <c r="E1408" s="7">
+        <f t="shared" si="283"/>
+        <v>193</v>
+      </c>
+      <c r="F1408" s="6">
+        <f t="shared" si="284"/>
+        <v>8.5701598579040847E-2</v>
+      </c>
+      <c r="G1408" s="2">
+        <v>234</v>
+      </c>
+      <c r="H1408" s="7">
+        <f t="shared" si="285"/>
+        <v>14</v>
+      </c>
+      <c r="I1408" s="6">
+        <f t="shared" si="286"/>
+        <v>0.1973018549747049</v>
+      </c>
+      <c r="J1408" s="10">
+        <f>IF(B1408="Pending","",C1408/(VLOOKUP(B1408,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1162.1266994738833</v>
+      </c>
+      <c r="K1408" s="10">
+        <f>IF(B1408="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1408,A:A,"&gt;="&amp;A1408-30,B:B,B1408)/(VLOOKUP(B1408,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>686.38821985741811</v>
+      </c>
+      <c r="L1408" s="13">
+        <f>IF(B1408="Pending","",(G1408/C1408)/(VLOOKUP(B1408,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>3.2424109552240169E-3</v>
+      </c>
+    </row>
+    <row r="1409" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1409" s="1">
+        <v>44049</v>
+      </c>
+      <c r="B1409" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1409" s="2">
+        <v>4872</v>
+      </c>
+      <c r="D1409" s="6">
+        <f t="shared" si="282"/>
+        <v>4.1873657069187796E-2</v>
+      </c>
+      <c r="E1409" s="7">
+        <f t="shared" si="283"/>
+        <v>122</v>
+      </c>
+      <c r="F1409" s="6">
+        <f t="shared" si="284"/>
+        <v>5.4174067495559503E-2</v>
+      </c>
+      <c r="G1409" s="2">
+        <v>344</v>
+      </c>
+      <c r="H1409" s="7">
+        <f t="shared" si="285"/>
+        <v>11</v>
+      </c>
+      <c r="I1409" s="6">
+        <f t="shared" si="286"/>
+        <v>0.2900505902192243</v>
+      </c>
+      <c r="J1409" s="10">
+        <f>IF(B1409="Pending","",C1409/(VLOOKUP(B1409,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1015.8528931582142</v>
+      </c>
+      <c r="K1409" s="10">
+        <f>IF(B1409="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1409,A:A,"&gt;="&amp;A1409-30,B:B,B1409)/(VLOOKUP(B1409,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>613.64020208633508</v>
+      </c>
+      <c r="L1409" s="13">
+        <f>IF(B1409="Pending","",(G1409/C1409)/(VLOOKUP(B1409,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1.4722267521726378E-2</v>
+      </c>
+    </row>
+    <row r="1410" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1410" s="1">
+        <v>44049</v>
+      </c>
+      <c r="B1410" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1410" s="2">
+        <v>2695</v>
+      </c>
+      <c r="D1410" s="6">
+        <f t="shared" si="282"/>
+        <v>2.3162870648904169E-2</v>
+      </c>
+      <c r="E1410" s="7">
+        <f t="shared" si="283"/>
+        <v>65</v>
+      </c>
+      <c r="F1410" s="6">
+        <f t="shared" si="284"/>
+        <v>2.886323268206039E-2</v>
+      </c>
+      <c r="G1410" s="2">
+        <v>378</v>
+      </c>
+      <c r="H1410" s="7">
+        <f t="shared" si="285"/>
+        <v>12</v>
+      </c>
+      <c r="I1410" s="6">
+        <f t="shared" si="286"/>
+        <v>0.31871838111298484</v>
+      </c>
+      <c r="J1410" s="10">
+        <f>IF(B1410="Pending","",C1410/(VLOOKUP(B1410,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1217.424300602162</v>
+      </c>
+      <c r="K1410" s="10">
+        <f>IF(B1410="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1410,A:A,"&gt;="&amp;A1410-30,B:B,B1410)/(VLOOKUP(B1410,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>710.57826524942516</v>
+      </c>
+      <c r="L1410" s="13">
+        <f>IF(B1410="Pending","",(G1410/C1410)/(VLOOKUP(B1410,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>6.3360154429816393E-2</v>
+      </c>
+    </row>
+    <row r="1411" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1411" s="1">
+        <v>44049</v>
+      </c>
+      <c r="B1411" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1411" s="2">
+        <v>211</v>
+      </c>
+      <c r="D1411" s="6">
+        <f t="shared" si="282"/>
+        <v>1.8134937688010313E-3</v>
+      </c>
+      <c r="E1411" s="7">
+        <f t="shared" si="283"/>
+        <v>-3</v>
+      </c>
+      <c r="F1411" s="6">
+        <f t="shared" si="284"/>
+        <v>-1.3321492007104796E-3</v>
+      </c>
+      <c r="G1411" s="2">
+        <v>0</v>
+      </c>
+      <c r="H1411" s="7">
+        <f t="shared" si="285"/>
+        <v>0</v>
+      </c>
+      <c r="I1411" s="6">
+        <f t="shared" si="286"/>
+        <v>0</v>
+      </c>
+      <c r="J1411" s="10" t="str">
+        <f>IF(B1411="Pending","",C1411/(VLOOKUP(B1411,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v/>
+      </c>
+      <c r="K1411" s="10" t="str">
+        <f>IF(B1411="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1411,A:A,"&gt;="&amp;A1411-30,B:B,B1411)/(VLOOKUP(B1411,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v/>
+      </c>
+      <c r="L1411" s="13" t="str">
+        <f>IF(B1411="Pending","",(G1411/C1411)/(VLOOKUP(B1411,Population!$A$2:$B$10,2,FALSE)/100000))</f>
         <v/>
       </c>
     </row>

--- a/TN_Age.xlsx
+++ b/TN_Age.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1435" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1455" uniqueCount="33">
   <si>
     <t>0-10</t>
   </si>
@@ -482,11 +482,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M1411"/>
+  <dimension ref="A1:M1431"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1390" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A1411" sqref="A1411"/>
+      <pane ySplit="1" topLeftCell="A1411" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A1431" sqref="A1431"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -61259,6 +61259,926 @@
       </c>
       <c r="L1411" s="13" t="str">
         <f>IF(B1411="Pending","",(G1411/C1411)/(VLOOKUP(B1411,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="1412" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1412" s="1">
+        <v>44050</v>
+      </c>
+      <c r="B1412" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1412">
+        <v>5676</v>
+      </c>
+      <c r="D1412" s="6">
+        <f t="shared" ref="D1412:D1421" si="287">C1412/SUMIF(A:A,A1412,C:C)</f>
+        <v>4.7785017932009899E-2</v>
+      </c>
+      <c r="E1412" s="7">
+        <f t="shared" ref="E1412:E1421" si="288">C1412-SUMIFS(C:C,A:A,A1412-1,B:B,B1412)</f>
+        <v>106</v>
+      </c>
+      <c r="F1412" s="6">
+        <f t="shared" ref="F1412:F1421" si="289">E1412/SUMIF(A:A,A1412,E:E)</f>
+        <v>4.358552631578947E-2</v>
+      </c>
+      <c r="G1412" s="2">
+        <v>4</v>
+      </c>
+      <c r="H1412" s="7">
+        <f t="shared" ref="H1412:H1421" si="290">G1412-SUMIFS(G:G,A:A,A1412-1,B:B,B1412)</f>
+        <v>1</v>
+      </c>
+      <c r="I1412" s="6">
+        <f t="shared" ref="I1412:I1421" si="291">G1412/SUMIF(A:A,A1412,G:G)</f>
+        <v>3.3167495854063019E-3</v>
+      </c>
+      <c r="J1412" s="10">
+        <f>IF(B1412="Pending","",C1412/(VLOOKUP(B1412,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>626.53570789925095</v>
+      </c>
+      <c r="K1412" s="10">
+        <f>IF(B1412="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1412,A:A,"&gt;="&amp;A1412-30,B:B,B1412)/(VLOOKUP(B1412,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>356.7588808897778</v>
+      </c>
+      <c r="L1412" s="13">
+        <f>IF(B1412="Pending","",(G1412/C1412)/(VLOOKUP(B1412,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>7.7789511703302123E-5</v>
+      </c>
+    </row>
+    <row r="1413" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1413" s="1">
+        <v>44050</v>
+      </c>
+      <c r="B1413" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1413">
+        <v>13698</v>
+      </c>
+      <c r="D1413" s="6">
+        <f t="shared" si="287"/>
+        <v>0.11532050310653129</v>
+      </c>
+      <c r="E1413" s="7">
+        <f t="shared" si="288"/>
+        <v>326</v>
+      </c>
+      <c r="F1413" s="6">
+        <f t="shared" si="289"/>
+        <v>0.13404605263157895</v>
+      </c>
+      <c r="G1413" s="2">
+        <v>1</v>
+      </c>
+      <c r="H1413" s="7">
+        <f t="shared" si="290"/>
+        <v>0</v>
+      </c>
+      <c r="I1413" s="6">
+        <f t="shared" si="291"/>
+        <v>8.2918739635157548E-4</v>
+      </c>
+      <c r="J1413" s="10">
+        <f>IF(B1413="Pending","",C1413/(VLOOKUP(B1413,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1598.8794537336953</v>
+      </c>
+      <c r="K1413" s="10">
+        <f>IF(B1413="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1413,A:A,"&gt;="&amp;A1413-30,B:B,B1413)/(VLOOKUP(B1413,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>978.0267880591789</v>
+      </c>
+      <c r="L1413" s="13">
+        <f>IF(B1413="Pending","",(G1413/C1413)/(VLOOKUP(B1413,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>8.5212125424698829E-6</v>
+      </c>
+    </row>
+    <row r="1414" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1414" s="1">
+        <v>44050</v>
+      </c>
+      <c r="B1414" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1414">
+        <v>27287</v>
+      </c>
+      <c r="D1414" s="6">
+        <f t="shared" si="287"/>
+        <v>0.22972335875806099</v>
+      </c>
+      <c r="E1414" s="7">
+        <f t="shared" si="288"/>
+        <v>504</v>
+      </c>
+      <c r="F1414" s="6">
+        <f t="shared" si="289"/>
+        <v>0.20723684210526316</v>
+      </c>
+      <c r="G1414" s="2">
+        <v>12</v>
+      </c>
+      <c r="H1414" s="7">
+        <f t="shared" si="290"/>
+        <v>0</v>
+      </c>
+      <c r="I1414" s="6">
+        <f t="shared" si="291"/>
+        <v>9.9502487562189053E-3</v>
+      </c>
+      <c r="J1414" s="10">
+        <f>IF(B1414="Pending","",C1414/(VLOOKUP(B1414,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>2864.9333086950678</v>
+      </c>
+      <c r="K1414" s="10">
+        <f>IF(B1414="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1414,A:A,"&gt;="&amp;A1414-30,B:B,B1414)/(VLOOKUP(B1414,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1556.410428705819</v>
+      </c>
+      <c r="L1414" s="13">
+        <f>IF(B1414="Pending","",(G1414/C1414)/(VLOOKUP(B1414,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>4.6172584096614572E-5</v>
+      </c>
+    </row>
+    <row r="1415" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1415" s="1">
+        <v>44050</v>
+      </c>
+      <c r="B1415" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1415">
+        <v>21464</v>
+      </c>
+      <c r="D1415" s="6">
+        <f t="shared" si="287"/>
+        <v>0.18070077957939756</v>
+      </c>
+      <c r="E1415" s="7">
+        <f t="shared" si="288"/>
+        <v>348</v>
+      </c>
+      <c r="F1415" s="6">
+        <f t="shared" si="289"/>
+        <v>0.14309210526315788</v>
+      </c>
+      <c r="G1415" s="2">
+        <v>24</v>
+      </c>
+      <c r="H1415" s="7">
+        <f t="shared" si="290"/>
+        <v>1</v>
+      </c>
+      <c r="I1415" s="6">
+        <f t="shared" si="291"/>
+        <v>1.9900497512437811E-2</v>
+      </c>
+      <c r="J1415" s="10">
+        <f>IF(B1415="Pending","",C1415/(VLOOKUP(B1415,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>2446.9266355214768</v>
+      </c>
+      <c r="K1415" s="10">
+        <f>IF(B1415="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1415,A:A,"&gt;="&amp;A1415-30,B:B,B1415)/(VLOOKUP(B1415,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1234.0654504994402</v>
+      </c>
+      <c r="L1415" s="13">
+        <f>IF(B1415="Pending","",(G1415/C1415)/(VLOOKUP(B1415,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1.2747084677361509E-4</v>
+      </c>
+    </row>
+    <row r="1416" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1416" s="1">
+        <v>44050</v>
+      </c>
+      <c r="B1416" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1416">
+        <v>18377</v>
+      </c>
+      <c r="D1416" s="6">
+        <f t="shared" si="287"/>
+        <v>0.15471199339967334</v>
+      </c>
+      <c r="E1416" s="7">
+        <f t="shared" si="288"/>
+        <v>374</v>
+      </c>
+      <c r="F1416" s="6">
+        <f t="shared" si="289"/>
+        <v>0.15378289473684212</v>
+      </c>
+      <c r="G1416" s="2">
+        <v>66</v>
+      </c>
+      <c r="H1416" s="7">
+        <f t="shared" si="290"/>
+        <v>1</v>
+      </c>
+      <c r="I1416" s="6">
+        <f t="shared" si="291"/>
+        <v>5.4726368159203981E-2</v>
+      </c>
+      <c r="J1416" s="10">
+        <f>IF(B1416="Pending","",C1416/(VLOOKUP(B1416,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>2155.6092525688546</v>
+      </c>
+      <c r="K1416" s="10">
+        <f>IF(B1416="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1416,A:A,"&gt;="&amp;A1416-30,B:B,B1416)/(VLOOKUP(B1416,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1134.8707361704123</v>
+      </c>
+      <c r="L1416" s="13">
+        <f>IF(B1416="Pending","",(G1416/C1416)/(VLOOKUP(B1416,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>4.2127408495113452E-4</v>
+      </c>
+    </row>
+    <row r="1417" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1417" s="1">
+        <v>44050</v>
+      </c>
+      <c r="B1417" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1417">
+        <v>14899</v>
+      </c>
+      <c r="D1417" s="6">
+        <f t="shared" si="287"/>
+        <v>0.12543146267953056</v>
+      </c>
+      <c r="E1417" s="7">
+        <f t="shared" si="288"/>
+        <v>329</v>
+      </c>
+      <c r="F1417" s="6">
+        <f t="shared" si="289"/>
+        <v>0.13527960526315788</v>
+      </c>
+      <c r="G1417" s="2">
+        <v>126</v>
+      </c>
+      <c r="H1417" s="7">
+        <f t="shared" si="290"/>
+        <v>0</v>
+      </c>
+      <c r="I1417" s="6">
+        <f t="shared" si="291"/>
+        <v>0.1044776119402985</v>
+      </c>
+      <c r="J1417" s="10">
+        <f>IF(B1417="Pending","",C1417/(VLOOKUP(B1417,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1664.0215510838646</v>
+      </c>
+      <c r="K1417" s="10">
+        <f>IF(B1417="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1417,A:A,"&gt;="&amp;A1417-30,B:B,B1417)/(VLOOKUP(B1417,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>911.02918264253196</v>
+      </c>
+      <c r="L1417" s="13">
+        <f>IF(B1417="Pending","",(G1417/C1417)/(VLOOKUP(B1417,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>9.4452890164094835E-4</v>
+      </c>
+    </row>
+    <row r="1418" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1418" s="1">
+        <v>44050</v>
+      </c>
+      <c r="B1418" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1418">
+        <v>9393</v>
+      </c>
+      <c r="D1418" s="6">
+        <f t="shared" si="287"/>
+        <v>7.9077638025963529E-2</v>
+      </c>
+      <c r="E1418" s="7">
+        <f t="shared" si="288"/>
+        <v>235</v>
+      </c>
+      <c r="F1418" s="6">
+        <f t="shared" si="289"/>
+        <v>9.6628289473684209E-2</v>
+      </c>
+      <c r="G1418" s="2">
+        <v>244</v>
+      </c>
+      <c r="H1418" s="7">
+        <f t="shared" si="290"/>
+        <v>10</v>
+      </c>
+      <c r="I1418" s="6">
+        <f t="shared" si="291"/>
+        <v>0.20232172470978441</v>
+      </c>
+      <c r="J1418" s="10">
+        <f>IF(B1418="Pending","",C1418/(VLOOKUP(B1418,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1191.947596435705</v>
+      </c>
+      <c r="K1418" s="10">
+        <f>IF(B1418="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1418,A:A,"&gt;="&amp;A1418-30,B:B,B1418)/(VLOOKUP(B1418,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>702.75798882794993</v>
+      </c>
+      <c r="L1418" s="13">
+        <f>IF(B1418="Pending","",(G1418/C1418)/(VLOOKUP(B1418,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>3.296388147209887E-3</v>
+      </c>
+    </row>
+    <row r="1419" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1419" s="1">
+        <v>44050</v>
+      </c>
+      <c r="B1419" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1419">
+        <v>5016</v>
+      </c>
+      <c r="D1419" s="6">
+        <f t="shared" si="287"/>
+        <v>4.2228620498055258E-2</v>
+      </c>
+      <c r="E1419" s="7">
+        <f t="shared" si="288"/>
+        <v>144</v>
+      </c>
+      <c r="F1419" s="6">
+        <f t="shared" si="289"/>
+        <v>5.921052631578947E-2</v>
+      </c>
+      <c r="G1419" s="2">
+        <v>348</v>
+      </c>
+      <c r="H1419" s="7">
+        <f t="shared" si="290"/>
+        <v>4</v>
+      </c>
+      <c r="I1419" s="6">
+        <f t="shared" si="291"/>
+        <v>0.28855721393034828</v>
+      </c>
+      <c r="J1419" s="10">
+        <f>IF(B1419="Pending","",C1419/(VLOOKUP(B1419,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1045.878101822989</v>
+      </c>
+      <c r="K1419" s="10">
+        <f>IF(B1419="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1419,A:A,"&gt;="&amp;A1419-30,B:B,B1419)/(VLOOKUP(B1419,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>631.5719239277978</v>
+      </c>
+      <c r="L1419" s="13">
+        <f>IF(B1419="Pending","",(G1419/C1419)/(VLOOKUP(B1419,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1.4465893329320662E-2</v>
+      </c>
+    </row>
+    <row r="1420" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1420" s="1">
+        <v>44050</v>
+      </c>
+      <c r="B1420" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1420">
+        <v>2758</v>
+      </c>
+      <c r="D1420" s="6">
+        <f t="shared" si="287"/>
+        <v>2.3219006246737721E-2</v>
+      </c>
+      <c r="E1420" s="7">
+        <f t="shared" si="288"/>
+        <v>63</v>
+      </c>
+      <c r="F1420" s="6">
+        <f t="shared" si="289"/>
+        <v>2.5904605263157895E-2</v>
+      </c>
+      <c r="G1420" s="2">
+        <v>381</v>
+      </c>
+      <c r="H1420" s="7">
+        <f t="shared" si="290"/>
+        <v>3</v>
+      </c>
+      <c r="I1420" s="6">
+        <f t="shared" si="291"/>
+        <v>0.31592039800995025</v>
+      </c>
+      <c r="J1420" s="10">
+        <f>IF(B1420="Pending","",C1420/(VLOOKUP(B1420,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1245.8835699668878</v>
+      </c>
+      <c r="K1420" s="10">
+        <f>IF(B1420="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1420,A:A,"&gt;="&amp;A1420-30,B:B,B1420)/(VLOOKUP(B1420,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>729.09937705821494</v>
+      </c>
+      <c r="L1420" s="13">
+        <f>IF(B1420="Pending","",(G1420/C1420)/(VLOOKUP(B1420,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>6.24042130135741E-2</v>
+      </c>
+    </row>
+    <row r="1421" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1421" s="1">
+        <v>44050</v>
+      </c>
+      <c r="B1421" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1421">
+        <v>214</v>
+      </c>
+      <c r="D1421" s="6">
+        <f t="shared" si="287"/>
+        <v>1.8016197740398376E-3</v>
+      </c>
+      <c r="E1421" s="7">
+        <f t="shared" si="288"/>
+        <v>3</v>
+      </c>
+      <c r="F1421" s="6">
+        <f t="shared" si="289"/>
+        <v>1.2335526315789473E-3</v>
+      </c>
+      <c r="G1421" s="2">
+        <v>0</v>
+      </c>
+      <c r="H1421" s="7">
+        <f t="shared" si="290"/>
+        <v>0</v>
+      </c>
+      <c r="I1421" s="6">
+        <f t="shared" si="291"/>
+        <v>0</v>
+      </c>
+      <c r="J1421" s="10" t="str">
+        <f>IF(B1421="Pending","",C1421/(VLOOKUP(B1421,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v/>
+      </c>
+      <c r="K1421" s="10" t="str">
+        <f>IF(B1421="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1421,A:A,"&gt;="&amp;A1421-30,B:B,B1421)/(VLOOKUP(B1421,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v/>
+      </c>
+      <c r="L1421" s="13" t="str">
+        <f>IF(B1421="Pending","",(G1421/C1421)/(VLOOKUP(B1421,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="1422" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1422" s="1">
+        <v>44051</v>
+      </c>
+      <c r="B1422" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1422" s="2">
+        <v>5777</v>
+      </c>
+      <c r="D1422" s="6">
+        <f t="shared" ref="D1422:D1431" si="292">C1422/SUMIF(A:A,A1422,C:C)</f>
+        <v>4.7908114607952898E-2</v>
+      </c>
+      <c r="E1422" s="7">
+        <f t="shared" ref="E1422:E1431" si="293">C1422-SUMIFS(C:C,A:A,A1422-1,B:B,B1422)</f>
+        <v>101</v>
+      </c>
+      <c r="F1422" s="6">
+        <f t="shared" ref="F1422:F1431" si="294">E1422/SUMIF(A:A,A1422,E:E)</f>
+        <v>5.6017748197448695E-2</v>
+      </c>
+      <c r="G1422">
+        <v>4</v>
+      </c>
+      <c r="H1422" s="7">
+        <f t="shared" ref="H1422:H1431" si="295">G1422-SUMIFS(G:G,A:A,A1422-1,B:B,B1422)</f>
+        <v>0</v>
+      </c>
+      <c r="I1422" s="6">
+        <f t="shared" ref="I1422:I1431" si="296">G1422/SUMIF(A:A,A1422,G:G)</f>
+        <v>3.2921810699588477E-3</v>
+      </c>
+      <c r="J1422" s="10">
+        <f>IF(B1422="Pending","",C1422/(VLOOKUP(B1422,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>637.6844229270564</v>
+      </c>
+      <c r="K1422" s="10">
+        <f>IF(B1422="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1422,A:A,"&gt;="&amp;A1422-30,B:B,B1422)/(VLOOKUP(B1422,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>355.323897767387</v>
+      </c>
+      <c r="L1422" s="13">
+        <f>IF(B1422="Pending","",(G1422/C1422)/(VLOOKUP(B1422,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>7.6429508123237465E-5</v>
+      </c>
+    </row>
+    <row r="1423" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1423" s="1">
+        <v>44051</v>
+      </c>
+      <c r="B1423" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1423" s="2">
+        <v>13922</v>
+      </c>
+      <c r="D1423" s="6">
+        <f t="shared" si="292"/>
+        <v>0.11545382924907742</v>
+      </c>
+      <c r="E1423" s="7">
+        <f t="shared" si="293"/>
+        <v>224</v>
+      </c>
+      <c r="F1423" s="6">
+        <f t="shared" si="294"/>
+        <v>0.12423738214087632</v>
+      </c>
+      <c r="G1423">
+        <v>1</v>
+      </c>
+      <c r="H1423" s="7">
+        <f t="shared" si="295"/>
+        <v>0</v>
+      </c>
+      <c r="I1423" s="6">
+        <f t="shared" si="296"/>
+        <v>8.2304526748971192E-4</v>
+      </c>
+      <c r="J1423" s="10">
+        <f>IF(B1423="Pending","",C1423/(VLOOKUP(B1423,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1625.0255332808078</v>
+      </c>
+      <c r="K1423" s="10">
+        <f>IF(B1423="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1423,A:A,"&gt;="&amp;A1423-30,B:B,B1423)/(VLOOKUP(B1423,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>970.08958533951977</v>
+      </c>
+      <c r="L1423" s="13">
+        <f>IF(B1423="Pending","",(G1423/C1423)/(VLOOKUP(B1423,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>8.3841092807608436E-6</v>
+      </c>
+    </row>
+    <row r="1424" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1424" s="1">
+        <v>44051</v>
+      </c>
+      <c r="B1424" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1424" s="2">
+        <v>27635</v>
+      </c>
+      <c r="D1424" s="6">
+        <f t="shared" si="292"/>
+        <v>0.22917444126549738</v>
+      </c>
+      <c r="E1424" s="7">
+        <f t="shared" si="293"/>
+        <v>348</v>
+      </c>
+      <c r="F1424" s="6">
+        <f t="shared" si="294"/>
+        <v>0.1930116472545757</v>
+      </c>
+      <c r="G1424">
+        <v>12</v>
+      </c>
+      <c r="H1424" s="7">
+        <f t="shared" si="295"/>
+        <v>0</v>
+      </c>
+      <c r="I1424" s="6">
+        <f t="shared" si="296"/>
+        <v>9.876543209876543E-3</v>
+      </c>
+      <c r="J1424" s="10">
+        <f>IF(B1424="Pending","",C1424/(VLOOKUP(B1424,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>2901.4707364601531</v>
+      </c>
+      <c r="K1424" s="10">
+        <f>IF(B1424="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1424,A:A,"&gt;="&amp;A1424-30,B:B,B1424)/(VLOOKUP(B1424,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1520.8179344174168</v>
+      </c>
+      <c r="L1424" s="13">
+        <f>IF(B1424="Pending","",(G1424/C1424)/(VLOOKUP(B1424,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>4.5591145367987041E-5</v>
+      </c>
+    </row>
+    <row r="1425" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1425" s="1">
+        <v>44051</v>
+      </c>
+      <c r="B1425" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1425" s="2">
+        <v>21750</v>
+      </c>
+      <c r="D1425" s="6">
+        <f t="shared" si="292"/>
+        <v>0.1803706928722478</v>
+      </c>
+      <c r="E1425" s="7">
+        <f t="shared" si="293"/>
+        <v>286</v>
+      </c>
+      <c r="F1425" s="6">
+        <f t="shared" si="294"/>
+        <v>0.15862451469772601</v>
+      </c>
+      <c r="G1425">
+        <v>24</v>
+      </c>
+      <c r="H1425" s="7">
+        <f t="shared" si="295"/>
+        <v>0</v>
+      </c>
+      <c r="I1425" s="6">
+        <f t="shared" si="296"/>
+        <v>1.9753086419753086E-2</v>
+      </c>
+      <c r="J1425" s="10">
+        <f>IF(B1425="Pending","",C1425/(VLOOKUP(B1425,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>2479.5310437286676</v>
+      </c>
+      <c r="K1425" s="10">
+        <f>IF(B1425="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1425,A:A,"&gt;="&amp;A1425-30,B:B,B1425)/(VLOOKUP(B1425,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1215.939223559079</v>
+      </c>
+      <c r="L1425" s="13">
+        <f>IF(B1425="Pending","",(G1425/C1425)/(VLOOKUP(B1425,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1.257946783976494E-4</v>
+      </c>
+    </row>
+    <row r="1426" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1426" s="1">
+        <v>44051</v>
+      </c>
+      <c r="B1426" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1426" s="2">
+        <v>18626</v>
+      </c>
+      <c r="D1426" s="6">
+        <f t="shared" si="292"/>
+        <v>0.15446365634199941</v>
+      </c>
+      <c r="E1426" s="7">
+        <f t="shared" si="293"/>
+        <v>249</v>
+      </c>
+      <c r="F1426" s="6">
+        <f t="shared" si="294"/>
+        <v>0.13810316139767054</v>
+      </c>
+      <c r="G1426">
+        <v>67</v>
+      </c>
+      <c r="H1426" s="7">
+        <f t="shared" si="295"/>
+        <v>1</v>
+      </c>
+      <c r="I1426" s="6">
+        <f t="shared" si="296"/>
+        <v>5.51440329218107E-2</v>
+      </c>
+      <c r="J1426" s="10">
+        <f>IF(B1426="Pending","",C1426/(VLOOKUP(B1426,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>2184.8167784920001</v>
+      </c>
+      <c r="K1426" s="10">
+        <f>IF(B1426="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1426,A:A,"&gt;="&amp;A1426-30,B:B,B1426)/(VLOOKUP(B1426,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1121.0294186646647</v>
+      </c>
+      <c r="L1426" s="13">
+        <f>IF(B1426="Pending","",(G1426/C1426)/(VLOOKUP(B1426,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>4.2193993128117503E-4</v>
+      </c>
+    </row>
+    <row r="1427" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1427" s="1">
+        <v>44051</v>
+      </c>
+      <c r="B1427" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1427" s="2">
+        <v>15137</v>
+      </c>
+      <c r="D1427" s="6">
+        <f t="shared" si="292"/>
+        <v>0.12552970933366506</v>
+      </c>
+      <c r="E1427" s="7">
+        <f t="shared" si="293"/>
+        <v>238</v>
+      </c>
+      <c r="F1427" s="6">
+        <f t="shared" si="294"/>
+        <v>0.13200221852468108</v>
+      </c>
+      <c r="G1427">
+        <v>128</v>
+      </c>
+      <c r="H1427" s="7">
+        <f t="shared" si="295"/>
+        <v>2</v>
+      </c>
+      <c r="I1427" s="6">
+        <f t="shared" si="296"/>
+        <v>0.10534979423868313</v>
+      </c>
+      <c r="J1427" s="10">
+        <f>IF(B1427="Pending","",C1427/(VLOOKUP(B1427,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1690.6030081721228</v>
+      </c>
+      <c r="K1427" s="10">
+        <f>IF(B1427="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1427,A:A,"&gt;="&amp;A1427-30,B:B,B1427)/(VLOOKUP(B1427,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>907.90195239685454</v>
+      </c>
+      <c r="L1427" s="13">
+        <f>IF(B1427="Pending","",(G1427/C1427)/(VLOOKUP(B1427,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>9.4443480838511261E-4</v>
+      </c>
+    </row>
+    <row r="1428" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1428" s="1">
+        <v>44051</v>
+      </c>
+      <c r="B1428" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1428" s="2">
+        <v>9578</v>
+      </c>
+      <c r="D1428" s="6">
+        <f t="shared" si="292"/>
+        <v>7.9429448107144335E-2</v>
+      </c>
+      <c r="E1428" s="7">
+        <f t="shared" si="293"/>
+        <v>185</v>
+      </c>
+      <c r="F1428" s="6">
+        <f t="shared" si="294"/>
+        <v>0.10260676650027732</v>
+      </c>
+      <c r="G1428">
+        <v>245</v>
+      </c>
+      <c r="H1428" s="7">
+        <f t="shared" si="295"/>
+        <v>1</v>
+      </c>
+      <c r="I1428" s="6">
+        <f t="shared" si="296"/>
+        <v>0.20164609053497942</v>
+      </c>
+      <c r="J1428" s="10">
+        <f>IF(B1428="Pending","",C1428/(VLOOKUP(B1428,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1215.423621703522</v>
+      </c>
+      <c r="K1428" s="10">
+        <f>IF(B1428="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1428,A:A,"&gt;="&amp;A1428-30,B:B,B1428)/(VLOOKUP(B1428,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>705.93042467495229</v>
+      </c>
+      <c r="L1428" s="13">
+        <f>IF(B1428="Pending","",(G1428/C1428)/(VLOOKUP(B1428,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>3.2459669347068864E-3</v>
+      </c>
+    </row>
+    <row r="1429" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1429" s="1">
+        <v>44051</v>
+      </c>
+      <c r="B1429" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1429" s="2">
+        <v>5128</v>
+      </c>
+      <c r="D1429" s="6">
+        <f t="shared" si="292"/>
+        <v>4.2526018990753409E-2</v>
+      </c>
+      <c r="E1429" s="7">
+        <f t="shared" si="293"/>
+        <v>112</v>
+      </c>
+      <c r="F1429" s="6">
+        <f t="shared" si="294"/>
+        <v>6.2118691070438159E-2</v>
+      </c>
+      <c r="G1429">
+        <v>349</v>
+      </c>
+      <c r="H1429" s="7">
+        <f t="shared" si="295"/>
+        <v>1</v>
+      </c>
+      <c r="I1429" s="6">
+        <f t="shared" si="296"/>
+        <v>0.28724279835390948</v>
+      </c>
+      <c r="J1429" s="10">
+        <f>IF(B1429="Pending","",C1429/(VLOOKUP(B1429,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1069.2310418955915</v>
+      </c>
+      <c r="K1429" s="10">
+        <f>IF(B1429="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1429,A:A,"&gt;="&amp;A1429-30,B:B,B1429)/(VLOOKUP(B1429,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>639.70375127450757</v>
+      </c>
+      <c r="L1429" s="13">
+        <f>IF(B1429="Pending","",(G1429/C1429)/(VLOOKUP(B1429,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1.4190606344262446E-2</v>
+      </c>
+    </row>
+    <row r="1430" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1430" s="1">
+        <v>44051</v>
+      </c>
+      <c r="B1430" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1430" s="2">
+        <v>2820</v>
+      </c>
+      <c r="D1430" s="6">
+        <f t="shared" si="292"/>
+        <v>2.3385993282746612E-2</v>
+      </c>
+      <c r="E1430" s="7">
+        <f t="shared" si="293"/>
+        <v>62</v>
+      </c>
+      <c r="F1430" s="6">
+        <f t="shared" si="294"/>
+        <v>3.4387132556849692E-2</v>
+      </c>
+      <c r="G1430">
+        <v>385</v>
+      </c>
+      <c r="H1430" s="7">
+        <f t="shared" si="295"/>
+        <v>4</v>
+      </c>
+      <c r="I1430" s="6">
+        <f t="shared" si="296"/>
+        <v>0.3168724279835391</v>
+      </c>
+      <c r="J1430" s="10">
+        <f>IF(B1430="Pending","",C1430/(VLOOKUP(B1430,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1273.8911048972529</v>
+      </c>
+      <c r="K1430" s="10">
+        <f>IF(B1430="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1430,A:A,"&gt;="&amp;A1430-30,B:B,B1430)/(VLOOKUP(B1430,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>739.48926904851169</v>
+      </c>
+      <c r="L1430" s="13">
+        <f>IF(B1430="Pending","",(G1430/C1430)/(VLOOKUP(B1430,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>6.1672963556340527E-2</v>
+      </c>
+    </row>
+    <row r="1431" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1431" s="1">
+        <v>44051</v>
+      </c>
+      <c r="B1431" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1431" s="2">
+        <v>212</v>
+      </c>
+      <c r="D1431" s="6">
+        <f t="shared" si="292"/>
+        <v>1.7580959489157026E-3</v>
+      </c>
+      <c r="E1431" s="7">
+        <f t="shared" si="293"/>
+        <v>-2</v>
+      </c>
+      <c r="F1431" s="6">
+        <f t="shared" si="294"/>
+        <v>-1.1092623405435386E-3</v>
+      </c>
+      <c r="G1431">
+        <v>0</v>
+      </c>
+      <c r="H1431" s="7">
+        <f t="shared" si="295"/>
+        <v>0</v>
+      </c>
+      <c r="I1431" s="6">
+        <f t="shared" si="296"/>
+        <v>0</v>
+      </c>
+      <c r="J1431" s="10" t="str">
+        <f>IF(B1431="Pending","",C1431/(VLOOKUP(B1431,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v/>
+      </c>
+      <c r="K1431" s="10" t="str">
+        <f>IF(B1431="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1431,A:A,"&gt;="&amp;A1431-30,B:B,B1431)/(VLOOKUP(B1431,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v/>
+      </c>
+      <c r="L1431" s="13" t="str">
+        <f>IF(B1431="Pending","",(G1431/C1431)/(VLOOKUP(B1431,Population!$A$2:$B$10,2,FALSE)/100000))</f>
         <v/>
       </c>
     </row>

--- a/TN_Age.xlsx
+++ b/TN_Age.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1455" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1495" uniqueCount="33">
   <si>
     <t>0-10</t>
   </si>
@@ -482,11 +482,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M1431"/>
+  <dimension ref="A1:M1471"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1411" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A1431" sqref="A1431"/>
+      <pane ySplit="1" topLeftCell="A1441" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A1471" sqref="A1471"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -62179,6 +62179,1846 @@
       </c>
       <c r="L1431" s="13" t="str">
         <f>IF(B1431="Pending","",(G1431/C1431)/(VLOOKUP(B1431,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="1432" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1432" s="1">
+        <v>44052</v>
+      </c>
+      <c r="B1432" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1432">
+        <v>5908</v>
+      </c>
+      <c r="D1432" s="6">
+        <f t="shared" ref="D1432:D1441" si="297">C1432/SUMIF(A:A,A1432,C:C)</f>
+        <v>4.8145250668231304E-2</v>
+      </c>
+      <c r="E1432" s="7">
+        <f t="shared" ref="E1432:E1441" si="298">C1432-SUMIFS(C:C,A:A,A1432-1,B:B,B1432)</f>
+        <v>131</v>
+      </c>
+      <c r="F1432" s="6">
+        <f t="shared" ref="F1432:F1441" si="299">E1432/SUMIF(A:A,A1432,E:E)</f>
+        <v>6.1589092618711802E-2</v>
+      </c>
+      <c r="G1432" s="2">
+        <v>4</v>
+      </c>
+      <c r="H1432" s="7">
+        <f t="shared" ref="H1432:H1441" si="300">G1432-SUMIFS(G:G,A:A,A1432-1,B:B,B1432)</f>
+        <v>0</v>
+      </c>
+      <c r="I1432" s="6">
+        <f t="shared" ref="I1432:I1441" si="301">G1432/SUMIF(A:A,A1432,G:G)</f>
+        <v>3.2706459525756338E-3</v>
+      </c>
+      <c r="J1432" s="10">
+        <f>IF(B1432="Pending","",C1432/(VLOOKUP(B1432,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>652.14463746807155</v>
+      </c>
+      <c r="K1432" s="10">
+        <f>IF(B1432="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1432,A:A,"&gt;="&amp;A1432-30,B:B,B1432)/(VLOOKUP(B1432,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>361.28459689116426</v>
+      </c>
+      <c r="L1432" s="13">
+        <f>IF(B1432="Pending","",(G1432/C1432)/(VLOOKUP(B1432,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>7.4734811853070888E-5</v>
+      </c>
+    </row>
+    <row r="1433" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1433" s="1">
+        <v>44052</v>
+      </c>
+      <c r="B1433" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1433">
+        <v>14226</v>
+      </c>
+      <c r="D1433" s="6">
+        <f t="shared" si="297"/>
+        <v>0.11592998239780951</v>
+      </c>
+      <c r="E1433" s="7">
+        <f t="shared" si="298"/>
+        <v>304</v>
+      </c>
+      <c r="F1433" s="6">
+        <f t="shared" si="299"/>
+        <v>0.14292430653502586</v>
+      </c>
+      <c r="G1433" s="2">
+        <v>1</v>
+      </c>
+      <c r="H1433" s="7">
+        <f t="shared" si="300"/>
+        <v>0</v>
+      </c>
+      <c r="I1433" s="6">
+        <f t="shared" si="301"/>
+        <v>8.1766148814390845E-4</v>
+      </c>
+      <c r="J1433" s="10">
+        <f>IF(B1433="Pending","",C1433/(VLOOKUP(B1433,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1660.5094983804606</v>
+      </c>
+      <c r="K1433" s="10">
+        <f>IF(B1433="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1433,A:A,"&gt;="&amp;A1433-30,B:B,B1433)/(VLOOKUP(B1433,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>985.14692579299083</v>
+      </c>
+      <c r="L1433" s="13">
+        <f>IF(B1433="Pending","",(G1433/C1433)/(VLOOKUP(B1433,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>8.2049465349889258E-6</v>
+      </c>
+    </row>
+    <row r="1434" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1434" s="1">
+        <v>44052</v>
+      </c>
+      <c r="B1434" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1434">
+        <v>28066</v>
+      </c>
+      <c r="D1434" s="6">
+        <f t="shared" si="297"/>
+        <v>0.22871438816089706</v>
+      </c>
+      <c r="E1434" s="7">
+        <f t="shared" si="298"/>
+        <v>431</v>
+      </c>
+      <c r="F1434" s="6">
+        <f t="shared" si="299"/>
+        <v>0.20263281617301362</v>
+      </c>
+      <c r="G1434" s="2">
+        <v>12</v>
+      </c>
+      <c r="H1434" s="7">
+        <f t="shared" si="300"/>
+        <v>0</v>
+      </c>
+      <c r="I1434" s="6">
+        <f t="shared" si="301"/>
+        <v>9.8119378577269014E-3</v>
+      </c>
+      <c r="J1434" s="10">
+        <f>IF(B1434="Pending","",C1434/(VLOOKUP(B1434,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>2946.7225507324283</v>
+      </c>
+      <c r="K1434" s="10">
+        <f>IF(B1434="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1434,A:A,"&gt;="&amp;A1434-30,B:B,B1434)/(VLOOKUP(B1434,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1524.072705281548</v>
+      </c>
+      <c r="L1434" s="13">
+        <f>IF(B1434="Pending","",(G1434/C1434)/(VLOOKUP(B1434,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>4.4891017681334073E-5</v>
+      </c>
+    </row>
+    <row r="1435" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1435" s="1">
+        <v>44052</v>
+      </c>
+      <c r="B1435" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1435">
+        <v>22075</v>
+      </c>
+      <c r="D1435" s="6">
+        <f t="shared" si="297"/>
+        <v>0.17989275702457788</v>
+      </c>
+      <c r="E1435" s="7">
+        <f t="shared" si="298"/>
+        <v>325</v>
+      </c>
+      <c r="F1435" s="6">
+        <f t="shared" si="299"/>
+        <v>0.152797367183827</v>
+      </c>
+      <c r="G1435" s="2">
+        <v>24</v>
+      </c>
+      <c r="H1435" s="7">
+        <f t="shared" si="300"/>
+        <v>0</v>
+      </c>
+      <c r="I1435" s="6">
+        <f t="shared" si="301"/>
+        <v>1.9623875715453803E-2</v>
+      </c>
+      <c r="J1435" s="10">
+        <f>IF(B1435="Pending","",C1435/(VLOOKUP(B1435,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>2516.5815076004751</v>
+      </c>
+      <c r="K1435" s="10">
+        <f>IF(B1435="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1435,A:A,"&gt;="&amp;A1435-30,B:B,B1435)/(VLOOKUP(B1435,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1221.8672977785682</v>
+      </c>
+      <c r="L1435" s="13">
+        <f>IF(B1435="Pending","",(G1435/C1435)/(VLOOKUP(B1435,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1.2394266161489805E-4</v>
+      </c>
+    </row>
+    <row r="1436" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1436" s="1">
+        <v>44052</v>
+      </c>
+      <c r="B1436" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1436">
+        <v>18900</v>
+      </c>
+      <c r="D1436" s="6">
+        <f t="shared" si="297"/>
+        <v>0.15401916682964992</v>
+      </c>
+      <c r="E1436" s="7">
+        <f t="shared" si="298"/>
+        <v>274</v>
+      </c>
+      <c r="F1436" s="6">
+        <f t="shared" si="299"/>
+        <v>0.12881993417959567</v>
+      </c>
+      <c r="G1436" s="2">
+        <v>67</v>
+      </c>
+      <c r="H1436" s="7">
+        <f t="shared" si="300"/>
+        <v>0</v>
+      </c>
+      <c r="I1436" s="6">
+        <f t="shared" si="301"/>
+        <v>5.4783319705641861E-2</v>
+      </c>
+      <c r="J1436" s="10">
+        <f>IF(B1436="Pending","",C1436/(VLOOKUP(B1436,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>2216.9567869375501</v>
+      </c>
+      <c r="K1436" s="10">
+        <f>IF(B1436="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1436,A:A,"&gt;="&amp;A1436-30,B:B,B1436)/(VLOOKUP(B1436,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1126.4251865058884</v>
+      </c>
+      <c r="L1436" s="13">
+        <f>IF(B1436="Pending","",(G1436/C1436)/(VLOOKUP(B1436,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>4.1582291852080243E-4</v>
+      </c>
+    </row>
+    <row r="1437" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1437" s="1">
+        <v>44052</v>
+      </c>
+      <c r="B1437" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1437">
+        <v>15444</v>
+      </c>
+      <c r="D1437" s="6">
+        <f t="shared" si="297"/>
+        <v>0.12585566203794249</v>
+      </c>
+      <c r="E1437" s="7">
+        <f t="shared" si="298"/>
+        <v>307</v>
+      </c>
+      <c r="F1437" s="6">
+        <f t="shared" si="299"/>
+        <v>0.14433474377056887</v>
+      </c>
+      <c r="G1437" s="2">
+        <v>130</v>
+      </c>
+      <c r="H1437" s="7">
+        <f t="shared" si="300"/>
+        <v>2</v>
+      </c>
+      <c r="I1437" s="6">
+        <f t="shared" si="301"/>
+        <v>0.10629599345870809</v>
+      </c>
+      <c r="J1437" s="10">
+        <f>IF(B1437="Pending","",C1437/(VLOOKUP(B1437,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1724.8908540800862</v>
+      </c>
+      <c r="K1437" s="10">
+        <f>IF(B1437="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1437,A:A,"&gt;="&amp;A1437-30,B:B,B1437)/(VLOOKUP(B1437,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>917.17195633939832</v>
+      </c>
+      <c r="L1437" s="13">
+        <f>IF(B1437="Pending","",(G1437/C1437)/(VLOOKUP(B1437,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>9.4012453273131368E-4</v>
+      </c>
+    </row>
+    <row r="1438" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1438" s="1">
+        <v>44052</v>
+      </c>
+      <c r="B1438" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1438">
+        <v>9779</v>
+      </c>
+      <c r="D1438" s="6">
+        <f t="shared" si="297"/>
+        <v>7.9690657800378123E-2</v>
+      </c>
+      <c r="E1438" s="7">
+        <f t="shared" si="298"/>
+        <v>201</v>
+      </c>
+      <c r="F1438" s="6">
+        <f t="shared" si="299"/>
+        <v>9.4499294781382234E-2</v>
+      </c>
+      <c r="G1438" s="2">
+        <v>248</v>
+      </c>
+      <c r="H1438" s="7">
+        <f t="shared" si="300"/>
+        <v>3</v>
+      </c>
+      <c r="I1438" s="6">
+        <f t="shared" si="301"/>
+        <v>0.2027800490596893</v>
+      </c>
+      <c r="J1438" s="10">
+        <f>IF(B1438="Pending","",C1438/(VLOOKUP(B1438,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1240.9300059134205</v>
+      </c>
+      <c r="K1438" s="10">
+        <f>IF(B1438="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1438,A:A,"&gt;="&amp;A1438-30,B:B,B1438)/(VLOOKUP(B1438,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>715.32083478207903</v>
+      </c>
+      <c r="L1438" s="13">
+        <f>IF(B1438="Pending","",(G1438/C1438)/(VLOOKUP(B1438,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>3.2181780961512258E-3</v>
+      </c>
+    </row>
+    <row r="1439" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1439" s="1">
+        <v>44052</v>
+      </c>
+      <c r="B1439" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1439">
+        <v>5230</v>
+      </c>
+      <c r="D1439" s="6">
+        <f t="shared" si="297"/>
+        <v>4.2620118651802597E-2</v>
+      </c>
+      <c r="E1439" s="7">
+        <f t="shared" si="298"/>
+        <v>102</v>
+      </c>
+      <c r="F1439" s="6">
+        <f t="shared" si="299"/>
+        <v>4.7954866008462625E-2</v>
+      </c>
+      <c r="G1439" s="2">
+        <v>350</v>
+      </c>
+      <c r="H1439" s="7">
+        <f t="shared" si="300"/>
+        <v>1</v>
+      </c>
+      <c r="I1439" s="6">
+        <f t="shared" si="301"/>
+        <v>0.28618152085036797</v>
+      </c>
+      <c r="J1439" s="10">
+        <f>IF(B1439="Pending","",C1439/(VLOOKUP(B1439,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1090.4988980331404</v>
+      </c>
+      <c r="K1439" s="10">
+        <f>IF(B1439="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1439,A:A,"&gt;="&amp;A1439-30,B:B,B1439)/(VLOOKUP(B1439,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>647.41856183420668</v>
+      </c>
+      <c r="L1439" s="13">
+        <f>IF(B1439="Pending","",(G1439/C1439)/(VLOOKUP(B1439,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1.395371658257805E-2</v>
+      </c>
+    </row>
+    <row r="1440" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1440" s="1">
+        <v>44052</v>
+      </c>
+      <c r="B1440" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1440">
+        <v>2873</v>
+      </c>
+      <c r="D1440" s="6">
+        <f t="shared" si="297"/>
+        <v>2.341254319056001E-2</v>
+      </c>
+      <c r="E1440" s="7">
+        <f t="shared" si="298"/>
+        <v>53</v>
+      </c>
+      <c r="F1440" s="6">
+        <f t="shared" si="299"/>
+        <v>2.4917724494593323E-2</v>
+      </c>
+      <c r="G1440" s="2">
+        <v>387</v>
+      </c>
+      <c r="H1440" s="7">
+        <f t="shared" si="300"/>
+        <v>2</v>
+      </c>
+      <c r="I1440" s="6">
+        <f t="shared" si="301"/>
+        <v>0.31643499591169255</v>
+      </c>
+      <c r="J1440" s="10">
+        <f>IF(B1440="Pending","",C1440/(VLOOKUP(B1440,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1297.8330299183715</v>
+      </c>
+      <c r="K1440" s="10">
+        <f>IF(B1440="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1440,A:A,"&gt;="&amp;A1440-30,B:B,B1440)/(VLOOKUP(B1440,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>752.58956764497282</v>
+      </c>
+      <c r="L1440" s="13">
+        <f>IF(B1440="Pending","",(G1440/C1440)/(VLOOKUP(B1440,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>6.0849713225757655E-2</v>
+      </c>
+    </row>
+    <row r="1441" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1441" s="1">
+        <v>44052</v>
+      </c>
+      <c r="B1441" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1441">
+        <v>211</v>
+      </c>
+      <c r="D1441" s="6">
+        <f t="shared" si="297"/>
+        <v>1.719473238151118E-3</v>
+      </c>
+      <c r="E1441" s="7">
+        <f t="shared" si="298"/>
+        <v>-1</v>
+      </c>
+      <c r="F1441" s="6">
+        <f t="shared" si="299"/>
+        <v>-4.7014574518100609E-4</v>
+      </c>
+      <c r="G1441" s="2">
+        <v>0</v>
+      </c>
+      <c r="H1441" s="7">
+        <f t="shared" si="300"/>
+        <v>0</v>
+      </c>
+      <c r="I1441" s="6">
+        <f t="shared" si="301"/>
+        <v>0</v>
+      </c>
+      <c r="J1441" s="10" t="str">
+        <f>IF(B1441="Pending","",C1441/(VLOOKUP(B1441,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v/>
+      </c>
+      <c r="K1441" s="10" t="str">
+        <f>IF(B1441="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1441,A:A,"&gt;="&amp;A1441-30,B:B,B1441)/(VLOOKUP(B1441,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v/>
+      </c>
+      <c r="L1441" s="13" t="str">
+        <f>IF(B1441="Pending","",(G1441/C1441)/(VLOOKUP(B1441,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="1442" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1442" s="1">
+        <v>44053</v>
+      </c>
+      <c r="B1442" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1442" s="2">
+        <v>5968</v>
+      </c>
+      <c r="D1442" s="6">
+        <f t="shared" ref="D1442:D1451" si="302">C1442/SUMIF(A:A,A1442,C:C)</f>
+        <v>4.8162435237342024E-2</v>
+      </c>
+      <c r="E1442" s="7">
+        <f t="shared" ref="E1442:E1451" si="303">C1442-SUMIFS(C:C,A:A,A1442-1,B:B,B1442)</f>
+        <v>60</v>
+      </c>
+      <c r="F1442" s="6">
+        <f t="shared" ref="F1442:F1451" si="304">E1442/SUMIF(A:A,A1442,E:E)</f>
+        <v>4.9916805324459232E-2</v>
+      </c>
+      <c r="G1442" s="2">
+        <v>4</v>
+      </c>
+      <c r="H1442" s="7">
+        <f t="shared" ref="H1442:H1451" si="305">G1442-SUMIFS(G:G,A:A,A1442-1,B:B,B1442)</f>
+        <v>0</v>
+      </c>
+      <c r="I1442" s="6">
+        <f t="shared" ref="I1442:I1451" si="306">G1442/SUMIF(A:A,A1442,G:G)</f>
+        <v>3.2441200324412004E-3</v>
+      </c>
+      <c r="J1442" s="10">
+        <f>IF(B1442="Pending","",C1442/(VLOOKUP(B1442,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>658.76763649449072</v>
+      </c>
+      <c r="K1442" s="10">
+        <f>IF(B1442="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1442,A:A,"&gt;="&amp;A1442-30,B:B,B1442)/(VLOOKUP(B1442,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>359.73923045166646</v>
+      </c>
+      <c r="L1442" s="13">
+        <f>IF(B1442="Pending","",(G1442/C1442)/(VLOOKUP(B1442,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>7.3983456506022599E-5</v>
+      </c>
+    </row>
+    <row r="1443" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1443" s="1">
+        <v>44053</v>
+      </c>
+      <c r="B1443" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1443" s="2">
+        <v>14395</v>
+      </c>
+      <c r="D1443" s="6">
+        <f t="shared" si="302"/>
+        <v>0.11616927869328728</v>
+      </c>
+      <c r="E1443" s="7">
+        <f t="shared" si="303"/>
+        <v>169</v>
+      </c>
+      <c r="F1443" s="6">
+        <f t="shared" si="304"/>
+        <v>0.1405990016638935</v>
+      </c>
+      <c r="G1443" s="2">
+        <v>1</v>
+      </c>
+      <c r="H1443" s="7">
+        <f t="shared" si="305"/>
+        <v>0</v>
+      </c>
+      <c r="I1443" s="6">
+        <f t="shared" si="306"/>
+        <v>8.110300081103001E-4</v>
+      </c>
+      <c r="J1443" s="10">
+        <f>IF(B1443="Pending","",C1443/(VLOOKUP(B1443,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1680.2357816102017</v>
+      </c>
+      <c r="K1443" s="10">
+        <f>IF(B1443="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1443,A:A,"&gt;="&amp;A1443-30,B:B,B1443)/(VLOOKUP(B1443,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>976.50938165689115</v>
+      </c>
+      <c r="L1443" s="13">
+        <f>IF(B1443="Pending","",(G1443/C1443)/(VLOOKUP(B1443,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>8.1086189237063203E-6</v>
+      </c>
+    </row>
+    <row r="1444" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1444" s="1">
+        <v>44053</v>
+      </c>
+      <c r="B1444" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1444" s="2">
+        <v>28284</v>
+      </c>
+      <c r="D1444" s="6">
+        <f t="shared" si="302"/>
+        <v>0.2282550801362235</v>
+      </c>
+      <c r="E1444" s="7">
+        <f t="shared" si="303"/>
+        <v>218</v>
+      </c>
+      <c r="F1444" s="6">
+        <f t="shared" si="304"/>
+        <v>0.18136439267886856</v>
+      </c>
+      <c r="G1444" s="2">
+        <v>12</v>
+      </c>
+      <c r="H1444" s="7">
+        <f t="shared" si="305"/>
+        <v>0</v>
+      </c>
+      <c r="I1444" s="6">
+        <f t="shared" si="306"/>
+        <v>9.7323600973236012E-3</v>
+      </c>
+      <c r="J1444" s="10">
+        <f>IF(B1444="Pending","",C1444/(VLOOKUP(B1444,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>2969.6109393898669</v>
+      </c>
+      <c r="K1444" s="10">
+        <f>IF(B1444="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1444,A:A,"&gt;="&amp;A1444-30,B:B,B1444)/(VLOOKUP(B1444,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1491.6299892487568</v>
+      </c>
+      <c r="L1444" s="13">
+        <f>IF(B1444="Pending","",(G1444/C1444)/(VLOOKUP(B1444,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>4.4545018464302144E-5</v>
+      </c>
+    </row>
+    <row r="1445" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1445" s="1">
+        <v>44053</v>
+      </c>
+      <c r="B1445" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1445" s="2">
+        <v>22244</v>
+      </c>
+      <c r="D1445" s="6">
+        <f t="shared" si="302"/>
+        <v>0.17951159675258646</v>
+      </c>
+      <c r="E1445" s="7">
+        <f t="shared" si="303"/>
+        <v>169</v>
+      </c>
+      <c r="F1445" s="6">
+        <f t="shared" si="304"/>
+        <v>0.1405990016638935</v>
+      </c>
+      <c r="G1445" s="2">
+        <v>24</v>
+      </c>
+      <c r="H1445" s="7">
+        <f t="shared" si="305"/>
+        <v>0</v>
+      </c>
+      <c r="I1445" s="6">
+        <f t="shared" si="306"/>
+        <v>1.9464720194647202E-2</v>
+      </c>
+      <c r="J1445" s="10">
+        <f>IF(B1445="Pending","",C1445/(VLOOKUP(B1445,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>2535.8477488138151</v>
+      </c>
+      <c r="K1445" s="10">
+        <f>IF(B1445="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1445,A:A,"&gt;="&amp;A1445-30,B:B,B1445)/(VLOOKUP(B1445,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1199.5230180281858</v>
+      </c>
+      <c r="L1445" s="13">
+        <f>IF(B1445="Pending","",(G1445/C1445)/(VLOOKUP(B1445,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1.2300100050120818E-4</v>
+      </c>
+    </row>
+    <row r="1446" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1446" s="1">
+        <v>44053</v>
+      </c>
+      <c r="B1446" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1446" s="2">
+        <v>19089</v>
+      </c>
+      <c r="D1446" s="6">
+        <f t="shared" si="302"/>
+        <v>0.15405038978646482</v>
+      </c>
+      <c r="E1446" s="7">
+        <f t="shared" si="303"/>
+        <v>189</v>
+      </c>
+      <c r="F1446" s="6">
+        <f t="shared" si="304"/>
+        <v>0.15723793677204659</v>
+      </c>
+      <c r="G1446" s="2">
+        <v>67</v>
+      </c>
+      <c r="H1446" s="7">
+        <f t="shared" si="305"/>
+        <v>0</v>
+      </c>
+      <c r="I1446" s="6">
+        <f t="shared" si="306"/>
+        <v>5.4339010543390104E-2</v>
+      </c>
+      <c r="J1446" s="10">
+        <f>IF(B1446="Pending","",C1446/(VLOOKUP(B1446,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>2239.1263548069255</v>
+      </c>
+      <c r="K1446" s="10">
+        <f>IF(B1446="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1446,A:A,"&gt;="&amp;A1446-30,B:B,B1446)/(VLOOKUP(B1446,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1111.2935766902829</v>
+      </c>
+      <c r="L1446" s="13">
+        <f>IF(B1446="Pending","",(G1446/C1446)/(VLOOKUP(B1446,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>4.1170585992158658E-4</v>
+      </c>
+    </row>
+    <row r="1447" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1447" s="1">
+        <v>44053</v>
+      </c>
+      <c r="B1447" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1447" s="2">
+        <v>15592</v>
+      </c>
+      <c r="D1447" s="6">
+        <f t="shared" si="302"/>
+        <v>0.12582920412544185</v>
+      </c>
+      <c r="E1447" s="7">
+        <f t="shared" si="303"/>
+        <v>148</v>
+      </c>
+      <c r="F1447" s="6">
+        <f t="shared" si="304"/>
+        <v>0.12312811980033278</v>
+      </c>
+      <c r="G1447" s="2">
+        <v>131</v>
+      </c>
+      <c r="H1447" s="7">
+        <f t="shared" si="305"/>
+        <v>1</v>
+      </c>
+      <c r="I1447" s="6">
+        <f t="shared" si="306"/>
+        <v>0.10624493106244931</v>
+      </c>
+      <c r="J1447" s="10">
+        <f>IF(B1447="Pending","",C1447/(VLOOKUP(B1447,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1741.4204996643814</v>
+      </c>
+      <c r="K1447" s="10">
+        <f>IF(B1447="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1447,A:A,"&gt;="&amp;A1447-30,B:B,B1447)/(VLOOKUP(B1447,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>908.2370127803199</v>
+      </c>
+      <c r="L1447" s="13">
+        <f>IF(B1447="Pending","",(G1447/C1447)/(VLOOKUP(B1447,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>9.3836390956842546E-4</v>
+      </c>
+    </row>
+    <row r="1448" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1448" s="1">
+        <v>44053</v>
+      </c>
+      <c r="B1448" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1448" s="2">
+        <v>9908</v>
+      </c>
+      <c r="D1448" s="6">
+        <f t="shared" si="302"/>
+        <v>7.9958681020707911E-2</v>
+      </c>
+      <c r="E1448" s="7">
+        <f t="shared" si="303"/>
+        <v>129</v>
+      </c>
+      <c r="F1448" s="6">
+        <f t="shared" si="304"/>
+        <v>0.10732113144758736</v>
+      </c>
+      <c r="G1448" s="2">
+        <v>250</v>
+      </c>
+      <c r="H1448" s="7">
+        <f t="shared" si="305"/>
+        <v>2</v>
+      </c>
+      <c r="I1448" s="6">
+        <f t="shared" si="306"/>
+        <v>0.20275750202757503</v>
+      </c>
+      <c r="J1448" s="10">
+        <f>IF(B1448="Pending","",C1448/(VLOOKUP(B1448,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1257.2997748839523</v>
+      </c>
+      <c r="K1448" s="10">
+        <f>IF(B1448="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1448,A:A,"&gt;="&amp;A1448-30,B:B,B1448)/(VLOOKUP(B1448,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>714.81324504655868</v>
+      </c>
+      <c r="L1448" s="13">
+        <f>IF(B1448="Pending","",(G1448/C1448)/(VLOOKUP(B1448,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>3.2018932650406764E-3</v>
+      </c>
+    </row>
+    <row r="1449" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1449" s="1">
+        <v>44053</v>
+      </c>
+      <c r="B1449" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1449" s="2">
+        <v>5310</v>
+      </c>
+      <c r="D1449" s="6">
+        <f t="shared" si="302"/>
+        <v>4.2852300789257065E-2</v>
+      </c>
+      <c r="E1449" s="7">
+        <f t="shared" si="303"/>
+        <v>80</v>
+      </c>
+      <c r="F1449" s="6">
+        <f t="shared" si="304"/>
+        <v>6.6555740432612309E-2</v>
+      </c>
+      <c r="G1449" s="2">
+        <v>353</v>
+      </c>
+      <c r="H1449" s="7">
+        <f t="shared" si="305"/>
+        <v>3</v>
+      </c>
+      <c r="I1449" s="6">
+        <f t="shared" si="306"/>
+        <v>0.28629359286293593</v>
+      </c>
+      <c r="J1449" s="10">
+        <f>IF(B1449="Pending","",C1449/(VLOOKUP(B1449,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1107.1795695135709</v>
+      </c>
+      <c r="K1449" s="10">
+        <f>IF(B1449="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1449,A:A,"&gt;="&amp;A1449-30,B:B,B1449)/(VLOOKUP(B1449,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>651.58872970431435</v>
+      </c>
+      <c r="L1449" s="13">
+        <f>IF(B1449="Pending","",(G1449/C1449)/(VLOOKUP(B1449,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1.3861292449604394E-2</v>
+      </c>
+    </row>
+    <row r="1450" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1450" s="1">
+        <v>44053</v>
+      </c>
+      <c r="B1450" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1450" s="2">
+        <v>2913</v>
+      </c>
+      <c r="D1450" s="6">
+        <f t="shared" si="302"/>
+        <v>2.3508239585518988E-2</v>
+      </c>
+      <c r="E1450" s="7">
+        <f t="shared" si="303"/>
+        <v>40</v>
+      </c>
+      <c r="F1450" s="6">
+        <f t="shared" si="304"/>
+        <v>3.3277870216306155E-2</v>
+      </c>
+      <c r="G1450" s="2">
+        <v>391</v>
+      </c>
+      <c r="H1450" s="7">
+        <f t="shared" si="305"/>
+        <v>4</v>
+      </c>
+      <c r="I1450" s="6">
+        <f t="shared" si="306"/>
+        <v>0.31711273317112731</v>
+      </c>
+      <c r="J1450" s="10">
+        <f>IF(B1450="Pending","",C1450/(VLOOKUP(B1450,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1315.9024072928007</v>
+      </c>
+      <c r="K1450" s="10">
+        <f>IF(B1450="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1450,A:A,"&gt;="&amp;A1450-30,B:B,B1450)/(VLOOKUP(B1450,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>753.0413020793336</v>
+      </c>
+      <c r="L1450" s="13">
+        <f>IF(B1450="Pending","",(G1450/C1450)/(VLOOKUP(B1450,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>6.0634453771041763E-2</v>
+      </c>
+    </row>
+    <row r="1451" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1451" s="1">
+        <v>44053</v>
+      </c>
+      <c r="B1451" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1451" s="2">
+        <v>211</v>
+      </c>
+      <c r="D1451" s="6">
+        <f t="shared" si="302"/>
+        <v>1.7027938731701019E-3</v>
+      </c>
+      <c r="E1451" s="7">
+        <f t="shared" si="303"/>
+        <v>0</v>
+      </c>
+      <c r="F1451" s="6">
+        <f t="shared" si="304"/>
+        <v>0</v>
+      </c>
+      <c r="G1451" s="2">
+        <v>0</v>
+      </c>
+      <c r="H1451" s="7">
+        <f t="shared" si="305"/>
+        <v>0</v>
+      </c>
+      <c r="I1451" s="6">
+        <f t="shared" si="306"/>
+        <v>0</v>
+      </c>
+      <c r="J1451" s="10" t="str">
+        <f>IF(B1451="Pending","",C1451/(VLOOKUP(B1451,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v/>
+      </c>
+      <c r="K1451" s="10" t="str">
+        <f>IF(B1451="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1451,A:A,"&gt;="&amp;A1451-30,B:B,B1451)/(VLOOKUP(B1451,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v/>
+      </c>
+      <c r="L1451" s="13" t="str">
+        <f>IF(B1451="Pending","",(G1451/C1451)/(VLOOKUP(B1451,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="1452" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1452" s="1">
+        <v>44054</v>
+      </c>
+      <c r="B1452" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1452">
+        <v>6029</v>
+      </c>
+      <c r="D1452" s="6">
+        <f t="shared" ref="D1452:D1461" si="307">C1452/SUMIF(A:A,A1452,C:C)</f>
+        <v>4.8264820077652801E-2</v>
+      </c>
+      <c r="E1452" s="7">
+        <f t="shared" ref="E1452:E1461" si="308">C1452-SUMIFS(C:C,A:A,A1452-1,B:B,B1452)</f>
+        <v>61</v>
+      </c>
+      <c r="F1452" s="6">
+        <f t="shared" ref="F1452:F1461" si="309">E1452/SUMIF(A:A,A1452,E:E)</f>
+        <v>6.0939060939060936E-2</v>
+      </c>
+      <c r="G1452" s="2">
+        <v>4</v>
+      </c>
+      <c r="H1452" s="7">
+        <f t="shared" ref="H1452:H1461" si="310">G1452-SUMIFS(G:G,A:A,A1452-1,B:B,B1452)</f>
+        <v>0</v>
+      </c>
+      <c r="I1452" s="6">
+        <f t="shared" ref="I1452:I1461" si="311">G1452/SUMIF(A:A,A1452,G:G)</f>
+        <v>3.1471282454760031E-3</v>
+      </c>
+      <c r="J1452" s="10">
+        <f>IF(B1452="Pending","",C1452/(VLOOKUP(B1452,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>665.50101883801688</v>
+      </c>
+      <c r="K1452" s="10">
+        <f>IF(B1452="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1452,A:A,"&gt;="&amp;A1452-30,B:B,B1452)/(VLOOKUP(B1452,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>358.08348069506167</v>
+      </c>
+      <c r="L1452" s="13">
+        <f>IF(B1452="Pending","",(G1452/C1452)/(VLOOKUP(B1452,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>7.3234909342833452E-5</v>
+      </c>
+    </row>
+    <row r="1453" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1453" s="1">
+        <v>44054</v>
+      </c>
+      <c r="B1453" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1453">
+        <v>14531</v>
+      </c>
+      <c r="D1453" s="6">
+        <f t="shared" si="307"/>
+        <v>0.11632710242965216</v>
+      </c>
+      <c r="E1453" s="7">
+        <f t="shared" si="308"/>
+        <v>136</v>
+      </c>
+      <c r="F1453" s="6">
+        <f t="shared" si="309"/>
+        <v>0.13586413586413587</v>
+      </c>
+      <c r="G1453" s="2">
+        <v>1</v>
+      </c>
+      <c r="H1453" s="7">
+        <f t="shared" si="310"/>
+        <v>0</v>
+      </c>
+      <c r="I1453" s="6">
+        <f t="shared" si="311"/>
+        <v>7.8678206136900079E-4</v>
+      </c>
+      <c r="J1453" s="10">
+        <f>IF(B1453="Pending","",C1453/(VLOOKUP(B1453,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1696.1101870495202</v>
+      </c>
+      <c r="K1453" s="10">
+        <f>IF(B1453="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1453,A:A,"&gt;="&amp;A1453-30,B:B,B1453)/(VLOOKUP(B1453,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>971.60699174180752</v>
+      </c>
+      <c r="L1453" s="13">
+        <f>IF(B1453="Pending","",(G1453/C1453)/(VLOOKUP(B1453,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>8.0327279200848166E-6</v>
+      </c>
+    </row>
+    <row r="1454" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1454" s="1">
+        <v>44054</v>
+      </c>
+      <c r="B1454" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1454">
+        <v>28468</v>
+      </c>
+      <c r="D1454" s="6">
+        <f t="shared" si="307"/>
+        <v>0.22789897130048434</v>
+      </c>
+      <c r="E1454" s="7">
+        <f t="shared" si="308"/>
+        <v>184</v>
+      </c>
+      <c r="F1454" s="6">
+        <f t="shared" si="309"/>
+        <v>0.18381618381618381</v>
+      </c>
+      <c r="G1454" s="2">
+        <v>15</v>
+      </c>
+      <c r="H1454" s="7">
+        <f t="shared" si="310"/>
+        <v>3</v>
+      </c>
+      <c r="I1454" s="6">
+        <f t="shared" si="311"/>
+        <v>1.1801730920535013E-2</v>
+      </c>
+      <c r="J1454" s="10">
+        <f>IF(B1454="Pending","",C1454/(VLOOKUP(B1454,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>2988.929579357613</v>
+      </c>
+      <c r="K1454" s="10">
+        <f>IF(B1454="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1454,A:A,"&gt;="&amp;A1454-30,B:B,B1454)/(VLOOKUP(B1454,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1468.8465931998387</v>
+      </c>
+      <c r="L1454" s="13">
+        <f>IF(B1454="Pending","",(G1454/C1454)/(VLOOKUP(B1454,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>5.532138287921183E-5</v>
+      </c>
+    </row>
+    <row r="1455" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1455" s="1">
+        <v>44054</v>
+      </c>
+      <c r="B1455" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1455">
+        <v>22400</v>
+      </c>
+      <c r="D1455" s="6">
+        <f t="shared" si="307"/>
+        <v>0.17932193891846457</v>
+      </c>
+      <c r="E1455" s="7">
+        <f t="shared" si="308"/>
+        <v>156</v>
+      </c>
+      <c r="F1455" s="6">
+        <f t="shared" si="309"/>
+        <v>0.15584415584415584</v>
+      </c>
+      <c r="G1455" s="2">
+        <v>24</v>
+      </c>
+      <c r="H1455" s="7">
+        <f t="shared" si="310"/>
+        <v>0</v>
+      </c>
+      <c r="I1455" s="6">
+        <f t="shared" si="311"/>
+        <v>1.8882769472856019E-2</v>
+      </c>
+      <c r="J1455" s="10">
+        <f>IF(B1455="Pending","",C1455/(VLOOKUP(B1455,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>2553.6319714722827</v>
+      </c>
+      <c r="K1455" s="10">
+        <f>IF(B1455="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1455,A:A,"&gt;="&amp;A1455-30,B:B,B1455)/(VLOOKUP(B1455,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1188.2368767256967</v>
+      </c>
+      <c r="L1455" s="13">
+        <f>IF(B1455="Pending","",(G1455/C1455)/(VLOOKUP(B1455,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1.2214438639057476E-4</v>
+      </c>
+    </row>
+    <row r="1456" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1456" s="1">
+        <v>44054</v>
+      </c>
+      <c r="B1456" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1456">
+        <v>19223</v>
+      </c>
+      <c r="D1456" s="6">
+        <f t="shared" si="307"/>
+        <v>0.15388864427810911</v>
+      </c>
+      <c r="E1456" s="7">
+        <f t="shared" si="308"/>
+        <v>134</v>
+      </c>
+      <c r="F1456" s="6">
+        <f t="shared" si="309"/>
+        <v>0.13386613386613386</v>
+      </c>
+      <c r="G1456" s="2">
+        <v>71</v>
+      </c>
+      <c r="H1456" s="7">
+        <f t="shared" si="310"/>
+        <v>4</v>
+      </c>
+      <c r="I1456" s="6">
+        <f t="shared" si="311"/>
+        <v>5.5861526357199057E-2</v>
+      </c>
+      <c r="J1456" s="10">
+        <f>IF(B1456="Pending","",C1456/(VLOOKUP(B1456,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>2254.8444611270115</v>
+      </c>
+      <c r="K1456" s="10">
+        <f>IF(B1456="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1456,A:A,"&gt;="&amp;A1456-30,B:B,B1456)/(VLOOKUP(B1456,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1101.557734715901</v>
+      </c>
+      <c r="L1456" s="13">
+        <f>IF(B1456="Pending","",(G1456/C1456)/(VLOOKUP(B1456,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>4.3324404950464718E-4</v>
+      </c>
+    </row>
+    <row r="1457" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1457" s="1">
+        <v>44054</v>
+      </c>
+      <c r="B1457" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1457">
+        <v>15722</v>
+      </c>
+      <c r="D1457" s="6">
+        <f t="shared" si="307"/>
+        <v>0.1258615858783973</v>
+      </c>
+      <c r="E1457" s="7">
+        <f t="shared" si="308"/>
+        <v>130</v>
+      </c>
+      <c r="F1457" s="6">
+        <f t="shared" si="309"/>
+        <v>0.12987012987012986</v>
+      </c>
+      <c r="G1457" s="2">
+        <v>134</v>
+      </c>
+      <c r="H1457" s="7">
+        <f t="shared" si="310"/>
+        <v>3</v>
+      </c>
+      <c r="I1457" s="6">
+        <f t="shared" si="311"/>
+        <v>0.1054287962234461</v>
+      </c>
+      <c r="J1457" s="10">
+        <f>IF(B1457="Pending","",C1457/(VLOOKUP(B1457,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1755.9397829478837</v>
+      </c>
+      <c r="K1457" s="10">
+        <f>IF(B1457="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1457,A:A,"&gt;="&amp;A1457-30,B:B,B1457)/(VLOOKUP(B1457,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>901.20074472754573</v>
+      </c>
+      <c r="L1457" s="13">
+        <f>IF(B1457="Pending","",(G1457/C1457)/(VLOOKUP(B1457,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>9.519164521979602E-4</v>
+      </c>
+    </row>
+    <row r="1458" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1458" s="1">
+        <v>44054</v>
+      </c>
+      <c r="B1458" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1458">
+        <v>10018</v>
+      </c>
+      <c r="D1458" s="6">
+        <f t="shared" si="307"/>
+        <v>8.0198535003802585E-2</v>
+      </c>
+      <c r="E1458" s="7">
+        <f t="shared" si="308"/>
+        <v>110</v>
+      </c>
+      <c r="F1458" s="6">
+        <f t="shared" si="309"/>
+        <v>0.10989010989010989</v>
+      </c>
+      <c r="G1458" s="2">
+        <v>253</v>
+      </c>
+      <c r="H1458" s="7">
+        <f t="shared" si="310"/>
+        <v>3</v>
+      </c>
+      <c r="I1458" s="6">
+        <f t="shared" si="311"/>
+        <v>0.19905586152635721</v>
+      </c>
+      <c r="J1458" s="10">
+        <f>IF(B1458="Pending","",C1458/(VLOOKUP(B1458,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1271.2584926107625</v>
+      </c>
+      <c r="K1458" s="10">
+        <f>IF(B1458="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1458,A:A,"&gt;="&amp;A1458-30,B:B,B1458)/(VLOOKUP(B1458,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>714.81324504655868</v>
+      </c>
+      <c r="L1458" s="13">
+        <f>IF(B1458="Pending","",(G1458/C1458)/(VLOOKUP(B1458,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>3.2047365513738569E-3</v>
+      </c>
+    </row>
+    <row r="1459" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1459" s="1">
+        <v>44054</v>
+      </c>
+      <c r="B1459" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1459">
+        <v>5374</v>
+      </c>
+      <c r="D1459" s="6">
+        <f t="shared" si="307"/>
+        <v>4.3021254453028061E-2</v>
+      </c>
+      <c r="E1459" s="7">
+        <f t="shared" si="308"/>
+        <v>64</v>
+      </c>
+      <c r="F1459" s="6">
+        <f t="shared" si="309"/>
+        <v>6.3936063936063936E-2</v>
+      </c>
+      <c r="G1459" s="2">
+        <v>368</v>
+      </c>
+      <c r="H1459" s="7">
+        <f t="shared" si="310"/>
+        <v>15</v>
+      </c>
+      <c r="I1459" s="6">
+        <f t="shared" si="311"/>
+        <v>0.2895357985837923</v>
+      </c>
+      <c r="J1459" s="10">
+        <f>IF(B1459="Pending","",C1459/(VLOOKUP(B1459,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1120.5241066979152</v>
+      </c>
+      <c r="K1459" s="10">
+        <f>IF(B1459="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1459,A:A,"&gt;="&amp;A1459-30,B:B,B1459)/(VLOOKUP(B1459,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>652.00574649132511</v>
+      </c>
+      <c r="L1459" s="13">
+        <f>IF(B1459="Pending","",(G1459/C1459)/(VLOOKUP(B1459,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1.4278207817264618E-2</v>
+      </c>
+    </row>
+    <row r="1460" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1460" s="1">
+        <v>44054</v>
+      </c>
+      <c r="B1460" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1460">
+        <v>2940</v>
+      </c>
+      <c r="D1460" s="6">
+        <f t="shared" si="307"/>
+        <v>2.3536004483048472E-2</v>
+      </c>
+      <c r="E1460" s="7">
+        <f t="shared" si="308"/>
+        <v>27</v>
+      </c>
+      <c r="F1460" s="6">
+        <f t="shared" si="309"/>
+        <v>2.6973026973026972E-2</v>
+      </c>
+      <c r="G1460" s="2">
+        <v>401</v>
+      </c>
+      <c r="H1460" s="7">
+        <f t="shared" si="310"/>
+        <v>10</v>
+      </c>
+      <c r="I1460" s="6">
+        <f t="shared" si="311"/>
+        <v>0.31549960660896931</v>
+      </c>
+      <c r="J1460" s="10">
+        <f>IF(B1460="Pending","",C1460/(VLOOKUP(B1460,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1328.0992370205402</v>
+      </c>
+      <c r="K1460" s="10">
+        <f>IF(B1460="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1460,A:A,"&gt;="&amp;A1460-30,B:B,B1460)/(VLOOKUP(B1460,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>753.49303651369428</v>
+      </c>
+      <c r="L1460" s="13">
+        <f>IF(B1460="Pending","",(G1460/C1460)/(VLOOKUP(B1460,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>6.1614118428112902E-2</v>
+      </c>
+    </row>
+    <row r="1461" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1461" s="1">
+        <v>44054</v>
+      </c>
+      <c r="B1461" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1461">
+        <v>210</v>
+      </c>
+      <c r="D1461" s="6">
+        <f t="shared" si="307"/>
+        <v>1.6811431773606051E-3</v>
+      </c>
+      <c r="E1461" s="7">
+        <f t="shared" si="308"/>
+        <v>-1</v>
+      </c>
+      <c r="F1461" s="6">
+        <f t="shared" si="309"/>
+        <v>-9.99000999000999E-4</v>
+      </c>
+      <c r="G1461" s="2">
+        <v>0</v>
+      </c>
+      <c r="H1461" s="7">
+        <f t="shared" si="310"/>
+        <v>0</v>
+      </c>
+      <c r="I1461" s="6">
+        <f t="shared" si="311"/>
+        <v>0</v>
+      </c>
+      <c r="J1461" s="10" t="str">
+        <f>IF(B1461="Pending","",C1461/(VLOOKUP(B1461,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v/>
+      </c>
+      <c r="K1461" s="10" t="str">
+        <f>IF(B1461="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1461,A:A,"&gt;="&amp;A1461-30,B:B,B1461)/(VLOOKUP(B1461,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v/>
+      </c>
+      <c r="L1461" s="13" t="str">
+        <f>IF(B1461="Pending","",(G1461/C1461)/(VLOOKUP(B1461,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="1462" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1462" s="1">
+        <v>44055</v>
+      </c>
+      <c r="B1462" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1462">
+        <v>6096</v>
+      </c>
+      <c r="D1462" s="6">
+        <f t="shared" ref="D1462:D1471" si="312">C1462/SUMIF(A:A,A1462,C:C)</f>
+        <v>4.823051909520306E-2</v>
+      </c>
+      <c r="E1462" s="7">
+        <f t="shared" ref="E1462:E1471" si="313">C1462-SUMIFS(C:C,A:A,A1462-1,B:B,B1462)</f>
+        <v>67</v>
+      </c>
+      <c r="F1462" s="6">
+        <f t="shared" ref="F1462:F1471" si="314">E1462/SUMIF(A:A,A1462,E:E)</f>
+        <v>4.5331529093369419E-2</v>
+      </c>
+      <c r="G1462">
+        <v>4</v>
+      </c>
+      <c r="H1462" s="7">
+        <f t="shared" ref="H1462:H1471" si="315">G1462-SUMIFS(G:G,A:A,A1462-1,B:B,B1462)</f>
+        <v>0</v>
+      </c>
+      <c r="I1462" s="6">
+        <f t="shared" ref="I1462:I1471" si="316">G1462/SUMIF(A:A,A1462,G:G)</f>
+        <v>3.1031807602792862E-3</v>
+      </c>
+      <c r="J1462" s="10">
+        <f>IF(B1462="Pending","",C1462/(VLOOKUP(B1462,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>672.89670108418488</v>
+      </c>
+      <c r="K1462" s="10">
+        <f>IF(B1462="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1462,A:A,"&gt;="&amp;A1462-30,B:B,B1462)/(VLOOKUP(B1462,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>361.50536352537819</v>
+      </c>
+      <c r="L1462" s="13">
+        <f>IF(B1462="Pending","",(G1462/C1462)/(VLOOKUP(B1462,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>7.2429998101696663E-5</v>
+      </c>
+    </row>
+    <row r="1463" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1463" s="1">
+        <v>44055</v>
+      </c>
+      <c r="B1463" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1463">
+        <v>14760</v>
+      </c>
+      <c r="D1463" s="6">
+        <f t="shared" si="312"/>
+        <v>0.11677861906909402</v>
+      </c>
+      <c r="E1463" s="7">
+        <f t="shared" si="313"/>
+        <v>229</v>
+      </c>
+      <c r="F1463" s="6">
+        <f t="shared" si="314"/>
+        <v>0.15493910690121787</v>
+      </c>
+      <c r="G1463">
+        <v>1</v>
+      </c>
+      <c r="H1463" s="7">
+        <f t="shared" si="315"/>
+        <v>0</v>
+      </c>
+      <c r="I1463" s="6">
+        <f t="shared" si="316"/>
+        <v>7.7579519006982156E-4</v>
+      </c>
+      <c r="J1463" s="10">
+        <f>IF(B1463="Pending","",C1463/(VLOOKUP(B1463,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1722.8398844436663</v>
+      </c>
+      <c r="K1463" s="10">
+        <f>IF(B1463="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1463,A:A,"&gt;="&amp;A1463-30,B:B,B1463)/(VLOOKUP(B1463,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>983.51279582129621</v>
+      </c>
+      <c r="L1463" s="13">
+        <f>IF(B1463="Pending","",(G1463/C1463)/(VLOOKUP(B1463,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>7.9081009083165634E-6</v>
+      </c>
+    </row>
+    <row r="1464" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1464" s="1">
+        <v>44055</v>
+      </c>
+      <c r="B1464" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1464">
+        <v>28731</v>
+      </c>
+      <c r="D1464" s="6">
+        <f t="shared" si="312"/>
+        <v>0.22731480382616126</v>
+      </c>
+      <c r="E1464" s="7">
+        <f t="shared" si="313"/>
+        <v>263</v>
+      </c>
+      <c r="F1464" s="6">
+        <f t="shared" si="314"/>
+        <v>0.17794316644113667</v>
+      </c>
+      <c r="G1464">
+        <v>14</v>
+      </c>
+      <c r="H1464" s="7">
+        <f t="shared" si="315"/>
+        <v>-1</v>
+      </c>
+      <c r="I1464" s="6">
+        <f t="shared" si="316"/>
+        <v>1.0861132660977503E-2</v>
+      </c>
+      <c r="J1464" s="10">
+        <f>IF(B1464="Pending","",C1464/(VLOOKUP(B1464,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>3016.5426353984676</v>
+      </c>
+      <c r="K1464" s="10">
+        <f>IF(B1464="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1464,A:A,"&gt;="&amp;A1464-30,B:B,B1464)/(VLOOKUP(B1464,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1469.8965192850424</v>
+      </c>
+      <c r="L1464" s="13">
+        <f>IF(B1464="Pending","",(G1464/C1464)/(VLOOKUP(B1464,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>5.1160645967249388E-5</v>
+      </c>
+    </row>
+    <row r="1465" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1465" s="1">
+        <v>44055</v>
+      </c>
+      <c r="B1465" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1465">
+        <v>22599</v>
+      </c>
+      <c r="D1465" s="6">
+        <f t="shared" si="312"/>
+        <v>0.17879945883078968</v>
+      </c>
+      <c r="E1465" s="7">
+        <f t="shared" si="313"/>
+        <v>199</v>
+      </c>
+      <c r="F1465" s="6">
+        <f t="shared" si="314"/>
+        <v>0.13464140730717186</v>
+      </c>
+      <c r="G1465">
+        <v>24</v>
+      </c>
+      <c r="H1465" s="7">
+        <f t="shared" si="315"/>
+        <v>0</v>
+      </c>
+      <c r="I1465" s="6">
+        <f t="shared" si="316"/>
+        <v>1.8619084561675717E-2</v>
+      </c>
+      <c r="J1465" s="10">
+        <f>IF(B1465="Pending","",C1465/(VLOOKUP(B1465,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>2576.3182555045591</v>
+      </c>
+      <c r="K1465" s="10">
+        <f>IF(B1465="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1465,A:A,"&gt;="&amp;A1465-30,B:B,B1465)/(VLOOKUP(B1465,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1192.34092810842</v>
+      </c>
+      <c r="L1465" s="13">
+        <f>IF(B1465="Pending","",(G1465/C1465)/(VLOOKUP(B1465,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1.2106881964462474E-4</v>
+      </c>
+    </row>
+    <row r="1466" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1466" s="1">
+        <v>44055</v>
+      </c>
+      <c r="B1466" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1466">
+        <v>19444</v>
+      </c>
+      <c r="D1466" s="6">
+        <f t="shared" si="312"/>
+        <v>0.15383763341324283</v>
+      </c>
+      <c r="E1466" s="7">
+        <f t="shared" si="313"/>
+        <v>221</v>
+      </c>
+      <c r="F1466" s="6">
+        <f t="shared" si="314"/>
+        <v>0.14952638700947227</v>
+      </c>
+      <c r="G1466">
+        <v>72</v>
+      </c>
+      <c r="H1466" s="7">
+        <f t="shared" si="315"/>
+        <v>1</v>
+      </c>
+      <c r="I1466" s="6">
+        <f t="shared" si="316"/>
+        <v>5.5857253685027156E-2</v>
+      </c>
+      <c r="J1466" s="10">
+        <f>IF(B1466="Pending","",C1466/(VLOOKUP(B1466,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>2280.7676066250647</v>
+      </c>
+      <c r="K1466" s="10">
+        <f>IF(B1466="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1466,A:A,"&gt;="&amp;A1466-30,B:B,B1466)/(VLOOKUP(B1466,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1110.1205836813212</v>
+      </c>
+      <c r="L1466" s="13">
+        <f>IF(B1466="Pending","",(G1466/C1466)/(VLOOKUP(B1466,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>4.3435248223225672E-4</v>
+      </c>
+    </row>
+    <row r="1467" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1467" s="1">
+        <v>44055</v>
+      </c>
+      <c r="B1467" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1467">
+        <v>15910</v>
+      </c>
+      <c r="D1467" s="6">
+        <f t="shared" si="312"/>
+        <v>0.12587722421336625</v>
+      </c>
+      <c r="E1467" s="7">
+        <f t="shared" si="313"/>
+        <v>188</v>
+      </c>
+      <c r="F1467" s="6">
+        <f t="shared" si="314"/>
+        <v>0.12719891745602166</v>
+      </c>
+      <c r="G1467">
+        <v>137</v>
+      </c>
+      <c r="H1467" s="7">
+        <f t="shared" si="315"/>
+        <v>3</v>
+      </c>
+      <c r="I1467" s="6">
+        <f t="shared" si="316"/>
+        <v>0.10628394103956555</v>
+      </c>
+      <c r="J1467" s="10">
+        <f>IF(B1467="Pending","",C1467/(VLOOKUP(B1467,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1776.9369003117179</v>
+      </c>
+      <c r="K1467" s="10">
+        <f>IF(B1467="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1467,A:A,"&gt;="&amp;A1467-30,B:B,B1467)/(VLOOKUP(B1467,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>910.13568828662414</v>
+      </c>
+      <c r="L1467" s="13">
+        <f>IF(B1467="Pending","",(G1467/C1467)/(VLOOKUP(B1467,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>9.6172789722952668E-4</v>
+      </c>
+    </row>
+    <row r="1468" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1468" s="1">
+        <v>44055</v>
+      </c>
+      <c r="B1468" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1468">
+        <v>10178</v>
+      </c>
+      <c r="D1468" s="6">
+        <f t="shared" si="312"/>
+        <v>8.0526611442089363E-2</v>
+      </c>
+      <c r="E1468" s="7">
+        <f t="shared" si="313"/>
+        <v>160</v>
+      </c>
+      <c r="F1468" s="6">
+        <f t="shared" si="314"/>
+        <v>0.10825439783491204</v>
+      </c>
+      <c r="G1468">
+        <v>259</v>
+      </c>
+      <c r="H1468" s="7">
+        <f t="shared" si="315"/>
+        <v>6</v>
+      </c>
+      <c r="I1468" s="6">
+        <f t="shared" si="316"/>
+        <v>0.2009309542280838</v>
+      </c>
+      <c r="J1468" s="10">
+        <f>IF(B1468="Pending","",C1468/(VLOOKUP(B1468,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1291.5620820315771</v>
+      </c>
+      <c r="K1468" s="10">
+        <f>IF(B1468="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1468,A:A,"&gt;="&amp;A1468-30,B:B,B1468)/(VLOOKUP(B1468,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>725.47262949248648</v>
+      </c>
+      <c r="L1468" s="13">
+        <f>IF(B1468="Pending","",(G1468/C1468)/(VLOOKUP(B1468,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>3.2291644109789593E-3</v>
+      </c>
+    </row>
+    <row r="1469" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1469" s="1">
+        <v>44055</v>
+      </c>
+      <c r="B1469" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1469">
+        <v>5460</v>
+      </c>
+      <c r="D1469" s="6">
+        <f t="shared" si="312"/>
+        <v>4.3198594858892499E-2</v>
+      </c>
+      <c r="E1469" s="7">
+        <f t="shared" si="313"/>
+        <v>86</v>
+      </c>
+      <c r="F1469" s="6">
+        <f t="shared" si="314"/>
+        <v>5.8186738836265225E-2</v>
+      </c>
+      <c r="G1469">
+        <v>376</v>
+      </c>
+      <c r="H1469" s="7">
+        <f t="shared" si="315"/>
+        <v>8</v>
+      </c>
+      <c r="I1469" s="6">
+        <f t="shared" si="316"/>
+        <v>0.29169899146625289</v>
+      </c>
+      <c r="J1469" s="10">
+        <f>IF(B1469="Pending","",C1469/(VLOOKUP(B1469,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1138.455828539378</v>
+      </c>
+      <c r="K1469" s="10">
+        <f>IF(B1469="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1469,A:A,"&gt;="&amp;A1469-30,B:B,B1469)/(VLOOKUP(B1469,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>662.22265777308871</v>
+      </c>
+      <c r="L1469" s="13">
+        <f>IF(B1469="Pending","",(G1469/C1469)/(VLOOKUP(B1469,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1.4358819772531704E-2</v>
+      </c>
+    </row>
+    <row r="1470" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1470" s="1">
+        <v>44055</v>
+      </c>
+      <c r="B1470" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1470">
+        <v>3007</v>
+      </c>
+      <c r="D1470" s="6">
+        <f t="shared" si="312"/>
+        <v>2.3790874494631822E-2</v>
+      </c>
+      <c r="E1470" s="7">
+        <f t="shared" si="313"/>
+        <v>67</v>
+      </c>
+      <c r="F1470" s="6">
+        <f t="shared" si="314"/>
+        <v>4.5331529093369419E-2</v>
+      </c>
+      <c r="G1470">
+        <v>402</v>
+      </c>
+      <c r="H1470" s="7">
+        <f t="shared" si="315"/>
+        <v>1</v>
+      </c>
+      <c r="I1470" s="6">
+        <f t="shared" si="316"/>
+        <v>0.31186966640806829</v>
+      </c>
+      <c r="J1470" s="10">
+        <f>IF(B1470="Pending","",C1470/(VLOOKUP(B1470,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1358.3654441227091</v>
+      </c>
+      <c r="K1470" s="10">
+        <f>IF(B1470="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1470,A:A,"&gt;="&amp;A1470-30,B:B,B1470)/(VLOOKUP(B1470,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>780.597102575338</v>
+      </c>
+      <c r="L1470" s="13">
+        <f>IF(B1470="Pending","",(G1470/C1470)/(VLOOKUP(B1470,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>6.0391500702697921E-2</v>
+      </c>
+    </row>
+    <row r="1471" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1471" s="1">
+        <v>44055</v>
+      </c>
+      <c r="B1471" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1471">
+        <v>208</v>
+      </c>
+      <c r="D1471" s="6">
+        <f t="shared" si="312"/>
+        <v>1.6456607565292381E-3</v>
+      </c>
+      <c r="E1471" s="7">
+        <f t="shared" si="313"/>
+        <v>-2</v>
+      </c>
+      <c r="F1471" s="6">
+        <f t="shared" si="314"/>
+        <v>-1.3531799729364006E-3</v>
+      </c>
+      <c r="G1471">
+        <v>0</v>
+      </c>
+      <c r="H1471" s="7">
+        <f t="shared" si="315"/>
+        <v>0</v>
+      </c>
+      <c r="I1471" s="6">
+        <f t="shared" si="316"/>
+        <v>0</v>
+      </c>
+      <c r="J1471" s="10" t="str">
+        <f>IF(B1471="Pending","",C1471/(VLOOKUP(B1471,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v/>
+      </c>
+      <c r="K1471" s="10" t="str">
+        <f>IF(B1471="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1471,A:A,"&gt;="&amp;A1471-30,B:B,B1471)/(VLOOKUP(B1471,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v/>
+      </c>
+      <c r="L1471" s="13" t="str">
+        <f>IF(B1471="Pending","",(G1471/C1471)/(VLOOKUP(B1471,Population!$A$2:$B$10,2,FALSE)/100000))</f>
         <v/>
       </c>
     </row>

--- a/TN_Age.xlsx
+++ b/TN_Age.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1495" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1505" uniqueCount="33">
   <si>
     <t>0-10</t>
   </si>
@@ -482,11 +482,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M1471"/>
+  <dimension ref="A1:M1481"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1441" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A1471" sqref="A1471"/>
+      <pane ySplit="1" topLeftCell="A1461" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A1481" sqref="A1481"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -64019,6 +64019,466 @@
       </c>
       <c r="L1471" s="13" t="str">
         <f>IF(B1471="Pending","",(G1471/C1471)/(VLOOKUP(B1471,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="1472" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1472" s="1">
+        <v>44056</v>
+      </c>
+      <c r="B1472" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1472" s="2">
+        <v>6245</v>
+      </c>
+      <c r="D1472" s="6">
+        <f t="shared" ref="D1472:D1481" si="317">C1472/SUMIF(A:A,A1472,C:C)</f>
+        <v>4.8595061901315843E-2</v>
+      </c>
+      <c r="E1472" s="7">
+        <f t="shared" ref="E1472:E1481" si="318">C1472-SUMIFS(C:C,A:A,A1472-1,B:B,B1472)</f>
+        <v>149</v>
+      </c>
+      <c r="F1472" s="6">
+        <f t="shared" ref="F1472:F1481" si="319">E1472/SUMIF(A:A,A1472,E:E)</f>
+        <v>7.0349386213408874E-2</v>
+      </c>
+      <c r="G1472" s="2">
+        <v>4</v>
+      </c>
+      <c r="H1472" s="7">
+        <f t="shared" ref="H1472:H1481" si="320">G1472-SUMIFS(G:G,A:A,A1472-1,B:B,B1472)</f>
+        <v>0</v>
+      </c>
+      <c r="I1472" s="6">
+        <f t="shared" ref="I1472:I1481" si="321">G1472/SUMIF(A:A,A1472,G:G)</f>
+        <v>3.0464584920030465E-3</v>
+      </c>
+      <c r="J1472" s="10">
+        <f>IF(B1472="Pending","",C1472/(VLOOKUP(B1472,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>689.3438153331258</v>
+      </c>
+      <c r="K1472" s="10">
+        <f>IF(B1472="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1472,A:A,"&gt;="&amp;A1472-30,B:B,B1472)/(VLOOKUP(B1472,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>361.61574684248518</v>
+      </c>
+      <c r="L1472" s="13">
+        <f>IF(B1472="Pending","",(G1472/C1472)/(VLOOKUP(B1472,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>7.0701884456035686E-5</v>
+      </c>
+    </row>
+    <row r="1473" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1473" s="1">
+        <v>44056</v>
+      </c>
+      <c r="B1473" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1473" s="2">
+        <v>15051</v>
+      </c>
+      <c r="D1473" s="6">
+        <f t="shared" si="317"/>
+        <v>0.11711837897144992</v>
+      </c>
+      <c r="E1473" s="7">
+        <f t="shared" si="318"/>
+        <v>291</v>
+      </c>
+      <c r="F1473" s="6">
+        <f t="shared" si="319"/>
+        <v>0.13739376770538245</v>
+      </c>
+      <c r="G1473" s="2">
+        <v>0</v>
+      </c>
+      <c r="H1473" s="7">
+        <f t="shared" si="320"/>
+        <v>-1</v>
+      </c>
+      <c r="I1473" s="6">
+        <f t="shared" si="321"/>
+        <v>0</v>
+      </c>
+      <c r="J1473" s="10">
+        <f>IF(B1473="Pending","",C1473/(VLOOKUP(B1473,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1756.8064431410314</v>
+      </c>
+      <c r="K1473" s="10">
+        <f>IF(B1473="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1473,A:A,"&gt;="&amp;A1473-30,B:B,B1473)/(VLOOKUP(B1473,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>970.08958533951977</v>
+      </c>
+      <c r="L1473" s="13">
+        <f>IF(B1473="Pending","",(G1473/C1473)/(VLOOKUP(B1473,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1474" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1474" s="1">
+        <v>44056</v>
+      </c>
+      <c r="B1474" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1474" s="2">
+        <v>29116</v>
+      </c>
+      <c r="D1474" s="6">
+        <f t="shared" si="317"/>
+        <v>0.22656426298137902</v>
+      </c>
+      <c r="E1474" s="7">
+        <f t="shared" si="318"/>
+        <v>385</v>
+      </c>
+      <c r="F1474" s="6">
+        <f t="shared" si="319"/>
+        <v>0.1817752596789424</v>
+      </c>
+      <c r="G1474" s="2">
+        <v>14</v>
+      </c>
+      <c r="H1474" s="7">
+        <f t="shared" si="320"/>
+        <v>0</v>
+      </c>
+      <c r="I1474" s="6">
+        <f t="shared" si="321"/>
+        <v>1.0662604722010662E-2</v>
+      </c>
+      <c r="J1474" s="10">
+        <f>IF(B1474="Pending","",C1474/(VLOOKUP(B1474,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>3056.9647896788065</v>
+      </c>
+      <c r="K1474" s="10">
+        <f>IF(B1474="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1474,A:A,"&gt;="&amp;A1474-30,B:B,B1474)/(VLOOKUP(B1474,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1418.0301706759844</v>
+      </c>
+      <c r="L1474" s="13">
+        <f>IF(B1474="Pending","",(G1474/C1474)/(VLOOKUP(B1474,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>5.0484150270814746E-5</v>
+      </c>
+    </row>
+    <row r="1475" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1475" s="1">
+        <v>44056</v>
+      </c>
+      <c r="B1475" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1475" s="2">
+        <v>22894</v>
+      </c>
+      <c r="D1475" s="6">
+        <f t="shared" si="317"/>
+        <v>0.17814817408626499</v>
+      </c>
+      <c r="E1475" s="7">
+        <f t="shared" si="318"/>
+        <v>295</v>
+      </c>
+      <c r="F1475" s="6">
+        <f t="shared" si="319"/>
+        <v>0.1392823418319169</v>
+      </c>
+      <c r="G1475" s="2">
+        <v>24</v>
+      </c>
+      <c r="H1475" s="7">
+        <f t="shared" si="320"/>
+        <v>0</v>
+      </c>
+      <c r="I1475" s="6">
+        <f t="shared" si="321"/>
+        <v>1.827875095201828E-2</v>
+      </c>
+      <c r="J1475" s="10">
+        <f>IF(B1475="Pending","",C1475/(VLOOKUP(B1475,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>2609.9486765574306</v>
+      </c>
+      <c r="K1475" s="10">
+        <f>IF(B1475="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1475,A:A,"&gt;="&amp;A1475-30,B:B,B1475)/(VLOOKUP(B1475,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1160.9905356015058</v>
+      </c>
+      <c r="L1475" s="13">
+        <f>IF(B1475="Pending","",(G1475/C1475)/(VLOOKUP(B1475,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1.1950879073769872E-4</v>
+      </c>
+    </row>
+    <row r="1476" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1476" s="1">
+        <v>44056</v>
+      </c>
+      <c r="B1476" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1476" s="2">
+        <v>19713</v>
+      </c>
+      <c r="D1476" s="6">
+        <f t="shared" si="317"/>
+        <v>0.15339542918505031</v>
+      </c>
+      <c r="E1476" s="7">
+        <f t="shared" si="318"/>
+        <v>269</v>
+      </c>
+      <c r="F1476" s="6">
+        <f t="shared" si="319"/>
+        <v>0.12700661000944288</v>
+      </c>
+      <c r="G1476" s="2">
+        <v>72</v>
+      </c>
+      <c r="H1476" s="7">
+        <f t="shared" si="320"/>
+        <v>0</v>
+      </c>
+      <c r="I1476" s="6">
+        <f t="shared" si="321"/>
+        <v>5.4836252856054833E-2</v>
+      </c>
+      <c r="J1476" s="10">
+        <f>IF(B1476="Pending","",C1476/(VLOOKUP(B1476,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>2312.3211185661335</v>
+      </c>
+      <c r="K1476" s="10">
+        <f>IF(B1476="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1476,A:A,"&gt;="&amp;A1476-30,B:B,B1476)/(VLOOKUP(B1476,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1085.6050297940224</v>
+      </c>
+      <c r="L1476" s="13">
+        <f>IF(B1476="Pending","",(G1476/C1476)/(VLOOKUP(B1476,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>4.2842538753736111E-4</v>
+      </c>
+    </row>
+    <row r="1477" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1477" s="1">
+        <v>44056</v>
+      </c>
+      <c r="B1477" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1477" s="2">
+        <v>16200</v>
+      </c>
+      <c r="D1477" s="6">
+        <f t="shared" si="317"/>
+        <v>0.12605924784648784</v>
+      </c>
+      <c r="E1477" s="7">
+        <f t="shared" si="318"/>
+        <v>290</v>
+      </c>
+      <c r="F1477" s="6">
+        <f t="shared" si="319"/>
+        <v>0.13692162417374881</v>
+      </c>
+      <c r="G1477" s="2">
+        <v>141</v>
+      </c>
+      <c r="H1477" s="7">
+        <f t="shared" si="320"/>
+        <v>4</v>
+      </c>
+      <c r="I1477" s="6">
+        <f t="shared" si="321"/>
+        <v>0.10738766184310738</v>
+      </c>
+      <c r="J1477" s="10">
+        <f>IF(B1477="Pending","",C1477/(VLOOKUP(B1477,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1809.3260707133772</v>
+      </c>
+      <c r="K1477" s="10">
+        <f>IF(B1477="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1477,A:A,"&gt;="&amp;A1477-30,B:B,B1477)/(VLOOKUP(B1477,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>901.31243152203422</v>
+      </c>
+      <c r="L1477" s="13">
+        <f>IF(B1477="Pending","",(G1477/C1477)/(VLOOKUP(B1477,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>9.7208876684417829E-4</v>
+      </c>
+    </row>
+    <row r="1478" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1478" s="1">
+        <v>44056</v>
+      </c>
+      <c r="B1478" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1478" s="2">
+        <v>10410</v>
+      </c>
+      <c r="D1478" s="6">
+        <f t="shared" si="317"/>
+        <v>8.1004738893946826E-2</v>
+      </c>
+      <c r="E1478" s="7">
+        <f t="shared" si="318"/>
+        <v>232</v>
+      </c>
+      <c r="F1478" s="6">
+        <f t="shared" si="319"/>
+        <v>0.10953729933899906</v>
+      </c>
+      <c r="G1478" s="2">
+        <v>269</v>
+      </c>
+      <c r="H1478" s="7">
+        <f t="shared" si="320"/>
+        <v>10</v>
+      </c>
+      <c r="I1478" s="6">
+        <f t="shared" si="321"/>
+        <v>0.20487433358720489</v>
+      </c>
+      <c r="J1478" s="10">
+        <f>IF(B1478="Pending","",C1478/(VLOOKUP(B1478,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1321.0022866917586</v>
+      </c>
+      <c r="K1478" s="10">
+        <f>IF(B1478="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1478,A:A,"&gt;="&amp;A1478-30,B:B,B1478)/(VLOOKUP(B1478,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>725.34573205860636</v>
+      </c>
+      <c r="L1478" s="13">
+        <f>IF(B1478="Pending","",(G1478/C1478)/(VLOOKUP(B1478,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>3.2790979552108327E-3</v>
+      </c>
+    </row>
+    <row r="1479" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1479" s="1">
+        <v>44056</v>
+      </c>
+      <c r="B1479" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1479" s="2">
+        <v>5589</v>
+      </c>
+      <c r="D1479" s="6">
+        <f t="shared" si="317"/>
+        <v>4.3490440507038305E-2</v>
+      </c>
+      <c r="E1479" s="7">
+        <f t="shared" si="318"/>
+        <v>129</v>
+      </c>
+      <c r="F1479" s="6">
+        <f t="shared" si="319"/>
+        <v>6.0906515580736544E-2</v>
+      </c>
+      <c r="G1479" s="2">
+        <v>380</v>
+      </c>
+      <c r="H1479" s="7">
+        <f t="shared" si="320"/>
+        <v>4</v>
+      </c>
+      <c r="I1479" s="6">
+        <f t="shared" si="321"/>
+        <v>0.2894135567402894</v>
+      </c>
+      <c r="J1479" s="10">
+        <f>IF(B1479="Pending","",C1479/(VLOOKUP(B1479,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1165.3534113015721</v>
+      </c>
+      <c r="K1479" s="10">
+        <f>IF(B1479="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1479,A:A,"&gt;="&amp;A1479-30,B:B,B1479)/(VLOOKUP(B1479,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>660.34608223154032</v>
+      </c>
+      <c r="L1479" s="13">
+        <f>IF(B1479="Pending","",(G1479/C1479)/(VLOOKUP(B1479,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1.4176630798361893E-2</v>
+      </c>
+    </row>
+    <row r="1480" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1480" s="1">
+        <v>44056</v>
+      </c>
+      <c r="B1480" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1480" s="2">
+        <v>3082</v>
+      </c>
+      <c r="D1480" s="6">
+        <f t="shared" si="317"/>
+        <v>2.3982382831041701E-2</v>
+      </c>
+      <c r="E1480" s="7">
+        <f t="shared" si="318"/>
+        <v>75</v>
+      </c>
+      <c r="F1480" s="6">
+        <f t="shared" si="319"/>
+        <v>3.5410764872521247E-2</v>
+      </c>
+      <c r="G1480" s="2">
+        <v>409</v>
+      </c>
+      <c r="H1480" s="7">
+        <f t="shared" si="320"/>
+        <v>7</v>
+      </c>
+      <c r="I1480" s="6">
+        <f t="shared" si="321"/>
+        <v>0.31150038080731152</v>
+      </c>
+      <c r="J1480" s="10">
+        <f>IF(B1480="Pending","",C1480/(VLOOKUP(B1480,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1392.2455266997636</v>
+      </c>
+      <c r="K1480" s="10">
+        <f>IF(B1480="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1480,A:A,"&gt;="&amp;A1480-30,B:B,B1480)/(VLOOKUP(B1480,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>772.46588275684485</v>
+      </c>
+      <c r="L1480" s="13">
+        <f>IF(B1480="Pending","",(G1480/C1480)/(VLOOKUP(B1480,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>5.9947885676034311E-2</v>
+      </c>
+    </row>
+    <row r="1481" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1481" s="1">
+        <v>44056</v>
+      </c>
+      <c r="B1481" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1481" s="2">
+        <v>211</v>
+      </c>
+      <c r="D1481" s="6">
+        <f t="shared" si="317"/>
+        <v>1.641882796025243E-3</v>
+      </c>
+      <c r="E1481" s="7">
+        <f t="shared" si="318"/>
+        <v>3</v>
+      </c>
+      <c r="F1481" s="6">
+        <f t="shared" si="319"/>
+        <v>1.4164305949008499E-3</v>
+      </c>
+      <c r="G1481" s="2">
+        <v>0</v>
+      </c>
+      <c r="H1481" s="7">
+        <f t="shared" si="320"/>
+        <v>0</v>
+      </c>
+      <c r="I1481" s="6">
+        <f t="shared" si="321"/>
+        <v>0</v>
+      </c>
+      <c r="J1481" s="10" t="str">
+        <f>IF(B1481="Pending","",C1481/(VLOOKUP(B1481,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v/>
+      </c>
+      <c r="K1481" s="10" t="str">
+        <f>IF(B1481="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1481,A:A,"&gt;="&amp;A1481-30,B:B,B1481)/(VLOOKUP(B1481,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v/>
+      </c>
+      <c r="L1481" s="13" t="str">
+        <f>IF(B1481="Pending","",(G1481/C1481)/(VLOOKUP(B1481,Population!$A$2:$B$10,2,FALSE)/100000))</f>
         <v/>
       </c>
     </row>

--- a/TN_Age.xlsx
+++ b/TN_Age.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1505" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1515" uniqueCount="33">
   <si>
     <t>0-10</t>
   </si>
@@ -482,11 +482,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M1481"/>
+  <dimension ref="A1:M1491"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1461" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A1481" sqref="A1481"/>
+      <pane ySplit="1" topLeftCell="A1470" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A1491" sqref="A1491"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -64479,6 +64479,466 @@
       </c>
       <c r="L1481" s="13" t="str">
         <f>IF(B1481="Pending","",(G1481/C1481)/(VLOOKUP(B1481,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="1482" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1482" s="1">
+        <v>44057</v>
+      </c>
+      <c r="B1482" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1482" s="2">
+        <v>6352</v>
+      </c>
+      <c r="D1482" s="6">
+        <f t="shared" ref="D1482:D1491" si="322">C1482/SUMIF(A:A,A1482,C:C)</f>
+        <v>4.8689999846693956E-2</v>
+      </c>
+      <c r="E1482" s="7">
+        <f t="shared" ref="E1482:E1491" si="323">C1482-SUMIFS(C:C,A:A,A1482-1,B:B,B1482)</f>
+        <v>107</v>
+      </c>
+      <c r="F1482" s="6">
+        <f t="shared" ref="F1482:F1491" si="324">E1482/SUMIF(A:A,A1482,E:E)</f>
+        <v>5.4956343091936311E-2</v>
+      </c>
+      <c r="G1482" s="2">
+        <v>4</v>
+      </c>
+      <c r="H1482" s="7">
+        <f t="shared" ref="H1482:H1491" si="325">G1482-SUMIFS(G:G,A:A,A1482-1,B:B,B1482)</f>
+        <v>0</v>
+      </c>
+      <c r="I1482" s="6">
+        <f t="shared" ref="I1482:I1491" si="326">G1482/SUMIF(A:A,A1482,G:G)</f>
+        <v>3.0165912518853697E-3</v>
+      </c>
+      <c r="J1482" s="10">
+        <f>IF(B1482="Pending","",C1482/(VLOOKUP(B1482,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>701.15483026357322</v>
+      </c>
+      <c r="K1482" s="10">
+        <f>IF(B1482="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1482,A:A,"&gt;="&amp;A1482-30,B:B,B1482)/(VLOOKUP(B1482,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>367.24529601494146</v>
+      </c>
+      <c r="L1482" s="13">
+        <f>IF(B1482="Pending","",(G1482/C1482)/(VLOOKUP(B1482,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>6.9510904979210145E-5</v>
+      </c>
+    </row>
+    <row r="1483" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1483" s="1">
+        <v>44057</v>
+      </c>
+      <c r="B1483" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1483" s="2">
+        <v>15281</v>
+      </c>
+      <c r="D1483" s="6">
+        <f t="shared" si="322"/>
+        <v>0.1171334835732573</v>
+      </c>
+      <c r="E1483" s="7">
+        <f t="shared" si="323"/>
+        <v>230</v>
+      </c>
+      <c r="F1483" s="6">
+        <f t="shared" si="324"/>
+        <v>0.11813045711350796</v>
+      </c>
+      <c r="G1483" s="2">
+        <v>0</v>
+      </c>
+      <c r="H1483" s="7">
+        <f t="shared" si="325"/>
+        <v>0</v>
+      </c>
+      <c r="I1483" s="6">
+        <f t="shared" si="326"/>
+        <v>0</v>
+      </c>
+      <c r="J1483" s="10">
+        <f>IF(B1483="Pending","",C1483/(VLOOKUP(B1483,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1783.6528641045843</v>
+      </c>
+      <c r="K1483" s="10">
+        <f>IF(B1483="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1483,A:A,"&gt;="&amp;A1483-30,B:B,B1483)/(VLOOKUP(B1483,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>974.40835740756961</v>
+      </c>
+      <c r="L1483" s="13">
+        <f>IF(B1483="Pending","",(G1483/C1483)/(VLOOKUP(B1483,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1484" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1484" s="1">
+        <v>44057</v>
+      </c>
+      <c r="B1484" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1484" s="2">
+        <v>29440</v>
+      </c>
+      <c r="D1484" s="6">
+        <f t="shared" si="322"/>
+        <v>0.22566649803001732</v>
+      </c>
+      <c r="E1484" s="7">
+        <f t="shared" si="323"/>
+        <v>324</v>
+      </c>
+      <c r="F1484" s="6">
+        <f t="shared" si="324"/>
+        <v>0.16640986132511557</v>
+      </c>
+      <c r="G1484" s="2">
+        <v>14</v>
+      </c>
+      <c r="H1484" s="7">
+        <f t="shared" si="325"/>
+        <v>0</v>
+      </c>
+      <c r="I1484" s="6">
+        <f t="shared" si="326"/>
+        <v>1.0558069381598794E-2</v>
+      </c>
+      <c r="J1484" s="10">
+        <f>IF(B1484="Pending","",C1484/(VLOOKUP(B1484,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>3090.9823948394032</v>
+      </c>
+      <c r="K1484" s="10">
+        <f>IF(B1484="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1484,A:A,"&gt;="&amp;A1484-30,B:B,B1484)/(VLOOKUP(B1484,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1412.7805402499664</v>
+      </c>
+      <c r="L1484" s="13">
+        <f>IF(B1484="Pending","",(G1484/C1484)/(VLOOKUP(B1484,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>4.9928550247453884E-5</v>
+      </c>
+    </row>
+    <row r="1485" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1485" s="1">
+        <v>44057</v>
+      </c>
+      <c r="B1485" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1485" s="2">
+        <v>23203</v>
+      </c>
+      <c r="D1485" s="6">
+        <f t="shared" si="322"/>
+        <v>0.17785800794125312</v>
+      </c>
+      <c r="E1485" s="7">
+        <f t="shared" si="323"/>
+        <v>309</v>
+      </c>
+      <c r="F1485" s="6">
+        <f t="shared" si="324"/>
+        <v>0.15870570107858242</v>
+      </c>
+      <c r="G1485" s="2">
+        <v>25</v>
+      </c>
+      <c r="H1485" s="7">
+        <f t="shared" si="325"/>
+        <v>1</v>
+      </c>
+      <c r="I1485" s="6">
+        <f t="shared" si="326"/>
+        <v>1.8853695324283559E-2</v>
+      </c>
+      <c r="J1485" s="10">
+        <f>IF(B1485="Pending","",C1485/(VLOOKUP(B1485,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>2645.1751175924724</v>
+      </c>
+      <c r="K1485" s="10">
+        <f>IF(B1485="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1485,A:A,"&gt;="&amp;A1485-30,B:B,B1485)/(VLOOKUP(B1485,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1162.9285598655695</v>
+      </c>
+      <c r="L1485" s="13">
+        <f>IF(B1485="Pending","",(G1485/C1485)/(VLOOKUP(B1485,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1.228304823706738E-4</v>
+      </c>
+    </row>
+    <row r="1486" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1486" s="1">
+        <v>44057</v>
+      </c>
+      <c r="B1486" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1486" s="2">
+        <v>19992</v>
+      </c>
+      <c r="D1486" s="6">
+        <f t="shared" si="322"/>
+        <v>0.15324472243940579</v>
+      </c>
+      <c r="E1486" s="7">
+        <f t="shared" si="323"/>
+        <v>279</v>
+      </c>
+      <c r="F1486" s="6">
+        <f t="shared" si="324"/>
+        <v>0.14329738058551617</v>
+      </c>
+      <c r="G1486" s="2">
+        <v>73</v>
+      </c>
+      <c r="H1486" s="7">
+        <f t="shared" si="325"/>
+        <v>1</v>
+      </c>
+      <c r="I1486" s="6">
+        <f t="shared" si="326"/>
+        <v>5.5052790346907993E-2</v>
+      </c>
+      <c r="J1486" s="10">
+        <f>IF(B1486="Pending","",C1486/(VLOOKUP(B1486,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>2345.0476235161641</v>
+      </c>
+      <c r="K1486" s="10">
+        <f>IF(B1486="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1486,A:A,"&gt;="&amp;A1486-30,B:B,B1486)/(VLOOKUP(B1486,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1092.994885750481</v>
+      </c>
+      <c r="L1486" s="13">
+        <f>IF(B1486="Pending","",(G1486/C1486)/(VLOOKUP(B1486,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>4.2831377378052055E-4</v>
+      </c>
+    </row>
+    <row r="1487" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1487" s="1">
+        <v>44057</v>
+      </c>
+      <c r="B1487" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1487" s="2">
+        <v>16500</v>
+      </c>
+      <c r="D1487" s="6">
+        <f t="shared" si="322"/>
+        <v>0.12647748700731271</v>
+      </c>
+      <c r="E1487" s="7">
+        <f t="shared" si="323"/>
+        <v>300</v>
+      </c>
+      <c r="F1487" s="6">
+        <f t="shared" si="324"/>
+        <v>0.15408320493066255</v>
+      </c>
+      <c r="G1487" s="2">
+        <v>142</v>
+      </c>
+      <c r="H1487" s="7">
+        <f t="shared" si="325"/>
+        <v>1</v>
+      </c>
+      <c r="I1487" s="6">
+        <f t="shared" si="326"/>
+        <v>0.10708898944193061</v>
+      </c>
+      <c r="J1487" s="10">
+        <f>IF(B1487="Pending","",C1487/(VLOOKUP(B1487,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1842.8321090599211</v>
+      </c>
+      <c r="K1487" s="10">
+        <f>IF(B1487="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1487,A:A,"&gt;="&amp;A1487-30,B:B,B1487)/(VLOOKUP(B1487,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>914.93822044962872</v>
+      </c>
+      <c r="L1487" s="13">
+        <f>IF(B1487="Pending","",(G1487/C1487)/(VLOOKUP(B1487,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>9.6118332226449526E-4</v>
+      </c>
+    </row>
+    <row r="1488" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1488" s="1">
+        <v>44057</v>
+      </c>
+      <c r="B1488" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1488" s="2">
+        <v>10621</v>
+      </c>
+      <c r="D1488" s="6">
+        <f t="shared" si="322"/>
+        <v>8.1413175121495041E-2</v>
+      </c>
+      <c r="E1488" s="7">
+        <f t="shared" si="323"/>
+        <v>211</v>
+      </c>
+      <c r="F1488" s="6">
+        <f t="shared" si="324"/>
+        <v>0.108371854134566</v>
+      </c>
+      <c r="G1488" s="2">
+        <v>273</v>
+      </c>
+      <c r="H1488" s="7">
+        <f t="shared" si="325"/>
+        <v>4</v>
+      </c>
+      <c r="I1488" s="6">
+        <f t="shared" si="326"/>
+        <v>0.20588235294117646</v>
+      </c>
+      <c r="J1488" s="10">
+        <f>IF(B1488="Pending","",C1488/(VLOOKUP(B1488,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1347.777645240458</v>
+      </c>
+      <c r="K1488" s="10">
+        <f>IF(B1488="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1488,A:A,"&gt;="&amp;A1488-30,B:B,B1488)/(VLOOKUP(B1488,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>739.30444978541641</v>
+      </c>
+      <c r="L1488" s="13">
+        <f>IF(B1488="Pending","",(G1488/C1488)/(VLOOKUP(B1488,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>3.261745546489515E-3</v>
+      </c>
+    </row>
+    <row r="1489" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1489" s="1">
+        <v>44057</v>
+      </c>
+      <c r="B1489" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1489" s="2">
+        <v>5705</v>
+      </c>
+      <c r="D1489" s="6">
+        <f t="shared" si="322"/>
+        <v>4.3730549295558724E-2</v>
+      </c>
+      <c r="E1489" s="7">
+        <f t="shared" si="323"/>
+        <v>116</v>
+      </c>
+      <c r="F1489" s="6">
+        <f t="shared" si="324"/>
+        <v>5.9578839239856192E-2</v>
+      </c>
+      <c r="G1489" s="2">
+        <v>384</v>
+      </c>
+      <c r="H1489" s="7">
+        <f t="shared" si="325"/>
+        <v>4</v>
+      </c>
+      <c r="I1489" s="6">
+        <f t="shared" si="326"/>
+        <v>0.2895927601809955</v>
+      </c>
+      <c r="J1489" s="10">
+        <f>IF(B1489="Pending","",C1489/(VLOOKUP(B1489,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1189.5403849481961</v>
+      </c>
+      <c r="K1489" s="10">
+        <f>IF(B1489="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1489,A:A,"&gt;="&amp;A1489-30,B:B,B1489)/(VLOOKUP(B1489,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>671.81404387433622</v>
+      </c>
+      <c r="L1489" s="13">
+        <f>IF(B1489="Pending","",(G1489/C1489)/(VLOOKUP(B1489,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1.4034570220169349E-2</v>
+      </c>
+    </row>
+    <row r="1490" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1490" s="1">
+        <v>44057</v>
+      </c>
+      <c r="B1490" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1490" s="2">
+        <v>3152</v>
+      </c>
+      <c r="D1490" s="6">
+        <f t="shared" si="322"/>
+        <v>2.4161032669518159E-2</v>
+      </c>
+      <c r="E1490" s="7">
+        <f t="shared" si="323"/>
+        <v>70</v>
+      </c>
+      <c r="F1490" s="6">
+        <f t="shared" si="324"/>
+        <v>3.5952747817154594E-2</v>
+      </c>
+      <c r="G1490" s="2">
+        <v>411</v>
+      </c>
+      <c r="H1490" s="7">
+        <f t="shared" si="325"/>
+        <v>2</v>
+      </c>
+      <c r="I1490" s="6">
+        <f t="shared" si="326"/>
+        <v>0.30995475113122173</v>
+      </c>
+      <c r="J1490" s="10">
+        <f>IF(B1490="Pending","",C1490/(VLOOKUP(B1490,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1423.8669371050146</v>
+      </c>
+      <c r="K1490" s="10">
+        <f>IF(B1490="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1490,A:A,"&gt;="&amp;A1490-30,B:B,B1490)/(VLOOKUP(B1490,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>791.43872899999542</v>
+      </c>
+      <c r="L1490" s="13">
+        <f>IF(B1490="Pending","",(G1490/C1490)/(VLOOKUP(B1490,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>5.8903189251985788E-2</v>
+      </c>
+    </row>
+    <row r="1491" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1491" s="1">
+        <v>44057</v>
+      </c>
+      <c r="B1491" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1491" s="2">
+        <v>212</v>
+      </c>
+      <c r="D1491" s="6">
+        <f t="shared" si="322"/>
+        <v>1.6250440754878965E-3</v>
+      </c>
+      <c r="E1491" s="7">
+        <f t="shared" si="323"/>
+        <v>1</v>
+      </c>
+      <c r="F1491" s="6">
+        <f t="shared" si="324"/>
+        <v>5.1361068310220854E-4</v>
+      </c>
+      <c r="G1491" s="2">
+        <v>0</v>
+      </c>
+      <c r="H1491" s="7">
+        <f t="shared" si="325"/>
+        <v>0</v>
+      </c>
+      <c r="I1491" s="6">
+        <f t="shared" si="326"/>
+        <v>0</v>
+      </c>
+      <c r="J1491" s="10" t="str">
+        <f>IF(B1491="Pending","",C1491/(VLOOKUP(B1491,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v/>
+      </c>
+      <c r="K1491" s="10" t="str">
+        <f>IF(B1491="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1491,A:A,"&gt;="&amp;A1491-30,B:B,B1491)/(VLOOKUP(B1491,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v/>
+      </c>
+      <c r="L1491" s="13" t="str">
+        <f>IF(B1491="Pending","",(G1491/C1491)/(VLOOKUP(B1491,Population!$A$2:$B$10,2,FALSE)/100000))</f>
         <v/>
       </c>
     </row>

--- a/TN_Age.xlsx
+++ b/TN_Age.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1515" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1525" uniqueCount="33">
   <si>
     <t>0-10</t>
   </si>
@@ -482,11 +482,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M1491"/>
+  <dimension ref="A1:M1501"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1470" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A1491" sqref="A1491"/>
+      <pane ySplit="1" topLeftCell="A1482" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A1502" sqref="A1502"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -64922,11 +64922,11 @@
         <v>0</v>
       </c>
       <c r="H1491" s="7">
-        <f t="shared" si="325"/>
+        <f t="shared" ref="H1491:H1501" si="327">G1491-SUMIFS(G:G,A:A,A1491-1,B:B,B1491)</f>
         <v>0</v>
       </c>
       <c r="I1491" s="6">
-        <f t="shared" si="326"/>
+        <f t="shared" ref="I1491:I1501" si="328">G1491/SUMIF(A:A,A1491,G:G)</f>
         <v>0</v>
       </c>
       <c r="J1491" s="10" t="str">
@@ -64939,6 +64939,466 @@
       </c>
       <c r="L1491" s="13" t="str">
         <f>IF(B1491="Pending","",(G1491/C1491)/(VLOOKUP(B1491,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="1492" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1492" s="1">
+        <v>44058</v>
+      </c>
+      <c r="B1492" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1492" s="2">
+        <v>6434</v>
+      </c>
+      <c r="D1492" s="6">
+        <f t="shared" ref="D1492:D1501" si="329">C1492/SUMIF(A:A,A1492,C:C)</f>
+        <v>4.8836026626792262E-2</v>
+      </c>
+      <c r="E1492" s="7">
+        <f t="shared" ref="E1492:E1501" si="330">C1492-SUMIFS(C:C,A:A,A1492-1,B:B,B1492)</f>
+        <v>82</v>
+      </c>
+      <c r="F1492" s="6">
+        <f t="shared" ref="F1492:F1501" si="331">E1492/SUMIF(A:A,A1492,E:E)</f>
+        <v>6.3615205585725365E-2</v>
+      </c>
+      <c r="G1492" s="2">
+        <v>4</v>
+      </c>
+      <c r="H1492" s="7">
+        <f t="shared" si="327"/>
+        <v>0</v>
+      </c>
+      <c r="I1492" s="6">
+        <f t="shared" si="328"/>
+        <v>2.9739776951672862E-3</v>
+      </c>
+      <c r="J1492" s="10">
+        <f>IF(B1492="Pending","",C1492/(VLOOKUP(B1492,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>710.20626226634602</v>
+      </c>
+      <c r="K1492" s="10">
+        <f>IF(B1492="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1492,A:A,"&gt;="&amp;A1492-30,B:B,B1492)/(VLOOKUP(B1492,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>365.81031289255066</v>
+      </c>
+      <c r="L1492" s="13">
+        <f>IF(B1492="Pending","",(G1492/C1492)/(VLOOKUP(B1492,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>6.862500286415027E-5</v>
+      </c>
+    </row>
+    <row r="1493" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1493" s="1">
+        <v>44058</v>
+      </c>
+      <c r="B1493" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1493" s="2">
+        <v>15483</v>
+      </c>
+      <c r="D1493" s="6">
+        <f t="shared" si="329"/>
+        <v>0.11752070255869204</v>
+      </c>
+      <c r="E1493" s="7">
+        <f t="shared" si="330"/>
+        <v>202</v>
+      </c>
+      <c r="F1493" s="6">
+        <f t="shared" si="331"/>
+        <v>0.15671062839410396</v>
+      </c>
+      <c r="G1493" s="2">
+        <v>0</v>
+      </c>
+      <c r="H1493" s="7">
+        <f t="shared" si="327"/>
+        <v>0</v>
+      </c>
+      <c r="I1493" s="6">
+        <f t="shared" si="328"/>
+        <v>0</v>
+      </c>
+      <c r="J1493" s="10">
+        <f>IF(B1493="Pending","",C1493/(VLOOKUP(B1493,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1807.2310251247484</v>
+      </c>
+      <c r="K1493" s="10">
+        <f>IF(B1493="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1493,A:A,"&gt;="&amp;A1493-30,B:B,B1493)/(VLOOKUP(B1493,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>960.28480550935251</v>
+      </c>
+      <c r="L1493" s="13">
+        <f>IF(B1493="Pending","",(G1493/C1493)/(VLOOKUP(B1493,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1494" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1494" s="1">
+        <v>44058</v>
+      </c>
+      <c r="B1494" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1494" s="2">
+        <v>29664</v>
+      </c>
+      <c r="D1494" s="6">
+        <f t="shared" si="329"/>
+        <v>0.22515882714596916</v>
+      </c>
+      <c r="E1494" s="7">
+        <f t="shared" si="330"/>
+        <v>224</v>
+      </c>
+      <c r="F1494" s="6">
+        <f t="shared" si="331"/>
+        <v>0.17377812257564004</v>
+      </c>
+      <c r="G1494" s="2">
+        <v>14</v>
+      </c>
+      <c r="H1494" s="7">
+        <f t="shared" si="327"/>
+        <v>0</v>
+      </c>
+      <c r="I1494" s="6">
+        <f t="shared" si="328"/>
+        <v>1.0408921933085501E-2</v>
+      </c>
+      <c r="J1494" s="10">
+        <f>IF(B1494="Pending","",C1494/(VLOOKUP(B1494,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>3114.5007391479639</v>
+      </c>
+      <c r="K1494" s="10">
+        <f>IF(B1494="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1494,A:A,"&gt;="&amp;A1494-30,B:B,B1494)/(VLOOKUP(B1494,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1379.1829055234512</v>
+      </c>
+      <c r="L1494" s="13">
+        <f>IF(B1494="Pending","",(G1494/C1494)/(VLOOKUP(B1494,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>4.9551527753675912E-5</v>
+      </c>
+    </row>
+    <row r="1495" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1495" s="1">
+        <v>44058</v>
+      </c>
+      <c r="B1495" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1495" s="2">
+        <v>23412</v>
+      </c>
+      <c r="D1495" s="6">
+        <f t="shared" si="329"/>
+        <v>0.17770423614958974</v>
+      </c>
+      <c r="E1495" s="7">
+        <f t="shared" si="330"/>
+        <v>209</v>
+      </c>
+      <c r="F1495" s="6">
+        <f t="shared" si="331"/>
+        <v>0.16214119472459271</v>
+      </c>
+      <c r="G1495" s="2">
+        <v>26</v>
+      </c>
+      <c r="H1495" s="7">
+        <f t="shared" si="327"/>
+        <v>1</v>
+      </c>
+      <c r="I1495" s="6">
+        <f t="shared" si="328"/>
+        <v>1.9330855018587362E-2</v>
+      </c>
+      <c r="J1495" s="10">
+        <f>IF(B1495="Pending","",C1495/(VLOOKUP(B1495,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>2669.0014158977269</v>
+      </c>
+      <c r="K1495" s="10">
+        <f>IF(B1495="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1495,A:A,"&gt;="&amp;A1495-30,B:B,B1495)/(VLOOKUP(B1495,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1143.5483172249317</v>
+      </c>
+      <c r="L1495" s="13">
+        <f>IF(B1495="Pending","",(G1495/C1495)/(VLOOKUP(B1495,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1.26603327769717E-4</v>
+      </c>
+    </row>
+    <row r="1496" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1496" s="1">
+        <v>44058</v>
+      </c>
+      <c r="B1496" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1496" s="2">
+        <v>20179</v>
+      </c>
+      <c r="D1496" s="6">
+        <f t="shared" si="329"/>
+        <v>0.15316477794560787</v>
+      </c>
+      <c r="E1496" s="7">
+        <f t="shared" si="330"/>
+        <v>187</v>
+      </c>
+      <c r="F1496" s="6">
+        <f t="shared" si="331"/>
+        <v>0.14507370054305663</v>
+      </c>
+      <c r="G1496" s="2">
+        <v>73</v>
+      </c>
+      <c r="H1496" s="7">
+        <f t="shared" si="327"/>
+        <v>0</v>
+      </c>
+      <c r="I1496" s="6">
+        <f t="shared" si="328"/>
+        <v>5.4275092936802972E-2</v>
+      </c>
+      <c r="J1496" s="10">
+        <f>IF(B1496="Pending","",C1496/(VLOOKUP(B1496,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>2366.9825927837469</v>
+      </c>
+      <c r="K1496" s="10">
+        <f>IF(B1496="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1496,A:A,"&gt;="&amp;A1496-30,B:B,B1496)/(VLOOKUP(B1496,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1073.7578004035097</v>
+      </c>
+      <c r="L1496" s="13">
+        <f>IF(B1496="Pending","",(G1496/C1496)/(VLOOKUP(B1496,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>4.2434456441945416E-4</v>
+      </c>
+    </row>
+    <row r="1497" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1497" s="1">
+        <v>44058</v>
+      </c>
+      <c r="B1497" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1497" s="2">
+        <v>16684</v>
+      </c>
+      <c r="D1497" s="6">
+        <f t="shared" si="329"/>
+        <v>0.12663665965828444</v>
+      </c>
+      <c r="E1497" s="7">
+        <f t="shared" si="330"/>
+        <v>184</v>
+      </c>
+      <c r="F1497" s="6">
+        <f t="shared" si="331"/>
+        <v>0.14274631497284718</v>
+      </c>
+      <c r="G1497" s="2">
+        <v>143</v>
+      </c>
+      <c r="H1497" s="7">
+        <f t="shared" si="327"/>
+        <v>1</v>
+      </c>
+      <c r="I1497" s="6">
+        <f t="shared" si="328"/>
+        <v>0.10631970260223049</v>
+      </c>
+      <c r="J1497" s="10">
+        <f>IF(B1497="Pending","",C1497/(VLOOKUP(B1497,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1863.3824792458015</v>
+      </c>
+      <c r="K1497" s="10">
+        <f>IF(B1497="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1497,A:A,"&gt;="&amp;A1497-30,B:B,B1497)/(VLOOKUP(B1497,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>900.53062396061478</v>
+      </c>
+      <c r="L1497" s="13">
+        <f>IF(B1497="Pending","",(G1497/C1497)/(VLOOKUP(B1497,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>9.5727712849752152E-4</v>
+      </c>
+    </row>
+    <row r="1498" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1498" s="1">
+        <v>44058</v>
+      </c>
+      <c r="B1498" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1498" s="2">
+        <v>10734</v>
+      </c>
+      <c r="D1498" s="6">
+        <f t="shared" si="329"/>
+        <v>8.1474340971710926E-2</v>
+      </c>
+      <c r="E1498" s="7">
+        <f t="shared" si="330"/>
+        <v>113</v>
+      </c>
+      <c r="F1498" s="6">
+        <f t="shared" si="331"/>
+        <v>8.7664856477889838E-2</v>
+      </c>
+      <c r="G1498" s="2">
+        <v>275</v>
+      </c>
+      <c r="H1498" s="7">
+        <f t="shared" si="327"/>
+        <v>2</v>
+      </c>
+      <c r="I1498" s="6">
+        <f t="shared" si="328"/>
+        <v>0.20446096654275092</v>
+      </c>
+      <c r="J1498" s="10">
+        <f>IF(B1498="Pending","",C1498/(VLOOKUP(B1498,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1362.1170552689084</v>
+      </c>
+      <c r="K1498" s="10">
+        <f>IF(B1498="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1498,A:A,"&gt;="&amp;A1498-30,B:B,B1498)/(VLOOKUP(B1498,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>733.72096269469239</v>
+      </c>
+      <c r="L1498" s="13">
+        <f>IF(B1498="Pending","",(G1498/C1498)/(VLOOKUP(B1498,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>3.2510522002073151E-3</v>
+      </c>
+    </row>
+    <row r="1499" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1499" s="1">
+        <v>44058</v>
+      </c>
+      <c r="B1499" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1499" s="2">
+        <v>5762</v>
+      </c>
+      <c r="D1499" s="6">
+        <f t="shared" si="329"/>
+        <v>4.373534122219102E-2</v>
+      </c>
+      <c r="E1499" s="7">
+        <f t="shared" si="330"/>
+        <v>57</v>
+      </c>
+      <c r="F1499" s="6">
+        <f t="shared" si="331"/>
+        <v>4.4220325833979827E-2</v>
+      </c>
+      <c r="G1499" s="2">
+        <v>389</v>
+      </c>
+      <c r="H1499" s="7">
+        <f t="shared" si="327"/>
+        <v>5</v>
+      </c>
+      <c r="I1499" s="6">
+        <f t="shared" si="328"/>
+        <v>0.28921933085501861</v>
+      </c>
+      <c r="J1499" s="10">
+        <f>IF(B1499="Pending","",C1499/(VLOOKUP(B1499,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1201.4253633780029</v>
+      </c>
+      <c r="K1499" s="10">
+        <f>IF(B1499="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1499,A:A,"&gt;="&amp;A1499-30,B:B,B1499)/(VLOOKUP(B1499,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>662.84818295360481</v>
+      </c>
+      <c r="L1499" s="13">
+        <f>IF(B1499="Pending","",(G1499/C1499)/(VLOOKUP(B1499,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1.4076668704198724E-2</v>
+      </c>
+    </row>
+    <row r="1500" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1500" s="1">
+        <v>44058</v>
+      </c>
+      <c r="B1500" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1500" s="2">
+        <v>3186</v>
+      </c>
+      <c r="D1500" s="6">
+        <f t="shared" si="329"/>
+        <v>2.4182713837886251E-2</v>
+      </c>
+      <c r="E1500" s="7">
+        <f t="shared" si="330"/>
+        <v>34</v>
+      </c>
+      <c r="F1500" s="6">
+        <f t="shared" si="331"/>
+        <v>2.6377036462373934E-2</v>
+      </c>
+      <c r="G1500" s="2">
+        <v>421</v>
+      </c>
+      <c r="H1500" s="7">
+        <f t="shared" si="327"/>
+        <v>10</v>
+      </c>
+      <c r="I1500" s="6">
+        <f t="shared" si="328"/>
+        <v>0.31301115241635685</v>
+      </c>
+      <c r="J1500" s="10">
+        <f>IF(B1500="Pending","",C1500/(VLOOKUP(B1500,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1439.2259078732793</v>
+      </c>
+      <c r="K1500" s="10">
+        <f>IF(B1500="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1500,A:A,"&gt;="&amp;A1500-30,B:B,B1500)/(VLOOKUP(B1500,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>789.18005682819182</v>
+      </c>
+      <c r="L1500" s="13">
+        <f>IF(B1500="Pending","",(G1500/C1500)/(VLOOKUP(B1500,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>5.9692466059593996E-2</v>
+      </c>
+    </row>
+    <row r="1501" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1501" s="1">
+        <v>44058</v>
+      </c>
+      <c r="B1501" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1501" s="2">
+        <v>209</v>
+      </c>
+      <c r="D1501" s="6">
+        <f t="shared" si="329"/>
+        <v>1.5863738832762795E-3</v>
+      </c>
+      <c r="E1501" s="7">
+        <f t="shared" si="330"/>
+        <v>-3</v>
+      </c>
+      <c r="F1501" s="6">
+        <f t="shared" si="331"/>
+        <v>-2.3273855702094647E-3</v>
+      </c>
+      <c r="G1501" s="2">
+        <v>0</v>
+      </c>
+      <c r="H1501" s="7">
+        <f t="shared" si="327"/>
+        <v>0</v>
+      </c>
+      <c r="I1501" s="6">
+        <f t="shared" si="328"/>
+        <v>0</v>
+      </c>
+      <c r="J1501" s="10" t="str">
+        <f>IF(B1501="Pending","",C1501/(VLOOKUP(B1501,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v/>
+      </c>
+      <c r="K1501" s="10" t="str">
+        <f>IF(B1501="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1501,A:A,"&gt;="&amp;A1501-30,B:B,B1501)/(VLOOKUP(B1501,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v/>
+      </c>
+      <c r="L1501" s="13" t="str">
+        <f>IF(B1501="Pending","",(G1501/C1501)/(VLOOKUP(B1501,Population!$A$2:$B$10,2,FALSE)/100000))</f>
         <v/>
       </c>
     </row>

--- a/TN_Age.xlsx
+++ b/TN_Age.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1525" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1535" uniqueCount="33">
   <si>
     <t>0-10</t>
   </si>
@@ -482,11 +482,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M1501"/>
+  <dimension ref="A1:M1511"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1482" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A1502" sqref="A1502"/>
+      <pane ySplit="1" topLeftCell="A1491" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A1512" sqref="A1512"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -64508,11 +64508,11 @@
         <v>4</v>
       </c>
       <c r="H1482" s="7">
-        <f t="shared" ref="H1482:H1491" si="325">G1482-SUMIFS(G:G,A:A,A1482-1,B:B,B1482)</f>
+        <f t="shared" ref="H1482:H1490" si="325">G1482-SUMIFS(G:G,A:A,A1482-1,B:B,B1482)</f>
         <v>0</v>
       </c>
       <c r="I1482" s="6">
-        <f t="shared" ref="I1482:I1491" si="326">G1482/SUMIF(A:A,A1482,G:G)</f>
+        <f t="shared" ref="I1482:I1490" si="326">G1482/SUMIF(A:A,A1482,G:G)</f>
         <v>3.0165912518853697E-3</v>
       </c>
       <c r="J1482" s="10">
@@ -65399,6 +65399,466 @@
       </c>
       <c r="L1501" s="13" t="str">
         <f>IF(B1501="Pending","",(G1501/C1501)/(VLOOKUP(B1501,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="1502" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1502" s="1">
+        <v>44059</v>
+      </c>
+      <c r="B1502" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1502">
+        <v>6554</v>
+      </c>
+      <c r="D1502" s="6">
+        <f t="shared" ref="D1502:D1511" si="332">C1502/SUMIF(A:A,A1502,C:C)</f>
+        <v>4.9017261495198493E-2</v>
+      </c>
+      <c r="E1502" s="7">
+        <f t="shared" ref="E1502:E1511" si="333">C1502-SUMIFS(C:C,A:A,A1502-1,B:B,B1502)</f>
+        <v>120</v>
+      </c>
+      <c r="F1502" s="6">
+        <f t="shared" ref="F1502:F1511" si="334">E1502/SUMIF(A:A,A1502,E:E)</f>
+        <v>6.1193268740438553E-2</v>
+      </c>
+      <c r="G1502" s="2">
+        <v>4</v>
+      </c>
+      <c r="H1502" s="7">
+        <f t="shared" ref="H1502:H1511" si="335">G1502-SUMIFS(G:G,A:A,A1502-1,B:B,B1502)</f>
+        <v>0</v>
+      </c>
+      <c r="I1502" s="6">
+        <f t="shared" ref="I1502:I1511" si="336">G1502/SUMIF(A:A,A1502,G:G)</f>
+        <v>2.9282576866764276E-3</v>
+      </c>
+      <c r="J1502" s="10">
+        <f>IF(B1502="Pending","",C1502/(VLOOKUP(B1502,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>723.45226031918435</v>
+      </c>
+      <c r="K1502" s="10">
+        <f>IF(B1502="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1502,A:A,"&gt;="&amp;A1502-30,B:B,B1502)/(VLOOKUP(B1502,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>366.03107952676464</v>
+      </c>
+      <c r="L1502" s="13">
+        <f>IF(B1502="Pending","",(G1502/C1502)/(VLOOKUP(B1502,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>6.7368518222145693E-5</v>
+      </c>
+    </row>
+    <row r="1503" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1503" s="1">
+        <v>44059</v>
+      </c>
+      <c r="B1503" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1503">
+        <v>15829</v>
+      </c>
+      <c r="D1503" s="6">
+        <f t="shared" si="332"/>
+        <v>0.1183848386035241</v>
+      </c>
+      <c r="E1503" s="7">
+        <f t="shared" si="333"/>
+        <v>346</v>
+      </c>
+      <c r="F1503" s="6">
+        <f t="shared" si="334"/>
+        <v>0.17644059153493116</v>
+      </c>
+      <c r="G1503" s="2">
+        <v>0</v>
+      </c>
+      <c r="H1503" s="7">
+        <f t="shared" si="335"/>
+        <v>0</v>
+      </c>
+      <c r="I1503" s="6">
+        <f t="shared" si="336"/>
+        <v>0</v>
+      </c>
+      <c r="J1503" s="10">
+        <f>IF(B1503="Pending","",C1503/(VLOOKUP(B1503,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1847.6173801394848</v>
+      </c>
+      <c r="K1503" s="10">
+        <f>IF(B1503="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1503,A:A,"&gt;="&amp;A1503-30,B:B,B1503)/(VLOOKUP(B1503,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>955.03224488604872</v>
+      </c>
+      <c r="L1503" s="13">
+        <f>IF(B1503="Pending","",(G1503/C1503)/(VLOOKUP(B1503,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1504" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1504" s="1">
+        <v>44059</v>
+      </c>
+      <c r="B1504" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1504">
+        <v>30046</v>
+      </c>
+      <c r="D1504" s="6">
+        <f t="shared" si="332"/>
+        <v>0.22471355491070094</v>
+      </c>
+      <c r="E1504" s="7">
+        <f t="shared" si="333"/>
+        <v>382</v>
+      </c>
+      <c r="F1504" s="6">
+        <f t="shared" si="334"/>
+        <v>0.19479857215706273</v>
+      </c>
+      <c r="G1504" s="2">
+        <v>15</v>
+      </c>
+      <c r="H1504" s="7">
+        <f t="shared" si="335"/>
+        <v>1</v>
+      </c>
+      <c r="I1504" s="6">
+        <f t="shared" si="336"/>
+        <v>1.0980966325036604E-2</v>
+      </c>
+      <c r="J1504" s="10">
+        <f>IF(B1504="Pending","",C1504/(VLOOKUP(B1504,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>3154.6079156027413</v>
+      </c>
+      <c r="K1504" s="10">
+        <f>IF(B1504="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1504,A:A,"&gt;="&amp;A1504-30,B:B,B1504)/(VLOOKUP(B1504,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1353.8796868700442</v>
+      </c>
+      <c r="L1504" s="13">
+        <f>IF(B1504="Pending","",(G1504/C1504)/(VLOOKUP(B1504,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>5.2415933162663995E-5</v>
+      </c>
+    </row>
+    <row r="1505" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1505" s="1">
+        <v>44059</v>
+      </c>
+      <c r="B1505" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1505">
+        <v>23727</v>
+      </c>
+      <c r="D1505" s="6">
+        <f t="shared" si="332"/>
+        <v>0.17745385466838184</v>
+      </c>
+      <c r="E1505" s="7">
+        <f t="shared" si="333"/>
+        <v>315</v>
+      </c>
+      <c r="F1505" s="6">
+        <f t="shared" si="334"/>
+        <v>0.16063233044365119</v>
+      </c>
+      <c r="G1505" s="2">
+        <v>26</v>
+      </c>
+      <c r="H1505" s="7">
+        <f t="shared" si="335"/>
+        <v>0</v>
+      </c>
+      <c r="I1505" s="6">
+        <f t="shared" si="336"/>
+        <v>1.9033674963396779E-2</v>
+      </c>
+      <c r="J1505" s="10">
+        <f>IF(B1505="Pending","",C1505/(VLOOKUP(B1505,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>2704.9118654965559</v>
+      </c>
+      <c r="K1505" s="10">
+        <f>IF(B1505="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1505,A:A,"&gt;="&amp;A1505-30,B:B,B1505)/(VLOOKUP(B1505,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1135.2262130321872</v>
+      </c>
+      <c r="L1505" s="13">
+        <f>IF(B1505="Pending","",(G1505/C1505)/(VLOOKUP(B1505,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1.2492254013337606E-4</v>
+      </c>
+    </row>
+    <row r="1506" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1506" s="1">
+        <v>44059</v>
+      </c>
+      <c r="B1506" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1506">
+        <v>20416</v>
+      </c>
+      <c r="D1506" s="6">
+        <f t="shared" si="332"/>
+        <v>0.1526909384629192</v>
+      </c>
+      <c r="E1506" s="7">
+        <f t="shared" si="333"/>
+        <v>237</v>
+      </c>
+      <c r="F1506" s="6">
+        <f t="shared" si="334"/>
+        <v>0.12085670576236614</v>
+      </c>
+      <c r="G1506" s="2">
+        <v>74</v>
+      </c>
+      <c r="H1506" s="7">
+        <f t="shared" si="335"/>
+        <v>1</v>
+      </c>
+      <c r="I1506" s="6">
+        <f t="shared" si="336"/>
+        <v>5.4172767203513911E-2</v>
+      </c>
+      <c r="J1506" s="10">
+        <f>IF(B1506="Pending","",C1506/(VLOOKUP(B1506,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>2394.7825270961384</v>
+      </c>
+      <c r="K1506" s="10">
+        <f>IF(B1506="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1506,A:A,"&gt;="&amp;A1506-30,B:B,B1506)/(VLOOKUP(B1506,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1064.1392577300239</v>
+      </c>
+      <c r="L1506" s="13">
+        <f>IF(B1506="Pending","",(G1506/C1506)/(VLOOKUP(B1506,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>4.2516400207270438E-4</v>
+      </c>
+    </row>
+    <row r="1507" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1507" s="1">
+        <v>44059</v>
+      </c>
+      <c r="B1507" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1507">
+        <v>16932</v>
+      </c>
+      <c r="D1507" s="6">
+        <f t="shared" si="332"/>
+        <v>0.12663415801597511</v>
+      </c>
+      <c r="E1507" s="7">
+        <f t="shared" si="333"/>
+        <v>248</v>
+      </c>
+      <c r="F1507" s="6">
+        <f t="shared" si="334"/>
+        <v>0.12646608873023968</v>
+      </c>
+      <c r="G1507" s="2">
+        <v>145</v>
+      </c>
+      <c r="H1507" s="7">
+        <f t="shared" si="335"/>
+        <v>2</v>
+      </c>
+      <c r="I1507" s="6">
+        <f t="shared" si="336"/>
+        <v>0.1061493411420205</v>
+      </c>
+      <c r="J1507" s="10">
+        <f>IF(B1507="Pending","",C1507/(VLOOKUP(B1507,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1891.0808042789447</v>
+      </c>
+      <c r="K1507" s="10">
+        <f>IF(B1507="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1507,A:A,"&gt;="&amp;A1507-30,B:B,B1507)/(VLOOKUP(B1507,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>896.06315218107568</v>
+      </c>
+      <c r="L1507" s="13">
+        <f>IF(B1507="Pending","",(G1507/C1507)/(VLOOKUP(B1507,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>9.5644845268306219E-4</v>
+      </c>
+    </row>
+    <row r="1508" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1508" s="1">
+        <v>44059</v>
+      </c>
+      <c r="B1508" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1508">
+        <v>10907</v>
+      </c>
+      <c r="D1508" s="6">
+        <f t="shared" si="332"/>
+        <v>8.1573279085768988E-2</v>
+      </c>
+      <c r="E1508" s="7">
+        <f t="shared" si="333"/>
+        <v>173</v>
+      </c>
+      <c r="F1508" s="6">
+        <f t="shared" si="334"/>
+        <v>8.8220295767465581E-2</v>
+      </c>
+      <c r="G1508" s="2">
+        <v>277</v>
+      </c>
+      <c r="H1508" s="7">
+        <f t="shared" si="335"/>
+        <v>2</v>
+      </c>
+      <c r="I1508" s="6">
+        <f t="shared" si="336"/>
+        <v>0.2027818448023426</v>
+      </c>
+      <c r="J1508" s="10">
+        <f>IF(B1508="Pending","",C1508/(VLOOKUP(B1508,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1384.0703113301643</v>
+      </c>
+      <c r="K1508" s="10">
+        <f>IF(B1508="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1508,A:A,"&gt;="&amp;A1508-30,B:B,B1508)/(VLOOKUP(B1508,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>730.29473197992991</v>
+      </c>
+      <c r="L1508" s="13">
+        <f>IF(B1508="Pending","",(G1508/C1508)/(VLOOKUP(B1508,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>3.22275503665403E-3</v>
+      </c>
+    </row>
+    <row r="1509" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1509" s="1">
+        <v>44059</v>
+      </c>
+      <c r="B1509" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1509">
+        <v>5865</v>
+      </c>
+      <c r="D1509" s="6">
+        <f t="shared" si="332"/>
+        <v>4.3864241481437159E-2</v>
+      </c>
+      <c r="E1509" s="7">
+        <f t="shared" si="333"/>
+        <v>103</v>
+      </c>
+      <c r="F1509" s="6">
+        <f t="shared" si="334"/>
+        <v>5.2524222335543089E-2</v>
+      </c>
+      <c r="G1509" s="2">
+        <v>392</v>
+      </c>
+      <c r="H1509" s="7">
+        <f t="shared" si="335"/>
+        <v>3</v>
+      </c>
+      <c r="I1509" s="6">
+        <f t="shared" si="336"/>
+        <v>0.28696925329428991</v>
+      </c>
+      <c r="J1509" s="10">
+        <f>IF(B1509="Pending","",C1509/(VLOOKUP(B1509,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1222.9017279090572</v>
+      </c>
+      <c r="K1509" s="10">
+        <f>IF(B1509="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1509,A:A,"&gt;="&amp;A1509-30,B:B,B1509)/(VLOOKUP(B1509,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>667.01835082371247</v>
+      </c>
+      <c r="L1509" s="13">
+        <f>IF(B1509="Pending","",(G1509/C1509)/(VLOOKUP(B1509,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1.3936110870265847E-2</v>
+      </c>
+    </row>
+    <row r="1510" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1510" s="1">
+        <v>44059</v>
+      </c>
+      <c r="B1510" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1510">
+        <v>3226</v>
+      </c>
+      <c r="D1510" s="6">
+        <f t="shared" si="332"/>
+        <v>2.412720256080414E-2</v>
+      </c>
+      <c r="E1510" s="7">
+        <f t="shared" si="333"/>
+        <v>40</v>
+      </c>
+      <c r="F1510" s="6">
+        <f t="shared" si="334"/>
+        <v>2.0397756246812851E-2</v>
+      </c>
+      <c r="G1510" s="2">
+        <v>433</v>
+      </c>
+      <c r="H1510" s="7">
+        <f t="shared" si="335"/>
+        <v>12</v>
+      </c>
+      <c r="I1510" s="6">
+        <f t="shared" si="336"/>
+        <v>0.3169838945827233</v>
+      </c>
+      <c r="J1510" s="10">
+        <f>IF(B1510="Pending","",C1510/(VLOOKUP(B1510,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1457.2952852477085</v>
+      </c>
+      <c r="K1510" s="10">
+        <f>IF(B1510="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1510,A:A,"&gt;="&amp;A1510-30,B:B,B1510)/(VLOOKUP(B1510,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>783.75924361586306</v>
+      </c>
+      <c r="L1510" s="13">
+        <f>IF(B1510="Pending","",(G1510/C1510)/(VLOOKUP(B1510,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>6.0632675163730693E-2</v>
+      </c>
+    </row>
+    <row r="1511" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1511" s="1">
+        <v>44059</v>
+      </c>
+      <c r="B1511" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1511">
+        <v>206</v>
+      </c>
+      <c r="D1511" s="6">
+        <f t="shared" si="332"/>
+        <v>1.5406707152900349E-3</v>
+      </c>
+      <c r="E1511" s="7">
+        <f t="shared" si="333"/>
+        <v>-3</v>
+      </c>
+      <c r="F1511" s="6">
+        <f t="shared" si="334"/>
+        <v>-1.5298317185109638E-3</v>
+      </c>
+      <c r="G1511" s="2">
+        <v>0</v>
+      </c>
+      <c r="H1511" s="7">
+        <f t="shared" si="335"/>
+        <v>0</v>
+      </c>
+      <c r="I1511" s="6">
+        <f t="shared" si="336"/>
+        <v>0</v>
+      </c>
+      <c r="J1511" s="10" t="str">
+        <f>IF(B1511="Pending","",C1511/(VLOOKUP(B1511,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v/>
+      </c>
+      <c r="K1511" s="10" t="str">
+        <f>IF(B1511="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1511,A:A,"&gt;="&amp;A1511-30,B:B,B1511)/(VLOOKUP(B1511,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v/>
+      </c>
+      <c r="L1511" s="13" t="str">
+        <f>IF(B1511="Pending","",(G1511/C1511)/(VLOOKUP(B1511,Population!$A$2:$B$10,2,FALSE)/100000))</f>
         <v/>
       </c>
     </row>

--- a/TN_Age.xlsx
+++ b/TN_Age.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1535" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1545" uniqueCount="33">
   <si>
     <t>0-10</t>
   </si>
@@ -482,11 +482,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M1511"/>
+  <dimension ref="A1:M1521"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1491" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A1512" sqref="A1512"/>
+      <pane ySplit="1" topLeftCell="A1500" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A1521" sqref="A1521"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -65859,6 +65859,466 @@
       </c>
       <c r="L1511" s="13" t="str">
         <f>IF(B1511="Pending","",(G1511/C1511)/(VLOOKUP(B1511,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="1512" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1512" s="1">
+        <v>44060</v>
+      </c>
+      <c r="B1512" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1512" s="2">
+        <v>6603</v>
+      </c>
+      <c r="D1512" s="6">
+        <f t="shared" ref="D1512:D1521" si="337">C1512/SUMIF(A:A,A1512,C:C)</f>
+        <v>4.9004037285519206E-2</v>
+      </c>
+      <c r="E1512" s="7">
+        <f t="shared" ref="E1512:E1521" si="338">C1512-SUMIFS(C:C,A:A,A1512-1,B:B,B1512)</f>
+        <v>49</v>
+      </c>
+      <c r="F1512" s="6">
+        <f t="shared" ref="F1512:F1521" si="339">E1512/SUMIF(A:A,A1512,E:E)</f>
+        <v>4.72972972972973E-2</v>
+      </c>
+      <c r="G1512" s="2">
+        <v>4</v>
+      </c>
+      <c r="H1512" s="7">
+        <f t="shared" ref="H1512:H1521" si="340">G1512-SUMIFS(G:G,A:A,A1512-1,B:B,B1512)</f>
+        <v>0</v>
+      </c>
+      <c r="I1512" s="6">
+        <f t="shared" ref="I1512:I1521" si="341">G1512/SUMIF(A:A,A1512,G:G)</f>
+        <v>2.8839221341023791E-3</v>
+      </c>
+      <c r="J1512" s="10">
+        <f>IF(B1512="Pending","",C1512/(VLOOKUP(B1512,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>728.8610428574267</v>
+      </c>
+      <c r="K1512" s="10">
+        <f>IF(B1512="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1512,A:A,"&gt;="&amp;A1512-30,B:B,B1512)/(VLOOKUP(B1512,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>360.07038040298738</v>
+      </c>
+      <c r="L1512" s="13">
+        <f>IF(B1512="Pending","",(G1512/C1512)/(VLOOKUP(B1512,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>6.686858525336103E-5</v>
+      </c>
+    </row>
+    <row r="1513" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1513" s="1">
+        <v>44060</v>
+      </c>
+      <c r="B1513" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1513" s="2">
+        <v>15989</v>
+      </c>
+      <c r="D1513" s="6">
+        <f t="shared" si="337"/>
+        <v>0.11866205545330405</v>
+      </c>
+      <c r="E1513" s="7">
+        <f t="shared" si="338"/>
+        <v>160</v>
+      </c>
+      <c r="F1513" s="6">
+        <f t="shared" si="339"/>
+        <v>0.15444015444015444</v>
+      </c>
+      <c r="G1513" s="2">
+        <v>0</v>
+      </c>
+      <c r="H1513" s="7">
+        <f t="shared" si="340"/>
+        <v>0</v>
+      </c>
+      <c r="I1513" s="6">
+        <f t="shared" si="341"/>
+        <v>0</v>
+      </c>
+      <c r="J1513" s="10">
+        <f>IF(B1513="Pending","",C1513/(VLOOKUP(B1513,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1866.2931512445653</v>
+      </c>
+      <c r="K1513" s="10">
+        <f>IF(B1513="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1513,A:A,"&gt;="&amp;A1513-30,B:B,B1513)/(VLOOKUP(B1513,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>937.75715661384925</v>
+      </c>
+      <c r="L1513" s="13">
+        <f>IF(B1513="Pending","",(G1513/C1513)/(VLOOKUP(B1513,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1514" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1514" s="1">
+        <v>44060</v>
+      </c>
+      <c r="B1514" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1514" s="2">
+        <v>30267</v>
+      </c>
+      <c r="D1514" s="6">
+        <f t="shared" si="337"/>
+        <v>0.22462595737101468</v>
+      </c>
+      <c r="E1514" s="7">
+        <f t="shared" si="338"/>
+        <v>221</v>
+      </c>
+      <c r="F1514" s="6">
+        <f t="shared" si="339"/>
+        <v>0.21332046332046331</v>
+      </c>
+      <c r="G1514" s="2">
+        <v>15</v>
+      </c>
+      <c r="H1514" s="7">
+        <f t="shared" si="340"/>
+        <v>0</v>
+      </c>
+      <c r="I1514" s="6">
+        <f t="shared" si="341"/>
+        <v>1.0814708002883922E-2</v>
+      </c>
+      <c r="J1514" s="10">
+        <f>IF(B1514="Pending","",C1514/(VLOOKUP(B1514,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>3177.8112820857409</v>
+      </c>
+      <c r="K1514" s="10">
+        <f>IF(B1514="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1514,A:A,"&gt;="&amp;A1514-30,B:B,B1514)/(VLOOKUP(B1514,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1316.6073108453165</v>
+      </c>
+      <c r="L1514" s="13">
+        <f>IF(B1514="Pending","",(G1514/C1514)/(VLOOKUP(B1514,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>5.2033208702725818E-5</v>
+      </c>
+    </row>
+    <row r="1515" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1515" s="1">
+        <v>44060</v>
+      </c>
+      <c r="B1515" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1515" s="2">
+        <v>23875</v>
+      </c>
+      <c r="D1515" s="6">
+        <f t="shared" si="337"/>
+        <v>0.17718785252033487</v>
+      </c>
+      <c r="E1515" s="7">
+        <f t="shared" si="338"/>
+        <v>148</v>
+      </c>
+      <c r="F1515" s="6">
+        <f t="shared" si="339"/>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="G1515" s="2">
+        <v>26</v>
+      </c>
+      <c r="H1515" s="7">
+        <f t="shared" si="340"/>
+        <v>0</v>
+      </c>
+      <c r="I1515" s="6">
+        <f t="shared" si="341"/>
+        <v>1.8745493871665464E-2</v>
+      </c>
+      <c r="J1515" s="10">
+        <f>IF(B1515="Pending","",C1515/(VLOOKUP(B1515,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>2721.7840767366406</v>
+      </c>
+      <c r="K1515" s="10">
+        <f>IF(B1515="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1515,A:A,"&gt;="&amp;A1515-30,B:B,B1515)/(VLOOKUP(B1515,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1109.3478890355707</v>
+      </c>
+      <c r="L1515" s="13">
+        <f>IF(B1515="Pending","",(G1515/C1515)/(VLOOKUP(B1515,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1.2414815119349168E-4</v>
+      </c>
+    </row>
+    <row r="1516" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1516" s="1">
+        <v>44060</v>
+      </c>
+      <c r="B1516" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1516" s="2">
+        <v>20537</v>
+      </c>
+      <c r="D1516" s="6">
+        <f t="shared" si="337"/>
+        <v>0.15241494983079024</v>
+      </c>
+      <c r="E1516" s="7">
+        <f t="shared" si="338"/>
+        <v>121</v>
+      </c>
+      <c r="F1516" s="6">
+        <f t="shared" si="339"/>
+        <v>0.1167953667953668</v>
+      </c>
+      <c r="G1516" s="2">
+        <v>75</v>
+      </c>
+      <c r="H1516" s="7">
+        <f t="shared" si="340"/>
+        <v>1</v>
+      </c>
+      <c r="I1516" s="6">
+        <f t="shared" si="341"/>
+        <v>5.4073540014419608E-2</v>
+      </c>
+      <c r="J1516" s="10">
+        <f>IF(B1516="Pending","",C1516/(VLOOKUP(B1516,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>2408.9757425045746</v>
+      </c>
+      <c r="K1516" s="10">
+        <f>IF(B1516="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1516,A:A,"&gt;="&amp;A1516-30,B:B,B1516)/(VLOOKUP(B1516,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1038.3334115328673</v>
+      </c>
+      <c r="L1516" s="13">
+        <f>IF(B1516="Pending","",(G1516/C1516)/(VLOOKUP(B1516,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>4.2837062702500366E-4</v>
+      </c>
+    </row>
+    <row r="1517" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1517" s="1">
+        <v>44060</v>
+      </c>
+      <c r="B1517" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1517" s="2">
+        <v>17074</v>
+      </c>
+      <c r="D1517" s="6">
+        <f t="shared" si="337"/>
+        <v>0.12671436204951611</v>
+      </c>
+      <c r="E1517" s="7">
+        <f t="shared" si="338"/>
+        <v>142</v>
+      </c>
+      <c r="F1517" s="6">
+        <f t="shared" si="339"/>
+        <v>0.13706563706563707</v>
+      </c>
+      <c r="G1517" s="2">
+        <v>145</v>
+      </c>
+      <c r="H1517" s="7">
+        <f t="shared" si="340"/>
+        <v>0</v>
+      </c>
+      <c r="I1517" s="6">
+        <f t="shared" si="341"/>
+        <v>0.10454217736121124</v>
+      </c>
+      <c r="J1517" s="10">
+        <f>IF(B1517="Pending","",C1517/(VLOOKUP(B1517,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1906.9403290963087</v>
+      </c>
+      <c r="K1517" s="10">
+        <f>IF(B1517="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1517,A:A,"&gt;="&amp;A1517-30,B:B,B1517)/(VLOOKUP(B1517,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>878.86338582984968</v>
+      </c>
+      <c r="L1517" s="13">
+        <f>IF(B1517="Pending","",(G1517/C1517)/(VLOOKUP(B1517,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>9.484939206295894E-4</v>
+      </c>
+    </row>
+    <row r="1518" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1518" s="1">
+        <v>44060</v>
+      </c>
+      <c r="B1518" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1518" s="2">
+        <v>11025</v>
+      </c>
+      <c r="D1518" s="6">
+        <f t="shared" si="337"/>
+        <v>8.1821825090542061E-2</v>
+      </c>
+      <c r="E1518" s="7">
+        <f t="shared" si="338"/>
+        <v>118</v>
+      </c>
+      <c r="F1518" s="6">
+        <f t="shared" si="339"/>
+        <v>0.11389961389961389</v>
+      </c>
+      <c r="G1518" s="2">
+        <v>281</v>
+      </c>
+      <c r="H1518" s="7">
+        <f t="shared" si="340"/>
+        <v>4</v>
+      </c>
+      <c r="I1518" s="6">
+        <f t="shared" si="341"/>
+        <v>0.20259552992069213</v>
+      </c>
+      <c r="J1518" s="10">
+        <f>IF(B1518="Pending","",C1518/(VLOOKUP(B1518,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1399.0442085280151</v>
+      </c>
+      <c r="K1518" s="10">
+        <f>IF(B1518="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1518,A:A,"&gt;="&amp;A1518-30,B:B,B1518)/(VLOOKUP(B1518,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>723.31537311652482</v>
+      </c>
+      <c r="L1518" s="13">
+        <f>IF(B1518="Pending","",(G1518/C1518)/(VLOOKUP(B1518,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>3.2343019428848862E-3</v>
+      </c>
+    </row>
+    <row r="1519" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1519" s="1">
+        <v>44060</v>
+      </c>
+      <c r="B1519" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1519" s="2">
+        <v>5921</v>
+      </c>
+      <c r="D1519" s="6">
+        <f t="shared" si="337"/>
+        <v>4.3942587425043048E-2</v>
+      </c>
+      <c r="E1519" s="7">
+        <f t="shared" si="338"/>
+        <v>56</v>
+      </c>
+      <c r="F1519" s="6">
+        <f t="shared" si="339"/>
+        <v>5.4054054054054057E-2</v>
+      </c>
+      <c r="G1519" s="2">
+        <v>400</v>
+      </c>
+      <c r="H1519" s="7">
+        <f t="shared" si="340"/>
+        <v>8</v>
+      </c>
+      <c r="I1519" s="6">
+        <f t="shared" si="341"/>
+        <v>0.28839221341023791</v>
+      </c>
+      <c r="J1519" s="10">
+        <f>IF(B1519="Pending","",C1519/(VLOOKUP(B1519,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1234.5781979453584</v>
+      </c>
+      <c r="K1519" s="10">
+        <f>IF(B1519="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1519,A:A,"&gt;="&amp;A1519-30,B:B,B1519)/(VLOOKUP(B1519,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>661.18011580556185</v>
+      </c>
+      <c r="L1519" s="13">
+        <f>IF(B1519="Pending","",(G1519/C1519)/(VLOOKUP(B1519,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1.4086025570368556E-2</v>
+      </c>
+    </row>
+    <row r="1520" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1520" s="1">
+        <v>44060</v>
+      </c>
+      <c r="B1520" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1520" s="2">
+        <v>3248</v>
+      </c>
+      <c r="D1520" s="6">
+        <f t="shared" si="337"/>
+        <v>2.4104969423499378E-2</v>
+      </c>
+      <c r="E1520" s="7">
+        <f t="shared" si="338"/>
+        <v>22</v>
+      </c>
+      <c r="F1520" s="6">
+        <f t="shared" si="339"/>
+        <v>2.1235521235521235E-2</v>
+      </c>
+      <c r="G1520" s="2">
+        <v>441</v>
+      </c>
+      <c r="H1520" s="7">
+        <f t="shared" si="340"/>
+        <v>8</v>
+      </c>
+      <c r="I1520" s="6">
+        <f t="shared" si="341"/>
+        <v>0.31795241528478729</v>
+      </c>
+      <c r="J1520" s="10">
+        <f>IF(B1520="Pending","",C1520/(VLOOKUP(B1520,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1467.2334428036445</v>
+      </c>
+      <c r="K1520" s="10">
+        <f>IF(B1520="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1520,A:A,"&gt;="&amp;A1520-30,B:B,B1520)/(VLOOKUP(B1520,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>773.36935162556631</v>
+      </c>
+      <c r="L1520" s="13">
+        <f>IF(B1520="Pending","",(G1520/C1520)/(VLOOKUP(B1520,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>6.1334632251564367E-2</v>
+      </c>
+    </row>
+    <row r="1521" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1521" s="1">
+        <v>44060</v>
+      </c>
+      <c r="B1521" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1521" s="2">
+        <v>205</v>
+      </c>
+      <c r="D1521" s="6">
+        <f t="shared" si="337"/>
+        <v>1.5214035504363831E-3</v>
+      </c>
+      <c r="E1521" s="7">
+        <f t="shared" si="338"/>
+        <v>-1</v>
+      </c>
+      <c r="F1521" s="6">
+        <f t="shared" si="339"/>
+        <v>-9.6525096525096527E-4</v>
+      </c>
+      <c r="G1521" s="2">
+        <v>0</v>
+      </c>
+      <c r="H1521" s="7">
+        <f t="shared" si="340"/>
+        <v>0</v>
+      </c>
+      <c r="I1521" s="6">
+        <f t="shared" si="341"/>
+        <v>0</v>
+      </c>
+      <c r="J1521" s="10" t="str">
+        <f>IF(B1521="Pending","",C1521/(VLOOKUP(B1521,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v/>
+      </c>
+      <c r="K1521" s="10" t="str">
+        <f>IF(B1521="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1521,A:A,"&gt;="&amp;A1521-30,B:B,B1521)/(VLOOKUP(B1521,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v/>
+      </c>
+      <c r="L1521" s="13" t="str">
+        <f>IF(B1521="Pending","",(G1521/C1521)/(VLOOKUP(B1521,Population!$A$2:$B$10,2,FALSE)/100000))</f>
         <v/>
       </c>
     </row>

--- a/TN_Age.xlsx
+++ b/TN_Age.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1545" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1555" uniqueCount="33">
   <si>
     <t>0-10</t>
   </si>
@@ -482,11 +482,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M1521"/>
+  <dimension ref="A1:M1531"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1500" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A1521" sqref="A1521"/>
+      <pane ySplit="1" topLeftCell="A1518" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A1531" sqref="A1531"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -66319,6 +66319,466 @@
       </c>
       <c r="L1521" s="13" t="str">
         <f>IF(B1521="Pending","",(G1521/C1521)/(VLOOKUP(B1521,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="1522" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1522" s="1">
+        <v>44061</v>
+      </c>
+      <c r="B1522" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1522" s="2">
+        <v>6647</v>
+      </c>
+      <c r="D1522" s="6">
+        <f t="shared" ref="D1522:D1531" si="342">C1522/SUMIF(A:A,A1522,C:C)</f>
+        <v>4.895491169408888E-2</v>
+      </c>
+      <c r="E1522" s="7">
+        <f t="shared" ref="E1522:E1531" si="343">C1522-SUMIFS(C:C,A:A,A1522-1,B:B,B1522)</f>
+        <v>44</v>
+      </c>
+      <c r="F1522" s="6">
+        <f t="shared" ref="F1522:F1531" si="344">E1522/SUMIF(A:A,A1522,E:E)</f>
+        <v>4.2553191489361701E-2</v>
+      </c>
+      <c r="G1522" s="2">
+        <v>4</v>
+      </c>
+      <c r="H1522" s="7">
+        <f t="shared" ref="H1522:H1531" si="345">G1522-SUMIFS(G:G,A:A,A1522-1,B:B,B1522)</f>
+        <v>0</v>
+      </c>
+      <c r="I1522" s="6">
+        <f t="shared" ref="I1522:I1531" si="346">G1522/SUMIF(A:A,A1522,G:G)</f>
+        <v>2.8050490883590462E-3</v>
+      </c>
+      <c r="J1522" s="10">
+        <f>IF(B1522="Pending","",C1522/(VLOOKUP(B1522,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>733.71790881013408</v>
+      </c>
+      <c r="K1522" s="10">
+        <f>IF(B1522="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1522,A:A,"&gt;="&amp;A1522-30,B:B,B1522)/(VLOOKUP(B1522,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>350.24626518046568</v>
+      </c>
+      <c r="L1522" s="13">
+        <f>IF(B1522="Pending","",(G1522/C1522)/(VLOOKUP(B1522,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>6.6425946807272871E-5</v>
+      </c>
+    </row>
+    <row r="1523" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1523" s="1">
+        <v>44061</v>
+      </c>
+      <c r="B1523" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1523" s="2">
+        <v>16127</v>
+      </c>
+      <c r="D1523" s="6">
+        <f t="shared" si="342"/>
+        <v>0.1187747646894195</v>
+      </c>
+      <c r="E1523" s="7">
+        <f t="shared" si="343"/>
+        <v>138</v>
+      </c>
+      <c r="F1523" s="6">
+        <f t="shared" si="344"/>
+        <v>0.13346228239845262</v>
+      </c>
+      <c r="G1523" s="2">
+        <v>0</v>
+      </c>
+      <c r="H1523" s="7">
+        <f t="shared" si="345"/>
+        <v>0</v>
+      </c>
+      <c r="I1523" s="6">
+        <f t="shared" si="346"/>
+        <v>0</v>
+      </c>
+      <c r="J1523" s="10">
+        <f>IF(B1523="Pending","",C1523/(VLOOKUP(B1523,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1882.401003822697</v>
+      </c>
+      <c r="K1523" s="10">
+        <f>IF(B1523="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1523,A:A,"&gt;="&amp;A1523-30,B:B,B1523)/(VLOOKUP(B1523,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>916.16329627360005</v>
+      </c>
+      <c r="L1523" s="13">
+        <f>IF(B1523="Pending","",(G1523/C1523)/(VLOOKUP(B1523,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1524" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1524" s="1">
+        <v>44061</v>
+      </c>
+      <c r="B1524" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1524" s="2">
+        <v>30469</v>
+      </c>
+      <c r="D1524" s="6">
+        <f t="shared" si="342"/>
+        <v>0.22440306971674351</v>
+      </c>
+      <c r="E1524" s="7">
+        <f t="shared" si="343"/>
+        <v>202</v>
+      </c>
+      <c r="F1524" s="6">
+        <f t="shared" si="344"/>
+        <v>0.195357833655706</v>
+      </c>
+      <c r="G1524" s="2">
+        <v>15</v>
+      </c>
+      <c r="H1524" s="7">
+        <f t="shared" si="345"/>
+        <v>0</v>
+      </c>
+      <c r="I1524" s="6">
+        <f t="shared" si="346"/>
+        <v>1.0518934081346423E-2</v>
+      </c>
+      <c r="J1524" s="10">
+        <f>IF(B1524="Pending","",C1524/(VLOOKUP(B1524,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>3199.0197890068539</v>
+      </c>
+      <c r="K1524" s="10">
+        <f>IF(B1524="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1524,A:A,"&gt;="&amp;A1524-30,B:B,B1524)/(VLOOKUP(B1524,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1275.7651861308964</v>
+      </c>
+      <c r="L1524" s="13">
+        <f>IF(B1524="Pending","",(G1524/C1524)/(VLOOKUP(B1524,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>5.1688244701348984E-5</v>
+      </c>
+    </row>
+    <row r="1525" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1525" s="1">
+        <v>44061</v>
+      </c>
+      <c r="B1525" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1525" s="2">
+        <v>24019</v>
+      </c>
+      <c r="D1525" s="6">
+        <f t="shared" si="342"/>
+        <v>0.17689905581169263</v>
+      </c>
+      <c r="E1525" s="7">
+        <f t="shared" si="343"/>
+        <v>144</v>
+      </c>
+      <c r="F1525" s="6">
+        <f t="shared" si="344"/>
+        <v>0.13926499032882012</v>
+      </c>
+      <c r="G1525" s="2">
+        <v>27</v>
+      </c>
+      <c r="H1525" s="7">
+        <f t="shared" si="345"/>
+        <v>1</v>
+      </c>
+      <c r="I1525" s="6">
+        <f t="shared" si="346"/>
+        <v>1.8934081346423562E-2</v>
+      </c>
+      <c r="J1525" s="10">
+        <f>IF(B1525="Pending","",C1525/(VLOOKUP(B1525,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>2738.200282267534</v>
+      </c>
+      <c r="K1525" s="10">
+        <f>IF(B1525="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1525,A:A,"&gt;="&amp;A1525-30,B:B,B1525)/(VLOOKUP(B1525,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1076.6294794010821</v>
+      </c>
+      <c r="L1525" s="13">
+        <f>IF(B1525="Pending","",(G1525/C1525)/(VLOOKUP(B1525,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1.2815015350524516E-4</v>
+      </c>
+    </row>
+    <row r="1526" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1526" s="1">
+        <v>44061</v>
+      </c>
+      <c r="B1526" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1526" s="2">
+        <v>20689</v>
+      </c>
+      <c r="D1526" s="6">
+        <f t="shared" si="342"/>
+        <v>0.15237372770257332</v>
+      </c>
+      <c r="E1526" s="7">
+        <f t="shared" si="343"/>
+        <v>152</v>
+      </c>
+      <c r="F1526" s="6">
+        <f t="shared" si="344"/>
+        <v>0.14700193423597679</v>
+      </c>
+      <c r="G1526" s="2">
+        <v>76</v>
+      </c>
+      <c r="H1526" s="7">
+        <f t="shared" si="345"/>
+        <v>1</v>
+      </c>
+      <c r="I1526" s="6">
+        <f t="shared" si="346"/>
+        <v>5.3295932678821878E-2</v>
+      </c>
+      <c r="J1526" s="10">
+        <f>IF(B1526="Pending","",C1526/(VLOOKUP(B1526,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>2426.8052362407921</v>
+      </c>
+      <c r="K1526" s="10">
+        <f>IF(B1526="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1526,A:A,"&gt;="&amp;A1526-30,B:B,B1526)/(VLOOKUP(B1526,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1011.0026744240605</v>
+      </c>
+      <c r="L1526" s="13">
+        <f>IF(B1526="Pending","",(G1526/C1526)/(VLOOKUP(B1526,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>4.3089307690602089E-4</v>
+      </c>
+    </row>
+    <row r="1527" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1527" s="1">
+        <v>44061</v>
+      </c>
+      <c r="B1527" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1527" s="2">
+        <v>17197</v>
+      </c>
+      <c r="D1527" s="6">
+        <f t="shared" si="342"/>
+        <v>0.12665527552328065</v>
+      </c>
+      <c r="E1527" s="7">
+        <f t="shared" si="343"/>
+        <v>123</v>
+      </c>
+      <c r="F1527" s="6">
+        <f t="shared" si="344"/>
+        <v>0.11895551257253385</v>
+      </c>
+      <c r="G1527" s="2">
+        <v>147</v>
+      </c>
+      <c r="H1527" s="7">
+        <f t="shared" si="345"/>
+        <v>2</v>
+      </c>
+      <c r="I1527" s="6">
+        <f t="shared" si="346"/>
+        <v>0.10308555399719495</v>
+      </c>
+      <c r="J1527" s="10">
+        <f>IF(B1527="Pending","",C1527/(VLOOKUP(B1527,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1920.6778048183919</v>
+      </c>
+      <c r="K1527" s="10">
+        <f>IF(B1527="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1527,A:A,"&gt;="&amp;A1527-30,B:B,B1527)/(VLOOKUP(B1527,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>859.54157038334267</v>
+      </c>
+      <c r="L1527" s="13">
+        <f>IF(B1527="Pending","",(G1527/C1527)/(VLOOKUP(B1527,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>9.5469900504777409E-4</v>
+      </c>
+    </row>
+    <row r="1528" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1528" s="1">
+        <v>44061</v>
+      </c>
+      <c r="B1528" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1528" s="2">
+        <v>11146</v>
+      </c>
+      <c r="D1528" s="6">
+        <f t="shared" si="342"/>
+        <v>8.2089882013286389E-2</v>
+      </c>
+      <c r="E1528" s="7">
+        <f t="shared" si="343"/>
+        <v>121</v>
+      </c>
+      <c r="F1528" s="6">
+        <f t="shared" si="344"/>
+        <v>0.11702127659574468</v>
+      </c>
+      <c r="G1528" s="2">
+        <v>282</v>
+      </c>
+      <c r="H1528" s="7">
+        <f t="shared" si="345"/>
+        <v>1</v>
+      </c>
+      <c r="I1528" s="6">
+        <f t="shared" si="346"/>
+        <v>0.19775596072931276</v>
+      </c>
+      <c r="J1528" s="10">
+        <f>IF(B1528="Pending","",C1528/(VLOOKUP(B1528,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1414.3987980275062</v>
+      </c>
+      <c r="K1528" s="10">
+        <f>IF(B1528="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1528,A:A,"&gt;="&amp;A1528-30,B:B,B1528)/(VLOOKUP(B1528,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>714.81324504655868</v>
+      </c>
+      <c r="L1528" s="13">
+        <f>IF(B1528="Pending","",(G1528/C1528)/(VLOOKUP(B1528,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>3.2105756642908639E-3</v>
+      </c>
+    </row>
+    <row r="1529" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1529" s="1">
+        <v>44061</v>
+      </c>
+      <c r="B1529" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1529" s="2">
+        <v>5982</v>
+      </c>
+      <c r="D1529" s="6">
+        <f t="shared" si="342"/>
+        <v>4.4057211035661153E-2</v>
+      </c>
+      <c r="E1529" s="7">
+        <f t="shared" si="343"/>
+        <v>61</v>
+      </c>
+      <c r="F1529" s="6">
+        <f t="shared" si="344"/>
+        <v>5.8994197292069631E-2</v>
+      </c>
+      <c r="G1529" s="2">
+        <v>405</v>
+      </c>
+      <c r="H1529" s="7">
+        <f t="shared" si="345"/>
+        <v>5</v>
+      </c>
+      <c r="I1529" s="6">
+        <f t="shared" si="346"/>
+        <v>0.28401122019635344</v>
+      </c>
+      <c r="J1529" s="10">
+        <f>IF(B1529="Pending","",C1529/(VLOOKUP(B1529,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1247.2972099491867</v>
+      </c>
+      <c r="K1529" s="10">
+        <f>IF(B1529="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1529,A:A,"&gt;="&amp;A1529-30,B:B,B1529)/(VLOOKUP(B1529,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>655.34188078741113</v>
+      </c>
+      <c r="L1529" s="13">
+        <f>IF(B1529="Pending","",(G1529/C1529)/(VLOOKUP(B1529,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1.4116666561297082E-2</v>
+      </c>
+    </row>
+    <row r="1530" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1530" s="1">
+        <v>44061</v>
+      </c>
+      <c r="B1530" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1530" s="2">
+        <v>3294</v>
+      </c>
+      <c r="D1530" s="6">
+        <f t="shared" si="342"/>
+        <v>2.426018942685855E-2</v>
+      </c>
+      <c r="E1530" s="7">
+        <f t="shared" si="343"/>
+        <v>46</v>
+      </c>
+      <c r="F1530" s="6">
+        <f t="shared" si="344"/>
+        <v>4.4487427466150871E-2</v>
+      </c>
+      <c r="G1530" s="2">
+        <v>470</v>
+      </c>
+      <c r="H1530" s="7">
+        <f t="shared" si="345"/>
+        <v>29</v>
+      </c>
+      <c r="I1530" s="6">
+        <f t="shared" si="346"/>
+        <v>0.32959326788218796</v>
+      </c>
+      <c r="J1530" s="10">
+        <f>IF(B1530="Pending","",C1530/(VLOOKUP(B1530,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1488.013226784238</v>
+      </c>
+      <c r="K1530" s="10">
+        <f>IF(B1530="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1530,A:A,"&gt;="&amp;A1530-30,B:B,B1530)/(VLOOKUP(B1530,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>759.36558416038372</v>
+      </c>
+      <c r="L1530" s="13">
+        <f>IF(B1530="Pending","",(G1530/C1530)/(VLOOKUP(B1530,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>6.4455125728458462E-2</v>
+      </c>
+    </row>
+    <row r="1531" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1531" s="1">
+        <v>44061</v>
+      </c>
+      <c r="B1531" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1531" s="2">
+        <v>208</v>
+      </c>
+      <c r="D1531" s="6">
+        <f t="shared" si="342"/>
+        <v>1.5319123863954396E-3</v>
+      </c>
+      <c r="E1531" s="7">
+        <f t="shared" si="343"/>
+        <v>3</v>
+      </c>
+      <c r="F1531" s="6">
+        <f t="shared" si="344"/>
+        <v>2.9013539651837525E-3</v>
+      </c>
+      <c r="G1531" s="2">
+        <v>0</v>
+      </c>
+      <c r="H1531" s="7">
+        <f t="shared" si="345"/>
+        <v>0</v>
+      </c>
+      <c r="I1531" s="6">
+        <f t="shared" si="346"/>
+        <v>0</v>
+      </c>
+      <c r="J1531" s="10" t="str">
+        <f>IF(B1531="Pending","",C1531/(VLOOKUP(B1531,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v/>
+      </c>
+      <c r="K1531" s="10" t="str">
+        <f>IF(B1531="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1531,A:A,"&gt;="&amp;A1531-30,B:B,B1531)/(VLOOKUP(B1531,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v/>
+      </c>
+      <c r="L1531" s="13" t="str">
+        <f>IF(B1531="Pending","",(G1531/C1531)/(VLOOKUP(B1531,Population!$A$2:$B$10,2,FALSE)/100000))</f>
         <v/>
       </c>
     </row>

--- a/TN_Age.xlsx
+++ b/TN_Age.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1555" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1565" uniqueCount="33">
   <si>
     <t>0-10</t>
   </si>
@@ -482,11 +482,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M1531"/>
+  <dimension ref="A1:M1541"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1518" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A1531" sqref="A1531"/>
+      <pane ySplit="1" topLeftCell="A1521" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A1542" sqref="A1542"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -66779,6 +66779,466 @@
       </c>
       <c r="L1531" s="13" t="str">
         <f>IF(B1531="Pending","",(G1531/C1531)/(VLOOKUP(B1531,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="1532" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1532" s="1">
+        <v>44062</v>
+      </c>
+      <c r="B1532" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1532" s="2">
+        <v>6748</v>
+      </c>
+      <c r="D1532" s="6">
+        <f t="shared" ref="D1532:D1541" si="347">C1532/SUMIF(A:A,A1532,C:C)</f>
+        <v>4.8969521044992741E-2</v>
+      </c>
+      <c r="E1532" s="7">
+        <f t="shared" ref="E1532:E1541" si="348">C1532-SUMIFS(C:C,A:A,A1532-1,B:B,B1532)</f>
+        <v>101</v>
+      </c>
+      <c r="F1532" s="6">
+        <f t="shared" ref="F1532:F1541" si="349">E1532/SUMIF(A:A,A1532,E:E)</f>
+        <v>4.9950544015825916E-2</v>
+      </c>
+      <c r="G1532" s="2">
+        <v>4</v>
+      </c>
+      <c r="H1532" s="7">
+        <f t="shared" ref="H1532:H1541" si="350">G1532-SUMIFS(G:G,A:A,A1532-1,B:B,B1532)</f>
+        <v>0</v>
+      </c>
+      <c r="I1532" s="6">
+        <f t="shared" ref="I1532:I1541" si="351">G1532/SUMIF(A:A,A1532,G:G)</f>
+        <v>2.7548209366391185E-3</v>
+      </c>
+      <c r="J1532" s="10">
+        <f>IF(B1532="Pending","",C1532/(VLOOKUP(B1532,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>744.86662383793953</v>
+      </c>
+      <c r="K1532" s="10">
+        <f>IF(B1532="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1532,A:A,"&gt;="&amp;A1532-30,B:B,B1532)/(VLOOKUP(B1532,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>349.9151152291447</v>
+      </c>
+      <c r="L1532" s="13">
+        <f>IF(B1532="Pending","",(G1532/C1532)/(VLOOKUP(B1532,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>6.5431723240655425E-5</v>
+      </c>
+    </row>
+    <row r="1533" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1533" s="1">
+        <v>44062</v>
+      </c>
+      <c r="B1533" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1533" s="2">
+        <v>16425</v>
+      </c>
+      <c r="D1533" s="6">
+        <f t="shared" si="347"/>
+        <v>0.1191944847605225</v>
+      </c>
+      <c r="E1533" s="7">
+        <f t="shared" si="348"/>
+        <v>298</v>
+      </c>
+      <c r="F1533" s="6">
+        <f t="shared" si="349"/>
+        <v>0.14737883283877348</v>
+      </c>
+      <c r="G1533" s="2">
+        <v>0</v>
+      </c>
+      <c r="H1533" s="7">
+        <f t="shared" si="350"/>
+        <v>0</v>
+      </c>
+      <c r="I1533" s="6">
+        <f t="shared" si="351"/>
+        <v>0</v>
+      </c>
+      <c r="J1533" s="10">
+        <f>IF(B1533="Pending","",C1533/(VLOOKUP(B1533,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1917.1846275059092</v>
+      </c>
+      <c r="K1533" s="10">
+        <f>IF(B1533="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1533,A:A,"&gt;="&amp;A1533-30,B:B,B1533)/(VLOOKUP(B1533,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>921.64930403571748</v>
+      </c>
+      <c r="L1533" s="13">
+        <f>IF(B1533="Pending","",(G1533/C1533)/(VLOOKUP(B1533,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1534" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1534" s="1">
+        <v>44062</v>
+      </c>
+      <c r="B1534" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1534" s="2">
+        <v>30829</v>
+      </c>
+      <c r="D1534" s="6">
+        <f t="shared" si="347"/>
+        <v>0.22372278664731496</v>
+      </c>
+      <c r="E1534" s="7">
+        <f t="shared" si="348"/>
+        <v>360</v>
+      </c>
+      <c r="F1534" s="6">
+        <f t="shared" si="349"/>
+        <v>0.17804154302670624</v>
+      </c>
+      <c r="G1534" s="2">
+        <v>16</v>
+      </c>
+      <c r="H1534" s="7">
+        <f t="shared" si="350"/>
+        <v>1</v>
+      </c>
+      <c r="I1534" s="6">
+        <f t="shared" si="351"/>
+        <v>1.1019283746556474E-2</v>
+      </c>
+      <c r="J1534" s="10">
+        <f>IF(B1534="Pending","",C1534/(VLOOKUP(B1534,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>3236.8171280741835</v>
+      </c>
+      <c r="K1534" s="10">
+        <f>IF(B1534="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1534,A:A,"&gt;="&amp;A1534-30,B:B,B1534)/(VLOOKUP(B1534,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1270.3055704878375</v>
+      </c>
+      <c r="L1534" s="13">
+        <f>IF(B1534="Pending","",(G1534/C1534)/(VLOOKUP(B1534,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>5.4490309005344406E-5</v>
+      </c>
+    </row>
+    <row r="1535" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1535" s="1">
+        <v>44062</v>
+      </c>
+      <c r="B1535" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1535" s="2">
+        <v>24321</v>
+      </c>
+      <c r="D1535" s="6">
+        <f t="shared" si="347"/>
+        <v>0.17649492017416546</v>
+      </c>
+      <c r="E1535" s="7">
+        <f t="shared" si="348"/>
+        <v>302</v>
+      </c>
+      <c r="F1535" s="6">
+        <f t="shared" si="349"/>
+        <v>0.14935707220573691</v>
+      </c>
+      <c r="G1535" s="2">
+        <v>28</v>
+      </c>
+      <c r="H1535" s="7">
+        <f t="shared" si="350"/>
+        <v>1</v>
+      </c>
+      <c r="I1535" s="6">
+        <f t="shared" si="351"/>
+        <v>1.928374655647383E-2</v>
+      </c>
+      <c r="J1535" s="10">
+        <f>IF(B1535="Pending","",C1535/(VLOOKUP(B1535,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>2772.6287133114906</v>
+      </c>
+      <c r="K1535" s="10">
+        <f>IF(B1535="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1535,A:A,"&gt;="&amp;A1535-30,B:B,B1535)/(VLOOKUP(B1535,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1076.1734736918906</v>
+      </c>
+      <c r="L1535" s="13">
+        <f>IF(B1535="Pending","",(G1535/C1535)/(VLOOKUP(B1535,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1.3124624663214316E-4</v>
+      </c>
+    </row>
+    <row r="1536" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1536" s="1">
+        <v>44062</v>
+      </c>
+      <c r="B1536" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1536" s="2">
+        <v>21023</v>
+      </c>
+      <c r="D1536" s="6">
+        <f t="shared" si="347"/>
+        <v>0.15256168359941946</v>
+      </c>
+      <c r="E1536" s="7">
+        <f t="shared" si="348"/>
+        <v>334</v>
+      </c>
+      <c r="F1536" s="6">
+        <f t="shared" si="349"/>
+        <v>0.16518298714144411</v>
+      </c>
+      <c r="G1536" s="2">
+        <v>75</v>
+      </c>
+      <c r="H1536" s="7">
+        <f t="shared" si="350"/>
+        <v>-1</v>
+      </c>
+      <c r="I1536" s="6">
+        <f t="shared" si="351"/>
+        <v>5.1652892561983473E-2</v>
+      </c>
+      <c r="J1536" s="10">
+        <f>IF(B1536="Pending","",C1536/(VLOOKUP(B1536,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>2465.9832027401117</v>
+      </c>
+      <c r="K1536" s="10">
+        <f>IF(B1536="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1536,A:A,"&gt;="&amp;A1536-30,B:B,B1536)/(VLOOKUP(B1536,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1021.207713602027</v>
+      </c>
+      <c r="L1536" s="13">
+        <f>IF(B1536="Pending","",(G1536/C1536)/(VLOOKUP(B1536,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>4.1846775280466632E-4</v>
+      </c>
+    </row>
+    <row r="1537" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1537" s="1">
+        <v>44062</v>
+      </c>
+      <c r="B1537" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1537" s="2">
+        <v>17504</v>
+      </c>
+      <c r="D1537" s="6">
+        <f t="shared" si="347"/>
+        <v>0.12702467343976778</v>
+      </c>
+      <c r="E1537" s="7">
+        <f t="shared" si="348"/>
+        <v>307</v>
+      </c>
+      <c r="F1537" s="6">
+        <f t="shared" si="349"/>
+        <v>0.15182987141444115</v>
+      </c>
+      <c r="G1537" s="2">
+        <v>149</v>
+      </c>
+      <c r="H1537" s="7">
+        <f t="shared" si="350"/>
+        <v>2</v>
+      </c>
+      <c r="I1537" s="6">
+        <f t="shared" si="351"/>
+        <v>0.10261707988980716</v>
+      </c>
+      <c r="J1537" s="10">
+        <f>IF(B1537="Pending","",C1537/(VLOOKUP(B1537,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1954.9656507263553</v>
+      </c>
+      <c r="K1537" s="10">
+        <f>IF(B1537="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1537,A:A,"&gt;="&amp;A1537-30,B:B,B1537)/(VLOOKUP(B1537,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>872.16217816054086</v>
+      </c>
+      <c r="L1537" s="13">
+        <f>IF(B1537="Pending","",(G1537/C1537)/(VLOOKUP(B1537,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>9.5071597227968058E-4</v>
+      </c>
+    </row>
+    <row r="1538" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1538" s="1">
+        <v>44062</v>
+      </c>
+      <c r="B1538" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1538" s="2">
+        <v>11330</v>
+      </c>
+      <c r="D1538" s="6">
+        <f t="shared" si="347"/>
+        <v>8.2220609579100143E-2</v>
+      </c>
+      <c r="E1538" s="7">
+        <f t="shared" si="348"/>
+        <v>184</v>
+      </c>
+      <c r="F1538" s="6">
+        <f t="shared" si="349"/>
+        <v>9.0999010880316519E-2</v>
+      </c>
+      <c r="G1538" s="2">
+        <v>286</v>
+      </c>
+      <c r="H1538" s="7">
+        <f t="shared" si="350"/>
+        <v>4</v>
+      </c>
+      <c r="I1538" s="6">
+        <f t="shared" si="351"/>
+        <v>0.19696969696969696</v>
+      </c>
+      <c r="J1538" s="10">
+        <f>IF(B1538="Pending","",C1538/(VLOOKUP(B1538,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1437.7479258614433</v>
+      </c>
+      <c r="K1538" s="10">
+        <f>IF(B1538="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1538,A:A,"&gt;="&amp;A1538-30,B:B,B1538)/(VLOOKUP(B1538,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>721.2850141744434</v>
+      </c>
+      <c r="L1538" s="13">
+        <f>IF(B1538="Pending","",(G1538/C1538)/(VLOOKUP(B1538,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>3.2032361950314506E-3</v>
+      </c>
+    </row>
+    <row r="1539" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1539" s="1">
+        <v>44062</v>
+      </c>
+      <c r="B1539" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1539" s="2">
+        <v>6084</v>
+      </c>
+      <c r="D1539" s="6">
+        <f t="shared" si="347"/>
+        <v>4.4150943396226418E-2</v>
+      </c>
+      <c r="E1539" s="7">
+        <f t="shared" si="348"/>
+        <v>102</v>
+      </c>
+      <c r="F1539" s="6">
+        <f t="shared" si="349"/>
+        <v>5.0445103857566766E-2</v>
+      </c>
+      <c r="G1539" s="2">
+        <v>419</v>
+      </c>
+      <c r="H1539" s="7">
+        <f t="shared" si="350"/>
+        <v>14</v>
+      </c>
+      <c r="I1539" s="6">
+        <f t="shared" si="351"/>
+        <v>0.28856749311294766</v>
+      </c>
+      <c r="J1539" s="10">
+        <f>IF(B1539="Pending","",C1539/(VLOOKUP(B1539,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1268.5650660867354</v>
+      </c>
+      <c r="K1539" s="10">
+        <f>IF(B1539="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1539,A:A,"&gt;="&amp;A1539-30,B:B,B1539)/(VLOOKUP(B1539,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>659.92906544452956</v>
+      </c>
+      <c r="L1539" s="13">
+        <f>IF(B1539="Pending","",(G1539/C1539)/(VLOOKUP(B1539,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1.4359798961005006E-2</v>
+      </c>
+    </row>
+    <row r="1540" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1540" s="1">
+        <v>44062</v>
+      </c>
+      <c r="B1540" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1540" s="2">
+        <v>3327</v>
+      </c>
+      <c r="D1540" s="6">
+        <f t="shared" si="347"/>
+        <v>2.4143686502177068E-2</v>
+      </c>
+      <c r="E1540" s="7">
+        <f t="shared" si="348"/>
+        <v>33</v>
+      </c>
+      <c r="F1540" s="6">
+        <f t="shared" si="349"/>
+        <v>1.6320474777448073E-2</v>
+      </c>
+      <c r="G1540" s="2">
+        <v>475</v>
+      </c>
+      <c r="H1540" s="7">
+        <f t="shared" si="350"/>
+        <v>5</v>
+      </c>
+      <c r="I1540" s="6">
+        <f t="shared" si="351"/>
+        <v>0.32713498622589532</v>
+      </c>
+      <c r="J1540" s="10">
+        <f>IF(B1540="Pending","",C1540/(VLOOKUP(B1540,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1502.9204631181419</v>
+      </c>
+      <c r="K1540" s="10">
+        <f>IF(B1540="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1540,A:A,"&gt;="&amp;A1540-30,B:B,B1540)/(VLOOKUP(B1540,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>751.23436434189068</v>
+      </c>
+      <c r="L1540" s="13">
+        <f>IF(B1540="Pending","",(G1540/C1540)/(VLOOKUP(B1540,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>6.4494696820362421E-2</v>
+      </c>
+    </row>
+    <row r="1541" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1541" s="1">
+        <v>44062</v>
+      </c>
+      <c r="B1541" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1541" s="2">
+        <v>209</v>
+      </c>
+      <c r="D1541" s="6">
+        <f t="shared" si="347"/>
+        <v>1.5166908563134978E-3</v>
+      </c>
+      <c r="E1541" s="7">
+        <f t="shared" si="348"/>
+        <v>1</v>
+      </c>
+      <c r="F1541" s="6">
+        <f t="shared" si="349"/>
+        <v>4.9455984174085062E-4</v>
+      </c>
+      <c r="G1541" s="2">
+        <v>0</v>
+      </c>
+      <c r="H1541" s="7">
+        <f t="shared" si="350"/>
+        <v>0</v>
+      </c>
+      <c r="I1541" s="6">
+        <f t="shared" si="351"/>
+        <v>0</v>
+      </c>
+      <c r="J1541" s="10" t="str">
+        <f>IF(B1541="Pending","",C1541/(VLOOKUP(B1541,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v/>
+      </c>
+      <c r="K1541" s="10" t="str">
+        <f>IF(B1541="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1541,A:A,"&gt;="&amp;A1541-30,B:B,B1541)/(VLOOKUP(B1541,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v/>
+      </c>
+      <c r="L1541" s="13" t="str">
+        <f>IF(B1541="Pending","",(G1541/C1541)/(VLOOKUP(B1541,Population!$A$2:$B$10,2,FALSE)/100000))</f>
         <v/>
       </c>
     </row>

--- a/TN_Age.xlsx
+++ b/TN_Age.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1565" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1575" uniqueCount="33">
   <si>
     <t>0-10</t>
   </si>
@@ -482,11 +482,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M1541"/>
+  <dimension ref="A1:M1552"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1521" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A1542" sqref="A1542"/>
+      <pane ySplit="1" topLeftCell="A1528" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A1551" sqref="A1551"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -67241,6 +67241,471 @@
         <f>IF(B1541="Pending","",(G1541/C1541)/(VLOOKUP(B1541,Population!$A$2:$B$10,2,FALSE)/100000))</f>
         <v/>
       </c>
+    </row>
+    <row r="1542" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1542" s="1">
+        <v>44063</v>
+      </c>
+      <c r="B1542" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1542" s="2">
+        <v>6832</v>
+      </c>
+      <c r="D1542" s="6">
+        <f t="shared" ref="D1542:D1552" si="352">C1542/SUMIF(A:A,A1542,C:C)</f>
+        <v>4.9089276091252021E-2</v>
+      </c>
+      <c r="E1542" s="7">
+        <f t="shared" ref="E1542:E1552" si="353">C1542-SUMIFS(C:C,A:A,A1542-1,B:B,B1542)</f>
+        <v>84</v>
+      </c>
+      <c r="F1542" s="6">
+        <f t="shared" ref="F1542:F1552" si="354">E1542/SUMIF(A:A,A1542,E:E)</f>
+        <v>6.1090909090909092E-2</v>
+      </c>
+      <c r="G1542" s="2">
+        <v>4</v>
+      </c>
+      <c r="H1542" s="7">
+        <f t="shared" ref="H1542:H1551" si="355">G1542-SUMIFS(G:G,A:A,A1542-1,B:B,B1542)</f>
+        <v>0</v>
+      </c>
+      <c r="I1542" s="6">
+        <f t="shared" ref="I1542:I1551" si="356">G1542/SUMIF(A:A,A1542,G:G)</f>
+        <v>2.6881720430107529E-3</v>
+      </c>
+      <c r="J1542" s="10">
+        <f>IF(B1542="Pending","",C1542/(VLOOKUP(B1542,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>754.13882247492643</v>
+      </c>
+      <c r="K1542" s="10">
+        <f>IF(B1542="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1542,A:A,"&gt;="&amp;A1542-30,B:B,B1542)/(VLOOKUP(B1542,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>351.57086498574949</v>
+      </c>
+      <c r="L1542" s="13">
+        <f>IF(B1542="Pending","",(G1542/C1542)/(VLOOKUP(B1542,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>6.4627234840155572E-5</v>
+      </c>
+    </row>
+    <row r="1543" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1543" s="1">
+        <v>44063</v>
+      </c>
+      <c r="B1543" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1543" s="2">
+        <v>16648</v>
+      </c>
+      <c r="D1543" s="6">
+        <f t="shared" si="352"/>
+        <v>0.11961918447997126</v>
+      </c>
+      <c r="E1543" s="7">
+        <f t="shared" si="353"/>
+        <v>223</v>
+      </c>
+      <c r="F1543" s="6">
+        <f t="shared" si="354"/>
+        <v>0.16218181818181818</v>
+      </c>
+      <c r="G1543" s="2">
+        <v>0</v>
+      </c>
+      <c r="H1543" s="7">
+        <f t="shared" si="355"/>
+        <v>0</v>
+      </c>
+      <c r="I1543" s="6">
+        <f t="shared" si="356"/>
+        <v>0</v>
+      </c>
+      <c r="J1543" s="10">
+        <f>IF(B1543="Pending","",C1543/(VLOOKUP(B1543,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1943.213983483615</v>
+      </c>
+      <c r="K1543" s="10">
+        <f>IF(B1543="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1543,A:A,"&gt;="&amp;A1543-30,B:B,B1543)/(VLOOKUP(B1543,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>921.06568618868369</v>
+      </c>
+      <c r="L1543" s="13">
+        <f>IF(B1543="Pending","",(G1543/C1543)/(VLOOKUP(B1543,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1544" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1544" s="1">
+        <v>44063</v>
+      </c>
+      <c r="B1544" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1544" s="2">
+        <v>31066</v>
+      </c>
+      <c r="D1544" s="6">
+        <f t="shared" si="352"/>
+        <v>0.22321537632477098</v>
+      </c>
+      <c r="E1544" s="7">
+        <f t="shared" si="353"/>
+        <v>237</v>
+      </c>
+      <c r="F1544" s="6">
+        <f t="shared" si="354"/>
+        <v>0.17236363636363636</v>
+      </c>
+      <c r="G1544" s="2">
+        <v>16</v>
+      </c>
+      <c r="H1544" s="7">
+        <f t="shared" si="355"/>
+        <v>0</v>
+      </c>
+      <c r="I1544" s="6">
+        <f t="shared" si="356"/>
+        <v>1.0752688172043012E-2</v>
+      </c>
+      <c r="J1544" s="10">
+        <f>IF(B1544="Pending","",C1544/(VLOOKUP(B1544,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>3261.7003762935087</v>
+      </c>
+      <c r="K1544" s="10">
+        <f>IF(B1544="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1544,A:A,"&gt;="&amp;A1544-30,B:B,B1544)/(VLOOKUP(B1544,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1255.0816422523853</v>
+      </c>
+      <c r="L1544" s="13">
+        <f>IF(B1544="Pending","",(G1544/C1544)/(VLOOKUP(B1544,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>5.4074606847542741E-5</v>
+      </c>
+    </row>
+    <row r="1545" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1545" s="1">
+        <v>44063</v>
+      </c>
+      <c r="B1545" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1545" s="2">
+        <v>24514</v>
+      </c>
+      <c r="D1545" s="6">
+        <f t="shared" si="352"/>
+        <v>0.17613795581102928</v>
+      </c>
+      <c r="E1545" s="7">
+        <f t="shared" si="353"/>
+        <v>193</v>
+      </c>
+      <c r="F1545" s="6">
+        <f t="shared" si="354"/>
+        <v>0.14036363636363636</v>
+      </c>
+      <c r="G1545" s="2">
+        <v>28</v>
+      </c>
+      <c r="H1545" s="7">
+        <f t="shared" si="355"/>
+        <v>0</v>
+      </c>
+      <c r="I1545" s="6">
+        <f t="shared" si="356"/>
+        <v>1.8817204301075269E-2</v>
+      </c>
+      <c r="J1545" s="10">
+        <f>IF(B1545="Pending","",C1545/(VLOOKUP(B1545,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>2794.6309887799794</v>
+      </c>
+      <c r="K1545" s="10">
+        <f>IF(B1545="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1545,A:A,"&gt;="&amp;A1545-30,B:B,B1545)/(VLOOKUP(B1545,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1068.3073752083376</v>
+      </c>
+      <c r="L1545" s="13">
+        <f>IF(B1545="Pending","",(G1545/C1545)/(VLOOKUP(B1545,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1.3021293809008539E-4</v>
+      </c>
+    </row>
+    <row r="1546" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1546" s="1">
+        <v>44063</v>
+      </c>
+      <c r="B1546" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1546" s="2">
+        <v>21225</v>
+      </c>
+      <c r="D1546" s="6">
+        <f t="shared" si="352"/>
+        <v>0.15250583797377404</v>
+      </c>
+      <c r="E1546" s="7">
+        <f t="shared" si="353"/>
+        <v>202</v>
+      </c>
+      <c r="F1546" s="6">
+        <f t="shared" si="354"/>
+        <v>0.14690909090909091</v>
+      </c>
+      <c r="G1546" s="2">
+        <v>75</v>
+      </c>
+      <c r="H1546" s="7">
+        <f t="shared" si="355"/>
+        <v>0</v>
+      </c>
+      <c r="I1546" s="6">
+        <f t="shared" si="356"/>
+        <v>5.040322580645161E-2</v>
+      </c>
+      <c r="J1546" s="10">
+        <f>IF(B1546="Pending","",C1546/(VLOOKUP(B1546,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>2489.6776615211375</v>
+      </c>
+      <c r="K1546" s="10">
+        <f>IF(B1546="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1546,A:A,"&gt;="&amp;A1546-30,B:B,B1546)/(VLOOKUP(B1546,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1011.3545723267489</v>
+      </c>
+      <c r="L1546" s="13">
+        <f>IF(B1546="Pending","",(G1546/C1546)/(VLOOKUP(B1546,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>4.1448516217726736E-4</v>
+      </c>
+    </row>
+    <row r="1547" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1547" s="1">
+        <v>44063</v>
+      </c>
+      <c r="B1547" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1547" s="2">
+        <v>17697</v>
+      </c>
+      <c r="D1547" s="6">
+        <f t="shared" si="352"/>
+        <v>0.12715645769714387</v>
+      </c>
+      <c r="E1547" s="7">
+        <f t="shared" si="353"/>
+        <v>193</v>
+      </c>
+      <c r="F1547" s="6">
+        <f t="shared" si="354"/>
+        <v>0.14036363636363636</v>
+      </c>
+      <c r="G1547" s="2">
+        <v>156</v>
+      </c>
+      <c r="H1547" s="7">
+        <f t="shared" si="355"/>
+        <v>7</v>
+      </c>
+      <c r="I1547" s="6">
+        <f t="shared" si="356"/>
+        <v>0.10483870967741936</v>
+      </c>
+      <c r="J1547" s="10">
+        <f>IF(B1547="Pending","",C1547/(VLOOKUP(B1547,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1976.5212020626318</v>
+      </c>
+      <c r="K1547" s="10">
+        <f>IF(B1547="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1547,A:A,"&gt;="&amp;A1547-30,B:B,B1547)/(VLOOKUP(B1547,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>872.60892533849483</v>
+      </c>
+      <c r="L1547" s="13">
+        <f>IF(B1547="Pending","",(G1547/C1547)/(VLOOKUP(B1547,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>9.8452505736581846E-4</v>
+      </c>
+    </row>
+    <row r="1548" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1548" s="1">
+        <v>44063</v>
+      </c>
+      <c r="B1548" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1548" s="2">
+        <v>11469</v>
+      </c>
+      <c r="D1548" s="6">
+        <f t="shared" si="352"/>
+        <v>8.2407041494521285E-2</v>
+      </c>
+      <c r="E1548" s="7">
+        <f t="shared" si="353"/>
+        <v>139</v>
+      </c>
+      <c r="F1548" s="6">
+        <f t="shared" si="354"/>
+        <v>0.10109090909090909</v>
+      </c>
+      <c r="G1548" s="2">
+        <v>294</v>
+      </c>
+      <c r="H1548" s="7">
+        <f t="shared" si="355"/>
+        <v>8</v>
+      </c>
+      <c r="I1548" s="6">
+        <f t="shared" si="356"/>
+        <v>0.19758064516129031</v>
+      </c>
+      <c r="J1548" s="10">
+        <f>IF(B1548="Pending","",C1548/(VLOOKUP(B1548,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1455.386669170776</v>
+      </c>
+      <c r="K1548" s="10">
+        <f>IF(B1548="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1548,A:A,"&gt;="&amp;A1548-30,B:B,B1548)/(VLOOKUP(B1548,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>724.45745002144565</v>
+      </c>
+      <c r="L1548" s="13">
+        <f>IF(B1548="Pending","",(G1548/C1548)/(VLOOKUP(B1548,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>3.2529292493458078E-3</v>
+      </c>
+    </row>
+    <row r="1549" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1549" s="1">
+        <v>44063</v>
+      </c>
+      <c r="B1549" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1549" s="2">
+        <v>6147</v>
+      </c>
+      <c r="D1549" s="6">
+        <f t="shared" si="352"/>
+        <v>4.4167415124842825E-2</v>
+      </c>
+      <c r="E1549" s="7">
+        <f t="shared" si="353"/>
+        <v>63</v>
+      </c>
+      <c r="F1549" s="6">
+        <f t="shared" si="354"/>
+        <v>4.581818181818182E-2</v>
+      </c>
+      <c r="G1549" s="2">
+        <v>434</v>
+      </c>
+      <c r="H1549" s="7">
+        <f t="shared" si="355"/>
+        <v>15</v>
+      </c>
+      <c r="I1549" s="6">
+        <f t="shared" si="356"/>
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="J1549" s="10">
+        <f>IF(B1549="Pending","",C1549/(VLOOKUP(B1549,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1281.7010948775744</v>
+      </c>
+      <c r="K1549" s="10">
+        <f>IF(B1549="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1549,A:A,"&gt;="&amp;A1549-30,B:B,B1549)/(VLOOKUP(B1549,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>656.3844227549381</v>
+      </c>
+      <c r="L1549" s="13">
+        <f>IF(B1549="Pending","",(G1549/C1549)/(VLOOKUP(B1549,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1.472143204511716E-2</v>
+      </c>
+    </row>
+    <row r="1550" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1550" s="1">
+        <v>44063</v>
+      </c>
+      <c r="B1550" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1550" s="2">
+        <v>3364</v>
+      </c>
+      <c r="D1550" s="6">
+        <f t="shared" si="352"/>
+        <v>2.4171007724088377E-2</v>
+      </c>
+      <c r="E1550" s="7">
+        <f t="shared" si="353"/>
+        <v>37</v>
+      </c>
+      <c r="F1550" s="6">
+        <f t="shared" si="354"/>
+        <v>2.690909090909091E-2</v>
+      </c>
+      <c r="G1550" s="2">
+        <v>481</v>
+      </c>
+      <c r="H1550" s="7">
+        <f t="shared" si="355"/>
+        <v>6</v>
+      </c>
+      <c r="I1550" s="6">
+        <f t="shared" si="356"/>
+        <v>0.323252688172043</v>
+      </c>
+      <c r="J1550" s="10">
+        <f>IF(B1550="Pending","",C1550/(VLOOKUP(B1550,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1519.634637189489</v>
+      </c>
+      <c r="K1550" s="10">
+        <f>IF(B1550="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1550,A:A,"&gt;="&amp;A1550-30,B:B,B1550)/(VLOOKUP(B1550,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>755.75170868549787</v>
+      </c>
+      <c r="L1550" s="13">
+        <f>IF(B1550="Pending","",(G1550/C1550)/(VLOOKUP(B1550,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>6.4591041298308616E-2</v>
+      </c>
+    </row>
+    <row r="1551" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1551" s="1">
+        <v>44063</v>
+      </c>
+      <c r="B1551" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1551" s="2">
+        <v>213</v>
+      </c>
+      <c r="D1551" s="6">
+        <f t="shared" si="352"/>
+        <v>1.5304472786060715E-3</v>
+      </c>
+      <c r="E1551" s="7">
+        <f t="shared" si="353"/>
+        <v>4</v>
+      </c>
+      <c r="F1551" s="6">
+        <f t="shared" si="354"/>
+        <v>2.9090909090909089E-3</v>
+      </c>
+      <c r="G1551" s="2">
+        <v>0</v>
+      </c>
+      <c r="H1551" s="7">
+        <f t="shared" si="355"/>
+        <v>0</v>
+      </c>
+      <c r="I1551" s="6">
+        <f t="shared" si="356"/>
+        <v>0</v>
+      </c>
+      <c r="J1551" s="10" t="str">
+        <f>IF(B1551="Pending","",C1551/(VLOOKUP(B1551,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v/>
+      </c>
+      <c r="K1551" s="10" t="str">
+        <f>IF(B1551="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1551,A:A,"&gt;="&amp;A1551-30,B:B,B1551)/(VLOOKUP(B1551,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v/>
+      </c>
+      <c r="L1551" s="13" t="str">
+        <f>IF(B1551="Pending","",(G1551/C1551)/(VLOOKUP(B1551,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="1552" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D1552" s="6"/>
+      <c r="E1552" s="7"/>
+      <c r="F1552" s="6"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:L1251"/>

--- a/TN_Age.xlsx
+++ b/TN_Age.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1575" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1585" uniqueCount="33">
   <si>
     <t>0-10</t>
   </si>
@@ -482,11 +482,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M1552"/>
+  <dimension ref="A1:M1561"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1528" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A1551" sqref="A1551"/>
+      <pane ySplit="1" topLeftCell="A1540" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A1562" sqref="A1562"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -67253,15 +67253,15 @@
         <v>6832</v>
       </c>
       <c r="D1542" s="6">
-        <f t="shared" ref="D1542:D1552" si="352">C1542/SUMIF(A:A,A1542,C:C)</f>
+        <f t="shared" ref="D1542:D1551" si="352">C1542/SUMIF(A:A,A1542,C:C)</f>
         <v>4.9089276091252021E-2</v>
       </c>
       <c r="E1542" s="7">
-        <f t="shared" ref="E1542:E1552" si="353">C1542-SUMIFS(C:C,A:A,A1542-1,B:B,B1542)</f>
+        <f t="shared" ref="E1542:E1551" si="353">C1542-SUMIFS(C:C,A:A,A1542-1,B:B,B1542)</f>
         <v>84</v>
       </c>
       <c r="F1542" s="6">
-        <f t="shared" ref="F1542:F1552" si="354">E1542/SUMIF(A:A,A1542,E:E)</f>
+        <f t="shared" ref="F1542:F1551" si="354">E1542/SUMIF(A:A,A1542,E:E)</f>
         <v>6.1090909090909092E-2</v>
       </c>
       <c r="G1542" s="2">
@@ -67703,9 +67703,464 @@
       </c>
     </row>
     <row r="1552" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="D1552" s="6"/>
-      <c r="E1552" s="7"/>
-      <c r="F1552" s="6"/>
+      <c r="A1552" s="1">
+        <v>44064</v>
+      </c>
+      <c r="B1552" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1552">
+        <v>6923</v>
+      </c>
+      <c r="D1552" s="6">
+        <f t="shared" ref="D1552:D1561" si="357">C1552/SUMIF(A:A,A1552,C:C)</f>
+        <v>4.9153673567919116E-2</v>
+      </c>
+      <c r="E1552" s="7">
+        <f t="shared" ref="E1552:E1561" si="358">C1552-SUMIFS(C:C,A:A,A1552-1,B:B,B1552)</f>
+        <v>91</v>
+      </c>
+      <c r="F1552" s="6">
+        <f t="shared" ref="F1552:F1561" si="359">E1552/SUMIF(A:A,A1552,E:E)</f>
+        <v>5.4523666866387058E-2</v>
+      </c>
+      <c r="G1552" s="2">
+        <v>4</v>
+      </c>
+      <c r="H1552" s="7">
+        <f t="shared" ref="H1552:H1561" si="360">G1552-SUMIFS(G:G,A:A,A1552-1,B:B,B1552)</f>
+        <v>0</v>
+      </c>
+      <c r="I1552" s="6">
+        <f t="shared" ref="I1552:I1561" si="361">G1552/SUMIF(A:A,A1552,G:G)</f>
+        <v>2.5823111684958036E-3</v>
+      </c>
+      <c r="J1552" s="10">
+        <f>IF(B1552="Pending","",C1552/(VLOOKUP(B1552,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>764.18370433166206</v>
+      </c>
+      <c r="K1552" s="10">
+        <f>IF(B1552="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1552,A:A,"&gt;="&amp;A1552-30,B:B,B1552)/(VLOOKUP(B1552,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>352.01239825417741</v>
+      </c>
+      <c r="L1552" s="13">
+        <f>IF(B1552="Pending","",(G1552/C1552)/(VLOOKUP(B1552,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>6.3777736303328444E-5</v>
+      </c>
+    </row>
+    <row r="1553" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1553" s="1">
+        <v>44064</v>
+      </c>
+      <c r="B1553" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1553">
+        <v>16923</v>
+      </c>
+      <c r="D1553" s="6">
+        <f t="shared" si="357"/>
+        <v>0.1201542131720201</v>
+      </c>
+      <c r="E1553" s="7">
+        <f t="shared" si="358"/>
+        <v>275</v>
+      </c>
+      <c r="F1553" s="6">
+        <f t="shared" si="359"/>
+        <v>0.16476932294787297</v>
+      </c>
+      <c r="G1553" s="2">
+        <v>0</v>
+      </c>
+      <c r="H1553" s="7">
+        <f t="shared" si="360"/>
+        <v>0</v>
+      </c>
+      <c r="I1553" s="6">
+        <f t="shared" si="361"/>
+        <v>0</v>
+      </c>
+      <c r="J1553" s="10">
+        <f>IF(B1553="Pending","",C1553/(VLOOKUP(B1553,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1975.312965070472</v>
+      </c>
+      <c r="K1553" s="10">
+        <f>IF(B1553="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1553,A:A,"&gt;="&amp;A1553-30,B:B,B1553)/(VLOOKUP(B1553,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>916.98036125944736</v>
+      </c>
+      <c r="L1553" s="13">
+        <f>IF(B1553="Pending","",(G1553/C1553)/(VLOOKUP(B1553,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1554" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1554" s="1">
+        <v>44064</v>
+      </c>
+      <c r="B1554" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1554">
+        <v>31387</v>
+      </c>
+      <c r="D1554" s="6">
+        <f t="shared" si="357"/>
+        <v>0.22284939365539178</v>
+      </c>
+      <c r="E1554" s="7">
+        <f t="shared" si="358"/>
+        <v>321</v>
+      </c>
+      <c r="F1554" s="6">
+        <f t="shared" si="359"/>
+        <v>0.19233073696824446</v>
+      </c>
+      <c r="G1554" s="2">
+        <v>16</v>
+      </c>
+      <c r="H1554" s="7">
+        <f t="shared" si="360"/>
+        <v>0</v>
+      </c>
+      <c r="I1554" s="6">
+        <f t="shared" si="361"/>
+        <v>1.0329244673983214E-2</v>
+      </c>
+      <c r="J1554" s="10">
+        <f>IF(B1554="Pending","",C1554/(VLOOKUP(B1554,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>3295.4030036285444</v>
+      </c>
+      <c r="K1554" s="10">
+        <f>IF(B1554="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1554,A:A,"&gt;="&amp;A1554-30,B:B,B1554)/(VLOOKUP(B1554,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1237.4428840209648</v>
+      </c>
+      <c r="L1554" s="13">
+        <f>IF(B1554="Pending","",(G1554/C1554)/(VLOOKUP(B1554,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>5.3521576968992343E-5</v>
+      </c>
+    </row>
+    <row r="1555" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1555" s="1">
+        <v>44064</v>
+      </c>
+      <c r="B1555" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1555">
+        <v>24776</v>
+      </c>
+      <c r="D1555" s="6">
+        <f t="shared" si="357"/>
+        <v>0.17591093692312063</v>
+      </c>
+      <c r="E1555" s="7">
+        <f t="shared" si="358"/>
+        <v>262</v>
+      </c>
+      <c r="F1555" s="6">
+        <f t="shared" si="359"/>
+        <v>0.15698022768124625</v>
+      </c>
+      <c r="G1555" s="2">
+        <v>29</v>
+      </c>
+      <c r="H1555" s="7">
+        <f t="shared" si="360"/>
+        <v>1</v>
+      </c>
+      <c r="I1555" s="6">
+        <f t="shared" si="361"/>
+        <v>1.8721755971594579E-2</v>
+      </c>
+      <c r="J1555" s="10">
+        <f>IF(B1555="Pending","",C1555/(VLOOKUP(B1555,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>2824.4993627320214</v>
+      </c>
+      <c r="K1555" s="10">
+        <f>IF(B1555="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1555,A:A,"&gt;="&amp;A1555-30,B:B,B1555)/(VLOOKUP(B1555,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1055.7672182055719</v>
+      </c>
+      <c r="L1555" s="13">
+        <f>IF(B1555="Pending","",(G1555/C1555)/(VLOOKUP(B1555,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1.3343725345649917E-4</v>
+      </c>
+    </row>
+    <row r="1556" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1556" s="1">
+        <v>44064</v>
+      </c>
+      <c r="B1556" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1556">
+        <v>21458</v>
+      </c>
+      <c r="D1556" s="6">
+        <f t="shared" si="357"/>
+        <v>0.15235295788247991</v>
+      </c>
+      <c r="E1556" s="7">
+        <f t="shared" si="358"/>
+        <v>233</v>
+      </c>
+      <c r="F1556" s="6">
+        <f t="shared" si="359"/>
+        <v>0.1396045536249251</v>
+      </c>
+      <c r="G1556" s="2">
+        <v>77</v>
+      </c>
+      <c r="H1556" s="7">
+        <f t="shared" si="360"/>
+        <v>2</v>
+      </c>
+      <c r="I1556" s="6">
+        <f t="shared" si="361"/>
+        <v>4.9709489993544222E-2</v>
+      </c>
+      <c r="J1556" s="10">
+        <f>IF(B1556="Pending","",C1556/(VLOOKUP(B1556,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>2517.0083986299442</v>
+      </c>
+      <c r="K1556" s="10">
+        <f>IF(B1556="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1556,A:A,"&gt;="&amp;A1556-30,B:B,B1556)/(VLOOKUP(B1556,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1001.6187303523672</v>
+      </c>
+      <c r="L1556" s="13">
+        <f>IF(B1556="Pending","",(G1556/C1556)/(VLOOKUP(B1556,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>4.2091742795250409E-4</v>
+      </c>
+    </row>
+    <row r="1557" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1557" s="1">
+        <v>44064</v>
+      </c>
+      <c r="B1557" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1557">
+        <v>17896</v>
+      </c>
+      <c r="D1557" s="6">
+        <f t="shared" si="357"/>
+        <v>0.12706256567549915</v>
+      </c>
+      <c r="E1557" s="7">
+        <f t="shared" si="358"/>
+        <v>199</v>
+      </c>
+      <c r="F1557" s="6">
+        <f t="shared" si="359"/>
+        <v>0.11923307369682444</v>
+      </c>
+      <c r="G1557" s="2">
+        <v>160</v>
+      </c>
+      <c r="H1557" s="7">
+        <f t="shared" si="360"/>
+        <v>4</v>
+      </c>
+      <c r="I1557" s="6">
+        <f t="shared" si="361"/>
+        <v>0.10329244673983215</v>
+      </c>
+      <c r="J1557" s="10">
+        <f>IF(B1557="Pending","",C1557/(VLOOKUP(B1557,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1998.7468741658395</v>
+      </c>
+      <c r="K1557" s="10">
+        <f>IF(B1557="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1557,A:A,"&gt;="&amp;A1557-30,B:B,B1557)/(VLOOKUP(B1557,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>862.11036665657764</v>
+      </c>
+      <c r="L1557" s="13">
+        <f>IF(B1557="Pending","",(G1557/C1557)/(VLOOKUP(B1557,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>9.9854085371908871E-4</v>
+      </c>
+    </row>
+    <row r="1558" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1558" s="1">
+        <v>44064</v>
+      </c>
+      <c r="B1558" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1558">
+        <v>11634</v>
+      </c>
+      <c r="D1558" s="6">
+        <f t="shared" si="357"/>
+        <v>8.2602027775411091E-2</v>
+      </c>
+      <c r="E1558" s="7">
+        <f t="shared" si="358"/>
+        <v>165</v>
+      </c>
+      <c r="F1558" s="6">
+        <f t="shared" si="359"/>
+        <v>9.8861593768723791E-2</v>
+      </c>
+      <c r="G1558" s="2">
+        <v>300</v>
+      </c>
+      <c r="H1558" s="7">
+        <f t="shared" si="360"/>
+        <v>6</v>
+      </c>
+      <c r="I1558" s="6">
+        <f t="shared" si="361"/>
+        <v>0.19367333763718528</v>
+      </c>
+      <c r="J1558" s="10">
+        <f>IF(B1558="Pending","",C1558/(VLOOKUP(B1558,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1476.3247457609912</v>
+      </c>
+      <c r="K1558" s="10">
+        <f>IF(B1558="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1558,A:A,"&gt;="&amp;A1558-30,B:B,B1558)/(VLOOKUP(B1558,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>722.93468081488459</v>
+      </c>
+      <c r="L1558" s="13">
+        <f>IF(B1558="Pending","",(G1558/C1558)/(VLOOKUP(B1558,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>3.272239140796598E-3</v>
+      </c>
+    </row>
+    <row r="1559" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1559" s="1">
+        <v>44064</v>
+      </c>
+      <c r="B1559" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1559">
+        <v>6222</v>
+      </c>
+      <c r="D1559" s="6">
+        <f t="shared" si="357"/>
+        <v>4.4176535741671637E-2</v>
+      </c>
+      <c r="E1559" s="7">
+        <f t="shared" si="358"/>
+        <v>75</v>
+      </c>
+      <c r="F1559" s="6">
+        <f t="shared" si="359"/>
+        <v>4.4937088076692631E-2</v>
+      </c>
+      <c r="G1559" s="2">
+        <v>461</v>
+      </c>
+      <c r="H1559" s="7">
+        <f t="shared" si="360"/>
+        <v>27</v>
+      </c>
+      <c r="I1559" s="6">
+        <f t="shared" si="361"/>
+        <v>0.29761136216914136</v>
+      </c>
+      <c r="J1559" s="10">
+        <f>IF(B1559="Pending","",C1559/(VLOOKUP(B1559,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1297.339224390478</v>
+      </c>
+      <c r="K1559" s="10">
+        <f>IF(B1559="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1559,A:A,"&gt;="&amp;A1559-30,B:B,B1559)/(VLOOKUP(B1559,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>649.92066255627128</v>
+      </c>
+      <c r="L1559" s="13">
+        <f>IF(B1559="Pending","",(G1559/C1559)/(VLOOKUP(B1559,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1.5448789682735525E-2</v>
+      </c>
+    </row>
+    <row r="1560" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1560" s="1">
+        <v>44064</v>
+      </c>
+      <c r="B1560" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1560">
+        <v>3413</v>
+      </c>
+      <c r="D1560" s="6">
+        <f t="shared" si="357"/>
+        <v>2.4232484166879668E-2</v>
+      </c>
+      <c r="E1560" s="7">
+        <f t="shared" si="358"/>
+        <v>49</v>
+      </c>
+      <c r="F1560" s="6">
+        <f t="shared" si="359"/>
+        <v>2.9358897543439184E-2</v>
+      </c>
+      <c r="G1560" s="2">
+        <v>502</v>
+      </c>
+      <c r="H1560" s="7">
+        <f t="shared" si="360"/>
+        <v>21</v>
+      </c>
+      <c r="I1560" s="6">
+        <f t="shared" si="361"/>
+        <v>0.32408005164622339</v>
+      </c>
+      <c r="J1560" s="10">
+        <f>IF(B1560="Pending","",C1560/(VLOOKUP(B1560,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1541.7696244731646</v>
+      </c>
+      <c r="K1560" s="10">
+        <f>IF(B1560="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1560,A:A,"&gt;="&amp;A1560-30,B:B,B1560)/(VLOOKUP(B1560,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>753.49303651369428</v>
+      </c>
+      <c r="L1560" s="13">
+        <f>IF(B1560="Pending","",(G1560/C1560)/(VLOOKUP(B1560,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>6.6443213023464828E-2</v>
+      </c>
+    </row>
+    <row r="1561" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1561" s="1">
+        <v>44064</v>
+      </c>
+      <c r="B1561" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1561">
+        <v>212</v>
+      </c>
+      <c r="D1561" s="6">
+        <f t="shared" si="357"/>
+        <v>1.5052114396069409E-3</v>
+      </c>
+      <c r="E1561" s="7">
+        <f t="shared" si="358"/>
+        <v>-1</v>
+      </c>
+      <c r="F1561" s="6">
+        <f t="shared" si="359"/>
+        <v>-5.9916117435590175E-4</v>
+      </c>
+      <c r="G1561" s="2">
+        <v>0</v>
+      </c>
+      <c r="H1561" s="7">
+        <f t="shared" si="360"/>
+        <v>0</v>
+      </c>
+      <c r="I1561" s="6">
+        <f t="shared" si="361"/>
+        <v>0</v>
+      </c>
+      <c r="J1561" s="10" t="str">
+        <f>IF(B1561="Pending","",C1561/(VLOOKUP(B1561,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v/>
+      </c>
+      <c r="K1561" s="10" t="str">
+        <f>IF(B1561="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1561,A:A,"&gt;="&amp;A1561-30,B:B,B1561)/(VLOOKUP(B1561,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v/>
+      </c>
+      <c r="L1561" s="13" t="str">
+        <f>IF(B1561="Pending","",(G1561/C1561)/(VLOOKUP(B1561,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v/>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:L1251"/>

--- a/TN_Age.xlsx
+++ b/TN_Age.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1505" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1595" uniqueCount="33">
   <si>
     <t>0-10</t>
   </si>
@@ -482,11 +482,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M1481"/>
+  <dimension ref="A1:M1571"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1461" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A1481" sqref="A1481"/>
+      <pane ySplit="1" topLeftCell="A1552" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A1571" sqref="A1571"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -64479,6 +64479,4146 @@
       </c>
       <c r="L1481" s="13" t="str">
         <f>IF(B1481="Pending","",(G1481/C1481)/(VLOOKUP(B1481,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="1482" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1482" s="1">
+        <v>44057</v>
+      </c>
+      <c r="B1482" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1482" s="2">
+        <v>6352</v>
+      </c>
+      <c r="D1482" s="6">
+        <f t="shared" ref="D1482:D1491" si="322">C1482/SUMIF(A:A,A1482,C:C)</f>
+        <v>4.8689999846693956E-2</v>
+      </c>
+      <c r="E1482" s="7">
+        <f t="shared" ref="E1482:E1491" si="323">C1482-SUMIFS(C:C,A:A,A1482-1,B:B,B1482)</f>
+        <v>107</v>
+      </c>
+      <c r="F1482" s="6">
+        <f t="shared" ref="F1482:F1491" si="324">E1482/SUMIF(A:A,A1482,E:E)</f>
+        <v>5.4956343091936311E-2</v>
+      </c>
+      <c r="G1482" s="2">
+        <v>4</v>
+      </c>
+      <c r="H1482" s="7">
+        <f t="shared" ref="H1482:H1490" si="325">G1482-SUMIFS(G:G,A:A,A1482-1,B:B,B1482)</f>
+        <v>0</v>
+      </c>
+      <c r="I1482" s="6">
+        <f t="shared" ref="I1482:I1490" si="326">G1482/SUMIF(A:A,A1482,G:G)</f>
+        <v>3.0165912518853697E-3</v>
+      </c>
+      <c r="J1482" s="10">
+        <f>IF(B1482="Pending","",C1482/(VLOOKUP(B1482,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>701.15483026357322</v>
+      </c>
+      <c r="K1482" s="10">
+        <f>IF(B1482="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1482,A:A,"&gt;="&amp;A1482-30,B:B,B1482)/(VLOOKUP(B1482,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>367.24529601494146</v>
+      </c>
+      <c r="L1482" s="13">
+        <f>IF(B1482="Pending","",(G1482/C1482)/(VLOOKUP(B1482,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>6.9510904979210145E-5</v>
+      </c>
+    </row>
+    <row r="1483" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1483" s="1">
+        <v>44057</v>
+      </c>
+      <c r="B1483" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1483" s="2">
+        <v>15281</v>
+      </c>
+      <c r="D1483" s="6">
+        <f t="shared" si="322"/>
+        <v>0.1171334835732573</v>
+      </c>
+      <c r="E1483" s="7">
+        <f t="shared" si="323"/>
+        <v>230</v>
+      </c>
+      <c r="F1483" s="6">
+        <f t="shared" si="324"/>
+        <v>0.11813045711350796</v>
+      </c>
+      <c r="G1483" s="2">
+        <v>0</v>
+      </c>
+      <c r="H1483" s="7">
+        <f t="shared" si="325"/>
+        <v>0</v>
+      </c>
+      <c r="I1483" s="6">
+        <f t="shared" si="326"/>
+        <v>0</v>
+      </c>
+      <c r="J1483" s="10">
+        <f>IF(B1483="Pending","",C1483/(VLOOKUP(B1483,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1783.6528641045843</v>
+      </c>
+      <c r="K1483" s="10">
+        <f>IF(B1483="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1483,A:A,"&gt;="&amp;A1483-30,B:B,B1483)/(VLOOKUP(B1483,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>974.40835740756961</v>
+      </c>
+      <c r="L1483" s="13">
+        <f>IF(B1483="Pending","",(G1483/C1483)/(VLOOKUP(B1483,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1484" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1484" s="1">
+        <v>44057</v>
+      </c>
+      <c r="B1484" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1484" s="2">
+        <v>29440</v>
+      </c>
+      <c r="D1484" s="6">
+        <f t="shared" si="322"/>
+        <v>0.22566649803001732</v>
+      </c>
+      <c r="E1484" s="7">
+        <f t="shared" si="323"/>
+        <v>324</v>
+      </c>
+      <c r="F1484" s="6">
+        <f t="shared" si="324"/>
+        <v>0.16640986132511557</v>
+      </c>
+      <c r="G1484" s="2">
+        <v>14</v>
+      </c>
+      <c r="H1484" s="7">
+        <f t="shared" si="325"/>
+        <v>0</v>
+      </c>
+      <c r="I1484" s="6">
+        <f t="shared" si="326"/>
+        <v>1.0558069381598794E-2</v>
+      </c>
+      <c r="J1484" s="10">
+        <f>IF(B1484="Pending","",C1484/(VLOOKUP(B1484,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>3090.9823948394032</v>
+      </c>
+      <c r="K1484" s="10">
+        <f>IF(B1484="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1484,A:A,"&gt;="&amp;A1484-30,B:B,B1484)/(VLOOKUP(B1484,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1412.7805402499664</v>
+      </c>
+      <c r="L1484" s="13">
+        <f>IF(B1484="Pending","",(G1484/C1484)/(VLOOKUP(B1484,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>4.9928550247453884E-5</v>
+      </c>
+    </row>
+    <row r="1485" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1485" s="1">
+        <v>44057</v>
+      </c>
+      <c r="B1485" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1485" s="2">
+        <v>23203</v>
+      </c>
+      <c r="D1485" s="6">
+        <f t="shared" si="322"/>
+        <v>0.17785800794125312</v>
+      </c>
+      <c r="E1485" s="7">
+        <f t="shared" si="323"/>
+        <v>309</v>
+      </c>
+      <c r="F1485" s="6">
+        <f t="shared" si="324"/>
+        <v>0.15870570107858242</v>
+      </c>
+      <c r="G1485" s="2">
+        <v>25</v>
+      </c>
+      <c r="H1485" s="7">
+        <f t="shared" si="325"/>
+        <v>1</v>
+      </c>
+      <c r="I1485" s="6">
+        <f t="shared" si="326"/>
+        <v>1.8853695324283559E-2</v>
+      </c>
+      <c r="J1485" s="10">
+        <f>IF(B1485="Pending","",C1485/(VLOOKUP(B1485,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>2645.1751175924724</v>
+      </c>
+      <c r="K1485" s="10">
+        <f>IF(B1485="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1485,A:A,"&gt;="&amp;A1485-30,B:B,B1485)/(VLOOKUP(B1485,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1162.9285598655695</v>
+      </c>
+      <c r="L1485" s="13">
+        <f>IF(B1485="Pending","",(G1485/C1485)/(VLOOKUP(B1485,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1.228304823706738E-4</v>
+      </c>
+    </row>
+    <row r="1486" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1486" s="1">
+        <v>44057</v>
+      </c>
+      <c r="B1486" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1486" s="2">
+        <v>19992</v>
+      </c>
+      <c r="D1486" s="6">
+        <f t="shared" si="322"/>
+        <v>0.15324472243940579</v>
+      </c>
+      <c r="E1486" s="7">
+        <f t="shared" si="323"/>
+        <v>279</v>
+      </c>
+      <c r="F1486" s="6">
+        <f t="shared" si="324"/>
+        <v>0.14329738058551617</v>
+      </c>
+      <c r="G1486" s="2">
+        <v>73</v>
+      </c>
+      <c r="H1486" s="7">
+        <f t="shared" si="325"/>
+        <v>1</v>
+      </c>
+      <c r="I1486" s="6">
+        <f t="shared" si="326"/>
+        <v>5.5052790346907993E-2</v>
+      </c>
+      <c r="J1486" s="10">
+        <f>IF(B1486="Pending","",C1486/(VLOOKUP(B1486,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>2345.0476235161641</v>
+      </c>
+      <c r="K1486" s="10">
+        <f>IF(B1486="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1486,A:A,"&gt;="&amp;A1486-30,B:B,B1486)/(VLOOKUP(B1486,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1092.994885750481</v>
+      </c>
+      <c r="L1486" s="13">
+        <f>IF(B1486="Pending","",(G1486/C1486)/(VLOOKUP(B1486,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>4.2831377378052055E-4</v>
+      </c>
+    </row>
+    <row r="1487" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1487" s="1">
+        <v>44057</v>
+      </c>
+      <c r="B1487" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1487" s="2">
+        <v>16500</v>
+      </c>
+      <c r="D1487" s="6">
+        <f t="shared" si="322"/>
+        <v>0.12647748700731271</v>
+      </c>
+      <c r="E1487" s="7">
+        <f t="shared" si="323"/>
+        <v>300</v>
+      </c>
+      <c r="F1487" s="6">
+        <f t="shared" si="324"/>
+        <v>0.15408320493066255</v>
+      </c>
+      <c r="G1487" s="2">
+        <v>142</v>
+      </c>
+      <c r="H1487" s="7">
+        <f t="shared" si="325"/>
+        <v>1</v>
+      </c>
+      <c r="I1487" s="6">
+        <f t="shared" si="326"/>
+        <v>0.10708898944193061</v>
+      </c>
+      <c r="J1487" s="10">
+        <f>IF(B1487="Pending","",C1487/(VLOOKUP(B1487,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1842.8321090599211</v>
+      </c>
+      <c r="K1487" s="10">
+        <f>IF(B1487="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1487,A:A,"&gt;="&amp;A1487-30,B:B,B1487)/(VLOOKUP(B1487,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>914.93822044962872</v>
+      </c>
+      <c r="L1487" s="13">
+        <f>IF(B1487="Pending","",(G1487/C1487)/(VLOOKUP(B1487,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>9.6118332226449526E-4</v>
+      </c>
+    </row>
+    <row r="1488" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1488" s="1">
+        <v>44057</v>
+      </c>
+      <c r="B1488" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1488" s="2">
+        <v>10621</v>
+      </c>
+      <c r="D1488" s="6">
+        <f t="shared" si="322"/>
+        <v>8.1413175121495041E-2</v>
+      </c>
+      <c r="E1488" s="7">
+        <f t="shared" si="323"/>
+        <v>211</v>
+      </c>
+      <c r="F1488" s="6">
+        <f t="shared" si="324"/>
+        <v>0.108371854134566</v>
+      </c>
+      <c r="G1488" s="2">
+        <v>273</v>
+      </c>
+      <c r="H1488" s="7">
+        <f t="shared" si="325"/>
+        <v>4</v>
+      </c>
+      <c r="I1488" s="6">
+        <f t="shared" si="326"/>
+        <v>0.20588235294117646</v>
+      </c>
+      <c r="J1488" s="10">
+        <f>IF(B1488="Pending","",C1488/(VLOOKUP(B1488,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1347.777645240458</v>
+      </c>
+      <c r="K1488" s="10">
+        <f>IF(B1488="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1488,A:A,"&gt;="&amp;A1488-30,B:B,B1488)/(VLOOKUP(B1488,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>739.30444978541641</v>
+      </c>
+      <c r="L1488" s="13">
+        <f>IF(B1488="Pending","",(G1488/C1488)/(VLOOKUP(B1488,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>3.261745546489515E-3</v>
+      </c>
+    </row>
+    <row r="1489" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1489" s="1">
+        <v>44057</v>
+      </c>
+      <c r="B1489" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1489" s="2">
+        <v>5705</v>
+      </c>
+      <c r="D1489" s="6">
+        <f t="shared" si="322"/>
+        <v>4.3730549295558724E-2</v>
+      </c>
+      <c r="E1489" s="7">
+        <f t="shared" si="323"/>
+        <v>116</v>
+      </c>
+      <c r="F1489" s="6">
+        <f t="shared" si="324"/>
+        <v>5.9578839239856192E-2</v>
+      </c>
+      <c r="G1489" s="2">
+        <v>384</v>
+      </c>
+      <c r="H1489" s="7">
+        <f t="shared" si="325"/>
+        <v>4</v>
+      </c>
+      <c r="I1489" s="6">
+        <f t="shared" si="326"/>
+        <v>0.2895927601809955</v>
+      </c>
+      <c r="J1489" s="10">
+        <f>IF(B1489="Pending","",C1489/(VLOOKUP(B1489,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1189.5403849481961</v>
+      </c>
+      <c r="K1489" s="10">
+        <f>IF(B1489="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1489,A:A,"&gt;="&amp;A1489-30,B:B,B1489)/(VLOOKUP(B1489,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>671.81404387433622</v>
+      </c>
+      <c r="L1489" s="13">
+        <f>IF(B1489="Pending","",(G1489/C1489)/(VLOOKUP(B1489,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1.4034570220169349E-2</v>
+      </c>
+    </row>
+    <row r="1490" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1490" s="1">
+        <v>44057</v>
+      </c>
+      <c r="B1490" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1490" s="2">
+        <v>3152</v>
+      </c>
+      <c r="D1490" s="6">
+        <f t="shared" si="322"/>
+        <v>2.4161032669518159E-2</v>
+      </c>
+      <c r="E1490" s="7">
+        <f t="shared" si="323"/>
+        <v>70</v>
+      </c>
+      <c r="F1490" s="6">
+        <f t="shared" si="324"/>
+        <v>3.5952747817154594E-2</v>
+      </c>
+      <c r="G1490" s="2">
+        <v>411</v>
+      </c>
+      <c r="H1490" s="7">
+        <f t="shared" si="325"/>
+        <v>2</v>
+      </c>
+      <c r="I1490" s="6">
+        <f t="shared" si="326"/>
+        <v>0.30995475113122173</v>
+      </c>
+      <c r="J1490" s="10">
+        <f>IF(B1490="Pending","",C1490/(VLOOKUP(B1490,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1423.8669371050146</v>
+      </c>
+      <c r="K1490" s="10">
+        <f>IF(B1490="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1490,A:A,"&gt;="&amp;A1490-30,B:B,B1490)/(VLOOKUP(B1490,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>791.43872899999542</v>
+      </c>
+      <c r="L1490" s="13">
+        <f>IF(B1490="Pending","",(G1490/C1490)/(VLOOKUP(B1490,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>5.8903189251985788E-2</v>
+      </c>
+    </row>
+    <row r="1491" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1491" s="1">
+        <v>44057</v>
+      </c>
+      <c r="B1491" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1491" s="2">
+        <v>212</v>
+      </c>
+      <c r="D1491" s="6">
+        <f t="shared" si="322"/>
+        <v>1.6250440754878965E-3</v>
+      </c>
+      <c r="E1491" s="7">
+        <f t="shared" si="323"/>
+        <v>1</v>
+      </c>
+      <c r="F1491" s="6">
+        <f t="shared" si="324"/>
+        <v>5.1361068310220854E-4</v>
+      </c>
+      <c r="G1491" s="2">
+        <v>0</v>
+      </c>
+      <c r="H1491" s="7">
+        <f t="shared" ref="H1491:H1501" si="327">G1491-SUMIFS(G:G,A:A,A1491-1,B:B,B1491)</f>
+        <v>0</v>
+      </c>
+      <c r="I1491" s="6">
+        <f t="shared" ref="I1491:I1501" si="328">G1491/SUMIF(A:A,A1491,G:G)</f>
+        <v>0</v>
+      </c>
+      <c r="J1491" s="10" t="str">
+        <f>IF(B1491="Pending","",C1491/(VLOOKUP(B1491,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v/>
+      </c>
+      <c r="K1491" s="10" t="str">
+        <f>IF(B1491="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1491,A:A,"&gt;="&amp;A1491-30,B:B,B1491)/(VLOOKUP(B1491,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v/>
+      </c>
+      <c r="L1491" s="13" t="str">
+        <f>IF(B1491="Pending","",(G1491/C1491)/(VLOOKUP(B1491,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="1492" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1492" s="1">
+        <v>44058</v>
+      </c>
+      <c r="B1492" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1492" s="2">
+        <v>6434</v>
+      </c>
+      <c r="D1492" s="6">
+        <f t="shared" ref="D1492:D1501" si="329">C1492/SUMIF(A:A,A1492,C:C)</f>
+        <v>4.8836026626792262E-2</v>
+      </c>
+      <c r="E1492" s="7">
+        <f t="shared" ref="E1492:E1501" si="330">C1492-SUMIFS(C:C,A:A,A1492-1,B:B,B1492)</f>
+        <v>82</v>
+      </c>
+      <c r="F1492" s="6">
+        <f t="shared" ref="F1492:F1501" si="331">E1492/SUMIF(A:A,A1492,E:E)</f>
+        <v>6.3615205585725365E-2</v>
+      </c>
+      <c r="G1492" s="2">
+        <v>4</v>
+      </c>
+      <c r="H1492" s="7">
+        <f t="shared" si="327"/>
+        <v>0</v>
+      </c>
+      <c r="I1492" s="6">
+        <f t="shared" si="328"/>
+        <v>2.9739776951672862E-3</v>
+      </c>
+      <c r="J1492" s="10">
+        <f>IF(B1492="Pending","",C1492/(VLOOKUP(B1492,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>710.20626226634602</v>
+      </c>
+      <c r="K1492" s="10">
+        <f>IF(B1492="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1492,A:A,"&gt;="&amp;A1492-30,B:B,B1492)/(VLOOKUP(B1492,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>365.81031289255066</v>
+      </c>
+      <c r="L1492" s="13">
+        <f>IF(B1492="Pending","",(G1492/C1492)/(VLOOKUP(B1492,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>6.862500286415027E-5</v>
+      </c>
+    </row>
+    <row r="1493" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1493" s="1">
+        <v>44058</v>
+      </c>
+      <c r="B1493" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1493" s="2">
+        <v>15483</v>
+      </c>
+      <c r="D1493" s="6">
+        <f t="shared" si="329"/>
+        <v>0.11752070255869204</v>
+      </c>
+      <c r="E1493" s="7">
+        <f t="shared" si="330"/>
+        <v>202</v>
+      </c>
+      <c r="F1493" s="6">
+        <f t="shared" si="331"/>
+        <v>0.15671062839410396</v>
+      </c>
+      <c r="G1493" s="2">
+        <v>0</v>
+      </c>
+      <c r="H1493" s="7">
+        <f t="shared" si="327"/>
+        <v>0</v>
+      </c>
+      <c r="I1493" s="6">
+        <f t="shared" si="328"/>
+        <v>0</v>
+      </c>
+      <c r="J1493" s="10">
+        <f>IF(B1493="Pending","",C1493/(VLOOKUP(B1493,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1807.2310251247484</v>
+      </c>
+      <c r="K1493" s="10">
+        <f>IF(B1493="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1493,A:A,"&gt;="&amp;A1493-30,B:B,B1493)/(VLOOKUP(B1493,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>960.28480550935251</v>
+      </c>
+      <c r="L1493" s="13">
+        <f>IF(B1493="Pending","",(G1493/C1493)/(VLOOKUP(B1493,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1494" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1494" s="1">
+        <v>44058</v>
+      </c>
+      <c r="B1494" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1494" s="2">
+        <v>29664</v>
+      </c>
+      <c r="D1494" s="6">
+        <f t="shared" si="329"/>
+        <v>0.22515882714596916</v>
+      </c>
+      <c r="E1494" s="7">
+        <f t="shared" si="330"/>
+        <v>224</v>
+      </c>
+      <c r="F1494" s="6">
+        <f t="shared" si="331"/>
+        <v>0.17377812257564004</v>
+      </c>
+      <c r="G1494" s="2">
+        <v>14</v>
+      </c>
+      <c r="H1494" s="7">
+        <f t="shared" si="327"/>
+        <v>0</v>
+      </c>
+      <c r="I1494" s="6">
+        <f t="shared" si="328"/>
+        <v>1.0408921933085501E-2</v>
+      </c>
+      <c r="J1494" s="10">
+        <f>IF(B1494="Pending","",C1494/(VLOOKUP(B1494,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>3114.5007391479639</v>
+      </c>
+      <c r="K1494" s="10">
+        <f>IF(B1494="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1494,A:A,"&gt;="&amp;A1494-30,B:B,B1494)/(VLOOKUP(B1494,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1379.1829055234512</v>
+      </c>
+      <c r="L1494" s="13">
+        <f>IF(B1494="Pending","",(G1494/C1494)/(VLOOKUP(B1494,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>4.9551527753675912E-5</v>
+      </c>
+    </row>
+    <row r="1495" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1495" s="1">
+        <v>44058</v>
+      </c>
+      <c r="B1495" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1495" s="2">
+        <v>23412</v>
+      </c>
+      <c r="D1495" s="6">
+        <f t="shared" si="329"/>
+        <v>0.17770423614958974</v>
+      </c>
+      <c r="E1495" s="7">
+        <f t="shared" si="330"/>
+        <v>209</v>
+      </c>
+      <c r="F1495" s="6">
+        <f t="shared" si="331"/>
+        <v>0.16214119472459271</v>
+      </c>
+      <c r="G1495" s="2">
+        <v>26</v>
+      </c>
+      <c r="H1495" s="7">
+        <f t="shared" si="327"/>
+        <v>1</v>
+      </c>
+      <c r="I1495" s="6">
+        <f t="shared" si="328"/>
+        <v>1.9330855018587362E-2</v>
+      </c>
+      <c r="J1495" s="10">
+        <f>IF(B1495="Pending","",C1495/(VLOOKUP(B1495,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>2669.0014158977269</v>
+      </c>
+      <c r="K1495" s="10">
+        <f>IF(B1495="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1495,A:A,"&gt;="&amp;A1495-30,B:B,B1495)/(VLOOKUP(B1495,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1143.5483172249317</v>
+      </c>
+      <c r="L1495" s="13">
+        <f>IF(B1495="Pending","",(G1495/C1495)/(VLOOKUP(B1495,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1.26603327769717E-4</v>
+      </c>
+    </row>
+    <row r="1496" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1496" s="1">
+        <v>44058</v>
+      </c>
+      <c r="B1496" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1496" s="2">
+        <v>20179</v>
+      </c>
+      <c r="D1496" s="6">
+        <f t="shared" si="329"/>
+        <v>0.15316477794560787</v>
+      </c>
+      <c r="E1496" s="7">
+        <f t="shared" si="330"/>
+        <v>187</v>
+      </c>
+      <c r="F1496" s="6">
+        <f t="shared" si="331"/>
+        <v>0.14507370054305663</v>
+      </c>
+      <c r="G1496" s="2">
+        <v>73</v>
+      </c>
+      <c r="H1496" s="7">
+        <f t="shared" si="327"/>
+        <v>0</v>
+      </c>
+      <c r="I1496" s="6">
+        <f t="shared" si="328"/>
+        <v>5.4275092936802972E-2</v>
+      </c>
+      <c r="J1496" s="10">
+        <f>IF(B1496="Pending","",C1496/(VLOOKUP(B1496,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>2366.9825927837469</v>
+      </c>
+      <c r="K1496" s="10">
+        <f>IF(B1496="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1496,A:A,"&gt;="&amp;A1496-30,B:B,B1496)/(VLOOKUP(B1496,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1073.7578004035097</v>
+      </c>
+      <c r="L1496" s="13">
+        <f>IF(B1496="Pending","",(G1496/C1496)/(VLOOKUP(B1496,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>4.2434456441945416E-4</v>
+      </c>
+    </row>
+    <row r="1497" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1497" s="1">
+        <v>44058</v>
+      </c>
+      <c r="B1497" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1497" s="2">
+        <v>16684</v>
+      </c>
+      <c r="D1497" s="6">
+        <f t="shared" si="329"/>
+        <v>0.12663665965828444</v>
+      </c>
+      <c r="E1497" s="7">
+        <f t="shared" si="330"/>
+        <v>184</v>
+      </c>
+      <c r="F1497" s="6">
+        <f t="shared" si="331"/>
+        <v>0.14274631497284718</v>
+      </c>
+      <c r="G1497" s="2">
+        <v>143</v>
+      </c>
+      <c r="H1497" s="7">
+        <f t="shared" si="327"/>
+        <v>1</v>
+      </c>
+      <c r="I1497" s="6">
+        <f t="shared" si="328"/>
+        <v>0.10631970260223049</v>
+      </c>
+      <c r="J1497" s="10">
+        <f>IF(B1497="Pending","",C1497/(VLOOKUP(B1497,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1863.3824792458015</v>
+      </c>
+      <c r="K1497" s="10">
+        <f>IF(B1497="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1497,A:A,"&gt;="&amp;A1497-30,B:B,B1497)/(VLOOKUP(B1497,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>900.53062396061478</v>
+      </c>
+      <c r="L1497" s="13">
+        <f>IF(B1497="Pending","",(G1497/C1497)/(VLOOKUP(B1497,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>9.5727712849752152E-4</v>
+      </c>
+    </row>
+    <row r="1498" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1498" s="1">
+        <v>44058</v>
+      </c>
+      <c r="B1498" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1498" s="2">
+        <v>10734</v>
+      </c>
+      <c r="D1498" s="6">
+        <f t="shared" si="329"/>
+        <v>8.1474340971710926E-2</v>
+      </c>
+      <c r="E1498" s="7">
+        <f t="shared" si="330"/>
+        <v>113</v>
+      </c>
+      <c r="F1498" s="6">
+        <f t="shared" si="331"/>
+        <v>8.7664856477889838E-2</v>
+      </c>
+      <c r="G1498" s="2">
+        <v>275</v>
+      </c>
+      <c r="H1498" s="7">
+        <f t="shared" si="327"/>
+        <v>2</v>
+      </c>
+      <c r="I1498" s="6">
+        <f t="shared" si="328"/>
+        <v>0.20446096654275092</v>
+      </c>
+      <c r="J1498" s="10">
+        <f>IF(B1498="Pending","",C1498/(VLOOKUP(B1498,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1362.1170552689084</v>
+      </c>
+      <c r="K1498" s="10">
+        <f>IF(B1498="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1498,A:A,"&gt;="&amp;A1498-30,B:B,B1498)/(VLOOKUP(B1498,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>733.72096269469239</v>
+      </c>
+      <c r="L1498" s="13">
+        <f>IF(B1498="Pending","",(G1498/C1498)/(VLOOKUP(B1498,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>3.2510522002073151E-3</v>
+      </c>
+    </row>
+    <row r="1499" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1499" s="1">
+        <v>44058</v>
+      </c>
+      <c r="B1499" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1499" s="2">
+        <v>5762</v>
+      </c>
+      <c r="D1499" s="6">
+        <f t="shared" si="329"/>
+        <v>4.373534122219102E-2</v>
+      </c>
+      <c r="E1499" s="7">
+        <f t="shared" si="330"/>
+        <v>57</v>
+      </c>
+      <c r="F1499" s="6">
+        <f t="shared" si="331"/>
+        <v>4.4220325833979827E-2</v>
+      </c>
+      <c r="G1499" s="2">
+        <v>389</v>
+      </c>
+      <c r="H1499" s="7">
+        <f t="shared" si="327"/>
+        <v>5</v>
+      </c>
+      <c r="I1499" s="6">
+        <f t="shared" si="328"/>
+        <v>0.28921933085501861</v>
+      </c>
+      <c r="J1499" s="10">
+        <f>IF(B1499="Pending","",C1499/(VLOOKUP(B1499,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1201.4253633780029</v>
+      </c>
+      <c r="K1499" s="10">
+        <f>IF(B1499="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1499,A:A,"&gt;="&amp;A1499-30,B:B,B1499)/(VLOOKUP(B1499,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>662.84818295360481</v>
+      </c>
+      <c r="L1499" s="13">
+        <f>IF(B1499="Pending","",(G1499/C1499)/(VLOOKUP(B1499,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1.4076668704198724E-2</v>
+      </c>
+    </row>
+    <row r="1500" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1500" s="1">
+        <v>44058</v>
+      </c>
+      <c r="B1500" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1500" s="2">
+        <v>3186</v>
+      </c>
+      <c r="D1500" s="6">
+        <f t="shared" si="329"/>
+        <v>2.4182713837886251E-2</v>
+      </c>
+      <c r="E1500" s="7">
+        <f t="shared" si="330"/>
+        <v>34</v>
+      </c>
+      <c r="F1500" s="6">
+        <f t="shared" si="331"/>
+        <v>2.6377036462373934E-2</v>
+      </c>
+      <c r="G1500" s="2">
+        <v>421</v>
+      </c>
+      <c r="H1500" s="7">
+        <f t="shared" si="327"/>
+        <v>10</v>
+      </c>
+      <c r="I1500" s="6">
+        <f t="shared" si="328"/>
+        <v>0.31301115241635685</v>
+      </c>
+      <c r="J1500" s="10">
+        <f>IF(B1500="Pending","",C1500/(VLOOKUP(B1500,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1439.2259078732793</v>
+      </c>
+      <c r="K1500" s="10">
+        <f>IF(B1500="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1500,A:A,"&gt;="&amp;A1500-30,B:B,B1500)/(VLOOKUP(B1500,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>789.18005682819182</v>
+      </c>
+      <c r="L1500" s="13">
+        <f>IF(B1500="Pending","",(G1500/C1500)/(VLOOKUP(B1500,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>5.9692466059593996E-2</v>
+      </c>
+    </row>
+    <row r="1501" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1501" s="1">
+        <v>44058</v>
+      </c>
+      <c r="B1501" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1501" s="2">
+        <v>209</v>
+      </c>
+      <c r="D1501" s="6">
+        <f t="shared" si="329"/>
+        <v>1.5863738832762795E-3</v>
+      </c>
+      <c r="E1501" s="7">
+        <f t="shared" si="330"/>
+        <v>-3</v>
+      </c>
+      <c r="F1501" s="6">
+        <f t="shared" si="331"/>
+        <v>-2.3273855702094647E-3</v>
+      </c>
+      <c r="G1501" s="2">
+        <v>0</v>
+      </c>
+      <c r="H1501" s="7">
+        <f t="shared" si="327"/>
+        <v>0</v>
+      </c>
+      <c r="I1501" s="6">
+        <f t="shared" si="328"/>
+        <v>0</v>
+      </c>
+      <c r="J1501" s="10" t="str">
+        <f>IF(B1501="Pending","",C1501/(VLOOKUP(B1501,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v/>
+      </c>
+      <c r="K1501" s="10" t="str">
+        <f>IF(B1501="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1501,A:A,"&gt;="&amp;A1501-30,B:B,B1501)/(VLOOKUP(B1501,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v/>
+      </c>
+      <c r="L1501" s="13" t="str">
+        <f>IF(B1501="Pending","",(G1501/C1501)/(VLOOKUP(B1501,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="1502" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1502" s="1">
+        <v>44059</v>
+      </c>
+      <c r="B1502" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1502">
+        <v>6554</v>
+      </c>
+      <c r="D1502" s="6">
+        <f t="shared" ref="D1502:D1511" si="332">C1502/SUMIF(A:A,A1502,C:C)</f>
+        <v>4.9017261495198493E-2</v>
+      </c>
+      <c r="E1502" s="7">
+        <f t="shared" ref="E1502:E1511" si="333">C1502-SUMIFS(C:C,A:A,A1502-1,B:B,B1502)</f>
+        <v>120</v>
+      </c>
+      <c r="F1502" s="6">
+        <f t="shared" ref="F1502:F1511" si="334">E1502/SUMIF(A:A,A1502,E:E)</f>
+        <v>6.1193268740438553E-2</v>
+      </c>
+      <c r="G1502" s="2">
+        <v>4</v>
+      </c>
+      <c r="H1502" s="7">
+        <f t="shared" ref="H1502:H1511" si="335">G1502-SUMIFS(G:G,A:A,A1502-1,B:B,B1502)</f>
+        <v>0</v>
+      </c>
+      <c r="I1502" s="6">
+        <f t="shared" ref="I1502:I1511" si="336">G1502/SUMIF(A:A,A1502,G:G)</f>
+        <v>2.9282576866764276E-3</v>
+      </c>
+      <c r="J1502" s="10">
+        <f>IF(B1502="Pending","",C1502/(VLOOKUP(B1502,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>723.45226031918435</v>
+      </c>
+      <c r="K1502" s="10">
+        <f>IF(B1502="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1502,A:A,"&gt;="&amp;A1502-30,B:B,B1502)/(VLOOKUP(B1502,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>366.03107952676464</v>
+      </c>
+      <c r="L1502" s="13">
+        <f>IF(B1502="Pending","",(G1502/C1502)/(VLOOKUP(B1502,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>6.7368518222145693E-5</v>
+      </c>
+    </row>
+    <row r="1503" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1503" s="1">
+        <v>44059</v>
+      </c>
+      <c r="B1503" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1503">
+        <v>15829</v>
+      </c>
+      <c r="D1503" s="6">
+        <f t="shared" si="332"/>
+        <v>0.1183848386035241</v>
+      </c>
+      <c r="E1503" s="7">
+        <f t="shared" si="333"/>
+        <v>346</v>
+      </c>
+      <c r="F1503" s="6">
+        <f t="shared" si="334"/>
+        <v>0.17644059153493116</v>
+      </c>
+      <c r="G1503" s="2">
+        <v>0</v>
+      </c>
+      <c r="H1503" s="7">
+        <f t="shared" si="335"/>
+        <v>0</v>
+      </c>
+      <c r="I1503" s="6">
+        <f t="shared" si="336"/>
+        <v>0</v>
+      </c>
+      <c r="J1503" s="10">
+        <f>IF(B1503="Pending","",C1503/(VLOOKUP(B1503,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1847.6173801394848</v>
+      </c>
+      <c r="K1503" s="10">
+        <f>IF(B1503="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1503,A:A,"&gt;="&amp;A1503-30,B:B,B1503)/(VLOOKUP(B1503,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>955.03224488604872</v>
+      </c>
+      <c r="L1503" s="13">
+        <f>IF(B1503="Pending","",(G1503/C1503)/(VLOOKUP(B1503,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1504" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1504" s="1">
+        <v>44059</v>
+      </c>
+      <c r="B1504" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1504">
+        <v>30046</v>
+      </c>
+      <c r="D1504" s="6">
+        <f t="shared" si="332"/>
+        <v>0.22471355491070094</v>
+      </c>
+      <c r="E1504" s="7">
+        <f t="shared" si="333"/>
+        <v>382</v>
+      </c>
+      <c r="F1504" s="6">
+        <f t="shared" si="334"/>
+        <v>0.19479857215706273</v>
+      </c>
+      <c r="G1504" s="2">
+        <v>15</v>
+      </c>
+      <c r="H1504" s="7">
+        <f t="shared" si="335"/>
+        <v>1</v>
+      </c>
+      <c r="I1504" s="6">
+        <f t="shared" si="336"/>
+        <v>1.0980966325036604E-2</v>
+      </c>
+      <c r="J1504" s="10">
+        <f>IF(B1504="Pending","",C1504/(VLOOKUP(B1504,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>3154.6079156027413</v>
+      </c>
+      <c r="K1504" s="10">
+        <f>IF(B1504="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1504,A:A,"&gt;="&amp;A1504-30,B:B,B1504)/(VLOOKUP(B1504,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1353.8796868700442</v>
+      </c>
+      <c r="L1504" s="13">
+        <f>IF(B1504="Pending","",(G1504/C1504)/(VLOOKUP(B1504,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>5.2415933162663995E-5</v>
+      </c>
+    </row>
+    <row r="1505" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1505" s="1">
+        <v>44059</v>
+      </c>
+      <c r="B1505" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1505">
+        <v>23727</v>
+      </c>
+      <c r="D1505" s="6">
+        <f t="shared" si="332"/>
+        <v>0.17745385466838184</v>
+      </c>
+      <c r="E1505" s="7">
+        <f t="shared" si="333"/>
+        <v>315</v>
+      </c>
+      <c r="F1505" s="6">
+        <f t="shared" si="334"/>
+        <v>0.16063233044365119</v>
+      </c>
+      <c r="G1505" s="2">
+        <v>26</v>
+      </c>
+      <c r="H1505" s="7">
+        <f t="shared" si="335"/>
+        <v>0</v>
+      </c>
+      <c r="I1505" s="6">
+        <f t="shared" si="336"/>
+        <v>1.9033674963396779E-2</v>
+      </c>
+      <c r="J1505" s="10">
+        <f>IF(B1505="Pending","",C1505/(VLOOKUP(B1505,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>2704.9118654965559</v>
+      </c>
+      <c r="K1505" s="10">
+        <f>IF(B1505="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1505,A:A,"&gt;="&amp;A1505-30,B:B,B1505)/(VLOOKUP(B1505,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1135.2262130321872</v>
+      </c>
+      <c r="L1505" s="13">
+        <f>IF(B1505="Pending","",(G1505/C1505)/(VLOOKUP(B1505,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1.2492254013337606E-4</v>
+      </c>
+    </row>
+    <row r="1506" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1506" s="1">
+        <v>44059</v>
+      </c>
+      <c r="B1506" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1506">
+        <v>20416</v>
+      </c>
+      <c r="D1506" s="6">
+        <f t="shared" si="332"/>
+        <v>0.1526909384629192</v>
+      </c>
+      <c r="E1506" s="7">
+        <f t="shared" si="333"/>
+        <v>237</v>
+      </c>
+      <c r="F1506" s="6">
+        <f t="shared" si="334"/>
+        <v>0.12085670576236614</v>
+      </c>
+      <c r="G1506" s="2">
+        <v>74</v>
+      </c>
+      <c r="H1506" s="7">
+        <f t="shared" si="335"/>
+        <v>1</v>
+      </c>
+      <c r="I1506" s="6">
+        <f t="shared" si="336"/>
+        <v>5.4172767203513911E-2</v>
+      </c>
+      <c r="J1506" s="10">
+        <f>IF(B1506="Pending","",C1506/(VLOOKUP(B1506,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>2394.7825270961384</v>
+      </c>
+      <c r="K1506" s="10">
+        <f>IF(B1506="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1506,A:A,"&gt;="&amp;A1506-30,B:B,B1506)/(VLOOKUP(B1506,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1064.1392577300239</v>
+      </c>
+      <c r="L1506" s="13">
+        <f>IF(B1506="Pending","",(G1506/C1506)/(VLOOKUP(B1506,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>4.2516400207270438E-4</v>
+      </c>
+    </row>
+    <row r="1507" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1507" s="1">
+        <v>44059</v>
+      </c>
+      <c r="B1507" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1507">
+        <v>16932</v>
+      </c>
+      <c r="D1507" s="6">
+        <f t="shared" si="332"/>
+        <v>0.12663415801597511</v>
+      </c>
+      <c r="E1507" s="7">
+        <f t="shared" si="333"/>
+        <v>248</v>
+      </c>
+      <c r="F1507" s="6">
+        <f t="shared" si="334"/>
+        <v>0.12646608873023968</v>
+      </c>
+      <c r="G1507" s="2">
+        <v>145</v>
+      </c>
+      <c r="H1507" s="7">
+        <f t="shared" si="335"/>
+        <v>2</v>
+      </c>
+      <c r="I1507" s="6">
+        <f t="shared" si="336"/>
+        <v>0.1061493411420205</v>
+      </c>
+      <c r="J1507" s="10">
+        <f>IF(B1507="Pending","",C1507/(VLOOKUP(B1507,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1891.0808042789447</v>
+      </c>
+      <c r="K1507" s="10">
+        <f>IF(B1507="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1507,A:A,"&gt;="&amp;A1507-30,B:B,B1507)/(VLOOKUP(B1507,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>896.06315218107568</v>
+      </c>
+      <c r="L1507" s="13">
+        <f>IF(B1507="Pending","",(G1507/C1507)/(VLOOKUP(B1507,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>9.5644845268306219E-4</v>
+      </c>
+    </row>
+    <row r="1508" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1508" s="1">
+        <v>44059</v>
+      </c>
+      <c r="B1508" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1508">
+        <v>10907</v>
+      </c>
+      <c r="D1508" s="6">
+        <f t="shared" si="332"/>
+        <v>8.1573279085768988E-2</v>
+      </c>
+      <c r="E1508" s="7">
+        <f t="shared" si="333"/>
+        <v>173</v>
+      </c>
+      <c r="F1508" s="6">
+        <f t="shared" si="334"/>
+        <v>8.8220295767465581E-2</v>
+      </c>
+      <c r="G1508" s="2">
+        <v>277</v>
+      </c>
+      <c r="H1508" s="7">
+        <f t="shared" si="335"/>
+        <v>2</v>
+      </c>
+      <c r="I1508" s="6">
+        <f t="shared" si="336"/>
+        <v>0.2027818448023426</v>
+      </c>
+      <c r="J1508" s="10">
+        <f>IF(B1508="Pending","",C1508/(VLOOKUP(B1508,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1384.0703113301643</v>
+      </c>
+      <c r="K1508" s="10">
+        <f>IF(B1508="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1508,A:A,"&gt;="&amp;A1508-30,B:B,B1508)/(VLOOKUP(B1508,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>730.29473197992991</v>
+      </c>
+      <c r="L1508" s="13">
+        <f>IF(B1508="Pending","",(G1508/C1508)/(VLOOKUP(B1508,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>3.22275503665403E-3</v>
+      </c>
+    </row>
+    <row r="1509" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1509" s="1">
+        <v>44059</v>
+      </c>
+      <c r="B1509" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1509">
+        <v>5865</v>
+      </c>
+      <c r="D1509" s="6">
+        <f t="shared" si="332"/>
+        <v>4.3864241481437159E-2</v>
+      </c>
+      <c r="E1509" s="7">
+        <f t="shared" si="333"/>
+        <v>103</v>
+      </c>
+      <c r="F1509" s="6">
+        <f t="shared" si="334"/>
+        <v>5.2524222335543089E-2</v>
+      </c>
+      <c r="G1509" s="2">
+        <v>392</v>
+      </c>
+      <c r="H1509" s="7">
+        <f t="shared" si="335"/>
+        <v>3</v>
+      </c>
+      <c r="I1509" s="6">
+        <f t="shared" si="336"/>
+        <v>0.28696925329428991</v>
+      </c>
+      <c r="J1509" s="10">
+        <f>IF(B1509="Pending","",C1509/(VLOOKUP(B1509,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1222.9017279090572</v>
+      </c>
+      <c r="K1509" s="10">
+        <f>IF(B1509="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1509,A:A,"&gt;="&amp;A1509-30,B:B,B1509)/(VLOOKUP(B1509,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>667.01835082371247</v>
+      </c>
+      <c r="L1509" s="13">
+        <f>IF(B1509="Pending","",(G1509/C1509)/(VLOOKUP(B1509,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1.3936110870265847E-2</v>
+      </c>
+    </row>
+    <row r="1510" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1510" s="1">
+        <v>44059</v>
+      </c>
+      <c r="B1510" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1510">
+        <v>3226</v>
+      </c>
+      <c r="D1510" s="6">
+        <f t="shared" si="332"/>
+        <v>2.412720256080414E-2</v>
+      </c>
+      <c r="E1510" s="7">
+        <f t="shared" si="333"/>
+        <v>40</v>
+      </c>
+      <c r="F1510" s="6">
+        <f t="shared" si="334"/>
+        <v>2.0397756246812851E-2</v>
+      </c>
+      <c r="G1510" s="2">
+        <v>433</v>
+      </c>
+      <c r="H1510" s="7">
+        <f t="shared" si="335"/>
+        <v>12</v>
+      </c>
+      <c r="I1510" s="6">
+        <f t="shared" si="336"/>
+        <v>0.3169838945827233</v>
+      </c>
+      <c r="J1510" s="10">
+        <f>IF(B1510="Pending","",C1510/(VLOOKUP(B1510,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1457.2952852477085</v>
+      </c>
+      <c r="K1510" s="10">
+        <f>IF(B1510="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1510,A:A,"&gt;="&amp;A1510-30,B:B,B1510)/(VLOOKUP(B1510,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>783.75924361586306</v>
+      </c>
+      <c r="L1510" s="13">
+        <f>IF(B1510="Pending","",(G1510/C1510)/(VLOOKUP(B1510,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>6.0632675163730693E-2</v>
+      </c>
+    </row>
+    <row r="1511" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1511" s="1">
+        <v>44059</v>
+      </c>
+      <c r="B1511" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1511">
+        <v>206</v>
+      </c>
+      <c r="D1511" s="6">
+        <f t="shared" si="332"/>
+        <v>1.5406707152900349E-3</v>
+      </c>
+      <c r="E1511" s="7">
+        <f t="shared" si="333"/>
+        <v>-3</v>
+      </c>
+      <c r="F1511" s="6">
+        <f t="shared" si="334"/>
+        <v>-1.5298317185109638E-3</v>
+      </c>
+      <c r="G1511" s="2">
+        <v>0</v>
+      </c>
+      <c r="H1511" s="7">
+        <f t="shared" si="335"/>
+        <v>0</v>
+      </c>
+      <c r="I1511" s="6">
+        <f t="shared" si="336"/>
+        <v>0</v>
+      </c>
+      <c r="J1511" s="10" t="str">
+        <f>IF(B1511="Pending","",C1511/(VLOOKUP(B1511,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v/>
+      </c>
+      <c r="K1511" s="10" t="str">
+        <f>IF(B1511="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1511,A:A,"&gt;="&amp;A1511-30,B:B,B1511)/(VLOOKUP(B1511,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v/>
+      </c>
+      <c r="L1511" s="13" t="str">
+        <f>IF(B1511="Pending","",(G1511/C1511)/(VLOOKUP(B1511,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="1512" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1512" s="1">
+        <v>44060</v>
+      </c>
+      <c r="B1512" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1512" s="2">
+        <v>6603</v>
+      </c>
+      <c r="D1512" s="6">
+        <f t="shared" ref="D1512:D1521" si="337">C1512/SUMIF(A:A,A1512,C:C)</f>
+        <v>4.9004037285519206E-2</v>
+      </c>
+      <c r="E1512" s="7">
+        <f t="shared" ref="E1512:E1521" si="338">C1512-SUMIFS(C:C,A:A,A1512-1,B:B,B1512)</f>
+        <v>49</v>
+      </c>
+      <c r="F1512" s="6">
+        <f t="shared" ref="F1512:F1521" si="339">E1512/SUMIF(A:A,A1512,E:E)</f>
+        <v>4.72972972972973E-2</v>
+      </c>
+      <c r="G1512" s="2">
+        <v>4</v>
+      </c>
+      <c r="H1512" s="7">
+        <f t="shared" ref="H1512:H1521" si="340">G1512-SUMIFS(G:G,A:A,A1512-1,B:B,B1512)</f>
+        <v>0</v>
+      </c>
+      <c r="I1512" s="6">
+        <f t="shared" ref="I1512:I1521" si="341">G1512/SUMIF(A:A,A1512,G:G)</f>
+        <v>2.8839221341023791E-3</v>
+      </c>
+      <c r="J1512" s="10">
+        <f>IF(B1512="Pending","",C1512/(VLOOKUP(B1512,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>728.8610428574267</v>
+      </c>
+      <c r="K1512" s="10">
+        <f>IF(B1512="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1512,A:A,"&gt;="&amp;A1512-30,B:B,B1512)/(VLOOKUP(B1512,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>360.07038040298738</v>
+      </c>
+      <c r="L1512" s="13">
+        <f>IF(B1512="Pending","",(G1512/C1512)/(VLOOKUP(B1512,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>6.686858525336103E-5</v>
+      </c>
+    </row>
+    <row r="1513" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1513" s="1">
+        <v>44060</v>
+      </c>
+      <c r="B1513" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1513" s="2">
+        <v>15989</v>
+      </c>
+      <c r="D1513" s="6">
+        <f t="shared" si="337"/>
+        <v>0.11866205545330405</v>
+      </c>
+      <c r="E1513" s="7">
+        <f t="shared" si="338"/>
+        <v>160</v>
+      </c>
+      <c r="F1513" s="6">
+        <f t="shared" si="339"/>
+        <v>0.15444015444015444</v>
+      </c>
+      <c r="G1513" s="2">
+        <v>0</v>
+      </c>
+      <c r="H1513" s="7">
+        <f t="shared" si="340"/>
+        <v>0</v>
+      </c>
+      <c r="I1513" s="6">
+        <f t="shared" si="341"/>
+        <v>0</v>
+      </c>
+      <c r="J1513" s="10">
+        <f>IF(B1513="Pending","",C1513/(VLOOKUP(B1513,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1866.2931512445653</v>
+      </c>
+      <c r="K1513" s="10">
+        <f>IF(B1513="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1513,A:A,"&gt;="&amp;A1513-30,B:B,B1513)/(VLOOKUP(B1513,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>937.75715661384925</v>
+      </c>
+      <c r="L1513" s="13">
+        <f>IF(B1513="Pending","",(G1513/C1513)/(VLOOKUP(B1513,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1514" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1514" s="1">
+        <v>44060</v>
+      </c>
+      <c r="B1514" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1514" s="2">
+        <v>30267</v>
+      </c>
+      <c r="D1514" s="6">
+        <f t="shared" si="337"/>
+        <v>0.22462595737101468</v>
+      </c>
+      <c r="E1514" s="7">
+        <f t="shared" si="338"/>
+        <v>221</v>
+      </c>
+      <c r="F1514" s="6">
+        <f t="shared" si="339"/>
+        <v>0.21332046332046331</v>
+      </c>
+      <c r="G1514" s="2">
+        <v>15</v>
+      </c>
+      <c r="H1514" s="7">
+        <f t="shared" si="340"/>
+        <v>0</v>
+      </c>
+      <c r="I1514" s="6">
+        <f t="shared" si="341"/>
+        <v>1.0814708002883922E-2</v>
+      </c>
+      <c r="J1514" s="10">
+        <f>IF(B1514="Pending","",C1514/(VLOOKUP(B1514,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>3177.8112820857409</v>
+      </c>
+      <c r="K1514" s="10">
+        <f>IF(B1514="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1514,A:A,"&gt;="&amp;A1514-30,B:B,B1514)/(VLOOKUP(B1514,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1316.6073108453165</v>
+      </c>
+      <c r="L1514" s="13">
+        <f>IF(B1514="Pending","",(G1514/C1514)/(VLOOKUP(B1514,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>5.2033208702725818E-5</v>
+      </c>
+    </row>
+    <row r="1515" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1515" s="1">
+        <v>44060</v>
+      </c>
+      <c r="B1515" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1515" s="2">
+        <v>23875</v>
+      </c>
+      <c r="D1515" s="6">
+        <f t="shared" si="337"/>
+        <v>0.17718785252033487</v>
+      </c>
+      <c r="E1515" s="7">
+        <f t="shared" si="338"/>
+        <v>148</v>
+      </c>
+      <c r="F1515" s="6">
+        <f t="shared" si="339"/>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="G1515" s="2">
+        <v>26</v>
+      </c>
+      <c r="H1515" s="7">
+        <f t="shared" si="340"/>
+        <v>0</v>
+      </c>
+      <c r="I1515" s="6">
+        <f t="shared" si="341"/>
+        <v>1.8745493871665464E-2</v>
+      </c>
+      <c r="J1515" s="10">
+        <f>IF(B1515="Pending","",C1515/(VLOOKUP(B1515,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>2721.7840767366406</v>
+      </c>
+      <c r="K1515" s="10">
+        <f>IF(B1515="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1515,A:A,"&gt;="&amp;A1515-30,B:B,B1515)/(VLOOKUP(B1515,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1109.3478890355707</v>
+      </c>
+      <c r="L1515" s="13">
+        <f>IF(B1515="Pending","",(G1515/C1515)/(VLOOKUP(B1515,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1.2414815119349168E-4</v>
+      </c>
+    </row>
+    <row r="1516" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1516" s="1">
+        <v>44060</v>
+      </c>
+      <c r="B1516" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1516" s="2">
+        <v>20537</v>
+      </c>
+      <c r="D1516" s="6">
+        <f t="shared" si="337"/>
+        <v>0.15241494983079024</v>
+      </c>
+      <c r="E1516" s="7">
+        <f t="shared" si="338"/>
+        <v>121</v>
+      </c>
+      <c r="F1516" s="6">
+        <f t="shared" si="339"/>
+        <v>0.1167953667953668</v>
+      </c>
+      <c r="G1516" s="2">
+        <v>75</v>
+      </c>
+      <c r="H1516" s="7">
+        <f t="shared" si="340"/>
+        <v>1</v>
+      </c>
+      <c r="I1516" s="6">
+        <f t="shared" si="341"/>
+        <v>5.4073540014419608E-2</v>
+      </c>
+      <c r="J1516" s="10">
+        <f>IF(B1516="Pending","",C1516/(VLOOKUP(B1516,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>2408.9757425045746</v>
+      </c>
+      <c r="K1516" s="10">
+        <f>IF(B1516="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1516,A:A,"&gt;="&amp;A1516-30,B:B,B1516)/(VLOOKUP(B1516,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1038.3334115328673</v>
+      </c>
+      <c r="L1516" s="13">
+        <f>IF(B1516="Pending","",(G1516/C1516)/(VLOOKUP(B1516,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>4.2837062702500366E-4</v>
+      </c>
+    </row>
+    <row r="1517" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1517" s="1">
+        <v>44060</v>
+      </c>
+      <c r="B1517" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1517" s="2">
+        <v>17074</v>
+      </c>
+      <c r="D1517" s="6">
+        <f t="shared" si="337"/>
+        <v>0.12671436204951611</v>
+      </c>
+      <c r="E1517" s="7">
+        <f t="shared" si="338"/>
+        <v>142</v>
+      </c>
+      <c r="F1517" s="6">
+        <f t="shared" si="339"/>
+        <v>0.13706563706563707</v>
+      </c>
+      <c r="G1517" s="2">
+        <v>145</v>
+      </c>
+      <c r="H1517" s="7">
+        <f t="shared" si="340"/>
+        <v>0</v>
+      </c>
+      <c r="I1517" s="6">
+        <f t="shared" si="341"/>
+        <v>0.10454217736121124</v>
+      </c>
+      <c r="J1517" s="10">
+        <f>IF(B1517="Pending","",C1517/(VLOOKUP(B1517,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1906.9403290963087</v>
+      </c>
+      <c r="K1517" s="10">
+        <f>IF(B1517="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1517,A:A,"&gt;="&amp;A1517-30,B:B,B1517)/(VLOOKUP(B1517,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>878.86338582984968</v>
+      </c>
+      <c r="L1517" s="13">
+        <f>IF(B1517="Pending","",(G1517/C1517)/(VLOOKUP(B1517,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>9.484939206295894E-4</v>
+      </c>
+    </row>
+    <row r="1518" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1518" s="1">
+        <v>44060</v>
+      </c>
+      <c r="B1518" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1518" s="2">
+        <v>11025</v>
+      </c>
+      <c r="D1518" s="6">
+        <f t="shared" si="337"/>
+        <v>8.1821825090542061E-2</v>
+      </c>
+      <c r="E1518" s="7">
+        <f t="shared" si="338"/>
+        <v>118</v>
+      </c>
+      <c r="F1518" s="6">
+        <f t="shared" si="339"/>
+        <v>0.11389961389961389</v>
+      </c>
+      <c r="G1518" s="2">
+        <v>281</v>
+      </c>
+      <c r="H1518" s="7">
+        <f t="shared" si="340"/>
+        <v>4</v>
+      </c>
+      <c r="I1518" s="6">
+        <f t="shared" si="341"/>
+        <v>0.20259552992069213</v>
+      </c>
+      <c r="J1518" s="10">
+        <f>IF(B1518="Pending","",C1518/(VLOOKUP(B1518,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1399.0442085280151</v>
+      </c>
+      <c r="K1518" s="10">
+        <f>IF(B1518="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1518,A:A,"&gt;="&amp;A1518-30,B:B,B1518)/(VLOOKUP(B1518,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>723.31537311652482</v>
+      </c>
+      <c r="L1518" s="13">
+        <f>IF(B1518="Pending","",(G1518/C1518)/(VLOOKUP(B1518,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>3.2343019428848862E-3</v>
+      </c>
+    </row>
+    <row r="1519" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1519" s="1">
+        <v>44060</v>
+      </c>
+      <c r="B1519" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1519" s="2">
+        <v>5921</v>
+      </c>
+      <c r="D1519" s="6">
+        <f t="shared" si="337"/>
+        <v>4.3942587425043048E-2</v>
+      </c>
+      <c r="E1519" s="7">
+        <f t="shared" si="338"/>
+        <v>56</v>
+      </c>
+      <c r="F1519" s="6">
+        <f t="shared" si="339"/>
+        <v>5.4054054054054057E-2</v>
+      </c>
+      <c r="G1519" s="2">
+        <v>400</v>
+      </c>
+      <c r="H1519" s="7">
+        <f t="shared" si="340"/>
+        <v>8</v>
+      </c>
+      <c r="I1519" s="6">
+        <f t="shared" si="341"/>
+        <v>0.28839221341023791</v>
+      </c>
+      <c r="J1519" s="10">
+        <f>IF(B1519="Pending","",C1519/(VLOOKUP(B1519,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1234.5781979453584</v>
+      </c>
+      <c r="K1519" s="10">
+        <f>IF(B1519="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1519,A:A,"&gt;="&amp;A1519-30,B:B,B1519)/(VLOOKUP(B1519,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>661.18011580556185</v>
+      </c>
+      <c r="L1519" s="13">
+        <f>IF(B1519="Pending","",(G1519/C1519)/(VLOOKUP(B1519,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1.4086025570368556E-2</v>
+      </c>
+    </row>
+    <row r="1520" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1520" s="1">
+        <v>44060</v>
+      </c>
+      <c r="B1520" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1520" s="2">
+        <v>3248</v>
+      </c>
+      <c r="D1520" s="6">
+        <f t="shared" si="337"/>
+        <v>2.4104969423499378E-2</v>
+      </c>
+      <c r="E1520" s="7">
+        <f t="shared" si="338"/>
+        <v>22</v>
+      </c>
+      <c r="F1520" s="6">
+        <f t="shared" si="339"/>
+        <v>2.1235521235521235E-2</v>
+      </c>
+      <c r="G1520" s="2">
+        <v>441</v>
+      </c>
+      <c r="H1520" s="7">
+        <f t="shared" si="340"/>
+        <v>8</v>
+      </c>
+      <c r="I1520" s="6">
+        <f t="shared" si="341"/>
+        <v>0.31795241528478729</v>
+      </c>
+      <c r="J1520" s="10">
+        <f>IF(B1520="Pending","",C1520/(VLOOKUP(B1520,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1467.2334428036445</v>
+      </c>
+      <c r="K1520" s="10">
+        <f>IF(B1520="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1520,A:A,"&gt;="&amp;A1520-30,B:B,B1520)/(VLOOKUP(B1520,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>773.36935162556631</v>
+      </c>
+      <c r="L1520" s="13">
+        <f>IF(B1520="Pending","",(G1520/C1520)/(VLOOKUP(B1520,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>6.1334632251564367E-2</v>
+      </c>
+    </row>
+    <row r="1521" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1521" s="1">
+        <v>44060</v>
+      </c>
+      <c r="B1521" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1521" s="2">
+        <v>205</v>
+      </c>
+      <c r="D1521" s="6">
+        <f t="shared" si="337"/>
+        <v>1.5214035504363831E-3</v>
+      </c>
+      <c r="E1521" s="7">
+        <f t="shared" si="338"/>
+        <v>-1</v>
+      </c>
+      <c r="F1521" s="6">
+        <f t="shared" si="339"/>
+        <v>-9.6525096525096527E-4</v>
+      </c>
+      <c r="G1521" s="2">
+        <v>0</v>
+      </c>
+      <c r="H1521" s="7">
+        <f t="shared" si="340"/>
+        <v>0</v>
+      </c>
+      <c r="I1521" s="6">
+        <f t="shared" si="341"/>
+        <v>0</v>
+      </c>
+      <c r="J1521" s="10" t="str">
+        <f>IF(B1521="Pending","",C1521/(VLOOKUP(B1521,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v/>
+      </c>
+      <c r="K1521" s="10" t="str">
+        <f>IF(B1521="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1521,A:A,"&gt;="&amp;A1521-30,B:B,B1521)/(VLOOKUP(B1521,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v/>
+      </c>
+      <c r="L1521" s="13" t="str">
+        <f>IF(B1521="Pending","",(G1521/C1521)/(VLOOKUP(B1521,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="1522" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1522" s="1">
+        <v>44061</v>
+      </c>
+      <c r="B1522" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1522" s="2">
+        <v>6647</v>
+      </c>
+      <c r="D1522" s="6">
+        <f t="shared" ref="D1522:D1531" si="342">C1522/SUMIF(A:A,A1522,C:C)</f>
+        <v>4.895491169408888E-2</v>
+      </c>
+      <c r="E1522" s="7">
+        <f t="shared" ref="E1522:E1531" si="343">C1522-SUMIFS(C:C,A:A,A1522-1,B:B,B1522)</f>
+        <v>44</v>
+      </c>
+      <c r="F1522" s="6">
+        <f t="shared" ref="F1522:F1531" si="344">E1522/SUMIF(A:A,A1522,E:E)</f>
+        <v>4.2553191489361701E-2</v>
+      </c>
+      <c r="G1522" s="2">
+        <v>4</v>
+      </c>
+      <c r="H1522" s="7">
+        <f t="shared" ref="H1522:H1531" si="345">G1522-SUMIFS(G:G,A:A,A1522-1,B:B,B1522)</f>
+        <v>0</v>
+      </c>
+      <c r="I1522" s="6">
+        <f t="shared" ref="I1522:I1531" si="346">G1522/SUMIF(A:A,A1522,G:G)</f>
+        <v>2.8050490883590462E-3</v>
+      </c>
+      <c r="J1522" s="10">
+        <f>IF(B1522="Pending","",C1522/(VLOOKUP(B1522,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>733.71790881013408</v>
+      </c>
+      <c r="K1522" s="10">
+        <f>IF(B1522="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1522,A:A,"&gt;="&amp;A1522-30,B:B,B1522)/(VLOOKUP(B1522,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>350.24626518046568</v>
+      </c>
+      <c r="L1522" s="13">
+        <f>IF(B1522="Pending","",(G1522/C1522)/(VLOOKUP(B1522,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>6.6425946807272871E-5</v>
+      </c>
+    </row>
+    <row r="1523" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1523" s="1">
+        <v>44061</v>
+      </c>
+      <c r="B1523" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1523" s="2">
+        <v>16127</v>
+      </c>
+      <c r="D1523" s="6">
+        <f t="shared" si="342"/>
+        <v>0.1187747646894195</v>
+      </c>
+      <c r="E1523" s="7">
+        <f t="shared" si="343"/>
+        <v>138</v>
+      </c>
+      <c r="F1523" s="6">
+        <f t="shared" si="344"/>
+        <v>0.13346228239845262</v>
+      </c>
+      <c r="G1523" s="2">
+        <v>0</v>
+      </c>
+      <c r="H1523" s="7">
+        <f t="shared" si="345"/>
+        <v>0</v>
+      </c>
+      <c r="I1523" s="6">
+        <f t="shared" si="346"/>
+        <v>0</v>
+      </c>
+      <c r="J1523" s="10">
+        <f>IF(B1523="Pending","",C1523/(VLOOKUP(B1523,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1882.401003822697</v>
+      </c>
+      <c r="K1523" s="10">
+        <f>IF(B1523="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1523,A:A,"&gt;="&amp;A1523-30,B:B,B1523)/(VLOOKUP(B1523,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>916.16329627360005</v>
+      </c>
+      <c r="L1523" s="13">
+        <f>IF(B1523="Pending","",(G1523/C1523)/(VLOOKUP(B1523,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1524" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1524" s="1">
+        <v>44061</v>
+      </c>
+      <c r="B1524" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1524" s="2">
+        <v>30469</v>
+      </c>
+      <c r="D1524" s="6">
+        <f t="shared" si="342"/>
+        <v>0.22440306971674351</v>
+      </c>
+      <c r="E1524" s="7">
+        <f t="shared" si="343"/>
+        <v>202</v>
+      </c>
+      <c r="F1524" s="6">
+        <f t="shared" si="344"/>
+        <v>0.195357833655706</v>
+      </c>
+      <c r="G1524" s="2">
+        <v>15</v>
+      </c>
+      <c r="H1524" s="7">
+        <f t="shared" si="345"/>
+        <v>0</v>
+      </c>
+      <c r="I1524" s="6">
+        <f t="shared" si="346"/>
+        <v>1.0518934081346423E-2</v>
+      </c>
+      <c r="J1524" s="10">
+        <f>IF(B1524="Pending","",C1524/(VLOOKUP(B1524,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>3199.0197890068539</v>
+      </c>
+      <c r="K1524" s="10">
+        <f>IF(B1524="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1524,A:A,"&gt;="&amp;A1524-30,B:B,B1524)/(VLOOKUP(B1524,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1275.7651861308964</v>
+      </c>
+      <c r="L1524" s="13">
+        <f>IF(B1524="Pending","",(G1524/C1524)/(VLOOKUP(B1524,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>5.1688244701348984E-5</v>
+      </c>
+    </row>
+    <row r="1525" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1525" s="1">
+        <v>44061</v>
+      </c>
+      <c r="B1525" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1525" s="2">
+        <v>24019</v>
+      </c>
+      <c r="D1525" s="6">
+        <f t="shared" si="342"/>
+        <v>0.17689905581169263</v>
+      </c>
+      <c r="E1525" s="7">
+        <f t="shared" si="343"/>
+        <v>144</v>
+      </c>
+      <c r="F1525" s="6">
+        <f t="shared" si="344"/>
+        <v>0.13926499032882012</v>
+      </c>
+      <c r="G1525" s="2">
+        <v>27</v>
+      </c>
+      <c r="H1525" s="7">
+        <f t="shared" si="345"/>
+        <v>1</v>
+      </c>
+      <c r="I1525" s="6">
+        <f t="shared" si="346"/>
+        <v>1.8934081346423562E-2</v>
+      </c>
+      <c r="J1525" s="10">
+        <f>IF(B1525="Pending","",C1525/(VLOOKUP(B1525,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>2738.200282267534</v>
+      </c>
+      <c r="K1525" s="10">
+        <f>IF(B1525="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1525,A:A,"&gt;="&amp;A1525-30,B:B,B1525)/(VLOOKUP(B1525,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1076.6294794010821</v>
+      </c>
+      <c r="L1525" s="13">
+        <f>IF(B1525="Pending","",(G1525/C1525)/(VLOOKUP(B1525,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1.2815015350524516E-4</v>
+      </c>
+    </row>
+    <row r="1526" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1526" s="1">
+        <v>44061</v>
+      </c>
+      <c r="B1526" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1526" s="2">
+        <v>20689</v>
+      </c>
+      <c r="D1526" s="6">
+        <f t="shared" si="342"/>
+        <v>0.15237372770257332</v>
+      </c>
+      <c r="E1526" s="7">
+        <f t="shared" si="343"/>
+        <v>152</v>
+      </c>
+      <c r="F1526" s="6">
+        <f t="shared" si="344"/>
+        <v>0.14700193423597679</v>
+      </c>
+      <c r="G1526" s="2">
+        <v>76</v>
+      </c>
+      <c r="H1526" s="7">
+        <f t="shared" si="345"/>
+        <v>1</v>
+      </c>
+      <c r="I1526" s="6">
+        <f t="shared" si="346"/>
+        <v>5.3295932678821878E-2</v>
+      </c>
+      <c r="J1526" s="10">
+        <f>IF(B1526="Pending","",C1526/(VLOOKUP(B1526,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>2426.8052362407921</v>
+      </c>
+      <c r="K1526" s="10">
+        <f>IF(B1526="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1526,A:A,"&gt;="&amp;A1526-30,B:B,B1526)/(VLOOKUP(B1526,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1011.0026744240605</v>
+      </c>
+      <c r="L1526" s="13">
+        <f>IF(B1526="Pending","",(G1526/C1526)/(VLOOKUP(B1526,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>4.3089307690602089E-4</v>
+      </c>
+    </row>
+    <row r="1527" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1527" s="1">
+        <v>44061</v>
+      </c>
+      <c r="B1527" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1527" s="2">
+        <v>17197</v>
+      </c>
+      <c r="D1527" s="6">
+        <f t="shared" si="342"/>
+        <v>0.12665527552328065</v>
+      </c>
+      <c r="E1527" s="7">
+        <f t="shared" si="343"/>
+        <v>123</v>
+      </c>
+      <c r="F1527" s="6">
+        <f t="shared" si="344"/>
+        <v>0.11895551257253385</v>
+      </c>
+      <c r="G1527" s="2">
+        <v>147</v>
+      </c>
+      <c r="H1527" s="7">
+        <f t="shared" si="345"/>
+        <v>2</v>
+      </c>
+      <c r="I1527" s="6">
+        <f t="shared" si="346"/>
+        <v>0.10308555399719495</v>
+      </c>
+      <c r="J1527" s="10">
+        <f>IF(B1527="Pending","",C1527/(VLOOKUP(B1527,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1920.6778048183919</v>
+      </c>
+      <c r="K1527" s="10">
+        <f>IF(B1527="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1527,A:A,"&gt;="&amp;A1527-30,B:B,B1527)/(VLOOKUP(B1527,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>859.54157038334267</v>
+      </c>
+      <c r="L1527" s="13">
+        <f>IF(B1527="Pending","",(G1527/C1527)/(VLOOKUP(B1527,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>9.5469900504777409E-4</v>
+      </c>
+    </row>
+    <row r="1528" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1528" s="1">
+        <v>44061</v>
+      </c>
+      <c r="B1528" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1528" s="2">
+        <v>11146</v>
+      </c>
+      <c r="D1528" s="6">
+        <f t="shared" si="342"/>
+        <v>8.2089882013286389E-2</v>
+      </c>
+      <c r="E1528" s="7">
+        <f t="shared" si="343"/>
+        <v>121</v>
+      </c>
+      <c r="F1528" s="6">
+        <f t="shared" si="344"/>
+        <v>0.11702127659574468</v>
+      </c>
+      <c r="G1528" s="2">
+        <v>282</v>
+      </c>
+      <c r="H1528" s="7">
+        <f t="shared" si="345"/>
+        <v>1</v>
+      </c>
+      <c r="I1528" s="6">
+        <f t="shared" si="346"/>
+        <v>0.19775596072931276</v>
+      </c>
+      <c r="J1528" s="10">
+        <f>IF(B1528="Pending","",C1528/(VLOOKUP(B1528,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1414.3987980275062</v>
+      </c>
+      <c r="K1528" s="10">
+        <f>IF(B1528="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1528,A:A,"&gt;="&amp;A1528-30,B:B,B1528)/(VLOOKUP(B1528,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>714.81324504655868</v>
+      </c>
+      <c r="L1528" s="13">
+        <f>IF(B1528="Pending","",(G1528/C1528)/(VLOOKUP(B1528,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>3.2105756642908639E-3</v>
+      </c>
+    </row>
+    <row r="1529" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1529" s="1">
+        <v>44061</v>
+      </c>
+      <c r="B1529" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1529" s="2">
+        <v>5982</v>
+      </c>
+      <c r="D1529" s="6">
+        <f t="shared" si="342"/>
+        <v>4.4057211035661153E-2</v>
+      </c>
+      <c r="E1529" s="7">
+        <f t="shared" si="343"/>
+        <v>61</v>
+      </c>
+      <c r="F1529" s="6">
+        <f t="shared" si="344"/>
+        <v>5.8994197292069631E-2</v>
+      </c>
+      <c r="G1529" s="2">
+        <v>405</v>
+      </c>
+      <c r="H1529" s="7">
+        <f t="shared" si="345"/>
+        <v>5</v>
+      </c>
+      <c r="I1529" s="6">
+        <f t="shared" si="346"/>
+        <v>0.28401122019635344</v>
+      </c>
+      <c r="J1529" s="10">
+        <f>IF(B1529="Pending","",C1529/(VLOOKUP(B1529,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1247.2972099491867</v>
+      </c>
+      <c r="K1529" s="10">
+        <f>IF(B1529="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1529,A:A,"&gt;="&amp;A1529-30,B:B,B1529)/(VLOOKUP(B1529,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>655.34188078741113</v>
+      </c>
+      <c r="L1529" s="13">
+        <f>IF(B1529="Pending","",(G1529/C1529)/(VLOOKUP(B1529,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1.4116666561297082E-2</v>
+      </c>
+    </row>
+    <row r="1530" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1530" s="1">
+        <v>44061</v>
+      </c>
+      <c r="B1530" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1530" s="2">
+        <v>3294</v>
+      </c>
+      <c r="D1530" s="6">
+        <f t="shared" si="342"/>
+        <v>2.426018942685855E-2</v>
+      </c>
+      <c r="E1530" s="7">
+        <f t="shared" si="343"/>
+        <v>46</v>
+      </c>
+      <c r="F1530" s="6">
+        <f t="shared" si="344"/>
+        <v>4.4487427466150871E-2</v>
+      </c>
+      <c r="G1530" s="2">
+        <v>470</v>
+      </c>
+      <c r="H1530" s="7">
+        <f t="shared" si="345"/>
+        <v>29</v>
+      </c>
+      <c r="I1530" s="6">
+        <f t="shared" si="346"/>
+        <v>0.32959326788218796</v>
+      </c>
+      <c r="J1530" s="10">
+        <f>IF(B1530="Pending","",C1530/(VLOOKUP(B1530,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1488.013226784238</v>
+      </c>
+      <c r="K1530" s="10">
+        <f>IF(B1530="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1530,A:A,"&gt;="&amp;A1530-30,B:B,B1530)/(VLOOKUP(B1530,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>759.36558416038372</v>
+      </c>
+      <c r="L1530" s="13">
+        <f>IF(B1530="Pending","",(G1530/C1530)/(VLOOKUP(B1530,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>6.4455125728458462E-2</v>
+      </c>
+    </row>
+    <row r="1531" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1531" s="1">
+        <v>44061</v>
+      </c>
+      <c r="B1531" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1531" s="2">
+        <v>208</v>
+      </c>
+      <c r="D1531" s="6">
+        <f t="shared" si="342"/>
+        <v>1.5319123863954396E-3</v>
+      </c>
+      <c r="E1531" s="7">
+        <f t="shared" si="343"/>
+        <v>3</v>
+      </c>
+      <c r="F1531" s="6">
+        <f t="shared" si="344"/>
+        <v>2.9013539651837525E-3</v>
+      </c>
+      <c r="G1531" s="2">
+        <v>0</v>
+      </c>
+      <c r="H1531" s="7">
+        <f t="shared" si="345"/>
+        <v>0</v>
+      </c>
+      <c r="I1531" s="6">
+        <f t="shared" si="346"/>
+        <v>0</v>
+      </c>
+      <c r="J1531" s="10" t="str">
+        <f>IF(B1531="Pending","",C1531/(VLOOKUP(B1531,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v/>
+      </c>
+      <c r="K1531" s="10" t="str">
+        <f>IF(B1531="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1531,A:A,"&gt;="&amp;A1531-30,B:B,B1531)/(VLOOKUP(B1531,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v/>
+      </c>
+      <c r="L1531" s="13" t="str">
+        <f>IF(B1531="Pending","",(G1531/C1531)/(VLOOKUP(B1531,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="1532" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1532" s="1">
+        <v>44062</v>
+      </c>
+      <c r="B1532" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1532" s="2">
+        <v>6748</v>
+      </c>
+      <c r="D1532" s="6">
+        <f t="shared" ref="D1532:D1541" si="347">C1532/SUMIF(A:A,A1532,C:C)</f>
+        <v>4.8969521044992741E-2</v>
+      </c>
+      <c r="E1532" s="7">
+        <f t="shared" ref="E1532:E1541" si="348">C1532-SUMIFS(C:C,A:A,A1532-1,B:B,B1532)</f>
+        <v>101</v>
+      </c>
+      <c r="F1532" s="6">
+        <f t="shared" ref="F1532:F1541" si="349">E1532/SUMIF(A:A,A1532,E:E)</f>
+        <v>4.9950544015825916E-2</v>
+      </c>
+      <c r="G1532" s="2">
+        <v>4</v>
+      </c>
+      <c r="H1532" s="7">
+        <f t="shared" ref="H1532:H1541" si="350">G1532-SUMIFS(G:G,A:A,A1532-1,B:B,B1532)</f>
+        <v>0</v>
+      </c>
+      <c r="I1532" s="6">
+        <f t="shared" ref="I1532:I1541" si="351">G1532/SUMIF(A:A,A1532,G:G)</f>
+        <v>2.7548209366391185E-3</v>
+      </c>
+      <c r="J1532" s="10">
+        <f>IF(B1532="Pending","",C1532/(VLOOKUP(B1532,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>744.86662383793953</v>
+      </c>
+      <c r="K1532" s="10">
+        <f>IF(B1532="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1532,A:A,"&gt;="&amp;A1532-30,B:B,B1532)/(VLOOKUP(B1532,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>349.9151152291447</v>
+      </c>
+      <c r="L1532" s="13">
+        <f>IF(B1532="Pending","",(G1532/C1532)/(VLOOKUP(B1532,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>6.5431723240655425E-5</v>
+      </c>
+    </row>
+    <row r="1533" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1533" s="1">
+        <v>44062</v>
+      </c>
+      <c r="B1533" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1533" s="2">
+        <v>16425</v>
+      </c>
+      <c r="D1533" s="6">
+        <f t="shared" si="347"/>
+        <v>0.1191944847605225</v>
+      </c>
+      <c r="E1533" s="7">
+        <f t="shared" si="348"/>
+        <v>298</v>
+      </c>
+      <c r="F1533" s="6">
+        <f t="shared" si="349"/>
+        <v>0.14737883283877348</v>
+      </c>
+      <c r="G1533" s="2">
+        <v>0</v>
+      </c>
+      <c r="H1533" s="7">
+        <f t="shared" si="350"/>
+        <v>0</v>
+      </c>
+      <c r="I1533" s="6">
+        <f t="shared" si="351"/>
+        <v>0</v>
+      </c>
+      <c r="J1533" s="10">
+        <f>IF(B1533="Pending","",C1533/(VLOOKUP(B1533,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1917.1846275059092</v>
+      </c>
+      <c r="K1533" s="10">
+        <f>IF(B1533="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1533,A:A,"&gt;="&amp;A1533-30,B:B,B1533)/(VLOOKUP(B1533,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>921.64930403571748</v>
+      </c>
+      <c r="L1533" s="13">
+        <f>IF(B1533="Pending","",(G1533/C1533)/(VLOOKUP(B1533,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1534" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1534" s="1">
+        <v>44062</v>
+      </c>
+      <c r="B1534" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1534" s="2">
+        <v>30829</v>
+      </c>
+      <c r="D1534" s="6">
+        <f t="shared" si="347"/>
+        <v>0.22372278664731496</v>
+      </c>
+      <c r="E1534" s="7">
+        <f t="shared" si="348"/>
+        <v>360</v>
+      </c>
+      <c r="F1534" s="6">
+        <f t="shared" si="349"/>
+        <v>0.17804154302670624</v>
+      </c>
+      <c r="G1534" s="2">
+        <v>16</v>
+      </c>
+      <c r="H1534" s="7">
+        <f t="shared" si="350"/>
+        <v>1</v>
+      </c>
+      <c r="I1534" s="6">
+        <f t="shared" si="351"/>
+        <v>1.1019283746556474E-2</v>
+      </c>
+      <c r="J1534" s="10">
+        <f>IF(B1534="Pending","",C1534/(VLOOKUP(B1534,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>3236.8171280741835</v>
+      </c>
+      <c r="K1534" s="10">
+        <f>IF(B1534="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1534,A:A,"&gt;="&amp;A1534-30,B:B,B1534)/(VLOOKUP(B1534,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1270.3055704878375</v>
+      </c>
+      <c r="L1534" s="13">
+        <f>IF(B1534="Pending","",(G1534/C1534)/(VLOOKUP(B1534,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>5.4490309005344406E-5</v>
+      </c>
+    </row>
+    <row r="1535" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1535" s="1">
+        <v>44062</v>
+      </c>
+      <c r="B1535" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1535" s="2">
+        <v>24321</v>
+      </c>
+      <c r="D1535" s="6">
+        <f t="shared" si="347"/>
+        <v>0.17649492017416546</v>
+      </c>
+      <c r="E1535" s="7">
+        <f t="shared" si="348"/>
+        <v>302</v>
+      </c>
+      <c r="F1535" s="6">
+        <f t="shared" si="349"/>
+        <v>0.14935707220573691</v>
+      </c>
+      <c r="G1535" s="2">
+        <v>28</v>
+      </c>
+      <c r="H1535" s="7">
+        <f t="shared" si="350"/>
+        <v>1</v>
+      </c>
+      <c r="I1535" s="6">
+        <f t="shared" si="351"/>
+        <v>1.928374655647383E-2</v>
+      </c>
+      <c r="J1535" s="10">
+        <f>IF(B1535="Pending","",C1535/(VLOOKUP(B1535,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>2772.6287133114906</v>
+      </c>
+      <c r="K1535" s="10">
+        <f>IF(B1535="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1535,A:A,"&gt;="&amp;A1535-30,B:B,B1535)/(VLOOKUP(B1535,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1076.1734736918906</v>
+      </c>
+      <c r="L1535" s="13">
+        <f>IF(B1535="Pending","",(G1535/C1535)/(VLOOKUP(B1535,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1.3124624663214316E-4</v>
+      </c>
+    </row>
+    <row r="1536" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1536" s="1">
+        <v>44062</v>
+      </c>
+      <c r="B1536" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1536" s="2">
+        <v>21023</v>
+      </c>
+      <c r="D1536" s="6">
+        <f t="shared" si="347"/>
+        <v>0.15256168359941946</v>
+      </c>
+      <c r="E1536" s="7">
+        <f t="shared" si="348"/>
+        <v>334</v>
+      </c>
+      <c r="F1536" s="6">
+        <f t="shared" si="349"/>
+        <v>0.16518298714144411</v>
+      </c>
+      <c r="G1536" s="2">
+        <v>75</v>
+      </c>
+      <c r="H1536" s="7">
+        <f t="shared" si="350"/>
+        <v>-1</v>
+      </c>
+      <c r="I1536" s="6">
+        <f t="shared" si="351"/>
+        <v>5.1652892561983473E-2</v>
+      </c>
+      <c r="J1536" s="10">
+        <f>IF(B1536="Pending","",C1536/(VLOOKUP(B1536,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>2465.9832027401117</v>
+      </c>
+      <c r="K1536" s="10">
+        <f>IF(B1536="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1536,A:A,"&gt;="&amp;A1536-30,B:B,B1536)/(VLOOKUP(B1536,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1021.207713602027</v>
+      </c>
+      <c r="L1536" s="13">
+        <f>IF(B1536="Pending","",(G1536/C1536)/(VLOOKUP(B1536,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>4.1846775280466632E-4</v>
+      </c>
+    </row>
+    <row r="1537" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1537" s="1">
+        <v>44062</v>
+      </c>
+      <c r="B1537" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1537" s="2">
+        <v>17504</v>
+      </c>
+      <c r="D1537" s="6">
+        <f t="shared" si="347"/>
+        <v>0.12702467343976778</v>
+      </c>
+      <c r="E1537" s="7">
+        <f t="shared" si="348"/>
+        <v>307</v>
+      </c>
+      <c r="F1537" s="6">
+        <f t="shared" si="349"/>
+        <v>0.15182987141444115</v>
+      </c>
+      <c r="G1537" s="2">
+        <v>149</v>
+      </c>
+      <c r="H1537" s="7">
+        <f t="shared" si="350"/>
+        <v>2</v>
+      </c>
+      <c r="I1537" s="6">
+        <f t="shared" si="351"/>
+        <v>0.10261707988980716</v>
+      </c>
+      <c r="J1537" s="10">
+        <f>IF(B1537="Pending","",C1537/(VLOOKUP(B1537,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1954.9656507263553</v>
+      </c>
+      <c r="K1537" s="10">
+        <f>IF(B1537="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1537,A:A,"&gt;="&amp;A1537-30,B:B,B1537)/(VLOOKUP(B1537,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>872.16217816054086</v>
+      </c>
+      <c r="L1537" s="13">
+        <f>IF(B1537="Pending","",(G1537/C1537)/(VLOOKUP(B1537,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>9.5071597227968058E-4</v>
+      </c>
+    </row>
+    <row r="1538" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1538" s="1">
+        <v>44062</v>
+      </c>
+      <c r="B1538" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1538" s="2">
+        <v>11330</v>
+      </c>
+      <c r="D1538" s="6">
+        <f t="shared" si="347"/>
+        <v>8.2220609579100143E-2</v>
+      </c>
+      <c r="E1538" s="7">
+        <f t="shared" si="348"/>
+        <v>184</v>
+      </c>
+      <c r="F1538" s="6">
+        <f t="shared" si="349"/>
+        <v>9.0999010880316519E-2</v>
+      </c>
+      <c r="G1538" s="2">
+        <v>286</v>
+      </c>
+      <c r="H1538" s="7">
+        <f t="shared" si="350"/>
+        <v>4</v>
+      </c>
+      <c r="I1538" s="6">
+        <f t="shared" si="351"/>
+        <v>0.19696969696969696</v>
+      </c>
+      <c r="J1538" s="10">
+        <f>IF(B1538="Pending","",C1538/(VLOOKUP(B1538,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1437.7479258614433</v>
+      </c>
+      <c r="K1538" s="10">
+        <f>IF(B1538="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1538,A:A,"&gt;="&amp;A1538-30,B:B,B1538)/(VLOOKUP(B1538,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>721.2850141744434</v>
+      </c>
+      <c r="L1538" s="13">
+        <f>IF(B1538="Pending","",(G1538/C1538)/(VLOOKUP(B1538,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>3.2032361950314506E-3</v>
+      </c>
+    </row>
+    <row r="1539" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1539" s="1">
+        <v>44062</v>
+      </c>
+      <c r="B1539" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1539" s="2">
+        <v>6084</v>
+      </c>
+      <c r="D1539" s="6">
+        <f t="shared" si="347"/>
+        <v>4.4150943396226418E-2</v>
+      </c>
+      <c r="E1539" s="7">
+        <f t="shared" si="348"/>
+        <v>102</v>
+      </c>
+      <c r="F1539" s="6">
+        <f t="shared" si="349"/>
+        <v>5.0445103857566766E-2</v>
+      </c>
+      <c r="G1539" s="2">
+        <v>419</v>
+      </c>
+      <c r="H1539" s="7">
+        <f t="shared" si="350"/>
+        <v>14</v>
+      </c>
+      <c r="I1539" s="6">
+        <f t="shared" si="351"/>
+        <v>0.28856749311294766</v>
+      </c>
+      <c r="J1539" s="10">
+        <f>IF(B1539="Pending","",C1539/(VLOOKUP(B1539,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1268.5650660867354</v>
+      </c>
+      <c r="K1539" s="10">
+        <f>IF(B1539="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1539,A:A,"&gt;="&amp;A1539-30,B:B,B1539)/(VLOOKUP(B1539,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>659.92906544452956</v>
+      </c>
+      <c r="L1539" s="13">
+        <f>IF(B1539="Pending","",(G1539/C1539)/(VLOOKUP(B1539,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1.4359798961005006E-2</v>
+      </c>
+    </row>
+    <row r="1540" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1540" s="1">
+        <v>44062</v>
+      </c>
+      <c r="B1540" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1540" s="2">
+        <v>3327</v>
+      </c>
+      <c r="D1540" s="6">
+        <f t="shared" si="347"/>
+        <v>2.4143686502177068E-2</v>
+      </c>
+      <c r="E1540" s="7">
+        <f t="shared" si="348"/>
+        <v>33</v>
+      </c>
+      <c r="F1540" s="6">
+        <f t="shared" si="349"/>
+        <v>1.6320474777448073E-2</v>
+      </c>
+      <c r="G1540" s="2">
+        <v>475</v>
+      </c>
+      <c r="H1540" s="7">
+        <f t="shared" si="350"/>
+        <v>5</v>
+      </c>
+      <c r="I1540" s="6">
+        <f t="shared" si="351"/>
+        <v>0.32713498622589532</v>
+      </c>
+      <c r="J1540" s="10">
+        <f>IF(B1540="Pending","",C1540/(VLOOKUP(B1540,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1502.9204631181419</v>
+      </c>
+      <c r="K1540" s="10">
+        <f>IF(B1540="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1540,A:A,"&gt;="&amp;A1540-30,B:B,B1540)/(VLOOKUP(B1540,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>751.23436434189068</v>
+      </c>
+      <c r="L1540" s="13">
+        <f>IF(B1540="Pending","",(G1540/C1540)/(VLOOKUP(B1540,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>6.4494696820362421E-2</v>
+      </c>
+    </row>
+    <row r="1541" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1541" s="1">
+        <v>44062</v>
+      </c>
+      <c r="B1541" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1541" s="2">
+        <v>209</v>
+      </c>
+      <c r="D1541" s="6">
+        <f t="shared" si="347"/>
+        <v>1.5166908563134978E-3</v>
+      </c>
+      <c r="E1541" s="7">
+        <f t="shared" si="348"/>
+        <v>1</v>
+      </c>
+      <c r="F1541" s="6">
+        <f t="shared" si="349"/>
+        <v>4.9455984174085062E-4</v>
+      </c>
+      <c r="G1541" s="2">
+        <v>0</v>
+      </c>
+      <c r="H1541" s="7">
+        <f t="shared" si="350"/>
+        <v>0</v>
+      </c>
+      <c r="I1541" s="6">
+        <f t="shared" si="351"/>
+        <v>0</v>
+      </c>
+      <c r="J1541" s="10" t="str">
+        <f>IF(B1541="Pending","",C1541/(VLOOKUP(B1541,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v/>
+      </c>
+      <c r="K1541" s="10" t="str">
+        <f>IF(B1541="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1541,A:A,"&gt;="&amp;A1541-30,B:B,B1541)/(VLOOKUP(B1541,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v/>
+      </c>
+      <c r="L1541" s="13" t="str">
+        <f>IF(B1541="Pending","",(G1541/C1541)/(VLOOKUP(B1541,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="1542" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1542" s="1">
+        <v>44063</v>
+      </c>
+      <c r="B1542" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1542" s="2">
+        <v>6832</v>
+      </c>
+      <c r="D1542" s="6">
+        <f t="shared" ref="D1542:D1551" si="352">C1542/SUMIF(A:A,A1542,C:C)</f>
+        <v>4.9089276091252021E-2</v>
+      </c>
+      <c r="E1542" s="7">
+        <f t="shared" ref="E1542:E1551" si="353">C1542-SUMIFS(C:C,A:A,A1542-1,B:B,B1542)</f>
+        <v>84</v>
+      </c>
+      <c r="F1542" s="6">
+        <f t="shared" ref="F1542:F1551" si="354">E1542/SUMIF(A:A,A1542,E:E)</f>
+        <v>6.1090909090909092E-2</v>
+      </c>
+      <c r="G1542" s="2">
+        <v>4</v>
+      </c>
+      <c r="H1542" s="7">
+        <f t="shared" ref="H1542:H1551" si="355">G1542-SUMIFS(G:G,A:A,A1542-1,B:B,B1542)</f>
+        <v>0</v>
+      </c>
+      <c r="I1542" s="6">
+        <f t="shared" ref="I1542:I1551" si="356">G1542/SUMIF(A:A,A1542,G:G)</f>
+        <v>2.6881720430107529E-3</v>
+      </c>
+      <c r="J1542" s="10">
+        <f>IF(B1542="Pending","",C1542/(VLOOKUP(B1542,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>754.13882247492643</v>
+      </c>
+      <c r="K1542" s="10">
+        <f>IF(B1542="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1542,A:A,"&gt;="&amp;A1542-30,B:B,B1542)/(VLOOKUP(B1542,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>351.57086498574949</v>
+      </c>
+      <c r="L1542" s="13">
+        <f>IF(B1542="Pending","",(G1542/C1542)/(VLOOKUP(B1542,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>6.4627234840155572E-5</v>
+      </c>
+    </row>
+    <row r="1543" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1543" s="1">
+        <v>44063</v>
+      </c>
+      <c r="B1543" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1543" s="2">
+        <v>16648</v>
+      </c>
+      <c r="D1543" s="6">
+        <f t="shared" si="352"/>
+        <v>0.11961918447997126</v>
+      </c>
+      <c r="E1543" s="7">
+        <f t="shared" si="353"/>
+        <v>223</v>
+      </c>
+      <c r="F1543" s="6">
+        <f t="shared" si="354"/>
+        <v>0.16218181818181818</v>
+      </c>
+      <c r="G1543" s="2">
+        <v>0</v>
+      </c>
+      <c r="H1543" s="7">
+        <f t="shared" si="355"/>
+        <v>0</v>
+      </c>
+      <c r="I1543" s="6">
+        <f t="shared" si="356"/>
+        <v>0</v>
+      </c>
+      <c r="J1543" s="10">
+        <f>IF(B1543="Pending","",C1543/(VLOOKUP(B1543,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1943.213983483615</v>
+      </c>
+      <c r="K1543" s="10">
+        <f>IF(B1543="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1543,A:A,"&gt;="&amp;A1543-30,B:B,B1543)/(VLOOKUP(B1543,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>921.06568618868369</v>
+      </c>
+      <c r="L1543" s="13">
+        <f>IF(B1543="Pending","",(G1543/C1543)/(VLOOKUP(B1543,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1544" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1544" s="1">
+        <v>44063</v>
+      </c>
+      <c r="B1544" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1544" s="2">
+        <v>31066</v>
+      </c>
+      <c r="D1544" s="6">
+        <f t="shared" si="352"/>
+        <v>0.22321537632477098</v>
+      </c>
+      <c r="E1544" s="7">
+        <f t="shared" si="353"/>
+        <v>237</v>
+      </c>
+      <c r="F1544" s="6">
+        <f t="shared" si="354"/>
+        <v>0.17236363636363636</v>
+      </c>
+      <c r="G1544" s="2">
+        <v>16</v>
+      </c>
+      <c r="H1544" s="7">
+        <f t="shared" si="355"/>
+        <v>0</v>
+      </c>
+      <c r="I1544" s="6">
+        <f t="shared" si="356"/>
+        <v>1.0752688172043012E-2</v>
+      </c>
+      <c r="J1544" s="10">
+        <f>IF(B1544="Pending","",C1544/(VLOOKUP(B1544,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>3261.7003762935087</v>
+      </c>
+      <c r="K1544" s="10">
+        <f>IF(B1544="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1544,A:A,"&gt;="&amp;A1544-30,B:B,B1544)/(VLOOKUP(B1544,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1255.0816422523853</v>
+      </c>
+      <c r="L1544" s="13">
+        <f>IF(B1544="Pending","",(G1544/C1544)/(VLOOKUP(B1544,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>5.4074606847542741E-5</v>
+      </c>
+    </row>
+    <row r="1545" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1545" s="1">
+        <v>44063</v>
+      </c>
+      <c r="B1545" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1545" s="2">
+        <v>24514</v>
+      </c>
+      <c r="D1545" s="6">
+        <f t="shared" si="352"/>
+        <v>0.17613795581102928</v>
+      </c>
+      <c r="E1545" s="7">
+        <f t="shared" si="353"/>
+        <v>193</v>
+      </c>
+      <c r="F1545" s="6">
+        <f t="shared" si="354"/>
+        <v>0.14036363636363636</v>
+      </c>
+      <c r="G1545" s="2">
+        <v>28</v>
+      </c>
+      <c r="H1545" s="7">
+        <f t="shared" si="355"/>
+        <v>0</v>
+      </c>
+      <c r="I1545" s="6">
+        <f t="shared" si="356"/>
+        <v>1.8817204301075269E-2</v>
+      </c>
+      <c r="J1545" s="10">
+        <f>IF(B1545="Pending","",C1545/(VLOOKUP(B1545,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>2794.6309887799794</v>
+      </c>
+      <c r="K1545" s="10">
+        <f>IF(B1545="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1545,A:A,"&gt;="&amp;A1545-30,B:B,B1545)/(VLOOKUP(B1545,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1068.3073752083376</v>
+      </c>
+      <c r="L1545" s="13">
+        <f>IF(B1545="Pending","",(G1545/C1545)/(VLOOKUP(B1545,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1.3021293809008539E-4</v>
+      </c>
+    </row>
+    <row r="1546" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1546" s="1">
+        <v>44063</v>
+      </c>
+      <c r="B1546" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1546" s="2">
+        <v>21225</v>
+      </c>
+      <c r="D1546" s="6">
+        <f t="shared" si="352"/>
+        <v>0.15250583797377404</v>
+      </c>
+      <c r="E1546" s="7">
+        <f t="shared" si="353"/>
+        <v>202</v>
+      </c>
+      <c r="F1546" s="6">
+        <f t="shared" si="354"/>
+        <v>0.14690909090909091</v>
+      </c>
+      <c r="G1546" s="2">
+        <v>75</v>
+      </c>
+      <c r="H1546" s="7">
+        <f t="shared" si="355"/>
+        <v>0</v>
+      </c>
+      <c r="I1546" s="6">
+        <f t="shared" si="356"/>
+        <v>5.040322580645161E-2</v>
+      </c>
+      <c r="J1546" s="10">
+        <f>IF(B1546="Pending","",C1546/(VLOOKUP(B1546,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>2489.6776615211375</v>
+      </c>
+      <c r="K1546" s="10">
+        <f>IF(B1546="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1546,A:A,"&gt;="&amp;A1546-30,B:B,B1546)/(VLOOKUP(B1546,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1011.3545723267489</v>
+      </c>
+      <c r="L1546" s="13">
+        <f>IF(B1546="Pending","",(G1546/C1546)/(VLOOKUP(B1546,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>4.1448516217726736E-4</v>
+      </c>
+    </row>
+    <row r="1547" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1547" s="1">
+        <v>44063</v>
+      </c>
+      <c r="B1547" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1547" s="2">
+        <v>17697</v>
+      </c>
+      <c r="D1547" s="6">
+        <f t="shared" si="352"/>
+        <v>0.12715645769714387</v>
+      </c>
+      <c r="E1547" s="7">
+        <f t="shared" si="353"/>
+        <v>193</v>
+      </c>
+      <c r="F1547" s="6">
+        <f t="shared" si="354"/>
+        <v>0.14036363636363636</v>
+      </c>
+      <c r="G1547" s="2">
+        <v>156</v>
+      </c>
+      <c r="H1547" s="7">
+        <f t="shared" si="355"/>
+        <v>7</v>
+      </c>
+      <c r="I1547" s="6">
+        <f t="shared" si="356"/>
+        <v>0.10483870967741936</v>
+      </c>
+      <c r="J1547" s="10">
+        <f>IF(B1547="Pending","",C1547/(VLOOKUP(B1547,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1976.5212020626318</v>
+      </c>
+      <c r="K1547" s="10">
+        <f>IF(B1547="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1547,A:A,"&gt;="&amp;A1547-30,B:B,B1547)/(VLOOKUP(B1547,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>872.60892533849483</v>
+      </c>
+      <c r="L1547" s="13">
+        <f>IF(B1547="Pending","",(G1547/C1547)/(VLOOKUP(B1547,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>9.8452505736581846E-4</v>
+      </c>
+    </row>
+    <row r="1548" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1548" s="1">
+        <v>44063</v>
+      </c>
+      <c r="B1548" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1548" s="2">
+        <v>11469</v>
+      </c>
+      <c r="D1548" s="6">
+        <f t="shared" si="352"/>
+        <v>8.2407041494521285E-2</v>
+      </c>
+      <c r="E1548" s="7">
+        <f t="shared" si="353"/>
+        <v>139</v>
+      </c>
+      <c r="F1548" s="6">
+        <f t="shared" si="354"/>
+        <v>0.10109090909090909</v>
+      </c>
+      <c r="G1548" s="2">
+        <v>294</v>
+      </c>
+      <c r="H1548" s="7">
+        <f t="shared" si="355"/>
+        <v>8</v>
+      </c>
+      <c r="I1548" s="6">
+        <f t="shared" si="356"/>
+        <v>0.19758064516129031</v>
+      </c>
+      <c r="J1548" s="10">
+        <f>IF(B1548="Pending","",C1548/(VLOOKUP(B1548,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1455.386669170776</v>
+      </c>
+      <c r="K1548" s="10">
+        <f>IF(B1548="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1548,A:A,"&gt;="&amp;A1548-30,B:B,B1548)/(VLOOKUP(B1548,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>724.45745002144565</v>
+      </c>
+      <c r="L1548" s="13">
+        <f>IF(B1548="Pending","",(G1548/C1548)/(VLOOKUP(B1548,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>3.2529292493458078E-3</v>
+      </c>
+    </row>
+    <row r="1549" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1549" s="1">
+        <v>44063</v>
+      </c>
+      <c r="B1549" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1549" s="2">
+        <v>6147</v>
+      </c>
+      <c r="D1549" s="6">
+        <f t="shared" si="352"/>
+        <v>4.4167415124842825E-2</v>
+      </c>
+      <c r="E1549" s="7">
+        <f t="shared" si="353"/>
+        <v>63</v>
+      </c>
+      <c r="F1549" s="6">
+        <f t="shared" si="354"/>
+        <v>4.581818181818182E-2</v>
+      </c>
+      <c r="G1549" s="2">
+        <v>434</v>
+      </c>
+      <c r="H1549" s="7">
+        <f t="shared" si="355"/>
+        <v>15</v>
+      </c>
+      <c r="I1549" s="6">
+        <f t="shared" si="356"/>
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="J1549" s="10">
+        <f>IF(B1549="Pending","",C1549/(VLOOKUP(B1549,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1281.7010948775744</v>
+      </c>
+      <c r="K1549" s="10">
+        <f>IF(B1549="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1549,A:A,"&gt;="&amp;A1549-30,B:B,B1549)/(VLOOKUP(B1549,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>656.3844227549381</v>
+      </c>
+      <c r="L1549" s="13">
+        <f>IF(B1549="Pending","",(G1549/C1549)/(VLOOKUP(B1549,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1.472143204511716E-2</v>
+      </c>
+    </row>
+    <row r="1550" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1550" s="1">
+        <v>44063</v>
+      </c>
+      <c r="B1550" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1550" s="2">
+        <v>3364</v>
+      </c>
+      <c r="D1550" s="6">
+        <f t="shared" si="352"/>
+        <v>2.4171007724088377E-2</v>
+      </c>
+      <c r="E1550" s="7">
+        <f t="shared" si="353"/>
+        <v>37</v>
+      </c>
+      <c r="F1550" s="6">
+        <f t="shared" si="354"/>
+        <v>2.690909090909091E-2</v>
+      </c>
+      <c r="G1550" s="2">
+        <v>481</v>
+      </c>
+      <c r="H1550" s="7">
+        <f t="shared" si="355"/>
+        <v>6</v>
+      </c>
+      <c r="I1550" s="6">
+        <f t="shared" si="356"/>
+        <v>0.323252688172043</v>
+      </c>
+      <c r="J1550" s="10">
+        <f>IF(B1550="Pending","",C1550/(VLOOKUP(B1550,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1519.634637189489</v>
+      </c>
+      <c r="K1550" s="10">
+        <f>IF(B1550="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1550,A:A,"&gt;="&amp;A1550-30,B:B,B1550)/(VLOOKUP(B1550,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>755.75170868549787</v>
+      </c>
+      <c r="L1550" s="13">
+        <f>IF(B1550="Pending","",(G1550/C1550)/(VLOOKUP(B1550,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>6.4591041298308616E-2</v>
+      </c>
+    </row>
+    <row r="1551" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1551" s="1">
+        <v>44063</v>
+      </c>
+      <c r="B1551" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1551" s="2">
+        <v>213</v>
+      </c>
+      <c r="D1551" s="6">
+        <f t="shared" si="352"/>
+        <v>1.5304472786060715E-3</v>
+      </c>
+      <c r="E1551" s="7">
+        <f t="shared" si="353"/>
+        <v>4</v>
+      </c>
+      <c r="F1551" s="6">
+        <f t="shared" si="354"/>
+        <v>2.9090909090909089E-3</v>
+      </c>
+      <c r="G1551" s="2">
+        <v>0</v>
+      </c>
+      <c r="H1551" s="7">
+        <f t="shared" si="355"/>
+        <v>0</v>
+      </c>
+      <c r="I1551" s="6">
+        <f t="shared" si="356"/>
+        <v>0</v>
+      </c>
+      <c r="J1551" s="10" t="str">
+        <f>IF(B1551="Pending","",C1551/(VLOOKUP(B1551,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v/>
+      </c>
+      <c r="K1551" s="10" t="str">
+        <f>IF(B1551="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1551,A:A,"&gt;="&amp;A1551-30,B:B,B1551)/(VLOOKUP(B1551,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v/>
+      </c>
+      <c r="L1551" s="13" t="str">
+        <f>IF(B1551="Pending","",(G1551/C1551)/(VLOOKUP(B1551,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="1552" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1552" s="1">
+        <v>44064</v>
+      </c>
+      <c r="B1552" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1552">
+        <v>6923</v>
+      </c>
+      <c r="D1552" s="6">
+        <f t="shared" ref="D1552:D1561" si="357">C1552/SUMIF(A:A,A1552,C:C)</f>
+        <v>4.9153673567919116E-2</v>
+      </c>
+      <c r="E1552" s="7">
+        <f t="shared" ref="E1552:E1561" si="358">C1552-SUMIFS(C:C,A:A,A1552-1,B:B,B1552)</f>
+        <v>91</v>
+      </c>
+      <c r="F1552" s="6">
+        <f t="shared" ref="F1552:F1561" si="359">E1552/SUMIF(A:A,A1552,E:E)</f>
+        <v>5.4523666866387058E-2</v>
+      </c>
+      <c r="G1552" s="2">
+        <v>4</v>
+      </c>
+      <c r="H1552" s="7">
+        <f t="shared" ref="H1552:H1561" si="360">G1552-SUMIFS(G:G,A:A,A1552-1,B:B,B1552)</f>
+        <v>0</v>
+      </c>
+      <c r="I1552" s="6">
+        <f t="shared" ref="I1552:I1561" si="361">G1552/SUMIF(A:A,A1552,G:G)</f>
+        <v>2.5823111684958036E-3</v>
+      </c>
+      <c r="J1552" s="10">
+        <f>IF(B1552="Pending","",C1552/(VLOOKUP(B1552,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>764.18370433166206</v>
+      </c>
+      <c r="K1552" s="10">
+        <f>IF(B1552="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1552,A:A,"&gt;="&amp;A1552-30,B:B,B1552)/(VLOOKUP(B1552,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>352.01239825417741</v>
+      </c>
+      <c r="L1552" s="13">
+        <f>IF(B1552="Pending","",(G1552/C1552)/(VLOOKUP(B1552,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>6.3777736303328444E-5</v>
+      </c>
+    </row>
+    <row r="1553" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1553" s="1">
+        <v>44064</v>
+      </c>
+      <c r="B1553" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1553">
+        <v>16923</v>
+      </c>
+      <c r="D1553" s="6">
+        <f t="shared" si="357"/>
+        <v>0.1201542131720201</v>
+      </c>
+      <c r="E1553" s="7">
+        <f t="shared" si="358"/>
+        <v>275</v>
+      </c>
+      <c r="F1553" s="6">
+        <f t="shared" si="359"/>
+        <v>0.16476932294787297</v>
+      </c>
+      <c r="G1553" s="2">
+        <v>0</v>
+      </c>
+      <c r="H1553" s="7">
+        <f t="shared" si="360"/>
+        <v>0</v>
+      </c>
+      <c r="I1553" s="6">
+        <f t="shared" si="361"/>
+        <v>0</v>
+      </c>
+      <c r="J1553" s="10">
+        <f>IF(B1553="Pending","",C1553/(VLOOKUP(B1553,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1975.312965070472</v>
+      </c>
+      <c r="K1553" s="10">
+        <f>IF(B1553="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1553,A:A,"&gt;="&amp;A1553-30,B:B,B1553)/(VLOOKUP(B1553,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>916.98036125944736</v>
+      </c>
+      <c r="L1553" s="13">
+        <f>IF(B1553="Pending","",(G1553/C1553)/(VLOOKUP(B1553,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1554" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1554" s="1">
+        <v>44064</v>
+      </c>
+      <c r="B1554" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1554">
+        <v>31387</v>
+      </c>
+      <c r="D1554" s="6">
+        <f t="shared" si="357"/>
+        <v>0.22284939365539178</v>
+      </c>
+      <c r="E1554" s="7">
+        <f t="shared" si="358"/>
+        <v>321</v>
+      </c>
+      <c r="F1554" s="6">
+        <f t="shared" si="359"/>
+        <v>0.19233073696824446</v>
+      </c>
+      <c r="G1554" s="2">
+        <v>16</v>
+      </c>
+      <c r="H1554" s="7">
+        <f t="shared" si="360"/>
+        <v>0</v>
+      </c>
+      <c r="I1554" s="6">
+        <f t="shared" si="361"/>
+        <v>1.0329244673983214E-2</v>
+      </c>
+      <c r="J1554" s="10">
+        <f>IF(B1554="Pending","",C1554/(VLOOKUP(B1554,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>3295.4030036285444</v>
+      </c>
+      <c r="K1554" s="10">
+        <f>IF(B1554="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1554,A:A,"&gt;="&amp;A1554-30,B:B,B1554)/(VLOOKUP(B1554,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1237.4428840209648</v>
+      </c>
+      <c r="L1554" s="13">
+        <f>IF(B1554="Pending","",(G1554/C1554)/(VLOOKUP(B1554,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>5.3521576968992343E-5</v>
+      </c>
+    </row>
+    <row r="1555" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1555" s="1">
+        <v>44064</v>
+      </c>
+      <c r="B1555" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1555">
+        <v>24776</v>
+      </c>
+      <c r="D1555" s="6">
+        <f t="shared" si="357"/>
+        <v>0.17591093692312063</v>
+      </c>
+      <c r="E1555" s="7">
+        <f t="shared" si="358"/>
+        <v>262</v>
+      </c>
+      <c r="F1555" s="6">
+        <f t="shared" si="359"/>
+        <v>0.15698022768124625</v>
+      </c>
+      <c r="G1555" s="2">
+        <v>29</v>
+      </c>
+      <c r="H1555" s="7">
+        <f t="shared" si="360"/>
+        <v>1</v>
+      </c>
+      <c r="I1555" s="6">
+        <f t="shared" si="361"/>
+        <v>1.8721755971594579E-2</v>
+      </c>
+      <c r="J1555" s="10">
+        <f>IF(B1555="Pending","",C1555/(VLOOKUP(B1555,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>2824.4993627320214</v>
+      </c>
+      <c r="K1555" s="10">
+        <f>IF(B1555="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1555,A:A,"&gt;="&amp;A1555-30,B:B,B1555)/(VLOOKUP(B1555,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1055.7672182055719</v>
+      </c>
+      <c r="L1555" s="13">
+        <f>IF(B1555="Pending","",(G1555/C1555)/(VLOOKUP(B1555,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1.3343725345649917E-4</v>
+      </c>
+    </row>
+    <row r="1556" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1556" s="1">
+        <v>44064</v>
+      </c>
+      <c r="B1556" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1556">
+        <v>21458</v>
+      </c>
+      <c r="D1556" s="6">
+        <f t="shared" si="357"/>
+        <v>0.15235295788247991</v>
+      </c>
+      <c r="E1556" s="7">
+        <f t="shared" si="358"/>
+        <v>233</v>
+      </c>
+      <c r="F1556" s="6">
+        <f t="shared" si="359"/>
+        <v>0.1396045536249251</v>
+      </c>
+      <c r="G1556" s="2">
+        <v>77</v>
+      </c>
+      <c r="H1556" s="7">
+        <f t="shared" si="360"/>
+        <v>2</v>
+      </c>
+      <c r="I1556" s="6">
+        <f t="shared" si="361"/>
+        <v>4.9709489993544222E-2</v>
+      </c>
+      <c r="J1556" s="10">
+        <f>IF(B1556="Pending","",C1556/(VLOOKUP(B1556,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>2517.0083986299442</v>
+      </c>
+      <c r="K1556" s="10">
+        <f>IF(B1556="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1556,A:A,"&gt;="&amp;A1556-30,B:B,B1556)/(VLOOKUP(B1556,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1001.6187303523672</v>
+      </c>
+      <c r="L1556" s="13">
+        <f>IF(B1556="Pending","",(G1556/C1556)/(VLOOKUP(B1556,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>4.2091742795250409E-4</v>
+      </c>
+    </row>
+    <row r="1557" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1557" s="1">
+        <v>44064</v>
+      </c>
+      <c r="B1557" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1557">
+        <v>17896</v>
+      </c>
+      <c r="D1557" s="6">
+        <f t="shared" si="357"/>
+        <v>0.12706256567549915</v>
+      </c>
+      <c r="E1557" s="7">
+        <f t="shared" si="358"/>
+        <v>199</v>
+      </c>
+      <c r="F1557" s="6">
+        <f t="shared" si="359"/>
+        <v>0.11923307369682444</v>
+      </c>
+      <c r="G1557" s="2">
+        <v>160</v>
+      </c>
+      <c r="H1557" s="7">
+        <f t="shared" si="360"/>
+        <v>4</v>
+      </c>
+      <c r="I1557" s="6">
+        <f t="shared" si="361"/>
+        <v>0.10329244673983215</v>
+      </c>
+      <c r="J1557" s="10">
+        <f>IF(B1557="Pending","",C1557/(VLOOKUP(B1557,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1998.7468741658395</v>
+      </c>
+      <c r="K1557" s="10">
+        <f>IF(B1557="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1557,A:A,"&gt;="&amp;A1557-30,B:B,B1557)/(VLOOKUP(B1557,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>862.11036665657764</v>
+      </c>
+      <c r="L1557" s="13">
+        <f>IF(B1557="Pending","",(G1557/C1557)/(VLOOKUP(B1557,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>9.9854085371908871E-4</v>
+      </c>
+    </row>
+    <row r="1558" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1558" s="1">
+        <v>44064</v>
+      </c>
+      <c r="B1558" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1558">
+        <v>11634</v>
+      </c>
+      <c r="D1558" s="6">
+        <f t="shared" si="357"/>
+        <v>8.2602027775411091E-2</v>
+      </c>
+      <c r="E1558" s="7">
+        <f t="shared" si="358"/>
+        <v>165</v>
+      </c>
+      <c r="F1558" s="6">
+        <f t="shared" si="359"/>
+        <v>9.8861593768723791E-2</v>
+      </c>
+      <c r="G1558" s="2">
+        <v>300</v>
+      </c>
+      <c r="H1558" s="7">
+        <f t="shared" si="360"/>
+        <v>6</v>
+      </c>
+      <c r="I1558" s="6">
+        <f t="shared" si="361"/>
+        <v>0.19367333763718528</v>
+      </c>
+      <c r="J1558" s="10">
+        <f>IF(B1558="Pending","",C1558/(VLOOKUP(B1558,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1476.3247457609912</v>
+      </c>
+      <c r="K1558" s="10">
+        <f>IF(B1558="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1558,A:A,"&gt;="&amp;A1558-30,B:B,B1558)/(VLOOKUP(B1558,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>722.93468081488459</v>
+      </c>
+      <c r="L1558" s="13">
+        <f>IF(B1558="Pending","",(G1558/C1558)/(VLOOKUP(B1558,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>3.272239140796598E-3</v>
+      </c>
+    </row>
+    <row r="1559" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1559" s="1">
+        <v>44064</v>
+      </c>
+      <c r="B1559" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1559">
+        <v>6222</v>
+      </c>
+      <c r="D1559" s="6">
+        <f t="shared" si="357"/>
+        <v>4.4176535741671637E-2</v>
+      </c>
+      <c r="E1559" s="7">
+        <f t="shared" si="358"/>
+        <v>75</v>
+      </c>
+      <c r="F1559" s="6">
+        <f t="shared" si="359"/>
+        <v>4.4937088076692631E-2</v>
+      </c>
+      <c r="G1559" s="2">
+        <v>461</v>
+      </c>
+      <c r="H1559" s="7">
+        <f t="shared" si="360"/>
+        <v>27</v>
+      </c>
+      <c r="I1559" s="6">
+        <f t="shared" si="361"/>
+        <v>0.29761136216914136</v>
+      </c>
+      <c r="J1559" s="10">
+        <f>IF(B1559="Pending","",C1559/(VLOOKUP(B1559,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1297.339224390478</v>
+      </c>
+      <c r="K1559" s="10">
+        <f>IF(B1559="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1559,A:A,"&gt;="&amp;A1559-30,B:B,B1559)/(VLOOKUP(B1559,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>649.92066255627128</v>
+      </c>
+      <c r="L1559" s="13">
+        <f>IF(B1559="Pending","",(G1559/C1559)/(VLOOKUP(B1559,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1.5448789682735525E-2</v>
+      </c>
+    </row>
+    <row r="1560" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1560" s="1">
+        <v>44064</v>
+      </c>
+      <c r="B1560" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1560">
+        <v>3413</v>
+      </c>
+      <c r="D1560" s="6">
+        <f t="shared" si="357"/>
+        <v>2.4232484166879668E-2</v>
+      </c>
+      <c r="E1560" s="7">
+        <f t="shared" si="358"/>
+        <v>49</v>
+      </c>
+      <c r="F1560" s="6">
+        <f t="shared" si="359"/>
+        <v>2.9358897543439184E-2</v>
+      </c>
+      <c r="G1560" s="2">
+        <v>502</v>
+      </c>
+      <c r="H1560" s="7">
+        <f t="shared" si="360"/>
+        <v>21</v>
+      </c>
+      <c r="I1560" s="6">
+        <f t="shared" si="361"/>
+        <v>0.32408005164622339</v>
+      </c>
+      <c r="J1560" s="10">
+        <f>IF(B1560="Pending","",C1560/(VLOOKUP(B1560,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1541.7696244731646</v>
+      </c>
+      <c r="K1560" s="10">
+        <f>IF(B1560="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1560,A:A,"&gt;="&amp;A1560-30,B:B,B1560)/(VLOOKUP(B1560,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>753.49303651369428</v>
+      </c>
+      <c r="L1560" s="13">
+        <f>IF(B1560="Pending","",(G1560/C1560)/(VLOOKUP(B1560,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>6.6443213023464828E-2</v>
+      </c>
+    </row>
+    <row r="1561" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1561" s="1">
+        <v>44064</v>
+      </c>
+      <c r="B1561" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1561">
+        <v>212</v>
+      </c>
+      <c r="D1561" s="6">
+        <f t="shared" si="357"/>
+        <v>1.5052114396069409E-3</v>
+      </c>
+      <c r="E1561" s="7">
+        <f t="shared" si="358"/>
+        <v>-1</v>
+      </c>
+      <c r="F1561" s="6">
+        <f t="shared" si="359"/>
+        <v>-5.9916117435590175E-4</v>
+      </c>
+      <c r="G1561" s="2">
+        <v>0</v>
+      </c>
+      <c r="H1561" s="7">
+        <f t="shared" si="360"/>
+        <v>0</v>
+      </c>
+      <c r="I1561" s="6">
+        <f t="shared" si="361"/>
+        <v>0</v>
+      </c>
+      <c r="J1561" s="10" t="str">
+        <f>IF(B1561="Pending","",C1561/(VLOOKUP(B1561,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v/>
+      </c>
+      <c r="K1561" s="10" t="str">
+        <f>IF(B1561="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1561,A:A,"&gt;="&amp;A1561-30,B:B,B1561)/(VLOOKUP(B1561,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v/>
+      </c>
+      <c r="L1561" s="13" t="str">
+        <f>IF(B1561="Pending","",(G1561/C1561)/(VLOOKUP(B1561,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="1562" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1562" s="1">
+        <v>44065</v>
+      </c>
+      <c r="B1562" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1562" s="2">
+        <v>7007</v>
+      </c>
+      <c r="D1562" s="6">
+        <f t="shared" ref="D1562:D1571" si="362">C1562/SUMIF(A:A,A1562,C:C)</f>
+        <v>4.9316244730192915E-2</v>
+      </c>
+      <c r="E1562" s="7">
+        <f t="shared" ref="E1562:E1571" si="363">C1562-SUMIFS(C:C,A:A,A1562-1,B:B,B1562)</f>
+        <v>84</v>
+      </c>
+      <c r="F1562" s="6">
+        <f t="shared" ref="F1562:F1571" si="364">E1562/SUMIF(A:A,A1562,E:E)</f>
+        <v>6.7796610169491525E-2</v>
+      </c>
+      <c r="G1562">
+        <v>4</v>
+      </c>
+      <c r="H1562" s="7">
+        <f t="shared" ref="H1562:H1571" si="365">G1562-SUMIFS(G:G,A:A,A1562-1,B:B,B1562)</f>
+        <v>0</v>
+      </c>
+      <c r="I1562" s="6">
+        <f t="shared" ref="I1562:I1571" si="366">G1562/SUMIF(A:A,A1562,G:G)</f>
+        <v>2.5591810620601407E-3</v>
+      </c>
+      <c r="J1562" s="10">
+        <f>IF(B1562="Pending","",C1562/(VLOOKUP(B1562,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>773.45590296864884</v>
+      </c>
+      <c r="K1562" s="10">
+        <f>IF(B1562="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1562,A:A,"&gt;="&amp;A1562-30,B:B,B1562)/(VLOOKUP(B1562,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>345.72054917907923</v>
+      </c>
+      <c r="L1562" s="13">
+        <f>IF(B1562="Pending","",(G1562/C1562)/(VLOOKUP(B1562,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>6.3013168035955879E-5</v>
+      </c>
+    </row>
+    <row r="1563" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1563" s="1">
+        <v>44065</v>
+      </c>
+      <c r="B1563" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1563" s="2">
+        <v>17122</v>
+      </c>
+      <c r="D1563" s="6">
+        <f t="shared" si="362"/>
+        <v>0.12050702758246939</v>
+      </c>
+      <c r="E1563" s="7">
+        <f t="shared" si="363"/>
+        <v>199</v>
+      </c>
+      <c r="F1563" s="6">
+        <f t="shared" si="364"/>
+        <v>0.16061339790153351</v>
+      </c>
+      <c r="G1563">
+        <v>1</v>
+      </c>
+      <c r="H1563" s="7">
+        <f t="shared" si="365"/>
+        <v>1</v>
+      </c>
+      <c r="I1563" s="6">
+        <f t="shared" si="366"/>
+        <v>6.3979526551503517E-4</v>
+      </c>
+      <c r="J1563" s="10">
+        <f>IF(B1563="Pending","",C1563/(VLOOKUP(B1563,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1998.5409553824156</v>
+      </c>
+      <c r="K1563" s="10">
+        <f>IF(B1563="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1563,A:A,"&gt;="&amp;A1563-30,B:B,B1563)/(VLOOKUP(B1563,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>902.62336222241686</v>
+      </c>
+      <c r="L1563" s="13">
+        <f>IF(B1563="Pending","",(G1563/C1563)/(VLOOKUP(B1563,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>6.8171691044710006E-6</v>
+      </c>
+    </row>
+    <row r="1564" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1564" s="1">
+        <v>44065</v>
+      </c>
+      <c r="B1564" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1564" s="2">
+        <v>31614</v>
+      </c>
+      <c r="D1564" s="6">
+        <f t="shared" si="362"/>
+        <v>0.22250374780937904</v>
+      </c>
+      <c r="E1564" s="7">
+        <f t="shared" si="363"/>
+        <v>227</v>
+      </c>
+      <c r="F1564" s="6">
+        <f t="shared" si="364"/>
+        <v>0.18321226795803067</v>
+      </c>
+      <c r="G1564">
+        <v>16</v>
+      </c>
+      <c r="H1564" s="7">
+        <f t="shared" si="365"/>
+        <v>0</v>
+      </c>
+      <c r="I1564" s="6">
+        <f t="shared" si="366"/>
+        <v>1.0236724248240563E-2</v>
+      </c>
+      <c r="J1564" s="10">
+        <f>IF(B1564="Pending","",C1564/(VLOOKUP(B1564,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>3319.2363257626662</v>
+      </c>
+      <c r="K1564" s="10">
+        <f>IF(B1564="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1564,A:A,"&gt;="&amp;A1564-30,B:B,B1564)/(VLOOKUP(B1564,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1202.3753527751646</v>
+      </c>
+      <c r="L1564" s="13">
+        <f>IF(B1564="Pending","",(G1564/C1564)/(VLOOKUP(B1564,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>5.3137272611050876E-5</v>
+      </c>
+    </row>
+    <row r="1565" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1565" s="1">
+        <v>44065</v>
+      </c>
+      <c r="B1565" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1565" s="2">
+        <v>25001</v>
+      </c>
+      <c r="D1565" s="6">
+        <f t="shared" si="362"/>
+        <v>0.17596053011268062</v>
+      </c>
+      <c r="E1565" s="7">
+        <f t="shared" si="363"/>
+        <v>225</v>
+      </c>
+      <c r="F1565" s="6">
+        <f t="shared" si="364"/>
+        <v>0.18159806295399517</v>
+      </c>
+      <c r="G1565">
+        <v>29</v>
+      </c>
+      <c r="H1565" s="7">
+        <f t="shared" si="365"/>
+        <v>0</v>
+      </c>
+      <c r="I1565" s="6">
+        <f t="shared" si="366"/>
+        <v>1.8554062699936022E-2</v>
+      </c>
+      <c r="J1565" s="10">
+        <f>IF(B1565="Pending","",C1565/(VLOOKUP(B1565,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>2850.1496838740422</v>
+      </c>
+      <c r="K1565" s="10">
+        <f>IF(B1565="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1565,A:A,"&gt;="&amp;A1565-30,B:B,B1565)/(VLOOKUP(B1565,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1036.9569827014234</v>
+      </c>
+      <c r="L1565" s="13">
+        <f>IF(B1565="Pending","",(G1565/C1565)/(VLOOKUP(B1565,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1.3223636621088051E-4</v>
+      </c>
+    </row>
+    <row r="1566" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1566" s="1">
+        <v>44065</v>
+      </c>
+      <c r="B1566" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1566" s="2">
+        <v>21630</v>
+      </c>
+      <c r="D1566" s="6">
+        <f t="shared" si="362"/>
+        <v>0.15223496125504107</v>
+      </c>
+      <c r="E1566" s="7">
+        <f t="shared" si="363"/>
+        <v>172</v>
+      </c>
+      <c r="F1566" s="6">
+        <f t="shared" si="364"/>
+        <v>0.13882163034705408</v>
+      </c>
+      <c r="G1566">
+        <v>78</v>
+      </c>
+      <c r="H1566" s="7">
+        <f t="shared" si="365"/>
+        <v>1</v>
+      </c>
+      <c r="I1566" s="6">
+        <f t="shared" si="366"/>
+        <v>4.9904030710172742E-2</v>
+      </c>
+      <c r="J1566" s="10">
+        <f>IF(B1566="Pending","",C1566/(VLOOKUP(B1566,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>2537.1838783840849</v>
+      </c>
+      <c r="K1566" s="10">
+        <f>IF(B1566="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1566,A:A,"&gt;="&amp;A1566-30,B:B,B1566)/(VLOOKUP(B1566,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>984.61033172242298</v>
+      </c>
+      <c r="L1566" s="13">
+        <f>IF(B1566="Pending","",(G1566/C1566)/(VLOOKUP(B1566,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>4.2299331807216825E-4</v>
+      </c>
+    </row>
+    <row r="1567" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1567" s="1">
+        <v>44065</v>
+      </c>
+      <c r="B1567" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1567" s="2">
+        <v>18065</v>
+      </c>
+      <c r="D1567" s="6">
+        <f t="shared" si="362"/>
+        <v>0.12714399329969103</v>
+      </c>
+      <c r="E1567" s="7">
+        <f t="shared" si="363"/>
+        <v>169</v>
+      </c>
+      <c r="F1567" s="6">
+        <f t="shared" si="364"/>
+        <v>0.13640032284100082</v>
+      </c>
+      <c r="G1567">
+        <v>161</v>
+      </c>
+      <c r="H1567" s="7">
+        <f t="shared" si="365"/>
+        <v>1</v>
+      </c>
+      <c r="I1567" s="6">
+        <f t="shared" si="366"/>
+        <v>0.10300703774792067</v>
+      </c>
+      <c r="J1567" s="10">
+        <f>IF(B1567="Pending","",C1567/(VLOOKUP(B1567,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>2017.6219424343926</v>
+      </c>
+      <c r="K1567" s="10">
+        <f>IF(B1567="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1567,A:A,"&gt;="&amp;A1567-30,B:B,B1567)/(VLOOKUP(B1567,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>847.81445696205219</v>
+      </c>
+      <c r="L1567" s="13">
+        <f>IF(B1567="Pending","",(G1567/C1567)/(VLOOKUP(B1567,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>9.9538189386356437E-4</v>
+      </c>
+    </row>
+    <row r="1568" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1568" s="1">
+        <v>44065</v>
+      </c>
+      <c r="B1568" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1568" s="2">
+        <v>11714</v>
+      </c>
+      <c r="D1568" s="6">
+        <f t="shared" si="362"/>
+        <v>8.2444768198869672E-2</v>
+      </c>
+      <c r="E1568" s="7">
+        <f t="shared" si="363"/>
+        <v>80</v>
+      </c>
+      <c r="F1568" s="6">
+        <f t="shared" si="364"/>
+        <v>6.4568200161420494E-2</v>
+      </c>
+      <c r="G1568">
+        <v>302</v>
+      </c>
+      <c r="H1568" s="7">
+        <f t="shared" si="365"/>
+        <v>2</v>
+      </c>
+      <c r="I1568" s="6">
+        <f t="shared" si="366"/>
+        <v>0.19321817018554063</v>
+      </c>
+      <c r="J1568" s="10">
+        <f>IF(B1568="Pending","",C1568/(VLOOKUP(B1568,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1486.4765404713987</v>
+      </c>
+      <c r="K1568" s="10">
+        <f>IF(B1568="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1568,A:A,"&gt;="&amp;A1568-30,B:B,B1568)/(VLOOKUP(B1568,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>703.90006573287076</v>
+      </c>
+      <c r="L1568" s="13">
+        <f>IF(B1568="Pending","",(G1568/C1568)/(VLOOKUP(B1568,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>3.2715575407023909E-3</v>
+      </c>
+    </row>
+    <row r="1569" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1569" s="1">
+        <v>44065</v>
+      </c>
+      <c r="B1569" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1569" s="2">
+        <v>6285</v>
+      </c>
+      <c r="D1569" s="6">
+        <f t="shared" si="362"/>
+        <v>4.4234707882012628E-2</v>
+      </c>
+      <c r="E1569" s="7">
+        <f t="shared" si="363"/>
+        <v>63</v>
+      </c>
+      <c r="F1569" s="6">
+        <f t="shared" si="364"/>
+        <v>5.0847457627118647E-2</v>
+      </c>
+      <c r="G1569">
+        <v>464</v>
+      </c>
+      <c r="H1569" s="7">
+        <f t="shared" si="365"/>
+        <v>3</v>
+      </c>
+      <c r="I1569" s="6">
+        <f t="shared" si="366"/>
+        <v>0.29686500319897635</v>
+      </c>
+      <c r="J1569" s="10">
+        <f>IF(B1569="Pending","",C1569/(VLOOKUP(B1569,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1310.4752531813169</v>
+      </c>
+      <c r="K1569" s="10">
+        <f>IF(B1569="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1569,A:A,"&gt;="&amp;A1569-30,B:B,B1569)/(VLOOKUP(B1569,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>638.45270091347527</v>
+      </c>
+      <c r="L1569" s="13">
+        <f>IF(B1569="Pending","",(G1569/C1569)/(VLOOKUP(B1569,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1.5393459759188001E-2</v>
+      </c>
+    </row>
+    <row r="1570" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1570" s="1">
+        <v>44065</v>
+      </c>
+      <c r="B1570" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1570" s="2">
+        <v>3437</v>
+      </c>
+      <c r="D1570" s="6">
+        <f t="shared" si="362"/>
+        <v>2.4190086076448274E-2</v>
+      </c>
+      <c r="E1570" s="7">
+        <f t="shared" si="363"/>
+        <v>24</v>
+      </c>
+      <c r="F1570" s="6">
+        <f t="shared" si="364"/>
+        <v>1.9370460048426151E-2</v>
+      </c>
+      <c r="G1570">
+        <v>508</v>
+      </c>
+      <c r="H1570" s="7">
+        <f t="shared" si="365"/>
+        <v>6</v>
+      </c>
+      <c r="I1570" s="6">
+        <f t="shared" si="366"/>
+        <v>0.32501599488163785</v>
+      </c>
+      <c r="J1570" s="10">
+        <f>IF(B1570="Pending","",C1570/(VLOOKUP(B1570,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1552.6112508978222</v>
+      </c>
+      <c r="K1570" s="10">
+        <f>IF(B1570="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1570,A:A,"&gt;="&amp;A1570-30,B:B,B1570)/(VLOOKUP(B1570,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>730.90631479565786</v>
+      </c>
+      <c r="L1570" s="13">
+        <f>IF(B1570="Pending","",(G1570/C1570)/(VLOOKUP(B1570,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>6.6767847732106422E-2</v>
+      </c>
+    </row>
+    <row r="1571" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1571" s="1">
+        <v>44065</v>
+      </c>
+      <c r="B1571" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1571" s="2">
+        <v>208</v>
+      </c>
+      <c r="D1571" s="6">
+        <f t="shared" si="362"/>
+        <v>1.4639330532153741E-3</v>
+      </c>
+      <c r="E1571" s="7">
+        <f t="shared" si="363"/>
+        <v>-4</v>
+      </c>
+      <c r="F1571" s="6">
+        <f t="shared" si="364"/>
+        <v>-3.2284100080710249E-3</v>
+      </c>
+      <c r="G1571">
+        <v>0</v>
+      </c>
+      <c r="H1571" s="7">
+        <f t="shared" si="365"/>
+        <v>0</v>
+      </c>
+      <c r="I1571" s="6">
+        <f t="shared" si="366"/>
+        <v>0</v>
+      </c>
+      <c r="J1571" s="10" t="str">
+        <f>IF(B1571="Pending","",C1571/(VLOOKUP(B1571,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v/>
+      </c>
+      <c r="K1571" s="10" t="str">
+        <f>IF(B1571="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1571,A:A,"&gt;="&amp;A1571-30,B:B,B1571)/(VLOOKUP(B1571,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v/>
+      </c>
+      <c r="L1571" s="13" t="str">
+        <f>IF(B1571="Pending","",(G1571/C1571)/(VLOOKUP(B1571,Population!$A$2:$B$10,2,FALSE)/100000))</f>
         <v/>
       </c>
     </row>

--- a/TN_Age.xlsx
+++ b/TN_Age.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
@@ -14,6 +14,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TN_AgeDaily!$A$1:$L$1251</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1595" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1615" uniqueCount="33">
   <si>
     <t>0-10</t>
   </si>
@@ -184,7 +185,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -200,6 +201,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -482,11 +484,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M1571"/>
+  <dimension ref="A1:M1591"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1552" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A1571" sqref="A1571"/>
+      <pane ySplit="1" topLeftCell="A1568" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D1583" sqref="D1583"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -68619,6 +68621,926 @@
       </c>
       <c r="L1571" s="13" t="str">
         <f>IF(B1571="Pending","",(G1571/C1571)/(VLOOKUP(B1571,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="1572" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1572" s="1">
+        <v>44066</v>
+      </c>
+      <c r="B1572" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1572" s="2">
+        <v>7115</v>
+      </c>
+      <c r="D1572" s="6">
+        <f t="shared" ref="D1572:D1581" si="367">C1572/SUMIF(A:A,A1572,C:C)</f>
+        <v>4.9431348437163479E-2</v>
+      </c>
+      <c r="E1572" s="7">
+        <f t="shared" ref="E1572:E1581" si="368">C1572-SUMIFS(C:C,A:A,A1572-1,B:B,B1572)</f>
+        <v>108</v>
+      </c>
+      <c r="F1572" s="6">
+        <f t="shared" ref="F1572:F1581" si="369">E1572/SUMIF(A:A,A1572,E:E)</f>
+        <v>5.8252427184466021E-2</v>
+      </c>
+      <c r="G1572" s="15">
+        <v>4</v>
+      </c>
+      <c r="H1572" s="7">
+        <f t="shared" ref="H1572:H1581" si="370">G1572-SUMIFS(G:G,A:A,A1572-1,B:B,B1572)</f>
+        <v>0</v>
+      </c>
+      <c r="I1572" s="6">
+        <f t="shared" ref="I1572:I1581" si="371">G1572/SUMIF(A:A,A1572,G:G)</f>
+        <v>2.5526483726866626E-3</v>
+      </c>
+      <c r="J1572" s="10">
+        <f>IF(B1572="Pending","",C1572/(VLOOKUP(B1572,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>785.37730121620336</v>
+      </c>
+      <c r="K1572" s="10">
+        <f>IF(B1572="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1572,A:A,"&gt;="&amp;A1572-30,B:B,B1572)/(VLOOKUP(B1572,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>345.4997825448653</v>
+      </c>
+      <c r="L1572" s="13">
+        <f>IF(B1572="Pending","",(G1572/C1572)/(VLOOKUP(B1572,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>6.2056678626555561E-5</v>
+      </c>
+    </row>
+    <row r="1573" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1573" s="1">
+        <v>44066</v>
+      </c>
+      <c r="B1573" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1573" s="2">
+        <v>17401</v>
+      </c>
+      <c r="D1573" s="6">
+        <f t="shared" si="367"/>
+        <v>0.12089316853901359</v>
+      </c>
+      <c r="E1573" s="7">
+        <f t="shared" si="368"/>
+        <v>279</v>
+      </c>
+      <c r="F1573" s="6">
+        <f t="shared" si="369"/>
+        <v>0.15048543689320387</v>
+      </c>
+      <c r="G1573" s="15">
+        <v>1</v>
+      </c>
+      <c r="H1573" s="7">
+        <f t="shared" si="370"/>
+        <v>0</v>
+      </c>
+      <c r="I1573" s="6">
+        <f t="shared" si="371"/>
+        <v>6.3816209317166565E-4</v>
+      </c>
+      <c r="J1573" s="10">
+        <f>IF(B1573="Pending","",C1573/(VLOOKUP(B1573,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>2031.1068312468997</v>
+      </c>
+      <c r="K1573" s="10">
+        <f>IF(B1573="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1573,A:A,"&gt;="&amp;A1573-30,B:B,B1573)/(VLOOKUP(B1573,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>902.97353293063702</v>
+      </c>
+      <c r="L1573" s="13">
+        <f>IF(B1573="Pending","",(G1573/C1573)/(VLOOKUP(B1573,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>6.7078656058130257E-6</v>
+      </c>
+    </row>
+    <row r="1574" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1574" s="1">
+        <v>44066</v>
+      </c>
+      <c r="B1574" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1574" s="2">
+        <v>31959</v>
+      </c>
+      <c r="D1574" s="6">
+        <f t="shared" si="367"/>
+        <v>0.22203464015506785</v>
+      </c>
+      <c r="E1574" s="7">
+        <f t="shared" si="368"/>
+        <v>345</v>
+      </c>
+      <c r="F1574" s="6">
+        <f t="shared" si="369"/>
+        <v>0.18608414239482202</v>
+      </c>
+      <c r="G1574" s="15">
+        <v>16</v>
+      </c>
+      <c r="H1574" s="7">
+        <f t="shared" si="370"/>
+        <v>0</v>
+      </c>
+      <c r="I1574" s="6">
+        <f t="shared" si="371"/>
+        <v>1.021059349074665E-2</v>
+      </c>
+      <c r="J1574" s="10">
+        <f>IF(B1574="Pending","",C1574/(VLOOKUP(B1574,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>3355.4587757021905</v>
+      </c>
+      <c r="K1574" s="10">
+        <f>IF(B1574="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1574,A:A,"&gt;="&amp;A1574-30,B:B,B1574)/(VLOOKUP(B1574,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1179.3819715092056</v>
+      </c>
+      <c r="L1574" s="13">
+        <f>IF(B1574="Pending","",(G1574/C1574)/(VLOOKUP(B1574,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>5.2563651438585771E-5</v>
+      </c>
+    </row>
+    <row r="1575" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1575" s="1">
+        <v>44066</v>
+      </c>
+      <c r="B1575" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1575" s="2">
+        <v>25273</v>
+      </c>
+      <c r="D1575" s="6">
+        <f t="shared" si="367"/>
+        <v>0.17558376234046841</v>
+      </c>
+      <c r="E1575" s="7">
+        <f t="shared" si="368"/>
+        <v>272</v>
+      </c>
+      <c r="F1575" s="6">
+        <f t="shared" si="369"/>
+        <v>0.14670981661272922</v>
+      </c>
+      <c r="G1575" s="15">
+        <v>29</v>
+      </c>
+      <c r="H1575" s="7">
+        <f t="shared" si="370"/>
+        <v>0</v>
+      </c>
+      <c r="I1575" s="6">
+        <f t="shared" si="371"/>
+        <v>1.8506700701978303E-2</v>
+      </c>
+      <c r="J1575" s="10">
+        <f>IF(B1575="Pending","",C1575/(VLOOKUP(B1575,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>2881.1580720990628</v>
+      </c>
+      <c r="K1575" s="10">
+        <f>IF(B1575="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1575,A:A,"&gt;="&amp;A1575-30,B:B,B1575)/(VLOOKUP(B1575,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1018.0327457699771</v>
+      </c>
+      <c r="L1575" s="13">
+        <f>IF(B1575="Pending","",(G1575/C1575)/(VLOOKUP(B1575,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1.308131757859464E-4</v>
+      </c>
+    </row>
+    <row r="1576" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1576" s="1">
+        <v>44066</v>
+      </c>
+      <c r="B1576" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1576" s="2">
+        <v>21890</v>
+      </c>
+      <c r="D1576" s="6">
+        <f t="shared" si="367"/>
+        <v>0.15208042407442146</v>
+      </c>
+      <c r="E1576" s="7">
+        <f t="shared" si="368"/>
+        <v>260</v>
+      </c>
+      <c r="F1576" s="6">
+        <f t="shared" si="369"/>
+        <v>0.14023732470334413</v>
+      </c>
+      <c r="G1576" s="15">
+        <v>78</v>
+      </c>
+      <c r="H1576" s="7">
+        <f t="shared" si="370"/>
+        <v>0</v>
+      </c>
+      <c r="I1576" s="6">
+        <f t="shared" si="371"/>
+        <v>4.9776643267389918E-2</v>
+      </c>
+      <c r="J1576" s="10">
+        <f>IF(B1576="Pending","",C1576/(VLOOKUP(B1576,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>2567.6816966170882</v>
+      </c>
+      <c r="K1576" s="10">
+        <f>IF(B1576="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1576,A:A,"&gt;="&amp;A1576-30,B:B,B1576)/(VLOOKUP(B1576,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>970.88631351757147</v>
+      </c>
+      <c r="L1576" s="13">
+        <f>IF(B1576="Pending","",(G1576/C1576)/(VLOOKUP(B1576,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>4.1796918546829602E-4</v>
+      </c>
+    </row>
+    <row r="1577" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1577" s="1">
+        <v>44066</v>
+      </c>
+      <c r="B1577" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1577" s="2">
+        <v>18296</v>
+      </c>
+      <c r="D1577" s="6">
+        <f t="shared" si="367"/>
+        <v>0.12711116669098285</v>
+      </c>
+      <c r="E1577" s="7">
+        <f t="shared" si="368"/>
+        <v>231</v>
+      </c>
+      <c r="F1577" s="6">
+        <f t="shared" si="369"/>
+        <v>0.12459546925566344</v>
+      </c>
+      <c r="G1577" s="15">
+        <v>162</v>
+      </c>
+      <c r="H1577" s="7">
+        <f t="shared" si="370"/>
+        <v>1</v>
+      </c>
+      <c r="I1577" s="6">
+        <f t="shared" si="371"/>
+        <v>0.10338225909380983</v>
+      </c>
+      <c r="J1577" s="10">
+        <f>IF(B1577="Pending","",C1577/(VLOOKUP(B1577,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>2043.4215919612313</v>
+      </c>
+      <c r="K1577" s="10">
+        <f>IF(B1577="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1577,A:A,"&gt;="&amp;A1577-30,B:B,B1577)/(VLOOKUP(B1577,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>834.74710200690004</v>
+      </c>
+      <c r="L1577" s="13">
+        <f>IF(B1577="Pending","",(G1577/C1577)/(VLOOKUP(B1577,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>9.8891892802436447E-4</v>
+      </c>
+    </row>
+    <row r="1578" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1578" s="1">
+        <v>44066</v>
+      </c>
+      <c r="B1578" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1578" s="2">
+        <v>11904</v>
+      </c>
+      <c r="D1578" s="6">
+        <f t="shared" si="367"/>
+        <v>8.2702849163175551E-2</v>
+      </c>
+      <c r="E1578" s="7">
+        <f t="shared" si="368"/>
+        <v>190</v>
+      </c>
+      <c r="F1578" s="6">
+        <f t="shared" si="369"/>
+        <v>0.10248112189859762</v>
+      </c>
+      <c r="G1578" s="15">
+        <v>302</v>
+      </c>
+      <c r="H1578" s="7">
+        <f t="shared" si="370"/>
+        <v>0</v>
+      </c>
+      <c r="I1578" s="6">
+        <f t="shared" si="371"/>
+        <v>0.19272495213784302</v>
+      </c>
+      <c r="J1578" s="10">
+        <f>IF(B1578="Pending","",C1578/(VLOOKUP(B1578,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1510.5870529086162</v>
+      </c>
+      <c r="K1578" s="10">
+        <f>IF(B1578="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1578,A:A,"&gt;="&amp;A1578-30,B:B,B1578)/(VLOOKUP(B1578,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>695.52483509678473</v>
+      </c>
+      <c r="L1578" s="13">
+        <f>IF(B1578="Pending","",(G1578/C1578)/(VLOOKUP(B1578,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>3.219340140439164E-3</v>
+      </c>
+    </row>
+    <row r="1579" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1579" s="1">
+        <v>44066</v>
+      </c>
+      <c r="B1579" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1579" s="2">
+        <v>6409</v>
+      </c>
+      <c r="D1579" s="6">
+        <f t="shared" si="367"/>
+        <v>4.4526424755274879E-2</v>
+      </c>
+      <c r="E1579" s="7">
+        <f t="shared" si="368"/>
+        <v>124</v>
+      </c>
+      <c r="F1579" s="6">
+        <f t="shared" si="369"/>
+        <v>6.6882416396979505E-2</v>
+      </c>
+      <c r="G1579" s="15">
+        <v>466</v>
+      </c>
+      <c r="H1579" s="7">
+        <f t="shared" si="370"/>
+        <v>2</v>
+      </c>
+      <c r="I1579" s="6">
+        <f t="shared" si="371"/>
+        <v>0.29738353541799617</v>
+      </c>
+      <c r="J1579" s="10">
+        <f>IF(B1579="Pending","",C1579/(VLOOKUP(B1579,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1336.3302939759842</v>
+      </c>
+      <c r="K1579" s="10">
+        <f>IF(B1579="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1579,A:A,"&gt;="&amp;A1579-30,B:B,B1579)/(VLOOKUP(B1579,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>632.19744910831389</v>
+      </c>
+      <c r="L1579" s="13">
+        <f>IF(B1579="Pending","",(G1579/C1579)/(VLOOKUP(B1579,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1.5160697671010663E-2</v>
+      </c>
+    </row>
+    <row r="1580" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1580" s="1">
+        <v>44066</v>
+      </c>
+      <c r="B1580" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1580" s="2">
+        <v>3481</v>
+      </c>
+      <c r="D1580" s="6">
+        <f t="shared" si="367"/>
+        <v>2.4184191694977663E-2</v>
+      </c>
+      <c r="E1580" s="7">
+        <f t="shared" si="368"/>
+        <v>44</v>
+      </c>
+      <c r="F1580" s="6">
+        <f t="shared" si="369"/>
+        <v>2.3732470334412083E-2</v>
+      </c>
+      <c r="G1580" s="15">
+        <v>509</v>
+      </c>
+      <c r="H1580" s="7">
+        <f t="shared" si="370"/>
+        <v>1</v>
+      </c>
+      <c r="I1580" s="6">
+        <f t="shared" si="371"/>
+        <v>0.3248245054243778</v>
+      </c>
+      <c r="J1580" s="10">
+        <f>IF(B1580="Pending","",C1580/(VLOOKUP(B1580,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1572.4875660096941</v>
+      </c>
+      <c r="K1580" s="10">
+        <f>IF(B1580="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1580,A:A,"&gt;="&amp;A1580-30,B:B,B1580)/(VLOOKUP(B1580,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>728.19590818949348</v>
+      </c>
+      <c r="L1580" s="13">
+        <f>IF(B1580="Pending","",(G1580/C1580)/(VLOOKUP(B1580,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>6.6053670522726385E-2</v>
+      </c>
+    </row>
+    <row r="1581" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1581" s="1">
+        <v>44066</v>
+      </c>
+      <c r="B1581" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1581" s="2">
+        <v>209</v>
+      </c>
+      <c r="D1581" s="6">
+        <f t="shared" si="367"/>
+        <v>1.4520241494542752E-3</v>
+      </c>
+      <c r="E1581" s="7">
+        <f t="shared" si="368"/>
+        <v>1</v>
+      </c>
+      <c r="F1581" s="6">
+        <f t="shared" si="369"/>
+        <v>5.3937432578209273E-4</v>
+      </c>
+      <c r="G1581" s="15">
+        <v>0</v>
+      </c>
+      <c r="H1581" s="7">
+        <f t="shared" si="370"/>
+        <v>0</v>
+      </c>
+      <c r="I1581" s="6">
+        <f t="shared" si="371"/>
+        <v>0</v>
+      </c>
+      <c r="J1581" s="10" t="str">
+        <f>IF(B1581="Pending","",C1581/(VLOOKUP(B1581,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v/>
+      </c>
+      <c r="K1581" s="10" t="str">
+        <f>IF(B1581="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1581,A:A,"&gt;="&amp;A1581-30,B:B,B1581)/(VLOOKUP(B1581,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v/>
+      </c>
+      <c r="L1581" s="13" t="str">
+        <f>IF(B1581="Pending","",(G1581/C1581)/(VLOOKUP(B1581,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="1582" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1582" s="1">
+        <v>44067</v>
+      </c>
+      <c r="B1582" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1582" s="15">
+        <v>7151</v>
+      </c>
+      <c r="D1582" s="6">
+        <f t="shared" ref="D1582:D1591" si="372">C1582/SUMIF(A:A,A1582,C:C)</f>
+        <v>4.9452297308511521E-2</v>
+      </c>
+      <c r="E1582" s="7">
+        <f t="shared" ref="E1582:E1591" si="373">C1582-SUMIFS(C:C,A:A,A1582-1,B:B,B1582)</f>
+        <v>36</v>
+      </c>
+      <c r="F1582" s="6">
+        <f t="shared" ref="F1582:F1591" si="374">E1582/SUMIF(A:A,A1582,E:E)</f>
+        <v>5.3973013493253376E-2</v>
+      </c>
+      <c r="G1582" s="15">
+        <v>4</v>
+      </c>
+      <c r="H1582" s="7">
+        <f t="shared" ref="H1582:H1591" si="375">G1582-SUMIFS(G:G,A:A,A1582-1,B:B,B1582)</f>
+        <v>0</v>
+      </c>
+      <c r="I1582" s="6">
+        <f t="shared" ref="I1582:I1591" si="376">G1582/SUMIF(A:A,A1582,G:G)</f>
+        <v>2.5188916876574307E-3</v>
+      </c>
+      <c r="J1582" s="10">
+        <f>IF(B1582="Pending","",C1582/(VLOOKUP(B1582,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>789.35110063205479</v>
+      </c>
+      <c r="K1582" s="10">
+        <f>IF(B1582="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1582,A:A,"&gt;="&amp;A1582-30,B:B,B1582)/(VLOOKUP(B1582,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>339.31831678687405</v>
+      </c>
+      <c r="L1582" s="13">
+        <f>IF(B1582="Pending","",(G1582/C1582)/(VLOOKUP(B1582,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>6.1744269113123045E-5</v>
+      </c>
+    </row>
+    <row r="1583" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1583" s="1">
+        <v>44067</v>
+      </c>
+      <c r="B1583" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1583" s="15">
+        <v>17493</v>
+      </c>
+      <c r="D1583" s="6">
+        <f t="shared" si="372"/>
+        <v>0.12097175735111063</v>
+      </c>
+      <c r="E1583" s="7">
+        <f t="shared" si="373"/>
+        <v>92</v>
+      </c>
+      <c r="F1583" s="6">
+        <f t="shared" si="374"/>
+        <v>0.13793103448275862</v>
+      </c>
+      <c r="G1583" s="15">
+        <v>1</v>
+      </c>
+      <c r="H1583" s="7">
+        <f t="shared" si="375"/>
+        <v>0</v>
+      </c>
+      <c r="I1583" s="6">
+        <f t="shared" si="376"/>
+        <v>6.2972292191435767E-4</v>
+      </c>
+      <c r="J1583" s="10">
+        <f>IF(B1583="Pending","",C1583/(VLOOKUP(B1583,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>2041.8453996323208</v>
+      </c>
+      <c r="K1583" s="10">
+        <f>IF(B1583="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1583,A:A,"&gt;="&amp;A1583-30,B:B,B1583)/(VLOOKUP(B1583,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>884.53120896437019</v>
+      </c>
+      <c r="L1583" s="13">
+        <f>IF(B1583="Pending","",(G1583/C1583)/(VLOOKUP(B1583,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>6.6725872867291185E-6</v>
+      </c>
+    </row>
+    <row r="1584" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1584" s="1">
+        <v>44067</v>
+      </c>
+      <c r="B1584" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1584" s="15">
+        <v>32092</v>
+      </c>
+      <c r="D1584" s="6">
+        <f t="shared" si="372"/>
+        <v>0.22193023706121545</v>
+      </c>
+      <c r="E1584" s="7">
+        <f t="shared" si="373"/>
+        <v>133</v>
+      </c>
+      <c r="F1584" s="6">
+        <f t="shared" si="374"/>
+        <v>0.19940029985007496</v>
+      </c>
+      <c r="G1584" s="15">
+        <v>16</v>
+      </c>
+      <c r="H1584" s="7">
+        <f t="shared" si="375"/>
+        <v>0</v>
+      </c>
+      <c r="I1584" s="6">
+        <f t="shared" si="376"/>
+        <v>1.0075566750629723E-2</v>
+      </c>
+      <c r="J1584" s="10">
+        <f>IF(B1584="Pending","",C1584/(VLOOKUP(B1584,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>3369.4227926353983</v>
+      </c>
+      <c r="K1584" s="10">
+        <f>IF(B1584="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1584,A:A,"&gt;="&amp;A1584-30,B:B,B1584)/(VLOOKUP(B1584,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1147.3592259104958</v>
+      </c>
+      <c r="L1584" s="13">
+        <f>IF(B1584="Pending","",(G1584/C1584)/(VLOOKUP(B1584,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>5.2345810056268314E-5</v>
+      </c>
+    </row>
+    <row r="1585" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1585" s="1">
+        <v>44067</v>
+      </c>
+      <c r="B1585" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1585" s="15">
+        <v>25373</v>
+      </c>
+      <c r="D1585" s="6">
+        <f t="shared" si="372"/>
+        <v>0.17546540897900473</v>
+      </c>
+      <c r="E1585" s="7">
+        <f t="shared" si="373"/>
+        <v>100</v>
+      </c>
+      <c r="F1585" s="6">
+        <f t="shared" si="374"/>
+        <v>0.14992503748125938</v>
+      </c>
+      <c r="G1585" s="15">
+        <v>29</v>
+      </c>
+      <c r="H1585" s="7">
+        <f t="shared" si="375"/>
+        <v>0</v>
+      </c>
+      <c r="I1585" s="6">
+        <f t="shared" si="376"/>
+        <v>1.8261964735516372E-2</v>
+      </c>
+      <c r="J1585" s="10">
+        <f>IF(B1585="Pending","",C1585/(VLOOKUP(B1585,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>2892.5582148288495</v>
+      </c>
+      <c r="K1585" s="10">
+        <f>IF(B1585="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1585,A:A,"&gt;="&amp;A1585-30,B:B,B1585)/(VLOOKUP(B1585,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>988.84838038172234</v>
+      </c>
+      <c r="L1585" s="13">
+        <f>IF(B1585="Pending","",(G1585/C1585)/(VLOOKUP(B1585,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1.3029761524605774E-4</v>
+      </c>
+    </row>
+    <row r="1586" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1586" s="1">
+        <v>44067</v>
+      </c>
+      <c r="B1586" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1586" s="15">
+        <v>21978</v>
+      </c>
+      <c r="D1586" s="6">
+        <f t="shared" si="372"/>
+        <v>0.15198749688805288</v>
+      </c>
+      <c r="E1586" s="7">
+        <f t="shared" si="373"/>
+        <v>88</v>
+      </c>
+      <c r="F1586" s="6">
+        <f t="shared" si="374"/>
+        <v>0.13193403298350825</v>
+      </c>
+      <c r="G1586" s="15">
+        <v>78</v>
+      </c>
+      <c r="H1586" s="7">
+        <f t="shared" si="375"/>
+        <v>0</v>
+      </c>
+      <c r="I1586" s="6">
+        <f t="shared" si="376"/>
+        <v>4.9118387909319897E-2</v>
+      </c>
+      <c r="J1586" s="10">
+        <f>IF(B1586="Pending","",C1586/(VLOOKUP(B1586,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>2578.0040350959507</v>
+      </c>
+      <c r="K1586" s="10">
+        <f>IF(B1586="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1586,A:A,"&gt;="&amp;A1586-30,B:B,B1586)/(VLOOKUP(B1586,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>944.72856941772625</v>
+      </c>
+      <c r="L1586" s="13">
+        <f>IF(B1586="Pending","",(G1586/C1586)/(VLOOKUP(B1586,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>4.1629563517613067E-4</v>
+      </c>
+    </row>
+    <row r="1587" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1587" s="1">
+        <v>44067</v>
+      </c>
+      <c r="B1587" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1587" s="15">
+        <v>18364</v>
+      </c>
+      <c r="D1587" s="6">
+        <f t="shared" si="372"/>
+        <v>0.12699510386987911</v>
+      </c>
+      <c r="E1587" s="7">
+        <f t="shared" si="373"/>
+        <v>68</v>
+      </c>
+      <c r="F1587" s="6">
+        <f t="shared" si="374"/>
+        <v>0.10194902548725637</v>
+      </c>
+      <c r="G1587" s="15">
+        <v>163</v>
+      </c>
+      <c r="H1587" s="7">
+        <f t="shared" si="375"/>
+        <v>1</v>
+      </c>
+      <c r="I1587" s="6">
+        <f t="shared" si="376"/>
+        <v>0.1026448362720403</v>
+      </c>
+      <c r="J1587" s="10">
+        <f>IF(B1587="Pending","",C1587/(VLOOKUP(B1587,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>2051.0162939864481</v>
+      </c>
+      <c r="K1587" s="10">
+        <f>IF(B1587="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1587,A:A,"&gt;="&amp;A1587-30,B:B,B1587)/(VLOOKUP(B1587,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>811.62793554778466</v>
+      </c>
+      <c r="L1587" s="13">
+        <f>IF(B1587="Pending","",(G1587/C1587)/(VLOOKUP(B1587,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>9.9133889684285847E-4</v>
+      </c>
+    </row>
+    <row r="1588" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1588" s="1">
+        <v>44067</v>
+      </c>
+      <c r="B1588" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1588" s="15">
+        <v>11983</v>
+      </c>
+      <c r="D1588" s="6">
+        <f t="shared" si="372"/>
+        <v>8.2867693839727807E-2</v>
+      </c>
+      <c r="E1588" s="7">
+        <f t="shared" si="373"/>
+        <v>79</v>
+      </c>
+      <c r="F1588" s="6">
+        <f t="shared" si="374"/>
+        <v>0.1184407796101949</v>
+      </c>
+      <c r="G1588" s="15">
+        <v>307</v>
+      </c>
+      <c r="H1588" s="7">
+        <f t="shared" si="375"/>
+        <v>5</v>
+      </c>
+      <c r="I1588" s="6">
+        <f t="shared" si="376"/>
+        <v>0.19332493702770781</v>
+      </c>
+      <c r="J1588" s="10">
+        <f>IF(B1588="Pending","",C1588/(VLOOKUP(B1588,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1520.6119501851433</v>
+      </c>
+      <c r="K1588" s="10">
+        <f>IF(B1588="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1588,A:A,"&gt;="&amp;A1588-30,B:B,B1588)/(VLOOKUP(B1588,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>680.55093789893385</v>
+      </c>
+      <c r="L1588" s="13">
+        <f>IF(B1588="Pending","",(G1588/C1588)/(VLOOKUP(B1588,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>3.2510650255518875E-3</v>
+      </c>
+    </row>
+    <row r="1589" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1589" s="1">
+        <v>44067</v>
+      </c>
+      <c r="B1589" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1589" s="15">
+        <v>6447</v>
+      </c>
+      <c r="D1589" s="6">
+        <f t="shared" si="372"/>
+        <v>4.458382893972504E-2</v>
+      </c>
+      <c r="E1589" s="7">
+        <f t="shared" si="373"/>
+        <v>38</v>
+      </c>
+      <c r="F1589" s="6">
+        <f t="shared" si="374"/>
+        <v>5.6971514242878558E-2</v>
+      </c>
+      <c r="G1589" s="15">
+        <v>471</v>
+      </c>
+      <c r="H1589" s="7">
+        <f t="shared" si="375"/>
+        <v>5</v>
+      </c>
+      <c r="I1589" s="6">
+        <f t="shared" si="376"/>
+        <v>0.29659949622166248</v>
+      </c>
+      <c r="J1589" s="10">
+        <f>IF(B1589="Pending","",C1589/(VLOOKUP(B1589,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1344.2536129291886</v>
+      </c>
+      <c r="K1589" s="10">
+        <f>IF(B1589="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1589,A:A,"&gt;="&amp;A1589-30,B:B,B1589)/(VLOOKUP(B1589,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>619.47843710448569</v>
+      </c>
+      <c r="L1589" s="13">
+        <f>IF(B1589="Pending","",(G1589/C1589)/(VLOOKUP(B1589,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1.5233046896391229E-2</v>
+      </c>
+    </row>
+    <row r="1590" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1590" s="1">
+        <v>44067</v>
+      </c>
+      <c r="B1590" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1590" s="15">
+        <v>3513</v>
+      </c>
+      <c r="D1590" s="6">
+        <f t="shared" si="372"/>
+        <v>2.4293933777765484E-2</v>
+      </c>
+      <c r="E1590" s="7">
+        <f t="shared" si="373"/>
+        <v>32</v>
+      </c>
+      <c r="F1590" s="6">
+        <f t="shared" si="374"/>
+        <v>4.7976011994002997E-2</v>
+      </c>
+      <c r="G1590" s="15">
+        <v>519</v>
+      </c>
+      <c r="H1590" s="7">
+        <f t="shared" si="375"/>
+        <v>10</v>
+      </c>
+      <c r="I1590" s="6">
+        <f t="shared" si="376"/>
+        <v>0.32682619647355166</v>
+      </c>
+      <c r="J1590" s="10">
+        <f>IF(B1590="Pending","",C1590/(VLOOKUP(B1590,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1586.9430679092375</v>
+      </c>
+      <c r="K1590" s="10">
+        <f>IF(B1590="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1590,A:A,"&gt;="&amp;A1590-30,B:B,B1590)/(VLOOKUP(B1590,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>713.74040628995022</v>
+      </c>
+      <c r="L1590" s="13">
+        <f>IF(B1590="Pending","",(G1590/C1590)/(VLOOKUP(B1590,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>6.6737879713412426E-2</v>
+      </c>
+    </row>
+    <row r="1591" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1591" s="1">
+        <v>44067</v>
+      </c>
+      <c r="B1591" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1591" s="15">
+        <v>210</v>
+      </c>
+      <c r="D1591" s="6">
+        <f t="shared" si="372"/>
+        <v>1.4522419850073304E-3</v>
+      </c>
+      <c r="E1591" s="7">
+        <f t="shared" si="373"/>
+        <v>1</v>
+      </c>
+      <c r="F1591" s="6">
+        <f t="shared" si="374"/>
+        <v>1.4992503748125937E-3</v>
+      </c>
+      <c r="G1591" s="15">
+        <v>0</v>
+      </c>
+      <c r="H1591" s="7">
+        <f t="shared" si="375"/>
+        <v>0</v>
+      </c>
+      <c r="I1591" s="6">
+        <f t="shared" si="376"/>
+        <v>0</v>
+      </c>
+      <c r="J1591" s="10" t="str">
+        <f>IF(B1591="Pending","",C1591/(VLOOKUP(B1591,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v/>
+      </c>
+      <c r="K1591" s="10" t="str">
+        <f>IF(B1591="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1591,A:A,"&gt;="&amp;A1591-30,B:B,B1591)/(VLOOKUP(B1591,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v/>
+      </c>
+      <c r="L1591" s="13" t="str">
+        <f>IF(B1591="Pending","",(G1591/C1591)/(VLOOKUP(B1591,Population!$A$2:$B$10,2,FALSE)/100000))</f>
         <v/>
       </c>
     </row>

--- a/TN_Age.xlsx
+++ b/TN_Age.xlsx
@@ -14,7 +14,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TN_AgeDaily!$A$1:$L$1251</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1615" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1625" uniqueCount="33">
   <si>
     <t>0-10</t>
   </si>
@@ -484,11 +483,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M1591"/>
+  <dimension ref="A1:M1601"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1568" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D1583" sqref="D1583"/>
+      <pane ySplit="1" topLeftCell="A1580" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A1601" sqref="A1601"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -69541,6 +69540,466 @@
       </c>
       <c r="L1591" s="13" t="str">
         <f>IF(B1591="Pending","",(G1591/C1591)/(VLOOKUP(B1591,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="1592" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1592" s="1">
+        <v>44068</v>
+      </c>
+      <c r="B1592" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1592" s="15">
+        <v>7201</v>
+      </c>
+      <c r="D1592" s="6">
+        <f t="shared" ref="D1592:D1601" si="377">C1592/SUMIF(A:A,A1592,C:C)</f>
+        <v>4.9519657261530632E-2</v>
+      </c>
+      <c r="E1592" s="7">
+        <f t="shared" ref="E1592:E1601" si="378">C1592-SUMIFS(C:C,A:A,A1592-1,B:B,B1592)</f>
+        <v>50</v>
+      </c>
+      <c r="F1592" s="6">
+        <f t="shared" ref="F1592:F1601" si="379">E1592/SUMIF(A:A,A1592,E:E)</f>
+        <v>6.1500615006150061E-2</v>
+      </c>
+      <c r="G1592" s="2">
+        <v>4</v>
+      </c>
+      <c r="H1592" s="7">
+        <f t="shared" ref="H1592:H1601" si="380">G1592-SUMIFS(G:G,A:A,A1592-1,B:B,B1592)</f>
+        <v>0</v>
+      </c>
+      <c r="I1592" s="6">
+        <f t="shared" ref="I1592:I1601" si="381">G1592/SUMIF(A:A,A1592,G:G)</f>
+        <v>2.4570024570024569E-3</v>
+      </c>
+      <c r="J1592" s="10">
+        <f>IF(B1592="Pending","",C1592/(VLOOKUP(B1592,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>794.87026648740414</v>
+      </c>
+      <c r="K1592" s="10">
+        <f>IF(B1592="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1592,A:A,"&gt;="&amp;A1592-30,B:B,B1592)/(VLOOKUP(B1592,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>335.34451737102262</v>
+      </c>
+      <c r="L1592" s="13">
+        <f>IF(B1592="Pending","",(G1592/C1592)/(VLOOKUP(B1592,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>6.1315549010962754E-5</v>
+      </c>
+    </row>
+    <row r="1593" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1593" s="1">
+        <v>44068</v>
+      </c>
+      <c r="B1593" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1593" s="15">
+        <v>17606</v>
+      </c>
+      <c r="D1593" s="6">
+        <f t="shared" si="377"/>
+        <v>0.12107250183953733</v>
+      </c>
+      <c r="E1593" s="7">
+        <f t="shared" si="378"/>
+        <v>113</v>
+      </c>
+      <c r="F1593" s="6">
+        <f t="shared" si="379"/>
+        <v>0.13899138991389914</v>
+      </c>
+      <c r="G1593" s="2">
+        <v>1</v>
+      </c>
+      <c r="H1593" s="7">
+        <f t="shared" si="380"/>
+        <v>0</v>
+      </c>
+      <c r="I1593" s="6">
+        <f t="shared" si="381"/>
+        <v>6.1425061425061424E-4</v>
+      </c>
+      <c r="J1593" s="10">
+        <f>IF(B1593="Pending","",C1593/(VLOOKUP(B1593,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>2055.035162975284</v>
+      </c>
+      <c r="K1593" s="10">
+        <f>IF(B1593="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1593,A:A,"&gt;="&amp;A1593-30,B:B,B1593)/(VLOOKUP(B1593,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>872.04178703784771</v>
+      </c>
+      <c r="L1593" s="13">
+        <f>IF(B1593="Pending","",(G1593/C1593)/(VLOOKUP(B1593,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>6.6297608432780004E-6</v>
+      </c>
+    </row>
+    <row r="1594" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1594" s="1">
+        <v>44068</v>
+      </c>
+      <c r="B1594" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1594" s="15">
+        <v>32231</v>
+      </c>
+      <c r="D1594" s="6">
+        <f t="shared" si="377"/>
+        <v>0.22164533720266544</v>
+      </c>
+      <c r="E1594" s="7">
+        <f t="shared" si="378"/>
+        <v>139</v>
+      </c>
+      <c r="F1594" s="6">
+        <f t="shared" si="379"/>
+        <v>0.17097170971709716</v>
+      </c>
+      <c r="G1594" s="2">
+        <v>16</v>
+      </c>
+      <c r="H1594" s="7">
+        <f t="shared" si="380"/>
+        <v>0</v>
+      </c>
+      <c r="I1594" s="6">
+        <f t="shared" si="381"/>
+        <v>9.8280098280098278E-3</v>
+      </c>
+      <c r="J1594" s="10">
+        <f>IF(B1594="Pending","",C1594/(VLOOKUP(B1594,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>3384.0167652197283</v>
+      </c>
+      <c r="K1594" s="10">
+        <f>IF(B1594="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1594,A:A,"&gt;="&amp;A1594-30,B:B,B1594)/(VLOOKUP(B1594,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1121.0060811718854</v>
+      </c>
+      <c r="L1594" s="13">
+        <f>IF(B1594="Pending","",(G1594/C1594)/(VLOOKUP(B1594,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>5.2120062558585295E-5</v>
+      </c>
+    </row>
+    <row r="1595" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1595" s="1">
+        <v>44068</v>
+      </c>
+      <c r="B1595" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1595" s="15">
+        <v>25517</v>
+      </c>
+      <c r="D1595" s="6">
+        <f t="shared" si="377"/>
+        <v>0.17547466939903864</v>
+      </c>
+      <c r="E1595" s="7">
+        <f t="shared" si="378"/>
+        <v>144</v>
+      </c>
+      <c r="F1595" s="6">
+        <f t="shared" si="379"/>
+        <v>0.17712177121771217</v>
+      </c>
+      <c r="G1595" s="2">
+        <v>30</v>
+      </c>
+      <c r="H1595" s="7">
+        <f t="shared" si="380"/>
+        <v>1</v>
+      </c>
+      <c r="I1595" s="6">
+        <f t="shared" si="381"/>
+        <v>1.8427518427518427E-2</v>
+      </c>
+      <c r="J1595" s="10">
+        <f>IF(B1595="Pending","",C1595/(VLOOKUP(B1595,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>2908.9744203597429</v>
+      </c>
+      <c r="K1595" s="10">
+        <f>IF(B1595="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1595,A:A,"&gt;="&amp;A1595-30,B:B,B1595)/(VLOOKUP(B1595,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>973.00218198731852</v>
+      </c>
+      <c r="L1595" s="13">
+        <f>IF(B1595="Pending","",(G1595/C1595)/(VLOOKUP(B1595,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1.3402997291750963E-4</v>
+      </c>
+    </row>
+    <row r="1596" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1596" s="1">
+        <v>44068</v>
+      </c>
+      <c r="B1596" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1596" s="15">
+        <v>22094</v>
+      </c>
+      <c r="D1596" s="6">
+        <f t="shared" si="377"/>
+        <v>0.15193546834276597</v>
+      </c>
+      <c r="E1596" s="7">
+        <f t="shared" si="378"/>
+        <v>116</v>
+      </c>
+      <c r="F1596" s="6">
+        <f t="shared" si="379"/>
+        <v>0.14268142681426815</v>
+      </c>
+      <c r="G1596" s="2">
+        <v>79</v>
+      </c>
+      <c r="H1596" s="7">
+        <f t="shared" si="380"/>
+        <v>1</v>
+      </c>
+      <c r="I1596" s="6">
+        <f t="shared" si="381"/>
+        <v>4.8525798525798525E-2</v>
+      </c>
+      <c r="J1596" s="10">
+        <f>IF(B1596="Pending","",C1596/(VLOOKUP(B1596,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>2591.6107539999061</v>
+      </c>
+      <c r="K1596" s="10">
+        <f>IF(B1596="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1596,A:A,"&gt;="&amp;A1596-30,B:B,B1596)/(VLOOKUP(B1596,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>924.20119176089713</v>
+      </c>
+      <c r="L1596" s="13">
+        <f>IF(B1596="Pending","",(G1596/C1596)/(VLOOKUP(B1596,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>4.1941906267752179E-4</v>
+      </c>
+    </row>
+    <row r="1597" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1597" s="1">
+        <v>44068</v>
+      </c>
+      <c r="B1597" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1597" s="15">
+        <v>18452</v>
+      </c>
+      <c r="D1597" s="6">
+        <f t="shared" si="377"/>
+        <v>0.12689025354669675</v>
+      </c>
+      <c r="E1597" s="7">
+        <f t="shared" si="378"/>
+        <v>88</v>
+      </c>
+      <c r="F1597" s="6">
+        <f t="shared" si="379"/>
+        <v>0.10824108241082411</v>
+      </c>
+      <c r="G1597" s="2">
+        <v>168</v>
+      </c>
+      <c r="H1597" s="7">
+        <f t="shared" si="380"/>
+        <v>5</v>
+      </c>
+      <c r="I1597" s="6">
+        <f t="shared" si="381"/>
+        <v>0.10319410319410319</v>
+      </c>
+      <c r="J1597" s="10">
+        <f>IF(B1597="Pending","",C1597/(VLOOKUP(B1597,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>2060.8447319014344</v>
+      </c>
+      <c r="K1597" s="10">
+        <f>IF(B1597="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1597,A:A,"&gt;="&amp;A1597-30,B:B,B1597)/(VLOOKUP(B1597,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>799.56576174302882</v>
+      </c>
+      <c r="L1597" s="13">
+        <f>IF(B1597="Pending","",(G1597/C1597)/(VLOOKUP(B1597,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1.0168752153731115E-3</v>
+      </c>
+    </row>
+    <row r="1598" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1598" s="1">
+        <v>44068</v>
+      </c>
+      <c r="B1598" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1598" s="15">
+        <v>12061</v>
+      </c>
+      <c r="D1598" s="6">
+        <f t="shared" si="377"/>
+        <v>8.2940784089893207E-2</v>
+      </c>
+      <c r="E1598" s="7">
+        <f t="shared" si="378"/>
+        <v>78</v>
+      </c>
+      <c r="F1598" s="6">
+        <f t="shared" si="379"/>
+        <v>9.5940959409594101E-2</v>
+      </c>
+      <c r="G1598" s="2">
+        <v>317</v>
+      </c>
+      <c r="H1598" s="7">
+        <f t="shared" si="380"/>
+        <v>10</v>
+      </c>
+      <c r="I1598" s="6">
+        <f t="shared" si="381"/>
+        <v>0.1947174447174447</v>
+      </c>
+      <c r="J1598" s="10">
+        <f>IF(B1598="Pending","",C1598/(VLOOKUP(B1598,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1530.5099500277906</v>
+      </c>
+      <c r="K1598" s="10">
+        <f>IF(B1598="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1598,A:A,"&gt;="&amp;A1598-30,B:B,B1598)/(VLOOKUP(B1598,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>673.57157903552877</v>
+      </c>
+      <c r="L1598" s="13">
+        <f>IF(B1598="Pending","",(G1598/C1598)/(VLOOKUP(B1598,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>3.3352530088706731E-3</v>
+      </c>
+    </row>
+    <row r="1599" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1599" s="1">
+        <v>44068</v>
+      </c>
+      <c r="B1599" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1599" s="15">
+        <v>6484</v>
+      </c>
+      <c r="D1599" s="6">
+        <f t="shared" si="377"/>
+        <v>4.4589009538087018E-2</v>
+      </c>
+      <c r="E1599" s="7">
+        <f t="shared" si="378"/>
+        <v>37</v>
+      </c>
+      <c r="F1599" s="6">
+        <f t="shared" si="379"/>
+        <v>4.5510455104551047E-2</v>
+      </c>
+      <c r="G1599" s="2">
+        <v>480</v>
+      </c>
+      <c r="H1599" s="7">
+        <f t="shared" si="380"/>
+        <v>9</v>
+      </c>
+      <c r="I1599" s="6">
+        <f t="shared" si="381"/>
+        <v>0.29484029484029484</v>
+      </c>
+      <c r="J1599" s="10">
+        <f>IF(B1599="Pending","",C1599/(VLOOKUP(B1599,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1351.9684234888875</v>
+      </c>
+      <c r="K1599" s="10">
+        <f>IF(B1599="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1599,A:A,"&gt;="&amp;A1599-30,B:B,B1599)/(VLOOKUP(B1599,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>610.51257618375428</v>
+      </c>
+      <c r="L1599" s="13">
+        <f>IF(B1599="Pending","",(G1599/C1599)/(VLOOKUP(B1599,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1.5435538075660499E-2</v>
+      </c>
+    </row>
+    <row r="1600" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1600" s="1">
+        <v>44068</v>
+      </c>
+      <c r="B1600" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1600" s="15">
+        <v>3554</v>
+      </c>
+      <c r="D1600" s="6">
+        <f t="shared" si="377"/>
+        <v>2.4440058590123576E-2</v>
+      </c>
+      <c r="E1600" s="7">
+        <f t="shared" si="378"/>
+        <v>41</v>
+      </c>
+      <c r="F1600" s="6">
+        <f t="shared" si="379"/>
+        <v>5.0430504305043047E-2</v>
+      </c>
+      <c r="G1600" s="2">
+        <v>533</v>
+      </c>
+      <c r="H1600" s="7">
+        <f t="shared" si="380"/>
+        <v>14</v>
+      </c>
+      <c r="I1600" s="6">
+        <f t="shared" si="381"/>
+        <v>0.3273955773955774</v>
+      </c>
+      <c r="J1600" s="10">
+        <f>IF(B1600="Pending","",C1600/(VLOOKUP(B1600,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1605.4641797180273</v>
+      </c>
+      <c r="K1600" s="10">
+        <f>IF(B1600="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1600,A:A,"&gt;="&amp;A1600-30,B:B,B1600)/(VLOOKUP(B1600,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>712.38520298686808</v>
+      </c>
+      <c r="L1600" s="13">
+        <f>IF(B1600="Pending","",(G1600/C1600)/(VLOOKUP(B1600,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>6.7747454562258877E-2</v>
+      </c>
+    </row>
+    <row r="1601" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1601" s="1">
+        <v>44068</v>
+      </c>
+      <c r="B1601" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1601" s="15">
+        <v>217</v>
+      </c>
+      <c r="D1601" s="6">
+        <f t="shared" si="377"/>
+        <v>1.4922601896614563E-3</v>
+      </c>
+      <c r="E1601" s="7">
+        <f t="shared" si="378"/>
+        <v>7</v>
+      </c>
+      <c r="F1601" s="6">
+        <f t="shared" si="379"/>
+        <v>8.6100861008610082E-3</v>
+      </c>
+      <c r="G1601" s="2">
+        <v>0</v>
+      </c>
+      <c r="H1601" s="7">
+        <f t="shared" si="380"/>
+        <v>0</v>
+      </c>
+      <c r="I1601" s="6">
+        <f t="shared" si="381"/>
+        <v>0</v>
+      </c>
+      <c r="J1601" s="10" t="str">
+        <f>IF(B1601="Pending","",C1601/(VLOOKUP(B1601,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v/>
+      </c>
+      <c r="K1601" s="10" t="str">
+        <f>IF(B1601="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1601,A:A,"&gt;="&amp;A1601-30,B:B,B1601)/(VLOOKUP(B1601,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v/>
+      </c>
+      <c r="L1601" s="13" t="str">
+        <f>IF(B1601="Pending","",(G1601/C1601)/(VLOOKUP(B1601,Population!$A$2:$B$10,2,FALSE)/100000))</f>
         <v/>
       </c>
     </row>

--- a/TN_Age.xlsx
+++ b/TN_Age.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1625" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1655" uniqueCount="33">
   <si>
     <t>0-10</t>
   </si>
@@ -184,7 +184,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -200,6 +200,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="3">
@@ -483,11 +485,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M1601"/>
+  <dimension ref="A1:M1631"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1580" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A1601" sqref="A1601"/>
+      <pane ySplit="1" topLeftCell="A1610" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A1631" sqref="A1631"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -70000,6 +70002,1386 @@
       </c>
       <c r="L1601" s="13" t="str">
         <f>IF(B1601="Pending","",(G1601/C1601)/(VLOOKUP(B1601,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="1602" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1602" s="1">
+        <v>44069</v>
+      </c>
+      <c r="B1602" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1602" s="15">
+        <v>7315</v>
+      </c>
+      <c r="D1602" s="6">
+        <f t="shared" ref="D1602:D1611" si="382">C1602/SUMIF(A:A,A1602,C:C)</f>
+        <v>4.9642694753415269E-2</v>
+      </c>
+      <c r="E1602" s="7">
+        <f t="shared" ref="E1602:E1611" si="383">C1602-SUMIFS(C:C,A:A,A1602-1,B:B,B1602)</f>
+        <v>114</v>
+      </c>
+      <c r="F1602" s="6">
+        <f t="shared" ref="F1602:F1611" si="384">E1602/SUMIF(A:A,A1602,E:E)</f>
+        <v>5.8884297520661155E-2</v>
+      </c>
+      <c r="G1602" s="15">
+        <v>4</v>
+      </c>
+      <c r="H1602" s="7">
+        <f t="shared" ref="H1602:H1611" si="385">G1602-SUMIFS(G:G,A:A,A1602-1,B:B,B1602)</f>
+        <v>0</v>
+      </c>
+      <c r="I1602" s="6">
+        <f t="shared" ref="I1602:I1611" si="386">G1602/SUMIF(A:A,A1602,G:G)</f>
+        <v>2.4271844660194173E-3</v>
+      </c>
+      <c r="J1602" s="10">
+        <f>IF(B1602="Pending","",C1602/(VLOOKUP(B1602,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>807.45396463760051</v>
+      </c>
+      <c r="K1602" s="10">
+        <f>IF(B1602="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1602,A:A,"&gt;="&amp;A1602-30,B:B,B1602)/(VLOOKUP(B1602,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>325.52040214850086</v>
+      </c>
+      <c r="L1602" s="13">
+        <f>IF(B1602="Pending","",(G1602/C1602)/(VLOOKUP(B1602,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>6.035998201338931E-5</v>
+      </c>
+    </row>
+    <row r="1603" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1603" s="1">
+        <v>44069</v>
+      </c>
+      <c r="B1603" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1603" s="15">
+        <v>17901</v>
+      </c>
+      <c r="D1603" s="6">
+        <f t="shared" si="382"/>
+        <v>0.12148378383880885</v>
+      </c>
+      <c r="E1603" s="7">
+        <f t="shared" si="383"/>
+        <v>295</v>
+      </c>
+      <c r="F1603" s="6">
+        <f t="shared" si="384"/>
+        <v>0.15237603305785125</v>
+      </c>
+      <c r="G1603" s="15">
+        <v>1</v>
+      </c>
+      <c r="H1603" s="7">
+        <f t="shared" si="385"/>
+        <v>0</v>
+      </c>
+      <c r="I1603" s="6">
+        <f t="shared" si="386"/>
+        <v>6.0679611650485432E-4</v>
+      </c>
+      <c r="J1603" s="10">
+        <f>IF(B1603="Pending","",C1603/(VLOOKUP(B1603,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>2089.4686159502758</v>
+      </c>
+      <c r="K1603" s="10">
+        <f>IF(B1603="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1603,A:A,"&gt;="&amp;A1603-30,B:B,B1603)/(VLOOKUP(B1603,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>857.45134086200358</v>
+      </c>
+      <c r="L1603" s="13">
+        <f>IF(B1603="Pending","",(G1603/C1603)/(VLOOKUP(B1603,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>6.5205055252082262E-6</v>
+      </c>
+    </row>
+    <row r="1604" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1604" s="1">
+        <v>44069</v>
+      </c>
+      <c r="B1604" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1604" s="15">
+        <v>32579</v>
+      </c>
+      <c r="D1604" s="6">
+        <f t="shared" si="382"/>
+        <v>0.22109492171859413</v>
+      </c>
+      <c r="E1604" s="7">
+        <f t="shared" si="383"/>
+        <v>348</v>
+      </c>
+      <c r="F1604" s="6">
+        <f t="shared" si="384"/>
+        <v>0.17975206611570249</v>
+      </c>
+      <c r="G1604" s="15">
+        <v>16</v>
+      </c>
+      <c r="H1604" s="7">
+        <f t="shared" si="385"/>
+        <v>0</v>
+      </c>
+      <c r="I1604" s="6">
+        <f t="shared" si="386"/>
+        <v>9.7087378640776691E-3</v>
+      </c>
+      <c r="J1604" s="10">
+        <f>IF(B1604="Pending","",C1604/(VLOOKUP(B1604,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>3420.5541929848137</v>
+      </c>
+      <c r="K1604" s="10">
+        <f>IF(B1604="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1604,A:A,"&gt;="&amp;A1604-30,B:B,B1604)/(VLOOKUP(B1604,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1082.9987568875151</v>
+      </c>
+      <c r="L1604" s="13">
+        <f>IF(B1604="Pending","",(G1604/C1604)/(VLOOKUP(B1604,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>5.1563330253407487E-5</v>
+      </c>
+    </row>
+    <row r="1605" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1605" s="1">
+        <v>44069</v>
+      </c>
+      <c r="B1605" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1605" s="15">
+        <v>25792</v>
+      </c>
+      <c r="D1605" s="6">
+        <f t="shared" si="382"/>
+        <v>0.175035459067681</v>
+      </c>
+      <c r="E1605" s="7">
+        <f t="shared" si="383"/>
+        <v>275</v>
+      </c>
+      <c r="F1605" s="6">
+        <f t="shared" si="384"/>
+        <v>0.14204545454545456</v>
+      </c>
+      <c r="G1605" s="15">
+        <v>31</v>
+      </c>
+      <c r="H1605" s="7">
+        <f t="shared" si="385"/>
+        <v>1</v>
+      </c>
+      <c r="I1605" s="6">
+        <f t="shared" si="386"/>
+        <v>1.8810679611650484E-2</v>
+      </c>
+      <c r="J1605" s="10">
+        <f>IF(B1605="Pending","",C1605/(VLOOKUP(B1605,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>2940.3248128666569</v>
+      </c>
+      <c r="K1605" s="10">
+        <f>IF(B1605="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1605,A:A,"&gt;="&amp;A1605-30,B:B,B1605)/(VLOOKUP(B1605,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>949.28988510936153</v>
+      </c>
+      <c r="L1605" s="13">
+        <f>IF(B1605="Pending","",(G1605/C1605)/(VLOOKUP(B1605,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1.370209462714781E-4</v>
+      </c>
+    </row>
+    <row r="1606" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1606" s="1">
+        <v>44069</v>
+      </c>
+      <c r="B1606" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1606" s="15">
+        <v>22375</v>
+      </c>
+      <c r="D1606" s="6">
+        <f t="shared" si="382"/>
+        <v>0.15184624676796535</v>
+      </c>
+      <c r="E1606" s="7">
+        <f t="shared" si="383"/>
+        <v>281</v>
+      </c>
+      <c r="F1606" s="6">
+        <f t="shared" si="384"/>
+        <v>0.14514462809917356</v>
+      </c>
+      <c r="G1606" s="15">
+        <v>79</v>
+      </c>
+      <c r="H1606" s="7">
+        <f t="shared" si="385"/>
+        <v>0</v>
+      </c>
+      <c r="I1606" s="6">
+        <f t="shared" si="386"/>
+        <v>4.7936893203883495E-2</v>
+      </c>
+      <c r="J1606" s="10">
+        <f>IF(B1606="Pending","",C1606/(VLOOKUP(B1606,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>2624.571857551729</v>
+      </c>
+      <c r="K1606" s="10">
+        <f>IF(B1606="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1606,A:A,"&gt;="&amp;A1606-30,B:B,B1606)/(VLOOKUP(B1606,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>905.31600431661434</v>
+      </c>
+      <c r="L1606" s="13">
+        <f>IF(B1606="Pending","",(G1606/C1606)/(VLOOKUP(B1606,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>4.1415172159987336E-4</v>
+      </c>
+    </row>
+    <row r="1607" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1607" s="1">
+        <v>44069</v>
+      </c>
+      <c r="B1607" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1607" s="15">
+        <v>18710</v>
+      </c>
+      <c r="D1607" s="6">
+        <f t="shared" si="382"/>
+        <v>0.12697400120798355</v>
+      </c>
+      <c r="E1607" s="7">
+        <f t="shared" si="383"/>
+        <v>258</v>
+      </c>
+      <c r="F1607" s="6">
+        <f t="shared" si="384"/>
+        <v>0.13326446280991736</v>
+      </c>
+      <c r="G1607" s="15">
+        <v>170</v>
+      </c>
+      <c r="H1607" s="7">
+        <f t="shared" si="385"/>
+        <v>2</v>
+      </c>
+      <c r="I1607" s="6">
+        <f t="shared" si="386"/>
+        <v>0.10315533980582524</v>
+      </c>
+      <c r="J1607" s="10">
+        <f>IF(B1607="Pending","",C1607/(VLOOKUP(B1607,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>2089.6599248794623</v>
+      </c>
+      <c r="K1607" s="10">
+        <f>IF(B1607="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1607,A:A,"&gt;="&amp;A1607-30,B:B,B1607)/(VLOOKUP(B1607,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>786.94515396583063</v>
+      </c>
+      <c r="L1607" s="13">
+        <f>IF(B1607="Pending","",(G1607/C1607)/(VLOOKUP(B1607,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1.0147918259241909E-3</v>
+      </c>
+    </row>
+    <row r="1608" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1608" s="1">
+        <v>44069</v>
+      </c>
+      <c r="B1608" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1608" s="15">
+        <v>12248</v>
+      </c>
+      <c r="D1608" s="6">
+        <f t="shared" si="382"/>
+        <v>8.3120126498951494E-2</v>
+      </c>
+      <c r="E1608" s="7">
+        <f t="shared" si="383"/>
+        <v>187</v>
+      </c>
+      <c r="F1608" s="6">
+        <f t="shared" si="384"/>
+        <v>9.6590909090909088E-2</v>
+      </c>
+      <c r="G1608" s="15">
+        <v>322</v>
+      </c>
+      <c r="H1608" s="7">
+        <f t="shared" si="385"/>
+        <v>5</v>
+      </c>
+      <c r="I1608" s="6">
+        <f t="shared" si="386"/>
+        <v>0.1953883495145631</v>
+      </c>
+      <c r="J1608" s="10">
+        <f>IF(B1608="Pending","",C1608/(VLOOKUP(B1608,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1554.2397701633679</v>
+      </c>
+      <c r="K1608" s="10">
+        <f>IF(B1608="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1608,A:A,"&gt;="&amp;A1608-30,B:B,B1608)/(VLOOKUP(B1608,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>661.64322025080014</v>
+      </c>
+      <c r="L1608" s="13">
+        <f>IF(B1608="Pending","",(G1608/C1608)/(VLOOKUP(B1608,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>3.336134365560879E-3</v>
+      </c>
+    </row>
+    <row r="1609" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1609" s="1">
+        <v>44069</v>
+      </c>
+      <c r="B1609" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1609" s="15">
+        <v>6605</v>
+      </c>
+      <c r="D1609" s="6">
+        <f t="shared" si="382"/>
+        <v>4.4824333403459718E-2</v>
+      </c>
+      <c r="E1609" s="7">
+        <f t="shared" si="383"/>
+        <v>121</v>
+      </c>
+      <c r="F1609" s="6">
+        <f t="shared" si="384"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="G1609" s="15">
+        <v>488</v>
+      </c>
+      <c r="H1609" s="7">
+        <f t="shared" si="385"/>
+        <v>8</v>
+      </c>
+      <c r="I1609" s="6">
+        <f t="shared" si="386"/>
+        <v>0.29611650485436891</v>
+      </c>
+      <c r="J1609" s="10">
+        <f>IF(B1609="Pending","",C1609/(VLOOKUP(B1609,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1377.1979391030386</v>
+      </c>
+      <c r="K1609" s="10">
+        <f>IF(B1609="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1609,A:A,"&gt;="&amp;A1609-30,B:B,B1609)/(VLOOKUP(B1609,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>604.04881598508757</v>
+      </c>
+      <c r="L1609" s="13">
+        <f>IF(B1609="Pending","",(G1609/C1609)/(VLOOKUP(B1609,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1.5405313554977401E-2</v>
+      </c>
+    </row>
+    <row r="1610" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1610" s="1">
+        <v>44069</v>
+      </c>
+      <c r="B1610" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1610" s="15">
+        <v>3613</v>
+      </c>
+      <c r="D1610" s="6">
+        <f t="shared" si="382"/>
+        <v>2.4519351489280843E-2</v>
+      </c>
+      <c r="E1610" s="7">
+        <f t="shared" si="383"/>
+        <v>59</v>
+      </c>
+      <c r="F1610" s="6">
+        <f t="shared" si="384"/>
+        <v>3.0475206611570247E-2</v>
+      </c>
+      <c r="G1610" s="15">
+        <v>537</v>
+      </c>
+      <c r="H1610" s="7">
+        <f t="shared" si="385"/>
+        <v>4</v>
+      </c>
+      <c r="I1610" s="6">
+        <f t="shared" si="386"/>
+        <v>0.32584951456310679</v>
+      </c>
+      <c r="J1610" s="10">
+        <f>IF(B1610="Pending","",C1610/(VLOOKUP(B1610,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1632.1165113453103</v>
+      </c>
+      <c r="K1610" s="10">
+        <f>IF(B1610="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1610,A:A,"&gt;="&amp;A1610-30,B:B,B1610)/(VLOOKUP(B1610,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>707.41612420889999</v>
+      </c>
+      <c r="L1610" s="13">
+        <f>IF(B1610="Pending","",(G1610/C1610)/(VLOOKUP(B1610,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>6.7141265223280067E-2</v>
+      </c>
+    </row>
+    <row r="1611" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1611" s="1">
+        <v>44069</v>
+      </c>
+      <c r="B1611" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1611" s="15">
+        <v>215</v>
+      </c>
+      <c r="D1611" s="6">
+        <f t="shared" si="382"/>
+        <v>1.459081253859779E-3</v>
+      </c>
+      <c r="E1611" s="7">
+        <f t="shared" si="383"/>
+        <v>-2</v>
+      </c>
+      <c r="F1611" s="6">
+        <f t="shared" si="384"/>
+        <v>-1.0330578512396695E-3</v>
+      </c>
+      <c r="G1611" s="15">
+        <v>0</v>
+      </c>
+      <c r="H1611" s="7">
+        <f t="shared" si="385"/>
+        <v>0</v>
+      </c>
+      <c r="I1611" s="6">
+        <f t="shared" si="386"/>
+        <v>0</v>
+      </c>
+      <c r="J1611" s="10" t="str">
+        <f>IF(B1611="Pending","",C1611/(VLOOKUP(B1611,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v/>
+      </c>
+      <c r="K1611" s="10" t="str">
+        <f>IF(B1611="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1611,A:A,"&gt;="&amp;A1611-30,B:B,B1611)/(VLOOKUP(B1611,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v/>
+      </c>
+      <c r="L1611" s="13" t="str">
+        <f>IF(B1611="Pending","",(G1611/C1611)/(VLOOKUP(B1611,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="1612" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1612" s="1">
+        <v>44070</v>
+      </c>
+      <c r="B1612" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1612" s="15">
+        <v>7405</v>
+      </c>
+      <c r="D1612" s="6">
+        <f t="shared" ref="D1612:D1621" si="387">C1612/SUMIF(A:A,A1612,C:C)</f>
+        <v>4.963835392380965E-2</v>
+      </c>
+      <c r="E1612" s="7">
+        <f t="shared" ref="E1612:E1621" si="388">C1612-SUMIFS(C:C,A:A,A1612-1,B:B,B1612)</f>
+        <v>90</v>
+      </c>
+      <c r="F1612" s="6">
+        <f t="shared" ref="F1612:F1621" si="389">E1612/SUMIF(A:A,A1612,E:E)</f>
+        <v>4.9288061336254109E-2</v>
+      </c>
+      <c r="G1612" s="15">
+        <v>4</v>
+      </c>
+      <c r="H1612" s="7">
+        <f t="shared" ref="H1612:H1621" si="390">G1612-SUMIFS(G:G,A:A,A1612-1,B:B,B1612)</f>
+        <v>0</v>
+      </c>
+      <c r="I1612" s="6">
+        <f t="shared" ref="I1612:I1621" si="391">G1612/SUMIF(A:A,A1612,G:G)</f>
+        <v>2.390914524805738E-3</v>
+      </c>
+      <c r="J1612" s="10">
+        <f>IF(B1612="Pending","",C1612/(VLOOKUP(B1612,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>817.38846317722914</v>
+      </c>
+      <c r="K1612" s="10">
+        <f>IF(B1612="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1612,A:A,"&gt;="&amp;A1612-30,B:B,B1612)/(VLOOKUP(B1612,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>321.32583609843539</v>
+      </c>
+      <c r="L1612" s="13">
+        <f>IF(B1612="Pending","",(G1612/C1612)/(VLOOKUP(B1612,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>5.9626369807959864E-5</v>
+      </c>
+    </row>
+    <row r="1613" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1613" s="1">
+        <v>44070</v>
+      </c>
+      <c r="B1613" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1613" s="15">
+        <v>18194</v>
+      </c>
+      <c r="D1613" s="6">
+        <f t="shared" si="387"/>
+        <v>0.12196086580550881</v>
+      </c>
+      <c r="E1613" s="7">
+        <f t="shared" si="388"/>
+        <v>293</v>
+      </c>
+      <c r="F1613" s="6">
+        <f t="shared" si="389"/>
+        <v>0.16046002190580505</v>
+      </c>
+      <c r="G1613" s="15">
+        <v>1</v>
+      </c>
+      <c r="H1613" s="7">
+        <f t="shared" si="390"/>
+        <v>0</v>
+      </c>
+      <c r="I1613" s="6">
+        <f t="shared" si="391"/>
+        <v>5.977286312014345E-4</v>
+      </c>
+      <c r="J1613" s="10">
+        <f>IF(B1613="Pending","",C1613/(VLOOKUP(B1613,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>2123.6686217864544</v>
+      </c>
+      <c r="K1613" s="10">
+        <f>IF(B1613="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1613,A:A,"&gt;="&amp;A1613-30,B:B,B1613)/(VLOOKUP(B1613,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>856.40082873734286</v>
+      </c>
+      <c r="L1613" s="13">
+        <f>IF(B1613="Pending","",(G1613/C1613)/(VLOOKUP(B1613,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>6.4154979337557692E-6</v>
+      </c>
+    </row>
+    <row r="1614" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1614" s="1">
+        <v>44070</v>
+      </c>
+      <c r="B1614" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1614" s="15">
+        <v>32918</v>
+      </c>
+      <c r="D1614" s="6">
+        <f t="shared" si="387"/>
+        <v>0.22066108500526213</v>
+      </c>
+      <c r="E1614" s="7">
+        <f t="shared" si="388"/>
+        <v>339</v>
+      </c>
+      <c r="F1614" s="6">
+        <f t="shared" si="389"/>
+        <v>0.18565169769989048</v>
+      </c>
+      <c r="G1614" s="15">
+        <v>16</v>
+      </c>
+      <c r="H1614" s="7">
+        <f t="shared" si="390"/>
+        <v>0</v>
+      </c>
+      <c r="I1614" s="6">
+        <f t="shared" si="391"/>
+        <v>9.563658099222952E-3</v>
+      </c>
+      <c r="J1614" s="10">
+        <f>IF(B1614="Pending","",C1614/(VLOOKUP(B1614,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>3456.1466872732158</v>
+      </c>
+      <c r="K1614" s="10">
+        <f>IF(B1614="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1614,A:A,"&gt;="&amp;A1614-30,B:B,B1614)/(VLOOKUP(B1614,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1055.7006786722213</v>
+      </c>
+      <c r="L1614" s="13">
+        <f>IF(B1614="Pending","",(G1614/C1614)/(VLOOKUP(B1614,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>5.1032314731325191E-5</v>
+      </c>
+    </row>
+    <row r="1615" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1615" s="1">
+        <v>44070</v>
+      </c>
+      <c r="B1615" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1615" s="15">
+        <v>26072</v>
+      </c>
+      <c r="D1615" s="6">
+        <f t="shared" si="387"/>
+        <v>0.17476990729258141</v>
+      </c>
+      <c r="E1615" s="7">
+        <f t="shared" si="388"/>
+        <v>280</v>
+      </c>
+      <c r="F1615" s="6">
+        <f t="shared" si="389"/>
+        <v>0.1533406352683461</v>
+      </c>
+      <c r="G1615" s="15">
+        <v>32</v>
+      </c>
+      <c r="H1615" s="7">
+        <f t="shared" si="390"/>
+        <v>1</v>
+      </c>
+      <c r="I1615" s="6">
+        <f t="shared" si="391"/>
+        <v>1.9127316198445904E-2</v>
+      </c>
+      <c r="J1615" s="10">
+        <f>IF(B1615="Pending","",C1615/(VLOOKUP(B1615,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>2972.2452125100608</v>
+      </c>
+      <c r="K1615" s="10">
+        <f>IF(B1615="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1615,A:A,"&gt;="&amp;A1615-30,B:B,B1615)/(VLOOKUP(B1615,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>934.01369385144699</v>
+      </c>
+      <c r="L1615" s="13">
+        <f>IF(B1615="Pending","",(G1615/C1615)/(VLOOKUP(B1615,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1.3992197274976346E-4</v>
+      </c>
+    </row>
+    <row r="1616" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1616" s="1">
+        <v>44070</v>
+      </c>
+      <c r="B1616" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1616" s="15">
+        <v>22645</v>
+      </c>
+      <c r="D1616" s="6">
+        <f t="shared" si="387"/>
+        <v>0.15179750501075889</v>
+      </c>
+      <c r="E1616" s="7">
+        <f t="shared" si="388"/>
+        <v>270</v>
+      </c>
+      <c r="F1616" s="6">
+        <f t="shared" si="389"/>
+        <v>0.14786418400876233</v>
+      </c>
+      <c r="G1616" s="15">
+        <v>80</v>
+      </c>
+      <c r="H1616" s="7">
+        <f t="shared" si="390"/>
+        <v>1</v>
+      </c>
+      <c r="I1616" s="6">
+        <f t="shared" si="391"/>
+        <v>4.7818290496114767E-2</v>
+      </c>
+      <c r="J1616" s="10">
+        <f>IF(B1616="Pending","",C1616/(VLOOKUP(B1616,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>2656.2426687936941</v>
+      </c>
+      <c r="K1616" s="10">
+        <f>IF(B1616="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1616,A:A,"&gt;="&amp;A1616-30,B:B,B1616)/(VLOOKUP(B1616,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>892.41308121803593</v>
+      </c>
+      <c r="L1616" s="13">
+        <f>IF(B1616="Pending","",(G1616/C1616)/(VLOOKUP(B1616,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>4.143936441463163E-4</v>
+      </c>
+    </row>
+    <row r="1617" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1617" s="1">
+        <v>44070</v>
+      </c>
+      <c r="B1617" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1617" s="15">
+        <v>18935</v>
+      </c>
+      <c r="D1617" s="6">
+        <f t="shared" si="387"/>
+        <v>0.12692805287607506</v>
+      </c>
+      <c r="E1617" s="7">
+        <f t="shared" si="388"/>
+        <v>225</v>
+      </c>
+      <c r="F1617" s="6">
+        <f t="shared" si="389"/>
+        <v>0.12322015334063527</v>
+      </c>
+      <c r="G1617" s="15">
+        <v>171</v>
+      </c>
+      <c r="H1617" s="7">
+        <f t="shared" si="390"/>
+        <v>1</v>
+      </c>
+      <c r="I1617" s="6">
+        <f t="shared" si="391"/>
+        <v>0.10221159593544531</v>
+      </c>
+      <c r="J1617" s="10">
+        <f>IF(B1617="Pending","",C1617/(VLOOKUP(B1617,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>2114.7894536393701</v>
+      </c>
+      <c r="K1617" s="10">
+        <f>IF(B1617="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1617,A:A,"&gt;="&amp;A1617-30,B:B,B1617)/(VLOOKUP(B1617,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>778.1218972012407</v>
+      </c>
+      <c r="L1617" s="13">
+        <f>IF(B1617="Pending","",(G1617/C1617)/(VLOOKUP(B1617,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1.0086317326395613E-3</v>
+      </c>
+    </row>
+    <row r="1618" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1618" s="1">
+        <v>44070</v>
+      </c>
+      <c r="B1618" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1618" s="15">
+        <v>12403</v>
+      </c>
+      <c r="D1618" s="6">
+        <f t="shared" si="387"/>
+        <v>8.3141729063742217E-2</v>
+      </c>
+      <c r="E1618" s="7">
+        <f t="shared" si="388"/>
+        <v>155</v>
+      </c>
+      <c r="F1618" s="6">
+        <f t="shared" si="389"/>
+        <v>8.4884994523548737E-2</v>
+      </c>
+      <c r="G1618" s="15">
+        <v>325</v>
+      </c>
+      <c r="H1618" s="7">
+        <f t="shared" si="390"/>
+        <v>3</v>
+      </c>
+      <c r="I1618" s="6">
+        <f t="shared" si="391"/>
+        <v>0.19426180514046623</v>
+      </c>
+      <c r="J1618" s="10">
+        <f>IF(B1618="Pending","",C1618/(VLOOKUP(B1618,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1573.9088724147821</v>
+      </c>
+      <c r="K1618" s="10">
+        <f>IF(B1618="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1618,A:A,"&gt;="&amp;A1618-30,B:B,B1618)/(VLOOKUP(B1618,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>651.36452810651269</v>
+      </c>
+      <c r="L1618" s="13">
+        <f>IF(B1618="Pending","",(G1618/C1618)/(VLOOKUP(B1618,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>3.3251363388720413E-3</v>
+      </c>
+    </row>
+    <row r="1619" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1619" s="1">
+        <v>44070</v>
+      </c>
+      <c r="B1619" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1619" s="15">
+        <v>6719</v>
+      </c>
+      <c r="D1619" s="6">
+        <f t="shared" si="387"/>
+        <v>4.5039851453622826E-2</v>
+      </c>
+      <c r="E1619" s="7">
+        <f t="shared" si="388"/>
+        <v>114</v>
+      </c>
+      <c r="F1619" s="6">
+        <f t="shared" si="389"/>
+        <v>6.2431544359255201E-2</v>
+      </c>
+      <c r="G1619" s="15">
+        <v>497</v>
+      </c>
+      <c r="H1619" s="7">
+        <f t="shared" si="390"/>
+        <v>9</v>
+      </c>
+      <c r="I1619" s="6">
+        <f t="shared" si="391"/>
+        <v>0.29707112970711297</v>
+      </c>
+      <c r="J1619" s="10">
+        <f>IF(B1619="Pending","",C1619/(VLOOKUP(B1619,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1400.9678959626522</v>
+      </c>
+      <c r="K1619" s="10">
+        <f>IF(B1619="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1619,A:A,"&gt;="&amp;A1619-30,B:B,B1619)/(VLOOKUP(B1619,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>601.33820686951753</v>
+      </c>
+      <c r="L1619" s="13">
+        <f>IF(B1619="Pending","",(G1619/C1619)/(VLOOKUP(B1619,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1.5423228392941531E-2</v>
+      </c>
+    </row>
+    <row r="1620" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1620" s="1">
+        <v>44070</v>
+      </c>
+      <c r="B1620" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1620" s="15">
+        <v>3671</v>
+      </c>
+      <c r="D1620" s="6">
+        <f t="shared" si="387"/>
+        <v>2.4608021236232982E-2</v>
+      </c>
+      <c r="E1620" s="7">
+        <f t="shared" si="388"/>
+        <v>58</v>
+      </c>
+      <c r="F1620" s="6">
+        <f t="shared" si="389"/>
+        <v>3.1763417305585982E-2</v>
+      </c>
+      <c r="G1620" s="15">
+        <v>547</v>
+      </c>
+      <c r="H1620" s="7">
+        <f t="shared" si="390"/>
+        <v>10</v>
+      </c>
+      <c r="I1620" s="6">
+        <f t="shared" si="391"/>
+        <v>0.32695756126718467</v>
+      </c>
+      <c r="J1620" s="10">
+        <f>IF(B1620="Pending","",C1620/(VLOOKUP(B1620,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1658.3171085382323</v>
+      </c>
+      <c r="K1620" s="10">
+        <f>IF(B1620="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1620,A:A,"&gt;="&amp;A1620-30,B:B,B1620)/(VLOOKUP(B1620,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>704.25398316837493</v>
+      </c>
+      <c r="L1620" s="13">
+        <f>IF(B1620="Pending","",(G1620/C1620)/(VLOOKUP(B1620,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>6.731101487205618E-2</v>
+      </c>
+    </row>
+    <row r="1621" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1621" s="1">
+        <v>44070</v>
+      </c>
+      <c r="B1621" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1621" s="15">
+        <v>217</v>
+      </c>
+      <c r="D1621" s="6">
+        <f t="shared" si="387"/>
+        <v>1.4546283324060358E-3</v>
+      </c>
+      <c r="E1621" s="7">
+        <f t="shared" si="388"/>
+        <v>2</v>
+      </c>
+      <c r="F1621" s="6">
+        <f t="shared" si="389"/>
+        <v>1.0952902519167579E-3</v>
+      </c>
+      <c r="G1621" s="15">
+        <v>0</v>
+      </c>
+      <c r="H1621" s="7">
+        <f t="shared" si="390"/>
+        <v>0</v>
+      </c>
+      <c r="I1621" s="6">
+        <f t="shared" si="391"/>
+        <v>0</v>
+      </c>
+      <c r="J1621" s="10" t="str">
+        <f>IF(B1621="Pending","",C1621/(VLOOKUP(B1621,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v/>
+      </c>
+      <c r="K1621" s="10" t="str">
+        <f>IF(B1621="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1621,A:A,"&gt;="&amp;A1621-30,B:B,B1621)/(VLOOKUP(B1621,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v/>
+      </c>
+      <c r="L1621" s="13" t="str">
+        <f>IF(B1621="Pending","",(G1621/C1621)/(VLOOKUP(B1621,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="1622" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1622" s="1">
+        <v>44071</v>
+      </c>
+      <c r="B1622" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1622" s="16">
+        <v>7493</v>
+      </c>
+      <c r="D1622" s="6">
+        <f t="shared" ref="D1622:D1631" si="392">C1622/SUMIF(A:A,A1622,C:C)</f>
+        <v>4.968338693100819E-2</v>
+      </c>
+      <c r="E1622" s="7">
+        <f t="shared" ref="E1622:E1631" si="393">C1622-SUMIFS(C:C,A:A,A1622-1,B:B,B1622)</f>
+        <v>88</v>
+      </c>
+      <c r="F1622" s="6">
+        <f t="shared" ref="F1622:F1631" si="394">E1622/SUMIF(A:A,A1622,E:E)</f>
+        <v>5.3789731051344741E-2</v>
+      </c>
+      <c r="G1622" s="17">
+        <v>4</v>
+      </c>
+      <c r="H1622" s="7">
+        <f t="shared" ref="H1622:H1631" si="395">G1622-SUMIFS(G:G,A:A,A1622-1,B:B,B1622)</f>
+        <v>0</v>
+      </c>
+      <c r="I1622" s="6">
+        <f t="shared" ref="I1622:I1631" si="396">G1622/SUMIF(A:A,A1622,G:G)</f>
+        <v>2.3515579071134627E-3</v>
+      </c>
+      <c r="J1622" s="10">
+        <f>IF(B1622="Pending","",C1622/(VLOOKUP(B1622,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>827.1021950826439</v>
+      </c>
+      <c r="K1622" s="10">
+        <f>IF(B1622="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1622,A:A,"&gt;="&amp;A1622-30,B:B,B1622)/(VLOOKUP(B1622,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>319.22855307340268</v>
+      </c>
+      <c r="L1622" s="13">
+        <f>IF(B1622="Pending","",(G1622/C1622)/(VLOOKUP(B1622,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>5.8926100150532877E-5</v>
+      </c>
+    </row>
+    <row r="1623" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1623" s="1">
+        <v>44071</v>
+      </c>
+      <c r="B1623" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1623" s="16">
+        <v>18494</v>
+      </c>
+      <c r="D1623" s="6">
+        <f t="shared" si="392"/>
+        <v>0.12262705964260849</v>
+      </c>
+      <c r="E1623" s="7">
+        <f t="shared" si="393"/>
+        <v>300</v>
+      </c>
+      <c r="F1623" s="6">
+        <f t="shared" si="394"/>
+        <v>0.18337408312958436</v>
+      </c>
+      <c r="G1623" s="17">
+        <v>1</v>
+      </c>
+      <c r="H1623" s="7">
+        <f t="shared" si="395"/>
+        <v>0</v>
+      </c>
+      <c r="I1623" s="6">
+        <f t="shared" si="396"/>
+        <v>5.8788947677836567E-4</v>
+      </c>
+      <c r="J1623" s="10">
+        <f>IF(B1623="Pending","",C1623/(VLOOKUP(B1623,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>2158.6856926084802</v>
+      </c>
+      <c r="K1623" s="10">
+        <f>IF(B1623="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1623,A:A,"&gt;="&amp;A1623-30,B:B,B1623)/(VLOOKUP(B1623,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>858.15168227844413</v>
+      </c>
+      <c r="L1623" s="13">
+        <f>IF(B1623="Pending","",(G1623/C1623)/(VLOOKUP(B1623,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>6.311429080066641E-6</v>
+      </c>
+    </row>
+    <row r="1624" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1624" s="1">
+        <v>44071</v>
+      </c>
+      <c r="B1624" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1624" s="16">
+        <v>33196</v>
+      </c>
+      <c r="D1624" s="6">
+        <f t="shared" si="392"/>
+        <v>0.22011073169114478</v>
+      </c>
+      <c r="E1624" s="7">
+        <f t="shared" si="393"/>
+        <v>278</v>
+      </c>
+      <c r="F1624" s="6">
+        <f t="shared" si="394"/>
+        <v>0.16992665036674817</v>
+      </c>
+      <c r="G1624" s="17">
+        <v>16</v>
+      </c>
+      <c r="H1624" s="7">
+        <f t="shared" si="395"/>
+        <v>0</v>
+      </c>
+      <c r="I1624" s="6">
+        <f t="shared" si="396"/>
+        <v>9.4062316284538507E-3</v>
+      </c>
+      <c r="J1624" s="10">
+        <f>IF(B1624="Pending","",C1624/(VLOOKUP(B1624,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>3485.3346324418758</v>
+      </c>
+      <c r="K1624" s="10">
+        <f>IF(B1624="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1624,A:A,"&gt;="&amp;A1624-30,B:B,B1624)/(VLOOKUP(B1624,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1028.9275634995295</v>
+      </c>
+      <c r="L1624" s="13">
+        <f>IF(B1624="Pending","",(G1624/C1624)/(VLOOKUP(B1624,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>5.0604944460951997E-5</v>
+      </c>
+    </row>
+    <row r="1625" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1625" s="1">
+        <v>44071</v>
+      </c>
+      <c r="B1625" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1625" s="16">
+        <v>26304</v>
+      </c>
+      <c r="D1625" s="6">
+        <f t="shared" si="392"/>
+        <v>0.17441235951331102</v>
+      </c>
+      <c r="E1625" s="7">
+        <f t="shared" si="393"/>
+        <v>232</v>
+      </c>
+      <c r="F1625" s="6">
+        <f t="shared" si="394"/>
+        <v>0.14180929095354522</v>
+      </c>
+      <c r="G1625" s="17">
+        <v>33</v>
+      </c>
+      <c r="H1625" s="7">
+        <f t="shared" si="395"/>
+        <v>1</v>
+      </c>
+      <c r="I1625" s="6">
+        <f t="shared" si="396"/>
+        <v>1.9400352733686066E-2</v>
+      </c>
+      <c r="J1625" s="10">
+        <f>IF(B1625="Pending","",C1625/(VLOOKUP(B1625,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>2998.6935436431663</v>
+      </c>
+      <c r="K1625" s="10">
+        <f>IF(B1625="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1625,A:A,"&gt;="&amp;A1625-30,B:B,B1625)/(VLOOKUP(B1625,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>914.17744550161774</v>
+      </c>
+      <c r="L1625" s="13">
+        <f>IF(B1625="Pending","",(G1625/C1625)/(VLOOKUP(B1625,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1.4302186362643332E-4</v>
+      </c>
+    </row>
+    <row r="1626" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1626" s="1">
+        <v>44071</v>
+      </c>
+      <c r="B1626" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1626" s="16">
+        <v>22899</v>
+      </c>
+      <c r="D1626" s="6">
+        <f t="shared" si="392"/>
+        <v>0.15183502967211485</v>
+      </c>
+      <c r="E1626" s="7">
+        <f t="shared" si="393"/>
+        <v>254</v>
+      </c>
+      <c r="F1626" s="6">
+        <f t="shared" si="394"/>
+        <v>0.15525672371638141</v>
+      </c>
+      <c r="G1626" s="17">
+        <v>80</v>
+      </c>
+      <c r="H1626" s="7">
+        <f t="shared" si="395"/>
+        <v>0</v>
+      </c>
+      <c r="I1626" s="6">
+        <f t="shared" si="396"/>
+        <v>4.7031158142269255E-2</v>
+      </c>
+      <c r="J1626" s="10">
+        <f>IF(B1626="Pending","",C1626/(VLOOKUP(B1626,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>2686.0366912213203</v>
+      </c>
+      <c r="K1626" s="10">
+        <f>IF(B1626="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1626,A:A,"&gt;="&amp;A1626-30,B:B,B1626)/(VLOOKUP(B1626,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>879.62745742035384</v>
+      </c>
+      <c r="L1626" s="13">
+        <f>IF(B1626="Pending","",(G1626/C1626)/(VLOOKUP(B1626,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>4.0979711217491301E-4</v>
+      </c>
+    </row>
+    <row r="1627" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1627" s="1">
+        <v>44071</v>
+      </c>
+      <c r="B1627" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1627" s="16">
+        <v>19153</v>
+      </c>
+      <c r="D1627" s="6">
+        <f t="shared" si="392"/>
+        <v>0.12699665152670489</v>
+      </c>
+      <c r="E1627" s="7">
+        <f t="shared" si="393"/>
+        <v>218</v>
+      </c>
+      <c r="F1627" s="6">
+        <f t="shared" si="394"/>
+        <v>0.1332518337408313</v>
+      </c>
+      <c r="G1627" s="17">
+        <v>174</v>
+      </c>
+      <c r="H1627" s="7">
+        <f t="shared" si="395"/>
+        <v>3</v>
+      </c>
+      <c r="I1627" s="6">
+        <f t="shared" si="396"/>
+        <v>0.10229276895943562</v>
+      </c>
+      <c r="J1627" s="10">
+        <f>IF(B1627="Pending","",C1627/(VLOOKUP(B1627,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>2139.1371748378588</v>
+      </c>
+      <c r="K1627" s="10">
+        <f>IF(B1627="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1627,A:A,"&gt;="&amp;A1627-30,B:B,B1627)/(VLOOKUP(B1627,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>766.39478377995022</v>
+      </c>
+      <c r="L1627" s="13">
+        <f>IF(B1627="Pending","",(G1627/C1627)/(VLOOKUP(B1627,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1.0146453422960127E-3</v>
+      </c>
+    </row>
+    <row r="1628" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1628" s="1">
+        <v>44071</v>
+      </c>
+      <c r="B1628" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1628" s="16">
+        <v>12539</v>
+      </c>
+      <c r="D1628" s="6">
+        <f t="shared" si="392"/>
+        <v>8.3141597321221367E-2</v>
+      </c>
+      <c r="E1628" s="7">
+        <f t="shared" si="393"/>
+        <v>136</v>
+      </c>
+      <c r="F1628" s="6">
+        <f t="shared" si="394"/>
+        <v>8.3129584352078234E-2</v>
+      </c>
+      <c r="G1628" s="17">
+        <v>330</v>
+      </c>
+      <c r="H1628" s="7">
+        <f t="shared" si="395"/>
+        <v>5</v>
+      </c>
+      <c r="I1628" s="6">
+        <f t="shared" si="396"/>
+        <v>0.19400352733686066</v>
+      </c>
+      <c r="J1628" s="10">
+        <f>IF(B1628="Pending","",C1628/(VLOOKUP(B1628,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1591.1669234224746</v>
+      </c>
+      <c r="K1628" s="10">
+        <f>IF(B1628="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1628,A:A,"&gt;="&amp;A1628-30,B:B,B1628)/(VLOOKUP(B1628,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>636.77132321030206</v>
+      </c>
+      <c r="L1628" s="13">
+        <f>IF(B1628="Pending","",(G1628/C1628)/(VLOOKUP(B1628,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>3.3396724763083492E-3</v>
+      </c>
+    </row>
+    <row r="1629" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1629" s="1">
+        <v>44071</v>
+      </c>
+      <c r="B1629" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1629" s="16">
+        <v>6796</v>
+      </c>
+      <c r="D1629" s="6">
+        <f t="shared" si="392"/>
+        <v>4.5061830719755995E-2</v>
+      </c>
+      <c r="E1629" s="7">
+        <f t="shared" si="393"/>
+        <v>77</v>
+      </c>
+      <c r="F1629" s="6">
+        <f t="shared" si="394"/>
+        <v>4.7066014669926652E-2</v>
+      </c>
+      <c r="G1629" s="17">
+        <v>503</v>
+      </c>
+      <c r="H1629" s="7">
+        <f t="shared" si="395"/>
+        <v>6</v>
+      </c>
+      <c r="I1629" s="6">
+        <f t="shared" si="396"/>
+        <v>0.29570840681951793</v>
+      </c>
+      <c r="J1629" s="10">
+        <f>IF(B1629="Pending","",C1629/(VLOOKUP(B1629,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1417.0230422625664</v>
+      </c>
+      <c r="K1629" s="10">
+        <f>IF(B1629="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1629,A:A,"&gt;="&amp;A1629-30,B:B,B1629)/(VLOOKUP(B1629,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>592.789362735797</v>
+      </c>
+      <c r="L1629" s="13">
+        <f>IF(B1629="Pending","",(G1629/C1629)/(VLOOKUP(B1629,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1.5432566499883229E-2</v>
+      </c>
+    </row>
+    <row r="1630" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1630" s="1">
+        <v>44071</v>
+      </c>
+      <c r="B1630" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1630" s="16">
+        <v>3725</v>
+      </c>
+      <c r="D1630" s="6">
+        <f t="shared" si="392"/>
+        <v>2.4699134701455426E-2</v>
+      </c>
+      <c r="E1630" s="7">
+        <f t="shared" si="393"/>
+        <v>54</v>
+      </c>
+      <c r="F1630" s="6">
+        <f t="shared" si="394"/>
+        <v>3.3007334963325183E-2</v>
+      </c>
+      <c r="G1630" s="17">
+        <v>560</v>
+      </c>
+      <c r="H1630" s="7">
+        <f t="shared" si="395"/>
+        <v>13</v>
+      </c>
+      <c r="I1630" s="6">
+        <f t="shared" si="396"/>
+        <v>0.32921810699588477</v>
+      </c>
+      <c r="J1630" s="10">
+        <f>IF(B1630="Pending","",C1630/(VLOOKUP(B1630,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>1682.7107679937117</v>
+      </c>
+      <c r="K1630" s="10">
+        <f>IF(B1630="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1630,A:A,"&gt;="&amp;A1630-30,B:B,B1630)/(VLOOKUP(B1630,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>697.47796665296403</v>
+      </c>
+      <c r="L1630" s="13">
+        <f>IF(B1630="Pending","",(G1630/C1630)/(VLOOKUP(B1630,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v>6.7911753890471854E-2</v>
+      </c>
+    </row>
+    <row r="1631" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1631" s="1">
+        <v>44071</v>
+      </c>
+      <c r="B1631" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1631" s="16">
+        <v>216</v>
+      </c>
+      <c r="D1631" s="6">
+        <f t="shared" si="392"/>
+        <v>1.4322182806749992E-3</v>
+      </c>
+      <c r="E1631" s="7">
+        <f t="shared" si="393"/>
+        <v>-1</v>
+      </c>
+      <c r="F1631" s="6">
+        <f t="shared" si="394"/>
+        <v>-6.1124694376528117E-4</v>
+      </c>
+      <c r="G1631" s="17">
+        <v>0</v>
+      </c>
+      <c r="H1631" s="7">
+        <f t="shared" si="395"/>
+        <v>0</v>
+      </c>
+      <c r="I1631" s="6">
+        <f t="shared" si="396"/>
+        <v>0</v>
+      </c>
+      <c r="J1631" s="10" t="str">
+        <f>IF(B1631="Pending","",C1631/(VLOOKUP(B1631,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v/>
+      </c>
+      <c r="K1631" s="10" t="str">
+        <f>IF(B1631="Pending","",SUMIFS(E:E,A:A,"&lt;="&amp;A1631,A:A,"&gt;="&amp;A1631-30,B:B,B1631)/(VLOOKUP(B1631,Population!$A$2:$B$10,2,FALSE)/100000))</f>
+        <v/>
+      </c>
+      <c r="L1631" s="13" t="str">
+        <f>IF(B1631="Pending","",(G1631/C1631)/(VLOOKUP(B1631,Population!$A$2:$B$10,2,FALSE)/100000))</f>
         <v/>
       </c>
     </row>
